--- a/data/train.xlsx
+++ b/data/train.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="234">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -28,691 +28,694 @@
     <t>texts</t>
   </si>
   <si>
-    <t>GadiTaub1</t>
+    <t>mikihaimovich1</t>
+  </si>
+  <si>
+    <t>Israel_katz</t>
+  </si>
+  <si>
+    <t>orlybarlev</t>
+  </si>
+  <si>
+    <t>orikol</t>
+  </si>
+  <si>
+    <t>netanyahu</t>
+  </si>
+  <si>
+    <t>Ahmad_tibi</t>
+  </si>
+  <si>
+    <t>Irisleal15</t>
+  </si>
+  <si>
+    <t>AvishayBenHaim</t>
+  </si>
+  <si>
+    <t>realrafiperets</t>
+  </si>
+  <si>
+    <t>YaaraZered</t>
+  </si>
+  <si>
+    <t>Ron_Huldai</t>
+  </si>
+  <si>
+    <t>RTsipris</t>
+  </si>
+  <si>
+    <t>YoavKisch</t>
+  </si>
+  <si>
+    <t>EmilieMoatti</t>
+  </si>
+  <si>
+    <t>GYevarkan</t>
+  </si>
+  <si>
+    <t>Hubertdor</t>
+  </si>
+  <si>
+    <t>ivri99</t>
+  </si>
+  <si>
+    <t>BarashiKinneret</t>
+  </si>
+  <si>
+    <t>AmirHaskel</t>
+  </si>
+  <si>
+    <t>chaimlevinson</t>
+  </si>
+  <si>
+    <t>ilzoabi48</t>
+  </si>
+  <si>
+    <t>OfirAkunis</t>
+  </si>
+  <si>
+    <t>shireuven</t>
+  </si>
+  <si>
+    <t>amit_segal</t>
+  </si>
+  <si>
+    <t>elicoh1</t>
+  </si>
+  <si>
+    <t>BismuthBoaz</t>
+  </si>
+  <si>
+    <t>NirACohen77</t>
+  </si>
+  <si>
+    <t>noa_landau</t>
+  </si>
+  <si>
+    <t>AviNissenkorn</t>
+  </si>
+  <si>
+    <t>Syechimovich</t>
+  </si>
+  <si>
+    <t>yarivop</t>
+  </si>
+  <si>
+    <t>OferShelah</t>
+  </si>
+  <si>
+    <t>RavivDrucker</t>
+  </si>
+  <si>
+    <t>MakorRishon</t>
+  </si>
+  <si>
+    <t>AvigdorLiberman</t>
+  </si>
+  <si>
+    <t>KahlonMoshe</t>
+  </si>
+  <si>
+    <t>YuliEdelstein</t>
+  </si>
+  <si>
+    <t>noam_fathi</t>
+  </si>
+  <si>
+    <t>cabel_eitan</t>
+  </si>
+  <si>
+    <t>ZviHauser</t>
+  </si>
+  <si>
+    <t>marzel_ba</t>
+  </si>
+  <si>
+    <t>ariyederi</t>
+  </si>
+  <si>
+    <t>RanBaratz</t>
+  </si>
+  <si>
+    <t>mikiros1</t>
+  </si>
+  <si>
+    <t>AidaTuma</t>
+  </si>
+  <si>
+    <t>ronitlev12</t>
+  </si>
+  <si>
+    <t>mkgilon</t>
+  </si>
+  <si>
+    <t>StavShaffir</t>
+  </si>
+  <si>
+    <t>yakovahimeir</t>
+  </si>
+  <si>
+    <t>AyOdeh</t>
+  </si>
+  <si>
+    <t>arik3000</t>
+  </si>
+  <si>
+    <t>avidichter</t>
+  </si>
+  <si>
+    <t>IlanLukatch</t>
   </si>
   <si>
     <t>tadmorerez48</t>
   </si>
   <si>
-    <t>AvigdorLiberman</t>
+    <t>bezalelsm</t>
+  </si>
+  <si>
+    <t>moshefeiglin</t>
+  </si>
+  <si>
+    <t>YehudahGlick</t>
+  </si>
+  <si>
+    <t>mulisegev</t>
+  </si>
+  <si>
+    <t>YinonMagal</t>
+  </si>
+  <si>
+    <t>GadiAleks</t>
+  </si>
+  <si>
+    <t>misscorina2</t>
+  </si>
+  <si>
+    <t>LVertzhaizer</t>
+  </si>
+  <si>
+    <t>AmirOhana</t>
+  </si>
+  <si>
+    <t>Danmargalit</t>
+  </si>
+  <si>
+    <t>BenCaspit</t>
+  </si>
+  <si>
+    <t>zehavagalon</t>
+  </si>
+  <si>
+    <t>jonatanu</t>
+  </si>
+  <si>
+    <t>Shuli_MR</t>
+  </si>
+  <si>
+    <t>ErezZadok1</t>
+  </si>
+  <si>
+    <t>BarakRavid</t>
+  </si>
+  <si>
+    <t>UchovskyGal</t>
+  </si>
+  <si>
+    <t>haimhz</t>
+  </si>
+  <si>
+    <t>kahane_zadak</t>
+  </si>
+  <si>
+    <t>ettyatia</t>
+  </si>
+  <si>
+    <t>avivgeffen</t>
+  </si>
+  <si>
+    <t>steinitz_yuval</t>
+  </si>
+  <si>
+    <t>naftalibennett</t>
+  </si>
+  <si>
+    <t>elizipori</t>
+  </si>
+  <si>
+    <t>ShusterNoam</t>
+  </si>
+  <si>
+    <t>HavodaParty</t>
+  </si>
+  <si>
+    <t>ishmuli</t>
+  </si>
+  <si>
+    <t>rousso_tal</t>
+  </si>
+  <si>
+    <t>Ayelet__Shaked</t>
+  </si>
+  <si>
+    <t>OsnathilaMark</t>
+  </si>
+  <si>
+    <t>YotYotam</t>
+  </si>
+  <si>
+    <t>Riklin10</t>
+  </si>
+  <si>
+    <t>Tzipi_Livni</t>
+  </si>
+  <si>
+    <t>gantzbe</t>
+  </si>
+  <si>
+    <t>GilaGamliel</t>
+  </si>
+  <si>
+    <t>bardugojacob</t>
+  </si>
+  <si>
+    <t>Sachbak</t>
+  </si>
+  <si>
+    <t>itamarbengvir</t>
+  </si>
+  <si>
+    <t>NitzanHorowitz</t>
+  </si>
+  <si>
+    <t>rothmar</t>
   </si>
   <si>
     <t>Roy_Iddan</t>
   </si>
   <si>
-    <t>zehavagalon</t>
-  </si>
-  <si>
-    <t>YeshAtidParty</t>
-  </si>
-  <si>
-    <t>RanBaratz</t>
-  </si>
-  <si>
-    <t>Ron_Huldai</t>
-  </si>
-  <si>
-    <t>cabel_eitan</t>
-  </si>
-  <si>
-    <t>Rami_Hod</t>
-  </si>
-  <si>
-    <t>AidaTuma</t>
+    <t>NirBarkat</t>
+  </si>
+  <si>
+    <t>avishaigrinzaig</t>
+  </si>
+  <si>
+    <t>Idaneretz</t>
+  </si>
+  <si>
+    <t>FateenMulla</t>
+  </si>
+  <si>
+    <t>gontarzn</t>
+  </si>
+  <si>
+    <t>yoavgallant</t>
+  </si>
+  <si>
+    <t>MeravMichaeli</t>
+  </si>
+  <si>
+    <t>nadavabeksis</t>
+  </si>
+  <si>
+    <t>razibarcay</t>
+  </si>
+  <si>
+    <t>avribloch</t>
+  </si>
+  <si>
+    <t>Liberwomen</t>
+  </si>
+  <si>
+    <t>irmyshikblum</t>
+  </si>
+  <si>
+    <t>idanroll</t>
+  </si>
+  <si>
+    <t>dudiamsalem</t>
+  </si>
+  <si>
+    <t>regev_miri</t>
   </si>
   <si>
     <t>_Haim_Katz</t>
   </si>
   <si>
-    <t>yoavr</t>
-  </si>
-  <si>
-    <t>yairlapid</t>
-  </si>
-  <si>
-    <t>gantzbe</t>
-  </si>
-  <si>
-    <t>yakovahimeir</t>
-  </si>
-  <si>
-    <t>avidichter</t>
-  </si>
-  <si>
-    <t>UchovskyGal</t>
-  </si>
-  <si>
-    <t>gontarzn</t>
-  </si>
-  <si>
-    <t>BismuthBoaz</t>
-  </si>
-  <si>
-    <t>ariana_melamed</t>
-  </si>
-  <si>
-    <t>GYevarkan</t>
-  </si>
-  <si>
-    <t>zoharm7</t>
-  </si>
-  <si>
-    <t>dudiamsalem</t>
-  </si>
-  <si>
-    <t>Liberwomen</t>
-  </si>
-  <si>
-    <t>newyamin</t>
-  </si>
-  <si>
-    <t>Michal_Rozin</t>
-  </si>
-  <si>
-    <t>bezalelsm</t>
-  </si>
-  <si>
-    <t>marzel_ba</t>
-  </si>
-  <si>
-    <t>moshefeiglin</t>
-  </si>
-  <si>
-    <t>haggai_segal</t>
-  </si>
-  <si>
-    <t>meretzparty</t>
-  </si>
-  <si>
-    <t>YuliEdelstein</t>
-  </si>
-  <si>
-    <t>davidbitan</t>
-  </si>
-  <si>
-    <t>NirBarkat</t>
-  </si>
-  <si>
-    <t>mulisegev</t>
-  </si>
-  <si>
-    <t>Danmargalit</t>
-  </si>
-  <si>
-    <t>Syechimovich</t>
-  </si>
-  <si>
-    <t>HassonYoel</t>
-  </si>
-  <si>
-    <t>irmyshikblum</t>
-  </si>
-  <si>
-    <t>BenCaspit</t>
-  </si>
-  <si>
-    <t>ariyederi</t>
-  </si>
-  <si>
-    <t>bardugojacob</t>
-  </si>
-  <si>
     <t>BoazGolan</t>
   </si>
   <si>
-    <t>tamarzandberg</t>
-  </si>
-  <si>
-    <t>ivri99</t>
-  </si>
-  <si>
-    <t>mossi_raz</t>
-  </si>
-  <si>
-    <t>NirACohen77</t>
-  </si>
-  <si>
-    <t>realrafiperets</t>
-  </si>
-  <si>
-    <t>AmirOhana</t>
-  </si>
-  <si>
-    <t>YehudaGlick</t>
-  </si>
-  <si>
-    <t>AyOdeh</t>
-  </si>
-  <si>
-    <t>elizipori</t>
-  </si>
-  <si>
-    <t>GilaGamliel</t>
-  </si>
-  <si>
-    <t>OsnathilaMark</t>
-  </si>
-  <si>
-    <t>Riklin10</t>
+    <t>KalmanLiebskind</t>
   </si>
   <si>
     <t>YotamBecker</t>
   </si>
   <si>
-    <t>BarashiKinneret</t>
-  </si>
-  <si>
-    <t>chaimlevinson</t>
-  </si>
-  <si>
-    <t>OferShelah</t>
-  </si>
-  <si>
-    <t>galidalal</t>
-  </si>
-  <si>
-    <t>StavShaffir</t>
-  </si>
-  <si>
-    <t>ZviHauser</t>
-  </si>
-  <si>
-    <t>Israel_katz</t>
-  </si>
-  <si>
-    <t>naftalibennett</t>
-  </si>
-  <si>
-    <t>MeravMichaeli</t>
-  </si>
-  <si>
-    <t>EmilieMoatti</t>
-  </si>
-  <si>
-    <t>ErelSegal</t>
-  </si>
-  <si>
-    <t>YoavKisch</t>
-  </si>
-  <si>
-    <t>gidonsaar</t>
-  </si>
-  <si>
-    <t>YinonMagal</t>
-  </si>
-  <si>
-    <t>mikihaimovich1</t>
-  </si>
-  <si>
-    <t>NitzanHorowitz</t>
-  </si>
-  <si>
-    <t>YairGolan1</t>
-  </si>
-  <si>
-    <t>HavodaParty</t>
-  </si>
-  <si>
-    <t>raananshaked</t>
-  </si>
-  <si>
-    <t>kahane_zadak</t>
-  </si>
-  <si>
-    <t>ArielKallner</t>
-  </si>
-  <si>
-    <t>arik3000</t>
-  </si>
-  <si>
-    <t>Likud_Party</t>
-  </si>
-  <si>
-    <t>Ayelet__Shaked</t>
-  </si>
-  <si>
-    <t>ronitlev12</t>
-  </si>
-  <si>
-    <t>ettyatia</t>
-  </si>
-  <si>
-    <t>avribloch</t>
-  </si>
-  <si>
-    <t>ErezZadok1</t>
-  </si>
-  <si>
-    <t>Nefolet</t>
-  </si>
-  <si>
-    <t>avishaigrinzaig</t>
-  </si>
-  <si>
-    <t>ilzoabi48</t>
-  </si>
-  <si>
-    <t>noam_fathi</t>
-  </si>
-  <si>
-    <t>Sachbak</t>
-  </si>
-  <si>
-    <t>ruth_elbaz</t>
-  </si>
-  <si>
-    <t>erancherpak</t>
-  </si>
-  <si>
-    <t>steinitz_yuval</t>
-  </si>
-  <si>
-    <t>avivgeffen</t>
-  </si>
-  <si>
-    <t>Hubertdor</t>
-  </si>
-  <si>
-    <t>ShusterNoam</t>
-  </si>
-  <si>
-    <t>yarivop</t>
-  </si>
-  <si>
-    <t>AmirHaskel</t>
-  </si>
-  <si>
-    <t>rousso_tal</t>
-  </si>
-  <si>
-    <t>idanroll</t>
-  </si>
-  <si>
-    <t>RavivDrucker</t>
-  </si>
-  <si>
-    <t>asafzamir</t>
-  </si>
-  <si>
-    <t>YairNetanyahu</t>
-  </si>
-  <si>
-    <t>jonatanu</t>
-  </si>
-  <si>
-    <t>YotYotam</t>
-  </si>
-  <si>
-    <t>ravithecht</t>
-  </si>
-  <si>
-    <t>Irisleal15</t>
-  </si>
-  <si>
-    <t>giladerdan1</t>
-  </si>
-  <si>
-    <t>yayafink</t>
-  </si>
-  <si>
-    <t>orlybarlev</t>
-  </si>
-  <si>
-    <t>Tzipi_Livni</t>
-  </si>
-  <si>
-    <t>Shuli_MR</t>
-  </si>
-  <si>
-    <t>RTsipris</t>
-  </si>
-  <si>
-    <t>mkgilon</t>
+    <t>L</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coming soon   TomFitton John Durham Also Investigating Clinton Foundation in His Obamagate Probe  “The Clinton email investigation was corruptly han… dbongino John Durham reviewing FBI handling of Clinton Foundation investigation   GeorgePapa19 We don’t want the news about Mueller’s team wiping their phones while under investigation the Clinton foundation facing… לחקור הדלפות זה מאד מאד חשוב  itayABC YanivTurgi אין הבדל יש לאסור את שניהם כמו שכתבתי יותר מפעם YanivTurgi itayABC אף פעם לא הבנתי למה מי שמניף את דגל האנרכיסטים הדגל השחור אחר כך מתפלא שקוראים לו אנרכיסט ז…  OrenNahari אחת הסיבות שישראלים לא מקבלים חדשות של ממש מאמריקה היא שאתם שאמורים לתווך לנו אותן ממשיכים להסתמך על הטיימס OrenNahari הדרך היחידה להמשיך לחשוב שהניו יורק טיימס הוא עיתון עיתון היא להתעלם מזה שהעיפו את גיימס בנט ממכתב הה…  attilus לחסומים  תיבת  המחבר דיסלקט אין מה לעשות AmirOhana  ניסה לעצור את הדבר הנורא הזה הרשת לא שוכחת  taliaeinhorn 44 של בעלי הדין בהתחשב במשקלם הסגולי של אינטרסים אלה במקום זאת יש בתק 5 איזון עם האינטרס הציבורי הקורא בעצם לסיים… taliaeinhorn 34 הדין המהותי ותקנות סדר הדין ולהגיע לתוצאה הנכונה בין הצדדים להליך הוא לא אמור לעסוק באיזון אינטרסים  בספרו המכונן… taliaeinhorn 24 הציבורי לעניין זה אינטרס ציבורי – נגישות הציבור למערכת ביהמש לרבות קיומו של דיון משפטי צודק מהיר ויעיל חיסכון… YanivTurgi אני מתנגד להפגנות בבלפור ולכל התקהלות המונית בעת הזאת הכל כולל הכל מי שרואה את הסרטון הזה מבני ברק ושותק כשהתחלואה בישראל… ללמדכם שבתוך טיבת התהודה לא שומעים כלום חוץ מאישור לדעותיך הקדומות ולא יודעים כלום על הדברים שקובעים עכשיו את העתי…  ממש נתניהו רועד מפחד מהפגנות הנרקיסיזם שמשניאות את השמאל על הציבור   וזה לא עלה על דעתם שהוא יישפט על טיפול במגפ…  חבר כנסת שמעודד מסיבות הדבקה בבלפור שלא יטיף לנו מוסר על המחיר הכלכלי  WSJ Take an early look at the front page of The Wall Street Journal   BurtonJM Looks like JVP is not happy that there are consequences for platforming actual terrorists  stillgray Antifa in Seattle attempted to murder a police officer by hitting his head with a metal baseball bat as the Black Lives Matt… Nrg8000 THREAD Today after monthsyears of work ASPIICPC and I are able to launch the Xinjiang Data Project It currently has the… HaleviAmit בכחוללבן זועקים שאין להגביל את ההפגנות כי הן נשמת אפה של הדמוקרטיה  מבחינתם שהדֵּמוֹס ימות במגיפה הדמוקרטיה המהותית גם כ… לא יכול להיות תקראו מהר לנדב איל  אחד חלה בקורונה למרות שהוא היה בהפגנה בבלפור די איך זה יכול לקרות  omeryankelevitc עם 6700 נדבקים ביממה הגיע הזמן לומר די לדמוגוגיה למפגינים בדיוק כמו למתפללים  אין שום חסינות מהדבקות אותם כללי… AvielDabush בודק giladzw הפרויקטור אומר שנדבקים בהפגנות מנהלת המחלקה למחלות זיהומיות בשיבא קוראת לא להפגין פרופ ברבש אומר שצריך לסגור את ההפגנות  ש… אני קורא כל כך הרבה פרשנויות שלפיהן ההפגנות מזיקות לנתניהו והוא עושה הכל כדי להפסיקו אותן וואו באמת איך הן מזי…  OrenNahari פרובבלי זה יפה מה עם סרטנלי  AnshelPfeffer ברור שהיא לא תורמת לתחלואה 4000 איש שמזיעים אחד על השני לא מדביקים זה לא מזכיר קצת את התיאוריה שכדור הארץ שטוח Russian Collusion anyone  MrAndyNgo Portland BLMantifa rioters throw an incendiary device at police that erupts in huge flames PortlandRiots BLM  MrAndyNgo Another angle showing a rioter throwing a Molotov cocktail at PortlandPolice in downtown PortlandRiots antifa  MrAndyNgo The antifa mob in Portland cheer as one of their comrades hurls an incendiary device at PortlandPolice tonight PortlandR… 2000 איש בעל האש מותר איך אתם רוצים להגביל תפילות אם בהפגנות אתם מתירים 2000 איש  איפה הראש שלכם  כל ההתקהלויות תפילות והפגנות יכולות…  yehuday30 בסוגיית ההפגנות תומכי נתניהו צודקים   ההפגנות עצמן הן לא הסיפור  הסיפור הוא שהן הפכו את מגבלות הקורונה למגבלות עם כוכבית ועם… WhiteHouse At the urging of the radical left Big Tech platforms have become intolerant of diverse political views  evanatha WhiteHouse But Ali Khamenei promises of a second holocaust are fine right YanivTurgi תודה יניב שימחת אוטוטו 75K למה לא חותכים חד משמעית  עד סוף הסגר שום התקהלות משום סוג לא בתי כנסת לא הפגנות ולא סיאנסים כלום  עכשיו  ל…  אז הנה מה שיש לחכ עמית הלוי ליכוד לומר האופן שבו ניהל השופט מלצר את וועדת הבחירות ובתור מייסד המכללה למדינאות י…  JoshBreiner ברור כי מרגע לרגע הציבור יותר מתאהב בכם על האומץ שלכם לצפצף על כללי הזהירות ועל הסגר נראה לי שאם תק…  ובריאות הציבור זה לא שיקול בעיני כחול לבן    ErelSegal פוליטיקה קטנה על חשבון המלחמה במגפה  אבל היי העיקר היא נגד מושבי עור  BarashiKinneret בוקר טוב ברוך קרא  שמעתי שפנו אליך מרדיו גלי ישראל וביקשו את התייחסותך לאילן ישועה ולהדלפות   עוד שמעתי שהתנת את זה… מה שרוצים למנוע אחינו זה הפקרות של מסיבות הדבקה בזמן מקפה אלקטורלית המשך הטנטרום הנרקיסיסטי בבלפור רק מועיל לימ…  nedryun Just a reminder The Biden Center at the University of Penn is under fire this week over its alleged failure to disclose mill… RanBaratz עיתונאי השמאל הופכים לפתטיים מיום ליום הספין החדש המטרה של נתניהו היא לעצור את ההפגנות זה כל מה שמעניין אותו האמת בלי ל… sheffipaz היה דיון מטורף המשטרה מסרבת למסור את המידע שביקשנו על אכיפה בררנית איתמר העורך דין שלנו עשה להם בית ספר השופט דרש מהם להת… yhazony מזל טוב עוד חוזה שלום בדרך  LeeSmithDC Damning report from SenRonJohnson amp ChuckGrassley shows how Hunter Biden compromised US national security in business dea… גרסה פתוחה של המאמר שלי על מערכות האכיפה ומלחמתן נגד ישראל השנייה ובכלל מלחמתן של האליטות נגד הדמוקרטיה הישראלית…  2TTgtWQVE1zj6MO איזו מדינה יותר טובה ממנה זה יעלה לשמאל מאד ביוקר בקלפי הדבר הזה כי מילא הם היו מפגינים בעד הדמוקרטיה בזמן מגיפה שזה חמור מספיק אבל הם מפג…  arielschnabel נתון מדאיג לדמוקרטים משמעותי לא פחות ואף יותר מהסקרים הרישום לבחירות ברוב ארה״ב חייבים להירשם קודם בכדי להצביע בקרב… haggaisegal אם שארית המשק תושבת רק כדי לרצות את שרי כחול לבן שמתעקשים לסגור הכול לא רק את מחאת בלפור או את דרעי שמתעקש לפתוח את… LiberalRiWo תנו למנדלבליט להתערב גם ביחסי החוץ ונפתחת תוך שבוע מלחמה עם איחוד האמירויות ובחריין  אם אתם רוצים להבין מה קורה באמריקה עכשיו זה הספר בשבילכם מבט על על ההפיכה המתמדת נגד טראמפ  seanmdav Who among us hasnt gotten kicked out of the Navy for snorting cocaine knocked up a stripper preyed on a brothers widow a… AmirLevi81 הם באמת בטוחים שהם חברים במחתרת חשאית והירואית שנלחמת ברשע באמצעות ציוצים מבית קפה  כדור הארץ לדגלים השחורים האם שומעים עבור  MischakMilim GadiTaub1 פרטים כאן   AnshelPfeffer אנשיל אתה רוצה לקרוא לי מטומטם אז בוא נפסיק כאן המפה שלך פשוט שמה את המרכז במקום אחר ממני וגם הק…  הלוינסון הודיע שהפרוייקט האמרקאי נכשל קראתי את רשימת החטאים של אמריקה שהוא מנה באמת נורא   רק מה פחות נורא מבער…  AnshelPfeffer הימין היה מאד חלש בלמשול עם זה אני מסכים  אבל אין שמאל בישראל  אין שמאל בישראל חוץ משליטה כמעט גמ…  AnshelPfeffer זה לא עבש אנשיל זה תמיד רלוונטי לשמאל מותר לימין אסור כמו ששינו את מדיניות המעצרים בהפגנות אחרי…  OrakelMoor הן התחפשו לרות באדר גינזבורג yarivop AnshelPfeffer אתה גרת על הירח באותה תקופה יריב  היו בערך ש 6000 עצורים מנהלתיים אם זכרוני אינו מטעה אותי AnshelPfeffer אתה מתכוון השמאל נעצר כשהוא ניסה להפגין נגד ההתנתקות adhalperin מאז שקולומבוס גילה את אמריקה לא הייתה בעולם תגלית מפתיעה כמו זו  ArielKallner אנו נמצאים במדרון חלקלק להפוך מדמוקרטיה לאוליגרכיה משפטית ופקידותית בדיון בוועדת חוקה היום הצבעתי על המצב האבסורדי בו המ… שום אות קלון אתם רוצים לדרוש שלא יהיו הפגנות אל תאפשרו שום סוג של התקהלות זה לא משחק הסגר הזה  dudiamsalem עם ישראל ישב סביב שולחן החג עם המשפחה הגרעינית בלבד בלי ההוריםסביםסבתות אבל רק אדוני הארץ חבורת שמאל אנרכיסטי המשיכ… AnshelPfeffer למעשה כשימין אירגן הפגנות אז אסרו ילדות בנות 14 עצרו אוטובוסים ועשו הארכות מעצר בקבוצות לשום פוליטיקאי משדרות אסור להגביל הפגנות בזמן אזעקת צבע אדום כי לדחות הפגנה ב 40 שניות זו פגיעה בזכות ייסוד דמוקרט…  הקרן החדשה לשיסוי המיעוטים ברוב מטיפה על פילוג לא יודע אם זה ציניות או פשוט מודעות עצמית של עלה גרניום  Ruth Bader Ginsburg Didn’t Understand Her Job   שלום לכתבי חדשות החוץ אתם ערים כי נדמה לי ששווה להזכיר שקרה פה משהו לא מבוטל במיצוב הבחירות לנובמבר לא רוצה להפר…  הנה עוד משהו שקרה לאחרונה במלחמתו של טראמפ בפי סי נשיא אוניברסיטת פרינסטון במסגרת טקסי ההטהרות הכה על חזה של הא…  שזה חל רק על אגף אחד של הפי סי  תיאוריה ביקורתית בנושא גזע אבל זה האגף הרלוונטי אחרי מהומות בלאק לייבז מאטר זה…  ברייקינג  זה חתיכת בום  צו נשיאותי שאוסר אינדוקטרינציה פרוגרסיבית של כת הפי סי בכל רשויות הממשלה בצבא ובכל חב…  השמאל האמריקאי מדגים איך לא מנצחים במאבק פוליטי    Doranimated Finally We will now know the answer Also does Gal Gadot really have superpowers that she acquired…  Doranimated The Middle East experts got the region consistently wrong egregiously wrong and realDonaldTrump got it right What does… ErelSegal למי שאינו מאמין לפרופ ברבש זה המחקר של אוניברסיטת אוקספורד על הסיכון הרב בהפגנות   RanBaratz  אנחנו המונים מאות אלפים שיפילו את נתניהו  אבל קורונה אוסרים התקהלויות כולל תפילות   טוב מה אתה משווה תפילות זה ה… amitsegal מי שנלחם עכשיו נגד סגירת בתי הכנסת נאבק על זכותו לעודד מגיפה רק כדי שיוכל להתפלל בציבור את המילים ״מנע מגיפה מנחלתך״ CarolineGlick הדרך הטובה לבחון את זה הוא שמתנגדיו המשפטיים של מנדלבליט יפגינו מחוץ לביתו הוא לא יכול להתלונן כי הוא בניגוד עניינים כ… smadarshmueli יאיר גולן אני מתביישת שהיינו חברים באותה רשימה דמוקרטית עושה רושם שהחלטת להצליף בתקשורת הימין כדי שהדרוקרים ישלטו ת… navedromi בליכוד לפי מה שידוע לי נכנעו לכחלב ומשכו את חוות הדעת של בקשי אם זה נכון אז מדובר בנפולת של נמושות וכחלב הם סמרטוטים של… amitsegal רק דת אחת בעולם כולו דורשת את המשך הפולחן גם במחיר חיי אדם הדת היא רק לא ביבי ופולחנה  הפגנה שבועית בבלפור NissimSofer אשר להשתתפות גורם משפטי חיצוני בישיבת הממשלה אבקש להודיעך כי אני מתנגד בתוקף להשתתפותו של דר אביעד בקשי בדיון הכו… RanBaratz האם לא ברור לכולם שבממלכת המשפטנים ההפגנות הללו הן בעדם האם עדיין צריך להסביר למישהו שבתור התובעים הם נטולי אינטרס בערך… זה בלי ספק יהיה קרב מעניין אם טראמפ יבחר באיימי קוני בארט להחליף את רות גינזברג בעליון   Why Amy Coney Barrett is…  מיט רומני זה הבני בגין של הרפובליקנים    RealSaavedra Bill Clinton who picked RBG was impeached  אז מסתבר שאולי אקטיביזם שיפוטי זה לא כזה רעיון טוב בעיני השמאל פתאום איזה קטע  מצביעי טראמפ שמסתירים את דעותיהם    limorlaw טוב itamarkorem כל נשיא שהיתה לו הזדמנות עשה זאת היו 22 נשיאים כאלה חלקם מינו שופטים אחרי בחירות שהפסידו בהן ולפני שפינו את הבית הלבן kannnews חכ יפעת שאשאביטון לא הסכימה עם התחזית של פרופ גבי ברבש שעמדה על 600 חולים קשים גם כשהתברר שהוא צדק מהצדהשני עם guyzo… tuchfeld הממשלה וראש הממשלה האריכו את כהונתה של דינה זילבר מה yairkraus בדרך לבלפור מוודאים שכולם נדבקים  ofra27708991 זה אבא שלי המטפלת צילמה אותו ללא ידיעתו  אבא אדם דתי רצתה לשמח אותנו 5 ילדיו שהוא ״חוגג״ראש השנה כדת בצאת החג הפיד ה… IsraelHayomHeb ההפגנות יימשכו  לישיבת קבינט הקורונה הוזמן דר אביעד בקשי שייתן חוות דעת משפטית אחרת מזו של היועמש אביחי מנדלבליט לס… AlonGadot טוווווב Yishai2 ראש הממשלה מחליט על סדר היום בישיבת הממשלה היועמש לא מכח חוק אלא רק כי רהמ הכניס אותו אבל עכשיו היועמש הוא זה שיקבע את ס… Findparity AvishayBenHaim או ניידים ונייחים  כלומר פוסטלאומיים וגלובליסטים מול לאומיים ודמוקרטים יאיר שלנו הוא לא השאלה הכי מסובכת בנהיגה מונעת  YonatanJaku CarolineGlick כמעט אף פעם לא טוב שהחלטות ילכו לפי טהרנים אבל נתניהו צריך להאבק נגד מה שנראה כמו פוט…  TitaniaMcGrath Apparently when the Titanic was being evacuated there was a “women and children first” policy   Although this was disg… TitaniaMcGrath The best way to persuade people to come around to your point of view is to surround them in a mob and tell them what wo… עושה רושם שהדמוקרטים מלהיבים את עצמם לכדי אקסטזה סביב מינוי מחליפה לרות גינזבורג בעליון איומים בהעמסת בית המשפט…  CarolineGlick זה בדיוק אתה תופעה בהתנגדותם להחלת הריבונות טהרנות הם חיים בעולם של ערכים מוחלטים וכדי לשמור על ט…  ComfortablySmug INBOX  דריסת זכויות אדם במערכת האכיפה הישראלית זוועה ואבסורד   אני אתרגם לכם לעברית את הצעתו של קלמן ליבסקינד שנתניהו יפרוש תמורת ביטול ההליך הפלילי נגדו המלצה להיכנע לרעיון שהפ…  הם רוצים עוד קורונה אין שום הסבר אחר אם לא הם היו נוהגים באחריות ודוחים את ההפגנות לאחרי הסגר שום דמוקרטיה לא נ…  NRO Black Lives Matter Removes Language about Disrupting the Nuclear Family from Website   uTKJAbcp48zw3lJ היום שקעתי בדיכאון הפנמתי סוף סוף שאני חיה בצפון קוריאה מנדלבליט הוא טירן הוא שולט ומחליט לחיים ולמוות איך יוצאים… rightStudent1 נפתלי של פעם  אם מישהו חשב שמבחינת הרפובליקנים הרכבת הזאת תעצר לפני הצבעה במליאת הסנאט  אז לא  מנדלבליט שחוסה תחת צווי איסור פרסום גם משוכנע שהוא הבוס של כולנו ושכל מה שלא נראה לו הוא יכול לשים עליו מדבקה מנ…  Momokomo14 עד השולחן Here we go  יום הכיפורים מתקרב וזו ההזדמנות שלכם לבקש סליחה על שלא עשיתם מנוי לערוץ שומר סף ביו טיוב   לחלופין אתם יכולים…  qrFl9KBBj7X72jA מה שברור הוא שהחוק לא יופעל כנגד אלימות של נשים כלפי גברים  שלא לדבר על הגדלת האפשרויות לתלונות ש…  Eyalo365 אם זה היה קשקוש הייתם דוחים את הפגנות לאחרי הסגר אבל כמובן זה לא קשקוש המטרה היא כאוס לכן הדגלים השחורים דגלי האנרכיזם ITGuy1959 Whichever RNC staffer did this deserves a promotion     הרציונאל החדש של ההפגנות   משולחנו של דן שיפטן  נחישות אמריקנית במאבק באיראן   Yishai2 לגופו של עניין אני חושב שהפגנות בזמן מגפה זה הפקרות LindseyGrahamSC So how did your Monday start Stand with me against the mob   המערב הפרוע זה דרום תל אביב  מה שיפה במפלגת לא אשתוק כי ארצי שינתה את פניה זה שהם חושבים שהם עדיין קובעים למי יש לגיטימציה    RanBaratz לפני זמן מה הופיע אצלי תמיר דורטל הניח על השולחן אוסף של מיקרופונים אזניות ומכשירי הקלטה ופרץ באוסף שאלות נוקבות על הציונ… The forgotten counties will make their voices heard  מאתיים מיליון איש ימותו עד סוף הנאום של ביידן רוצו למקלט עכשיו  JHWalz32 Watch this again and again and share it again and again    Their rage has nothing on ours    Just vote—Zero debate  Chicago Us English Dept announced they will only accept applicants who want to work in or with Black Studies…  שומר סף 42 עם עוד נעמה סלע על הצעת החוק למניעת אלימות כלכלית שאוטוטו תעלה בוועדת חוק חוקה ומשפט באדיבות ניסנ…  rothmar זה די מבאס ש LikudParty מתגייס לכל איוולת שמעבירה עוד ועוד כח לבתי המשפט ולפקידות ואז בוכה על זה  NissimSofer YiftachDayan הם כבר שברו כל כך הרבה כללים שאני נוטה להתייחס ברצינות לאיום שלהם אבל כך או כך אין ש…  RonColeman Thats it All the things I was just literally shaking  NissimSofer YiftachDayan יתרה מזאת למיטב ידיעתי אין תקדים לזה שסנאט אוהד שיכול היה לאשר מינוי לא עשה זאת YiftachDayan ובינתיים  אפשר לקנות את זה ואפשר לא  מקונל טוען שצריך לחכות אחרי הבחירות כשיש מצב של עימות בין הנשי…  לרות גינזברג יש מסר בשבילכם לגבי מינוי שופטים בשנת בחירות  shiraaedri במשך רבע מאה השמאלנים טענו שהקריאות בוגד עלולות להוביל לרצח ועל כן הם האשימו את כל הימין ברצח רבין  ועכשיו הם מכנים את… Massive Fk Cuomo and de Blasio mural painted on Brooklyn street  via nypmetro alfiekohn RonCharles And which the Dems helped build a nuclear program that Trump is trying to stop shiraaedri miriambaram GadiTaub1 החוק כללי מדי ומותיר יותר מדי פרשנות לשוטר  קצין בתחנה ואחר כך לשופט הרי מה קצין בתחנת משטרה אמור… YairKannai ronitlev12 omeraricha GadiTaub1 קרן ברק  ליכודניקים חדשים  מרצ בתוך הליכוד שוב הנה נייר העמדה של פורום קפה שפירא בעניין החוק הזה מבית היוצר של קרן ברק  אבי ניסנקורן    ronitlev12 רוניתה מחכים שתשמיעי את קולך הערב יעלה שומר סף שלם על הנושא ובינתיים הנה הנייר של פורום קפה שפירא…  חברת הכנסת קרן ברק עשתה מעבר מהיר משירות כלוביסטית לחברות פרטיות ולבנקים לשירות הציבור   ניתוח שקוף מגלה כל הד…  EMaccabiTA  נייר העמדה של פורום קפה שפירא בנושא הצעת החוק למניעת אלימות כלכלית שיאפשר למערכת משפט פרוגרסיבית להפוך את עצמה לבו…  עדכון הדיון בחוק נדחה ל 20 באוקטובר אז יש לכם עוד זמן להביע בפני חברי המפלגה שאתם חברים בה או מצביעים לה את ד…  הארכת המינוי של דינה זילבר ימין חלש leale6 קרן ברק MeidanAri GadiTaub1 בגלל שאנחנו יודעים איך חוקים כאלו נאכפים הוא למעשה דהפאקטו הופך כל גבר נשוי או במערכת זוגית לעבד שתוצר עבודתו ל… Riklin10 זוועה למה הליכוד צריך לשרת את הטירלול מחר בעודכם יושבים בסגר לבטח עומד לעלות להצבעה מה שקרוי החוק למניעת אלימות כלכלית חכ קרן ברק מהליכוד יזמה עזב…  IsraelGaley ד״ר GadiTaub1 לtadmorerez48 ״אני חושב שההפגנות האלו יעלו ביוקר לשמאל בקלפי זה נכון גם לארה״ב הציבור כבר לא מאמין לתקש… bardugojacob בג״צ בדחיית העתירה כנגד מנדלבליט ״נסמכת כאמור על חלקי שיחות מדובר בקטעיקטעים של שיחות אשר רב הנסתר על הגלוי בהןלא… JoshBreiner גוש אתה עיתונאי ותיק אז אתה בטח יודע את ההבדל בין סיקור להשתתפות rothmar רק אומר שליועץ המשפטי לממשלה אסור על פי חוק לבקר בראיון את הממשלה ואת שריה  אבל חוק זה הדבר המיותר היה שמפריע לפקידים לשלוט… YinonMagal אם ההפגנה היא זכות יסוד בדמוקרטיה אז הנדבקים בקורונה הם בעצם קורבנות הדמוקרטיה clairlemon Reminder that Jack Dorsey CEO of Twitter recently donated 10million to this guy rothmar איזה מזל יש לנתניהו לא יאומן  כל תומכי המאבק חסר הפשרות בהשתלטות מערכת המשפט על מדינת ישראל כבר גמרו את הגרון בצעקות על קלמן… כשהקרן החדשה לדהציוניזציה מדברת על זה שדרוש אמון בהנהגה עוד דבר שנגע לליבי על הבוקר  כשוותיקי להקת המעודדות של בלפור מתלוננים שהסגר לא מספיק הדוק זה הכי נוגע לי ללב  ErelSegal אתם רואים את התמונות מירושלים והבטן מבעבעת  זמן סגר ואלפים במפגן נרקיסיזם אינפנטילי דוחה של שנאה עיוורת אבל זכרו את האם ממ… AdiVaknin6 וכאלה      אוי אני נקרא ממש גזעני  מוסיף גם את האשכנזים לאיזון  בנפרד  ונקרא עוד יותר גזעני  הניו יורק טיימס כבר לא עיתון  YanivTurgi יפעת שאשא ביטון בתגובה על בסיס אלו נתונים שר הבריאות הבריטי רוצה להטיל סגר מלא  היסטוריה קצרה של אנטיפה בחמש דקות  seanmdav You mean Barrett supported due process as required by the Constitution instead of field trials with no jury no defense and… ענקי האינטרנט שמנתבים ומצנזרים את המידע שכולנו צורכים הכריזו מלחמה על טראמפ מפני שהוא מאיים לנתק להם את צינורות…  כל זה מחזק את הימין  mclbgn חרדים מתנחלים מפגינים נגד אוסלו ונגד הגירוש מגוש קטיף היו יכולים לחלום על יחס כמו שמקבלת הקאסטה הפריבילגית מהמשטרה על פרומי… navedromi קלמן הוא מהעיתונאים הטובים בארץ והדעה שלו סופר לגיטימית ובאופן אישי אני חושבת שוויכוחים בתוך הימין זה נהדר לדעתי זו דעה של… andrewklavan A SCOTUS Justice dies GOP We will replace her according to the Constitution  TheDemocrats We will burn the country… שר החוץ של האמירויות מסביר שהתקינות הפוליטית עוד תהרוג את אירופה  Mickeygitzin השיטה של הקרן שלך היא הפרד ומשול  והפוליטיקה של הזהות כמובן  ובעקבות שאלתך על מה קרה שאני תומך לפתע…  YiftachDayan אם הוא למד משהו מ 4 השנים האחרונות זה שהדמוקרטים לא עוצרים ברמזורים אדומים ולכן  רק בכוח אין שום מש…  אם אתם רוצים לשמוע על האסון ההולך ומתרגש עליכם בדמות החוק למניעת אלימות כלכלית אתם מוזמנים להצטרף ממש תיכף 2100…  YiftachDayan לא זו לא טענה מתגרה או מתריסה אני מסכים שמקונל מפר את מילתו אבל אין פה שום עבירה לא על חוק ולא על…  YiftachDayan השאלה מה אני רוצה היא נפרדת השאלה האם מינוי שופט עכשיו הוא גנבה או איזו עבירה על הכללים  השאלה הפרג…  YiftachDayan לא יודע מה אבא שלך אומר אבל אין שום דבר לא חוקי ואפילו לא נהוג במה שמיטשל מתכנן לעשות ושאני מקווה…  מה שמצחיק זה שמולר תבע כל כך הרבה אנשים על שיבוש הליכי חקירה ואז הצוות שלו מחק את הטלפונים שהיו רכוש ממשלתי וסופקו…  YiftachDayan לגנוב איזה חוק או כלל יופר אם מיטשל יעביר בסנאט מינוי של שופט אלא אם כן אתה קורא גניבה פה להפרת המילה של עצמו NissimSofer Yanivamos3 amitaydror אבל יש נוהג ונוהג עובד כשמניחים שהצד השני ינהג בהדדיות אין שום סיכוי שהדמו…  Yanivamos3 NissimSofer amitaydror היו מינויים שנעשו ואף אושרו אחרי הבחירות אבל לפני כניסת הנשיא החדש כלומר ממש בדקה התשעים behi1954 לא שכחתי הם עשו מה שסנאט לעומתי בדרך כלל עושה הטיעון שלהם היה צביעות זה נכון אבל אין תקדים לזה שסנאט… </t>
+    <t xml:space="preserve">הצבענו כעת על מסקנות הביניים של וועדת הקורונה של הכנסת ממליצה לקרוא אותו  רק בשקיפות מלאה ובניהול אסטרטגיית עבודה…  hadarse costa1black Ahmadtibi אמרת לילה טוב לחברי הכנסת של יש עתיד תלם שישנים בשלווה בבית  2 מערכת הביטחון לתקופת החירום לא ייתכן שנמשיך לייבא פירות וירקות ממדינות אחרות בעוד התוצרת הישראלית מושמדת 1 מצד אחד אוכלוסיות חלשות שפשוט זקוקות לאוכל בריא וזמיןומצד שני חקלאות מקומית שקורסתמעבר לחוליי ובעיות החקלאות ה…  BoazEfrat חכ mikihaimovich1 בוועדת הקורונה עולות טענות בשטח מצד פרופסורים וחוקרים שאין שקיפות בפרסום הנתונים שקשורים לטיפול במגיפה… שאלתי בוועדת הקורונה את פרופ איתמר גרוטו מה הנתונים של קצב ההדבקה בחברה החרדית הוא ענה ששיעור ההדבקה הוא 14 לעומ…  אנשים צריכים יותר כסף ופחות הלוואות והמגזר הציבורי צריך לתת כתף דבריי מוועדת הקורונה הבוקר על הפערים בתכנית הכלכל…  טליה לנקרי מהמלל טענה שבשביל לבנות תכנית חלוקה הם מחכים למשרד הבריאות לבסוף סיכמה אני מקבלת את זה ואנחנו נשים את זה על השולחן פניתי הבוקר בוועדת הקורונה לטליה לנקריראש חטיבת עורף במלל כדי להבין איך אנחנו נערכים לחלוקת מסיכותיש כרגע הבנה ב…  ראש עיריית שפרעם ועורסאן יאסין ענה לי עכשיו בוועדת הקורונה שהם מרססים במרחב הציבורי כדי להרגיע את התושבים זאת למרו…  הבוקר בועדת הכנסת על  משבר הקורונהשאלתי את מנכל משרד האוצר שי באבד כיצד הם מתכוונים לסייע למגזר השלישי הארגונים…  HadadItzik yairlapid וואלה אבל זה מה שאתה וחבר מרעיך מפמפמים זחל התמוטט בחר ברוע לא הצלחה למאבק שלנו למען בעלי החיים בעקבות הפנייה למשרדי הבריאות והחקלאות הוחרגו אתמול השירותים החיוניים עבור רווחת…  תודה שלי על הראיה המפוכחת אכן צעד אמיץ ששומר על כל האופציות במציאות חסרת התקדים שאנו חווים בנימה אישית את חסרה ל…  כן  בדיוק ככה עובדים  NaomiAKlein This is a mustwatch Netanyahu has used the pandemic as cover for a massive authoritarian power grab If we arent ready… בלתי נתפס  מקומם היבוא ויש גם עוד אופציה  לקט ישראל  מעניין וחשוב ממליצה לקרוא את כל השרשור ובכלל ממליצה לעקוב אחרי נדב  IsraelMOH mkorlyfroman איפה ההנחיות שאושרו אתמול על ידי רוהמ בנוגע לחיות מחמד  TzipiLivni שיהיה ברור זה הרבה יותר חשוב מזהות יו״ר הכנסת זה על הזהות שלנו איפה ההנחיות לגבי בעלי חיים  אתמול טען ראש הממשלה שאישר חנויות מזון לבעלי חיים ווטרינרים  moshebst…  y1shaul OferShelah זה היה דיון פרוצדורלי לבחירת יור והנהגת סדרי עבודה ממחר תתחיל לעבוד בשביל זה באנו  מוזמן לעקוב ולהמשיך להעיר davidyagil OferShelah תהיה בריא התכנסנו היום לישיבה ראשונה של הועדה המיוחדת בכנסת לנושא מגיפת הקורונה ללא נציגות של הליכוד ימינה הבית היהודי וש…  עדכון הלחץ עזרבמסגרת תקנות שעת חירום בנושא הגבלות התנועה החדשות הובהר שההנחיה היא להחריג את מתן שירותי הווטרינרי…  33את שלומם לא תפקיר אותם לסבל ומוות ותעבור על חוקי צער בעלי חיים moshebst  zeevelkin  TzachiHanegbi  KahlonMoshe 23והפקרה של אלפי חתולי קהילה שהמאכילים שלהם לא גרים בסמוך ועלולים למות בצמא ורעבאני קוראת לאלו שבשעה זו שוקדים על…  13 אוהבי בעלי חיים– זה הזמן שלכם להזדעק מקבלת דיווחים על כך שההחמרה בצעדי הסגר עלולה להיות בעלת משמעות קשה לבעלי…  asafzamir אם במקביל תפסיק לייצר סרטונים שליליים נגד גנץ ותבקש מבריוני הרשת שלך להרגיע טיפה עם ההסתה זה גם יוכל אולי להיות אמין  עריצות הרוב חוזרת אליך כבומרנג אמר לנו עכשיו  חכ מיקי זוהר  זה בדיוק הרגע להזכיר את דבריו בכנסת ה 21  דמיינו…  שרים בממשלה קוראים שלא לקיים החלטות של בגצ לאן הגענו יש לנו רוב בכנסת והרוב הזה יפעל על מנת להניע את בית המחוקקי…  הקשיבו לדבריה של מירב הנפלאה אנא הפיצו ככל יכולתכם ובידקו כל אחד את השכנים הקשישים האם זקוקים למשהו  האם יש להם א…  amitsegal האם אתה רואה כאן התקהלות שדרשה חסימת כביש  יש לי סרטונים שרואים במפורש שלא היתה הפרעה לתנועה ועדיין עצ…  התמונות האלו הבוקר של חסימת אזרחים שרק רצו למחות מהרכב שלהם תוך שמירת הכללים המתבקשים מטרידות מאוד צעד אחר צעד תחת…  Benadam2019 היא לא סתם עיתונאית  מה שהילה יודעת מעטים הרופאים שיודעים ואני אומרת את זה מתוך היכרות ואחריות DaphnaLiel עשרות מכוניות עוכבו בדרך נחסמו  ונרשמו קנסות לנהגים  מי נתן את ההוראה  הליכוד מחזיק את הכנסת כבת ערובה תוך ניצול של מצב החירום אין להם רוב בכנסת אז הם סוגרים אותה אנחנו לא ניתן לזה לק…  NadavEyalDesk מאמר חשוב ביותר רק חבל שהעיתון בו פורסם לא בחר לקחת את המילים שצריכות לפתוח אין וירוס מסוכן יותר…  GLZRadio חכ mikihaimovich1 תוקפת אצל efitriger יולי אדלשטיין בתפקיד הביריון השכונתי מחזיק את הכנסת כבת ערובה talschneider בין מאי 2015 ליוני 2016 היו לממשלת הליכוד 61 ח״כים האם מישהו ניסה לטעון אז נניח יו״ר האופוזיציה IsaacHerzog  שהועדה… אז פנה אבל אדלשטיין שומע רק אדם אחד  נתניהו  אחוות המתבצרים בושה  מסר חשוב שמגיע מסין ומיועד לעולם ולארצות הברית במיוחד  הקטע המלא בדף הפייסבוק שלי  שופרות made in USA  עוד ילמד בחוגים לתקשורת יום אחד או שלא  lNxbE5mYXuOfgh6 אחלה  מסר לך דש Chapatack1 רק סובלים נשחטים במיליארדים ונאכלים בידי אנשים כמוך וממה התחילה הקורונה  Banboonsdum עשיתי אבל לא מסוג הדברים שיכולה לספר כאן  סליחה לא נסכים לשיתוק הכנסת הסירוב של הליכוד להקים את הועדות שתפקידן לפקח על פעילות הממשלה המשק והרשויות פוגע באזרחים ו…  הקדשתי היום את נאומי במליאת הכנסת למגזר שלם שלא מוזכר באף מסיבת עיתונאים על משבר הקורונה המגזר השלישי מגזר החמלה…  gantzbe כדי לפקח על התהליכים ולאשר תקנות נדרשות לעת הזו   ועדת החוץ והביטחון חייבת לקבל לידיה את כל המידע אודות הליכי המעקב שאושרו עו… חומר למחשבה ביום שבו ראשי מפלגות הימין מסרבים אפילו להיפגש עם האדם שקיבל מנדט להקים ממשלה בישראל וזה בעיצומו של משב…  akivanovick מה מה פתאום  363  הצטערתי מאוד לשמוע על התפטרותה של GermanYael1מי שאומר שבפוליטיקה אין חברים לא מכיר את יעל שהיתה לי מהרגע הראשון ב…  שמישהו יסביר איך כל ההוראות שניתנו לא חלות על ישיבות  האם זו ישות אקס טריטוריאלית   VladimirBeliak ראש ממשלת קנדה לא מסביר כיצד להתעטש לא מלמד מה זה טור גיאומטרי ולא מפיץ אימה  אף אחד לא צריך לדאוג לשכר דירה לרכישת… RonnyLinder החרגת הישיבות מסגירת מוסדות הלימוד היא משהו בין טעות איומה לשערוריה  גם מהותית בהנחה שמקצועית הוחלט שחיוני לסגור בתי ספר… וירוס הקורונה הרי לא מבדיל בין אנשים  שמאל ימין  מגדר ואמונה דתית  אם כפי שנתניהו מבקש לטובת ניהול המשבר נדרשת…  NadavEyalDesk הזוי  משבר בריאות לאומי אגדות של ליצמן  הסברים על טישו  יושב עם ישראל מחכה לדברים ברורים קצרים מקבל נאומים פוליטיים… הגיע הזמן פרסום דוח מקינזי מתחייב מזה זמן רב    בלתי נתפס  המין האנושי בשיא כיעורו  צודק בטחון תזונתי לאומי או כפי שנקרא בימים אלה של  משבר אקלים ריבונות תזונתית הוא אחד מהדברים החשובים ביותר בימינו…  אם למישהו עוד היה ספק היום המסיכה הורדה כאשר פורסמו תוצאות הבחירות הרשמיות נתניהו הבין סופית שהוא שוב הפסיד והחל…  zviashkenazi בכנות  לא לא מופרך שבחדשות 12 נאמרו בשעה האחרונה המילים אפליקציית N12 וצט הכתבים יותר מהמילה קורונה  חוששני שמדובר במגיפה ruthlessrousso peta AnimalsNow כרגע לא מצליחים לתפוס אותו הוא מבועת ובורח מחר ימשיכו כבר 24 שעות פעילי זכויות בעלי חיים מנסים להציל עגל מותש שניצל מהתהפכות משאית אתמול בערבהחייבים לעשות הכל כדי שהעגל…  gantzbe ההסתה לאלימות עוברת כל גבול אם לא נתעורר הרצח הפוליטי הבא מעבר לפינה  כמו בכל סוף שבוע כמה מילים ממני אליכם חשוב לי שתקרא… תודה רבה לכל אחד ואחת אוהבת אתכם ומעריכה מאוד  תמונות לפיד האש הערב ממתחם בזן  הרשויות ומפעל כרמל אולפינים מנסים להרגיע אבל התושבים מבועתים מול המראה המפחיד והר…  Izhars7 מה המשותף לבנימין נתניהו ולחכ היבה יזבק הם שניהם חברו יחד כדי לאשר את הצעת החוק התקדימית שפיזרה את הכנסת ה 21 במקום להחזיר א… talschneider בנוסף מי ומי היו התומכים בחוק בשנת 2008 ׳התפטרות ראש ממשלה עקב כתב אישום׳ תפתחו את התמונה להלן  לא מוותרים עד הרגע האחרון כי התל אביבים עוד יכולים לעשות את ההבדל  צאו להצביע   יש חתולים שבאים לקלפי להצביע פ ה  גם הם יודעים שאני אהיה הפה שלהם  האמת  חיפה חיפה עיר עם עתיד כחול לבן  Kachollavan19  asafzamir כשאתה לא זוכר את מי לבלף עכשיו  ShaniAshkenazi TheStinger5 אף אחת  כחול לבן כי הגיע הזמן  yairlapid  שקרניהו בית הקלפים זה כאן  מחר בוחרים בדרך אחרת כחול לבן  gantzbe מול מפיצי הרעל וצבא המכפישים  אני אפיץ תקווה  גם אתם מרגישים את הסחף ברחוב  כולם מבינים שאם הוא יקבל מנדט אחד יותר הוא ייש… זה הנתון המדהים שחייב להוציא מחר את התל אביבים להצביע  ShaniAshkenazi לא עומדת בזה מה יהיה עם העולם הזה asafzamir רק כדי שתבינו על מה אני מדבר הנה כמה דוגמאות רנדומליות מקלפיות במרכז העיר בבחירות ספטמבר תראו את אחוזי ההצבעה זה מחפיר ז… dannyharush דברי נתן אשל מוכיחים את המובן מאליו  אדם שגדל ברחביה למד באוניברסיטאות יוקרתיות בארהב שגר בוילה בקיסריה מרופד בפינוקי… ramshefa תקשיבו לגדי יברקן  אלוף סליחה  רב אלוף  gantzbe ביבי תפסיק להרעיל את ישראל לא ניתן לשנאה לנצח ShaiCohen13 גנץ מביס את נתניהו  OfirNiv NadavEyalDesk טפס על עץ אחר אני לא מגישת חדשות מ 2011 וגם אז דגלתי באסכולה המתמעטת שמגישי חדשות רצוי שיש…  OfirNiv NadavEyalDesk ומה בדיוק הבעיה  אגב בשנה שלפני שעברתי לא הייתי בכלל עיתונאית פעילה hadarse gantzbe חייבים להביס אותם Kachollavan19 ביבי בכירי מערכת הביטחון שעבדו איתך לא סומכים עלייך היועצים שלך הפכו לעדי מדינה נגדך כל מי שעבד איתך או עזב או יצא נג… מדהים  NadavEyalDesk תרשה לי לנחש במה איילה חסון תעסוק הערב את המכתב הזה מאבא לבנימין נתניהו האבא אתם חייבים לקרוא  LVertzhaizer אין לו אומץ להתראיין אצל דרוקר orlybarlev שישה ראשי מוסד ושבכ במסר חריג ויוצא דופן שלא נשמע כאן מעולם קודם כלפי ראש ממשלה נתניהו הוא סכנה מוחשית למדינת ישראל הדוב… כשהם אומרים את זה כדטי להקשיב ולהפנים  נתניהו מסוכן למדינת ישראל  ShaniAshkenazi amsterdamski2 התבטא שזו היתה טעות כבר אינספור פעמים  מאז תחת ממשלת נתניהו זה לא נעצר אלא גדל במימ…  amsterdamski2 ShaniAshkenazi הנושא המגדרי אפילו לא עבר לי בראש  וסרטון לגמרי יוזמה שלי gantzbe נתניהו למה הסתרת את זה שאישרת את מכירת הצוללות למצרים משר הביטחון משרד הביטחון הרמטכל צהל וכל גורמי המקצוע   על מה קיבל… AybeeBinyamin EtzionGuy micsve yairlapid Kachollavan19 אייבי הרעיון הוא שבניגוד למה שחושבים אני לא לבד בענין…  amsterdamski2 ShaniAshkenazi הפוך שאול הפוך לי דווקא נעים לגלות שהחפירות שלי עוזרות EladSi הפוך אלעד הפוך  קצת הומור gantzbe נתניהו כנראה שלא הספיק לך משפט על שוחד מרמה והפרת אמונים אין קווים אדומים אין גבולות מי שמקדם שיטות של מאפיה כדי לפגוע בי… יאיר כבר יודע ש ושיש לנו חלון של ושצריך לעבור ל ומוסר דש ל תראו בעצמכם  yairlapid  Kachollavan19  כל מילה  הכנס הגדול ביותר באיזור הצפון  קרית ביאליק הערב  בני גנץ בדברים מהלב אל הלב  עשרה ימים לבחירות אחד הדברים שהכי ממלאים אותי באופטימיות בתוך כל הלכלוך הפוליטי היא המחשבה על השינוי הכל כך משמע…  Zalul  מי יכניס את משבר האקלים לכנסת אתם ואנחנו נכניס אותו לממשלה הממשלה שלנו תתעסק במה שחשוב באמת כי המשבר הזה מחייב…  kannnews שר אוצר צריך לדעת כמה עולה לחם amsterdamski2 חושב שיש משהו הרבה יותר חשוב שניר ברקת לא יודע  לנהל תקציב של מיליארדים  BenCaspit אפשר לתאם שיגיעו לדרבי HaaretzS זה די הארץ מצידנו לפרסם מאמר שלישי בשלושה ימים על מחירם הסביבתי של תחליפי החלב אבל יש לנו חדשות רעות לכל שותי החלב ששמחים… ערב אדום ומתוק  כן אני בגיל שבו חשוב לי מאוד העולם שצפוי לילדי ולנכדיי לכשיגיעו ועל הדור הזה אני רוצה לדבר היום הדור שמסתכל אל ה…  יש לנו נשיא נהדר  תודה על תשדיר חשוב PresidentRuvi ruvirivlin   ישראל הרחק מאחור באנרגיה מתחדשת חייבים להתקדם  zionnenko ראש הממשלה שמכהן כבר 11 שנים רצופות גילה שמחירי המזון גבוהים מדי ומבטיח לטפל בזה מיד לאחר הבחירות הוא באמת חושב שאזרחי המד… Kachollavan19 לא שומעים אתכם מאחורה   Riklin10 ErelSegal netanyahu YinonMagal  באשקלון על האתגרים הסביבתיים המיוחדים של העיר והאיזור  דרישה לשימוע לחברת נובל אנרגי בעקבות הארועים החריגים והתקלות  מתבקש  קר  גשום  בחיפה בכנס כחול לבן חם ומלהיב gantzbe bogieyaalon  נכונים תמיד   תנועת הצופים מוציאה את הבשר מהתפריט ומבקשת מהמדינה להכריז על מצב חירום אקלימי   אז מה ביבי ואלקין סימנתם V על טו בשבט יופי אבל מה אתם עושים ביום שאחרי זה המבחן האמיתי זאת לא חוכמה לנטוע עצ…  השבוע נחגוג כולנו את טו בשבט חג אהוב עלי במיוחד שמחבר בינינו לבין הטבע אבל לצערי הבשורה שלי לחג הזה לא ממש משמחת…  gantzbe תיק 5000 של נתניהו נחשף  5000 איש מתים בישראל בכל שנה בגלל קריסת מערכת הבריאות אני מתחייב להפעיל תוכנית חירום למערכת הבריאות… בהחלט  אני שמחה שהלחץ הגדול שהפעלנו בועדת הכספים ובערוצים השונים השפיע ומיזם הביטחון התזונתי יתוקצב השאלה המתבקשת היא מדו…  הצליח לעשות כותרת אבל גם להראות לכולם שלא מבין את העולם שבו הוא מתנהל בבית ההשקעות הזה ממש לא הייתי שמה את הכסף שלי  עוד אחד מסימני השיתוק השלטוני  כ11 אלף משפחות לא מקבלות את התמיכה של המיזם הלאומי לבטחון תזונתי על מה מדובר 500…  יופי  gtgtgtביקשתי כבר אחרי מקרי ההתעללות הקודמים פגישה עם הרמטכל ואני מקוה שהיא תתאפשר בקרוב  צר לי להיחשף למקרה מזעזע וקשה נוסף של התעללות וגרימת סבל לבעלי חיים בצהלהנושא הזה דורש מצד אחד הסדרה מקיפה אשר תא…  חילי הוא מתנה לכל מי שמכיר אותו ועכשיו גם מתנת חיים למי שאינו מכיר איש נדיר  בוקר בנושא האתגרים הסביבתיים בעידן של משבר אקלים כרגיל אחת התעשיות  האחראיות ליותר פליטות גזי חממה קצת נשכחה שם ת…  בוקר טוב גדי לסביבה חוקים משלה   ועידת ישראל לסביבה  הדר סיטי טאואר  האם הצמחונים והטבעונים תורמים למאבק במשבר האקלים ובו בזמן מסבסדים את אוכלי הבשר  טור מעניין  ranmem  Zalul וואו עיתון הגרדיאן הודיע שלא יפרסם עוד פרסומות של תעשיה פוסילית מזהמת תארו לכם אם אצלנו לא היו מסכימים לפרסם יותר את פארסת ״לו… nosseihdegel1 פשוט מדהים לראות את השופרות זועקים במקהלה למה הגישו כתב אישום עכשיו כשנתניהו באמצע מהלך היסטורי יכלו לחכות יומיים… כל כך מעודד שיש מאבקים סביבתיים שמצליחים  ברכות וחיזוק לכל הארגונים הסביבתיים שהיו חלק מהמאבק ובמיוחד לעדי לוסטיג…  ובשורה התחתונה ממש בקרוב ראש ממשלה על ספסל הנאשמים  שוחדמרמההפרת אמונים   GilTevet urilev טריאתלון ספרינט  חוששת שלא מדובר פה בהישג מאוד מרשים urilev GilTevet עלית עלי   וזה גבירותי מדוע הסידרה fleabag היא הדבר הכי גאוני שמשודר היום בטלויזיה ומה שחשוב עוד לציין זה שלתחלואה ולמוות מהזיהום אלפי אנשים בשנה יש גם עלות כלכלית כבדה שאי אפשר להתעלם ממנה למרות…  ובתל אביב יעלה הכורת ממש בקרוב על עץ מפואר בן שבעים שנה   Galgush איזה חושך  אור גדול  ואת משתבחת אוהבתותך אפשר אחרת  צריך אחרת  ranmem הי רן  תודה שאתה מעלה נושא זה כפי שאתה יודע עסקתי בסוגיית הבטחון תזונתי בעבר וברורה לי המצוקה אפעל יחד ע…  כן  כי בדרך כלל הם ממש מגיעים בהמוניהם לדיונים  ramshefa כשאתם קמים בבוקר איזה אשל אתם מעדיפים  שבוע טוב  מדויק  העיקשות של הפריים טיים לעצום עיניים ולא לראות את המציאות שבמקרה גם משרתת את מוקדי הכח  גל גבאי ועיניה הבוע…  חוזרת עכשיו מפגישה עם פעילים בתל אביב הנאבקים נגד כריתת עצי פיקוס מפוארים בארלוזורוב  אצלנו האנימציה תיראה הפוך מ…  אמסטרדמסקי בשרשור מדויק מספיק להתעסק בפריימינג של הכתבה אלא במהות פניתי לשר האוצר לקבל תשובות …  שוב ערכי בנזן גבוהים הבוקר במפרץ חיפה עד מתי  אסור להפקיר תושבים לספוג זיהום אוויר חמור כל כך חייבים להתקדם  YonatanMakom אני על זה  22חייבים להתקדם ולפעול למען בריאות האזרחים מתוך ראיה מתקדמת של תכנון לטווח ארוך שימצא פתרון בכל הנושאים דיור ת…  12נכון החליטה הועדה המחוזית של איזור חיפה היום בעידן של חוסר ודאות אי אפשר לקדם תוכניות שעומדות בסתירה תכנית מ…  תודה אלי  aharonzvi צר לי  אני מבינה שיש לך רצון להתנגח בי על כל דבר אבל מדובר בתכנית לא שלי אלא של רמי רשות מקרקעי ישר…  ועדה מחוזית חיפה  דיון על תכנית מפרץ החדשנות מה יהיה כאן כשיוציאו את התעשיה הפטרוכימית שומעים פה דברים כמו פתר…  mitsmacher האמת שהפריע עדיין מפריע אני שמה לב שאתה קצת אובססיבי בענין  בשביל החינוך הבריאות  הרווחה בשביל הקשישים הצעירים העסקים הקטנים העצמאים והשכירים בשביל הסביבה התחבורה תשתי…  מייקרוסופט עוקפת את אמזון בהצבת אתגר נייטרליות פחמנית ומקימה קרן של  מיליארד דולר השקעה בחדשנות אקלימית BBC News …  בשעה טובה  המשרד להגנת הסביבה נעתר ומתחיל לפעול כנגד המפעל המזהם מוטב מאוחר מאשר אף פעם בריאות התושבים צריכה להי…  Money talks אולי עכשיו משהו יזוז   הפורום הכלכלי העולמי משבר האקלים מככב ברשימת הסיכונים המרכזיים לעשור הקרוב  ShaniAshkenazi כל כך מחכה לזה מה עובר על עקיבא  מי שלא עוקב אחריו באינסטגרם מפסיד  akivanovick  בקמפוסים בכל רחבי הארץ נערכו היום מיצגים במטרה להעלות את המודעות למשבר האקלים כל הכבוד למכללת עמק יזרעאל שהקדישה ב…  naamuli84 הכי טעים YuvalBilenko אולי זה יפתיע אותך אבל כבר שוחחתי עם ממ המנכל לתאם ביקור  ואתה ממשיך להתנשא  מנותקת אני לא  במיוח…  YuvalBilenko אבל בוא לא נהיה קטנוניים אני עונה לך בנימוס ובכבוד אתה ממשיך לענות בזלזול מתוך זוית הראיה הנאמנה של…  lfkZ9lzKaRJ8KFI לצערי זה מעיד על כך שלא הקשבת לכל מה  שאמרתי והסתפקת בכותרות חבל lfkZ9lzKaRJ8KFI עד שהתברר שאנחנו לא חולקים אותה עמדה פוליטית YuvalBilenko אני מבינה שבתור מנהל מרכז המבקרים של בזן אתה רגיל לאמר את הדברים האלה אבל במקרה הספציפי המדובר יש חר…  לא יודעת אם זה מחלק העיתונים או הממיין אבל מישהו החליט לחסוך ממני את הדברים המקוממים של הרברפי אז 7 ימים לא הגיע…  YuvalBilenko אני נצמדת לעובדות שעולות מניטור המשרד להגנת הסביבה עובדה שאתה מתעלם ממנה לפיה אותו מתקן מפיץ חומר…  כבר כמה ימים חריגות וזיהום מסוכן של החומר המסרטן בודאות בנזן במפעל הביטומן של בזן בחיפה שמייצר אספלט  מנהל המחוז…  lt2gt שיקבע אם את החזון שאנחנו מציבים נוכל גם להוציא לפועל עם כוח פוליטי חזק ונכון בשיתופי פעולה חוצי מפלגות וחוצי…  מתוך דברים שנשאתי הבוקר בכנס סביבה 2050  הצגת חזון ארוך טווח כפי שאנו עושים בוועידות מהסוג הזה היא חשובה וקריטית…  כנס סביבה 2050  מלון הילטון   מה נהיה   כמה עצב והרס ההערכה היא שכחצי מיליארד בעלי חיים נשרפו באוסטרליה  הרבה שאלו אותנו אבל מה יוצא לנתניהו מלהוציא את המדינה לעוד ועוד בחירות בזבזניות ומיותרות הערב קיבלתם תשובה  Kachollavan19 חסינות מה פתאום  הנה  לוז הוועדה המחוזית בחיפה ב201  ב1000 בבוקר דנים בתכנית למפרץ החדשנות שמבוססת על פינוי המפעלים המזהמים מאי…  אשמח להבהרות  מלפני שבוע  התוכנית נחשפת מפעלי מפרץ חיפה יועתקו לדרום  ובמקומם ייבנו 100 אלף דירות  נדלן  חדש…  שמחה שמכתב פוליטי הפכת לכתב סביבההיה חסר אצלכםלגוף העניין אתה טועה ומטעהמשבר האמון אליו התיחסתי בין תושבי איזו…   מוזמנות ומוזמנים להאזין לראיון מהבוקר בנושא מתוך הנאום שנשאתי הבוקר אל מול התושבים שהתפנו מאיזור אסדת לוויתן  מצב שבו אזרחים לא מאמינים לרשויות שאמורות לשמור…  הנישוב החל הבוקר התושבים מתפנים כי לא מאמינים אם התכנית הלאומית לבריאות וסביבה לא היתה תקועה אולי הדברים היו נראי…  כל הכבוד אבי  על פי תחזית מזג האויר צפויה מחר בזמן הנישוב רוח דרום מערבית  ממש לא מה שרצוי  מקוה שנביא בקרוב רוח חדשה בכל ההיבט…  עוד יוזמה מקומית ירוקה והפעםבית שמש שבראשה עומדת עליזה בלוך הנוסחא פשוטה  סביבה ירוקהאוויר נקיבריאותחיסכון כ…  gantzbe שנה עברה מאז כניסתי לפוליטיקה  לעשות טוב למדינת ישראל  זה ייעוד חיי  ShaniAshkenazi ממש שנת 2019  סיכום השנה מזוית משבר האקלים אז מה היה לנו </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ביום הכיפורים הזה נישא כולנו תפילה לשלומו בריאותו והצלחתו של עם ישראל בארץ ובעולם ושנזכה לשוב בקרוב ולהתפלל בקברי…  פער של 20 לרעת הלייקרס מול דנבר ברבע השלישי לחיצה על הדוושה וצימצום עד ל3 הפרש תוך מפגן הגנה מרהיב אבל סדרת החט…  אני מברך את נשיא המדינה ruvirivlin ונשיאת ביה״מ העליון אסתר חיות שהודיעו לי היום על הצטרפותם להחלטת הממשלה ביחס לנ…  איזה שלשת ניצחון ענקית של אנתוני דיוויס וLA לייקרס עשתה צעד ענק בדרך לגמר ואולי לאליפות הNBA דנבר קבוצה מצויינת זה עדיין לא נגמר  ברכות לרה״מ בנימין נתניהו על חתימת ההסכמים ההיסטורים עם אמירויות המפרץ ובחריין שלום נטו עם הרבה אינטרסים בטחוניים…  מדהים דנבר מביסה את LA קליפרס בחצי גמר המערב בNBA ג׳אמל מארי סופרסטאר סידרה או שתיים ולברון ג׳יימס יכול להוב…  בשורה טובה ובשורה מרגיעה  הבשורה הטובה לפי דו״ח הלמ״ס מהיום האבטלה באוגוסט ירדה ל98  רשת הבטחון עובדת מצויין…  כפי שהודעתי אתמול בישיבת הממשלה אביא בקרוב לממשלה החלטה על הפחתה בשכר השרים וחברי הכנסת כדוגמה אישית ותרומה למאבק…  החלטתי שלא להביא את נושא תרומת מקבלי השכר והפנסיות הגבוהות במגזר הציבורי למאבק בקורונה לישיבת הממשלה היום בשל הקדמ…  כמו שהתחייבתי אביא היום את נושא הנכים לאישור הממשלה במסגרת דיוני התקציב מדינת ישראל חייבת לחבק ולחזק את ציבור הנכ…  בהמשך לפגישתי אתמול עם ראש עירית שדרות הנחיתי את הנהלת האוצר להכין יחד עם משרד רה״מ הצעת מחליטים לממשלה על הארכת…  מישיבת הקורונה לNBA וחזרה צפייה לילית בנצחון הלייקרס על יוסטון 11 בסדרה הפוגה מהמשימות היומיות רבע שלישי מייא…  עם ידידי הטוב ראש עיריית שדרות אלון דוידי שעושה עבודה נפלאה בעיר בתחומי הדיור החינוך התשתיות ומתן תחושת בטחון לת…  450 אולמות אירועים הגישו עד כה בקשה למענקים על מאי  יוני וקיבלו בממוצע 100 אלף ש״ח חלקם קיבל גם 500 אלף ש״ח תוכנ…  נפגשתי הערב עם סגן שר האוצר האמריקאי מיטש סילק אשר ביקר בישראל דנו על המשך קידום פרוייקטים והגברת הקשרים הכלכליי…  מקבלי השכר הגבוה והפנסיות הגבוהות במגזר הציבורי נדרשים כעת לתת את חלקם לטובת המאבק בקורונה גם השרים החכי״ם השופט…  nadavabeksis ותודה לכל המפגינים על הגשרים טל מוצ״ש שרק מזכירים לנו איזו מהפכה בכבישי הארץ עשה כאן שר התחבורה Israelkatz בעשר שנותיו… 62 אלף עצמאים ובעלי עסקים הגישו עד כה את הבקשה למענק אישי עד 15 אלף ש״ח עבור החודשים מאייוני בניכוי המקדמה הכסף בבנק בתוך ימים מילוי התחייבויות הממשלה לציבור הנכים עומד בראש סדר העדיפויות שהצבתי לקראת הבאת התקציב המשלים לממשלה לפני הבטחון ל…  40000 עצמאים ובעלי עסקים כבר הגישו בתוך יומיים את הבקשה לקבלת מענק שכר דו חודשי עד 15 אלף ש״ח במסגרת רשת הבטחון ה…  אני שולח תנחומים למשפחת אוחיון ומביע צער מעומק ליבי על פטירת הרב שי אוחיון זצל שנרצח היום על ידי בן עוולה בצומת סג…  כעת אושרה בוועדת הכספים תוכנית האצה וסיוע נרחבת למשק בסך 72 מיליארד ש״ח שאותה הגשתי בתיאום עם רה״מ ושר הבטחון לט…  בליל אמש נפתח אתר משרד האוצר להגשת בקשות של עצמאים ובעלי עסקים לקבלת המענק האישי לשכר דוחודשי עד 15 אלף ש״ח לחודשי…  חתמתי היום בהמלצת רשות שוק ההון על צו המבטל את מס ניוד כספים מקופות גמל להשקעה  אני רואה חשיבות רבה בתכנון כלכלי…  הנחיתי את אנשי משרדי למצוא פתרון מהיר לנושא מימון הצהרונים שיאפשר להורים לילדים צעירים לשלוח את ילדיהם לצהרונים ול…  אני מביע צער עמוק על פטירת כלת פרס ישראל פרופ רות גביזון המשפטנית שכיהנה כנשיאת האגודה לזכויות האזרח גביזון היי…  simonarann ⁦⁩⁦⁩ השר ישראל כץ Israelkatz חושף  כעת אפשר לחשוף האישיות שאותה פגשתי בביקורי באבו דאבי⁦⁩ ביולי בשנה שעברה כשהי… מנאומי באו״ם בעיצומם של המגעים לקידום הסכם מדיני עם מדינות המפרץ וקידום חיבור המסילות בין מדינות המפרץ לנמלי חיפה…  נדהמתי מדבריו של סגן שר האוצר יצחק כהן נגד ח״כ אלכס קושניר ונגד העליה מרוסיה ואני מגנה אותם בכל תוקף העלייה ממדינו…  שלחתי איחולי בריאות והחלמה מהירה לרה״מ החליפי ושר הבטחון בני גנץ gantzbe  התרגשתי לראות את תפילת הבוקר שנשא לפני…  150 אלף עצמאים בעלי מחזור שנתי של עד 300 אלף ש״ח בשנה קיבלו כבר לחשבון הבנק את המענקים הכלולים בתוכנית רשת הבטחון…  בהמשך להחלטתי על פתרון ימי הבידוד לצוותים הרפואיים נחתם היום הסכם המורה על תשלום מיוחד לרופאים אשר נכנסו לבידוד עק…  כחלק מתוכנית ההאצה למשק סיכמנו על תכנית סיוע בגובה 11 מיליארד לתעשייה המשלבת עידוד השקעות לחיזוק התעסוקה התוכנית…  ביום ראשון אביא לממשלה תוכנית נרחבת לההאצה וקידום מהיר של תשתיות בתחומים שונים כמו תחבורה תקשורת תיירות תעשייה…  אני כואב את לכתו של גדול התורה חתן פרס ישראל הרב עדין אבן ישראל שטיינזלץ זצ״ל  שהביא למהפכה אמיתית בלימוד תורה ו…  כפי שהתחייבתי הקצנו למערכת הבריאות תוספת 2000 תקנים לאחיות ו400 לרופאים כדי לסייע בהתמודדות עם המגפה סוכם שימי ה…  רונית אישתי היקרה אוהב אותך כמו באותו היום ואפילו יותר ט״ו באב חג אהבה שמח  הבטחנו וקיימנו מענק לכל אזרח יצא לדרך הכסף עבור הילדים כבר בחשבון הבנק 30 אלף עצמאים שמחזורם השנתי עד 300 אלף ש״ח כבר הגישו בקשה לרשות המיסים לקבלת מענק עבור חודשי מאייוני בגובה שבין…  במענה לפנייתו של AvigdorLiberman לעצור מענקים לאסירים בטחוניים ובני משפחותיהם סעיפים כאלו בחוק שאושר פה אחד בועד…  יחד עם שר החינוך yoavgallant הגענו למתווה המתאים לפתיחת שנת הלימודים במועדה אני רואה בפתיחת שנת הלימודים בכלל  ו…  הכנסת אישרה הערב את תכנית רשת בטחון כלכלית 20202021 כמו שהבטחתי עם כניסתי לתפקיד לנציגי ארגוני הנכים קידמתי וה…  הודעתי לפני זמן קצר בוועדת הכספים כי יחולקו מענקים נוספים לחיילים בודדים משוחררים בגובה 4000 ש״ח  לא משאירים אף אחד מאחור לידיעה שבכירי האוצר שינו את עמדתם מתמיכה בתקציב מיידי לשנת 2020 לדחייה ומעבר לתקציב 2021 אין שום יסוד  משרד האוצר…  לצד המרצת המשק כפי שהבטחתי לא נשאיר אף אחד מאחור  סיכמתי עם חכ ettyatia כי תבוטל ההפחתה של 30 למובטלים או לשו…  החשב הכללי של משרד האוצר רוני חזקיהו הודיע לי כעת כי החליט לסיים את תפקידו בעוד כ3 חודשים הודיתי לו על העבודה המש…  אישרנו כעת בממשלה את תוכנית המענק לכל אזרח ומחר נביא לאישור הכנסת במטרה להעביר לכם את הכסף לחשבון בהקדם 830000 א…  פיטר גרין הגיטריסט המוערך ממייסדי להקת פליטווד מק הלך לעולמו גם בעולם מוכה אסון נזכור את תרומתו היחודית הנה שיר…  בהמשך למתווה האחיות שגיבשתי השבוע עם   אילנה כהן סיכמתי יחד עם ח״כ OfirKatzMK על תיקון חשוב המונע פגיעה בשכרם של…  מברך על מינוי פרו׳ רוני גמזו לפרוייקטור הקורונה מינוי מצויין אני מברך על סיום שביתת העובדים הסוציאליים כפי שהבטחתי לא נשאיר אף אחד מאחור סיכמנו על צעדים משמעותיים שישנו את מע…  סיכמתי על מענה מיידי בנושא מוגנות לעובדים סוציאליים בגובה 70 מיליון שח התחייבתי להביא פתרון לסוגיות שעל הפרק כפי…  מברך את חברת ׳ביג׳ על הודעתה שתיתן הנחה בדמי השכירות לעסקים ששוכרים בשל הירידה במחזורי הפעילות וקורא לכל החברות ב…  הודעתי היום בועדת הכספים שגם עסקים שמחזורם השנתי בין 100 ל 200 מיליון ש״ח שמחזורם נפגע ב 60 ומעלה ומ 200 עד 400 מ…  חכ מיקי זוהר פעם אחר פעם מנסה להכניס את הדעות הלוביסטיות שלו לדיוני הוועדה פעם ראשונה לטובת סוכני הביטוח וכעת ל…  דברי לח״כ מיקי זוהר באת להפריע לדיון ענייני בגלל אינטרס אישי של בן דוד שיש לו אולם חתונות זה מנוגד לעמדת ראש הממש…  אני מתנגד לניסיונות להחריג את ציבור הרווקים מתוך המענק המיוחד המתוכנן עליו החליטה הממשלה זו תהיה פגיעה קשה בחיילים…  בשורה חשובה לציבור העצמאים ובעלי העסקים המענק הדוחודשי עד 15 אלף ש״ח שינתן ב7 פעימות לזכאים במסגרת רשת הבטחון ה…  אמש קיימתי ישיבה עם שר התרבות והספורט ועם ראשי ענף הכדורגל והכדורסל כדי לוודא שפעילות הספורט בישראל תימשך אני רוא…  אז מי צדק ביחס לירידה באבטלה  אני עם מענק התעסוקה התחזיות ונתוני הגוגל או שרות התעסוקה והביטוח הלאומי  אני צדקת…  ראש הממשלה ואני הבטחנו שהכסף יכנס בצורה מהירה כבר השבוע כ400 אלף איש קיבלו היום הודעה על זכאותם למענקים אנחנו מב…  נפגשתי עם שר התקשורת yoazhendel1 דנו במספר רפורמות הקשורות במשרד התקשורת ובעיקר בקידום פרישת הסיבים האופטיים והתח…  רבים בציבור הישראלי נקלעו למצוקה כלכלית עקב מגפת הקורונה אני וחברי מחוייבים לעשות הכל כדי לחבק את כולם ולתת להם כל…  סיימתי כעת פגישה עם נציגי ענף התיירות הנכנסת היוצאת תיירות פנים וראשי השולמנים הקשבתי קשב רב למצוקות ולאתגרים שה…  הקרן לעסקים בסיכון החלה לעבוד  ב176 אושרה בועדת הכספים ולמחרת נישלחו ההנחיות לגופים המממנים  נכון להבוקר אושרו…  החלטתי היום להמשיך את תשלום כפל הקצבאות עד ה15 באוגוסט וזאת בהמשך להחלטה על הארכת מענק ההסתגלות לעובדים בני 67 ש…  השיחה המרגשת עם לינדה ממובילות מחאת התרבות אחרי ההחלטה על תוכנית הסיוע הגדולה בסך 2 מיליארד לעצמאים ובעלי העסקים…  החלטתי היום יחד עם רה״מ על תוכנית חדשה לסיוע למגזר העצמאים והמגזר העיסקי שתצא לפועל בימים הקרובים מטרת התכנית ש…  החלטתי יחד עם רהמ בנימין נתניהו להאריך את הזכאות לדמי אבטלה לזכאים עד אמצע אוגוסט במסגרת זו תוארך גם הזכאות למענ…  החלטת בעלי רשת פוקס למשוך דיוידנד גבוה לכיסו בעיתוי זה של שעת משבר ומצוקה ולאחר כל הסיוע שהוא וכלל המעסיקים  קיבל…  לאחר שקיימתי פגישה עם נציגי הסטודנטים ודנו בבעיות שאיתם הם מתמודדים בשל משבר הקורונה החלטתי לפעול מיידית יחד עם שר…  חתמתי כעת על התנגדותי להעלאת שיעור ההיטל על המלט  ובזאת תם הנושא המדיניות שלי ברורה אני נגד מונופלים ובעד הגברת…  שר הכלכלה עמיר פרץ הודיע לי היום שהוא ממליץ להעלות את ההיטלים על המלט המיובא ובכך להעלות את מחירו דבר זה מנוגד לחל…  בשעה טובה  אמשיך לדאוג ולסייע לאוכלוסיות מוחלשות  כעת כאשר נקבע מועד לפתיחת השמים ב 18 התיירות והתעופה האזרחית מתחילים לנוע זה הזמן לשחרר את עולם התרבות לפעילות…  נפגשתי הבוקר במסגרת G2G עם שר הפיתוח וההשקעות של יוון AdonisGeorgiadi דנו בחשיבות העמקת הקשרים הכלכליים בין מדינו…  התחייבתי  ביצעתי אתמול עבר בכנסת החוק שמאפשר מתן דמי אבטלה גם למקבלי קיצבאות בתקופת הקורונה  בעלות של 250 מ׳ ש״ח…  73 בעד מול 0 מתנגדים אלה תוצאות ההצבעה על החוק לעידוד התעסוקה במשק להחזרת המובטלים לעבודה שאושר הלילה בכנסת  א…  בכוונתי לקדם תחרות במשק כאמצעי חשוב להגברת הצמיחה והורדת יוקר המחיה הצעת החוק של ח״כ מיקי זוהר zoharm7 למנוע מחבר…  הודעתי אתמול על מתן מענק מיוחד גם לחודש יוני לבני 67 שלא חזרו עדיין לעבודה ואינם זכאים לדמי אבטלה לא נשאיר איש מ…  התעשייה מהווה נדבך חשוב בכלכלה הישראלית ועלינו לפעול על מנת לייצר לה את התנאים הנדרשים לתחרות נפגשתי הבוקר עם נשי…  שוחחתי כעת עם מקבילי הצרפתי BrunoLeMaire שהתקשר לברך אותי לרגל כניסתי לתפקיד שר האוצר דנו בענייני העמקת הקשרים הכ…  נפגשתי היום עם נגיד בנק ישראל אמיר ירון והבעתי את הערכתי הרבה לתרומתו למשק הישראלי ובפרט בזמן משבר הקורונה דנו במצ…  החלטתי בתיאום עם רה״מ בנימין נתניהו לתת מענק בסך 3500 ש״ח גם למעסיקים שהחזירו עובדים מחל״ת מה194 בדומה למי שה…  הערב הגעתי לסיכום על חבילת הסיוע לעולם התרבות על סך 200 מלש״ח המתווספים לצעדים הרוחביים בתכנית הסיוע למשק הדגשתי ב…  נפגשתי היום עם נציגי ארגוני הנכים בפתח הפגישה הבהרתי שהתחייבויות יש לקיים ובכוונתי לקיים את כל ההתחייבויות שניתנו…  נפגשתי היום עם שר התיירות asafzamir  מנכ״ל משרדו ויו״ר התאחדות המלונות סוכם על סיוע בסך 300 מ׳ למלונות כדי לעבור…  נפגשתי אתמול עם סגן השר פטין מולא ומ״מ מנכ״ל משרד רה״מ רונן פרץ עם מנהיג העדה הדרוזית השייח טריף ועם ועד ראשי העדה…  בהמשך למדיניות התחרות אותה אני מוביל אני שמח לבשר שחתמתי היום על צו המפחית את המכס על יבוא דגים מהלך זה יוביל באו…  הזמנתי את אביב לפגישה הבוקר במהלכה שיתף אותי בקשיים היחודיים של אנשי תעשיית המוזיקה מצאתי אומן שאכפת לו מאנשי התעש…  רציתי להגיע היום לבית המשפט המחוזי בים כדי להביע את תמיכתי ברה״מ בנימין נתניהו ואת אמונתי בחפותו ובכך שביה״ש יזכה…  עם סיום צום הרמדאן ברצוני לברך את אזרחי ישראל המוסלמים לרגל חג עיד אלפיטר  كل عام وأنتم بخير  חג שמח החלטתי היום להמשיך את הפחתת המכס על יבוא חמאה מחו״ל ולהמשיך את התחרות בענף החלב במטרה להביא להוזלת המוצרים והורדת י…  החלטתי למנות את קרן טרנראייל לתפקיד מנכ״לית משרד האוצר אני משוכנע שקרן שמונתה על ידי גם לתפקיד מנכ״לית משרד התחב…  נפגשתי הבוקר עם נציגי התאחדות אולמות האירועים שנענו לפנייתי והפסיקו לאלתר את שביתת הרעב שמעתי את המצוקות והחלטתנו…  שוחחתי כעת עם stevenmnuchin1 מזכיר האוצר של ידידתנו הגדולה ארה״ב שהתקשר כדי לברך אותי לרגל כניסתי לתפקיד שר האוצר…  עם כניסתי לתפקיד שר האוצר החלטתי לקצץ 10 ממשכורתי לאות הזדהות עם המצב במשק שבו כמיליון אזרחים נמצאים ללא מקום עבו…  On behalf of the People of Israel and myself I would like to convey my heartfelt condolences and deepest sympathy…  Ambassador Du was a distinguished career diplomat and during his short time in Israel had already contributed to th…  I was shocked to hear tragic news regarding the sudden death of HE Du Wei Ambassador of the People’s Republic of…  מדוע באמת עוכבו ישראלים במרוקו ולא פנטזיות אלף לילה ולילה  אני גאה במבצע חסר התקדים שיזמתי לחילוץ אלפי ישראלים מכל…  השתתפתי היום בפגישת וידיאו שיזם מזכיר המדינה האמריקאי SecPompeo בנושא המאבק בקורונה יחד עם שרי החוץ של יפן הודו…  Today I joined a video conference on the COVID19 crisis with other Foreign Ministers initiated by US Sec of State…  I send my deepest sympathies to the families of the victims of the VizaGasLeak and wish a speedy recovery to those…  שוחחתי כעת עם שר החוץ של אסטוניה UrmasReinsalu 🤝 ברכתי את מדינת אסטוניה על תפקידה הנוכחי כנשיאת מועצת הבטחון ו…  הבוקר שוחחתי טלפונית עם שר החוץ היווני NikosDendias 🤝 דנו בשיפור מצב הקורונה במדינותינו ועל המשך שיתוף פעולה כ…  I spoke today with the German Foreign Minister HeikoMaas amp thanked him for his governments decision to outlaw Hez…  שוחחתי כעת עם שר החוץ הגרמני HeikoMaas והודתי לו על החלטת ממשלת גרמניה להוציא את ארגון הטרור חיזבאללה מחוץ לחוק ו…  Желаем премьерминистру РФ Михаилу Мишустину скорейшего выздоровления  We wish Russian Prime Minister Mishustin a…  🤝  I applaud the German govt for the decision to designate Hezbollah a terror organization In my conversations with…  אני מברך את ממשלת גרמניה על ההחלטה החשובה להוציא את ארגון הטרור חיזבאללה מחוץ לחוק  אני קורא למדינות אירופה נוספ…  Mazal Tov to BorisJohnson and carriesymonds on the birth of their son Wishing you health and happiness from all of Israel    להרגיש ישראלי זה לראות את עידן רייכל מודה  לחיילי צה״ל וכוחות הבטחון ודומע מהתרגשות ואת שאר מדליקי המשואות המייצגים…  שבת שלום  أتمنى للمسلمين رمضان كريم اتقدم اليكم بالتهاني بالنمو والازدهار  300 years ago today one of Judaism’s greatest religious thinkers the Vilna Gaon was born in Vilnius His legacy amp…  I send my condolences to the families of all those affected in Canada by the horrific shootings in Nova Scotia The…  ביום שישי השגנו פריצת דרך כאשר שגרירנו בסין צבי חפץ הגיע לסיכום עם הנהלת חברת BGI שמשלוח ראשון של מערכת בדיקת קורו…  After Hezbollahs attempts to violate Israeli sovereignty on our Lebanese border I instructed IsraelMFA to file a…  נוכח הניסיון הפרובוקטיבי של חיזבאללה לפגוע בריבונות הישראלית באמצעות פריצות בגדר הגבול בין לבנון לישראל הוריתי למש…  אני מצר עמוקות על פטירתו של הראשון לציון הרב הראשי לשעבר אליהו בקשידורון זצ״ל חבל על דאבדין של ענק בתורה ובחסד…  He hablado con Ministra Exteriores AranchaGlezLaya sobre crisis COVID y de ideas para la coop hispanoisraelí par…  I spoke today with Spanish Foreign Minister Arenza Gonzalez AranchaGlezLaya about the Covid19 crisis and ideas fo…  שוחחתי היום עם שרת החוץ של ספרד   AranchaGlezLaya ארנצ׳ה גונזלס על ההתמודדות עם משבר הקורונה בישראל ובספרד ועל אפש…  חבריי היקרים שימרו על עצמכם ושימרו על יקיריכם אני מאחל לכם ולכל עם ישראל חג פסח שמח וכשר והרבה בריאות והצלחה   משרד החוץ פועל בכל דרך ומקום להחזרת אלפי מטיילים מחול הביתה ישראלים רבים כבר חזרו לחיק משפחותיהם ויחגגו את הפסח ב…  Ich habe heute mit dem deutschen Außenminister HeikoMaas telefoniert amp ihm für die Unterstützung bei der Evakuieru…  I spoke with German Foreign Minister HeikoMaas today I thanked him for Germany’s efforts to bring Israeli citizen…  שוחחתי כעת עם שר החוץ הגרמני HeikoMaas והודיתי לו על הסיוע שהעמידה ממשלת גרמניה לטובת חילוץ ישראלים מחו״ל בשיחה ס…  Our thoughts are with British Prime Minister BorisJohnson this evening We are praying for his speedy recovery אני מברך את צוות שגרירות ישראל ביפן על הצלחתם להביא לישראל משלוח ראשון של התרופה אביגן שהתגלתה כמענה יעיל לטיפול ב…  תודות ליוזמה משותפת של משרד החוץ שגרירות ישראל בקהיר וארגונים יהודים השבוע הועברו מישראל למצרים מצות ומוצרים כשרי…  במבצע משותף של משרדי החוץ והבטחון אלעל וכיל רכבת אווירית של 11 מטוסי אלעל מביאה מסין לישראל ציוד רפואי חיוני בהנ…  אני מברך את קייר סטארמר על היבחרו למנהיג מפלגת הלייבור בבריטניה  אני מקווה שיקיים את הבטחתו להילחם באנטישמיות שצמח…  I congratulate KeirStarmer on his election to lead the UK Labour Party   I hope he will live up to his promise t…  KeirStarmer   I congratulate KeirStarmer on his election to lead the UK Labour Party   I hope he will live up…  מתגעגעים ללירי הנכדה המתוקה ולכל המשפחה אבל כמוכם כמונו נשמעים להוראות אוהבים ומחבקים מרחוק הרבה בריאות ושבת של…  לאחר הניצחון בבחירות ולקראת הקמת ממשלה חדשה הנה סרטון קצר לתזכורת על 11 שנות פעילותי בממשלות נתניהו במשרדי התחבור…  Today our close ally in the Balkans the Republic of North Macedonia officially joins NATO I congratulate Foreign…  אלה הישראלים שהוטסו מבוליביה לברזיל במבצע מורכב שנערך בסיוע צבא בוליביה ובתיאום עם ממשלת בוליביה עימה חידשנו לאחרו…  We wish UK Prime Minister BorisJohnson a speedy recovery from the Coronavirus We wish HRH Prince Charles a speedy recovery and good health  הערבות ההדדית נמשכת טיסה ישירה של ׳אל על׳ יצאה לקולומביה בהכוונת משרד החוץ להביא את 150 הישראלים חזרה ארצה בשל…  newsisrael13 הפלונטר הפוליטי  שר החוץ Israelkatz אנחנו נאבקים נגד הסתת העניין מהקמת ממשלת אחדות למלחמה בכנסת מי שהביא את גנץ לשם… newsisrael13 מגפת הקורונה  שר החוץ Israelkatz בגלל ההסגר שהוכרז בפרו שכנעתי את חברת אל על להוציא טיסות להשבת הישראלים ארצה משרד… לאחר ישיבה חשובה של נציגי משרד החוץ בכירי רש״ת ונציגי 3 חברות התעופה הישראליות לקידום תוכנית החרום הלאומית שגבשתי…  על המטוס הראשון בלימה   פרו בדרך לישראל   לראות ולשמוע את הצעירים האלה כל כך מאושרים בדרך הביתה זה כבר שווה הכל  شما مردم‌ ایران سال سختی را پشت سر گذاشتید، با حکومتی که معترضان را کشت، هواپیمای مسافربری را انداخت و اطلاعات حیات…  ממש בשעה הקרובה יתחילו להמריא מטוסים עם מטיילים ישראלים מקוסקו ללימה ומשם בטיסות של חברת אלעל הביתה לישראל  תודה…  Tras mi conversación con el Canciller Gustavo MezaCuadra el canciller y el min de Transporte de Perú acordaron…  בשורה חשובה למבצע החילוץ בפרו בעקבות שיחתי אמש עם שר החוץ של פרו התקיימה פגישה בין שרי החוץ והתחבורה וסוכם שהבוקר…  סיימתי קודם שיחה עם שר החוץ של פרו גוסטבו מסה קוודרה ובקשתי ממנו שיסייע במתן היתר ל550 הישראלים השוהים בקוסקו לטו…  ח״כ תומא סולימן תוקפת אותי על שנזעקתי להטיס ארצה חיילים משוחררים שנתקעו בפרו ח״כית נכבדה זו מדינת ישראל ואלו ערכי…  שוחחתי כעת עם הנהלת ׳אלעל׳ וסוכם שהחברה תתגייס לפתרון והחזרת הצעירים הישראלים מפרו אל משפחותיהם הדואגות בארץ הנה…  הנחיתי את הנהלת משרד החוץ לעשות כל מאמץ כדי למצוא פתרון שיאפשר את חזרתם ארצה של מאות צעירים ישראליים שנמצאים בפרו…  אחרי שחבר אתמול לבני חסותו של עזמי בשארה להקמת ממשלת מיעוט היום ביום השבעת הכנסת מגיש ליברמן הצעת חוק לפסילה איש…  تصاویر ماهواره‌ای صحنه وحشتناک گورهای دسته‌جمعی در ایران برای فوت‌شدگان کرونا  را برملا کرده است رژیم آیت‌الله‌ها…  צילומי לוויין חושפים תופעה מחרידה של קברי אחים המוניים שנחפרו באיראן להטמנת גופות מתי הקורונה משטר האיטולות מסתיר…  radio103fm שר החוץ ישראל כץ Israelkatz ליכוד ראשי כחול לבן פותחים היום במומ עם בלד שמנווטת עי עזמי בשארה שיושב בקטאר הם תומ… ונהפוך הוא הערב בקריאת המגילה במושב כפר אחים פורים שמח  יום הולדת שנתיים ללירי נכדתי האהובה מזל טוב  אחמד טיבי ״אנחנו בעלי הארץ הזאת אני לא מכיר בביטוי ארץ ישראל לא מכיר״  ובידי אלה גנץ שהובס מול הליכוד וליברמן…  newsisrael13 בחזרה לפלונטר הפוליטי  שר החוץ Israelkatz גנץ מנסה לחוקק חוק שיבטל את ההצבעה של בוחרי הליכוד בראשות netanyahu הוא… תודה לרה״מ בנימין נתניהו על דברי השבח לפעילותי כיו״ר מטה הבחירות נצחנו את כחוללבן עם תוצאות שיא תוספת 250 אלף בו…  Congratulating the Republic of Serbia and President avucic for his announcment to open a Serbian official office i…  צאו להצביע מחל למען המשך הרפורמות והתחרות  أود أن أقدم التعازي لمصر وللشعب المصري في وفاة الرئيس المصري الأسبق حسني مبارك الذي كان زعيما حقيقيا ووطنيا مصريا…  אני רוצה להביע תנחומים למצרים ולעם המצרי על פטירתו של נשיא מצרים לשעבר חוסני מבארק שהיה מנהיג אמיתי ופטריוט מצרי…  I thank Belgium for their decision to revoke the invitation to Brad Parker of DCIP to the Security Council this we…  אני מברך את בלגיה על החלטתה לבטל את הזמנת בראד פארקר נציג ארגון dcip בעל קשרים לארגון הטרור ״החזית העממית״ לדיון…  כמו שהבטחתי כיור המטה מבצע ״מדלת לדלת״ לשכנוע הבוחרים להצביע לליכוד יוצא לדרך ואיפה מתחילים בבית השכנים  משפח…  Israel highly appreciates the efforts of the Ukrainian government in evacuating Israeli citizen Tomer Zvulun from W…  אמש בביקור עם רה״מ בנימין נתניהו ורעייתו שרה אצל השייח מואפק טריף מנהיגה הרוחני של העדה הדרוזית בישראל הידידות וה…  Belgium as a Western Democracy should be ashamed to allow such a vitriolic antisemitic display I call upon the aut…  בביקור ניחומים אצל ראש מא שפיר אדיר נעמן ומשפחתו במות אבי המשפחה הרב פנחס נעמן ז״ל מי שליווה אותי בלימודי בישיב…  השתתפתי אתמול בטקס הכנסת שבעה ספרי תורה ״לאחדות עם ישראל״ להנצחת אלי כהן הי״ד דביר שורק הי״ד רס״ל גל קלדרון ז״ל…  GLZRadio ממשלת 61 לgantzbe השר Israelkatz מפקפק אצל ירון וילנסקי וbardugojacob זה אפשרי בתנאי שהוא יביא את הגמדים מארץ עוץ … מישהו בתקשורת ובחוגי השמאל מאוד מוטרד מכך שמשרד החוץ בראשותי מוביל ושותף לאחרונה באירועים משמעותיים שנהנים מהערכה…  ישראל רואה בחיוב את העובדה שמדינות חשובות מומחים בעלי שם וארגוני חברה אזרחית מביעים עמדה ברורה לפיה אין לבין הדין…  מיצמוץ פלשתיני מול מועצת הבטחון של האו״מ מראה עד כמה התיאום עם ארה״ב נדרש  מי שמציע להחליט על צעדים בלי גיבוי ותמי…  أود الثناء على فيصل القاسم kasimf، من مقدمي البرامج الأكثر نجاحًا ومشاهدة في العالم العربي، الذي قال بجرأة إن انجح…  I commend kasimf one of the best presenters in the Arab world for saying that Zionism was the most successful pr…  אני רוצה לשבח את פייסל אל קאסם kasimf  אחד המגישים הנצפים והמצליחים בעולם הערבי שבאומץ רב אמר שהפרוייקט המצליח ב…  אכזבה גדולה מהחלטת בית המשפט העליון לאפשר לח״כ יזבק להתמודד בבחירות זה היה קרוב 4 מתוך 9 תמכו בפסילה אבל הרוב הכר…  Following the terrible shooting in Korat I send my condolences to the families of the victims and wish a full an…  אנו עומדים לצד העם הסיני נשיא המדינה רה״מ ואנוכי מביעים את הזדהותנו ומחזקים את ידי העם הסיני בשעה קשה זו וכביטוי…  מסכמים שבוע של עשיה נמרצת בשטח יחד עם רה״מ והשרים ממשיכים ביחד עד לניצחון  I mourn with the family amp America the passing of Hollywood legend amp father of Michael Kirk Douglas He was a proud…  משתתף בצער המשפחה והעם האמריקאי על לכתו לעולמו של קירק דגלס מותיקי השחקנים בהוליווד שנפטר בגיל 103  דגלס אביו ש…  לרונית רעייתי היקרה מזל טוב לרגל 31 שנות נישואין בהרבה אהבה ותודה ממני מעדי ממור מנועם וכמובן מלירי החמודה ברי…  Felicito a Uruguay por adoptar en el Día Int del Holocausto la definición de antisemitismo de la IHRA y por su com…  אני מברך את אורוגוואי על החלטתה ביום השואה הבינ״ל לאמץ את הגדרת האנטישמיות של IHRA ועל מחויבותה לעם היהודי ולישראל…  שמעון כהנר קצ׳ה לוחם נועז ביחידה 101 קצין ומפקד בצה״ל מראשוני הפורצים לעיר העתיקה במלחמת ששת הימים חקלאי ומתיי…  יום עצוב לכל אוהדי הכדורסל והספורט בעולם קובי בריאנט מגדולי שחקני הכדורסל בכל הזמנים נהרג בתאונת מסוק וזאת בסמיכ…  משרד החוץ בראשותי לקח חלק מרכזי באירוע לציון 75 שנים לשחרור אוושויץ אליו הגיעו 47 ראשי מדינות מלכים ומנהיגים מדו…  קשת בענן מרהיב  At today’s event marking the 75th anniversary of the liberation of Auschwitz we met HRH The Prince Of Wales His R… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">פותחת שידור חי מהשיירה לכנסת אצלי בפייס עדכון לגבי תוארו זה תואר מלפני כמה שנים שמצאתי ברשת נראה שהיום הוא כבר מומחה בכל מקרה שימו לב לבדיקה הזו שערך עופר צימרמן  לפי בדיקה שערכתי נראה שמדובר בדר עופר צימרמן מומחה ב…  פנייה דחופה ליועמש נשלחה הבוקר מקבוצת מבצר הדמוקרטיה באמצעות עוד דפנה הולץלכנר פסילת הליך החקיקה להגבלת הזכות…  רשימת הטלפונים המעודכנת לבוקר קריטי זה כוללת את כל חברי כחולבן דרך ארץ העבודה ימינה וגם כמה אנשי ליכוד סמסו…  YSegalovitz שתבינו את המצב YSegalovitz היום תתקיים בוועדת חוקה הצבעה על הסתייגויות לחוק סמכויות מיוחדות אחת מהן של יש עתידתלם על מתן אפשרות להפגין בכלי רכב מ… TalYftah רמ מואשם בפלילים לא יכול להחליט אם יהיו הפגנות נגד כך שמואשם בפלילים מכהן כרמ בדיוק כפי שרמ שהוביל לשיא עולמי בתחלואה לא… Cc 2 EitanGinzburg  Kachollavan19 Odedk2 להחזיק חזק אין יאוש בעולם כלל לעלות על האוטו מחר בבוקר ולבוא להילחם ולנשום עמוק תוך כדי בלי פחד Cc gantzbe  GabiashkenaziMK  mikihaimovich1 FarkashOrit ramshefa MichaelBiton4 EitanGinzburg asafzamir…  Ccnaftalibennett וכל זה כשאין הוכחות להדבקות בהפגנות וההדבקות הן במקומות אחרים והמפגינים נוהגים באחריות ושומרים על מרחק ומסיכות ו…  בהתחלה זה יהיה איסור הפגנות רק לשבועיים ואז ביבי ששולט בניהול הטיפול בקורונה יארגן מציאות היסטרית אף יותר עם הצ…  נתניהו משחק בהם ועובד עליהם בשיטת הסלמי כל פעם הוא לוחץ אותם עוד קצת להסכים לעוד משהו ועוד משהו ועוד ספין ויש…  בטח כחול לבן חושבים לעצמם נתמוך בסגירת ההפגנות רק לתקופת הסגר בסהכ שבועיים לא יקרה כלום אמנם לא ראינו הוכחות ל…  AmirHaskel פניה למפקד מחוז ירושלים ניצב דורון ידיד מחר צפויה להגיע שיירה של אלפי רכבים לכנסת אני קורא לך לא למנוע את הגעת השיירה לכ… EstyS אז מה naftalibennett  אתה רוצה לאסור הפגנות אני מבינה שכשהנאשם יקבל הוראה מוושינגטון או מאבו דאבי לפנות ישובים אתה תאסור על… ShmullikHed אם הוא יתן רוב לביבי מחר להעביר את החוק  זה מספיק משמעות שומעת שבנט המתיימר לפתור את משבר הקורונה הפוזל לראשות הממשלה  עומד לתמוך בחוק הדיקטטורי האוסר על ההפגנות למרות ש…  וזה עוד לפני שדיברנו על כך שהוא פועל בניגוד עניינים בכל נושא ההפגנות באופן בלתי חוקי ומספק כל יום עילה להוצאתו לנ…  נתניהו הוא האחראי לעלייה בנדבקים בקורונה נתניהו הוא האחראי לעלייה במספר החולים הקשים המונשמים המתים נתניהו שפוע…  Eyalo365 orlybarlev לא רק ווטסאפ שילחו גם סמסים גם טלגרם גם סיגנל  יש להם הכל הפגנה במרחק של 1000 מטר מהבית זה דיכוי זכות היסוד של הפגנה חופש ביטוי והמחאה כל הסגר המטורלל הזה בניגוד לעמדת אנ…  בובת גנץ ליד מיצג הצוללות  הערב סמוך לביתו של גנץ צילם Benco  כל השרשור 2  אלה מספרי הטלפון של חברי כחולבן סמסו להם תסבירו להם מה תפקידם כעת תזכירו להם שהם לא רוצים להיות בצד של ההיסטוריה…  kumiiisrael 13 זוהי נקודת זמן קריטית מחר שלישי נעלה לכנסת בשיירת ענק מכל הארץ ניפגש שם החל משעה 1000 השיירה המרכזית תגיע קצת אח… סמוך לביתו של גנץ לא לסגר פוליטי לא לעוצר פוליטי  עוד מההפגנה בראש העין סמוך לביתו של גנץ סדי בן שטרית  ליד ביתו של שר המשפטים אבי ניסנקורן שהבטיח  שלא תיפגע זכות ההפגנה והמחאה  עוד מול ביתו של יולי אדלשטיין יולי הביתה אתה לא תהיה נשיא אתה לא תהיה נשיא  מול ביתו של יולי אדלשטיין  LordBealish Kobi orlybarlev הוד השרון אצל ניסנקורן  Kobi orlybarlev בראש העין  מיצג הצוללות גם בהפגנה סמוך לביתו של גנץ הערב  מול כוונת נתניהו להעביר מחר תוך ניגוד עניינים ואי חוקיות את החוק הדיקטטורי לאיסור על הפגנות הערב משמרות מחאה זו…  EranHIl אתם יודעים מה הכי מדהים בהודעה הזו של רהמ  זה במה פאקינג הבן אדם הזה התעסק במשך חצי שנה אם לא לבצע ולדאוג ליישום כל הדברים ה… TalYftah אחרי שנתניהו ניסה להשיג לעצמו חסינות משפטית והתגברות על בית המשפט ולא הצליח הוא מנסה לאסור על זכות ההפגנה נגדו כמו במשטרים… ואלה השיירות של הדגלים השחורים  גם הן לכנסת TheBlackFlags1  ביביהביתה  שלישי בוקר  שיירת הענק לירושלים  זה הלוז של השיירה הזו אפשר להצטרף בדרך נפגשים בתחנת פז דרומית למחלף נתניה ב 08…  TheKingSlayer11 יהיה שידור מחר מהשיירות וממה שיהיה בכנסת בארור לקראת כוונת נתניהו להעביר מחר תוך ניגוד עניינים את החוק הדיקטטורי לאיסור על הפגנות עדכון על אירועי המחאה הערב ומחר…  כל השרשור  חתימה טובה טוויטר צום קל לצמים ימים משמעותיים לכולם זמן של שקט פנימי והתכוונות נכונה נתראה אחרי Yoglas74 אלוף עולם  AnatPeled1 88yearold Holocaust survivor bursts into tears on orlybarlev’s livestream yesterday on the way to the antiNetanyahu pro… grolnik תודה חמה גיא  YossiDorfman המפגינים איתי ויונתן יטוב נחלצו לעזרת שוטרת שנפגעה כשמעדה בזמן שגררה מחסום  איתי הוא חובש וטיפל בה בשטח יונתן תיעד את… essoji חצות בבלפור אחי ואני עולים במעלה קינג ג׳ורג׳ לכיוון הרכב הרחוב ריק ממפגינים אבל מאד רועש כי קבוצה קטנה של שוטרות ושוטרים גור… misscorina2 מהממת על ועכשיו הרבה יותר יודעים זאת  הלוחמת המוכשרת החריפה הנחושה היפה והמהממת שבלעדיה המחאה והטוויטר לא היו אותו דבר  misscorina2 בראיון אמש צפ…  AmirHaskel לא ניתן להעביר את התיקון לחוק הקורונה הגדול בשקט הצטרפו לשיירה שתעלה לכנסת גמר חתימה טובה  GolSigalit  PaulizDead  חתימה טובה מול הספינים והשקרים על ההפגנה בבלפור אמש צפו בסיכום של משה נוסבאום בראיון אצליהאכיפה המחמירה במיוחד כוחנית לעית…  ajove1 זה בדרך YossiRozenman אני מדברת את הלב שלי והלב שלי מרגיש מבפנים את מה שהוא מרגיש אני לא יודעת כמה זמן זה יקח אני לא יו…  TheKingSlayer11 orlybarlev גאווה גם סבתא שלי ניצולת אושוויץ ואמרה דברים דומים רק שלה אין את הכוחות לבוא ולהפגין לאה סטולר ניצולת שואה בת 88 שעלתה אתמול בשיירה ההיסטורית לבלפור העיניים התכסו דמעות  צפו בראיון הקצר שערכתי איתה  yaelgaon barakehud הכוח ברוח בדיוק הכוח ברוח  3 דקות מהשיירה ההיסטורית לבלפור  הסרטון המלא  קטע מהשיירה ההיסטורית לבלפור אתמול  לא יודעת מה לומר אתם פשוט חייבים לראות  hadarse orlybarlev שמירת מרחק ומסכות למופת הערב בבלפור  itayalmogbar דברים שאמרתי לאורלי ברלב orlybarlev בהפגנה על כך שמחר יום כיפור אבל היום זה יום העצמאות שלנו על השיירות המרגשות ועל… כמה אירועים אתמול לתשומת לב התקשורת המשטרה ניתבה את השיירה שנכנסה לירושלים באמצעות חסימות רחוב בצלאל נחסם השיירה…  רק מחדדת כי בלי ניקוד זה לא עובר כמו שהתכוונתי הלב שלי הכי גָּאָה  התמלא עד גדותיו   ובקיצור יש לנו את העם הכי מרגש בעולם  השיירה ההיסטורית העולה לבלפור  ב3 דקות הם הגיעו מכל קצווי הארץ מהצפון ומהדרום מהפריפריה ומהמרכז מהעיר ומהכפר…  BatHen13 alufbenn חברים עיזרו לי לשכנע את עורך הארץ אלוף בן שיש יותר מעשרת אלפים מפגינים ברחבי הארץ בהארץ חושבים שיש רק אלפים בו… השיירה העולה לבלפור מכל עשרות השידורים החיים בחודשים האחרונים ממחאת בלפור זה השידור שבו הלב שלי הכי גאה זה השידו…  trangil עכשיו לישון  לסיכום ערב מ ד ה י ם 8 שעות שידור חי רציף שמספר ומתעד איך מחאת בלפור כותבת היסטוריה ברגעים אלה ממש  מול הספינים…  בלפור חלק ד סוף ההפגנה המשך אלימות השוטרים ראיון מיוחד עם משה נוסבאום מחדשות 12 לסיכום ההפגנה  החל מדקה 1900 …  בלפור חלק ג 4 שעות שידור של החלק הארי של ההפגנה עשרות ראיונות תיעוד שמירת המרחק בהפגנה והמסיכות ותיעוד הפרובוקצ…  בלפור חלק ב החלק האחרון של השיירה בתוך רחובות ירושלים ותחילת ההפגנה אל תחמיצו את דברי דורון בורנשטיין טייס לשעב…  שרשור השידורים החיים מהערב gt חלק א השיירה ההיסטורית העולה לבלפור המלצת צפייה חמה כבר הלילה 157k צפיות  השיירה ה…  פער בלתי נתפס בין סיכום המשטרה לתיעוד והעדויות בשטח המפגינים הראו אחריות אזרחית מדהימה ושמרו על מרחק ומסיכות מנגד…  במספרים אלפים יצאו לגשרים לצמתים ועוד אלפים בכיכרות תא בקיסריה רבבות בהפגנה הווירטואלית רבבות מול השידורים ה…  יום היסטורי שיירת ענק חסרת תקדים עלתה לבלפור באלפי רכבים מכל הארץ ו16000 אזרחים שצעדו קילומטרים לבלפור הפגנה מ…  Teodor1 הכי מרגש הערב YTB2018 לפי השידור המעולה של orlybarlev המשטרה בבלפור עוברת על החוק במכוון ומחרימה ציוד הגברה בניגוד לפסיקת בגצ חמור מכך השוטרים… זה השידור של השיירה   פותחת שידור חדש נוסף פותחת שידור חי מהשיירה  בכביש 1 עכשיו דוברות המשטרה הודיעה לי שהייתה בעיה עם חיילת צעירה במחסום שלא ידעה את ההנחיות העדכניות ההנחיות רועננו מחדש וכעת ני…  הודעה ששלחתי עכשיו לדוברות משטרת ישראל ILpolice  יוצאת מהמחשב והמסכים ועוברת לחיים עצמם בהמשך מצטרפת לשיירות בדרך ואדווח משם Stay tuned נתראה בכבישים ובהמשך גם ב…  orlybarlev המכתב ששלח GONENB1  למפקד מחוז ירושלים ניצב דורון ידיד בבקשה שהמשטרה לא תפריע לשיירה להגיע לירושלים  ILpolice  המכתב ששלח GONENB1  למפקד מחוז ירושלים ניצב דורון ידיד בבקשה שהמשטרה לא תפריע לשיירה להגיע לירושלים  ILpolice  orlybarlev המסלול של השיירה  להצטרפות בדרך 1500 יציאה מתחנת פז דרומית למחלף נתניה כביש החוף מחלף גלילות פנייה מזרחה לכביש 5 ב 1530… זה  אם המשטרה לא תפריע בדרך שעות היציאה הוקדמו השבוע כדי להגיע בזמן לבלפור עוד גונן בן יצחק הוציא מכתב למשטרת מ…  המסלול של השיירה  להצטרפות בדרך 1500 יציאה מתחנת פז דרומית למחלף נתניה כביש החוף מחלף גלילות פנייה מזרחה לכביש 5…  NitzSha BokerIris rozzzzxxx אפשר להירשם כאן  GarjiYehonatan תירשם כאן  הצטרפות לשיירת הענק לירושלים  BokerIris rozzzzxxx הצטרפות לשיירת הענק לירושלים  זו זכותכם החוקית והדמוקרטית להפגין בגשרים בצמתים בשכונות בבלפור בכל מקום בהתאם להנחיות משרד הבריאות אבל להפג…  הרשמה לשיירת הענק העולה לירושלים  אוטובוסים למוצש בבלפור   טרמפים למוצש בבלפור  יש הרגשה שהמחאה היום והערב תהיה משהו חדש ואחר השיירות היוצאות חסרות תקדים 3000 רכבים נרשמו לשיירת ענק לכיוון ירו…  BenCaspit לבין עתונאי כלומר בועז כהן השופר מערוץ 20 המשפט האחרון נאמר עי קרעי טוב אז גייסנו את בועז שפשוף נעים  BenCaspit אפרופו הטור של קלמן ליבסקינד והמהומה שמנסה עכשיו יאיר נתניהו להקים סביב תיאום בין צוותי טלויזיה למפגיני הצמתים והגשרים במוצ… TheBlackFlags1 הדגלים השחורים ברחבי הארץ בכוונה להפגין בשכונות אנו מייצרים אפשרות לכל אזרח למחות בדרכו מפות לכל האפשרויות  TheBlackFlags1 אזרחי ישראל לא יקבלו יותר כרהמ אדם שאיבד בהם עניין ועסוק ברדיפת הפגנות כביסה בחול ומשפט פלילי במקום במאבק במגיפה נ… eyaldatz כיפור הזה אני מבקש סליחה מכל מי ששייך למה שהתקשורת אוהבת לכנות ״אנשי רק לא ביבי״ לפעמים היה נראה שאתם מגזימים מקדמים דמוניז… eyaldatz כל הכבוד לך על ההתפכחות ועל הציוץ הזה כל הכבוד danielpet4 מאות מכוניות בשיירה ארוכה ארוכה עכשיו בבקעת אונו לא תנצח את הרוח והנחישות שלנו רודן  KalmanLiebskind בשולי העיתונות הימנית צמחו במהלך השנים באין מפריע גידולי פרא תקשורתיים אנשים שאין להם עניין בעובדות ושאתיקה וערכי… misscorina2 מחווה לשרה  פרק 4  דנה הו דנה חלק ב  misscorina2 ג א ו נ ה LifeRivlin היכולת הנדירה של נתניהו לשקר בלי למצמץ נתפסה כיתרון עורמה של מדינאי ותחכום של פוליטיקאי משוכלל בסוף סוף מדובר בפתולוג… GONENB1 שומר באדיקות על הבידוד אין לכם מושג איזו הרגשה טובה זו להציץ מהחלון ולשמוע את השיירה של TheBlackFlags1 עוברת ליד הבית במודיעי… PizzaDoughBro נא לקרוא את ציוצי בנושא היום לכל הדנים באולפנים במחדל בקורונה בניהול הכושל בכאוס בזה שלא סופרים את הציבור בטירוף בשקרים בזה שאין הנהגה מתפקדת …  shacharbm שכאן בא המשך התקנה האומר ״אלא אם מקום הפעילות או ביצוע הפעולה הוא מחוץ ליישוב״ מכיוון שההפגנה בבלפור היא מחוץ ליישוב ומכיו… shacharbm נוכח שמועות שרצות כאן כי נתקבלה תקנה מכח סמכויות קורונה להגביל את ההפגנות בבלפור מבקש להבהיר היום אחהצ נתקבלו בממשלה ופורסמ… בסהכ יצאו היום 20 שיירות הגליל העליון חיפה  בנימינה לקיסריה  טבעון לקיסריה  מנתניה לחדרה בשרון 4 שיירות הרצליה…  שיירות שיצאו היום מדינהבמחאה ביביהביתה  שיירות שיצאו היום מדינהבמחאה ביביהביתה  שיירות שיצאו היום מדינהבמחאה ביביהביתה  שיירות שיצאו היום מדינהבמחאה ביביהביתה  שיירות שיצאו היום מדינהבמחאה ביביהביתה  שרשור שיירות שיצאו היום מדינהבמחאה ביביהביתה  0S8qGoBTyMMWMVI aviadglickman בדקתי אין בעיה לצאת להפגין בכל מקום LightSoftHeart1 יש גם מדינהבמחאה  במקביל לבלפור לשיירות לגשרים ולצמתים הקבועים  עוד יוזמות מחאה תחת הנחיות משרד הבריאות יוצאים לכיכרות  מחאה בכל…  alisaripel orlybarlev אורלי  לא נשתוק אנשים עזבו את ההכנות לשבת עשינו היום מסע של מעל 50 מכוניות  בחסות 2 ניידות ו2 אופנועים  תודה… faniaoz AmirHaskel MovGov  עוד יבואו ימים לאור הכותרות המטורללות שיצאו בשעה האחרונה ארגוני המחאה מבהירים מחר עוליםלבלפור עוד אומרים לי שעובדים על מתווה ה…  ThisIsYaniv LiSteinitz הווצאפ שלי קורס  אבל הגיע LiSteinitz מה זה מאיפה זה לא מכירה שום דבר כזה grossronen על סמך מה אתה קושר בין ההפגנות לתחלואה מהו הנתון עליו אתה מתבסס orrby לכן לנטרל מראש כל סיכוי להצטופפות לעשות את זה אחרת לגמרי ThisIsYaniv  אבהיר מי שטוען ההפגנות אחראיות לעלייה בהדבקה משקר ומוציא דיבה אבל הספין הזה תפס אחיזה בחלקים מהציבור והתקשורת ול…  חוזרת על הדוגמא שהצעתי לפני יומיים שרשרת אנושית של מפגינים במרחק של 2 מטר זה מזה שיוצאת מהכנסת לבלפור ועל המדרכה…  כעת כשברור שניתן חוקית להפגין במוצש בבלפור הצעה לקבוצות המחאה כן להפגנת המונים בבלפור  אבל זה צריך להיעשות הפעם…  דפנה ליאל סופית ועדת החוקה התפזרה הגבלת ההפגנות בזמן הסגר לא אושרה שאר ההגבלות יכנסו לתוקף ב1400 כפיים וכל…  זה לא סגר מלאמלא שרוצה ביבי זה דיקטטורה מלאמלא  iloveisraell יצא המרצע מן השק  בליכוד מעוניינים לאסור על הפגנות גם לאחר הסגר הקרוב הפיליבסטר של האופוזיציה גרם להם להודות בזה היום ב… orlybarlev aviadglickman זה לא חוקי שהוא מתעסק בזה התנהלות נתניהו בנושא ההפגנות נגדו היא בניגוד לשיקולים מקצועיים מונעת אך… aviadglickman לא ברור לי מדוע היועמש נותן לטירוף הזה להימשך לאחר שאמר שאסור לנתניהו בכלל לעסוק בנושא aviadglickman זה לא חוקי שהוא מתעסק בזה התנהלות נתניהו בנושא ההפגנות נגדו היא בניגוד לשיקולים מקצועיים מ…  erezcarmel שיירה של מכוניות מחאה חוצה את כל הרצליה הולכי רגל עומדים ומוחאים להם כפיים תעשה סגר תחמיר הנחיות אבל לא תצליח לשבור את… aviadglickman אז עכשיו נתניהו מנסה לשכנע את אנשי כחול לבן לתמוך בכך שהמגבלות על ההפגנות ייעשו בתקנות חירום כי לא מספיקים את החקיקה… אמת היא אמת היא אמת כל הכבוד KalmanLiebskind  אני אחזור שוב ושוב כל ההתנהלות של נתניהו בנושא ההפגנות נגדו היא מונעת אך ורק משיקולים אישיים תוך ניגוד עניינים ח…  baruchikra תחזית השעות עד כניסת השבת לאחר שנתניהו שוב כושל הפעם בהסדרת החקיקה עד השבת ולאחר שהיועץ יודיע שאי אפשר להעביר את הגבלת ה… orlybarlev gantzbe תוכיח   ProfSilktree attilus orlybarlev אני גאה שנטלתי בזה חלק הייתי מנומס אך נוקב האוזר השיב עם קישור לסרטון מביך שבו הוא מדבר על מספר הח… gantzbe תוכיח   Cc  gantzbe Kachollavan19 GabiAshkenazi AviNissenkorn להגביל את ההפגנות בתקנות לשעת חירום ללא הצדקה מקצועית ללא שיקולים ענייניים ללא תשתית ראייתית מובהקת רק כי נאשם ב…  attilus השרים והחכים של כחול לבן הותקפו הלילה באלפי הודעות מהארץ ומחול זה החל אתמול אחר הצהריים כל הכבוד לאזרחים הפעילים  בכנסת לפני זמן קצר  בלפור מיד פותחת שידור חי מההפגנה   השידור החי מההפגנה בכנסת אחהצ שימו לב להתנכלות המשטרתית לרכבי המפגינים ואל תחמיצו את דברי ההסבר של חכ לשעבר יעל…  הראיון ברשת ב היום בצהרים על מה שקרה בלילה האחרון נתניהו מבצע הפיכה משטר בלי הפגנות אין דמוקרטיה מראיינת ליאת…  אם אתם רוצים להסביר לחברי כחולבן דרך ארץ והעבודה שבלי הפגנות אין דמוקרטיה ושבידם לעצור את ריסוק והפיכת המשטר  כאן…  orlybarlev JoshBreiner נשמע שהבכיר הזה צריך ללכת ללמוד מחדש מהי דמוקרטיה בספרי האזרחות מחאות שכל תכליתן התרסה וצפצוף על החוק שית… JoshBreiner נשמע שהבכיר הזה צריך ללכת ללמוד מחדש מהי דמוקרטיה בספרי האזרחות מחאות שכל תכליתן התרסה וצפצוף על החו…  בלפור מתחיל ב 2000  natitucker כבר עשר דקות orlybarlev מראיינת בלייב שלה את יוסי שלא מוכן לצאת מתחת לגרר משטרה שהוזמן כדי לפנות את רכב ההגברה של המפגיני… תיכף מתראיינת בערוץ 11 ההפגנה בכנסת מיד פותחת שידור חי אצלי בפייס  התנכלות משטרתית מטורפת למפגין רכב שעליו היה מיצג הצוללות הורד מהכביש על כלום אתם חייבים לצפות משטרת ישראל מה קורה…  orlybarlev RinoZror עלילת דם שקר מתועב ובזוי של פושע שמאשים את הקורבן DaphnaLiel נוצר פה ניגוד עניינים בעייתי רק במצב של סגר כללי ניתן לאסור לגמרי את ההפגנות בבלפור כשבשאר הזמן המפגינים יצטרכו לשמור על… Soloph0ne תן תקציר מה קרה Soloph0ne עכשיו ליד הכנסת  שוטרים מחפשים על מה לתת דו״ח לרכב שפורק את מיצג הצוללות השוטר מתכופף לגלגלים ופותח מכסה מנוע ובודק הכל ב… מנדלבליט טעה בהגבלת מספר המפגינים בבלפור 2000 חישוב המשטרה שגוי זה שבכיכר פריז יכולים בריחוק חברתי X בני אד…  BarakRavid השתקת מומחים עקיפת שרים זגזוג בהחלטות סלחנות לגבי התפילות ואובססיה לגבי ההפגנות השר Izhars7 בעדות מבפנים על הכאוס שהוב… מתראיינת ברשת ב תיכף HauserTov התו הסגול  בוא נכבס יותר את חיסול הדמוקרטיה רץ בווצאפ ובקבוצות המחאה עולים לכנסת החל מ1400 לעצירת התיקון לחוק שיאסור על הפגנות לעצירת ההחלטה הלא חוקית להח…  RinoZror עלילת הדם של זוהר כיפור תשפא  RinoZror עלילת דם שקר מתועב ובזוי של פושע שמאשים את הקורבן דברי יזהר שי המתועדים ישמשו לוועדת החקירה שתחקור את הפשעים והמחדלים של נתניהו כולל בהליך קבלת ההחלטות הלא חוקי אמש…  JoshBreiner לשואלים למעשה השינוי היחידי המשמעותי בהגבלות נוגע להפגנות כל שאר הדברים שמעניינים הגעה לים ברגל לצורך ספורט פארקים גנ… RavivDrucker לאסור על הפגנות כשהמשק ממשיך לעבוד הוא החליט על סגירת משק שלא הייתה פה אי פעם כולל פסי ייצור שעובדים 247 מעניין מה קר… RavivDrucker בשלישי בלילה נתניהו שלח את אנשי המקצוע לעבוד על מתווה הפגנות עבדו לתוך הלילה 4 מטר מרובע לכל מפגין המשטרה נציגי היועה… tamarmital LiorKenan  LiorKenan המשך יזהר שי 5 אני פונה אל אנשי כחול לבן אל תצביעו בעד החוק שאוסר הפגנות זה חוק ציני לא ראוי ומפלג שלא לצורך ממשלה שכוא… LiorKenan המשך יזהר שי 4 אני רוצה לספר לכם מה נאמר ע״י הכלכלנית הראשית בישיבת הקבינט זה יהיה סגר חסר תקדים החמור ביותר שכל מדינה אח… LiorKenan המשך יזהר שי 2 חשוב ששרי הממשלה יידעו ההחלטה על סגר מלא חמור מזה שחווינו בחודש מרץ לא התקבלה בהצבעה בקבינט הקורונה היא… LiorKenan השר יזהר שי אמר דברים קשים מאוד בישיבת הממשלה  אנחנו עומדים להצביע הלילה על החלטה בקנה מידה הסטורי שמובאת בפני השרים כאן לל… attilus מחולל הספין אומר שזה בגלל הספין ItamarKatzir אני באמת לא מאלה בדרך כלל אבל סו קריאת חובה אנחנו בני ערובה של ממשלה שפועלת נגדנו  כולנו  בלי הבדלי דת מוצא מגדר וש… BarakRavid השר יזהר שי הצביע נגד החלטת הממשלה על הסגר זה מה שהוא אמר לפנות בוקר בישיבה קריאת חובה לכל מי שאכפת לו איך מתקבלות החלטות… chaimlevinson כל דקה שגמזו לא מתפטר הוא משתתף בהונאת הציבור כאילו יש אלמנט מקצועי בהחלטות Orengerman סידרתי קצת ⁦Kachollavan19⁩  נתניהו זגזג אתמול פעמיים וקיבל החלטה מטורפת לא משיקולי כלכלה לא משיקולי הדבקה רק משיקולי ההפגנות נגדו למישהו כאן ז…  בכל יום נתניהו מספק עילות חוקיות להוצאתו לנבצרות אבל הוצאת מדינה שלמה לסגר מלא שירסק אותה כלכלית לעשות זאת ללא הצ…  זה כל מה שהוא רצה זה כל מה שהניע אותו שיקולים אישיים ניגוד עניינים עבירה על החוק וכחולבן אפשרו לו לקבל את מה שהם ה…  OrCohen85858510 orlybarlev המחאה עובדת המסקנה היחידה שאפשר לקחת מהישיבה ההיסטורית וההיסטרית של ליל אמש זה שהמחאה עובדת צריך להמשיך… הנאשם הנמלט ממשפט הוא האחראי לניהול הכושל בקורונה הוא אחראי לכל המחדלים ולקטסטרופה ואתמול הוכח סופית ובאופן מובהק ש…  PaulizDead נכון TalSchwartz5 ראה שרשור ציוצים שיצא עכשיו 6 הנקודה היא שכדי שנפסיק לדון בהפגנות ונחזור לדון ב נתניהו המסוכן למדינה  מושא ההפגנות צריך למצוא דרך מנ… </t>
+  </si>
+  <si>
+    <t>כאמור  עוד הוכחה שאפילו לימין הכביכול אידיאולוגי אין שום מושג מה לעשות הלאה הם יעדיפו פומבית להמשיך להכות בשמאל לשיטתם במ…  אופיר דיין כותבת היום בישראל היום על הצורך לא להתרפס בפני אלו שרומסים אותך שיעור שחשוב לזכור וליישם  baruchikra לאור הצפה אינטנסיבית של רעיון החנינה או עסקת טיעון גרנדיוזית אני מעלה פה שוב את הקטע הרלוונטי ממאמרי ביום חמישי  מי שתומ… Amites285 לבריאות YarinRaban אלוהיי שמור אותי מקיטש היהודי של שי פירון וסיון רהב מאיר מהפונדמנטליסטים אשמר כבר בעצמי YoazHendel1 dereheretz תתפטרו YossiDorfman המפגינים איתי ויונתן יטוב נחלצו לעזרת שוטרת שנפגעה כשמעדה בזמן שגררה מחסום  איתי הוא חובש וטיפל בה בשטח יונתן תיעד את… essoji חצות בבלפור אחי ואני עולים במעלה קינג ג׳ורג׳ לכיוון הרכב הרחוב ריק ממפגינים אבל מאד רועש כי קבוצה קטנה של שוטרות ושוטרים גור… arik3000 IsraelHayomHeb כולנו עבריינים לא לפני פסק דין חלוט בושה שאתה מנהל מסע צלב להחלפת עם מכהן DorDugy ו׳המרד׳ של בגין idanlandau יודע מה לא בהכרח צריך לבדוק מה קרה עם דוגמאות דומות BrianNReeves This is what AOC boycotted tonight because peacenowisraelPeaceNowUS commemoration of the assassination of Rabin a w… השכן של ההורים שלי גאון  erannissan 15 This photo was taken in July 19 after a meeting between  AOC and us NewStoryLeaders  a group of young Israelis amp… RamiHod yonatanlevi עוקפים את הפלסטינים עצמם משמאל הזיה BarakRavid PeaceNowUS FarkashOrit RonenManelis 🤷‍   erannissan קראתי בין השורות KalmanLiebskind  barpeleg המטרה היא להפגין בבלפור ברכבים בשיירות שיצאו מכל הארץ ״לא ניתן לנאשם את התענוג שירדנו מבלפור הוא מתכוון לחרב את הדמוקרטיה ו… barpeleg ברייקינג למרות שהחוק להגבלת ההפגנות לא עלה ארגוני המחאה כנגד נתניהו ביטלו את ההפגנה מחר מול בבלפור וקוראים לתומכים להפגין ב… maayanef התאריך בו גיליתי שיש כזה דבר עכשיו BarakRavid אני מאוד רוצה לקוות שזה לא מכתב מוזמן של נתניהו ואדלשטיין כדי לקבל כסות מקצועית לדיכוי ההפגנות אבל זה מריח לא טוב מאוד… JoshBreiner תיכף 1400 עסקים שאינם חיוניים יסגרו אבל השאר צריכים אוכל תרופות מוצרים חיוניים מותר לצאת להצטייד מעבר ל1000 מטרים… shaycohen natitucker אדם כהן קיטרון מכה שנית HauserTov ימי בנימין  אידיאולוג או אופורטוניסט  natitucker  בהמשך לסעיף 2 baruchikra ובינתיים מתעלם מהפיל בחדר  קלמן ליבסקינד  על חלק מתקשורת הימין אפשר לומר בצער רב  רצינו לגדל דור של עיתונאים  ובמקומם צמח לנו דור של שרלטנ…  אראל סגל עיתונאי על הרעיון שנתניהו יעשה עסקת טיעון עם כל הכבוד לעקיבא וקלמן מי אתם שתציעו הצעה כזאת אולי יש מ…  וזה מדהים כי השבוע התוכנית שלהם בכאן 11 ליבסקינד נדהם מהתשובות ההיסטריות של סגל אמר לו אפילו ״אתה פובליציסט 400 שנ…  ״גידולי פרא״ הוא כותב ומתעלם מהשנים בהן החברים המציאו סיפורים ושקרים ומתקפות על כל מי שאפשר עכשיו זה מגיע אליו א…  NadavYonani roysharon11 KalmanLiebskind אההה הוא אמנם מעל המוזכרים בטור אבל בוא לא נגזים MayaEzra3 roysharon11 KalmanLiebskind עוד לא קראתי 🤷‍ roysharon11 KalmanLiebskind מזכיר שם את אראל אגב avichaifa יש וייב כזה בין הצעירים שם רציני לגמרי avichaifa הליכוד מת על ליברטריאנים צעירים עכשיו זה הפתח שלך yairbrill ביצוע מושלם של תורן דף הבית בהארץ  adiryanko כל הסיפור בשתי תמונות אחרי ההכרזה על סגר הרמטי שיחל מחר מהו ההבדל בינו לבין זה שנכנס לתוקף ביום שישי האחרון תראו בעצמכם… GONENB1 דבר המלך במועצתו TomerPersico כולם רואים את ההתפרקות מדינה שמנוהלת ברשלנות פושעת משועבדת לצרכיו המשפטיים והפוליטים של אדם אחד נזק כלכלי של מיליארדים… משפט מדהים  Zkankav יותר מהיר לקרוא אחרי DaphniNLeef Nefolet eladitzhakian כולם Idaneretz כאן רשת וקשת לייב זה כואב לי לראות למה הוא לא מסתכל על המצלמה תאונה בשידור חי alecyefremov משטרה פרטית של הקיסר חובת צפייה  porgcupinetree בסדר תקרא על דבורין ותבין מה מעניין פה OAklum בוא תכתוב נו פוסט למחזקים בפייסבוק זה נחשב itaybh אתה מניח שהימין הקיצוני המתנחלי לא בשלטון כרגע ושולט בחיים שלנו כבר 10 שנים בערך הלובי המתנחלי אלקין ולוי…  itaybh ימין זה לבנות התנחלויות ולהשאיר מאחזים ימין זה להתעלם מהפלסטינים ימין זה לחסל את מערכת המשפט וימין זה להק…  10 הפוסטים הכי מצליחים בפייסבוק הישראלי השבוע   לעוד ניתוחים בדוח הדיגיטל השבועי של mehazkim…  itaybh המיתוג הוא קיים יותר זמן משנינו ויהיה קיים אחרינו ולהתעלם ממנו והמסורת העולמית והמקומית שלו פלוס עולם הת…  elchangr meiretingr עזוב מלא ערבים וגייז פה כמו אצלכם רק קצת יותר FtheBear ספר חדש  shaishahaf תיעוד מטורף מבלארוס נהג במונית נוסעת נחלץ להצלת מפגין שבורח מכוחות המשטרה  itaybh אתה חושב שבמציאות שלנו היום אין מקום לאלטרנטיבה מדינית ובטחונית שניתן לסווגה חיובית כשמאל ברצינות itaybh ביבי לא יהיה כאן לנצח itaybh השמאל של היום חייב להמציא עצמו מחדש אבל אם אתה רוצה שלמדינה הזאת תהיה דרך חדשה אתה חייב להפעיל את הדמיון ולהיות אמיץ DovMorell אל תגיד אובססיבי תגיד שאני במסע צלב DovMorell תעשה מיוט דובלה איזה יופי עורך הדין של הליכוד וארגון לביא כמובן שכעת מגישים עתירות נגד ליאת בן ארי מגיש תביעות דיבה בשם עמית…  itamars חביביייייי  הלכתי לראות מה השולמנים מתכננים לעשות בעקבות הסגר השני והבנתי שאנחנו חייבים להיות מאוחדים ואנחנו חייבים להפנים ושנע…  itamars למה אתה באמת לא משתף מוזיקה יותר אור ואהבה אור ואהבה בכל מקום אגב שרי אריסון לדעתי מוציאה אלפי שקלים בחודש על קידום בפייסבוק ולכן על ברכת השנה טובה שלה יש 30 אלף לייקים  erannissan איך לנצח מגיפה מאת בצלאל סמוטריץ  עדכון תעמולה ביביסטית  לפי מדד תעבירו את זה הלאה שכולם ידעו את האמת האשמים במשבר הם בגצ מנדלבליט ניסנקורן וכ…  elchangr יש מספיק מקום בשטח ישראל הריבונית גם לגזענים מטונפים כמו השכנים שלך HauserTov נראה לי שזה לא הובן אז  מעתה ועד לסוף משבר הקורונה ההפגנות בבלפור יוגבלו ל2000 איש לא לתקופת הסגר לא לשבועיים  עד לסוף… SefyHendler הניהול הקטסטרופלי של נתניהו את ישראל כבר חרג מזמן מתחום הפוליטיקה טובה רעה בינונית הוא הפך להיות סכנה אסטרטגית למדינה… לפנות את יצהר  adindan zionnenko לא מסכים דן אמת עצובה אבל שלח צודק Alaska0x3 0 אבל בטוח שזה בדרך itzikelrov אפשר להעיף את נתניהו לתהומות הנשייה גם בלי בחירות כל מה שצריך זה פוליטיקאים עם עמוד שדרה מהקואליציה והאופוזיציה שיתאחדו ב… OriKatz3 דרוקר ארלוזורוב וספי עובדיה טוענים את זה bennunanat תיקון חוק הקורונה העתיד שלכם לא רלוונטי גם לא ההתגדויות שלכם  JoshBreiner origivati מה זה אומר סגרו את כל השוק הפרטי מלבד החיוניים לא ILParliament MatanAlcalay ככה אתה מתאונן על משכורות שילכו לקולגות שלך בושה YairEttinger כתבה מקסימה אתמול EtiRiis להקשיב ולא להאמין מה מסוגל לעשות נאשם בפלילים נתניהו משעבד מדינה שלמה רק לדבר אחר להפסיק את ההפגנות נגדו השאר לא מעניין אות… romlior בעוד קצת יותר מ24 שעות יעבור חודש כן כולה חודש מהרגע הזה קשה להאמין כמה זמן בוזבז על כלום כמה כוחות הושקעו בחילופי המהל… iloveisraell לכל אלו שאמרו להפסיק לשבועיים כתבתי בימים האחרונים שאם נראה חולשה  נתניהו יתקוף יותר חזק שימו לב  שבועיים זה כבר לא מס… LVertzhaizer טרופר jewdas Well you know man you dont have to take it this far just to spite the idiots doronziv ממש בלתי נשכח אין שום קשר למציאות כמובן אבל תנסו להיאחז באמת עושים לנו gaslighting ברמה הלאומית זוכרים כשדף המסרים של הימין דיבר על הפגנה קטנה שמתודלקת על ידי התקשורת  אז עכשיו אנחנו בשיא של השמאל מדביק את כ…  תודה למר מלכה שכתב לנו מראש יום אחרי הפסקת ההפגנות ככה דף המסרים של הליכוד בערך יראה   עדכון  מה אתם יותר arik3000  DovMorell קשה קשה הממשלה נסגור בתי הכנסת  אריה דרעי אין סיכוי   הממשלה אל תדאג נדפוק גם תסמולנים  אריה דרעי  UziBaruch מה זה שמע ישראל omerbabai מערכת אלקטור מה זה משנה העיקר שאין ערבים YoazHendel1 ZviHauser  yonatanlevi יש סיבה שמשטרי ימין פופוליסטי – מארהב וברזיל ועד בריטניה וישראל – נכשלים בהתמודדות עם המגיפה 1 חיסול מתמשך של הדרג המק… erannissan זה לא או תפילות או הפגנות  זה גם תפילות וגם הפגנות  בעוד פחות משעה יתכנס קבינט הקורונה לישיבה בה יוחלט ככל הנראה להטיל ע… yudash העיקר שידעו שאנחנו לא מפחדים UriKeidar  מישהו צריך להצליב את זה עם גרף החולים  AlonMizrahi שרשור זועם ספונטני על מאבק התודעה ברגע זה  1 שנאו אותנו בעוצמה מטורפת גם לפני הקורונה הסיבות מתחלפות השנאה נשארת  2 י… arnondeg 🤷‍🤷‍🤷‍🤷‍ זה מאה אחוז אשמתך דוקטור arnondeg חברים מרוצים אבל האמת שזה הוצאה על מים arnondeg תעדכן כי אני מוכן שתצא פראייר לפני iloveisraell 17 חברים יקרים לקראת יום הכיפורים החלטתי לתת לכם שירשור שופרות כיפי  ובכן מה הוא שופר אדם שצריך להעביר מסר ולא משנה בא… frak001 Passion of the Gantz אבל איזה מזל שלא הקמנו ממשלה עם המשותפת אה  ChenSror הבחירה לסמן יהודים בצד אחד וישראלים בצד השני היא מודעת וכל עניינה לייצר גרסא חדשה של שתי הממלכות הנפרדות יהודה וישראל שתיה… natitucker הדיון הציבורי פה כל כך מטומטם בהפגנות בבלפור בסגר יש גג 5000 איש ביום כיפור הולכים להשתתף בבתי הכנסת לפחות מיליון איש… odedkramer אז תפילות בחוץ זה פיקוח נפש רק אם אין הפגנות ItaiAknin אדוני אתה לא סותם את הפה לרגע בנושא הזה  מישהו באמת חושב שאם ההפגנות בבלפור יפסיקו המתקפות יפסיקו הם ימצאו תירוץ אחר  erancherpak כל עוד יש התנגדות פעילה לממשלה ולפעולותיה למה אתם לא מסוגלים להיות כבשים צייתניות roykatz ספין הדבקות הקורונה בהפגנות בבלפור וההשוואה לתפילות במרחב הסגור הוא מהלך תקשורתי שראוי להילמד פינקלשטיין לא היה עושה את זה ט… BiniAshcknasy ביני תנו דוגמה אחת למומחה פרטי וחיצוני שמדבר במקום הרמטכל או החשב הכללי  פיד יש מיליון דוגמאות  ביני תנו אחת   פיד ח… SefyHendler סוד לא כמוס גם ברגע שיעצרו ההפגנות בבלפור הקורונה לא תיעלם הנחה לא בלתי מבוססת אם נחליף ראש ממשלה סיכוי טוב שתוך 6 חודש… asapir אז למה רומן אברמוביץ תרם כ100 מיליון דולר  במשך 10 שנים דרך חברות קש מאיי הבתולה לעמותת אלעד וסייע להפוך אותה לעשירה בי… Yossieli פרסום ראשון  משפחת אלחלק שבנם האוטיסט נורה למוות על ידי שוטר מגב הגישו בגצ נגד מחש בדרישה לתת החלטה לאלתר בתיק אם להעמיד… CHAGAID אם תרצה לדבר בהזדמנות ובהרחבה על ההבדלים אשמח CHAGAID כן זה קיים אבל זה לא 1 מאות חשבונות טוויטר פייקיים שדוחפים רעיונות דומים בהתאמה למסרים של מפלגת השלטון…  CHAGAID לא יודע רואה איזו מתקפה פוליטית מאורגנת על ׳מתפכחי השמאל׳ כמו חיים רמון ודינה דיין או נגיד דרוקר כשהגן ע…  CHAGAID כחול לבן לא תשלח את צבא הרפש שלה אחריי כי אין לה אחד כזה CHAGAID אולי קצת רדיקל בענייני מגדר CHAGAID כן אני די שמאלן סטנדרטי עצוב שגם אנשי ימין מובהקים והרבה יותר קיצונים ומסוכנים מכל אחד בליכוד כמעט חוטפים אש מבלפור ושלוחיו ברגע שהם מבקר…  לא מאוד תופס אגב כמה מאות שיתופים במקסימום אבל יורים את התותחים המיטב של הביביסטים נגד ליבסקינד ונוביק מהפייסבוק תביעות אצבע של הליכוד בכל מקום פה  היום בשער מגזין הליכוד  כאילו חתיכת תזמון שכולם באותו שבוע כותבים על זה אני אגב מתנגד כמובן המדינה לא צריכה להיכנע לבריון בלי לפחות הודאה באשמה הספין החדש של הביביסטים חגי סגל עקיבא נוביק וקלמן ליבסקינד נפגשו עם מנדלבליט והוא גרם להם לכתוב מאמרים שקוראים ל…  NimrodFlash תשתוק ותצדיע לא שאני מפקפק בידיעה הזו אבל ביבי תמיד שמח לתפור לעובדי מדינה כוונות פוליטיות נסתרות בנט אחראי על הסגר פוטש  AnalGoddess770 eranlaor רעיון מעולה eranlaor נהדר shaycohen כשאני צריך מישהו שיחקור מחקרים וינתח נתונים האיש הזה הוא וויל דר וויליאם קוביסון בשבילכם ומה שוויל אומר ומראה פה זה שהגל… doroniko אורי בלאו בהארץ מגלה שחברות הקשורות לרומן אברמוביץ שותף סמוי של פוטין תרמו לעמותת אלעד של המתנחלים כמאה מיליון דולר תזכר… haimglikman סיפור יפה MayaEzra3 את מאוכזבת שזה לא פרסומות האם נתניהו יפרסם בסוף את סרטון התעמולה שטופז לוק הסריט אמש בבלפור orlybarlev בערוץ N12News וערוץ newsisrael13 התרכזו בסיקור בהפרת הבידוד והתעלמו לחלוטין מהסיבה שבגללה שני יועצי נתניהו היו בכלל בהפג… שלום תבורך jack בוא נראה אם האלגוריתם תומך בהסתה או בשלום  ReutMor בום האיש מאחורי עמותת אלעד  רומן אברמוביץ אלעד יודעים שהם גנבים שגוזלים את המעט מאלה שיש להם הכי פחות לכן הם מסתירים את ז… hagitofran אם הפעילות של עמותת אלעד היא כזאת טובה ולגיטימית למה התורם המרכזי שלה מתחבא חשיפה גדולה של uriblau   idanlandau לא מזמן אמר לי מירון רפופורט האיש שפירק לחתיכות את כל מערך השליטה התמנוני של עמותת אלעד הסוד שאף אחד עוד לא הצליח לפצח… harnevo נניח וצמד השקרנים לא היה נתפס נניח שהם היו מצלמים את ההצגה השקרית שהם יצרו מה הייתם רואים היום בתקשורת המיין סטרים הישראלית… אלעד וגופים אחרים בסגנון אשכרה עובדים על להוציא פלסטינים מבתים במזרח ירושלים משכונות פלסטיניות 100 מיליון דולר מדהים וואו  avischarf Roman Abramovichlinked offshore firms sent 100 MILLION to Israeli rightwing group working to expand Jewish presence in Ea… UriahCanaff אני עם אותו מספר 15 שנה והתמודדות עם הבעיה רבות וכן יש לי דיעות בנושא בקרוב המאמר באלכסון UriahCanaff השיטה הזו לא קבילה אם יש לך מספרים זהים ברביעי ובחמישי וחייבים לקחת שיטה אחרת BiniAshcknasy מתחיל להיגמר להם הקופים לפחות הוא לא שובר בידוד ויוצא לרחוב רק בריאות  DorHollander davidyerman Kanal מהדורה מיוחדת של  הסניהיומי  SanyArazi  DorDugy קורס איך להתקבל למילואים בהול iloveisraell תראו מי הגישה היום הצעת חוק להגביל את ההפגנות  זאת שלא מזמן הפיצה סרטון שלה בו היא מזמינה את הציבור להפגנת תמיכה בביבי… shaycohen עמית סגל לא מכיר את ראובן עזראבל גם אם מדובר ביועץ הטוב ביותר בנמצא את היום הזה הוא צריך לסיים עם מכתב פיטורין אא לדרוש… MayaEzra3 מחכה לך idanlandau יודונאצים עם ווטסאפ  hebmeme TopazLuk הווווו חחח NaamanStavy הכתובת הייתה על הקיר  freyisrael1 בסך הכל קופי פייסט לפני הפעולה של אתמול היה סלפי TopazLuk  AviWinestoock סרטון נהדר  AviWinestoock איש שליחויות לכל מטרה תסתכל על הקוח שלו בשנה האחרונה AviWinestoock כשהם התחרו בפייגלין שלחו אותו לצעוק על נערים שהוא גם מאמין בכלכלה חופשית  כשעשו את הקמפיין על היהודי…  haimhz Yoglas74 בהחלטטטטטט איש יקר שרשור בנט לפני שניסה להתמרכז שוב  AviWinestoock איזה מהדברים כהנא פרסם אתמול השאר לאורך השנים origivati כרגע יש את מה שפרסמתי ומיטב חוקרינו ממשיכים לעבוד SemelYair זו הערכה מבוססת חכ מתן כהנא אנשים מטילים דופי בפטריוטיות של שמאלנים איך אתם מעזים  חכ נפתלי בנט זה לא יוסי יונה זה חמאס ג…  איך הם מעזים  gevakraoz לא אופתע אם זה שילוב של השניים או לקחו כמה משוגעים ונתנו להם מיתוג ובמה או חיברו אליהם אחרים זה הכי ט…  limormoyal האם קלוגהפט בישל את הדייסה הזו  ארגון קש של פליטי שולמן עומד בשולי ההפגנה ומכחיש קורונה הם לא באו להפגין נגד המושחת ה… schatzah ניסיון חיסול של המחאה חמישה עמודים ניסיון חיסול של מפגינים פסקה  TalAviram לפי הפרסומים ygurvitz בפעם הבאה שאשף התעמולה המלוכלכת של הימין ינסה להתנחמד אל תשכחו את העובדות האיש זוהמה שאיננה ראויה לבוא בקהל  דוגמאות  עוד פרטים בשיטות המלוכלכות של האיש שאחראי על השחתת השיח הישראלי והסתה נגדי ונגד חברים שלי  הקבוצה שלהם בפייסבוק  ארגוני קש שקלוגהפט קידם  נשבר מהמשכנתא  נגד בנק הפועלים מורידים את מוצרי החשמל  נגד אלקטרה מחאת הרכבים …  Elkannush פיקנטי yotameyal aviadglickman זה עניין אישי של בן ארי כאשר פעילים בשירות נאשם בפלילים במשפט שהיא אחראית עליו מפגינים מולה אין בושה itamars עם כל הכבוד לחובת הבידוד של טופז לוק והתחקירים הנרגשים בנושא אני די משוכנע שאתמול ניסה מישהו לדרוס מפגינים בחיקוי כמעט ישיר ש… schatzah בכיר בחוליית ההסתה של ראש הממשלה נתפס מפר בידוד במהלך בישול עלילת שנאה נגד המפגינים בעניין אחר וממש לא קשור  נהג שפרץ מחסום… NitzanWaisberg באמצע ההפגנה כל הכבישים חסומים פתאום חונה בכיכר רכב ביביסטי מבט לצד מראה לנו חבורה הזוייה של מכחישי קורונה מאחורי ה… Yoglas74 מנגנון ההשחרה בשרותו של הנוכל הנאשם עופרגולן וטופז לוק נמלטים בחשיכה אחרי שצילמו קבוצה של אנשים מכחישי קורונה בשולי הפגנה …  YossiDorfman האירוע של החשד לניסיון פיגוע דריסה בהפגנה בבלפור כולל עצירת הרכב באקדחים שלופים עי השוטרים arianamelamed עכשיו קרדיט נדב גלאון  AyalHermanBadt orikol אם צריך את הסרטון שלי  הייתה בו מכונית עם סטיקרים של הליכוד שחנייתה בשטח הייתה תמוהה YTB2018 13 שבועות רצופים של הסתה נגד מפגיני בלפור והגשרים וההסתה עובדת בליץ התעמולה עובד גם עליכם דוחף אתכם להסתייג למצוא פגמים ל…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני מבקש לשלוח תנחומים מעומק הלב למשפחתה של מרים לוינגר ז״ל שהלכה לעולמה מרים ובעלה משה ז״ל היו ממקימי היישוב היהו…  עונה לשאלות שלכם בשידור חי בפייסבוק שלי  אני מבקש מכל מי שמקים סוכה לחג לעשות זאת עם מסיכה ולפי כל כללי הריחוק   יחד ננצח את הקורונה  גמר חתימה טובה ושנה טובה לכולכם זה כולל הכנת מערכת הבריאות לחורף מאמצי הסברה ואכיפה לחבישת מסיכות ושמירה על ריחוק חברתי מעבר איטי ומדורג לשגרת קו…  אזרחי ישראל אני גאה בציבור שגילה אחריות ושמר על ההנחיות ביום הכיפורים   אנחנו ממשיכים לעבוד מסביב לשעון כדי לבלום את מגיפת הקורונה בישראל שוחחתי עכשיו עם הרבנים הראשיים לישראל הראשל״צ הרב יצחק יוסף והרב דוד לאו והודיתי להם על מנהיגותם וקריאתם המשותפת לה…  אָבִינוּ מַלְכֵּנוּ מְנַע מַגֵּפָה מִנַּחֲלָתֶךָ אָבִינוּ מַלְכֵּנוּ חַדֵּשׁ עָלֵינוּ שָׁנָה טוֹבָה  ariyederi ההפגנה כעת בבלפור כשהמדינה כולה בסגר חסרת אחריות ותביא לעליית התחלואה כשהם נוהגים בחוסר אחריות אנחנו נדרשים לאחריות גדולה… אנחנו בשעת חירום לאומי כולנו צריכים להתגייס יחד כדי לנצח את הקורונה עדכון חשוב ממני אליכם  אנחנו עם אחד הקורונה לא מבדילה בינינו ולכן רק ביחד ננצח את הקורונה  שבת שלום מטרתי היחידה היא לשמור על חיי אדם על חיי המתפללים שאומרים ביום כיפור אבינו מלכנו מנע מגיפה מנחלתך ועל חיי כל אז…  מצב החרום מחייב אותנו לקבל החלטות קשות אבל הכרחיות  זה לא קל לא בישראל ולא במדינות באירופה שגם בהן המחלה צוברת תא…  LikudParty בשעת חירום לאומית זו אין מקום לפוליטיקה קטנה אף שההפגנות רק מסייעות לליכוד מבחינה פוליטית הן מסכנות את בריאות הציבור ולכ… LikudParty כיוון שלא ניתן להשלים את חקיקת החוק עד יום שלישי הליכוד הציע תקנות לשעת חירום לימים ספורים כדי למנוע הפגנות המוניות שיגרמ… LikudParty החוק ממילא לא יכל לעבור היום בכנסת עם 4000 הסתייגויות של האופוזיציה שמתנהלת בחוסר אחריות בשעת חירום לאומית זה קורה בשל הא… האחריות של המומחים היא לייעץ והאחריות שלי כראש ממשלת ישראל היא לקבל את ההחלטות הנכונות כדי להציל חיים  שאלו אותי על ההפגנות בבלפור הנה 2 דקות על הטענות ההזויות ששמעתי בימים האחרונים צפו  אנחנו בשעת חירום לאומית במלחמה על הבריאות הכלכלה על החיים של כולנו אני יודע שיחד אנחנו יכולים לנצח את הקורונה…  LikudParty הערב שמענו את יאיר לפיד פוגע באמון הציבור בזמן חירום ובכך מסכן את חייהם של אזרחי ישראל   זה אותו יאיר לפיד שאמר שאין הצד… לפי מצב התחלואה בישראל סגר היה רק עניין של זמן לכן עדיף סגר מלא עכשיו בחגים במחיר כלכלי נמוך יותר מאשר סגר אחרי…  IsraeliPMheb שידור חי ראש הממשלה בנימין נתניהו מוסר הצהרה לתקשורת  ArielKallner האם יעלה על הדעת שמדינת ישראל תממן הגנה לפורעי חוק המפגינים נגד ממשלת גרמניה האם ממשלת גרמניה הייתה עוברת על כך בשתיקה… שוחחתי עם הנסיך סלמאן בן חמד אל חליפה יורש העצר של ממלכת בחריין  זאת הייתה שיחה יוצאת מן הכלל ומאוד ידידותית די…  kannnews חכ יפעת שאשאביטון לא הסכימה עם התחזית של פרופ גבי ברבש שעמדה על 600 חולים קשים גם כשהתברר שהוא צדק מהצדהשני עם guyzo… לשלומית לילדיו ארנון מוריה גלעד שילה אורה נבו וברנע ולנכדים ננצור יחד עמכם את זכרו של איש מופלא בישראל  מה גדול הכאב ובתפקידיו ראש בית הספר לחינוך באוניברסיטת בר אילן ראש המכון לחקר החינוך הדתי ראש המזכירות הפדגוגית במשרד החינוך…  הוא עלה לבד בגיל 18 מיוהנסבורג היה בין הצנחנים ששחרורו את הכותל במלחמת ששת הימים ובמשך עשור עשה שרות מילואים במוסד…  יענקלה היה לי כאח במשך 30 שנה הלכנו בדרך משותפת הוא תמיד צעד לצידנו ברגעים של קורת רוח ושמחה ועוד יותר ברגעים ש…  רעייתי שרה ואני ובנינו יאיר ואבנר מבכים את הליכתו של ידיד משפחתנו יקירנו פרופסור יעקב כץ מותו הפתאומי זעזע אותנו עד עמקי נשמתנו I join the American people in mourning the passing of Ruth Bader Ginsburg one of the great judicial leaders of our…  איתך תמיד בנימין ושרה נתניהו לדידי הררי חברנו האהוב אנחנו מחבקים אותך ודואבים איתך ועם הבנות על האובדן הקשה מנשוא של אשת חייך האהובה מירית שנל…  שנה טובה ובריאה לכל אזרחי ישראל  IsraeliPMheb שידור חי ראש הממשלה בנימין נתניהו מוסר עדכון לציבור ממעון ראש הממשלה בירושלים  שידור חי    My warmest birthday wishes to my good friend Prime Minister of India narendramodi  Happy birthday יום הולדת שמח  ज…  שתהיה לכולנו שנה טובה וחג שמח מבצע ״תפוח בדבש״ צפו gtgt  קרן ההשקעות של אבו דאבי שמנהלת מאות מיליארדי דולרים פותחת את משרדה הראשון מחוץ למדינה בישראל  כך נראה שלום תמור…  FLOTUS It is always a pleasure to host Mrs Netanyahu at the WhiteHouse The bond between our two nations is strong amp I appreciated t… כותרות העיתונים הגדולים בארצות הברית הבאנו שלום תמורת שלום שלום מתוך עוצמה ועידן חדש של שלום  רגע לפני שנוחתים בישראל ביקשתי להודות לחברי המשלחת על רגע היסטורי שנזכור לדורות  כמה טוב לחזור לארץ בשלום ועם הסכמי שלום   הבאנו שלום תמורת שלום שלום מתוך עוצמה   אני מודה לנשיא טראמפ על אות הידידות שהעניק לי ולרעייתי בבית הלבן החברות בין ישראל לארה״ב איתנה וחזקה מתמיד …  BismuthBoaz בלי ויתור על חבלי מולדת ובלי אוטובוסים מתפוצצים • וזו רק ההקדמה גם סעודיה בדרך • הפרשנים יעקמו פרצוף כאילו שלא הביאו להם… אני לא מתפלא שהטרוריסטים הפלסטיניים ירו לעבר ישראל בדיוק בזמן הטקס ההיסטורי הזה הם רוצים להחזיר את השלום לאחור ה…  את הפירות של ההסכמים הללו אזרחי ישראל יראו מהר מאוד אבל הם יעמדו לנו לדורות כל אחד שהיה במקום הבין שעשינו תפנית…  אני בדרך לישראל אחרי ביקור היסטורי בוושינגטון בו חתמנו על מסמכי הכינון של שני הסכמי שלום עם שתי מדינות ערביות  במשך אלפי שנים העם היהודי התפלל לשלום במשך עשרות שנים המדינה היהודית התפללה לשלום   היום הבאנו שלום תמורת שלום…  Thank you President Trump You have unequivocally stood by Israels side and boldly confronted the tyrants of Tehra…  I am grateful to King Hamad of Bahrain and to Foreign Minister Abdullatif AlZayani for joining us in bringing hop…  I am grateful to Crown Prince Mohammed bin Zayed of the United Arab Emirates and to Foreign Minister Abdullah bin Z…  You have boldly confronted the tyrants of Tehran Youve proposed a realistic vision for peace between Israel and t…  This week is Rosh Hashana the Jewish New Year and what a blessing we bring to this new year a blessing of friend…  I have worked to make Israel strong very strong for history has taught us that strength brings security strength…  This is not only a peace between leaders its a peace between peoples—Israelis Emiratis and Bahrainis are already embracing one another I know the price of war For those who bear the wounds of war cherish the blessings of peace And the blessings of…  This day is a pivot of history It heralds a new dawn of peace For thousands of years the Jewish people have pray…  יום גדול לעם ישראל הבאנו שלום תמורת שלום שלום מתוך עוצמה  מהיום  עידן חדש של שלום במזרח התיכון   עם ישראל יודע את מחיר המלחמה אני יודע את מחיר המלחמה   נפצעתי בקרבות איבדתי בין זרועותיי חבר קרוב שנפל בקרב איב…  לכל החברים של ישראל במזרח התיכון  אלה שמצטרפים אלינו היום ואלו שיצטרפו אלינו מחר  אני אומר סאלאם עליכום שלום על…  ידידי הנשיא טראמפ תודה על קבלת הפנים החמה לבית הלבן זהו עידן חדש של שלום  IsraeliPMheb ראש הממשלה בנימין נתניהו בטקס חתימת הסכמי השלום ההיסטוריים הסכמי אברהם עם איחוד האמירויות ובחריין במעמד נשיא ארהב… IsraeliPM WATCH LIVE Prime Minister Benjamin Netanyahu at the signing ceremony of the historic Abraham Accords with the United Arab… realDonaldTrump HISTORIC day for PEACE in the Middle East — I am welcoming leaders from Israel the United Arab Emirates and the King… WhiteHouse Today is a HISTORIC day at the White House  President realDonaldTrump welcomes the Prime Minister of Israel and the Forei… IsraeliPMheb שידור חי פגישת ראש הממשלה בנימין נתניהו עם נשיא ארהב דונלד טראמפ בבית הלבן   IsraeliPM LIVE Prime Minister Benjamin Netanyahu meets with US President realDonaldTrump at the White House   יום מרגש והיסטורי לישראל בדרך לעשות שלום תמורת שלום שלום מתוך עוצמה  kannnews הסכם אברהם  השלום בסיקור עיתוני המפרץ כותרת עיתון אל איתיחאד של איחוד האמירויות האמירויות וישראל  שלום העתיד  יום הי… גם כשאני עסוק בעבודה המדינית החשובה הזו אני לא שוכח לרגע שאלה ימים קשים לכולנו הספקתי לדבר היום גם עם שר האוצר וג…  זו תפנית עצומה בתולדות ישראל גם בתולדות המזרח התיכון תהיה לזה השפעה אדירה וחיובית על כל אזרחי ישראל אני גם מבטיח…  אני מחזיק בידי את טיוטת חוזה השלום ההיסטורי בין ישראל לאיחוד האמירויות וגם את הצהרת השלום ההיסטורית בין ישראל לבחר…  בדרך להביא שלום תמורת שלום  גם עכשיו למענכם ובשליחותכם אני אקבל את ההחלטות הנכונות גם אם הן קשות כדי להציל את חייהם של אזרחי ישראל וכדי לשמ…  אותו תהליך בדיוק קורה עכשיו במגיפת הקורונה  בגל הראשון של הקורונה קיבלנו את ההחלטות הנכונות שהביאו את ישראל למצב…  תמיד ראיתי לנגד עיניי את המטרה של טובת ישראל ותמיד קיבלתי את ההחלטות הנכונות למען המדינה שלנו   תמיד קרה אותו דבר…  כשאמרו שאני גורם לצונאמי מדיני כשנלחמתי לבנות גדר בגבול סיני כשאמרו שאני הורס את היחסים עם ארה״ב כשאמרו שלעולם לא אביא הסכמי שלום – גם כשהכדורים שרקו סביבי  גם כשנורו עליי חיצי ביקורת ולעג –  כשהנהגתי כלכלה חופשית  כשהוצאנו את הגז מהמים  כשהתנג…  בשנותיי כלוחם ומפקד בסיירת מטכל ובכל תפקידיי הציבוריים  כשר האוצר כשר החוץ כשר הביטחון וכראש הממשלה   תמיד דג…  קיבלנו את ההחלטות הנכונות בגל הראשון של הקורונה ובזכותן בישראל התמותה נמוכה ביחס לעולם והכלכלה חזקה ביחס לעולם   ג…  IsraeliPMheb שידור חי ראש הממשלה בנימין נתניהו בהצהרה לתקשורת  שוחחתי כעת בטלפון עם ראש ממשלת דנמרק מדה פרדריקסן והודיתי לה על עמידתה האיתנה להגן על הקהילה היהודית ועל מסורת בר…  כל ההסכמים הללו נעשים עי עבודה מאומצת מאחורי הקלעים במשך שנים אבל הם הגיעו לכלל מימוש עי העזרה החשובה של ידידנו נ…  זה עידן חדש של שלום שלום תמורת שלום כלכלה תמורת כלכלה אנחנו השקענו בשלום במשך שנים ארוכות ועכשיו השלום ישקיע בנו…  זה מצטרף להסכם השלום ההיסטורי עם איחוד האמירויות זה לקח לנו 26 שנים להגיע מהסכם השלום השני עם מדינה ערבית להסכם הש…  אזרחי ישראל אני נרגש לבשר לכם שהערב נגיע להסכם שלום נוסף עם מדינה ערבית נוספת עם בחריין זה מצטרף להסכם השלום ההי…  אוהב אתכם שתהיה לכל אזרחי ישראל שבת שלום Today we remember all those who perished in the greatest terrorist crime in history committed on September 11 200…  לוקח רגע מהדיונים בקבינט הקורונה כדי לעדכן אתכם אישית על ההחלטות שלפנינו  נפגשתי השבוע עם עמותות סיוע למשפחות נזקקות  אנחנו מחוייבים שלא תהיה אף משפחה שתגיע לחג בלי ארוחת חג נעשה הכל כדי…  LikudParty סיעת הליכוד רק חקירה עצמאית ובלתיתלויה תגלה את האמת על תפירת התיקים נגד ראש הממשלה נתניהו ישראל צריכה מערכת אכיפת חוק ו… בפירוט  פיתוח וחיזוק של ההתיישבות ביהודה ושומרון תקציבי סיוע לכפרי הסטודנטים ברחבי הארץ תוכניות למען בעלי חיים ועוד מענקים מיוחדים לאוכלוסיית הנכים תכנית להעלאת כ2000 מבני הפלאשמורה תכנית סיוע לשילוב בני העדה האתיופית בישראל ע…  הבאנו ואישרנו הלילה תקציב של 11 מיליארד שקלים לטובת כל אזרחי ישראל ובמיוחד לאוכלוסיות נזקקות בשורה חשובה מאוד בין היתר תקצבנו כולנו ראינו השבוע את אותם גילויים מזעזעים על טיוח חקירות ושיבוש חקירות מעשים שנעשו על ידי בכירים בפרקליטות ובמשטרה…  שידור חי    amitsegal מסמך משטרתי חושף   החוקר רוטנברג ״ידע על בדיקה נגד נוני מוזס ועל קיום חומרים שנגעו לה״   במשטרה ובפרקליטות מנעו את חקירת האמצעים הפליליים בהם השתמשה המשטרה כדי להביא את ניר חפץ להפוך לעד מדינה    אתמול…  אני גאה לצאת בשבוע הבא לוושינגטון בהזמנת הנשיא טראמפ ולהשתתף בטקס ההיסטורי בבית הלבן לכינון הסכם השלום בין ישראל לאיחוד האמירויות arutz20 רהמ נתניהו בהצהרה היום אם זה מה שעשו לי ולמשפחת אבו אלקיעאן  מה הם עושים יום יום לאזרחי ישראל  אני בסיור עבודה בבית שמש שהוגדרה כעיר אדומה קידמנו היום את הפעולות שיחזירו אותה להיות עיר ירוקה   באתי לחבק ולחזק…  החשיפה של עמית סגל מוכיחה שהחקירות נגדי היו פוליטיות ומזוהמות מהרגע הראשון חייבים חקירה עצמאית ובלתיתלויה כדי להג…   ישראל חוזרת לאפריקה ואפריקה חוזרת לישראל  נפגשתי היום עם יור הקבינט של צאד עבדלקרים דבי ועם ראש שירותי המודיעין של צאד אחמד קוגרי  לאחר חידוש היחסים עם…  סיור עבודה ברמלה בשני בתי עסק שמתמודדים עם האתגרים הלא פשוטים של הקורונה  חיזקתי אותם והבטחתי להמשיך לעזור מעבר לס…    מזעזע עמית סגל מטיל הערב פצצת אטום ומוכיח בהתכתבויות בין בכירי משטרה ופרקליטות כך תפרו תיקים לראש הממשלה נתניהו…  amitsegal רב פקד אבי רוטנברג ניהל את חקירת המעונות של שרה נתניהו במהלך החקירה רגע לפני שהוא אמור להיות גם בצוות שבודק את הקלטות מוז… amitsegal אבל ניצן מודה במייל סודי המפכל התנהג שערורייתית אבל לא נעזור כי זה יעשה טוב למי שרוצה ברעת המערכת ודי לחכימא זמן קצר… amitsegal הכתבה המלאה  GolanOfer amitsegal חושף את קשר השתיקה וההסתרה של המשטרה והפרקליטות נגד ראש הממשלה החשיפה מצטרפת לפרשת קלטות הסתר של מנדלבליט מניע… לצערי פוליטיקאים מנסים לנצל את המגיפה לצרכים פוליטיים ראשי האופוזיציה חייבים לגלות אחריות ולא לגרור את המדינה לאנר…  מכתב ששלחתי עכשיו לראשי האופוזיציה גלו אחריות  שידור חי    מסר מרגש ודרישת שלום מיור הפרלמנט של קוסובו עוסמני ויוסה המדינה המוסלמית הראשונה שתפתח שגרירות בירושלים  A touc…    אזרחי ישראל אני מבקש לעדכן אתכם על ההחלטה שועדת השרים קיבלה הערב לאור הנתונים וההמלצות הללו ההחלטה הערב הייתה שק…  פניה אישית ממני אליכם אחיי ואחיותיי מהמגזר החרדי צפו gtgt  אני מודה לכל עמותות הסיוע שעבדו איתנו היום ושעובדים בכל ימות השנה כדי לסייע לכל מי שזקוק לעזרה אנחנו משקיעים כמעט מיליארד שקלים בעזרה מיידית לשכבות המצוקה אנחנו רוצים שזה יגיע ויגיע מהר   אנו מחוייבים לעזור…  החלטנו להגדיל את סכום התמיכה שהמדינה נותנת לעמותות סיוע לנזקקים פי 3 ל18 מיליון שח   בנוסף נביא 9 מיליון שח לס…  נחנו בעידן חדש של נורמליזציה ושלום  שלום שנובע מעוצמתה של ישראל  כמו יתר העולם נמשיך להאבק בקורונה נדאג לכלכלת…  שבוע טוב  אני מברך על ההסכם עם קוסובו שתהיה המדינה המוסלמית הראשונה שתפתח שגרירות בירושלים סרביה תהיה המדינה הראש…  שבת שלום   LikudParty לשמאל קשה לראות איך ראש הממשלה נתניהו ריסק את תפיסת שטחים תמורת שלום והביא לראשונה ״שלום תמורת שלום״ ולכן הם מנהלים מול… על אף שהתבשרנו על עלייה אפילו מפתיעה בהכנסות של מדינת ישראל בחודש אוגוסט אנחנו יודעים שיש עדיין קשיים גדולים יש…  כינסתי דיון כלכלי עכשיו לבחינת צעדים נוספים להאצת המשק וחיזוק הכלכלה   אנחנו דנים כל הזמן בצעדים נוספים  מס הכנסה…  אני מבקש את שיתוף הפעולה של כל אזרחי ישראל על מנת לבלום את התחלואה הזאת   הישמעו להנחיות הבריאות   זה חשוב לבריאות של כל אחד ואחת מכם במשך חודש שלם היינו ברמה של תחלואה גבוהה אך יציבה בימים האחרונים חלה עלייה ועלייה דרמטית מאוד אתמול   לכן החלטנו…  נפגשתי היום עם ידידי שר החוץ של רומניה בוגדן אאורסקו בירושלים   אנחנו מברכים על היחסים המצוינים בין רומניה ליש…  שוחחתי היום עם נשיא מצרים עבד אלפתאח אסיסי דיברנו על האתגרים האזוריים חיזוק היחסים ושיתוף הפעולה בינינו במגוון…  בנוסף זה יפתח לנו את המזרח כשאתם טסים לתאילנד או לכל מקום אחר באסיה זה יוריד דרמטית שעות טיסה ומחירים    הבאנ…  פריצת דרך אדירה אישרנו שמטוסים ישראלים ומטוסים של כל המדינות יוכלו לטוס ישירות מישראל לאבודאבי לדובאי ובחזרה  …  שמחתי ללוות את אופק ראשון שסבלה מחרם חברתי מצער לפני מספר שנים ביום הראשון ללימודים על כולנו להתגייס למאבק נגד ש…  ברוכה הבאה ShuliMR  AaronKleinShow My piece today in Newsweek  The Netanyahu Doctrine Is Bringing Middle East Peace  כולנו ביחד חייבים להוקיע תופעות כאלה ולגלות ערבות הדדית אסור לעמוד מהצד   ולך אופק את גדולה מהחיים אנחנו שותפים למשימה וביחד ננצח דיברנו יחד על איך נוכל לקדם מטרה חשובה זו ולדאוג שאף ילד לא יצטרך לעבור שימינג ביריונות או חרם   רעייתי שרה מוביל…  פגשתי היום את אופק ראשון שסבלה מחרם חברתי מצער לפני מספר שנים כיום היא מובילה ב״סיירת החרם״ של ״הצינור״ במטרה לעז…  אני מברך על ההבנות הראשונות שנחתמו באבו דאבי   ההבנות יסייעו לנו לקדם השקעות הדדיות ושיתופי פעולה נרחבים נודי…  באתי לפתוח את שנת הלימודים בכיתה א׳  צפו בעדכון אישי ממני אליכם  בקרוב עוד חדשות טובות על הסכמים נוספים בינינו בתחומי התעופה התיירות והמסחר יש למה לחכות בתמונה שער אחד העיתונים המובילים באיחוד האמירויות רגע היסטורי של ״שלום תמורת שלום״  היום חתמנו על הסכם ראשון ב…  שלום כיתה א׳ בהצלחה לכל התלמידות והתלמידים שלנו   הצטרפו אליי לטלגרם  שלום כיתה א׳ בהצלחה  yankihebrew התקווה לשלום   The hope for peace  الأمل في السلام  ⁦يتعلم اطفالي عن السلام  גם אני מכין ילקוט   אוהב אתכם ילדי ישראל  בהצלחה  25 שנה אני עובד כדי לפרק את תפיסת ״שלום תמורת ויתורים״ ולהביא ״שלום תמורת שלום״ היום הזה הגיע  זה יום חג משמח למדינת ישראל עבדתי קשה 25 שנה כדי שנגיע לרגע הזה לשלום תמורת שלום שלום מתוך עוצמה    שידור חי  לחמודים ולחמודות שמתחילים מחר את הגן  זה בשבילכם gtgt  מרגש דגל ישראל מונף באבו דאבי   שלום תמורת שלום  שלום מתוך עוצמה   יום היסטורי ומרגש אמסור הצהרה בשעה 1815  תודה   וידאו kaisos1987 התרגשתי לשוחח בטלפון עם המשלחת הישראלית לאבו דאבי בדרך לעשיית שלום היסטורי  אחרי מאמצים אדירים שהובלתי במשך שנים…  IvankaTrump Historic IsraelAbu Dhabi flight to fly over Saudi Arabia  This was the 1st ever commercial flight from Israel to the UAE… זה דרש ועדיין דורש שינוי מהפכני בגישה הרווחת כיצד ישראל תשיג שלום אני גאה שנאבקתי על השינוי הזה והובלתי אותו עד…  זהו יום היסטורי למדינת ישראל שעמלתי להשיגו במשך עשרות שנים   הנה הדברים שכתבתי בספרי ״מקום תחת השמש״ לפני 25 שנה ב…  לראשונה בהיסטוריה טיסה מסחרית ישראלית לאיחוד האמירויות ככה נראה שלום תמורת שלום  בוקר טוב ישראל  צפו משפחה באיחוד האמירויות חוגגת את הסכם השלום עם ישראל   עושים שלום מתוך שלום  שלום מתוך עוצמה   במשך זמן רב מדי הטילו הפלסטינים וטו על השלום בין ישראל למדינות ערב זה נגמר שלום תמורת שלום שלום מתוך עוצמה  כך נראה שלום תמורת שלום שלום מתוך עוצמה  במשך זמן רב מדי לפלסטינים היה וטו על שלום בין ישראל לעולם הערבי אם נצטרך לחכות להם  נחכה לנצח אנחנו לא מחכים ומ…  אתמול איחוד האמירויות הסירו לראשונה את החרם על ישראל ופתחו את הדלת למסחר השקעות ושיתוף פעולה בין הכלכלות הטובות בי…  אני שמח לארח היום במעון ראש הממשלה בירושלים את ג׳ראד קושנר שליחו המיוחד של הנשיא טראמפ ואת רוברט אובריאן היועץ ל…  IsraeliPMheb שידור חי ראש הממשלה בנימין נתניהו בהצהרות משותפות עם היועץ לביטחון לאומי של ארהב רוברט אובריאן והיועץ הבכיר לנשיא ארה״… IsraeliPM LIVE Statements by Prime Minister Benjamin Netanyahu US National Security Adviser Robert OBrien and Senior US Presidentia… אחרי הראיונות המלוקקים של התקשורת עם רוני אלשיך כדאי לקרוא את העובדות כדי להבין את האמת  אני מברך על החלטת נשיא איחוד האמירויות שייח חליפה בן זאיד לבטל את החוק להחרמת מוצרים מישראל ומגעים כלכליים עם יש…  בשבוע הבא בפעם הראשונה תצא טיסה מסחרית לאבו דאבי ככה בדיוק נראה שלום תמורת שלום שבת שלום לכולכם   LikudParty הפגנות השמאל הן ההפגנות ״הספונטניות״ המאורגנות ביותר אי פעם מי שעומד מאחוריהן ומממן אותן הם טייקונים מהשמאל וביניהם אורני… אני מצר על ההחלטה השגויה של בגץ בעניין פינוי מצפה כרמים הוריתי למנכל משרדי רונן פרץ להיפגש עם נציגות היישוב נמצ…  שרה ואני מתארחים היום במלון רות צפת מקום נפלא  היינו פה בפעם הראשונה לפני כ30 שנה לדעתי גם באותו חדר שוחחתי…  בשם כל אזרחי ישראל אני שולח תנחומים מעומק ליבי למשפחת אוחיון על רצח אב המשפחה הרב שי בפיגוע דקירה היום בפתח תקווה…  ישראל רואה בחומרה רבה את הירי לעבר כוחותינו על ידי חיזבאללה לא נסבול שום תוקפנות נגד אזרחינו ונגיב בעוצמה על כל הת…  לפני הכל אני פה כדי לשמור על החיים שלכם נמשיך להביא ביטחון ומתוכו גם להביא שלום  שומרים על ביטחון ישראל  בוקר ט…  זהו הסכם היסטורי הוא יביא למנועי צמיחה הוא יכול לעזור להביא לפריחה כלכלית בכלל ובפרט בתקופת הקורונה אני מקווה ש…  הנחיתי את ראש המטה לביטחון לאומי מאיר בןשבת לצאת בראש משלחת ישראליתמקצועית לשיחות באיחוד האמירויות בשבוע הבא…  אנחנו פותחים את שנת הלימודים כי זה חשוב לחינוך הילדים וזה חשוב גם לכלכלה שלנו לאפשר להורים ללכת למקומות העבודה  א…  סיימתי עכשיו סיור עבודה בבית הספר עופרים בירושלים יחד עם שר החינוך גלנט כדי לעקוב מקרוב אחר היערכות מערכת החינוך…  החלטתי עם שר האוצר ישראל כץ ושר החינוך יואב גלנט להקצות 300 מיליון שח לסבסוד הצהרונים עד לסוף שנת הלימודים הקרובה…  מה באמת קורה בהפגנות השמאל הסתה לרצח תקיפת שוטרים ביזוי סמלי המדינה הפרות סדר שתפו את מה שהתקשורת מסתירה מכם  kannnews נתניהו הגיע להצבעה במליאה לא זוכר שדיברתי על גנץ כמו שהם מדברים עליי אבל זה הזמן לשלב ידיים shemeshmicha  הדבר האחרון שישראל צריכה עכשיו זה בחירות לכן הודעתי אתמול על תמיכה בפשרה שתמנע בחירות לצערי היום כחול לבן הוסיפו…  Today I had an important meeting with my friend SecPompeo   I thanked him for America’s great support for Isr…  הייתה לי פגישה חשובה היום עם מזכיר המדינה האמריקני ידידי מייק פומפאו   הודיתי לו על התמיכה האדירה של ארה״ב בי…  IsraeliPM Watch Live Statements by Prime Minister Benjamin Netanyahu and US Secretary of State Mike Pompeo following their meeting a… IsraeliPMheb שידור חי ראש הממשלה בנימין נתניהו ומזכיר המדינה האמריקני מייק פומפאו בהצהרות משותפות בתום פגישתם במשרד ראש הממשלה בירוש… אני תמיד שמח לארח בירושלים בירתנו את מזכיר המדינה האמריקני ידידי מייק פומפאו ברוך הבא   צילום קובי גדעון…  IsraeliPM Prime Minister Benjamin Netanyahu meets with US Secretary of State Mike Pompeo at the Prime Ministers Office in Jerusalem… IsraeliPMheb שידור חי פגישת ראש הממשלה בנימין נתניהו ומזכיר המדינה האמריקני מייק פומפאו במשרד ראש הממשלה בירושלים  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCforthemass כיום נדמה  לי שאומרים ״גמר חתימה טובה״ ולא ״חתימה טובה״ שאומרים בין ראש השנה ליום כיפור לאחר יום כיפ…  מחקתי את הציוץ הקודם כי הוא לא שיקף נאמנה את מה שנאמר בשידור כשטועים צריך לתקן  עיקרון שנכון לכולם זו היתה אכן טעות כתיב אני מוחק את הציוץ הוא עדיין גזען עלוב ודוחה NWeinryb לא מאמין בתמימות שלו לגבי ערביםהיו לו ביטויים יותר קשים LahavAdam בגלל שהוא עבריין מועד וגזען tzvidanieli לא ידעתי  שמערכת תוכנית הבוקר תגיב לכך ותבהיר ואז נסכים בינינו סגר מימין כביש עפולה ומשמאל ליד נווה אילן ואבו גוש  טראמפ לא היה כלום כי אין כלום  הילד המתוק מג׳ד שחאדה בן 8 מכפר יאסיף נהרג בתאונת סקייטבורד לפני כמה ימים משפחתו האצילה תרמה את איבריו שהצילו 3 בנ…  לזכרם  עדכון אוסמה הצליח ובסוף זה הוחרג ויש בחינה ביום ג EytanYoav אוסמה מקצוען אמיתי ופרלמנטר מעולה תם סדר היום העם התפטר סגר נעים   ישיבת ועדת החוקה ננעלה  לא תהיה היום הצבעה במליאה  על חוק הגבלת ההפגנה בבלפור גאה בחבריי אוסמה סעדי ועופר כסיף ו…  חכ סעדי המצוין הציג בועדת חוקה את סוגית בחינת הבגרות  המורשת למוסלמים דרוזים ונוצרים שאמורה להתקיים ביום ג 1125 נ…  נציגי המשותפת בועדת חוקה osamasaadi63 ו  ofercass  ושאר חברי האופוזיציה עושים עבודה מצוינת מאתמול  וגם בלילה ו…  אף לא מיטת טיפול נמרץ ילדים בנצרת והסביבה 3 בתי חולים פרטיים בעיר מנהל ביהח הצרפתי דר נאיל אליאס  בנצרת פנה למשרד הבריאות בדרישה זו ואכן אמרו מראש שזו ממשלת חרום ואהן הביאו אותנו למצב חרום לא מבין על מה הטענות לא לאיים לא לעקוף יש חוק כאן חוק טיבי  saragusti הכל יחסי ענת בזמן שרבים ראו את התוכנית ״זמר במסכה״ בערוץ12 שודרה תוכנית מעמיקה בערוץ11 על הפגנות 2000 בשם ״ 10 ימים באוקטובר״ ש…  נתניהו לא נאבק בקורונה תמונת הנצחון שהוא רוצה היא כיכר בלפור ריקה לאורך זמן באמצעות חקיקה  המציאות ממשיכה לאתגר את דף המסרים של נתניהו  עכשיו בכספים במסגרת המאבק בקורונה בסעיף תקציב הספורט יש תמיכה ברבני קהילה  ועוד 25 מלש להתנחלות היהודית בחברון…  אל על מתחילה להחזיר כסף לנוסעים מנסה לשכנע לקחת זיכוי  על פי חוק טיבי  במקום לנייד חולים מהצפון למרכז היה צריך להוסיף מיטות בפריפריה  במקום להתאים חניונים לאשפוז היה צריך לחזק את בתי החולים  מחדל מתמשך That footballrelated funds are being used to expand illegalcolonial settlements has been already denounced yet…  לא רק בקורונה אשמה יפעת שאשא ביטון חשוב לציין שהיא אחראית גם להפקרות של יועצי רה״מ לאבטלה לשסע החברתי לפשיעה וג…  TsviSarShalom talschneider מקווה שאתה צודק צבי israel13243546 talschneider פורסם שלעזאזל תפוס ע׳י אנשים כמוך ולא נשאר מקום רוצח או ראש כנופיה לא היה שולח הודעת יח״צ לכתבים עם פירוט פשעיו בשנה החולפת כנופיית נוער הזוועות מתגאה בפעולות הטר…  נתניהו מנהיגים מכל העולם מתקשרים אלי ושואלים איך לשחרר את היועצים שלהם מבידוד  לא רק נגיף הקורונה משתולל גם נגיף הצביעות  מניעת התקהלות נדרשת מכוווולם לא רק מהמפגינים בבלפור אלא גם מעובדי רש…  לפני חודש דיברנו היתה מעודדת עם שמחת חיים שידעה שיסתיימו מיד  מודל לחיקוי בהתמודדות עם המחלה הארורה עצוב מאוד…  AmiBrand תשתמש חופשי שתהיה שנת טובה שנה של כיבוד ולא של קוביד של סובלנות ולא של סבל שנה של חיסון ולא של חסינות שנה שבה נקטע את שרשרת…  MkSondos hadastag osamasaadi63 מברוק הדס על עבודה נהדרת ומסורה אזרחי ישראל אתם בידיים טובות ידידי מייק פנס ואני נטפל בכם  eladrosenfeld ועוד המווון הורים פניתי ליור ועדת חוקה ולשר החינוך ולשר רווחה כדי למצוא מסגרת ופתרון לילדיהם של מי שמוגדרים ״עובדים חיוניים״ זאת מצו…  הצ״ח שלי לרשת בטחון כלכלית ופיצוי למועדוני כדורגל מכל הליגות בשל משבר הקורונה  ZulatEquality חכ Ahmadtibi  אמנם הקהילה הבינלאומית רובה תומכת במאבק הפלסטיני אבל הבית הלבן והממשל האמריקאי עוי  שהמדיניות שלו כמע… הקורונה מבקשת להבהיר כי מי שמתקהל כדי להפגין בעד ביבי הוא לא מפיץ מחלות    whynot42 אין חוק יסוד ערך שוויון בישראל מציע קודם לעשות שלום עם 20 מהאזרחים האזרחים הערבים בהסכם השלום יהיה סעיף אחד בלבד כל האזרחים במדינת ישראל יהיו שווים שיא חדש במספר חולי הקורונה ראש הממשלה עושה ״שלום״ על הדשא בבית הלבן כך שהאחריות המלאה על ראש הממשלה החליפי אתם צ…  zehavagalon האמנם המשך מורשת רבין ופרס פאנל דיגיטלי בשידור חי היום יום רביעי בשעה 2100 האם זה הסכם שלום או FAKE PEACE רוצים שנענ… הטרלה של הורי התלמידים לא יהיה שלום במזרח התיכון בלי שלום עם העם הפלסטיני בלי סיום הכיבוש שלום שישים קץ למלחמות ושפיכות הדמים הוא עדיף ע…  שעתיים לפני פתיחת תחנת היבדק וסע באום אלפחם עיר אדומה  פיקוד העורף הודיע על ביטולה ״בגלל העומס במעבדות״ איפה המ…  הקואליציה עסוקה בקטיעת שרשרת ההדבקה  נב ואני עקרונית נגד הריסת בתים האם הורסים את הבית לרוצח השפל הזה או שלא הורסים בתים לטרוריסטים יהודים כי הם יהודים  נתניהו מוושינגטון אני מחזק את הציבור הישראלי תחזיקו מעמד שם מול המגפה התנהגות זבל  מי שתקף פלסטיני התעלל בו שדד והשפיל אותו יבלה את החג בבית כמו כל עם ישראל מונתסר אחד הפועלים המותקפים התקשר ושאל…  מקום ראשון בגרפים ובדיאגרמות  Ratmonkey42 מאמר אכן מצוין בגל הראשון מדא היתה אחראית ישירות על תחנות היבדק וסע בארץ ובישובים הערביים והיא פרסה תחנות בכל היישובים במהירות ויע…  Ratmonkey42 יש הבדל ztomer נכון תודה רבה מאיר מעריך מאוד אבל אני פועל למען כלל הציבור  galberger  navazigmund תקראי שוב osherlarov הכיבוש משחית osherlarov כבר צייצתי את זה לפני כמה שנים  אבל זה רלבנטי תמיד מקורבים לזהבי המשטרה רודפת אותו כי הוא כדורגלן מכהן לחקור את החוקרים  מטרת נתניהו הורדת קצב התחלואה 🤣🤣🤣 מטרת נתניהו שיפור מצבם הכלכלי של אזרחי ישראל 🤣  arnaviv ilanbentov זאת שנינה יותר מאשר בדיחה LermanYuval nitayp אנחנו אופוזיציה ורצינו בחירות ועלינו במנדטים מ10 ל15 כיום יש מבין לא נשתף פעולה עם מי שמשתף פעולה עם תומכי טרור  hadarse barpeleg בדיחה  ליכודניקית גרועה חייבים לחקור את הפרקליטות  מודה באשמה  תגרת עולם בין כחול לבן והליכוד האשמות וצעקות הכל סביב חקירות נתניהו מנדלבליט וכו׳ די  2017 תזכורתבלילה של ה18122018 ירתה המשטרה ביעקוב אבו אלקיעאן והרסה את ביתו ניסינו להיכנס ליישוב המשטרה נהגה בנו באל…  הוא ״ התנצל״ בזו הלשון  נתניהו אלימות משטרתית כלפי הערבים  כדי לפגוע בי הזנחה של שנים בתשתיות  כדי לפגוע בי…  כמה פעמים נרצח יעקוב אבו אלקיעאן  פנייה בכתב לראש הממשלה נתניהו תתנצל בפני משפחת אבו אלקיעאן ובפני הציבור  מקווה שבקרוב יתגלה קשר כלשהו בין חקירת נתניהו והכיבוש ואז כל הביביסטים יזעקו פתאום די לכיבוש רצח יעקוב אבו אלקיעאן הוא פשע נתעב ידענו שהוא נרצח ושהחקירה טויחה המניעים לא מענינים אותנו זה טיוחכווולם שותפים…  אין גבול לציניות ולרשעות  חיכיתי לשמוע את הכדור שיסיים את הסיוט הזה ואת החיים שלי קורבנות מגב מדברים  אזור הדמדומים  הארץ  קריאה חובה   המשפחות של שוטרי מג״ב החייתיים צעקו ״הבנים שלנו הגנו על כל עם ישראל״ אגב האירוע לא היה חד פעמי אלא חזר על עצמו כ…  BokerIris אולי זאת הסיבה להזמנה לחקירה MkSondos  ואני ביקרנו בבית הוריה של המנוחה שריפה אבו מועמר  המורה שנהרגה אתמול בביתה ברמלה זה מוות נורא  עצוב ו…  ZulatEquality כשהמשטרה לא תוכל להסתיר את האלימות היא תהיה חייבת להפסיק לנהוג באלימות זה פשוט וזה צריך להיות החוק  זאת הצעת החוק של… תמיד חשבתי שזה לא היה המופתי   מתי החייל  מקבל את עיטור הגבורה רוע ורשעות לב   kleinmandan אתה מבין מה שכותבים לך כשאני או אתה מדברים מותר להסיר את המסכה המשטרה kleinmandan כשאני מדבר כך צריך הרצח הנפשע של שריפה אבו מועמר פתח את מהדורת חדשות 12 המטשרה עצרה במהרה  3 ואחד יואשם ברצח רצח של חסרי מצ…  yigalb עבריינים לא יחזירו נשק מרצון זה כבר נעשה מתוך סרטון פתיחת שנת הלימודים כתוב ״ סאלם״ במקום סלאם מר נתניהו סאלם זה שם המחסום ליד היישוב סאלם ואצלנו התלמידי…  عندما تصبح فيروز  الزعيمة المعنوية لشعب لبنان جارة القمرايه في أمل  tFFi0gf5qNStTsH MariposaMm568 פונקט וואס איר האט געהערט GoodbeerOssi תתאמי בפעם הבאה  הוא רק לא אמר כמה בחירות יהיו עד 2024  Pltwva7YwlJwuz5 מה השם האחרון שנשאר לך בזכרון שתהיה שנת לימודים טובה ומוצלחת לכולם לדניאל לאורי ולמוחמד לכוווולם  אלימות שוטרים נגד חרדים גם  שביתת עובדי המעבדות צודקת והדרישות מוצדקות יש להעניק להם תנאי שכר ועבודה הולמים ולא מעליבים yedidyagrosman תציע חוק שימנע סילפי עם טיבי רק עם ביבי יש כמה חכים שמתאימים להצעת חוק כזו שוב ירי גז מדמיע ע׳י הכיבוש לתוך בית חולים והפעם בחברון 25 חולים נפגעו משאיפת גז חלקם במחלקות קורונה לפני שבוע זה…  AvishayBenHaim LBudashev אבישי מביך כמה אתה מרגיש צורך להתגונן מציוץ ציני  אם כבר נפגשתי עם מפגינים לא צפוניים…  ולבסוף האהבה וקבלת הפנים  למרות המסכה הצהובה תפנימו צהוב זה הצבע של תע״ל המפלגה שלנו  NirRotem צהוב זה הצבע של תעל המפלגה שלנו תפנימו   yb66957 ואפילו עניתי על כמה שאלות וביקשת יותר Elyashivz1 yb66957 iairLevy ולא אנרכיסטים האמת כמה נעים   Gilshely zehavagalon תע״ל שאיפה משותפת לעתיד טוב יותר⁦zehavagalon⁩  בבלפור עם ״ ישראל השניה״ משמאלי וחרדי לא אנרכיסט מימין  tembel1233 אחד הטובים ביותר יהי זכרו ברוך חיילים דורשים ממועצת הכפר סבסטיה להוריד את העמוד במרכז הכפר עליו יונף דגל פלסטין התושבים סירבו  התפתחו עימותים א…  KnessetT יש לכם שאילתות דחופות למשרדי הממשלה ולשרים לנו יש את חכ MkSondos שתפנה אותן למקומות הנכונים בזמן אמת הצטרפו ללייב בפייסבוק… מה שווים השופטים אם אנחנו לא שולטים בהם  אלה שמות שוטרי מג״ב הקלגסים שהיכו והשפילו ושדדו את הפועלים הפלסטינים הם יועמדו למשפט פלילי ובנוסף עו׳ד מוחמד רחאל…  hadover1 רפואה שלמה גאה בך חכ MkSondos   שופטת השלום רחל ערקובי שוברת שיא באטימות וערלות לב דחתה בקשה לפטור מאגרה שהגישה משפחתו של המנוח יעקוב אבו אלקיעאן…  וחברי הקואלציה יצאו לחופשה מוקדמת  מזל שהרופאים והרוקחים מכילים  מוסיקה של ואגנר או שטראוס  ishterenfeld הצבע של תעל המפלגה שלנו על מצוקת מועדוני הכדורגל במשבר הקורונה    שניהם חזרו למליאה   נתניהו גנץ ואשכנזי עזבו את המליאה ולא הצביעו  ההסתייגות הזו שלי  תעלה הערב במליאה בהצבעה בקריאה שנייה ושלישית אם כחול לבן רוצים לאזור אומץ למה צריך אומץ בכלל…  עכשיו בוועדת כספים על חוק האוזר בהצבעה נכללה תמיכה ותקצוב לתוכניות הילה וקרב ותוכניות אחרות  סטטיסטית זה אומר שאפילו חלק ממצביעי הליכוד מבינים שמה שמעניין את נתניהו זה השיקול המשפטי  כחול לבן שמעו על הסכמת נתניהו לפשרה דרך מסיבת העיתונאים כנראה שההצבעות בוועדת כספים על חוק האוזר יידחו לשעה 2100 הלילה  אם בכלל dov145 מסכים איתך בנקודה זאת לזכותו המפוקפקת של ניסו גואטה הוא לא מבדיל בין יהודים לערבים גם העיתונאי רג׳אי ח׳טיב נציג הטלביזיה הירדנית הרגיש א…  השם הנכון לא נחל עמל ולא נחל האסי אלא ואדי אלעאסי אלעאסי שזה המורד ממש כמו שמו של נהר אלעאסי בלבנון  מורד כי המס…  משטרת ישראל הגיעה להפריד בין ניצים בביה׳ח מאקאסד בירושלים המזרחית והמשטרה החליטה שהדרך הטובה להפריד זה לירות גז מד…  I usually tweet about Barcelona but let me introduce to a team I adore CDPalestinoSADP I heard of them first wh…  המשטרה עברה על חוק החסינות  זוועה חייתית חברה בפשיטת רגל  עוד תאונת עבודה קטלנית בראש העין דקל גדיס זל  בן 35 נפל מפיגום באתר בניה בראש העין ב 10 לאוגוסט הלילה נפטר בבית החולים מח׳ש מחלקה לחיפוי על שוטרים בעיקר אם הם ירו על אזרחים ערבים האזרוח צעד בכיוון הנכון אבל  הצדק חייב להיראות שוטר…  יש לך עמית בכנסת שיש לו הצח בענין זה במיוחד בינתיים הממשלה מסרבת לאשר חייבים להעביר הצח שתביא לסיום הסבל הזה בכבי…  חמושי מחסום קלנדיה ירו בגבר חירש בן 60 הם יורים באוטיסטים חירשים ובעלי מוגבלויות מה עם הסרטון לפני הירי מלא מצל…  3 חודשי עבודות שירות  ניתנו בישראל לספר שהעלים מס לאדם שסחר בדיסקים צרובים ובשטחים הכבושים למתנחלת שקיללה ולפר…  מאחל לחכ משה גפני בריאות  ורפואה שלמה   להפגין עם אלפי ״חייזרים״ בעלי מצפון חוויה  באהבה כבוד ושותפות   בצעדת האמהות השכולות למען החיים לפני אבו גוש זעקת האמהות חייבת להישמעמכאן אני ממשיך לבלפור  في مسيرة الامهات الث…  yairmarom לא יש לנו קטע נגד יד קלה על ההדק וסכינים בגב כעת נודע מגורמי החקירה במחוז מרכז שהסרטון ישוחרר כדי לסייע בחקירה  מדהים עד לרגע זה לא נמצאו הפושעים מתברר שלמשטרת ראשלצ יש סרטון של התקיפה שבה נראים 5 בריונים  רואים את הדקירה וב…  תמצית דבריו של נתניהו בחירות מבטלות הכרעות של בתי משפט למעשה הוא אומר אין למעשה צורך בבתי משפט פגיעה החוק שלי שוב תוקן  אל על ושאר חברות התעופה יחויבו להחזיר לנוסעים ישראלים שטיסתם בוטלה את כספם בחזרה עד 1 באוקטו…  שתי הנשים הפלסטיניות  בנות ה70 ומעלה  ג״זילה וחמדה  היו באדמות שלהן ובחזרה הביתה לכפר אלזאוויה ליד סלפית  הן עוכבו…  חברי המשותפת  כולם  יצביעו בעד החוק האוסר על כהונת ראש ממשלה אם יש נגדו כתב אישום אני מאחל לכווולם בריאות ושפיות  אפילו השוט של כחול לבן הוא של יש עתיד  על הקורונה הם דיברו בקבינט הקורונה או שלא היה זמן לזוטות  משטרת ראשלצ עצרה לאחר כמה שעות נאשמים ברצח בחוף חקירה מאומצת ונכונה שאלה מה עם התוקפים של מוחמד נסאסרה באותו חוף…  Ratmonkey42 או רק ערבים שהם חיילים אי תורמים לאנדרטאות של חיילים או חובשים שמטפלים ביהודים מעבר לעובדה שהוא מפר את הוראות הרשות השניה האיש הזה מבזה כל אולפן שהוא יושב בו ואוי לערוץ שנותן לו במה להפיץ את דבר…  אסון אנושי הלב דואב  من قلبي سلام لبيروت  התפקיד של שרי  הליכוד בדיון 40 חתימות  לשוחח עם הבוס כדי שייראה עסוק מול ההתקפות עליו מעל הדוכן  יחד עם המדריכות והמדריכים של תוכנית קרב בהפגנה נגד סגירת התוכנית  התקשר אליי מר רפי סער ראש העיר כפ״ס ואמר ״שלסגירת מתחם המנגל אין רקע גזעני וי מפלה״ והוסיף ״ התזמון גרוע מאוד ולא…  ShekerMinister  ShekerMinister רק בתקופת החג shu3809 מכיר כינויים כאלה נגד יהודים לפני 80 שנים alpakahhunger מפעיל בעצמי בעצמי  bnyiroz אתה חרדי וקורבן לאותה דעה קדומה תתבייש לך הפארק בכפר סבא נסגר בסרטונים מיום ששי עד יום שני ״ בגלל הקורונה״ כטענת העירייה אלה בדיוק ימי חג אלאדחה משתמע שאח…  ״מנהיגים מכל העולם מתקשרים כדי לדעת איך עשינו זאת״  RamCohen1 עושה כל מאמץ פיראס הוא סטודנט מישראל הלומד במולדובהאישתו המולדבית בהריון הציג בקונסוליה הישראלית את צילומי US כנדרש ע׳י משרד ה…  srotterman netanyahu YairNetanyahu avishaigrinzaig Riklin10 YinonMagal הוא כן הזכיר את זה בפומבי אתה טועה יש ידיעה מורחבת בעיתונות srotterman netanyahu YairNetanyahu avishaigrinzaig Riklin10 YinonMagal הקרדיט ליוסי דורפמן ימני שמאלני הפוך על הפוך דעתכם  srotterman א כדי להבליט את הפוסט עצמו ב לדעתי הפוסם הפוך על הפוך בכוונה ג אמחק בכלל למה לא בחולצות חומות  John doe משטרה שלום  רציתי לדווח שגם אני קיבלתי  איום מפרופיל פייסבוק לא מזוהה של אדם בשם jhon doe אנא טיפולכם  GoyshelShabat tsahihalfi וגם עצה זו שלך היא לא נכונה tsahihalfi יש לבטל לא לתקן לעולם לא אקבל עליונות על פי גזע וזכות הגדרה עצמית לעם אחד בלבד קובי אתה  מאשר יציאה למרפסות לצורך מחיאת כפיים  rMVFfnnIgpZCheR TheMaya لاننا لا يمكن ان نصوت على ان القدس الكاملة الموحدة عاصمة لاسرائيل  ولا على ان حق تق…  שאלה  אמירה נוקבת ממגדלור של מוסר ואקליפטוס של אידיאולוגיה  הישג חשוב לנו בוועדת הכספים השר כץ התחייב להביא החלטת ממשלה לעיר נצרת סיוע בסכום של 30 מל׳ש בעיקר בגלל המשבר בתייר…  כשהמפגינים בירושלים נשלחים למעצר ״ האנרכיסטים״ בגבעות חוגגים ומחבלים חופשי באלבירה  erandly הבנת את שימוש במילה על מה הם עובדים שם בועדת שרים לחקיקה  בכיין תתעסק בקורונה לשם שינוי </t>
+  </si>
+  <si>
+    <t>AsafCarmel1 יתכן שלא אבל אני לא מתיימרת לאובייקטיביות אני לגמרי הכותבת המעורבת ריגשית  AsafCarmel1 לגמרי בטוב טעם אפשר לציין את מותו של אדם שעשה דברים רעים והיסב נזק לדעתי תומר דייק בנימה DorDugy Rebbetzin כן ממרחק הזמן זה מצחיק וחמוד מאוד Rebbetzin DorDugy כי את אישה ואת רחמנית דור ממש אמר לי שאין לי כניסה למועדון DorDugy Rebbetzin אבל החברה החדשה של הבן החייל שלי ישנה אצלינו הלילה לראשונה ויום אחד כשהילדים שלך יהיו גדולים…  DorDugy Rebbetzin גם אנשים כותבים מדיסיפלינות אחרות נחשבים כי היום נופפתי דגל לבן וויתרתי תחושת הקטסטרופה הכניעה אותי KseniaSvetlova קסניה יקרה תנחומיי הכנים 70000 לשנה משלם טראמפ למעצב שיער בשביל הדבר הזה שיש לו על הראש זו באמת אמנות העיסקה של מעצב השיער כן revitalamiran zionnenko igalmosko לא אהבתי את אוזרק אז לא המשכתי אבל פגשתי בה באמריקאים המופתית ShaiCohen13 חתימה טובה מותק revitalamiran zionnenko igalmosko ממש zionnenko igalmosko revitalamiran אתם יודעים שהיינו חברות קרובות  תמי ואני וכמעט התפלצתי כששמעתי שהיא אמא שלה azironen אין מילים azironen לא IlanLukatch אז צדקתי ישראל עדיין מטורללת על כל הראש IlanLukatch רציני יצא החג פתחתי טוויטר ונפלתי על אישה על סף התמוטטות עצבים שבוכה ומתחננת ששמאלנים יעופו מפה כי הם הורסים לה את האווי…  lioramihai תיעוד מתנחלים מתפרעים פורצים לתוך לול תרנגולים ופוגעים בהם משליכים אבנים ופוגעים בטרקטור בכפר קוסרה   בהמשך לדיווח מאתמו… tzurfalk michaeldvorin גמר חתימה טובה צור Bicherit barak1cohen ממש בורכנו וזכינו Bicherit barak1cohen אמן ואמן  barak1cohen Bicherit ביצ׳רית תאחלי לי כבר או שלא יהיה לי שקט בנשמה barak1cohen Bicherit גמר חתימה טובה לשניכם michaeldvorin אכן התכוונתי לחברי הממשלה מהליכוד הייתי צרכה לדייק michaeldvorin אתה חבר ממשלה לא ידעתי ארשום לפני גמר חתימה טובה מיכאל מהגברת אני מבקשת להתייחס לדבריו של קובי ברצינות ובכובד הראש להם הם ראויים  qSS9awt7YJBS3sa תודה לך יוסי yanivro81 המצב המבהיל שאנחנו נתונים בו אינו הצגת יחיד היו לו משתפי פעולה והם הנושאים באחריות שווה מעצם המעשה לכל הנזקים חברי ליכוד יקרים תחסכו אנרגיה תפסיקו להתנשף באולפנים תוותרו על הציוצים המתלהמים כי אף אחד לא מאמין לכם ולראש הממ…  KarenLHaber אה זה לא החריף המפולפול הזה שאכלתי לראשונה לא מזמן ודי נחנקתי וכולם אמרו לי שזה בטח קיגל לא טוב אז החלטתי לעשות KarenLHaber תודה קרן KarenLHaber יש לך מתכון שילמד אותי להכין בצביעותם היומיומית המשת״פים מספרים לציבור ולא פחות מזה לעצמם שהם הילד שתוקע את האצבע בסכר הם טוענים שהם מונעים את…  NadavEyal הובוקר טוב גם לך AlonaMiryam אלונה יקרה מצטערת בצערך וכואבת את כאבך מן השמיים תנוחמי מעניין אם גם הערב יאיר נתניהו מראה לאבא שלו סרטונים מההפגנות והם צוחקים ביחד YHepstein חלילה יקי אין שום דבר טוב בזה שינון חולה בקורונה YinonMagal בריאות מהירה אחרי הערכת חסר במספר המפגינים מדי שבוע פתאום כל מתנגדי ההפגנות מגלים נדיבות ומדברים על אלפים ועשרות אלפים מתברר שג…  במדינה שפויה האיש הזה היה מוקצה מחמת במיאוס במדינה מופרעת הוא יו״ר הקואליציה  NiflaPo איתך קומארד שוש ShaiCohen13 אי אפשר לנצח במלחמה הזאת אם לא היו מפגינים והמספר יורד והוא ירד בגלל הגר הוא יגיד שזו ההוכחה שההפגנות היו הסיבה לתחלואה AL37174796 לא אתה לא מבין כמה תלאות היתה העוגה הזאת AssafVoll aviadglickman מנחמת אותך שגם לשמאל יש את ליצניו AL37174796 ציינתי שאני מכוסה בשוקולד RTsipris אפילו השכנים שמעו אותי צוחקת evenzuryossi rohminhon הגיוני אפשר להיות אוהב קריאה נלהב ולא לקרא הכל yuvalganor בחיים לא אולי היה זוכה לפרודיות או להתפעלויות לא לדיון רציני evenzuryossi rohminhon מחשמלית ושמה תשוקה rohminhon מושלם omriabel הוא לא בטוויטר ShaiCohen13 מחריד ShaiCohen13 מחריד ygurvitz OrenNahari talschneider AOC JacobMagid TimesofIsrael אבסולוטלי בזמן שדברתם הכנתי עוגת יום הולדת לבן הזוג כל הגוף שלי שבור אני מכוסה בקרם שוקולד המטבח נראה כמו אחרי בליץ ואני…  rohminhon מבקשת מקלט אצלך אפשרי בגג עם התרנגולות ShaniBoianjiu GoodbeerOssi ביפו BoazCohen תרשה לי לא להסכים איתך NissimSofer אני חושבת שיש לו השפעה כן לגבי הערכות יש פרשנים שמדייקים ויש שפחות asafnevo4 אכן גברים שמרים לגברים וגברים שמתווכחים עם גברים Roadrun86259229 למען ההגינות אני לא מושתקת ומאמרי זוכים לתהודה גדולה כולל ברשתות האם כייסו ממני קרדיטים ברור הא…  NissimSofer בלי להכנס לדיון ארוך ומפורט על אופן ההצגה המסגור הנפילה לספינים מתן אוטומטי לתגובות שחלקן דיבתיות…  asafnevo4 נתתי לי רשימה של עיתונאיות אמרתי שאין עיתונאיות talschneider maayanef erancherpak יותר מאמר מערכת מטור דעה טל וההבחנה מאוד משמעותית לדעתי gregheffley33 מאשר את טענתי גם דנה ויס יצרה רעש הראשונה סיפקה את התלהמות הבוגדת השמאלנית ומצאה את עצמה בחוץ השנ…  AmodayIlan כתבתי בציוץ קודם על חשיבותו של הטור hovevamim האמת לא חשבתי בשלוש מערכות הבחירות האחרונות שלא ינצח כזכור צדקתי הקריסה שלו איטית אבל היא מתרחשת א…  הערת שוליים על הטור של ליבקינד שום טור חריף של עיתונאית על עמיתיה לא היה זוכה להד כזה במקרה האופטימי בעל טור אחר…  GoodbeerOssi אוסי לא אוכל לעלות לבלפור האם את יודעת על התארגנון באיזור תל אביב במכוניות michalaharoni10 raniableier תכלס michaelzil או שהילדים שלך חמודים בטירוף או שאתה כותב נהדר על ילדים  מהמרת על ׳שתי התשובות נכונות׳ haimhz תושבי תל אביב רמת גן גבעתיים חולון בת ים ראשל״צ הרצליה בקעת אונו ירושלים ומודיעין אם תזמינו את ״לבנון המלחמה האבודה״… lilachv שלי פגוע עוד קודם lilachv מלכת דרמה למה היה מוגבל YErez7 לא Eggression horowitzb מזל טוב אולפן שישי שתמיד מתביית על המרכז של הקונסנזוס פותח במולונוג שהוא מעין ׳מאמר המערכת׳ חריף וממוקד במחדל של נתניהו ג…  robertrabin אוי רוברט מתי נסכים כבר על משהו AssafVoll בהתחשב שהוא ראש הממשלה והם מאוד פעילים פחות NeumanRoee חחחחחח idayan68 ErelSegal אני לא מסכימה איתך אילן יש עיתונאים נהדרים שעושים עבודה חשובה robertrabin זה לא חשוב רוברט אף אחד לא מתלהב כי הוא נעשה שמאלני פתאום דעותיו הפוליטיות שאיני מסכימה עם אף אחת מ…  ErelSegal תאבק בכל מאודך לחשוף את המזימה תחקור ותאסוף מידע אם אתה מאמין שמתנהל מסע ציד נגד ראש ממשלה תגבה את תחו…  asafb2k במאמר לפני שבוע הוא אמר שנתניהו לא יכול לאחד את האזרחים סביבו ושהוא צריך ללכת במאמר מהיום הוא מתאר את השו…  OmerFried ובכל זאת זה מצחיק אותי זה מצחיק מכל כך הרבה בחינות שאני לא יכולה להזיז מזה את העיינים שלי  Roadrun86259229 יש כל מיני תומכות eladshpier התבוננות קרה מספיקה לי אתם יודעים מה קורה לבניין רעוע כשמסירים ממנו את תומכות הברזל שהחזיקו אותו הוא קורס ברעש אז משפחת בלפור liorayubi hovevamim yaelshevach אני לא בפייס אבל אנחנו נפגש yaelshevach די באיזו הוצאה hovevamim yaelshevach האהבה חוצה אותם זה הגוף הפיזי שלא יעבור אותם yaelshevach אני רוצה שתכתבי ספר אעזור לך yaelshevach לא אין לתאר אותך את נשמה תאומה בצד הלא נכון של הקו הירוק אהבתי נתונה לך יעל KalmanLiebskind קדה לך קידה עמוקה עשית מעשה שלא ישכח udiidan ncarmi הו תודה ncarmi נראה לי שרק במוצאי שבת YHepstein לא ראיתי את תגובתם אבל מראש כל מי שתוקף את המהלך הזה או מקטין אותו טועה גם הקולגות מהעיתון halooser לא מזיז לי תודה UKinrot אני לא יודעת אני חושבת שבחלקו זו הכאה על חטא והבנה של גודל המחדל לכן הוא מפנה אלומת אור לשיטה שמאפשרת את המשך שלטונו של נתניהו faniaoz לא אבל התקרבתי מאוד לסביבה שלו מאמינה שגם הוא יצא מי שממעיט בחשיבות המהלך שקלמן ליבסקינד עושה בשבועיים האחרונים לא מבין את עוצמת הרגע הטור מהיום הוא לא פחות מרעידת…  יצאנו להליכה בים ושורה של מכוניות של מפגינים נסעה לאורך הטיילת עמדנו עם הולכים אחרים ומחאנו להם כפיים עד שאחרונת ה…  RoyIddan אני אשכרה יושבת וצופה במנאייכ אם אתה כבר שואל freyisrael1 FakeIsraeli לגמרי נסלח freyisrael1 FakeIsraeli אבל זו תגובה מושלמת ישראל אין להכחיש הדבר היחידי שמנחם אותי עכשיו זה שבעודו מדבר נתניהו יודע שבתקשורת ובנהיגות העולמית מדברים עליו כעל כישלון מוחץ נאום ללא דופי של יאיר לפיד והפלוס הנוסף הוא הפנים את הבקורת שאי אפשר רק לתקוף את הממשלה וחייבים להציג תוכנית פעולה אלטרנטיבית gabibarh המפגינים על אמסלם לדבריו הוא כתב את זה מחלואה אז הוא בטח יודע gabibarh ומחלואה אל תשכחי מחלואה בנט בהופעה ראשונה כמועמד לראשות הממשלה משודר בחדשות 12 ובסרט שהוא חי בו AmraniLidor טעות הקלדה תמימה hagaykr חייבת להתארגן על קרמבו AmraniLidor ליאור הם קראו לו מחלואה זה הרבה יותר גרוע משמן Tylerdu57494124 בערבית אישה מכוערת NiflaPo צחקתי בקול והבהלתי את הכלבה NiflaPo מה נראה לך פיצריה של מתבוללים NiflaPo חברה של הפדופלים מהפיצריה של הילרי קלינטון NiflaPo סתם כתבתי לעאל כדי לבלבל את כולם NiflaPo אני וכל משפחת ליאל מהקרן החדשה לישראל זה לא יפה שהמפגינים צעקו לדודי אמסלם גנב נוכל מאניאק יה מחלואה בנסיבות אלה ברור שהסגר מוצדק ומגיע למדינת ישראל ל…  faniaoz BenCaspit לזה הייתי משיבה שכגודל המצפן שאביך החזיק כך מידת הפחד שלהם ממנו צריך לזכור את זה  המתקפות הכי…  faniaoz BenCaspit אם הוא יבקש את סליחתך תהיה לך דילמה אמיתית לפי הפרשנות התלמודית של לוינס עליך לסלוח למען הצלתו…  gontarzn יש להניח הלילה תתקשה לישון האם גם היום נשיאת העליון אסתר חיות חושבת שאין מניעה משפטית למנות נאשם בעבירות שחיתות שלטונית חמורות לראשות הממשלה ו…  Bicherit אני אדישה לחייו הפרטיים אז לא אשקיע בזה דקה מחשבה Bicherit אנא תקראי את הדיווח של רביב דרוקר ותחזרי אלי גם אני התקשתי להאמין שהוא יחליט לעשות דבר כל כך הרסני רק בג…  אני לא יכולה לעמוד בזה יותר הצילום של ההתכתבות בה מסביר הרפא למטופל כמעט בשלווה שלא הכניסו אותו לישוב בגלל שהוא ער…  AmitTali אני הרמתי ידיים אין לי מושג איך מתרחש דבר כזה בכלל AsafRonel אני לא יודעת איך לגלות לך את זה בלי לערער אותך אבל אתה ואני באותו מחנה וסליחה גם מהמחנה שלי שאילץ אותי לציין שאנחנו אוסף של אידיוטים שלא מצליחים להעמיד מועמד שיכול לנצח שמגישים לנתניהו…  hovevamim הגיון שאלת מה ההגיון אני אגיד לך מה ההגיון טירוף מישהו פשוט משוגע asafnevo4 מפטפטת חופשי את הסליחה הראשונה שלי אני רוצה לבקש מראש הממשלה בקרתי בטור השבועי שלי את הנסיעה שלו לוושינגטון חשבתי שבעת חירום כ…  asafnevo4 תודה על הקרדיט אסף אבל יש רגעים שבהם אפילו הצורך הדחוף בכביסה לא מצדיק נסיעה נניח בעת מלחמה או מגפה משתוללת אני מתחילה לחשוד שכל הסכמי הנורמאליזציה האלה נועדו להרחיב את מגוון המדינות שבהן משפחת בלפור תוכל לעשות כביסה  lilachv לעיתים נדירות אבל כן אני חושבת שלכולנו היה קל  יותר לגלות גמישות אם בזמן שעסקים קרסו נתניהו לא היה מעסיק את ועדת הכספים בהחזרי המס שלו…  jamesbb25 יש גברת בוזגלו אבל היא לא קשורה לסיפור Rutshapira Banboonsdum מותר לך הכל אני לא מחלקת אישורים של הטוויטר ShlomitTamir כה מוכר כה דוחה כה שגרתי AviadSofer סולידריות היא הדבר שאני ממשיכה להאמין בו כמוך אבל בוא נודה שנתניהו פשוט החריב אותה בשיטתיות זה לא קל…  Roadrun86259229 מה השאלה חייבים להזהר ולהשמר כולנו barak1cohen לא בדיוק המציאות הזו ברק היתה מציאות של התנשאות עליונות שדידת משאבים וכיבוש אבל היא הסתוותה בגלל שה…  התחנונים בפני אלה שכבר שנים קוראים להם בוגדים גיס חמישי בולשיביקים מחריבי המדינה שיגלו הבנה ויתנהגו באחריות ולא…  המומה לגלות שאין תחושת אחווה אמיתי או סולידריות אין לכידות או עוצמה חברתית יש עוינות שבטית טינה המעמדית ומאבקים…  meitalbonchek מיטל כדי לעזור בחיבורים אני צריכה להבין מה כוללת ערכה ומה העלות שלה ושל 60 ערכות nitayp aviadglickman זה תלוי ניתאי אם הרומאן היה מחווה לספרות ויקטוריאנית או פוסט זה היה יכול לעבוד דיקנס יצר ד…  aviadglickman איגוד הסופרים הבינלאומי מודה לבורא עולם על קיומו של רן כרמי בוזגלו הוא וטיפוסים כמוהו מהווים השראה…  AsafRonel OrenNahari AssafGarfield יער נורווגי הוא היחידי הראוי של מורקמי AsafRonel OrenNahari AssafGarfield הר הקסמים בית בודנברוק מוות בונציה או בקיצור את תומאס מאן itamars תכלס tomerappelbaum גאה לבשר שתמונת דגל שחור זכתה במקום הראשון בקטגוריה של life under covid19 בתחרות בינלאומית בסיינה איטליה  tomerappelbaum איזה אלוף תומר ברכות manuelbaz אהבתי מאוד זו בדיוק הטרגדיה אני עומדת להודיע מה עמדתי בנוגע להמשך קיומן של ההפגנות אבל  מחכה קודם לראות מה דעתו של לוינסון manuelbaz כולם צופים בזה עמנואל ורק אני נימלטתי אחרי שני פרקים ולא האמנתי שמישהו יצר את הדבר הזה ygurvitz הקשקוש הוא שפניו של שלח מועדות למרצ ובאמת לא מעניין אותי אם היא חפצת חיים או לא באופן כללי היא לא מעניינת אותי ygurvitz מחילה אבל קישקוש NoaShpigel לא mashkazg כי גם האקדמיה יכולה ליבש את הצורה אני מלמדת את מה שאני אוהבת בלהט נראה לי שזה עובר לסטודנטים shacharbm מתברר שמר בקשי נתן חווד שתוקפת את עמדת היועמש בקשר להפגנות אלא שהיועמש בכלל לא מסר לממשלה חווד בנושא וגם מר בקשי עצמו כו… OrKashti עוד תזכורת  אביעד בקשי שגויס עכשיו כדי לעקוף את היועמש היה זה שגויס לפני כמה שנים כדי לכתוב מחדש את ספר הלימוד באזרחות במש… tzurfalk אפסח על התשובה הפעם AnshelPfeffer naftalibennett הגזמת בצפיות שלך אנשל מחנה המרכז שמאל צריך רק הצלפות מרות בנתניהו ובממשלה כדי להמלי…  mashkazg זה לא מה שהורג את התשוקה לקרא אם כי זה בטח לא מעורר אותה האנשים שכילדים למדו מהמורות הכי משעממות הפכו לק…  מכיוון שהיום הזה בסימן של איזונים  אם בתי הכנסת אז גם ההפגנות  אני חושבת שצריך לאפשר יעוץ משפטי מטעם קהלת ולאזן א…  dovalfon ronenbergman רגע תשמור על הסומק דב ברכות גם ממני ובהצלחה Haaretz זרעתם פייק שתלתם קונספירציה עכשיו כולנו נקצור את החורבן  savirron מאמר דעה של Irisleal15 חזק ואכזרי דבר אחד חשוב שחסר לי בסיום אל תגידו יום יבוא הביאו את היום   asafnevo4 שומרת על כושר גופני מישהו פה צריך להעיף את ראש הממשלה AlonPinkas OriUzan כשנדמה לך שהכל אבוד והשמיים מקדיריםפתאום מפציעה השמש AlonPinkas OriUzan כל עבודת חיי התנקזה לרגע הזה AlonPinkas OriUzan לא אני מתה פה כמו דה ז׳ה וו מהסיוטים שוב סגרו את הבריכות ושוב אני הולכת לים מי שרוצה להבין מה יקרה כאן בקרוב מוזן להתלוות אלי ה…  YHepstein חחחחח אתה אופטימי אבל זו חשבה יפה ובהחלט יתכן שאתה צודק NissimSofer RoyIddan עכשיו אני מרגישה פגומה תודה ניסים SherriPizza barakbl מישהי שעושה לייק לכל ציוץ שלך עליך ועל בנך oshalit תודה barakbl לא עבר זמן רב והיוצרות התהפכו הא פתאום האיריס השניה נעשתה אוייבת העם אנא אל תחזור לעקב אחרי אין לי שו…  InvestigativeA GadiTaub1 כתבה איריס לעאל קם בבוקר שופרקם טאובקם ריקלין קם סגלמסתכל בחוץרואה התפשטות של מגיפה עולמית רואה חורבן… אם אתם נתקלים בהם במקרה אם אתם תופסים סגל וטאוב או את ריקלין האם תוכלו לשאול אותם בבקשה איך משכנעים עכשיו את הצי…  mNVW2IJ5BkmP3Lq נביאה בשערIrisleal15  במחשבה שניה ההסבר של החשוד בנסיון דריסת מפגינים לא כזה מופרך בעצם אני די מתפלאת שלא יותר אנשים נוסעים לבלפור להסבי…  AsafRonel קבלת davidyerman 433 arianamelamed חזר גם אלי היום היוזר הזה זומבי לא משנה כמה מדווחים עליו הוא חוזר yaelshevach boaz3333  gevakraoz RoyIddan אבל נורא אהבתי את הסרט elongilad RoyIddan Yehoshav אבל צפיתי ואהבתי את הסרט אני מרגישה כישלון boaz3333 yaelshevach מאיזה עבר RoyIddan אבל ממש אהבתי את הסרט בזמנו RoyIddan זה נוראאאאאא ראיתי שני פרקים אתמול ולא הבנתי מאיפה הטראש הזה קפץ עלי מה החמצתי yaelshevach בבקשה תעבירי לו את כתובתי sivankli בהצלחה סיוון barpeleg 13 זו הודיה ככה היא מתמודדת עם החום העז אמה בטי נותקה מחשמל וכחלק מהסדר חוב היא מזינה סכום כסף קבוע  שיהיה למינמום הנדר… giladerdan1 האם התנצלת כבר בפני אלמנתו של יעקוב אבו אלקיעאן ואזרחי ישראל על עלילת הדם hovevamim זוט עני h6402000gmailc1 לא זכרתי איך קוראים לו ומהרתי Zelda62054215 את מבינה שזה בצחוק זלדה רק בודקת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menishwartz הטענה שלי לא נוגעת להתנהלות הציבור החרדי אלא לכך שפוסקים לציבור הרחב על פי הפלגים שלא מצייתים להוראות…  shlomohohoyzer אבל שס ודגל קיבלו החלטות על הציבור הרחב על פי התנהגות הצפויה של בעלזא ויזניץ  shlomohohoyzer בוודאי אבל לצערינו ההחלטות לא מתקבלות על פי החרדי המתון אלא על פי הקיצוניים ההוראה להשאיר את בתי…  wV1XDpZBurJa8Y4 לא הבנת אני לא כותב שהציבור הרחב צריך לקבוע לחרדים אלא  שהחרדים לא צריכים לקבוע לציבור הרחב RozenblatDavid Orfadid נשמע פוטנציאל לשיחה משעשעת Kirilon1 לא סותר זה חוסר הבנת הנקרא כנראה ניסחתי מסורבל אז האחריות עליי   הכוונה שההפגנות מאפשרות לחרדים להימלט מביקורת מוצדקת Kirilon1 די יקירי עם כל הכבוד לא מכיר אותך ולא זוכר שדיברתי איתך ואם אמרת דיברי טעם ודאי שהייתי שמח ללמוד מהם…  BenMoalem אני לא עשיתי את המפגינים בבלפור שעיר לעזאזל כמעט להפך כל פרשנות שלי על ההפגנות בבלפור בטלויזיה נפתחת ב…  DanK92542410 דווקא זה לא מנותק בסאב טקסט מדובר פה גם בסיפור הדרת ישראל השנייה המתונה והממלכתית והאחראית ממוקדי קבלת ההחלטות BenMoalem  moransimon5 עם כל הכבוד שב תלמד הרבה שנים ואז תוכל להעיר הערות זה נחמד הטוויטר הזה אבל באמת שזה מגוחך שבתודעתכ…  itzikelrov כבוד לשמוע ממך ראה המצורף כאן שפרסמתי הבוקר יעניין אותך אני חושב   itzikelrov התמונות מהריכוזים החרדים שונות ב 180° כל חצר עושה דין לעצמה כל רב מחליט אם לסגור פעם זה לא היה קורה גדולי הדור קבעו קו… EGz9LDzwXiJ9wsI לא נכון קרא שוב מה שכתבתי לגבי מעמדה של מדינת ישראל כקהילת העל של העם היהודי הם ועוד איך מתחשבים בהוראות המדינה moransimon5 אם היית קצת יותר מעמיק היית מבין שועוד איך שכן מתינות מתינות 929292m1 בוודאי אם לא הפסיקה לכל מדינת ישראל על פי החרדים לא המתונים שבהם הקיצוניים היו מחליטים שבתי הכנסת סגורים ביום כיפור Orfadid לא יכול זה כאילו צריך פה קורס שלם אי אפשר לצייץ את זה אם רוצה תתקשר ואנסה להרחיב באישי 0523112149 Israelh אתה טועה אני שנים עושה הבדלה בין תפיסת הרב שך קודם כל לשמור על פך שמן טהור וקטן ולהציל את החברה החרדי…  Moshe68625488 לא הבנת קרא שוב  ואתה כותב שגיאות היחידים שלא מקשיבים להוראות זה חלק מהחרדים אנשי ישראל השנייה א…  Orfadid לא משקיע בך יותר הסברתי בדיוק אי אפשר לנהל את כלל ישראל על בסיס מדיניות שמירת פך שמן טהור אם היית לומד…  050Leag אתה מגיב בלי לקרוא הרי אני מסביר שקבעו על פי הרב לאו שלא לסגור את בתי הכנסת כי הציבור לא יציית אבל זו טע…  050Leag קרא שוב נראה לי פספסת הרעיון אם היו מחליטים על כלל ישראל על פי הקו של הרב עובדיה ובנו הרב דוד זה היה סבב…  nzeuZ8kzNZuJ8BV Dganit85945554 mendygruzman ariyederi אני לא מאשים את החברה החרדית כולה אלא אומר שהיא ובראשה…  Orfadid הסברתי קרא 050Leag הסברתי אז באריכות התגובה הפרדוקסלית להתפרקות היא הקצנה בזרמים מסויימים בוודאי ביחס לחילונים תמונות יום הכיפורים מהריכוזים החרדיים לא מותירות ברירה ומאשרות מסקנה שהממשלה כולל החרדים בה מוכרחים לקבל   אי אפ…  OritDouek naomilster כתבת פה דיבה ופרסמת תמונה ממועד אחר מציע לך למחוק OritDouek BarashiKinneret זה פייק לא חצי שיה אחרי אלא שבוע לפני מציע שתמחק את השקר JHulaty זה פייק זו תמונה ממועד אחר מציע שתמחק Createfreedom התמונה הזו היא פייק היא מערב אחר ערב לפני ראש השנה מציע שתמחק Riklin10 BoazCohen לא שמעון התפיסה הבסיסית שלי היא שישראל הראשונה אנשים טובים  ותפיסת ההגמוניה שלי היא שלכן הי…  SabaryYoram Riklin10 זה מקסים ופרופ בן זקן נפלא אבל זה לא בדיוק אותו דבר בוודאי אותה משפחה netanelgla Riklin10 תחשוב על מה שכתבת אתה מסכים איתי מבחינתם הגיוני שהם יהיו פריבילגים זה דיי הגמוניה שאי…  NaorMeningher Riklin10 נורא ואיום כתבתי לפני מספר ימים מאמר חריף מאד נגדם אולי יתפרסם מחר Riklin10 לגבי הסיפא שלך אני מסכים בשפה אחרת Riklin10  זו טענה מרכזית שלי  כל ההיסטוריה של ישראל מאז מהפך 77 לא…  Riklin10 לא הגיוני שהם מודעים אחרת היה להם לא נעים והם היו מרגישים שזה לא מוסרי  העוולות שהם גורמים  דוגמא ההפ…  georgygeorge11 מדובר בשקר מכוער אלה תמונות מלפני שבוע סליחות ערב ראש השנה לא מהאירוע המדובר של סליחות ערב יום כ…  Qp4fQ2eIcbwA7Df אתה ראשונה תהיה רגוע TimtumAtzmi בוודאי שידרנו למהדורת החדשות nolaori hadarse הלוואי לצערי לא נראה כך שנה טובה ומתוקה V5yyiqXr9CypYTZ זו תמונה משבוע שעבר סתם שקר מכוער או טעות  ortis78 זו תמונה משבוע שעבר לא מאתמול מקבל התנצלותך למפרע teslererez hadarse לא הוא לא היה מפרסם כזה דבר אם היה יודע שמדובר בשקר ושזה בכלל וידאו משבוע שעבר razsauber hadarse תגיד אתה רציני אסור לי למחות נגד הדיכוי כי יהיו כאלה שיגיבו בדרך שאני מגנה וסולד ממנה ותוקף א…  TheIsrabot sagihadas hadarse לא רק פרסמתי גם שידרנו אותן בשידור חי עם צופית גרנט ואיתי hadarse TheIsrabot אמן כן יהי רצון הלוואי הלוואי למרות שאני לא יודע מה השביל שיוציא אותנו מזה בעבר הייתי בטוח…  hadarse אתה מתוק בציוץ הזה אבל הציוץ הגדול שלך שטוען שככה נראתה רחבת הכותל אתמול בלילה הוא שקר כנראה שמישהו הטעה…  TheIsrabot hadarse היה סגר שבגללו אושרו סליחות מצומצמות של 2500 איש על פני כל הרחבה בערב ראש השנה במקום עשרות אלפ…  hadarse זה אירוע שמתחיל משעות הערב בכל שנה יש הפנינג של עשרות אלפים בכל רחבי הרובע היהודי לכיוון הכותל עשרות אלפ…  razsauber hadarse לא הניסיונות לעצור את המחאה נגד הדיכוי במניפולציות כאלה הן כלי דיכוי לא הגון ולא מוסרי Eddie7701 ברור הכי סבבה לשמור על הדיכוי והסדר הישן ואז לא תיטרפו שנוגעים לכם בפריבילגיה לדכא hadarse הבדל בין אמת לשקר שבוע שעבר לא היה סגר עדיין היו סליחות מצומצמות אתמול היה סגר ולכן במקום אירוע של מאה…  tzvikagonen זה שקר מכוער אלה תמונות מלפני שבוע לא מאתמול בערב Eddie7701 רק המדכא הפריווילג רואה ברעיון השוויון שנאה hadarse לתשומת לבך מישהו הטעה אותך ככל הנראה אלה תמונות מהסליחות בשבוע שעבר לא מאתמול בערב אתה מטעה את הציבור codswallop מדובר בשקר מכוער אלה תמונות מלפני שבוע לא מאתמול בלילה  מקווה שהטעו את הכותב ולא שהוא החליט לשקר adirosenfeld123 זו תעמולה מכוערת ושקרית מישהו הטעה את הכותב אלה תמונות מהסליחות מלפני שבוע לא מאתמול Nadav1Levy kzipi100 זה שקר אלה אינן תמונות מאתמול אלא משבוע שעבר לפני הסגר pdoron שקר וכזב תתביישו אלה תמונות משבוע שעבר לפני הסגר Nadav1Levy kzipi100 מוכן שאתבע אותך דיבה תפרט מה אני משקר  התמונות שהשמאל מפיץ הן לא מאתמול אלא משבוע שעבר kzipi100 אין שידרנו שידור חי אפשר לראות מה זה השקרים האלה של השמאל kzipi100 צילמתי בשעה תשע בערב שבה שידרתי ושבה בדרך כלל יש כבר אלפים רבים בכותל ציינתי שניתן אישור ל200 בלבד באירו…  pdoron חייכתני שנה טובה ומתוקה  לא צריך שתקבלו סליחות צריך שתקבלו את רעיון השוויון אבל באמת זה אתגר קשה למעמד…  MichelZaherEye אני מקבל את הביקורת הזאת אבל יש מהלך קבוע של השמאל הישראלי להשתיק את הדיון בדיכוי המזרחים על ידי…  pdoron העובדה שאתם מבינים את רעיון השוויון והפסקת הדיכוי כשנאה כלפיכם חלילה היא שיעור עצוב על תודעת ההגמוניה הישרא…  DanielBursan תודה יקר נעים לשמוע alivson זו גישה חוכמולוגית מתנשאת שנובעת מבורות גישה שמבטאת את הבוז העמוק שלכם ליהדות המסורתית וחוסר הבנה מוחלט ש…  amittali מתנצל לא הבנתי מה הקשר יש לי כבוד עצום למשפחתך אבל זה לא מכשיר עוולות דוגמת שימוש באלימות לגלית כדי למ…  asafkfir לא הטענה היא באשר לתגובה של ישראל הראשונה לכניסת המזרחים למשחק הפוליטי ב77 מאז ועד ימים אלו ממש mendygruzman ״בימים הללו״ זה מאז 1984 כשהרב עובדיה זיהה את הפוטנציאל של הצעיר בן ה24 ושם אותו לידו malitusha efrattolk אם אנשים מקדישים זמן ומגיבים לדברים שכתבתי גם במלים רעות אז אני משתדל לכבד את הזמן ותשומת הלב ולענות am4327 efrattolk זו הפריבילגיה של ההגמוניה לא קראת אותי מספיק סיום סמלי לשנה הזו  היום מתפרסם בהארץ ריאיון מקיף שאיתי שטרן   שנראה קשוב למרות שהוא ממש מהעבר השני של המתרס…  ShlomiEi פשוט נורא דיברתי נגד זה בחריפות בפרשנות שלי yanivtwig בשום אופן להפך אבל אני חושב שיש חשיבות עצומה שהציבור יבין את הפריבילגיות של ישראל הראשונה efrattolk זה ממש לא יפה ולא הגון כמה מניפולציות מכוערות אתם עושים בשעות האלה בערב יום כיפור רגיל כל האיזור מלא כ…  DanielM רעיון השוויון איננו שינאה הפריבילג שמרגיש מאויים מרעיון השוויון ונוח לו עם הדיכוי ועם המשך העוולות מ…  matticar אתם ממשיכים במדיניות עלילות הדם ורצח האופי לכל מזרחי שמעז להרים ראש מולכם איך זה קשור אליי אין לכם גבולות Ronkofman1 קופמן Ronkofman1 יקר לי כתבתי מאמר חריף עד כדי קריאה להוציא מידי החרדים את היכולת לקבוע לכלל החברה הי…  ranninglife OriginalGavish אתם פריווילגים שמבינים או יותר נכון מרגישים את רעיון השוויון כאיום עליכם וכשינאה…  1379bac849584d4 לא יאומן כמה אתם לא פריבילגים בתפיסת העולם העמוקה שלכם  לכם מותר להפגין ולקבל שידורים חיים מההפגנ…  sigalit87724912 גמר חתימה טובה נשמה חזק ונתחזק בעד עמנו אל תיכנסו לבתי הכנסת יש לקח מבהיל שלמדנו בימים האחרונים שמירה על ההוראות לא מספיקה נגד הקורונה   אנחנו מכירים ח…  mosheifargan שנה טובה וגמר חתימה אהוב מעריך ומתפעל idayan68 תודה יקירי זה חשוב לשמוע OriginalGavish העובדה שאתה מבין את אהבת ישראל השנייה כשינאה כלפיך היא עיוות שרבים במחנה שלך לוקים בו כאילו שלילת…  ערב יום הכיפורים הכותל ריק   מידי שנה בערב הזה שהוא ערב השיא של ישראל המסורתית עשרות אלפי מתפללים הערב ניתן אישו…  dz050228 eli19 חס ושלום אני לא אמרתי שום דבר כזה להפך כל פרשנות שלי בנושא ההפגנות בטלוייזיה נפתחת במ…  arikarielpopper juldush yishaym בוודאי שאשמים פאסיביים ונחמדים וממלכתיים AaronNurani תודה נו נראה מרחיב נפש כל מה דעביד רחמנא לטב עביד arikarielpopper aizenkraft ברור השסניקים נחקרו והורשעו בשנות השיא של שס יותר מכולם לא כי המערכת החליטה לבלום…  arikarielpopper juldush yishaym ההגמוניה חזקה זה בסיס הטענה שלי שכל ההיסטוריה של ישראל מאז 77 כרוכה במהלך של י…  bnyiroz ילמדנו רבנו במוצאש  גיט שאבעס Moshe68625488 איזה יופי אשריהם ישראל תודה 135790poiuy nbjovsr88 תודה נשמה חשוב לשמוע RafiRodnik12 כלומר derieliran מגניב ores1111 איפה זה סוציולוגית הכוונה Eliot1817 איפה זה נשמה yesnomabyyes אז זה לא לפי ההוראות בתי הכנסת אמורים להיות סגורים  MoshikoRan המחאה דמוקרטית אחלה אמרתי אלף פעם לגבי המשפט אסביר מהי אלימות לגלית להפוך את ראש ממשלת ישראל ליעד מ…  h6402000gmailc1 ליטאים חסידים לא מבחין nbjovsr88 וואלה בקיצור בתי כנסת כרגיל אצלכם Mry05961431 למי משתייך  0Ew1QrRvevGENE0 ומה אצלך oMVfhF8kl7gnCee תפרט שאלמד h6402000gmailc1 וואלה כך מעריך שיהיה אצלכם מעודד nbjovsr88 אבל מישהו יסגור את בתי הכנסת או שיהיו פתוחים 0Ew1QrRvevGENE0 מה זה לפי הרב שלו יפתחו בתי כמסת בניגוד להוראות חופשי BenYairdhn איזה כללים הערכות בבקשה איך ייראו בתי הכנסת השבת בכל אתר ואתר gal09094007 ביבי חייב מפלגת מרכז כזו שתקלוט את אלה שהשתכנעו ממסע התעמולה נגדו לא לכולם יש את החוסן האידאולוגי והז…  aizenkraft אדרבה אז אפילו את בגין עם מידותיו המופלאות השמיצו ורמסו ישראל הראשונה תבין מה המוטיבציה האמיתית שמניעה אותם hagaihofer מלך aizenkraft כשבחרו בבגין האליטה של ישראל הראשונה ציירה אותו כסכנה פשיסטית למדינה כשבחרו בדרעי האליטה ציירה אותו כש…  almonimi PoeticRg ronen5956 נשמה זה רק האליטה שלא מסוגלת בחיים להקשיב לביקורת ותמיד ממסגרת עמדה מזרחית כמשהו שנ…  tinypainfulspa1 תעבור על הנתונים המצורפים ותבין את התמונה גם בדרך הזאת העשירים ששולטים בתקשורת באקדמיה במשפט בהון…  juldush yishaym ברור גם אתה מבין זאת כמתבקש ההגמוניה כה חזקה אז ודאי שיש לה אחריות הן על דחיפה לבצע מדיניות מז…  ilanitshaked תבדקי את עצמך למה את מבינה את רעיון השוויון והמחאה נגד עוולות כשינאה חלילה AvishayBenHaim המכינה הקדצ המלהיבה תבור העלתה ביוטיוב הרצאת זום שנתתי לפני מספר ימים  ניסיתי להסביר את תיאוריית ישראל ה2 לעומק ב… GilTuchman יקר לי אני לומד ומלמד כל חיי על התגובה הגזענית הקבועה שלכם  לכל מזרחי שמעז לעמוד מולכם לא היו ציפיות…  yishaym אני חושב שאי אפשר יהיה להמשיך להכחיש את האחריות של ההגמוניה לשיתוק המערכת הפוליטית ולהחלשתה  מתי שהוא נפתח את הנושא הזה ועוד כמה o55224926 נשמה אני התחלתי בה לפני הרבה הרבה זמן segevomri די עם המניפולציות האלה מותר להשתמש בפראפרזה מפסוק מוכר בלי שתעניקו לה פרשנות מרושעת ChauleMoshe אתה לא סולידרי איתו אלא עם בוחריו בהנחה שאכפת לך מהם ChauleMoshe זה המאבק הלאומי הכי חשוב היום מי שלא מזהה את הסנטימנט של העם שבשדות או מזהה ומנוכר כלפיו צריך להעיר לו ParshanLeumi כוונתי הייתה שהתנהגותם בלתי מתקבלת על הדעת ורק הפגנות בלפור משמשות בהצלחה להסחת דעת SivtaT כל הציוץ הזה סובב סביב הגמוניה לא הבנת באמת Urieldenn בא לי לחסום אותך על המדרש המטופש והמרושע הזה omermic רק פריווילג שהדיכוי והעוול נוח לו רואה ברעיון השוויון והפסקת הדיכוי רעל Easternprince לישראל השניה אין מספיק כוח לנהל מאבק לבד למעשה אין לה שום כוח ושום אמונה בכוחה לכן חייבים בריתות ע…  zachsivan matankaplan מבחינתך סתם שוויון והפסקת העוולות של האליטה לא בא בחשבון זה או המשך הדיכוי או פילוג למה לא פיוס tomerskurnik מה קרה נשמה nohraba המחאה נגד העוולות שהאליטה עושה נתפסת כמשהו רע רק אתל מי שהעוול נוח לו ואין לו בעיה מוסרית עם דיכוי שנה טובה ומתוקה matankaplan כשהצביעו בגין עיניתם את נפשו ושברתם את לבו בכוח שהגמוניותכם נותנת לכם כשהצביעו דרעי הכנסתם אותו לכלא…  Isaiah00493765 Soloph0ne nosseihdegel1 אני לא חושב שאני אומר לאנשים שהם משרתים את ההגמוניה לא נראה לי לגבי ״מג…  PoeticRg ronen5956 מעריך את זה באמת AshkeloniS nitlachman תודה יקר זו תגובה חשובה לי PoeticRg ronen5956 מציע שתאזין פה אם באמת מעניין אותך וחשוב לך אני מסביר את זה   D1VhQyjw4N9A0yD נשמה עוד לא נולד המזרחי שהעז להרים את הראש מול ישראל הראשונה וישראל הראשונה הגיבה בצורה מכובדת וק…  orenba בקיצור חוץ מגידופים לא אמרת כלום גמר חתימה טובה yarwax אם היית חי את השיח היית יודע כמה מאמרים כתבו אנשים מהצד שלך במפה שכפרו בנתונים הברורים הללו mostene זה פנימי שלהם אני לא מחנך חרדים ולא רוצה לפגוע בה אבל לא מוכן שבשביל איזה גחמה שממציא עסקן חרדי יפגעו בע…  gmarkovich3 nosseihdegel1 אתה מדחיק מתרחש בישראל עוול גדול כלפי בחירה של ציבור גדול צריך לפתור את זה בדרך יפה ו…  nitlachman לא יודע ברור שזה לא עבד כמו שחזיתי ורציתי nosseihdegel1 אני אבוא נשמה סדרה הבאה אני בא לצלם אצלכם אתה יודע שגם במרוקאים החדשים רציתי לבא אליכם gmarkovich3 nosseihdegel1 אתה בבעיה מוסרית למשל אתה שותף לדיכוי של ציבור שאין לו ייצוג במערכת המשפט באקדמיה ובת…  nitlachman אני דיי מסביר פה מה המטרה שלי פיוס אבל מתוך שוויון והפסקת הדיכוי   gmarkovich3 nosseihdegel1 ראה הנתונים המצורפים ותפסיק להיות לא מוסרי ולהתעלם מהדיכוי eli19 אנשים לא טפשים ביבי הוא הבחירה הדמוקרטית המובהקת שלהם תכבד אותם nosseihdegel1 אל תשחק אותה דואג להם הם דואגים לעצמם ובוחרים דמוקרטית מה שבא להם ולא מה שבא לך תכבד את הבחירה שלהם ואל תתנשא ronen5956 מה זה אין תקרא שוב ותפסיק לעצום עיניים ולהתעלם בצורה לא מוסרית מעוולות  בתקופה זו ממש האליטה מנסה לגנו…  shalomkamil מדהים כמה מדרשים אתם צריכים לעשות בשביל למצוא אצלי את הטקסטים שאין  מותר להשתמש בפסוקים בפרפרזה בלי…  המאבק להפלה אלימה לגלית של נתניהו הוא מאבק של ישראל ה1 נגד הבחירה הדמוקרטית של ישראל ה2 ראו הנתונים  על האליט…  WeissInbar מציע שתראי באיזו הערכה עצומה דיברתי עליה אתמול בשידור שלנו בגלל הדברים שאת מציינת ולכן גם דחיתי את הסיפ…  rothmar תקשר כשיהיה לך זמן אסביר פרשנותי לגבי הדינמיקה של נורמות ההקצנה הדתית והחרדית  איזה חרדי ממציא חומרה חדשה…  yinonidan כוונות טובות asafb2k rothmar נשמה גם אני חשבתי שאין סיפור וגוננתי על דר עליזה בלוך בהתלהבות בטלוויזיה עד שהתברר לי שאשכרה חר…  ParshanLeumi אתה יודע שבן אדם צריך להיות לא מאד חכם בשביל להבין את מה שכתבת ממה שכתבתי SrulikKlein דווקא על המצבה שלה במרוקו בבית העלמין בפז ראיתי שכתוב חגואל brafman מקווה שלא יכעיס אותך אלא ירגיע אם אתם לא נרדמים  wlhdPcAeDW4Hbty ציוניים OrHeller NeriaKraus  roeilach רועי אהוב  ו״האחים״ כדי לא לומר  אוריאל ואלירז פרץ ו״יונתן״ כדי לא לומר יוני נתניהו וחגואל כדי למחו…  nachumehrlich מדוייק gadymz BeeriMor אכן מאשים אותך בדיכוי ובתמיכה באלימות לגלית ובגזילת זכותה של ישראל השנייה להשתתף במשחק הדמוקרטי וכיוב בוודאי אכזבת סוף השנה ד״ר עליזה בלוך  כגודל הציפיות  mzahavi1 אתם כרגיל מעלילים עלילות כל פרשנות שלי בטלוויזיה בנושא זה מתחילה באמירה שההפגנות הן חגיגה דמוקרטית ומדוב…  gadymz BeeriMor ביקורת על הדיכוי בוודאיאבל פה הוא האשים בדברים אחרים winerez לא נותן הכשר בשום אופן MosheRahmani תודה יא אהוב מאד שמח שתפס אותך davidbenporat רק בעייני המדכא שנוח לו הדיכוי ואי השוויון  רעיון השוויון נתפס כמו הסתה נגד הפריבילגיות שלו  חלי…  winerez אם היית קורא יותר טוב היית מבין שזה לא מצדיק אותם אלא ביקורתי כלפיהם zlildror Erella11 GiladGendelman איזו מין המצאה דיבתית זאת בחיים לא אמרתי דבר כזה ממש הפוך אשמח לציטוט אחד של…  kidrong לצערי אין באפשרותי להתווכח על זה kidrong אני חושב שפספסת מה כתבתי eladshpier לא הבנת כלום ממש Tamarhamagniva אבל אנחנו לא עוסקים באיכות ההשוואה אלא בעובדה שהיא קיימת בשיח הציבורי ומצילה את החרדים ואת גוש הימין מביקורת חריפה BeeriMor יא מתוק הכל טוב אין כעס וגם כשיש זה בסדר אני אומר דברים מכעיסים שנה טובה ומתוקה BeeriMor אני מאד משתדל לא לעשות את מה שטענת שאני עושה כלומר להתמקד ברהביליטציה לישראל השנייה ולא בהתקפות על הראשו…  GiladGendelman asafb2k Erella11 אז על הסעיף הזה בתיאוריה הסכמנו שיש מגמה כזו גם טוב  שאר התיאוריה זו טענה…  ambivalentiut אני לא מנסח ככה אבל אני בהחלט מבואס GiladGendelman asafb2k Erella11 מה זה לא מה אתה לא לומד על מגמה מהנתון הזה למשל  אין שום מקום בישראל השנייה המ…  BeeriMor אני לא אמרתי את זה אני אמרתי שהתמיכה בנתניהו איננה תמיכה בשחיתות חלילה אלא נובעת מעמדה לאומית אחראית ומ…  GiladGendelman asafb2k Erella11 מבדיקת כל הקלפיות בישראל אין שום מקום בישראל השנייה המובהקת שבו ביבי הפסיד אין…  8eSnINY1aOMQpGQ מזרחיות איננה שד זו תפיסה קולוניאליסטית גזענית שלכם שאתם צריכים לעקור אותה כבר  אני מסביר פה קצת…  BeeriMor זו הוצאת דיבה שלך ממש חמורה לא אמרתי כזה דבר   לא מבין למה אתם קוראים דברים חיוביים על ישראל השנייה כא…  realDolevYaniv אם היית מעט יותר נבון או מעט פחות כועס היית מבין שהטקסט שכתבתי הוא ביקורתי מאד כלפי ההתנהלות החרדית  באמת לא הבנת Erella11 GiladGendelman נגמרה לי הסבלנות לשיח הזהויות המפלג הזה זה את מעידה על עצמך עצם הזהות של המזרחים לא מ…  assafazaria אכן ואלמלא ההפגנות בבלפור זה היה הסיפור שאי אפשר לברוח ממנו Erella11 GiladGendelman לא שינית בזמן האחרון יקרה זו הנוסחה דה לגיטימציה מוחלטת ורצח אופי למזרחי שמעז להביע עמד…  ZeppeliN0007 אני לא אבל הדיון הציבורי כן Kirilon1 זה ממש מה שאני טוען לכן אני אומר שרק בזכות ההפגנות בבלפור החרדים נמלטים מהביקורת הציבורית החריפה שהי…  AvishAb12 yesnomabyyes ruthelbaz אבל זה לא קשור הסברתי לך  זו הרצאה על בית שני שבהקדמה ציינתי את חורבן בי…  roeep86 לא אמרתי שזה לא בסדר אתה לא קורא נכון אני מעולם לא קראתי להגביל את ההפגנות או משהו דומה חלילה  אני רק מ…  AvishAb12 yesnomabyyes ruthelbaz אתה לא הצעת פה שום דבר מועיל סתם זרקת דבר הבל  קורה  ועם כל הכבוד לביקור…  Iaskquestions30 YuvalCo80807283 מקבל כך פרשנתי גם בשידור גם אם יבוטלו ההפגנות בבלפור החרדים לא יקבלו ההוראות GiladGendelman מביך לא אחראי ולא סולידרי AvishAb12 yesnomabyyes ruthelbaz אבל אתה מדבר הבלים לצערי היא שאלה על נקודה בהקדמה להרצאה שעוסקת בנושא א… </t>
+  </si>
+  <si>
+    <t>הרבנית מרים לוינגר הייתה סמל למסירות הנפש על ארץ ישראל   בפעילותה הציונית ובהירתמות שלה גאלה את הארץ הלכה למעשה וה…  בדרך לירושלים עובר אצל ראש מועצת אשכול גדי ירקוני ואצל ראש מועצת שדות נגב תמיר עידן  שמעתי מהם על האתגרים במהלך ה…  ltltזוהי שעת חירום אנו במלחמה אך ללא טנקים ומטוסים וללא אויב נראה לעין עכשיו חייבים להתמקד רק בדבר אחד  איך נחלצים…  לפני מספר שעות נכנס הסגר עליו החלטנו בממשלה סגר שמטרתו אחת  להוריד את רמת התחלואה העצומה אליה הגענו  לצערי בימים…  השבת במקור ראשון  שבת שלום   לאחר מאבק קשה השגנו השגים רבים בועדת הכספים  באמצעות התקציבים הללו נסייע לכל עם ישראל בחינוך בהתיישבות בחיזוק פר…  עמדתי לעניין מתווה ההגבלות על ההפגנות והתפילות  סתיו מספיק עם שיח השנאה שמעמיק את השסע   מדובר בתקציבים לפרויקטים חינוכיים שהיו נעצרים לארגונים שהיו נאלצים לפטר…  מודה לראש הממשלה לשר האוצר ולחבריי השרים שאישרו את הצעתי לקצץ באופן רוחבי לכל בכירי המגזר הציבורי   הנטל על הציב…  תומך בהצעה לקצץ בשכר נבחרי הציבור הערבות ההדדית מתחילה מאיתנו   אבל אני דורש להרחיב לכל בכירי המגזר הציבורי הקיצ…  שמח לקחת חלק בפרויקט המדהים  תיכנסו לשמוע לא תתחרטו חג שמח ושנה טובה🥂   ראיתי את העליהום על הפאדיחה של דנה וייס   ברוח ימי הסליחות אני מבקש מכולם להניח לה לכולם קורה שעושים טעויות תקשור…  הרקטה שנורתה הערב לאשדוד מוכיחה שוב  שהפלסטינים לא רוצים שלום אלא רק להשמידנו   תושבי האמירויות ובחריין אנו שמחים…  חנוכת שביל משופץ מהרובע הארמני ועד הכותל  שיתוף פעולה בין דתי ובין לאומי תוך הקשבה לצרכי תושבי העיר העתיקה שבסופ…  כל הציבור צריך לקחת חלק במאמץ למיגור המגיפה אם זה אומר פחות מתפללים בבתי הכנסת ואם זה אומר פחות מפגינים בירושלים…  שוחחתי כעת עם טלי פרידמן וברכתי אותה על בחירתה ליו״ר ועד סוחרי שוק מחנה יהודה  בתקופה הקשה של הקורונה החשיבות בשי…  אנו מצווים לונשמרתם מאוד לנפשותיכם בושה שחבר כנסת קורא לסרב לחוק ולהוראות הממשלה בזמן מלחמה  אחרי ששיסה נגד ציב…  בגבעת המטוס צריך לבנות נקודה   היה צריך לבנות שם כבר לפני שנים   אין סיבה שמדינת ישראל לא תבנה בירושלים בכל ירושלים ממשיכים בעשייה למען פיתוחה של ירושלים  הכשרנו קילומטר נוסף בעיר העתיקה לטובת הנגשה לבעלי מוגבלויות שיוכלו תושבי ה…  ירושליםבירת העם היהודי לאורך ההיסטוריה היא המקום הראוי והנכון לכל הנציגויות והשגרירויות מחו״ל   מברך את ראשי ממש…  בהצלחה רבה לנכדיי ונכדותיי האהובים שרק חלקם בתמונה בלי עין הרע  יום היסטורי  התחלה של שותפות מדינית כלכלית ותיירותית  שלום תמורת שלום  זו הנוסחה האמתית   מחכים לכם בירושלים  פסיקת בג״צ היא אצבע בעין להתיישבות כולה   בג״צ פוסק בלי שום אחריות לאנשים החלוצים לפני המחנה   עלינו לעשות כל מה…  תודה מירב   בהחלט הייתה פגישה חשובה ומעניינת  מצאתי שותפה שירושלים נמצאת בראש סדר העדיפויות שלה  נמשיך לפעול יחד…  הרצח היום נותן לנו תזכורת כואבת לכך שהחיים שלנו בארץ שלנו אינם ברורים מאליהם  אויבינו רוצים ברעתנו כל העת   הם צר…  וחי בהם ולא שימות בהם אמרו חזל  הנסיעה לאומן השנה היא בגדר פיקוח נפש אינני נכנס לסיבות המנהג לטוס לאומן בשנה ר…  גם צביקה הדר הגיע עם המשפחה לחופשה בירושלים  מה איתכם  בואו לירושלים   מברך את ראש הממשלה נתניהו ושר הבטחון בני גנץ שגילו אחריות ואימצו את פשרת ח״כ האוזר   אסור היה לצאת לבחירות בעת קשה…  השירות הלאומי צריך לקבל את המעמד הראוי לו שמח על שיתוף הפעולה יחד השותפים השונים למען הכרה בבנות שירות שנפטרו בעת…  בוגי משהו קרה לך שוטרי ישראל ומשטרת ירושלים בפרט עושים עבודת קודש בשמירת הסדר הציבורי כל זאת תחת מתקפות והכפשות…  ltltלהניף את דגל האמונה דגל האחריות והמשמעות גם בעידן הקורונה נמשיך יחד עם הקושי שהעיר תמשיך להיות מלאה והומה הכל יחזור ונמשיך את החזון ltltבעם אנחנו צריכים לזכור היטב את אהבת החינם והערבות הדדית ואהבת ישראל הרב קוק זצ״ל כותב שרעידות אדמה באות לזעזע את…  ג׳ אלול 85 שנה לפטירת הראי״ה קוק זצ״ל אמרתי היום על קברו כי בימים אלו אל לנו לשכוח את אותה פסקה שמדברת על היחס בין…  שמח שהמשבר של השירות הלאומי נפתר והשנה תיפתח כסדרה  כפי שאמרתי גם לראשי הארגונים השירות הלאומי הוא פרויקט בעל ערך…  בפתחו של חודש הרחמים החברה הישראלית צריכה לעשות חשבון נפש גדול על איך קורה אונס מזעזע כפי שקרה באילת  אנחנו כחברה…  נחל ג׳וברין  צאו לטייל בארץ ישראל  מודה לראש הממשלה netanyahu על האמון והשותפות  הליכוד ביחד עם הבית היהודי יפעלו למצוא את הפתרונות לצרכי הציונות הד…  חותם על האמנה לשמירתה של ארץ ישראל   כן לריבונות כן להתיישבות לא למדינה פלשתינית  אני בממשלה בכדי להילחם על כך…  הלילה היה שיגור לעבר שדרות וכבר תקופה שטרור הבלונים חוזר לשדותינו חמאס מרים את הראש והתגובה שלנו רפה  בישיבת הממש…  עד שהשמיים באמת יפתחו  בואו לירושלים  בעקבות הקמפיין שלנו התפוסה בבתי המלון בירושלים עלתה במעל 20 נגד כל הפסימ…  החלמתי  ודבר ראשון קניות  שערורייה אין מילה אחרת לתאר את הפסיקה לא להרוס את ביתו של המחבל שהרג את לוחם גולני עמית בן יגאל הי״ד  אם יש משהו…  אלירז תלמידי האהוב  תפיסת המחבל שתכנן את הפיגוע בו אתה וסמר אילן סביאטקובסקי נהרגתם לא תנחם אותנו אך בלכידתו יש…  לנהל לשכת שר תוך כדי החלמה מקורונה ועל המסע שלי בפוליטיקה בשנה האחרונה ועוד נושאים רבים בראיון מקיף אצל  יהודה שלזי…  הרב עדין אבן ישראל שטיינזלץ היה יחיד בדורו   תלמיד חכם גדול ופורץ דרך מהפרויקט ההיסטורי והעצום של פירוש התלמוד…  אפשר וצריך לסייע הומניטרית לאזרחים שנפגעו בלבנון אך הנפת דגל מדינת אויב בלב תא זה בלבול מוסרי  לבנון אפשרה לחיזבא…  אסור לאפשר שום ירי לעבר ישראל לא בצפון ולא בעוטף עזה חייבים להגיב ביד קשה על כל ירי  אם הילדים בעוטף לא ישנים א…  עם צאת השבת התברר לצערי כי יצאתי חיובי לבדיקת קורונה שעשיתי ביום שישי  מרגיש כרגע טוב ומאחל רפואה שלמה לכל חולי ישראל  שבוע טוב ערב ט׳ באב  מחשבות על תיקון על אהבת חינם ועל חברה משוסעת  ואז שומע את הח״כים מישראל ביתנו במליאה מפיצים שנאת חינ…  ערב ט׳ באב יום של חשבון נפש לאומי על כולנו על החברה הישראלית כולה ועל נבחרי הציבור משמאל ומימין לגנות כל גילויי…  יהונתן תלמידי היקר 14 שנים מאז נפילתך במלחמת לבנון השניה  הלב שלי כואב כאילו זה קרה אתמול   הרוח המסירות הערכי…  יאיר גולן איבדת את המצפן  מי ש״מזהה תהליכים״ וחושב שהחברה הישראלית דומה לגרמניה של שנות ה30 הוא בעצמו האיום האמ…  הקורונה לא יכולה להיות תירוץ להתנהלות שאינה מתאימה לחיילים דתיים  פניתי הבוקר לשר הבטחון גנץ ולרמטכל כוכבי על ההת…  מברך את ראש הממשלה נתניהו והקבינט הכלכלי על שקיבלו את הצעתי והצעת השרה אורלי לוי למענקים דיפרנציאלים כפי שהעלנו בי…  אני מכיר את המשנה ליועמ״ש רז ניזרי הוא אדם ערכי שפיו וליבו שווים עובד ציבור שטובת המדינה לנגד עיניו   ההשתלחות ש…  אבישי בן דודי היקר מפז ונעים ההליכות אל תירא ואל תיחת   קולך בציבוריות הישראלית חשוב מאין כמוהו הם ימשיכו לתקוף…  שוחחתי הבוקר עם מפקד מחוז ירושלים ניצב דורון ידיד לחזק אותו על המידתיות והממלכתיות שבה המשטרה התנהלה בהתפרעויות שאר…  כשחבר כנסת קורא לעבור על החוק ביום והלפיד לא מגנה אנחנו מקבלים מפגינים עם לפידים שמנסים בצורה אלימה לפרוץ לבית רא…  ׳יש עתיד׳ מובילה לאנרכיה   גם אם לא מסכימים על פעולה כזו או אחרת של הממשלה אסור להגיע למצב של ״איש את רעהו חיים ב…  אל תאמינו למה שמספרים שעשיתי או לא עשיתי לילה אחרון בבידוד מחר חוזר  טהרן kann  מינוי דיינים הוא נושא חשוב מאד עבור הציונות הדתית  ביום רביעי בה אני מתכוון לתמוך בחכ איילת שקד כחברה בוועדה למ…  הממשלה אישרה את בקשתי למנות את אבי כהן סקלי למנכ״ל המשרד הבקשה הועברה ע״י השרה גילה גמליאל כיוון שאני בבידוד אבי…  בדיקת הקורונה שלי יצאה שלילית תודה רבה לכל הדואגים  בשורות טובות ושבת שלום בימים בהם אנו מציינים 6 שנים למבצע צוק איתן חשוב לי לומר שהמבצע לא הסתיים עד שהבנים ישובו הביתה ולכן אסור למדינת י…  ltltאעבור בדיקת קורונה ואפעל ע״פ ההנחיות של משרד הבריאות מאחל ליועץ בריאות והחלמה מהירה  בשורות טובות וצום קל ראשית אני מרגיש טוב אמשיך לעבוד למען אזרחי ישראל רק מהבידוד  הבוקר התקבלה תשובה חיובית לבדיקת קורונה אצל אחד מי…  על אף שבימי המשבר בו אנו נמצאים יש נושאים חשובים יותר לציבור הישראלי הצבעתי בעד הקמת ועדת חקירה לחקר ניגודי הענייני…  גלעד אתה שליח ציבור נאמן לארצו ולעמו מאמין שתעשה חיל ותגן על מדינת ישראל בעולם יחד עם הידוק היחסים עם ידידתנו ארה…  מי שמשתף פעולה ונמצא בכנס עם האוייבים של ישראל שלא יצייץ על תקווה שלום ואחדות ראיתי הרבה הפגנות נגד לאחרונה מה שאתם עושים זו ערבות הדדית לשמה הפגנת בעד של אחוות לוחמים ורעים לנשק אני מצדיע ל…  כיף לפגוש בחברון את תלמידי היקר א מג״ד בנח״ל ומפקד בגזרת חברון  חברון עיר אבותינו מאז ולתמיד  ממשיכים לסייע לארגוני הציונות הדתית   אחרי שאתמול ראש הממשלה אישר את ההתחייבות שלו להכניס את תקציבי החמ״ד לבסיס הת…  מודה לראש הממשלה נתניהו על קיום ההסכם להכנסת תקציבי החינוך הממלכתי דתי לבסיס התקציב   החינוך לא צריך להיות מתוקצב…  נעמי שמר כלת פרס ישראל לזמר עברי אחד מיני רבי תארים שקיבלה על שיריה שהפכו שזורים במורשת העם שלנו ואיך אפשר שלא ב…  שמואל יקירי ילדי ישראל קיבלו מנהל משכמו ומעלה מסור ונאמן לדרך מקצועי וערכי  סמכתי עליך ובך בכל רגע של עבודה משו…  תזכורת איך באמת נראה מעצר שווא  צילום מארק ניימן לע״מ ברכות רבות לחניכי קורס טיס 180 של חיל האוויר שקיבלו אתמול את כנפי הטיסה אני זוכר את תחושת הגאווה ודפיקות הלב ברחבת…  נפגשתי היום עם חבורת צעירים נפלאה מהמטה להשבת הבנים מהשבי בעזה החזרת הבנים זו חובתנו זו משימתנו כך אמרתי לראש המ…  קטיעת שרשרת ההדבקה היא הפתרון להתפרצות הנוספת של הקורונה וחשוב שאישרנו את האיכונים בממשלה   איכוני הטלפונים סייעו…  BarakRavid אתה עיתונאי צא מהפוזיציה ברק מספיק עם מכבסת המילים הזו  אין דבר כזה הגדה המערבית אני מניח שהתכוונת ליהודה ושומרון נחלת אבותינו   וזה לא…  בשוק מחנה יהודה המשבר מורגש בימים יפים יותר השוק הומה אדם זה לא המצב כרגע פגשתי פה את בעלי העסקים שמעתי את הסיפ…  זה מתחיל במריחואנה ונגמר בסמים קשים יותר   אפשר וצריך ויש לנו חובה להקל על חולים הזקוקים לקנאביס רפואי אבל על המדי…  הקלות על החולים  כן שער לעולם הסמים לבני נוער  לא   תמכתי בועדת השרים לחקיקה בחוק של חכ שרן השכל לאי הפללה אי…  התבשרנו בבשורה הקשה מכל סמ״ר עדיאל פישלר נמצא ללא רוח חיים בסמוך לשיזפון  אין בשורה קשה מזו שולח תנחומים עמוקים…  עדיאל פישלר תלמיד שלי מהמכינה וחייל בסדיר נעדר מאמש   המשטרה מבקשת את עזרת הציבור באיתורו   אלו הפרטים  שתפו…  ltlt אני גם קורא גם לחבריי השרים לתמוך בו כל הכבוד לח״כ מיכל שיר שיזמה את התיקון המבורך השקעה בפריפריה בראש סדר העדיפויות  ביום ראשון ועדת השרים לחקיקה תדון בחוק המשווה את ההטבות המס לעכו כפי שנהריה מקב…  כיף גדול לפגוש את הבן היקר שלי באמצע סיור בבנימין ה׳ ישמור את כולכם חיילים אהובים שלנו  בהמשך לפנייתי למשנה ליועמ״ש ארז קמינץ באשר להארכת כהונתו של הרב אריה שטרן נמסר לי שאם תתקבל בקשה חדשה להארכת כהונת…  אות בספר תורה למען אחדות העם  חטא המרגלים גרסת 2020  המענה לפסילת חוק ההסדרה  ריבונות עכשיו ביהודה ושומרון עלינו לפעול בכל הכוח כדי שזה יקרה בהקדם עם אנשי pepticom שמפתחים תרופות חדשות ע״י בינה מלאכותית   חברת הייטק ירושלמית שממוקמת בכפר ההייטק שהוקם על ידינו…  יועז תרתיח מים אני בדרך דובר על יחידות המשרד נברך כשתעביר אותם לירושלים   פניתי היום לחבריי בממשלת ישראל השרים הנדל ופרקשהכהן להעביר את משרדיהם לירושלים מהיכרותי עם יועז ועם אורית אני ב…  דני חברי תודה על הדברים  ככה נראה שמאל ציוני  גם אם לא מסכימים על כל הדברים יש שיח ומכנה משותף רחב  ליוויתי את הקדושים בדרכם האחרונה ניחמתי את המשפחות בשבעה ועד היום הזה הקשר בנינו נשאר אמיץ המשפחות בחרו בגבורה לה…  במשך 17 ימים הסתובבתי בשטח עם הכוחות חיזקתי אבל בעיקר התחזקתי מהנחישות מתחושת השליחות והנכונות לעבוד יומם ולילה ו…  היום אנו מציינים שש שנים להירצחם של שלושת הנערים גילעד שער נפתלי פרנקל ואיל יפרח הי״ד על ידי מחבלים בני עוולה…  אם כבר אז טראמפ ונתניהו חשפו את פניכם לא שלום מעניין אתכם אלא מדינת כל אזרחיה   העם היושב לצדך לא מבקש חירות אלא…  כשהשמאל הציוני נמחק ומאבד את השפיות הוא מפגין עם דגלי האויב  עצוב שזה מה שנהיה מהשמאל בישראל  אירחתי היום בלשכתי את מארק פאוואר שגריר בריטניה בפועל לשיחת היכרות הצגתי בפניו את חזוני לירושלים בירתנו והסברתי לו…  בציפורי איפה שהתהלכו אבותינו התנאים ובראשם ר׳ יהודה הנשיא עורך המשנה   נבנה תכנית לחיבור הדור הצעיר לאתרי המורשת…  את החג הקדוש הזה נחגוג יחד עם קרובינו לאחר הרבה זמן שלא התראינו נקבל את התורה יחדיו כאיש אחד בלב אחד   תיהנו ותש…   Happy Independence Day Georgia   Israel and Georgia have many common interestswhich we hope to develop and to ex…  יצאתי לשטח לראות בעיניים את הפרוייקטים שאנחנו מקדמים במזרח העיר ובעיר העתיקה ולהיפגש עם הצרכים של העיר כדי להכין ת…  תמונה מתוך סדרת הכתבות ׳מלחמה ללא שם׳ בתאגיד kann השבוע מציינים 20 שנים לנסיגה מלבנון אני מכיר את לבנון הייתי שם במבצע ליטני לחמתי במלחמת לבנון ה1 ובקרב סולטן יע…  YakiAdamker איתכם בכאבכם הגדול  מן השמיים תנוחמו ולא תוסיפו לדאבה עוד מודה לראש הממשלה על הנכונות לסייע בחיזוק ושיפור ירושלים  בימים הקרובים אכין תכנית מעמיקה ויסודית בכדי לחזק ולשפר א…  יחד עם חבריי ושותפיי ראשי מועצת יש״ע   בעסקת המאה יש חלקים מטרידים מאוד נלך על ריבונות בכל הכוח אבל לא נאפשר בשו…  ראש הממשלה בנימין נתניהו מאמין בחפותך מתפלל שהצדק ייצא לאור ומחזק ידיך  קרדיט צילום דוברות הכנסת  היום נפרדנו בישיבת הממשלה משני שרים ערכיים חברתיים ומוכשרים שעשו ופעלו רבות למען המדינה שניים שהוכיחו שמבחינתם אי…  זכיתי להתחיל את תפקידי בשבוע המיוחד הזה   ירושלים שלנו את התגשמות התקומה של העם היהודי דורות חלמנו עלייך ועל השמ…  שַׁאֲלוּ שְׁלוֹם יְרוּשָׁלִָם יִשְׁלָיוּ אֹהֲבָיִךְ  יְהִי שָׁלוֹם בְּחֵילֵךְ שַׁלְוָה בְּאַרְמְנוֹתָיִךְ  לְמַעַ…  ירושלים אורו של עולם שמח שעל אף המגבלות ריקוד הדגלים התקיים השנה וירושלים לובשת חג אלפי שנים התפללו יהודים לחזור…  מודה למרכז הבית היהודי על שאישר הערב בהצבעה דמוקרטית את ההסכם של המפלגה עם הליכוד וכניסה לממשלה   שמח כי ערב חגה ש…  מברך על ההחלטה לפתוח את בתי הכנסת החל ממחר יום ירושלים אין תזמון טוב מזה לחזור לתפילה שאנחנו כל כך אוהבים ולקולות…  לאחר ההשבעה בכנסת הלכתי לכותל המערבי להתפלל להצלחת ממשלת האחדות החדשה   יש לנו מדינה חזקה ועם נהדר ובעזרת ה׳ נמשי…  ממשלת אחדות ופיוס לאומי  צו השעה   אני רפאל פרץ בן יוסף ז״ל ומרגלית תבלא מתחייב כחבר הממשלה בעזרת ה לשמור אמו…  ירושלים אורו של עולם yeudiIsraeli מבין שיש פה כמה שלא הבינו למען הסר ספק או הבנה מוטעית של הקוראים כוונתי הייתה בתוך גבולות המדינה…  הפלסטיני שזרק בלוק על החיילים שהסתובבו בלילה בשכונה שלו הוא מחבל מי שפוגע בחיילי צה״ל בשעה שהם נמצאים מחוץ לגבולות…  תזכורת כואבת בבוקר הזה על אף משבר הקורונה אויבינו לא נחים לרגע וממשיכים לפגוע בנו   לוחם סיירת גולני עמית בן יג…  עם חזרת הילדים למסגרות ושגרה הדרגתית  חשוב לשים לב  הקורונה לא נעלמה  גם אחר הצהריים  חובה לשמור ולהקפיד על או…  כמו שאמרתי מורשע בעבירות מין לא ייכנס בכותלי בית הספר החלטה נכונה וללא עוררין של בית הדין לעבודה אמשיך לפעול בנח…  בוקר טוב לילדות וילדי הגנים שחוזרים הבוקר   בהצלחה לכבוד שבת בשורה טובה להורים  השגנו עם משרד האוצר והשלטון המקומי הסכם באשר למתווה הפעלת הצהרונים נביא בכך לשחרור…  השבת במקור ראשון חזרת מערכת החינוך לשגרה ועוד ועוד שבת שלום  IshayFridman  MakorRishon  JoshBreiner WizoIsrael שלום ג׳וש אם בתך בטווח הגיל 03 עליך להתעדכן מול משרד הרווחה המעשה שלך גל הוא שילוב של והדרת פני זקן כיבוד סבא וערבות הדדית   היום יחד עם חברי ראש העיר אשקלון תומר גלאם…  מרגש לפגוש את אייל בלכנר בן ה 17 תלמיד כיתה י״א בבית הספר רונסון שזיהה את המחסור באמצעי מיגון לצוותים הרפואיים ומ…  למעוניינים להירשם לתכנית ההסבה כנסו  בהצלחה  אדם מורשע בעבירות מין לא ייכנס בשערי אף מוסד חינוכי נקודה  אני עובד מול משרד הבריאות ומשרד המשפטים כדי לוודא את ז…  אני משוכנע שהתכנית תניב ותצמיח ממנה מורים מוכשרים ומקצועיים שמתאימים ללמד את כלל התלמידים היקרים שלנו אנחנו כאן לכ…  חשוב לומר כי אנו צופים שהלימודים יתקיימו באופן מקוון ובהתאם להנחיות משרד הבריאות כפי שיינתנו מזמן לזמן אך למרות ז…   במהלך ההכשרה יקבלו המועמדים יקבלו דמי אבטלה ומענק לימודים בגובה של כ 14000 ₪   בתום ההכשרה המוסבים יוכלו להשת…  ובמבחן ובמבחן ההתאמה  כל המועמדים יופנו למבחן התאמה להוראה– מסילה מקוון או תואם לו  המוסבים להוראה יוכשרו במגוו…   ראשית התכנית מתאימה לבעלי תואר אקדמי ראשון לפחות במקצוע ההוראה בציון ממוצע של 75 לפחות ממוסד להשכלה גבוהה באר…  לאור השאלות הרבות בנושא מעט הרחבה על עיקרי התכנית באשר להכשרת מורים חדשים  משרד החינוך ושירות התעסוקה יוצאים במיז…  חבל על דאבדין ולא משתכחין   הרב נחום רבינוביץ׳ מראשיה ומבכיריה של רבני הציונות הדתית הלך לבית לעולמו  הרב רבינו…  ltltההוראה הוא מקצוע עם שליחות ויש בו היכולת לעצב את החברה והמדינה ובמשבר הזה ההוראה הוכיחה כמה היא קריטית למשק ולמד…  הסבה להוראה  זה הזמן  מפוטרים בעקבות המשבר זו ההזדמנות להיכנס חזרה למעגל העבודה בתכנית הזו אנו מביאים בשורה למש…  הבוקר בבתי ספר במודיעין יחד עם ראש העיר חיים ביבס שותף גדול לפתיחה של מערכת החינוך ברשויות מע׳ החינוך שם מתפקדת ב…  מקלים על הבירוקרטיה של הצהרת בריאות התלמידים   במהלך חזרת התלמידים למסגרות החינוך הם מתבקשים למלא טופס הצה…  רציתי לראות בעיניים את פתיחת בתי הספר ואת חזרת הלמידה עם ההקפדה על הנחיות  משרד הבריאות  כיף לראות את הילדים שמחי…  סיימתי עכשיו שיחת VC עם מנהלות ביה״ס  מכל הארץ בכדי לשמוע על היערכותן ועל חוויות המורים והתלמידים הקשבתי לצרכים…  גם אני שולח ילד ונכדים לבתי הספר החשש מובן אך יש לי אמון מלא במערכת תלמידים יקרים הורים וצוותי הוראה אני סומך עליכם בהצלחה לכולם פתחנו כ 80 ממוסדות החינוך גאה בכם המורות המורים מנהלות ומנהלים ומעריך אתכם מאוד המסירות שלכם בעבור התלמידים הי…  לגבי גני הילדים הודעתי לראהמ שאנחנו ערוכים לפתיחה לפי הנחיות משרד הבריאות החלטנו בדיון להמתין עם פתיחת גני הילדים…  שמח שוועדת השרים אישרה את פתיחת כיתות אג הרחבת החינוך המיוחד ואת חזרתם המלאה של תלמידי יאיב עשינו את כל ההכנו…  אנחנו עושים תיקון היסטורי ומעלים על נס את גבורתם של הלוחמים בגטו ורשה שסיפורם לא סופר  את דבריי היום בכנסת פתחתי בהערכה רבה והוקרת תודה למורות המורים והגננות שתפוgtgt  הישגיכם הכבירים בחקר הרפואה ובחקלאות במדעים המדויקים במדעי הרוח והחברה ביצירה האמנותית והתורנית וכמובן מפעלי החי…  מאז ומעולם אנחנו ידועים כְּעָם הסֶפר כיום אנחנו במידה רבה גם עָם הרוח והחֶקֶר ישראל ניצבת בחזית העולמית של מח…  לראשונה זה 10 שנים יש לנו כלת תנ״ך   רות כהן בת ה16 תלמידת כיתה י״א באולפנת הרב בהר״ן   ברכות על הזכייה הבאת…  ltltאנחנו רואים את האכפתיות את ההירתמות האדירה את היקף הסיוע וההתנדבות בכל מקום  והלב מתרחב חלק משמעותי מעוצמתה ש…  משמעותה של ערבוּת הדדית העומדת במוקד החידון התנ״ך השנה היא אחריות הדדית מתוך מחויבות עמוקה  החברה הישראלית עו…  ארץ ישראל יפה מאוד מאוד בזכות ברדוגו אנחנו גם רואים את זה כל פעם מחדש גם אם הפעם מרחוק בתקווה לשוב לנופים היפים ו…  chayapolitit DoriaLampel מאוד פשוט   כיתות אג נעזרות בכיתות הריקות של דו וכך כיתה שלמה מגיעה ומתפצלת לשניים בה…  DoriaLampel תודה דוריה זה הכיוון עובדים על הפרטים בחמישי נפרסם  חג שמח ״זֶה הַיּוֹם עָשָׂה ה׳ נָגִילָה וְנִשְׂמְחָה בוֹ״   חג שמח עם ישראל   סיימנו עכשיו דיון עם ראש הממשלה שמח שאישרנו את פתיחתן של הישיבות וחזרתן ההדרגתית לשגרה תוך כפיפות מלאה להנחיות המל…  YqCaTP7lpHLRoL3 כולם כולל כולם אויבנו לא מבדילים בנינו לא אכפת להם מה הדעה שלנו ולא מאיפה אנחנו  אך זה כוחנו להיות מאוחדים מול האיומים וזו הגד…  יום הזיכרון גם אם השנה במתכונת שונה ומרחוק מחבר אותנו אל מסירות הנפש אהבת העם המדינה והארץ שהיו מנת חלקם של צעי…  שמח שועדת השרים בראשות רהמ אימצה את המתווה שלי לחזרה מדורגת וזהירה ללימודים המערכת ערוכה עשינו עבודת מטה משמעותית…  גאים לקחת השנה חלק במיזם של עמותת האחים שלנו  מתחבריםוזוכרים אשר נותן פלטפורמה למפגשי הנצחה וזיכרון במפגשי ZOOM…  שבת שלום וחודש טוב לכולם  ״כל המציל נפש אחת כאילו הציל עולם מלא״  הרב ישעיהו הבר שהצלת נפשות הייתה פרויקט חייו לא הצליח לשרוד את הקורונה…  עם תחילת חודש הרמדאן חודש הצום לכל המוסלמים אני שמח לאחל לכם ולבני משפחתכם צום קל ורמדאן כרים  כול עאם ואנתום בח…  معَ بدايةِ شهر رمضان الكريم، شهر الصوم للأمّة الإسلاميّة، أتقدّم لكم بأحرّ التهانئ، وأتمنّى لكم ولعائلاتكم شهرًا مب…  RonnyLinder סיכום שבוע בלמידה מרחוק הלך פשוט מעולה בעיקר השיעורים של בת ה 105 כיתה ה שבכל בוקר קמה שעה מראש התארגנה התלבשה והס… פסילת חוק הפקדון ע״י בג״צ הוא עוד שלב בסדיקת זהותה היהודית של מדינת ישראל בכלל ומהווה מסמר נוסף בהפקרת תושבי דרום ת…  כעת בבי״ס ״גוונים״ לחינוך מיוחד באשדוד באתי לראות מקרוב את החזרה לשגרה של למעלה מ40 אלף תלמידי החנ״מ שחזרו השבוע…  gtgtכמו האוצר לדבר בצורה נאותה כלפי ציבור עובדים מסור ונאמן כמו המורים   אתה יודע בעצמך שהגשתי לאוצר מתווה להתחשבנות…  שי היקר אתה טועה המורות והמורים בהחלט עובדים הם מכינים שיעורים פעילויות ועבודות עבור הילדים של כולנו הלמידה מר…  בשורות טובות אלי ביר מייסד ונשיא ״איחוד הצלה״ הבריא ברוך ה׳ מנגיף הקורונה ושב ארצה להיות שוב בחיק משפחתו ולעסוק ב…  zviashkenazi תוקן יוזמה מקסימה שנשלחה אלי מבי״ס זיו בירושלים  במהלך יום הזכרון לשואה ולגבורה התלמידים התבקשו לצפות בסטורי של אווה ל…  החינוך המיוחד חוזר הבוקר  אמנם חוזרים למתכונת שגרה שונה אך יש בחזרה הזו סמליות שתיתן תקווה לכל מערכת החינוך   אמש…  ביום הזה יותר מתמיד מורגש הצורך במדינת ישראל נפלה בחלקי הזכות להיות טייס בצבא העם היהודי להיות הרב הראשי בצבא המ…  לחברי כאח לי ניר היקר איתך באבלך הכבד על פטירת אביך  מחזק ומחבק אותך ואת משפחתך היקרה ברגעים הקשים האלו  מן השמ…  אנחנו נתנו את האפשרויות וכל מנהל יחליט לפי שיקול דעתו לפוסט המלא   הבוקר חוזרים ללמידה מרחוק וצריך להבהיר כמה דברים מסמך הלמידה מרחוק מהווה סטנדרטיזציה אין כאן דבר שהוא חובה בנינו…  דוידי היקר מזל טוב לך ולאיילת להולדת הבן תזכו לנחת ובריאות  מתן אחי קטן עליך רפואה שלמה  אחיי בית ישראל גם אם מרחוק  תרבחו ותסעדו כולכם סיימתי שיחה עם מנהלת האגף לחינוך מיוחד הגברת רחלי אברמזון עברתי איתה על הצרכים והפרטים כדי שהחזרה של החינוך המיוחד…  נערכים לכל תרחיש  הכנו מספר חלופות עד לחזרה לשגרה מלאה בשילוב בין למידה בקבוצות קטנות ללמידה מרחוק שתי מטרות לנו…  עם ישראל התייתם הערב   הלב דואב על פטירתו של הראשון לציון הרב בקשי דורון זצל הרב בקשי היה מגדולי התורה בדורות ה…  עם ישראל בתפארתו   אברהם מינץ ז״ל היה מאנשי ההתיישבות הגדולים שחיו בתוכנו איש תורה ועבודה במלוא מובן המילה מחלוצי העלייה לביריה דרך…  פשוט תודה  NadavEyalDesk תודה נדב אכן מתחילת המשבר עמדנו על כך PurpleUmbrellla תודה על ההערה  אני פועל מהיום הראשון לחנך שאלימות היא אינה לגיטימית באופן מוחלט ולא תתקבל בשום צורה במערכת החינוך</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShayPatael ronitlev12 טופל  HXgZDgEpuj1PDiA ronitlev12 אמא מבגדד ddzmora ronitlev12 מה לא צמחוני בשורבה ronitlev12 אני בצלחת השלישית של השורבה כפרה  ronitlev12 בקטנה  ronitlev12 טוב טוב  מה הכנת לצאת הצום ronitlev12 הלו הלו מה עם הסוכה honeycomb358  amnonbenhaim משתתפת בצערך yelenaperelman גם לקחתי על עצמי החל מהשבוע לראיין בכל שידור שלי אנשים שאיבדו את היקר להם מכל בגלל הקורונה מוזמנים להפנות בפרטי מרואי…  zehavagalon Haaretz אוי זהבה עוד פעם התפקשש לך הפמיניזם YinonMagal רפואה שלמה זהו זה השיא איזה מלך שבת שלום  rothmar Riklin10 tadmorerez48 bardugojacob שמחה תת רמה לא מכבד אותך ולא אותנו גם את הכותב אבל זה כבר סיפור אחר shlomisammy זה מביך אבל קלמן ציטט חצי ציוץ מבלי שהתייחסתי אליו את הדברים כתבתי אחרי הציוץ של בראשי בנוגע לניסיון ש…  shlomisammy האמת שקלמן הכניס אותי וגם לא ביושר פישל לקלמן מפריע שאנשי תקשורת היו בפעילות בליכוד וחזרו לתקשורת הוא כנראה שכח שהיה פעיל פוליטי והוצב ברשימת התחיה לכנסת…  ראיתי הבוקר שלקלמן ליבסקינד מפריע שהייתי בפעילות בליכוד וחזרתי לתקשורת תגידו שמעתם את קלמן אומר את זה פעם על הנדל…  Riklin10 אפשר דוגמה BoazGolan  זה קורע yuvalyoz בול אי אי פלקסין אתה מחסיר פרטים מהשיחה ברדוגו הדגיש את אהבת הציבור הימני בפריפריה ליהודה ושומרון החיבור של המסורתים…  הגיע הזמן שאנשי ימינה יתייחסו לדברים מדוע ניסו להפגיש ולהשפיע על דעתם של עיתונאים על אביחי מנדלבליט  סגן שר הבריאות יואב קיש היו כמה עשרות מקרים של אנשים שאמרו היינו בהפגנה ואחרי כמה ימים גילינו שאנחנו חולים IsraelGaley סגן שר הבריאות יואב קיש אומר לנו הבוקר מעל 6800 נדבקים ביממה האחרונה אנחנו בתחלואה אולי הכי קשה בעולם המציאות ח…  KfirSapir על זה ptrdvd אמרת שי ניצן אמרת הכל ptrdvd וזה עוד מבלי שנכנסת לסטטיסטיקה של אלפי העצורים סתם פעולה שגרתית של שוטרי שטח בהתנתקות עצרו את זכות ההפגנה אוי טוויטר תודה  alonkar3 אמן לכולנו alonkar3 קרה היום בשידור שלי  אין שאלה בכלל CwPmMOYzfhk73VJ מעציב משהו alonkar3 כולנו אשמים  כל מי שמתקהל ולא מקפיד על עטיית מסיכה  סגור yossilevi78 אבל הטינופת בסופו של דבר נרשמת עליך אז מה עשינו פה DiscussingEcon1 יצאתי נגד פתיחת בתי הכנסת ותפילות המוניות ונגד הפגנות הקורונה לא מבדילה ביניהם yossilevi78 הנאורים מבלפור הם החביבים עליי תוך כמה זמן מתחילות בשמאל ההשוואות בין מתווה ההפגנות לתהליכים בגרמניה הנאצית newsisrael13 RavivDrucker תודה חדשות 13 אתם חבורה של אנרכיסטים  תמשיכו לעודד הדבקה בשם אידיאולוגיית רק לא ביבי מוטרפים nadavabeksis JoshBreiner לא לא טיקטוק NadavYonani ranboker ראוי לציין שמי שהקפיד כל הזמן על מסכות ועוד ברדיו היו YairNetanyahu  YaaraZered   לפני חודשיים ויותר  arutz20 ערוץ 20 נענה לקריאתו של שר התקשורת יועז הנדל והחל מהיום יחוייבו כל הפאנליסטים והאורחים באולפן לעטות מסיכות על פניהם כל עוד א… אפרופו השיח על מנדלבליט עכשיו נזכרתי שרק בתחילת החודש הפרקליטות הוציאה תגובה שהיא לא תיגרר לניהול המשפט דרך התקשו…  הסיפור הוא לא המקורות שחגי סגל או עיתונאים אחרים מוכנים ובצדק לשוחח איתם הסיפור הוא החיבור הפוליטי בין מנדלבליט לפ…  TopazLuk מעולה adibergman2 איך מגבה אותו אם היום הובאה חוות דעת חיצונית ההיסטוריה תשפוט את העיתונאים שמגבים עכשיו את מנדלבליט וכן גם את הפוליטיקאים שעד רגע זה חוסם את התקנות להגבלת ההפ…  OriginalMosheC Riklin10 איזה עובדות ידברו אלה שנמצאות בכספת והיועץ חוסם את פרסומן בכל דרך talgilboa הם ימשיכו לכתוב ולקשקש ואת תמשיכי בעשייה זו החלוקה שיתפוצצו baruchikra מוזר עד רגע זה הוא נמנע מלכתוב חוות דעת בעניין אולי לא היה לו זמן כי מה זה כבר התקהלות של אלפי אנשים בזמן שהנגיף משותלל כאן eitanzeliger ריבוי דעה avigrin10 גם הפעם הפקידים מכניעים אותם לא להאמין arutz20 דר אביעד בקשי בראיון לזמן כנסת יש גורם אחד שמוסמך להתקין תקנות גם לפי חוק הקורונה וגם לפי תקנות שעת חירום וזה ממשלת ישראל… ErelSegal 8xJHSXjvLpKXpjK הנה ההסבר שמספק מנדלבליט מרף מסוים השתלחות קשה ומתמשכת במערכות שלטון החוק עלולה להגי…  ErelSegal ועם כל זה אסור להתעלם מכך שנשלח סוג של איום מרומז לנתניהו בהכרזה על נבצרות מהותית אני סופר עד אלף כ…  michaelhoss לא זלזול ולא חוסר כבוד עמדות שונות  המאבק אינו של נתניהו הוא של הימין כולו על המערכות שכוחן הפך מפ…  shilobesheva אז ההצעה שלך היא לוותר על הכל כולל כל הפרשיות הנלוות לתיקי נתניהו נוותר גם על זכות החפות של האזרח ו…  michaelhoss זה מה שהבנת ממה שכתבתי אגב גם אז היו מוכנים לוותר על הניקיון במערכות אכיפת החוק תמורת ראשו של נתניהו כלומר הסיאוב בפרקליטות ביועמשיה…  אפרופו השיח שמתנהל בציונות הדתית הוא התחיל לפני שנתיים וחצי בהארץ ובידיעות זכור לי טור של נדב איל עם ההצעה שנתנ…  מוזר על המחאות הם לא דיברו רק בתי הכנסת מפריעים להם כמעט מפתיע  ביום שישי מנדלבליט אומר במקור ראשון שהוא לא מתנגד להגבלת ההפגנות היום סגן השר קיש אומר שיש החלטת ממשלה אבל מנדלבלי…  baruchikra אוי כמה צביעות כל שבוע אתה וחבריך מקדמים את המחאות הללו בתקשורת כל שבוע מפרים שם הנחיות  עכשיו נזכרת להזדעק ממשלת ישראל שלום אתם אחראים לפארסה הזו אוזלת יד שמסכנת את החיים של כולנו יש כאן חבורה של אנרכיסטים שמוכנים להתאב…  michaeldvorin אין לנו לוקסוס לוותר שנה טובה דבורין שנה טובה חברים  שמרו על עצמכם על ההורים ועל סבא וסבתא שנה של בריאות ויציאה מהמשבר שנחזור להתחבק ולחגוג יחד ללא…  Onetruth011 AvishayBenHaim שנה טובה  AvishayBenHaim אבישי אתה מלך  ריגשת  שנה טובה ומתוקה  arutz20 איש השנה של יערה זרד הרב ישעיהו הבר זצל  הרב הבר הגדיר לעצמו יעד שהיה בוודאי נשמע דמיוני – לבטל את רשימת ההמתנה לכליה בישרא… נציג המשטרה סנ״צ גלעד בהט אומר לנו הבוקר בגלי ישראל הזכות להפגין קיימת אבל אם אנשים יהיו בלי מסיכות ואם לא ישמרו…  GiladFarber להעיף את הטלפון הכי רחוק שאפשר ולהתחיל לאט מספיק כמה עמודים ביום ואז זה כבר יבוא לבד arikbender אריק אל תתאכזב גם זה יגיע  ריבונות סיפוח זה משהו אחר יושבת עם ריקלין בבית קפה  שואלת אותו  איפה המלצרית תכף תגיע  כעבור 10 דקות לא מגיעה ריקלין מה יהיה אין עוגה אין…  GLZRadio netanyahu efitriger מה מה מה היא אמרה שלא ראתה את התמונות ודיברה באופן כללי על מה שנדרש מהם לבצע בתור משלחת alonkar3 dinadayan שכחת את הדר והיא עושה עבודת קודש בזמן שאנחנו מצייצים בטוויטר כדאי להקשיב לה dinadayan הויכוח עם פרופסור ברבש היה השיא של השבוע  ואולי צניעות לא תזיק לאף אחד אין מושג מה קורה עם הנגיף הזה היהירות שלה מדאיגה מאוד dinadayan החיבוק מהתקשורת מתעתע  ועלול להתהפך בבת אחת חראם yarivop Riklin10 ברור בגלל זה מחנה השמאל בישראל מתכווץ לאחמד טיבי וחבריו השונאים שמתמרמרים על השלום הציבור הערבי בישראל מרוויח בענק מההסכם הזה בעיקר בשיתופי פעולה ובעסק…  SLaviod הלב איתם  chagayst ועוד ארק בושה chagayst היה לחיים ולא הייתי אינעל דינק חגי פרשנים חמוצים אייטם על חמישה מפגיני שמאל מחוץ לבית הלבן פוליטיקאי שמכפיש מחנה שלם בפריים טיים רשימת עדים שמתפרסמ…  גאה להיות ישראלית ביום הזה גאה לתמוך בראש הממשלה שמנהיג אותנו לשלום אמיתי גאה להיות חלק מתקשורת ימין מכובדת ואופט…  ronitlev12 האיש שלנו בעולם הגדול  devorah555 Riklin10 זה נכון Riklin10 מה היה קורה אם אתה היית עושה דבר כזה בשידור חי איזה תגובות היו מתקבלות בתקשורת הברברים האלה מהימין וכו הנושא הפלסטיני זה לא אישיו  איראן זה הדבר המרכזי לא להאמין כמה הבלים שמענו לאורך השנים וכמה טוב שגם זה נגמר  CarolineGlick IsraelHayomHeb איזה כיף בהצלחה yairkraus אוף עצוב אוי לא מה יעשו בלעדיו טרגדיה  רגע לפני הסגר פרידה מהקיץ  yanircozin יפה תמיד להקשיב לאישה BoazGolan מהממים תייצגו אותנו בכבוד dinadayan קראתי והתחלחלתי פשוט מפלצות  לא נתפס השר דרעי אומר בלי למצמץ מי שלא מקפיד על ההנחיות והכללים זה רצח זו עבירת לא תעמוד על דם רעך מנהיגי הציבור החילו…  עכשיו גם בחריין מנהיג מימין שעושה שלום אמיתי מהפכה של ממש ביחסים עם העולם הערבי ואין אינתיפאדה ואין מלחמה הערב ב…  IsraelGaley ד״ר DarashLimor לYaaraZered ZivMaor ישראל נמצאת בגל שני מוקדם יחסית משאר מדינות העולם אחרינו צועדות מדינות אירופה… IsraelGaley ד״ר DarashLimor לYaaraZered ZivMaor אם תהיה היענות של 80 בעטיית מסיכה נכונה במיוחד בחללים סגורים שיעור התחלואה כמע… IsraelGaley ״מנדלבליט שולח איום לראש הממשלה בעיתוי מפליא בו אנחנו שומעים את נתניהו מהדהד את מה שחשף עמית סגל  פתאום הפלא ופלא יוצאים… IsraelGaley ח״כ zoharm7 ״אם לא נעצור את המחאות  לא נעצור את התחלואה חד משמעית צריך לעצור את המחאות אני לא מאמין לכך שאין שם הדבקו… אין דרך אחרת לכנות את מה שעשו הערב מנדלבליט והפרקליטות מדובר בסחיטה באיומים  איתות אזהרה לרהמ כדי שיפסיק לדבר על…  האיש שטרפד את ועדת החקירה למחש לאחר שכבר הוקמה בניגוד לעמדת היועמש ועשה רפורמה כדי לכסות על הכשלים והקומבינות ש…  תזכורת רוטנברג הוא החוקר שאמר למתלוננת על הטרדה מינית שישלח אותה לנווה תרצה אם לא תגיד שרהמ שלח אותה כך על פי עד…  liori012 בריאות MDanielLevi הכי משעשעים המפגינים באירופה עם קריאות ביבי הביתה מקווה שמהציאות לא תפתיע אותם malkatwito הכי נכון זה מרביעי  אבל בפרקליטות אישרו חסימת כבישים וכבלו את ידי השוטרים הכל סבבה  אין מה לראות בממלכת האנרכיה  Riklin10 מברוק גיני אלימות נגד שוטרים בחסות בגץ והפרקליטות  YairNetanyahu התוכנית השבועית ברדיו IsraelGaley עם YaaraZered  michaeldvorin וואוו איזה מדהים תעשו דברים גדולים rothmar tadmorerez48 IsraelGaley אוללללללללה JoshBreiner גוש בתור עיתונאי ותיק לא נראה לך מוזר שלא מתקבלים נתוני הדבקה מהמחאות חדשות 12 מציינים את מוקדי הדבקות הקורונה ישיבות מסיבות נוער חתונה גדולה במגזר הערבי רק אירוע אחד נעדר המחאות ה…  Riklin10 שכחת לציין שהוא היה עיראקי אין להם טיפת חוש הומור לחבורה הדיקטטורית הזו  TomerNaor נראה לי מגוחך שרהמ משיב ל12 ו13 על שאלות והם בכלל לא באויר אבל בקטנה אחלה הלל ביטון רוזן כל הכבוד לו ofirsofer uditenne arutz20 שלחנו את המובחרת MDanielLevi אולי הוא התכוון להגבלת כהונה לפקידים כמה חוצפה יש לפקיד בכיר ככל שיהיה להדביק לעיתונאים שהעבירו עליו ביקורת מימין ומשמאל את הכינוי שופרות חייבים לה…  OutToLunchFreak מקרי לגמרי itamarshumi לגמרי תזכורת מנכל משרד האוצר לשעבר טען לתפירת מכרזים באגף התקציבים באוצר בין השאר תחת ניהולו של הממונה שאול מרידור טו…  elirantal אין כסף בפוליטיקה יש אחלה גובים בבנקים פקיד כמו שאול מרידור עדיף שיעלם ממשרד האוצר הגיע הזמן תנו לנבחרי הציבור להכתיב מדיניות ותפסיקו לשים מקלות בגלגלים בתקופת משבר קשה GoelVaknin ברור קיבלתי קצת תובנות לשבת מחברה מהממת שמבצעת דגימות קורונה  שמרו על עצמכם ועל ההורים שבת שלום   דברים שאמורים להיבדק בהליכי מכרז אה נתנו להם פטור אז לא משנה  IlanTsion אתה גדול ronitlev12 וואוו המשנה לפרקליט המדינה נורית ליטמן עלתה לשידור ברשת ב וטענה שההנחיה שפורסמה לא נועדה להפגנות בבלפור אלא הנחיה שמחכ…  סופו של בידוד  עכשיו בגלי ישראל עד עשר עם ZivMaor בואו  לא רק התקשורת הישראלית זה מה שמפריע להם הציוץ הזה מעיד בעיקר על יחסם של אנשי התקשורת ששלטו כאן עשרות שנים על הנרטי…  ramonhaim הועד נגד צביעות ומוסר כפול שמח לבשר לנכים לחרדים  לערבים לאתיופים למתנחלים ולכל מי שמתכוון להפגין מהיום מותר לכם לחסום כב… Irisleal15 היי איריס  גם תמונות כאלה חוטפים שמולי ופרץ  ראית את הכתישה ברשתות החברתיות בחודשים האחרונים נגד אורלי…  Shiritc מברוק ronitlev12 לפני שנתיים בעיצומו של הניסיון להחזיר את המסתננים לארצם פנה מזכל התנועה הקיבוצית לקיבוצים כדי שישכנו…  yesnomabyyes פיד יקר מחפש לצאת מהחלת לעבודה ופתוח להצעות יש לי נסיון רב שנים בניהול שיווק ומכירות ניהול מומ וסגירת עסקאות קטנות… LVolf gilmishali אתגר של טיקטוק השיר והריקוד וכו אני מכורה לשיט הזה IKweller נותנת לך מתכון לשווארמה טבעונית  ואז זה יהיה מושלם היחס שמקבלת אורלי לוי אבקסיס מהמחנה הנאור לא דומה לשום פוליטיקאי גם לא פרץ ושמולי שנכנסו בדיוק כמוה לממשלה הכל כש…  giladzw liranlevi חחח האיש האחרון שהתעניין במה שקורה בשבס אם היה מטפל אולי היום כבר היינו בשלבי פתרון ושיקום הארגון nachiz9   gilmishali אין אין על הטיקטוק  לא רואה את הטוויטר liranlevi WallaNews מה בשבס שלנו smadarshmueli נכון הלם  ZivKnobler מהרגע הראשון יש מצב שניסנקורן שכח שהוא החומה הבצורה של הדמוקרטיה ומגנם של שומרי הסף ברגע שהדמוקרטיה לא הסתדרה לו עם המציאות eitanzeliger מקום מהמם מה שעצוב בציוץ הזה הוא שיאיר לפיד באמת מאמין שהוא חילץ אותנו ממשבר כלכלי כואב הלב  tamnuniter מסכן בר סימן טוב חטף מקלחת בשישי על הבוקר בידיעות אחרונות רק כדי שיצליחו לשווק את הספר של בנט TomerNaor מוזר שאתה בורח מהמהות כל נציגי הערוצים הפנו לרהמ שאלות רק ערוץ 20 שידר את מסיבת העיתונאים עד סופה  ז…  עוד רגע הם יתלוננו שהוא לא משיב לשאלות עיתונאים  התקשורת שנתנה גיבוי לאלימות בשמאל במשך שבועות לא מפסיקה לפמפם עכשיו על אלימות משטרתית במחאת השמאל המשטרה שנכנעה ל…  בן דרור ימיני בואו נדון בשאלה מה הקו שצריך להבדיל בין חברה ליברלית מתקדמת שיש בה זכויות נשים לבין חברה שההפקרות שו…  הימור מערכת היחסים בין גנץ לאשכנזי עומדת להסתיים אשכנזי כבר התרברב לפני חודש בהארץ איך טרפד את הריבונות מול האמ…  חשיפה מטורפת על סגירת בדיקה משטרתית בשקט בשקט של שר המשפטים הנכנס בחודש בו הוא החל את תפקידו במה עוסקים שופרות הדי…  באוגוסט 2017 פורסמה פתיחת הבדיקה בלהב 433 נגד יור ההסתדרות ניסנקורן בעקבות תלונות על זיופי קולות היועמש אביחי מנ…  פרשנים שמסבירים לנו בשיא הרצינות שהודעת הליכוד שגויה כי אין פריימריז בכחול לבן ולכן אשכנזי לא יכול להתמודד פספסתם…  erezto תודה רבה  דש לאמא  ErezZadok1 talgilboa arutz20 כל מילה והשמלה הורסת YairNetanyahu השבוע הפתעה יערה היקרה  בבידוד אז משדר את התוכנית הקבועה מחר ברדיו IsraelGaley  עם האחת והיחידה גלית דיסטלאטבריאן… MDanielLevi לאמילי מואטי עדת מעריצים מאוד מוזרה  כשהיא מתייחסת לתקיפה מינית מבלי לקשור את האירוע למחנה פוליטי היא לא מקבלת אהדה מהמער… f7FEPCkXfGH3sBU ברור תהיה תכנית  אני אחזור בשבוע הבא 5714israel לא בטוחה שמותר לי לומר  omeraricha רק בגלל הבידוד הצלחתי לצפות  היה שווה  נכנסתי לבידוד בתחילת השבוע לאחר חשיפה לחולת קורונה הבוקר קיבלתי תשובה שלילית בבדיקה ממשיכה כנדרש את ימי הבידוד ת…  ranyehoshua בבידוד  shallmiri בבידוד  האמת שאין דבר יותר הזוי משרים בממשלה שיכולים למנוע בחירות ברגע אבל מעדיפים לצייץ בכזה זלזול נגד ראש הממשלה בטוויטר…  ErelSegal מה זה אלשיך שוב משקר  מוזר ולא צפוי בכלל   talgilboa כמה זה אכזרי בלתי נתפס batiag מה פספסתי מנייאכ באופן כללי סדרה לא אמינה שוטר שהופך לחוקר מחש ושומר על יחסי חברות עמוקה עם בכירים במשטרה וגם נשוי לשוטרת…  IsraelHayomHeb במקום לאפשר למחוקק ליצור את ההרתעה בחוק שר המשפטים AviNissenkorn מתמסר להגנה על האוטונומיה של השופטים כשהשר מתפקד כח… ZivKnobler מה עובר על נחום ברנע כואב הלב yairkraus מבודדת ושמחה  ידיעות אחרונות מפרסמים פייק ניוז בכותרת הראשית על מכירת מטוסי F35 לאמירויות ראש הממשלה מכחיש  בבית הלבן מכחישים…  fischlerpini אבל השר אמר שיש הסכמה בינו לבין היועמש וראש מחש נעזוב רגע את זה שהקריקטורה של בידרמן נוטפת גזענות בידרמן לעולם לא יציג את מורכבות המאבק את הבריונות והאלימות של ה…  EladReuven זה מהלך שנוצר כדי לא לחדש את פעילותה של ועדת הבדיקה שהקים אוחנה בפברואר השנה היועמש התנגד לה בגץ עצ…  Talramot לא קמה כבר ועדת בדיקה חבריה מונו מנדלבליט טען שיש מניעה משפטית בגלל ממשלת המעבר בגץ עצר את פעילותה…  תבינו כמה הדבר הזה נורא  עד שהקימו פה ועדת חקירה לבדיקת מחש גוף שכפוף לפרקליטות הניסיון הראשון מזה שנים לחקור א…  התנועה לאיכות השלטון לא עתרה לבגץ נגד הרפורמה שמתכנן ניסנקורן במחש במקום להקים ועדת חקירה למרות שראש מפלגתו מע…  כתבתי על כך בהרחבה לפני שבוע בישראל היום מנדלבליט טען שיש מניעה משפטית בממשלת מעבר כדי למנוע את הקמת הוועדה ניס…  ניסנקורן קובר סופית את ועדת הבדיקה בעניין מחש שהקים השר אוחנה בהיותו שר משפטים אל תחקרו את מחש אל תחקרו את הפרק…  היהודים באים יכולים ללעוג ולבזות את היהדות בכל פרק על חשבון כספי המיסים שלנו אבל אם חלילה אברי גלעד שואל שאלה שפוג…  YairNetanyahu למי שפספס התוכנית השבועית שלי ושל YaaraZered ברדיו IsraelGaley משישי האחרון התוכנית הוקלטה בחמישי לפני הכרזת הסכם השל… rightStudent1 היסטרי  איפה TomerNaor אחלה יחצ עבורם בקושי נחשפתי ליהודים באים עד שדיברו על זה בטוויטר אמצע אוגוסט ועדיין סוער  לא זוכרת ים כזה  charedim10 mohsaud08 yankihebrew אלופים Irisleal15 היהדות זה דבר נפלא האמונה מחזקת את האדם עוד מאה שנה העיתון יעלם ואיתו גם רוב המילים שכתבנו היהדות וה…  מזכיר קיבוץ ניר דוד נבהל מכניסתם של חוגגי המימונה לנחל האסי ללמדכם עד כמה המאבק הזה חשוב וכפי שהוא אומר במילותי…  נראה לי שבתוך כל המרמרת במאמרי סוף השבוע והחמיצות באולפנים אמש אפשר לסמן את שיא השפל במסיבת העיתונאים לאחר שראש המ…  MiriBarbi מה   תגידו  זה אמיתי    NitzanShai aviadglickman benarifake BarashiKinneret   YaaraZered  IsraelGaley העלתה נקודה  עו״ד BarashiKinneret לZivMador YaaraZered ״אתמול הצהירה ליאת בן ארי שהאדם שתקף את השוטר זה לא בנה אוקי… שלום לשרה להגנת הסביבה כולי תקוה שאינך עומדת מאחורי הפשרה של זקי לוי או כפי שמכנים זאת הקיבוצניקים החצופים מניר… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כמה קל להרוס כמה קשה לתקן כנסת ישראל – אל תשלחי ידך אל הנער אסור לוותר על כללי המשחק הדמוקרטי במיוחד בעת משבר  מתנגד נחרצות להגבלת הפגנות זו פעולה אנטידמוקרטית עם זאת אני מציע למפגינים לקבל החלטה אמיצה ולהפסיק את ההפגנות לש…  רות ביידר גינסבורג הייתה יותר משופטת היא הייתה ותהיה אחת מהנשים המשפיעות בעולם פסיקותיה האמיצות התוו את הדרך לעול…  ZEATU assafrl MeitalLehavi EytanSchwartz אתה צודק שביל זמני שבוצע ילידי הים בכיכר יתוקן בעתיד אנו מאירים את בניין העירייה במילה ״שלום״  מקווה שההסכם הנחתם היום יביא גם לשלום בתוכנו  כדאי להזכיר ליור הקואליציה שהאחריות לכך שהגענו ל3000 נדבקים ביום היא של ממשלת הקורונה לא המפגינים ולא גמזו הממש…  גם היום לא תתקיים ישיבת הממשלה השבועית בפעם הרביעית ברציפות  אלו חדשות מצוינות כי כנראה שהממשלה הגדולה בתולדותינו…  נאפשר בחגי תשרי תפילות במרחב הציבורי וגם נספק כסאות וחיבור לחשמל הזכות לתפילה היא בסיסית ונעשה הכל כדי לאפשר לעשר…  נענינו ומחקנו הבוקר את ציור הקיר המתאר נערים המציצים למלתחות הנשים חופש הביטוי והאמנות הם ערכים חשובים בעירנו ולמ…  ביום ראשון תתקיים בכיכר רבין עצרת חשובה מאין כמותה  מחאה נגד מגיפת האלימות המינית האונס באילת הוא לא רק פגיעה קשה…  רות גביזון היתה משפטנית חדה מדויקת ונטולת פשרות היא לא פסקה  מלהביע את דעותיה גם כשהיתה במיעוט מוחלט והצליחה להע…  אני מברך את ראש הממשלה על ההישג הכפול של שלום עם איחוד האמירויות ובפועל ביטול תכנית הסיפוח שתי פעולות חשובות לבטחו…  די מספיק להפלות את מוסדות התרבות מאות מתכנסים במלונות ובמסעדות  מדוע התרבות עודנה מושבתת דווקא באולמות יישמרו כללי התו הסגול הערב נאיר את בניין העירייה בדגל לבנון האנושיות קודמת לכל סכסוך וליבנו עם העם הלבנוני בעקבות האסון הנורא שפקד אותו ערב תשעה באב והתעוררנו לתמונות של מפגינים נדקרים ומוכים הבטן מתהפכת  להסתה יש מחיר ואנחנו מתחילים להרגיש אותו ח…  עם או בלי קורונה האליפות נשארה בתל אביב ברכות למכבי  ייצוג נשי מרשים  ראש הממשלה ושר האוצר תתעוררו  אי אפשר להמשיך להתעלם מהדרישות הצודקות לחלוטין של העובדות והעובדים הסוציאליים שבו…  נאפשר להוציא שולחנות וכסאות למרחב הציבורי מעבר לכל מה שהיה מקובל עד כה בעת הזו יש לעשות הכל כדי לסייע לעסקים אלפי דגלים הורמו אתמול בתל אביב ובירושלים נגד השחיתות נגד הניתוק ונגד קבלת החלטות מזעזעת אבל רק דגל אחד ראו עינ…  כבוד שר האוצר תפקידה של מנכלית המשרד הוא לתת גיבוי לכפופים לה חשוב שתעשה את זה גם אתה אחרי שנים רבות כל כך בממש…  שלפחות את החינוך המיוחד לא יסגרו זוהי מכה קשה לילדים ולהורים אל תפגעו בהם הכישלון הקולוסלי המהדהד הוא שעד היום אין מערך ומשל״ט יעיל ומתפקד כדי לבצע בדיקות מדויקות בזמן קצר איתור חולים ונדר…  ביבי – עם ישראל לא יסלח על שטרם הקמת גוף יעיל עם סמכויות אמיתיות לטיפול במגיפה  ביצוע בדיקות מהירות מדויקות ומהר…  היום חלפו 116 שנים מאז מותו של חוזה המדינה הרצל וחברת המופת שהתווה לנו בספרו אלטנוילנד שעירנו הנפלאה נקראה על שמו…  שוב אנחנו רואים שרק לחץ משפיע על ראש הממשלה לא ערכים של סולידריות ואכפתיות  אתמול ראש הממשלה האשים את הפקידים היום מקורבו מאשים את הציבור להנהיג זה לנהל ולקחת אחריות תתביישו  מחאת העובדות והעובדים הסוציאליים מוצדקת ביותר המשבר החברתי שהביאה הקורונה העמיד אותם בחזית אבל המדינה שלחה אותם ל…  השנה – מצעד גאווה אין עצרת גאווה מחאתית – יש המאבק של הקהילה הגאה הוא לא רק מאבק להשוואת זכויותיה של קהילה ספציפי…  האליפות נשארה בתל אביביפו ברכות לשחקנים למיץ גולדהאר להנהלה וכמובן לאוהדים שאפו על עונה מאתגרת ונפלאה macbitalaviv רק במדינה שאיבדה את דרכה עוצרים את מי ששרת אותה כל חייו שהפגין נגד אובדן הדרך תא״ל במיל אמיר השכל הוא איש אמיץ תמים וישר בשבוע שעבר קרא הליכוד להכניס לכלא עיתונאי שביקר את ראש הממשלה אתמול הותקף עיתונאי עי מפגינים זועמים וחולץ עי שוט…  מאבק העובדות והעובדים הסוציאליים הוא לא מאבק של סקטור ספציפי לשיפור תנאיו הוא מאבק על דמותה של החברה הישראלית כולה…  RonHuldai השנה 2020 ובישראל עדיין אסור לחברי הקהילה הגאה לממש את הזכות הבסיסית להתחתן לכבוד שבוע הגאווה החלטנו לאתגר את הממשלה ולאפש… השנה 2020 ובישראל עדיין אסור לחברי הקהילה הגאה לממש את הזכות הבסיסית להתחתן לכבוד שבוע הגאווה החלטנו לאתגר את הממש…  לאור העלייה המדאיגה בנתוני התחלואה בקרב הקהילה הזרה פתחנו הבוקר משלט בשיתוף פיקוד העורף המל״ל ומשרדי הבריאות והפנ…  יישר כח לשר החינוך גלנט שאמר בקול רם וברור שהוא סומך על מנהלי בתי הספר והרשויות המקומיות לגבי משבר הקורונה ובכלל ה…  במדינת הגמדים רעש מהומה השרים חובשים ״מדים״  ונשמרת הדממה  טה לה לה לה לה לה  איזו בושה  מזל טוב לאחותנו הגדולה וההררית  יום ירושלים שמח  MosheLion  נפגשתי היום עם נציגי מחאת הדרוזים והצ׳רקסים אני תומך במאבקם בכל ליבי ממשלת ישראל הבטיחה להעביר תקציבים אבל כרגיל…  למעלה מ500 ימים חיכינו לממשלה חדשה השלטון המקומי נשא את העול בדממה וחיכה לבשורה ומהו החוק הראשון על שולחנה דמי…  השנה בל״ג בעומר לא תהיה אש אבל כנראה יהיה אור גדול  כל הכבוד לגננותלהסתדרות ולעומדת בראשה יפה בן דוד על רוח ההתנד…  ראש הממשלה וממשלת ישראל – אל תתנו לענף המסעדנות לקרוס העירייה ואיגוד המסעדות עמלו על מתווה הגיוני ובריאותי המציע פ…  לא היינו צריכים הוכחה שהצוותים הרפואיים שלנו מהטובים בעולם אבל אם יש אחת כזו  אז למה לא  כבוד עצום לבית החולים א…  לא נפתח את הלימודים ביום ראשון המתווה המוצע אינו מבטיח את בריאותם של הילדים והצוותים החינוכיים לא נשחק לפי כללים…  גם בלי מופע זיקוקים מפואר  חוגגים מכל הלב למדינת ישראל הריבונית והחופשית  הקפידו על ההנחיות היום ומחר אל תצאו מה…  בכל שנה ביום הזה אנחנו חווים מחדש את עצמת הכאב הגעגוע והזיכרונות הזיכרון שנטוע בנו עמוק ואינו מרפה הוא כמו צוואה…  חברי מפלגת העבודה יתכן כי הגיעה השעה לומר די אין צורך פוליטי במפלגה שהיתה ביתי הפוליטי כל חיי שעבור ערכיה הצבעתי…  ושוב בג״צ מטפל בתפוחי האדמה הלוהטים שהממשלה נכשלת לטפל בהם פעם אחר פעם מסיבות של פוליטיקה קטנה פסיקה שהגיעה בעיתוי…  רהמ הכריז לאחרונה הודעה חשובה מאין כמותה פתיחת מסגרות החינוך לילדי החינוך המיוחד המוסדות העירוניים נפתחו ונערכו…  נפרדים מהרב בקשי דורון זצל אני נזכר באומץ ליבו הציבורי ומייחל לפגוש בהמשך יותר מנהיגים מסוגו   כאלו שאחדותנו עומ…  ניצול משבר הקורונה למערכת שיסוי נגד הציבור החרדי אינה ראויה חג הפסח הוא עת לערבות הדדית וסולידריות הערב נאיר את ב…  תקדים היסטורי ישיבת מועצת העיר תל אביביפו התקיימה באמצעות וידאו קונפרנס לפי כל הנוהלים ובהצלחה  בתום משמרת ארוכה רופאים רופאות וצוותי רפואה הנלחמים בנגיף הקורונה צריכים להגיע הביתה ולחדש כוחות נעתרנו לבקשות…  RonHuldai הממשלה החליטה להפסיק את עבודת המורות והמורים בלמידה מרחוק לא ייחסך כסף רק יתווסף עלבון לציבור שהוכיח את מסירותו הפעם בחז… הממשלה החליטה להפסיק את עבודת המורות והמורים בלמידה מרחוק לא ייחסך כסף רק יתווסף עלבון לציבור שהוכיח את מסירותו…  אנחנו מנסים לשכנע אתכם בכל דרך אפשרית – הישארו בבית לטובת כולנו  תושבים ותושבות יקרים אישרנו היום חבילת הקלות לעסקים בעיר  צפו בסרטון ונסו להישאר כמה שיותר בבית לטובת כולנו  חשוב לי לעדכן אתכם לגבי המצב החדש דעו  אנחנו כאן בשבילכם ללא הפסקה  את כל ההנחיות והעדכונים בנוגע לשירותים שהעי…  יש לי כמה עדכונים חשובים בנוגע להתפשטות נגיף הקורונה  בימים האחרונים עלה שלט של עמותת אפרת על בניין העירייה הקורא למנוע הפלות את השלט אנחנו לא יכולים להסיר אבל למי שתה…  RonHuldai לכל מי שפנה עדכון עיריית תל אביביפו פועלת בהתאם להנחיות משרד הבריאות ולא תקיים אירועים עירוניים בהם משתתפים מעל 5000 איש… לכל מי שפנה עדכון עיריית תל אביביפו פועלת בהתאם להנחיות משרד הבריאות ולא תקיים אירועים עירוניים בהם משתתפים מעל…  תל אביבים יקרים  צאו להצביע גאווה גדולה חבר מועצת העיר איתי פנקסארד ובן זוגו יואב עשו היום היסטוריה עתירתם להסדרת פונדקאות לזוגות חד מיניים…  מה לעשות שבפעם הראשונה הסרתי תמונה לא מחמיאה של יצחק שמיר ובפעם השנייה מיצג של גיליוטינה בשדרה נגד ביבי גם זה היה…  מברך על החלטת בית המשפט נמשיך להגן בקנאות על חופש הביטוי אך לא נאפשר במרחב הציבורי מסרים המעודדים אלימות  zeevelkin DoriaLampel בשמחה רבה ידידי נפגש אולי במקום  שפה גסה תודיעי ל106 איפה זה אז נשתדל לטפל מהר ככל האפשר  zeevelkin DoriaLampel אלקין  מה זאת אומרת שאתה תעזור לנו לדחוף אתה חבר בממשלה אתה יודע שזה פייק ניוז והאחריות…  הוי מירי מירי למה שוב לשקר את כל כך נואשת שוב שרה בישראל משקרת במצח נחושה והיא יודעת שהיא משקרת פסה בושה וכלימה…  zeevelkin DoriaLampel אדוני השר  בחירות אתה יודע היטב שמשרדך הבטיח ולא הצליח לפתור את הבעיה מול משרד התחבורה …  בימים האחרונים נפוץ ברשת שיח שקרי כאילו העירייה אסרה הנחת תפילין במרחב הציבורי האמת הפוכה ברחבי העיר פזורים לא מע…  הוריתי להסיר שלט בו נראים אבומאזן והנייה על ברכיהם עינהם מכוסות וידיהם מונפות בכניעה התמונה מסיתה לאלימות המזכיר…  בתל אביביפו ברור לכל שאין סתירה בין אהבת ישראל לשאיפה לחיי תרבות ושאין מניעה ללכת לבית כנסת בבוקר ולפילהרמונית בע…  ממשיכים לפנות את הדרכים לטובת תחבורה ציבורית בכל העיר  בנתצ החדש ברחוב קפלן כבר הצלחנו לצמצם את זמני הנסיעה באוטו…  הבטחתי כי גשר יהודית קום יקום כך אמרתי לפני שנה ורבע כששר התחבורה עצר את העבודות הרבה נחישות והתמדה נדרשו כדי להו…  אני מבקש להביע את תנחומיי למשפחות שני התושבים שנהרגו היום אני מודה למאות עובדי העירייה שעבדו לאורך כל סוף השבוע ומ…  הבוקר היינו עדים לכמות ממטרים חריגה במיוחד בעיר  74 מ״מ יותר מ15 אחוז מהכמות השנתית יחידות העיריה הוקפצו לטיפול…  Welcome желанный Bienvenido Bienvenue תל אביביפו היא העיר שקלטה הכי הרבה עולים חדשים בשנת 2019  השנה עלו לעיר…  הקמת מסילת הרכבת הרביעית בעיר היא חיונית אך לא נאפשר את הקמתה בצורה שתסכן רכוש וחיי אדם הפתרון היחידי הוא הקמת מו…  ביבי מזמין אותך לאחד מהתיכונים המצוינים בעיר לשיעור אזרחות ממליץ להתחיל מהבסיס  חוגגים את חג המולד בכנסייה הלטינית חג שמח לקהילה הנוצרית בעירנו  ערב חג החנוכה שר החינוך משלב ידיים עם ממשיכיו של כהנא השנה נצטרך לשיר את באנו חושך לגרש מעט חזק יותר הקמנו את הסיירת לביטחון עירוני סלע על מנת לטפל ולהתמודד עם בעיות ביטחון בכל העיר בדגש על דרומה המנדט להמשך קיו…  צעד אחר צעד נגיע למצב שנוח יעיל וזול יותר להיכנס ולצאת מהעיר בתחבורה ציבורית  אני רוצה להרגיע את שני הצדדים – לא ביקשנו להעלות את הארנונה ב1 מעבר לעדכון המחויב בחוק ואנחנו בהחלט לא מתכוונים ל…  המרחב הציבורי בעיר הוא שלכם ובהתאם נפעל להסרת גדרות וחומות שבדרך אני שמח ומברך על המהלך המשותף עם ההסתדרות בקרוב…  מסתבר שתאוריות ה״חלחול מלמעלה״ נכונה רק לא בכלכלה הגזענות והשנאה שמתחילות מהראש מרעילות את החברה שלנו אסור לנו ל…  אביו כיהן כסגן ראש העירייה והוא עצמו לא עזב את העיר עבור אף אחד חייו בתל אביב היו הסדרים רומנטיים והתבוננות פנימית…  נעים בסופש אפילו נעים מאוד בסופש  שירות מדהים ותענוג גדול לפגוש תושבים מרוצים בשבת  אכן פריצת דרך  יום עצוב נתניהו אולי נאשם רק בשוחד והפרת אמונים אבל הוא בלי ספק אשם בהכרזת מלחמה בשלטון החוק מקומם  ביום כזה א…  לפרטים   האפשרות לנוע ממקום למקום היא זכות יסוד של כל אחד ואחת בכל ימי השבוע אני שמח להתחיל בשותפות עם ערינו השכנות את פרו…  דמוקרטיה לא עוברת בתורשה יש ללמד מהי ואת חשיבותה מערכת החינוך חייבת להעניק לדור העתיד את העוגן החברתי והערכי הזה…  מחרתיים נחלק את פרס סוקולוב מעניין מה הוא היה חושב על ההקלטות שאליהן נחשפנו אמש יום שישי בצהריים אופרה בשדרות רוטשילד מרגש הידד ליוזם שאבי מזרחי מנהל מחלקת מופעים בעיריית תל אביביפו שבת שלום  הקרב על הקווים מתחמם כחוללבן לטיפולכם  הבוקר פורסם בהארץ כי אחד התנאים שמציב בני גנץ לממשלה בראשותו הוא תחבורה ציבורית בשבת מהלך מתבקש והכרחי אנחנו ה…  נפרדים מאחד מעמודי התווך של המשפט הישראלי אדם שאהבת הארץ שבו נמדדה גם במעשיו כלוחם באצל וגם כלוחם למען החוק והצדק…  שמעון מזרחי   יקיר העיר תל אביב יפו מזל טוב בהגיעך לגבורות שתשאר תמיד צעיר לנצח  צילום באדיבות צלמונלה  שלום ע…  שמחתי להשתתף ולתרום מנסיוני בוועידת האקלים של רשת ערי C40 תודה לבני דגן שגריר ישראל בקופנהגן ואנשי השגרירות על אי…  מסתבר שגם יום הכיפורים יכול להיות יום קטלני בדרכים נצטרך להפיק לקחים ובינתיים נטפל במשפחות הנפגעים  תנחומי למשפחות היום ה6 באוקטובר נכנסנו למלחמה שתפסה אותנו בהפתעה כשחשבנו שאנחנו מוכנים לכל  ואני לתומי חשבתי שהלקח לגבי הפגנת…  תופעה חשובה וחיובית התעוררות של הציבור הערבי בנוגע לאלימות והפשע בחברה הערבית נקווה שהמשטרה תרים את הכפפה רק שות…  בכמה מאירועי השנה החולפת אפשר להספיק להזכר בזמן שאני חותך תפוח בדבש שנה טובה לתושבים ולתושבות של העיר הנפלאה שלנו…  תודה לשר התחבורה ואנשי משרדו על הפעלת נתיבי התחבורה הציבורית הייעודיים עד נתניה וחזרה החלטה אמיצה וחשובה להטמעת שי…  מצדיעים לסגן אלוף ג יישר כוח  משרד התחבורה מפרסם בגאווה את פרויקט מסילת הרכבת הרביעית באיילון הוא אף מציג כאילו מוסדר פתרון לניקוז מי הגשמים אך…  כך פתח גנץ את דבריו בפגישתו עם נתניהו בזמן שמשרדי הממשלה לא תפקדו כמעט שנה הרשויות המקומיות החזיקו את המדינה על…  מסביב יהום הסער בחירות משרדי הממשלה בהקפאה וראו זה פלא הרחובות נקיים הילדים בביהס מרכזים קהילתיים מתפקדים ו…  הודעה דרמטית  חגיגות אמן העיר  שנת אלתרמן בפתח מאות משוררים סופרים מוזיקאים שחקנים אמנים עיתונאים ואנשי ציבור ישתתפו בחגיג…  תל אביב מצביעהתל אביב משפיעה אי אפשר שלא להתרגש יחד עם התלמידים כשרואים את הברק בעיניים ואת החיוכים המתוחים על פניהם את השנה הנוכחית נפתח בסימן…  שגיא מוקי אלוף העולם בגודו ברכות על ההישג ההיסטורי בתמונה שגיא רגע אחרי שהוכתר כאלוף אירופה באליפות כאן בתל א…  זה קורה חוזרים הביתה בראשון יערך המשחק הראשון בבלומפילד המשופץ ויש מילה אחת שמתארת את זה הכי טוב מרגש…  עיד אל אדחא שמח לכל אחינו המוסלמים והדרוזים החג הוא הזדמנות להביט על הדומה ולא על השונה לחפש את המחבר ולא את המפר…  בשבוע הבא כבר אפשר יהיה להריח את הדשא בלומפילד2019  אדיסו גואדה בן 165 מיפו משישי האחרון  אלוף אולימפי אדיסו זכה במדליית הזהב בריצת 3000 מטר במשחקים האולימפיים לנ…  ברכות לבוריס גונסון על בחירתו לראשות ממשלת בריטניה בפגישתנו האחרונה בתל אביב שמחתי להיווכח שגונסון הוא ידיד אמת…  כדאי לשר החינוך שילמד משהו לפני שיחנך את ילדינו אוי לו לראש הממשלה שאלו מינוייו עד כאן ראש הממשלה שמע ממני את התנגדותי הנחרצת לסגירת שדה דב לפני חמש שנים במשרדי מעולם לא תמכתי באיוולת של חיסול…  על חינוך ודמוקרטיה  שלחתי הבוקר מכתב לראש הממשלה עם הבהרה ברורה הקמת הקו הירוק של הרכבת הקלה אינה מהווה מכשול להמשך הפעלת שדה דב  עדי…  ושוב מכבי עשתה את זה מכבי תל אביב אלופה  כבוד MaccabiTLVFC  משימה אדירה מרתקת ומרגשת עומדת בפני העיר שתזכה לארח את האירוויזיון הבא תודה לך תל אביביפו בהצלחה הולנד  קובי המון בהצלחה את הדוז פואה שלנו כבר קיבלת  העיר הלבנה כתומה הלילה תודה לכם בני יהודה תל אביב  כל חיי טסתי ולחמתי כתף אל כתף לצד אנשים שהחזיקו בדעות מנוגדות לשלי על הקרקע שוחחנו והתווכחנו  – אבל בקרב כמו בע…  היום אנחנו זוכרים יחד  מקיימים אחוות לבבות של זיכרון אבל וכאב אבל האם נוכל להמשיך לקיים אותה מבלי שאנו יכולים לד…  מתחת לבניין העירייה כבר מתכוננים לאירועי ערב יום הזכרון  הבמה הגדולה תישאר גם לערב שאחריו על מנת לשמח את תושבי העי…  גאווה עולמית היישר מתל אביביפו ברכות לתיכון חדש שזכו לפני זמן קצר באליפות העולם לתיכונים בכדורסל כל הכבוד לשחקני…  חג חירות שמח לתושבי עירי ולכולם שנופתע לטובה לחיים  הלילה תל אביב צהובה ברכות ל MaccabiTLVFC על הזכייה באליפות  למיץ גולדהאר להנהלה לשחקנים ולאוהדים שאפו העיר העברית הראשונה מברכת את מי שתרמה תרומה אדירה לתרבות העברית במדינת ישראל נעמי פולני  כלת פרס ישראל   איזה חורבן ערכי ישאיר אחריו ראש ממשלתנו באמירותיו הגזעניות המציאות עולה על כל דמיון בנימין נתניהו מנהיגנו מכניס את הכהניזם המוקצה לכנסת בדלת הראשית ובכבוד מלכים הרועה התעוו…  NitzanHorowitz כיף לפגוש חברים באוטובוס NitzanHorowitz מקווה שאתה לא כועס שלא פיניתי לך את הכסא והדרת פני זקן  GLZRadio Israelkatz bardugojacob חישמול הרכבת לא סוגר את  איילון לכן גם לא בוצעה עבודה שכזו בשבת האחרונההעבוד…  גשר יהודית קום יקום בשעה טובה  אני מודה לשר התחבורה Israelkatz על כך שהואיל לרדת מהעץ ולאפשר את עבודות הקמת גשר יהודית כפי שתוכנן מלכתחילה בסופי…  chiwtamp צודק היו בעיות יסתיים עד סוף מרץ gtgt זכיתי שהייתה לי היכולת האינטימית להתייעץ להחכים להקשיב ולהיות מבין אלו שחסו בצילו של העץ החסון עמוס עוז הסופ…  זכיתי זכיתי לראות שתיל חלש וצמא שנעקר מקרקע גידולו מגיע לקיבוץ חולדה בו גדלתי ומאומץ על ידי הוריי זכיתי לראות א…  היום בשעה 1800 שעון ניו יורק ננעלה הנאסדק לרגל חגיגות ה25 לצק פוינט בנוכחותו של גיל שוויד המנכל שמחתי להצטרף…  העמסה של מיסים מיותרים על גבם של המסעדנים היא שערורייה היטל העובדים הזרים הוא חוסר אחריות  זו לא רק פגיעה אנושה ב…  BukrisYossef לתל אביב ישן חדש BukrisYossef אנקראה כי אלט נוי לנד של הרצל תורגם לתל שלשום חנכנו את פסל דרייפוס בתל אביב יפו היום כ״ט בנובמבר איזו סמליות אכן ברי מזל אנחנו בעיר העברית הראשונה ששמה לקוח משם ספרו של הרצל היום חנכנו את פסלו של אלפרד דרייפוס באחד העם 14 בנוכחות אן הידלגו ראשת עיריית פריז אן הידלגו היא ידידה ותיקה של ע…  akivanovick ת אבוי לנו שממשלתנו מצדיקה את חוסר יכולתה לספק ביטחון לכלל אזרחי ישראל באמירה אומללה ושוב מפלגת על רקע המצב בדרום הארץ ועוטף עזה דנו הבוקר בשאלה האם לקיים את מרוץ הלילה הערב קיימתי סבב שיחות עם ראשי רשויות מ…  לכל אלה שמלמדים אותי היסטוריה אחרי בתי הכנסת וספרי הקודש הגיע תורן של האומנות והתרבות אשרת את כל תושבי תל אביב יפו בנאמנות תודה על האמון לאלה שנתנו לי את הרוב הדרוש כדי לעשות זאת צלצלו ל106 תסבירו  איזה רחוב  Arielchaos שילחו פרטים במייל או ל106 איזה רחוב ומה קרה טוהר הבחירות הוא הבסיס להליך הדמוקרטי וכל ניסיון לפגוע בו הוא חמור מאוד ואין להשלים עימו אני קורא למשטרת ישראל וכל…  בוקר טוב תל אביביפו גם הבוקר בחרתי במה שנכון עבור עתידה של עירנו פתק אחד צהוב לי ופתק אחד לבן עם האותיות תא לסיע…  avichai920 asafzamir שלום המציאות רחוקה מאוד מכך לא פחות מ100 שלטים פזורים ברחבי דרום העיר לצד מטה שכונות פעי…  טופל  בגץ חשף היום את הבלוף שר התחבורה החליט לעצור את בניית גשר יהודית בניגוד לדרג המקצועי מסיבות פוליטיות גשר יהודית קום יקום מגנה את הונדליזם באנדרטה לזכר חברי הקהילה הגאה שנספו בשואה הנחיתי למחוק מיידית את הגרפיטי נמשיך לפעול ולהגן על חב…  idokius ShirCohen1990 iTelAvivYafo בוודאי שמעניין ברז הכיבוי יטופל על ידי תאגיד המים שכבר בדרכו למקום אחד משלושת מגרשי הכדורגל החדשים בספורטק דרום בשעה טובה  gtgtכך צריך לנהוג כל אדם שעובד עבור הציבור ואמור להגן עליו כך או כך תל אביביפו תמשיך להיות לב פועם של תרבות ואמנות…  תרבות זה התחום האחרון בו הממשלה צריכה להתערב לא בחקיקה ולא באיומים על קיצוצים בתקציב למי שלא מיישר קו עם הממשלה…  אני מגנה בחומרה את הפגיעה במטה הבחירות של אסף זמיר אסור להשלים עם תופעות אלימות מסוג זה זו פגיעה חמורה בטוהר הבחי…  מברך על כך שסיעת הליכוד נענתה לפנייתי והוחלף הקמפיין שאין לו מקום בעירנו בתל אביביפו אין אנחנו או הם אני מברך את MaccabiTLVFC על חתימת הסכם העקרונות ועל חזרתן של הקבוצות התל אביביות לשחק בביתן באצטדיון בלומפילד שיע…  שמחים לארח את אירוויזיון 2019 בתל אביביפו אני מבטיח לכם שנעשה הכל כדי שהאירוויזיון יהיה שמח חי בועט וללא הפסקה…  לשנה טובה  ולעוד 5 שנים ממשיך לקדנציה נוספת השיאים עוד לפנינו  livnitzan כן כשהשר כץ מתקשה לענות עניינית מדוע נכנע לחרדים הוא מוצא בי את האשם מציע שיעסוק בטיפול בבעיות הקשות של התחבורה בגו…  ושוב חסר המבוגר האחראי כמו שהבריחו את מסי מישראל כך מבריחים את האירוויזיון האירוע שמשודר למיליארדים יעניק חשיפה ל…  HassonYoel יואל שלום ליצחק שמיר זל זכויות רבות בהיסטוריה של מדינת ישראל והוא ראוי להנצחה מכובדת וראויה בתאיפו…  70 שנה עמלנו לחבר את הקצוות של הישראליות לחפש ולמצוא את המשותף – וזאת מבלי לוותר על מדינת הלאום  החוק בנוסחו הנוכ…  מאחורי חוק הלאום בנוסח הנוכחי מסתתרת כוונה להפוך את ישראל למדינת לאום שלא כל תושביה שווים בכך היא מפסיקה להיות דמו…  HaimJelin הגענו היום לעיריית תל אביב לצפות בתערוכת העוטף באש  שיזמתי יחד עם עיריית תל אביב ובראשה RonHuldai שמציגה את אזורי השרי… GLZRadio ראש עיריית תאיפו RonHuldai יש משפט שאומר אלף חכמים לא יצליחו להוציא אבן שטיפש אחד זרק קל וחומר כשהרבה טיפשים זרקו… רגע מכונן  בעקבות הערב הזה ישונה החוק וסוף סוף יהיה שיוויון בקהילת הלהט״ב בעניין חוק הפונדקאות ועדיין יש על מה לה…  זהו חברים צרפת אלופה בניין העירייה יואר בצבעי דיגלה היה תענוג לצפות בכדורגל נפלא  צופה בגמר המונדיאל עם חברים ביד אליהו בינתיים עומד בציפיות איזה דגל יואר על בניין העירייה הערב  אנחנו עדיין חברה בהתהוות המעצבת את ערכיה וצביונה  אני מאמין בדמוקרטיה שוויון וסובלנות   ובזכויות משפחות להטביות…  רון אתה רץ כן למקומות היכון צא ממשיך לקדנציה נוספת חולדאי2018  Welcome His Royal Highness Prince William נסיך אנגלי בהרברט סמואל מול גן לונדון תקרית דיפלומטית נרשמה אחרי שהנסי…  DrorTzaban אחרון ודי בדיזינגוף אכן בעיה עם קבלן שפשט רגל ואנחנו מתמודדים עם בעיה קשה קורה בבלומפילד עד רגע זה ה…  DrorTzaban יעמוד בזמנים גג יקר בשביל שני ימי גשם בשנהבעתיד כשיהיה יותר אפשר להוסיף לגבי ספורט בונים כעת וולודרו…  DrorTzaban 400 מיליון שקל באצטדיון חדש זאת לא השקעה הבנתי תודה על ההערכה נמשיך להשקיע בספורט למרות ההתפרעויות האלימות באזור נווה שאנן אינן דבר שניתן להשלים איתו שוחחתי עם ניצב דוד ביתן מפקד מחוז תל אביב שהבטיח ל…  subtext100 נו באמת שילחי לי ב MayorTelavivgovil danaspec היי דנה האמת שאני פשוט גאה לשמוע את זה תודה שפרסמת אעביר לצוות chellig iTelAvivYafo המתקנים לא מתמעטים העירייה פועלת להעבירם למקומות שלא יפריעו למרחב הציבורי הפחים במדרכות הפ…  הלב נשבר נוכח מותם של תשעת הנערים תלמידי המכינה אני שולח חיבוק חם למשפחות הנספים ולחבריהם שלא תדעו עוד צער הנה חוזר המחזה המביש  שוב הבטחות הממשלה להוציא את הזרים משכונות דרום העיר נותרו ללא כיסוי  ומה יגידו עכשיו שוב י…  הפרדה מגדרית היא שערורייה על אחת כמה וכמה בחינוך הממלכתי אני מגבה את המנהלים והמורים על החלטתם הערכית הנכונה…  arielplaksin1 מעולם לא השוויתי בין העליה מרוסיה למהגרים הבלתי חוקיים ואין מקום להשוואה אם מישהו נפגע מכך אני מתנצ…  robertilatov מעולם לא השוויתי בין העליה מרוסיה למהגרים הבלתי חוקיים ואין מקום להשוואה אם מישהו נפגע מכך אני מתנצל… </t>
+  </si>
+  <si>
+    <t>בקרוב נפתלי בנט עם הספר איך לנצח תקלה טכנית בוולט AssafYNews מפיצים קלוריות AssafYNews לחקור את השליחים סקר מנו גבע תן ביס עולה ל20 מנדטים נתניהו מכל העולם מתקשרים להחמיא לשירותי הטייק אווי שלנו זהו אתם יכולים לחזור להיות חרא misscorina2 יש גם אותם   לכבוד יום כיפור החלטתי להשאיר את כל מי שחסמתי חסום JacobGershony נראה לך אני ישר לובש חולצה של הליכוד כדי להסוות את עצמי ציוץ שהזדקן יפה אבל חטף קורונה ומת  RoyIddan kann סוף סוף מישהו במדינה הזו מציג מתווה יגאל עמיר אחרי רצח רבין אל תפרסמו את שמי לא רוצה שהרס לי המוניטין בפקולטה למשפטים דיווח חברת הקונגרס קורטז ביטלה השתתפות באירוע לזכר רבין אגיע כבר לאזכרה של מפלגת העבודה RonelAdani איבדתי את חוש הטעם לחיים תחושה אופטימית שהפעם זה יהיה אחרת וינצלו את הסגר כדי לבנות סוף סוף מערך קטיעת שרשראות הפגנה רק אדם כמו נתניהו מסוגל לנאום לאומה בערב כזה ולהתפאר בהישגי הסגר הראשון rivkasa246 בשביל זה אני כאן ShiraRabinowitz זוכרים שפעם התמודדנו עם בעיות אמיתיות התפטרות ליצמן למשל חושב שלאור המצב הקשה שהגענו אליו אין מנוס מלפנות לליצמן ולבקש ממנו לחזור Rereshef yb66957 omerbabai וכאות הוקרה אתה רומס אותו עם תגובה שתביא פי 5 יותר לייק מהציוץ המקורי yerushlavivi חוצב גם אותך על הדרך liorchorev סוף סוף משבר הדיור נפתר ואתה מתלונן נתניהו בעוד שבוע אנחנו המדינה היחידה בעולם שניצחה את ההפגנות מה שלא ברור זה איך יוצרים הקבלה בין תפילות שלוקח בהן חלק כל עם ישראל להפגנות שהן בקושי רבע מנדט מייצגות שוליים סהר…  Rereshef DavidLifshitz תמיד חלמתי להיות בין מודי בר און לאבי נוסבאום כבוד לקבל הוקרה בתכנית של Rereshef  Rereshef שאינו מודע לרשפיותו Israelcohen911 LeckerAmir ישראל היקר האם ידוע לך שחיילים לא בורחים מעזה או מלבנון אלא מבצעים הנחיות של הדרג עלי…  YRazvozov 26 שניות של קרינג טהור yerushlavivi תמזוג לי מבזק hanangershuni יש לי 750 פותח קורס להתנהלות כלכלית נבונה בימי קורונה טיפ ראשון אל תירשמו לקורס hanangershuni חייב עורך פה ivgiz אהבתי מוזמן לשלי  RoyIddan תעשה סדנת שוברי מסך ישראלים Rereshef יכלו פשוט לכתוב שלישיית מה קשור GilTevet לא נורא בכלל סתם הדהוד של שקר אבל כעורך של ברדוגו אתה בוודאי רגיל GilTevet גם פתיים ממורמרים יכולים להירשם בוודאי חברים לאור ריבוי השאלות שאני מקבל בדיאם אבקש להבהיר הקורס בעלות של 700 שקלים אפשר להיעזר בהורים ואו לקבל הנחה של…  naamuli84 אף אחד לא מושלם חברים יקרים אני מתרגש להודיע לכם שפתחתי קורס הכנה מקיף ויחיד מסוגו לטוויטר איזה כינוי כדאי לי לבחור מה מביא לייקי…  GidonDokow לי מפריע שזה מיועד רק למלשבים ולא פתוח לכל הגילאים מתכוון לפעול בנושא HaOshIa ltסמן הכלgt אלשיך הדורס בבלפור היה מחבל ההדבקה במכבי תא זו ההוכחה שאסור היה לפתוח את מערכת החינוך akivanovick חיבבתי אותך עקיבא אוקיי רפאל אני מתחייב שארכוש מערכות לחימה ונשק רק מכם אפשר לשחרר לי את הפיד D0ronhe סוף סוף פעוטון שישים מצלמות מיוזמתו Sachback צובט את עצמי כדי לוודא שזה אמיתי חבל ששלושה שמאלנים מוציאים שם רע לכל העשרים זהו הסגר נכנס לתוקף עכשיו רק צריך לשבת ולחכות עד שהתחלואה תישאר אותו הדבר יששש הם במרחק כמה שעות מלאשר לנו גם לצלול  שילוט חוצות מעניין היום בעזריאלי  לא יודע  RoyIddan מסתבר שלכתוב סדרות זה מרזה לפעמים נראה כאילו כל מה שריקלין עושה זה לשבת בבתי קפה ולתכנן את העתיד של ביבי dorzach תגיד תודה שהפסטה לא בצורה של אותיות שמרכיבות את השם שלו yoavr חמוץ כמו שמתקבלות כאן החלטות היה לי הגיוני באותה מידה אם היו מודיעים היום שהלימודים מתבטלים מאתמול   RonelAdani אולי אם המצילים יפעילו לחץ יהיה אפשר להגיע לפשרה של מותר להיכנס אבל בלי לצלול Rereshef גם כלב מקולקל עושה קקי פעמיים ביום GidonDokow רק אומר שקשה לשפוט טעויות בכתוביות שמתורגמות במקביל כמו טעויות בכתבה שנערכה מבעוד מועד וכו יכול להיות גם מלחץ GidonDokow תרגום סימולטני לדעתי יותר מועד לטעויות אם אין אירווזיון אז לפחות זה  uriakenig YotYotam כמו שחלק שכחו שאמורים להיות אויבים לפני YotYotam אולי זה בגלל ששלום של השמאל זה עם אויבים תמונת היום מבחינתי  איחוד האמירויות כל כך מחויבים לכל סעיף בהסכם הסודי שהם מחרימים את דנה ויס עוד לפני שהוא נחתם שלח לכולם  haimhz לדעתי אני נמנה על האנשים שאפשר להעיר את תשומת לבם בצורה בוגרת וחברית בלי שרשורי שיימינג או הודעות מאשימות…  haimhz זה בדיוק מה שמרגיז אותי הסקת מסקנות מרחיקות לכת שמבוססת על מה בדיוק על זה שהופעתי ברשימת עוקבים של מישהו…  haimhz תוכל לפרט חלק מאיזו בעיה אני אשמח להבין במה אתה מאשים אותי hanggili erancherpak הסרתי עוקב ממנו אבל לא הייתי אומר שאני קהל שלו גם בזמן שעקבתי כמו שלא הייתי קהל של יאיר…  chaimlevinson חסמתי בלב hanggili erancherpak ממש לא במקרה של הצייצן שאת בטח מדברת עליו לא זוכר בכלל למה התחלתי לעקוב אחריו היה מופיע…  haimhz ביי חיים erancherpak להיפך ממש לא פתית שלג ייחודי  בדיוק כמו כולם צורך חדשות מאמצעי תקשורת שלא מסכים עם הקו שלהם צופה בנ…  בקשה כנה ממי שעוקבת אם יש סיכוי שמתישהו תתייגו אותי בשרשור שיימינג לצייצנים שעוקבים אחרי צייצנים שהקהילה מבקשת לה…  חדשות 2 עושים עכשיו כתבה על השגעון החדש של גחנון בפיצוציות חכו שהם יגלו על טמגוצי dorzach דורצח קח אותי המוות המתוק שיר דור שיר מתנשקים Obar06485129 השיר הזה הוא בעצם ביקורת נוקבת על הקפיטליזם חסר המעצורים erancherpak NiflaPo אבל ידוע שבבתי הכנסת לא נדבקים רק בהפגנות NiflaPo להיפך כשהתחלואה תרד בעקבות הסגר זו תהיה ההוכחה של בלפור שההפגנות היו מדגרות הדבקה סאטירה  ינון מגל מדובר בדברים שנאמרו בין ידידים Obar06485129 TheGlozi למה אתה שונא אותי yanircozin מספיק קרוב ישראל תתקשה להיכנס לסגר בגלל שהציבור איבד אמון בהנהגה שלו היו היום בחירות הייתה נבחרת שוב arnaviv תבלו yoavr קולו של דור עם הפרעות אכילה yoavr שמע קרה לי כרגע דבר מדהים בדיוק סיימתי לאכול וחשבתי לעצמי שאני מפוצץ פתחתי מיד את הטוויטר וזה הציוץ שאני רואה מה הסיכויים מניח שבעוד רגע הליכוד יוציאו הודעה יוצאת דופן בחריפותה שמאשימה את ליצמן בפופוליזם ובסיכון בריאות הציבור בדיוק כמו ש…  Obar06485129 למה אתה שונא אותנו Obar06485129 למה אתה שונא אותנו Rereshef פעם דפקו לי את הראש בדרום תל אביב למרות שקשרתי אותו היה לא נעים ivgiz מותר להציע את הסגר המתקרב חייבים לנצל הפעם כדי לא לעשות כלום בצורה יעילה יותר מהסגר הקודם arnaviv לא אפדימיולוג אבל מוכן להעיף מבט erancherpak אמרת סגירת מערכת החינוך אמרת סגר yoavr  nadavabeksis יגיע כנראה ברכבת פשרה נתניהו יטוס בפרטי אבל יעבור דרך הטרמינל המצוקמק של ישראל השנייה GoodbeerOssi אוקיי היא לא באמת אמרה את החלק השני זו בדיחה 🤦‍ נוגה ניר נאמן בני הזוג נתניהו דורשים מטוס פרטי ונפרד לארהב  וואו נוגה איזה סקופ פצצה נוגה ניר נאמןמדובר…  haimhz YunaLeibzon alushlevron francoyaniv itayr2 zelama TheMisterKhan Bicherit bicbicbitch ErelSegal…  אלי כהן מתנצל הורדתי את המסכה רק לרגע כדי להשתעל תמוה בעיני שעברנו ישר מ2000 ל4000 נדבקים זה כאילו ביבי מתחמק מ3000 zviashkenazi רז זאב ציפריס הוא שותף במשרד פרסום סוסנקו ציפריסנולד וגדל בתל אביבלמד בתיכון אנקורישירת בצבא כרכז מודיעין במצחאוהב מו… ShaiCohen13 ZSosenko וואלה לא שמתי לב ZSosenko ShaiCohen13 ZSosenko 24 ShaiCohen13 ZSosenko תודה יא מתוק בעצמך ZSosenko היי RTsipris  nadavabeksis 🤢 ruthelbaz יכול לסדר לך סיור עם מיכל רנד Obar06485129 בדיוק ככה זכרתי אותך הבנאדם היחיד באיזור בלפור שנמצא רוב הזמן במצב טיסה זה נתניהו יש עתיד היא לא סתם מפלגה זו מפלגה שנולדה בעקבות רעיון והרעיון היה שהיא המפלגה של לפיד מגפה עולמית משנה את חיינו ללא הכר דמויות קומיקס נעצרות ברחובות וביש עתיד דנים על פריימריז אף תסריטאי לא היה מצליח להמציא את השנה הזו Rereshef זמנים מוזרים בגות׳אהם סיטי  ראשוני השליח הקטארי נכנס כעת לשטח בני ברק urieltzaitlin אל תגזים uribreitman עיר הבירה ירושלים תוכרז כעיר הבירה ירושלים בעקבות לחץ החרדים ישראל צפויה להכיר בישראל כמדינה ירוקה DavidLifshitz אני לא בטוח שזה הוגן לפרסם את זה asaflib לא יוכל להמשיך את היום אגב אני בעד שגמזו יתפטר שלשום כבר אסור לתת להם את המתנה היקרה הזו של דמות שהיא לא נתניהו להאשים מי היה יכול לעלות על דעתו שגמזו יהפוך לשעיר לעזאזל ולשק החבטות של הפוליטיקאים שמפחדים להילחם אחד בשני באמת אף אחד…  למכירה מסכת בד מעולם לא כובסה zoidzalach Rereshef אין שום דבר מטריד בציוץ הזה ובין ישראל הראשונה לישראל השנייה חשוב מאוד שיהיה סגר בקרוב אחרת לא נדע להבדיל בין הגל השני לגל השלישי BenCaspit חבל שלא הראה חיבור לדור הצעיר ואמר זוט עני DorMuskal צרחות אלי אבידר אנחנו מרחק 16855785 הפגנות בלבד מהתפטרות נתניהו DorMuskal לא יאמן שעל זה אנחנו משלמים לכם משכורת עוד אחת שחוסלה על ידי דה מרקר  yoavr כן יואב רבינוביץ יותר חכם מכולנו arnaviv chaimlevinson כי אתה קיים chaimlevinson הזדקן לא טוב ונדבק בקורונה תצוגה לא רעה של מרציאנו בשער נראה שהוא בדרך הבטוחה לקרב ציוצים עם אלי אבידר Rereshef חבל שגמזו לא שלח מכתב לסקוטלנד יש רק דרך אחת להוריד את כמות החולים בישראל וזה לפתוח את השמיים לאומן Rereshef צפויה להביע תמיכה בעפר שלח לראשות יש עתיד מיקי זוהר צדק כל הערים האלה מכילות ריכוזים גבוהים של מפגינים בבלפור  MorRoey elikmargalit מסכים עם אליק מגזין פורבס קובע ישראל היא המקום הכי בטוח להיות בו למי שרוצה להידבק SteinbergAssaf אחי אם יש לך פאנץ יותר טוב תצייץ ממך שוחד מרמה והדבקת המונים attilus הקנוניהנגדישראל מכל העולם מתקשרים לצחוק עלינו זה מרגיש כאילו הנגיף איבד לחלוטין אמון בממשלה Rereshef עפר שלח על יש עתיד  Afalsemessiah uribreitman יהיו אחרים Afalsemessiah uribreitman יאללה מחקתי סתמו uribreitman תן לי כמה דקות shimonliberty בסדר תוך כמה דקות זה יימחק גם ככה גלנט תלמידי ישראל צריכים לדעת ששר החינוך שלהם לא מפחד שהם ידבקו yoavr GaliGnt HShezaf נשמע טוב יואב אני כאן למקרה שאלו שנדחפת לדיון שלהן לא יגיבו לך GaliGnt אבל תעני בסוף על השאלה אל תחזיקי את עוקבייך במתח Rereshef אבו דאבי השנייה באיחוד האמירויות נזפו במשלחת הישראלית חשבנו שתגיעו במטוס F35 מעניין אם זו רק תחושה שלי שמאז הקורונה השעה 100 בלילה התקבעה כשעה 2200 של לפני הקורונה אוגוסט 2037 רוהמ נתניהו גורם לבנו של שאול מרידור לפרוש מתפקידו Israelcohen911 אם הוא לא מילא דלק בחזרה בעצמו הוא לא כאחד האדם ShaiCohen13 Rereshef יש לי סבתא כמו הסבתא Rereshef אני זוכר אותה גם כי זו הייתה ההפטרה של אלכס וגם כי זו הייתה ההפטרה שלי yoavr היה לי לפני כמה ימים באג שתגובה שלי קיבלה יותר לייקים מהציוץ המקורי kann RoyIddan כאן בהריסה Irisleal15 RoyIddan kann לא יודע אם חבר של כולם אבל אם אני לא מחרים את סבא וסבתא שלי ואת אמא שלי אז גם לא רואה…  kann RoyIddan כן זו הייתה הבדיחה  RoyIddan kann מתאפק לא לספר לכולם שקיבלתי כבר את הפרקים של שבוע הבא התכנית למיסמוס מחאת הברסלבים יצאה לדרך  Hofmann43 מהטלפון  צודק הבשילה העת לקריינות ווייז נפרדת של ישראל הראשונה וישראל השנייה שכל אחד ישמע את הקריינות שמתאימה לו לשדרת האוהלים…  Irisleal15 אני בטוח שגם שמאלני יכול להסביר את זה erancherpak מהאנשים שהביאו את החרם על ערוץ 12 טרגדיה בהוליווד כוכב הפנתר השחור נפטר ימים ספורים לפני הטיסה הישראלית הראשונה לאבו דאבי Chenfeller אלה הציוצים הכי טובים רוצים להרגיש זקנים הילד ששכחו אותו בבית בן 29 כבר הכל מחרמן  LinoyBarGeffen talschneider האמת שזו תמונה מלפני שהשמנתי  talschneider ShaiCohen13 והו הו איך היא קינאה ShaiCohen13 talschneider לא יכול לספר טים talschneider  תמיד  arnaviv השמש arnaviv חשבתי שתגיד שישראל היא מקום תחת נתניהו נותן גיבוי מלא לסנדוויץ של איציק ורותי yoavr הוא גם עצם עיניים כשארהב אישרה מכירת חמקנים לאיחוד האמירויות שמעו זה השם הכי מוזר שמישהו אי פעם נתן לספר  אורלי לוי מכירה את הנהג הזה היה פעם רופא בקיבוץ מסילות  yoavr UriahCanaff מכין גם סחלב yanircozin KnessetT התראיין כאחד האדם ShaniAshkenazi ברכות עדיין זוכר את היום שבו אני ושמן הזית שלי קיבלנו כלב רגע שיא irmyshikblum LazyishaiV2 הסטורי אמר את דברו  RonelAdani השם יקום דמה יודע שהכי קל לכם להזדהות עם הצד שנגד אורלי לוי אבל רק תעצרו לרגע ותחשבו בהגיון למי אתם מאמינים לרופא ערבי שמעולם לא פגשתם או הכרתם או לה irmyshikblum LazyishaiV2 מכירים את זה שאתם בדרך להופעה במיותר ואז מגלים ששכחתם את המסכה בבונקר איזה באסה זה הא…  זה חסן שיק בלום תנו לי לייק אם אתם מסכימים איתי  DorMuskal זה לציטוט</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בנט naftalibennett כדאי שתכיר הודעה לעיתונות של כללית כללית קיבלה ממשרד הבריאות 13 מכשירים מסוג סופיה המאפשר…  הפריסה בבתי חולים קופות חולים מגן אבות ומרפאות ישמש גם לחוליות פיקוד העורף ונבחן שימוש לטובת אזורים ירוקים  משר…  מעדכן לאחר ששר הבריאות הטיל עלי לקדם את נושא הבדיקות המהירות תוצאה תוך 15 דק ביצענו מספר פיילוטים ורכשנו מאות מ…  כנער היינו נפגשים כולם בערב יום הכיפורים אצלנו המפגש היה בגשר עד השעות הקטנות של הלילה   בבקשה מכם הקפידו לא ל…  אני קורא לכולם ללא קשר לחקיקה למגבלות  קודם כל תשמרו לנפשותיכם  לא צריך את ההנחיות בשביל ערבות הדדית והבנה שבשבו…  לא הייתי בלילה בכנסת אחרי 48 שעות ללא שינה התרסקתי במיטה עד הבוקר ב10 מתעורר לקרבות קואליציה מול האופוזיציה ליכוד…  צודק מאה אחוז יש מתווה תפילות נאכף עם תקנות יש מתווה חינוך נאכף עם תקנות יש מתווה הפגנות לא נאכף מדוע היועמש…  גם צעירים צריכים להיזהר תutmsource  מסר לקראת סגר שנה טובה ומתוקה  כפי שאמרתי בועדה לפני חודש אם לא נפעל נגיע לסגר והאחריות לכך תהיה על הועדה  שמרוקנת מתוכן את החלטות הממשלה  לצערי…  אם אפשר לסלף את הדברים שלי למה לא את מצטטת את החלק הראשון של דבריי ללא החלק השני שהגיע מיד אחריו שבו הסברתי את חשי…  בשל ההחרגות עלות הסגר ירדה מ20 לכ6 מליארד זו המשמעות והסיבה להקלות שינוי דרמטי במחיר הכלכלי שהמשק ישלם השאלה הגד…  אעלה בקרוב מידע ונתונים על היקף התחלואה בישראל כל מי שחושב שאפשר להתנהג כאילו אין מגפה טועה ומטעה בימים אלו כולנו נדרשים לגלות אחריות וערבות משותפת  המגיפה אינה מבחינה בין אוכלוסיות שונות כולנו נמצאים תחת אותה ס…  הבהרה לדבריי מהבוקר סגר הוא כלי אפקטיבי וחשוב אבל כדי להשיג את מטרותיו אני סבור שצריך להדקו ככל שניתן כשאני רואה…  עידן חדש  שלום תמורת שלום הישג אדיר לראש הממשלה נתניהו ולמדינת ישראל amospickel kannnews rbinyamini YuliEdelstein כולנו משלימים 14 ימי בידוד עד יום חמישי הקרוב YairGolan1 אני מבין שאתה מחליף את הפרויקטור גמזו נסיקה בקצב גידול המאומתים שחיקה קשה של צוותי רפואה רגע החצייה של הקו האדום בבתי החולים מספרי חולים גבוהים ששוברי…  YotYotam ErelSegal לא אסור יכול להפגין בתוך העיר האדומה שלך ויש איסור יציאה ממנה AyeletShaked שכחתי לציין פרט שולי שזו גם עמדת כל ארגוני הבריאות המובילים בעולם אילת AyeletShaked אשמח להבין איך הגעת למסקנה הפוכה מצוות המומחים בראשות דר לב מהצטמ פרופ רון מילוא ממכון ויי…  יאיר לפיד yairlapid  השבט אמר את דברו  AyeletShaked דברי איתי זו טעות להוריד ל12 יום טעות בריאותית וטעות כלכלית הזנב של חולים שיצא ביומיים האלה יגרו…  LivnatLimor YoavBlum האמת די עסוק בקורונה צודקת  עדיין חייבים לשנות את המשוואה בצפון קשה לי לראות איך בכל מק…  mogo2009 מאיפה הידע osherlarov צודק  אני חושב שמותר שיהיו לי גם דעות ביחס לדברים אחרים שקורים במזרח התיכון  חשוב מאד כמי שעשה את העיקוף סביב סעודיה דרך ים סוף פעמים רבות יש לוודא שכאשר השמים יפתחו אישור זה צריך להמשיך לכ…  נסראללה צריך להבין דבר פשוט דמו בראשו כל פגיעה בישראלים תגרור תגובה פי אלף יותר קשה בחיזבאללה ונסראללה  אחרי הנז…  מצפה כרמים הריסת בתי מחבלים פעם אחר פעם מחזק בגץ בהחלטותיו את הצורך המיידי החשיבות הגבוהה והנחיצות בפסקת התגברות מחקתי ציוץ קודם חשבתי שמדינת ישראל תמנע מבחירות על ידי מתווה האוזר לצערי אנחנו רחוקים מכך סכנת הבחירות עדיין קיי…  ניסנקורן בולם תיקון עוולות מערכת המשפט גנץ ואשכנזי בולמים ריבונות מחיר הממשלה הפריטטית שבת שלום שלום תמורת שלום מברך את רהמ נתניהו על הישג מדיני מדהים לראשונה שינוי המשוואה ביחסים של ישראל והעולם הערבי העברתי כיור ועדת הפנים את החוק לשלילת תושבות ממחבלים כדי שלא יהנו מקצבאות על חשבון האזרחים אותם ניסו לרצוח היועמ…  ברכות לשרה ציפי חוטובלי על אישור המינוי לשגרירת ישראל בבריטניה מינוי ראוי ומכובד בהצלחה  TzipiHotovely מאחל לך בריאות והחלמה מהירה realrafiperets IlanaMichaeli הסחורה נבדקה על ידי מנהלת המעבדה הזיהומית של משרד הבריאות וקיבלה אישור אין אישור אחר וזה הדרג המוסמך לאשר בנוסף הנושא הגיע לבית משפט בעקבות תביעת אחד היצרנים שביקש צו עיכוב ביצוע בית המשפט שבחן את הנושא לעומק תמך בעמדת…  משרד הבריאות מתעדף ועושה מאמצים רבים לקדם ולרכוש ככל שניתן תוצרת ישראלית המשלט עובד בצמוד ליצרנים הישראלים ופותר ל…  היצרנים הישראלים מספקים לשימוש השוטף כ30000 בדיקות יומיות וזו היתה עסקה של 1000000 יחידות שהיתה משתקת את יכולת…  בדקתי שוחחתי עם הגורמים אצלנו האחראים על המלאי והרכש במשלט אמיל מנכל נובומד יועמש משרד הבריאות ואחרונה הכתבת ענב…  נשמע רע מאד בודק  האמת לפנים נלחמים בפייק ניוז  attilus חשוב נמאס לי מתרבות הפייק ניוז לא מתכוון לשתוק יותר כאשר משתמשים במידע שקרי לפגוע במשרד הבריאות יש לנו הרבה מה לעשות ו…  YoavBlum BenCaspit gantzbe YuliEdelstein netanyahu אל תאמין לכל מה שכתוב בעיתון הם בעדיפות עליונה במשרד מצר…  טל שניידר פייק ניוז פייק עיתונאית שבת שלום  talschneider פייק ניוז פייק כתבת שבת שלום  zviashkenazi מוזמן לציוץ קודם שלי שבת שלום צבי אנו בוחנים שימוש בשיטת מדרוג מצב כוננות קורונה מבוססת על התחלואה הארצית והמקומית  השיטה מאפשרת שקיפות וקובעת שבה…  עמדתי בנושא טיפולי המרה  naftalibennett בנט חבל תתקשר תבין את הסיפור  הם בעדיפות עליונה בטיפול במשרד לצערי עדיין רחוקים כחודשיים מלהשלי…  Shmuelbenzvi IsraeliPMheb YuliEdelstein IsraelMOH asafzamir YoazHendel1 Izhars7 amirperetz Israelkatz…  inbartvizer RinoZror המידע שהוצג במסמך היה שגוי לאחר שביקשתי שיתקנו  בדקו והוציאו מסמך מתוקן מצרף את המתוקן  אנחנו במלחמה צריך לאחד כוחות  לפני שבועיים כשמשרד הבריאות התנגד לאשר קיום מסיבות סיום לשמיניסטים הלחצים על ביטול ההחלטה שלנו היו כמעט כמו הלחצים…  נתונים מתקרבים לשיא השלילי של הגל הראשון עם קרוב ל200 חולים קשים מאושפזים הבדל אחד דרמטי ומצער בגל הנוכחי גרף…  חוסר אחריות בועדת הקורונה בניגוד להמלצת הדרג הרפואי מקצועי מובילה יור הועדה sbyifat קו של כניעה ללחצים סקטורילים…  אני מבין שהגרף המצורף לא היה ברור לחלק מהאנשים מדובר על נתונים עובדתיים מארהב מציע לכל אלו שטוענים שזה לא רלוונט…  אתמול היה פיגוע בריאותי ברור לי היקף המשבר הכלכלי החשש התסכול המאבק על הפרנסה הקושי המטורף  הכל נכון  בסוף…  לאור הכתבה בגלובס להלן האמת אין משרדים קיימים לסגן שר בבניין משרד הבריאות ולכן מסבים משרדים קיימים באחת הקומות ללש…  מסיים סיור בפיקוד העורף עם שר הבריאות ושר הביטחון ראש הממשלה החליפי בגל הראשון וגם היום ישנו שיתוף פעולה וסינכרון…  יוצא מהכנסת ובודק את הסטטוס היומי של הנדבקים השעה 2252 ואנחנו על 899 נדבקים חדשים נתון נוסף מטריד הוא אחוז המאומ…  אהבתי יש עוקבים קישרוניים קרדיט eyalGur  בלי בריאות אין כלכלה ובלי כלכלה אין בריאות הכלי הממוכן היחידי הזמין מיידית לפעולה לקטיעת שרשראות הדבקה הוא בידי השבכ יש לפעול מיידית לחקיקה מואצת בכנסת ולאפש…  carmonomer לצערי אנו רואים בימים האחרונים עלייה באשפוזים ובמקרים הקשים חשיבות השימוש במסכה למניעת הידבקות  תקראו את כל השרשור מובנה וצודק ומבוסס על נתונים משרד הבריאות פועל במלוא היכולות מול אתגר הקורונה  כלי מרכזי זה ה…  החלטת השר פרץ בנושא מיסוי המלט שגויה ותגרום להעלאת מחירים טוב שהחלטה זו נחסמה על ידי שר האוצר שבת שלום מאחל הצלחה רבה למנכל החדש של משרד הבריאות פרופ חזי לוי באותה הזדמנות רוצה להודות שוב בשם כל עם ישראל למנכל היוצ…  YuliEdelstein IsraelMOH בהצלחה התחלתי את הבוקר בחידון  עדכון קורונה  אתמול לראשונה תוצאות הבדיקות החיוביות מסך הנבדקים עברו את 2 יחסית כמו בכל שבת מספר בדיקות נמוך א…  sbyifat בהצלחה יפעת ישנה עליה חריגה יחסית במקרי ההדבקה ב48 השעות האחרונות ביממה האחרונה נרשמו 64 מקרים חדשים ההתנהגות וההרגשה שהקורו…  Meravbenari אוקי רואה שאת בכללית בודק את העניין YakiAdamker יקי וכל המשפחה הלב נקרע משתתף אתכם בצערכם הכבד ברכות לחכ יולי אדלשטיין YuliEdelstein על מינויו לשר הבריאות הבא של מדינת ישראל  שיקום מערכת הבריאות והמשך התמודד…  אסון כבד אתמול בפעילות מבצעית נהרג עמית בן יגאל לוחם בסיירת גולני ליבי ולב כולנו עם המשפחה עם ישראל איתכם באבלכם…  בהצלחה giladerdan1  אתגר גדול משימה שמהכרותי איתך אני בטוח שתעמוד בה בכבוד רב  הסתפרתי שבת שלום  לשולי רנד היתה אפשרות לקבל תוכנית בפריים טיים יש מאות ויותר מקרים של אבות שעוברים התעללות האשמות שווא ניכור הורי…  יש לי ביקורת קשה על קיום הדיון בבגץ בנושא מתן המנדט לנתניהו טוב היה לו הנושא היה נדחה על הסף התפיסה המשפטית שנכתב…  הזמנתי תור לספר ליום שישי היה תפוס 10 ימים רצוף אין פרוטקציה מקום חדש במליאה  רצון הבוחר מול רצון בית המשפט מדויק  עכשיו השופטת חיות בתגובה לנציגת יועמש הכנסת בדיון איזה שיקול דעת יש לחבר כנסת בהחלטה הזו אין מילים תוצאת הבחירות בכנסת ברורות החלטת הסיעות וחברי הכנסת היום ברורה היו הרבה ויתורים ופשרות אבל בסופו של דבר מוקמת קוא…  לאחר עיכוב של 21 יום נחתם הסכם להקמת מעבדה לבדיקות קורונה בהובלת My Heritage  למעבדה קיבולת של 10000 בדיקות יומיו…  חוק הפיקדון שימש ככלי האחרון להגברת המוטיבציה ליציאת מסתננים מישראל גם אותו בגצ ביטל פועלים מידית בכנסת לחקיקת ה…  הכי חשוב בהסכם הקואליציוני תרשמו ביומנים 1 יולי  ריבונות  belzamayala טכנית אפשר אני חושב שזו תהיה טעות  בודאי תמונה של שוטר שמונע כניסת משפחות שכולות זו תמונה שתצייר מצ…  לא ניתן לאסור על משפחות שכולות לעלות לקבר יקירם ביום הזכרון אפשר להמליץ שלא להגיע ואפשר וצריך להנחות כללים למי שיח…  צודקים השרים בביקורת על קבלת ההחלטות  מעבר לכך חייבים לתכנן קדימה ולא רק מעכשיו לעכשיו להגדיר קריטריונים להגדיר…  אנלוגיות לגישות החזרה לשגרה אפשר לא לטוס ואז לא יהיו תאונות בכלל אם לא ניסע במכוניות לא יהיו תאונות דרכים אני מב…  כחלק ממהלכי החזרה לשגרה יש לשלב מיידית את טיפולי הפוריות מערכת הבריאות מסוגלת לחזור לטיפולים אלקטיביים החשוב בינה…   להסתפר או לא לכל הפניות בסגנון אתה הממשלה מה אתה רוצה מילת הסבר קצרה אני דוחף ופונה לכל הגורמים הרלוונטים שרים מנכלים פקי…  עוד 5 ימים תיפתח מעבדה ביוזמה והובלה פרטית 10000 בדיקות יומיות אז זהו שלא משרד הבריאות שעיכב אישר וההחלטה חונ…  melukadim כל הכבוד YoavKisch שומריםעלעקרונותהימין  רוצה לחזק את רהמ נתניהו בעמידתו האיתנה על הדרישה לריבונת בלי ריבונות אין אחדות אסור לפספס את ההזדמנות ההיסטורית…  אין חדש משרד הבריאות מעכב את ההחלטה לא מוסרים סיבות הפסדנו כבר שבוע מחדל הבדיקות ממשיך כל הגורמים ששוחתי איתם…  NeumanRoee בעקבות פרסום של נדב אייל ערוץ 13 שוחחתי איתו אתמול על הנושא חוץ מזה אין שום קשר רק מבהיר מדובר במעבדה זהה לחלוטין היזם הישראלי חברת מייהריטאג׳ וBGI הסינית משרד הבריאות חתם על הקמת המעבדה ולאח…  ELIYAHOOANAVIM נכון גם זו טעות קשה חייבים לבטל את הגישה הריכוזית שמוביל משרד הבריאות בהקשר לבדיקות מעבדה הכל מאושר FDA כבר היה אור ירוק ממשרד הבריאות ונעצר לאחר 3 ימים סופרטאנקר לבדיקות קורונה יש אפשרות להקמת מעבדה פרטית יזם ישראלי שתפ סיני תוך 14 יום עם 10000 בדיקות יומיות תשוב…  דרישה הזויה ללא כל ספק  בימים שבהם אנחנו צריכים לקצץ בהוצאה הציבורית כולל בשכר הבחירים דרישה למעון נוסף הינה חצו…  פושעים המשטרה חייבת לפעול בחוזקה כנגד האלימות המשתוללת ביפו אסור לוותר והם חייבים לפעול נגדם ביד קשה בנוסף אני…  zviashkenazi על זה הרבה פניות אלי בנושא תוכנית התמיכה לעצמאים מטפל בתיקון ההחרגות האלו 1 אישור גם לעצמאים בעלי שליטה 2 הורדת הגיל…  תוכנית האוצר לשיקום המשק מהמשבר היא יריית פתיחה עדיין אין מענה משמעותי לבעיות של עסקים קטנים בינוניים וגדולים  ה…  מה הסיבה שהם מתנגדים כמו שאתה מתאר זה נראה ביזיון בודק  קראתי את התוכנית של השר בנט אין ספק שיש בה אלמנטים חשובים בעיקר ההבנה של המשבר הכלכלי העמוק בעקבות הקורונה וכיצד…  ErelSegal צודק יש לך הצעה אחרת טובה יותר ביזיון פושעים לתפוס אותם ולשים בכלא  אני מברך את ראש הממשלה בנימין נתניהו ואת חבר הכנסת בני גנץ על המהלך הכל כך הכרחי לטובת מדינת ישראל   בעת הזו עם יש…  החלטתו של יור הכנסת הצליחה למנוע מלחמת רשויות והיא מכבדת אותו ואת הליכוד יולי תודה רבה על שנים של הובלת הכנסת באו…  עם כל הקשיים והמאבק בקורונה אלעל ממשיכה לשמור על היחודיות והחשיבות של חברת תעופה לאומית כבוד  כך נראת הכניסה למעליות בכנסת  כתבתי אתמול והיום זה קורה  מוזמנים להרשמה   דרישה בעייתית שמובילה לקרב רשויות בכל מקרה הדמוקרטיה הישראלית מפסידה  yairsh9 ציניות מיותרת לידעתך אין לי פנסיה תקציבית או פנסיה אחרת כלשהיא ברור שהצעתי לקיצוץ 20 מהמגזר הציבורי כוללת את שכר החכים חייבים לבנות תוכנית ארוכת טווח לטיפול במשבר הקורונה בדגש על התכנון הכלכלי המשקי חייבים להחזיר למשק את הבריאים להג…  כפי שכתבתי מסכים לחלוטין עם בנט  חייבים לעלות דרמטית בהיקף הבדיקות יש אפשרויות לבדיקות ללא המעבדות וחייבים לשנות…  על מנת לעצור ולנצח את הקורונה חייבים להגדיל משמעותית את היקף הבדיקות לתושבים על ידי זיהוי מוקדם ובידוד ניתן למנוע…  לא מתרשם מהמספר של כמות המאובחנים עדיין נמוך יחסית מכיוון שזה נובע מיכולת נמוכה של בדיקות לקורונה אותי לימדו אם…  מגפה עולמית סופה מטורפת בחוץ צבע אדום מה עוד צריך בשביל שכולם יבינו שצריך אחדות מסוכן מאד ממשלת מיעוט קווים לדמותה  MatanAlcalay תיקנתי תודה אחרי שנספרו 999 מקולות הבוחרים התוצאות הן ברורות ליברמן צריך לבחור ביבי או טיבי רמת גן פתח תקוה גבעת שמואל יש התעוררות של השטח יוצאים צפונה למעלות תרשיחא נהריה ועכו נלחמים על כל קול  גשם של…  פעם שלישית והפעם מנצחים להביא את כולללם  לא מוותרים על אף אחד גשם של מחל  ברכות ובהצלחה לאלופים החדשים מהכרותי איתם מפקדים ולוחמים ראויים צהל מתברך בשדרת פיקוד מצטיינת  מייצג את הליכוד היום בפנל של הצופים בפני מאות שינשנים  משכנע ומזכיר לכל תומכי הליכוד הכי חשוב לצאת ולהצביע מחל  בוקר טוב ממשכימי הקום בלאומידה אילת  תמונה כואבת מהכרותי עם יהודה הוא לא היה מתנגד לאף שוטר ובודאי לא פועל באלימות הפלתו על הרצפה הפעלת אלימות כנגדו…  בצלאל צודק  אלעל מתמודדת עם משבר לא צפוי ולא תשרוד ללא התערבות ממשלתית  למדינת ישראל יש צורך אסטרטגי בחברת תעופה…  NitzanHorowitz liorchorev ניצן אתה טועה ומטעה או שאתה משקר ביודעין אני אישית הייתי שותף לשיחה בין מנהלות הסיעות…  talsher5 חג אהבה שמח  שבת נהדרת yoavkisch  יוצאים לשטח סיור ליכודי בפתח תקווה  ראש העיר רמי גרינברג סידר לתושבים אתרי שלג היה שמח ב23 כולנו מחל  ארוע עצוב מביך ומיותר ראש ממשלה לשעבר שפוגע בישראל  אולמרט פשוט הזוי  לא מייצג אדם מלבד עצמו ומנסה לייצר come back על חשבוננו  DorHarlap דור עברנו אתגרים והישגים רבים ביחד וברור לי שעוד יהיו לנו הרבה משני הסוגים בהצלחה בשלטון המקומי אני ע…  מחזק את צהל ושאר כוחות הביטחון שפועלים לילות כימים לשמור על השקט בירושלים יהודה ושומרון ובכל רחבי ארץ ישראל מציא…  talshalev1 היה כנס מעולה כפי שאמרתי יום אחרי הפריימריז כולנו ביחד לניצחון הליכוד נמצא בדיון חסינותו של חכ חיים כץ אקבל החלטה לפי מהות העניין וההסברים של הצדדים בדיון  אסור לקבל החלטה בשל היכרו…  ריבונות עכשיו שבת שלום  מברך את ראש ממשלת ישראל נתניהו על הישג מדיני מדהים והיסטורי  מדינת ישראל זכתה בידיד אמת דונלד טראמפ נשיא ארהב…  שתי מדליות זהב ישראליות ככה צריך להתחיל את השבוע כבוד גדול בזכות פיטר פלציק ואורי ששון שבוע טוב  ריבונות עכשיו החלת הריבונות והחוק הישראלי בבקעת הירדן היא צורך לאומי מדיני וביטחוני צעד זה צריך להיות הראשון במהלך שלם למימוש ה…  יאיר גולן טעות קשה וחשיבה מסוכנת תומכי טרור צריכים להיות בכלא לא בכנסת תתאפס  שבת שלום מהצפון הירוק  ברכות לשר שטייניץ steinitzyuval על הפיכת חזון למציאות  nvEb2onXak5WvIy ברור שמגיע על עוד הרבה דברים טובים נוספים וכמובן גם על חיסולו של הרוצח סופו של נבל  החלטת המשטרה לחזור מביטול כתב האישום היא שגויה ומקוממת  התנהלות שערוריתית ונקמנית במשטרה מיותר לחלוטין  השיח על הפרימריז זה שיח האתמול אפעל בכל כוחי לניצחון הליכוד בבחירות הקרובות ולהקמת ממשלת ימין לאומית  מקבל את הכר…  מי שלא מוכן להסתכן מעולם לא ינצח מברך את רהמ נתניהו על ניצחונו בפריימריז מחר קמים בבוקר וכולנו נלחם יחדיו לניצחון הליכוד בבחירות הקרובות בושה  מעדכן היתה פתיחה אסורה להצבעות של חלק מהקלפיות לפני השעה 9 מה שמדאיג שיחד עם כך מנעו באותם קלפיות ממשקיפי גדעון ס…  היום זה היום נעשה ונצליח לכל השואלים אנחנו מתכוונים לנצח מחר הקרב פתוח יש לנו את כל מה שצריך בשביל להביא את השינוי מחר בקלפיות מחר יגיע הסער נותרה אותה שאלה  מי הריבון בחאן אל אחמר מדינת ישראל או האיחוד האירופי בית המשפט הישראלי או בית הדין בהאג כי בית…  אנחנו נאבקים על מנת שהבחירות לראשות הליכוד יאפשרו לכל מתפקד לממש את זכותו הדמוקרטית להצביע ולהשפיע  היום בבוקר קיב…  שבת שלום  החלטת ועדת הבחירות של הליכוד מהיום למנוע אפשרות הצבעה בכל האתרים בארץ כפי שהיה מקובל בעשור האחרון בליכוד היא שערו…  כשאין טיעונים אמיתיים ולא מסוגלים להסביר מדוע הבחירות הבאות יביאו תוצאה שונה מהפעמיים הקודמות אז מתחילים לדבר על בוגדים וסכינים אתמול הלכה לעולמה גאולה כהן זל לוחמת ישראלית גאולה היתה מופת ודוגמא לכל אוהבי ארץ ישראל עם ישראל ומדינת ישראל דר…  דרעי צריך ביבי חזק הליכוד צריך סער חזק תימסר למבקר הליכוד תגובה מסודרת ורק לאחר מכן היא תועבר לאמצעי התקשורת  נציגנו בועדת הפיקוח דור חרלפ פועל לשמור ע…  ישראל מזלזל בעשרות אלפי חברי תנועת הליכוד שבחרו בגדעון סער ביום שאחרי הפריימריז יש לנו מדינה לנהל אני מצפה מישראל…  1 אין התיחסות להפרה הגסה של הסיכום של יור המרכז עם המועמדים ומניעת זכותם של רבבות מתפקדים להצביע בחופשת החנוכה 2…  3  מנהלת התנועה לא נעתרה לבקשתנו לקבל את המידע הגולמי המאפשר להבין מדוע הוסרו החברים מהספר במצב דברים זה  קיום…  2 בפריימריז בפברואר כרבע מהבוחרים הצביעו שלא בסניפיהם החזרה מסיכום זה ובפרט כשמועד הבחירות בחג ובחופשת חנוכה תפגע…  1לאורך כל היום עסקתי בנסיונות לוודא קיום פריימריז הוגנים לראשות הליכוד לצערי הסיכום שהושג ע״י יו״ר המרכז לפני שבו…  קיבלנו אתמול את ספר הבוחרים בעיות קשות שאני מקווה שמקורן בטעות ולא ביד מכוונת בכוונה מחקתי את הציוץ הקודם מכיוון…  judash0 מטפל  מדאיג מאד  מאזן כוחות הפוך בכנסת  כך נראת כנסת בשליטת השמאל  כנראה שחלק לא הבינו את הדרישה דחייה של שבועיים בשידור תסבירו לי מה הבעייה בדרישה הזו מצורפת פנייה ליור הרשות השנייה עם בקשה לדחות בשבועיים את שידור הסדרה על נתניהו בערוץ 12 הפרסום הזה שקול לעלות של…  הפעם מקימים ממשלה  igalmalka כמה הטעיות ושקרים בציוץ אחד דבריי הוצאו מהקשרם בצורה מגמתית אני תומך בתחרות ובדהרגולציה  הרפורמה בת…  חשוב מאד יש לנצל את תמיכת הממשל האמריקאי ועשות זאת מיידית  הליכוד בראשות סער יקים ממשלה  הליכוד עם נתניהו באופוזיציה חברי הליכוד אתם תחליטו   כבר מתפזרים חבל  מכבד את החלטת יור המרכז יש להיכנס למאמץ מרוכז לבחון את הבעיות בספר הבוחרים על מנת לקיים בחירות נקיות שקופות ודמוק…  voiceofajew ליכודניקים זוהי קריאת השכמה כולם לדגל בלי גדעון סער בראש הליכוד אפשר להתחיל לארוז ועם סער גוש הימין גדל ב3 מנדטים ונוגע ב… לא יהיה תאריך הפריימריז יהיה ה61 וזאת כדי לאפשר בחירות הוגנות ודמוקרטיות תמיד הפריימריז נקבעים כשלשה שבועות לאחר…  fakehendel  הרבה אהבה וחיבוקים במרכז הליכוד הערב תודה  בכל מעשי אני פועל באמונה שלמה למען עם ישראל וארץ ישראל לכן הודעתי הערב שאני תומך בגדעון סער בפריימריז לראשות הליכו…  אמירה שרק מוכיחה את עומק הבעייה בפרקליטות  אפס יכולת קבלת ביקורת אפס פיקוח וכל זה עם כוח לא מרוסן חייבים לתקן  gidonsaar תודה על הברכות נעשה ונצליח שבת שלום זה מה שקורה כשהחוק מונע מאבא לראות את ילדיו ומביא אותו לעוני ופת לחם נלחמתי לביטול חזקת הגיל הרך ותיקון חוקי המזונ… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">baruchikra לאור הצפה אינטנסיבית של רעיון החנינה או עסקת טיעון גרנדיוזית אני מעלה פה שוב את הקטע הרלוונטי ממאמרי ביום חמישי  מי שתומ… assafgolan3948 צודק תזכורת פוסטכיפור לא להתרשם מחשבונות נפש של פוליטיקאים הם שם כדי לעשות לא כדי להשתפך בפייסבוק כמו בני נעורים שג…  או קיי ספרו מה היה התגעגעתי 🧐 urizaki  urizaki צום קל חברים שנהיה בריאים וחזקים yonatnwer על זה הסכמנו TheProletariat אבא שלי כבר חצי שנה מתפלל ביחידות בבית לכיפור התארגנו בחדר המדרגות yonatnwer התפרצת לדלת בעייתית חבר אתה יודע שבמקרים מיוחדים למעט ברכת הכהנים די בשישה אנשים נכון ראה מניין ש…  yonatnwer נכון ועוד טיפ לגבי מניינים אל תשאלו מאיפה לי קבוצת וואטצאפ בכל בלוק קביעה מראש של התפילות שמחייבות מניין במהלך החג וי…  שמישהו יעביר למתראיינים מטעם המחנה שלנו שבמקום לגמגם על ההבדלים בין ההפגנות לתפילות בהנחה שלא אמרו שההנגדה הזו כול…  talyapeledk razsauber תמיד להקדים בסופרלטיבים  peretzsami גם אני הייתי שם לפני שלוש שנים וממש זוכרת שהייתי צריכה להסביר להם שהעובדה שאני כותבת בהארץ לא הופכת אות…  EmilieMoatti אחת ולתמיד לא כל מי שברדיובטלויזיהכותב בעיתון הוא עיתונאיההבדל בין עיתונאי לבין פרשןפאנליסט כמוני זה כמו ההבדל בין… Eddie7701 שתנסה השנה המחורבנת הזאת צריכה מלבקש מכולנו סליחה ואז נדבר JohnHudson what a shame 🤦‍ OfraShefi תודה חברה ybhRh7D3rBTs7CB  Itailev  חברים יקריםהייתי המומה לגלות כמה אתם נפלאים ואכפתים ומציעים עזרה ולא מרפים לא אשכח לכם את זה אני בסדר זה רק הצע…  חברים יקרים מעדכנת שהלווייה תתקיים ביום שישי ב10 בבוקר בהר המנוחות בירושלים תודה גדולה על הטלפונים והאכפתיות  Cher…  תודה על הכל חברים יקרים על המילים והטלפונים והתגובות תודה שאתם כאן    אין דברים בחיים שמכינים אותך לרגע שבו תצטרכי לספר לבנות שלך שאבא שלהן מת ובכן זה קרה היום יום לפני יום ההולדת שלו…  GadeerMreeh גם בלי ארוחת גורמה ומטוס פרטי הוא לא המנהיג שלנו קבלני הביצוע חיכו להוראות המפורטות שנתנו להם בשידור לא פחות ממחריד  BarakRavid 🤦‍ כנסו דחוף  ShiraHN hagaykr זה פשוט הזייה מה שקורה באוטובוס היום נסעתי לנתניה חצי אוטובוס בלי מסכה ואחד שעלה בגלילות עלה ב…  danaspec אוי הרגת איזה כיף זה לצחוק בקול רם  danaspec תראי זוזו מתארגנת לסגר מוקדש לכל אוהבי המכרסמים ולדנה ספקטור בפרט  8xJHSXjvLpKXpjK בטח  MiriPizen גם גשר יהודית השלום וצומת ההלכה לא יודעת באיזה גשרים הם ביקרו 🤦‍ 8xJHSXjvLpKXpjK ברור כולנו נגד השלום  לא יודעת מצד אחד מחרטטים שהציבור אדיש להפגנה והמפגינים הולכים ומתמעטים ומצד שני הפאניקה של השופרות ותתי השופרות ב…  JudyMozes לפחות כתב זל המנוול ועכשיו בלפור בנוהל   RazShechnik נסה את זה  limormoyal האמת שקשה להבדיל limormoyal זה פייק Yar84192531  ShlomitTamir אוי זה נהדר limormoyal על הסביח ZoharElimelech גם מבחינה קולנועית וגם מבחינת ההרכב האנושי והכי גרוע  החבורה המאוסה הזאת התקיימה בחיים האמיתיים limormoyal מואטי זה עברות של פינקשטיין בעצם נולדתי בצהלה כל הנתניה הזה היה חלום idokius ShohatAlon ציוץ מושלם yaelgaon היה מת להיות יריב שלנו  ופתאום אני קולטת שמה לאדם עדין וחביב כמוני ולטיפוס הזה נחסם איזה הקלה limormoyal מלכה KogotYonatan מפחיד Avic123 codswallop עשרים שנה 🤦‍ אבל היתה איזה אקסיומה כזאת כאילו מדובר ביצירת אמנות Avic123 תקשיב אפילו לא זה  רק הרשעות והזחיחות שגורמת לי לרצות להקיא מאנשים כאלה פשוט כך rohminhon לא זה לא יאמן עוד שמרתי לו חסד בגלל חבר משותף ממש גועל 🤮 ShefferOrna צריך להבין שכל הקיום הציבורי של שופרות הבלאי האלה תלוי בנתניהו בלעדיו הם עוד צייצני קצה הם מפחדים שיגמר codswallop היה לי מרצה שהעריץ אותם פח אשפה אלוהים אני קוראת את התגובות שלו לתגובות איזה אינפנטיל אלוהים ErelSegal praklitzameret תגיד אראל מישהו שאל אותך משהו אי פעם כתבתי עליך לא יודעת איך להגיד לך אבל אתה בשום צו…  Avic123 חושב שאני חברה שלו 5 האם אישה צעירה כלשהישכן רוצה הכרה כלשהי האם אין לה הזכות לרצות בהכרה בלי שהגוף שלה יהפוך למטרה מי האנשים האלה…  4 אומרים שיש לנו סיבות להיות אופטימיות ושהנה מי טו והנה קם דור חדש של גבריםמה אנחנו יודעות על מה שקורה עכשיו מתחת…  3 את חלקם הכרתי רק כשהתחלתי לעסוק בתקשורת לא הייתי קהל היעד שלהם אני לא מגניבה ומבוגרת תמיד הייתיכל הברברת האק…  2ידעתי מרחוק על קיומםלא הכרתי בחשיבותם או בעובדה שהלוזרים האלה מעוררים הערצה כלשהיעבדתי כל לילה בחברת ביטוח וסופ…  1זה ארוךקראו על הסוף מהרגע הראשון שראיתי את מציצים וגם כשלמדתי על פועלם באוניברסיטה הרגשתי שמדובר בחלאות עמי ארצ…  TheKretch HebAcademy או אליטה TheKretch HebAcademy עלית Zelda62054215 טוב לזה לא הגעתי  Zelda62054215 האמת שגם אני לא יודעת מה קרה לו itayr2 שמעתי את זה ברור שכתבת כדאחקה barakbl אין לי MeirJacob  אמר הדוקטור האשכנזי משכונות האליטה בירושלים לא זה לא נתפס כל פנתר ורוד חושב שהוא מינימום ראוהן אברגיל צא ולמד ח…  Driler2 אין דבר כזה משקל נוצה כל המתנגדים גיבורים  אני חושבת שכל מי שמוצא בעצמו את העוז להתנגד עדיף באלף מונים על מחרחרי הקרבה והלקקנות לשלטון כמו כן הכוונה היא לא א…  באות  ושמישהו ימסור לאבח שעיתונאים שיושבים בכלא הם בדרך כלל האמיצים שפועלים נגד השלטון לא אלה שהופכים לשטיחוני אמבט עם…  ילדה בת 9 מוכרת עוגיות כדי לעזור בפרנסת המשפחה ארגוני הצדקה קורסים מפניות לבני אדם אין מושג איך החיים שלהם יראו בעת…  AlonMizrahi סגור במצודות שלו טס במטוסים פרטיים מנהל עסקאות עם טייקונים מאחורי גבנו ומקליט סרטון או שניים ביום להדליק את הכת החיים… danaspec מה קרה בובה LinoyBarGeffen אחותי זה מאד מאד חכם מה שכתבת כנסו בבקשה חברים זה חשוב  BenCaspit היה נסיון כזה כחול לבן א פוליטי זה פסטיבל לא מסגרת שבאה לשנות את המציאות הלקח חייב להלמד ויפה שעה אחת קודם lilachv  Mikey90293327 zehavagalon זו המחמאה הכי גדולה שקיבלתי בטוויור אם לא בחיים באופן כללי  elibro20 Kobidahan2 נחסם תודה yairy מדובר בשבר רציני מאד  תיקנו אותי שזה לא בימבה אלא בינבה חשוב מאד אמאלה במקום חמישים מפגינים בעד נתניהו יבואו חמישים וחמישה כולם על הבימבה D9 של קרעי  erancherpak talialin עופו לי מהפיד שניכם  sagitderi  YairGolan1 איך לא ראיתי את כל התגובות הנהדרות האלה adindan צודק תדמיין מה אני מרגישה idanlandau ככה בדיוק תודה על התזכורת OrnaBarb YSegalovitz בושה וחרפה רשימת כחול לבן על כל העומר ינקילביצים שבה היא העונש הכי גדול והלקח הכי גדול למחנה שלנו חבורת פחדנים נרדפים ורופס…  RamiHod ועם כל החיבה ואני באמת מחבבת אותו לא נראה לי כזה סיפור להאבק על האמונות והערכים שלנו בקהילת צפון תל אב…  RamiHod אני יודעת מי הוא ועומדת על זכותי להרגיש שהאזניים שלי נשרפות odedkramer חייכתי בקול אל תבינו לא נכון אני מחבבת את בני לאו מאד רק משתגעת מחוסר היכולת של כל מקרבי הלבבות בצד שלנו לראות את המציאות שב…  מקשיבה לבני לאו ונשרפות לי האזניים במקום לקום על המנוולים שעשו לו ולכולנו דה לגיטימציה הוא מסביר לרינו שבטוח שהכו…  EdanRing ReutMor מלכה yanivbiton99   SylvieKeshet בעולם המעוות שלהם כל מי שלא ביביסט הוא שמאל קל איך הם משקרים בסבבה שלהם בלי למצמץ איך כנסו  מלא בוטים באים  ItaiLeshem מה קורה עם חקירת המפעילה של הפייק דנה רון שאיימה לתקוע כדור בראש לנתניהו ILpolice למה אתם לא מפרסמים את שמה בלפור לו… נכשלת לך כבר netanyahu BenCaspit עשרות בוגרי קרן וקסנר והרווארד תובעים מיליון שקל מיאיר נתניהו תביעה ארוכה מנומקת ומסקרנת יהיה מעניין aviyalou המזרחים לא סובלים אותך עדכן אותו שמזרחים לא עובדים אצלו וגם לא אצל מי שהפך את הטיפוס הזה לרלוונטי תודה איזה חלאות  Ofir77744530 היידה ביבי יאללה סע מצחיקול איש לא נפגע זה רק הליצנים בימין שראו הזדמנות לתעמולה נגד השמאל אפשר לחזלש  doronbrown שוחד מרמה  והפרת אמונים כמו המאבק בשחיתות כמו המאבק הפמיניסטי והמאבק המזרחי והמאבק בגזענות גם ערבי שנורה על לא עוול בכפו מעניין אותם רק כ…  talialin danaspec Ayeletnnv אין מה לעשות 🤷‍ נצטרך להפגש ולשתות  אמרתי לכם  thedrow מלך thedrow מותק ההתערבות היתה על פרחים ולא על להצטלם עם פרחים  talialin שוקולד מנטה מסטיק Ayeletnnv EmilieMoatti  את חסרה danaspec  talialin איך מתפקדים למפלגה הזו gabigr007 יש דרכים למנוע השתלטויות כאלה וכותבת את זה אישה שלהבדיל מכם משלמת הלוואה אימתנית מחשב הכנסת ובתקופת הפריימריז לא ראתה בית לדקה ועדיין שווה כל…  פריימריז היא שיטה מצויינת וחשובה שמחדדת רעיונית אדם שמתכוון להיות נבחר ציבורמאלצת אותו ללמוד את נושאי הליבהלהבין…  erancherpak  Ariav רע מאד חבר  שלום ברוך קרא יקר בין נתניהו לתמונה שמסרטט אבישי בן חיים אין קשר אגב הוא לא המציא את ישראל השניה רבים וטובים ה…  nurro1 מה זה zehavagalon מהממות ויפות zehavagalon זה אנחנו   Arspoeti zviashkenazi היי לאב גשר יהודית   sadibenshitrit תבע אותו moransamun לא moransamun זה יקרה איפה שיתחשק לו תודה GoodbeerOssi היינו צעירות מדי מאז עמדו הרבה מים בירקון ואנחנו לא טועות ולא שותקות יותר כל מילה רינו בעולם נורמלי אנשים כאלה רוצים להעלם מרוב בושה במציאות הנוכחית הם בראיון עומק עם תאורנים ומוזיקת רקע…  BensKfir תחזור לשיעור אזרחות להבין מה ההבדל בין ראש ממשלה לאזרח herzls נכון מבחינתי שגונן בן יצחק וכל מי שמקדיש את חייו בימים אלה לעתיד שלנו לא רק ישן בוולדורף אסטוריה אלא שיעבור לגור שם וש…  AnatNir hadarse הורים זבל hagaykr קל רונן צור לא שקרן צריכה להתקלח באקונומיקה אחרי שראיתי את הכתבה הזאת בגללכם liorchorev zionnenko רק בישראל אדם דופק תקווה של מחנה שלם לא בוחל באמצעיםעושה מעשים שלא יעשו ומסובב על האצבע אנשים שאשכרה משלמים לו ו…  Eddie7701 amospickel shoshgru BarakRavid נתת לנו סיבה מצויינת להפגש בהקדם  RinoZror But first we Take Manhattan Eddie7701 amospickel shoshgru BarakRavid אבל צחקתי מלא 🤩 Eddie7701 amospickel shoshgru BarakRavid הלו חבר פיקל הוא חבר אמיתי שלי על סף אח הוא חתיך חכם ועם פתיל יותר קצר משלי  עכשיו עם כל הכבוד נשאר להכיר ברצח העם הארמני יום אחד תהיה כאן ממשלה מספיק הומאנית ומספיק אמיצה כדי להכיר בסבל שעבר העם הזה שבת שלום Hakufsah  היינו גלויה שציירנו בנוף קיץ מוכר ועזוב שחפים וגם אנחנו  ניתרנו ניסינו לעוף מתוך סודות גדולים שלא הוערך כהלכה Hakufsah היום דועך שקיעה נדלקת אני הולך מאד בשקט לא זוכרת את שם השיר אבל מילים של אלתרמן erancherpak הציוץ הכי קולע מאז אליק מרגלית והגבול ShekDaniel לא יאומן גם הניו יורק טיימס עבד נרצע של מנדלבליט  כפיים לנחום ברנע   ואז תקראו את זה של טל שלו בוואלה  עשו לעצמכם טובה זה חשוב קראו את רוית הכט כל מילה  roykatz בזכות הוראה שנתנה לוי אבוקסיס ShaiMasot חמוצים לא משנה מה הוא יעשה השמאלנים יתלוננו   ישראל מקום ראשון בעולם בהדבקות אבל למה שיפרגנו לו קשה להם לראות את ביבי מוב… yarivzurschor העניין הוא שלהבדיל מהם היתה תקופה שהנגבי היה איש עם רעיונות ותכניות לא תמיד היה סמרטוט רצפה של נתניהו שקרן וחלקלק avidareli נתראה שם וגם לא שטייניץ GONENB1 לא חוסר הבנת הנקרא ולא נעליים מישהו קיבל הוראה להפחיד אותנו אסור לתת לו להצליח Eyalo365 אני פה מתי שתרצה MarkZlochin וואלה תודה Eyalo365 עם כל הכבוד היא לא איימה על אף אחד במדינה נורמלית אזרחית ומרת חוק לא נלקחת למשטרה בגלל ציוץ היום היא מחר אתה moranynet ממתי זה F4I0k7w5UhVHglX אנחנו שם carmitalma צודקת הימים האלה איומים יש לי דבר אחד להגיד היום לאיריס בוקר ובעצם לכולכם לכולנו אנחנו עוד נראה את הימים האחרים זה יקח זמן זה מתיש זה…  הוא אכן נוכל והוא ילך הביתה  yakov57v RamBenBarak טרם אני מקפידה מאד להאזין לתכנית הזאת האמת כפיים לבן ברק שלא חזר בו איש מצויין שלא מקבל ציונים מאף אחד ערב טוב ברדוגו ראש הממשלה נתניהו הוא נוכל RamBenBarak אל תחזור בך בנאדם שנאשם בשוחדמרמה והפרת אמונים הוא נוכל שמחתי לעזור erancherpak YotamYaakoba  צחי הנגבי  התנחלות מבודדת  הצל רוץ motiszuszan1958 אלתרמן chickos99 hkim14050017 גם אני לא כפת לי על מה ZvikaKlein תיכף אצלך בוואטצאפ ZvikaKlein יש לי מישהו נראה לי שתחבב אותו מאד Mickeygitzin urizaki אתה לא מבין כמה כיף זה היה רק שאני לא זוכרת מי היתה העוד אולי sharonkidon זוכרת תיקון באזניה זה לא היה בסוף הראיון אלא תוך כדי הראיון urizaki Mickeygitzin בהמשך לציוץ של אורי זכי נזכרתי שפעם לתכנית כלשהי הגיעה עוד שלא הפסיקה לתקוף את הקרן לישראל חדשה ועניתי לה את שענ…  urizaki מי הכותב אין ספק מדובר בתקופה מצויינת להיות בה פרופסור ברבש  osherlarov yanircozin זה מעניין אבל אתה מבין שהפסקה הזאת היא גם סיבה וגם תוצאה נכון  הרעיון הוא לעודד בני אדם ל…  nitayp קשה להפנים עד כמה הדוק הקשר בין אחרון פעילי השטח האלימים והמסיתים לבין ראש הפרמידה לא מידור ולא בטיח אנשים שבקושי היו מקבלים… osherlarov yanircozin אין ספק שכל המערכת זקוקה לשינוי רדיקלי רק שהסיפור לא צריך להיות סיוע כשהבנות שלי היו בג…  osherlarov yanircozin סבסוד ופיקוח זה לא צופר וזה לא רק סוגיה סוציאליסטית כשאדם עובד הוא משלם יותר מיסים הוא ט…  orna2020 AlonMizrahi לא לא כלפי הליכוד זה חשוב וקריטי לעשות את זה מפלגה שעובדת בלייצר פסאדה עממית שמיום הקמתה…  yanircozin הבעיה היא לא במקום שאתה גר אלא במדיניות הממשלה הממשלותגנים צריכים להיות מפןקחים ומסובסדים מגיל 3 חוד…  AlonMizrahi בוקר טוב גם הבוקר הליכוד היא מפלגה אשכנזית שהוקמה בידי אשכנזים ומנוהלת בידי אשכנזים מיום הקמתה כולל האשכנזי הנוכחי לפי פ… AvnerHofstein BoazCohen elikmargalit או קיי בומרס  לא שמחתי eranetzion באה misscorina2 תנו לה פינה פליז mulisegev  asafnevo4 וכמובן הראשונים לאיים בביטול התאום הבטחוני הם הפלסטינים והראשונים לשגר משלחות של דפלומטים כדי להניע אות…  asafnevo4 סליחה ההסכם נחתם ב97 נתניהו חתום עליו באמצעות עוד שומרון זה לא ילך לך הלא בקיאה הזה נסה משהו אחר GuyMaidan גיא עם כל הכבוד וכל החיבה כלפיך ויש לי חיבה אני מכירה את ציפי איזה יומיים שלושה אני מסכימה איתה בכל…  LivnatLimor לימור זה קצת מביך אבל אין לי ולא היה לי נשבעת לך שום עניין בנוכחות הפוליטית שלך במפלגה שבה אני חברה… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ביום הכיפורים הזה נבקש מחילה על חטא שחטאנו בשנאת חינם ונבקש לאחות את הקרעים בעם ערבות הדדית ודאגה כנה זה לזה זו…  האיום הגדול ביותר על עם ישראל במשך כל שנות קיומו הוא הפירוד ושנאת החינם – לא מגפה ולא אויב חיצוני – שנאת חינם  ערב…  זה לא סוף העולם העולם לא יקרוס ומדינת ישראל לא תקרוס אם שבועיים לא יהיו הפגנות   דברים שאמרתי היום במליאה על ההפג…  תודה לכל מי שלקח חלק בהובלת המהלכים שהביאו לחתימת הסכמי השלום נשיא ארהב מנהיגי המפרציות וראש הממשלה בנימין נתניה…  כולי תקווה שמדינות נוספות יצטרפו למעגל השלום ובכך יחל עידן חדש במזרח התיכון עם רודף שלום אנחנו וכעת כשהשלום מגיע…  השינוי המשמעותי הזה ביחסי הכוחות במזרח התיכון הוא ההישג הגדול שנחגג היום על מדשאת הבית הלבן חשיבותו רבה אף מהסכמי השלום עצמם מעבר להתרגשות מהמעמד ההיסטורי חתימת הסכמי השלום היום מהווה ביטוי לשינוי אסטרסגי עמוק ומשמעותי במזרח התיכון שקשה ל…  מערכת אכיפת החוק היא התחנה האחרונה לפני שחירותו של אדם עלולה להילקח ממנו בבית המשפט זיהום המערכת הזו היא פגיעה אנו…  הפרקליטות נועדה לחקור את האמת ללא משוא פנים שלנגד עיניה חרותו של האדם וחקר האמת החשיפה של סגל מוכיחה שהפרקליטות נ…  החשיפה של סגל היא רעידת אדמה שאמורה להדיר שינה מעיניו של כל אזרח במדינה ללא קשר לעמדתו הפוליטית לא צריך להיות תו…  וועדת הבדיקה הממשלתית למחש נקברת כי היא הוקמה בעיקר לאחר תלונות רבות של יוצאי אתיופיה ערבים וחרדים אם הזעקה להקמת…  ימים היסטוריים  טיסת הבכורה של אל על לאבו דאבי שהייתה גם הראשונה לחלוף בגלוי מעל שמי ערב הסעודית היא צעד חשוב ומ…  אין עוד מדינה בעולם שזקוקה לשלום עם שכנותיה כמו ישראל  אין עוד מדינה בעולם ששכנותיה מאיימות להשמידה כמו ישראל א…  בעקבות פגישה שקיימתי ביום רביעי עם שרת העלייה והקליטה חכ פנינה תמנו נכנסתי הבוקר לבידוד  זו הפעם השניה תוך חודש…  הרפורמה במחש אם זה לא היה עצוב זה היה מצחיק  בשעה שכותבים את הרפורמה לאזרוח מחש מגייסים שוטרים חדשים ובזמן שמ…  רק סגירת מחש והקמת גוף חלופי בלתי תלוי בראשות שופט עם חוקרים שאינם מהמשטרה יביאו לתיקון העוולות במחש ולחקר האמת  מבקר המדינה כתב דוח חריף על פעילות מחש ולפיו כ50 מתיקי החקירה במחש נסגרים ללא חקירת שוטרים כלל ו97 מהתיקים…  ההצעה של השר ניסנקורן לרפורמה במחש מנותקת מהמציאת ועולה החשש כי היא נגועה בשיקולים פוליטיים שאינם עניינים נראה כ…  סיכום שבוע 98    148  שבוע טוב  הסכם שלום תמורת שלום עם איחוד האמירויות הוא הישג מדיני משמעותי ואירוע היסטורי חסר תקדים  הקשר בין עם ישראל לארץ יש…  אין מקום לאלימות נגד נשים בישראל נקודה   השרה cohenmeirav ואנוכי עוסקים יחד בנושא חשוב זה הקשיים הכלכלים והלחצ…  בגצ מנע היום את ההרס הפיזי של בית המחבל המתועב רוצחו של חייל צהל עמית בן יגאל היד והרס נפשית משפחה שכולה שבית…  בחירות כן או לא דברים שאמרתי הבוקר אצל שרון גל בגלי ישראל  סיכום שבוע 28  78  שבת שלום  לפי סקר דיירקט פלוס מהיום 64 מנדטים לגוש הימין עליה של 3 מנדטים לליכוד מהסקר האחרון נראה שהמחאה הפוליטית של הש…  נכנסתי למשרד לביטחון פנים כדי לטפל בבעיה של אלימות שוטרים מתוך דברים שאמרתי היום בערוץ הכנסת  דברים שאמרתי אתמול במליאת הכנסת בנוגע לישוב המשותף שאנחנו עומדים להקים יחד   התייחסות שלי בחדשות ערוץ 20 הערב ליוזמה להקמת ישוב ליוצאי אתיופיה  דור ההורים הוסלל לשכונות העוני בפריפריה הדור השני יסלול את דרכו בארץ האבות עם נחלה משלו מתוך עצמה וכוח ולא מתוך ח…  ישוב ליוצאי אתיופיה הוא הרבה מעבר לפתרון דיור זהו מהלך ציוני ושרשי של קהילה שהלכה ברגל לארץ ישראל כשאלפים מבניה ו…  סיכום שבוע 197  247  שבת שלום  תודה מעומק הלב לראש הממשלה netanyahu שהוביל את ההחלטה להעלאת אחינו ואחיותנו מאתיופיה עוד לפני הבחירות בניגוד לדעת…  אחד מתנאי הסף שלי לחזרה לליכוד היה עלייתם של 400 יהודים מאתיופיה 43 מהם לפני הבחירות לכל מי שהטיל ספק ואמר שאין ס…  34 עולים מאתיופיה נחתו היום בישראל  למי ששואל אותי מהו הדבר המשמעותי ביותר עבורי בעשיה הפוליטיתחברתית שלי בשנה הא…  במשך ימי ילדותי באתיופיה המנורה הייתה עבורי לא רק סמל אלא תקווה מוחשית לקיומה של ירושלים כל ילד יהודי בעולם הרגיש…  יחד עם זאת הזכות להפגין אינה מאפשרת לבזות את סמלי המדינה ביזוי סמלי המדינה מצביע על ניתוק מוחלט מהשורשים להתערט…  ההפגנות על רקע המשבר הכלכלי צודקות לחלוטין הזכות להפגין היא מאבני היסוד של הדמוקרטיה אי אפשר לחבק את הזכות להפגין…  ברצוני להודות לסמפכל המשטרה ניצב אלון אסור שהוביל את הסיור במכללה לניצב אבשלום פלד ראש אגף הדרכה ולמפקד המכללה תנ…  שוטרים מגיעים ללמוד את מקצוע השיטור כשהם כבר ספוגים בערכים שקבלו מהסביבה שבה הם גדלו וחונכו לכן חשוב שילמדו ויכירו…  חינוך זה כל הסיפור חינוך נכון יכול לבנות חברה בריאה בורות מובילה לפרופיילניג שמוביל לאסון חשיפה לתרבויות ולמגו…  ביקרתי אתמול שלישי 21720 במכללה הלאומית לשוטרים הביקור הוקדש בעיקרו להיכרות עם תכני הלימוד במכללה בדגש על ה…  נער בסיכון המתדרדר לפשע ונכלא בגיל צעיר זו טרגדיה חברתית וטראומה לנער הכלוא לרוב ימצא את עצמו כאזרח סוג ג עבריי…  כאומה שידעה מלחמות ומשברים בהם תמיד ניצחה עלינו לשלב ידיים ולתמוך בממשלה הנבחרת כדי שתוכל לתת מענה לאתגר הבריאותי…  אסור לפקידות לעצור בעדו או לעכב את הכסף שמיליוני אזרחים מחכים לו זוהי עת חירום שבה יש להסיר את כל חסמי הבירוקרטיה…  בימים אלה עושה ראש הממשלה  netanyahu  לילות כימים למען שיקום הכלכלה בשל משבר בריאות עולמי שלא ידענו כדוגמתו בדומה…  סיכום שבועי 12720  17720 שבת שלום  שמח לראות שגם בית המשפט מצדד בגישה ובפתרונות שאני מקדם בנוגע לכליאת בני נוער  דברים שאמרתי היום לערוץ 7 בנוגע להפגנה בבלפור אתמול  קרדיט לוידאו חזקי בצלאל ערוץ 7  המדיניות שלי בנושא תגובש בקרוב לאחר שאסיים את סבב התייעצויות עם מומחים וגופים אמשיך לעדכן אתכם בהתפתחויות אני חו…  השבוע נפגשתי בנושא זה עם שופטת העליון לשעבר דליה דורנר שעמדה בראש הוועדה הציבורית לבחינת מדיניות הענישה והטיפול בע…  חלופת מאסר לקטינים היא  אחד מהנושאים  שבהם אעסוק בתפקידי כסגן השר לביטחון פנים לאחר הביקור שלי בכלא אופק קיימתי מ…  משבר הקורונה הוא משבר בינלאומי המציב לממשלה אתגרים מדי יום התכנית הכלכלית שהציג רהמ מקיפה וחותרת לפיצוי כדי לסייע…  מחאת העצמאים מבקשת את המובן מאליו להביא אוכל הביתה דאגה לעצמאים תוציא את ישראל ממשבר האבטלה כי כשאתה מציל עסק עצ…  סיכום שבועי 5720  10720  שבת שלום  לפעמים דווקא מה שלכאורה נמצא בשוליים הוא המדד לחוסן חברתי  נפגשתי היום עם Ganororen ו Nethersh מחושבים בצבע ל…  אין גבול לצביעות חכ עודד פורר מישראל ביתנו מחפש אשמים לכך שיש ממשלה רחבה תגובתי לחכ פורר היום במליאה  השתתפתי אתמול בסיור בכלא אופק לבני נוער הלב נחמץ וכואב למראה נערים מאחורי סורג ובריח  נדרשת מחשבה מחודשת בנוגע לכ…  כפי שהודיע ראש הממשלה netanyahu בשבוע שעבר משפחות שאיבדו את פרנסתן יזכו בערכת קורונה כדי להקל ככל האפשר על המצוקה יחד נתגבר מצוקה כלכלית של מאות אלפי אזרחים בישראל אינה חרטה ואינה קשקוש זהו משבר לאומי שכדי לטפל בו עלינו להכיר בו ולעשות כל…  זה לא טבעי לראות ילד באזיקים   ילדים צריך לחנך מדינה שעוצרת ילדים שוללת מהם את התקווה והתמימות שיש לילדים אפעל ב…  ביקרתי בארגון אור שלום ארגון ללא מטרות רווח 40 שנות נסיון 56000 ילדים 1800 בוגרים 8400 משפחות אומנה 350 א…  מחש לא עושה את עבודתו מבקר המדינה אמר את זה  שר המשפטים היוצא אמר את זה  הציבור אומר את זה  אני אומר את זה  ה…  לא ינום ולא ישן שומר ישראל אני מברך את צהל וכוחות הביטחון על תפיסתו הרוצח של עמית בן יגאל היד שידע כל מחבל בין…  מסכמים שבוע נוסף של עשייה שבת שלום  קישור לכתבה המקורית   BranuTegene אפס סובלנות לגזענות  התחקיר של uriyaelk עיתונאי מצויין שעושה את עבודתו חשף התנהלות שאי אפשר לעבור עליה לסדר היום  השר AmirOhana ואנ…  אני שמח להציג בפניכם את ראש המטה שלי  תמיר אלעזר סאל במיל תמיר אני מאחל לך בהצלחה בתפקיד אני בטוח שיחד נביא היש…  סיפורו של תאריך מיוחד ה255  היום אנו מציינים 29 שנים לעליית מבצע שלמה אחד המבצעים המרגשים ביותר שידע מדינת ישר…  אגיע לבית המשפט המחוזי בירושלים לתמוך ולחזק את ראש הממשלה בעת תחילת משפטו את התקופה הקרובה אקדיש ללמידה והעמקה לתחומי האחריות של המשרד לביטחון פנים   השבוע הראשון הוקדש לפגישות וסיורים של…  התחלנו  roiberenshtein קיבלת בשעה טוב ומוצלחת קמה הממשלה ה35 של מדינת ישראל ממשלה שתביא בשורה של תיקון והתגברות זכות גדולה בשבילי להתחיל את ת…  חברי יריב לוין יור הכנסת הנבחר הצלחתך הצלחתנו  כה לחי תודה רבה על האמון באתי לעבוד   netanyahu AmirOhana  הלילה נהרג לוחם גדסר גולני עמית בן יגאל היד  תנחומי למשפחתו של עמית  זריקת אבנים זה רצח על כל המשתמע מכך אני ס…  בתחילת השבוע השתתפתי בהפגנה של מפעילי ועובדי גני הילדים הפרטיים והחוגים שמחתי לראות שבמהלך הלילה התקבלה ההחלטה להח…  החינוך לגיל הרך הוא קריטי לעתידם של התינוקות ומכך לעתיד המדינה עובדי הפעוטונים והגנים עושים עבודה חינוכית חשובה ומ…  יש שופטים בירושלים אין גביה ללא תמורה   חג עצמאות שמח  הדלקתי היום נר זיכרון וירטואלי בכנסת לזכרו של יוסף טבגה כתבתי עליו היה גיבור בחייו ובמותו בזכות אותם הגיבורים…  במסורת ישראל יש את קדושת וייחוד הזמן בערב שבת אנו מקדשים את הרגע ביום טוב וחגים אנו מקיימים טקסים שונים המייחדים…  היום אנחנו מציינים שנתיים לאסון השיטפון בנחל צפית  אותו יום נורא בו איבדנו 9 ממיטב בנותינו ובנינו  יעל סדן  אלה…  חייבים לשפר את מעמד המורים בישראל  התגייסתי למיזם מחשבאחדמשנהעולם של הפורום הציבורי של כפרי הנוער והפנימיות הפערים בחינוך בין מי שיש לו למי שאין…  עם ישראל מתאבל על לכתו של אחד מגדולי הדור הרב אליהו בקשי דורון זכר צדיק לברכה  תנחומי למשפחתו ולמכריו יהי זכרו בר…  מחשבות לקראת הפסח    אלה ימים שאנחנו כעם צריכים לגלות ערבות הדדית ואחריות לאומית לעזור למי שצריך להסביר שוב ושוב למי שטועה עד שיבין כ…  המגיפה הארורה לא פוסחת על איש לא מבדילה בין דת צבע ומין ההסתה נגד חלקים במגזר החרדי לא שונה מההסתה האנטישמית שקור…  אלה ימים שאנחנו כעם צריכים לגלות ערבות הדדית ואחריות לאומית לעזור למי שצריך להסביר שוב ושוב למי שטועה עד שיבין כ…  pninatamanosh פנינה כל הכבוד החלטה נכונה יש לנו הרבה מה לעשות  ביחד בקואליציה בהצלחה וברוכה הבאה ShohatAlon avidareli חבר יקר רק אנשים עם יושרה פנימית כמוך מודים בטעות התנצלותך התקבלה באהבה ובהערכה גדולה כשהאמנתי בצדקת דרכי ובאמת שחיתי נגד הזרם כל חיי לפעמים הזרם משנה כיוון ובא בעקבותיך אל תשליכני לעת זקנה ככלות כוחי אל תעזבני    natihatar חכ יברקן GYevarkan ל mosheglassner ב KolBarama אני מאוד מעריך את בוגי לא יודע מה קרה לו שהגיע למצב של שיתוף פעולה אית… natihatar חכ GYevarkan ל mosheglassner ב KolBarama כחול לבן מפירים את כל המוסכמות ואת כל הכללים  כשמסתכלים על הרוב שיש להם צרי… ברוכים הבאים לישראל כפי שהבטחנו העלייה מאתיופיה תימשך ואני כאן כדי לוודא את זה   קרדיט תמונות מיכאל דימנשטיין…  השיח הרדוד שאתה רוצה להכניס אותי אליו אני לא אכנס מאחל לך שתזכה לראות אותי במליאה עוד הרבה ודבר אחרון בניגוד אלי…  מיקי בדרך כלל השוטרים האלימים תוקפים צעירים אתיופים בשכונות שלהם עכשיו גם בכנסת הבאת את האלימות המשטרתית גם לכ…  גם בשבת שומרים על הנהלים וההוראות  והכי חשוב   שומרים על ההורים שלנו  הבטחנו שהעלייה לארץ ישראל תימשך מכל קצוות תבל ובוודאי מאתיופיה   חבל שבעתות משבר יש אנשים שעושים פוליטיקה על חשבו…  נעבור את זה יחד ככול שכל אחד מאיתנו יקשיב להוראות ולהנחיות כך כל אחד מאיתנו יהיה שותף מעשי במאבק נגד הקורונה  אם…  תקופה ארוכה שאנשי משרד הבריאות עובדים מסביב לשעון למעננו  חשוב לי לחזק את האנשים שפועלים למען בריאות הציבור יום יו…  זו זכות גדולה בשבילי להשבע אמונים לכנסת ישראל בפעם השלישית בחיי בפחות משנה  יש לי הזכות להיות אחד מ 120 המנהיגים…  לאחר עשרות שנים כאשת ציבור פרשה GermanYael1 מהכנסת מכל מלמדי השכלתי ומיעל גרמן על אף ההבדלים האידאולוגיים למדתי…  שלושה מנדטים מהקהילה האתיופית חזרו יחד איתי הביתה עכשיו גם בליכוד מבינים שבלעדינו הם לא יכולים להרכיב ממשלה ולנצח…  rothdanielle הצד שלו GYevarkan מדבר לראשונה על כל מה ששמר בבטן רימו אותי ב Kachollavan19 כשהבנתי שבני גנץ לא לוקח אותי ברצינות עז… שבת שלום  אני מברך את חברי השר אמיר אוחנה על קידום המהלך להקמת ועדת חקירה ממשלתית לבדיקת מח״ש בתקופתי במפלגת כחול לבן ניסית…  הקשר בין ישראל לאתיופיה הוא קשר של 3500 שנים קשר שידע עליות ומורדות  אתיופיה מאז ומתמיד הייתה מדינה מובילה ומתקדמ…  הוזמנתי אתמול לחנוך את המטוס החדש של חברת המטוסים הלאומית של אתיופיה למטוס הם קראו תל אביב על שם העיר העברית הרא…  השיח האלים ברשת הוא בעיקר בגלל פוליטיקאים חסרי אחריות   הציבור החרדי לא גנב מאף אחד דוברי הרוסית הם יהודים פתריוט…  zviashkenazi צבי תגיד מתי ואיפה גדי יש שופטים בירושלים ויש עם בישראל בית המשפט לא צריך לדון בשאלה האם נתניהו יכול להרכיב ממשלה או לא לפני הבחירות מא…  אם העלייה מאתיופיה הייתה כמו כל המדינות בעולם לפי חוק השבות ולא לפי חוק הכניסה בייה ומשפחתו לא היו צריכים לח…  השבוע נפגשנו ללחיצת ידיים לשלב כוחות בבחירות האלה ובעתיד למען החברה הישראלית  נעשה זאת כשכחול לבן תהיה גדולה ותר…  אז מה זה חנוכה בשבילי   מעט מן האור דוחה הרבה מן החושך   כל זקן הוא ספרייה מהלכת ועלינו לוודא שהזקנים שלנו יחיו בכבוד בבריאות ובאריכות ימים את נר ראשון של חנוכה התכבדתי להדליק יחד עם הזקנים שגרים במרכז הגריאטרי מלבן בראשון לציון  חלק מהאנשים ששוהים כאן…  לוחמת הלחי גאולה כהן היא סמל לאהבת המולדת נאבקה למען ארץ ישראל ומדינת ישראל פעלה למען עלייה יהודית וחצבה את שמה…  מדינת חלם   מה יותר קדוש מהקמת בית חדש בישראל מאשר במקום הקדוש ביותר לישראל   ריבונות וציונות עושים במעשים…  omeraricha עוד הצבעה של הליכוד והרשימה המשותפת  במקרה הזה נשיאנו האהוב ראוי לבחירה איש חרות אמיתי omeraricha אם היינו רוצים ממשלה בתמיכת החכים הערבים הייתה ממשלה עכשיו תמשיכו להפיץ שקרים וספינים בתקווה שמישהו…  AvivBenderman netanyahu אני אחראי על מה שאני אומר אתה צודק שמצופה מחכים לנהוג בהגינות וביושר  אני משתדל מאוד לנהוג ביושר ובהגינות AvivBenderman netanyahu מעולם לא תקפתי את רהמ נתניהובטח לא במילים של שוק מעריך את האיש ותרומתו הגדולה לעם אני…  UdiBenDavid לא אמרתי שאני המנהיג הרוחני של הקהילה אלא מנהיג פוליטי נבחר עוד מגיל צעיר מאוד תמיד פעלתי חברתית…  kannnews חכ גדי יברקן בתגובה אמשיך לעמוד כחומה בצורה מול הגזענות והגזענים ישראל יפה יותר כשהיא שוויונית lirankog  כיפת הברזל האמיתית של מדינת ישראל זה החינוך של דורות העתיד שילוב ילדי ישראל מגיל קטן וחינוך שויוני הם הערובה לשגשו…  שמחתי מאוד שמשרד החינוך קיבל את המלצתי לסגור את הגן בקרית גת ולדאוג שגני הפרדה לא יפתחו יותר בישראל בעתיד  זהו צע…  omerpo1 אין לכל האתיופיםקול אחד אבל כשמפלגה אחת לוקחת קבוצה שלמה כמובן מאליו אז הם מצופפים שורות ומתלכדים ולוק…  UKahanovitch איזה כייף תודה רבה תמסור דש דבר אליהם רק בערכים ובאידאולוגיה מה שאין כבר בליכוד של היום   אני גאה לעמוד בראש הקהילה שדרכיה דרכי נועם וכל נתיבותיה שלום זכויות האדם אינן ניתנות על ידי השלטון ולכן אסור לשלטון לקחת את זכויות האדם הבסיסיות אדם נברא בצלם אלוקים ומשום כ…  מביאים את האחים שלנו לישראל    עם ישראל מורכב מ12 שבטים כל אחד שונה מהשני ביחודו ובתפקידו אך כולם שווים  רעיונות מפרשת השבוע    KipaNews בשנים האחרונות תאונות עבודה באתרי הבנייה ברחבי הארץ היו נושא מדובר אשר עשרות עובדים מצאו את מותם בתאונות עבודה אי…  amirivgi GLZRadio עכשיו היא גם אומרת שאין אנשים מהקהילה שיכולים להיות מנכלים איזו רדידות  לקח לה 3 שנים לאתר …  הבושה היא שלנו אזרחי ישראל שהאישה הזו ממש בשעות אלה משמשת כממלאת מקום ראש הממשלה בעת שהותו בחו״ל   חרפת רגב לא תפג…  כל עוד אני בכנסת לא אתן למירי רגב לעשות שכונה מההסטוריה שלנו  עצוב עוד יותר שעל תושבי הדרום אמרה שרה בממשלת ישראל  מחבלת התרבות ומחריבת מורשת ישראל מירי רגב על תושבי אשקלון  …  פרסםפרסמה הרגע סרטון  היום ב2200 בקול ברמה נדבר על התרבות המורשת ועל החזרה לישראל לאחר גלות של 2700 שנים KolBarama  זה מאבק של כולנו  נו אז מי מצטרף  YuliEdelstein pninatamanosh כל הכבוד אדוני היושב ראש שבתקופת מתחילה מסורת של ציון יום סגד כאחד מחגי ישראל בכנסת…  היום ציינו את הסגד יחד עם עובדי knessetisrael  תודה ליור YuliEdelstein על ארגון היום הזה  אני מאחל לכולנו שנלמד…  דווקא בשעתו הקשה של רהמ נתניהו לצד המעשים שהוא מואשם בהם חשוב שנזכור האיש עשה דברים גדולים עבור עם ישראל במשך הק…  KolBarama חכ GYevarkan כחול לבן לronencatz באחת בצהריים עמדת תלם הייתה ידועה שלא להקים ממשלת מיעוט כחול לבן עשתה את המאמץ… talschneider netanyahu gantzbe זה חייב להיות קמפיין ציבורי לדרוש מומ קואליציוני בשידור חי ראש הממשלה דרש שהשימוע שלו יתנהל בשידור חי אני מציע שאת המומ הקואליציוני בין netanyahu ל gantzbe ינהלו בשידור ח…  gantzbe ב 28 הימים האחרונים הפכתי כל אבן בניסיון להקים ממשלה המביאה למדינת ישראל מנהיגות אחרת לצערי זה לא הספיק מול האבנים שהפכתי ה… אין בידי את כל הראיות בכדי לפסוק אך התנהלות מחש והפרקליטות המתנהגים כסנגורים של השוטר במקום להיות החוקרים שלו ממש…  שי ניצן נמצא תחת מתקפה ואיומים חסרי תקדים מאז השימוע לרהמ אפילו לאחר איום ישיר באולפן טלוויזיה לא הוצמדה אבטחה ל…  אל תשתפו פעולה  המצב בו חיים אלפי תושבים ללא מיגון בשכונות הוותיקות הוא אבסורד ויש לתקן זאת מיד בחצי השנה האחרונה אני פועל בכדי לפ…  ערב טוב מחר אגיע לחמל העירוני באשקלון בשעה 845 כדי לקבל תמונת מצב על המתרחש בעיר  לאחר מכן אקיים סיור בשכונות ה…  תודה idfonline וכוחות הביטחון אשר פועלים לילות כימים למען שלום תושבי מדינת ישראל  אני קורא לכולם להישמע להוראות…  הגיע הזמן ליישם את החלטות הממשלה  eli1988 אתקן אותך  אני יזמתי את וועדת החקירה ואף דיברתי על זה במליאה השר תמך בעמדתי אך לא קידם אותה כלל בעקבות חשיפת uriyaelk kann kannnews uriyaelk צעד חשוב של הרבנות בעקבות חשיפת uriyaelk kann אך זה לא מספיק  במדינה יהודית מתוקנת לא היה צ…  צעד חשוב אך לא מספיק במדינה יהודית מתוקנת לא צריך את ההחלטה הזו יהודים הם יהודים בלי קשר לצבע עורם   uriyaelk  עוד משפחה הרוסה אנחנו חייבים לפעול עכשיו 22 דבר נוסף חמור לא פחות הוא מנסה לתרץ את אי העשייה של הממשלה במאמצים להשיב את  השבויים ובכך גם מכין את הקרקע לכי…  12 מתאם השבויים והנעדרים מוציא קודם כל את דיבת צהל וכוחות הבטחון שפרוסים על הגדר מדבריו ניתן להבין שאברה עבר את…  אני מצפה מראש הממשלה שלנו שיעשה כך גם הפעם עם הממתינים לעליה באתיופיה שהמשפחות שלהם כבר עלו לישראל וממשלת ישראל מכ…  מדינת ישראל היא בית אמיתי ולא רק רעיוני לכל יהודי בעולם ראשי ממשלה לדורותיהם פתחו את שערי ישראל לעלייה ויצאו בקר…  מרחבי העולם מחובתנו לדאוג שמדינת ישראל תהיה בית פתוח ומכיל לכל עם ישראל באשר הוא כמו כן מחובתנו לדאוג לשלומן של קהילות ישראל ברחבי העולם כי לקח טוב נתתי לכם תורתי אל תעזובו עץ חיים היא למחזיקים בה ותומכיה מאושר דרכיה דרכי נועם וכל נתיבותיה שלום…  davidbenguryon תודה רבה דודי שבת שלום zviashkenazi תודה צבי גדי סוף הוא תמיד התחלה של משהו חדש בין תפקידי ההתנדבות הרבים שהוא עשה עמד גם בין היתר בראש הוועדה הציבורית להמשך העלייה מאתיופיה ותרם תרומה עצומה בנו…  נשיא בית המשפט העליון בדימוס השופט מאיר שמגר זל פעל ועשה רבות למען החברה הישראלית כולה   מדור הנפילים של המדינה ה…  ממשלת ישראל חייבת להתערב כמירב יכולתה על מנת לסייע לעם הכורדי בשעתם הקשה אין  מקום לשיקולים דיפלומטים מדובר כאן בחובה מוסרית אנושית שיר למעלות אשא עיני אל ההרים מאין יבוא עזרי תפילה מתוך ספר תהילים שזעק עם ישראל ושינן אותה מדור לדור כיום הע…  האם כדי להתערות אני צריך לבטל את עצמי אנחנו ברחנו מהמסורת כדי להתערות והתנגשנו בקיר נסענו 180 קמש ויש שם קיר שא…  בין הדברים שעשה בזמן קצר כראש ממשלה  1 שלום בין אתיופיה לארתיראה   2 שלום בין הפלגים בסודן שהיו על סף מלחמת אזר…  אני מברך את ידידי ראש ממשלת אתיופיה דר אבי אחמד דר אבי אחמד מנהיג צעיר וכרזימטי בין המנהיגים הכי משפיעים בעולם…  היום השתתפתי בדיון חירום בעקבות הרצח של מיכל סלה זל ביוזמת ויצו ישראל בנושא אלימות נגד נשים…  אני רוצה לשתף אתכם בזכרון ילדות שלי מיום כיפור אסטריי בסמיין שבאתיופיה    ההגיון ניצח  מרגע שנודע לי על ביטול ההסעות לחג הסגד אני ולשכתי עבדנו סביב השעון והחזרנו את ההסעות לחג הסגד מרחבי…  אין מקום במדינה דמוקרטית לפנקסנות בסגנון מפאי  מנכל משרד התרבות הבטיח לי כי יחזיר את ההסעות כבקשתי וגם הוא רואה את חשיבות חג הסגד לקהילה ולחברה כולה וכי ההחלטה…  היום בצהריים נודע לי כי משרד התרבות ביטל את ההסעות לחג הסגד כמובן שנדהמתי מההחלטה חסרת הרגישות הזו והלא תרבותית ל…  היום ישראל מרכינה את ראשה שוב  עוד אישה נקטפה באכזריות מהעולם הזה מיכל סלה נרצחה על ידי בן זוגה  זו לא מלחמה רק…  מתחייב אני  למי קראת לוזר  amitsegal למי קראת לוזר  GabiashkenaziMK במהלך כנס שלנו באשקלון הופעלה אזעקת צבע אדום בעיר התושבים איתנו כרגע ממשיכים כרגיל היום אנחנו מציינים 5 שנים לנפילתו בשבי של אברה מנגיסטו  אני רוצה להאמין שממשלת ישראל עושה הכל בשביל להחזיר אותו ג…  הצלחנו  Galgush  באתי לביקור פתע בגן ההפרדה בק גת נחשו מההזמינו לחבר כנסת משטרה הפרדה בגנים על פי צבע העור לאן עוד ממשלת ישראל רוצה להוביל את המדינה ועד כמה אפשר לדרוך על קהילת יוצאי אתיופיה מע… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zviashkenazi תחושת בטןהקלידים למעלה הם בשביל הפוזההוא לא נגע בהם כל השירצבי batiag אין לכם שמץ של מושג כמה אנשים עם מחלות רקע נמנעים מטיפולים ובדיקות שגרתיות כי הם מפחדים לצאת ולהידבק מפחדים מאנשי ה״קשה לי לנש… Shual1993 NoaLiberator חחחחחחחחחחחחחח יוטיוב קרא את הציוץ שלי אז עכשיו הוא מראה לי ילדים שלאבא שלהם יש סרטן isrlen shaulig אדרבא כולנו עומדים למות  חמודה מתוקה לא צוחקים על החרדים צוחקים ספציפית עלייך  avivyashar 500 מתים בתוך שבועיים אבל ערוצי החדשות ימשיכו להזמין את הפרופסור המטורלל שכל מכחישי הקורונה מאמינים לו כאילו הוא אלוהים… שולי מאוד קרטזיאני NoamPrinz מה הזמנת StasWild NetaTropp משווה ומעלה עם דלעת בטח אחד שמסיע תיירים רק לעישונים וזונות איך הם נפלו על נהג מונית שלא יודע איפה זה איזור המוזיאונים לפחות תכף משדרים הופעה של שולי רנד חח הם קראו לרמברנדט קפטן לא הבנתי כל הפרק יהיה אנשים מסתכלים בכפכפים 10elilevi כיפור בחיפה  חזירי בר לצד ילדים והורים על אופניים   YardenRozanski ימותו מלא אנשים מקורונה וממחלות אחרות שהיו יכולים לטפל בהן כמו שצריך בזמן נורמלי התרבות במשבר איו…  הערכה החיים של כולנו נהרסו YardenRozanski ZoharOrbach 🥵🥵🥵🥵🥵🥵 עליתי על שיטה  כל פעם שאיעדר מהעבודה  להודיע למישהו אחר ZoharOrbach תמונה בבקשה VladimirBeliak אם נקבל בעוד 10 ימים 10000 נדבקים ביום עם 35 בדיקות חיוביות במגזר החרדי ועלייה בהתאם במספר המתים  תדעו כי זו תוצאה… dorkahn הרבה פיליפיניות בטינדר פתאום מעניין מה קרה יופי שלחתי הודעת איום אז תלמידים התחילו להגיש את השיעורי בית אני מתחנן  איך מפסיקים את הפרסומות לילדים חולים ביוטיוב NoamPrinz avivyashar אפילו התנועה זורמת arielapi הם בדרך לסאונה HanochLevin יום אחד לפני שנים אמרתי לעצמי לא ממך תבוא ישועה לעולם מאז אני שקט   כל הנערים MT80010 צמות jamesbb25 הולך לשלוח מחר לוטו עם דינה וקובי אריאלי PkmnShitpost Surrounded by fake people like  BulbaGanda Remember when Bulbasaur sniffed some weed and got high af  tomerappelbaum כיכר דיזינגוף הפכה בחלקה לבית כנסת צולם רגע לפני כל נדרי   AShmulewitz חברים השמיים נפתחו הזדמנות מצויינת לשאול את אלוהים מה נסגר Dorian73417684 מוכן 45 ימים כשיוצאים מזה אני מהגר לצרפת odaskal תשמרו על עצמכם ועל משפחתכם המדינה לא תעשה זאת אני מחכה להתנצלות של יפעת שאשא ביטון אוי שתקו שיר מצוין מהתקופה שבה מצב האומה היו טובים וגורי אלפי היה מצחיק   batiag באמת משחררים לבתים את החרדים שלומדים בישיבות לא ברור שבבתים שלהם צפוף ותהיה הדבקה יותר גדולה איזה מצב עצוב יא אללה oferchizik Dorian73417684 אני רק נראה כזה Dorian73417684 הזמנתי מה שאני מכיר והיה פתוח  איסאן שיפודי סאטה ופאד תאי idankad בציוצך הושמטה המילה לא שהייתה צריכה לבוא לפני המילה מעניין להזמין עכשיו מוולט שיהיה לי ליום כיפור או שזה ממש נהנתני gilgu כל אלה שקוראים עכשיו לבני גנץ להתנצל בפניהם כי הם הצביעו לו שלוש פעמים והוא גנב את קולם מה עם התנצלות שלכם בפני כל מי שאמר לכם… batiag כמי שהייתה בלא מעט אשפוזים המחשבה על חולים שמאושפזים לבד בלי אף אדם שיכול לבקר אותם היא נוראית מרסקת את הלב עוד לפני חישוב… YarinRaban אלוהיי שמור אותי מקיטש היהודי של שי פירון וסיון רהב מאיר מהפונדמנטליסטים אשמר כבר בעצמי ronniehirsch89 אמא שלי משתמשת בanydesk בעבודה שלה יופי בן דוד שלי הגיבור המוצלח של המשפחה מפר בידוד בהצלחה לכולנו odedkramer הנביא עומד בשער  anatgalbi אין שם גופיות 100 כותנה  איפה קונים באינטרנט גופיות פיגמתיות לנשים 100 כותנה mryoavs ימין שמאל חילונים חרדים ערבים כמה כואב לכם לשים את המסיכה גם על האף IdoRIshoni מה זה NoamPrinz התחיל מצוין ונהיה טרחני ובלתי נסבל NoamPrinz עטיפה יפה idankad אבל מאיפה מתחילים TresTriste אבל מה מפחיד בו TresTriste לא יודע מה זה אומר freyisrael1 אני חרדה לשלום הציבור היקר הזה שלצערי לא הפנים את גודל הסכנה תאמינו לי בחודשים האחרונים הנשמתי יותר מדי חולים שאמרו ברע… TresTriste נכתב עלינו hanggili arielapi theyosisoy אלי אבידר arnavonet אתם יודעים מי היה מתמוגג מכל מה שקורה עכשיו חבר שלנו מנוחתו עדן חנוך לוין CSMFHT Relationships should be 5050 Shes 50 percent your wife and 50 your mother  אופס נזכרתי שיש לי שני רפרטים שהדחקתי להכין GurMegiddo אגב גם אני נעלב כשקוראים לבן חיים עיתונאי יצא גועל נפש לכבוד הפיכתנו לאיטליה הכנתי פסטה תרקוד איתי סלסה בצאטה 🥵🥵🥵 amirdror AviadGold שלום מדברים מביטוח הראל אנחנו רק רוצים לעשות לך טובה ולבדוק לך את הביטוחים שיש לך ובכלל לא ר…  אוי זה ממש עצוב  OferKost כן הו הנה המכוערים האלה חזרו איך אני אוהב טווינקים חרדים מה שכן שמלא התבגר יפה זובי לא שומע יותר את ההסכת פח שלכם עם הקול המעצבן שלך והקשקושים הפסיכולוגיסטים של מי שמגישה איתך למה לענות באירוניה לאנשים ששואלים בכנות זה הדבר השנוא עליי אני מקווה שלקראת העונה החדשה של הנינגה סוף סוף נפטרו מרסקין ZoharOrbach אבל המוזיקה שלו הרבה יותר מעצבנת באיחור לא אופנתי ראיתי לראשונה העלמות מרושפור זה לגמרי לא הזאנר שלי אבל מאוד מוצלח הפתעה נהדרת  גין קלי בתפקיד האמריקאי שבא לצרפת GuyGold3 דעה לא פופולרית מעולם הכביסות הפרדת צבעים זה בולשיט אני מכבס לבד כבר חמש שנים מעולם לא הפרדתי כלום ומעולם שום פריט לא נצבע… elinoralter דיעםהפרסומותשלילדים גוססיםמסרטן דייייייייייייייייייייייייייייי כושלאמאמאמאמא שלכם amirdror איזה כיף שקשת 12 מחזירה את הפורנו הרך שלי לכבוד הסגר avivyashar פשוט אומה מטומטמת מכל הכיוונים idanbrunner תאריך אם יש לך תחושת אשמה פשוט ת9רסם עוד תמונות כאלו ניטשה ישראל עם אסי ורותם אז הוא זה שאחראי לכל הפרסומות הכי מעצבנות שהיו כאן  segaleran מדאיג בשבוע האחרון קצב הגידול הגבוה ביותר היה בקרב הגילים המבוגרים  בכלל איזה מין שם משפחה זה זרד לאאאא   עכשיו הוא מנשק את הגב שלו בסטורי אני לא יכול יותר 🤬🤬🤬🤬🤬🤬🤬🤬🤬🤬🤬🤬🤬🤬🤬🤬🤬🤬 SunnyHooperX אני הבנתי TheYellowPT כמעט כל המטופלים עם מסיכות מחטאים ידיים וציוד בין מטופלים לא שותים קפה ביחד במטבחון וגם בהפסקת צהריים אנחנו אוכלים בקפס… TheYellowPT בפעם ה185474 מסיכה מרחק והיגיינה מונעים קורונה פיזיותרפיסט שעובד איתי חלה בקורונה דרך הבן שלו ביומיים לפני שנבדק וכש… Nirpetel מתגעגע לימים יפים יותר שהדבר הכי נורא היה שאסי עזר מבטא מאקו כמו טמבל מאקווואוווו anirozaleison אז אל תשתה SefyHendler אופוזיציה בעד דיכוי הפגנות בלי קשר למצב התחלואה או נתונים שיהיה לנו בהצלחה עם נפתלי אני אייפון 12 בנט avishaysela זה ממש הפתיע אותי בכמה שזה טוב ashavit23 למהירי החלטה ברמת אביב  MeirRubin זה לא משנה אם הממשלה נכשלה או לא ומה עושים אחרים  אל תכנסו למקומות סגורים כרגע עם מישהו שאיננו ממשק הבית שלכם אלא אם זה ה… anirozaleison מה הבעיה erancherpak 8178 מאומתים חדשים אתמול  708 חולים שמצבם מוגדר קשה 178 מונשמים 1412 נפטרים במצטבר מפרוץ המגפה AradFirer רוצה להיות נוכח ברגע שמישהו מספר לנירו לוי שדוקטור סוס הוא לא באמת דוקטור וגם לא סוס התמכרתי למיץ אננס גזר תפוח בבקבוקון בשולי החדשות  איזו דיקציה מושלמת יש לגולייט גרקו    אני ממליץ לכם לא להעריץ אף פוליטיקאי אמריקאי כולם מטומטמים אומה רקובה batiag נציג הדמוקרטיה יושב במפלגה דיקטטורית שבה אין בחירות ואין יכולת להיבחר וזה בלי לדבר על השחיתות לכאורה של הבוס שדיבר גם נגד חרדים… Jeronimo ריקלין דרוקר כתב נאום לגנץ  י KalmanLiebskind   צרצרים  ריקלין היועמש תידרך את קלמן קלמן טור של 3 עמודים על לאן… בעצם נראה לי שגם קאמי דיבר בלא מעט על המקומות על הדבר כעל מלחמה שמישהו יאהב אותי כמו שהישראלים אוהבים לדבר על הקורונה כעל מלחמה Bicherit לגבי ליבסיקנד לא הבנתי מה עפים על אדם ששיתף פעולה עם מנגנון התפרנס והיה חלק ממנו שנים ואז מגיע להתגולל על מקומות העבודה והק… israzohar מצטער לא התרגשתי כמוכם מהטור של ליבסקינד הבנאדם התעורר רק אחרי שתקפו אותו חוכמה קטנה מאוד טור מופתי של לוינסון על רות ביידר גינסבורג שהוא בעצם טור מופתי על ארצות הברית AviadGold 🥵🥵🥵🥵🥵🥵🥵 erancherpak 1378 מתים הבוקר בשישי לפני שבוע היו 1169 209 בשבוע ממוצע של 30 ביום AradFirer אין שום דבר אמיץ בלקרוא לבריון בשמו אחרי שהוא כבר התפוצץ עליך אין מה לתת פרס למי שבחר להעלים עין כל עוד הייתה לו האפשרות… oferron התגובה היחידה הראויה לליבסקינד  amitlev הוא בטח כבר ימצא איזושהי דרך לסובב את זה נגדנו   avivyashar אומה מטומטמת מכל הכיוונים avivyashar וואו איזה פאתטים האמריקאים AssafChriqui רחלי רוטנר גאון אירוויזיון  ReutBitton חלאס לא מסוגלת לראות עוד גרף אחד PkmnShitpost Everyone needs a friendship like Bulbasaur and Squirtle one  hadarinke 59 נפטרים ביממה האחרונה האם אני היחידה שמשקשקת מפחד arnavonet סגר חריף חדש זה כמו פאד תאי חריף חדש בגירף גאון  zviashkenazi  shaulig מת על הכתבות של ישראלים שבורחים עכשיו לחו״ל פשוט כי אני יודע שבעוד שבועיים שלוש יהיו פה כתבות על הישראלים שתקועים בחו״ל ולא י… חחחח פרסומת מצוינת  EilonTohar אין על עם ישראל  אנחנו מסתמכים על טוב ליבם של אזרחים בודדים במקום לקרוא לפריסת רשת ביטחון ראויה לנפגעי המשבר איזה ניסיו… Shakedk88 טיפים שלי לתואר שני חפשו את המלגות שרק השנה הושקו כנראה שאתם ביו הבודדים שטרחו ותקבלו אותה כברירת מחדל אם אתם עומדים בתנאי… AShmulewitz אני לא יודעת מה קורה אצלכם אבל פה אצלי זה יום הנורית גלרון דוכני המיצים פועלים adimessika הקטע הזה שאנשי החדשות שמים מסכה בהתחלה ואז מורידים זה כמו לשים קונדום ואז להוריד אותו rememberamalek כל הכבוד על היוזמה של אנשי חדשות לעטות מסכה עד שהם מדברים ואז להוריד אותה ולהפיץ קורונה מבריק שאפו הימור שלי הדוב זה לחיאני JananBsoul1 inbartvizer יצהר זה לא יישוב בשומרון זו התנחלות בשטחים הכבושים כמוכן מי שמתרועע עם צרעות של מתנחבלים שלא יתפלא כשהם מתגז… וואו  OferShelah אלה אחוזי העלייה במספר החולים משלשום לאתמול ביתר עילית 170 מודיעין עילית 141 אלעד108 ים99 בני ברק 68 בית שמש59… yakov57v כל אדם מהמרכז שמאל שלא למד כלום מהבגידה של אורלי לוי ויצביע לשאשא ביטון מגיע לו לגמרי עוד עשור של נתניהו השאלה היא למה לא ל… HadasRibak כל המתמודדים בזמר במסיכה הם חיים צינוביץ NeumanRoee זמן טוב להזכיר אחת הסיבות המרכזיות להדבקות היא שמיקי זוהר דאג לפתוח את אולמות האירועים כדי שקרוב משפחה שלו יעשה קופה DrorMevorach לשאלה של aradnir הנה הנתונים מאושפזים אצלי ברגע זה 30 איש ממוצע הגיל הוא 57 עם טווח 1894 50 מתחת לגיל 60 20 מתחת… אחלה תם אהרון כל אבל כל מילה של המונולוג   NoamPrinz alonamirltd אני מבקש לא לפרסם כאן מי אלה בלי ספויילרים matankaufman פושעי אומן לדין NoamPrinz רגע אנחנו לא נדע מי 6 האחרים ששרו עם המסכה למה מדברים עכשיו על כביסה לקח לי בדיוק 15 שניות לא הבנתי מה הקטע  EilonTohar מודה שנהניתי מכל שנייה ופאנל השופטים בניכוי בן אל מאוד אינטליגנטי וכיפי AradFirer מה איך הדב לא הפסיד הוא לגיט זמר גרוע זייף אפילו בפלייבק zionnenko אין מנוס מלומר שעפר שלח כנראה צודק עמודת המנדטים העולה של בנט היא כישלון גדול של יאיר לפיד הממשלה כושלת  שוב ושוב בטיפול ב… MmandraA הטמטום ידו בכל ויד כל בו shemeshmicha מימין לפיד הערב  משמאל לפיד לפני שלושה שבועות למילים אין משמעות  AradFirer זו פרפרזה Rutshapira נולדתי להיות אמא אין דבר שאני רוצה יותר מילד ואני יודעת שברגע שיש כבר ילדים הם באמת פלא אבל אני לא מתכוונת לאלו שכבר הגיע… Rutshapira אני אגיד משהו לא יפה אבל זה לא מרוע  בסבב הראשון של הקורונה הרמתי גבה וקצץ כעסתי על אלו שממשיכות להתעסק בענייני פוריות ורק… סטטיק being סוקרטס  דוב עצה חינם ממני וותר על מוזיקה הלוואי שיהיה הזמר במסיכה של המורים בבית ספר אבל איזה ביצוע אלוהים חחחחחח מי בוחר תחפושת של מלפפון חמוץ וואו יש בקהל מישהו ממש חמוד התגעגעתי לצדי  איזו נפילה ברמה עם השור סטטיק  הייתי בז לעתמי כל כך אם הייתם אומרים לי שאני אתרגש ממישהו בתחפושת דרקון שר creep אוקיי התכנית הזאת ממש מוצאת חן בעיני בכללי הפאנל נהדר למה רק דוחפים את בן אל  איזה חמודים סטטיק וצדי ביחד Leemalach נו ונגיד וזה רבין מאחורי המסיכה מה הם רוצים שאני אעשה עם זה בואו רק נגיד שהזמר במסיכה נשמע לי כמו פורמט שמתאים יותר לרשת בבר חוזר   NoamPrinz אם זה יפעת שאשאביטון נגד גבי ברבש אני הולך 1000 פעמים עם ברבש אשה עלובה avivyashar שמאלנים כןן שאשא ביטון מלכת העולםםםםםם  בחירות 2021 שאשא ביטון מקבלת 5 מנדטים ונותנת אותם לביבי במתנה  שמאלנים פרצוף פי… ReutBitton 8 מנדטים על מה על זה שהיא תמכה בבעלי העסקים וסירבה לסגור מכוני כושר לא נכנסת להאם זה היה נכון או לא מדובר בפופוליסטית… ReutBitton נכון הכל מטומטם  ReutBitton חילי טרופר  הבנאדם שתרם כליה וזקוק באופן נואש לאונה שיט ראיתי את רשימת הסטודנטים שרשומים לתרגול שלי ויש שם מישהו עם אותו שם של מישהו שהיה איתי בכיתה בחטיבה ואולי זה הוא ReutBitton הכישלון הגדול ביותר של מערכת החינוך זה לא שרי חינוך כושלים ומטומטמים אלא לימודי האזרחות arielapi זה באמת לא נעים   kereneubach עידכון נתונים 1309 נפטרים מאז פרוץ המגיפה אתמול בשעה הזו היו 1273 נפטרים 36 ביממה AShmulewitz ציירתי פינגווינים בבריכת גומי בשכונה בוערת והפינגווינים זוט עני  yaircherki הרב דוד יוסף חבר מועצת חכמי התורה של ש״ס ובנו של הרב עובדיה יוסף לסגור באופן מיידי את בתי הכנסת גם ביום הכיפורים התפילה… kereneubach כתמיד זה הוויכוח שמפלג אותנו תפילות מול הפגנות זה תמיד חייב להיות זה מול זה אם לי אסור אז גם לך אסור כי כל מה שאתה עוש… היו צריכים להקשיב לי ולעשות סגר בכל יוליאוגוסט ככה שהיינו יכולים לחיות נורמלי RoeiGalnor אני רק רוצה לדעת איך להפסיק את הזוועה הזאת אני שואל ברצינות  ווואו  batiag אם מישהו מחפש מכחישי קורונה   אוי אני כל כך מתמוגג לראות את שנוא נפשי עמוס רולידר עם הפאה המגוחכת הזאת julienbahloul Une prise de position courageuse  le Grand Rabbin dIsrael David Lau soutient la proposition de fermeture des synagogu… michalbgigi והיום בפינתנו חדשות מרגיעות  התלמידים אומרים שיותר כיף בחיים האמיתיים מבזום צודקים batiag ועוד הם קוראים לנו זומבים OferKost הוא לא מבדיל בין רישא לסיפא באימפליקציה דבי אבוש ממש צריך שיעורים בלוגיקה אני מבין אולי אני אתחיל לשאול בשיעורים שלי שאלות עבור כוכבית matanamirr צודק </t>
+  </si>
+  <si>
+    <t>elishabenkimon המספרים מאחורי טרור האבנים רק באחוז וחצי מהמקרים נעצרים חשודים   לדוגמא מתוך למעלה מ1400 מקרים של ידויי אבנים בשנת 2… וחתום לחיים טובים כל בני בריתך Idaneretz הוא לא כנעני אבל שלח לינק מצטרף לקרעאה הנרגשת של פרופ גמזו לשמירת מרחק ורק מזכיר שבתמונה נראים אנשים שלא מקפידים על המרחק הזה אז אל תעשו כמו…  LianiYosi הנשמה לך והגוף פועלך YaakovLebi itzikelrov יש רק שאלה אחת מה אלהים מבקש ממך WeissInbar כזה צעיר עוד לא יודע שכל הדברים האלה זה אותו דבר עם תויות שונות צעיר וגם תמצית וניל אין כזה דבר תתעו…  ADGQ When I get asked about Israel these days   MLayosh אבינו מלכנו זכור רחמיך וכבוש כעסך וכלה דבר וחרב ורעב ושבי ומשחית ועון ומגיפה ופגע רע וכל מחלה וכל תקלה וכל קטטה ו… BoazCohen בזמנו הקדשתי לשאלה הבאמת מטרידה הזאת סרטון בכאן מוזמן לחפש אותו ביוטיוב שלהם אם חשוב לי לבקש סליחה ממישהו אבקש ואם חשוב לי לסלוח למישהו אסלח ואם חשוב לי לפרסם את דעתי המיוחדת מאין כמוה על משהו…  חשבתי מה כל כך בלתי נסבל בעיני בזאנר ציוצי ומאמרי הסליחה ערב יוכ שהם בעצם סתם עוד ציוץטור שחוזרים על המסר היחיד…  Galgush דווקא נתנו פה כמה הסברים מאוד מענינים מוזמנת לקרוא מי שעובד את אלהים ולא את הסנטימנט של עצמו ינסה לעשות מה שאלהים אומר לו ולא מה שהסנטימנט אומר  DiscussingEcon1 amitbentzur כשאתה בוחר לשקר במודע לעוקבים שלך אתה מזלזל באינטליגנציה שלהם ככה לא תצליח לנצח במאבק שלך לשכנע את הציבו… Idaneretz תקציב הבריאות עולה בכל מדד שאפשר לבדוק   לאן אתה אדוני  אני עובד חיוני  תראה תעודה מה אתה עושה  סוחר סמים  ishaycoen בימים הקרובים נצטרך אנחנו החרדים לקבל החלטה האם להבין שאנחנו בבעיה קשה זינוק מטורף במספר המאומתים החולים המאושפזים וכו… drorfo JoeAyurved הטרגדיה של הרפורמה תוך שניה וחצי הופכת לאורתודוקסיה חדשה LianiYosi דווקא הבנתי YotYotam צריך לדבר איתם בשפה שלהם אם אתם באמת מאמינים שאלהים מנהל את העולם אז גם המגפה היא אלהים שמדבר אליכם הוא יקשיב לכם אם תקשיבו לו סבבה Idaneretz The ego wants to want it doesnt want to have חבל שזו הפריזמה היחידה דרכה ישראל הראשונה מסוגלת לראות את הדברים האלה היוצאים מן הלב אולי צריך לומר תודה שהיא לפחו…  IshayShnerb זה יום נעים תפסיקו ליילל מי ביקש זאת מידכם רמוס חצרי avitalrachel Coming out of Shabbos to these news  12med865 בידוד צוותים רפואיים בגל הראשון עמדת ליד חולה מאומת עם מסכת אף ואתה עם מסכה מטר וחצי ממנו ל5 שניות עפ צילום ממצלמות אבטחה… YaelB2020 זאת בדיוק השאלה ששאלתי menachem04 וואו הפרופ החבדניק סורקין מנהל טיפול נמרץ במעייני חושף בוידאו שהופץ הלילה לחסידי חבד נתון מחריד שמשנה את הכל 40 אחו… אמן  DaphnaLiel הוא צודק הדרך הנכונה לסגור את בתי הכנסת היא לפנות לרצון הטוב לאחריות ההדדית ולשכל הישר של המתפללים מ…  bezalelsm שְׁנֵים עָשָׂר עֲבָדֶיךָ אַחִים אֲנַחְנוּ בְּנֵי אִישׁ אֶחָד  שבטים שונים דעות שונות אמונות שונות העדפות פוליטיות שונות… LLCoolShin לקח לי 3 דקות לזהות ולחתוך אתה לא אוכל מספיק תעמולה ביומיום YairJacobi חברים אני מציע לחכות עם כל הויכוח העצוב והמיותר הזה לאחרי יום כיפור מתי שריבונו של עולם חוזר לכוכב שלו איפה שאין קליטה AvishayBenHaim ערב יום הכיפורים הכותל ריק   מידי שנה בערב הזה שהוא ערב השיא של ישראל המסורתית עשרות אלפי מתפללים הערב ניתן אישור ל2… YotYotam ועכשיו אחרי שכתבתי ורבתי והתווכחתי על הסיפור הזה יותר מדי רוצה להגיד לאנשים שאני ממש אוהב כמו ריקלין קלמן ארז כנרת וכולם… drorfo עושה גם ברמצוות doritg1 AvrahamEpstein בואי נחזור על זה לאט הטיעון שלך היה שאין מגפה וההוכחה היתה שאת לא מכירה אף חולה קורונה…  eliaHaBEN לפיד היה לא רחוק מזה חכים מעודדים את ההפגנות בבלפור doritg1 AvrahamEpstein אני מכיר מישהו שקיבל קורונה וסבל ועדין סובל סבל רב אז אולי העולם טיפה יותר גדול מד אמותיך מקליל פה מכירים את החולה קורונה הזה אסי אסי מטומפטי 🥁 AkivaLamm צודק זאביק  rotemboim אני מסתמך על מה שאני רואה ברשתות ובניוז אני לא מדבר על ביקורת על הממשלה שזה יש בשפע מכל מקום אלא על הצב…  fastish אני גם רואה הרבה דתלים במתנגדים אבל זה לא מתגבש לכח פוליטי כמו שאתה רואה אצל הבלפוריסטים tzaphira ממש לא eliaHaBEN לא רחוק מזה matabbbbbbb מענין איך אתם מסבירים את זה שהמכחישי קורונה ומתנגדי מסכות מגיעים בחול בעיקר מימין ואצלנו בעיקר משמאל popepants ניו אנרכיזם guylerer ivgiz סליחה הם מרביצים כמו בנות itay0s זה באמת מענין מאוד אולי בגלל התמיכה בבלפוריסטים לא צוחק OriKatz3 לא שרדתי את הפרק השני YotYotam היה יכול להיות יאיר צור וגיא גולן אף אחד לא היה מבחין YotYotam זה שמות שרק מחולל יכול להמציא כאילו עשו ממוצע מתסריטים ישראליים כושלים באייטיז שם של קצין נחהב אך לא מא…  YotYotam היא כבר לא תעזוב אחי השלימה עם זה YotYotam אתה התחתנת טוב זה לא מעט NBecher ואת מי הוא הכניס popepants  YotYotam בול מהאיש שהביא את הסקופ ההסטורי שלבנט יש בבית בריכה Pitzynivly RoyIddan שמתי 60 מיליארד שקל yopletweets RoyIddan הבט יש מעט מאוד חכים שמקדמים במובהק ובמוצהר רעיונות של שוק חופשי כולם ללא יוצא מן הכלל ב…  YotYotam chaimlevinson או עיתונאי מוצלח yopletweets RoyIddan יש לנו מה שנקרא מחלוקת במציאות אא גם להצהיר על תמיכה בשוק חופשי וגם על תמיכה בהסתדרות במ…  AssafVoll kannnews YoavZehavi אז תסעו להפגין בארגנטינה yerushlavivi במה כן AvnerHofstein למה מתי אתם הגנתם עליו MeoriOransky RoyIddan אני סבור שפקיד שלא מרוצה מהבוס הנבחר שלו צריך לעשות מה שמרידור עשה ויפה עשה תפקידו של הפק…  חולה על הגויבה הזה ⁦⁩⁦⁩  thought11G RoyIddan לא צריך לבטל אותה MeoriOransky RoyIddan לא הבנת את המשילות אחי yopletweets RoyIddan תמצא לי עשרה כאלה בשמאל avribloch פיקוד מרכז הודיע למשפחתו של הרב אחיעד אטינגר כי הריסת הבית החדש של משפחת המחבל שרצח אותו אינה עומדת בקריטריונים של בגץ לא יודע אם מתנהל איזה מומ לחלץ אותי  RoyIddan אפשר להפסיק את הרקטות מעזה חיפשתי בכל האתר ולא מצאתי איפה NWeinryb LiberalRiWo נשמע שזה לא אותו דבר עבר קצת מתחת לרדאר לא היה פה הרבה יותר רעש על צעקות מנהגים חולפים  NoaLiberator Hubertdor 🤓 gershuni אספתי מדגם מתגובות שאנשים כתבו לי בפייסבוק על עדכוני הקורונה לפני חודשיים יש עוד המון כאלה  היום אחרי שדבריהם הופרכו כליל… ISRLTC ודאי אורוול תיאר אותו במדויק DaphniNLeef עדין ניתן להבחין בין מקומות בהם זה קורה לפעמים לבין מקומות בהם זה הנוהל aasenseofreason לא DaphniNLeef הנה מה hesher RoyIddan זה קודם כל ענין של החלטה נחושה אחר כך עמידה נחושה על ההחלטה הזאת בפועל זה אומר אכיפת חוק שוויו…  RoyIddan כדי שזה יקרה צריך שתישאר קבוצה מספיק ממוקדת ושפויה של אנשים שתחזור כמו תוכי על עיקרי השינוי הנדרשים משי…  MLayosh 4 שנים אני מבקש ממנה בואי נעשה קמפיין בואי נעשה קמפיין בואי נעשה קמפיין  בסוף היא הסכימה  עוד אחד מוצלח והפעם עם SaraHae… PsychdelicPics Art by Payal Kundu  טיפ של אלופים חכו עם הפיפי  asaflib Fire on babylon אני לא מאנשים האלה שאומרים אמרתי לכם אבל אני קצת כן  BoazCohen אחד הפיקים BoazCohen נראה לי שהייתי שם למחרת בפול סיימון mashkazg maayanef הם לא פונים לאותו קהל יעד RonelAdani רק במדינת אבסורדאל שלנו אדם יכול להיחלץ מלינץ ואז לעמוד על כך לדין מנסה למצוא את ההיגיון את מה שעומד מאחורי הדבר הזה ו… זמן מצוין לשאול שוב  mashkazg maayanef הוא כבר שכח על שיווק אגרסיבי מה שהם לא ילמדו לעולם עושה להם בית ספר karineb ולי מותר לגלגל עינים על הצדקנות והפריבילגיה של אנשים עם כל כך הרבה סנס אוף אינטייטלמנט שהם מרגישים שהדבר ה…  YotamNavin מזדהה עם ההרגשה zeevco אילו מהלכים ואיך היה נוהג אחרת אלולא המשפט arielikobi  karineb כמה מההתקוממות הזאת מקורה באנשי השכונה הרלונטית בבית שמש וכמה של אנשים שאיך לומר בנימוס זה ממש לא עניינם popepants Idaneretz ממש לא מטרת הקצה היא עוד הרצאות על סוציאליזם בהשתתפות סטודנטיות חדשות mashkazg maayanef שאלה שמראש נועדה לפגוע בו עי הצגתו כמי שמתנגד לדמוקרטיה טוקינג פוינט של התעמולה נגדו משמאל וטר…  שתי הכנופיות האלה לא היו אמורות לגזול את תשומת לבנו אלמלא היתה להן להוותנו השפעה מיידית ומוגזמת על תהליך קבלת ההחל…  על אף שבישראל הסגנון הזה הוא נחלתו המובהקת של השמאל אנחנו יכולים למצוא תמונת ראי שלו בליכוד אצל מי שנקראים הביבי…  זה הלך רוח שמאפיין חלק מהמפה הפוליטית שלנו לצערי החלק שחש שלא נותר לו עוד כח מלכד פרט לכפיה אלימה וישור שורות וחי…  בצבא הרוסי היו גדודים שלמים שהוקצו למטרת ירי בנסוגים בגלל שהגיוס היה המוני ובכפיה היה אחוז גדול של חיילים שבזמן קר…  MeirRubin אם אין ממשלה תהיה קהילה   חבורת מתנדבים מקימה מערך קטיעת שרשראות הדבקה   יש הרבה קבוצות לחץ אזוטריות יותר או פחות במדינה חרדים ערבים ועדים ירוקים וכו אבל רק אחת בלבד מספיק מסונוורת מע…  rarf בהחלט מושפעים מביבי notyeledratz DrobRotem קווין ומשינה ashorshan היי ממשלת ישראל בואו תלמדו איך עושים את זה  YinonMagal  arielplaksin1 akibigman לא כל צעד הוא צעד בכיוון עינויים של מתנגדי משטר בסופו של דבר יש לי הצעה יותר טובה מבחירות רידיל עם חפיסה חדשה מקימים כנסת וממשלה חדשה רק עם אנשים שלא השתתפו בהן בחמש השנים האחרונות מרעננים popepants RockTheKahba מאוד גיי odedkramer amsterdamski2  חברים חרדים אינדלג מי  ShuratHaDin מה קורה לצעירה שקמה בוקר אחד לאיומים על חייה בעקבות קמפיין שיימינג של פעילי BDS ברשת   זה הסיפורשלרבקה  NoaLiberator mightbecursed popepants L MaarivOnline הרב דוד יוסף חבר מועצת חכמי התורה לסגור מיד את כל בתי הכנסת ובתי המדרשלהתפלל רק במרחב הפתוח  אני היחיד שרואה את האירוניה כאן או שמאז שאולמרט פרשן לגיטימי לענייני שחיתות הכל הותר  יש לי דעה מוצקה ומנומקת על ההשוואה בין תפילות להפגנות אבל היא לא משנה עכשיו להפסיק הכל לעצור הכל נעבור את הקורונ…  NillyRichman זה דווקא קופי של שימון פרס SaraHaetzniCohe באמת מהמם  NoaLiberator כמה חשבוניות זה מרשים יומיים עבודה שלי NadavEyal יש כבר מחקר משווה על מידת השכיחות של מכחישי קורונה פר מדינה תופעה מרתקת odedkramer הוא צודק זה לא שטויות בכלל זה חשוב מאוד מתחילת העסק אני טוען שזאת ההחרגה המזיקה ביותר תאהב את זה או…  yitzchakos באונטריו שבקנדה הוכרז קנס של 10000 דולר למי שמארגן התקהלות בלתי חוקית מעל 10 משתתפים בישראל בנוסף להצלת החיים שבכך זה… אייל 35 הרגע העביר את הגננת למיוט קלאסיקה  אז ביום חמישי נגמרו המים וכולם מתו naftalibennett אלה הפעולות שהייתי עושה כבר הערב כראש ממשלת ישראל  1 מודיע הערב לכולם שעד תום הסגר אין הפגנות ואין תפילות  מרסקים את… YotYotam ככה צוחקים על הברסלבים בעולם החסידות קוראים להם חסידים ללא אדמור מצוין  avrahambin כשהתקשרתי למשטרה לדווח על בקבוקי תבערה סרטון בלינק לקח להם 18 שעות לחזור אלי אחרי שפרסמתי פוסט בפייסבוק הלכתי להגיש ת… Idaneretz כסף לכרטיס לתל אביב מידיעה אני אומר ZzLWSZfgowjMOxR LiberalRiWo shlomishaul naftalibennett ליטרלי הבאת גרף שהיוצרים שלו ציינו במפורש בכותרת שהוא…  noamtomer2 LiberalRiWo shlomishaul naftalibennett לא דייקה בכלל בנט צודק ולהתקטנן איתו על דיוק כזה או אחר שתי…  LiberalRiWo shlomishaul naftalibennett זה טיעון שגוי ברמה מפוצצת מח הסכנה מהמגפה היא לא מס הנפטרים אלא מס הח…  noamtomer2 LiberalRiWo shlomishaul naftalibennett אין לי נושא משותף לשיחה עם מי שחושב שבנט הוא נושא השיחה ולא המגפה barzik  LiberalRiWo shlomishaul naftalibennett אחוז המאומתים לא מושפע ממדיניות בדיקות הוא משקף פריסת תחלואה לא מבין על מה הויכוח בכלל LiberalRiWo shlomishaul naftalibennett יופי בואו נחכה שיהיו עוד המון מתים ונפעל אז סו פאר סו גוד  shlomishaul LiberalRiWo naftalibennett ואיך זה רלונטי למשהו OrenGraphArt Hakufsah הוא לבי LiberalRiWo shlomishaul naftalibennett וגם כשאת פותחת שרשור על נתונים באמירה פוליטית מפלגתית את פוגעת אנושות באינטגריטי שלך LiberalRiWo shlomishaul naftalibennett אז מה אם היא בודקת יותר אחוז המאומתים גבוה מאוד והוא יציבעולה כבר הרבה…  כל התעסקות בביבי המשפט שלו כשלונו כמנהיג ימין הרדיפה אחריו או ביחסי חרדים חילונים ויהודים ערבים היא התעסקות שו…  batmeir קיויתי שבאחרון הוא מוציא אקדח אמיתי EladHumi משפחה מגוש שילה נקלעה לפני מספר ימים למארב מתוכנן של מחבלים שחסמו את רכבם במחסום אבנים ורגמו את רכבם בסלעים אב המשפחה הניס א… meiretingr הבטחות לחוד ומעשים לחוד אחרי שהבטיחו בצהל לתושבים שיעצרו את העבודות הבאגר שוחרר חונה כעת ברחבת מוזיאון המערה שגם הוא… ayeletlash9 אתם חייבים להיות איתי שבוע שעבר 1910 בערב משפחת פרץ וששת ילדיהם חוזרים הביתה מהבקעה בכביש ליד מגדלים פתאום האישה צוע… AvishayBenHaim דר גדי טאוב מבריק במאמר בהארץ מבקר את השימוש שלי בפוליטיקת הזהויות ובעצם מציע כותרת היסטורית אחרת כשהוא קובע שמה שמפ… meiretingr לפני חודש פונו באלימות בניצוח מחט בנימין דתי בוגר ישיבה המתיישבים במעלה שי מאז בחודש האחרון סוללים הערבים ופורצים ד… SaraHaetzniCohe אין לתאר מלחמה יומיומית ואנחנו מפסידים שיהיה ברור  לא טיימינג טוב אבל בא לי פוקר giladzw ויקיפדיה נכנעת לבולשביזם של משרד החקלאות  בעקבות הפרסום בIsraelHayomHeb בויקיפדיה ערכו מחדש את הערך על מנכל משרד החקלאו… Salo18155302 RoyIddan Midnight gospel RoyIddan רק הפרק הראשון elikmargalit צחי דבוש מדווח בגלצ על הכפלת היחידה לחקירות אפידמיולוגיות של הצבא ברדוגו הנה בנט צעק שהיא מוכנה כבר במרץ יש כאלה שצו… MakorRishon איך ומדוע קיבלו חריגות בנייה של האו״ם בירושלים הכשר מהמדינה  hodayakh   NadavEyal נו מה חשבתם שיקרה OrenNahari BoazCohen ברט בכרך ניל דיאמונד ליבר וסטולר זה באמת חלק לא ידוע מספיק של מורשת ישראל השתלטות של סקיינט על כל המערכות כרגע תהיה שיפור rothmar רק אומר שליועץ המשפטי לממשלה אסור על פי חוק לבקר בראיון את הממשלה ואת שריה  אבל חוק זה הדבר המיותר היה שמפריע לפקידים לשלוט… AyeletShaked כשבארהב הנשיא טראמפ מחפש את הדמות השמרנית הבאה לבית המשפט העליון האמריקאי בישראל נתניהו נותן את הסכמתו להארכת כהונתה… kereneubach פרופ גילי רגב חריפה ומודאגת הימים הבאים יהיו יותר קשים מי שלא חייב שישאר בבית אפשר לצאת לנשום אוויר אבל לא להפגש א… SaraHaetzniCohe ככה כתבה חברה שלי אחות בכירה באחד מבתיהח בירושלים אצלנו מכריחים ויש צוותים בבידוד ואין יותר מכונות אקמו והנשמה והמח… mashkazg רבי נתן אומר מנין שאין הקדוש ברוך הוא מואס בתפלתן של רבים שנאמר הן אל כביר ולא ימאס nehonotlishatan גיא מרוז הכותרות מפחידות אבל אף אחד לא אומר כמובן שלקח המון המון זמן להגיע מ500 ל600 חולים קשה זה נכון  אף אחד ל… zelama במונסי זה לא היה קורה zelama או עוגות או קיגלים הסגר הזה היה קצר כמו שנהל מקפיץ בפרוס תשרי  זה היום השני בשנה וכבר נמצא הציוץ המושלם לשנת תשפא אי אפשר להמציא את זה  drorfo תלונות טחונות מהטוויטו לא מקבלות איכות אחרת כשעוטפים אותן בקצת פרפראות כתיבה זה אותו לוקשען הבו לנו שאר רוח talgilboa גם אם בית שאן היתה מאוד רוצה לטפח את הנחלים שלה יש להם בעיה  התקף טורט בסדר גודל קולנועי  רענן שקד צאו לרחובות בהמוניכם ותראו כמה שהם ריקים שנהטובה  Eyalo365 kereneubach שזה לא סותר kereneubach הכי טובה אי פעם היא כמובן ריק ומורטי שהפכה מיד לקאלט אבל הכי מפתיעה מתחת לרדאר זו סדרה בשם מידנייט גוס…  odedkramer gtמפזם את כל המנגינות של מוסף כולל אין קצבה של מודזיץ בשני קולות popepants כנראה עשית משהו נכון בחינוך שלה Isoglosses כן ErelSegal drorfo danaspec ואן מוריסון הגיע לשיא מוקדם מדי עם דם לא מבין איך אפשר לבלבל אותו עם מישהו יש לו קול יחודי בטירוף zahalkajamal יש לנו בלוח השנה העברית ארבעה ראשי שנים אחד בסוף החורף אחד בסוף הקיץ אחד בתחילת הסתיו ואחד בתחילת…  שנה טובה ומבורכת אל תיפול רוחכם ואל ירך לבככם מי שענה לדניאל בגוב האריות הוא יעננו כל דעביד רחמנא לטב עביד איש…  historyontwit אלו הם יהודים התוקעים בשופרות ומזמינים את הקהל הרחב להשתתף בתפילות למען הצלחת הפלישה לנורמנדי במלחהע ה1 ניו יורק 6 ב… SaraHaetzniCohe אדם אחסוך לכם פרופ עמירם גולדבלום איש שמלכלך בטינופי ענק על כל מה שזז ומשום מה מסתובב עם הדרת כבוד בחוגים מסוימים… yaneerbaryam Israel reported another big jump 6063 yesterday a 27 increase from the daily record set two days ago  מענין  WeissInbar akkitwts  odedkramer  TzlilAvraham לקחת את המשפחה ולהתמקם על אי נעים ivgiz לא היה טוויטו YaakovLebi ruthlessrousso אין כזה דבר שייק פירות ללא סוכר אחי gershuni קונים יותר מהביתקונים פחות במזומן RoyIddan דיס איז יזראל קראסטי וי דונט פוט אשכנזים אין גייל</t>
+  </si>
+  <si>
+    <t>RoyIddan rothmar איזה מנאייכ RoyIddan rothmar 🤣🤣🤣 BiniAshcknasy תהיו מוכנים עם פוש גליקמן  בטעות פולמוס עשה גזור הדבק להודעה של משרד המשפטים אולי  הוכחה כמה הם מהנדסי תודעה…  ayalzakin YairNetanyahu אתה מדבר על אמא שלך  כי אם כן זה לא יפה baruchikra להסיט galidalal זה מה שצריך להיןת ביני אשכנזי בתגובה  אני רוצה הוכחה שליאת בן ארי עברה עבירה  העובדה שליאת בן ארי הודתה בביצוע עבירה לא אומר שהיא ב…  ericalmaliache mosheboochnik שוב אתה עונה להם baruchikra ליאת בן ארי מודה בביצוע עבירה שרלטנים baruchikra מנסה להסית את הדיון חחח  ליאת בן ארי מודה בעבידה וברוך קרא לא מספר השרלטנים גליקמן ודרוקר לא יספרו לכם ש היום ניתן דוח שלילי עי רוזן שקובע ליאת בן ארי מודה בעבירה בניגוד לחוק תכנ…  michelletelaviv זה צפון תא זה ybaram תפסת את כל התאים  קיבלתי בערמות ykmTShmZ03oJs01 תציג לי נתון שמבלפור לא מדביקים  לאן חוזרים מפגיני בלפור לבתים ולעבודה  חגיגת הדבקה ilanbentov תתרגם הסעות לשיירות בבלפור לא צפוף הם לא חוזרים למשפחות מבלפור לא רק למשפחות גם לעבודה  YuvalWeiss מתי תציג נתוני תחלואה של ההםגנות  החרדים לא הלכו ברגל הם הגיעו בהסעות חלקם וחלקם ברכבים פרטיים  כך…  ItaiGalmor לא אקרא לעשות כן כל עוד לא עושים זאת נגד המפגינים גם בגגמניה הנאצית היו חוקים שהתייחסן לקבוצה מסויימת…  israelioded אמת גם לבלפור יש הסעות  IzikLeibovich גם להפנות יש הסעות  גם באויר הפתוח נדבקים לא שמענו על בדיקות של מפגינים   להוסיף  GmailRamagure אני לא כמוך אני לא מלקקת לאחרים אני מדברת JanMichalVince לא מזמינים אותי  השמאל הרדיקלי דאג לזה 🤣 IdanOfgang כי אין לי את מכסת התארים המאלפת שלה יש לי רק תואר ראשון במכללה ולימודי תואר שני אבל אגלה לך סוד יש לי…  arihillel לא היו אוטובוסים לחיי השקר שלא הופך לאמת  SagiNatan לא ברור למה אתה  כמי שהדמוקרטיה חשובה לו בכאילו שולל חופש פולחן שזו זכות שהוכרה עי האליל אהרון ברק כזכ…  IdanOfgang הציטוט לא זמין leibosprach מציעה לך להתעדכן  Talim70133198 אכן הביקורת היא על הסיקור avi07325462 ואתה תלך לפח הזבל של האנושות תעודד הפגנות לפחות שיהיו בהתאם להנחיות איש שפל ועלוב avrom072 michelletelaviv אין הוכחה שהוא לא נדבק   יש הוכלה שבהתקבלות שבה לא שומריםצעל הנחיות נדבקים בהפגנות בבלפ…  michelletelaviv איפה את גרה ElizabethRimini amitsegal מי שמקדש את המקצועיות והיושרה יהדהד גם את התחקירים הרבים של YoavNews1 ואת הממצאים של Motty53  לגבי הפיק… olmertyair yarivop תתבע אותי דיבה יאיר אתה מתמחה בתחוםלא פחןת ממיליון דולר ronnym2355 baryamin KalmanLiebskind תגובה סופר עניינית מה אומר ומה אכתוב DudiKim אחיין לא בן olmertyair מי אני ומה שמי 🤣  adibenhur2 וגם מסתבר שהבן אדם הוא לא נאמן משהו  adibenhur2 הוא רודף הרבה אנשים גם אני על הלוף אל תוותר לו זה מה שראיתי שפורסם אודותיו חיפשתי רק דקה  NoamSata01  adibenhur2 האיש באובססיה Eddie7701 olmertyair אני לא דיברתי ליאיר אולמרט הוא לא נמנה בין עוקביי ולא בין חבריי בעיני הוא סוג של פרובוקטור…  Eddie7701 olmertyair בבקשה רצית לדעת איך זה התחיל קבל  חתימה טובה  olmertyair Eddie7701 השקר הוא נורא מכל התחייבת לתבוע דיבה אני ממליצה לר פחות ממליון שח Eddie7701 olmertyair הוא מסלף עובדות ומוחק תגובות שלו זו הסיבה אבל תמשיכו זה מצויין olmertyair Eddie7701 הכל מצולם הלו אני עורכת דין  לא קוקיה שתמכור אותה בשקל מחהה לכתב תביעה שלך הכתובת שלא ת…  Eddie7701 olmertyair תוכיח התנשאות תוכיח דיון לא ענייני העובדה שהוא מחק את את התגובה המבחילה שלו משאירה אותך חס…  NoamSata01 אם רצית לדעת מי מדווח עליך  olmertyair yarivop מי שמצטט שקרים של אחרים ומבקש מציבור העוקבים שלו לאמץ שקר תוך שהוא מכיר את ההוכחה שמפריכה את…  olmertyair  olmertyair הללויה 🤣 olmertyair yarivop גם לא טענתי שיש לי לימודי תואר שני יש לי  אבל היי אני לא זה   olmertyair מי שמצטט שקרים של אחרים ומבקש מציבור העוקבים שלו לאמץ שקר תוך שהוא מכיר את ההוכחה שמפריכה את השקר הדב…  olmertyair  olmertyair Eddie7701 מתאים לי דיון איתך בבית משפט על דיבה 🤦‍ olmertyair Eddie7701 הללויה לדיבה חיכיתי יש olmertyair מי שמצטט שקרים של אחרים ומבקש מציבור העוקבים שלו לאמץ שקר תוך שהוא מכיר את ההוכחה שמפריכה את השקר הדב…  olmertyair  olmertyair מי שמצטט שקרים של אחרים ומבקש מציבור העוקבים שלו לאמץ שקר תוך שהוא מכיר את ההוכחה שמפריכה את השקר הדב…  olmertyair  olmertyair מי שמצטט שקרים של אחרים ומבקש מציבור העוקבים שלו לאמץ שקר תוך שהוא מכיר את ההוכחה שמפריכה את השקר הדב…  olmertyair  olmertyair מי שמצטט שקרים של אחרים ומבקש מציבור העוקבים שלו לאמץ שקר תוך שהוא מכיר את ההוכחה שמפריכה את השקר הדב…  olmertyair  olmertyair כי אתה מצטט שקרים של אחרים ומבקש מציבור העוקבים שלך שיאמץ את השקר כשאתה מכיר את ההוכחה שהפרקליטות בעצמה…  olmertyair לא היא לא מבקשת שתאמינו לה אלא לעובדות להלן בשום מקום לא נטען שקטעי התמלול שהוצגו בעתירה הם שקריים נ…  olmertyair לא אגיב לזה שתגיד שאני בורה אגיב לשקרים וחצאי אמיתות שאתה מביא מכתובים של אחרים  לא יקרה חשבת לנצל פ…  olmertyair אני מגיבה לשקרים ללא ספק לא אשאיר זירה פתוחה לשקרנים נוכלים ונבלים כמוך היה מי שאמר את זה עליך  olmertyair שוב יצאת עלוב להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי לעזור  ו…  olmertyair שוב יצאת עלוב להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי לעזור  ו…  olmertyair שוב יצאת עלוב להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי לעזור  ו…  olmertyair שוב יצאת עלוב להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי לעזור  ו…  olmertyair שוב יצאת עלוב  להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי לעזור…  olmertyair שוב יצאת עלוב  להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי לעזור  ו…  olmertyair שוב יצאת שקרן להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי לעזור  ו…  olmertyair שוב יצאת שקרן להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי לעזור  ו…  olmertyair שוב יצאת שקרן להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי לעזור  ו…  olmertyair yarivop שוב יצאת עלוב להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי…  olmertyair yarivop שוב יצאת עלוב  להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי…  olmertyair yarivop שוב יצאת שקרן להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי…  olmertyair שוב יצאת עלוב להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי לעזור  ו…  olmertyair הוא צדק שכתב שעשית התמחות בכאילו  olmertyair שוב יצאת שקרן להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי לעזור  ו…  olmertyair שוב יצאת שקרן להלן התגובה שימוש שלא כדין  ביודעין בקטעי שיחה  משמע קטעי שיחה  שמחתי לעזור  ו…  olmertyair אתה שקרן   הפרקליטות מעולם לא טענה שהתוכן אינו נכון אלא שהתמלול הוא האזנת סתר   תמשיך אני באמת רוצה שהתמלול יחזור לשיח  olmertyair  אז מה שאתה אומר שכפעלתי בפרשת קצב והייתילשיטתה ולדעת רבים וטובים מעולה מקצועית זה זניח אבל 14 שנה…  olmertyair מי שמביא משפט מנותק המקשרו כדי ליצור שיח שקרי הוא נוכל אבי אבות הנוכלים  השינוי שאני הבאתי בעמל כפי ומ…  olmertyair בחיים לא טענתי כלפיו דבר כזה אתה הראשון שמזכיר לי חזיר olmertyair העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍   olmertyair העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍   olmertyair yarivop העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍   olmertyair yarivop העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍   olmertyair yarivop העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍   olmertyair העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍   olmertyair ואני בחרתי רק להתייחס לצורה שלך לא לפתגם olmertyair העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍   olmertyair העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍   olmertyair העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍   olmertyair העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍  olmertyair העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍  olmertyair העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍  olmertyair העובדה שאתה נוכל ומביא חצאי אמיתות ידועה ועטופה במעטפה אבל קבל  🤦‍  yarivop תכנס לתגובות הביקורת היא על הסיקור כל עוד לא נשמרות הנחיות בהסעות להפגנות אין להסתכל רק על החרדים  אצלי…  guylevy123 זה לא נכון התפילות לא נפסקות אבל כן הם יצטרכו לחשב מסלול מחדש שלמראית עין זה לא טוב  חוצמזה לא צריך…  SagiNatan זה אחרי קפסןלה של 45 יום כל מי שבתמונה שהה באותו מקום בלי לצאת קח את השנאה שלך חזרה AssafMantzur כשתביא לי את הנתונים על משתתפי ההפגנה נדבר hood מה זה עם מסכות גם לא מתחבקים ורוקדים וצועקים  YuvalWeiss אין על בורות איפה הם היו מאז ראש השנה התכוונת תודה amirisrael ומה אתה יודע על נתוני ההדבקה בהפגנות  מתי נבדקו הוירוס חג מעליהם וצועק אין מצב ביבי הביתה אל תדאגו אנ…  Yoglas74 אם היית דמוקרט אמיתי ולא איש עלוב ושונא מצוי ששפתו שפת ביבים וליבו לב של אבן היית מבין שהטרוניה היא על הסיקור איש מיותר arihillel שקר מה שאתה אומר  היו הסעות הייתה התקהלות אכן במקום פתוח ולא סגור אבל הרבה מהחסידים שחזרו שהו בקפסול…  olmertyair שא ברכה אתה לא מגרד את העפר לרגליי  חתימה טובה סיימתי להגיב לך olmertyair התביעות השקרים השחיתות הרמיה המניפולציה הכל כתוב ואני רק עושה גזור הדבק  olmertyair לא נעים לי אני רק מקלידה את שמך וכל מה שעולה אודותיך מחפיר מדבר לדבר  של נעליך כתבתי  olmertyair  olmertyair yarivop ואני שוב עונה הכל נשאר במשפחה LiorZatlavi אמרת חלקית משמע מאפשרים את קיומם בתנאים כך גם הפגנות קיום על פי הנחיות תוך ביטול הקמ olmertyair yarivop הכל נשאר במשפחה יאיר הכל כולל מעטפות olmertyair בשים לב גאון איסור על קיום הםגנות בתנאי שיש אכיפה של הנחיות קפיש  קוקו בור ועם הארץ לצד מעטפות משפחתיות DovMorell MatanyaToren yarivop ולהביא אנשים olmertyair yarivop כשתצליח לטפס לאזור הברכיים שלי נדבר על שפל וגאות עד אז של נעליך אתה צריך לטמון את ראשך בחוך עמוק עם שנורקל olmertyair להבונן עליך ולחשוב שאתה מדבר על חזיר 🤦‍🤦‍ חוסר מודעות olmertyair yarivop את הטינופת אני לא מפיצה אתה בא לבד captainB158 vladyisrael עסקת טיעון רוב הנאשמים מקבלים אחרת איך תסביר 97 אחוז הרשעות במדינה דמוקרטית  חנינות אזר…  captainB158 vladyisrael עסקת טיעון זה עדיין הליך משפטי חנינה זה אחרי עונש  מודל צרפתי לא יכול להיות רטרואקטיבי עוד משהו DovMorell MatanyaToren yarivop זה כמו שתגיד שלהתלבש זה לשים תמונה שלך לבוש ובפועל אתה עירום  הפגנה יש לה חיות מ…  olmertyair yarivop אתה לא מעניין לך תמצא לך חיים dzroman6 mosheglassner תנסה מה אתה מבין בכלל בעשיה הציבורית שלהם מה אתה יודע על הסיוע וההתנדבות שלהם שמים אלפ…  nissim60692099 chaimlevinson אבל אנחנו עדיין ב 24 שעןת olmertyair yarivop קודם כל תסדר את המעטפות אחר כך תבוז לדיסלקציה שלי  תתקדם איש צבוע חסר מודעות DovMorell MatanyaToren yarivop בעיה זו לא הפגנה זו טכנולוגיה captainB158 vladyisrael ועושה לייק לעצמך זה השיא captainB158 vladyisrael אתה מבין שאתה מצטט מדף מסרים שטויות ואז מוחק  אז או שאתה מודע לעובדות ואז ננהל שיח או שא…  captainB158 vladyisrael תסביר לי חוקית איך חומקים ממשפט DovMorell MatanyaToren yarivop איסור הפגנה זו השתקה אין דרך אחרת חוץ מלצאת מאזור הנוחות הפגנה אינה בציוצים שמר…  PnL63962200 zehavagalon Haaretz כן ברור בדיוק איך לא הסתכלת במראה לפני שכתבת את התגובה צודק חתימה טובה קוקו olmertyair yarivop מזל שהגעת DovMorell MatanyaToren yarivop אתה שם את הדמוקרטיה ברולטה רוסית captainB158 vladyisrael הוא עומד לדין  איפה הוא מעל החוק 🤦‍ H02691083 יאפשרו כניסה למתחם על פי היכולת שלו להכיל זו תפקידה של המשטרה  אין דבר כזה אי אפשר  אי אפשר לטפל בחולים chaimlevinson מזל שהוא כתב מאמר של 3 עמודים כמה כתבי הימין עלובים רפי שכל ולא מקצועיים כדי שההתנצלות הזו תגיע  DovMorell MatanyaToren yarivop אני מתנגדת לכל מה שנאמר בהפגנות  אבל ואוווווו אם יאסרו אותם אני אתחיל לפחד DovMorell MatanyaToren yarivop גם תאונות דרכים אפשר למנוע בהפסקת שימוש ברכבים פרטיים  גם איידס אפשר למנוע באיסו…  captainB158 vladyisrael אז אתה לא מבין את המשמעות  ישות למעלה מה אתה בן שתיים ישות היא במרחב לביבי אני מתייחסת…  ISudri לחברי היחצנים החרדים יום כיפור אחרינו וקיבלנו על עצמנו לא לחשוף כמה הטמטום השנאה והבורות היא נחלת רבים כאן אז אנא לפני שאתם… WTDT61WXKg8Ke0t מחילה belzamayala זו סכנה לדמוקרטיה ממתי הצדקתי את המושחתים האלה ChezkyAisentark BarashiKinneret  Miv9xbn8WMSaDme zehavagalon Haaretz אם זה על שרה ברור edeeiar zehavagalon Haaretz להפך אם הם היו ישרים היה מוגש כתב אישום  די לעשות גזור הדבק לדף המסרים שלכם זה מג…  PnL63962200 zehavagalon Haaretz יושרה לא מגיעה ממכללה או מוסד אקדמי כזה או אחר היא מגיע מהבית מה שחסר לך ולזהבה ושלושת המושחתים eZI70fpogLYQlBU zehavagalon Haaretz לוקחים סטייליסט שמשנה לך את המלתחה כי ורוד זה נורא MiritBarChen zehavagalon Haaretz תצייני במה שרה הורשעה ולא בכדי כתבתי פריביליגית שעד היום משלמת את מחיר טשטוש הת…  DovMorell yarivop אסור להגביל הפגנות אסור אם אני רוצה להפגין נגד הממשלה ואני גרה בישוב ימני שקילומטר מהבית שלי…  SapirEdi belzamayala חופש הפולחן חייב לקבל את אותו ביטוי של הםגנה אבל זה לא הדיון מחר  התנאי שחופש הפולחן יתקיים באויר הפתוח כמו הפגנה oferrubin belzamayala אני לא סומכת על אף אחד שישמור לי על הדמוקרטיה  עם כל הכבוד belzamayala כן איפשרו WTDT61WXKg8Ke0t מי אמר איפה משרד הבריאות שיאשר זאת קדימה rubinavi41 חודש גורר חודש ויכול להשים קץ לדמוקרטיה  belzamayala וגם אז אף אחד לא אסר הפגנה yanke87 תשמור מרחק ותעטה מסכה תפגין איפה שבא לך rubinavi41 נכון ובשביל שאנשים יחיו הם צריכים גם את הזכות להפגין וגם את הזכות להתפלל captainB158 vladyisrael יש לי מלך אחד וזה אלוקים  הסגן שלו היה אבי היד  ואחי ילחא בריאים וטובים  המלכה היא ת…  H02691083 אני בעד ISudri Onetruth011 אין דבר כזה אין דבר כזה לא נדרשיפ למסכות החוקים חלים על כולם כ ו ל ם yarivop מותר לנסוע להפגנה גם אם היא 60 קמ ו 300 קמ  צריך מרחק 2 מטר אחד מהשני ומסכות מי שמפר מבחינתי כנס של 10000 שח NoaLavi6 belzamayala אם לא תהיה זכות מחאה לא תהיה זכות לחיים כלים שלןבים זהירות ZilbermanUri בכפוף להנחיות belzamayala כי זה חלק מאבני היסוד בדמוקרטיה israbluff noamfathi chaimlevinson אל תסכסך הם השלימו HP83226764 elizipori אף אחד באמת לא נעלב ממנו  במאמר הוא קידש את תפקיד העיתונאי בעידן טכנולוגי של היום כל אחש ע…  לקראת הדיונים היום ומחר אני קוראת לפוליטיקאים  אסור לאסור הפגנות צריך לאכוף הנחיות  אסור לאסור הפגנות צריך לאכו…  gili1310 אני בעד הפגנות ואפגין נגד אלה שרוצים לאסור אותן אסור לאסור הםגנות במדינה דמוקרטית א ס ו ר אפשר לאכוף הנחיות אסור לאסור הפגנות SagiNatan תביא לי תוצאות בדיקות של מפגיני בלפור ואז נעשה מאחד יוצא  מתאים תביא לי בדיקות של האנשים האלה SagiNatan אבל הם אומרים שהם בדקך להפגנות  אתה לא משהו בהבנת דמוקרטיה שבסיסה שיוויון הא DavidHass4 giladzw זה לעשות סדר סדר בעברית בכמה משפטים  mironkatzap ericalmaliache כמה אתה בור שאתה לא מסוגל לשים לב לפני כמה זמן הוא כתב את התגובה למרות שזה מונח בפני ע…  mironkatzap ericalmaliache זה היה לפני שהוא שחרר  קח קצת במי ביוב ולך לישון אתה לא רצוי פה adhalperin ShelleyWallach  RanBalicer taliaeinhorn אותו מעניין מדוע המומחים נמנעים מלדבר בפירוש על ההפגנות כמה פחד סביב נושא כל כך חשוב מבחינה בריאותית ודמוקרטית danielelazar תתנצל על השקר שלך המקום מאובטח  danielelazar לכו תסמכו עליהם  כי עלינו החילונים אפשר לסמוך  danielelazar תגובות שיכולות לשרת את התעמולה הנאצית בכיף  שקרים כולם זהים חוצפנים אוטו אנטישמים  danielelazar זה לא היה בהכרח למלונית כשיביאו לי את ההןכחה אני אעדכן אותה עם התגובות שלך  שנית המקום אכן כן מאובט…  danielelazar נתחיל בשקרים שלך giladzw תעשה לי  בבקשה סדר ericalmaliache mironkatzap ובעה בלי נדר שנזכה למימונה הבאה בלי מסכות  עם חיבוקים ונשיקות  בצהלולים ומופלטות…  mironkatzap ericalmaliache תיעדתי את שפת הביבים שלך  לא נראה לי שתרצה להכניס את זה לאלבום המשפחתי האשכנזי הנאור שלך danielelazar יא קוקו לפחות תמחק את הטלפון של שירה🤦‍ danielelazar צלם גם את התגובות שהתנגדו לזה מהקבוצה danielelazar גם תתעדו בבקשה חחחח תתעדו שנתנו אוכל ושתיה כדי שנוכל להתגולל עליהם   danielelazar בשום אופן לא אתנצל חרדי שהולך ברחוב אינו בהכרח חרדי שנמצא במלונית של הקורונה  אני מבינה שאתה מכליל את כל החרדים danielelazar מי ארגן את זה מי אם לא חבד אתה מביא לי תגובה אחת תעדכן את הקוראים מי ארגן את זה ericalmaliache mironkatzap למה אתה יורד לרמה של הביב שופכין הנלוז הזה אתה צריך להסביר לו מה זו תרבות מרוקאית כל…  mironkatzap ericalmaliache אני מבינה לפי הכתיבה שלך שגדלת בחממה תוססת של שנאה גזענות ובעיקר שגדלת כילד מושפל מוזנ…  zilberber שוחה עלוב ושקרן מי אמר לך שאין שם שמירה  עצם העובדה שמסתובב חרדי בסמוך למלונית זה אומר שהוא מהמלונית גזען שפל ועלוב moshesch חיפשתי התנגדויות שזכו לכותרות  לא מצאתי  ניסנקורן הוא מדגרה של הסתה  מי שואל את השכנים איפה להקים ומה…  EladSzekely עוד לא מחכה igallevin לא כי הוא צודק כל מקום בו יש התקהלות שלא עפי ההנחיות כלומר שמירת מרחק ומסכות זו מדגרת קורונה אם בהפגנ…  3necghu1GFBKGBy זו לא מחמאה האמן לי RotemShapir BarashiKinneret והכי מצחיק שהתושבים מוחים על זה שהמלונית בלב שכונת מגורים  כאילו שאיכילוב לא בלב שכונת מגורים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פניה למפקד מחוז ירושלים ניצב דורון ידיד מחר צפויה להגיע שיירה של אלפי רכבים לכנסת אני קורא לך לא למנוע את הגעת ה…  לא ניתן להעביר את התיקון לחוק הקורונה הגדול בשקט הצטרפו לשיירה שתעלה לכנסת גמר חתימה טובה  מהפכה ברחוב בלפור  הצטרפו אלינו בשיירת ענק לבלפור  אין ראש ממשלה אין ממשלה אין שלטון מרכזי אמנון אברמוביץ חדשות 12 לא יכול להיות סיכום ממוקד יותר אוגר כוחות לקראת המשך המאבק בלפור הלילה שבת שלום וחתימה טובה  רמי מתן גיבור מלחמת יום הכיפורים  ולך הנאשם נתניהו אני מודיע לא נחדל עד שתסתלק מחיינו  מחאה בימי קורונה ממחדל יום כיפורים 1973 למחדל קורונה 2020 תגיעו יהיה מעניין  זמן סליחות  1 אזרחים שומרי חוק מבקשים סליחה בִּמְקוֹם נתניהו  via FacebookWatch המתח בין היהודים לישראלים מתחדד בוויכוח שבין ההפגנות והתפילות והוא תוצר של הצביעות וחוסר הענייניות מצד השמאל  הצ…  זה הלוק של נתניהו  טוב יעשה ראש הממשלה אם יתרכז בכך במאבק בקורונה ולא בבריחה מאחריות והטלת בוץ ורפש חכ יפעת שאשא ביטון חברי הכנ…  תכלה שנה וקללותיה עוד 76 ימים מדינת ישראל נגד בנימין נתניהו  שימו לב יום חמישי הקרוב ה 249 בשעה 2000 ראו את רשימת הדוברים יהיה מעניין וחשוב  נערכים לקראת ההפגנה הערב בבלפור סימונים על הכביש כדי לשמור ריחוק חברתי  ממתינים לכם הערב ב 2000 להפגנה בבלפור שנה טובה וחג שמח  מדינת ישראל נגד בנימין נתניהו  אתמול הגישו ראשי עיריות בגצ בדרישה להשוות את מספר המפגינים והמתפללים אני בעד השוואת מספר המתפללים למספר המפגינים…  gadimeiri65 גדי אתה גדול תודה ושנה טובה אמיר אנחנו אופטימיים  ב 6 בדצמבר בעוד 81 ימים יעמוד נתניהו בבית המשפט המחוזי בירושלים הוא יתבקש לקום על רגליו ולענות לשאלת השופטים מוד…  שר הביטחון בני גנץ הרמטכל ראל אביב כוכבי כדאי שתתעוררו  כל מי שמצפה שההחלטה של הדגלים השחורים לא להפגין בבלפור במהלך הסגר תביא לקרע או סכסוך בין קבוצות המחאה חיי בטעות…  אני מתחייב  GadeerMreeh בהתרגשות רבה אני מודה לך אמיר השכל על בחירתך בי כאשת השנה  זה מרגש ומשמעותי עוד יותר כשזה מגיע ממך אדם שמצליח לסחוף אחר… המלך ערום אין מנהיגות נתניהו אינו מסוגל לקבל החלטות החלטות שמתקבלות בבוקר משתנות בערב הגאון הכלכלי התגלה ככישל…  6000 אזרחים הגיעו לצעדה מבניין הכנסת הראשונה לרחוב בלפור ובהם אורנה ברי פרופ רבקה כרמי אלוף מיל עמירם לוין ר…  ZeevWarhaftig קשקוש לא היו דברים מעולם לא נשלים עם הרס הדמוקרטיה הישראלית בואו לצעוד איתנו מחר יום שישי ב 1530 יוצאים מרחוב המלך גורג 24 ירושלים בני…  יום שישי ה 119 בשעה 1530 נצעד מבניין הכנסת הראשונה מקום בו נולדה הדמוקרטיה הישראלית לרחוב בלפור מקום בו נרמסת הד…  עיריית ירושלים במערומיה בשבועיים אחרונים נפגשנו פעמיים עם נציגי העירייה כדי להגיע להבנות על המשך קיומו של מתחם המח…  לצערי יינון מגל עיוות את דברי כפי שהשמעתי בתוכנית הרדיו של בן כספית ושלו  המחאה בבלפור תיעצר רק אם הממשלה תכריז שה…  נדרשנו אתמול על ידי פקחי עיריית ירושלים להסיר את השלט שמכריז על כיכר פריז ככיכר הדמוקרטיה כמשקל נגד תלו אתמול תומכ…  נתניהו ב 2820 על ההפגנות בבלפור מדגרות של קורונה חכ יפעת שאשא ביטון היום ל ynet קיבלנו בוועדת הקורונה מחקר…  מעתה כיכר פריז היא כיכר הדמוקרטיה  כל מי שחרד לעתידה של הדמוקרטיה הישראלית נקרא להגיע הערב לכיכר פריז בירושלים  sadibenshitrit מזל טוב ילד חמוד הכישלון של נתניהו בטיפול בקורונה ובמשבר הכלכלי מהדהד טוב שיש את מי להאשים את פרופ רוני גמזו ואת שאול מרידור לא…  NewLikudnik מי עוזר לנו להגיע ל5000 עוקבים כדי שכמה שיותר ישראלים יבינו שיש קול שפוי בליכוד היוצא נגד השחיתות והפיכת המפלגה לעיר מקל… מעולם לא נראו נתניהו בנו ותומכיו מודאגים כל כך כמו מהמחאה הנוכחית כנראה הם מרגישים את הקרקע נשמטת מתחת לרגליהם שבת שלום נתניהו לא מתווכח ולא מתמודד הוא משקר מפלג ומסית אחריתו מביישת את שנותיו הטובות לא ברור אם נתניהו ירוויח משהו מ…  מנסים לתייג אותנו כרק לא ביבי הפוסט המצורף מסביר למה נתניהו צריך ללכת הביתה מיד  מוזמנים לקבלת שבת בבלפור יהיה מעניין  חברי הכנסת סער ברקת דיכטר קיש יפעת שאשא ביטון מיכל שיר טלי פלוסקוב אם נשארה בכם טיפת יושרה אם עתיד המדינה חשוב לכ…  עוד ועוד אנשים נוהרים לרחוב בן מימון וכיכר פריז  סנצ גואטה הערב בכיכר פריס לפני מיצוי חקירת מחש זה כמו סמרטוט אדום לפר ניצב דורון ידיד עדיף להיות חכם מצודק מקבלים את השבת בבלפור ניצחון הרוח שבת שלום לעם ישראל  חזרתי לא מזמן מכיכר רבין המפגינים יצאו לצעדה ברחובות תל אביב המשטרה ניתבה את התנועה לרחובות חלופיים והכילה את המפ…  בלפור מגיע היום לרבין כדי שהתל אביבים יגיעו מחר ובמוצש לבלפור  באימפריה הכלכלית של נתניהו חמישית מהילדים סובלים ממצוקה כלכלית קשה ילדים שחיים בתנאים של מדינות עולם שלישי לא…  מפגן סולידריות עולמי של ישראלים במוצאי שבת ה 298  להצלת הדמוקרטיה הישראלית בו זמנית יפגינו ישראלים ב בירושלים…  על פי דיווח של רועי ינובסקי בכאן 11 סנצ גואטה חוזר לבלפור במוצש הקרוב במדינה מתוקנת זה לא היה עובר עד למיצוי החק…  חכ איימן עודה אתם המשטרה חזקים על מפגינים וחלשים על פושעים אני איש מאופק אבל לא אתן לחכ מיקי זוהר לקרוא לי אנרכיסט אני נמצא עכשיו בוועדת הפנים בכנסת בדיון על אירועי חמישי שישי ושבת בבלפור איזה תרבות דיבור  אין פלא שאנחנו חברה א…  אנחנו הרוב יצאנו לרחוב אלפים גודשים את רחובות ירושלים לנתניהו לא תהיה ברירה בסוף הוא ילך הביתה  025 מנדט מול 000625 מנדט של תומכי נתניהו והרחוב ממשיך להתמלא  עיריית ירושלים ממשיכה להתעלל בנו הציוד שנלקח אתמול מהמתחם שלנו לטובת הפגנת הליכוד נעשה באמצעות פקחי העירייה בפיקוח…  כל שנותר לכם להגיע היום ב 1600 לקבלת שבת ובמוצש להגיע לכיכר פריז אין מצב שנרים ידיים  הליכוד הבטיח 3000 מפגינים במקרה הטוב הגיעו 300 הצילום צולם הרגע  המשטרה מונעת מאזרחים לעמוד על המדרכה ברחוב המשטרה הרחיקה אותנו בדחיפות משער הכניסה האחורי של מעון ראש הממשלה לתחיל…  מי שזרק אותנו מהשער הקדמי יקבל אותנו בשער האחורי  הרס מוחלט במתחם המחאה שלנו המשטרה הבטיחה להפקיד שמירה על הציוד אז הבטיחה אין איש  המשטרה מחרימה ציוד שלנו מבלי לבצע רשימת תפיסה ובלי נציג שלנו משטרה שאיננה עומדת בהסכמים ופועלת בניגוד לחוק המשטרה מפנה באלימות את יושבי מתחם מחאת אין מצב אנחנו נערכים לניסיונות של המשטרה לפנות אותנו לטובת הפגנת הליכוד הערב אני קורא לכם להגיע מחר לקבלת השבת המסורתית של…  מחר צפויה הפגנה של הליכוד בכניסה לבלפור מפקד תחנת מוריה קצין בדרגת נצמ הגיע הערב להנחות אותי לפנות חלק מהמאהל ש…  בגצ דחה את עתירת השכנים נגד ההפגנות והמחאה ברחוב בלפור אנחנו נמשיך ונעשה ככל האפשר כדי לצמצם את ההפרעה לשכנים אני בעד שלום עם כל מדינה אבל לפני שעושים שלום עם מדינה במרחק 2500 קמ מישראל אולי כדאי לעשות שלום בתוכנו השסעים וה…  אני יוצא מבגצ שדן בעתירת השכנים בבלפור נגד ההפגנות להלן הסיכום שלי הזכות להפגין היא זכות יסוד במדינה דמוקרטית ע…  האזנתי עכשיו לראיון של שר האוצר ישראל כץ עם קלמן וליברמן על טרור הבלונים ההסכם עם איחוד האמירויות וביטול הסיפוח מביך בלשון המעטה אם חשובה לכם התעופה הכללית בישראל  התפקדו לליכוד אם אתם רוצים למנוע את סגירת שדה התעופה הרצליה  התפקדו לליכוד לא…  עיריית ירושלים מתנכלת באופן קבוע למחאת בלפור מידי שישי אנחנו מקיימים הפגנה באישור המשטרה תוך שימוש ברכב הגברה ובמה…  רוצים לחזק אותנו בואו להשתתף בקבלת השבת שלנו היום בשעה 1600 בן מימון 6 ירושלים בכניסה למעון ראש הממשלה  שבת שלום  זה שבוע שני שהמשטרה מונעת מאיתנו לקיים בתום ההפגנה ביום שישי הליכה מסודרת ושקטה על מדרכות הרחובות שמקיפים את מעון…  לידיעה האדם שעומד משמאל הוא כתב של ynet שאינו קשור לאירוע אמיר  האומנים פותחים את תאטרון בלפור  כבוד  נתניהו כולם יודעים טוב למי לקחת את הכבוד כסף  כסף זה עושר אבל יש גם או…  צולם לפני שעה מול הכניסה למעון ראש הממשלה זה יגמר לא טוב הוגשה תלונה למשטרה  קריאה לשר החוץ הרמטכל לשעבר ראל מיל גבי אשכנזי לתמוך בחוק שימנע מנאשם להרכיב ממשלה  נתניהו לחוץ איך אני יודע הוא מתרוצץ ברחבי המדינה כדי להציג תמונה שלו משלם בעצמו עבור פלאפל שולח את חכ אסנת מאר…  חייזרים אנרכיסטים מגישים פרחים למפקד תחנת משטרת מוריה נצמ קובי יעקובי קרדיט לתומר אפלבאום  קבוצה של למעלה מ 100 קציני חיל הים הגיעו לבלפור בשיירה כשבראש דגם של צוללת שבצד אחד שלה הכיתוב התעוררנו ובצד השנ…  גומרים לארגן את ההפגנה הם הולכים לארוחת בוקר במלון או ארוחת ערב או צהרים במלון וולדורף אסטוריה הנאשם אתה מוזמן…  נתניהו גם בדיזנגוף סנטר כבר יודעים זה לא ייגמר עד שתתפטר  עולים לבלפור מחר קבלת שבת בבלפור 1600 היידפארק 17…  נתניהו על ההתייעצויות עם אביו פרופ בן ציון נתניהו הוא אמר לי שמה שחיוני לראש ממשלה זה השכלה נתניהו חבל שאביך…  במשך שנים נשמר צהל מחוץ לדיון הפוליטי היום במהלך ביקור בבסיס פיקוד העורף התייחס נתניהו להפגנות נגדו ואמר אלה…  אבא שלי רואה את החייזרים אלה בהפגנות זה מצחיק אותו זה כמו בידור כזה יאיר נתניהו יאיר אני מציע לך לצאת עם אביך…  מאות מתושבי יבנה כבשו את גשר הכניסה לעיר העם התעורר אין דרך חזרה אורנה בנאי  אין מצב שנכנע לאיומים על פעילות ופעילי המחאה  הצטרפו אלינו לקבלת השבת בבלפור מתחילים ב 1630  נגנים אנרכיסטים ברחוב בלפור  אין ימין אין שמאל יש רק אוהבי ישראל 55 ימים למחאת אין מצב  ארוע לציון ט באב ברחוב בלפור אין זה יום להתחשבנות זה יום להתעוררות זה יום להתבוננות עצמית לחשבון נפש בידינו לש…  בעקבות הארועים אתמול בתל אביב אלימות איננה דרכינו והיא לא תרתיע אותנו  למה השר לביטחון פנים אמיר אוחנה לא הזמין לשיחה את מפקד מחוז תל אביב  במדינה מתוקנת ראש הממשלה והיועמש היו פועלים לפטר לאלתר את השר אוחנה ואת מפקד מחוז ירושלים ניצב ידיד מיד לאחר שנח…  למה לא אגיע לפגישה עם השר לביטחון פנים  העולם של הצעירים אפשר להאיר את ירושלים עם האנרגיות של כיכר פריז  התארגנות ספונטנית של מוזיקאים שבאו לומר לא תשתיקו אותנו  לקראת הפגנת הצעירים הערב בבלפור אלימות אינה דרכינו  זה לא נגמר עד שזה נגמר ממחאת היחידים למחאת המונים אין מצב שנאשם בשוחד מרמה והפרת אמונים יהיה ראש ממשלת ישראל  המונים נוהרים ממעון ראש הממשלה לכנסת הציבור התעורר  כוחות גדולים של משטרה ויסמ נערכים בגן העצמאות לקראת התהלוכה מרחוב בלפור לכנסת  חברי הכנסת של הליכוד אם נשארה בכם טיפה של אחריות שלחו את בנימין נתניהו הביתה ומנו אחר תחתיו נתניהו קרע את החברה ה…  מפגינים זועמים מקיפים את מעון ראש הממשלה בבלפור המשטרה בכוחות מתוגברים ואף מילה בחדשות של 2300 בכאן 11 על זה נאמר תקשורת שמאלנית לקראת הפגנת הצעירים הערב בבלפור  שמעו את הצעירים בכניסה למעון ראש הממשלה  הצעירים כובשים את רחוב בן מימון הכניסה לבלפור  הכוחות המיוחדים של אין מצב בלינת לילה בכניסה למעון ראש הממשלה יש אצלנו ארבעה כיווני אוויר והרבה יותר מחמישה כוכב…  תודה והערכה רבה לסמי מיכאל סופר ואיש רוח לוחם למען דמוקרטיה שוויון וצדק חברתי  בואו להגביר את הלחץ  המדינה דמוקרטית אבל שיפסיקו את ההפגנות חכ קטי שטרית  שיוויון מול צדק  הערכות יוצאת דופן של המשטרה לקראת האירוע הערב מישהו בבלפור בלחץ  את המנגינה הזאת אי אפשר ואסור להפסיק הצטרפו אלינו הערב ב 1900 ומחר יום שישי ב 1600 קבלת השבת המסורתית בבלפור  תגובה לאירועים אתמול בהפגנה בבלפור  ממחאת יחידים למחאת המונים אלפים הגיעו לבלפור צעירים ובוגרים אזרחים מכול הקשת הפוליטית כדי לומר נתניהו הביתה חל…  היום לפני 231 שנים פרצה המהפכה הצרפתית שחרטה על דיגלה את המוטו חירות שיוויון אחווה אנחנו בבלפור מבקשים להוסיף…  לא היו דברים מעולם תגובה לטענות המשטרה והעירייה  על הפוגרום הבוקר בבלפור אין מצב שנרים ידיים  על אף ההבנות שגובשו אתמול בין חכ מיקי לוי ובכיר בעיריית ירושלים לגבי המשך השהייה בבלפור בוצע הבוקר פוגרום במאהל ה…   בעזרתם של אזרחים טובים חידשנו את המצור על בלפור  וכאשר יענו אותו כן ירבה וכן יפרץ שמות א פסוק יב  הבוקר בשעה 0540 הגיעו מספר רכבים של עיריית ירושלים בגיבוי משטרה ופינו גדרות ביטחון שאנחנו הבאנו שלטים שלנו מזר…  המשטרה ופקחים של עיריית ירושלים מפנים עכשיו 0540 בבוקר את יושביי מחאת אין מצב בכניסה למעון ראש הממשלה בירושלים עמית סגל פרסם הערב פוסט בו הוא כותב בין השאר ריחוק חברתי איננו מזימה מרושעת של הרודן מבלפור כמו שהטיף בטיפשות י…  אין מצב אין מצב אין מצב שנאשם בפלילים יהיה ראש ממשלה  זה התחיל הערב בכיכר רבין זה יסתיים במצור על בלפור עלינו לעבות ולהדק את המצור על בלפור במחאה שקטה נחושה ולא אלימה…  מצור אנושי על בלפור החלום עומד להתגשם צילום מקבלת השבת היום בבלפור משישי לשישי כוחנו עולה  הזעם בקרב הצעירים עקב המצב הולך וגובר ראיתי זאת אחר הצהרים בבלפור חבורת סטודנטים הגיעה לתמוך בנו צעירים שחולמים על מדינה מתוקנת על ממשלה שדואגת לאזרחים צעירים שרוצים לבנות את עתיד…  אין בסרטון הצעירים שפרסמתי כדי להכחיש את קיומה של מגפת הקורונה אנחנו מקפידים בבלפור על שימוש במסכות ושמירת ריחוק ח…  הכוח הנשי הצטרפו אלינו למצור על בלפור  vikmaky 1600 אמיר לרועי פלג עצמאי ואבא לשניים נמאס מהמצב גם לי עלו לבלפור   לצערי נודע לי היום כי אחת המשתתפות במחאה מול מעון ראש הממשלה קראה לעברו   קריאה נוראה  בה שולבו המלים הייל היטלר…  ראיון מקיף עם שותפי לתא המעצר בכלא הדרים סדי בן שטרית היה אמור להתפרסם ביום שישי האחרון במוסף ידיעות אחרונות 7 י…  חכ קטי שיטרית מבקשת באופן מפתיע לאסור הפגנות עקב הקורונה חכ קטי שיטרית את המנגינה הזאת אי אפשר להפסיק גם ה…  הצילום מדבר בעד עצמו חבריי למחאה בשעת בוקר מוקדמת בבלפור לכולם בתים מיטות מזגן זה גיל שהילדים כבר יצאו מהבית…   נתניהו מנדלבליט מנסה לבטל את ההכרעה הדמוקרטית של מיליוני אזרחים שבחרו בבנימין נתניהו לראש הממשלה שוב Fake news…  מתחילים להטיח בי רפש כמו שאינני נוהג לענות לקללות של תומכי נתניהו בצמתים ולהגיב לתגובות בוטות בפייסבוק אין לי כוו…   מנסה להתאושש מהחוויה של סוף השבוע מכמות הודעות התמיכה והטלפונים לצערי אינני יכול לענות לכולם אעשה זאת בימים הקרוב…  ronithedin בן מימון 6 ירושלים דוברים 1 עוד גונן בן יצחק ידבר על החקיקה בוועדת הכספים 2 אורלי ברלב תדבר על פרשת הצוללות 3 רועי פלג יזעק את…  hezkiny נאמר לי שזה גבר שביקש לשמור על אנונימיות את הפתק כתבו בחנות אמיר האלמוני ששלח לנו פרחים בשבוע שעבר ממשיך במסורת לפני שעה הגיע זר פרחים נוסף ועליו הכיתוב נחישות והתמדה כן זה מ…  המשטרה שלחה צלם לצלם את מחאת הכיסאות דמוקרטיה במדרון  אתם מדמיינים לעצמכם את  בן גוריון שרת אשכול בגין ושמיר מבקשים החזרי מס אנשים עולים לבלפור מכול הארץ הגיע גם גלעד גרבר נווט קורנס מהטייסת האחת שנפל בשבי הסורי במלחמת יום הכיפורים  למה…  נוגה עמית משיח הגיעה לתמוך במחאת הכיסאות גם נוגה חושבת שהאנשים בשלטון לא מתייחסים לאזרחי המדינה צפו ושתפו  אין מצב שנאשם בפלילים יהיה ראש ממשלת ישראל ראש ממשלה ששקוע עד צוואר במשפט פלילים אין לו מנדט מוסרי לקבל החלטות גור…  NWeinryb DramaSkills בצילום יש את מספר הרכב OrenIshai netanyahu חבל שאתה לא מזדהה בשמך אתה מוזמן לבלפור לראות את התנהגות תומכי נתניהו ולבחון האם ניתן לפרסם פוסט או ציוץ מאחד שעת צהרים חם בירושלים אני משוחח עם עיתונאי רכב מסחרי עוצר לידינו הנהג בחור צעיר פותח את החלון ומשמיע גנגלים…  להנהלת דרכנו את ההפגנה המתוכננת ל 236 כן לשמירת ישראל לא לסיפוח צריך לקיים בבלפור ירושלים ולא בכיכר רבין  א…  נתניהו קרע ושיסע את החברה הישראלית את הנזק הזה ייקח שנים לתקן אם בכלל צפו בסרטון המצורף ותבינו לבד  מי האיש החפץ חיים אוהב ימים אוהב ימים לראות טוב מה שערוצי התקשורת שלנו לא הראו לכם קבלת שבת של מחאת הכיסאות הע…  שמעתם שהייתה היום הפגנה בבלפור בהפגנה לקחו חלק בין 500600 משתתפים הייתה זאת קבלת שבת של מחאת הכיסאותמול הכניס…  לפני 10 דקות קיבלתי טלפון יש לי זר פרחים בשבילך אמר הדובר אתה עובד עלי עניתי היכן אתה נמצא ברח בן מימון…  קבלת שבת עם מחאת הכיסאות  אין מצב שנאשם בפלילים יהיה ראש ממשלה בואו לקבל א…  פרופ אסא כשר הגיע לחזק אותנו וביקש להעביר את המסר תמשיכו תמשיכו תמשיכו לעמוד על נאמנות מוחלטת לשלטון חוק שיש ב…  בואו לבלפור לקבל איתנו את השבת  לילה שישי בכניסה למעון ראש הממשלה לילה טוב מחאת הכיסאות  אני נמצא עם חבריי למחאת הכיסאות בכניסה למעון ראש הממשלה אנחנו כאן כבר שישה ימים יום ולילה הגיע לכאן צוות צילום של…  מחאת הכיסאות נערכים לקבלת פני המשלחת היוונית שאמורה להגיע לביקור במעון בבלפור בשעה 2000 אני מאזין עכשיו לתכנית של קרן נוייבך בכאן 11 מתברר שעסקים רבים מנצלים את משבר הקורונה להתייעלות שני מוסדות מצאו ל…  מחאת הכיסאות שביתת שבת בכניסה למעון ראש הממשלה בירושלים עלינו לבלפור כדי להסיר את הכתם שדבק בישראל ראש ממשלה נ…  תקשורת האם אתם יודעים שבכניסה למעון ראש הממשלה מתקיימת שביתת שבת כבר חמישה ימים יום ולילה מחאת הכיסאות ואיש לא…  נגה רונן ובנה בן השש הגיעו משדה נחמיה לתמוך במחאת הכיסאות בבלפור והביאו את השלט מאחז עיניים תפונה התנחלות הנאשם מ…  תאל מיל אסף אגמון איש מערך התובלה של חיל האוויר בפניה לאומנים ולראש האופוזיציה חכ יאיר לפיד  אלינה נציגת הדור הצעיר הגיעה לתמוך במחאת הכיסאות הקשיבו לקריאתה ועלו לבלפור ראש ממשלה ששקוע עד צוואר במשפט פלילי…  האם נשיא המדינה עדיין בבידוד מדוע לא שומעים את קולו בנוגע לעובדה שעשרות בכירים במערכת המשפט מאובטחים האם זו דרישה…  פנינה בת 96 הגיעה עם הבן מראשון לציון כדי להביע סולדריות עם מחאת הכיסאות לימין ולשמאל נאשם בפלילים אסון בושה ה…  האם נשיא המדינה בבידוד למה לא שמענו אותו מגיב על המתקפה על רביב דרוקר והעיתונות ruvirivlin תרומתם של אומנים למחאת הכיסאות שביתת השבת בכניסה למעון ראש הממשלה בבלפור נכנסת ליומה הרביעי אבני נגף שוחד מרמ…  כשאני עומד בצמתים אני מקיים אינטראקציה עם החולפים לידי נפנוף לשלום ברכת בוקר טובשבת שלום בדרך כלל הרבה מאד אזרח…  ביבשה ובאוויר ממשיכים במחאה אין מצב שנאשם בפלילים יעמוד בראש הממשלה הצטרפו למחאת הכיסאות בבלפור ירושלים שבת שלום  מדינת ישראלתהא מושתתה על יסודות החירות הצדק והשלום לאור חזונם של נביאי ישראל תקיים שויון זכויות חברתי ומדיני…  מחאת הכיסאות שביתת שבת בבלפור יצאה לדרך הבוקר ב 1100 נכון לעכשיו ישי הדס עוכב לחקירה עקב שימוש במגבר בעוצמה חזק…  הדרך הנכונה לחנך בני אדם היא להיות להם דוגמה אלברט אינשטיין בצילום דוגמה רעה על קריסת ערכים כבר דיברתי הנה דו…  ראיתם את ההפגנות בבית הלבן בוושינגטון עכשיו אנחנו רוצים שבוושינגטון יראו את ההפגנות מול מעון ראש הממשלה בבלפור הצ…  המתנה של 3 שעות לקו 370 שנוסע בין באר שבע ותל אביב חבר שואל למה האוטובוסים לא נוסעים במהלך כל היום 24 שעות ביממה…  KahanaMatan מתן אתה חמוד המשך יום נעים asafzamir ציין סיבה אחת למה שנאמין לכם ידידי חכ מתן כהנא אני קורא ציטוט שלך מראיון ברדיו 103 נעשה הכל כדי שנתניהו לא יהיה רהמ הבא מה קרה מאז המפגשי…  כמה אני מקנא בגיבורים האלה שיכולים לצאת להפגין לשמור על שפיותם על שפיותה של החברה הישראלית להגן על היושרה של ה…  שתי הכניסות למשרד החוץ בו נערכה ישיבת הממשלה השבועית נחסמו הייתה זאת התנגדות לא אלימה נגד ממשלת החזירות הלאומית…  משטרת ישראל אם אתם חושבים שבאלימות תרתיעו אותנו מלהפגין אתם טועים ILpolice במהלך השנים אימצנו כל זבל מארצות הברית ועכשיו משטרת ישראל מקבלת שעורים באלימות אין ספק ששוטרי תל אביב תלמידים מצטי…  אין לי ארץ אחרת לא רוצה אותה בוערת קרדיט לאורן ישי דוד הגענו הערב אלפי מפגינים כדי לומר בקול רם וברור שראש…  לא ברור לי למה האופוזיציה לא יוזמת מיד חוק שנאשם בפלילים אינו יכול להתמודד על הנשיאות  אני צופה בדיון בערוץ 12 על ההפגנה אתמול בכיכר רבין הייתי במקום האדון עמית סגל שלא היה במקום מדבר על אלימות אלי…  זוכרים את נגיף הדיקטטורה משטרת ישראל דרשה ממארגני ההפגנה נגד הסיפוח בכיכר רבין במוצש להסיר את האירוע מהפייסבוק  דיקטטורה היא נגיף שהסימפטומים שלו מתגלים לאט בגילוי אתם עלולים למצוא את עצמכם במחנות הסגר עם אפשרות חיבור למכונת ה…  אתמול הייתה אלימות משטרתית רבה בפיזור ההפגנה בכיכר רבין נגד חוק הקורונה 12 מפגינים נעצרו ידיעות אחרונות הקדיש ל…  הבימה הפסידו שחקן מובטלי הקורונה זכרו לוח פגישת הליכה וחדר כושר </t>
+  </si>
+  <si>
+    <t>ועוד משגרירנו באום גלעד ארדן בטורו בישראל היום נאומו של רהמ היום בעצרת האום יציג בגאווה את הישגיה של ישראל ומק…  רציתי לכחוב טור על השימוש המשונה של איזה כוכבנית אינסטגרם בתפיסות עולם פמניסטיות אבל אז קראתי ראיון איתה והיא אמרה…  המשטרה לא צריכה להכנס ביום כיפור לבית כנסת  אבל אפשר לזמן לחקירה היום את הגבאי של בעלזא ולהעמיד אותו לדין  ולא יזיק…  MatanAlcalay בעלה של חברה טובה של מעין נעדר מאז ערב כיפור מפרסם פה למקרה ויש מי שיכול לסייע   תעצרו הכל רבותיי הפרופ להיסטוריה ומחשבה מדינית רז36823891 הצטרף  לטוויטר   האום מאבד את זכות קיומו  האום מסתכן באבדן הרלוונטיות והלגיטימציה שעוד נותרו לו  הארגון היוקרתי והמנופח…  talialin ירדתי ממנה צער בעלי חיים amitlvr כי הוא לא גולה אלא הומצא  שמחתי להטריל NehemiaGA כי כותבים דיכאון לא דכאון אידיוט החיפוש של דיכאון תסמינים בשנה האחרונה  בא לי  בלאדי מרי yaircherki אבל הוולט חזר talialin ולא לא קורין גדעון אם כי יש מצב ששמה יוזכר talialin יש לי כבר טור משהו טוב איזה כוכבנית אחרת מצב נפשי הולך לקרוא את זה  קריסת הוולט  חורבן הבית השלישי danieldolev MayaAsheri תגיד שמת תמונה של מטוס אין לך טיפה רגישות danieldolev MayaAsheri למה שלא תפתחו קבוצה עם ננסי ברנדס רות וסטהיימר ואיימי שומר ותשחררו לנו את הפיד אלוהים  יאללה למסעדות פאק אפילו אני שילמתי ב2016 יותר מס מדונלד טראמפ באמריקה ואני אפילו לא גר שם או מרוויח שם סנט  elizipori מה יש לי להתרפס בפני קלמן   חתימה טובה אלי היקר HShezaf היי הגר רוצה שנהיה חברים מוזר שהעבירו את כל הנאום של גולדה בשידור חי ואף אחד לא צעק מה אתם מעבירים את הנוכלת הזו תחתכו פעם ראשונה שאני שומע מהדורת חדשות של קול ישראל שלא כוללת בסיומה 3 דקות על מחקר לא חשוב  זהו הטוויטר שלי ערוך ומוכן ליום הכיפורים  כמו שכתב גור מגידו ידידי סליחה מיידוף  noamfathi בוא נשלים חתימה טובה נועםץ לפני שנה היה לי כאן ויכוח נוקב עם קלמן ליבסקינד על זיופים במגזר הערבי  אני עומד על המהות וסבור שקלמן טועה  אבל במ…  gideonallon תודה גדעון שמסרת את נפשך למען העם במלחמה  הנוראה וזה בדרך למשדר סליחות שאלוהים יעזור לי  livnitzan הציוץ הכי טוב בתשפא livnitzan למה אין במשדרי הסליחות מהכותל מישהו שיציג דעה מאזנת שאין אלוהים yaircherki OferHadad SivanRahav אשמח אם תוציא אותי שרקי חיים דב בן בתיה tamarlask תבני עץ יוחסין לסופר פארם bezalelsm זר דווקא מבין אפשר גם לגלות אמפתיה עם אחרים גם אם אתה לא חלק מהם זה מבאס שאורח חייך השתבש בגלל הקורונה…  לפי הסרטון החדש של ביבי הסגר השני הוא הישג עצום שמדינות אחרות יחקו  אין לי כוח יותר NadavPerry שתפתח קבוצה עם רוני אלשייך חברים היהודי הקדוש הזה מאבד עוקבים מפיד ערן זהבי בגלל שהוא תומך בי תעשו עימי חסד  תעקבו אחריו הוא תותח  אמת רבג הייתה שופטת ליברלית אבל היו ליברלים אחרים גם הם פשוט פחות עסקו בקידום עצמי סטייל רבג אז פחות שמעתם עליהם זהו אם בדקות הקרובות ישוגר טיל גרעיני מאירן לעבר ישראל מה יעשה נתניהו  1 עוזב הכול ודוהר לבור בקריה המדינה מעל הכול…  טרחתי ובדקתי זה טבלה של פסקי דין שרבג כתבה בעצמה אם מישהו רואה פה דפוס מ2007 שכביכול הבשילה כשופטת והתחילה לכת…  כחלק מפולחן האישיות של רות ביידר גינזבורג מתפרסמים טקסטים מופרכים בזה אחר זה על מורשתה אביגדור פלדמן כתב בהארץ א…  dudiamsalem תתפלל אבאכמה שיותר צפוף וגם אל תשים מסיכה דפוק אותנו עד הסוף RoieLabes מלחמת העולם השנייה talshalev1 WallaNews BarakRavid חשוב מאוד מישהו יודע מי החברים של גיימס פאקר בישראל אביעד גליקמן לא גיא פלג לא מעניין 🧐  מדינות שצריך בהם עכשיו סוודר   יאללה מיצתי את הקטטה היו שלום רמת תחכום נועם פתחי  Demosthanes2 chaimlevinson נחמד במיוחד החלק שבו הוא נכנס לדיאלוג על למה נועם פתחי חשוב מספיק בשביל שיהיה לו ערך בוויקיפדיה הטיעון המ… פתחי שמח לתת לשוקה שלום שיעור בלוגיקה  אם הייתי כותב על עצמי את הויקיפדיה הייתי שם קטע על תקיפות מיניות של עצמי  מוזר שפובליסיס העולמית לא הכירו בכישרון העצום של שוקה שלום  לא נשמע לי בכיר מי יודע מה  Nefolet אולי שני כהן noamfathi בסדר יש לך מעריצים יתרה מכך הערך הועמד למחיקה היוזר האנונימי נאבק בדף השיחה נגד המחיקה הרחיב את האייטם במידע רב שלא ימחק טען שטען…  ראיתי שנועם פתחי טוען שהוא לא זה שכתב את ערך הויקיפדיה שלו בואו נבדוק  מי שפתח לו הערך זה יוזר לא רשום 1096641…  ראיתי שנועם פתחי קרא לי חזיר משתנק אז גיגלתי תשם שלו סיקרן אותי איך הוא נראה בעצמו  noamfathi סתם מסקרן אותי פתחי למה הביאו את אסף שלמון להיות התסריטאי של שוקה ושל אסי כהן עם אתה הקופירייטר הכה מוצלח למי שתהה למה נעם פתחי קורא לעצמו סאטריקן בויקיפדיה זה כנראה בזכות הסאטירה המשובחת הזו תנו לו לייק רחמים  סלוגן מבריק נוסף מבית מדרשו של הקופרייטר המצליח  נעם פתחי  אוקיי רבותיי כשכתבתי את הציוץ המקורי לא ידעתי שהקמפיין המבריק עם ההומור הבריטי הצונן והדק של שוקה זה של נעם פתחי…  elizipori אתה צודק הולך להכין שניצלים עם הילדים שבת שלום אלי בסנט מוריץ יורד עכשיו שלג  elizipori תאמין לי אלי כולנו צריכים לבוא אליך לשיעור אהבה מהי michaeldvorin אוקיי מתנצל קופרייטר מצליח N01 hasolidit לא מצליח לעשות קפה טוב בבית tamarlask סופר פארם שולט יפה יפה בשוק בתי המרקחת בארץ עם מחזור של כמה מיליארדים יופי טופי אבל מה הקטע של לקחת 10 שקלים עמלה אם אתה רו… אולי אסור לפרסם את השם של החלאה אבל את השם של השופט שנתן את ההחלטה מותר לפרסם גורג אמוראי  חשיפה מטורפת של ערוץ 20  חשבתי שראיתי הכל בימי חיי אבל קופרייטר כושל שלולי היה מלקק לביבי היה כותב היום ברושורים למאפיות טוען שקלמן ליבסקי…  adimessika אין כמו לעשות סגר בשטח ציבורי  chaimlevinson  שבת שלום עם יקר ואהוב שלי  TheRealYield מעדיף להזריק אקנומיקה קודם מי רוצה להתערב שביום שלישי עוברים העשרת אלפים ביום  אוקיי  פרסום ראשון בעקבות פרסום תמליל מחקירות נתניהו  השבכ הגביר האבטחה סביב ראש הממשלה  SharonaMazalian ספר פצץ  אתם חושבים שגם עליהם יגיד מיקי זוהר שהם מפיצי מחלות כפי שאמר על המפגינים בבלפור ונתניהו יוסיף שמדובר במדגרת קו…  ruthelbaz למה לא תייגת פרסום ראשון של יערה זרד  לא יודע  כל מי שמבואסים מזה שעכשיו יש סגר וצריך להיות תקועים בבית עם המשפחה  תגידו לעצמכם שמצבכם טוב בהרבה מזה של ביבי שגם…  הטרלה מושלמת  נתניהו בתגובה   בכל הקריירה שלי היו מצבים רבים שלא שמעתי לאנשי המקצוע וצדקתי במאה אחוז  ראש הממשלה בנימין נתניהו שוחח עם אחד ממארגני ההפגנות בבלפור סדי בן שטרית והסביר לו על הסכנה של נגיף הקורונה והחשי…  yanircozin יניר תזהר ממני UriMisgav שכחת נקודה אחרי גמרתי התקשח למנוע הפגנות יעלה בממשלה נראה מה יהיה במקום לשלוח לו משטרה  לקלמן ליבסקינד מפריע שאנשי תקשורת היו בפעילות בליכוד וחזרו לתקשורת הוא כנראה שכח שהוא אחד הזגזגנים הפוליטיים הכי ג…  hasolidit תשובה אוהב קפה hasolidit באה לקפה אני משלם שלא תחששי וכרגיל הוא האשים את שאשא ביטון ואת כולם אבל שכח את עצמו ואת ההחלטות שהוא קיבל ואת ההשלכות שלהם מה המשמעות של קבלת…  זה אפקט פתיחת הישיבות כשהצטרפו התיכונים ב17 בספטמבר עמד מספרם על 126 ב22 לספטמבר על 12 ושם אנחנו היום אמת הצ…  ב24 לחודש לפני פתיחת המוסדות 104 אחוז מהנדבקים הגברים היו בגילאי 1019 ו54 אחוז בגילאי 09 בבני ברק היו 428 ח…  שנת הלימודים נפתחה בראשון לספטמבר כולם יודעים שהקפסולות זה בלוף גמור שבועיים אחרי ב14 לחודש 4803 ב15 לחודש 553…  שנת הלימודים החרדית התחילה בג אלול יום ראשון 23 באוגוסט זה יום ראשון היה מספר נמוך ניקח את המספר המחמיר של יום…  המסעדות היו אמורות להסגר ב17 ליולי באותו יום היו 1600 מקרים אחרי שבוע ב24 1800 ואחרי שבועיים ב31 1362  במילים אחר…  כמיטב המסורת נתניהו האשים אתמול את יפעת שאשא ביטון שבגללה הייתה התפרצות קורונה בואו נבחן רגע את הדאטא  חדרי הכוש…  YaronDeckel למי שלא האזין אתמול קול מן העבר  רב אלוף מילשאול מופז  על מלחמת יום הכיפורים ועל מנהיגים שצריכים לדעתו לדעת מתי זמנם… liorus איך הדשא רואה שיקי אדמקר הקדים אותי בדקה אז לא פרסום סתם ידיעה סליחה יקי פרסומונציק נתניהו מתכוון להביא עוד היום לממשלה תקנות שעת חירום שיצמצמו את הפגנת בלפור במוצש זאת מכיוון שהחוק לא ע…  liorus מבקרים בשביל לוינסון chaimlevinson  האשמים במצב  רשימת החירום של החירום  1 קלמן ליבסקינד 2 קלמן ליבסקינד 3 קלמן ליבסקינד 4 קלמן ליבסקינד 5 ק…  ווואו קלמן זה נכון  avishaigrinzaig מה עם האגרה  שאלה לכתב לוינסטוןNews  אדוני ראש הממשלה איך זה שאתה כל כך מושלם כל כך מנהיג כל כך חכם מנצח הקורונה משח…  roysharon11 רוקו היה בגץ בשנות התשעים של איזה דוגמן שרצה להשאיר שיער ארוך לא עזר BittonRosen הלל ידידי אתה עושה שימוש מוגזם במילה דיבה וחוששני שאתה לא עד הסוף יודע מה דיבה ומה לא דיבה אני מקווה…  theyoni מאש אפ מיק פתוח בכאן 11    מעדיף לצפות בפורנו של בעיטות באשכים אני לא צופה סתם מהמר והנאום בקונגרס עוד פעם לא מאמין ששוב הוא הזכיר שלחם בסיירת מטכל החלטנו ההחלטות אותן קיבלנו גם לפיד לא נכנס להצביע אגב חוק הקורונה עבר על 4 קולות אם ימינה היו טורחים לבוא החוק היה נופל סידרתי את זה  asaflib יהודים לגז זה נראה שגנץ התאמן על הורדה מהירה וחדה של המסכה נתראה במרץ אני הייתי חיים לוינסון  iairLevy ishaycoen בכלל לא מזלזל אבל אתה בסך הכל עוד יהודי עם דעות שונות מה הדרמה ishaycoen תגיד לי ישי למרות שאני מאוד מחבב את יאיר לוי מדוע הוא ככ חשוב שאתה מעדכן בכל הגיג שלו roysharon11 הטיטניק טובעת ואתה ממשיך לספר אנשים על הסיפון אם איחוד האמרויות מוזכרת פחות מחמש פעמים היום בנאום נותן 500 שקל לצדקה oyelloyell אם אתה מתעניין עבדתי סבל טבח בקיוסק בשטיפת רצפות בחלוקת פליירים מי שהרביץ לרן בוזגלו הוא אפס מאופס פרסום ראשון  עם 35 שרים בממשלה  הגיע הזמן לומר די לדמגוגיה1 את מיותרת לגמרי תתפטרי  ruthelbaz כן אני זה שצריך לשמוע מהם את התלונות ruthelbaz יש לך יותר דייטים בחודש מחולי קורונב מאומתים מאוד מעניין אותי לדעת מה הייתה עמדתה של צופיה נהון יועצת ראש הממשלה לעסקים קטנים אמש בדיוני קבינט הקורונה בטוח ש…  זה מזכיר לי בדיחה ישנה שאולי תפתור את בעיית בית שמש  איך קוראים ליומן הכלא של אריה דרעי אנא פרנק  talshalev1 יש מיליון מובטלים שיקחו אחד מורנו ורבנו יעקב ברדוגו מבקש להסיט הצידה את המחלוקות הפוליטיקה וכל דבר שפוגע במאמץ הלאומי  ומשפט אחר כך ממהר לת…  קרן פלס ידידתי הטובה  אני גאה לבשר לך שהחל מהיום את  שמאלנית סמולנית חלאה עוכרת ישראל חצי מהצמד גילי וגלית זבל ב…  fakeNaor כך עם ישראל איבד גדויל ibaombudsman ידעתי שתצוץ MatanAlcalay לספר את הסיפור על סמי והאנתרקס BarakRavid תודה ברק JoshBreiner אז תעשה לייק TRy0l0GOOV5xR8h תודה על המילים החמות חתימה טובה rtelem אתייעץ עם ועדת האתיקה ואחזור אלייך rtelem צלצל אלי מתי שתרצה עזרה והכוונה בשמחה 0505204118 אותי זה לקח מהשכונה למסע בישראליות בקרביים שלה ביופי המתעתע דלה עם שאני ככ אוהב אני בדרך כלל לא כותב כאן דברים…  הגעתי למקומות שאפילו אם הייתי לוקח פטריות הזיה לא הייתי חולם שאגיע זה היה ועדיין מסע מופלא עיתונות כמו שפאוסט כת…  בבוקר רב עם המורה ביב  ובצהריים בכיכר ספרא ובבתי הספר ואז בזירות הפיגועים הקשות עם בני הנוער שחטפו באוטובוסים ובמ…  שבוע לפני קראתי אותו כאילו זה התנך והנה היום השם שלי שם סיפור הביא לסיפור ומשימה רדפה משימה פתאום התחלתי לקבל כ…  לא היה אפילו פלאפון אז שיחזרו אלי אז פוריה אמרה לי לך תביא סיפורים לא היה לי משהו אחר לעשות באותם ימים אז הלכתי…  זו הייתה הפעם הראשונה שהייתי במערכת עיתון מבחינתי השמות שכתבו אז היו אגדות בני אלים אראל סגל שלום ירושלמי בן פ…  בדיוק היום לפני 20 שנה נכנסתי לראשונה לעולם העיתונות נעניתי למודעה קטנה בעיתון שביקשה תיכוניסטים לעבודה בעיתון כל…  arisade94 לא יודע איך לספר לך את זה אבאלהאבל הוא כישלון מוחלט עד עכשיו לא לוקחים אחריות על כלום RazShechnik מאכזב RazShechnik אני רוצה להודות לשירי שהוכיחה כישרון חריצות ידענות בקיאות חריפות חמידות ידענות בתפקידה הקודם והובילה…  RazShechnik זהו שכניק אין יותר מזה  אני רוצה להודות ל שהיה מדהים ומהמם ומעלף וניהל את התוכן האסטרטגי הגלקטי ש…  mosheprimo תודה רבה לך אדוני שר הספורט חילי טרופר על המאמץ הגדול שאתה עושה למען המשך הספורט כאחד של הגיע כלל מהתחום זה לא מובן מאליו… שתבינו אתמול בהתייעצויות שרים גמזו לא היה  בישיבת הממשלה אמר שמתנגד לסגירת שוק העבודה מתחת ל50 אחוז נתניהו היסה…  אשמים במצב  מצעד חירום  1 המפגינים בבלפור 1א מנדלבליט 1ב גמזו 2 השמאל 2א יפעת שאשאביטון 3 בנט 4 הורי ה…  carmelkamin אוהב אותך אף יותר attaliami מה הלחץ אחי יש שלום עם סודאן שיטוסו לחרטום attaliami מישהו יודע לעזור לחבר עם שלושה אתרים פתוחים עשרות עובדים שאין להם מושג מה יהיה איתם מחר וים לקוחות שמחכים למסירות  אני אתבע אתכם על תאונת עבודה  idaholloway מאזינה ל דקלוינסון ושומעת את הגברת אסנת מארק מצהירה שהאשמים במצב הם הורי התלמידים שלחצו לפתוח את מערכת החינוך  היא לא יו… כל דקה שגמזו לא מתפטר הוא משתתף בהונאת הציבור כאילו יש אלמנט מקצועי בהחלטות itamareichner מה ההיגיון לסגור מפעלי יצוא והיי טק שמכניסים כסף למדינה ושומרים באדיקות על כללי הקורונה  הזויים גם אני לא  זה יהיה נחמד אם במישהו בממשלה יעדכן אם ההנחיות לאזכרות של מלחמת יום כיפור בתוקף או לא בסגר של שבוע שעבר היה מותר עכשיו זה השתנה avishaigrinzaig תוכל להביא את המפרט האחרון אהוד ברק  נתניהו רוצה מצב חירום כדי להוביל פיטורי מנדלבליט oronh צריך לומר ביושר בכל פעם שאני שומע על עוהד גיל לימון עוזרו הבכיר של מנדלבליט זו התמונה היחידה שעולה לי לראש  EladC1054 היום ב דקללוינסון מראיינים חוצנים בעלי תואר שלישי גיל לימון הופך את עולם המשפט לגוף אוטיסטי שלא מחובר למציאות יפעת שאשא… kannnews דר גיל לימון עוזרו של היועמש מוטרד משיח שכולל שקרים הסתה והתקפות ברוטליות כלפי מנדלבליט ובכירי מערכת המשפט YaronDeckel… גיל לימון מנדלבליט התקשר אתמול לאביעד בקשי leeyaron טור כל כך טוב של לוינסון ⁦chaimlevinson⁩   waldagan1 ברור שיש אבל אני מתעלם מהפינה עד שאוביל בזיהוי YaronDeckel מי איתנו הבוקר עוד גיל לימון עוזרו הבכיר של הייועץ המשפטי לממשלה השר יובל שטייניץ חכ יפעת שאשא ביטון חכ אסנת מארק… johnbenackta זה נכון אבל מה לעשות קלמן ליברמן צריכים לנוח הבוקר בדקלוינסון  דיכאון קליני גיל לימון עוזרו של מנדלבליט ייאוש מוחלט השר יובל שטייניץ מחשבות על מעבר לדנמרק אסנת…  kerenmelamed 2159 חולים חדשים אובחנו בישראל ב1 בספטמבר שלושה שבועות אחר כך המספר זינק פי 3 ואין אף אחד שיגיד טעינו פתחנו את מערכ… nitzanzur סרטן attaliami אושוויץ אני רוצה לכבס את הנפש שלי בחול אבל למה בחול  למה בעצם סוגרים את נתבג מחווה מרגשת ליום השנה ה20 לאינתיפאדה השנייה  מקווה שמחריגים את מצדה מהסגר להתאבדות המונית HauserTov האשם בהמצב נקבע על ידי ועדה בלתי תלויה שום רדיו לא יתערב לי בדירוג מעניין  אם יהיו כאן 2000 לייקים אני קורא פומבית שטל אוחנה תחליף את נתניהו בראשות הממשלה  בא לי לחמם את אריה דרעי ולצייץ שכדי להפסיק את ההפגנות נגדו בבלפור נתניהו מוכן גם להקריב את התפילות אבל לא אצייץ…  avishaigrinzaig ההבדל בחוק הוא להגן על נחקר בחקירות   הדלפה היא מעילה באמון המעסיק מה שחשוב לטעמי זה סיווג ורגישו…  avishaigrinzaig עיניך הרואות שמיד ישועה זומן לבירור והכחיש שהדליף מה אתה מצפה שעל סמך עדות שמיעה מכלי שני יוציאו האזנת סתר  ך yotameyal רפואה שלמה בשורות טובות בקרוב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סולח לכם  ronliberal RMatsliah מנהל מחלקת הקורונה בבית חולים העמק בעפולה ופעילה חברתית לא זוכר את שמותיהם לצערי רינה מצליח פחות מתחברת לקונספט המשונה של גיוון בתקשורת RMatsliah אני בהלם ערוץ 12 הזמינו שני אורחים ערבים לפאנל והעולם עוד לא חרב guyshamai כן גם אני בעד סיפוח   ס סיפוח י ישראל פ כמדינה  ו ה51 ח של ארצות הברית almogbenzikri ערב ראש השנה זוג הומואים שמתגורר בעיר העתיקה באר שבע היה קורבן לתקיפה על רקע נטייתם בשעה 2 בלילה הם התעוררו לקללות מו… מאמי רוצה שאני אעשה לך שפם  DanaCassidy0027 YinonMagal מלכה therealguypines הנסיון הפוליטי הצייצני להקביל בין חופש ההפגנה לחופש התפילה ההמונית בבתי הכנסת הוא פרובוקציה ריקה מדף המסרים פולחן דת… מנהיגים מכל העולם מתקשרים אליו לשאול איך עשינו את זה  DanielReuven במידה והיא תפסיק להיות בובה איראנית יש מחאות שם בימים אלה לך תדע מה יהיה שם בשנים הבאות מעניין יהיה לראות איך זה ישפיע על יחסי הפנים של העולם הערבי בעתיד בימים אלה של נוצרים שני מחנות של מדינות ערביות אחד שמתנגד לנורמליזציה עם ישראל והשני שבעד מצרים האימרויות בחריי…  ושהם מבינים שאנחנו לא הולכים לשום מקום הפלסטינים כהרגלם כועסים הסרבנות שלהם משאירה אותם בחוץ בזמן שישראל הופכת…  12 האמירויות בחריין ותכף עומאן סעודיה וסודאןבקצב הזה ישראל מצטרפת לליגה הערבית בעשור הקרוב  ובנימה רצינית ה…  33 אזרחיו השיעים בעיקר בעקבות המחאות במדינה ב2011 בבחריין מתקיימות בחירות לפרלמנט משנות ה70 ובית המחוקקים מורכב…  23 אי קבלה נמוכים יחסית ללהטבים 40 מהבחריינים אמרו בסקר שנערך ב2011 שהומוסקסואליות לא צריכה להיות דבר מקובל לעו…  13 אם כבר נורמליזציה עם בחריין הידעתם שהמדינה הקטנה במפרץ ביטלה את האיסור על הומוסקסואליות כבר ב1976 המדינה השנ…  22 לה ורק לה ראש הממשלה הוא אותו ראש ממשלה השר לביטחון פנים מייצג אותנו בעולם והמפכל שקרא ליעקוב מחבל בן מוות ור…  12 לביבי לא אכפת לא מיעקוב אבו אלקיעאן ולא מחקר האמת לביבי אכפת מביבי תודה רבה באמת שהוא התנצל על טעות מחרידה שב…  בנימין נתניהו גלעד ארדן רוני אלשיך שי ניצן והתקשורת הישראלית כולכם אשמים הרצח של יעקוב אבו אלקיעאן הוא אות קין…  ״פיגוע נפשע״ כינה נתניהו את המקרה המצער באום אלחיראן ״מחבל שנבחן הקשר שלו לדאעש מיהרו להצטרף אליו במשטרה מחבל פ…  ביבי היה מת שכולם יסגרו טלפונים בהפגנות כי בלי טלפונים המפגינים לא היו מצליחים לתעד כל פינה והתרחשות בהפגנות בבלפו…  attilus כן כן הוא היה מת שכולם יסגרו טלפונים בהפגנות כי בלי טלפונים לא היינו מצליחים לתעד כל פינה והתרחשות בהפגנו…  hadsl כשח״כ חרדי מש״ס מגיע לנחם בסוכת האבלים של המורה שריפה אבו מועמר מרמלה וכן לנחם זה לא מספיק ולכנסת יש הרבה מה לעשות כדי למנוע… Israelcohen911 גם נשיא אוקראינה היהודי בדוק אנטישמי Liberwomen לכסות את הגוף שלך מטעמי צניעות ועוד בחום של אבו דאבי זה סיוט פיזי ולטעמי גם חוויה משפילה אבל לפעמים אישה צריכה לעשות מה שא… MaryamAvia Much love So happy to interact with you and hope to see you in Israel سلام من تل ابيب  MaryamAvia That obviously doesn’t say I am not happy about the peace agreement between our countries on the contrary MaryamAvia I am glad to hear that you are a free thinking secular Muslim Emirati That being said we should empha…  22  פטריארכלית שנשלטת ע״י מיעוט מיקומי שמדכא ורודף את כל מה שלא מיישר קו עם מנהגיו והשריעה האיסלאמית אם אתם להט״…  12  אין מאושר ממני מהנורמליזציה של היחסים עם האמירויות העובדה שיש כיום שלוש מדינות ערביות שמכירות בישראל משקפת ה…  New Middle East today and for the first time in history an Israeli commercial flight crossed Saudi airspace and l…  ״בחודש האחרון אירעו 3 מקרי אלימות נגד להטבים כולם מצד צעירים ערבים כשלהטבפוביה מקבלת גיבוי מנבחרי ציבור ערביים…  YediotAhronot ההבדל בין עיתונות לתעמולה  הצעת החוק לענישה מוגברת כלפי משחיתי תמונות נשים שימו לב מי הצביע בעד ומי הצביע נגד תפנימו ותזכרו עד הפעם הבאה שה…  Israel in a nutshell report announces “for the first time in 56 yrs no Israeli was killed in terror attacks in th…  thespartaNeer mUZM3OvggafhKvk TaliFreidOsmolo מזעזע מחריד צריך לגנות ולהוקיע יש לך משהו יותר מעודכן בנושא הד…  mUZM3OvggafhKvk TaliFreidOsmolo יש ביסוס לטענות שלך או שזה חלק מדמגוגיה זולה מבית היוצר של הצל וישראל היום מסכנה הילדה שצריכה לגדול עם אמא כזאת    TaliFreidOsmolo אכן דרוזים נוצרים ומוסלמים אבל הרוב המוחץ דרוזים ככה זה כשהדג מסריח מהראש נהיה טרנדי להדיר IsraelHayomHeb  פקיעין ישוב דרוזי עם 987 זכאות לבגרות מוביל ארצי ישראל היום פקיעין מי זה לא בסוריה  Soloph0ne זוהר ״הפגנות של אנרכיסטים״ כסיף ״לא שכחת את דף המסרים של נתניהו נראה לי שהוא בכיס שלך נראה לי שלא ציטטת נכון״ זוהר ״אם… אני שולח חיבוק ענק לקורבנות השנאה וקורא לכל ארגוני קהילת הלהט״ב חברי וחברות הרשימה המשותפת וכל חברי הכנסת לגנות את…  eransinger אוחחח אני אוהב אותך  Orlylevy YuliEdelstein מי את amirperetz גנב קולות הציבור הצטרף למחנה הסמול  porosi attilus חחחחחחחחחחחחחחחח נקרעתי נשבע כמה אנשים אתה רואה שם עשרה עשרים חמישים מזכיר לי את ההפגנות ש…  YairGolan1 מפלגת שמאל ציונית זה שם אחר למפלגת גנרלים נטולת ערבים Riklin10 חחחיייחחיי מה קשור שלום מהההההה גם את השלום הוא רוצה לנכס לעצמו ולהמאיס עלינו שלושה אירועים להטבפובים התרחשו בחודש האחרון שלושתם בוצעו עי להטבפובים ערבים שלושתם קרו אחרי שאנשי רעם השוויצו שאצ…  omrimaniv סרטון שצילמתי אתמול בצעידה שוטרת ניגשת לאישה מבוגרת שמתעדת ברחוב בצלאל נותנת לה סטירה לפנים ואז קוראת לשוטר נוסף שדוחף או… הבת של המלאך ששמר על צלם אנוש חסמה אותי באינסטגרם כנראה שפחות נעם לה לשמוע שאבא שלה היה קשור לשתילת נשק בבית של…  ״אבא שמר על צלם אנוש״  תכלס כשהאלימות המשטרתית מופנית כלפי ערבים זה עובר לסדר היום האלימות המזעזעת שאנחנו רואים בימינו לא צצה לה משום מק…  orlybarlev זו הייתה ההפגנה שבה המשטרה הייתה הכי אלימה והכי חסרת רסן עשרות עצורים ללא עילה פרשים דוהרים לתוך קהל מכות שהשוטרים מחטיפ… תגידו במדינה דמוקרטית מתוקנת זה תקין לפחד משוטרים כי אני ממש מפחד משוטרים האלימות שראיתי היום בבלפור מצידם מתעתעת attilus eransinger עטילה תמשיך לבקר את המנהיגות הערבית בישראל זה חשוב ומבורך אבל תפסיק לקטלג את כולם כמקשה אח…  attilus eransinger הרשימה המשותפת לא הייתה נוצרת לולא הניסיון הנואש של הימין בישראל למחוק אותנו ואת הייצוג הפולי…  attilus צודק אנשי בלד מחזקים את הימין הלאומני בישראל למה כי בלד זו מפלגת ימין ערבית הלאומנות שלהם לא שונה ולו…  כשעיתונאי כמו attilus מדקלם בבורות ריטוריקות מדירות וריקות מתוכן על נבחרי ציבור ערביים בישראל אני מבין כמה נזק עוש…  attilus מה קשור זחאלקה הוא הסתלק מהפוליטיקה והחיים הציבוריים לפני מספר שנים וטוב שכך מפלגתו בלד מגרדת את אחוז…  attilus המנהיגים שלנו מחסלים את הלגטמציה שלנו לא ראש ממשלה שמסית נגדנו יום ולילה כבר עשור לא שיח לאומני ושונא שמ…  עוד אשה נרצחה ככל הנראה ע״י בן זוגה הפעם בת 40 מטובא זנגרייה המשטרה עצרה את בן הזוג תגידו רק אני רואה קשר בין גננות שמתעללות בתינוקות המון מוסת שתוקף שני עובדי ניקיון שוטרי מגב שמתעללים ומשפילים פ…  “ממשיכים לחזק את העסקים הקטנים״   nachiz9 naftalibennett תן לי לנחש העורך הסמולני של ערוץ 7 naftalibennett לא לשכוח להמליץ עליו ולהכתיר אותו שוב  mehdirhasan It’s cool and trendy to criticize Israel for well everything Not the case for the rest of the world Hypocrisy at its best ״אני חולה אני חולה״ התחנן הפלסטיני אבל לשווא חייו שווים פחות השנאה עיוורת הרגע צפיתי בתיעוד של שוטרי מגב שהשפילו הרביצו ושדדו פלסטינים ״על מה הוא מדבר״ שאל אחד הפלסטינים את חברו כשהנעל…  165 prefer annexation while the rest either don’t know or don’t care about neither “Do you prefer a peace agreement with UAE or annexation in the West Bank” Almost 77 of Israelis prefer peace…  בקצב הזה ישראל מצטרפת לליגה הערבית עד 2030  הוא הציל נסיכה   Historic TelAviv municipality lights its building with UAE flag celebrating the announcement on the normalization…  ״המאמצים הדיפלומטים האמירותיים מצליחים לעצור את תכנית הסיפוח הישראלית ולחדש את התקווה הפלסטינית למדינה עצמאית״   ג…  ההסכם עם האמירויות הוא עוד מסמר בארון הקבורה של הסכסוך הישראלי ערבי ולא פחות תכנית הסיפוח הלך רוח מרענן פוקד את האזור חחחחח בדיוק כמו שהוא היה על הפרק במשך 11 שנות שלטונו של נתניהו  ספרו לי עוד על השנאה נגד משפחת נתניהו  מישהו רוצה משהו מעזה      ביביסטים מוחמד יא תותח תמשיך לגנות טרור ערבי ולצאת נגד אלימות ערבית קיצונית   גם ביביסטים  שלוש פעמים הייתי בהפגנות מחוץ למעון ראש הממשלה בירושלים חשמל מעולם לא שמעתי קריאות לרצוח את ראש הממשלה ומשפחתו מ…  הראיון עם שרה נתניהו היה אחד המוזרים שהיו כאן לאחרונה אכלו לי שתו לי אפס לקיחת אחריות על הגזענות והמיזוגניה שהבן…  גם אני לא שמעתי את שרה נתניהו מגנה את זה את הגזענות והמיזוגניה שהבן שלה משריץ לכל עבר השיסוי והפילוג שבעלה מייצר…  שמישהו יאהב אותי כמו ששרה נתניהו אוהבת להגיד שהיא פסיכולוגית הילד שלך באמת ילד קקות ואתם משפחה בלתי פשוט בלתי אכלו לי שתו לי אפס לקיחת אחריות על הרעל שאתם משריצים לכל עבר yanivbiton99 Waleedt68 mnsorabbas אתה מצוין  guyshamai שטויות מזל שיש את shireuven אחרת לא הייתי יכול להגיד שיש לי חברות לסביות אז רגע יש הומואים בחברה הערבית או שעדיין אין Waleedt68 mnsorabbas  אם אי פעם יתגשם חלומם הרטוב של הכהניסטים והטרנספר יתבצע אני מבקש להעלות אותי על רכבת לביירות   44 שאפילו ישראל לא פגעה בהם כמו שממשלות לבנון לדורותיהם פגעו באזרחי המדינה אז אמנם טרם החזקנו ידיים עם לבנונים בג…  34  של לבנונים רבים לישראל בימים אלה  1 האויב המסורתי של לבנון אנחנו  ירד מסדר היום  2 על אף כל האגוסטים ה…  24  ללבנון וציטט את ראש הממשלה שאמר ״בשביל למנוע אסונות כאלה מלהתרחש שוב אסור לתת לחיזבאללה לאחסן אמלח בקרבת אוכ…  14  ״מה אמר נתניהו על הפיצוץ בנמל וחיזבאללה״ בימים האחרונים התקשרות הלבנונית לא הרבתה להתייחס לישראל אבל היום לש…  לא הבנתי יש או אין אצלנו הומואים Waleedt68 mnsorabbas  עוד דיווח אחרי ששרת המשפטים התפטרה דיאב כנראה כבר הגיש מכתב התפטרות לנשיא עאון ראש ממשלת לבנון חסן דיאב הודיע על כוונתו לקיים מסיבת עיתונאים ב1930 הוא צפוי להכריז על התפטרות הממשלה…  צדקלאיאד  alimouinjaber هل تُخرج نكبة بيروت النظام الإيراني كما أخرج اغتيال الحريري النظام السوري؟  via Annahar דיווחים בלבנון ראש הממשלה חסן דיאב מתכוון להתפטר עלי מורטדה עיתונאי ואקטיביסט המזוהה עם חיזבאללה ערך סקר שבו השתתפו כ147000 לבנונים הוא כתב שבבחירות הקרובות הוא…  aliimortada هههههههههه خرجك הדגלים השחורים של לבנון لبنانينتفض  הדרמה נמשכת שרת התקשורת הלבנונית מנאל עבד אלסמד מתנצלת בפני העם הלבנוני על המצב במדינה ומתפטרת מתפקידה היא מצטרפת…  ללבנונים האלה יש קטע עם כפכפים ונסראללה Lebanon BeirutBlast  SarahDadouch This was two hours ago The crowds have only grown bigger relentless against the nonstop tear gas in Beirut   This woma… AlinejadMasih Love and support to the people of Lebanon and Iran from Israel AlinejadMasih Dear Lebanese sisters and brothers  As you protest today against corruption amp mismanagement of your government and Hezb… החייזרים של לבנון  אנרכיסטים סמולנים  מולסמים נוצרים סונים שיעים נשים גברים צעירים ומבוגרים לבנונים שמפגינים באומץ נגד ממשלה מושחתת ומדינה כושלת…  תמונות מרגשות מלבנון لبنانينتفض  אחד מסמלי המחאה הבולטים בכניסה למשרד החוץ הלבנוני ״ביירות עיר מפורזת מנשק״ لبنانينتفض لبنانفيقلوبنا…  ברגעים אלה ממש עשרות מפגינים לבנונים פורצים לבניין משרד החוץ הלבנוני בביירות במחאה על מעמדה הבינלאומי המדרדר של המד…  יוסף דיאב עיתונאי לבנוני לטלוויזיה הלבנונית ״אם חיזבאללה רוצה להיות חלק לגיטימי מהפוליטיקה הוא חייב לקבל את סמכות…  ביירות עכשיו טרוריסט טרוריסט חיזבאללה טרוריסט لبنانينتفض لبنان لبنانفيقلوبنا  חסן נסראללה ונביה ברי יושב ראש הפרלמנט על חבלי תליה הלבנונים כועסים  בלב ביירות מיצג של חסן נסראללה יחד עם מנהיגים פוליטיים אחרים במדינה על חבלי תלייה דיווחים על מפגינים שמנסים לפרו…  אלפי לבנונים נוהרים לאזור הפרלמנט במרכז ביירות ברגעים אלה הצבא קורא למפגינים לשמור על הסדר הציבורי הכעס הציבורי מ…  תמונה אחת שווה אלף מילים לבנונית אחת אל מול מליציות אלימות שמנסות לדכא את המחאה הציבורית במדינה لبنانينتفض  לא רק אצלנו דרמה פוליטית בלבנון  הלחץ הציבורי עובד יור מפלגת אלקתא׳יב מכריז על התפטרות מפלגתו מהפרלמנט הלבנוני פאולה יעקוביאן העצמאית חבר מפלגת ״…  AmiGershom אוקיי זה מבטל את הנכבה הפלסטינית לא ממש הבנתי AmiGershom כשתלמד על הנכבה הפלסטינית נדרוש מהערבים ללמוד על הנכבה היהודית במדינות ערב שפה בוטה לבנונית אחת מני רבים 🤭  תלמדו ערבית אל תתאסלמו הבנו שאתם יהודים גאים אתם מזכירים לנו כל יום לא חשבנו שאנחנו בשוויץ בדיוק בגלל זה אתם צ…  מתנצל לנפץ את הבועה שלפיה כל הלבנונים ירדו לכיכר העיר למחות נגד ישראל אנחנו לא מרכז העולם והתקשורת הלבנונית בקושי…  קולות שפויים מהשכנה בצפון   השלום גם יבוא כשישראלים יכירו בכך שהם במזרח התיכון ולא במערב אירופה ויתחילו ללמוד ערבית ולהכיר באמת את השכנים שלהם…  I sincerely hope BeirutBlast brings to Lebanon the political change it needs to truly be the secular democratic co…  ואליד ג׳ונבלט פוליטיקאי דרוזי לבנוני בולט לרשת אלערבייה ״לא מאמין לנסראללה כשהוא אומר שלא ידע על חומרים מסוכנים ב…  Instead of giving answers to the people of Beirut and Lebanon leader of Hezbolla Hassan Nasrallah denies any res…  Ieability TelAviv doesn’t murder you Hezbolla and memebers of your government do Israel has no intention or inte…  DudiGur guyshamai hebayazbak אוי היבה עשי טובה חסכי מאיתנו את הטפות המוסר שלך להביע סולדריות עם השכנים שלך זה לא צביעות אלא אנו…  itsarkhmed Y’all remember that you guys have a terrorist organization in your country funded by Iran and threateni…  22ampbacklash from extremists who protested that we’re “waving an enemy flag” I understand that for some of you thi…  12 I lived through the 2006 Israeli Hezbolla war as a 9 yrs old I remember the fear and the chaos War isnt a fun…  55 אז אמנם טרם התממשה האוטופיה האופטימית שאמא תיארה לי בילדות אבל אני נורא גאה לחיות במדינה שיש בה אנשים שמסוגלים…  45 ואז היא הזכירה לי שאליאס הבן של השכנים והפרטנר שלי למשחקים בגינת השעשועים הגיע מלבנון עם הוריו בשנת 2000 וכמו…  35 היא הזכירה לי שגם בצד השני חיים אנשים מפוחדים שלא ממש מתלהבים מהזיקוקים שאנחנו שולחים היא סיפרה לי שבלנון יש א…  25 בתור ילד בן 9 המלחמה בילבלה אותי היא ניפצה לי בועה של אינקלוסיבות והכלה אבל היא גם היתה הזדמנות ללמידה כששאל…  15 במלחמת לבנון השנייה הייתי בן 9 גרתי אז בנצרת עילית סליחה נוף הגליל וחוויתי יחד עם כולם מסביב חיים בצל טילים…  Tel Aviv municipality lights it building with Lebanese flag as an act of solidarity with Lebanon and its people fol…  דברים קטנים שעושים לי טוב בלב   יותר מ100 הרוגים ו4000 פצועים כתוצאה מהפיצוץ האדיר בבירות ומשה פייגלין צוהל ושמח ממופע ״הפירוטכניקה המרהיב״ שקיבלנו…  PresidentRuvi We share the pain of the Lebanese people and sincerely reach out to offer our aid at this difficult time shimritmeir נכון ש2020 עשתה שמות בכולם אבל בלבנונים היא נכנסה ב300 קמש barpeleg ועכשיו זה התיעוד של תחילת התקרית שלושה מהמותקפים עומדים מחוץ לספינה כשהחבורה האלימה מגיעה יורקת עליהם זה אחר זה שעתיים אח… טפו טפו ועוד טפו זה מה שהתחיל את התקרית הלהט״בפובית האלימה ביפו שלושה מהתקופים יורקים לעבר החבורה הלהטבית למה…  ״הם ידעו שאנחנו הומואים״  Waleedt68 mnsorabbas אתם עדיין משוכנעים ש״בחברה הערבית אין הומואים״ בטחוננו שלומנו ו…  מיליון מובטלים שני מיליון עניים בעלי עסקים קורסים ומאות אלפי ישראלים וישראליות מיואשים אבל העיקר שאת ראש הממשלה ו…  אחינועם נינצקי  No Shit Sherlock  למתעניינים התוקפים הם חבורת צעירים שלא אהבה את דפוס ההתנהגות של חבורת צעירים אחרת להטבית יש הטוענים שהתקיפה החלה…  פעם הבאה נבקש מהתוקפים לא להיות בדואים ומהנתקפים לא להיות להטבים ערבים כדי שמקרה כזה יקומם מספיק את לוחמי החופש וזכ…  בואו כולנו נשחק אותה מופתעים  לפני כמה דקות ברחוב אגרון בירושלים  דחוף  תגידו תודה שאתם לא מתים נתינים  yanivbiton99 אין עליכם  רמת ניתוק סבתא שלי מנסה לשדך לי בנות  MosheLion הסגן הכהניסטי שלך לא מרשה לך  פעם הבאה בואו נקווה שתוקפי המפגינים יהיו ערבים כי אז אתם יכולים להיות בטוחים שראש הממשלה יגנה במהרה את הטרור ושריו ימהרו להגן על הדמוקרטיה netanyahu זה מדהים איך בסוף בסוף אתה תמיד הקורבן בעיני עצמך ת ת פ ט ר אני בז לכם ולשיח המליטרסטי הזה שלכם אני בז לניסיון הדוחה שלכם לקשור בין שוויון לרקורד צבאי אנחנו אזרחים במדינת יש…  עכשיו שאנחנו יודעים שלפחות 50 חברי כנסת מתנגדים לשוויון בין אזרחי המדינה אפשר בבקשה לחדול מלדקלם את הריטוריקה המאצו…  האתנוקרטיה היחידה במזרח התיכון  LiSteinitz משטרת ישראל שלא תגידו אחר כך לא ידענו לא ראינו ולא שמענו  יש כאן איום מפורש לאלימות ILpolice  TheMaya ILpolice לא מאמי זה שמור לערבים  תיעוד תקיפת המפגינים בתא מפחיד אך לא מפתיע זה מזכיר לי ערבי חמישי בככר ציון בים את הפחד שחשתי כשהייתי רואה את גו…  אין אין האנרכיסטים האלה אה רגע זה פעילי לה פמיליה לא משנה   ItamarKatzir תיעוד עשרה שתולים מתחזים למוחים עם דגלים שחורים ואז תוקפים את המפגינים עם בקבוקי זכוכית אגרופים וגז פלפל מזכירים לכם… שרת העבודה למיא ימין אלדויהי  מנאל עבד אלסמד שרת התקשורת  מארי קלוד נג׳ם שרת המשפטים  בזמן שאצלנו עוד דנים האם זה בכלל פרודוקטיבי לשלב נשים בקבינט קורונה בשכנה מצפון מכהנת לה כבר שנה שרת ביטחון הראשו…  صباح الخير   Israel is going through a second Covid zombie outbreak and is on the brink of war with Iran Syria and Lebanon How…  אזרחי ישראל ערבים כיהודים חילונים כדתיים ימנים כשמאלנים אנשי מרכז ופריפריה מעולם לא היו מאוחדים כמו שהם מאוחדים…  תגובות אצלי בימים סוערים שכאלה זה כזה ערבים פנאטים ששונאים אותי כי אני הומו ויהודים פטרנלסטים שאיבדתי אותם בפעם ה…  אם ערבים ויהודים אזרחים ישראלים שדורשים יחד שלום שוויון וצדק חברתי הם אנרכיסטים אז גם אני אנרכיסט גאה netanyahu  ZviHauser מישהו כאן מבין שהוא לא עובר את אחוז החסימה  MkSondos איפה היית בהצבעה על החוק נגד טיפולי המרה סונדוס נמאס לנו מסיסמאות ריקות בתוכן האיסלאמסטים בכנסת ממשיכים לתקוף אותנו הלהטבים ולטעון שאנחנו ״בעיה״ שלא קיימת בחברה הערבית Waleedt68 mnsorabbas א…  היי Waleedt68 מה קורה אני מבין שאין לך מספיק מכרים שהם להטבים וערבים אז נעים מאוד אני מוחמד ואני הומו انا مح…  ארגוני קהילת הלהטב בישראל חברי וחברות כנסת מהמשותפת ומחוצה לה עמדו עם קהילת הלהטב הערבית אל מול גל השנאה האיסלאמס…  22  Waleedt68 מקומם שאתה חכ ״הנושא הזה״ קיים בכל מקום בחברה הערבית ומחוצה לה הסיבה לכך ש״אלה שסובלים ממנו״ לא…  12 חבר הכנסת Waleedt68 מהתנועה האיסלאמית במתקפה על קהילת הלהטב בריאיון ברדיו סיפק חהכ טאהא אמירה מקוממת על להטב…  מגפת האלימות בחברה הערבית מאתמול בלילה ועד היום בבוקר היו לפחות 4 מקרי ירי בישובים ערבים שונים בארץ ושני אזרחים יש…  היום התקשרתי למשפחה שלי כדי לברך אותם לכבוד חג הקורבן שהייתי בטוח איזה שבוע שזה מתחיל היום ולהתנצל שאני לא מגיע לבק…  אני מברך את התנועה האיסלאמית על הצטרפותה לסמוטרצים זה נהדר כמה שהלהטבים יכולים לאחד כלכך הרבה שונאים מהחברה הערבית…  לראיון המלא מדקה 22   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הסתיים ביקור עבודה בצ׳כיה  ובשעה טובה נחתנו לפני זמן קצר בארצנו הטובה והיפה      ידידות מופלאה של שנים ארוכות  תודה לך צ׳כיה על התמיכה בישראל                                     הצטרפו לשידור החי של של מסע״ת עם סגן ראש  עם ישראל חי                                             הנחתי עכשיו את זר הממשלה למרגלות האנדרטה בגטו טרזנישטט  שבוע מצוין שיהיה וחודש טוב מאוד לכולכם ‼  לכם לבני ביתכם לחיילינו הגיבורים והאהובים בכל הגזרות ולכל אזרחי ישראל שבת שלום וסופ״ש מעולה   ממעלות זמן קצר לפני סיומו של שבוע אינטנסיבי מאוד ברחבי הארץ שבו המשכתי במימוש היעד הראשון שהצבתי כשר מדע הנגשת  ממעלות זמן קצר לפני סיומו של שבוע אינטנסיבי מאוד ברחבי הארץ שבו המשכתי במימוש היעד הראשון שהצבתי כשר מדע הנגשת  יש שאומרים לי שאני ״קיצוני״ משום שאני מתנגד למדינת טרור פלשתינית בלב הארץ שלנו אמרו לי כבר שאני ״איש האתמול״  חיילינו האהובים והגיבורים אתם כבר מכירים את הנוסח                                                   והערב  בשמכם ובשם המדינה ליוויתי אתמול את סמל יובל ז״ל למנוחת עולמים את יובל לא הכרתי שעה אחת במהלך הלוויתו ישבתי  הדס מלכא הי״ד נרצחה בידי חיות דו רגליות ששאבו עידוד מההסתה של ה ״רשות הפלשתינית״ זהו כפל הלשון והצביעות של אבו  הרגעים העוצמתיים והמרגשים ביותר                                        כל הקהל שבא אתמול בלילה לבית הכנסת של  עכשיו בסלוניקי  ישיבת ממשלה משותפת עם ממשלת יוון ואחרי חתימה על עוד הסכם לשת״פ במדע טכנולוגיה וחדשנות  מתחילים ביקור עבודה בסלוניקי ולי כנצר ליהודי העיר שכונתה ״ירושלים דה בלקן״ הפעם זאת לא רק נסיעה להידוק הקשרים  מקרית שמונה אני מבקש לבשר לכולכם      הוריתי להוסיף עוד מיליון שקלים לקייטנות הקיץ של משרד המדע  שבוע טוב מאוד לכולכם   לפנק לפנק אז מסתבר שמי שמפעיל את הקייטנות הזולות ביותר בישראל הוא משרד המדע נרשמים עכשיו אפילו ב תוכנית  לפנק לפנק נרשמים עכשיו לקייטנות הקיץ של משרד המדע                                      הזולות ביותר בישראל  בעולם של צביעות היית מגדלור של ישירות וכנות בעולם שברובו העמדת פנים תמיד עמדת על האמת  בעיקר על האמת שלך  בתוך ״הבידוד המדיני״ שישראל נמצאת בו אנחנו ממשיכים לחתום על הסכמים לשת״פ במדע טכנולוגיה וחדשנות עם עוד ועוד  בדרך לאירועי שבוע המצויינות בשדרות תמיד נפעם מיופיה של ארצנו   טרור בלונדון או טילים מעזה אין שום הבדל חבורה של מופרעים שרוצים להחריב את העולם החופשי כולו  שבוע טוב מאוד יקיריי                                    הצלחה רבה מאוד לראש הממשלה שיוצא הערב לביקור במערב  שבוע טוב מאוד יקיריי                                   נשלח הערב ברכת הדרך לראש הממשלה שיוצא לביקור חשוב במערב  סליחה שניצחנו                                       אז זהו שלא  כשחזרתי מביקור העבודה האחרון שלי בארה״ב אמרתי שאני מעריך  שלצערי  הפעם השגרירות לא תעבור לירושלים     אבל  לכם לבני ביתכם לחיילנו הגיבורים והאהובים בכל הגזרות ולכל אזרחי ישראל חג שמח       ולכל המטיילים בארצנו הטובה  הברכות שיצאו מן הלב  נכנסו אל הלב       תודה רבה לכולכם שימחתם וריגשתם  השר שלנו עשינו לך השתלטות עוינת על הפייסבוק  אל תדאג לא מתרגלים זה אך ורק לרגל יום הולדתך ה 44   עשינו דרך  בדרך לישיבת ממשלה היסטורית בכותל המערבי  לכולכם יקיריי שבת שלום סופ״ש מצוין וחודש טוב מאוד   תכירו את ונוס ותאחלו לו דרך צלחה                                            לווין המחקר הישראליצרפתי עוזב  מירושלים חג שמח מאוד ירושלים   תודה לך הנשיא טראמפ             תודה על אהבה אמיתית לישראל לירושלים תודה על ביקור היסטורי בכותל המערבי תודה  נצחון גדול למתנגדי המדינה הפלשתינית הנשיא טראמפ לא חזר בנאומו בבית לחם על האיוולת של ״שתי מדינות״ עקביות ועמידה  מה אמרתי לנשיא טראמפ  ומה הוא השיב לי                            ולמה שהפלשתינים לא יעשו לנו מחוות  ולא אנחנו  ברוך הבא לישראל כבוד הנשיא  ברוך הבא לישראל כבוד הנשיא  ברוך הבא לישראל כבוד הנשיא  ברוך הבא כבוד הנשיא               שבוע טוב מאוד יקיריי פגשתי את העיתונות הערב והסברתי מדוע זה דרמטי שלראשונה  בארץ אהבתי מחכים לאורח                     לכם לבני ביתכם לחיילנו הגיבורים והאהובים בכל הגזרות לכל אזרחי  איזו שערורייה זאת שבטקס סיום באוניברסיטה העברית בירושלים לא ישירו היום את ״התקווה״ כדי לא לפגוע ברגשות של  תודה רבה מאוד לצוות הנהדר שלי על ארגון מופתי של כנס ״סל מדע 2״ שיחקתם אותה בענק  17 במאי היום לפני 40 שנה קיבלנו מנדט ברור מהעם להוביל  בדרך הליכוד  אפשר לכתוב הרבה מאוד מאוד דברים על היום  השלום עם ירדן  חשוב מאוד מיזמים מדעיים  חשובים מאוד כבודנו הלאומי ועמידה על עקרונות  חשובים הרבה יותר מהכל  התגעגעתי אז באתי   ככה מפריכים את השקר הפלשתיני של הכיבוש גם בתקשורת האמריקאית 97 מהפלשתינים חיים תחת שליטתה של הרשפ ולא תחת  לכולכם יקיריי שבת שלום שבת מנוחה וסופ״ש מצוין   תגידו בהצלחה וברוך הבא לדייויד פרידמן שגרירה החדש של ארה״ב בישראל                             סיימנו פגישה  רוחות של שינוי נושבות עכשיו בוושינגטון למען ישראל                                                 אני מאמין  תראו את מי פגשתי ברכבת לוושינגטון איילת שקד  הנה שתי סיבות מתוך רבות שבגללן כולנו צריכים להתנגד ל״שתי מדינות לשני עמים״         1 זאת הארץ שלנו תמיד  כל עוד אני משרת אתכם תמיד אתנגד להקמת מדינת טרור פלשתינית ביו״ש התחיל ביקור העבודה בארה״ב בנאום בפני אלף אורחי  לכולכם יקיריי שבוע טוב מאוד                      בעוד שעות אחדות אמריא בשליחותכם לביקור עבודה בארה״ב מבטיח  מיהונתן מרוני וממני שבת שלום חברים יקרים שבת מנוחה וסופ״ש מצוין   תראו מה זה נשיא ארה״ב לא דקלם ״שתי מדינות לשני עמים״ בסיום פגישתו עם ״אבו מאזן״ שנים אני אומר לכם שמדינה  אונס״קו לא מכירים בריבונות ישראל בירושלים                                                   אז תשמעו ההחלטות  לכולכם חג עצמאות שמח מירושלים   מירושלים לכולכם חג עצמאות שמח   בתום היום הזה בטרם יונפו הערב דגלי ישראל לראש התורן המדינה כולה עוצרת מרכינה ראש  ומצדיעה לנופלים את  בהצדעה ובהרכנת ראש היום כולנו משפחת השכול  מאיתנו שבוע טוב מאוד לכם ולכל עם ישראל   לכם לבני ביתכם לחיילנו האהובים והגיבורים בכל הגזרות ולכל אזרחי ישראל שבת שלום וסופ״ש מצוין   האופוזיציה שלנו אומרים כל הזמן ש הדמוקרטיה בסכנה אבל מי שבאמת בסכנה היא האופוזיציה עצמה עם העמדות הבלתי  חג שמח לאחים היקרים שלנו בני העדה הדרוזית החוגגים את חג הנביא שועייב מי שהולך איתנו  אנחנו הולכים איתו  תגידו להם מזל טוב אלופי עולם נבחרת הרובוטיקה של דימונה                              בזמן שישנתם קיבלתי  שר החוץ של גרמניה כבר אמר את האיוולת והשקר הגס ש״ישראל מקיימת ממשל אפרטהייד״  הוא גם יודע היטב שקרנות גרמניות  מאודים מוצלים בשמי אירופה  למדינה חזקה ומפוארת               מרכינים ראש לזכרם שישה מיליון יהודים מהם מיליון  הייה לי חברהייה לי אח              גיסי האהוב שי מוצפי ז״ל  נפרדנו אתמול משי אהוב ליבנו אחיה של רעייתי  לכולכם יקיריי מאיתנו חג שמח ושתמיד נחייך   תגידו מזל טוב ליהורם גאון                        התקשרתי עכשיו לברך אותו על ההחלטה הנבונה לפיה הוא יהיה אחד מ12  ההבדל בין יוסי קליין לרועי קליין הי״ד יוסי קליין מעיתון ״הארץ״ פרסם אמש מאמר מבחיל נוטף ארס ושנאה בו כתב בין  אנחנו נשארים בארץ                  טיפסנו היום לפסגת הסרטבה שבבקעת הירדן כדי להזיז הרים גם בחופשה   תגידו לאן נעלמו כל אלה שלא הפסיקו להתראיין לדבר לחתום על מודעות בעיתונים ולשכנע אותנו שצריך לסגת מרמת הגולן  לכולכם יקיריי שבת שלום שבת מנוחה וסופ״ש מצוין   הַצְּבִי יִשְׂרָאֵל עַלבָּמוֹתֶיךָ חָלָל אֵיךְ נָפְלוּ גִבּוֹרִים תנחומים למשפחתו של החייל  אלחי טהרלב הי״ד  עכשיו אני רוצה לראות את מהירות הגינויים הבינלאומיים הכינוסים הבהולים ו״העצרת הכללית של האו״ם״ בעקבות הטרגדיה  אתמול בערב בשעות אלה ממש ממש ממש התרגשתי       מאות אנשים הגיעו להרמת הכוסית לפסח והם עשו זאת מכל קצות הארץ  אני רוצה להגיד לכם מילה אחת תודה התרגשתי ושמחתי לראות אתכם בהרמת הכוסית לחג         אנחנו הולכים ביחד כברת דרך  שבוע טוב מאוד יקיריי                  קבלו ספויילר  בלעדי לקראת ישיבת הממשלה מחר שבה אסקור את פעילות משרד המדע  יקיריי שתהיה לכולכם שבת שלום שבת מנוחה וסופ״ש אביבי   צמצום פערים חיזוק הפריפריה הנגשת המדע הטכנולוגיה והחדשנות לכל אזרחי ישראל  במעשים לא בדיבורים ולא בציוצים  תגידו מזל טוב ליהודה ברקן             התקשרתי עכשיו לברך אותו לכבוד יום הולדתו שחל היום ואמרתי לו שמיליוני  הבטחתי  וקיימתי את הרמת הכוסית לפסח לעובדי משרד המדע סיימנו עכשיו בשילה הקדומה שבחבל בנימין  הבטחתי  וקיימתי הרמת כוסית לחג הפסח לעובדי משרד המדע בשילה הקדומה שבחבל בנימין היפה זאת הארץ שלנו ואנחנו כאן  כשאני רואה את מיטב הנוער שלנו  אני רואה את העתיד המזהיר של ישראל כשאני פוגש אותם בכל הארץ  והיום בעכו  אני  אין כמו בבית  אין אבל ממש אין כמו בבית  במזרח הרחוק השבת תכף נכנסת אז לכולכם מטוקיו                                              שבת שלום וסופ״ש מצוין  מטוקיו בוקר טוב ישראל                                 החיבוק של ארצות המזרח הרחוק את מדינתנו הוא פשוט מחמם לב  אני ממשיך בביקור העבודה במזרח הרחוק                           שלום לכולכם מטוקיו אחרי יום ארוך ופורה שכלל  גאווה והתרגשות דגלי ישראל מתנופפים בכיכר טיאנאנמן בבייג׳ינג                             אני מסיים עכשיו את  הבטחתי לכם  וקיימתי עוד הסכם עם סין נחתם עכשיו          ראש ממשלת סין וראש ממשלת ישראל באו לראות מקרוב   בוקר טוב ישראל                          בזמן שישנתם התחלנו כאן את היום בכנס משותף למדענים ישראלים וסינים  עוד  נחנתנו בשלום בבייג׳ינג מתחיל ביקור העבודה  יְהִי רָצוֹן מִלְּפָנֶיךָ יְהֹוָה אֱלֹהֵנוּ וֵאֱלֹהֵי אֲבוֹתֵנוּ שֶׁתּוֹלִיכֵנוּ לְשָׁלוֹם וְתַגִּיעֵנוּ  השבוע לפני שאברך אתכם בברכת שבת שלום המסורתית אני רוצה להגיד לכם מילה אחת תודה  יום המדע הישראלי הפך לשבוע של חגיגות מסיים אותו עכשיו בכינוס השגרירים הזרים שנמצאים בישראל כדי לספר גם להם על  יום המדע הישראלי הפך לשבוע של חגיגות מסיים אותו עכשיו בכינוס השגרירים הזרים שנמצאים בישראל כדי לספר גם להם על  קחו בבקשה שלוש דקות מזמנכם וצפו בקליפ המטורף שהכנתי לכם עם זוכי פרס נובל לכבוד יום המדע מקום ראשון במצעדים  יום מדע ישראלי שמח לנו מתחילים עכשיו בשורה של אירועים ופעילויות בחינם  בכל הארץ מציינים את פאר היצירה שלנו  תגידו כמה פעמים כבר אמרתי לכם שישראל היא מעצמה עולמית של מדע וחדשנות          הרבה נכון היום קיבלנו הוכחה  שבוע טוב מאוד חג שמח וKeep on running my friends   מתל אביב שבת שלום לכולכם וסופ״ש מצוין  Shabbat Shalom from Tel Aviv  איפה יהיו כולם ב  2 באפריל בשבע בערב כנסו לסרטון  ותדעו  איזה כיף לצאת מהופעה בפני אנשי היי טק באוניברסיטת תל אביב  ולפגוש את האישה שאיתי  ישראל מעצמת מדע וחדשנות דימונה מעצמת רובוטיקה וסייבר  אני מסיים עכשיו ביקור עבודה משמח מאוד בדימונה למה  לפנק לפנק                     בוקר אור יקיריי יום המדע הישראלי מתקרב ואנחנו מכינים לכם אירועים בכל הארץ   יקיריי לכולכם שבת שלום וסופ״ש מצוין מירושלים                                            Shabbat Shalom from  אני יהודי פשוט העיד על עצמו מנחם בגין                                   בצוואתו הורה לקבור אותו בהר הזיתים  ״הביאו לי את יהודי אתיופיה״ כך הורה ראש הממשלה מנחם בגין לראשי המוסד זמן קצר אחרי כניסתו לתפקיד ראש הממשלה   שלום לכם ממליאת הכנסת         הארכנו עכשיו את חופשת הלידה לנשים מ14 ל16 שבועות  עיתונאי באיזה סגנון אתה מתכוון להיות ראש ממשלה  בגין בסגנון יהודי טוב                   שבת שלום וסופ״ש מצוין לכולכם  Shabbat Shalom from Israel  כבוד השר זאת ישראל  עבר מפואר  עתיד גדול                                                    כך סיימתי את  אני גאה בדגל שלנו תמיד  ובכל מקום  אני מקיים ביקור עבודה קצר בשוויץ גם כאן המדע הטכנולוגיה והחדשנות  יש הרבה מאוד תשובות טובות לשאלה למה אני מתנגד למדינה פלשתינית אבל הטובה מכולן היא הכי בסיסית אין עם בעולם שמוסר  מאיתנו שבוע טוב מאוד לכולכם  בארץ אהבתי השקד פורח  השבוע עוד לפני הברכה המסורתית אני מזמין אתכם לצפות בראיון נרחב איתי בערוץ 20 החל  כל חיי התנגדתי למדינה פלשתינית                                  מאז שנבחרתי לכנסת אמרתי בכל מקום  לפני ואחרי  הערב הושם הקץ על פתרון שתי המדינות הצטרפו אליי עכשיו לשידור חי מאולפן מבט  מדעניות העתיד העתיד שלנו      הצטרפו אליי לשידור חי מהכנס השנתי של פרוייקט הדגל שלנו שמבטיח שישראל תמשיך להיות  יקיריי לכולכם לבני ביתכם לחיילינו הגיבורים והאמיצים בכל הגזרות ולכל אזרחי ישראל שבת שלום וט״ו בשבט שמח  בהתרגשות ובגאווה ליווינו  הבוקר את יהונתן למצוות  בבית הכנסת ״בית תפילה״ בשכונת שפירא בתל אביב שימש עובדיה  זה יום קשה לכל ישראלי שאוהב את ארצו  שאוהב את עמו  אבל זהו היום הקשה ביותר ל40 משפחות יקרות תושבות ותושבי  אני מייצג עכשיו את הממשלה בטקס לציון 25 שנה לחידוש היחסים בין ישראל לסין                   אבל הכי מרגש היה  יקיריי לכולכם לבני ביתכם לחיילנו ושוטרינו הגיבורים ולכל אזרחי ישראל  שבת שלום שבת מנוחה וסופ״ש מצוין   רס״ל ארז לוי הי״ד נרצח הבוקר על ידי מחבל מתועב  כשח״כים מסיתים בכנסת ומדברים על ״הכרזת מלחמה״ יש קנאים  רס״ל ארז לוי הי״ד נרצח הבוקר על ידי מחבל מתועב  כשח״כים מסיתים בכנסת ומדברים על ״הכרזת מלחמה״ יש קנאים  הם מחרימים  אנחנו קונים  לקראת סיום ביקור בבנימין אני נמצא עכשיו ביקב ״גבעות״ וקונה יין שמיוצר כאן היישר  אל תפחדו מההפחדות של השמאל                                          מצחיקים אותי אלה שאמרו לנו שאוסלו יביא  אומרים לי 70 מדינות התכנסו בפריז כדי לתמוך במדינה פלשתינית אז אני אומר להם הבוקר מירושלים יכולות להתכנס גם  גאווה של אבא לסופ״ש  102 במדעים אלא מה   לכם לבני ביתכם לכל חיילנו הגיבורים והאהובים ולכל אזרחי ישראל  מה אני אני רק בן אדםאני חי ועובד כמו כולם  בקיץ 1985 שמעתי לראשונה על מאיר בנאי  ואותו שירו של שפשף״  סוף להופעות ״שוברים שתיקה״ בבתי הספר  מליאת הכנסת אישרה עכשיו בקריאה טרומית את הצעת החוק שתאסור עליהם ועל  שיר חג׳אג׳ יעל יקותיאל שירה צור ארז אורבך הי״ד  כן כמו כל חיילות וחיילי צה״ל  של כולנו  יקיריי לכל אחת ואחד מכם שבוע טוב מאוד  לאור דרישת הקהל אני מצרף מסמך תקשורתי נדיר בארצנו ראיון מראיינת  לכולכם יקיריי מעדי וממני שבת שלום שבת מנוחה וסופ״ש מצוין  Shabbat Shalom from Israel  I posted a new video to Facebook  כל עוד אני בחיים הפוליטיים לאויב הפלשתיני לא תהיה מדינה  כדאי לכם לצפות בראיון המלא הערב בערוץ הכנסת 99  מה לא תראו הערב בחדשות   אז תצפו כאן שתפו והפיצו  גאווה ישראלית אמיתית בפתחו של השבוע  תגליות ופיתוחים ישראלים שהשפיעו על העולם  האלבום החדש שהשקתי בשבוע שעבר  שבוע טוב יקיריי וחג שמח  הסיפור האמיתי מאחורי הסרטון שמסעיר את הרשת עד כדי כך שגם חכ יאיר לפיד משתף אותו  בשמש שלפני הסערה                 לכולכם מאיתנו חנוכה שמח שבת שלום וחודש טוב מאוד  Shabbat Shalom and Happy  מירושלים שלום לך ג׳ון קרי ישראל לעולם לא תיסוג לקוי 1967 לעולם  Dear John Kerry from Jerusalem Before  בחג הזה אנחנו מרוויחים פעמיים משרד המדע מזמין את כל ילדי ישראל  בחינם  למוזיאון המדע ע״ש בלומפילד  אין עם כובש בארצו נקודה  ואחרי שנשאלתי מה יקרה אם יהיה מו״מ לשלום אז הרי נצטרך לוותר אמרתי אולי הם  לכם יקיריי לבני ביתכם לחיילנו האהובים בכל הגזרות ולכל אזרחי ישראל              שבוע מצוין וחג חנוכה שמח  בגאווה ובהתרגשות השקתי היום את הספר ״תגליות ופיתוחים ישראליים שהשפיעו על העולם״ שמבוסס על התערוכה הנהדרת בנמל  בעוד עיר שלמה בסוריה על אזרחיה וילדיה נמחקת                 בעוד באירופה הטרור שוב מרים את ראשו  בינתיים במליאה שרת המשפטים עושה קרניים לשרת התרבותאנחנו ממשיכים להצביע על התקציב אז שיהיה לכם לילה טוב  עם יד על הלב כמה מכם ידעו הכירו או שמעו על פעילות משרד המדע ואולי אפילו שאלתם את עצמכם למה הוא קיים  אני  ההחלטה עכשיו על הסרת החסינות של חכ באסל ראטס  הישג ענק לדמוקרטיה הישראלית הישג ענק למאבק הצודק שלנו נגד אלה  ח״כ באסל ראטס נשבע לשמור אמונים למדינת ישראל  ולחוקיה שיתוף הפעולה שלו עם מחבלים הוא לא פחות מבגידה    הצטרפו אלי למסיבת עיתונאים מיוחדת עכשיו במשרד המדע לחשיפת מסקנות הועדה המיוחדת בעקבות התפוצצות עמוס 6  50000 תודות  על 50000 לייקים   יקיריי לכולכם שבוע מעולה שיהיה אנחנו הולכים יחד כבר כברת דרך ועוד נכונה  לכולכם ממני שבת שלום שבת חמימה ושקטה וסופ״ש מצוין  From me to all of you Shabbat Shalom  טיבי דיבר במליאה על ״שותפות גורל״                                    אז הוא קיבל את התשובה הכי פשוטה והכי  את פרופ׳ עמנואל טרכטנברג אני מעריך ומכבד מאוד למרות חילוקי הדעות הפוליטיים ועל אף אי ההסכמות במגוון נושאים  עוד תקציבים לפריפריה עוד פעולה של הנגשת המדע והטכנולוגיה לילדינו האהובים  שלום לכם מירושלים שמח להודיע  שבוע מעולה שיהיה לנו                                זאת התמונה שהכי אהבתי ושהכי שמחה אותי מביקורי בהודו בכל  כמה טוב שבאתי הביתהכמה טוב לראות אתכם שוב                                                      אני תמיד גאה מאוד להיות ישראלי  השבוע אפילו עוד יותר  הסתיים ביקור העבודה בהודו עם קבלת פנים חמה מאוד  אני תמיד גאה מאוד להיות ישראלי השבוע אפילו עוד יותר  הסתיים ביקור העבודה בהודו עם קבלת פנים חמה מאוד לבבית  אני תמיד גאה מאוד להיות ישראלי השבוע אפילו עוד יותר  הסתיים ביקור העבודה בהודו עם קבלת פנים חמה מאוד לבבית  בוקר אור יקיריי בזמן שישנתם נמשך במלוא העוצמה ביקור העבודה בהודו עכשיו רק תביטו בתמונה הזאת ותבינו באיזו אהדה  עוד הסכם עוד מדינה מהדקת יחסים עם ישראל הערב במשרד המדע ההודי בניו דלהי חתמתי על הסכם נוסף לשיתוף פעולה  בהתרגשות ובגאווה אדירה חנכתי עכשיו עם שר המדע של הודו את תערוכת הישגי המדע והטכנולוגיה הישראליים במוזיאון  מניו דלהי בוקר טוב ישראל אני מתחיל יום עמוס וגדוש בפגישות וחתימה על הסכמים להעמקת שיתופי הפעולה בין ישראל לבין  ירושלים של זהב בכל מקום גם בהונג קונג  בזמן שישנתם פגישה לבבית וטובה עם שר החדשנות והמדע של הונג קונג  יְהִי רָצוֹן מִלְפָנֶיךָ יְהֹוָה אֱלֹהֵינוּ וֵאלֹהֵי אֲבוֹתֵינוּ שֶׁתּוֹלִיכֵנוּ לְשָׁלוֹם וְתַצְעִידֵנוּ  גם בחיים הפוליטיים תמיד כדאי לשמור על קור רוח                                           לכולכם יקיריי  תלמידי ״גימנסיה הרצליה״ בתל אביב לא רוצים את ״ההרצאה״ של אנשי ״שוברים שתיקה״ אצלם  כבוגר ״הגימנסיה״ אני אומר  המסע להודו מתחיל בירושלים  את ביקור העבודה על פי הזמנתו החמה של שר המדע ההודי אני אקיים בשבוע הבא  המציתים הם טרוריסטים            כשנמצא אותם  ותהיו בטוחים שנמצא  צריך למצות איתם את הדין במלוא החומרה  נס  לוחמי האש  תודה רבה לכם   ערב השבת העם כולו מודה מצדיע ומחבק את לוחמי האש שעומדים בחזית בימים אלה מול  אין לנו ארץ אחרת גם אם אדמתנו בוערת  מצדיעים ללוחמי האש משטרת ישראל פיקוד העורף וכוחות הביטחון שנאבקים בגל  תגיד לנו אתה תומך בשתי מדינות לשני עמים תגיד  אז מה אתם חושבים שלא אמרתי לחבריי האופוזיציה שאתגרו אותי היום  מקדם בברכה ובשמחה את מר לי מנג סגן שר המדע של סין שמבקר בישראל  ועידת החדשנות ישראלסין תתכנס בתחילת 2017  שבוע טוב מאוד יקיריי  אני רוצה לשתף אתכם בסרטון מיוחד ומרגש במיוחד שהכין ושלח לי יוני ברק שלא הכרתי עד  יקיריי לכולכם ממני שבת שלום וסופ״ש מצוין  Shabbat Shalom from Israel  כשפגשתי את בני הנוער הנפלאים בנצרת עילית  ראיתי את העתיד המזהיר של ישראל  מיטב הנוער מיטב המוחות  כדי  הדמוקרטיה לפי האופוזיציה שלנו היא טובה רק כשהם מנצחים כשאנחנו מנצחים אז תמיד תשמעו שהדמוקרטיה בסכנה   הבטחות צריך לקיים עמדות צריך לבטא בהצבעות ותמיד אבל תמיד לדבוק באמת שלך ולהיאבק עליה  היום לפני שאאחל לכם שבת שלום אני מבקש להגיד לכם מילה אחת תודה                  תודה על התמיכה על המילים  Congratulations Mr President Elect The American people have spoken The alliance between Israel and the United  עוד ביקור חשוב עוד שיתוף פעולה מדעי ומדיני עוד הערכה והשתאות להישגי ישראל  נפגשתי הערב בירושלים עם שר  יקיריי שבוע טוב מירושלים  ממשיכים לעבוד בשבילכם  יקיריי לכולכם שבת שלום וסופ״ש מצוין  Shabbat Shalom  מה יהיה כבר עם הבידוד המדיני הנוראי שהממשלה הזאת הביאה אותנו אליו   במשרד ראש הממשלה בירושלים חתמתי עכשיו  מסיים ביקור עבודה בקרית מלאכי כתמיד השמחה הכי גדולה היא לראות את הילדות והילדים שלנו נהנים מפעילויות משרד  מתחילים את מושב החורף    ברגל ימין כמובן   לכולכם מאיתנו שבת שלום וסופ״ש מצוין  Shabbat Shalom from Israel  הסתיים ביקור עבודה מוצלח מאוד ברוסיה ואני יוצא בחזרה הביתה לארצנו היפה והטובה שאין כמותה בכל העולם  ירושלים היא בירת ישראל לנצח כמו שמוסקבה היא בירת רוסיה  ואין על זה ויכוח  כך התחלתי את פגישתי  עם סגן ראש  ברכות מישראל אומת ההיי טק והחדשנות  התחלנו ועידת החדשנות במוסקבה  בדרכי לועידת החדשנות הבינ״ל במוסקבה  זאת הזדמנות מצוינת להציג בפני מאות יזמים מדענים אנשי היי טק וטכנולוגיה  שישו ושמחו  בשמחת תורה  לכולכם מאיתנו חג שמח  עוד יש מפרש לבן באופק      כל שתבקשו  לו יהי  יקיריי לכולכם לבני ביתכם לחיילנו הגיבורים והאמיצים בכל  תודה לך צ׳כיה                        שוחחתי עם איוו שוורץ שגריר צ׳כיה בישראל והודיתי לו על החלטת הפרלמנט </t>
+  </si>
+  <si>
+    <t>AryehHasfari על הרודנות טימותי סניידר  מדינה מס 1 feeling blessed 🥰  כיפור יצא לפני שעה טוב עדיין אתקע בשופר בשמונה ורבע שזה פחות לפתוח את שערי שמים ויותר לצלצל להם באינטרקום ולברוח HaishVeHaagada איש מושלם אני כל שבוע 🤔 פאנסקסואליות זה כשלא נמשכים למגדר או למין רק לנפש לא משנה איפה היא נמצאת 🤔🤔 אז אני פאנסקסואלית 🤔🤔🤔 אם הנפש נמצאת בגוף של בת irmyshikblum תכניסו אותי בחזרה לבורגנות mgenelevi נשמע מקסים הדייסון שלי מקולקל בסגר אנד דיס איז ג׳קאס בשמונה ורבע אני תוקעת בשופר מביתי שבקישון פינת פלורנטין מוזמנים לבוא לבקש משאלה אפשר לשכור קורקינט עכשיו gititfisher עינב בובליל באינסטה בפוסט נגד ההפגנות כשהכותל ריק והתגובות  ממי ההפגנות לא מדבקות צום קל תחנקו כל השמאלנים צום קל וגמר… Syechimovich אמסור  noamsch נשבעת באלוהים שאין לי מושג איך אני עושה את זה אולי אהבה Zeshe לפי העין עד שאת איטלקיה הכנתי את הבולונז המפחיד ביותר שהכנתי אי פעם אני חוזרת המפחיד ביותר מפחיד כמו הודעה מאמא בשלוש בלילה תתקשר דחוף לא ישנתי דקה ואמא של שרון פרסמה תמונה שלה עם אבא שלה שנפטר הלילה ובאתי להגיב לה ״מהממתתתתתת״ לא הצלחתי לישון כל הלילה אז אני אמשוך עד שבע וחצי ואלך לקצב לילה שכבה עליי ושתיתי מים אז היא קמה לשתות מים גן חזרה לספה אמרה גררפ גררפ ונשכבה עליי שוב במה זכיתי הקשר שלי ושל לילה  סרט של פיקסר אנשים שאומרים ״כן חיחיחיכיף איתי במסיבות חיחיחי״ שידחפו אתכם בשלמותכם לתחת של דינוזאור eyaldatz למה אי נוחות OmriAsher בנסיבות משמחות למסירה מאפרת זין בלב העיר  באיזה קטע אין דוקו קצר על טרנס בן 35 שגדל לו זקן פעם ראשונה ואבא שלו בן 70 שמלמד אותו להתגלח וכל הסרט זה הם מדברים…  lt לא להתמסטל ולקרוא ספר במיטה כי את בטיפול מדי יושבת עם ג׳וינט ביד וחושבת מה אני צריכה למחוק את עצמי כשאני יכולה לחבק את עצמי להתמסטל בטבע lt להתמסטל אחרי מקלחת בבית מבריק עם מקרר מפורק אני בשנה האחרונה השתכנעתי סופית שדתבולשיט 100 נגמר הסיפור לא צמה בכיפור לא שומרת בפסח אוכלת בשר וחלב ביחד מה…  הקו הדק בין רעב טוב של יאללה תביאו אוכל לרעב רע של לשכב בתנוחה עוברית על הרצפה ולבכות מה קודם כל לאכול אמבונגר עם בצה או להחליף מצעים ולעשות כביסה עזבו אל תענו לי המבורגר יותר טעים עם רעש רקע של מכונת כביסה טוק טוק ינון מגל בבית כן מי שם הפסיכיאטר המחוזי באתי לאשפז אותך על שימוש פסיכוטי באימוג׳ים מה אשתו של ינ…  Elzavered נו תגידי 17 חיוביים יאללה חברה אנחנו יכולים יותר אם על הרגליים אהלון  למה הגוף מבין רק כח למה אני לא יכולה לבקש ממנו יפה מסת שריר שיניים ישרות ועור חלק והוא פשוט יבצע למה הוא מאלץ אותי…  אוי לא פגע בי ברק בצורת מאמר מערכת על השימוש במילה שלום כמילה ביטחון במערכות בחירות בישראל עד ביבי ובחלחול של סמנטיקה לתודעה איזה השפלה אם אני באה להפעיל את האחריות על הדייסון ואומרים לי לא ממי האחריות לא מכסה שיער ברמת קווקזיות הזאת ועוד שתי חתולות תקני חדש למה למה סגר דווקא כשאני צריכה להפעיל את האחריות על הדייסון ולעשות קניה גדולה באיקאה מושחתיהו תתפטר נכון יש אבא שהוא סבבה והכל אבל פעם בשבוע מפרק אותך במכות מעניין אם ככה החתולות תופסות אותי שסבבה והכל אבל פעם בשבו…  זה רק אני שופר ודממה טוב אני במרפסת אבל לא אשרוק ראשונה באמת יוצאים למרפסת לשרוק בוז להוציא שופר LeahLev אם הכל בסדר אצלך למה את נשמעת ככה MmandraA מרי ביבי פאק יאיר קיל שרה סורי סורי סורי בפני עצמי ביבי אמר קשקוש בלבוש על הקשקוש בלבוש  יאללה ממי תפרוש מראשות הממשלה ותקליט קלטת ילדים מלאה מסרים סמויים על למה יוב…  בני גנץ איך זה נראה על הקרטון ראש הממשלה הבא של ישראל רמטכל לארד צריך לעשות אחרת נעשה אחרת איך זה נראה באמת אני…  ישראלים אנחנו ממש אבל ממש לא היהודי הגלותי ממש לא חלשים ממש לא אכפת לנו רק מכסף ממש לא מפיצי מחלות הכל שקרים ב…  Jacoberesheet מינון בצה גחנון מושלם ItaGaz הסתדרתי תודה רבה  זה באמת מאד נח הן יודעות מה הן עושות רבים שואלים אותי שיראל מהו אוריינטליזם ותשובתי היא סחבתי שישיית מים מהאמפם על הראש כמו הודית samanio וואי כמה נמשכתי mtklng זהו לוקחים את שניהם אוקיי ראיתי לבד מה ההבדל בין מענק עסק קטן למענק סיוע אני אמורה לבחור רק אחד מהם או את שניהם מתי אייל דץ קם אמרו משהו על מענק נוסף לעצמאיים בגלל סגר 2 אני אקטיביסטית א עושה ק לייקים ט לתגובות י רעות ב פוסטים י של ס ביבי ט באינסטגרם י  ת SharonDisk חברים בטוויטר הלפ אם יש כאן מישהו שיכול לתת לי כללי אצבע לגבי איך יודעים מה להוכיח בהוכחת נכונות באלגוריתמים בעיקר של גרפ… Sachback כן והיא מובילה למקרר RBilova כן לצערי רעיון לספר שירה סמסים שלא שלחתי לאקסיות בזמן שליצור אמנות אומר בואי נמיין את הערימת חרא המגעילה הזאת ונמחזר אותה יכול להיות שיצא לנו חנוכיה מגלילי נייר ו…  מה עצוב בוויד שיש כזה גודש של רגשות שהוזנחו במשך כל כך הרבה שנים שלפעמים פשוט נהיה בלתי אפשרי להרגיש אותם א…  foolforlove69 הסתדרתי תודה חיים שלנו 3333333gtgtgtgtgtgtgtgtgt זה עצוב גם היתה לה הפרעת אכילה והיא ניהלה יומן שמתעד כל דבר שהיא אכלה באותו יום ובסוף מכרה אותו באיביי כשהיא יצאה…  Cusamano תודה אהוב שנים רבות תהיתי איך למירה גונזלס נשארו תאי מח עם כמות הוויד המשוגעת שהיא עשתה והיום הבנתי שהיא הוציאה ספר שירה מדהי…  האם יתכן שאין למצוא את הפרק של בואו לאכול איתי עם פנינה רמון והבחורה הדתיה ששרה שמן שמן שמן שמן מישהו כותב רשימת קניות למכולת טוקבקיסט בהארץ כתיבה שמזכירה את אתגר קרת סרט שראיתי בכיתה ה וחשבתי יה ככה אני אהיה כשאני אהיה מבוגרת אמנית ופרוגרסיבית וכזהשרלילה מה נשים רוצות לינק לצפיה ישירה לסרט צריך שלושה לטנגו אני חיה בבניין עם הבנות הכי חמודות בתל אביב שחולקות עוגיות וויד ועציצים כל היום למה אני לא אמריקאית יש לי את כל הרגשות הנכונים  איילת שקד היא הילדה שחוזרת מהחופש הגדול ומספרת שבן דוד שלה שכן של יהודה לוי והם הסתובבו אצלו בבית כל הקיץ  VxvI8jA9y62ez94 לא  תמלול חקירות נתניהו בליווי עשרה נגנים אז יש בלפור מחר קניתי אייפד כי קינאתי בשרון השתמשתי ל א ללמוד לבגרות במתמטיקה חד מש לא הייתי מקבלת מאה בלי האפשרות לתרגל בלי מחי…  נקודת אור מישהו מאמין לנאום של ביבי מאתמול פעם היתה לו כריזמה שהצליחה להחזיק את הנרטיב שהוא ניסה למכור אבל היא פש…  החלק הכי קשה ביישור שיניים זה התפוררות הדמוקרטיה איך בסגר הראשון היתה באינטרנט אווירה של ״כולנו בזה ביחד״ ועכשיו יש אווירה של ״אנחנו מסתכלים עליכם מחלון מסורג ששם ע…  למישהו קרה שהדייסון כל הזמן אמר שצריך לנקות את הפילטר למרות שהפילטר נוקה אתמול אני פוחדת לישון כי כל פעם שאני קמה יש חדשות מפחידות יותר איך מה שקורה עכשיו חוקי אני משתגעת אנחנו בני ערובה של אדם שאיבד את זה noamsch פחממה יאללה טלפון מכובה עד הערב זמן להשקיע את המח במה שחשוב ממליצה לכם לעשות כמוני אוהבת בודהה לילה גדלה מגור רזה מהפחים לחתול מטופח שעושה שימוש היפסטרי בואכה אוריינטליסטי במוצא שלו כדי לחרמן כמו אמא שלה לפני כמה שנים  כאשר הבית מדיום מלוכלך אז את מטנפת אותו עם לאכול בסלון ולהוריד נעליים בכניסה שיהיה וול דאן ובערב תתעצבני ותדפקי נקי…  SharonDisk אני Nefolet ShaiNaamat זה מהראשי של הארץ  ShaiNaamat הארץ בראשי תחת מעקב קורונה JewMoleman ביי ממוש רגע מה  ping93  ping93  פסיכופת לא היה רואה את האחר ככה נמשכת לאסף גרניט לא מתביישת בזה יותר תוקעת בוז בשופר בואו  Rebbetzin אשכנזי ואתיופית מה נשים רוצות לחיות מחדש את שנת 2019 בלופ HaishVeHaagada Rutshapira אלא מההההה zelokova מה זה Rutshapira אחת לי השאר יחולקו שמאלנים אנלא מבינה  אם אין נתונים על הדבקות בהפגנות למה להפסיק אותן מה לאפות shaipct2019 That teeth tho שבוע בלי חדכ לראות אפל ווטץ׳ מטרגר אותי DorDugy וואווווון aaddams האכלתי אותו כל הזמן והוא הסתובב בדירה חופשי אבל החיים שלי היו בקריסה ולא היה לי משאבים רגשיים לדאוג לעוד ח…  tomereznik זה טיפול של שישה עד שמונה חודשים מה כפת לי aaddams כן זה היה ממש עצוב  noamsch אסמר פיפי אני עושה יישור שיניים כדי לחייך יפה כשביבי יתפטר aaddams כן נזכרתי בבעלי דירה הכי גרועים שהיו לי א השאירו בדירה ארון שלהם שאסור היה לי לזרוק ב השאירו חתול שאמרו שיקחו תוך ש…  תקוע לי בראש השיר מהפרסומת הפרובוקטיבית של פוקס 2002 LilacBL לחץ חברתי שנתקלתי בו בסדרות תבריזי משיעור תעשי סמים תשכבי עם שחקן פוטבול לחץ חברתי שנתקלתי בו במציאות תרשמי לצופים תרשמי… Cusamano מנטור לאסיד וכאכי שיניים mtklng אוקיי הבנתי Cusamano כאב מסוג ״לחץ״ בשיניים וקצת בחלל הפה שנחתך כואב כל הזמן אבל אני עם זה פחות מ24 שעות mtklng מה קשור פעולת יניקה וויד שעד כה היה הדבר היחיד שעוזר לי עם המגרנות הכי חמורות מחמיר את הכאבי שיניים מהיישור eliranlevy1 אינוויזיליין זה ההכי קל  sliced0range הזמנתי וקיבלתי תוך שבועיים עם טראקינג ומיילים DorDugy יאללה נוסע למילואים א ב ל  יש פרק חדש בהסכת שאין חומר את שמו בואו להעביר נסיעה או את הסגר בבית עם shireuven ואיתי   ShaharTaiber HaishVeHaagada על האש Cusamano  Cusamano חצי שנה עד שמונה חודשים Cusamano סיוט אלוהים ישמור אבל הדד ליין של השבוע לסיוט הכי קשה מרגיע Cusamano  כמה זמן נשאר לך sliced0range מדהים שלא רואים וזה מציק בטירוף sliced0range  shanisaggy אני משלימה איתי הילדה עזבי כדי לנעוץ את הרגרסיה אני לא רק עושה יישור שיניים אלא גם מתכוונת להתקשר לאמא שלי ולבכות לה שמציק לי בפה לא הבנתי למה נקטע לפני שהוא מתחיל לזיין אותם  למישהו יש ספק שאם הייתי גבר הייתי עושה השתלת שיער אפילו בלי להקריח אני לא מאמינה שעושים כתבה על חבילןת נופש בסרביה ולא על זה שהתחלתי יישור שיניים אלוהים ישמור מציק לי בפה dOyWeUOloMUH79R מליון שחלים התחלתי יישור שיניים אינוויזיליין מתי זה יפסיק להציק לי בפה היי וולט לא הזמנתי מגיפה עולמית הזמנתי להיות חודש בניו יורק לאכול עוף להתמסטל ולראות כנר על הגג בברודווי iftachh תייגו את השכונה בנפולי ושכונת עמידר בקרית מלאכי ואל תגלו להן מי זו מי  MaiBarzilay חיבוק ענק  LilacBL ההההההההה SharonDisk צמדים דבק בישראל סטטיק  בנאל ג’חנון  רסק מחפשים שותפה לדירה  חיחי סליחה בנים  BaradBracha כמובן   להגיד שם של מישהו זה כזה כישוף mtklng חחחחחח עלק mtklng קטלוג איקאה זה ספרות mtklng שיגיע כבר קלינג 2027 שידבר איתי על רהיטים מאיקאה lbiadgo  הטרלת השנה  nynynyos חחחחחחחחחחחחחח mtklng גהי זוכרים שראיתי את הפסיכולוגית שלי בהופעה של רונה קינן אני לא נרגעת מזה עברו שנתיים אח חתול הרהיט ההיי מיינטננס מה שמבאס במשבר הקורונה זה שהוא גורם לי לשנוא את ביבי אישית והוא היה הדמות האהובה עליי בישראל עד עכשיו עבדתי מה ביבי עשה הפעם פאן פקט הקלדתי באינסטינקט וולדמורט ורק בחצי הדרך קלטתי שזה לא השם שלא רק הכריזמה klarago מבחינתי כל דבר שלא אדום או לבן  יש ריב על האש מה הלב הכי מסריט במה נפלתם בקורונה nynynyos בשביל תירוץ להתלונן שלח אצלי קלללל למה אין מוצר בדארקנט שירצחו את האשה הזאת ואותי באותה שניה בדיוק כדי שאני אתגלגל לגוף שלה ואאכיל חבר שלי דב בתותים  eyaldatz kann נראה פצצה מתה לראות limormoyal אז היה ערב סוער ומרגש בבלפור וקשה להירדם אחרי כל מה שחווינו לכן החלטתי להתחיל לחקור קצת את חבורת מכחישי הקורונה ההזויים… ShiraDavidson14 עודדת מאד דווקא  ShiraDavidson14 lt3 אז מה עושים  טוב של רוגל אלפר שמתאר בול בול את הרגשות שלי בנושא הגירה netah מה חשבת עליו אני מדברת ברבים לא בקטע קווירי אלא בקטע אולד סקול משוגע שיר יפה לדעתנו  nynynyos מאד אבל הייתי בתקופה שחוויתי פחד אלוהים nynynyos סרט פחד אלוהים artistsofcolour MIDNIGHT AURA Billie Zangewa 2012  nynynyos חחחחחחחלללחח nynynyos או אאו אותי סם  שרתי ללילה את מסיבה בחיפה והיא תקפה אותי נעמה הכינה לי תה עם מלח בביתי לא אכפת לי מהטעם נעלבת שחשבה שבבית ככ לסבי יש סוכר לבן Jacoberesheet כן זה מה שעושה כעת  Jacoberesheet נכנסתי לסרטון בשם ״זה צא נראה כמוך״ ותוך כדי שהעמוד נטען הבנתי שהכתובת זה משהו בסגנון virusvirusvrsbad מה עושים אם אני מפגרת ונכנסתי לווירוס shirdecker DorDugy ItsAaronKlar לזייף תני להם לזייף DorDugy shirdecker כן אבל זה לא מאד נדיר שאנשים שגרים בתל אביב לא משנים כתובת shirdecker מה תוציא להם חוזה דירה shirdecker שהם גרים ביחד kafkafel לא נורא תפסיקו לקרוא לשנים במספר ברצינות זה מביך אותי התפיסת זמן שלכם נמאס לי מזה שאחרי כמה שנות שימוש הגוף פשוט קורס כמו אייפון ישן אף אחד הנפש שלי תעשי סיר פירה ותאכלי לבד בתחתון שנה טובה הסגר יפתח ב11 באוקטובר קחי אותי קנדה  ריאלטי שבו עשרים ישראלים מתחרים במשימות שונות על הזכות להגר למדינת עולם ראשון מתפקדת ומשעממת הכנתי מם  איך יודעים מתי יש איקאה סייל ולמה זה לא כשמחזור הירח מסתנכרן עם המחזור שלי רבו מכות כאילו הן יריבו על פוליטיקה החתולות רבו מכות ונתקעה ללילה הציפורן בחלוק שלי היא השמיעה משהו שהוא בין יללה לקריאת קרב ולא נתנה להתקרב אליה בלי…  LucyFord יש כבר מישהי על הכוונת אני ושרון שוקלות להביא חתול נוסף וחושבות על שמות אני צריך על שם דמות מיצירה שאנחנו אוהבות כמו מופי ולילה שרון שמש אחותי נמאס מהשנה הזאת חשבתי שיהיה לי טוב אם אני אעשה כל מני דברים ואז עשיתי אותם והיה לי חרא אני אושר לא מגיע מלה…  Duduoppe די יד צאי מהתחתון כאשר מישהו מסתכל עליי ליותר מחמש שניות ממי אני לסבית ל ס ב י ת אין מה לגשת אין מה לפנות אביא לי הטלפון של אחותך הג…  ככה זה עונה 2  ללקק תאצבעות דודה שלי תראי איזה חזה ענק נהיה לי 70b netah אהה וואי הייתי מזיינת את זה netah מה זה מבחן המרשמלו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amitsegal תזכורת שנתית כמה דקות לפני חדשות 2000 של קול ישראל  המנגינה הכי יפה ברדיו כששומעים אותה אפשר להרגיש את החורף מגיע אל ת… לשנה הבאה בירושלים הבריאה Syechimovich חבל שהמתנפלים על YaronDeckel לא יודעים שבלעדיו גלצ היתה נסגרת מזמן איזנקוט הבהיר לנו בוועדת חוב שיסגור ואף לגלג אול… 10 קבין של צביעות ירדו לעולם   5 לקחו אלה שהפכו את קלמן ליבסקינד לשמאלן ושפוט של מנדלבליט כי אינם מסוגלים להתווכח…  ItayBlumental  אבי בבקשה תמחוק את הציוץ המופקר הזה היית תת אלוף בצבא שדיבר על ממלכתיות וציות  עד הקורונה חשבתי שקמצא ובר קמצא זה פולקלור במשך חודשים פרסם קלמן ליבסקינד תחקירים על ניגודי עניינים של שופטים כל הצבועים שפתאום נזכרו להחמיא לו רק כשהוא תוקף…  LifeRivlin natitucker אתה אדם חכם בטוח שתקרא שוב ואולי תבין בכל זאת את ההבדל RavivDrucker להפך לכבוד הוא לי אך בחודש שעבר הבהרת שטרם התקבלתי לשולחן מרגש לראות שבחסדך בכל זאת זכיתי ולו לרגע להשתתף בדיון RavivDrucker אולי תחלק לנו במסודר רשימה מי ראוי בעיניך לתעודת עיתונאי כדי שיהיה סדר אחת ולתמיד קלמן ליבסקינד  הטור המלא הבוקר במוסף לשבת של YediotAhronot באחד השבועות הפוליטיים הגרועים בחייו כשמפלגתו יורדת למספר חד ספרתי ונכנעת לליכוד בסוגיית ההפגנות  דווקא בשבוע הזה…  פרסום ראשון השר יזהר שי הודיע לבני גנץ ״מתפטר מהממשלה״ גנץ ביקש לפגוש אותו הערב בטרם ישגר את המכתב soudron amitsegal אולי האופוזיציה לא רוצה בחירות האופוזיציה איבדה הערב הזדמנות פז לבחירות   בקיעים בכחלב התנגדות ביהדות התורה יואב קיש נואם חמישים דקות כי הגיוס לה…  הקלות הבלתי נסבלת שבה אפשר להשמיץ על בסיס עובדתי שקרי ברוטב אבחנות סוציולוגיות על הציונות הדתית ״הבוגדנית״  בו…  כל מילה אין גבול לרשעות ואין איש שיחמוק מהחרב המתהפכת של משטרת המחשבות הפעם למרבה הצער מימין  וַיֹּאמְרוּ אִישׁ אֶל אָחִיו אֲבָל אֲשֵׁמִים אֲנַחְנוּ עַל אָחִינוּ אֲשֶׁר רָאִינוּ צָרַת נַפְשׁוֹ בְּהִתְחַנְנוֹ…  מתוך הצ׳אט המלא  הממשלה מאפשרת את המשך ההדבקה בבתי הכנסת ובהפגנות זה לא מחייב אותנו לנהוג בחוסר היגיון  יפעת שאשא ביטון אמרה עכשיו שהיא לא עוסקת בפוליטיקה בנט אמר אתמול בשש עם מירי רגב אמרה שהדיונים בקבינט לא פוליטיים…  הציבור בוגר ממנהיגיו רוב גדול תומך בסגירת בתי הכנסת ובהגבלת הפגנות בלפור לרבות רוב לשני המהלכים בימין ובשמאל והפ…  רוחות המחאה ניכרות היטב בשאלה הבאה מפלגה בראשות יפעת שאשא ביטון  8 מנדטים כמעט כמו מנהיגה בדימוס משה כחלון רובם…  סקר החדשות הליכוד יורד לראשונה זה שנה וחצי לקידומת 2 בנט מטפס בעוד שני מנדטים מהסקר הקודם האם לראשונה זה שנות דו…  הויכוח בכחול לבן מצד אחד הטענה שהמפלגה נגררת לקצוות מהצד השני  שהגבלת ההפגנות תפגע במפלגה פוליטית  חיימוביץ אם נוותר כם על זכות ההפגנה זו תהיה הפעם האחרונה יהיה פה שבר יותר גדול עם הבוחרים ממה שנראה  ניסנקורן וזמיר לא לבטל ההפגנות  צריך לאזן  טרופר איך קרה שכחול לבן נותנת גיבוי לקולות הקצה אנחנו אמורים להיות הקול הממלכתי  מיד במהדורה חילוקי הדעות הקשים בכחול לבן בנושא ההפגנות מיד הטקסטים המלאים כרגע יש שתי מפלגות מגזריות בישראל יהדות התורה שנלחמת על פתיחת בתי הכנסת בכל מחיר וכחול לבן שעושה אותו דבר לגבי הה…  מי שנלחם עכשיו נגד סגירת בתי הכנסת נאבק על זכותו לעודד מגיפה רק כדי שיוכל להתפלל בציבור את המילים ״מנע מגיפה מנחלתך״ רק דת אחת בעולם כולו דורשת את המשך הפולחן גם במחיר חיי אדם הדת היא רק לא ביבי ופולחנה  הפגנה שבועית בבלפור haggaisegal הטענה שמפומפמת בשעות האחרונות כאילו MakorRishon נחלץ לקדם איזשהו בלון ניסוי של היועמש או לשרת פתאום את הפרקליטות היא… DaphnaLiel עיתונאי ברמה ממליץ להאזין דעה פופולרית אין על קלמן ליבסקינד ואראל סגל ומבחינתי שיריבו עד מחר אני בעד שניהם לא מכיר את ראובן עזר אבל גם אם מדובר ביועץ הטוב ביותר בנמצא את היום הזה הוא צריך לסיים עם מכתב פיטורין אי אפשר ל…  מעודדת זה כמובן יחסי הכוונה היא שהערבות ההדדית הערך החשוב ביותר בחברה הישראלית לא התפוררה זו רק קלות הדעת ההפק…  את האבחנה הכי מעודדת על מצבנו סיפק רן ברץ במקור ראשון בחג בעיניו ההפקרות בנושא הקורונה לא מעידה על אובדן הלכידות …  ביבי נגד הקורונה  אז הם בעדה  שנה טובה  העולם של אתמול העולם של מחר מחשבות לקראת תשפ״א שנה טובה    מחלת הרקע הישראלית שהחמירה את הקורונה היא אותה מחלת רקע אמריקנית רק הפוך הטור המלא הבוקר בYediotAhronot  סדרה מעוררת מחשבות אשרי הדור שלא ידע את החשש לשבת בבית קפה ולהתפוצץ וכל הכבוד לצה״ל  וזו הקונספציה של ממשל אובמה שהתנפצה שלשום לאלף רסיסים  שנה טובה ואם חסר לכם עוד קצת ויכוחים על התקשורת העליון הפוליטיקה ותיקי נתניהו  הנה אצל dverthaim בglobesnews …  אך אתמול התגאה ראש הממשלה בוושינגטון שנגמר עידן הויתורים תמורת לאכלום אין צודק ממנו  והנה נוחת הערב נתניהו בישר…  תשעה מיליון אזרחים הולכים לחודש בבית המדינה תשרוף עשרים מיליארד שקל ועוד בטרם החל האירוע כבר מסביר לנו סגן שר הברי…  ErelSegal גם אני בעד סגירת בתי כנסת הסיכון מיותר ומראית העין גם  אפשר להתפלל בחוץ  אפשר לעשות תשליך ליד ברז או בור מים לא חייבים חוף… טירוף קווים לדמותו או שסוגרים הכל או שפותחים  tamarishshalom בשולי טקס השלום בבית הלבן שאלנו בסיום ראיון עם השגריר גלעד ארדן האם הוא רוצה להצטרף להתנצלות של רה״מ בפני משפחת אלקיען… אני רואה שיש כאלה שלא מכירים את העובדות ועוד מתעקשים להאשים בשקרים 4 הרוגים ביממה של אוסלו לא הכרתם כי התקשורת ש…  soudron מיד במהדורה שידור משותף של מגישי הטלויזיה מאיחוד האמירויות בחריין וישראל  אני עוד זוכר שכשמחבלים רצחו ארבעה ישראלים ביממה של חתימת הסכמי אוסלו השמאל לא נתן לזה לפגום בשמחתו כמו מהרקטות הערב מי שירו הערב על אשקלון הוזמנו לעלות על רכבת השלום לפני 27 שנה במקום זה העדיפו לנסות לפוצץ אותה הטרלתם היא סימן של ייאוש liyaomer אין דרך אחרת לומר זאת  יאיר גולן מזוכיסט ללכת ולקבל בראש פעם אחר פעם מעמית סגל ובצדק מוחלט מזוכיזם טהור  N12News ויתור על החלת הריבונות  מול מערכת הבריתות amitsegal על ההסכם ההיסטורי והקונצנזוס סביבו  משדר מיוחד gt  יוסי גרינשטיין היה אדם עם לב זהב וידע נרחב אף פעם לא התנשא ותמיד שמח לעזור לצעירים ממנו יהי זכרו ברוך אדם אחראי   לא יילך בחגים לתפילות עם יותר מעשרה אנשים  לא יילך להפגנות גדולות   לא יחשוב שהנסיונות לשמור על ברי…  היום לפני 27 שנה נחתם הסכם אוסלו לא היו רשתות לא היו דעות אחרות העיתונים והערוצים נצבעו כחולנסיגות החודש לפני…  הסכנה בסגר תשרי היא של הפרות המוניות כשכל מגזר רואה את המגזרים האחרים באירועים המוניים לוח השנה זימן הזדמנות לפעו…  לנאום המלא  ועל כך אני מתנצל בפני הנשיאה חיות בת לניצולי שואה ״בית שקט מאוד״ הגדירה זאת פעם ללא קשר לביקורת שיש ומן הסתם ת…  בקריאה שניה ושלישית מאז התבררה לי הטעות חיות דווקא נזהרה מאוד מקביעה שהמשפט עשוי ״להציל״ מדינות היא דיברה על גרמנ…  5 ימים לפני ראש השנה הזדמנות להתנצל על טקסט שפרסמתי בין היתר כאן על הנשיאה אסתר חיות היא נאמה בנירנברג על המשפט…  shlomopyuter העובדה שתחנת רדיו מכובדת מראיינת על ענייני הקורונה את פרופ רבקה הקורונה תיעלם אחרי הבחירות כרמי היא תעודת עניות לתחנת… אם הכל היה בסדר ופשוט מוש כפי שטענה הפרקליטות בתגובותיה  למה יש בדיקה האם ייתכן שגם הפעם כמו בכמה מקרים בעבר נפלו אי דיוקים פרסום ראשון בעקבות חשיפת חדשות 12  שר המשפטים צפוי להורות על בדיקה בפרשת אום אלחיראן לסיכומו של השבוע נחשפנו לדרך בה נוהלה החקירה של האיש החשוב בישראל ולדרך בה נוהלה החקירה של בדואי מהפזורה ״האחרון…  למה ניצן התעקש נגד כולם לא לזכות את אלקיעאן מהאשמה הנוראה זה קרה אחרי שיחה עם אלשיך פסולה לכשעצה לאור מעורבות המפ…  ניצן חיכה חודשים אחרי התכתובת הזו התיק נסגר בעיתוי מופלא בשבוע שבו ראש מחש אורי כרמל התחלף ביורשתו הכנועה והנוחה…  ראש מח״ש אורי כרמל התקומם והזהיר  ההתכתבויות בתיק חירןאלקיעאןשי ניצן נחשפות  אפילו המשנה לפרקליט המדינה מומי למברגר סבר שיש לקבוע שההרוג חף מפשע…  הביצוע המלא   שבת שלום בכל פעם שברי סחרוף מוציא שיר חדש זו חגיגה בכל פעם שהוא מחדש שיר ישן  זה אירוע יש תחושה ש״את חירותי״ גרסת 2020 יה…  הפוטש המהותי  גיל ברינגר  קריאה מומלצת ביותר   תגובה שבכוונתי להשתמש בה עוד כל כך הרבה פעמים  הטור המלא הבוקר במוסף לשבת של YediotAhronot  מי זה חבר הכנסת הגאון שבחודש מרץ טעו שמשבר הקורונה הוא אחיזת עיניים באוגוסט שמדובר במחדל נורא של הממשלה ובספטמבר…  צפו הערב בראיון של דני קושמרו עם שי ניצן ובקרוב ממש  עוד פרטים מאחורי הקלעים על ההחלטה בתיק אום אל חיראן תומך בסיכול המחבל המתאבד שכבר מסתובב בינינו אבל בנחת בעוד עשרה ימים   אין דבר כזה החלטה דרמטית בעיכוב של שבוע וח…  ״התאמת פרוטוקול הטיפול״ פירושה הורדת איכותו בגלל עומס וזה עוד לפני הזינוק בתחלואה של חידוש הלימודים שנראה בשבוע הב…  בכיר התנועה לאיכות השלטון משקר במצח נחושה על סף הדיבה ואולי מעבר לה את ״התודעה הכוזבת״ יצר פרסום של חיים לוינסון…  KalmanLiebskind חוזר מבית העלמין בקיבוץ נחשון מלוויה של יזהר חבר טוב איש משפחה לוחם שנפצע שלוש פעמים במהלך שירותו הצבאי ונכנע רק… והרי תזכורת לפי החוק החדש הוצאה לנצברות מסיבה לא בריאותית  הממשלה מתפטרת והכנסת מתפזרת  אם זה נכון הרי שהסיבה היחידה למהפך כה דרמטי היא הפרסומים הלא מחמיאים על הפרקליטות תג המחיר הגדול בהיסטוריה  מסמך משטרתי חושף   החוקר רוטנברג ״ידע על בדיקה נגד נוני מוזס ועל קיום חומרים שנגעו לה״  D0ronhe בהצלחה דורון תודה שלי וסליחה מראש על מה שתחטפי עכשיו  התביעה של החוקר הראשי במח״ש דובי שרצר היא אחד המסמכים המפחידים שיצא לי לקרוא לאחרונה ערכים במבחן  Riklin10 מת Riklin10 אני קצת מבולבל  ofiroshr בויכוח בין דרוקר לסגל ברור שאני עם סגל למה תקשיבו לחשיפה הראשונית של דרוקר מאוגוסט 17 ושימו לב היטב למלל של דרוקר עצמו  … RavivDrucker לא טענתי את הטענה הזו אתה לא האדם היחיד שמכיר את העובדות ציטטתי דוחות מחש ומסמכים לבית המשפט אם יש…  RavivDrucker לא צפית כנראה בתחקיר טענתי וגיביתי במסמכים שעל פי 4 חוות דעת במח״ש רוטנברג היה שותף סוד בתיקי 2000…  צר לי אבל זה לא נכון עדות הרו שציטטת יולי 16 החתימה על ההסכם אוגוסט 17  המסמך הזה  מאי 16   על כל פנים שמח לראו…  שי ניצן ורוני אלשיך הביאו לבחירתה של מועמדת אלמונית וחיצונית לראשות מח״ש על אף קיומם של מועמדים טובים בהרבה ממנה ה…  לאחר היממה האחרונה מה דעתך הו ואוו  רוטנברג לא ידעתי שלהרו יש את ההקלטה דיברנו על מידע מודיעיני אחר ואת השם מוזס שמעתי לראשונה מהתקשורת כשפרצה הפרשה וגם עוד עדות על השתקת תלונות בתיקי נתניהו  בניסיון לחסוך לבכירי הפרקליטות עוד לילה ללא שינה הנה המסמך המוגדר ״סודי ביותר״ הפרקליטות מבקשת למנוע פרסום מזכר ש…  avishaigrinzaig טיוח וציפוף שורות במשטרה ובפרקליטות שוב נשבר שיא בשערוריות של מערכת אכיפת החוק  וגם האם למברגר באמת מנע את החקירה כד… בבית משפחת סגל דווקא כבו כל הלילה האורות ובכל זאת אאתגר הערב את הטענה הזו  shaquedmorag את תת רמה ולא ראויה לתגובה  באשר לאמינות ההכחשות של הפרקליטות והמשטרה הנה התגובה לפנייתו של ידידי ורעי אבישי גרינצייג לשאלה אם הופעלו לחצים פס…  לא השקר הראשון של שלום עכשיו אבל מהקלים יותר להפרכה הנה הקלטה של ראיון שבו צלבתי את ארדן בבוקר שאחרי הירי באלקיעא…  ראש מח״ש אורי כרמל לשי ניצן אחרי שזה סירב לנקות את שמו של אלקיאן ואת שמה של מח״ש מזה שנתיים מוקרבת מח״ש על מזבח הא…  עד עכשיו ספרתי חמישה שקרים בתגובת הפרקליטות בהמשך הבוקר ארכז אותם ואעלה כאן מתגובת הפרקליטות הלילה עולה שאין סיפור והכל נפלא וכשר כמעט עמדתי להתנצל ולהתפטר ואז נזכרתי שהמשטרה הכחישה שנעשה ת…  מתוך מנאייכ  OriginalMosheC שי ניצן יודע שנהרג אזרח חף מפשע מעולם לא הוא ולא מנדלבליט טרחו להבהיר זאת הרקע חקירות נתניהו מזעזע אני מכבד את התגובה אבל חולק עליה מכל וכל הרקע הוא דרישה של כרמל לצאת להגנת מח״ש ולהבהיר אגב כך שאין כל ראיה הקובעת…  אזרח ישראלי חף מפשע נורה למוות סתם מפכל המשטרה מעליל עליו עלילות דם אחרי מותו ושי ניצן מונע את פרסום האמת הזו כדי…  שר המשפטים ניסנקורן ביקש לעדכן שיתייחס לעניין מיד כשיסיים לשסות אלופים בצה״ל בעיתונאים חשוב להסביר כשהפרקליטות ושי ניצן הכחישו את הטענות הם לא ידעו על קיומם של המסמכים בכתבה מטריד ומעורר מחשבות מאידך…  הכתבה המלאה  פניתי לשי ניצן ושאלתי אותו אם התבטא כך על המפכל לא סיפרתי לו שיש לי את המייל תגובתו אלה טענות כזב שקריות מתלבט…  אבל ניצן מודה במייל סודי המפכל התנהג שערורייתית אבל לא נעזור כי זה יעשה טוב למי שרוצה ברעת המערכת ודי לחכימא…  הלך הרוח הזה נוכח גם בפרש שבה נהרג אזרח חף מפשע יעקוב אל קיאן מאש המשטרה המפכל אלשיך קבע שהוא מחבל מחש קבעה…  עוד שנה עוברת ראש מחש עוזב ובמקומו מתמנה בלחץ אלשיך וניצן מנהלת נוחה בהרבה למשטרה במשך חודשים ולמרות ההפצרות ה…  וזוהי הפצצה למברגר אוסר על מחש בצעד תקדימי לבדוק את תיק 2000 מסיבות מובנות הסיבות המובנות חוסר רצון לתת נשק ל…  אבל הימים הם ימי ההתכתשות הגדולה בין נתניהו והמשטרה לקראת המלצות המשטרה בתיקי האלפים פרקליט המדינה שי ניצן ומשנהו…  במחש המומים הן מניגוד העניינים לכאורה והן מההסתרה שורה של חוות דעת קובעות  החוקר חשוד בהפרת אמונים משפחות נתני…  שנה וחצי אחרי מגיעה אשתו של רוטנברג לראש אגף החקירות ומספרת לו בעלי בזוגיות עם גודי מוזס וסיפרתי על זה לכמה עית…  שנה אחכ מתברר למשטרה שה2 דווקא כן מנהלים קשר זוגיתפו״א הלוהט מתגלגל בשרשרת הפיקוד ונעצר אצל ר׳ להב ריטמן ור׳ אגף…  רב פקד אבי רוטנברג ניהל את חקירת המעונות של שרה נתניהו במהלך החקירה רגע לפני שהוא אמור להיות גם בצוות שבודק את הק…  הערב בחדשות הדבר הזה אל תחמיצו  התקיימה בנו האמירה הסובייטית המוכרת שרק ככל שיהיה יותר גרוע יהיה יותר טוב במצב הנוכחי שבו אף מגזר חרדים ערבים בליינים שמאלנים לא מוכן לוותר על מימוש הערך העליון שלו סגר יתאפשר רק כשמבת…  giladsharon כתב אישום הוגש נגד איתן זאב מאזור בנימיןהמון פלשתיני הגיע לשטח פרטי אותו עיבד איתן ורצה לבצע לינץאיתן איש אדמה וחלוץ א… מתוך YediotAhronot  הטור המלא במוסף לשבת הימין 65 למרות שנתניהו יורד ובנט מזנק והנה הדילמה האכזרית של נתניהו במלוא תפארתה בנט הוא גם הסכנה הגדולה וגם תקוו…  בין ברי לבלפור  KalmanLiebskind ההחלטה של חיות ומלצר למחוק את מצפה כרמים איננה אירוע משפטי אלא אירוע פוליטי  כך התגלגלה הפסיקה שתביא להרס יישוב יהו… הטור המלא הבוקר במוסף לשבת של YediotAhronot שני יהודים העניקו למוסלמי אחד ויתור לא כואב כי לא כאב להם לוותר  צמאה  שלום לבן דודי  shimritmeir לאל אמין זה לא היה קורה בתל אביב אין סתיו בירושלים יש ברי  לא הייתה מעולם מתקפה כזו או אפילו קרובה לזו על לפיד מבפנים שניהם סיימו את דרכם המשותפת כָּל מָקוֹם שֶׁיֵּשׁ חִלּוּל הַשֵׁם אֵין חוֹלְקִין כָּבוֹד לָרַב עוד פרטים ומחשבות על שלחלפיד  מדהים  ממליץ בחום התזה של ohadh1  שמגובה באינספור מפגשים מסמרי שיער בכפרים ובקסבות 47׳ חשובה 67׳ חשובה מאוד אבל הפלס…  מהפרק היומי ב929 זה כבר קרה ויום אחד אולי הזקנים והזקנות יישבו ליד הילדים והילדות שמשחקים בלי לשמור על ריחוק חבר…  שלב א ״לא היה תרגיל חקירה״ שלב ב מנדלבליט קובע שהתמלילים ״חלקיים ומגמתיים״  שלב ג מסתירים מבית המשפט את התמלילי…  shimritmeir מתכתב עם נסיון לשדר מעודכנות ולמחוק את הפער הדורי שמטפס ליותר משישה עשורים ילדי בית הספר שביקר בקדנצי…  כבוד לעיתונאיות ישראל בהן חברות תא העיתונאיות שמכבדות מסורת דתית מקומית  ErelSegal mosheifargan avishaigrinzaig מה אתם רוצים ממנו דעלך דסני לחברך לא תעביד שנה חדשה גן חדש עברי אמר לי הערב יש לפחות אחד שאני אכיר בגן ruvirivlin בתמונה על הקיר  הטיעונים של אלשיך בראיונות סוף השבוע די משומשים עניתי לרובם כבר לפני שנתיים בטקסט הבא מוזמנים לקרוא  אגב באמת אין כוח לגולל את מסכת השקרים המוחלטים וחצאי האמיתות של אלשיך אבל הטענה המקוממת מכולן היא זעקתו על ״המצב…  מעיון בראיונות שהעניק רוני אלשיך עולה שעל משטרת ישראל פיקד אדם שלא טעה מעולם אשרינו שזכינו מה המוסד הבא שנגלה שאפשר להסתדר בלעדיו בישראל צה״ל או אולי מס ההכנסה הטור המלא הבוקר בYediotAhronot  כבר היה פעם בגצ מצפה כרמים לפני 19 שנה דחה הנשיא ברק את בקשת התושבים שסרט שאליו הצטלמו לא ישודר בשבת כאז כן היום…  avishaigrinzaig קשה להאמין שאפשר לנחש מראש מה יחליטו מזוז ופוגלמן הם פוסקים רק לפי החוק בלב פתוח ובנפש חפצה לא חלפו חמש דקות והפילוסוף של המוסר מחק מה שמרשים במיוחד הוא שאיש מהנ״ל לא שווה דבר מבחינה עיתונאית אבל בתודעתם הם הסלקטורים בכניסה למוסד הנחשק של העיתונו…  וְעַל כֵּן הַבַּיִת לִי צַר וְהָעִיר – זָרָה כִּי הָיָה מִתְנוֹפֵף סוּדָרָהּ לְרוּחוֹת הַמִּדְבָּר  אם רוני גמזו יתפטר לא יהיה עוד משוגע שיסכים לשמש ממונה קורונה ההתנפלות עליו מהקואליציה בגלל צעדים שהוא מבקש לנקוט…  Riklin10 אולי מדובר בצמחיית חורף בדקת במשתלה נגמר המשבר הליכוד יתמוך בדחיית הבחירות גנץ צפוי להודיע בנאומו נתמוך בדחיית הבחירות הערב בהצבעה  המשמעות מגלגל את הכדור והאשמה למגרש של נתניהו תיקון חשוב לאחר בדיקה התברר לי שבניגוד לפרסומים שעליהם הסתמכתי מנדלבליט לא יזם ולא קשור לשינוי במח״ש שבעטיו הסתיי…  arnonsegal1 עשורים שפעילי הר הבית סובלים מאלימות המשטרה בעוונות פחותים בהרבה מנאצות שתיה מברזיות של מוסלמים סטייה מהנתיב המורשה הנפ… נתניהו לא סיפרתי לכחול לבן שאני לא הולך לבחירות כדי שזה לא ידלוף לאירנים מסיבת העיתונאים  על קורונה ועל המצב הפוליטי הספר ״ממלאי הפקודות״ עוסק בין היתר בחיסולה השיטתי של יהדות אירופה בידי הנאצים  והאמת העוול לניסנקורן הוא גם צדק פואטי הרי מיום כניסתו לתפקיד הוא ״אגרוף ברזל״ להכשרת כל עוולה משפטית לא צייץ מי…  אני לגמרי מאמין למשרד המשפטים שמייחס את העיכוב בן השנתיים בסגירת התיק הקשור לניסנקורן לרשלנות ולא לזדון אבל מרגע ש…  שבוע טוב עם מה שנראה כמו סיכוי לחדשות טובות בליכוד נוטים להסכים לפשרה של צבי האוזר שלפיה התקציב יידחה בכמה חודשים…  לא בשולי הדברים המצב שבו תיק נותר פתוח במשך למעלה משנתיים נגד איש ציבור אף שלא מבוצעת בו כל פעולת חקירה  בלתי נסב…  מאי 2020 הוא לא סתם תאריך אלא החודש שבו שר המשפטים נכנס לתפקידו נמתין להבהרת משרד המשפטים  כנראה מודאגים מאוד מהפגיעה ביתרון האיכותי של צה״ל  אויר של אלול בירושלים avishaigrinzaig אבל NadavNadavw פסק אחרת קיבלו אישור לחלוק עליו amirayelet ממליץ לקרוא את התגובה של אלוף במיל יעקב עמידרור למאמר של העיתונאי רן אדליסט מעריב  ובגירסת האינסטגרם amitsegalnews   האם תהיינה בחירות בשבוע הבא זו בהחלט אפשרות ריאלית האם בטוח שתהיינה בחירות ממש לא מוזמנים להאזין  Riklin10 איך זה קשור לליאת בן ארי shimritmeir מאז שאהוד יערי נכנס לאולפן ובישר כל חיסולו של בכיר החמאס דרדסאווי לא היה מבזק כזה shimritmeir אכן לא חזר לעצמו מאז ההופעה בסרט של דיסני RavivDrucker לא לא ירדתי כולנו יודעים לצפות בחדשות עשית מאמץ עילאי להעביר את אשמתו של נתניהו צילומי נתניהו בצו…  RavivDrucker רק במקרה כל התמונות זה ביבי עולה ויורד מצוללות זה היה הפוטג׳ היחיד בארכיון לגבי חפץ ופילבר ואלוביץ׳…  4 גם אם עיתונאי הימין כולם יתגייסו להלל ולשבח את נתניהו לאתרג ולסנגר  עדיין לעולם לא יועילו לסיכויי הבחירה מחדש…  3 לראות את ברוך קרא ואביעד גליקמן צמד הדוברים הנרצעים של מערכת המשפט שמימיהם לא הוציאו מילת ביקורת על מסוקריהם…  2 אם על כל 10 דברי ביקורת שלי על נתניהו בהקשר הפלילי והפוליטי תהיה מילת ביקורת אחת של דרוקר על התנהלות החקירות או…  כמה מחשבות לסיכום הויכוח הסוער עם רביב 1 תיקי נתניהו טרם החלו להתברר בבית המשפט יש משהו כמעט מחוצף בקביעה עוד מ…  אביעד גליקמן ריטווט היום ציוץ ביקורת חזק ועוצמתי על קולגה שלא מבקר מספיק את מושאי הסיקור שלו אין פאנץ׳ פרסום ראשון של מסקנות דו״ח מבקר המדינה על נסיבות מינויו של מנדלבליט נתניהו מינה אותו  RavivDrucker מרוב שאינך מקשיב להן לא עוברים שבועיים בלי מאמר שאתה מקדיש לי בהארץ וכעת אחזור לבריכה RavivDrucker תעדכן בבקשה כשמועצת האבירים תספר שיש לי מקום ליד השולחן חלום חיי שתקבלו אותי RavivDrucker לכן לא אמרת מילה על הממד החמישי תפירת תיקים לניצבים ועוד ועוד המטרה מקדשת RavivDrucker אני אכן סבור שיש הבדלים משמעותיים בין נתניהו ואולמרט ואם בית המשפט יפסוק אחרת אכבד זאת אבל כל זה לא…  תזכורת  באפריל 12׳ נראה שפנינו לבחירות  ב75 מפרסם עבדכם שרוזנטל נפגש עם יו״ר העבודה וסיכם שיתמודד בפריימריז … </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הרוצה בשלום יכון למלחמה העליונות הצבאית של ישראל תישמר בזכות הברית ביננו לארהב אך מעל הכל בזכות יכולות ביטחוניות…  ההתאבדות של חברי כחול לבן על קיום ההפגנות היא פשוט בלתי נתפסת המגיפה מתפשטת בכל העולם אנשים מאבדים במקרה הטוב את…  ידעתם שהעובד הישראלי עובד בממוצע 42 שעות בשבוע ובמדינות הOECD כ40 שעות בלבד אני מתכוון כעת להמשיך בקידום המהלך…  יוזמת סוף שבוע ארוך חוזרת במיוחד בתקופה של משבר הקורונה כשהפעילות במשק יורדת והאבטלה עולה זוהי בשורה חשובה לכלכל…  33 אני רוצה לברך גם את שייח מוחמד בן זאיד מנהיג איחוד האמירויות ואת מלך בחריין חמד בן עיסא על תרומתם להסכם פורץ ה…  23 לאחר 26 שנה אנו חותמים היום על הסכם שלום נוסף עם שתי מדינות ערביות הסכם שיחזק את ישראל מבחינה ביטחונית וכלכלי…  13 שֶׁהֶחֱיָנוּ וְקִיְּמָנוּ וְהִגִּיעָנוּ לַזְמַן הַזֶּה  יש רגעים שנחרטים לעד על לוח ההיסטוריה של מדינת…  simonarann ⁦⁩⁦⁩ وزير الاستخبارات ⁩ إيلي كوهن لقناة سكاي نيوز عربية من الإمارات⁦ ⁩ تحدياتنا الأمنية مشتركة ومعاهدة السلام الإس… באמת היתה שבת שלום כפי שאמרתי הסכמים נוספים על הפרק מברך את ראש הממשלה נתניהו ואת והנשיא טראמפ על הסכם שלום הי…  המשטר האיסלאמי בטהראן שוב הוכיח שהאויב הגדול בעיניהם הוא העם הפרסי אני עם העם הפרסי אני עם נביד אפקרי יגיע יום ש…  جمهوری اسلامی ثابت کرده که بزرگ‌ترین دشمن مردم ایران است من در کنار ایرانیان هستم، من در کنار زنده‌یاد،…  simonarann   שר המודיעין אלי כהן elicoh1 נועד עם משלחת של צאד בראשות בנו של הנשיא וראש הקבינט הגנרל עבד אלכרים דבי אשר הביע א… מחזקים את היחסים עם צאד פגישה חשובה עם יור הקבינט של צאד גנרל עבד אל כרים דבי ועם מנהל הסוכנות לביטחון לאומ…  נורות האזהרה הבהבו מעל חקירות נתניהו לכל אורך הדרך כל מי שעיניו בראשו יכל לראות את שלל החורים וסימני השאלה בתיקים…  השבכ בעוד פעולה מוצלחת חשף היום ניסיון של חמאס לגייס אזרח ישראלי לבצע פיגוע בשטח מדינת ישראל  אני מודה לאנשי השב…  radios100 השבוע בתוכנית הנבחרים עם דוד בן בסט ראיון עם שר המודיעין elicoh1 LikudParty שישי 1000 בבוקר ברדיוס 100FM  באפל… ברוכה הבאה לליכוד שולי קידמנו ביחד פרויקטים בעבר ואני יכול לומר שהליכוד הרוויח חברה מוכשרת חדורת תחושת שליחות ומ…  שלום כיתה ב בהצלחה לבתי עמנואל שמתחילה היום את כיתה ב ובהצלחה לכל ילדות וילדי ישראל  שהחיינו מברך על המראת הטיסה הראשונה וההיסטורית מישראל לאבו דאבי חשיבות ההסכם בין ישראל לאמירויות מעבר ליצירת חזי…  gershuni AmalyaDuek 3 במקביל פעלתי לפתוח את השוק להקל בייבוא ולעודד ייצור מקומי משום שהיה קושי זמני בהשגת המ…  gershuni AmalyaDuek 2 בזמנו כשהמסכות עלו מעל ל10 שח ליחידה פעלתי באמצעות משא ומתן וגם באמצעות איום הפיקוח…  gershuni AmalyaDuek 1 כאחד שהגיע לפוליטיקה מהדרגות הבכירות ביותר במגזר העסקי אני לא חושב שאני צריך שיעורים בכלכ…  שולח את תנחומיי למשפחתו של הנרצח בפיגוע הדקירה בפת על ידי בן עוולה עלינו להחריב עד היסוד את הבית ממנו יצאה חיית…  I welcome our true friend Secretary of State mikepompeo on his arrival to Israel The relationship between Israel…  בחירות בעת הנוכחית הן לא דבר רצוי עבור מדינת ישראל ראש הממשלה נתניהו הוכיח שרק טובת המדינה לנגד עיניו נמשיך לעבוד…  השמאל מוכן להכפיש מפקד חיל אוויר עתיר זכויות כדי לנסות לפגוע ברוה״מ נתניהו הגם שמפקד ח״א כמו הרמטכ״ל משרד הביטח…  arutz20 שר המודיעין אלי כהן הסכם השלום שלנו עם איחוד האמירויות בחסות ארהב לא כולל שום סעיף שמדבר על מכירת נשק לא סעיף גלוי ולא סמוי… אונס הנערה שהתרחש השבוע באילת הוא מזעזע ומחריד איך ניתן לאבד כך צלם אנוש אין לחלאות האלה אמא בת אחות אני קורא…  ההסכם עם איחוד האמירויות הוא הסנונית הראשונה ואין לי ספק שלאחריו תגענה מדינות נוספות מהמפרץ ומאפריקה הסכם שלום בין…  תקופת הצונאמי המדיני הזאת תירשם בדפי ההיסטוריה של מדינת ישראל כפי שאמרנו ההסכם מול איחוד האמירויות הוא רק הסנונית…  ההסכם עם האמירויות אינו כולל הסכמה  ישראלית למכירת ציוד צבאי שיפר את העליונות הצבאית האזורית של ישראל מציע לחברי כ…  simonarann ⁦⁦⁩⁩⁦⁦⁩  وزير الاستخبارات الإسرائيلي elicoh1 إيلى كوهين يتوقع بأن يتم قريباً التوصل إلى اتفاقسلام بين إسرائيل و ال… simonarann ⁦⁩⁦⁩  שר המודיעין אלי כהן elicoh1  מעריך שסודן תחתום בקרוב על הסכם שלום עם ישראל  מקורות מדיניים המגעים בין המדינות… יום היסטורי ליחסי ישראל ומדינות ערב עם חתימה על הסכם שעוד רבים יגיעו בעקבותיו מברך את ראש הממשלה והנשיא טראמפ שהפ…  עמית בן יגאל זל נרצח על ידי מחבל מתועב במהלך פעילות צהל היום דחו שופטי העליון את הריסת בית המחבל בטיעון מקומם ו…  כל הכבוד לשבכ על לכידת המחבל שתכנן את הפיגוע בו נפלו חיילי צהל אלירז פרץ ואילן סביאטקובסטקי לפני כעשור מדינת ישר…  ברוך דיין האמת כואבים את פטירתו של הרב עדין שטיינזלץ שהקדיש את חייו להנגשת ארון הספרים היהודי לעם ישראל ולקירוב…  Oui M le Président pas seul car l’Iran est avec lui Depuis 30 ans le Hezbollah envoyé de l’Iran détruit le pay…  נכון אדוני הנשיא לבנון לא לבד כי איראן לא עוזבת אותה כבר 30 שנה שחיזבאללה השלוחה הקדמית של איראן הורסת כל חלקה…  שבוע טוב ביום שישי קיבלתי הודעה ממשרד הבריאות על כך שאחד מהנוכחים בפגישה שקיימתי בשבוע שעבר התגלה כחולה קורונה וע…  Menachemcohen1 קיבלת שבת שלום שבת שלום לחיילי וחיילות צהל היקרים לכוחות הביטחון ולכל עם ישראל  התמונה מלפני הקורונה  מיקי יקירי כשאיש קטן מטיל צל ענק זה אומר שהשמש שוקעת מקווה שתפעל למלא את שליחותך ולאחד את הסיעה zoharm7…  כל ניסיון של חיזבאללה לפגוע במדינת ישראל ייענה בתגובה נחושה ועוצמתית מחזק את חיילי צהל על התגובה המהירה ובמיוחד…  שיעור על כוח רצון אמונה בעצמנו והגשמת חלומות ביום חמישי שעבר ליוויתי לבקום 9 צעירים עם צרכים מיוחדים שלא נתנו…  arutz20 שר המודיעין אלי כהן במהלך ההפגנות האחרונות אין שום קשר לסוגיות כלכליות יש פשוט אנשים שלא מקבלים דבר אחד את בחירת העם את ה… arutz20 שר המודיעין אלי כהן יגיע בשעה 1800 לתכנית הכלכלית  יש לכם שאלה עבורו ספרו לנו  ErezZadok1 elicoh1  מחאת הדגלים השחורים אתמול הייתה מפגן צביעות של קבוצה אלימה ואנרכיסטית שלא הפנימה את ההפסד בבחירות אבל מה הפלא כשח…  simonarann שר המודיעין אלי כהן elicoh1  בראיון עמנו  בקרוב תעלה האפליקציה המגן 2 לזיהוי ואיתור נדבקים בתקווה להשטחת עקומת הנדבקי… radio103fm השר אלי כהן elicoh1 ליכוד סגר הוא צעד דרסטי מדי כרגע הקורונה תישאר איתנו גם אחרי הסגר שמציע השר steinitzyuval הנדב… למי שעוד היה ספק עכשיו אין ספק הכלים של השבכ מצילים חיים מונעים סגר ומסייעים להשטיח מחדש את העקומה מי שמתנגד ל…  GolanMay הגיע הזמן לעשות צדק עם תושבי העיר אשקלון שחיים במציאות בטחונית מורכבת המקשה עליהם ועל חיי השגרה הצ״ח שהגשתי בשיתוף עם השר אל… כולם שווים בפני החוק נבחרי ציבור פקידים וכן גם שופטים מניעת ניגודי עניינים תחזק את מערכת המשפט ואת אמון הציבור…  ArielKallner בהצלחה אריאל  OsnathilaMark בהצלחה  עוד הישג גדול למערכת הביטחון הישראלית השיגור המוצלח של לווין אופק 16 הוא הוכחה נוספת לעליונות הטכנולוגית והמודיעינ…  simonarann שר המודיעין elicoh1 אלי כהן ירכז את ועדת השרים לבחינת הצורך בהמשך ההסתייעות בשרות הביטחון הכללי לצמצום התפשטות נגיף קורונ… Just another example of the Arab world being interested in normalizing its relations with the Jewish State just li…  מיכאל בן זיקרי  גיבור הלב מתרחב שיש אנשים כאלו שעושים את הכל על מנת להציל מטביעה אם וילדים והלב נקרע כשגיבור כז…  להזכירכם הקונצנזוס בישראל נקבע באמצעות בחירות דמוקרטיות אתם מוזמנים להתמודד אגב בישראל כל קול שווה בין אם אתה…  כל הכבוד לשבכ שחשף היום ניסיון של חיזבאללה לגייס אזרחים ישראלים מהגליל לפעילות כנגד מדינת ישראל  אנשי השבכ עובד…  UriKarzen שמחנו לארח היום את  ידיד חברון שר המודיעין אלי כהן elicoh1  ראש ממשלה חכם אמר פעם עתידנו תלוי לא במה שיאמרו הגויים אלא במה שיעשו היהודים אני מציע להפסיק עם הנסיונות לזרוע…  GLZRadio שר המודיעין elicoh1 מגיב את הריבונות על שטחי אבותינו נחיל על אפו וחמתו של החמאס שיודע שמי ששילם את המחיר על הרפתקאותיו הם… ברוך דיין האמת הצטערתי לשמוע על מותו של יהודה אביו של נחשון וקסמן שנלקח כבן ערובה ונרצח בידי החמאס לפני 26 שנים…  בשביל טיבי פלסטיני שניסה לרצוח יהודים זוהי רק תקלה אז טיבי בתקלות צריך לטפל בזריזות ובנחישות מחזק את חיילי…  מועצת הביטחון של האום תדון בהצעת ארהב להאריך את אמברגו הנשק על איראן ללא הגבלת זמן  איראן היא סכנה לא רק לישראל…  amirbohbot פרסום ראשון ההצעה להעלאת נושא לסדר היום של ישיבת הממשלה על העברת יחידות אמן לנגב מאת שר המודיעין חכ אלי כהן   idfonlin… elicoh1 להגיד שהטלת היצף לא תשפיע על מחירי הדיור זה כמו להגיד שמחירי החלב לא ישפיעו על מחירי הגבינה  לנופף בסיסמה ריקה מתוכן של כלכל… IsraelHayomHeb ניתוח שנערך במשרד לענייני מודיעין קובע כי העת הנוכחית היא המתאימה ביותר ליישם את מהלך הריבונות ביהודה שומרון ובקעת היר… שוק חופשי עם רגישות חברתית פתיחת השווקים והגברת התחרות היא טובה למשק טובה לאזרחים והיא מה שהצעיד קדימה את הכלכ…  להגיד שהטלת היצף לא תשפיע על מחירי הדיור זה כמו להגיד שמחירי החלב לא ישפיעו על מחירי הגבינה  לנופף בסיסמה ריקה מת…  Joined PrimeministerGR during his visit at YadVashem Mitsotakis’ family saved a Jewish girl during the Holocaust…  ביד ושם יחד עם ראש ממשלת יוון קיריאקוס מיצוטקיס במסגרת ביקורו הרשמי בישראל קרובת משפחתו של מיצוטקיס הצילה בשואה…  אם גנץ ואשכנזי יתקעו מקלות בגלגלי הריבונות הם יהיו חתומים על פספוס בקנה מידה היסטורי שעשויות להיות לו השלכות גם ע…  מקום הצדק שמה הרשע בית הדין האנטישמי בהאג מתעלם מפשעי המשטר בוונצואלה מרצח העם בסוריה ומזוועות נוספות שמתרחשות ב…  JamesCleverly Congratulated elicoh1 today on his appointment as Israel  Minister of Intelligence  We discussed Israeli security… Had a great Zoom meeting w Minister JamesCleverly We discussed Iranian malign actions in the region and the „Tru…  שוחחתי הבוקר עם השר הבריטי לענייני המזרח התיכון ידיד ישראל JamesCleverly שוחחנו על החלת הריבונות האיום האיראני…  ההסדרה שחייבים לקדם היא פסקת התגברות הפקעת קרקע תוך שמירה על זכות הקניין מותרת עבור יהודים באריאל ברעננה ובכל מק…  אֶרְדּוֹף אוֹיְבַי וְאַשִּׂיגֵם וְלֹא אָשׁוּב עַד כַּלּוֹתָם יידע כל טרוריסט כי זרועה של מדינת ישראל מגיעה לכל…  ארגוני השמאל שהפגינו היום נגד הסיפוח עם דגלי אשף ושלטים נגד צהל חשפו את כוונותם האמיתית לא נרתע מתומכי מחבלים…  DanWilliams Israel’s Intelligence Ministry says flights should resume to these countries Seychelles Cyprus Greece South Korea Slo… למי שרוצה תמונה מהימנה ופחות לזרוע פאניקה מיותרת שיסתכל בעיקר על שיעור הבדיקות החיוביות שהוא נתון חשוב יותר מכמות…  ynetalerts המלצת משרד המודיעין אלה המדינות שאליהן ניתן יהיה לטוס בקרוב   התחקיר המצוין של כאן 11 מאתמול מוכיח עד כמה חשובה השקיפות במערכת המשפט ועד כמה היא הוזנחה עד היום כפי שכבר אמרתי…  YakiAdamker יקי היקר שלא תדעו עוד צער בטיעון מקומם ובניגוד לעמדת מערכת הביטחון שהריסת בתים מרתיעה מחבלים דחו שופטי בגץ הריסת בית מחבל משום שמשפחתו חפה…  דברי הרהב של חימינאי נועדו להסית את תשומת הלב של העם האיראני מהבוץ בו הם שקועים הוא יודע היטב כי ניסיון לממש את ה…  היום בטקס חילופי שרים במשרד הכלכלה והתעשייה במהלך שלוש וחצי השנים האחרונות פעלנו ללא ליאות למען הכלכלה הישראלית ו…  akibigman שבוע טוב יקירי מערך המודיעין הישראלי הוא בעל שם בינלאומי ובעל חשיבות עצומה לביטחון המדינה  אפעל באחריות ובמסירות לחיזוק ולשדרוג מ…  שבוע טוב אני רוצה להודות לראש הממשלה netanyahu על האמון שנתן בי לכהן כשר המודיעין בממשלה הבאה הייתה לי הזכות לש…  netanyahu אני שמח לבשר כי החלטתי למנות את השר elicoh1 לתפקיד שר המודיעין בתפקידו כשר הכלכלה השר כהן פעל רבות להצלחה ולשגשוג הכלכלה… chaimlevinson לוינסון להבא רק תתייג elicoh1 שבוע טוב ItaiHoffman uriyaelk JoshBreiner איתי שלום תחום זה שייך למשרד העבודה תודה רני  פתיחת הכלכלה היא צו השעה בשבילי כל עסק זה עולם ומלואו ואני אמשיך להילחם למענם RahavRan  ikicohen RahavRan IsraelHayomHeb misradcalcala IsraelMOH תודה אח יקר בוקר קשה וכואב שולח את תנחומיי למשפחתו ולהוריו של עמית בן יגאל לוחם סיירת גולני שנפל בעת מילוי תפקידו מחבק את הה…  GLZRadio הפרופ איתמר גרוטו המשנה למנכל משרד הבריאות על פתיחת המסעדות מיום רביעי הבא ככל שנראה שהמצב יותר טוב אפשר לדון על התאריכ… giladerdan1 בהצלחה גלעד מדינת ישראל זכתה  shlomokarhi השר elicoh1 ואני מברכים את בנק ישראל על מתווה הסיוע למשקי הבית ולעסקים על רקע הקורונה בהמשך להצח שלנו ולשיחות עם הנגיד… p08bK41UHtjDpcN פועלים מולם שיקדימו כמה שיותר חשוב לעולם לא נתפשר על ביטחוננו  ביטחונה של מדינת ישראל זוהי חובתנו לנופלים זוהי חובתנו לאזרחי ישראל זוהי חובתנו לדו…  zviashkenazi ShaikeKatz NaftaliSariel1 amsterdamski2 naftalibennett אכן צבי ידידות  שלא תלויה בדבר  נב נפגשת…  עכשיו אפשר להגיד שמתחילים לחזור לשגרה אחרי יותר מחודש עם אחת המנות הטובות בחולון פלאפל בטעם של עוד🥙 שלחו תמונה…  כואב הלב הרב הבר הציל במו ידיו חיים של מאות אנשים שולח את תנחומיי למשפחה ולחברים ברוך דיין האמת יום העצמאות מתקרב וזה הזמן לפרגן לתוצרת ישראלית להפגין ערבות הדדית שכל כך מאפיינת את העם שלנו ולתמוך בישראלים הרבי…  ברוך רופא חולים שמחתי לשמוע שמצבו של אלי ביר נשיא ומייסד איחוד הצלה משתפר ושהוא שב הביתה לישראל מאחל לו שימשיך…  benirabin הבנקים שחשוב שיגלו רגישות בשעה זו ללקוחות שלהם שלמה היקר מה שלא הולך בטוב יתקדם בחקיקה  shlomokarhi gtgt  3 הבנקים יחוייבו לאפשר ללקוחות לדחות תשלומי הלוואות עד חצי שנה ולהעבירן לסוף התקופה הפעולה לא תהיה כרוכה בעמלה ותנא… 10elilevi מיד אצלנו ב news1075  שר הכלכלה elicoh1 אלוף משנה רלי מרגלית מנכ״ל רמב״ם ד״ר מיקי הלברטל bokeralmog דיווח מאיטליה ראש הע… אתמול אישרנו תכנית ראשונית לסיוע כלכלי לנפגעים מהקורונה כולל מענק של 500 שח להורים על כל ילד וגם לקשישים ונכים ר…  amirbohbot לכן סגרנו עם הרשתות הגדולות מחירי מכירה של מסכות ואלכוג׳ל BorisJohnson is a great friend of Israel I wish him a full and quick recovery  Photo by Flash 90  amirbohbot אמיר מציע שתעקוב אחר הפרסומים של משרד הכלכלה וגם בפייס אצלי כבר הכשרנו 2 מפעלים בשדרות ובאלון תבור שמיי…  SamerBarhamS hadover1 תקנה רק ברשתות הגדולות שהתחייבו על מחיר 3 ב10 שח מקסימום GLZRadio השר elicoh1 לירון וילנסקי וbardugojacob מצפה מנגיד בנק ישראל להורות לבנקים להקפיא את תשלומי הקרן לשלושה חודשים ולא להעלו… NitayAnavi שר הכלכלה elicoh1 מאיים על הבנקים  היכנסו מתחת לאלונקה או שנפעל נגדכם בחקיקה שבוע טוב לצערי שמענו השבוע הרבה הכפשות והכללות שלא בצדק נגד המגזר החרדי הכפשות אלה מבוססות על דעות קדומות ומבזו…  Idaneretz עידן אין קשר בפוסט שרשמת למשרד הכלכלה אולי לחקלאות לכן לכן לא חתמתי על צו מוצרי חקלאות לא בכלכלהמציע מנסיונך שתתקן שולח איחולי החלמה מהירה לידידי שר הבריאות יעקב ליצמן ורעייתו יחד עם כל חולי ישראל בהזדמנות זו אני רוצה להזכיר לכו…  newsisrael13 מגפת הקורונה  שר הכלכלה והתעשייה elicoh1 פנה לנגיד בנק ישראל אמיר ירון במטרה להנחות את הבנקים לדחות את תשלומי קרן הה… מאיר בן שבת ראש המלל הקדיש ומקדיש את חייו ימיו ולילותיו למען מדינת ישראל זכיתי להכיר אותו במסגרת פעילותי בקבינט…  יור הכנסת יולי אדלשטיין פעל בצורה ממלכתית ומכבדת אל מול ההתערבות הבוטה של בגץ שמהווה פגיעה קשה בעקרון הפרדת הרשו…  אתם שם בקוקפיט טיפת כבוד לא נשארה לכם אתם מפקידים וועדה שעוסקת גם בנפגעי טרור בידי תומכי טרור אתם שהובלתם חייל…  liatron שר הכלכלה elicoh1 להיזהר משרלטנים  שמציעים ליווי עסקי למילוי הטפסים באלפי שקלים מרכזי המעוף נותנים ייעוץ כזה ב 100 שקלים ב… אנחנו כאן בשבילכם עסקים קטנים ובינוניים יש לכם שאלה חייגו 6680 ומוקד החירום של משרד הכלכלה ייענה לכם על כל שאלה…  sivanhakolkalul מקבלת אינספור תלונות על רשתות שיווק וחנויות שמנצלות את המצב ומפקיעות מחירים מאיפה בכל הארץ אבל בעיקר בפריפריה גייסנו… omeraricha לא רק בנט גם שר הכלכלה elicoh1 יפתח בסבב מענה משודר  שפל חדש בתולדות המפלגות הציוניות תראו מי תומך היום בגנץ אחמד טיבי יועץ רב המרצחים ערפאת שלפיו ארץ ישראל היא ביט…  שוחחתי עם ראשי הרשתות הגדולות וסיכמתי איתם שמחירי האלכוגל לא יעלו על 990 שח ל100 מל העלאת מחירים של מוצרים הכ…  בושה וחרפה שבשעה שמדינת ישראל מתמודדת עם אתגר הקורונה שמשפיע על חיי כולנו הפוליטיקאים של כחול לבן ממשיכים במשחקי…  newsisrael13 הקורונה  משבר עולמי  שר הכלכלה elicoh1 זה משבר חמור מאוד במהלך 48 השעות הקרובות נציג את התוכנית להתמודדות עם משבר… לא משנה מה יש לכם על הראש פורים שמח לכל עם ישראל dudiamsalem avidichter  radio103fm האם הליכוד פנה לרעמ בבחירות אפריל 2019 שר הכלכלה אלי כהן elicoh1 ליכוד לא מני ולא מקצתי לא באישור ולא בידיעת רהמ… הדבר היחיד שמעניין את כחול לבן זה להחליף את ראש הממשלה וכל האמצעים כשרים לשם כך כולל שיתוף פעולה עם תומכי טרור וחק…  מי שהיה אתמול בלילה בגני התערוכה בחגיגות הניצחון של הליכוד ראה את עם ישראל לגווניו בשיא תפארתו חילונים דתיים וח…  תודה ענקית לכל הליכודניקים שייצאו להצביע ולפעילים והמתנדבים שנתנו את הנשמה  ב״ה נקים ממשלה לאומית טובה לעם ישראל אני כבר הצבעתי עכשיו תורכם אלו בחירות שיוכרעו על חודו של מנדט וכל קול קובע צאו להצביע מחל והביאו איתכם לקלפי את…  לגבי ההבדלה אני לא יודע אבל מצב האבטלה הוא הטוב ביותר שהיה מקום המדינה מי שרוצה בהמשך הצמיחה הכלכלית של ישראל אס…  עסקים קטנים זה העסק שלנו העסקים הקטנים והבינוניים הם מנוע הצמיחה של המשק הישראלי עשינו הרבה לטובת העסקים הקטנים…  elicoh1 בידוד כלכלי או סיפור הצלחה בינלאומי צפו ותשפטו בעצמכםgtgt  MaarivOnline ועידת מעריב עסקים 2030  השר elicoh1 אין שום הצדקה להעלאת מיסים המדיניות הכלכלית שתוביל כחול לבן תהיה מסוכנת למדינת י… MidaWebsite משבר הדיור והמחסור בחמאה ההסתדרות והאיום של ניסנקורן במשרד האוצר רגע לפני הבחירות שר הכלכלה אלי כהן elicoh1 עונה על כל… בידוד כלכלי או סיפור הצלחה בינלאומי צפו ותשפטו בעצמכםgtgt  Israelcohen911 ביטחון ואמונה בין דיוני הקבינט על המתיחות בדרום נפגש חבר הקבינט ושר הכלכלה אלי כהן עם הראשלצ הגרי יוסף בסיום הפגישה… התזמון של ארגוני הטרור בעזה לירי על ישראל אינו מקרי הם מעדיפים לראות את גנץ בראשות הממשלה במקום נתניהו כמו בעבר…  GLZRadio חבר הקבינט elicoh1 מצהיר בנכוןלהבוקר מי שנתן את ההוראה לירות ישלם בחייו מערכה צבאית תהיה בעיתוי שאנחנו נחליט  צילום… GolanMay ממשיכים להגיע לכל עיר ופוגשים את ארץ ישראל היפה  הערב עם השר elicoh1 וחכ MKOfirKatz הבהרנו כי  כל קול קובע ולכן לא מוותר… עם כל הכבוד לקורונה ויש כבוד מגיפת הרק לא ביבי מפחידה הרבה יותר לא נורא עד ה23 זה יעבור רק מחל  DayanUzi וכבר אנחנו בכנס בבאר שבע עם רוהם בתמונה עם השר אלי כהן והקהל הבאר שבעי החם והאוהב  כך כל יום עד הניצחון  מי שמאמין לא מפחד מי שיש לו אידאולוגיה לא מפחד מי שיודע מה הדעות שלו לא מפחד מי שלא תלוי ברשימה המשותפת לא מפחד…  netanyahu עברנו את בריטניה עברנו את צרפת ישראל מהמדינות החזקות בעולם  ניסיון החרם המביש של האום רחוק מלעודד דו קיום ואף עלול להותיר אלפי פלשתינאים מובטלים זהו צעד של אנטישמיות מודרנית…  בשנות ה80 היו שתי מעצמות ששלטו בעולם ברית המועצות וארהב מאז אחת מהם התפרקה והשניה שגשגה הסיבה היחידה שארצות הב…  KoheletForum מחר יתקיים כנסקהלת לכלכלה בהשתתפות bezalelsm elicoh1  NadavEyalDesk  SharrenHaskel  NirBarkat  RoyIddan  OriKat… FateenMulla השתתפתי היום בחוג בית בישוב ביר אלמקסור אצל חבירנו חסין עדיר בראשותו של שר הכלכלה חכ elicoh1  חברי מרכז ומכובדים מהמג… בהחלטה צפויה הכשיר העליון את יזבק תומכת הטרור להתמודד לכנסת זוהי בושה שכף רגלה של אשה כזו תהיה חלק מכנסת ישראל וס…  10elilevi תמונת היום   הלך הזרזיר אצל העורב זה שרצה לתת את הכותל תמורת כלום וזה שתומך בטרור ולא מכיר בישראל כמדינה יהודית פועלים יחד נג…  גולני שלי יחד עם כל עם ישראל מתפלל לרפואת חיילי גולני היקרים שנפצעו בפיגוע הדריסה בירושלים אני סמוך ובטוח שכוחו…  בושה שאלה הם פני השמאל הישראלי מחבל מתועב ניסה לרצוח חייל באמצעות בקבוק תבערה ועל מי מרחם מוסי רז על הטרוריסט הק…  ריבונות הלכה למעשה קובעים עובדות בשטח אישרנו השבוע הקמת 6 מפעלים חדשים באיזור התעשייה במעלה אדומים עוד מפעל ועוד…  צביעות אירופאית קווים לדמותה כאילו אין עוד סכסוכים בעולם כאילו אין סכסוכים באירופה כל הזזת אבן כאן מוציאה אותם מ…  מחזקים את הקשרים עם הולנד  נפגשתי כעת עם מקבילתי ההולנדית שרת הסחר זיגריך קאך ויחד סיכמנו על חיזוק שיתופי הפעו…  מדינה הקוראת להשמדת מדינה אחרת לא יכולה להיות חברה באום בטח שלא לייצר נשק גרעיני זה המסר שהעברתי למנכל הנכנס של…  לא עוצרים הנחתי הבוקר אבן פינה לשני מפעלים חדשים בנוף הגליל יחד עם ידידי ראש העיר רונן פלוט  בזכות השקעה אדירה ב…  תכניתו של הנשיא טראמפ מכירה בזכות העם היהודי לחיות במולדתו ההיסטורית ומבטיחה את המשך השמירה על האינטרסים הבטחוניים…  likudnik1 elicoh1 LikudParty  RodgoldMD  Minister of Economy elicoh1 held a warning speech at the Internl Commemoration Day in Memory of the Holocaust UNVienn… מחכים לך בבית נעמה  תודה לראש הממשלה netanyahu שפעל מאחורי הקלעים והוכיח שבשבילו אזרחי ישראל מעל הכל  RodgoldMD עם שר הכלכלה אלי כהן elicoh1 ודוד אונגרכהן יוזם קונגרס וינה אשר מתמקד השנה על אתגרי הדיגיטליזציה של הכלכלה והחברה לא עוצרים חתמתי היום על הסכם להקמת איזור תעשייה חדש יחד עם יוחאי דמרי רמ דרום הר חברון דני מורביה רמ לכיש וניב…  הבלאגנץ חוגג כך נראית מפלגה שרק לא ביבי זו האגנדה היחידה שלה מציע שקודם תגיעו להסכמות ביניכם ואז תחזרו אלינו  נתוני האבטלה הטובים ביותר מקום המדינה השכר הראלי בעלייה הייצוא בשיא התיירות בשיא הקשרים עם ארה״ב ומדינות העולם…  radios100 השבוע בתוכנית הנבחרים עם דוד בן בסט ראיון עם שר הכלכלה והתעשייה elicoh1 LikudParty  מחר שישי 1000 בבוקר ברדיוס 10… איך אומרים פינטק בעברית  מספר חברות הפינטק שנפתחות בישראל מזנק משנה לשנה לאחר שבמשרד הכלכלה הבנו את הפוטנציאל האד…  elicoh1 בכחול לבן מנסים להסתיר את זה שהם מפלגת שמאל אך הם פעלו לאיחוד בין מרצ והעבודה וכיום הם מברכים עליו כי הם מפלגת שמאל  מפלגת… GLZRadio השר elicoh1 על האיחוד בשמאל אצל amirivgi שושבין האיחוד בין מרצ לעבודה הייתה כחול לבן אם למישהו היה ספק ראינו שהיא מפלגת… בכחול לבן מנסים להסתיר את זה שהם מפלגת שמאל אך הם פעלו לאיחוד בין מרצ והעבודה וכיום הם מברכים עליו כי הם מפלגת שמ…  yayafink סיימנו כעת פגישה טובה במשרד הכלכלה עם elicoh1 וצוותו עד ה 152 רשתות השיווק התחייבו להשוות בין המחירים שלהם בפריפריה לאלו ב… newsisrael13 בחירות 2020  שר הכלכלה והתעשייה elicoh1 התייחס לחקירות ראש הממשלה netanyahu ותקף את התנהלות בכירי מפלגת כחול לבן כשה… kannnews השר elicoh1 בשבתרבות בגבעתיים אם רוצים להימנע ממערכת בחירות רביעית – הדרך היא אחת מי שבעד ממשלת ימין לאומי צריך להצביע… תודה על הרעיון בני אבל אנחנו מסתדרים מצוין בלעדיך בטח תשמח לשמוע שממש לפני שבועיים הודענו על השקעה של 80 מיליון…  yayafink מחמאה לליכודניקית שר הכלכלה elicoh1 נפגש בימים האחרונים עם מנכלי רשתות השיווק ודרש מהם להשוות את מחירי הסופרים בפריפריה לאל… מוזמנים לצפות הערב קצת אחרי השעה שש בראיון שקיימתי עם אופירה וברקו יש למה לחכות שבת שלום  סך הכל שותפה קואליציונית לגיטימית🤦‍  סיכום העשור שלי  עם ישראל כולו כואב יחד את ההתקפה האנטישמית הנוראית על הקהילה היהודית במונסי ארהב ומתפלל לרפואת הפצועים ימי החנו…  עוד עסקת ענק שהיא גאווה לתעשייה הישראלית מאות מקומות עבודה נוספים מאות משפחות שיוכלו להתפרנס בכבוד נמשיך למשוך ח…  חברים וחברות יקרים היום הוא יום חג לדמוקרטיה ולתנועת הליכוד  למרות מזג האוויר הלא נוח אני מבקש מכם לצאת ולהצביע…  YairRevivo נפגשתי עם שר הכלכלה והתעשייה אלי כהן שמשרדו פותח מסלול יזמות טכנולוגית לצעירי לוד שנועד לתמרץ סטארטפים בתחילת הדרך ולתת… עכשיו זה כבר ברור בחירה בליברמן היא בחירה בבחירות רביעיות  מי שרוצה למנוע בחירות חייב להחליט ימין או שמאל ומי ש…  gershuni חשבתי לתומי שתדע לזהות הערה מעט צינית דבריי היו ברורים חסמי הרגולציה הוסרו ואם יש עוד משהו לא נהסס מנגד…  gershuni תשומת לבך עברנו לתקינה בינלאומית הורדנו מכסים לא נדרש כשרות בגין רהיטיםאת החלק שלנו עשינו ואם נ…  הבוקר בכנס התעשיינים בצפת יחד עם ידידי ראש העיר shooki32  משיקים פארק תעשיות חדש בשורה לצפת בשורה לצפון בשורה…  גאולה כהן הייתה חלק מדור הנפילים של הציונות לוחמת אמיצה מבוני יסודותיה של מדינת ישראל לעד נזכור את קולה הייחודי…  גאווה ישראלית   עוד אקזיט מוצלח עוד השקעה של חברת הענק intel בחברה ישראלית ישראל היא שחקנית מובילה בזירת הטכנו… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">גמר חתימה טובה  בריאות ובשורות טובות לכל עם ישראל צום קל  שנה טובה לכולם שתהיה לנו שנת חיסון כבוד בהצלחה דב  BRAVO  בלי ויתור על חבלי מולדת ובלי אוטובוסים מתפוצצים • וזו רק ההקדמה גם סעודיה בדרך • הפרשנים יעקמו פרצוף כאילו שלא הבי…  סרביה מחפשת משפחה קוסובו הכרה ומי במקרה עוברת בסביבה  מרגש בכל פעם מחדש ללוות אותם ביום הראשון ללימודים  בריאות והצלחה לכל ילדי ישראל  האמירויות נצבעו בירוק  התשובה היא כן  ואיזה  כיף ל arik3000 הכתב המדיני של ישראל היום IsraelHayomHeb שמייצג או…  ראש ממשלת יפן AbeShinzo פורש מסיבות רפואיות איש רציני שהוביל מדינה מיוחדת ומדהימה להישגים נאים בתקופה לא פשוטה…  בשמאל היו מי שניסו לגמד את ההישג אך הברית עם איחוד האמירויות משנה את כללי המשחק ושולחת איתות לאיראן לסוריה לחיזב…  המזרח התיכון החדש זקף אתמול את ראשו  אך בצורה שונה מזו שניסו למכור לנו • ישראל היא מעצמה אזורית שחותמת על הסכם שלו…  ניצחון של העיתון ישראל היום בתביעת דיבה שהגישה הקרן החדשה נגדו  מדובר בתביעת השתקה ודחייתה מהווה ציון דרך חשוב…  איחוד האמירויות ברשימה הירוקה אליפות בפעם האחרונה שחגגתי אליפות לLFC אשתי היתה בחודש השמיני עם בתי הבכורה היום התינוקת בת 30 ומאז נולדו לי ש…  ליברפול היום 󠁧󠁢󠁥󠁮󠁧󠁿 LFC Liverpoolchampions YNWA  brfootball 19902020  Liverpools 30year wait for a league title is over  עונת הpremierleague הזו החלה עם מאזן מושלם • החבורה של קלופ הגרמני הכי נחמד בעולם ניצחה כל דבר שעמד מולה כשהי…  30 שנות המתנה תמו אלמלא נגיף הCOVID19 הייתי חוגג הלילה עם מאנה כפי שחגגנו במדריד יש אליפות LFC YNWA  תכף מפרשן את הדרבי של ליברפול הגעתי לשיא Sport1Sport2 EVELIV  אפשר להירגע הנורמליזציה חשובה למדינות ערב • גם לימין לא יזיק לגלות פחות חוצפה כלפי הנשיא realdonaldtrump שהוכיח…  היא לא רק דאגה לאלי במיאמי והטיסה אותו לארץ אלא גם כתבה טור מרגש על החלמתו כן בעיתון שלה היא רופאה אתה יודע ב…  היי guylerer שאפו על הכתבה המרגשת על אלי ביר יודע מי עוד התרגשה דר מרים אדלסון שבמונולוג נסער עשית לה אמש רצח…  בריונות ברשת היא אחת התופעות המחליאות בחברה לאחרונה נודע לי על פוסט מבחיל שפרסם נותן שירות למערכת ישראל היום שמי…  אין חדש תחת שמש העמים צילום EPA  השאלה מי מרוויח פוליטית מהמתרחש בארהב היא צינית ולא הוגנת כלפי הקהילה השחורה רבים מייחלים בעיקר בתקשורת לכך ש…  IsraelHayomHeb צפו כתבה ברשת AlJazeera בעקבות חשיפתו של dansiryoti בישראל היום על ערוץ המגעים החשאי בין ישראל לבין ערב הסעודית בנ… רות ובועז  הגרסה הפרטית שלי חג שמח אהובה  צולם בשגרירות צרפת במאוריטניה בחודש יולי שנת 2008  אז רות היתה עוד ו…  זוכר את הימים בהם תמכתי באיש הגדול הזה מה לא אמרו עליו ואיזה קרע היה אז בין ימין לשמאל כמה מיותר זה היה אז גם הי…  עמית ריגשת הרבה ראינו וכיסינו בשלושה וחצי עשורים מקצועיים אבל הזכות שהיתה לי ללוות מקרוב את עליית יהודי אתיופיה ב…  כל הכבוד  היתה לי הזכות הלילה לראות את זה קורה נזכרתי בחודש מאי אחר זה של 91  מבצע שלמה שאותו כיסיתי תקופה שונה סיפור אח…  מדינת ישראל למרות גילה יודעת להגן על עצמה הסכנה הגדולה היא דווקא מבית עלינו ללמוד מטעויות העבר של העם היהודי ח…  ובכל זאת חג שמח ונתרכז בחצי הכוס המלאה במכה ה11 אנחנו בני חורין ריבונים בארץ אבות נשמח בחרות הפנימית ונזכור…  שער אחד מהלב  השבת שבת הגדול לפני חג הפסח אשאר בבית עם אשתי וילדיי נפתלל יחד ונקרא בהפטרה על אליהו הנביא שנשלח להשיב לב אבות…  חובת צפייה  אזרחי העולם רוצים בחזרה את הדבר החשוב ביותר שנלקח מהם החירות שלהם סבלנות בעזה זה יחזור  בעוד כמה ימים נשב סביב…  עורכת הדעות של ה Forward בחרה במר שלדון אדלסון לגיבור משבר הקורונה  ולמה בניגוד למגמה הרווחת בעולם העסקי הוא הו…  אשתי שמעה שלחקלאים אין איך לקטוף את התוצרת והיא מיד התגייסה למאמץ תמצא לי חקלאי שצריך ידיים עובדות אני לא יכולה…  IsraelHayomHeb מאמר חשוב של ranreznik  מלחמת החורמה שמנהל משרד האוצר IsraelMOF בדרישה מצד משרד הבריאות IsraelMOH להטיל סגר מלא ע… נשמרים מהנגיף גם באולפן שישי ב N12News תודה למארחים היה מעניין ונעים תודה למברכים הרבים ברשת ובריאות להם ולמב…  חובת צפיה שימו לב מה קורה בברגמו איטליה זה מה שיכול להיות המצב אם לא נבצע את ההנחיות אנחנו לא רוצים להיות במקום…  IsraelHayomHeb שלושה עשורים אחרי שכתבה את שירת הסירנה נגיף הקורונה Covid19 החזיר את עירית לינור לחדר האטום  למרות הבידוד והאיוו… את הקורונה ננצח אך כדאי שנלמד להודות לרופא לשכן  וגם להנהגה  המגיפה מצד אחד חושפת את מגבלות הגלובליזציה אך מצד…  דוד כבר תלה את הדגל  דגל ישראל הוא התשובה  האויב החדש מאלץ אותנו לשהות בבתים מנותקים זה מזה אבל אנחנו תמיד ביחד תסתכלו על הדגל שלנו…  droreydar גם פתחתקווה עיר הולדתי אם המושבות שמכוחה נולדו מאות גרעיני התיישבות בארצנושולחת חיבוק אהבה לאיטליה וחיזוק לרוחו של העם ה… כל אזרח שרוצה שהבחירות האחרונות ייחשבו ולא יירשמו רק לפרוטוקול צריך לדרוש מכחול לבן ומליברמן לקבל על עצמם את צו הש…  פורים שמח  ימים נוראים בפורים הם לא דבר שגרתי ובימים כאלה כשאזרחים רואים איום מוחשי על פרנסתם ומערכת הבריאות עושה הכל כדי ל…  IsraelHayomHeb עורך ישראל היום BismuthBoaz נכנס לבידוד אני מרגיש מצוין אבל חשוב להישמע להוראות ולשמש דוגמא אישית Corona  העם אמר את דברו  וזה מה שקובע   באנו להכריע בחירות2020  IsraelHayomHeb העורך הראשי BismuthBoaz לכו להצביע ולהכריע  בפעם השלישית השנה הציבור קיבל צו 8 לקלפי • הבחירות שנכפו עלינו שוב מעיד… IsraelHayomHeb אתר ישראל היום זכה בפרס החדשנות של Google לאחר שהציג תוכנית להצעת הטבות והנחות לגולשים קבועים באתר העורך הראשי Bis… כבוד לקלמן ליבסקינד על עמידה חברית וקולגיאלית ועל משמר חופש הביטוי סתימת הפיות מגיעה כמעט תמיד מהצד המדבר על פלורל…  הבן שלי דוד קיבל זה עתה מהרב לאו את הסידור הראשון שלו חבר לחיים מרגש בטירוף הבן שלי נולד בשבת פרשת יתרו אין ציר…  מבקרי תוכנית המאה טוענים שהיא מוטה באופן מובהק לטובת ישראל ולפיכך אינה הוגנת כשהממשל האמריקני תובע מהפלשתינים אל…  omeryankelevitc דווקא בימים אלה בהם אנו עדים לעוד ועוד מקרים של אובדנות קיבלתי תשובה ממשרד הבריאות על כך שהם קיצצו בתקציב התכנית הל… הדמוקרטים מבקשים לנהל מדינה סליחה 50 מדינות מקווה עבורם ועבור ארה״ב שזה פחות מורכב מלספור 200 אלף קולות בקוקוס ש…  עומר חסן אחמד אלבשיר היה נשיא סודן הרבה שנים ב2006 ביקר במאוריטניה שגריר ישראל הוזמן לשדה בנואקשוט לקדמו ויתרת…  זכינו בישראל היום שאתה כותב אצלנו ומלווה אותנו כיועץ מקצועי כעמית וכחבר צילום מישל דוט קום פרופסור בן צבי ברכות גדולות על זכייתך בפרס ישראל אתה ללא ספק האיש הראוי לפרס על תרומתך האדירה למחקר המדעי ולדיון…  IsraelHayomHeb ביום שני המרוץ הדמוקרטי נפתח המתמודדים בוחרים להתרכז בטראמפ POTUS במקום בעצמם והנשיא הוא גנב את ההצגה • ביידן לעור… The urge to implement it tomorrow morning is understandable but the success of the move to ratify the application…  BismuthBoaz עדיף לתת למהלכים להבשיל לתת לארהב להוביל  ורק אז להשלים במלואו את מהלך הריבונות אם ישראל תלך על מהלך שיתפרש כאגרסיבי מ… עדיף לתת למהלכים להבשיל לתת לארהב להוביל  ורק אז להשלים במלואו את מהלך הריבונות אם ישראל תלך על מהלך שיתפרש כאג…  IsraelHayomHeb מוושינגטון טור מיוחד של העורך הראשי BismuthBoaz הנשיא טראמפ POTUS התייצב לצד ישראל בצד הנכון של ההיסטוריה ארצות הב… לא יכול עם כל הטוב הזהועוד ביום אחד יכול להיות שברק אהוד התכוון לפלסטינים כשדיבר על צונאמי מדיני   מתווה המאה תודה טראמפ תודה נתניהו ותודה לכל אלה שתרמו להרחבת הריבונות בארץ ישראל מתווה קלינטון והסכמי אוסלו מועב…  IsraelHayomHeb העורך הראשי BismuthBoaz מנהיגי העולם עלו לירושלים כדי להבטיח לא עוד יש להכיר באופיה המשתנה של האנטישמיות ולא רק לזכ… IsraelHayomHeb אשת התקשורת עירית לינור תשמש כפרשנית וכבעלת טור במוסף ישראל השבוע • העורך הראשי בועז ביסמוט BismuthBoaz גאה בהצטרפ… IsraelHayomHeb נשיא המדינה ruvirivlin בטור מיוחד  שורדי השואה החיים בינינו הולכים ומתמעטים ועיוות ההיסטוריה של תקופת השואה הולך ומת… Happy Birthday ambassador Haley We are very proud to have had you as our keynote speaker  A true friend of Israel…  droreydar שגריר ישראל ברומא דרור אידר מלמד את בני דוד שיעור בהיסטוריה מתחת לשער טיטוס ״אנחנו הצאצאים של שבויי יהודה ההם ה…  IsraelHayomHeb יעקב yakovahimeir שמחים שאתה כותב קבוע שלנו בעיתון ישראל היום  הבוקר אצל אברי ד״ר גיא בכור ועבדכם הנאמן מנתחים את חיסול סולימני פאנל לא מאוזן איזה כיף  רזי יקירי  razibarcay אתה עדיין מתגעגע לאובמה  הזוי איזה מזל שיש טראמפ  מת על הדמוקרטים בארה״ב חיסול סולימני מסבך המצב במזרח התיכון כי סולימני היה כדור ההרגעה שלנו בתימן עיראק סור…  חדשה מהניילון זה הזמן להתקדם ל2020  NewsChannelIL סלפי בפרסומות סדרעולמי עם aradnir מסכמים עשור עכשיו בקשת 12 BismuthBoaz lucyaharish KerenBNews AAWALDMAN  NewsChannelIL אפקט בועז ביסמוט lucyaharish  ישבה ליד עורך ישראל היום  ומצאה את עצמה מחמיאה לטראמפ   סדרעולמי מסכמים עשור עכשיו… NewsChannelIL ימי טראמפ הנשיא שהחזיר את הצבע BismuthBoaz  סדרעולמי מסכמים עשור עכשיו בקשת 12 aradnir AAWALDMAN  איש העשור עם פוטנציאל לעוד  להתעורר עם חיוך ענק הנייד לא מפסיק לצלצל כולם מברכים ניצחון מוחץ ריח של משהו גדול באוויר ליברפול  קדושה  בוצע   הניסים שעוד נכונו לנו אם רק נשכיל לקבלם  צילום עם יאיר כבוד השגריר הכי טוב שהיה לי איזה כיף שאחרי הנשיא הוא היה מוכן להצטלם גם איתי  Thank you president POTUS for your speech at the IAC national sumnit tonight in Florida More than 4000 people ex…  החבר הגדול ביותר של ישראל עם הלהקה המרגשת ביותר בישראל בערב היסטורי בלתי נשכח IAC2019  עם כל הכבוד לפוליטיקה את בלוק 55 האמיתי אני סוגר היום עם השותפים הטבעיים והכי אהובים שאפשר לבקש ומאחל לעצמי עוד…  IsraelHayomHeb איבדתם כל תחושה של אחריות קולקטיבית  לא קיבלתם החלטות לא גיליתם מקוריות לא הפגנתם יצירתיות הבטחתם להיות פתרון והפכ… איזה כיף לערוך הערב עיתון אחרי כל כך הרבה ערבים קשים השם מברך אותנו לא היה  ואני חושש שגם לא יהיה נשיא מדהים וידידותי כזה לישראל שוב תודה מיסטר פרזידנט There has never been a presi…  IsraelHayomHeb עורך ישראל היום BismuthBoaz בדיון סוער על יחסי ישראלאירופה וטראמפ זה נכון שבאיחוד האירופי מייבאים יין מישראל אל… פגישה מרתקת ומעניינת הבוקר עם שגריר צרפת ericdanon גילוי נאות הוא גם השגריר שלי  גאים להיות שותפים בפרויקט הזה שנקרא משחק השלום ולראות כוכבים כמו בבטו רונלדיניו וקאקה על הדשא בסמי עופר  האגדה מספרת שעורך ישראל היום אוהב להצטלם ליד אנשים מפורסמים בעולם אבל הוא עוד יותר גאה להצטלם ליד עיתונאים מצטייני…  ברכות לעם ישראל על הקמת הפקולטה לרפואה באוניברסיטת אריאל בשומרון  הגשמה של חזון ציוני  תודה לדר ומר אדלסון  יש עיתונאים בישראל ודניאל סיריוטי dansiryoti הוא אחד הטובים ביותר אתמול הוא הותקף פיזית רק כי עשה את עבודתו גאים…  ראיתי אתמול את קיסר יפן נו איך הוא שאלה אותי בתי הבכורה מאי מלך עניתי סליחה קיסר בתמונה בכניסה לארמון  לא יודע למה אבל לא מפסיק לחשוב ביפן הגשומה דווקא על שטפן צווייג אולי כי אני צופה ב״עולם של אתמול״ היום  טוקיו לוב…  הקדמת את כולנו תמיד אריק אבל למה הקדמת ללכת תודה על הכל חייב לך כמו רבים אחרים  נכשלת רק בדבר אחד לא הצלחת להסת…  עם דרור מעתה אמור ברומא התנהג כיהודי  פריחה ביטחון שלום אחדות העם אחדות המשפחה כיבוד המסורת שגשוג פרנסה מה עוד נבקש לשנה הבאה עלינו לטובה ממשלה…  א טבק יקר  אתה אולי חושב שעזבת אותנו אבל מאחר ואת העתיד כותבים עם הדיו של העבר  איתנו נשארת איתך המסע שלי בעיתונות החל לא אשכח אף פעם droreydar איש יחיד ומיוחד אתה דרור זכיתי להיות עורך עיתון בישראל עם עורך דעות בדמותך וכעת מדינת ישראל זכתה לשגריר…  עיתון משפיע  לא לקחתי סיכון הצבעתי לפני שקראתי   בואו נסכים כולנו שלא רוצים מערכה שלישית אז קדימה  ללכת להצביע בהצלחה לעם ישראל  אני כבר בחרתי היום ילדיי מזל טוב מיכל אהובתי  שלושתם שלי הגדולה תיכון חילוני השני כיתה א׳ ממלכתי דתי והקטנה בגן חובה חרדי עם ישראל  עם יחיד ומאוחד  רגע מרגש מאוד בחיים שלום כתה א׳ בהצלחה דוד אהובי  מיהרתי לטיסה חבל לא היה זמן לקליפ מתוקים מאוד  מחר שובר ראש הממשלה את השיא של בן גוריון מותר גם לברך הריאיון עם השיאן החדש הבוקר בישראל היום בצילום אני בין…  היה אדיר תודה לכל מי שתרם לערב מדהים תודה לכל המשתתפים תודה לאורחים להתראות בשנה הבאה בפורום ישראל היום צילום…  בין ירושלים לוושינגטון לישראל אין ידידה גדולה יותר מארהב  NikkiHaley Giving thanks for the many blessings in my life WesternWall Jerusalem  ניקי היילי היום בכותל מחר אורחת כבוד בפורום ״ישראל היום״ ברוכה הבאה ניקי  ענו נכון רק בשביל זה היה שווה  פגישה לאין קץ עם שגרירת ישראל  סליחה ארהב  לשעבר באום ניקי היילי אישה מרשימה בקרוב אצלנו בירושלים בפורום יש…  IsraelHayomHeb בראיון מיוחד לBismuthBoaz לקראת השתתפותה בפורום ישראל היום מדברת השגרירה NikkiHaley על עסקת המאהישראל לא צריכה ל… קלופ עשה היסטוריה במדריד השאלה הראשונה לאלוף החדש  מישראל היום   מחליפים חוויות אוכל מסנגל  הכי קרוב לגביע שאפשר  ספורט מאחד עמים תודה מוחמד  יאללה חוגגים  יש  לעולם לא תצעדי לבד  טוטנהאם שלטה ללא עוררין בארוחת ערב בבית חב״ד ביום שישי במדריד 1002 לטובת טוטנהאם הפסד אחד מספיק לי הערב האדמת שתקפה את מדריד עברה למגרש  האוהדים האדומים ניצחו והשחקנים או טו טו נדע  אימון שוערים מסכם ליברפול אפשר להרגיע קאריוס לא פה  עוד קצת מהאימון המסכם  אחרי מסיבת העיתונאים האימון המסכם  מתראיין לFox  בואו הכניסה חופשית  מחר זה קורה כאן ליברפול  טוטנהאם הגמר סיקור לא אובייקטיבי  כיבוש ספרד החל  בדרך למדריד ליברפול טובה יותר מליברמן IsraelHayomHeb מושל פלורידה רון דה סנטיס GovRonDeSantis באוניברסיטת אריאל בשומרון בטקס חתימת מזכר לשיתוף פעולה בתמונה המושל סנטיס ב… אברומי עם ישראל הולך לגלות בעוד כמה דקות את מה שאנחנו בבית הכנסת יודעים כבר מזמן  שאתה מלך אוהב אותך עוד מעט כו…  מ״היינו כחולמים״ לעם שחי את החלום   גם חגיגות העצמאות גם ליברפול בגמר הצ׳מפיונס מה עוד אפשר הערב לבקש  תודה לך ידידת אמת  It is our hope and the duty of the New York Times to set the record straight and show that antiSemitism is unaccep…  The newspaper of record has illustrated what we are witnessing the world over racism and hatred are taboo  EXCE…  נושם לרווחה גבירתי הנאווה ניצלה   החמישית של ביבי    בחירות 2019  הזדמנות מצוינת לחזור לאולפנים אמנון לוי ומחר רסקין בעזרת השם הימין הישראלי ימשיך להוביל את השמאל הישראלי למחוזות טובים  הערב ב2100 משדר הבחירות בישראל היום ישודר בעמוד הבית באתר שלנו בפייסבוק באפליקציה וגם בלינק הזה  GLZRadio עורך ישראל היום BismuthBoaz אומר לעורך הארץ alufbenn אצל RinoZror וIshayShnerb את העיתון שלך אני מאוד מעריך ולמה… שמח לדעת שגם כחול לבן הפנימו מי העיתון הגדול והמשפיע במדינה תודה  סבלנות הראיון מחר  מישל באקוס קברניט טיסת אייר פראנס שנחטפה לאנטבה הלך היום לעולמו באקוס סירב לנטוש את נוסעיו היהודים שהופרדו משאר…  עם ישראל עם הגולן גם אנחנו  בהמשך למתנה של נתניהו לטראמפ החוקר המיוחד מולר כבר החל בבדיקה מולר סבור שלא ניתנו מספיק בקבוקים אך מנדלבליט חושב…  i24NEWSEN He Netanyahu is not a corrupted man as far as I know moshefeiglin tells EditorinChief of IsraelHayomEng Bismuth… הרפובליקנים מברכים בהתלהבות על הודעת הנשיא להכיר בריבונות ישראל ברמת הגולן איזה מזל שנבחרים דמוקרטים מאזנים בהודעה…  ציוץ ברמה  חבר שלי אירח אותי הערב לקריאת המגילה בבית הכנסת בהוד השרון לקח לי זמן לזהותו  Thank you Jerusalem Press Club for visiting us at our offices Let’s keep in touch JPressClub צילום יהושע יוסף  התחפשתי ל״תוכנית המאה״ חג פורים שמח  i24NEWSEN We should have the patience for a Palestinian leader like Anwar Sadat but we dont have such a partner on the other side… tuchfeld גורמים ביטחוניים הטלפון של גנץ הכיל חומרים מביכים  עכשיו במיתר בלווייתה של ניקי גוטמן כתבת ישראל היום בדרום קשה לכולנו הרגשות מציפים ליבנו עם המשפחה נוחי על משכ…  המומים וכואבים ניקי היתה מקצועית ומוכשרת מאוד וזכתה לאהבה גדולה מצד כל חברותיה וחבריה בעיתון משפחת ישראל היום…  אני שמח לבשר על הצטרפותו של אראל סגל לנבחרת כותבי ופרשני ישראל היום העיתון המוביל והמשפיע בתקשורת הישראלית ארא…  i24NEWSEN I would like to bring down the right and Netanyahu and will not support Benny Gantz ArabIsraeli lawmaker and chairman… התחלה ברגל ימין   arik3000 בחירות2019  ישראל היום IsraelHayomHeb וi24NEWS i24NEWSEN בשיתוף פעולה ייחודי סקרים ניתוחים ותכניות משותפות בהובלת Bi… ביום ראשון זה מתחיל i24NEWSEN  סגרו את הטיסה מזל שכבר הייתי יותר מפעם אחת   ובינתיים בצ׳אד  מימין שר ההגנה של צ׳אד משמאל השר לבטחון פנים ״אנחנו מאוד מאושרים מהגעתו של ראש ממשלת ישראל הבט מסביב כולנו כאן בא…  הקורא הנאמן שלנו ינון בא לבקר רק בשביל רגע מרגש שכזה הכל שווה אגב בהבנה פוליטית אין לו מתחרים רגע קסום בחיים  שכונת התקווה צהריים אחים שלי אוחזים בחבר סליחה בעיתון שבוע טוב  אחדות בבקשה   קשקוש  נפרדנו בלי לריב היה כיף   razibarcay GLZRadio  עם היוודע דבר מותו של הסופר הדגול עמוס עוז ביקשתי מהמערכת להיערך בהתאם עוז היה המרואיין הראשון במוסף הפוליטי הראשו…  הכבוד כולו שלי  אין על פלאפל ״האחים לוי״ בשוק מחנה יהודה איך מבדילים ביני לבין חיים שיין הפיתה שלו בלי חריף  חוגגים בוונקובר יום הולדת עשינו חשבון יחד אנחנו בדיוק בני 100  למי שמודאג כמוני מהמהומות בפריז מומלץ להירגע בצרפת שבו לשגרה והחליטו להעניק פרס לארגונים אל חאק ובצלם מצא מין את…  הבוקר ביקרתי בקרקס עם הילדים אז חשבתי על הקרקס שבו אנו חיים שני נושאים שאין מחלוקת עליהם אלימות נגד נשים ומנהרות…  המספר 54 הוא מאוה״ב בגימטריה מאוהב באשתי מאהב במשפחתי מאוהב בארצי מאוהב בעמי מאוהב בעיתוני אפילו מאוהב בויכוח…  BismuthBoaz גאווה להיות פה היום לצידה של הישראלית הששית בלבד שזכתה בפרס והאשה היחידה בטקס היום ובעיקר הישראלית שלנו היום ומחר  גאווה להיות פה היום לצידה של הישראלית הששית בלבד שזכתה בפרס והאשה היחידה בטקס היום ובעיקר הישראלית שלנו היום ומח…  כבוד  צופה בגאווה בין קהל המוזמנים במו״ל של העיתון שלנו ישראל היום ד״ר מרים אדלסון מקבלת מהנשיא את עיטור החירות המכובד ב…  צר לי לקלקל לברנז׳ה את החגיגה תוצאות בחירות אמצע הקדנציה מבטיחות לטראמפ ניצחון ב2020 עמכם הסליחה איזה כיף כשנשיא מיועד עושה פולו אפ לראיון שלך איתו בינלאומי ראשון ומאשר העברת השגרירות לירושלים  אמרתי לכם  שמתי לב שחלק מעמיתיי פה לא מתים עליו נשיא ברזיל הנבחר בולסונארו חבל כי הוא מת עלינו droreydar עוד לא נרגענו מהראשון והנה שוב מנגנים את המנון המדינה באבו דאבי  יפה לנו כל הכבוד לפיטר פלציק וְאַתָּה עַל בָּמוֹתֵימ… BismuthBoaz תמונה עם הבוס רגע לפני שהכתיב לי את הכותרת הראשית  תמונה עם הבוס רגע לפני שהכתיב לי את הכותרת הראשית  מזל שטראמפ קיים השמאל יכול להפיל עליו את תיסכוליו </t>
+  </si>
+  <si>
+    <t>מי שמתחיל בהגבלת הפגנות ימשיך במעצרים פוליטיים יסגור בתי המשפט ויסיים בהכרזה על הקמת הדיקטטורה הביביסטית כרוניק…  ויש דברים פשוטים שלא דורשים יותר מ280 תווים בכך שהלכם עם ביבי חטאתם פשעתם הרסתם את הדמוקרטיה לא נשכח ולא נסלח…  כבר מזמן לא מדובר בעוד גזען אברי גלעד הוא הפרזנטור הבלתי מעורער של הגזענות הישראלית הדוחה רשת נותנת במה לגזענות…  michtzi1 Reshettv זה אמיתי aviyalou איתך origivati תחת החוק הצבאי שאנחנו מחילים בשטחים הכבושים לפלסטינים אסור להפגין בשום צורה ההפגנות מרגשות וחשובות אבל אנחנו מפגינים נגד… DoriaLampel ורק אני פה עוד במאבקים גם אחרי יום כיפור  aviyalou צודק גזענות היא גזענות היא גזענות דוחה ומגעיל אפשר להעביר ביקורת בלי להיות גזען יושב לו שר הבריאות בוילה ענקית בהרצליה פיתוח במגדל השן ובמקום להתעסק בפתרון המשבר הבריאותי הגדול בתולדות המדינה…  YinonMagal רק בריאות ברגעים אלה ממש העם אומר את דברו מסר חד משמעי בכל רחבי הארץ ביבי הביתה eyalba ruthelbaz צחקתי בקול תודה hadarse וואו וואו וואו אלופות ואלופים שומרי המדינה והדמוקרטיה  ruthelbaz מוכר לי מי זה זה מאבק למנוע את חורבן הבית אנחנו נאבקים על הבית של כולנו וביבי נאבק על הבית הפרטי שלו המדינה ואזרחיה ממש לא מעני…  YossiZabari תמיד כשנדמה שהגענו לשפל המדרגה בא הנאשם ומראה לנו שיש עוד מרתף שלם שלא הכרנו  על זה נאמר אפילו שעון מקולקל צודק פעמיים ביום שמח שאנחנו בדיוק בשעה הזו שהשעון מראה את הזמן הנכון  סיכום הנאומים של ביבי וגנץ שקרן נשאר שקרן אפס נשאר אפס מגיע לנו יותר עוד 119 כמו עדיר ויש לנו כנסת לתפארת  GadeerMreeh  dimikolo אני בבידודנחשפתי לחולה קורונה במהלך שירות המילואים שלי בשבוע שעבר dimikolo טוב אז באמת לא קראת את כל השרשור שלי dimikolo כנראה שלא קראת את השרשור שלי עד הסוף כתבתי בפירוש שאסור לממשלה לפגוע בזכות ההפגנה שאלה אם דמוקרטיה נופלת בישראל ואף אחד בכחול לבן לא שומע האם יש להם חלק נכבד בנפילה  תשובה כן israzohar התשובה בגוף השאלהחדלי אישים ruthelbaz talialin באסה טוב לפחות תשלחו תמונות משם talialin ruthelbaz הלו הלו די לאפליה למה אותי לא מזמינים לא הבנתי GONENB1 עוד שלושה כדורים המישהו הזה יורה על הדמוקרטיה כבר כמה שנים טובות דמוקרטיה לא נופלת ברגע אחד של מניעת הפגנות כבר עשר שנים ביבי בתמיכת הימין הקיצוני בתהליך הזה של פירוק הדמוקרטיה…  talialin זה אומר שמזמן לא באת לביקורהדבש מחכה לך כאן  לא נפלתי לשום ספין של ביבי השקרן אני לא חושב שיש הדבקה בהפגנה בבלפור אני כן חושב שיש עניין של נראות וסולידריות חב…  המאבק על הדמוקרטיה נמשך וימשיך לא נרפה אבל כן נכון לעשות התאמה למצב הנוכחי   זו החלטה קשה אבל להבנתי זו ההחלטה הנכונה אבל ופה יש אבל מאוד משמעותי הממשלה חייבת להפסיק את הניסיונות של הפסקת ההפגנות דרך חוקים והנחיות לא הגיוני שממש…  אנחנו האנשים שמפגינים צריכים להודיע כי אנו משהים את ההפגנה ההמונית בבלפור תוך שמירה שם על משמרת מחאה מצומצמת  א…  דעתי האישית וכנראה המאוד לא פופולארית בקרב המחנה הפוליטי אליו אני משתייך אני כותב את המילים ביד רועדת ולאחר שהגעת…  manuelbaz שווה לצפות יש לי עוד שבוע לבידוד מה הצעד הבא להאשים את שאשא ביטון גם במעורבות ברצח רבין כמה שזה עלוב ומגוחך galmvp מוזמן לקרוא את הציוץ הקודם שלי ולהבין שנחשפתי לשני חולים מאומתים במהלך שירות המילואים שלי בשבוע שעבר לא הייתי בהפגנה ביום ראשון Zelda62054215 אסע לשם אבל זה מדהים שמבחינת קופח כללית אין תורים בכלל בצפון מדהים התור הקרוב לבדיקת קורונה בקופח כללית בכל הצפון כולל חיפה רק ביום ראשון במרכז היום הרגע קיבלתי הודעה שבעקבות חשיפה בשבוע שעבר לחולה קורונה במילואים עליי להיות בבידוד  לשמחתי הרבה למען הסר ס…  haimhz אגלה לך משהו netanyahu ויש לי עדים תכננתי לכתוב הבוקר טור שנכנס במפגינים בבלפור על כך שההפגנות נגד השחיתות חשובות להם יותר… תסתכלו על ההודעה ותראו אותנו כן כולנו חלק מזה האחריות של כולנו היא למגר את פעולות הטרור שנעשות עי אותם טרוריסטי…  אם פיך וליבך שווים ממליץ לך לקבוע פגישות דחופות עם בצלם שוברים שתיקה יש דין שלום עכשיו ועוד שלל ארגונים שאוהבי…  ashbita רגע של ערבית תשפא השנה העברית החדשה היא גם מילה בערבית שמשמעותה החלמה אז יאללה שזו תהיה שנה שבה החברה הישרליאית תשפא מ… אמור לי מי יועציך ואומר לך מי אתה להסתכל על טופז לוק והשפעתו על ביבי ולהבין כמה נמוך התדרדרנו Yoglas74 המרדף עופר גולן וטופז לוק נמלטים בחשיכה  רגע אחרי שנתפסו מצלמים מגחישי קורונה בשולי ההפגנה נגד טופז לוק הוגשה הערב תלונה ל… כבר היה גינוי של ראש הממשלה ושל השר לביטחון פנים שנה חדשה אבל המאבק ממשיך אגיע הערב לבלפור כי כל עוד ביבי רוהמ הדמוקרטיה בסכנה אמיתית ואנחנו חייבים לצאת לרחוב…  ישראלים שמלכלכים על ישראל בחול  yoavdo אכן כפר נחום שני קמ מהבית ריצה קלה ונעימה טבילה וחזרה ספורט יחידני כמאושר בתקנות  קצת כנרת לנשמה  tomerappelbaum כתובת הסגר בגלל ביבי בכיכר רבין צולם לפני הסגר  שנה טובה לכל הצייצנים מימין ומשמאל הלוואי שבשנה הבאה עוד נראה עוד נראה כמה טוב יהיה הסיכוי לשנה טובה יעלה אם ר…  ruthelbaz בריאות למאמו היקרה אפסים באמת שאין מילה אחרת שתתאר אותם  כבר עכשיו ניתן לומר שזה לא יהיה סגר אמיתי אלא ישראבלוף בהתגלמותו כבר עכשיו ברור שזה יהיה מביך בדרך חזרה הביתה מארבעה ימי אימון במילואים גם ב2020 ערך הרעות קיים דומיננטי ומאפיל על כל המחלוקות freyisrael1 רואה פה טרנד של חובשי כיפות סרוגות להטיף לחרדים על פיקוח נפש וכאלה שמעו חברה ציבור שמקדש את המוות בשביל פיסת אדמה של… YinonMagal תצחק תצחק עוד יגיעו הימים בהם תתייבש הביצה המסריחה שאתה מולך עליה רק תזכור שלהסתה שאתה משווק יש קצה גם בערב הזה אלימות אינה הפתרון טילים אינם לגיטימים בשום צורה הפלסטינים הם השכנים שלנו וחייבים להגיע איתם להסכם…  hanggili סטארט אפ LitalCohen אנשים טובים דאגו לשלוח צחקתי בקול תודה  בסוף כולנו נהפוך לGIF  כבוד לפעילי השלום  EmilieMoatti תנחומיי ינון מגל חייב להיחקר עוד היום בתחנת משטרה בחשד להסתה לרצח אין יותר הסתה מהדברים שהוא אמר הבוקר הולכים לסגר כללי כי חברי הכנסת החרדים לחצו לא לעשות סגר רק על הערים האדומות ועכשיו ליצמן מאיים להתפטר כי הולכים לס…  elirazsade שמעתי שיש סקר שמוכיח כי הממוצע איי קיו לאדם שהשתתף באח הגדול נמוך מאוד לא צריך הפניות כבר מצאתי הוכחות הבוקר פה בטוויטר בדרך לבלפור אני מתלבט מה יותר מרגש אין ספור המפגינים על הגשרים מעל כביש 6 או אין ספור החצבים שהפציעו להם בין הנתי…  אני אגיע היום לבלפור בדיוק מאותה הסיבה שאני יוצא מחר לארבעה ימי מילואים בדרום הרחוק המדינה הזו מאוד חשובה לי ואני…  כדורגלן אדיר ככל שיהיה אשר מתנהג כאחרון העבריינים מול המשטרה לא ראוי להיות בנבחרת ישראל נבחרת שמכבדת את עצמה תעיף את זהבי לכל הרוחות talialin כנראה תקוע בפקקים ruthelbaz מרגש אני במעגל שלך סליחה על הבורות הפיד מוצף במעגלי תמונות שכאלו מישהו יכול לומר לי מה זה ואיך גם אני יוצר אחד כזה כנראה שזה טרם הגיע לאלמגור למי שהיה זקוק להוכחת כוחו של לחץ ציבורי כן בסוף גם הלחץ האדיר של ההפגנות יצליח נתראה מחר בבלפור  וגם הבוקר הזה חייבים לזכור ולהזכיר שכחול לבן בהובלת בני גנץ ממשיכים לשבת בממשלה עם ביבי הם אשמים במצב לא פחות ממנו עד מתי פלסטין  carmelkamin אבא שלי לקח אותי בטרקטור לנסיעת עבודה הייתי המאושר באדם החשש שביבי יידבק בקורונה הוא בדיוק אבל בדיוק אותו החשש שפאטמה מטייבה או חנה מבני ברק יידבקו בקורונה מבחן בוזגלו…  גנץ ידרוש מטוס פרטי חליפי נשבע שברמת הניתוק של כחול לבן זה לא יפתיע אותי chaimlevinson אתה שוחט פה פרה קדושה אני מוחה בתוקף כנראה אכלת מנגו מאיה שאינו מאלמגור סיימתי הרגע שיחה עם בעלים של רשת בתי מלון הוא בדמעות המדינה טרם העבירה את רוב הפיצויים שהבטיחו לו אי ודאות מטורפ…  DanaCassidy0027 gantzbe Kachollavan19 וואו רמת ניתוק הכי גבוהה שיש המדינה קורסת והכל בתמיכה של כחול לבן itamars מרגש ramshefa אתה גיבור בטוויטר נמושה מול ביבי origivati gabylasky 1 eransinger רק בריאות תקוה גדעון זה טוויטר נעים מאוד  דוגמה אישית של נבחרי הציבור היא חלק משמעותי בהתנהגות של הציבור פעם אחר פעם נציגי הממשלה מראים כמה הם מנותקים בושה…  Mickeygitzin צודק הוא כבר בשוונג של התנצלויות arnondeg אגב ימנים גם המציאות בשטחים כפי שמתארים אותה שוברים שתיקה בצלם ואחרים מטויחת נשבע לכם   ShovrimShtika btselem buzi121212 מה חשבתם שנתחנך בחממת האתוס הישראלי על אחוות לוחמים נשיכת שפתיים עד השלמת המשימה והקרבה פיזית ונפשית למען אחינו לנשק ולא נ… YossiZabari בסרטון הבא תראו גברים אמתיים מדברים ולא עלובי נפש עם צורך חולני בשליטה וכוח נראה אתכם גברים מרטווטים את זה יוצרים בלי ט… tzfadya הטענות הופרכו על ידי המשטרה והפרקליטות תקרא את התגובות שלהם יש שם את כל העובדות hadarse עוד ספין הלך לעולמו בטרם עת  ראיתי את התחקיר של עמית סגל בערוץ 12 ספין עלוב ברמה של ערוץ 20 לא מובן לי מדוע 12 יורדים לרמה כה נמוכה תוהה מה היו התגובות אם חכ מהרשימה המשותפת היה קורא לאזרחים לא לפעול לפי הנחיות הקורונה איך אביגדור ליברמן בנט ושקד היו מגיבים OferShelah תיקון אנשים חזקים פחדו מיאיר לפיד 10 שנים ועכשיו סוף סוף פחות מפחדים גם זה משהו BarashiKinneret שקר גס תתביישי לך smadarshmueli AfifAbuMuch KnessetT mazalm3 זכותך לשנות את דעתך לבריאות אבל סמדר בואי נודה באמת את מדקלמת א…  droretkes כאשר הסיוט של השליטה המתנחלת והאלימה של ישראל על שלושת מליוני הפלסטינים בגדה יסתיים יום אחד צומת תפוח שמעוצבת כדי להשפיל ו… מזעזע  כן בהחלט עושים דה לגיטימציה לראש ממשלה עם שלושה כתבי אישום  mossiraz ב3 לפנות בוקר הגיעה קבוצת ישראלים לכפר חווארה שבשטחים הכבושים הם סקלו באבנים שני כלי רכב וניפצו את חלונותיהם כך נראה הכיבו… attilus חכ יפעת שאשא ביטון באולפן ynet מפוצצת את הספין הכוזב של נתניהו ואנשיו קיבלנו בוועדת קורונה מחקר אפידמיולוגי שמראה כי בהפגנו… זוכר את הצעת החוק שאדם עם כתב אישום לא יוכל להרכיב ממשלה זוכר שנטען שביבי יחריב את הדמוקרטיה  אז בזכות ההתעקשות ה…  einatovadia בפקקים של שבת אחר הצהריים sanytamplar ErelSegal MichaBenDavid1 ILpolice ErelSegal אם זה יעזור אני מוכן גם לרוץ לאילת ואז בריצה אחורה בחזרה לאלמגור אולי אתה צודק ואולי אני ימים יגידו ב…  hadarse מזל טוב אחי הצעדה מגשר המיתרים לבלפור התנהלה למופת עד שהמשטרה החליטה להשתלט בצורה אלימה על מיצג הצוללות באיזו זכות למה באלימות פרועה בושה Irisleal15 הפסקות חשמל בישובים רבים בארץ אנשים נחנקים מהחום בעזה זה רק עוד יום רגיל גשר המיתרים התחלנו אלפי אנשים מתחילים לצעוד לבלפור בדרישה אחת מרכזית ביבי הביתה  hadarse תודה רבה אחי אמן עדיף לנסוע 3 שעות מאלמגור לבלפור מאשר לשבת בבית ולקטר על המצב ממשיכים בכל הכח בבלפור בקיסריה בצמתים ובגשרים זה לא יגמר עד שביבי יתפטר UriMisgav מתי אמור גנץ להתעורר מהתרדמת המדינה מתפרקת הנאשם בפלילים שעומד בראשה הכריז מלחמה עליה ממשלת החירום משותקת אין מפכל אין… UriMisgav בול מעבר להיותו מופרך והזוי זה ציוץ מסוכן כי הוא מראה את הכיוון של ביבילנסות להפסיק את המחאות נגדו בטענת קורונה כבר…  AlonaMiryam freyisrael1 היה פעם לפני שנהיה עושה דברו של לפיד tzfadya סעיף 2 אצלך סותר את סעיף 1 ו3 יש קשר ישיר בין הברך שבתמונה לברך של ניסו גואטה על מפגין תמים הכיבוש בשטחים ותופעות הלוואי הרעות שבאות איתו מזמן…  freyisrael1 הוא לגמרי צודק ShovrimShtika למה הימין לא הקים את שוברים שתיקה AGvaryahu מנכל הארגון במאמר הראשון שלנו שמתפרסם בSrugimNews אבל עבורנו הקה… DanaCassidy0027 דנה נשבע שאני נזהר DanaCassidy0027 מה זה פה גנון תחרות מי מצייץ יותר דפוק אולי במקום להתעסק בשטויות נעסוק בדברים החשובים קורונה…  ramshefa תקשיב רם אתה מכרת את כל ערכיך בשביל גוב הלכת יד ביד עם ביבי נראה לי שפחות כדאי שתשתמש במילה שפל לתא…  BarashiKinneret ruthelbaz וואי כנרת ההתעניינות שלך מרגשת אני ממשיך לחזר במרץ אם את כבר בעניינים יכולה לעזור באיזה טיפ ומה עדיף להיות רמטכל לשעבר משכיל ×2 אבל לשקר לבוחרים למעול באמון ובגדול להיות סמרטוט של ביבי אז זהו שההשכ…  רק ממשלה שמזלזלת באזרחיה שמתנהלת בבלאגן שעוסקת בספינים מחליטה על אי פתיחת הלימודים בערים האדומות בלילה שלפני ה1…  OdehBisharat עכשיו מכינים הסכם שלום עם האמירויות ששכונת במרחק 7 שעות טיסה ואילו עם פלסטין ששוכנת חמש דקות נסיעה בסוסיתא הדרך לשלום עו… נתיב טיסה נוסטלגי אין ספור טיסות שאני וחבריי נשארנו ערים כל הטיסה מוודאים בעזרת מכשיר מיוחד שהמטוס אינו חורג מנתי…  Maratho22860844 למה לא פתוח אני מקבל שם הודעות מתי פעם אימנת חייליםמה אתה מבין בצבאמקסימום פיקדת על קלמר ומחברת שאלת את עצמך מה החיילים עושים שםאגב אין קשר ב…  zazimorgil אסור לצמצם את ארועי הלילה הקשים ל״אלימות בחברה הערבית״ זו אלימות בחברה הישראלית וחייבים להתמודד עמה זה פצע מדמם של כול… יצאתי בשעה ארבע אחר הצהריים לירושלים והרגע בשעה שלוש ורבע בבוקר חזרתי לאלמגור עוד הפגנה אדירה עוצמתית מלאה באנ…  schatzah בריאות אחי גשר המיתרים התחלנו  ביבי זה לא ייגמר עד שתתפטר  eman70y מלא על פי הנחיות משרד הבריאות אל דאגה סימן שהמחאה מתרחבת בפעם הראשונה יוצא היום אוטובוס מלא במפגינים מאלמגור הרחוקה היישר לבלפור BarashiKinneret ruthelbaz רות אפילו כנרת בראשי מעורבת בעניין עכשיו את חייבת להזמין אותי לפודקאסט שלך SasonA ruthelbaz מתוק אתה  ruthelbaz זימון תזכירי לי בפודקאסט לספר לך על החוויות שלי עם זימונים BarNahum5 ruthelbaz צודק הנה הבנתי ruthelbaz אני מסכים לבוא להתארח בפודקאסט מתי מקליטים  יתרון לחובשי כיפה או הכוונה בעצם שהעבודה ליהודים בלבד הגזענות פנים רבות לה וכל פעם זה דוחה ומזעזע מחדש  מעיין אדם דברי בשם עצמך גזענית דוחה שמתגאה בכך 🤮  freyisrael1 בול אפרופו מתן כהנא אני הייתי חוזר מעוד פעילות של הטלת עוצר על כפר פלסטיני ובעיקר שואל את עצמי מה הטעם ובמה זה מועיל…  talialin מוזמנת לקפה עם הצופית הבוהקת הכי קרוב לאירופה שיש  orlybarlev itonaim ILpolice ברכות netatias yairlapid לא הייתי מרחיק לכת אבל כן ספסל אחד ליד מצד שמאל  netatias yairlapid מבטיח לחזור בקרוב  ככה נראה צמצום המרחב הדמוקרטי  einatovadia תחזיקי מעמד ליבי איתך אני לא מחסידיו הפוליטיים של יאיר לפיד אבל אני חייב לומר שכמו שגנץ הולך ונהיה עלוב מיום ליום כך לפיד מוכיח מיום לי…  saralegliksberg צודקת למען האמת שלחו לי את הכתבה המדוברת כמה הכל משוגע קראתי אמש באתר רכילות ששבוע הבא מארגנים לי מסיבת הפתעה מושקעת לרגל יום הולדתי לא יודע מה יותר משוגע…  schatzah סנצ גוואטה מכה שנית סרטון חדש חושף שגוואטה חזר לתקוף העצור בשנית אחרי שכבר נעצר ובנוסף תוקף צלם  ishmuli אתה זה שגם הבטיח לבוחרים שלו שלא תשב עם נתניהו לא כבר הוכחת שמילה שלך לא שווה פרוטה איציק ימיך הפוליטי…  גנץ צר לי לעדכן אותך אבל כבר כמה שבועות שנשפך פה דם ברחובות בעיקר ברחוב אחד ספציפי בהפגנות בבלפור לא מאמין לי…  arielelharar זה טוב זה אסם arielelharar מצטער לאכזב אבל אני אישית אכלתי שם במבה וביסלי כבר לפני 10 שנים  peZF6hVK8aFxHR7 יש להם אהבה עזה לגוב שלהם המדינה לא מעניינת אותם עצוב אבל זו האמת amirperetz כל מה שמעניין אותך זה הגוב העלוב שלך תתבייש לך אז ביבי דחה את הבחירות בשלושה חודשים גנץ אשכנזי וחבורת העלובים שלהם הרוויחו עוד כמה ימים על הכיסאות שלהם מי שאו…  אני מסרב לדפדף הלאה הודעות שטנה שכאלה השיח פה נגד שמאלנים הוא אלים כל יום הגבולות נחצו מזמן ההסתה הזו כבר מזמן…  ההסכמה של גנץ ואשכנזי לפשרה המסתמנת שמה אותם יחד עם מיקי זוהר ואסנת מארק באותה דרגת נאמנות לנתניהו מלחכי פנכה עלובים דוגמה לאלימות המשטרתית הערב ניסו גואטה השוטר המכה חייב להיות מפוטר מחר בבוקר  המסקנה שלי מההפגנה הערב בבלפור המשטרה איבדה כל רסן אלימות מטורפת כנגד מפגינים תמימים מישהו שם רוצה לראות דם של מפגינים גשר המיתרים מכאן צועדים לבלפור  אחרי סופש אינטנסיבי בדרך חזרה מהמדבר הרחוק ועם זאת אין מצב פשוט אין מצב שאחרי אירועי השבוע הזה אני לא מגיע הע…  פסגת הר ארדון מכתש רמון שבת שלום  מטח הטילים מעזה מזכיר למי ששכח שעלינו לעסוק בדבר החשוב באמת במציאת פתרונות ובהידברות עם שכנינו הפלסטינים אלה שא…  המחאה הזו לא תרים ידיים נמשיך להפגין בבלפור ובכל פינה במדינה שלנו התשובה לפינוי המאהל בבלפור תהיה הפגנות המונים ב…  TheMaya FarkashOrit היא הבינה מצויין אבל מה איכפת לה כל מה שמעניין אותה זה הכיסא העלוב שלה מדינת ישראל בטוח שלא מעניינת אותה BruceKen12 yarivop כן עוד לא אבדה תקוותי yarivop אתה באמת רוצה את ביבי רוהמ עוד שנה ומשהו ואז את אדון גנץ רוהמ באמת נערה אחת מול 30 חלאות אדם אין מילים הבטן כואבת והלב בוכה אישור תקציבים לציונות הדתית ולישיבות הכלכלה קורסת והממשלה ממשיכה להזרים כספים לתיבור המיוחסים על חשבון כלל האזרחים…  igalmosko קרן קרב ופרוייקט הילה נסגרים הילדים בפריפריה הנערים שמאבדים סיכוי אחרון כולם נזרקים בצד הדרך אבל  400 מיליון לישיבות יע… TheMaya אחרי שכבשנו את דיזינגוף סנטר עם שלט בגיוס המונים ממשיכים במבצע חדש   היעד שלנו 150 שלטי חוצות בתלאביב חשיפה למיליון איש… tamarlask מזל טוב CohenRan האסי זה לחלשים חכו שתשמעו על השתלטות של מתנחלים על מעיינות בשטחים Irity3 בשמחה רבה  Irity3 בדובאי או בתל אביב הכי בנאלי אבל מתבקש אני רק מדמיין מה היו התגובות למתחם כזה באיזו מדינה מסויימת באירופה נגיד גרמניה ושהיו שמים ל…  LVertzhaizer Orlylevy וגם צייצה שליחת ציבור חרוצה ReutMor ושוב פלסטיני שכל חטאו שנולד עם לקות דיבור ושמיעה נורה על ידי חיילים אבל בדמוקרטיה היחידה הזוהרת והמוסרית בגלקסיה הסיפור הזה… עם כל הכבוד לפסטיבל השלום עם האמירויות אפשר לחזור להתעסק בדברים החשובים והבוערים באמת המצב הכלכלי הקורונה השח…  אנרכיסטים  נוהל שבת בלפור זה לא יגמר עד שביבי יתפטר  ruthelbaz די תמשיכי מסמיק פה בפינה בחושך צועדים וצועדות לירושלים בצעדת האמהות למען החיים מוחים על תופעת האלימות בחברה הערבית ואוזלת היד של המדינה במיגור…  YinonMagal תגיד אתה קם בבוקר ושואל את עצמך איך עוד אתה יכול לפזר שנאה וטינופת לא נמאס לך לפעמים כמה רפש אתה יכו…  אני אצטרף מחר לצעדה החשובה בואו גם  ברקוביץ מסכם את היממה האחרונה יותר טוב מאלף פרשנים משכילים וחכמים כשמגיע מגיע  hanggili גברת הטוויטר לא חייב לדעת כל מה שסיפרתי לך ולגמרי תתרגשי מפרגן לא רוצה לקלקל כאן את החגיגה אבלכבר בשנת 2010 עבדתי באיחוד האמירויות מטעם חברה ישראלית הלקוח היה השלטון שהזמין…  שלום וואו כמה זמן לא שמענו את המילה הזו CohenRan אם קיבלנו נירמול יחסים בתמורה לדחיית הסיפוח תארו לכם מה נוכל להשיג תמורת סיום הכיבוש</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> talschneider ״אפשר לבדוק את הפרוטוקולים״ אמר השר אוחנה לדוריה למפל על מה שהולך בתוך הדיונים  אבל האמת היא שאי אפשר לקרוא אותם למשך 3… NadavEyal ובישראל נעשה ניסיון בגיבוי היועץ המשפטי לממשלה לצמצם את חופש המידע בעיצומם של ימים אלה צריך להבהיר  אמון הציבור נפגם בגלל… EladSi קראתי את הכותרת הזו על חשיפת מיילים  שמתארים את הלחץ בקרב המדען הראשי והרופא הראשי הבריטים נוכח הביקורת על מודל חסינות העדר ב… haaretzcom How Ruth Bader Ginsburg helped pave the way in the struggle for gender equality in Israel  haaretzcom Australian leader welcomes Israeli ruling to extradite accused pedophile Malka Leifer  BarakRavid אתה חדש בטוויטר chaimlevinson ״בדיונים סגורים״ shemeshmicha יששששששש   ״עשה לנו ביבי״  חתך בדרמטיות משיחת זום רבת משתתפים עקב ״שיחת טלפון חשובה״ מילון הקורונה AmichaiStein1 ״לא הסתייע״ נפלא shemeshmicha שמש אין איזה עימות סוער מתוח דרמטי בממשלה Nefolet כי כך החליט משרד הבריאות כדי לא לשתק ענפים שלמים של ממשל תרבות ספורט ועוד Nefolet מתווה משלחות רשמיות קפסולה  בידוד חמישה ימים  בדיקות התבשרנו כעת כי בדיקות הקורונה למשלחת לוושינגטון שליליות וכי ״ניתן לחזור לשגרת פעילות מלאה בהתאם להנחיות כלל האזרחים…  ארה״ב מתחילה לשפוך היום תוכן להכרזתה החדצדדית על השבת הסנקציות על איראן מצ״ב העולם עדיין כולו מנגד  ReutersIran US set to announce new sanctions tied to Iran arms  jseldin Happening now SecPompeo announces US is sanctioning Irans Ministry of Defense Irans civil nuclear program and others re… natitucker אבי בר אלי פורש מתפקידו כעורך TheMarker אחרי שלוש שנים פסיכיות כולל המהלך לחומות תשלום האתר  קבלו את sivankli העורכת ה… YHepstein מי זו נעה לנדאו הבאה ומה קרה לנוכחית 🤔 AssafYNews תראה אם להיות כנה החלב החביב עליי כרגע הוא שיבולת שועל להקצפה של אלטרנטיב תנובה אבל זה פחות קליט almogbenzikri קלאסי אין על אמיר בהצלחה  yosefyisrael25 למה מה אתה שותה אני עדיין בבידוד אגב מישהו בלשכת רה״מ יכול להקפיץ לי חלב 3 תודה Two Netanyahu aides violate quarantine order after returning from White House signing ceremony  avischarf Now in English  Another Netanyahu advisor violated quarantine orders went shopping while in isolation  If this is how B… BarakRavid אחרי טופז לוק גם יועצו המדיני של נתניהו ראובן עזר הפר את הנחיות הבידוד  וננזף בשנית כל הפרטים בWallaNews  GLZRadio יועצו המדיני של רהמ netanyahu ראובן עזר הפר בידוד ביום שישי כשביקר במרכול במבשרת ציון כך דווח על ידי נעה לנדאו בהארץ עז… arik3000 אני מחבב ומעריך את ReuvenAzar  לאירוע הזה אין שום הצדקה במיוחד שמדובר בפעם השניה צריכה להיות פה הסקת מסקנות לכל הפחות מש… N12News נעה לנדאו מפרסמת בהארץ גם יועצו המדינה של ראש הממשלה ראובן עזר הפר בידוד כשיצא לסופר במבשרת ציון לאחר שובו מוושינגטון למ… idanroll ואומרים שאין אנרכיסטים בבלפור EladSi מייאש yanircozin מגיע בנאדם מבוגר רציני היועץ המדיני של רהמ ולא מצליח להבין פעמיים הנחיות שמשום מה כל העיתונאים הצליחו להבין להישאר… לצערי לא הצלחתי לגלות מה היה דחוף לו כ״כ לרכוש יש ניחושים  יועץ נוסף של נתניהו הפר בידוד ושהה ביום שישי בסופרמרקט במבשרת ציון   talschneider כנראה שהנזיפה הקודמת שעזר קיבל לכאורה מבןשבת לא השפיעה עליו עזר טוען כי הודעת משרד הבריאות שהם בבידוד ״הגיעה רק בשעת לילה מאוחרת ביום חמישי והוא לא התעדכן ומצר על כך״ רק אציי…  בום גם יועצו המדיני של רה״מ ראובן עזר נצפה מפר בידוד כשהוא הולך לסופרמרקט במבשרת ציון אחרי שובו מוושינגטון כן…  NaamanStavy gantzbe EsperDoD נכון רק שבמשלחת לבית הלבן אפילו היה מטוס נפרד וכאן הוא טס רגיל NaamanStavy gantzbe EsperDoD ״בהתאם להנחיות משרד הבריאות הנסיעה תתבצע במסגרת קפסולה גנץ יבוא במגע עם צוות המשל…  Israel’s gantzbe scheduled to meet EsperDoD in DC tomorrow to discuss Iran amp Israel’s QME AKA the UAE F35 deal origivati You cant make this stuff up tovahlazaroff Forget about the Polish Embassy The event whose title is suggestive of the question of whether or not journalism is nee… I have another one Does democracy help or hinder government work What a ridiculous headline for a panel on journa…  In the moment of truth will US bullying force the world to reimpose Iran sanctions Analysis ⁦haaretzcom⁩   הניסיון לכפות הטלת סנקציות על איראן בוחן את גבולות הכוח של ארהב פרשנות ⁦Haaretz⁩   Honduras announces again it will open an embassy in Jerusalem  omertosh בטלפון נחשב horowitzb כן כל מי שהיה במשלחת התבקש להגיע לבדיקה הלילה גם אני הייתי הונדורס שוב הודיעה היום כי תפתח שגרירות בירושלים הם הכריזו לראשונה על כוונתם בינואר 2019 אולם מאז נפתחו בטגוסיגלפ…  גם אני הייתי באותה בדיקה אליה זומן טופז לוק הלילה עם שאר המשלחת לוושינגטון זה היה במשרד רה״מ בפורמט ״היבדק וסע״ י…  מהליכוד נמסר בתגובה ״טופז לוק הגיע לבצע בדיקת קורונה בירושלים על פי ההנחיות שקיבל ממשרד הבריאות עם שובו מהמשלחת לו…  בליכוד מעסיקיו של לוק תכף יגיבו רשמית לפרשה גרסתו הוא היה בדרך לבדיקת קורונה NeumanRoee erancherpak TopazLuk מה הוודאות אתה מעיד שראית וזיהית אם זה אכן TopazLuk הוא אמור להיות עדיין בבידוד כמו שאר המשלחת לוושינגטון  tbWNTkeaNqb6UQ5 ILpolice הבנת הנקרא הייתי בירושלים בשביל בדיקה לא הפגנה מה לא ברור tbWNTkeaNqb6UQ5 ILpolice מכם אני נסעתי לבדיקת קורונה חצוף לILpolice שלום מבינה לגמרי את הצורך במחסומים אבל פחות מבינה למה להציב אחד כזה ביציאה מירושלים דווקא בקצה העליי…  michellenichols US will on Mon sanction some 2 dozen people entities involved in Iran’s nuclear missile arms programs putting te… risjoxford A lot of the things we report on as journalists we report on because they’re surprising They might be surprising because… AymanM Ruth Bader Ginsburg didn’t just talk about justice and equality She personified these principles In 1999 Justice Ginsburg mar… GermanyDiplo The E3  note that the US ceased to be a participant to the JCPoA following their withdrawal on 8 May 2018 Consequ… ExtSpoxEU Iran JosepBorrellF on US announcement on sanctions snapback   cannot be considered JCPOA participant Statecannot in… עם תפוגת 30 הימים לאחר בקשת הסנפבק ממשל טראמפ הודיע הלילה כי יטיל מחדש חדצדדית את הסנקציות הבינ״ל על איראן מזכ״ל…  UN ⁦antonioguterres⁩ told UNSC on Saturday he cannot take any action on a US declaration that all UN sanctions o…  irin I asked When the time comes what would you like to be remembered for Someone who used whatever talent she had to do her work… RIP RBG  KaisDjelassi maryf2017 Indeed it does Trump says Kuwait will “end up” being a part of the AbrahamAccords “fairly quickly”  michellenichols Britain France and Germany told the UN Security Council on Friday that UN sanctions relief for Iran  agreed u… haaretzcom United States hopes to name Qatar as major nonNATO ally official says  אנחנו כזה עם של אוברחוכמים זה משו ABZayed שנה טובה משפחת לוי חוגגת לבד השנה אבל את כתב חדשות 12 הגיוני לארח AfifAbuMuch Prime Minister Netanyahu is eager to expand normalization beyond Bahrain and the United Arab Emirates but many Israeli A… מכירה יותר מדי אנשים שלא שמים על הסגר כבר מעכשיו ככה לא נצא מזה לעולם זה מקרה קלאסי של כשאתם חושבים שאתם עובדים ע…  khalidalkhalifa Wishing my Yehudi Friends in Bahrain and around the world a prosperous Shana Tovah   Bahrain  RoshHashanah EU’s ⁦JosepBorrellF⁩ spoke with ⁦GabiAshkenazi⁩ Recalled EU support for normalisation between Israel amp UAE Bah…  Happy new Jewish year May we all be kinder to ourselves amp others RoshHashanah  KToltz Brilliant And such like that by noalandau  הסכמי השלום העולמי בבית הלבן חלולים כמו הצהרות מיס יוניברס  ולא בטעות פרשנות ⁦Haaretz⁩   EstherSolomon Ten sharp comments on Israels normalization agreements with the UAE and Bahrain from a spectrum of experts with diverse… haaretzcom Israels second coronavirus lockdown starts in less than 14 hours What does it entail  במשרד רה״מ טוענים בתגובה שההנחיה על הבידוד חדשה להם והם יפעלו לפיה והקרקס הוא גם של משרד הבריאות שלא הבהיר מה לעזאזל הוא רוצה מאיתנו למרות ששאלנו כל היום וגם של לשכת רה״מ שקימבנה לעצ…  Nefolet שאלה טובה קרקס מסתבר שמשרד הבריאות הנחה את כל המשלחת לארה״ב ״ללא יוצא מן הכלל״ להיות בבידוד עד יום שני אבל רה״מ ועובדיו פ…  The WH peace declarations were as vacuous as Miss Universe ‘world peace’ statements and by design They were writt…  Netanyahu just announced it will take “several months” till first coronavirus vaccine Guess he didn’t buy into Tr…  נתניהו אמר הערב כי על בסיס שיחותיו עם מדינות שונות לגבי חיסונים ״זה ייקח עוד זמן ייקח עוד כמה חודשים עד שנראה את ה…  DanWilliams In US ally Bahrain Israel deal rallies a weakened opposition  via ElYaakoubi LisaBarrington R… שנה טובה וחודש סליחות משמעותי לשלומי מלאכי שטרח לשלוח לי את המייל הזה במקום לטנף כנהוג בטוויטר וברוח זו ראיתי גם…  עקיצה איראנית על הסכמי אברהם  UAE amp Israel planning to include Palestinian areas in bilateral economic engagements says top UAE official to ⁦…  haaretzcom Coronavirus Israel live Government approves regulations for threeweek lockdown  YossiDorfman וכולם לבנים BarakRavid משרד הבריאות ולשכת ראש הממשלה אמרו לכל הכתבים על המטוס שאנחנו צריכים להגיע הביתה מיד אחרי הנחיתה ולהיכנס לבידוד עד לחקירה א… ממריאים חזרה ארצה נתראה בסגר YunaLeibzon kaitlancollins I think you’re right “This day is a pivot of history It heralds a new dawn of peace” B Netanyahu yesterday   ונזכרתי בעוד דבר בפעם הקודמת שהייתי בשדה התעופה אנדרוז שמעון ריקלין התערב איתי כאן שיהיה סיפוח ושאם לא הוא מפסיק לתמוך בביבי ד״ש ממתינים בשדה בוושינגטון לטיסה חזור בינתיים נזכרתי מה קרה בפעם הקודמת ששבנו מוושינגטון בצל מטח טילים  avischarf Israel signs important peace deal that ended no war noalandau  Analysis  Just realized this lovely elbow is in all my WH ceremony pics I like it though It reminds me of the imperfect rea…  noalandau בוושינגטון נחתם היום לקול תרועות הסכם שלום חשוב שלא סיים אף מלחמה פרשנות ⁦Haaretz⁩   noalandau Israel signs important peace deal that ended no war Analysis ⁦haaretzcom⁩   almogbenzikri אחרי לילה קשה ראש עיריית שדרות נכנס בנתניהו ב200 קמש ואומר לא מוזר לכם כמדינה שהמחבל היחיד שחוסל בעזה בגלל ירי רקטות… Gaza rockets rain on southern Israel morning after US peace signing ceremony IDF pounds the strip  Israel signs important peace deal that ended no war Analysis ⁦haaretzcom⁩   And the BahrainIsrael declaration as we published before  Appendix to UAEIsrael deal  The UAEIsrael deal  Finally The Abraham Accords declaration   בוושינגטון נחתם היום לקול תרועות הסכם שלום חשוב שלא סיים אף מלחמה פרשנות ⁦Haaretz⁩   פרטים ראשונים על ההסכם עם האמירתים ההסכם כולו סה״כ תשעה עמודים במבוא מוזכרת שאיפה לפתור את הסכסוך עם הפלסטינים ל…  IsraelBahrain declaration of peace promises efforts for “just resolution to IsraeliPalestinian conflict”  הצהרת השלום עם בחריין כוללת התחייבות ל״פתרון צודק״ לסכסוך עם הפלסטינים ההצהרה המלאה   Haaretz obtained the declaration of peace between Israel amp Bahrain It includes a commitment to “continuing the e…  עוד היא מציינת כי הצדדים הסכימו ״לכונן יחסים דיפלומטיים מלאים״ וכי הסכימו לחתור להסכמה בשבועות הקרובים על השקעות ת…  הגיעה לידינו הצהרת השלום עם בחריין  היא כוללת התחייבות ל״הבטחת המאמצים להשגת פתרון צודק מקיף ושריר לסכסוך הישראליפלסטיני״ All the clapping and cheering and trumpets and we still don’t know what the hell they were signing מחיאות כפיים תרועות חצוצרה ועדיין אף מילה על מה לעזאזל חתמו היום All updates from the WH ceremony today   Peace treaty   There it is now can someone say what’s in there   Breaking Rocket alarms heard in southern Israel while AbrahamAccords peace ceremony ongoing at WH Trump says the deal will open the doors of AlAqsa Mosque to Muslims Israeli media tried to join live a UAE reporter but it didn’t really work the guy is a pro   Docs are ready   EadoMeron בהחלט טראמפ בפגישה עם נתניהו הפלסטינים יצטרפו גם הם בזמן הנכון אפילו לביבי נמאס ממלחמות  Trump said “Even Bibi gets tired of war” Trump tells Netanyahu at the WH “We went in the smart door and the Palestinians will absolutely be a member at the right time” Netanyahu amp UAE Bahrain set to ink peace deal Live updates here  ⁦haaretzcom⁩   נתניהו ונציגי איחוד האמירויות ובחריין בבית הלבן בקרוב הטקס עדכונים שוטפים   avischarf Netanyahu and UAE Bahrain foreign ministers set to ink peace deal in White House ceremony Live updates fm noalandau    Netanyahu arriving now  LahavHarkov העיתונאיות מכבדות את התרבות המקומית    At the WH  בכניסה לבית הלבן מפגינים נגד נתניהו כולל גונן בן יצחק  avischarf Hours before ceremony Netanyahu finds out hes not authorized to sign UAE Bahrain peace deal  So Bibi had to ask FM Ashken… נצפו במלון כעת חברי המשלחת הבחריינית שחלקם לנים פה איתנו מנסים להבין מול נציג אמריקאי על איזה עותק פיזי שר החוץ…  He said this will be through references to previous agreements signed לדבריו האזכור יהיה באמצעות התייחסות להסכמים קודמים UAE’s AnwarGargash says in zoom briefing the 2state solution will be mentioned in the agreements today השר האמירתי במשרד החוץ אנוואר גרגש אומר בתדרוך זום כי פתרון שתי המדינות יוזכר בהסכמים היום Hours before the ceremony the final details of the peace deals are still unknown but one thing is clear Even unde…  להסתיר להסתיר להסתיר גם כשנתניהו חותם על שלום הוא מתעקש לחבל במאמציו פרשנות ⁦Haaretz⁩   Senior US official says White House will encourage wearing masks at the ceremony tomorrow but it’s not compulsory  על עסקת האף35 שב והביע את עמדת הממשל כי היא עדיין נשקלת אבל הביטחון של ישראל והסכמי היתרון האיכותי יילקחו בחשבון על סידורי הקורונה בטקס בבית הלבן מחר אמר הבכיר  אמריקאי כי הבית הלבן ״יעודד״ חבישת מסכות מחר אבל ״לא יחייב זאת״ gt בכיר אמריקאי אמר הערב בתדרוך לכתבים ישראלים כי מחר ייחתם תחילה הסכם זהה בין כולם ״הסכם אברהם״ ואז הסכמים בילאטרלי…  ruslantrad The details of the agreements between Israel the United Arab Emirates Bahrain and the United States will only be revealed… בשולי השוליים מאז הנחיתה נתניהו לבוש מסיבה לא ברורה כמו יאיר לפיד  BarakRavid רק לי זה נראה כאילו הדפים ריקים ההסכמים לא נראים ארוכים במיוחד  פומפאו משבח את קטאר על תפקידה בעזה  US SecPompeo at Qatar Strategic Dialogue We anticipate other countries in the Middle East will recognize the ben…  hendmana “Substantive peace between nations is only possible if people within those countries desire meaningful change”  My oped in… Senior UAE diplomat OmarSaifGhobash says peace with Israel could help them promote the Palestinian cause better הדיפלומט האמירתי OmarSaifGhobash בזכות השלום עם ישראל נוכל גם לסייע לפלסטינים יותר Israeli Official Final Details of UAE Bahrain Deals Only to Be Revealed on Tuesday   ItayMis נכון גורם במשלחת הישראלית לוושינגטון פרטי ההסכמים ייחשפו רק מחר עקב רגישותם  Officials in the Israeli delegation to Washington say all final details of the agreements with the UAE amp Bahrain…  הוא הוסיף כי ״הנוהל הוא הנוהל הרגיל שקודם כל חותמים ואז מביאים לאישרור הממשלה ולכנסת ככה זה גם היה בעבר בהסכמים בינלאומיים״ גורם במשלחת הישראלית לוושינגטון אומר כעת כי פרטי ההסכמים ייחשפו רק מחר בשל הבנות בין המדינות מדברי הגורם עולה כי מ…  מסכימה שיחשפו את ההסכמים במקום שגורמים אנונימיים יגיבו בילדותיות  לשכת רה״מ מגיבה כעת מפי גורם בפמליה ״המקורות של הורוביץ כפוליטיקאי אפילו פחות טובים משהיה עיתונאי״  שבה ואומרת לפי החוק הסכמים בינלאומיים בישראל מאושררים בדיעבד על ידי הממשלה ואפשר גם הכנסת לא חובה  orsela לא חייבים אישור ממשלה וכנסת מראש אפשר לאשרר בדיעבד peledori לא מדובר בנוהג אשרור בדיעבד maayanef ואנחנו צחקנו על ראש ממשלת סרביה עד לרגע זה התוכן המדויק של ההסכמים שייחתמו מחר בבית הלבן עדיין לא התפרסם לידיעת הציבור כתב ידיעות itamareichner קלט מהחלון בארוחת הבוקר המבודדת שלנו את יועצו המדיני של ראש הממשלה ראובן עזר יוצא לריצה…  chaimlevinson ברור שלכאורה לא chaimlevinson הם בבלייר האוס LahavHarkov Ok the details First of all the White House does encourage people to wear masks This is from the email Abraham Accord… בהצלחה לכולם  “We seek a warm peace with Israel” UAE’s hendmana writes in a special oped for haaretzcom ahead of WH ceremony   ״שלום בין מדינותינו הוא הזדמנות משמעותית אך איננו תחליף לשלום בין הישראלים לפלסטינים״ כותבת hendmana בHaaretz…  “Peace between our two countries is a significant opportunity but it is not a substitute for peace between Israeli…  UAE’s ⁦⁦hendmana⁩ in a special oped for ⁦haaretzcom⁩ ahead of WH ceremony   הנד אל עוטייבה במאמר מיוחד ל⁦Haaretz⁩ לקראת הטקס בשלישי   ⁦hendmana⁩   haaretzcom Netanyahu lands in DC for historic trip and noalandau will be there to follow it all as it happens  avischarf masks on  Bibi and Sara land DC even amd Dermer is not there to greet them  קבלת פנים צנועה בחמש בבוקר בשדה בוושינגטון אפילו השגריר דרמר לא התייצב  avischarf Netanyahu lands in DC for UAE Bahrain signing ceremony noalandau there with updates  התקבל בוואטסאפ  Netanyahu arrives in Washington for signing of UAE Bahrain normalization deals  לסקרנים מלבד זה שנתניהו דילג על השיחה המסורתית עם הכתבים לפני העלייה למטוס בינתיים לא היה שום דבר ״מחמיר״ בטיסה ה…  avischarf Mossad chief sporting 007 looks Working to get more states to normalize relations w Israel  Israel netanyahu and family and delegation just landed in DC avischarf Netanyahu set to depart for DC to sign UAE Bahrain deals  Text of agreements not published yet  US officials hope Tue… להלן הלוק  ראש המוסד הגיע בלוק ג׳ בונד </t>
+  </si>
+  <si>
+    <t>מאז ומתמיד אני מכבד כל אדם באשר הוא אם לא הובנתי התייחסתי לכך שמוקדי ההתפרצות לפני שבועיים היו בערים מסויימות וכע…  אני מברך על החלטת ארגוני המחאה שלא לצאת להפגין במהלך סוף השבוע מול בלפור וקורא לציבור כולו הישמעו להנחיות הישארו…  עלינו למגר את המגפה שגובה מחיר כבד מאזרחי ישראל תוך שמירה על דמותה של המדינה שלנו עלינו להציל חיים ולהחיות מחדש…  זו תקופה לא פשוטה לאף אחד מאיתנו בפעם השנייה אנחנו נאלצים להיכנס לסגר הפעם אפילו מהודק עוד יותר נתוני התחלואה לא…  לא נאפשר להפעיל תקנות שעת חירום למניעת הפגנות או תפילות זו תהיה דריסה של הדמוקרטיה  כחול לבן תפעל להשלים את החקיק…  מביש לראות שגם הערב נתניהו בוחר להמשיך להסית נגד המפגינים כחול לבן מנהיגה קו אחראי של סולידריות חברתית ונתניהו ממש…  Kachollavan19 כחול לבן התנגדה נחרצות לניסיונו הפסול של השר אוחנה לכפות השתתפות יועץ משפטי חיצוני בקבינט הקורונה ולהפיץ חוות דעת חלופית… אנחנו מחוייבים לעשות ככל שניתן כדי להבטיח שנפגעי הקורונה הכלכלית יוכלו להתקיים בכבוד המתווה המיוחד שהצגנו הנשיא ו…  אני מברך על החלטת בית המשפט וההכרזה על מלכה לייפר בת הסגרה לאחר שנים של ייסורים יזכו סוף סוף נפגעות העבירה לעשיית…  בפתח השנה החדשה סיירתי היום בין יחידות משרד המשפטים כדי להודות לעובדות ולעובדים על עבודתם המסורה למען הציבור   עו…  תראו לי רודנות אחת שבה קיימת מערכת משפט חזקה ההבדל בין המדינות שבהן יש זכויות על הנייר לבין מדינות שבהן יש זכויות…  הסכמי השלום הם ציון דרך היסטורי ברכות לעם ישראל ולאזרחי איחוד האמירויות ובחריין   עלינו להמשיך ולחתור לפיוס עם כל…  הוועדה לבחירת שופטים בראשותי התכנסה היום לישיבתה הראשונה השופטות והשופטים יבחרו על בסיס ניסיונם כישוריהם ומקצועיו…  המהלך ישפר משמעותית את השירות לאזרח ייעל את המערכת ויפחית מהעומס המוטל כיום על בגץ ועל בית המשפט המחוזי לעניינים…  בדומה למדינות אירופה כמו גרמניה וצרפת גם בישראל תהיה מערכת נפרדת של בתי דין מנהליים בעלת שלוש ערכאות כך יושלם המ…  רפורמה נוספת יוצאת לדרך הפצתי היום טיוטת חוק להקמת ערכאה שיפוטית חדשה בישראל  בתי משפט שלום לעניינים מינהליים…  במקביל עלינו להבטיח שלצד הבדיקה המערכתית יוכלו מפוני הכפר לשקם את חייהם באופן מיטבי לכן יחד עם השר amirperetz…  הבדיקה המקצועית תסייע לחזק את המערכת ואת אמון הציבור בה אבל אסור להתבלבל כל ניסיון לקשור את האירוע הטראגי באום אל…  הדיווחים בעניין מקרה אום אלחיראן עוררו שאלות בנוגע להתנהלות הפרקליטות ומח״ש בקשר לאל קיעאן ז״ל והעלו סוגיה חברתית…  בתקופה שבה שלטון החוק נתון תחת מתקפה נטולת רסן שכל מטרתה לייצר דהלגיטימציה לשומרי הסף עלינו לבור את המוץ מן התבן…  הניסיונות המכוערים לקחת את המשטרה הפרקליטים והשופטים ולהפוך אותם לנחקרים לא יצליחו   לא סתם התעקשנו על תיק המשפטי…  משרד המשפטים מחוייב למימוש זכויותיו של כל אזרח גם כשמדובר בנאשמים ובעצורים דלי אמצעים פרקליטי הסניגוריה הציבורית…  ומצטרפות לקריאות  מסיתות נוספות  שיש לחקור את השופטים את החוקרים את היועמ״ש ועוד ועוד לכל אלה מטרה אחת  ריסוק…  המערכת מחויבת לבדוק את עצמה כל הזמן לתחקר לתקן ולהשיב באופן ענייני על כל ביקורת וכך ייעשה   הדיווח אמש בחדשות 1…  כשר המשפטים של אזרחי ישראל אמשיך לדאוג ששומרי הסף יפעלו באופן עצמאי לא תהיה פוליטיזציה של מינויים שיקולים זרים ל…  אמרתי הערב בוועידת המשפט התשיעית   הנסיונות לקדם חוקי התגברות על בגץ לא מבקשים לחזק את תשתית הבלמים והאיזונים…  כמו בכל תחומי העיסוק גם בספורט אנו מחויבים להיאבק למיגור הטרדות מיניות יחד עם השר חילי טרופר החלטנו לאמץ את המלצת…  תלמידי ישראל שנת לימודים פוריה ומוצלחת  אנחנו מתמודדים עם פתיחת שנה מאתגרת במערכת החינוך השמעו למורים ולהנחיות מ…  החובה החלה על פושט רגל לשלם את חובותיו לא יכולה לפגוע בזכות היסודית למחיה בכבוד הצוות שהקמתי היום יחד עם שר העבודה…  שאול מרידור הוא איש מקצוע מצויין הגם שלא תמיד ראינו עין בעין הכרתי תמיד בערכו ובמחויבותו לציבור מרידור תרם תרומ…  לכן בכוונתי לפנות ליועץ המשפטי לממשלה ולבקש ממנו לשקול הגשת בקשה לדיון נוסף כמובן שיש לכבד כל הכרעה של בית המשפט…  החלטת בג״ץ מאמצת לראשונה את עקרון הסדר תקנת השוק ששימוש בו יאפשר הסדרה של מאות רבות של בתים באיו״ש אני מברך על כך…  הרצח הנתעב של הרב שי אוחיון שהותיר אחריו אישה וארבע בנות צעירות פשוט שובר את הלב   אני רוצה לשלוח תנחומים למשפחתו…  נתניהו התבלבלת המסע המתוזמן של הסתה ושקרים לא ירתיע אותי אני אמשיך לשמור על שלטון החוק ועל הדמוקרטיה הישראלית…  JusticeGov המחלקה לחקירות שוטרים פתחה בחקירת המקרה שתועד אמש בהפגנה בירושלים של תקיפת מפגינים עי קצין משטרה בדרגת סנצ הבדיקה נפתחה… לכל מי שמנסה להפיץ שקרים מופרכים ולהמציא פרשה לא תרתיעו אותי לרגע מהגנה על שלטון החוק  עלובי נפש המתקפות שלכם רק מחזקות אותי gantzbe אנחנו לא אנשים של משחקים ותרגילים אנחנו אנשים של כבוד ותקווה  עבודה קשה יושר וערכים נפגשנו הבוקר כל כחול לבן להתרכז שוב… כך נמגר את התופעה המזעזעת של התעללות בפעוטות  החמרת הענישה  עונש מינימום של מאסר בפועל על מתעללים החקיקה בעיצומה…  האונס המזעזע באילת בלתי נתפס לקרוא את העדויות ולא להאמין כמה עמוק הוא השפל המוסרי  המדינה חייבת להעניק את כל התמי…  יחד עם השמירה על מערכות החוק והצדק חלה עלינו החובה לדאוג לריסון הכוח השלטוני אל מול האזרח   הצגתי היום שורה של צע…  לא יוטלו הגבלות נוספות על המסעדות  אני מברך את שר הבריאות YuliEdelstein ואת הפרויקטור פרופ רוני גמזו על שקיבלו א…  לפני מספר שבועות נפגשתי עם פרופ רות גביזון מהמרשימות והמשפיעות בתחום המשפט והחברה בישראל עם כניסתי לתפקיד זכיתי…  שמירה על שלטון החוק ועל שפיות מדינית בהחלט מחיר ששווה לשלם  שבת שלום  מהלכים מוצלחים עושים במשא ומתן ישיר בין שני הצדדים אני מברך על ההסכם החשוב עם איחוד האמירויות ועל ההימנעות מסיפוח…  נאבקים בתופעת ההתעללות בפעוטות יחד עם ishmuli הבאנו בשורה חשובה שתחזק את ההרתעה ותחמיר את הענישה נגד מי שפוגע ביק…  אני מברך על החלטת הפרקליטות לאשר למשטרה לפתוח בחקירה בעקבות התבטאויותיו של יונה אברושמי   אם היו חסרות נורות אזהרה…  ועדת השרים לחקיקה לא תתכנס היום  סיכמנו כי בשלב זה יקודמו בוועדה רק חוקים הנוגעים לקורונה אבל לצערי בליכוד מסרבים…  על ההגנה על שלטון החוק בתקופה שהדמוקרטיה שלנו שברירית מתמיד על זכות ההפגנה ועל שמירה על עצמאות הכנסת ובתי המשפט…  הדגשתי בפני כבוד השייח מוואפק טריף את המחוייבות שלנו לקידום חקיקה שתעגן את עקרון השיוויון עבור כל אזרח בישראל יוצא מסיור חשוב בבית הדין הדרוזי בעכו ובבית העדה הדרוזית בגוליס יחד עם alonschustermk  בקרוב אכריז על מתווה בנו…  הכנסת הצביעה היום ברוב מוחץ בעד הדמוקרטיה ונגד הנסיון להחליש את האזרח מול כוחו של השלטון  בעיצומו של משבר לאומי צר…  המפגינים מייצגים ציבור גדול מאוד זה לא מיעוט הזוי זה עם ישראל שמודאג שאכפת לו מהמדינה שלו   בתקופה הקשה הזו כש…  מה קרה לנאום לא פרנסה  לא מעניין נפתלי איילת אין דבר שמעניין אתכם יותר מלרמוס את שלטון החוק והדמוקרטיה לא יקרה شرفني ان أزور بلدة كفر قرع بمناسبة عيد الأضحى المبارك  أتيت إليكم مع رسالة المساواة لكل سكان اسرائيل بيد واحدة، م…  תודה גדולה לדר איאד זאחלקה מנהל בתי הדין השרעיים על האירוח הנפלא לנשיא בין הדין השרעי הקאדי עבד אלחכים סמארה ו…  לכבוד הוא לי להתארח בכפר קרע לרגל חג הקורבן   יחד עם צאת תשעה באב הערב מתחזק המסר החשוב של אחדות ושותפות הגורל בי…  גם אני הורדתי את אפליקציית מגן 20 ככל שנחזק את השימוש בטכנולוגיה אזרחית במאבק בקורונה יופחת הצורך באיכוני גופי ה…  אלו שתקפו את המפגינים אתמול  הם האנרכיסטים האמיתיים בחוק המענקים הבאנו גם בשורה חשובה וצודקת למען ציבור הנכים הדיסריגארד לזכאים לקצבת נכות יעלה לא תהיה כל הפחתה מסכו…  נפגשתי היום עם ראשי המטה החברתי להשבת הבנים מור חאייק וגולן פרחי השבתם של הלוחמים סמ״ר אורון שאול וסגן הדר גולדין…  בחוק הקורונה עמדנו על כך שזכות ההפגנה לא תיפגע כך פועלת דמוקרטיה חזקה בשעת חירום    כל ניסיון לעקם את ההחלטה הזו…  שיתוף פעולה אכן בנוי על אמון לכן תמוהה החלטת הליכוד להפר משמעת קואליציונית לטובת פגיעה בשלטון החוק וחקירת שופטים…  הממשלה תעביר היום 15 מיליון שח לטובת תנועות הנוער נמשיך לפעול כדי שתועבר אליהם יתרת התקציב הנדרשת לפעילותם התקינה הערכית והחשובה אף אדם לא זקוק להמרה סטרייטים ולהטבים אתם טובים בדיוק כפי שאתם ‍ רק לעשות סדר כחול לבן ואני דאגנו שחוק הקורונה הגדול לא יפגע בעצמאות הכנסת בבתי המשפט ובזכויות האזרח הבסיסיות כל…  כדאי לזכור למה שמסוקר היום כבלאגן בין הממשלה לכנסת קוראים הפרדת רשויות  ועדת הקורונה מוסמכת לבטל החלטות מסיבה…  ביקורת היא לגיטימית אבל ההתלהמות נגד משרתי ציבור חייבת להיפסק   בימים האחרונים ראינו מופעי השתלחות ברז ניזנרי לי…  בעקבות דרישת כחול לבן המדינה תעביר סיוע ישיר לאזרחים אבל בתוכנית דיפרנציאלית עם רגישות חברתית חצי מיליארד שקלים…  תודה לcohenmeirav ishmuli KerenBarak omeryankelevitc YSegalovitz עשינו היום עוד צעד חשוב למאבק באלימות נגד נשים אישרנו כעת בוועדת השרים את החוק שקידמתי ויסדיר לראשונה בדין הישראלי…  מענק כספי שיגיע ישירות לציבור הוא צעד נכון להנעת גלגלי המשק אבל לא נחלק מענק עיוור נתמוך בתוכנית סיוע דיפרנציאלית…  פרסמנו היום את התקנות לחוק איסור צריכת זנות כדי לאפשר אכיפה מדורגת ומאוזנת התקנות יאפשרו להמיר את הקנס בסדנה חינוכ…   בפעם הראשונה יתכנס היום הצוות הבין משרדי שהקמתי לגיבוש הרפורמה בקנאביס   הצוות יבחן בשבועות הקרובים את כלל השיקולי…  חתמתי עכשיו על תקנות סדר הדין האזרחי החדשות לראשונה מאז 1963 אנו מביאים רפורמה מקיפה בתשתית ניהול המשפט האזרחי ביש…  Kachollavan19 נוכח חשיבות תפקודה של הכנסת כגוף מפקח אין זה ראוי להדיח את יו״ר ועדת הקורונה יפעת שאשא ביטון   אם הליכוד יקדם הצבעה בנ… פניתי לשר האוצר Israelkatz כדי שתוכנית הסיוע תכלול גם העלאה של הדיסריגרד לאנשים עם מוגבלויות סיכמנו שלא תהיה כל…  נשים אינן סחורה ומעכשיו צריכת זנות היא עבירה פלילית   שתפו את קמפיין משרד המשפטים  המפגינים מביעים מצוקה אמיתית וצודקת   חבילת הסיוע היא צעד בכיוון הנכון אך עלינו להציג תקציב שיביא ודאות כלכלית ומ…  אני רוצה לברך את חברות וחברי הכנסת מכל קצוות הקשת הפוליטית על חקיקה חשובה זו ליו״ר מרצ לשעבר זהבה גלאון לשרת המשפ…  נשים אינן סחורה וגופן לא מיועד להשכרה לכל המרבה במחיר   למרות הלחצים לא הסכמתי לדחות את החלתו של החוק לאיסור צריכ…  נפגשתי היום עם שגריר האיחוד האירופי בישראל מר עמנואל גופרה דיברנו על שיתוף הפעולה המשפטי הפורה בין ישראל למדינות…  gantzbe נלחמים בקורונה שומרים על הדמוקרטיה  גאה בAviNissenkorn  שר המשפטים של מדינת ישראל  כל עוד אני שר המשפטים שלטון החוק לא ייפגע ומערכת המשפט תפעל בעצמאות מלאה למען כל אזרח במדינת ישראל נקודה יש בישראל מיליון מובטלים ובכל יום מאובחנים יותר מאלף חולים חדשים בקורונה ויש מי שהכי דחוף לו עכשיו זה לחרב את שלטו…  נפגשתי היום עם השייח׳ מוואפק טריף המנהיג הרוחני של העדה הדרוזית בישראל ונשיא בית הדין הדרוזי לערעורים שוחחנו על ד…  גם בזמן משבר הקורונה כנסת ישראל ובתי המשפט ימשיכו לפעול   בשגרה ועל אחת כמה וכמה בשעת חירום מוסדות הדמוקרטיה חי…  זו בשורה ענקית שתחזק את הנגב ותצמצם פערים בין המרכז לפריפריה זה מהלך אסטרטגי חשוב עבור מערכת הבטחון  קיבלנו עכשיו בישיבת הממשלה מספר החלטות קשות בנוגע להגבלת הפעילות במשק אלו צעדים הכרחיים למאבק בנתוני התחלואה במקב…  כל עוד אני שר המשפטים שומרי הסף ומערכות שלטון החוק יפעלו בעצמאות מלאה  אתמול ב pgoshMTP  מוטלת עלינו האחריות לשמור על בריאות הציבור מבלי לקחת את הכלכלה חזרה לאחור בדיוק בשביל זה ולמען שמירה על שלטון הח…  I expressed to him my firm commitment to ensuring that the Malka Leifer case would be handled expeditiously In add…  I had the pleasure of meeting today with Australias Ambassador to Israel Mr Chris Cannan We discussed matters of…  נפגשתי היום עם שגריר אוסטרליה בישראל כריס קאנן AusAmbIsrael דיברנו על הקשר החזק בין המדינות ועל שיתוף הפעולה המשפ…  השוויון הוא עמוד תווך בדמוקרטיה והזכות להורות חייבת להיות שוויונית ללא הבדל דת גזע מגדר ונטייה מינית כדי לסיים א…  מנדלבליט לא רודף אף אחד הוא מבצע את תפקידו מתקפה על שומרי הסף פוגעת בדמוקרטיה והחלשת הדמוקרטיה תפגע בזכויות של כל אזרח במדינת ישראל חוק איסור צריכת זנות ייכנס לתוקף במועדו 10 ביולי אני מודע לחששות ולקשיים ניישם את הפתרונות הנדרשים לטובת שיקום…  הגעתי הערב לאירוע הגאווה בירושלים מאבק הקהילה הלהטבית הוא מהחשובים והמוצדקים זה מאבק מהותי על שוויון חירות סוב…  יוצא מפגישה חשובה עם נציגות איגוד מרכזי הסיוע לנפגעות תקיפה מינית  אי אפשר להפריז בחשיבות המאבק באלימות המינית מא…  נתוני התעסוקה המדאיגים שיצר משבר הקורונה מחייבים אותנו לסייע לאלו שמתקשים לחזור למעגל העבודה אני מברך את…  חופש הביטוי והזכות להפגין הן אבני יסוד בדמוקרטיה שאין להגבילן אלא במקרי קיצון אני מברך על החלטת בית המשפט לשחרר את…  המתקפה על אמנון אברמוביץ׳ מקבל צל״ש הרמטכ״ל היא ביזוי חופש העיתונות ותמרור אדום לכולנו הבוקר קיימתי בלשכתי פגישת עבודה ראשונה עם נציגים מארגוני הלהט״ב יחד עם EitanGinzburg   אמרתי לנציגי הארגונים ואנ…  אני מברך את הרשות השופטת על צעד חשוב לקידום השקיפות זוהי עדות נוספת לכך שהתברכנו במערכת משפט איכותית ומקצועית  הנחיתי את הנהלת משרד המשפטים ואת הנהלת בתי המשפט לדאוג כי 5 אחוז מכלל העובדים יהיו אנשים עם מוגבלות  אנשים עם מוגב…  המתקפה המתמשכת על מערכת המשפט מסוכנת  ומסכנת את חוסנה של מדינת ישראל יש שופטים בירושלים והם ימשיכו לבצע את עבודתם…  הבעייתיות בחוק ההסדרה היתה ידועה לממשלת ישראל כבר מהרגע הראשון ופסילתו היתה צפויה לכל הגורמים במערכת הפוליטית  הכר…  סיימנו הבוקר את סבב התיקונים על טיוטת חוק שעת החירום  נלחמים בקורונה שומרים על הדמוקרטיה  לרשויות ינתנו הכלים לאכוף את ההנחיות אולם שוטרים לא יתפרצו באופן שרירותי לבתי תושבים  בימים הקרובים נמשיך בעבודה מ…  החקיקה בנושא הקורונה הכרחית אבל זכויות הפרט ימשיכו להיות נר לרגלנו גם בעת חרום  יחד עם אנשי משרד המשפטים ושותפיי ב…  ערב חג השבועות אני בוחר להתמקד ברעיון החסד והנתינה לזולת השזורים במגילת רות כי גם זו אפשרות חג שמח לראש הממשלה עומדת חזקת החפות ואני מאחל לו שיוכיח אותה בבית המשפט   התברכנו במערכת משפט איכותית וללא משוא פנים אין…  אני שב ומבהיר יש לי אמון מלא ביועץ המשפטי לממשלה שרי ממשלה רשאים להביע ביקורת עניינית אבל מתקפות נטולות רסן הן חציית קו אדום gantzbe עדכון קצר ממני אליכם 1 החל מהחודש חברי הכנסת של כחול לבן יתרמו 20 משכרם  2 עם הקמת הממשלה נפעל מול גורמי המקצוע כדי להור… הישראלים לפני הכל בעקבות השיח שניהלתי בתקופה האחרונה עם הממונה על שוק ההון והביטוח ד״ר משה ברקת סוכם הבוקר כי הק…  מחר מיד לאחר הקמת הוועדה המסדרת נוביל פתרון הצבעה לחברי כנסת השוהים בבידוד בימי משבר כאלה הכנסת חייבת לתפקד באופ…  יעל גרמן היקרה כנסת ישראל נפרדת היום מאישה ישרה ערכית בעלת הישגים שהכנסת והציבור הישראלי התברכו בה יעל מגלמת בא…  חייבים להציל את מדינת ישראל רק כחול לבן   EitanGinzburg מה אומרים לא אומרים מצביעים  הבחירות ביום שני הן שעה גורלית לעתיד המדינה אם כחול לבן לא תהיה המפלגה הגדולה ביותר אנחנו נתעורר למציאות מסוכנת שב…  באירוע שבת תרבות בחולון בהגשת NechamaDuek אמרתי כי אין אדם ראוי מבני גנץ להנהיג את מדינת ישראל עבדתי קרוב עם כל…  חרפה ההתנהלות הגזענית של השוטרים המוצגים בכתבה כלפי יוצאי אתיופיה ונוער במצוקה מזעזעת אין להתנהגות כזו מקום במש…  ניר למה דמגוגיה בגרוש העובדות הן שאתה הובלת את ים לירידה בדירוג הסוציואקונומי בזמן שאני העליתי את שכר המינימום…  המאבק שלנו הצליח ומיזם הביטחון התזונתי ימשיך לפעול בהמשך לפנייתי לחשב הכללי תאושר בקשת משרד הרווחה ותימנע הפגיעה…  פרופ׳ רות בן ישראל כלת פרס ישראל הלכה לעולמה זכיתי להכירה כמרצה מופלאה בפקולטה למשפטים ונפלה בחלקי הזכות להקשיב…  הבטחנו וקיימנו שלטון החוק ניצח היום את הקומבינה הפוליטית בדמוקרטיה כולם שווים בפני החוק וכעת גם נתניהו נאלץ להכיר בכך Kachollavan19 יו״ר הוועדה המסדרת ויו״ר סיעת כחול לבן ח״כ אבי ניסנקורן פנה לפני זמן קצר לייעוץ המשפטי של הכנסת בבקשה להבהרה דחופה בנו… אנחנו מכבדים את יו״ר הכנסת ומחכים להודעתו על כינוס המליאה בהקדם כל פרסום אחר חוטא לאמת על יו״ר הכנסת להתנהל כעת בצורה הממלכתית המתחייבת אפעל להקמת ועדת הכנסת החל ממחר ונקיים את דיוני החסינות בצורה הוגנת עניינית ויעילה אין מקום לדחות את הקמת ועדת הכנסת יש לקיים דיון ענייני בבקשת החסינות נתניהו הפך הערב לאויב הדמוקרטיה הישראלית אני קורא ליו״ר הכנסת לכבד את מעמדו הממלכתי ולאפשר את כינוסה של הוועדה המס…  רק החלטה נחושה לממש את ההסכמות אליהן הגעתי בנושא תצמצם את מגפת תאונות העבודה האדישות של הממשלה הנוכחית היא מזעזעת…  תמונה עגומה עולה מדוח העוני שפורסם היום עצוב ובלתי נתפס שראש הממשלה דואג לחסינותו האישיתבמקום לחסינותם של הקשישים…  Kachollavan19 עקב כוונת יו״ר הליכוד בנימין נתניהו להגיש בקשת חסינות מפני העמדה לדין באשמת שוחד מרמה והפרת אמונים הודיע כעת ח״כ אבי נ… מבחינת ביבי כל מה שמגן עליו הוא אבן יסוד ובירור האמת בבית המשפט היא אבן ריחיים בילבול בערכים בזמן שאחרים מצייצים אנחנו עובדים הגענו הערב להסכמה עם משרד האוצר שתשים סוף לאפלייה כלפי החינוך המיוחד במגזר החרדי…  האזרחים לפני הכל הוועדה המשותפת בראשותי ובראשות ח״כ גפני אישרה כעת העברה של 242 מיליון שקל מיתרות תקציב הכנסת לטוב…  מנכ״ל משרד הבריאות הודיע לי על אישור תוספת של חצי מיליארד ש״ח לסל הבריאות אני מברך על כך אסור שנושא כל כך חשוב ומ…  הוועדה המסדרת בראשותי תוודא שהתוספת לסל התרופות תעמוד על 500 מיליון שקלים ולא שקל אחד פחות אני עומד בקשר רציף עם ר…  gantzbe אם בסופו של יום נידרדר בגלל נתניהו  לבחירות אזרחי ישראל מימין ומשמאל שנמאס להם מהמצב הקיים ילכו איתנו אנחנו ננצח ונרכיב ממש… הייתי היום בכנסת אבל המחשבות היו בדרום אני שמח שהצלחנו להקל ולו במעט על המסעדנים ובעלי האולמות בעוטף עזה בזכות שי…  אנו מחזקים את ידם של צה״ל וכוחות הביטחון במלחמה הנחושה נגד הטרור ביטחון המדינה וביטחון אזרחיה לפני הכל אין גבול לחוצפה שר המשפטים מנצל לרעה את החסינות הפרלמנטרית תוך הפרת צו איסור פרסום חרפה המסעדנים ובעלי אולמות האירועים בעוטף עזה מחכים כבר חודשים לפיצוי שהבטיחה להם המדינה בגין הנזקים הקשים שהם נאלצים לס…  חוזרים לכיכר להגיד נגד אלימות ונגד הסתה  הניסיון הבזוי של נתניהו לפגוע בבחירות דמוקרטיות וליצור תוהו ובוהו  נכשל כפי שאמרנו לאורך כל הדרך ועדת הבחירות תפ…  peretzsami לצמצם את אי השוויון זה בעיניי משימה מתחייבת ועליונה גם לחוסן החברתי שנוגעת באלו שהכי זקוקים ובוודאי…  חינוך לגיל הרך אי שיוויון בחינוך והכשרות מקצועיות  בהן משקיעה הממשלה שיעור נמוך מידי בתקציב כמו גם היעדר הכשר…  הובלתי גם קיצור שבוע העבודה רפורמות במשק החשמל מכון התקנים ומשק המים שישפרו את הפריון וצמצמתי משמעותית את ימי השב…  peretzsami אל תתן לעובדות להפריע לך בסיסמאות הקבועות אני תרמתי לצמצום פערים   במעשים ולא דיבורים שכר מינימום ש…  ביבי מה נתפסת לוונצואלה קל לקבל שם חסינות  תודה חברים  ביבי בלחץ  יכלת למצוא תמונה טובה יותר הנה העובדות   כך לא צריכה להיראות הרפואה הציבורית בישראל תת תקינה שאינה תואמת את העומסים מביאה לזעקת האחיות הנשמעת כעת אני מחז…  מתפלא עליך בנט כשנאבקתי למען צמצום פעריםשיפור משמעותי בתנאי עובדי שמירה וניקיון למען הקשישים והנכיםהעלאת שכר המ…  אחרי החלטה בלי בירור מעמיק של ההשלכות אחרי שבועות של הולכת שולל של תושבי אילת והערבה החליט הערב נתניהו באופן סופי…  אזרחי ישראל צריכים לזכור דבר אחד  הבחירות האלה הן בין ביבי נתניהו לבני גנץ ורק בין שניהם ישראל ניצבת לפני החלטה…  הבוקר אצל DaphnaLiel בשבתרבות חזרתי ואמרתיביטול הבחירות היה עוד תעלול אחיזת עיניים מבית נתניהוזו מציאות מאוד מצע…  ועדת הכספים אישרה הבוקר את דחית סגירת שדה דב ובכך הצטרפה להתנגדות של כחול לבן ולמחאת תושבי אילת עכשיו זה לפתחו…  עכשיו מול בית רהמ בירושלים סיעת כחול לבן עומדת לצד תושבי אילת נגד סגירת שדה דב צינור החמצן של אילת  רהמ הוא שאחראי לגרעון בחוסר התפקוד שלו בהתמקדות בבעיותיו האישיות במקום באזרחים הייתה לי הזכות לפעול לצמצום הפערי…  פניתי הבוקר  ליור ועדת כספים לכנס בדחיפות את הועדה למנוע את סגירת שדה דבעלינו להבטיח שאזרחי אילת והדרום אינם מופק…  מדינת ישראל חייבת לחבר בין אילת למרכז הארץ באופן אפקטיבי ונגיש וכל עוד לא נמצא פתרון יש להפעיל את שדה דב באופן סדי…  נתניהו ממציא שיטה  מביא לבחירות ב5 מיליארד שקל על חשבון האזרחים בשביל לדחות שוב את השימוע שלו זילזול מוחלט בא…  בזכות הדיון הבוקר בועדת הכספים בראשותו של ח״כ גפני שנערך בעקבות פנייתי בנושא הצלחנו להביא לעצירת הקיצוץ בקרנות הפ…  בלב כבד נפרדים היום מהגב׳ נחמה ריבלין רעייתו של נשיא המדינה ראובן רובי ריבלין  נחמה הקדישה את חייה לפעילות ציבו…  intxchlxrine תודה לעם ישראל שהגיע הערב והצביע ברגליים יחד הצבנו את הקו האדום לשמירה על הדמוקרטיה   הערב הייתה ירית הפתיחה למאב…  תכף מתחילים הצטרפו אלינו למלחמה על הדמוקרטיה הישראלית  יוצאים להיאבק על הדמוקרטיה הצטרפו אלינו מחר ב2030  מחזק את ידיהם של לוחמי האש היקרים הנאבקים בשריפות הקשות ברחבי הארץ שולח חיזוק גם לכל התושבות והתושבים הנמצאים בקיר…  זה ימין שפוי ימין שפוי לעולם לא היה נותן יד לריסוק הדמוקרטיה הישראלית  נתניהו לא בוחל באמצעים למען הישרדותו עשרות מיליוני השקלים שהוא מתכנן לזרוק לפח הם חרפה לקואליציה שתקום לכל השרים…  לא ניתן להפוך את מדינת ישראל לדיקטטורה הניסיון הבזוי והמתמשך לחרב את מערכת המשפט עבור ראש ממשלה שנגדו תלויים שלושה…  צפו בסרטון קצר על חלק ממה שעשינו ב 3 השנים האחרונות  חיכיתי עד הבוקר בכדי לראות האם היא תתנצל על הבושה ותיקח אחריות על הקומבינה את שלי מעניינת רק שלי – ולא שום דבר אחרgt  אני מודה ליוגב עשור יור הועד של ברינקס והעובדים על תמיכתם בי לתפקיד יור ההסתדרות  ביחד ננצח למען העובדים ולמען ה…  אני מודה לקרן אופק יור ועד עובדי פרטנר והעובדים על תמיכתם בי לתפקיד יור ההסתדרות ביחד ננצח למען העובדים ולמען הח…  עם מוטי חזיזה היקר בפרי הגליל סמל ומופת למאבק למען התעסוקה בצפון  קולטים את עובדי הקבלן להעסקה ישירה ומחוייבים ל…  הגענו להסכם הבנות באלעל בחברה כ 6000 עובדים מסורים אנו נפעל למערכת יחסי עבודה טובה בחברה ולפתרון בעיות בכל הסק…  חתמתי עכשיו הסכם קיבוצי להסדרת הרפורמה בבורסה ההסכם כולל הגנה מפני פיטורי צמצום וקליטת עובדי קבלן להעסקה ישירה ככ…  פועלים לקידום שינוי חברתי נוסף העברנו לקריאה ראשונה הצעת חוק למתן תנאי עבודה הולמים לעובדי אבטחה המטרה להעביר את…  לפני מספר דקות חתמנו על צו הרחבה המשפר משמעותית את תנאי העסקה של כ7000 עובדים סוציאליים בישראל מעשים ולא דיבורים…  אני מודה על הבעת התמיכה לשר חיים כץ לוחם חברתי אמיתי מבטיח שיחד איתך ועם רבים אחרים נמשיך להוביל לשינוי חברתי במדינה אני רואה מול עיניי את העובדים המוחלשים פעלתי להעלאת שכר המינימום ב1000 שקלים ואמשיך עד שנשנה את החברה הישראלית ונ…  אתמול התקיים דיון ראשון בוועדת העבודה והרווחה בכנסת בהצעת החוק לתנאים הולמים בתחום האבטחה המטרה היא להעביר את החוק…  שחררנו את השכר מכבלי הקיפאון  מתחילת הקדנציה שלי עלה השכר הממוצע במשק ריאלית ב 88 ובשנה החולפת הייתה עליה של כ…  מאיר בנאי נפטר איש צנוע רגיש יוצר ישראלי מופלא אני אוהב את יצירתו היא באה מהלב ונוגעת בלב ומאחדת יהי זכרו ברו…  אני משתתף בצער משפחות ההרוגים ושולח ברכת החלמה מהירה לפצועים יום קשה לכולנו בנמל אשדוד שמים את הויכוחים על הרפורמה בצד וחותמים על הסכם להעסקת עובדים עם מוגבלות קוגנטיביתנפשית בהעסקה ישירה זו אמירה חברתית סיימנו עכשיו טקס העברת 69 עובדים להעסקה ישירה בבית החולים וולפסון נר תשיעי של חנוכה  ממשיכים בשינוי החברתי גם ב2017  בשעה טובה מצטרף לטוויטר  בואו נכניס את נושא צמצום הפערים וקידום השוויון חזק לשיח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NadavEyal בין האנשים הכי אהובים בהוליווד כרגע לכן יש לזה משמעות וחוץ מזה אם עוד לא ראיתם את מהיר ועצבני האחרון…  shireuven תמסרי לשרון ולאמא שלה המקסימה שאני משתתפת בצערן yayafink חמוד אתה gt אז netanyahu אמר עליו בחקירות שככה וככה אז אמר עוד שקר על עוד מישהו פתאום מאמינים לו בפועל הוא עשה הכל כדי…  חבל שהמתנפלים על YaronDeckel לא יודעים שבלעדיו גלצ היתה נסגרת מזמן איזנקוט הבהיר לנו בוועדת חוב שיסגור ואף לגל…  sharmootot בשיחה של Syechimovich עם הפעילות שלנו היא מדברת על הבחירה של הרבה גברים לא לקחת חלק במאבק הפמיניסטי ועל הערבוב המסוכן בין… zionnenko איזה שקר הזוי אבי וייס היה המינוי הכי מקצועי והכי לא פוליטי שיכול להיות לא הון לא שלטון סתם כישרון ו…  VeredPelman TogetherKulan נכון תתקשרי  בימים טרופים ומטורפים אלה נדרשים אקסטרה אומץ לב בטחון עצמי ואתוס עיתונאי במקרה הזה מגובש כדי לאבחן בפומבי תקל…  ח״כ yakmargi ש״ס יור ועדת כלכלה מפתיע אותנו ב שליגואטה ואומר נחרצות שבתי הכנסת חייבים להיות סגורים ביום כיפור…  kannnews לקראת החמרה של הסגר  מרכז הצוות לטיפול במגפות דר טל ברוש לSyechimovich וYigalGueta מחפשים כל מיני דרכים למסמס המלצ… judash0 הזוי שהפורום הליברטריאני הזה שמסיבת התה של הרפובליקנים מחווירה לידו מוזמן לישיבת ממשלה עוד לא קלטתם שאין להזיה הזאת קונים בישראל chaimlevinson סבבה שהוא עושה קניות וצריך להדגיש שלעניים ולעשירים כאחד יש זכות שווה לישון מתחת לגשרים reuvenkl ראובן זה לא כולל אותך אתה יכול להתחיל להספים אותי חופשי ממילא הם אוכלים לחם שחור עם מרגרינה אז קורונה לא קורונה מה ההבדל בשבילם  ErezRahm לא מדובר בקבוצות אלא ברשימות תפוצה הדרך היחידה לצאת היא לחסום את השולח ומדובר באנשים טובים שאני לא רוצה לחסום לקראת יום כיפור אני מבקשת סליחה מראש על פנייתי זו לחלק מחברי כאן בבקשה תוציאו אותי מרשימות התפוצה בוואטסאפ אל ת…  33rrr4 כן שמנדריק למאר זאת הרמה שלי 33rrr4 עם עוקב אחד כמו תמיד של שמנדריק יותר טוב מהמקור תגובת הליכוד ״לא נקבל הטפות מוסר מחברו של הפדופיל אפשטיין שהעביר מליוני דולר…  politicallyIL כשאני נשאלת מתי יהיו מספיק נשים בבית המשפט העליון ואני עונה כשתהיינה תשע נשים שופטות אנשים בשוק מהתשובה אבל מאז ומתמי… faniaoz GALIT22 זוכרת שראיתי את זה וקצת קינאתי אמריקה מתאבלת במקביל ל amazing grace  קדיש המוני מול בית המשפט העליון האמריקני על RBG היהודיה ארוע חריג ביותר  הלם וצער עמוק על מותה של רות ביידר גינסברג השופט שטראמפ עלול למנות במקומה יצור רוב רפובליקני בעליון שיבעט בקדמה מ…  sharonidan  ShiraSch חינוך טוב אחרי שהמלצתי ואף רכשתי בעצמי על לוח השנה של TogetherKulan כמתנה מהממת לחג אמשיך להיות הדודה שממליצה קניתי את ה…  TogetherKulan גם אני מתרגשת כשאת מגיבה לי TogetherKulan קמפיין מדהים וסופר חשוב ונחוץ שליגואטה חותמים TogetherKulan הבוקר אנחנו יוצאות בקמפיין סיקורהוגן בקריאה לאנשי ונשות תקשורת להצטרף אלינו לעיצוב קוד אתי מנחה לסיקור הוגן של פרשות א…  והוא מאכיל אותי היום הביא לי מעורב ירושלמי  איש השנה שלי הוא שותפי ל שליגואטה YigalGueta גילוי נאות הוא חבר שלי magazineLiberal ReshetBet kannnews…  BaradBracha TogetherKulan כבוד אומר לנו AvigdorLiberman על Kachollavan19 ״חסרי כבוד דורכים ויורקים עליהם והם אומרים שזה גשם זה שnetanyahu לא…  kannnews יור ישראל ביתנו AvigdorLiberman לSyechimovich וYigalGueta על הסגר בחגים גמזו מתנגד לסגר הוא לא רצה סגר ודעתו לא התק… kannnews יור ישראל ביתנו AvigdorLiberman לSyechimovich וYigalGueta על ההתחזקות של בנט בסקרים בכל מערכת בחירות יש להיט תורן א… dorzach אה אז בגלל זה שונאים אותי akivanovick הלוואי שיום אחד יהיה אפשר לכתוב פה ביקורת על נתניהו בלי לחטוף קללות מטונפות מ30 צייצנים עם שמות כמו  lqXla6w4TdP8XcKC מאמר שלי היום בעמוד הדעות של YediotAhronot על יעקוב אבו אלקיעאן amitsegal רוני אלשיך AviNissenkorn וכמובן…  BaradBracha שמרי שבת אני חצי קלאץ׳ עושה את זה שנים מה זה כיף Sachback הולכת לקרוא אם לא אכתוב כלום משמע לא שיניתי את עמדתי או שנרדמתי Sachback מה פספסתי אני בעד ערן זהבי amitbentzur שינוי בליבת הכלכלה מסמך חשוב ביותר של הOECD האתגרים העמוקים לא ייפתרו על ידי עוד ועוד שינויים במדיניות הקיימת נדרשות ר… suzyvankirk TogetherKulan kannnews YigalGueta אין לי ספק שהנשים המדהימות והנערצות במרכזי הסיוע שהתחילו כאן הכ…  שבת שלום לכולן TogetherKulan המסכות שלכן להיט בkannnews ד״ש מYigalGueta  ruthelbaz dorzach לא את dorzach משיכה קלה ליהדות ruthelbaz dorzach אה סליחה שאכזבתי אני גם DC וגם מארוול אבל רק כתחביב העיסוק העיקרי שלי זה הארד קור סיינס…  shireuven yobarshai בדיוק הכנתי עכשיו 20 סנדוויצ׳ים מהממים להפלגה עם חברים אבל שלך נשמע טעים בטרוף sefiova אויש איך אין לי כוח לפפרצי בכאילו האלה עם אגלי הזיעה המתאמצים מרוב נונשלנט איזה כיף לי שאני כבר לא שם kannnews דר הגר מזרחי מנהלת המרכז הרפואי פדהפוריה לSyechimovich וYigalGueta יש לנו מחלקת קורונה אחת המחלקה עמוסה זה מתבטא… amitsegal חחח 13 שנים בפוליטיקה מחשלות מה שמגיע וגו׳ למען הסר ספק התכוונתי לפוזיציות ולמסגורים של כולם כולל שלי עצמי שזאת חתיכת פוזיציה בניכוי פוזיציות ומסגורים amitsegal הוא תותח והוא הביא סיפור ענקי ענקי dorzach יש אל נורדי כזה הוא הנכד של תור בגלל ענייני הברק והחשמל וידיד של לוקי בגלל הקטע הקנטרני והערמומי שלו yberrybot HFashchik אה זה ברור התכוונתי לסידור החדר במו ידיה HFashchik yberrybot את ילדה טובה BaradBracha MaiBarzilay יום הולדת שמח חכמות אמיצות ויפות שכמותכן הו אלשייך סע הביתה של יעקוב אלקיען קח רכבת קח אווירון קח מתנה קטנה לילד היתום קח תרמיל קח מקל כרע על ברכיך תתנ…  yoavr בזמן אחרון YigalGueta מביא לי לאולפן פריקאסה כהילכתו עם לחמניה מטוגנת בהתחלה מחיתי אחר כך נכנעתי ואני…  BaradBracha חגיגות היומולדת מתחילות בסימן דברים שאני רוצה לעשות כל השנה מספר אחת הוא כמובן דייט עם אושיה פמיניסטית האחת והיחידה Syec… BaradBracha TogetherKulan sharmootot לא את תודה לכן על הקול הצלול העז והלא מתנצל באתן בזמן ואתן מאוד חשובו…  התנצלות צבועה ומזוייפת של netanyahu בפני משפחת יעקוב אלקיען אם אפשר לכנס מסיבת עיתונאים בטיעון שקרי של ״הצהרת קור…  פרופ עידית מטות tasmc1 וצוות הקורונה של גמזו אמרה לנו ב שליגואטה שבתי החולים יגיעו לאי ספיקה של חולי קורונה עוד…  במקום קרם גוף המתנה השווה ביותר לחג קניתי 3 לוח השנה הפמיניסטי היפיפה והמעוצב של TogetherKulan עם…  nadvav זה עוד כלום בזמן שאנחנו משדרים את שליגואטה אני מקבלת הודעות נזעמות על כך שאני אומרת ״ראש הממשלה בנימין נת…  mikiros1 אחד הסרטים החשובים שנעשו כאן השבוע נזכרתי ברם כספי מנקה ביסודיות את עליו של צמח נוי כלשהו בעודו נותן לך בנונשלנט את מתכון השקשוקה התגלות  yoavr asaflib חחח asaflib לא בלתי לא מעניין גרסת הקורונה של תמות נפשי עם פלישתים אם סגר אז לא רק על ערים אדומות אלא על כל המדינה ariyederi ולעזאזל הרמזור…  shireuven חחח מתוקה shireuven שיואו איזו גאונה כל הכבוד asaflib אתה קדוש אמיתי ועובד למעננו בלא לאות לקרוא ספרי יחצ עצמיים שאנשים הוציאו מייד בתום תפקידם זו המעלה העליונה TogetherKulan השבוע בכולן מאות לוחות שנה בדרך אליכן שרמוטה שניה במשרה מלאה מאמינות לך בבית המשפט בבאר שבע לתמיכה בנפגעת מפרשת ה… shireuven לכי לשנוצ שעתיים ותקומי כמו חדשה חלומות פז amitbentzur אני סבורה ששנותיך בכנסת עשו אותך חד כתער ושעלית על הנקודה YehudaGizbar subtext100 OferShelah yairlapid לא מודה שחזור גורלי של מה שקרה לשינוי בראשות טומי לפיד האב בפריימריז למספר 2 אחד רון לוונטל ניצח את אברהם פורז שהיה…  אכן OferShelah אדם איכותי אבל הוא מבצע אקט של חוסר מודעות עצמית חריף פתאום קם אדם בבוקר ומחליט בטעות שהוא עם…  erezgri ולי אמרו אחר כך שקוראים לזה חומוס רומני kannnews שר העבודה והרווחה איציק שמולי לשליגואטה עובדי המדינה הם כל אלו שניצבים במשבר הקורונה בקו הראשון 80009000 שקלים בחודש… amsterdamski2 דיאט פנטה YediotAhronot שלי יחימוביץ התפטרות שאול מרידור היא לא דרמה מטלטלת הוא לא התרופה וגם לא המשיח על החמור הלבן שמתרחק מאיתנו ומותיר או… חמש ב שליגואטה ראיון ראשון עם מנכ״לית משרד המדע והטכנולוגיה Shaileess האשה הבכירה במשלחת לאבו דאבי מייד עם הנחית…  Izhars7  אכן אכן נראיין אותה ב שליגואטה היום ב 0017 ברגע שהמטוס ינחת ReshetBet kannnews מתווה שהעשיר מעטים וגזל מרבים מביך ביותר שאת הודעת ההתפטרות הפומפוזית שלו שיגר אחיו מתן מרידור עו״ד הגבלים עיסקי…  שאול מרידור הוא איש מוכשר אבל התפטרותו היא לא כזאת דרמה מטלטלת נאו ליברל קלאסי פקיד אוצר מאסכולת שיקאגו המיושנת…  akivanovick חחח noabarak KerenTernerEyal Shaileess מעולה סגור NitayAnavi רווח לי עכשיו הכל בסדר HFashchik TogetherKulan Lamahitlonanti ShiraSch AyulaFeminista YarinHazan sharmootot הילה היית מהממת היום בראיון אצלנו תודה TogetherKulan Lamahitlonanti ShiraSch HFashchik AyulaFeminista YarinHazan sharmootot היום ריאיינו ב…  yoavr מסכן קטון מהבוקר אנחנו מחפשים בתמימות לראיון ב שליגואטה בכירה במשרד ממשלתי שעולה על הטיסה ההיסטורית לאבו דאבי עוברים משר…  RinoZror יום הולדת שמח חבר  ruthlessrousso harelorbach LironGreen מתוקה שיואו אתגרת shireuven 1981 אני בצבא נחשפת פעם ראשונה למונטי פייטון רואה בריאן כוכב עליון וחצי סרט שוכבת על רצפת הקולנוע עם כ…  harelorbach ruthlessrousso LironGreen תודה רבה הרגשנו שזה לא במקום שמו של הרוג הפיגוע בדיוק פורסם נתוני קורונ…  ruthlessrousso LironGreen אה אז ככה נראה אצלך ״פחות״ טוב יאללה הפסקת אש ננוח קצת נדבר על הארי פוטר עכשיו בואו  chaimlevinson צודק mikiros1 ולכלתי mikiros1 שיואו איזה כיף לך חיבוק ואהבה לך ולעופרה מקנאה גם אני רוצה kannnews ראש עיריית תל אביב רון חולדאי בשליגואטה על כוונתו להיכנס לפוליטיקה הארצית אילו היו בחירות מחר בבוקר אני קופץ למישור ה… תתביישו SrugimNews  1nitzan TogetherKulan מביש ועלוב BenCaspit לא רק מפקיע זמן יקר בפרייםטיים לא רק קורע את ההסכם עליו חתם לגזרים גם ממשיך לשקר ללא בושה ואנחנו משדרים את כל זה  shireuven בקלות בעזרת לחש כלשהו kannnews אביה של אחת הנערות מפרשת הכדורגלנים והקטינות לSyechimovich וYigalGueta על החשד לאונס באילת מסכנה הנערה ומשפחתה אני יוד… kannnews שר המשפטים AviNissenkorn לשליגואטה להערכתי יש יותר סיכויים שתהיה הארכה ושמחר הכנסת לא תתפזר אבל אי אפשר לדעת הדברים… 1700 ב שליוגואטה אבא של הנערה מפרשת הכדורגלנים בראיון קשה ״האונס באילת טלטל את הבת שלנו שוב כרגע המשימה שלנו ה…  RonHuldai כבוד גם על ההסבר היפה והמנומק רמי מאירי הוא אמן נפלא ובזמנים עברו תיעד משהו שנתפס ״שובב״ שעה שהכאיב מ…  3 התלונה לא היתה מעולם נגד AviNissenkorn אישית ולא היה בה בדל ראיה נגדו 4 הוא שר משפטים מעולה אבל הייתי מפרסמת…  1 התיק מעולם לא הועבר לפרקליטות הוא נסגר כבר במשטרה 2 אני קבלתי את ההודעה על הסגירה כבר בינואר 2019 כשהוא הי…  בקשר לAviNissenkorn חיפשתי כל השבת ומצאתי בבית את הראיה הכי נוקבת לכך שהבדיות שהומצאו עליו ועל מנדלבליט בבלפוריה…  ShanyGranot וואלה הרבה חרא אכלנו יחד בפוליטיקה הישראלית אבל זה באמת מתגמד אל מול החברים והשותפים שזכינו בהם לחיים ותודה לSyechimovi… ZoharElimelech הכרתי אישית אותם ושמעתי עדויות עליהם ממקור ראשון כ50  אנונימיים ומפורסמים כאחד שקורבנותיהם לא…  TogetherKulan BaradBracha ynetnews מצויינתתת FrauDoc אז סוף סוף הצלחתי לנסח למה אנשים מזדעזעים במיוחד מהחלק של התור באונס הקבוצתי החברה רגילה לחשוב על אנסים כמי שלא שולטים ביצריה… RotemShtarkman מסכימה אתך WTF  TogetherKulan BaradBracha הכבוד כולו שלי  DorDugy תודה חמוד גם לי היה כיף אתכם MSartani shireuven DorDugy kann סנדוויצ׳ים פסטו גבינה בולגרית ועגבניות שרי shireuven DorDugy kann  subtext100 shireuven DorDugy kann שיר בת 12 אני בת מאה הרוסה על shireuven התארחתי עכשיו אצלה ואצל DorDugy בפרק סיום העונה הראשונה של “ההסכת שאין לומר את שמו” של kann…  safi182 ססי פספסתי ביומיים את יום ההולדת שלך מזל טוב אשה יקרה  תעשו לעצמכם טובה ולכו לים לפני שהיום מתחיל ולפני שנפתחות הקטטות כאן בריאות לנפש בוקר טוב   פרופ מירב בן דוד מדענית חוקרת דובי קוטב וישראלית במקור ניצחה בפריימריס של המפלגה הדמוקרטית במדינת וויאומינג…  ittaishick YigalGueta נתפשר על בחור משכיל ונאה מבאס לאללה הלכה עוד סדרה שאני אוהבת לא יאמן שגם הם מכל עולם ההטרדות המשגשג במשטרה בחרו דווקא בסיפור על תלונת שוו…  ShiraSch ReshetBet AyeletShaked sharmootot יש אותי הצילו איך נסתדר בלי גברים היוםב 1700 ב שליגואטה בReshetBet יהיו AyeletShaked ד״ר חגית סברגיל סגנית אסותא א…  dorzach כן בירקון ממש נעים עכשיו  נו טוף מבינה שאין סכוי לומר דבר מה ענייני ופשוט בלי להיחטף בידי פוזיציונרים מכל עבר לא מזיז לי אבל כן אבהיר שאנ…  ⁦RavivDrucker⁩ היקר מסכימה עם הרוב המכריע עד לטיהורו של אולמרט המושחת מרדיפת מוסדות שלטון החוק ניסה לרסק כמעט…  yamagroup 1nitzan בבקשה תמצא מגן הזנאים בושה וחרפה  kannnews שגריר ישראל באום giladerdan1 לSyechimovich וYigalGueta הדבר האחרון שאזרחי ישראל זקוקים לו היום זו מערכת בחירות אני… amitsegal חשה בחושי החדים שאתה לא כל כך מחבב אותו DanieliOren לא יקרה ראיון מעולה של אסתי ראיון אומלל של ברק האפולוגטיקה שלו בעניין פסילתה בשל אג׳נדה  לא משכנעת וטוב עשתה אסתי שלא ה…  מחקתי את הציוץ הקודם לטובת לינק תקין היכן ישנם עוד שרים כמו שר התרבות והספורט הזה שלא מתבלבל הולך להפגש עם הקטינה שנוצלה בערלות לב בידי הכדורגלנים  ו…  ואיזה מסכנים הימנים שמוכרים את נשמתם מתאבדים בשביל ראש ממשלה מושחת מכשירים כל שרץ ומקבלים בסוף קדחת בצלחת Yes sure  א לא גוגל בבקשה ב ״עולה על הגג צורחת וצווחת״ כמובן  את לא אשה מוכה הילדים שלך לא מוכים וגם לא נאנסת כתוצאה משלטים דוחים עם דברי בלע שאנחנו אוכלות בוקר צהריים וערב א…  הקרב המילולי המדהים שהיה כעת במליאה בין netanyahu לyairlapid תוך שהם מנצלים כל פיסת תקנון כדי להמשיך לחבוט זה בז…  לא אחי ועוד אמר אצלנו ״לא יעזור אם נתניהו יקראו לנו לא אלי ולא אחותי לא נלך לממשלה צרה״ אחרי שnetanyahu קרא להאוזר ״א…  ivri99 קצת בורות לא לדעת פרט בסיסי  שלישיבות חו״ב אסור בתכלית האיסור להכניס פלאפונים ומחשבים ניידים avrahambin עובדות שגבר לא היה נאלץ לפרט  3 פעמים חברת חו״ב מתוקף היותי יו״ר אופוזיציה  3 שנים חו״ב עם וועדת המשנ…  guylerer זה מדהים כי ליברטריאנים כמוה מתנגדים לאחריות המדינה ובזים לה וחושבים שעזרה לזולת זה רק עניין של חשק ורצ…  YehoshuaYosi מי הופיע כולם ובחדר הסגור כולם אמרו שזה לא מועיל הייתי הרבה שנים בוועדת חוץ ובטחון ובחיים לא הופיע בפנינו גורם בטחוני שחשב שהרס בתי מחבלים מרתיע ומונע פיגועים היו…  MarshmeLoaf לא נכון שיחה עמוקה על קורונה בקבינט הקורונה לא יאמן  orenba נו טוב תהיה הראשון שאבלוק על טרחנות וצדקנות בלוק למה לעשות ניסויים על בני אדם במדינות עולם שלישי כשאצלנו בטח יהיו מלא מתנדבים שחושבים שזו רק שפעת קלה בטוחה שפרופ׳…  ISudri הָעֲנִיִּים הַחֲדָשִׁים מִסְתּוֹבְבִים בֵּנְתַיִם עִם הַחֲלִיפוֹת הַחֲדָשׁוֹת שֶׁל פַּעַם BarakRavid UNJanKubis שוב אתה מטרחן עם השטויות שלך עובדות Rereshef מתעלה על עצמך היום וזה לא פשוט harelorbach kann chaimlevinson DoriaLampel GLZRadio ברוררר harelorbach kann chaimlevinson DoriaLampel GLZRadio הראל אתה בניגוד עניינים kann chaimlevinson DoriaLampel האחת והיחידה ויקראו לזה דקלמפל dorzach אני במאה וממליצה yoavr תשמע תבוא למועדון חתירה שלי יש שם כמה וכמה מכשירי חתירה למי שמתעצלים לרדת למים לחתור באמת ברצינות דבר אתי michalbgigi הון שלטון חלל חיצון LTCPeterLerner YigalGueta ReshetBet תודה  kannnews מנהל המרכז הרפואי לגליל בנהריה דר מסעד ברהום לשליגואטה חדמשמעית כל בתי החולים הממשלתיים על סף קריסה אם תוך שבועיים… shimritmeir הייתי אומרת שSethrogen הוא לא סתם מצחיקול אלא קומיקאי על מעצב תודעה והוא שייך לקבוצה גדלה והולכת ש…  DorLasker amitbentzur לא להתייאש עם הנצח לא פוחד מדרך ארוכה זה חשבון הטוויטר האהוב עלי תכלס  ״אנשים״ באים בגלל ״האקשן והבחורות״ מכך אני מסיקה שה״בחורות״ שמגיעות להפגנות הן לא ״אנשים״ עם השקפת עולם אלא אבזר…  yoavr חחח אם כבר מדברים המלצה  יש סרט הורס ומצחיק די חדש ולא מספיק ידוע של Sethrogen יחד עם שרליז ת׳רון Lon…  kannnews יור הקואליציה zoharm7 לSyechimovich וYigalGueta תהום פעורה בינינו לבין כחול לבן בהרבה נושאים ברמה אידאולוגית הדבר מ… YoavYoavkrak חמוד הילד הזה בהצלחה  JoshBreiner נכון danizamir tamirbarr מושפעת מYigalGueta רק היום ראיתי את עלייתו ונפילתו של שם טוב האבי המעולללה של tamirbarr הגאון אבל גדודי שחקנים גברים בתפקיד רופא…  סיפור מחריד ובלתי נתפס של ⁦JoshBreiner⁩ הייתי אומרת תלונה למח״ש ומייד אבל ברור שהשוטר כאן גם הוא ש״ג וקורבן של…  DorLasker AdrianFilut calcalist קראתי את השרשור זה כל כך מקומם בלתי נסבל ופאתטי גם יחד מעולם לא נולד ארגון עו…  NadavEyalDesk דינוזאור עוטה פרוות חולד yairweinreb RonenPolak  dandayan תודה חבר ההערכה הדדית מחכים לך בבית ShanyGranot JoshBreiner חחח JoshBreiner ShanyGranot שיחקת אותה עם עוקבת איכותית במיוחד BetterPocker אמרתם שהשמאל לא מביא פתרונות הנה הצעה פרקטית  OrHeller newsisrael13 חמוד אתה NadavEyalDesk מעולם לא עוררת בי יותר אמפתיה ואגב השרשור הזה הוא סיפור קצר מצויין zehavagalon צודקת בסדרה של peretzsami “עושים לביתינו״ הוא מביא ראיון שעשיתי עם netanyahu ב 2003 בGLZRadio הראיון האחרון שבו הוא פ…  מענק לכל ילדה זה צדק ולא צדקה לחרדים ולערבים כל הילדים שווים אלא אם מישהו החליט להנהיג מדיניות ענישה על הבאת הר…  missshakim אלף בית של סולידריות נשית זה להבין שמי טו זה לא שי טו להכנס בכוח לאזור הפרטי והדואב של כל אשה בין אם… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlonLeeGreen ומה עם מילה על עצירת זכות ההפגנה בחוק אתה בעד לדעתך צריך  להפסיק להפגין odaskal חילי טרופר נותן עבודה תראו את התמונה הזאת כחול לבן עושה יחד אחת עם הליכוד והחרדים כדי להשתיק בחוק את האנשים שבחרו בהם  ב ג י ד ה  RonHuldai כמה קל להרוס כמה קשה לתקן כנסת ישראל – אל תשלחי ידך אל הנער אסור לוותר על כללי המשחק הדמוקרטי במיוחד בעת משבר  לצערי עד עתה כינרת בראשי היחידה  lilacsigan Filter bubble JoshBreiner AnshelPfeffer הייתה בטיילת בתל אביב כל מאה מטר Ari39515932 מי שמשתמש במילה אוטיסט כקללה הוא חלאה rabeabader הוא צריך להגיד להם תודה על המיסים ItayBlumental ynetalerts את ערן זהבי היו אוזקים ומזמינים תקשורת להשוויץ בבית פעם ראשונה ואחרונה שאני מרטווט אותו זאת לא מקריות זאת מדיניות נתניהו רוצה להלחם בהפגנות לא בהדבקות  dxpU82FE18PsY9o gutweind אפשר גם להפגין בלב אתמול נחשפה לציבור עובדה מטלטלת בזמן שמיליוני תלמידים בחינוך הממלכתי בבית בישיבות הלימודים נמשכו כרגיל מיתווה הק…  Loriiii מצחיק urieltzaitlin AkivaWeisz שכחנו מכבד ומעריך chicomenashe hadover1 בלתי אפשרי לשמור על קפסולות ובידוד של מוסדות חינוך עם מאות תלמידים היחידים שהצליחו בעולם ה…  BarashiKinneret עכשיו בלבלת אותי chicomenashe hadover1 בדיאם chicomenashe hadover1 צ׳יקו הערב הציבור הישראלי נחשף למציאות דמיונית כמעט בזמן שמערכת החינוך הממלכתית הושבתה ב…  yairgranek בכיכר דיזנגוף היו 20 איש בדיחה DovMorell BarashiKinneret להגביל הפגנות במרחק זה לבטלן כליל DovMorell BarashiKinneret שטויות גם נסיעה להפגנה צריכה לעמוד בכמה מבחנים הגיוניים אם שוטר חושב שמדובר בתירוץ שק…  iloveisraell AdiroDante לכן שאלתי וקיבלתי תשובה giladsas מדובר על איסור להגיע להפגנה לנוע מעבר לקילומטר כדי להגיע להפגנה זה למעשה איסור על הפגנה מובן DovMorell BarashiKinneret לשקר כל אחד יכול למשל נסיעה לטיפול פסיכולוגי או אלטרנטיבי להאכיל כלב או חתול בבקשה ItayBlumental מקצין AdiroDante אכן היסחפות בנושא הקנסות אבל העמדה ברורה ממשלה לא מגבילה הפגנות itamarilk  BarashiKinneret yarivop מותר לנסוע להפגנה גם אם היא 60 קמ ו 300 קמ  צריך מרחק 2 מטר אחד מהשני ומסכות מי שמפר מבחינתי כנס של 10000… מצדיע לכינרת על העמדה הברורה אנשי ימין שמצטרפים  אשמח לרטווט כל אחד  BarashiKinneret מצדיע לך ISudri רק בריאות ושיחזור בשלום לילה טוב BarashiKinneret לפני שאני מרטווט ומצדיע קראתי נכון ומהן ההנחיות שמותר לנסוע להפגנה ISudri 1 לא ענית לי  2 אני מעדיף להיות מחוץ לעזה מאשר לחזור פנימה נראה לי שגם אתה 3 לכלוא שני מיליון איש ולנ…  ISudri תגיד אתה באמת מאמין שכל מי שנמצא בסרטון במשך שבועות ארוכים לא יצא מהמבנה שבו הוא לומד בקפסולה כלום חירום…  misscorina2  urieltzaitlin AkivaWeisz אתה רוצה להגיד לי שמאות אנשים במשך שבועות היו כלואים במבנה בלי לצאת לרגע ממנו אפילו ל…  urieltzaitlin AkivaWeisz לא הבנתי הם היו בקפסולות כדי שאם מישהו אחד נדבק רק מעטים ידבקו מה עשיתם כשביטלתם ברג…  Zalman03689299 בחייך אל תשקר איך בדיוק פתיחת בתי הכנסת קשורים להפגנות המפגינים מצטופפים בחדרים סגורים ותבדוק ע…  AkivaWeisz יש שם אחד שלא נכנע ללחץ החברתי ושם מסכה Zalman03689299 מדוע הטיסות לניו יורק נשארו פתוחות לפני הפסח מדוע בתי הכנסת נשארו פתוחים ביום כיפור מדוע אין אכיפ…  asafzamir אתם חייבים לעצור את דיכוי ההפגנות elikmargalit ובאותו עניין החל ממחר ניסוי איך המשטרה והפרקליטות מתמודדים עם קריאות מפורשות לרצח כשזה לא נגד ביבי אעדכן זאת לא מקריות זאת המדיניות מאז פרוץ המגיפה חסינות לנתניהו בתמורה לחסינות לחרדים ביבי נאבק בדמוקרטיה לא בקורונה…  kZpaGisX2kszjEh kiumenu אחרי שצייצתי לי את הביטוי מפגר כקללה גם אם מחקת לא נותר לי אלא לחסום חלאות כמוך arik3000 אתה סתם משמיץ בהפגנות היו המון שוטרים שחילקו מאות דוחות בשעתיים הצפרדע כבר מזמן בסיר  arikbender לא המפגינים לא אוכפים בבלפור חילקו 200 קנסות בשעתיים akibigman אבל ההפגנות kZpaGisX2kszjEh מי שמשתמש במילה מפגר כקללה הוא טינופת את הפייק דמגוגיה של מוצ״ש צריך לתקן הנה  YossiUzrad נתניהו לא נלחם בקורונה הוא נלחם בדמוקרטיה פנייה אחרונה לכחול לבן מחר הזדמנות אחרונה להתנגד לחוק שיאסור הפגנות אתם יודעים שזאת האובססיה של ביבי לדכא את מתנג…  AdiMaimon Riklin10 עוד פעם דוגמאות מלפני 15 שנה על שני אוטובוסים שעצרו אותם ביום אחד בשעה אחת חאלס עם העליבות כ…  הפיד הנפעם מהתפילות ההמוניות בחוץ הוא אותו הפיד שנגעל מהמפגינים בבלפור יכול להיות שהכל מפוזיציה Riklin10 גם אני חשבתי הרבה ביום כיפור הימין בישראל לא מאמין בדמוקרטיה אין לו עניין בה לא בשטחים ולא בישראל התש…  gutweind איסור ההפגנות הוא עוד שלב במהפכת המשטר שמחולל נתניהו והפיכתה לדמוקרטיה לא ליברלית בנוסח הונגריה השלבים  סגר כולל בלתי נח… EylonALevy מי מאיתנו שיזכה התכנסות גדולה בחוץ עם המוני אדם אני בעד גם בבלפור  aviadglickman אם זה לא המפגינים לא אוכפים הממשלה רוצה לחסל את הדמוקרטיה לא את הקורונה yossefus4 בהפגנות במוצש ידעו לתת קנס אם נשמת לכיוון הלא נכון ככה מתנהגת ממשלה שרוצה לחסל את הדמוקרטיה לא את הקורונה אם זה לא המפגינים לא אוכפים מחוז ירושלים בחסות ביבי ודרעי רוצים לחסל את הדמוקרטיה לא את הקורונה  לא מפגינים לא אוכפים ביבי רוצה לחסל את הדמוקרטיה לא את הקורונה  הוחלט מחר תוגש תלונה במשטרה ונראה מה תהיה מהירות ונחרצות התגובה מבטיח לעדכן  גם אני ראיתי מראות דומים אבל פקחים ושוטרים יש רק בבלפור במקום למגר את התחלואה ממגרים את הדמוקרטיה  חברים ב Haaretz המאמר הזה של rogelalpher צריך להיות פתוח לכולם ללא תשלום מקודם בפושים ובראש האתר שלכם המאמר הח…  המצב קצת מוציא את העוקץ מיום כיפור עוד יום בסגר avivgeffen אבי נוסבאום אמר את זה קודם חתימה טובה  ״כפרות״ גרסת נערי הזוועות  אין איש ימין אחד שמסוגל אפילו לעשות הצגה שכואב לו על כוונת הממשלה למנוע הפגנות השנאה והתיעוב למי שמפגין מולכם יוצאת החוצה רואים לכם netanyahu yonikedem ועדיין אישרת את פתיחת בתי הכנסת YTB2018 orlybarlev צילמתי ב2225  לאחר ההפגנה הראשונה הסוערת בבלפור תקפתי כאן במילים קשות את Yossieli גם אם מהותית יש בנינו מחלוקת לא הייתי צריך…  Israelcohen911 צריך להתייחס צעובדות לא למאבקים פנימיים מיותרים חתימה טובה וכיפור בטוח  מה אתה אומר גבי  gabiaronov GONENB1  בפנים גלויות בשם מלא ובלי בושה אם הייתי עמית סגל הוא היה מקבל תביעת דיבה על הגדרתי כנאצי אם הייתי נתניהו הוא כבר…  Israelcohen911 ישראל אתה לא יכול להתעלם מאחוזי התחלואה המטורפים במגזר החרדי חשבון נפש יכול להציל חיים raananshaked כעובד הרשת לשעבר אני מבקש להריץ אחורה להתחלה בתום הצפייה GONENB1 ILpolice DovrutPolice  רוצים להיאבק באופוזיציה תילחמו בהפגנות  רוצים להיאבק בקורונה תילחמו בתחלואה המשתוללת במגזר החרדי רחבת הכותל ריקה כי ביבי נכשל בקורונה כל הארץ מלאה במפגינים בדיוק מאותה הסיבה TopazLuk כל הכבוד שלך שסיכנת את חייך בשביל הבוס ונכנסת לפעולה סודית בלב מדגרת קורונה בעורף האויב צל״ש הרמטכ״ל עכשיו שקרן נשאר שקרן  limormoyal YTB2018  לראשונה המשטרה לא מאפשרת להפגין בכלל ברחוב בלפור הרחיקה את המפגינים וסגרה את הרחוב לחלוטין לראשונה מאז תחילת הה…  AviBenayahu למה שקורה כעת בירושליים בת״א בגשרים בכיכרות ובצמתים קוראים מרד  אנשים מבוגרים וצעירים עם מודעות לסכנת התחלואה לא מוכנ… המשטרה מחרימה הגברה למרות שבגצ אישר  יש גם מכבסה  המסר מחלחל לשוטרים מתייחסים למפגינים כאויב מעצרים ואלימות תחריר בלפור הפעם זה שונה האנרגיה פה היא בקנה מידה היסטורי אסור בכלל לחשוב על לוותר על ההפגנות כאן זה לב המחאה ההתרסה…  zoharm7 היו בחירות זוכר לא ניצחתם בפעם השלישית רק בזכות הממשלה הזאת ביבי עוד ראש ממשלה לא יכול יותר בכבוד הביתה המפגינים מפצירים במגפונים למשטרה הרחיקו את המחסומים הגדילו את שטח ההפגנה ותאפשרו לשמור על מרווחים החשובה והמרגשת מכולן   ממשלת ישראל באמת מתחילה להתנהג כמו הדמוקרטיה באיחוד האמירויות  gutweind שיטות מובארכ ההפגנות הן לא חוג או תחביב יש קשר הדוק בין מטרתן לבין המחדל  והכישלון סביבנו רק המחאה מצליחה להשפיע ולהשאיר כאן ת…  הנה זה קורה שוב המשטרה עוצרת את השיירות לירושלים חוק לחוד ומציאות לחוד  filbers השתכנעתי חבל שאתה עד מדינה ולא נאשם SylvieKeshet נשבעת לכם אני חיה כ ל  כך הרבה שנים בארץ הזאת ומעודי לא ראיתי  מסירות נפש אזרחית  כמו זו של המפגינים זמן רב כל כך מעתה… מזהים אחד האנשים שמכים ומאיימים על המפגינים בירושלים  חבורת צעירים מכה רכבים ונהגים ומנסה לפגוע גם בorlybarlev   מתוך הפייסבוק שלה עכשיו סרט אימה  AlonLeeGreen אז לא להפגין לתת לביבי שקט sheffipaz יש לי הפתעה עבורך את לא מרכז העולם ולא כל מה שקורה קשור אלייך ולסטוקינג שאת עושה לאנשים שגרים כאן לעלות הערב לבלפור זה חוקי וזאת חובה נתראה שם mossiraz בפאריז נאסרו התקהלויות של מעל 10 אנשים הפגנות מותר שמאלנים אנרכיסטים noarothman AOC Unlike AOC Rabin wasn’t afraid from few tweets and criticism driven by hate He was brave enough…  noarothman After all it was my late grandfather Itzhak Rabin who said You make peace with your  enemies not with your friends Due… einatd1 תודה על הניתוח הפסיכולוגי ועכשיו אין תחלואה מטורפת במגזר החרדי אישרו או לא אישרו לפתוח בתי כנסת בכיפור…  faniaoz ReadingIl AOC alexbkane  כשלא מטפלים בבעיה האמיתית במגזר החרדי פותחים בתי כנסת ומכניסים את שאר המדינה לכלא זאת התוצאה  antoineeliaroni אז למה אומרים בכל מקום ״החרדים והערבים״ אם זה בתכלס החרדים  yosefyisrael25 אני מספיק זקן לזכור כמה לחץ מיקי זוהר הפעיל כדי שמדגרות ההדבקה האמיתיות המכונות גני אירועים אלה שחצי מהמשפחה שלו מפעי… לראות ולא להאמין  SamarDJarrah JacobMagid jaketapper AOC TimesofIsrael PeaceNowUS I wish you will do 000001 of what Rabin has…  SchibyAmir זה כנראה בלתי נמנע כאשר כל מוצ״ש החבר׳ה האלה נסעו להפגין בבלפור  OferShelah TheBlackFlags1 המחאה שעובדת היא המחאה בבלפור שלצערי עזרת לכבות מחאה זה לא הפנינג או שיעור בצופים מחא…  זה הסיפור על זה הסגר הברית דרעי נתניהו חנינות תמורת הקלות  במקום שהם יהיו בכלא כל המדינה בכלא  צריך להתמודד עם המציאות אובדן השליטה בקורונה נובע בעיקר מחוסר הרצון של הממשלה להשתלט על הנגיף במגזר החרדי ביבי שת…  AOC alexbkane Rabin is a symbol of bravery and courageous to make peace with your enemies He was the first Israe…  eranetzion LiSteinitz לצערי לא מותר לא להסכים שיירות מחאה בכבישים הריקים איננה מחאה אפקטיבית ההחלטה לא להגיע לבלפור היא טעות ההפגנות הן הכלי הצ…  BarakRavid לפי המכתב הזה חייבים לסגור את בתי הכנסת ביום כיפור  Yossihaoved עוד לא עבר שום חוק מי שמאשר תפילות בחללים סגורים שלא ידבר איתי על סיכון בריאותי בהפגנות  משרד הבריאות הנפשית של ביבי ומשפחתו  האובססיה של ביבי לעצור את ההפגנות רק מעידה על חשיבותן פיקוח נפש לקיימן והנה האמת יוצאת  החוק הבלאגן ההמולה  הכל עבור הבוס ורעייתו שההפגנות וחופש הביטוי מוציאות אותם מדעתם לא לוותר  Yossihaoved הקמנו מדינה שתהיה בה גם את זכות ההפגנה זה חלק מהרצון להיות עם חופשי בארצנו כן sheffipaz תודה על הייעוץ האסטרטגי אז אחרי כל ההקלות של הרגע האחרון מסתבר שהסגר הזה שונה מקודמו רק בשני נושאים  מעכשיו ההגעה להפגנות אסורה  ביום כיפ…  qSS9awt7YJBS3sa בדיעבד אפשר להבין למה במשא ומתן הקואלציוני ביבי לחץ שטרופר יהיה שר המשפטים  natitucker סדרתיים  gontarzn eranetzion איבד את הדרך נשמע כמו כיפה אדומה שהלכה לאיבוד ביער ממש רחמנות האיש יודע בדיוק מה הוא עושה…  פתיחת שנת הלימודים וחזרתם של 24 מיליון תלמידים היא אחת הסיבות המרכזיות לקטסטרופה אין מה להשוות ל 20000 מפגינים…  talialin כל דבר מוקצן כאן הכל שואו eitanzeliger מעולה אתה גם מעריץ את השנאה הקללות הגידופים הטחת האשמות וההסתה נגד מבקריו זה מה שעושה לכם את זה…  בקצב הזה יאיר נתניהו ייאלץ להגיד שאבא אומר את דעתו ואין לו שליטה עליו למה הימין אוהב את ביבי על הסיפוח הוא ויתר מעולם לא נשבע אמונים להתנחלויות מנהל את המדינה גרוע בגד בחרדים בגד ב…  שקרן כרוני בארה״ב היו הפגנות של מאות אלפים בכל רחבי היבשת ואין נתונים על הדבקות השנאה היוקדת שלו הרוע הכל יוצא…  הביקורת על נתניהו והממשלה כל כך חדה ונוקבת אבל מי שאמורים היו לומר אותה חיוורים וחלשים arielikobi נגד ראש ממשלה עם כתב אישום שכל ההחלטות שהוא מקבל מונעות מהאינטרס האישי היממה האחרונה היא דוגמא לתהומות אליהם עוד אפשר להגיע UriMisgav אז בזמן שהתייפייפתם והתווכחתם על השעייה מרצון של ההפגנות כאקט של סולידריות אמפתיה פופולאריות גיוס קהלים חדשים דפקו לכם סג… yoavgallant אתה אשם במה שקורה ההחלטה חסרת האחריות שלך לפתוח את שנת הלימודים החלטה מופקרת שאין לה שום דוגמא בעולם…  SaraHaetzniCohe ״מקומו בליכוד״ זאת קללה ועדת החקירה שתקום תכתיר את גלנט לאחד האשמים המרכזיים במותם של מאות והרס הכלכלה על הנחישות חסרת האחריות שלו לפתוח א…  ובסוף הפגנות בשטח פתוח אסור ותפילות בחללים סגורים מותר  זה לא גשם  Shiritc חופש הביטוי זאת לא אובססיה חושד בzoharm7  שלמרות שהוא לא יאמר זאת בפומבי הוא רוצה 7000 נדבקים ביום כדי שיהיה תירוץ להפסיק את ההפגנות חילי טרופר תמיד היה סוס טרויאני במפלגות שמאל משת״פ של ביבי יש לו מניות רבות לתהום שאליה הולכת המדינה מקומו בליכוד MeiryAdi כל מי שכותב שצריך לעצור או להגביל את ההפגנות  לא מבין במה מדובר ימין או שמאל מהלך כזה הוא פגיעה חמורה בזכות יסוד מרכזית בד… AdiMaimon שיתפלל בבית גם המוסלמים לא עולים למכה RavivDrucker לאסור על הפגנות כשהמשק ממשיך לעבוד הוא החליט על סגירת משק שלא הייתה פה אי פעם כולל פסי ייצור שעובדים 247 מעניין מה קר… RavivDrucker בשלישי בלילה נתניהו שלח את אנשי המקצוע לעבוד על מתווה הפגנות עבדו לתוך הלילה 4 מטר מרובע לכל מפגין המשטרה נציגי היועה… zoharm7 אתה צודק הפגנות וחופש הביטוי הן לא חלק מהאג׳נדה שלכם האשמת היום את המפגינים בבגידה מובארכ ילד לידכם בפיזור הפגנות היעד הבא ביטול המשפט NitzanHorowitz 1 נתניהו הולך להחרבת המשק רק כדי לחסל את ההפגנות נגדו 2 מי שהתנדב להקפיא הפגנות נפל בתרבות השקר של בלפור הפגנותקור… emmanuelrosen2 40 מיליארד שקל מאות אלפי מובטלים מדינה משותקת  רק כדי שיחזור השקט לכיכר פאריז זה מטורף כמוכמוכמו לקחת את הכבי… nadavabeksis לא חיסון ולא חסינות BenCaspit שלום תמורת כביסה אתם רוצים שנאמין לכם ביום הכי עמוס בשנה ביום כיפור בתי הכנסת חללים סגורים שבהם הוכח שיש הדבקות יישארו פתוחים…  את הקטע הזה כל ישראלי חייב לראות RavivDrucker  ofiryonatan היי gantzbe תראה אני לא יודע איך לספר לך ששוב עושים ממך צחוק מעטים המפגינים שגרים קילומטר מבלפור כלומר את ההפגנות ש… Shiritc אנטישמיות תמיד לימדו אותי שהדת היהודית מאמינה בצניעות דרך ארץ קודמת לתורה שלא לדבר על פיקוח נפש אבל הי…  סוגרים מדינה שלמה אוסרים הפגנות אבל בתי הכנסת נשארים פתוחים הבנתם את זה ראש ממשלה שמכניס מדינה שלמה לכלא כדי שה…  nadavabeksis תמסור לו רק בריאות מכל הלב אבל חוץ מהפגנות יש עוד משימות ואירועים שהוא לקח בהם חלק אני טועה AyeletShaked למה להיתמם זאת הוראה שמנטרלת הפגנות אליהן צריל לנסוע ומאפשרת תפילות אליהן לא נוסעים בחג או בשבת אמת לציבור YinonMagal תיקון קל נתניהו משתמש בבתי הכנסת כדי לסגור את ההפגנות תראה את מספרי החולים במגזר החרדי עם עובדות אי אפשר להתווכח אחכ הם יאשימו את גמזו בהפצת אנטישמיות  תמשיכו להתנדב לסגור עבורו את ההפגנות  יש כאן כל כך הרבה אצילי נפש שמוכנים לוותר על התפילות תמורת הפסקת ההפגנות אבל האם יש כאן אחד שמוכן לוותר על התפילות…  HauserTov גורם בכיר בכחול לבן ״היחיד שרוצה סגר מוחלט מוחלט זה נתניהו אף אחד מגורמי המקצוע לא רוצה בזה כל המטרה שלו זה למנוע הפגנות… filbers זאת או אובססיה או בורות או סתם תת רמה פתיחת מערכת החינוך פתיחת נתבג היעדר אכיפה מגזר חרדי שמתנהל כאוטו…  תרגום לא הקורונה מעניינת את ביבי רק ההפגנות  GadiTaub1 AnshelPfeffer עובדתית אתה טועה ומדבר על דוגמאות קיצון ספורות של כמה נערות שסרבו להזדהות ככלל הימין ביש…  elikmargalit זה הזמן להדק את החגורה לא להיפך יצא המרצע מהקבינט הקורונה הפגנות ותפילות מותרות במרחק 1000 מטר מהבית כלומר בפועל תפילות מותר הפגנות אסור תמשיכו…  זה נקרא סגר נושם תפקידו להרתיע ולמנוע מאנשים לרצות לצאת מהבית תשאלי את הפלסטינים הם יסבירו לך  AyeletShaked זה נקרא סגר נושם תפקידו להרתיע ולמנוע מאנשים לרצות לצאת מהבית תשאלי את הפלסטינים הם יסבירו לך YuvalYoaz אפשר אולי להתחיל לשרטט ככה בזהירות שיטת פעולה של נתניהו מזהה מוקד כוח שעלול לסכן אותו  ומרכז את כל המאמצים כדי למוססו… yanircozin מניות חברות הפקסים בנסיקה קו ישיר מחבר בין האשמים באסון בנחל צפית לבין שר החינוך גלנט חטא היוהרה עיוורון למציאות תחושת ה״סמוך״ ו“יהיה בס…  IshayShnerb רק חברה קדישא עוד דורשים להגיע פיזית את משחקי נבחרת ישראל בכדורגל אין להם אומץ לעצור חזקים על ילדים  BiniAshcknasy ההתעקשות היא לא של המפגינים על קיום ההפגנות ההתעקשות היא של הימין והליכוד לדכאן וכשייעצרו ההפגנות הן לא יוכלו להתחדש zehavagalon עמדה מדוייקת ונכונה NitzanHorowitz לעצור את ההפגנות זו העמדה המועדפת על בלפור ומי שקורא להשתקת המחאה משחק ישירות לידיו ש… hodayakh זאת אינה דת אלא מאבק יום יומי על מצבה ודמותה של המדינה filbers RonenRt עוגיית מזל zionnenko ההפגנות החשובות ביותר בהיסטוריה של ישראל התרחשו בעת מלחמה השעייה לא תהיה זמנית אלא לחודשים רבים עד שי…  JoshBreiner תפילה איננה הפגנה אלא מעשה של פולחן דתי ניתן לעשותה ביחידים ומטרותיה שונות הפגנה היא ליבה הפועם של ה…  talibo8 קמפיין ברמת אמינות 0 Israelcohen911 אם ימנעו מעשרות אלפי ישראלים את הזכות להתחתן  תהיה כאן מלחמת אזרחים אם ימנעו ממיליוני ישראלים לנוע…  YanivTurgi כי פולחן דתי אפשר לעשות גם ביחידים ראה מכה הפגנה ומחאה לא DavidLinguini אולי בגלויות barak1cohen ההפגנות לא ייעצרו לשבוע שבועיים אלא לחודשים ארוכים הציבור ייכלא בביתו וכשהמשטרה יכולה   היא יודעת לד…  noamfathi הכל חשוב לכולם אבל עובדתית תפילה אפשר לעשות גם לבד הפגנה לא עובדה yaronavraham זמן רב הוא לא התבטא בנושא ההפגנות עוד שקר לאוסף תסריט  מחר נתניהו מחליט לסגור את בתי המשפט ולדחות את משפטו  אסור להפגין פיטורי היועמ״ש  אסור להפגין ועדת חקירה ל…  arielikobi הסיפור של הקורונה הוא חד משמעי חד משמעי כמעט כמו הסיפור של כישלון הממשלה והעומד בראשה ביקורת מטרתה לת… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אין סמל גדול יותר למחדל של ביבי מזה מצד אחד הוא ״מנחה״ להגיע ליכולת טיפול ב1500 חולים ומצד שני האוצר מתעכב בכיסו…  החלטה מעולה של מנהיגי המחאה  זו הדרך לפרק את שקריו של הכושל והמושחת כי המחאה תימשך והמחאה תנצח  עם שיירת הדגלים השחורים בקרית אונו  המחאה תימשך ברחבי הארץ והמחאה תנצח TheBlackFlags1  שיהיה ברור שום דבר מהטרלול שמתרחש עכשיו בכנסת לא קשור לסגר שיתחיל היום ב1400  הכל סובב סביב אובססיית ההפגנות של…  אל מול המחדל זה מה שנעשה  אלה אחוזי העלייה במספר החולים משלשום לאתמול ביתר עילית 170 מודיעין עילית 141 אלעד108 ים99 בני ברק 68 בי…  NitzanHorowitz ניצן אין עוררין על זכות המחאה אפילו החובה למחות בטח מול המושחת והכושל מבלפור אבל במצב הנוכחי הפ…  אין דבר צודק יותר מהמחאה נגד ראש ממשלה מושחת וכושל ואין דבר מוצדק יותר מעצירת ההפגנות ההמוניות נגדו ברגע הקריטי הז…  שוב זה קורה  לביבי אין בעיה לסכן את ביטחון ישראל ולשקר בעניין  פעם בצוללות פעם במטוסים  באוויר ובים ביבי שקרן  חוסר האמון המוצדק של הציבור בממשלת המחדל מביא אותנו לסף אנרכיה ומי שישלם את המחיר נהיה אנחנו מוצדק לכעוס אסור שה…  KElharrar בוועדת ביקורת המדינה הבוקר בדיון חשוב מאוד על קריסת ביה״ח ביקשתי לברר אחת ולתמיד  ונוכח הדיווחים הסותרים בתקשורת  מה מצב… אוי למי שמתקרא רב ותומך בגיוס כספים עבור אדם שהורשע בכך ששרף למוות משפחה שלמה  ואוי למדינה שמשלמת משכורת לאנשים…  הצימרים הם עורק חיים של הפריפריה ושל המגזר הכפרי  צריך לאפשר למשפחות לשכור צימר לכל החג ובוודאי לכל תקופת ההגבלות…  אני משבח את חברי מנהיגי מחאת הדגלים השחורים על החלטתם להשעות את ההפגנות בבלפור בתקופת הסגר אסור שהאשמות השווא נג…  NadavEyalDesk רפי מירון ראש אגף טכנולוגיה במלל בועדה לביקורת המדינה בראשות חכ עופר שלח  מתחילת חודש ספטמבר מתברר כי שיעור המאומתים… כל העשן שביבי מפזר לא יעזור בדבר ישראל במצב מהגרועים בעולם אבל אצלו הכל ורוד והאחרים אשמים  ככה לא קונים חזרה את…  לינק לתכנית המלאה  השבוע שלפנינו יהיה אחד הקריטיים ביותר בתולדות ישראל  ההחלטות שיתקבלו במהלכו יקבעו אם פנינו לקטסטרופה בריאותית וכלכ…  שקע בית האלונקה הישן מתעורר עם האנרגיה העצומה של אלפי הצועדים בדרך לבלפור הם באו לכאן כדי לשאת את האלונקה של הדרי…  אני מברך על הצהרת יאיר לפיד על בחירות פתוחות ליור התנועה ב 2021  מקווה שתאריך ופרומט ייקבעו בהקדם  שבת שלום זה מה שחייבים לעשות השבוע  1 לשנות את ההחלטה שסוגרת את כלל המשק משרדים וחנויות יעבדו בתפוסה חלקית 2 לפצות בתשלו…  לשום סגר אין משמעות בלי תכנית מקיפה ומיידית לחיזוק מערכת הבריאות הוספת מיטות חיזוק הצוותים וניהול מרכזי של חלוקת…  ישראל של נתניהו הפכה רשמית לשטח הפקר  אנחנו בדרך לסגר הרסני שהציבור לא מבין אותו ועלול לסרב לציית לו  וביבי עסו…  העיסוק המתמיד בסגר הוא הסחת דעת מהמחדל הגדול ביותר של ממשלת ביבי התועלת היחידה בסגר היא ניצול הזמן לחיזוק מערכת הב…  אנשים חזקים לא מפחדים בחירות לראשות יש עתיד  המתווה שלי זה פשוט אבל מהפכני הבחירות הפתוחות הראשונות בישראל לבחירת מועמד כראוי למפלגה…  בימים האחרונים הצגתי ליאיר לפיד את הצורך הדחוף בחידוש פניה של יש עתיד עוד לפני הבחירות הבאות  זה חייב להתחיל מבחי…  הדרמה של ההתפטרויות בצמרת האוצר הולכת ומסתבכת  אם ישראל כץ לא יספק הסבר מלא ומספק כל אדם ראוי יסרב להיות ראש אגף…  פעם קראו לזה ״עיסקת חבילה״ הסכם בין הממשלה ההסתדרות והמעסיקים על חבילת צעדים דרושים למשק זה מה שעשו ב85 ב2009…  שאול מרידור אינו יכול עוד הפקיד המקצועי מאס בשיקולים הזרים בהתקפות הפרועות והמכוונות מלמעלה באופן שבו ביבי וכץ מ…  ישראל כץ צודקהמגזר הציבורישכמעט ולא נפגע בקורונהצריך לתרום את חלקוגם בשכר וגם בפנסיות של בעלי השכר הגבוה כץ טו…  שביתת המעבדות הקרובה היא פגיעה אמיתית במאבק בקורונה באשמת ממשלת המחדל  ביבי הכריז על 11 מיליארד למערכת הבריאות למ…  שידרתי מאות משחקי nba ראיתי מקרוב את הגדולים מכולם מעולם לא ראיתי מחזה מרשים ומרגש כמו שחקני מילווקי יורדים מהמגר…  הסיפור הוא לא אומן  כצפוי גמזו נתקע בקיר של לחצים פוליטיים ריבי סמכויות ואפס ניהול שמאפיין את  ממשלת ביבי  זה י…  אבי ניסנקורן נקי ועושה את עבודתו נאמנה  הוא בסך הכל הקורבן התורן במלחמתו של ביבי להרוס את מוסדות אכיפת החוק  זה מ…  100 אלף נדבקים בקורונה סגר בדרך  ובינתיים ב״קבינט הקורונה״ הדיון מתפוצץ כי אין הסכמה על כלום  הממשלה הזאת לא רק…  אז ככה ביבי שלח את ראש המל״ל למפקד חיל האוויר למין שיחה כללית על עמדתנו ביחס למכירת f35 למדינות באיזור בלי לספר…  זה דפוס התנהגות אצל נתניהו  הופתעתם שנתניהו הסכים למכירת F35 לאמירויות בלי דיון ובלי לספר ל״שותפיו״ הרי ככה הוא מנהל כל דבר בשליפות בזיגזגי…  יש לראות במעונות כתשתית להפעלת המשק  אם שואלים אותי האם לשים את הכסף על כביש נוסף או חינוך לגיל הרך התשובה היא חד…  צריך לברך פעמיים על קידום היחסים עם איחוד האמירויות ועל עצירת רעיון העוועים של הסיפוח החד צדדי  המסגרת האיזורית ה…  מיליון ומאתיים אלף אזרחים הצביעו בעד החוק שימנע מנאשם בפלילים לכהן כראש ממשלה היום נעלה אותו בכנסת וכל ח״כ יבחן על…  בני ברח  בחוץ משבר חסר תקדים אבל ממשלת ביביגנץ לא מסוגלת אפילו להתכנס לישיבה  מה כן יאשרו בטלפון משקיפים לקבינט הקורונה…  מה שאירע בלבנון שלשום היה טרגדיה אנושית קשה מי שלא מזדהה עם טרגדיה משהו פגום אצלו דגל לבנון על עירית ת״א זו מחווה…  ביבי אומר שרה״מ צריך השכלה  פורמלית לי כמו לנתניהו יש תואר שני מאוניברסיטה אמריקאית  לא פורמלית והרבה יותר חשו…  ובשתי מילים התחרפנתם לגמרי    5 חודשים בתוך משבר הקורונהמערכת הבריאות עדיין מתפקדת בחסרשמאיים להידרדר לקריסה בחורף הקרוב כבר עכשיו מנהלי ביה״ח…  כמו שהזהרתי לא פעם ההחלטות הלא הגיוניות וחשודות פוליטית של הממשלה מובילות לאנרכיה ומרי אזרחי  בעלי עסקים שנסגרו ב…  הוא ילך כי את הכוח הזה אי אפשר לעצור אבל בזה זה רק יתחיל  זה לא ייגמר עד שתהיה פה מנהיגות אחרת דרך אחרת חוזה א…  בדרך לבלפור  dasides חכ עפר שלח לגומרים הולכים העדויות החדשות בפרשת הצוללות מדגישות את הבעיה דרושות חקירות פליליות כדי לחשוף את חוסר האחריות… תבואו לבלפור ותראו  מכאן הכל כל כך ברור והסוף כל כך ידוע האיש שכשל האיש שמשקר האיש שמסית  ילך הביתה  העובדה שנתניהו מצטט חשבון פייסבוק מזוייף כהוכחה שמאיימים עליו לא מפתיעה האיש הכי מוגן בישראל מתבכיין ומשקר כדי להצ…  הגדלת מספר הבדיקות סמכויות לרשויות המקומיות מערך קטיעת הדבקה והסברה בהירה והגיונית הכל מופיע בדו״ח שהניחה ועדת ה…  המסקנה הברורה מכשלון מאמצי הרכש לצרכי המאבק בקורונה היתה שחייבים להסתמך על יצור כחול לבן זה מציל מקומות עבודה ומבט…  BenCaspit חכ עפר שלח בגשר כפר מעש לקח לי זמן יעלון ברביבאי עכשיו שלח אבל הבנתי יש עתידתלם נכנסת לתוך הדגלים השחורים  טוב עשה גבי ברבש שוויתר על מה שהוצע לו  עלה התאנה לכשלונו של נתניהו  כל עוד אין מנהלת אין מה למנות פרוייקטור וכל…  הפחדן הקטן צריך ללכת הביתה  גבי ברבש הוא מנהל רפואי מצויין אבל משבר הקורונה הוא משבר רב תחומי ולא רפואי בלבד  מי שממנה ״פרוייקטור״ בלי מנהלת…  נתניהו מתעקש על איכוני השב״כ רק בשביל כיסוי תחת  שר האוצר הישעה את הסיוע לעמותות כדי לעצור העברות לעמותות שמסייעות למהגרים  בכך ישראל כץ פוגע בניצולי שואה נוער ב…  קודם מטילים על הציבור גזירה שאי אפשר לעמוד בה אח״כ מזגזגים תחת לחץ ביבי ובני מציגים ככה לא מנהלים מדינה זה קורה בשעות האחרונות חיברתי יחד חברות היי טק מובילות קרנות השקעה וגופים גדולים אחרים עם ארגוני המסעדנים עובדי…  22 מי שלא הפסיד הכנסה בשל המשבר יעביר את מענק השווא של ביבי לאלה שנפגעו באמת ניצור קשר של ארגון מול ארגון קהילה…  12 אומרים לא לטירוף וכן לסולידריות תורמים את המענק  ה״צ׳ק לכל אזרח״ של ביבי הוא מעשה של איבוד עשתונות הגיע הזמן…  זו הממשלה הראשונה שבה רבים על קרדיט לכשלון  צה״ל לא ינצח את הקורונה כמו שגנץ טוען בפופוליזם זול ביבי מסרב להקים א…  לא רמטכל קורונה צריךאלא מטכל חדר שבו נוכחים הגורמים ומקבלי החלטות תוך הפעלת המערכות הקיימותצריך תכנית כלכלית שתח…  כשאין מלך בישראל האבסורד חוגג לכל ח״כ בקואליציה תכנית כלכלית משלו כחול לבן מכינים עאלקתקציב לשנתיים כשביבי כבר…  הפרסום של NadavEyalDesk לפיו נתניהו התנגד למינוי ״צאר קורונה״ הוא תמצית הסיפור כולו  ביבי רצה לנהל לבד התוצאה הי…  סיגל סדצקי לא אשמה היא עשתה כמיטב יכולתה אשם מי שבמקום להטיל למערכה את כל יכולות המדינה שם בחזית כמה פקידים מהיו…  newsisrael13 מגפת הקורונה  OferShelah היה צריך להשקיע את כל המאמצים ביצירת מערכת שתדע לקטוע את שרשרת ההדבקה נתניהו מהרגע הראשון ה… הנה ביבי מצא אשם חדש במצב הכנסת שמתעקשת משום מה לדון בתקנות של הממשלה במקום להיות חותמת גומי  לא ביבי זה לא ה…  סיכום נאום הקורונה של נתניהו הציבור אשם הכנסת אשמה המשפטנים אשמים האמת חמישה חודשים לא עשית דבר המערכת לא השת…  צר לי על לכתו בטרם עת של יהודה נוריאל כותב מחונן דעתן ואיש שבורך בתכונה העיתונאית הנדירה מכולן  קול משלו  יהי זכרו ברוך מנכ״ל משרד הבריאות החדש מעיד בעצמו 5 חודשים בתוך משבר הקורונה אף אחד לא באמת מנהל אותו  בדיוק כפי שאמרה ועדת הקו…  22 איך קנינו כלי שיט יקרים דווקא בטיסנקרופ כדי להגן על אסדת גז שבסוף הוצבה 10 קמ מהחוף בדיוק בשביל זה יש מבקר…  12 הקואליציה במצוות נתניהו מנעה מוועדת ביקורת המדינה לחייב את המבקר לחקור את ההחלטות בפרשת הצוללות  לא מפתיע כ…  מחר נקיים בוועדת ביקורת המדינה דיון בהחלטות שהובילו לרכישת כלי השיט מחברת טיסנקרופלא רק חשד לשחיתות יש כאןאלא גם…  לא היה לי שום קשר לחקירת העובדים בערוץ הכנסת וכמובן גם לא לפיטוריהם עליהם קראתי בתקשורת  אבל מכיוון ששמי שורבב לע…  שבוע ליום הע׳ של הסיפוח שר הביטחון לא ראה מפה לא דרש דיון להחלטה בקבינט לא הציג את עמדת צה״ל והשב״כ שמתנגדים בתו…  22 אחרי חמישה חודשים ברור שמשבר הקורונה מנוהל בעיוורון מכוון בלי להשקיע בתמונת מודיעין שתשפר את ההחלטות לביבי הר…  12 הדיווח ברשת ב לפיו תוקפן של 250 אלף ערכות לבדיקה סרולוגית עומד לפקוע בעוד ויכוחים בין משרד הבריאות לקופות החו…  אושרה בקריאה ראשונה הצעת החוק שלי שמשחררת חלק מכספי הפיקדון לחיילים משוחררים למי שנזקק לו בעקבות הקורונה זה הכסף…  22 ביבי מספק לנו הצגות תקשורת הפחדות שווא וסיפורי בדים על מצבנו המופלא גופים בטחוניים מגוייסים  לעבודה שהמערכת ה…  12 הפיאסקו של הדו״ח המזהיר מאלף חולים ביום שלא ברור מי חתום עליו ועל מה הוא מסתמך לא מפתיע את מי שמכיר את העובדו…  הקואליציה שמדברת כל היום על העצמאים הפילה הצעת חוק שלי על השוואת זכויותיהם לשכירים בדרך של הנפקת תלוש  הצעה פשוט…  זה פשע שלטוני אנחנו בנקודה ייחודית לפתור את הבעיה והשפעתה על תקציב המדינה והביטחון  ביבי מבטיח שתוכלו לחזור ולטוס ב18 אבל רק ליוון וקפריסין ורק ״אם המספרים יאפשרו״ יש 25 מונשמים ומנגד ענף התיירו…  אשכנזי ״טעינו שלא התבטאנו יותר בעניין הסיפוח״  לא גבי טעיתם כשמכרתם הכל מהסיפוח ועד לעקרונות וזחלתם לממשלת נתנ…  החוק המגונה הזה הוא מחיר הריצפה שקיבלה כחול לבן עבור כניעתה המוחלטת לנתניהו  אולי עכשיו כשסידר לכמה עריקים ג׳וב…  ה׳חוק הנורווגי׳ הוא ׳חוק החזיר׳ שחוטף ובולע מה שלא מגיע לו  חוק החזיר נועד לכך שכל ישבן במפלגת כחול ישבן יוכל להת…  חידה כמה פעמים אפשר לקפל בני גנץ אחד עוד שנה וחצי ביבי יביא לכם את התשובה MaarivOnline ועדת שרים לחקיקה דחתה את הצעת החוק של ח״כ עפר שלח יש עתידתל״ם שנועדה להעניק זכויות סוציאליות לעצמאיים ״זו ממשלה שמנות… שותפי בעבר וחברי לתמיד רביב דרוקר עיתונאי משכמו ומעלה לא צריך הגנה או המלצה ממני  הבעיה היא לא שלומו של רביב אל…  בני גנץ המפא״יניק האחרון הפך להיות סוכן המכירות של הסיפוח אצל מועצת יש״ע  לקח לכל מתנגדי הסיפוח שתלו בו תקוות מ…  נעים ללמוד שרוהמ פוחד ממךגם אם זה נתניהו שפחדיו אומנותו פחות נעים אבל לא מפתיע לגלות שוב כמה רופסים בני גנץ וחבורת…  אין לי עניין בקרבות בין יועצים אסטרטגיים והדברים האפלים שהתרחשו בסביבת בני גנץ מוכרים לי רק מהתקשורת דבר אחד אני…  אחד על אחד עם עומרי כספי  לינק לפודקאסט המלא   22 אבל מה אתם יודעים ביבי דיבר עם איזה מומחה מהרווארד ופיזר נתונים חסרי בסיס על מיליון חולים ו10000 מתים וככה…  12 המחקר הסרולוגי הראשון בישראל מראה בבירור  שהיה אפשר למנוע חלק גדול מהמחיר הכלכלי והחברתי האדיר של הסגר הכולל…  גנץ ואשכנזי סיפרו לכם שהם ישפיעו מבפנים וישנו את תכניות הסיפוח למרות  שכבר חתמו על צ׳ק פתוח לביבי לבצע אותן אז מ…  ״משבר חברתי וכשל מוסרי״ כותבים שופטי בג״צ על ראש ממשלה הנאשם בפלילים אבל הם לא התערבו לדבריהם כי רוב חברי הכנסת…  22 ועד שתבינו שהכל קשור  הטיפול הכושל בקורונה הממשלה המנופחת וחסרת המעש והסיפוח שביבי למרות התנגדות כל מערכת הב…  12 ביולי אם רק ביבי ירצה יהיה סיפוח הכסף שהבטיחו לכם להתאוששות מהקורונה ילך לביטחון ולטיפול בפלסטינים כשתתפורר…  לינק לנאום המלא  לפני שנה בדיוק הגיעו עשרות אלפים להפגנת הענק שלנו במוזיאון ת״א היתה תחושה של מלחמה צודקת של כוח משותף שמתאגד להגן…  למי שחי עד עכשיו באשליות אחרי מופע האימים של ביבי וחבורת סתומי הפה בבית המשפט הכל ברור אנחנו במלחמה בנימין נתניה…  מילא נתניהו כבר הבנו שהוא יחריב הכל בניסיון להינצל מאימת הדין אבל שורת המקהלה של כל נבחרי הליכוד שמצטרפים לאיומי…  לא יעזרו לכם צקצוקי הלשון והפוסטים המתחסדים שותף של ביבי הוא שותף של אמסלם ואוחנה ושל המאיימים על מנדלבליט וליאת…  36 שרים זה מביש אבל הנה משהו עוד יותר נורא חלוקת כל התפקידים לפרוסות שלא יאפשרו לאף שר באמת לעשות משהו הממשלה ה…  לקריאת הדוח המלא   בפעם הבאה שלצערנו עלולה להיות בקרוב חייבים לפעול נכון יותר כי את המחיר משלם כל אחד ואחת מאיתנו ועדת הקורונה בראשותי סיימה היום את עבודתה והניחה על השולחן מסמך המלצות מפורט לעתיד מהעבודה שלנו וממסמכים רשמיים ב…  ההסכמים של כח״ל עם הליכוד ודרך ארץ מפקידים את הסיפוח בידי נתניהו והאוזר חיסול הסיכוי להסדר עם הפלסטיניםהתמוטטות ה…  סירוס מוחלט של חוק הגיוס זכות וטו מוחלטת לחרדים בענייני דת ומדינה אישור חרדי לסיפוח וועדת חוקה ליהדות התורה שתנ…  יו״ר ההסתדרות הרפואית אמר היום בוועדת הקורונה שבתוך עשור יפרשו חצי מהרופאים בישראל לפנסיה זה נתון מרעיש ההזנחה רב…  משרד הבריאות החליט לא למנות מחליף לרוני גמזו שיהיה אחראי על בתי האבות מה איכפת לנתניהו וליצמן שבתי האבות הם מוקד…  רק רבע מהתלמידים באו היום לביה״ס  ככה זה כשלא מסבירים נותנים הנחיות מבולבלות וסותרות לא מקשיבים לראשי הערים ולא…  אם ניקח את רוח ההתנדבות והעוצמה ונהפוך אותה למערכת אזרחית מתפקדת נרוויח משהו חשוב גם מהמשבר הגדול הזה אם נמשיך ל…  אתם אנשי כחול לבן תהיו אחראים למשבר החמור ביותר בתולדות היחסים בין הכנסת לבג״צ  אנו חייבים להקים את המטה עוד לפני שובה האפשרי של הקורונה בסתיו הקרוב  יום הזיכרון יקר לי אבל לו היו אומרים שרק משפחות שכולות יגיעו לבתי העלמין תוך הקפדה על כללי הבריאות הייתי נמנע מל…  האיסור על משפחות שכולות להגיע לבית העלמין ביום הזיכרון נוצר משיקול מובן אבל מוטעה הוא נובע מכך שהמשבר הזה אינו מנ…  ברכות לחברינו הערבים בפרוס חודש הרמדאן והדרוזים לחג הנביא שועייב  זמן להתגאות בעוצמתה של אזרחות משותפת במדינה רבת…  הנה זה מתחיל הפיכת מנכ״ל משרד הבריאות לשעיר לעזאזל של מחדלי הטיפול בקורונה  שרים משתלחים בו כאילו נתניהו הוא לא ז…  חבריי בכחול לבן אני יודע איך הממשלה הזאת תיראה  כל יום אתם תקומו לממשלת בלוק שכל מטרתם זה להכשיל אתכם  הם מסתכלי…  אחד הדברים שמאפיינים את המשבר הזה זה מחסור במידע אמין לציבור ולמקבלי ההחלטות כמו שאנחנו בדיונים התקשינו לקבל נתונים…  הסיפור האמיתי על בני גבי וסיפוח ההתנחלויות  לפוסט המלא   36 שרים  16 סגני שרים  חוק נורבגי לעשרות אנשים  זו התרומה היחידה של גנץ ואשכנזי למלחמה באבטלה שליטה מוחלטת של נתניהו במינוי שופטים חקיקה ועדות הכנסת  וכמובן סיפוח מתי שירצה  אפס תפקידים לכחול לבן במה שנוגע…  אני מברך על ההחלטה להחזיר בשבוע הבא את ענפי הספורט היחידניים לפעילות דבר שיציל את השנה של ספורטאים אולימפיים רבים…  כמות העניינים על סדר היום עצומה אבל צריך להיות דגש על המגזר השלישי שאיכשהו מכל הבעיות מתעסקים בו הכי מעט עמותות ש…  בינתיים ילדים ומבוגרים עולים במשקל ויורדים בבריאות וספורטאים רואים את כל הקריירה שלהם הולכת לאיבוד משרד הספורט הכ…  בדיון היום בוועדת הקורונה בכנסת התברר שאין שום תאריך להסרת המגבלות הלא מוצדקות על פעילות ספורטיבית בטבע או להכשרת…  ספורט הוא עמוד התיכון של חברה בריאה בכל זמן ועל אחת כמה וכמה בימי מגיפה אבל הטיפול בספורט העממי והמקצועני בישראל…  ישיבת הממשלה האבסורדית הלילה היא כל מה שרע בניהול משבר הקורונה  שרים שלא מבינים את ההגיון של הצעדים  דנים כל הלילה…  ספורט חיוני לגוף ולנפש בהתמודדות עם הקורונה ובשבוע הבא נקיים על כך דיון בוועדת הקורונה בכנסת  נתניהו עסוק בחוקי החסינות שלו בזמן שהמגזר העסקי קורס בעוד שבועיים מאות אלפי צעירים שהוצאו לחלת יהפכו למובטלים ו…  מה אפשר ללמוד מאוסטריה ואפשר ליישם החל מיום ראשון הקרוב   לפוסט המלא  לפוסט המלא  הגיע הזמן להחלטות אמיצות לקחת סיכונים מחושבים בתנאים הבאים הרבה יותר בדיקות הגנה על אוכלוסיות בסיכון  והחזרה ה…  עוד שבוע עבר מספר הבדיקות רק יורד קשה לקבל נתונים מדוייקים בזמן אמת  על בדיקות מכונות הנשמה תכנון קדימה במקום…  לא נכון ולא צריך שצה״ל יקבל אחריות על ניהול משבר הקורונה רוב ההחלטות הן לא בתחומו ולא מעניינו של הצבא  אבל ככה זה…  לא הסכם קואליציוני נחתם בין סיעת דגל לבן לליכוד אלא הסכם כניעה  אני יודע מה בני גנץ חשב על הסיפוח ועל ממשלה גדולה…  מתברר שהחלטות כגון הוצאת 4400 קשישים מחוץ לעיר או הוצאת חולים למתקני בידוד שונו הדבר מדאיג שכן ההדבקה בבני ברק גב…  ההערכה לפיה צפויים בבני ברק 75 אלף נדבקים מעוררת דאגה ומחייבת פעולה מיידיתע״פ עדות קופות החולים הציבור החרדי נרתע…  ״גורמים בכחול לבן״ מאיימים לחדש את החקיקה נגד נתניהו אם לא יתקדם המו״מ איתו  כמה נלעגים אתם אם לא הייתם זוחלים לח…  בזמן שהציבור נאנק תחת סגר כלכלינכנסים לישראל מאות אנשים ממדינות סיכון אינם נבדקים ואינם מוכנסים לבידודזה סיפור מ…  יש לספק לרשויות מידע מדוייק על חולים שבתחום שיפוטן לרתום אליהן את פיקוד העורף כגוף מסייע ולהניח להן לנהל מדיניות…  ועדת הקורונה דנה היום בהתמודדותן של הרשויות המקומיות עם המשבר  התמונה הברורה היא שהרשויות המקומיות מסוגלות לתת פתר…  kannnews מגפת קורונה  יור ועדת הקורונה חכ עפר שלח הודיע בפתח כינוסה מאות סטודנטים לסיעוד שסיימו לימודיהם ייכנסו באופן מידי לסי… גנץ נכנס לממשלה כי זאת שעת חירום נכון חירום כהלכתו זה ממשלה קטנה ואג׳נדה מצומצמת לקורונה בלבד  במציאות יהיו 35…  בני מה קרה לך  OrnaBarb  newsisrael13 מגפת הקורונה  הוועדה המיוחדת להתמודדות עם נגיף הקורונה בראשות חכ OferShelah התכנסה לדיון בנושא טיפול משרד הבריאות בקשי… מכונות ההנשמה הן הדבר החשוב ביותר במאבק בקורונה ונמצא בכשל חמור ואינו מנוהל כראוי מספרן של המכונות ימנע מאיתנו את…  newsisrael13 מגפת הקורונה  יור הוועדה לענייני הקורונה חכ OferShelah כחול לבן במשבר הזה הסוגיה הכלכלית היא לפחות שווה בכובדה… זאת לא ממשלת אחדות זאת ממשלת נתניהו עם גיבוי של חוסן לישראל  לא ממשלת אחדות תקום בקרוב אלא ממשלת נתניהו עם סרח עודף של בני גנץ שפשוט קרס ברגע האמת  הטיפול הכושל בקורונה לא י…  הוועדה תמשיך בעבודתה על בסיס יומי בצד הפיקוח וההשתתפות בהתמודדות הלאומית נטפל בכמות העצומה של פניות נקודתיות המגיע…  מדיוני הפתיחה של הוועדה המיוחדת למשבר הקורונה בראשותי עולה תמונה מדאיגה האנשים המופקדים על ניהול המשבר הציגו מערכת…  ההתפטרות של יולי אדלשטיין לא פוטרת אותו ממילוי החלטת העליון לכנס את המליאה ולבחור יו״ר כנסת  זה שיא המלחמה שהכריז…  תיקון כמו התאגיד הליכוד והנגררים שלו מחרימים את הכנסת  גם את המליאה וגם את הוועדות שמתחילות סוף סוף לפעול  כי הכנסת בשביל ביבי זה…  יו״ר הכנסת לא משאיר לבגצ ברירה אלא  להחליט במקומו  כשהממשלה מבקשת לבטל את הכנסת כשאדלשטיין מתחמק מלממש את רצון הר…  KnessetT בראיון אצל moranynet בפרלמנט צהריים טוען חכ OferShelah מכחול לבן רהמ שיקר לגבי מצב העניינים  על הסכמות באסמסים אס… ככה נראה ראש ממשלה ששום דבר כבר לא איכפת לו לא הדמוקרטיה לא תפקוד הממשלה ולא הגורל שלכם  ככה נראה שלטון שצריך לה…  ביבי אומר שאם נבחר יו״ר כנסת השבוע לא תהיה אחדות  אתם מבינים הצלת המשק ופיצוי למובטלים המאבק בקורונה הכל יתבטל…  בחסות משבר לאומי בנימין נתניהו מבקש לבטל את תוצאות הבחירות לשתק את הכנסת ולהרוס את יסודות המדינה   אסור לכחול לבן…  מהבוקר יש למשטרה משימה להתעמר בנוסעי שיירת המחאה שעולים לירושלים למחות על הרס הדמוקרטיה  נותנים לאנשים דוחות על…  אין חמור ממחדל הבדיקות שהיו מאפשרות להציל חיים ולצמצם את הנזק הכלכלי חודש וחצי מזהירים ממגיפה עולמית אבל מערך הב…  הליכוד במצוות ביבי רוצה לסגור את הכנסת   לא תהיה ועדת כספים שתעביר סיוע קריטי למי שאיבד את הכנסתו לא תהיה ועדת קו…  האמירה של נתניהו אתמול לפיה הוא ניצח בבחירות כי את הרשימה המשותפת לא סופרים היא הכרזת המלחמה הרשמית שלו על מדינת…  הניצחון תלוי באחוזי הצבעה   הצבעתם תביאו את המשפחה תביאו את החברים  globesnews ברקת מול שלח המועמדים לתפקיד שר האוצר חושפים את האגנדות שלהם  שרים בקבינט אומרים שאין שום תכנית חדשה לעזה בנט טוען שכן  ככה זה כששר ביטחון הוא מינוי פוליטי והקבינט הוא פורום…  דוח רוני נומה על הנתונים המסולפים שהציג צהל בעניין גיוס החרדים הוא מקיף מעמיק ומטלטל  עיקרו אינו גיוס החרדים א…  התר״ש שפירסם הרמטכ״ל היא קריאה לציבור להבין את המצוקה בה הוא וצה״ל נמצאים מול ראש ממשלה שלא איכפת לו ביבי לא קיים…  יש בתכנית טראמפ הרבה דברים חיוביים וגם דבר אחד שיש לשלול על הסף אזרחים וישובים ישראלים לא יועברו למדינה הפלסטינית…  זהו רשמית הגענו למחוז הבושה שחשבנו שהוא בלתי אפשרי ראש ממשלה שהוא גם נאשם בשוחד  רגע השפל הזה יהיה מורשתו העיקרית של בנימין נתניהו חייבים להתקדם  בשביל ביבי תפקיד שר הביטחון זה צעצוע שאם בנט לא מתנהג יפה לוקחים לו אותו לאילו תהומות הוא עוד ידרדר את התפקידים הכי חשובים במדינה לדברים המלאים שאמרתי באירוע ׳שבתרבות׳  אני מאמין שיור הכנסת לא ינסה לעכב את הדיון בחסינותו של נתניהו ולכן לא יהיה צורך במהלך להחלפתו בכנסת הנוכחית אדלש…  אלי זהר עורך דין מהשורה הראשונה איש תרבות לעילא וחבר שאין שני לו איננו  למי שהכיר ואהב אותו כמוני לא נשאר אלא ל…  לדברים המלאים שאמרתי באירוע ׳שבתרבות׳ בצהלה    הריגתו של סולימאני היתה הגנה עצמית מוצדקת אבל איראן לא תשנה מדרכה בגלל חיסולו של אדם אחד  כדי למנוע מלחמה כדברי…  בית המשפט יפסוק כטוב בעיניו כיאות  אבל בעיני יהיה עדיף בהרבה אם לא יפסול את נתניהו להרכבת ממשלה  ראש ממשלה עם כת…  משרד החוץ האמריקני מאשר את מה שאמרנו ביבי לא עוסק לא בסיפוח הבקעה ולא בברית הגנה הוא עוסק רק בבריחה מאימת הדין ו…  newsisrael13 חכ OferShelah מהיום הראשון netanyahu כיוון אך ורק לבחירות נוספות לא היה מומ אלא משחק על זמן והאשמות עוד לא היה רה… הדיווחים על כך שצהל הטעה את הכנסת והציבור בדיווחיו על מספר החרדים שהתגייסו מטרידים מאודויש לפרסם מיידית את כל האמת…  ברית הגנה זה עניין רציני  ביבי לא  לפוסט המלא   הנה זה מתחיל נתניהו ואנשיו במאמץ אחרון להחריב את מערכת המשפט כדי להציל את ביבי  לא ניתן לזה לקרות  ולא ניתן לאיש…  במקום שאין מדיניות שום הישג מבצעי לא ישנה את המצב לנתניהו אין מדיניות בעזה כבר עשר שנים ועכשיו הפכנו את הג׳יהאד ל…  נתניהו ממשיך לשעבד כל תפקיד וכל שיקול לתעלולי החסינות שלו  הוא פוחד שבנט יברח אז עכשיו בנט יהיה שר ביטחון לשבועיים…  ביבי מאשים אותנו בגרירת ישראל לבחירות   הנה האמת  25 יום המנדט היה אצלו והוא לא עשה דבר הליכוד לא בא לדבר איתנו…  מיום ראשון ייאסר על ישראלים להיכנס לאיזור נהריים  כבר חודשים שאנשי עמק הירדן מבקשים מנתניהו להתערב בעניין אבל מה א…  שר המשפטים אוחנה מסמל את ימי הדמדומים של נתניהו   מאז שנכנס לתפקיד הוא עוסק בעיקר בהתקפות על המערכות עליהן הוא מופ…  מה עשה ביבי עם המנדט להרכבת הממשלה 4 שבועות של כלום העביר את הזמן כדי להמשיך עוד קצת להיות ראש ממשלה ופיזר סיפור…  נתניהו שקרן גם בביטחון  לקריאת הפוסט המלא   </t>
+  </si>
+  <si>
+    <t>newsisrael13 מחר בהמקור כך החלו החקירות נגד ראש הממשלה אהוד אולמרט  שהביאו להדחתו RavivDrucker  pdd18 hunyuc DanyCushmaro בסך הכל תיקון טכני  BenCaspit לפני שלושה חודשים בלי קשר לזה שאני חושב שצריך להשעות את ההפגנות ההמוניות בבלפור למשך הסגר ולהמשיך במחאה עוצמתית בדרכים צפו… asafzamir יש דברים מורכבים שדורשים יותר מ 280 תווים    IdoTamari בשלישי אחרי המהדורה השמעה ראשונה לחקירת אולמרט ע״י קורב הכספים של ״יד ושם״ המעקב לשירותים והציורים של עליזה אולמרט וגם… AvnerHofstein Orens אבנר אני אסביר לאט בפעם השלישית זו אמירה צינית לא הודאה זה כמו לומר כן בטח אני גנבתי א…  yudash amitsegal רק לגדר את המחלוקת  אראל היה בעל טור והגיש ערב חדש והכול בסדר יש לו ידע ויודע לכתוב אבל עובד…  AvnerHofstein Orens מהטקסט לא מבינים את הציניות של נתניהו שאומר עשיתי עסקה כן במובן של למה לא תלכו גם על זה…  AvnerHofstein Orens חבל על הויכוח הוא לא אומר שהייתה עסקה עם דקל וקראתי את כל עדויותיו והציוץ שלי על וייס התייח…  AvnerHofstein Orens אני לא יודע מה היה במפגש עם אנשי גלצ וייתכן שהייתה עסקה לא יודע בעדותו נתניהו לא אומר שהיי…  AvnerHofstein Orens והנה על דקל ואלי עזור מפברואר 2020  AvnerHofstein Orens הוא לא אומר שהייתה עסקה עם דקל הוא אומר שדקל ביקש ממנו שיציע לו אנשים הוא אמר את זה גם על א…  AvnerHofstein Orens לא זה לא נכון פרסמתי בעבר את ההקשר המלא של הדברים נתניהו טוען שהמליץ על וייס בלי שום קשר א…  amitsegal קלמן חילק ואתה הידהדת אז הרשיתי לעצמי בזהירות לדחוק אצבע לתוך דיאלוג הענקים הזה מקווה שלא נפגעת amitsegal ריקלין גידול פרא ברור ברדוגו  זו אפילו לשון המעטה אבל מה עם אראל סגל הוא אי פעם תיפקד כעיתונאי או…  האם נתניהו רוצה להביא את הדברים לפיצוץ שלא יעבור החוק ולא התקנות היועץ מתנגד כי אין סיבה לתקנות כשיש כנסת וגנת מתנגד מחפש אליבי משחק מאוד מוזר משחק רהמ ביד אחת נציגי הליכוד מעכבים את המעבר של החוק שלכאורה נתניהו כל כך רוצה קרעי מעלה הסתייגו…   ההקלטות של המשפט שהדיח ראש ממשלה עדת מפתח אחת מתפרקת על הדוכן עד מפתח שני  אורי מסר   מספר על החקירות שאיימו לה…  tamarishshalom שיחת התסכול של גמזו דברים חריפים שאמר פרוייקטור הקורונה בשיחות סגורות על רה״מ נתניהו RavivDrucker פירסם הערב בnewsi… לאסור על הפגנות כשהמשק ממשיך לעבוד הוא החליט על סגירת משק שלא הייתה פה אי פעם כולל פסי ייצור שעובדים 247 מעניין…  בשלישי בלילה נתניהו שלח את אנשי המקצוע לעבוד על מתווה הפגנות עבדו לתוך הלילה 4 מטר מרובע לכל מפגין המשטרה נציגי…  newsisrael13 אחרי ששינה את עמדתו בקבינט הקורונה כדי שניתן יהיה להגביל את ההפגנות נגדו בחקיקה ואמר כי גם אחרי הסגר המלא נצטרך למצוא מ… AnshelPfeffer Nine years after ⁦RavivDrucker⁩ first revealed that the Netanyahus use foreign trips to do their laundry at their hosts… JohnHudson New report on a unique habit of Benjamin Netanyahu gt When he travels to the US on diplomatic trips he often brings ba… tamarishshalom רביב דרוקר הערב בnewsisrael13  נתניהו דחף להגמשת הסגר אבל לאיסור על הפגנות כשהבין שאם תמשך הפעילות המשקית לא ניתן יה… yarivop את הקטע הזה כל ישראלי חייב לראות RavivDrucker  AfifAbuMuch חובתצפיה דרוקר RavivDrucker גם אחרי הסגר המלא נתניהו רוצה מתווה שיגביל הפגנות בעצם כל סיפור התחלואה 7000 חולים מאומ… אנחנו גאים לשדר החל בשבוע הבא 2 פרקים על ההליך המשפטי שהדיח את ראש הממשלה אולמרט עדי המפתח יתראיינו נשמיע לראשונה…  תביעות משפטיות להישאר רק בטריטוריות של העניין הציבורי בלי לחשוף סודות מסחריים אם היו מספיק אנשים עם מצפון בפייסב…  אחרי צפייה ב The Social Dilemma אי אפשר לא להעריך את האומץ של בכירים בחברות הכי חזקות בעולם שהיו חתומים על הצהרות…  uriblau לפני כ15 שנים חשף MeronRapoport תרומות שקיבלה עמותת אלעד מאיי הבתולה הסכומים שהגיעו לעמותת המתנחלים מאז הצטברו ליותר מ10… channel13il מלכה לייפר תוסגר לאוסטרליה כך קבע הבוקר בית המשפט  צפו בקטע מתחקיר המקור שחשף את התחזותה של לייפר ללוקה בנפשה את מעורבו… talschneider ראש הממשלה נמצא בוושינגטון לחתימה על הסכמי שלום עם מדינות ערביות היסטוריה באמת  הבן שלו שיצא איתנו בטיסה מקדם בטוויט… newsisrael13 הערב במהדורה  שי ניצן עונה לנתניהו כמה שקרים אפשר להגיד • צפו להצצה מהריאיון המלא עם baruchikra gtgt  IdoTamari למי שרוצים להיזכר מה קרה באום אל חיראן תחקיר המקור של israelrosner ו itayr2 ממאי 2017   BenCaspit רביב דרוקר מנסה לעשות סדר אצל בן כספית ואריה אלדד  אין שום קשר בין החשיפה של סגל לתיקי נתניהו  amitsegal אז פעם שעברה אמרת שכולם ידעו על תרגיל החקירה לחפץ ולא פרסמו כי זה עוזר לביבי וזו בושה שאלתי מי ידע אמ…  amitsegal אתה פשוט לא מכיר את עדות הרו וגם לא את הדרך בה התגלגל תיק 2000 ובוא נקווה שרק בגלל זה אתה עושה את הסלט…  amitsegal איזו פגישה מי אמר שנפגשו בתאריך הזה הוא לא גבה את העדות הזאת כי כבר לא היה בתיק זה ממש שטויות אגב…  amitsegal להיות חוקר בתיק 2000 לא צריך בכוח לחבר כל פרשה לנתניהו ואם היית אומר שאין שום קשר בין מה שקרה איתו לע…  amitsegal זה מאוד רלוונטי כי כל הפרסום רמז שרוטנברג היה בניגוד עניינים בתיקי נתניהו ומעולם לא הדגשת את העובדה הפ…  amitsegal ולכן אפשר להגיד המון דברים על התנהלות הפרקליטות בסיפור רוטנברג דבר אחד בטוח  זה לא מחזק בגרגר את טענ…  amitsegal אחרי שארי הרו חתם ודיבר  זו תמצית עדותו  מעניין אבל במועד בו העיד הן כבר איב…  baruchikra ביבי מסמכים סודיים מגלים שמנדלבליט אלשייך וניצן אחראים לכיבוש avishaigrinzaig iloveisraell תבדוק את עצמך למיטב הבנתיב לא היה אף פעם חלק מהתיק וצא שמע את ההקלטות בשלב הסמוי Isrolikr RevitalHovel JoshBreiner לא כתבתי אחרת רוטנברג טיפל בפרשיות שצמחו מתוך ביבי טורס שחוזקו בבדיקת מבקר ה…  RevitalHovel JoshBreiner הנה ההגדרה  לא ידע מקיום התיק או חומריו עסק בבדיקת חומרי ביבי טורס ובדיקת מבקר המדינה…  JoshBreiner אתה יודע שנחשף לחומרי תיק 2000 למיטב הבנתי לא נחשף erancherpak אוגוסט 2017 רביב דרוקר  אין עתיד לשלח ביש עתיד   newsisrael13 ממנצחת הגל הראשון למדינה אדומה כך הידרדרה ישראל במאבק בנגיף • tamarishshalom וRavivDrucker עם הכתבה המלאה gtgt  newsisrael13 מלחמת עולם ביש עתיד לפיד לא יסלח לשלח אף פעם • RavivDrucker עם הפרשנות gtgt   AfifAbuMuch היבא אבו מוך גילוי נאות אחותי אני עובדת מעבדה יש לי שני תארים במדעי רפואה 10 שנות ותק בתחום בקושי רואה את הבית וב… זה הועלו טענות וניתנו החלטות שאין להן תקדים בחיי המעשה והמשפט וכך הפך ההליך למורכב וסבוך והתארך הרבה מעבר למידה הראויה החלטת ביהמש העליון בנוגע למלכה לייפר מתייחסת להליך המטורף שהתחולל באולמה של השופטת לומפ הליך שעיכב את ההסגרה בשני…  אני כבר באמצע סופר מרתק מסתבר שיש פה עוד עם ממש לא רחוק והוא הרבה פחות מונוליטי ממה שאנחנו נוטים לחשוב קריאה מו…  YonatanKit וואו  התנתק מהמציאות זה לא חדש אבל להגיד שלא רצה להעביר את יועהמש האוצר מתפקידו אחרי שצעק לו את זה מול שורה של אנשים…  בין כל האי דיוקים של שר האוצר ישראל כץ בראיון הערב הערב אצלנו המגוחך מכולם הוא הצגת נתניהו כמי שיושב ומשקיף מהצ…  OrHeller המלצת קריאה לשבת היום בשער מעריב ראיון מצויין עם עיתונאי מצויין ואדם מצוייןaviadglickman  NeriaKraus נערה אמיצה החליטה להתייצב לראשונה מול המצלמה כדי למחות בעצמה על העונש הקל שקיבל רונן ביטי היא העריצה את הבת שלו עדי ביטי… AyeletShaked אני זוכר היטב את ההצהרות מלאות הנפיחות שלך על המהפכה שעשית מהצד היה נראה שמדובר באיזה לינקולן מעור…  AyeletShaked איך זה עולה בקנה אחד עם ההצהרות שלך על זה שחוללת מהפכה בביהמש העליון אם אחרי יותר מ 4 שנים כשרת מ…  Sharondrucker10 בהצלחה אח Sachback השתכנעתי וואלה RinoZror מסעיר ומענה מדליק ומתיש טיפה ועוד טיפה אחת ועוד אחד רגע קרובים רגע רחוקים יש משהו מן העינוי הסיני בפרויקט הזה אבל הוא ג… shimritmeir SefyHendler ובסופן יש נטייה להמשיך לזהות בחירות עם הכרעה אבל האמת היא שרוב הסיכויים שהבחירה היא בין כיכרות לבחירות וכיכרות shimritmeir יש עוד דברים חוץ מתמיכה אלקטורלית עבור מי שחושב שסיפוח זה נורא ואיום זה הישג חשוב גם אם הוא לא מנפי…  התגלית הפוליטית של רבע השנה  בני גנץ 7 ניצחונות רצופים על נתניהו   נתניהו שוב מצמץ   מי היה מאמין שגנץ יעשה בית ספר לנתניהואפילו את המעט שפשרת האוזר הציעה לנתניהו כדי לרדת מהעץגנץ לא נתן לא הקפאת מ…  BenCaspit עוד תחקיר מתברר כנסיון לפרק את מערכותיה של המדינה עוד עיתונאי חוקר אראל סגל מתגלה פעם נוספת כשופרון עלוב מתישהו… YoazHendel1 אחרי תקופת בדיקה ארוכה ושמיעת כל הצדדים ביניהם מתלוננים רבים מקרב הציבור החרדי קיבלתי החלטה להתערב בנושא החסימות השרירו… Syechimovich בקשר לAviNissenkorn חיפשתי כל השבת ומצאתי בבית את הראיה הכי נוקבת לכך שהבדיות שהומצאו עליו ועל מנדלבליט בבלפוריה ובזרו… לא מעט ניסינו לבדוק לא מצאנו תמיכה לטענות הללו זה כמובן לא אומר שלא היה כלום זה כן אומר שלהגיד שהיה תיק נגד נ…  אחרי הבחירות ליור ההסתדרות בין ניסנקורן ליחימוביץ קיבלנו את החומר שהועבר גם למשטרה לא היו שם ראיות להתנהגות לא ת…  newsisrael13 15 שנה אחרי גלעד שרון מספר על קבלת ההחלטות שהובילו להתנתקות • RavivDrucker עם החלק השני בפרויקט קללה עזה gtgt  ErelSegal t93PyIF59mjcRzA Liberwomen לחזור על אותם שקרים כי ככה זה לסגור איתך סיכום מסירים את התביעה אתה חוזר…  ErelSegal t93PyIF59mjcRzA Liberwomen ברור שגלצ והפרקליטו לא הסכימו כי הם ראו איזה שטויות אמרת ומה טיב הבדיקה ה…  ErelSegal Liberwomen הבנת הנקרא היא לא הצד החזק שלך לא אמרתי שאתה מאפיוזי  כתב חצר עלוב כן  אמרתי בהחלט שהשיטו…  ErelSegal Liberwomen ברור שאף אחד לא מבין על מה אתה מדבר ומכיוון שיש איסור משפטי מוצדק על פרסום הפרטים אז אתה יכ…  ErelSegal Liberwomen מעולם לא קראתי לך מאפיוזי שרלטן כן guypch2news amitsegal לפי ההרשעה לאולמרט נתניהו הוא ראש הממשלה היחיד בהיסטוריה שהואשם בשוחד בהיותו ראש ממשלה מכהן guypch2news amitsegal ברור אני כתבתי על מעטפות הכסף ותקופת היותו ראש ממשלה על המעטפות מטלנסקי הוא הואשם והורשע…  baruchikra לו הייתי כוחני  כמו עמית סגל הייתי דורש ממנו עכשיו התנצלות על האמירה השקרית והדיבתית על כך ש״מיימי״ לא הוצאתי מלת ביקורת על… baruchikra קשה לומר את אותו הדבר עליך וחבל כן יצאת קטן היום בקרבות הציוצים הכושלים שלך אבל קצת שליטה עצמית לא תזיק לך התבלבלת לגמרי baruchikra לעצם העניין אני מבין שאתה כועס שריטווטתי את רביב סליחה באמת מהוד קדושתך אבל הסיבה לכך היא שרביב צודק ואתה מחרטט כן רבי… baruchikra שווא אייזן באשה קסטל ועוד מאמרים ועוד יותר פשוט הייתי מראה לו ציוצים לא רחוקים בזמן  פה בפיד על מחדליו של מנדלבליט… amitsegal לא ירדת כתבת שאני אמרתי שהוא אשם עכשיו זה כולנו יודעים לצפות בחדשות ואתה אומר גליקמן אני לא מכיר…  amitsegal  מה ידעתגיד הרי אין לך מחוייבות לעיתונאים מ 13 אתה טוען שהם ידעו משהו ולא אמרו כי זה ביבי אז תגיד…  amitsegal אה אז ירדת מזה שאני אמרתי שהוא אשם ועכשיו זה הפוטג שבחרו בערוצים לשים מעניין מה שמים בכל ערוץ בעול…  amitsegal אחריו פעם אחר פעם אין לי מושג מה היה קורה לנתניהו אם לא הייתי מותח עליו ביקורת כפי שאתה מציע בדרכך…  amitsegal לא אמרתי שנתניהו אשם שקר גס אם תמצא מילה אחת שלי כזאת אני תורם רבבת שקלים לחוג נאמני הר הבית אמרתי…  amitsegal 1 ב 2017 היו המון עובדות לא שנויות במחלוקת קבלת טובות ההנאה השיחות המושחתות עם מוזס בשביל שחיתות לא…  guypch2news קראתי והוא מאוד קשה עם שומרי הסף אני לא חושב שצריך לקחת ממנו דוגמא להתנהגות מול שומרי סף עדיין קורב…  guypch2news אין בעיניך הבדל בין הנאשם אולמרט ראש ממשלה לשעבר לנאשם נתניהו שמנצח על קמפיין נגד התובעת שלו בהיותו ראש ממשלה מכהן guypch2news היי גיא אני הפרשן הבכיר ומה שכתבתי מבוסס בין השאר על שיחה עם אורי קורב ביום חמישי האחרון אולמרט…  chaimlevinson הפוך גוטה הפוך amitsegal תחקיר על נתניהו או נתחיל בקטן  תגיד עליו איזו מילת ביקורת משמעותית נחזור להקשיב להטפות המוסר הצדקניו…  amitsegal מה שאתה מצייץ זה פשוט שקר הוא לא הגיש שום תוכנית תחקירים כפריימריסט הוא שקל להיכנס הייתה תוכנית אחרו…  amitsegal כשתעשה עשירית מהתחקירים שעשיתי על אולמרט ושרון כשכיהנו על אחד מהפחות מושחתים שכיהנו כשתגיד אלפית מה…  amitsegal ואצל אולמרט היו מעטפות אבל הוא לא הורשע בשוחד אפילו לא הואשם בשוחד נתניהו זכה להיות ראש הממשלה הראשו…  amitsegal על אלשייך ושאר שומר הסף מוחל סטנדרט צדיקות פסיכי נתניהו  הוא בכלל לא מושחת וגם גידי אמר מביך amitsegal כשמדובר בנתניהו אם אין דרך העברת כסף במעטפה אז הוא לא מושחת אם ה 300 אלף דולר באים בהעברה בנקאית אז ז…  amitsegal אלשייך מאפיונר יצחקי וריטמן מושחתים בן ארי עבריינית בנייה מנדלבליט העלים ראיות שי ניצן  אני כבר לא…  amitsegal הקלטת הסתר בוצעה על ידי דני כהן איש עם עבר עשיר בהקלטות שהיה סטודנט בשערי משפט אין הוכחה שאולמרט יזם…  Syechimovich תודה על המחמאה הענקית וכן אולמרט תקף את הפרקליטות ובעיקר את לדור התובע קורב גם משוכנע שאנשי אולמרט…  amitsegal באופן ברור להרתיע אותה כשזה בא אחרי אלשייך יצחקי  ריטמן מנדלבליט שי ניצן והשופטת במשפט כבר בדרך אי…  amitsegal אתה מערבב בין דברים לא קשורים אולמרט שנא ושונא את קורב ובוודאי שהיה מעוניין שנסיבות עזיבתו את הפרקליטו…  ברמי מבהירים שליאת בןארי יכולה להשכיר את הווילה בראש העין לתשומת לב בן דרור ימיני אראל סגל ושאר השרלטנים שפתאום…   Haaretz עבודות שירות על פשע מלחמה צהל מתיר לחייליו להרוג חפים מפשע  newsisrael13 רגע לפני המסע לNBA דני אבדיה אחד על אחד עם RavivDrucker • לכתבה המלאה מתוך מהדורת השבת עם HKorach gtgt  HKorach מחר במהדורתהשבת RavivDrucker מפרק את דני אבדיה  וכשאני אומרת ״מפרק״ אני מתכוונת ״מצליח להחזיק את הכדור מספיק זמן כדי שיתפסו… dandayan אני ממש מוכן להשבע שאני זוכר יור מועצת ישע שהיה לועג ביום כזה לראש ממשלה שויתר על הזדמנות היסטורית לסיפ…  dandayan זה עיוות מפואר של מה שאמרתי נשאלתי אם פוליטית זה עוזר לו אמרתי שבימין זה לא עוזר וציינתי תגובות של ימני…  noalandau משווה ומעלה  IlanLukatch הוא באמת כתב לי המון הודעות אבל התקשיתי לקלוט אחרי השורה הראשונה מר דרוקר היקר תמיד אהבתי להקשיב לדבריך אל תיתן לעובדות לקלקל לך חרון אף מוסרי טוב avishaigrinzaig  אל תתבאס אבישי הייתי כתב נדלן לפני 25 שנה וזו הייתה מדיניות מאוד רווחת בהרבה מאוד רשויות חוק ההסדרה עוסק בזכויות…  avishaigrinzaig ההיתר אבל הדיון נדחה כבר 3 פעמים לדברי העיריה מכיוון שחבר מועצה מהליכוד דואג לדחות אותו אלמלא…  avishaigrinzaig מציע שתדבר עם עירית ראש העין שכתבה במפורש וגם תדרכה שבשכונה הזאת זו הייתה המדיניות ואחרי שפיצלת…  YaelFreidson זה בכלל לא הסיפור שם ברור ששני בני הזוג אחראים תראי מה כותבת עירית ראש העין הנורמה באותה שכונה היא…  קשה לתאר איזה עוול נעשה לליאת בן ארי בסיפור של הבית בראש העין ועבירת הבנייה שכביכול נעשתה שום עבירת בנייה ההיפך…  yaronavraham Eladingo אגב לפי הדיווח שמופיע ברשת כן דיווחת שיש לו כאבי גב אז אם ידעת ודיווחת למה הלכת עם הסיפו…  כל כך נכון רוב כלי התקשורת כנראה בגלל אימת נתניהו בוחרים בסימטריה השיקרית הזאת ולא משדרים את האמת שכל כך ברורה ל…  yaronavraham Eladingo אנשי נתניהו העבירו לך לפי מה שאתה כותב מידע שיקרי כדי להכפיש את גנץ בדקת התברר לך שהוא…  newsisrael13 השלמתי עם זה שלא אהיה זמר ארז לב ארי פותח את הלב • RavivDrucker עם החלק השני בפרויקט גיבורי התרבות שלי gtgt  newsisrael13 מאז הבחירות במארס ועד היום פגישת עבודה מקצועית אחת בין ראש הממשלה נתניהו ליועמש מנדלבליט RavivDrucker • הצטרפו למהדורה… BarakRavid WallaNews שיחקו אותה וואלה newsisrael13 הערב במהדורה RavivDrucker פוגש את ארז לב ארי ומגלה מה הסיפור מאחורי השיר האהוב עליו  צפו בקטע מגיבורי התרבות שלי  ht… הלכתי לחפור לארז לב ארי המדהים  במועד ד לא יהיו האוזר הנדל ואורלי לוי  61 לגוש אנטי ביבי והוא עף מבלפור  וזו רק אחת הסיבות שבגינה בכל זאת טוב ש…  אם נתניהו באמת יעביר את החוק של האוזר והנדל אז זה מצמוץ משמעותי שלו נגד כל הציפיות freyisrael1 מה נשמע אריה דרעי מוכר לך ariyederi  amitsegal YediotAhronot מה בדיוק הוא יעשה עם שניים מהם החוק לא מאפשר לו להקים ממשלת 61 וגם עם בנט הוא עדיין רח…  newsisrael13 בסביבת גנץ שוקלים העברת חוק נגד נתניהו אם ילך לבחירות • RavivDrucker עם הפרטים gtgt   צילום רויט… aradboaz קטע די מדהים ריקלין טוען בציוץ שנמנעה כניסתו למלון וולדורף אסטוריה דובר המלון בודק במצלמות ומגלה שקר וכזב ריקלין בתגובה… aviadglickman המשטרה חייבת לפתוח בחקירה ולמצוא את המנוולים ותתי האדם שקראו את הקריאות האלו לכיוון AvishayBenHaim מה שהבט ליברמן אמר על רכש התותח החדש של צהל אחרי שהעזתי לפקפק בתהליך ומה נאמר בדוח מבקר המדינה היום  פעם אבי ניר היה חבר ולימור סמימיאן הייתה בכלל עוזרת של גדעון סער   via shareaholic מעניין וחשוב בעיקר כי דרשוביץ טען בראיונות שהיא הזכירה בתצהירה את השם אהוד ברק ומכאן עולה שממש ממש ממש לא  itayr2 בשישי ישראל היום פירסם שרוב הישראלים מאמינים שהמחאה נגד ביבי אלימה   בשבת היו הפגנות ככ לא אלימות שאפילו המשטרה טרחה לשבח א… itayr2 המתחסדת והמטעה בלי אלימות לפני שיהיה מאוחר מדי  במאמר נכתב השאלה היא אם שוב נהיה עדים לאלימות של מפגינים או של שוטרים  כ… newsisrael13  RavivDrucker שמע את טענת רהמ לפיה התקשורת מעודדת את ההפגנות ונזכר במחאת המילואימניקים לפי חומר החקירה בתיקיו נתני… YuvalKarni YoazHendel1 ZviHauser netanyahu AyeletShaked גם אם היו רוצים אין להם דרך להצטרף לממשלת נתניהו ז…  aviadglickman משווה ומעלה בראיון המרתק של שלמה רז לגידי וייץ בהארץ הוא  מכה על חטא שעבד כדי לשכנע לא לפתוח בבדי…  shakoof את חדשות 13 ואותי מייצג עוד יונתן ברמן 5 שנים ולדיון הצטרפה כידידת ביהמש התנועה לחופש המידע בגלל עמדה מוזרה…  בשיחות אישיות ודקה לפני פרסום השיחות פרסם פוסט שמדובר בשיחות רגילות שהוא מקיים עם מול ועורך  השיחות ההן כידוע נ…  ובכן אי אפשר לרמות את כל העולם כל הזמן ביהמש העליון בדיון נוסף בהרכב של 7 שופטים זרק את עורך דינו של נתניהו עמי…  RivkiDvash מחר ב9 דיון בדנמ בהרכב של 7 שופטים על דרך הטיפול בבקשות למידע שיש בהן מידע פרטי רהמ ביקש דנ לאחר שRavivDrucker וחדשות… newsisrael13 אחד המרואיינים לתפקיד המפכ״ל למקורביו רמזו לי שאם אתנגד למחאה אקבל את המינוי • הצטרפו ל״שישי״ עם RavivDrucker gtgt  newsisrael13 מרואיין למפכלות רמזו לי שאם אתנגד למחאה  אקבל את המינוי • aviadglickman עם הפרסום הראשון מתוך שישי עם RavivDrucker… adamshinar orikol RavivDrucker newsisrael13 וגם Liberwomen תהיה וברוכי קרא עם כתבה על אוחנה שכוללת סרטון שלו שהוא ישמח למחוק baruchikra אביעד גליקמן עם כותרת שומטת לסת על הראיונות שעורך השר לבטפ אוחנה עם מועמדים למפכלות תדריכים מעניינים שיוצאים מסב…  itzikelrov בקטע בראיון שירד בעריכה הייתה לו רמיזה מעניינת הוא סיפר שעובדים על מתווה גיוס מן הסתם כזה שהחרדים אוה…  אפרופו כל מי שטען שנתניהו ישלוט בועדה לבחירת שופטים  EranSwissa אחרי שהודיעה לצופים שהיא יוצאת לחופשה רביב דרוקר יגיש באופן חד פעמי את שישי בחדשות 13 במקום אילה חסון RavivDrucker Ayal… איזה שיפוט מזעזע די כבר עם ספי שמש עבירה למונרו שלא הייתה סל מכריע על נגיעה ברשת עבירה גבולית על וילבקין מעצבן כן עוד גנרל אבל אחר  אייזנקוט   c אם בני יוותר זה יהיה לגדי גדי לא גבי גדי talyapeledk איך זה שלא כל הפיד מדבר על החשיפה של דרוקר זה מטורף המדינה מרגלת אחרי כל אזרחיה וכולנו סחיטים אתה חרדי שמפלרטט עם העולם… zionnenko ממש לא הוא פשוט מועמד אפשרי הנה דברים שכתבתי עליו לפני שהיה רמטכל שלי שום שיחת תדרוך…  Irisleal15 אכן התפעלתי מיופיו אבל זה לא היה אפילו אלא התרכזתי בכך ויש כאלו שהבינו מכך כל מיני דברים חבל להגיד…  drornissan Irisleal15 תקרא את מה שכתבתי בזמן אמת חשבתי שהוא היחיד שיכול לאתגר את נתניהו מהגלריה שהייתה קיימת אז…  Irisleal15 ממליץ לך לראות גם את כתבת הפרופיל שעשינו עליו לפני הבחירות  והנה עוד מאמר…  Irisleal15 זכרונך מטעה אותך זה אחד המאמרים שכתבתי על גנץ לפני שנכנס יש עוד כמה   newsisrael13 במשך שנים כך עקב השבכ אחרי ישראלים  עוד לפני עידן הקורונה • לפרסום הראשון של RavivDrucker gtgt  CohenRan תקדישו דקה אחת מהחיים להקשיב לרוצח של אמיל גרינצוויג דקה אחת להבין איך הסתה עובדת   רלוונטי היום יותר מתמיד  NadavEyalDesk ולבסוף מציע שתראה את הידיעה בהארץ עכשיו על מחקרי קמיל פוקס ששודרו גם אצלנו אם בעצם גודל הגושים לא ה…  NadavEyalDesk להרכב הממשלה נתניהו ניהל את זה לבד מנהל את זה לבד והיה מנהל את זה לבד גם אם גנץ לא היה נכנס העובד…  NadavEyalDesk יושבים שרים שלא רואים את תפקידם בעימות בלתי פוסק עם גופי התקשורת ארגוני זכויות אדם  הקהילה הבינלאומ…  NadavEyalDesk אני חושב שטוב מאוד שהממשלה הזאת קמה ייתכן מאוד שגנץ הקריב את גופתו הפוליטית אבל בשנה הקריטית ביותר…  RinoZror בימים הקשים של המחאה נגד בגין רצו מקורבי בגין להזיז את ההפגנות שייסרו אותו וספרו את מספר הקורבנות במלחמה…  LifeRivlin למה לא מפגינות בזום yuvalganor מירי רגב מסבירה לקלמן וליברמן שההבדל בין מהר ללאט הוא הרבה יותר קטן ממה שחושבים הבוקר כאן רשת ב KalmanLiebskind asa… שר הבריאות אדלשטיין כותב שמערכת הבריאות הורעבה במשך שנות דור ושהמערכת שהוזנחה זוכה לתשומת הלב שמגיעה לה מי הזניח…  amitsegal אני מבין שסולידריות לחבר לעבודה נראית לך הזויה כי ראיתי את תגובותיך להתקפות על אברמוביץ פיטרו אצלנו…  YinonMagal amitsegal ההתעללות הנוראית שעברת מסכן כל הדרך לתפקיד הגשה אצל רפי רשף ואחרי זה התעמרו בך כל הדרך למג…  YinonMagal amitsegal לא עוד פעם את הסיפור קורע הלב שלך על ההערה של ברזילי בחדר שידור שמנעה ממך לשדר בזמן ההתנתקות amitsegal מעניין שבארהב הפגנות פלויד לא זכו לתגובה הזאת הרוח כלפיהן הייתה שזה יותר מסמל והן באמת היו אלימות וכל…  amitsegal נישאר חלוקים אני הייתי תומך בזכות הימין להפגין נגד חלוקת ירושלים גם בזמן קורונה וצריך כמובן לחלק את ירושלים YinonMagal amitsegal נגד פינוי גוש קטיף תצטרף amitsegal ולשאלתי אם עכשיו היו רוצים לפנות יישובים גם היית בעד לאסור הפגנות avishaigrinzaig amitsegal ולשאלתי אם היו מפגינים נגד פינוי יישובים אז כן היה מוצדק לאפשר להם האנשים האלה לא מו…  amitsegal אם הקורונה הייתה קורית לפני ששרון פינה את היישובים היית תומך בכך שהימין יישאר בבית כשאהוד ברק נשא ונת…  ועדת כספים צריכה לאשר את המענק שנתניהו הבטיח יור הוועדה גפני מסויג מאוד מהמענק אם גם כחול לבן ישמרו על חוסר ההתל…  natitucker לא יודע למה הנוריונים באזור מסוים במוח שלי מתחילים להשתולל  נתניהו דורש לפטר את ראש אגף תקציבים שאול מרידור בשבועות האחרונים עיתונאים שמקורבים אליו כבר שטחו את הנרטיב מריד…  baruchikra טוב חברים חבל שהגענו לדיון המקושקש דווקא משום שההפגנה אתמול היתה כל כך מרשימה אך משהגענו זה הזמן לעובדות אז ככה אנא קר… JoshBreiner שימו לב לזה עוד גונן בן יצחק היועץ המשפטי של הדגלים השחורים תשנאו אותו תאהבו לא איכפת לי  אבל למה לעזאזל אדם שלא נע… מסתבר שבחירות כבר לא מספיק מפחיד פריימריז מוקדמים לעומת זאת דווקא כן ולא פחות מעניין הליכוד תומך באיילת שקד בועדה למינוי רבנים הודעת מיקי זוהר לחכים בועדת למינוי שופטים הליכוד תומך אך ורק באוסנת מרק וצביקה האוזר חשוב שתבינו שכל תוצאה אחרת…  BarakRavid חבל מאוד ועצוב מאוד מקווה שעוד נמצא את עצמנו באותו כלי תקשורת BarakRavid 1  מתנצל מראש אבל זה יהיה קצת יותר אישי מהרגיל  כפי שוודאי שמתם לב בימים האחרונים קצת נעלמתי  שלא כהרגלי זה לא סוד שעב… natitucker היחסים הבעייתיים בין בעלי HOT  פטריק דרהי לבין נוני מוזס מתחילים להתבהר אנחנו חושפים היום את הסכומים המטורפים שHOT הזרימ… newsisrael13 הסערה בליכוד  שאשא ביטון היא היחידה במפלגה שיכולה לעזוב מתי שתרצה  נתניהו לא רוצה לאבד אותה RavivDrucker • הצטרפו למהד… איך לא זכרת שהקלטת הייתי עסוק באיראן ולמה צמרת האוצר משתפנת   via shareaholic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מהדורת החדשות של N12News במוצאי הצום הייתה תצוגה של רדידות מביכה hodayakh   עשרים שנה לאינתיפאדה השנייה  הפסקול שצמח מתוך הכאב shmunitz   רוצים לשקם את ענף התיירות הפסיקו להנשים אותו מלאכותית  ״נחזיר את האנשים למפלגה עד הבחירות נצליח״ שר ירושלים והמורשת realrafiperets בראיון   47 שנים אחרי ״ידיעת זהב״ נוספת נחשפת ממלחמת יום כיפור הפעם מכיוון סוריה  noamamir74   המחלץ המחולץ והטנק שני הלוחמים נפגשים אחרי 47 שנים ונזכרים ברגעי האימה והגבורה במלחמת יום כיפור   שכחנו מה זה להיות אופוזיציה נטשנו את יו״ש לא עזרנו לרווקים היינו אליטיסטים לא גיבשנו תפיסת עולם כוללת הגזמנו ב…  arielschnabel חמישה ישראלים שלא יכלו לוותר  אולי הטור העצוב ביותר שכתבתי בMakorRishon   ירדן בר כוכבא מסכמת את חמישים השנים הראשונות  הוועדה שתקבע אם תחוברו למכונת הנשמה  RikiRath1   השמאל ימשיך לשסות נגד הימין האידיאולוגי גם הרבה אחרי נתניהו  orlygogo   חסרת שחר תמימה לא מעשית לוקה בעיוורון פוליטי RanBaratz לא התחבר לרעיון עסקת הטיעון עם נתניהו תמורת פרישה מהחיי…  הכינו את המצרכים המנות המושלמות לסעודה המפסקת   האזהרה שמשמיע הרופא הבכיר מחלימים מקורונה עלולים להיות פצצה מהלכת yairkraus   KoheletForum כתבה של ayeletkahana  ב MakorRishon וראיון עם דר אביעד בקשי ראש המחלקה המשפטית בפורום קהלת על חוות הדעת שחיבר עם עו… OrDemb זה נוער זה מפגיני בלפור  הגיע הזמן לפזר את המסיבה batelkol   מלחמת יום כיפור השנייה  arishavit   מי צריך לגלול את כל הפיד כשmoshemem מסכם כל כך יפה את הטוויטר של השבוע   נמאס לכם להיות הפראיירים של הבנקים וחברות הביטוח תקראו את הכתבה הזו  כך ניצחו יהודי שיקגו את הקורונה  JTAnews   יפה בן דוד מטפחת פצצה מתקתקת budarach  מחסוםווטש   הערב ב2030 yairkraus    עד אוקטובר 80 אלף ביום בנובמבר 100 אלף כך מתכוון צה״ל להשתלט על מערך בדיקות הקורונה  noamamir74   למשך שבועיים עם אופציה להארכה אלה ההחמרות של הסגר שיוחל ממחר על ישראל  hodayakh   haggaisegal בחזרה ליום הכיפורים ההוא  MakorRishon  צמד לא חמד קורונה ואנטישמיות  ADL קרול נוריאל דעה  לא נותנים לנגיף לעצור אותם הפלסטינים ממשיכים לבנות שלא כחוק בשטחי C ayeletkahana   ״מבינים שבקרוב תהיה לנו הרבה עבודה״ קברני הקורונה מדברים yairkraus   השלום ממשיך בתוכם נסיונות גישור משמעותיים בין פת״ח לחמאס בעקבות התקרבות ישראל והמפרציות assafgibor   כתב האישום כבר מוכן ממשלת ישראל ופרויקטור הקורונה  כשלתם yairkraus דעה  הנקודה השחורה של איחוד האמירויות  hodayakh   בצה״ל שוקלים סגר מלא על החיילים noamamir74   ״tadmorerez48 וחבריו אינם שונים מהפריקים של בלפור הם תמונת הראי שלהם״ מיכאל טוכפלד דעה  ״את גסטפו״ עובדי מוקדי הבריאות חוטפים אש מהציבור  rathriki   13 אלף הצעות לחיסול הקורונה אחת מהן חייבת לעבוד ד״ר ניר לונדון מכון ויצמן  טראמפ תוקף סין שולטת בארגון הבריאות העולמי  hodayakh   כפי שפרסם yehuday30 כבר בסוף השבוע    למרבה המזל נותר עיתון אחד במדינה שבו לא תיאלצו לקרוא מילים כאלה  מנוי למקור ראשון כוכבית 9248  ויש גם צד שני לפרשה הזו shlomopyuter    חוות הדעת החלופית אם לממשלה אין סמכות גם למנדלבליט אין ayeletkahana   למה בלשכת ראש עיריית טייבה תלויה מפת פלסטין assafgibor   AskAnshul As an Indian its overwhelming to be featured in an Israeli newspaper  Thank you MakorRishon ZvikaKlein  We Indians sta… AskAnshul ZvikaKlein  ZvikaKlein הם לא יהודים ולא נולדו בארץ אבל הנשים והגברים שתכירו במיזם שלפניכם שמו לעצמם מטרה אחת לעמוד לצידה של ישראל ברשתות החברתיו… כך הפך Avrigi לפרזנטור של הפרעות הקשב ZvikaKlein   ובינתיים אצל הפלסטינים  תחושות בגידה ועלבון  assafgibor   מאתרגים את הפגנות בלפור אתם מועלים בתפקידכם העיתונאי hodayakh  מחסוםווטש  הגרעין האיראני טראמפ איתנו וזה חשוב אבל לישראל יש בעיה מול האיש הזה noamamir74   רכבת לילה לדובאי assafgibor   שופטי בג״צ נגד הרב שמואל אליהו אמירות שאינן חוסות תחת חופש הביטוי  ayeletkahana   גלעד שרון בנו של ראש הממשלה לשעבר אריאל שרון ״הסטטוס קוו בהר הבית הידרדר לרעת היהודים זהו שטח ריבוני שלנו״…  האיש לא מושלם אבל הוא התקווה היחידה לניהול המשבר רוני גמזו חייב להישאר בתפקידו yairkraus   ZvikaKlein מזפזפים בין בתי הכנסת כשתפילות ראש השנה הפכו לנטפליקס  בתי הכנסת שאינם אורתודוכסיים מצאו פתרונות טכנולוגיים לשיתוף המתפללי… כשכל הצדדים מחופרים עמוק בפוזיציה המאבק על מינוי מחליפה לשופטת העליון בארה״ב רות ביידר גינסבורג  שנפטרה בסוף השבו…  שוב מזהה תהליכים ח״כ YairGolan1 מזהיר בטור מיוחד ״העולם פתוח ומלא בהזדמנויות ויש גבול עד כמה הצעירים המוכשרים ש…  איך ומדוע קיבלו חריגות בנייה של האו״ם בירושלים הכשר מהמדינה  hodayakh   מנדלבליט ״מעולם לא טענתי שאי אפשר להגביל הפגנה משיקולי שלום הציבור״ yehuday30   שנה טובה ומתוקה לעוקבי הטוויטר של עיתון מקורראשון ולכל עם ישראל בארץ ובעולם תשפ״א  ברוכה הבאה והיי ברוכה כולנו חטאנו כולנו חייבים לתקן ועכשיו  arishavit   השנה שבה התפרקה הקהילה הפיזית סביבנו משה קלוגהפט דעה   למה עשינו את מיזם החיבורים המוזיקליים דווקא עכשיו  YHepstein   זמני החג  זו הייתה השנה הפוליטית שהייתה  Shiritc   השבוע בטוויטר עם moshemem   הילדה מקריית ארבע שחיממה מופע של סטינג  rathriki   IshayShnerb haggaisegal אין ברירה תצטרך לקנות אחת יותר גדולה בהחלט  פסק הלכה מותר לעשות התרת נדרים דרך זום  יוזמה תקיעת שופר ארצית באותה השעה  moshemem   הרב שי פירון ״יש מרכיבים בדת שלא מתכתבים עם קשיי קשב וריכוז״ ZvikaKlein   זה לא סגר זה ישראבלוף yairkraus   שופט בפנסיה שמקבל 90 אלף שקל בחודש קצינים עם קצבה מגיל 42 פצצה מתקתקת ושמה פנסיה תקציבית שרובצת על כתפינו כתפי י…  כשעסקני ההסתדרות נוהגים באלימות shlomopyuter   ״חיזבאללה מורתע״ ריאיון חג עם IDFSpokesperson תא״ל הדי זילברמן  noamamir74   הרגע ההיסטורי שחילק את העולם האסלאמי לשניים assafgibor   ארבעה אורחים במקום תשעים כך מתמודדים בתי חב״ד בעולם עם משבר הקורונה ZvikaKlein   לא פשוט לייצר קאבר לשיר של מאיר בנאי אבל נראה ששולי רנד וכנסיית השכל הצליחו למצוא דרך חדשה לגמרי לשער הרחמים מוזמ…  פרקליטי נתניהו נגד הפרקליטות ״עושה דין לעצמה״ ayeletkahana   מנהלי בתי חולים ישראל אינה ערוכה לגל תחלואה בחורף Shiritc   noamamir74 שוב פעם הפלסטינים הבטיחו הפגנות זעם ןהפגינו בעיקר אדישות אבו מאזן ואנשיו ביקשו לתת ביטוי לתסכולם מחתימת הסכמי השלום עם איח… גורם בטחוני ישראלי בכיר ״הסכם עם סעודיה הוא תסריט אפשרי לגמרי״ hodayakh   מבוכה גדולה ושמה דנה ויס arielschnabel N12News מחסוםווטש  זכות ההפגנה היא זכות יסוד אבל הזכות לחיים יסודית יותר הפגנות בלפור חייבות לעבור שינוי יאיר שלג דעה  הארכת סל הקליטה והבטחת הכנסה כך תסייע הממשלה לעולים חדשים שנפגעו בתקופת הקורונה  ZvikaKlein  pninatamanosh   yehuday30 הם רק ברגים במערכת  צוות קו כחול  התחקיר המלא עלה לרשת   אביתר בנאי ורביד פלוטיניק קיבלו על עצמם לבצע קאבר מרגש להריני של רביד פלוטניק במסגרת פרויקט החיבורים המוזיקלי…  שופר עולמי כך תחגוג יהדות התפוצות את ראש השנה בצל הקורונה  ZvikaKlein   באמירויות חוגגים הפלסטינים מתאבלים assafgibor   עצומת הרבנים בעד עמרם בן אוליאל  מסוכנת הרב יעקב מדן דעה  מנהל ארגון הבריאות העולמי באירופה ״הולך להיות קשה יותר מספר המתים מקורונה ביבשת יגדל בחודשים הקרובים״ AFP   לקראת הטקס ההיסטורי הערב בוושינגטון גורם בבית הלבן ״אופטימי לקראת מדינות נוספות שיצטרפו בהמשך״ hodayakh   תזכורת לליכודניקים naftalibennett bezalelsm וAyeletShaked  עושים בדיוק את מה שמצופה מהם להיות אופוזיציה דע…  מסמך דוקומנטרי מרשים על הסדרה של roysharon11 וgalberger בkann שחוזרת לימי האימים של האינתיפאדה השנייה…  כדי להפיל את נתניהו ליברמן יגרור את כולנו לאנרכיה קרני אלדד דעה   הציבור החרדי לא אשם מנהיגיו כן מיכאל טוכפלד דעה  גורם בפמליית נתניהו ההסכם לא כולל הקפאת ההתיישבות hodayakh   אנחנו גאים להציג שיח סליחות מסוג חדש פרויקט זההזמןלסלוח מביא עיבודים מחודשים של המוזיקאי יעקב אסרף לשירי סליחה מו…  המתכונים שיסגרו לכם את ארוחות החג  המשטרה משבר הקורונה מביא לעלייה חדה באלימות על רקע כלכלי yairkraus   בג״צ בביקורת על מנדלבליט ההדלפות בתיק 4000 הן פגיעה מערכתית ודורשות חקירה ayeletkahana   יום לפני החתימה עדיין לא ברורים פרטי ההסכמים עם איחוד האמירויות ובחריין hodayakh עם פמליית netanyahu בוושינגטון  לא באמת חשבתם שהטור הזה יישאר בלי תגובה חדה של gershuni שטוען  האג׳נדה הסביבתנית הקיצונית מנוגדת לתורה…  כך הגיעו מאבקי השליטה בעכו לנקודת רתיחה מסוכנת  yairkraus   ״הישרדות״ היא מראה מדויקת לכל מה שמכוער בנו מחסוםווטש  משרד התקשורת לחברות הסלולר השלימו את הפריסה ביהודה ושומרון   הישרדות 2020 האם כחוללבן והעבודה יתמזגו  Shiritc   ממותות במקום מטוסים  AFP   קבינט הפיוס שדווקא כן מתכנס  YHepstein   קורה עכשיו ערב שיח וזיכרון לקורבנות הזנות בישראל הצטרפו לשידור החי בפייסבוק ובאתר מקורראשון   אג׳נדה ירוקה היא מצווה מהתורה דעה adamteva   מהדורות חדשות סוף השבוע הפכו לגיא פינס וזו לא מחמאה  aviyashklar   מפתח המודל שצדק עד כה ב25 מתוך 27 מערכות בחירות לנשיאות ארה״ב מעניק כעת לטראמפ 91 אחוזים לעומת תשעה אחוז בלבד לבי…  ריבונות לפני החורף habithonistim טוענים שזה אפשרי hodayakh   כמה זה עולה לנו חשש בימין מההסכם עם בחריין hodayakh   batelkol תראו מה aviyashklar  הרימה ערב שיח וזיכרון לקורבנות בזנות ב 2100 בפייסבוק ובאתר MakorRishon  האם נמל חיפה יעבור לידי האמירתים  assafgibor   רוצים להימנע מסגר תנו סמכויות לשלטון המקומי ERSpeiser   מאיים באקדח ריק המפלגות החרדיות לא ממהרות להצטרף לאיומי הפרישה של ליצמן  Shiritc   מסיבת טבע אינה משחררת היא יותר דומה למאסר עולם orlygogo   אז אולי בכל זאת יש בתקינות הפוליטית המאוסה הזו משהו נכון arielschnabel   YotYotam גילה מחדש את הגוגואים זה נגמר בדמעות  matanamirr akivanovick השאר פרטים כתובת וטלפון בעיקר בדיאם ונדאג לך ״החזקים ישרדו״  סיור מדאיג בערים האדומות במגזר הערבי  assafgibor   ארי שביט הפרקליטות רואה בנתניהו אויב  דעה תרבות האונס קיימת גם בציונות הדתית  batelkol   הבעיה עם שומרי הסף RanBaratz   המסכה ירדה האופי הישראלי התגלה והוא לא משהו haggaisegal   מעבר להררי הפוזיציה האם מחאת בלפור תורמת להתפשטות הקורונה או לא  yairkraus   רבים כבר הספידו את כוחה הפוליטי של הציונות הדתית ובכן רבים טועים Shiritc   עמדה ראש השנה צריך לחזור ולהיות חג של יום אחד בלבד  מי באמת קובע את הכללים בנוגע להתיישבות ביו״ש לא בטוח שתאהבו את התשובה תחקיר מאת yehuday30   המדריך השבועי לטוויטר הישראלי  moshemem   מרגרינה היא לא מילה גסה ראיון מפתיע עם גיל חובב rathriki   יורדים ליגה למה הפלסטינים מאיימים לפרוש מהליגה הערבית  assafgibor   סגר הוא האופציה הגרועה ביותר והיחידה שנותרה כתב הבריאות שלנו yairkraus בטור זועם  את השאילתא הגישה חברת הכנסת MichalShir הכן מאחזך לחורף השר MichaelBiton4 התחייב לפיילוט חיבור לחשמל לשלושה מאחזים ביו״ש hodayakh   המטרה לפצח את מנגנון הקורונה  ״הדברים שנאמרים נגד נתניהו גרועים בהרבה מאלה שנאמרו על רבין לפני הרצח״ הרב חיים נבון דעה  הוליווד החליטה תקינות פוליטית חשובה ממקצוענות budarach   החוקר שהביא להרשעת זדורוב מודה בראיון ראשון יש ברצח של תאיר ראדה תעלומה שלא פתרנו  גם פחמימות הן סוג של נחמה מתכוני לזניה שיסייעו לכם לצלוח את הפיד   מטוסים עמוסי קוקאין מעל חורבות המאיה כך נראה נתיב הסמים העמוס בעולם  washingtonpost   משכילים אאוט פליטים אין משבר ההון האנושי של טורקיה   לימין ישראל ארה״ב מטילה סנקציות על חיזבאללה  assafgibor   חושבים לקחת הלוואה תחשבו שוב ושוב   בכירים במח״ש נגד המפכ״ל לשעבר אלשייך ayeletkahana   נקלעה לסיטואציה למי בכלל יש זמן לקורונה בשנת בחירות  Shiritc   למה השר AmirOhana לא חותם על החוק לאיסור צריכת זנות  aviyashklar   מקדימים תרופה מבצע מעצרים נרחב וחריג ביו״ש  noamamir74   התלוננתם על אלימות משטרתית ברוב המקרים כאן זה ייגמר  ayeletkahana   הפאנל מרוט ומתיש המערכונים המצולמים מצויינים ספיישל אמש הראה ארץ חצי נהדרת ואיך היה yanivbiton99…  זוהי צפירת ארגעה לתושבי חאן אל אחמר ממשלת ישראל לא תפנה אתכם  noamamir74   בראש טבלת התלונות ביטוח לאומי  ayeletkahana   כך מקרב המשבר הכלכלי ברשות בין הפלסטינים לישראל assafgibor   kerenmelamed רשמנו לפנינו מחפשים אסקפיזם הסדרה הזו ממש לא בשבילכם kerenmelamed   דיכטר נגד נתניהו חייבים לפנות את חאן אל אחמר מיד״ Shiritc   150 שוטרים נדבקו בהפגנות פייק ניוז yairkraus   מנאייכ על ספידים למה הפרשה שחשף אמש amitsegal מרתיחה במיוחד  shlomopyuter   בעקבות חשיפת amitsegal הערב  שימו לב לכתבתו של פרשן המשפט של מקורראשון yehuday30 לפני למעלה משנתיים  Shiritc ביקשתי את תגובת שר המשפטים לחשיפת עמית סגל בחדשות 12 על מעללי ניצן וצמרת הפרקליטות ומחש היא לא צפויה להתקבל הערב שייקספיר צדק משהו רקוב בממלכת דנמרק  ZvikaKlein   ישראל השנייה תמשיך לחכות כך מוסמסו החלטות ועדת ביטון במשרד החינוך    Shiritc אצל סוכני החיברות הטלוויזיוניים דבר אחד עדיף שהן לא יבחרו – להתלבש בצניעות תהיי מי שאת העיקר שזה יהיה בביקיני  אב…  ואיזה יופי שאולי אף פעם לא נדע   talshalev1 Shiritc אנחנו בקטע טל תודה מתואמים בינהם או לא זאת השאלה   לכל המעריצים החדשים של RoyIddan   איילת כהנא כתבת המשפט שלנו עושה לכם קצת סדר בראש  ayeletkahana    החברה הערבית בישראל נמצאת באחד המשברים הרפואיים הגדולים ביותר שחוותה מתוך רשימת 23 היישובים האדומים בישראל שבהם כמ…  ZvikaKlein הקומיקאי היהודי שרוצה להתמודד לנשיאות ארהב  הקורונה הביאה לצומת דרכים את הקריירה המצליחה של הקומיקאי היהודי–אמריקני מודי ר… Game over חביבי  noamamir74 צה״ל לא תוקף הלילה ברצועת עזה ומאותת לחמאס שהוא נותן צ׳אנס להרגעה האם העלייה בתחלואה בנגיף הקורונה בעזה תביא את השקט עכשי… כל עוד מרידור היה מסוגל לבצע את הנחיותיו של השר  גם אם תוך חריקת שיניים הוא היה יכול להישאר בתפקידו ברגע שהמצפון…  צד אחד אנחנו דורשים בכל תוקף לחיות חיים נורמליים – ומצד אחר אנחנו מתלוננים על שהמגפה לא הודברה מצד אחד אנחנו רוצים…  yairkraus פייק ניוז תוכניות סאטירה מחליפים בשלט בטח אם מדובר בערוץ מסחרי שכל שיקוליו נתונים לפרסומת הבאה שנכנסת כך מצא את עצמו אביר…  בכל מקרה בלי שתי בדיקות שליליות  שבועיים בידוד  משהו לאכול אל תגיע yairkraus  למערכת תודה   שני יהודים הגיעו לאי בודד ורצו להקים בית כנסת לא תאמינו מה קרה אחר כך  Shiritc  מה שמות האסירים הביטחוניים המשמשים כדוברים ומתווכים בין שלטונות הכלא לבין שאר האסירים הביטחונייםהאם מדובר באסירים…  קוים לדמותה של החגיגה הצהובה והחולנית של אמצעי תקשורת שמפרסמים תיאורי אונס קשים ונוראים תחת הכותרת איך זה מרגיש א…  איך כתב RoyIddan   צהל הצבא הכי מוסרי בעולם וגם היחיד שמשתתף בתחרות הזאת hodayakh מתחברת מחסוםWatch   לא רק שעיירות פיתוח כדוגמת בית־שאן קופחו בשטחים שבעבר שימשו רק לחקלאות והיום משמשים את בעליהם גם למטרות מסחריות אל…  להיות או לא להיות    הנה בא השלום בכפוף לפס גלישה רחב   לבנט ולמפלגות בראשותו יש היסטוריה של התרסקות בסיום מסע הבחירות לאחר פתיחה גבוהה הוא ואנשיו צריכים לעת עתה להשקיע…  נטפליקס כבר על זה  איפה שאתם רואים פקקים אנחנו רואים מחלפים חדשים   מילה לא תצא מאיתנו yairkraus  yoavr ZvikaKlein IsraelDiaspora omeryankelevitc davidbitan מי זה יקי קוראים לי אוריך yoavr ZvikaKlein IsraelDiaspora omeryankelevitc davidbitan יש סעיף תקצוב לפודקאסטים של מארק מארון היא יודעת שזה לא כל כך קול אבל לא ממש אכפת לה  יעלי נגיד מזרחי ממש שמחה לראות את ההפגנה אתמול נגד היהודים באים…  איש לא שאל שאלות קשות ואיש לא פצה פה חוץ מאישה אחת אמיצה וחכמה אשר חשבה שמה שמתרחש בארץ לא ראוי ולא נכון והחליט…  לא יכולים לדבר על זה יותר מדי אבל פרויקט מיוחד שלנו נמצא על האש בקרוב גם אצלכם   shlomopyuter דבר מה אתה צריך hananamiur אז מה היה לנו שם ריגולז ברקס פלגים פלטינות ריבונות עסקת המאה   אבל על מי האלמנט  חישוב המחיר והתועלת של…  מישהו </t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה הזמן לומר סליחה לסרטון המלא gtgt    ההחלטה ההזויה על הטלת סגר מלא מחר בניגוד לדעת המומחים היא תוצאה של התנהלות פושעת מצד הממשלה בחודשים האחרונים שבשל…  דחייה ועוד דחייה הממשלה בורחת מהשיוויון בנטל מצער שבג״צ נתן דחייה של חודש נוסף לחקיקת חוק הגיוס מעניין עד מתי תמשך הפארסה הזאת הכתבה המלאה  לא יעלה על הדעת שבמדינה דמוקרטית לאדם אחד תהיה סמכות בלעדית בקבלת החלטות גורליות מבלי להתייעץ ולקיים דיון   הצעת ה…  kannnews יור ישראל ביתנו AvigdorLiberman לgolanaryeh על הדיון בסגירת בתי הכנסת מול הגבלת ההפגנות החרדים מתנהלים כמדינה בתוך מד… kannnews יור ישראל ביתנו AvigdorLiberman לgolanaryeh כל הדיון בקבינט הקורונה היה פוליטי נטו לא קשור לבריאות הציבור יש ניסיון… GLZRadio חכ AvigdorLiberman יור מפלגת ישראל ביתנו לamirivgi חוזר ואומר לציבור  אל תסמכו על הממשלה תפעילו שיקול ענייני ותתנה… המדינה צריכה סדר ולא סגר  אלה המהלכים שאני הייתי מבצע כדי לטפל במשבר   בשנה החדשה נעשה פה סדר  Thank you President avucic for your decision to open a Govt Representation and Chamber of Commerce Office in Jeru…  Beytenu נמשיך להילחם למען השוויון בנטל  בעקבות בקשת המדינה לדחות את חוק הגיוס בפעם השביעית החלטנו לעתור לבגץ לא נאפשר שבישראל יהיו… kannnews לקראת סגר  יור ישראל ביתנו AvigdorLiberman לא מבין למה סוגרים בתי ספר אבל הישיבות פתוחות אתה שומע על ההפגנות של החרדי… אני מברך את ידידי מילורד דודיק חבר בנשיאות בוסניה הרצגובינה מטעם רפובליקת סרפסקה על הצעד האמיץ להעלות מחר במושב…  GLZRadio יור ישראל ביתנו חכ AvigdorLiberman לrazibarcay צרם לי שרהמ נוסע לוושינגטון בעיצומו של המאבק בקורונה המדינות האחרות… radio103fm חכ אביגדור ליברמן AvigdorLiberman יור ישראל ביתנו צרם אתמול שבזמן שמגפת הקורונה משתוללת נתניהו נוסע לוושינגטון לחתום… בזמן שביבי חוגג בוושינגטון החמאס חוגג באשדוד ובאשקלון  ״ועדת השרים שדנה בשורת הגבלות הסגר הגיעה להסכמה על סגירת חופי הים לרחצה״ Ynet 1592020  צריך דוקטורט במתמטיקה בשביל להבין את הנוסחה של מתווה התפילות לעומת זאת לא צריך שום השכלה בשביל להבין שאין היגיון ב…  kannnews יור ישראל ביתנו AvigdorLiberman לSyechimovich וYigalGueta על הסגר בחגים מה שצריך זה לא סגר אלא סדר המשבר האמיתי זה… kannnews יור ישראל ביתנו AvigdorLiberman לSyechimovich וYigalGueta על ההסכם עם האמירויות ובחריין מצד אחד יש בזה הישג אבל כנר… לא צריך להטיל עונש קולקטיבי על הציבור כולו בגלל ראש ממשלה שלא סופר את אנשי המקצוע שהוא בעצמו ממנה ושר בריאות שלא מק…  בבדיקת קורונה שערכתי הבוקר התקבלה תוצאה שלילית לנגיף על פי הנחיות גורמי רפואה בשבוע הקרוב אמשיך לעבוד מהבית אף מדינה מתפתחת בעולם לא הטילה שוב סגר כללי כי מדובר בוידוא הריגה למשק ולכלכלה אבל בישראל כולנו בדרך לסגר בגלל שיק…  הבוקר לפני קבלת ההודעה על הצורך להיכנס לבידוד סיירתי בבקעת הירדן בדיוק לפני שנה ב10 בספטמבר 2019 הציג נתניהו מפ…  ״לממשלה שלנו אין מדיניות מי שכופר באמירה הזו שיתכבד ויפרוש במשפט או שניים מהי אותה מדיניות הרי אין אדם אחד במדינ…  זה פשוט בלתי נתפס שאנשים משתמשים באלוהים כתירוץ לאלימות  גינת וליהי גרינוולד היקרות אני רוצה לחזק אתכן למה שקרה…  מאוחר מידי ומעט מידי  בדיוק כמו שאמרתי אתמול כדי שנצליח לנצח את הקורונה נתניהו דרעי וליצמן חייבים להפסיק להתערב…  לממשלה הזאת כבר לא יעזור שום רמזור הדבר היחיד שצריך לעשות לממשלה הזאת זה לשלול לה את הרישיון כי היא מסכנת את כולנו כשמדובר בהכפשות אישיות גם ariyederi מתחיל לדבר עם מבטא רוסי אני אמנם רק 40 שנה בארץ אבל האולפן היה טוב ואנחנו מד…  kannnews יור ישראל ביתנו AvigdorLiberman בריאיון לMichalRabi הממשלה גורמת לאנרכיה  לא היה דבר כזה מקום המדינה חדשותהערב  במקום להחזיק את אזרחי מדינת ישראל כבני ערובה ולהוביל את המדינה לסגר כללי בחגי תשרי בגלל שאתה מפחד מדרעי ומליצמן…  כולנו בני ערובה  קבעתם תוכניות לחגים חבל שלא תיאמתם קודם כל עם דרעי וליצמן בשל הכעס של המפלגות החרדיות החלופה…  GLZRadio חכ AvigdorLiberman באלון מורה עד שהימין לא יצא להפגנה נגד netanyahu  כלום לא יזוז אני מוכן להצטרף לממשלת ימין אבל אין… במקום סגר זה הזמן לעשות פה סדר הגיע הזמן שרהמ ושותפו הרזרבי יפסיקו להיכנע לגחמות של ליצמן ודרעי ויטילו מגבלות רק…  מה מה פתאום  מסכים עם הרמטכל בכל מילה לא מתקבל על הדעת שחיילי צהל יישאו לבד בנטל בזמן שרבים אחרים חופשיים מחובות לא ייתכן…  ההחלטות על מערך הבדיקות חייבות להתקבל רק על בסיס מקצועי לטובת כלל הציבור כולל האוכלוסייה החרדית יש להמשיך ולהגדיל…  אצל ביבי זה קודם כל ש״ס ויהדות התורה ואח״כ כל השאר  שלום תמורת כספי פרוטקשן ההסכם עם חמאס הוא יום היסטורי שנתניהו עומל עליו כבר שנים שנים של סחיטה באיומים שנים ש…  תוכנית הקיצוצים של שר האוצר לא רק שלא תייצב את המשק אלא תפגע בעובדי המגזר הציבורי יש לקצץ רק בשכר הבכירים ובמקביל…  למה משלם המיסים צריך לממן מלוניות למי שמפר הנחיות ומסכן את בריאות הציבור  בשוק הפרטי הנהלה כזאת היו מפטרים בבעיטה  שוב נתניהו מוכיח שיותר מאשר שהוא דואג לאזרחי ישראל ופועל להכריע את הקורונה הוא דואג למפלגות החרדיות ופועל מתוך שיק…  אני שולח את תנחומיי הכנים למשפחת אוחיון היום נקטעו חייו של הרב שי אוחיון ז״ל עי מחבל ארור משכם אני סמוך ובטוח כי…  אין כמו מראה עיניים ומכיוון שבמדינת ישראל מתקשים לקבל החלטות אני מציע שקבינט הקורונה יתכנס באומן והשרים יגיעו באמצ…  בשעה שראש הממשלה דוחה את העברת התקציב למדינת ישראל יש כאלה שתמיד מקבלים ממנו כסף בול בזמן  ההצבעה על דחיית התקציב אתמול מהווה חבלה חמורה בכלכלת ישראל  אין מנועי צמיחה אין בשורה לעצמאים ואין פתרון למובטלים…  נפגשתי הבוקר עם נשיא המדינה רובי ריבלין לדון בנושאים הדחופים על סדר היום הסכמנו כי בעת הזו בראש ובראשונה צריך לט…  4 תאשרו את מתווה הרמזור שימנע סגר מיותר בחגי תשרי  5 תורו על איסור מוחלט של טיסות ישראלים לאומן מישראל או מכל מ…  2 תורו על חל״ת גמיש כך שמעסיקים ימשיכו להעסיק את עובדיהם גם אם זה בחצי משרה והעובדים יקבלו השלמת שכר למשרה מלאה…  כששני ראשי ממשלה מתנהלים כמו שני ילדים בגנון אולי כדאי להזכיר להם שיש פה מדינה לנהל לפני שאתם לוקחים את כולנו לבחי…  הממשלה דוחה שוב ושוב את תוכנית הרמזור של פרופ גמזו ואת המלצתו לא לאפשר טיסות אברכים לאומן מינוי פרויקטור לקורונה…  radio103fm נתניהו רוצה בחירות ולא מסתיר את זה  יור ישראל ביתנו חכ AvigdorLiberman הוא לא מתבייש איבד את כל הבלמים nissim… נתניהו נהנה לשחק בכאילו מבטיח בכאילו שתהיה החלת ריבונות בכאילו שאכפת לו ממשבר הקורונה והמשבר הכלכלי ובכאילו הוא מ…  מפלגת הליכוד הפכה לשס וליהדות התורה אחרת לא ברור מה כל כך דחוף למיקי זוהר תקציב הישיבות בתקופה של משבר כלכלי עמוק…  GLZRadio ההתחממות בדרום  שר הביטחון לשעבר AvigdorLiberman אומר לamirivgi רהמ netanyahu עשה הכל כדי לסכל כל יוזמה ברצועת עזה ל… GLZRadio יור ישראל ביתנו AvigdorLiberman תוקף אצל amirivgi התרגלנו שפוליטיקאים ומנהיגים עומדים מול הציבור ומשקרים netanyahu ו… פרופ רות גביזון כלת פרס ישראל שהלכה לעולמה היום היתה אישה פורצת דרך מומחית למשפט ובעלת חזון  אמנת גביזוןמדן…  הרסתם את המשק עוד החלטה של הממשלה המנותקת מתקבלת בגלל לחץ של דרעי וליצמן ובלי שום קשר לנתונים  מזמן אמרתי שנושא החלת הריבונות הוא תעלול בחירות בלבד אני מצפה שנראה הסדר שלום עם האמירויות שיפתחו שגרירויות וקו ט…  GLZRadio חכ AvigdorLiberman אצל lucyaharish וגקי לוי אנחנו כבר במערכת בחירות נתניהו לוקח את הימור חייו מי שראה את הנאום שלו את… GLZRadio יור ישראל ביתנו AvigdorLiberman מגיב אצל lucyaharish וגקי לוי על דברי סגן השר כהן נגד חכ קושניר הוא היה קצין בגבעתי ס… נגיף הקורונה והמשבר הכלכלי הם הדבר האחרון שמעניין את נתניהו הכותרת בישראל היום מהבוקר מוכיחה מעבר לכל ספק שהוא ממו…  radio103fm נתניהו מרסק את כלכלת ישראל הוא מתנהג כאילו אחריו המבול מפזר את הכסף הזה כשוחד בחירות  יור ישראל ביתנו חכ Avigdor… KnessetT הכדור עגול ואנחנו נפגש בסיבוב יור Beytenu חכ AvigdorLiberman לחכים מהמפלגות החרדיות במליאה יבוא היום לא לעולם חוס… איחולי בריאות והחלמה מהירה לשר הביטחון בני גנץ ivgiz פוטושופ kannnews יור ישראל ביתנו AvigdorLiberman להבוקרהזה נתניהו נחוש ללכת לבחירות ולוקח את הימור חייו  אם בנובמבר הוא יצליח להגיע בל… מה שהכי חשוב לכלכלה זו הוודאות המכשול שלנו לכלכלה נכונה זה נתניהו הכלכלה האזרחים והמאבק בקורונה הפכו לבני ערובה…  פרשת הפוטושופ  הסיפור האמיתי   KnessetT יור Beytenu חכ AvigdorLiberman נצביע נגד ניסיון לדחות את התקציב מ258 כי מה שמדינת ישראל זקוקה לו זה תקציב בנוסף כ… כל הכבוד לשבכ על הפעולה לתפיסת המחבל שהיה מעורב ברציחתם של רסן אלירז פרץ וסמר אילן סביאטקובסקי זל ידע כל מחבל…  הצטערתי מאוד לשמוע על פטירתו של הרב עדין אבן ישראל שטיינזלץ חתן פרס ישראל למדעי היהדות ואחד מהרבנים הדגולים שידענו…  GLZRadio יור ישראל ביתנו AvigdorLiberman לilanadayan1 מיניתי את עצמי לפרויקטור להזזת netanyahu מהשלטון לא מתכוון לשבת תחתיו בשו… GLZRadio יור ישראל ביתנו AvigdorLiberman אצל ilanadayan1 רואה את עצמי מועמד לראשות הממשלה אם זה יבוא להכרעה צילום שריה דיאמנט… ליבי עם בעלי האולמות והזוגות הצעירים שרואים איך החסידים מבעלז מצפצפים עליהם ועל המדינה  במהלך הבחירות אמרנו שגנץ ונתניהו יחלקו את ישראל לחרדים זו דוגמה נוספת לכניעה של הליכוד וכחול לבן לדרישות של המפלגו…  נחשו מי כתב את הנאום שלי שהצליח להרגיז כל כך את חברי הליכוד  kannnews יור ישראל ביתנו חכ AvigdorLiberman במליאת הכנסת אווירת השתקת יריבים פוליטיים היא סכנה אמיתית לכל חברה חופשית מי שנוקט…  התוספת של 400 מיליון שח למפלגות החרדיות בעת הזו זה לא תקציב לישיבות אלא כניעה לדרעי ולליצמן ושוחד בחירות יום אהבה שמח   על פי השכל הישר ביבי צריך ללכת הביתה  במקום להקשיב לגורמי המקצוע במשרד הבריאות ולפרויקטור שהם בעצמם מינו ראשי הממשלה הרזרביים ביבי וגנץ מעדיפים להיכנע…  I just uploaded “ישיבת סיעת ישראל ביתנו עם חיילים משוחררים וסטודנטים…  I just uploaded “יש פה אי צדק והחלטות פוליטיות שנובעות מכניעה של ביבי …  לתשומת לבו של שר האוצר Israelkatz הובא לידיעתי שנכון לעכשיו לא בוטלו תשלומי המענקים לאסירים ביטחוניים לטיפולך  תקשיבו לפרופ׳ גמזו אסור לאפשר כניסתם לארץ של 16000 תלמידי ישיבה מחול לישראל   כפי שהתרעתי במהלך השבוע הכנסתם א…  המחאה היא זכות לגיטימית אבל בואו נכבד אחד את השני  אהבתחינם  zelama אהבת חינם  אני ומלך זילברשלג חיים בשני עולמות נפרדים ומחזיקים בתפיסות עולם שונות למרות זאת ישנם דברים רבים בגינם…  שוד לאור היום   במקום לדאוג לעצמאים ולאנשים שעבדו כל חייהם שילמו מיסים שירתו בצהל ועושים מילואים שוב מנסות המפ…  לא מעניקים הטבות למחבלים  פניתי לשר האוצר Israelkatz בדרישה לעצור מיד את המענקים לאסירים ביטחוניים ובני משפחותיה…  DaphnaLiel כעת בועדת הכספים odedforer דורש מענק גם לחיילים משוחררים עוד 500 ש״ח לכל חייל שהשתחרר בשנה האחרונה במקום לתמוך בחיילים משוחררים אנשי מילואים שעובדים ומשלמים מיסים  שוב נכנעים רהמ ורהמ הרזרבי ללחצן של המפלגות הח…  odedforer ממשלת ישראל אמרה לא לחיילים משוחררים לא לחיילי המילואים ולא לסטודנטים נתניהו וגנץ נתנו שוב לדרעי וגפני לקבוע חלוקת תקציבי… יש אנשים שהממשלה כן דואגת להם  ממשלהמנותקת  לקריאת הכתבה gtgt  רק ככה ננצח את הקורונה  שבת שלום  עכשיו ברור שיש ראש ממשלה אחד ושניים רזרביים  החלטה נכונה וחשובה מי שתורם למדינה צריך להיות בראש סדרי העדיפויות כל הכבוד לצהל ולמשרד הביטחון שהחזירו את התוכני…  היום יובא לכנסת חוק הקורונה שמשמעותו הפיכת הכנסת לחותמת גומי הרצון של הממשלה לשלול מהכנסת את סמכותה לפקח על עבוד…  בימים האחרונים נפגשתי עם המון אנשים הבעיה הקריטית החדשה שעליה אני שומע מכולם בנוסף לאיבוד השליטה עי הממשלה היא…  Beytenu פתחנו שוב את המסעדות  כולנו תקווה שהממשלה תביא מתווה מסודר עם הסדר פיצויים למסעדנים במקום להלחם במשחקי אגו הממשלה לא צריכה ל… התוכנית ממדים ללימודים אושרה בתקופתי כשר הביטחון ובין מובילי התוכנית היו הרמטכל לשעבר גדי אייזנקוט ומנכל משרד הבי…  GLZRadio שר הביטחון לשעבר AvigdorLiberman בתגובה זאת בושה והוכחה לכך שמדובר בממשלה מנותקת שדופקת קודם כל את הצעירים שתורמים לחברה ו… אדוני רהמ netanyahu אולי שכחת אבל תפקידה של הכנסת לפקח על עבודת הממשלה ולא להיות חותמת גומי  אין שום נתון שמראה כי התקהלויות בסופי שבוע הן גדולות יותר מאמצע השבוע ושקצב ההדבקה בהן הוא גבוה יותר ולכן אין שום…  ברכות חמות לחכ חמד עמר על מינויו כחבר בוועדה לבחירת קאדיםמדהב של הדרוזים  ראש הממשלה עשה בלאגן אז אני עושה סדר החלטתי ביחד עם חברי הכנסת ונציגים מוניציפליים של ישראל ביתנו להעביר הלאה את כ…  ערב מרתק הליכוד חובר לרשימה המשותפת שחוברת לכחול לבן כדי להבטיח שליטה של נתניהו בוועדה למינוי שופטים   ממשלהחרטא כבר אמרנו אם מסעדה כמו בראסרי נאלצת להסגר זה יכול אחד משני דברים או שהמשיח בדרך לכאן או שנתניהו בדרך לפנסיה מקווה שהאופציה…  ביבי די  נכשלת בניהול המשבר הנוכחי תודה על כל מה שעשית עד היום הגיע הזמן לפנות את הבמה גם הפעם אני מוותר  נתניהו נכשל  והארץ הייתה תוהו ובוהו ואתם עדיין חושבים שאין עוד מלבדו אני מתחייב אם הליכוד יחליפו את netanyahu אקים איתם קואליציה תוך שבוע  אני קורא לחברי הכנסת מכחול לבן אם נשארה לכם טיפת כבוד עצמי וקצת אחריות כלפי הבוחרים שלכם  תתנגדו להדחת חכ sbyifat מראשות ועדת הקורונה שאפו לחכ sbyifat על העמדה האמיצה על זכותם של חברי הכנסת להצביע בהתאם להיגיון ולשכל הישר ולא בהתאם לאינטרס פוליטי צר של הקואליציה אדוני ראש הממשלה וראש הממשלה הרזברי תקשיבו טוב העם אומר את דברו מנותקים נמאסתם אני תמיד שמח כשיש לי הזדמנות להצביע נגד סמוטריץ ונתניהו אני מתבייש שכנסת ישראל במקום לעסוק בטיפול בהתפשטות המגפה…  יש לנו ממשלת חרטא וראש ממשלה חרטבונה  המפלגות החרדיות מאיימות לפרוש מהממשלה במידה ויסגרו את הישיבות אז שיפרשו זה שנסגרים מסעדות ועסקים כנראה פחות מעניי…  ברכות חמות לאיסמעיל חאלדי תושב הכפר חוואלד שבגליל התחתון שמונה היום לשגריר ישראל באריתריאה חאלדי שימש כיועץ שלי…  אבא וסבא אהוב שלנו לכבוד יום ההולדת השתלטנו לכמה רגעים על העמודים שלך מזל טוב   איימן עודה השתתף בכנס ווירטואלי של פתח וחמאס בנושא הסיפוח הוירטואלי של נתניהו אני מקווה שאיימן עודה והחברים שלו יה…  ביקרתי עכשיו באוהל המחאה של נציגי ענף התיירות בישראל אם הממשלה לא תתעורר מנוע הצמיחה מן החשובים בכלכלה הישראלית…  שמישהו יסביר לי מה ההבדל בין הגבינה בהרצליה לגבינה בתל אביב🤔  בעולם מתוקן ונורמלי היינו צריכים לקום בבוקר ולשמוע שרהמ פתר את משבר חברות ההסעים בעיות האומנים העובדים הסוציאליי…  במקום לקיים דיונים 247 על המצב הכלכלי הקשה של המשק  של חברות ההסעות העסקים הקטנים העצמאים האומנות ועוד שורה של…  יש לי לא מעט שעות בדרכים ולכבוד יום המוזיקה הבינלאומי אני משתף חלק מהפלייליסט שמתנגן איתי שנים  יוםהמוזיקה    מחר בוועדת הכספים בחסות רהמ ורהמ החליפי  שודדי הקאריביים 6  לתסריט המלא בתגובה הראשונהgtgtgt  מחבלים מאז ולתמיד  שמענו את אריה דרעי מצהיר הערב כי הוא מקדם את החוק לפיו יוכר בישראל אך ורק גיור ממלכתי הצהרה זו באה כהמשך ישיר להת…  אליהו ובניהו הם מודל לחיקוי התרגשתי מאוד מהסיפור שלהם מי ייתן וירבו כמותם הם האות והסימן לכך שמתקרב קיצו של חוסר…  ביום שהחוק להשתמטות משירות צבאי יובא להצבעה בכנסת ישראל ביתנו תגיש בגץ במקביל הגשתי לאחרונה הצעת חוק שירות צבאי…  ליבי בערב הזה עם נאווה וברוך הוריו של סמר עמית בן יגאל זל אני מקווה שלכידתו של המחבל המתועב תיתן קצת מזור לכאבם…  AvigdorLiberman תעלומת העלמותו של הכסף שהובטח לעצמאים ולבעלי עסקים קטנים נפתרה  הוא הועבר לאבו מאזן ולרשות הפלסטינית זה סדר העדיפויו… תעלומת העלמותו של הכסף שהובטח לעצמאים ולבעלי עסקים קטנים נפתרה  הוא הועבר לאבו מאזן ולרשות הפלסטינית זה סדר העדיפ…  הספר שבוי פעמיים האוטוביוגרפיה של אבי לב ליברמן זל תורגמה והוצאה לאור עי ילדיי קורא ומתגעגע   שבת שלום מנו…  בתחנת רדיו צבאית אין מקום לאומנים שהם עוכרי ישראל ומכפישים את חיילי צהל בהיותי שר הביטחון דרשתי ממפקד גלצ שזמרים…  השבוע העבירה הממשלה בקריאה ראשונה את החוק הנורווגי שמוסיף עוד 12 מקבלי משכורות מהכנסת כולל לשכות רכבים צמודים ו3…  🤦‍🤦‍🤦‍  הנחת מכשול ברחוב הצחקתם אותי המכשול היחיד שצריך לפנות הוא ממשלת ביביגנץ  KnessetT מה שאמר ליברמן נכון הרמטכל לא ראה את המפות כך אומר אלוף במיל גדי שמני בבוקר טוב כנסת עם IKweller בנוגע למפות תוכנית… הממשלה הנוכחית מבינה רק את שפת הכוח היא חזקה בהבטחות אך מקבלת אפס בביצוע בלי שהשולמנים ואנשי עולם התרבות יפגינו ו…  שוד לאור היום  הממשלה חייבת להקים דחוף את המשרד לחוזרים מלהלהלנד אולי לפחות שם יצליחו להנחית מישהו מהקואליציה על הקרקע  אני תוהה האם הדיבורים על גל שני של קורונה הם לא הסוואה לקטסטרופה הכלכלית ולעובדה שמחר תעבור בממשלה ההחלטה להקמת משר…  במציאות של היום קיצוץ רוחבי של 15  מהתקנים בביטוח הלאומי ובשירות התעסוקה רק כדי לממן לשכות לשרים החדשים והלא נחוצ…  אחרי שעשק את נתניהו הוא בדרך לעשוק אותנו  החדשות הטובות של היום השוער האגדי של בית״ר זה שעליו כולנו גדלנו עוד מהימים של ימק״א יגדל את דור העתיד של הקבוצה…  מה שמשוגע והזוי זה שאתה חכ בכנסת ישראל ולא ברמאללה  דין בוזגלו כדין ליברמן כדין נתניהו נהיה אופוזיציה לוחמת ונציג אלטרנטיבה שלטונית  יש לנו רהמ ורהמ חליפי אבל ראשי הממשלה בפועל הם גפני ליצמן ודרעי   לכתבה המלאהgtgtgt   אנימתבייש אחרי שקראתי את ההסכמים הקואליציוניים שנחתמו עם המפלגות החרדיות אין לי צל של ספק  ליצמן דרעי וגפני מחזיקים את נתני…  אני לא יודע איזה הישגים אם בכלל יהיו לממשלה ה5 של נתניהו אבל שיא בביזיון של כל הזמנים כבר נקבע  שיחקו כדורגל בשבת לפניך וישחקו גם אחריך  שס ויהדות התורה קיבלו הבטחה כי התקצוב הממשלתי שהובטח להן לטובת ישיבות ומוסדות חרדיים יוסיף לעבור גם בתקופת החירום…  אני שולח את תנחומיי למשפחתו לחברה שכה אהב ולכל אוהביו של סמר עמית בן יגאל זל לוחם גולני שנפל הלילה בעת פעילות מ…  שוב חוזרים המראות מחגיגות פורים כאילו שלא למדנו שום דבר   הצטערתי לשמוע על כוונתו של תאל רפי מילוא לפרוש זו תהיה אבדה גדולה לצהל ולמדינת ישראל מדובר באחד הקצינים המרשמים…  הכתבה בערוץ 13 על חסידות גור מדברת בעד עצמה הממשלה המסתמנת מנוהלת על ידי ליצמן ודרעי תקציבים ודיור בר השגה לאברכי…  ממליץ לכל הפוליטיקאים   חיילים בודדים אאוט 36 שרים 16 סגני שרים חוק נורווגי ומעון שרד לממ רהמ אין  הוצאת לימודי הליבה מבתי הספר במגזר החרדי  פגיעה קשה בכלכלה  עקיבא תיקון הליכוד והגוש שלו חברו לרשימה המשותפת והצביעו נגד סיפוח מיידי של הבקעה  akivanovick עקיבא תיקון הליכוד והגוש שלו חברו לרשימה המשותפת והצביעו נגד סיפוח מיידי של הבקעה עדכון מהמליאה ברגעים אלו הליכוד כחול לבן שס ויהדות התורה הפילו הסתייגות שהגישה ישראל ביתנו למתן דמי אבטלה לעצמא…  בני גנץ תחשוב טוב טוב לפני שאתה נותן את המנדט לנתניהו מחר  לאיזה נתניהו אתם מאמינים של היום או של אז  הבסיס עליו נשענת הקואליציה המסתמנת הוא חוסר אמון מוחלט  מי שיש לו ילדים או נכדים מבין שהחזרה ללימודים זו פארסה  אני בזמנו גיבשתי מתווה מאוד ברור להקמת ממשלת אחדות אצה לגנץ הדרך הוא החליט לשבור את הכלים הוא החליט במקום ממשלת…  נתניהו מחפש תירוצים ללכת לבחירות  המסר אחד והיחיד מנאום נתניהו אתמול  הולכים לבחירות התירוץ  בגץ המטרה  פסקת ההתגברות החוק הצרפתי הימלטות מאי…  ברגע שחוק גיוס בני ישיבות עובר במתכונת של מועצת גדולי התורה אני הראשון שהולך להגיש בגץ  אחת מחמשת הדרישות של ישראל ביתנו לכניסה לממשלה היתה הכנסת לימודי ליבה בבתי הספר במגזר החרדי למי שתהה למה עמדנו ע…  בימים אלו בהם המערכת הפוליטית משעבדת את חוקי היסוד לטובת הסכמים קואליציוניים והקמת ממשלה נוספת הנשלטת על ידי המפלגו…  כזה דבר באמת עוד לא היה  דיור בר השגה הולך ומתרחק   ליצמן משרד השיכון המנהל לתכנון מנהל מקרקעי ישראל  דרעי משרד הפנים משרד הנגב והגליל  משה גפני ועדת הכספים…  יום עצמאות שמח לכל עם ישראל  הופתעתי לשמוע את הצהרתו של לפיד להצלת נתניהו על חשבון גנץ אני מקווה שהדברים נאמרו בבדיחות הדעת או הוצאו מהקשרם הגענו ל1126 מיליון מובטלים יותר מ80 מהעצמאיים והעסקים שפנו לקרן לסיוע לא הצליחו לחדור את סבך הבירוקרטיה ולקבל…  אני קורא להוציא את משרד הבריאות מהפוליטיקה ולמנות שר מקצועי שיהיה נקי משיקולים זרים ויפעל להבראת מערכת הבריאות כמה עצמאיים ובעלי עסקים קטנים קיבלו סיוע מהקרן שהקים נתניהו אף אחד לא  יודע מה שאנחנו כן יודעים בוודאות שהוקדם והו…  את נתניהו לא מעניין ש67 מהציבור לא רוצים את ליצמן במשרד הבריאות גם לא מפריע לו שליצמן דורש שהכספים הקואליציוניים…  קראתי בעיון רב את ההסכם הקואליציוני את האותיות הקטנות ואת האותיות הגדולות זה לא יותר מאשר סידור עבודה לגנץ וחסינו…  ממשלת נתניהו ה5 36 שרים 16 סגני שרים  החוק הנורווגי אוסטריה  11 שרים גרמניה  16 שרים כולל קנצלרית ארהב  16…  ברכותיי לאלי ביר נשיא ומייסד איחוד הצלה שניצח את נגיף הקורונה ושב ארצה לאחר 3 חודשים במיאמי מאחל לך אלי בריאות ו…  אני מברך על הקמת הממשלה למרות שזאת לא ממשלת אחדות אותה הציבור רצה והיא צו השעה  נהיה אופוזיציה עניינית אם הממשלה…  ברגע שיור כחול לבן בני גנץ בלם את כינוס הוועדה המסדרת לצורך קידום הליכי החקיקה והקמתה של הוועדה המיוחדת החלטת נשי…  בני גנץ זוהי שעת המבחן האמיתית שלך אני שב ודורש ממך לאשר מחר בישיבת נשיאות הכנסת את 5 החוקים שהגישה ישראל ביתנו ו…  כתוצאה ממשבר הקורונה הפכו רבים מאנשי ונשות המילואים למובטלים או כאלו שהוצאו לחלת על מנת לסייע להם צהל צריך לגיי…  נתניהו וגנץ במקום מופעי הראווה ההאשמות והטפות המוסר ההדדיות תנו דוגמה אישית תקימו ממשלה רזה עם מינימום של שרים… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">נפגשנו היום בלשכתי בירושלים עם שר האוצר הפלסטיני דר שוכרי בשארה  בנוסף לנושאים הכלכליים השוטפים שוחחנו בעיקר על ה…  היענות גנץ להצעת ראש הממשלה היא צעד נכון  כלכלת ישראל המערכת הפיננסית התעשייה העסקים הקטנים והבינוניים העצמאים…  עכשיו זה הזמן לממשלת חירום לאומית  יחד נביא את המדינה לחוף מבטחים     אחרי שיפתר המשבר אפשר יהיה   להמשיך בפוליטיקה מאיפה שהפסקנו מהיום בעלי עסקים יכולים לגשת לבנקים ולקבל מענה לקשיים התזרימיים שנגרמו בעקבות משבר הקורונה אנחנו במשרד האוצר נמשיך…  אתמול הוחלט על הקמת קרן לסיוע והיום היא כבר בפעולה  הקרן לסיוע תזרימי לעסקים נפגעי הקורונה בהיקף של כ4 מיליארד ש…  אני מאמין שבעזרת השם ובכוחות משותפים נצלח את המשבר הזה בהזדמנות זו אני מבקש ממעסיקים שיכולים לאפשר עבודה מהבית שיעשו זאת כדי שהפגיעה במשק תהיה מינימלית   אנחנו במשרד האו…  היום אציג לראש הממשלה מתן קו אשראי לעסקים שנקלעו למצוקה בעיקבות משבר הקורונה הנחיתי את רשות המיסים ואת ראשי האגפים…  חברת דירוג האשראי SampP מאשררת את דירוג האשראי של ישראל לרמת  AA עם תחזית יציבה  רק מדיניות חברתית נחושה אחראית שמ…  10 שנים להצטרפות ישראל לOECD   לקראת ערב שבת מסיימים דיונים קדחתניים בנושא הדוח הדושנתי של האירגון על כלכלת ישר…  לידידי כאח לי חכ יצחק כהן שר השיכון הנכנס אני מבקש לאחל הצלחה רבה  בזכות  הניסיון  הרב שלו כחבר כנסת שהיה כמעט ב…  הדיור הציבורי בתקופתה של שאשא ביטון קיבל תנופה משמעותית כשדירות רבות  נרכשו בעבור חסרי היכולת   אני בטוח שהמצוינות…  דר יפעת שאשא ביטון היא הביטוי המובהק למצוינות לאורך כל חייה וגם במשרד השיכון היא פעלה במצוינות אלפי זוגות צעירים…  כל עשירית אחוז הוזלה שתשיגו שווה עשרות אלפי שקלים   זה הכסף שאתם עובדים מאוד קשה בשבילו והמטרה של הרפורמה בפנסיה היא שהאזרחים ירוויחו יותר ההשקעה הכלכלית הכי טובה שיש שעתיים של עבודה ואתם יכולים להרוויח כ250000 שקלים  איך עושים את זה  מאוד פשוט מתק…  בעבורי גאולה כהן היא סמל ותזכורת שמדינת ישראל לא הוגשה לנו על מגש של כסף אלא רק אחרי מאבק נגד המשעבד הבריטי ולאחרי…  netanyahu שינוי מגמה במחירי הדירות לאחר עשור של עליות חדות   השר כחלון תודה על העבודה המשותפת  ישיבת עבודה עם צוות המחקר של הOECD שהגיעו לישראל לפגישות לקראת סיום הדוח השנתי על כלכלת ישראל  לשימור צמיחה גב…   ירידה ביוקר המחיה בישראל  חדשות טובות מנתוני הלמס שמראים שההכנסה הממוצעת למשפחה עלתה ב43 לעומת ההוצאה שעלתה ב…   כל בן אדם רוצה לקום בבוקר ללכת לעבודה ולפרנס את משפחתו בכבוד  חתמתי הבוקר על הגדלת המכסות לייבוא חמאה כדי להגדיל את כמות החמאה בשוק ולצמצם את המחסור הקיים בחנויות  בימינו אין ס…   בשורה לזוגות הצעירים  אישרנו במועצת מקרקעי ישראל את הארכת תוקף מחיר למשתכן עד לסוף 2020  תוכנית מחיר למשתכן שמה א…  כל הכבוד לכוחות הבטחון שביצעו הלילה פעולת חיסול חשובה ומדויקת ברצועת עזה  מי שיפגע בנו  אנו נפגע בו  סיימתי יש…  אורי ידידי תודה על העבודה המשותפת והדאגה הכנה לציבור לאורך כל שנותיך בכנסת ובממשלה למען עם ישראל ארץ ישראל ותורת…  מתוך דברים שאמרתי ביום העיון לאגף התקציבים שנערך היום בירושלים אסור לנו להגיע למצב שההישגים הכלכליים שעבדנו עליהם…  החלטות שקיבלנו היום בישיבת קבינט הדיור 1 18100 יחידות דיור בהתחדשות עירונית באור יהודה קרית גת נתיבות ורמלה 2…  התקשורת הישראלית והעיר חיפה איבדו היום את אחד האנשים היקרים אני איבדתי חבר קרוב ואהוב דני נישליס זל יהי זכרו ברוך  עוד בשורה טובה לכלכלת ישראל   כמה כסף אתם הרווחתם ממחיר למשתכן אפילו אנחנו הופתענו  stevenmnuchin1 Had a very productive meeting with Israeli Finance Minister KahlonMoshe We discussed our important bilateral economic… תודה סטיבן  בשנים האחרונות מנהלת ארהב מלחמת חורמה נגד הטרור העולמי  מלחמה כלכלית  זו מלחמה שקטה שמתנהלת בא…  בשורה אדירה הבוקר לכלכלת ישראל זינוק של 14 מקומות למקום ה35 מתוך 190 מדינות במדד Doing Business של הבנק העולמי…  IsraeliPMheb ראש הממשלה בנימין נתניהו קיבל אמש את ממצאי הדוח השנתי של הבנק העולמי המציג את דירוג עשיית העסקים Doing Business מידי… סיימנו כעת פגישה טובה עם נשיא שוויץ ושר האוצר אולריך מאורר בכנס השנתי של הבנק העולמי וקרן המטבע בוושינגטון החלטנו…  פגישה מצוינת עם שר האוצר הבלגי alexanderdecroo בנושאי סחר ושיתוף פעולה כלכלי בין המדינות במסגרת הכנס השנתי של הבנ…  מדינת ישראל איבדה היום את מאיר שמגר זל אחד מהאבות המייסדים של המשפט הישראלי ואדם שסיפור חייו שוזר בתוכו את סיפור…  יחד עם שר האוצר ההולנדי WBHoekstra סיכמנו על מפגש שנתי בין משרדי האוצר לטובת חיזוק הקשרים הכלכליים ושתפ בנושאי סי…  פגישת עבודה עם שרת האוצר הנורווגית SivJensenFrP במסגרת הכנס השנתי של הבנק העולמי וקרן המטבע בוושינגטון השרה ינס…  גמר חתימה טובה לכל עם ישראל  מדובר על פרויקט שבירו גליל ים בהרצליה  כששיר הופך למציאות  צילם וערך שי ציקוטאי זוכה מחיר למשתכן בהרצליה  שנה טובה לכל עם ישראל  שנה טובה לכלכלת ישראל   רשימת היישובים ירושלים ראשון לציון באר יעקב מגדל העמק אשקלון רמלה אילת מעלה אדומים נתיבות בית שאן נהריה קרית ים  גסר אזרקא דווח לי כעת שמהבוקר היו 420000 כניסות לאתר מחיר למשתכן  מספר שיא  ההרשמה להגרלה ללמעלה מ3000 דירות במחיר הוגן…  מתן הרישיון לבנק החדש הוא צעד חשוב לתחרות שמיישם את הרפורמה בבנקאות שהתחלנו לפני 4 שנים בועדת שטרום אני מצפה מבנק…  מנהיג תנועת הליכוד הוא ראש הממשלה בנימין נתניהו והוא המועמד הבלעדי מטעמה להמשיך ולכהן כראש ממשלה מי שהדרך החברתית חשובה לו צריך להצביע מחל  כל התוכניות שקידמנו נטו משפחה מחיר למשתכן העלאת שכר חיילים חסכון לכ…  הבחירות האלה צמודות מתמיד צאו להצביע מחל  הבחירה היום היא בין ממשלת ימיןמרכז בראשות הליכוד לממשלת שמאל בראשות גנץ ולפיד צאו להצביע מחל רק מחל גדול ימנע ממשלת שמאל ורק מחל גדול ישאיר את הימין בשלטון שידור חי   כדי להמשיך שמים מחל בקלפי  השמאל רוצה שאפרוש אבל אני פה כדי להישאר ולהביא הישגים לעם ישראל  עכשיו בליכוד יש לי פי 10 יותר כוח לעבוד בשבילכם…  סיימתי כעת פגישת עבודה מצוינת עם סגנית מזכיר האוצר האמריקאי סיגל מנדלקר בתל אביב שמחתי לשמוע ממנה שבניגוד לפרסו…  קחו לכם רגע כדי להכיר את שמורות הטבע החדשות והיפות של ישראל    מפגש עם פעילים מרכזיים בחדרה לאחר סיור בעיר יחד עם ראש העיר צבי גנדלמן וממ וסגן ראש העיר ניר בן חיים לקראת השבוע…  ישיבת פסגה בין ארהב לאיראן מיותרת כל עוד איראן ממשיכה לקדם את תוכנית הגרעין ולהפעיל זרועות טרור במזרח התיכון ובעול…  בשורה כלכליתמדינית  מדינת ישראל קרובה להצטרפות לאחד הבנקים העולמיים הגדולים והחשובים  לאחר שנים של התנגדות מצד מ…  זכיתי להכיר ולעבוד בשיתוף פעולה עם jdgreenblatt45 יהודי חם ואוהב ישראל שעשה לילות כימים כשליח ארהב לקידום פתרו…  אנחנו מציינים השבוע תשע שנים להצטרפותה של ישראל לOECD הערב נפגשתי בפריז עם מזכיר הארגון AGurria לפגישת עבודה מצ…  סיימתי כעת פגישה בפריז עם ידידי שר האוצר הצרפתי BrunoLeMaire בה דנו על שיתופי פעולה כלכליים השקעות חדשנות ונושאי…  Cher BrunoLeMaire merci de votre invitation je suis persuadé que notre rencontre sera à l’image de l’amitié qui…  ב179 כולנו חוזרים הביתה מצביעים מחל ⁦⁩  עד שנכנסתי לתפקיד שר אוצר תקציב סל התרופות תוקצב בחסר והחולים שילמו את המחיר  בכהונתי הגדלנו את תקציב סל התרופות…  בהצלחה לכל תלמידי ותלמידות ישראל וזכרו תמיד האמינו בעצמכם וכוונו הכי גבוה שרק אפשר   בשורה מצוינת להורים למורים וגם לתלמידים  שבת שלום   מעמדה הבינלאומי של כלכלת ישראל בשיא  הדירוג הגבוה של כלכלת ישראל על ידי חברות דירוג האשראי הבינלאומיות מוכיח שו…  נטו אלוף עולם   netanyahu החלטתי עם שר האוצר כחלון ושר הפנים דרעי להעניק מענק סיוע מיוחד לבעלי עסקים בתחום המסעדנות בשדרות וביישובי עוטף עזה זאת כדי… ltltlt שיחות עם יגאל תמיד היו מרתקות עם המון ידע ותבונה וכך היה גם בפגישתנו האחרונה לפני חודשיים בלשכתי בתל אביב נת…  יגאל כהןאורגד זל היה איש ציבור מהמעלה הראשונה ששירת את עמו לכל אורך חייו מראשית דרכו המקצועית במשרד האוצר ברשות…  ברכות ותודה לראש העיר elidukorski על השכונה החדשה ושיתוף הפעולה לאורך כל הדרך מול מאות משפחות צעירות ואפס נציגי תקשורת אכלסנו את שכונת נאות אפק של מחיר למשתכן בקרית ביאליק מרגש להגשים את חלום…  elidukorski צלילי מיתרים מכוונים להצלחה במעמד שר האוצר משה כחלון מנהלת בית הספר ״מיתרים״ טלי אינדיבו נציגי משרד החינוך והסתדרות המו… כלכלת ישראל ממשיכה לטפס ולתפוס מקום של כבוד בכלכלות העולם גאווה גדולה    ידענו שהפרשן הכלכלי הותיק של YediotAhronot סבר פלוצקר יודע לבקר אבל מסתבר שהוא גם יודע לפרגן תודה סבר  אין אכזרי מפיגוע של בני עוולה שרוצחים נערה צעירה שכל חייה לפניה רק מפני שהיא יהודיה אנחנו סומכים על כוחות הביטחו…  We have concluded cooperation in promoting Israeli companies and technologies in the field of cyber protection Thi…  Great work meeting with the President of the InterAmerican Development Bank Luis Moreno The bank invests 135 bi…  פגישת עבודה מצוינת עם נשיא הבנק הביןאמריקני לפיתוח לואיס מורנו הבנק משקיע 135 מיליארד בשנה בפיתוח תשתיות ממקסיק…  חזרתי הביתה  טוב שההסתדרות תישאר בהסתדרות ושכלכלת ישראל תמשיך להיות מנוהלת בדרך של כלכלה חופשית עם רגישות חברתית  כל המתאבל על ירושלים  זוכה ורואה בשמחתה תענית דף ל ע”ב gtgt דווקא היום כשאנו מתאבלים על חורבן המקדש ואובדן חירותנו חשוב גם לזכור ולהעריך את הזכות הגדולה שיש לנו לחיות במד…  כוחות הבטחון שלנו מזכירים לנו היום שוב עד כמה חירותנו בארץ ישראל איננה מובנת מאליה היום ערב תשעה באב כוחות הבטח…  קרדיט צילום יהושע יוסף  שבת שלום  הלב כואב על הירצחו של חייל צעיר לומד תורה  בידי בני עוולה כוחות הביטחון ישימו ידם על המרצחים הנתעבים והם ישלמו את המחיר  תחזיות הצמיחה בעולם על פי קרן המטבע הבינלאומית ל2019 • האיחוד האירופי  13 • בריטניה  13 • ארהב  26…  gtgtgtgt •60 מיליון שח לשיפור התחבורה כולל טיסות לתושבי אילת שאטלים וכביש עוקף אילת  •100 מיליון שח לפיתוח תעשיות מן…  עולים על הטיסה חזרה לחיפה משדה תעופה היפה בארץ  ירדנו לאילת כדי להשיק תוכנית לחיזוק העיר בגובה 530 מיליון שח בחלו…  בשורות מצוינות פורסמו השבת על מצבה האמיתי של כלכלת ישראל מסוכנות הדירוג הבינלאומית SampP ממשיכים להוביל את כלכלת ישר…  נהננו מכל רגע אלופים אמיתיים גאים בכם   הי שלי זה משה  לאורך השנים היית חברה ושותפה לחלק מהדרך פעלת תמיד מתוך ערכיות יושרה ענייניות ודאגה לחלש דוגמא…   נמשיך לחזק את כלכלת ישראל   יותר מדי שנים דיברו על רפורמה בבנקאות רק דיברו  מסקנות מארבעה ימי עבודה בארהב  1 בעולם מעריכים את כלכלת ישראל רוצים להשקיע בארץ ונותנים לנו הרבה כבוד 2 אנ…  הסיפור של הבחירות הללו הוא ניצחון הימין ובשביל זה כולנו התחברה לליכוד לי אין שום התלבטות פייק מוחלט  Riklin10 ריקלין הסיפור של הבחירות הללו הוא ניצחון הימין ובשביל זה כולנו התחברה לליכוד לי אין שום התלבטות פייק מוחלט  בשורה חדשה מניו יורק  הבעת אמון יוצאת דופן של הבורסה החזקה בעולם בכלכלת ישראל  nyse Thank you נמשיך לחזק את כ…  הבשורה המשך עליה בהוצאות האזרחיות על חשבון הוצאות הבטחון ותשלומי הריבית  כך עולה מהדוח הכספי של המדינה לשנת 2018…  דודי היקר ברכות על המינוי לשר התקשורת אם צריך עצה משר תקשורת לשעבר תמיד זמין בסלולר dudiamsalem ברכות לתאל עופר וינטר על מינויו למפקד אוגדת עוצבת האש מעבודה משותפת בשנים האחרונות אומר שמדובר במינוי ראוי ונכון בהצלחה gtgtאנחנו משקיעים בכל שנה 270 מיליון שח כדי לתת חזרה להורים למשפחות צעירות כפי שאנחנו עושים בחסכון לכל ילד סבסוד ה…  בוקר טוב ובהצלחה ללמעלה מ325000 ילדי והורי ישראל שמתחילים הבוקר את בית הספר של החופש הגדול  כשהמדינה הרחיבה את…  אמלק העולם מאמין בכלכלת ישראל     הבחירות הקרובות מיותרות יקרות ומזיקות למשק כל יוזמה שתביא לביטולן מבורכת  תוספת חשובה וצודקת לניצולי שואה Важная информация для переживших Холокост   אין מילים לתאר את החלחלה והכאב מסיפור אונס הילדה בת ה7 מערכות המשפט צריכות למצות עם האנס וסייעיו את מלוא חומרת הד…  למי שהתגעגע עונה על הכל אצל אופירה וברקו הערב ערוץ 12  שבת שלום  zviashkenazi netanyahu צודקמשה בשורה משמחת להורים סבסוד הצהרונים ימשיך בשנה הבאה ובשנים הבאות  נמשיך לדאוג לילדי ישראל netanyahu  פגישת עבודה מוצלחת עם שגריר יפן בישראל קואיצי אייבושי בנושאים כלכליים ואסטרטגיים יפן היא מהכלכלות המובילות בעולם…   כלכלת ישראל ממשיכה להיות חזקה   האתר הכלכלי העולמי המוביל בלומברג business קובע שכלכלת ישראל איתנה מתמיד  מא…  ההספדים על נחמה ריבלין זל נגעו במדינה שלמה ולימדו אותנו על האדם המיוחד שהיתה מחבק יחד עם כל אזרחי ישראל את ידידי…  משתתף בצערו של הנשיא ruvirivlin עם לכתה של אשתו היקרה נחמה יהי זכרה ברוך מברך את מתניהו אנגלמן על בחירתו למבקר המדינה  בהצלחה בתפקיד KahlonKulanu כולנו תצטרף רק לקואליציה שיש לה רוב  של לפחות 61 חכים KahlonKulanu לא נהיה בקואליציה בלי תיק האוצר הודעת שר האוצר לאור האפשרות להקדמת הבחירות  רפורמה חדשה של משרד האוצר בביטוחי הרכב תחסוך לכם במחירי הביטוח  בניית מסלולי low cost  תיקון תאונות קלות ללא ריש…  העבודה הקשה משתלמת גאים בשקל שלנו   גיא גולן זל הוא בנם הבכור של יורם ובת דודי תיקי גיא התגייס לשייטת 13 ונהרג יחד עם אחד עשר מחבריו ליחידה בספט 1…  כולנו מרכינים ראש הערב לזכר 23741 חללי מערכות ישראל ו3150 אזרחים שנרצחו בפעולות איבה  בזכותם אנחנו חיים כאן  י…  יהי זכר קורבנות השואה ברוך ונצור בליבנו תמיד  אל תשימו לב לכותרות המוזמנות  כולנו תמשיך לכהן ולשרת את הציבור כמפלגה עצמאית  הגענו להיות שותפים לא שכירים  מזועזעים וכאובים מהמתקפה האכזרית על הקהילה היהודית בסן דייגו שוב אנו עדים לאלימות אנטישמית חמורה ומסוכנת   תנחומי…  עוד הישג לכלכלת ישראל והבעת אמון בינלאומית בכלכלה שלנו  ההודעה החשובה הזו מתווספת לדירוגי האשראי הגבוהים מטעם סוכנ…  KahlonKulanu הנשיא ריבלין השר כחלון הוא תלמיד נאמן של מנחם בגין  סיעת כולנו המליצה בפני נשיא המדינה ראובן ריבלין להטיל על רהמ בנימ… צפינו יחד עם כל עם ישראל והתרגשנו  Beresheet השיגה את מטרתה עוד הרבה לפני שהתקרבה לירח יעידו על כך מאות אלפי ילד…  תודה לך יוסי בניון על 22 שנה של הנאה לכל אוהד כדורגל וגאווה לכל ישראלי  אתה סיפור הצלחה מעורר השראה בדרך שעשית ממ…  ההכרעה האמיתית של השעות האחרונות gtgt  תזכורת חשובה מאוד רגע לפני סגירת הקלפיות gtgtgt  אל תקנו את הלוקשים של אף אחד מצב החירום היחיד הוא מצב החירום החברתי  צאו להצביע  בשביל המשפחות שלכם gtgtgt  HadasRibak מתפלא עלייך הדס ספינג ובסיסה הרצליאנים תקשיבו טוב gtgt  לעולם לא אשכח מאיפה באתי  זוג צעיר בקלפי בעתלית ״בזכותך הגשמנו חלום בזכותך יש לנו בית תמשיך בשבילנו ובשביל כל הדור הצעיר לעשות את כל הטו…  KahlonKulanu אנחנו כבר בחרנו ואתם  פותחים את היום ברגל ימין שפוי  KahlonMoshe רק כחלון יעצור את פייגלין רק כולנו חזקה תשמור על כלכלה חזקה עם חמלה כולנו בוחרים כחלון כ ועוד כ ועוד כ  roeecohen19 פייגלין בעלי העסקים העצמאים לא יקנו את הבלוף שלך העסקים העצמאים יודעים מי הולך לעבוד בשבילם בארבע השנים הבאות למי באמת… רק כחלון יעצור את פייגלין רק כולנו חזקה תשמור על כלכלה חזקה עם חמלה כולנו בוחרים כחלון כ ועוד כ ועוד כ  אחריות חברתית או אכזריות חברתית הבחירה בידיים שלכם  אקטע את היד לפני שאצביע למדיניות אנטי חברתית מסוכנת  נתניהו מפרגן להישגים של כחלון ואפילו לא שם לב  תודה ל1500 תומכים ופעילים שהרעידו הערב את גני התערוכה  ביום שלישי נרעיד יחד איתכם את הקלפיות  אם חס וחלילה פייגלין יהיה שר אוצר כולנו לא תהיה בממשלה  כשאתה נכנס לממשלה יש לך התחייבות קואליציונית  דקה לפני ש…  הצטרפו אלי לנאום בכנס המרכזי של מפלגת כולנו בגני התערוכה gtgt   ilanacuriel קחו דקה ותראו את הילדה הכי מקסימה שזכתה לשאת דברים בכנס בחירות של כולנו שנערך אמש בבאר שבע ריתאל אלקירנאווי 11 מרהט שעל… אנחנו עלולים להתעורר בעשירי לחודש לממשלה ללא חמלה במקום שתהיה חמלה ואחריות חברתית  תהיה פה אכזריות חברתית   פייג…        החזרנו את הכסף לעם   בארבע השנים האחרונות החזרנו מאות מיליוני שקלים לאזרחי ישראל שינינו את סדרי העדיפויות נלחמנו…  ערב טוב חדרה  ערב טוב נתניה  ושבו בנים לגבולם    מברך את צהל ומערכת הביטחון ואת כל קהילת המודיעין על החזרת גופתו של חלל צהל זכריה באומל  מנע…  עשינו לא רק את מה שנכון וצודק אלא החזרנו חוב חברתי משמעותי לתושבים הללו  זכינו לפתור בעיה שהיתה צלקת על פניה של החברה הישראלית זו הסיבה שמפלגת כולנו תחזיק בתיק האוצר גם בממשלה הבאה אם אנחנו לא נהיה שם התיקונים האלה לא יהיו וכל מה שעשינו בסכנ…  כל שכונה כזו  כפר שלם גבעת עמל הארגזים ליפתא והקראוונים בבת ים  זה סיפור ציוני לתפארת שהפכו לסיפור של פושעים…  נכנסנו לפוליטיקה לפני ארבע שנים כדי לעשות תיקון בחברה הישראלית על מנת לעשות צדק ירשנו בעיות שהצטברו במשך 70 שנה פ…  הצטרפו לשידור החי gtgt עושים צדק בשכונות שהופקרו במשך עשרות שנים     הציבור חייב להבין מנדט נוסף לליכוד או לכחול לבן לא ישנה דבר מנדט נוסף לכולנו ישפיע על החיים של מיליוני ישראלים ז…  רפואה שלמה לנחמה ריבלין רעיית הנשיא כולנו מתפללים להחלמתך ערב טוב בת ים  roeecohen19 יש לנו את השר נפתלי בנט שהוא רמבו שר הביטחון לשעבר אביגדור ליברמן הוא מצ׳יסטה והרמטכ״ל לשעבר בני גנץ הוא ג׳יימס בונד וא… התוכנית תמשיך את מגמת צמצום הריכוזיות ועידוד התחרות נרחיב את היקף ההשתתפות של העסקים הקטנים במכרזי הממשלה נפחית ח…  המהפכה הבאה שאנו מציגים היא פשוט עושים עסקים תוכנית שבאה לקדם את העסקים הקטנים העצמאים הפרילאנסרים המשך של תו…  החלטות של הבנקים מסמנות את המטרות מראש מי שהחליטו לספק לו אשראי  שרד ומי שהחליטו שרירותית לא לתת לו אשראי  חוסל…  האתגר האמיתי של נגיד בנק ישראל החדש הוא לעודד תחרות ולא לחסום אותה היה לי עסק זעיר הייתי עצמאי מגיל 14 ואני מכיר…  האופנה החדשה זה הבוטים התחילו עם חיבורים  איך מחלקים את ראשות הממשלה עברו לפלאפונים אחר כך לחפרפרות היום זה בו…  חתמתי אתמול על קיזוז של חצי מיליארד ₪ לשנה מהרשות הפלסטינית כסף שמיועד למשפחות המחבלים זה מהלך נכון מהלך צודק מה…  הצטרפו אלי בשידור חי ממסיבת העיתונאים  בה אחשוף את המשך מהפיכת העסקים הקטנים והעצמאיים  ערב טוב קרית מלאכי  ״אני לא מקלל לא משמיץ לא מגדף וגם לא מיליונר אין לי כוונה לשחק משחק של השמצות ועלבנות״  האזינו לדברי שר האוצר מ…  שבוע טוב פתח תקווה  לירן טוב לדעת שאתה מאחורינו  מילים מרגשות של הרבנית עדינה בר שלום בתו של הרב עובדיה יוסף שהודיעה אתמול על הצטרפותה לכולנו  יחד ננצח למען עם י…  בגין לא פחד ללכת נגד העדר למען האנשים הפשוטים הצעירים המשפחות הילדים עד שניצח למענם בכל פעם שאני עומד לפני קר…  כשאולגה ובאר שבע נפגשים בתל אביב  אין כמו שוק התקווה ביום חמישי  עם ישראל על כל צבעיו וגווניו יוצא לעשות את הקניות לשבת לילדים למשפחה אתם הכוח…  תודה עדינה את השראה לכל ישראלי  מנהיגות פורצת דרך מאחדת למען העם למען כולנו  שמחים שאת איתנו   בהצלחה לכל משתתפי ההגרלה נתנו תקווה לעשרות אלפי משפחות צעירות תנו לנו את הכוח להמשיך במהפכה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">פטירתה של הרבנית לוינגר היא אבדה קשה להתיישבות ביוש ולעם ישראל מרכין ראש לזכרה ומשתתף בצערם של 11 ילדיה שממשיכים…  יניב כדי שלא תתעייף תזכור רק את אלה  לא להתקהל לעטות מסכה לשמור על הנחיות הסגר לנוחותך הנה ההנחיות המלאות…  למרות החום וחוסר הנעימות גם אני אתפלל במניין קטן בחוץ עם מסכה במשך כל שעות התפילה ותוך ריחוק חברתי  אני פונה לכל…  אני קורא לאזרחי ישראל  אל תיקחו דוגמה מהמפגינים הערב הם ניצלו משיכת זמן בכנסת כדי להזיק לבריאותם ולבריאות הסובבים…  לנגד עיניי נמצאת לפני הכל בריאות הציבור לא אאפשר סיכון חיי אדם בהתקהלויות בכלל לא בהפגנות ולא בבתי הכנסת אבוא לא…  נבחרי הציבור לא יהיו לפני הציבור בחיסוני קורונה או שפעת אני מקווה שאצליח להביא לארץ 10 מיליון חיסונים ישנה סבירו…  תנחומיי העמוקים לדידי ידידי ולכל משפחת הררי בלכתה של מירית ז״ל לצערי אני מכיר את הכאב הזה מקרוב סיפורה של מירית…  לקראת ההנחיות שיחולו מחר הצטרפו להצהרה שלי עם ראש הממשלה ושר האוצר צפו בשידור החי  מוזמנים להצטרף אלי ואל מנכל משרדי פרופ חזי לוי לתדרוך בנוגע להנחיות שאושרו הבוקר בשידור חי מהמשלט  ברגעים אלו ממש הסתיימה בחינת הרישוי הממשלתית ל2500 סטודנטים לסיעוד שיהוו כוח עזר קריטי למאבק של מדינת ישראל בקורונ…  אני מחזק את ראש הממשלה נתניהו ומברך  על ההסכם החשוב יחד עם זאת לא נוותר על הריבונות היא הכרח קיומי עבור עם ישראל…  יש מבקשי שלום ויש את אלו המחפשים מוות ומלחמה  תמונה אחת מוכיחה היטב מי הם העמים החפצים בשלום לעומת ארגון הטרור חמא…   צר לי על התפטרותו של ידידי שר הבינוי והשיכון יעקב ליצמן על כולנו לזכור שאין כאן איש נגד היהדות כולנו בעד מאבק בנג…  ההקפדה על הכללים עובדת ואני יודע זה את מניסיון אישי  שמח לבשר שבדיקות הקורונה שלי ושל שאר בכירי משרד הבריאות יצאו…  אמנם בבית בבידוד אבל ממשיך בכל הכוח לעבוד עבורכם ולנהל את המערכה הבריאותית מבלי לעצור או להוריד רגל מהגז  אני מבק…  נחשפתי לחולה קורונה מאומת בישיבת עבודה כמו מספר אנשים נוספים במגן ישראל ובמשרד הבריאות אני נכנס לבידוד ומקווה לתו…  בוחנים את מערך קטיעת שרשרת ההדבקה בפיקוד העורף יחד עם ראש הממשלה שר הביטחון מנכל משרדי פרופ חזי לוי וממונה הקו…  ליברמן משחק באש אנחנו צריכים אנשים מתחת לאלונקה לא כאלה שיפריעו לנושאים אותה ליברמן מתנהל בהפקרות ובחוסר אחריות…  למה החלטנו היום על סגר בערים האדומות וכן נתוני התחלואה לא מותירים בפנינו ברירה אלא להגביל הפגנות כמו שהגבלנו את ב…  יד שרה אחד הארגונים החשובים שקיימים בישראלאין כמעט אזרחים שלא נעזרו בצורה משמעותית בארגון החשוב הזה מעריסה לתינו…  שנת לימודים מוצלחת ובריאה לכל תלמידי ישראל צפו בשידור החי מהסיור שלי בבתי הספר באפרת ובגוש עציון  כך נראה איזון בריא בין מאבק בקורונה לבין שגרת חיים ככל הניתן שתהיה שנת לימודים פורה ובריאה לכל ילדי ישראל  ארז ומירי תודה על המחמאה אבל אני בן 62  החלוצים הקימו התיישבות יהודית בגץ מניף גרזן להרס ההתיישבות גם כאשר קיימת יכולת חוקית להכשיר אותה בושה  בשורה חשובה ל 40000 ילדים הקצנו 30 מיליון שח למרכזי התפתחות הילד בסיכום עם השלטון המקומי בראשות חיים ביבס 80 י…  חונכים את מרכז השליטה הלאומי של משרד הבריאות לטיפול בקורונה צפו בשידור החי  שומרים על ההנחיות גם על השוקולד  3 I was impressed by the potential for exceptional cooperation for the benefit of our countries mohapuae 2 In our conversation this morning we agreed to appoint focal points for strengthening the cooperation of the coun…  1 I am proud to announce the commencement of cooperation between myself and the Minister of Health and Protection…  שמח לבשר על התחלת שתפ ביני לבין שר הבריאות של איחוד האמירויות עבדול רחמן בן מוחמד אל עוויס בשיחה שקיימנו הבוקר ס…  ראש הממשלה netanyahu נתן בשורה חשובה הערב להימנע מהליכה מיותרת לבחירות אני קורא לשר הביטחון gantzbe לקבל גם הוא…  כדי להתכונן לחורף בצורה מיטבית בימים הקרובים נאשר תוספת של 12 מיטות טיפול נמרץ שיתווספו ל 14 המיטות הקיימות בבית ה…  בסיור בבית החולים ״שערי צדק״ יחד עם המנכ״ל פרופ׳ עופר מרין  בוגי גם לשנאה ולציניות יש גבול חזור בך מהשוואתך החצופה והמקוממת  מכינים בשבילכם את מערכת הבריאות לחורף  אחרי עבודה מאומצת השגתי תקציב נוסף של למעלה ממיליארד שח עבור ההיערכות של ק…  ״כסדום היינו לעמורה דמינו האירוע באילת מהווה ערעור טוטאלי של כל הערכים עליהם בנויה החברה שלנו עלינו להוקיע את ה…  כן לריבונות לא למדינה פלסטינית נלחמים בקורונה גם ממפעל מסכות בברקן שבשומרון הצטרפו אלי לשידור החי מהסיור  בסיור בבית החולים בלינסון בודק מקרוב את הבדיקה המהירה  תוך שעתיים תוצאות  פרופ רות גביזון זל היתה קול שפוי במערכת המשפט התנגדה להפיכה השיפוטית עוד לפני שהדבר היה פופולרי הקדישה את חייה…  אני מברך את רהמ על ההסכם החשוב בין ישראל לאיחוד האמירויות ובעיקר על ההשקעה שתהיה מצד האמירויות בישראל למציאת חיסו…  בתום סיור במדא בקרית אונו בודק את טרקטורון החירום של מדא לחילוץ ופינוי נפגעים מהשטח  אין מקום שמרכז חוסן קריטי בשבילו יותר משדרות ביקרתי באתר הבניה של מרכז החוסן החדש של העיר בהשקעה של למעלה מ 5 מילי…  צריך להוציא כרטיס אדום לבגץ החלטותיו פוגעות פעם אחר פעם בערכיה של מדינת ישראל באוסלו יצחק רבין זל דיבר על בלי…  הגענו יחד עם האוצר לסיכום עם ההסתדרות הרפואית על מענה הוגן לדרישותיהם הצודקות   הרופאים והרופאות יחד עם כל הצוותי…  הרב שטיינזלץ היה הראשון שהקים ישיבה בברית המועצות כבר בסוף שנות ה 80 אליה גייס גם את האקדמיה למדעים הסובייטית ושם…  זכיתי להכיר את הרב עדין אבן ישראל שטיינזלץ וכמו כל אחד התפעמתי מהעוצמות האדירות של האיש באישיות המיוחדת שלו הב…  תודה לכולם על הברכות  נפחית במחיר הקנביס הרפואי עד 50 נעבור מרשיון למרשם נדרוש סל תקציב ייעודי ונעבור לשיווק ישיר הבוקר הצגתי בכנסת…  2000 רופאות ורופאים 400 אחיות ואחים 700 עובדי מקצועות הרפואה מנהל ומשק  את כל זה סיכמנו לפני שבועיים אמש התחלנ…  בכל סיור שלי בבתי חולים אני נפעם מחדש מהמסירות הגדולה של הצוותים הרפואיים את היום התחלתי בביקור בוולפסון יחד עם מנ…  הצטרפו לשידור החי מבית החולים וולפסון gtgtgt  יאיר בוא נעשה את זה פשוט התחלואה גדולה אבל הצלחנו לעצור את צמיחתה כעת המטרה היא להביא להורדת נתוני המגיפה אני…  יחד עם ראש הממשלה ופרויקטור הקורונה בביקור במשלט הצטרפו לשידור החי  אופירה וברקו אתגרו אותי עם שאלות קשות    צפו בכל התשובות בלינק    קבעתי היום מזוזה במגרון יישוב חדש ביו״ש שנבנה לתפארת באופן המבוצר ביותר מבחינה חוקית כך שלא ניתן יהיה להרוס אותו…  15 שנה לגירוש עכשיו מגלה האדריכל כמה היינו קרובים לגירוש מאות אלפי ישראלים מיהודה ושומרון הלקח המשמעותי ביותר מגי…  אלימות ושנאת אחים הן לא הדרך התחושה החמקמקה של דהלגיטימציה של קבוצות שונות בחברה הישראלית מסוכנת לנו מאד  הגלות…  קיימתי היום במשרד הבריאות ישיבת עבודה ראשונה לקביעת עקרונות מגבלות רוחביים בהשתתפות מנכל המשרד פרופ חזי לוי וראש…  צפו בפרויקטור שלנו פרופ׳ רוני גמזו בהצגת התכנית הלאומית למיגור הקורונה  שידור ישיר gtgtgt  הצטרפו לשידור החי  שר הבריאות יולי יואל אדלשטיין בביקור במרכז הרפואי ״סורוקה״ בבאר שבע יחד עם ראש הממשלה בנימין…  מיניתי היום את ד״ר שרון אלרעי  סגנית מנהל וחברת הנהלה של המרכז הרפואי כרמל   לתפקיד ממ ראש השירות לבריאות הציבור…  שמח להציג את המגן 20  שפותחה במשרד הבריאות צעד קטן לאזרח צעד גדול למדינה   בגרסה החדשה יכולות נוספות לאיתור נ…  ארבעה בתי חולים עדכון אפליקציה אחת תוספת תקציב ותקנים לרופאות ואחים הסכם חדש עם חברת תרופות וצירופו של הפרויקטור…  צילום איציק בירן ממנים פרויקטור לקורונה צפו במסיבת העיתונאים בשידור חי  NadavEyalDesk אדלשטיין עם דוד ארנס אסף הרופא מחלקת קורונה  שוחחתי עם החולים שהיו מלאים בתשבחות לצוות המדהים וביקשו להעביר דרכי מסר אליכם נגיף הקורונה הוא לא ״שפעת עם יחסי צ…  ״מלאכים בלבן״ אין מסורים יותר מצוותי הרפואה של מדינת ישראל היום נכנסתי בעצמי לשעה קלה לתוך מחלקת קורונה במרכז הרפ…  פרופ׳ רוני גמזו הוא גם סמכות רפואית וגם סמכות ניהולית הוא מגיע עם הניסיון מפרויקט ״מגן אבות ואמהות״ וינהל את מרכז…  קרדיט מירי גטניו דוברות איכילוב שמח לבשר על מינויו של מנהל בית החולים איכילוב פרופ רוני גמזו לתפקיד פרויקטור הקורונה הלאומי ולמנהל מרכז השליטה פר…  פעילות משרד הבריאות בכלל ובהתמודדות עם נגיף הקורונה בפרט לא יכולה להתקיים ללא קשר הדוק עם ראשי הרשויות קיימתי הי…  ״לאהוב את עמך יותר מכל יתר הלאומים טבעי הוא בדיוק כמו לאהוב את אמך יותר מכל האמהות״ כתב ז׳בוטינסקי היום הוא יום פ…  תרגיל קורונה בבית החולים רמב״ם  ולאחר מכן תדרוך לתקשורת צפו בשידור החי  בשורה אדירה למערכת הבריאות  אני שמח לבשר כי סיכמתי עם שר האוצר על תוספת כוח אדם של 2000 אחים ואחיות 400 רופאים ו…  חברותיי וחבריי האחיות והאחים אני איתכם במאבקכם ביקרתי הבוקר בביה״ח איכילוב וגם שם התרשמתי מעבודתכם המסורה והחיונ…  ביקור בהדסה עין כרם חצינו את רף 30000 הבדיקות צפו במסיבת העיתונאים בשידור חי  הסגרים והתקנות לא נעימים  אבל זה לא עונש אנו מנסים להתגבר על התחלואה איני מבין למה כל הצעה של משרד הבריאות נתקלת…  היום לפני 33 שנים בדיוק עליתי לארץ זו הזדמנות עבורי להיזכר בדרך הארוכה שעשיתי וברבים שפעלו עבור שחרורי מדינת י…  ishaycoen ״חברים יהודים תפסיקו״ שר הבריאות לא חושש מתפילות בבית כנסת הוא חושש מהסעודות ובצדק כך תמנעו את סגירת בתי הכנסת  אשתי היקרה טעמה הערב את טעמו של פייק ניוז קראו את הפוסט שכתבה ומסביר בדיוק את מה שאירע      מצטער לאכזב את כתבי הפייקניוז אך האירוע שקיימתי לכבוד יום הולדתה של רעייתי היה בשטח פתוח  בו ניתן היה גם באותה ה…  יש לנו דאטה המערך האפידמיולוגי נעזר במערכת חכמה שפותחה במשרד הבריאות לאיתור שרשראות הדבקה זו מערכת מהמובילות בעול…  פועלים יחד לקטיעת שרשרת ההדבקה הצטרפו אלי בשידור חי ממשרד הבריאות  ראיתי שיש כבר מי שמנסה לעשות סיבוב על מה שאמרתי במליאה  איש לא ילמד אותי על חשיבותם וצרכיהם של בעלי העסקים בישראל…  amitsegal בפני השרים עומדות בעצם שתי אפשרויות להצביע היום בעד מה שמבקש משרד הבריאות או להתנגד  ואז להצביע בשבוע הבא בעד סגר מוחלט אנחנו במלחמה מול הקורונה הצטרפו למסיבת העיתונאים המשותפת עם ראש הממשלה  פיקוד העורף וקציני וחיילי צהל שותפים יקרים שלנו אבל כשאני רואה את ההודעות על הצורך בהעברת סמכויות ממשרד הבריאות…  צפו בתגובתי המלאה להצעת איהאמון בממשלה בנושא הקורונה   נפתלי יש אנשים שמדברים ויש אנשים שעושים הגעתי למשרד הבריאות לפני 5 שבועות ולא מצאתי שום זכר למיי הריטג׳ כעת הם מ…  אחרי תקופה של אינפורמציה מוטעית אני שמח על הסדר במספרים ראוי שכלי התקשורת השונים יקחו דוגמה ואחריות על מנת למנוע ב…  אנחנו בתחילתו של גל קורונה שני עלינו לפעול לפי המתווה שהצגתי הבוקר בקבינט הצטרפו לשידור החי  נפגשתי אמש עם האדמו״ר מויז׳ניץ ושמחתי למצוא אוזן קשבת ודאגה כנה לשלום ובריאות הציבור אני מודה לאדמו״ר על ההנחיה הח…  ביקרתי היום במחלקת הקורונה התת קרקעית בבית החולים ״שיבא״ אנחנו נערכים לתרחישים קשים בתקווה שלא נגיע לכך יכול להי…  במחלקת הקורונה החדשה התת קרקעית של בית החולים שיבא הצטרפו לשידור החי  התחלתי הבוקר ״סיור קורונה״ במרכז הארץ יחד עם יור ועדת הקורונה חכ יפעת שאשא ביטון במחסן ציוד של משרד הבריאות במ…  קיימתי הערב הערכת מצב עם בכירי משרד הבריאות אנחנו בימים קריטיים וקטיעה מהירה של שרשרת ההדבקה גם באמצעות חוק האיכו…  מנכל משרד הבריאות חזי לוי ממשיך במסורת של תדרוכים תדירים לציבור עקבו אחר העדכונים  אנחנו מגבירים משמעותית את השקיפות כלפי הציבור ומשיקים עכשיו את אתר הנתונים החדש של משרד הבריאות בו מוצגים כל המספ…  להתראות ברסי תודה על הכל  moshebst  IsraelMOH הצטרפו לשידור חי מטקס חילופי מנכלי משרד הבריאות במעמד ראש הממשלהgtgt  משרד הבריאות תומך בפתיחת הרכבת ובפתיחת מוסדות התרבות לפי המתווה שגובש באותה נשימה אני מסתכל בעיניים של הציבור ואומ…  נפעל יחד עם המתמחים והארגונים המייצגים למציאת פתרון הולם כולל קיצור שעות במשמרת יש מאות אנשים שמחכים להתמחות מער…  קחו דוגמה מילדי בני ברק  שמרו על הנחיות משרד הבריאות  חברי כנסת מסתובבים כאן בלי מסיכות וקוראים לי נודניק כשאני מעיר להם אבל מפעילים קשרים רצים ריצת אמוק ועוקפים את הת…  פגישת עבודה ראשונה עם מנכ״ל משרד הבריאות החדש פרופ׳ חזי לוי הצלחתו  הצלחתנו  IsraelMOH  הממשלה אישרה כעת את מינויו של פרופ חזי לוי לתפקיד מנכל משרד הבריאות פרופ חזי לוי הוא בעל ניסיון רב ביותר במערכת…  שמח לבשר ל25 אלף זוגות שאישרנו בממשלה כעת את פתיחת האולמות וגני האירועים החל מיום ראשון הקרוב בהגבלה של עד 250 אי…  הנגיף לא מבחין בין סלב או אדם מהרחוב  מי שלא עוטה מסיכה שומר על ריחוק ומקפיד על היגיינה – לא מסכן רק את עצמו הוא…  הצטרפו אלי בשידור חי לתדרוך עם ראש הממשלה ושר האוצר בעניין עליית התחלואה בקורונה  הנחתי הערב את מנכל משרד הבריאות משה בר סימן טוב לערוך בירור עם המשנה למנכל פרופ איתמר גרוטו נוכח החשיפה בתקשור…  בגץ איבד את זה הוא הופך את עצמו לרשות המחוקקת לרשות המבצעת ולרשות השופטת בו זמנית חייבים לשים לכך סוף הדרך לכך…  מי שלא עוטה מסיכה הוא ממש כמו מי שנוסע במהירות 160 קמש אנחנו מתקדמים בקצב טיסה ליותר מ200 חולי קורונה ביממה העל…  הצטרפו בשידור חי לתדרוך הראשון שלי על הקורונה מהשטח בבית החולים סורוקה בבאר שבע  מחזקים את הנגב  בשבוע אחד חלו בקורונה 800 איש אסור להישאר אדישים למספר הזה כ80 מהציבור תומכים בהגברת האכיפה על הנחיות משרד הברי…  כך נלחמים בקורונה אחרי ביצוע של למעלה מ 12000 בדיקות ביום אנו פועלים להכניס לפעולה את מעבדת מיי הריטג כבר משבוע…  אם זה מה שיעזור לכם לעטות מסיכה ולשמור על היגיינה ומרחק תהנו  העיקר  הקשיבו להנחיות  תהיו gilicohen10 מרגישים לא טוב לכו להיבדק  כפי שכבר אמרתי השבוע  נרחיב את בדיקות הקורונה כולל אסיפמטומטיים נרחיב גם את היכולת שלנו מ 15000 בדיקות ל 3000…  ביקרתי היום יחד עם הרופאה המחוזית של משרד הבריאות במתחם ״היבדק וסע״ במתחם טדי בירושלים בעקבות הרחבת הקריטריונים לב…  מדיניות הבדיקות החדשה  עליה הכרזתי הערב  אנו מרחיבים את הקריטריונים המאפשרים להיבדק בבדיקת קורונה נבצע יותר בדיקו…  הצטרפו אלי בשידור חי ממשרד הבריאות עדכון חשוב בנוגע למדיניות הבדיקות החדשה   יותר בדיקות קורונה יותר גילויי מחלה  הקשיבו להנחיות העלייה במספר מקרי הקורונה התחילה עוד לפני האירוע הנקודתי בירושלים תוצאות הבדיקות אתמול הצביעו על ע…  במהלך החג והשבת הנחתי באופן שוטף את אנשי משרד הבריאות באשר לטיפול בעליית מספר החולים בקורונה והצגתי בפני ראש הממשל…  מרגישים לא טוב בחג אולי יש לכם קורונה  אל תהססו פנו לקופת החולים שלך ותיבדקו  כללית 2700 מוקד אחיות מכבי 3555…  שמח לבשר כי בחרתי במנהל בית החולים ברזילי פרופ חזי לוי למנכל משרד הבריאות הניסיון הרב שצבר לאורך השנים והצלחות…  נהיה בסדר  או נהיה בסגר לקראת החג ועם המשך פתיחת המשק הנחתי את אגף ההסברה להתחיל בקמפיין על מנת להזכיר  מוטלת ע…  הגברנו הערב משמעותית את שחרור המשק פתחנו את הברים המסעדות הבריכות וגם בבתי הכנסת יוכלו להתפלל יחד עד 70 איש בחג…  הרכבות ישובו לפעילות מלאה ב8 ביוני וכבר השבוע נרחיב את קיבולת האוטובוסים ל75 אחוז  כך סיכמתי היום בפגישתי עם שר…  53 שנה ירושלים יהודה ושומרון ורמת הגולן בידינו ב1948 הקמנו מדינה ב1967 ביססנו את אחיזתנו בה אלה ואלה שלנו לעד…  קיימתי היום הערכת מצב בנושא הקורונה יחד עם סגני המיועד  YoavKisch ובכירי משרד הבריאות הנחתי את המנכ״ל להתיר התקה…  IsraelMOH להנחיות המלאות gtgt    הנחתי כעת את מנכל משרד הבריאות והמשנה למנכל לפרסם את מתווה הפתיחה של האולמות וגני האירועים כחלק מהמדיניות לשחרור…  IsraelMOH  יש לקחת ברצינות את ההגנה מהקורונה אבל גל החום עשוי להיות מסוכן בפני עצמו נוכח המלצות הדרג המקצועי הנחתי את מנכל…  נשקיע את כל המשאבים הדרושים על מנת להיערך נכון לגל השני של הקורונה בטקס חילופי השרים הערב במשרד הבריאות אמרתי כי ב…  הצטרפו אלי בשידור חי ממשרד הבריאות לטקס חילופי השרים  התחלנו לעבוד  מתחייב אני בעזרת השם נעשה ונצליח   בביקור תנחומים במשפחתו של הלוחם עמית בן יגאל היד נחשפתי למשפחה עוצמתית ערכית ממדרגה ראשונה כשמכירים את המשפחה מ…  אנחנו נמצאים בתקופה מאתגרת משבר הקורונה עצר את שגרת החיים והבהיר לכולנו באופן חד משמעי הגיע הזמן להשקיע יותר במער…  netanyahu בהצלחה לYuliEdelstein בתפקידו כשר הבריאות הרבה אתגרים ומשימות חשובות לפנינו לטובת כל אזרחי ישראל בהצלחה  אנו אבלים הבוקר עם היוודע הבשורה על נפילתו של עמית בן יגאל לוחם בסיירת גולני שהתעקש באומץ ובמסירות להתנדב ולשרת ב…  אנו מציינים בסוף השבוע 75 שנים לניצחון בעלות הברית על גרמניה הנאצית בכל שנה כשאני רואה את הווטרנים עם האותות והדר…  מזל טוב  גאווה לאומית כל הכבוד לרות כהן תלמידת אולפנת בהר״ן על זכייתה בחידון התנ״ך העולמי התנ״ך הוא המסד לכמיהתנו הלאומית…  מלוכדים יחד חוגגים בנפרד חג עצמאות שמח ישראל   מדליק היום בכנסת נר של הוקרה וגעגוע לזכר הדר גולדין ז״ל ששירת כקצין בסיירת גבעתי ונפל במבצע צוק איתן כמעט שש שנים…  גם אם הנסיבות מאלצות על ריחוק אתם בליבנו תמיד   לאחינו בני העדה הדרוזית ברכות לרגל חג הנביא שועייב יתרו הוא דמות מכוננת במסורות הדרוזית והיהודית המחוברות ביניה…  מבקש לאחל חודש טוב ומבורך לאזרחי ישראל המוסלמים  השנה חודש הרמדאן מתקיים במתכונת מצומצמת יותר כל משפחה בביתה כחל…  קרדיט לתמונה ארגון hebery65 הרב ישעיהו הבר המלאך שהציל את חייהם של כל כך הרבה בני אדם נפטר הלילה מנגיף הקורונה היה יחיד בדורו רגיש מאין כמו…  hatzalah1221 החלמתו מקורונה של אלי ביר נשיא איחוד הצלה והגעתו היום לישראל היא בשורה חשובה לכולנו ול 6000 המתנדבים של הארגון…  אברהם סירוטה בן נפתלי ורחל נרצח בגטו שרגורוד והוא תינוק שלא ידע טעם חטא בן שנתיים בלבד לזכרו ולזכר עוד כשלוש מ…  יום השואה אנה פראנק ילדי ישראל את שלושתם הצליחה לאחד יחד היוזמה המרגשת של GLZRadio  עיבוד ליומן המפורסם של אנה…  בתור חובב מתוקים מושבע מתגעגע למימונה מאד השנה בריחוק חברתי בשנה הבאה בעזרת השם שוב כולנו יחד תרבחו ותסעדו  הרב אליהו בקשי דורון הראשון לציון והרב הראשי לשעבר נפטר הערב מנגיף הקורונה  הרב התבקש לישיבה של מעלה כשהוא מותיר…  במקום 25 איש שתכננו אנחנו חוגגים ארבעה בני המשפחה הגרעינית חג שמח וכשר  ראש ממשלת בריטניה BorisJohnson הוא ידיד גדול של ישראל עם ישראל מתפלל ליציאתו מהטיפול הנמרץ והחלמתו המהירה…  זאת התשובה הנכונה של לוחמי צהל אל מול ההסתה הפרועה כלפי תושבי בני ברק ביומיים האחרונים  אחים אנחנו ערבים זה לזה…  גם בכנסת לא לוקחים סיכונים  השנה את ״השבת הגדול״ נחגוג כולנו בקטן תוצר הלוואי של הקורונה אבל כמו ששבת הגדול מסמלת את תחילת היציאה לחירות אנ…  מברך את בני גנץ יו״ר הכנסת החדש בני אני מאחל לך ליהנות בתפקיד  אבל רק לזמן קצר כבר בימים הקרובים עלינו להקים מ…  בימים אלה העם שלנו זקוק לאחדות זקוק לממשלת אחדות בימים בהם מגיפה מסכנת אותנו מבחוץ והשסע קורע אותנו מבפנים על כו…  אי לכך  למען מדינת ישראל  ובכדי לחדש את הרוח הממלכתית בישראל אני מתפטר בזאת מתפקידי כיושב ראש הכנסת  נתפלל ואף נפעל לימים טובים יותר לא  אתן יד למלחמת אחים אפעל על פי רוחו של מנחם בגין אשר ביוני 1948 בימי האלטלנה מנע מלחמת אחים בימים אלה העם של…  כמי ששילם מחיר אישי כבד של שנות מאסר ועבודות פרך על הזכות לחיות כאזרח במדינת ישראל אין צורך בהסברים עד כמה אני אוה…  כדמוקרט כיהודיציוני כמי שנלחם נגד משטרים אפלים וכיושב ראש של בית הנבחרים – אני קובע שהחלטת בג״ץ היא החלטה שגויה…  החלטת בג״ץ סותרת את תקנון הכנסת החלטת בג״ץ מחריבה את עבודתה של הכנסת החלטת בג״ץ מהווה התערבות גסה ויהירה של הרשות…  חברי הכנסת  אזרחי ישראל היקרים  ביום שני השבוע בית הדין הגבוה לצדק קבע שעל יושב ראש הכנסת להעמיד להצבעה עוד השבוע…  אעמיד את נושא בחירת יושב ראש הכנסת על סדר יומה של הכנסת ״בהקדם האפשרי״ ככל שהנסיבות יצדיקו זאת למן הימים הקרובים…  הודעתי הערב לבג״ץ  לא אסכים לאולטימטום  הסמכות לקבוע את סדר יומה של הכנסת ואת מועדי דיוניה נתונה ליושבראש הכנסת…  KnessetT יור הכנסת YuliEdelstein בפתח המליאה בניגוד לשקרים שנאמרו הכנסת עבדה אדלשטיין גם פנה לחברי הכנסת שהשתתפו בהפגנה שמתקיימ… בשעה 1600 ידון בג״ץ בשלוש עתירות נגד הכנסת בכלל ונגדי בפרט  קראו את עמדתי    הגיע הזמן לפוצץ את הבלוף  צפו  עכשיו בחדשות 12 הגיע הזמן לפוצץ את הבלוף הדמוקרטיה לא בסכנה כל העניין זה פלג בכחול לבן ששמו להם למטרה למנוע ממשל…  מזמין אתכם לשמוע מה באמת קורה   הערב בחדשות 111213 החל מעוד חצי שעה eranetzion נכון  לא יאוחר ממועד כינון הממשלה ממשלה טרם הוקמה אז למה סגרת את הכנסת שואלים אזרחים מודאגים שמקוננים על מותה של הדמוקרטיה הישראלית שמועות שגויות שלא לומר שקריות…  האזינו לראיון המלא  למרבה הצער יש שבוחרים לעסוק בפוליטיקה קטנה במקום לעסוק בפיקוח על הממשלה לו היו מאמצים את הפשרה שהצעתי כבר מאתמול…  נוכח הפייק ניוז שמופץ בשעה האחרונה על ידי גורמים חסרי אחריות אני מבהיר שמליאת הכנסת נפתחה כרגיל הוצאתי אותה להפסק…  KnessetT בתקווה ובתפילה שהשכל הישר יגבר בפתח ישיבת מליאת הכנסת אמר היור YuliEdelstein אני הצעתי הצעת פשרה שמנטרלת את כל המחלוק… אם הסיעות לא יגיעו להסכמה  אביא את נושא הקמת הוועדות להכרעת המליאה לא נשאר בלי פיקוח פרלמנטרי על הממשלה בנוסף ל…  המליאה ריקה אבל איתנו נמצאים מיליוני אזרחים שמשוועים לממשלת חירום  גם הפעם אני מזמין את רה״מ בנימין נתניהו ואת ח…  הצטרפו לשידור חי מהשבעת הכנסת ה23  כך נכנסים היום למשכן הכנסת פותחים את השבעת הכנסת ה23 בצל הקורונה במיוחד בעת משבר הכנסת תפעל לפיקוח על עבודת הממ…  22 מהלכים פוליטיים חפוזים כמו בחירת יור כנסת קבוע והעברת חקיקה שנויה במחלוקת מטרתם לסתום את הגולל על האפשרות ל…  12 צו השעה עבור מדינת ישראל היא ממשלת אחדות רחבה הצורך בממשלה כזו איננו רק בגלל משבר הקורונה פעלתי להקמת ממשלה…  פורים שמח  טקס האזכרה הממלכתי לחללי צהל שמקום קבורתם לא נודע הם אלו שמסרו את עצמם למען קיומה של מדינת ישראל יהי זכרם ברוך  על פי תוצאות המדגמים מדובר בניצחון ענק ל LikudParty ולראש הממשלה netanyahu העם אמר את דברו והכריע  הליכוד נקי…  לא זו לא הקלטה התקשרתי לאנשי ימין שטרם הצביעו ממטה הריבונות בגוש עציון עוד אחד הלך לקלפי אנחנו כפסע מניצחון ויש…  הוצאתי את יאיר מהיישוב אפרת להצביע באמצע חגיגות יומולדת 40 אין לאף אחד תירוץ לא להצביע כולם מצביעים ושומרים על של…  צאו להצביע  ביקרתי הבוקר בקלפיות בנוף הגליל ובעפולה  והליכודניקים בשטח כולנו מתגייסים עד הניצחון עוד מנדט אחד לניצחון ואנו מ… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">נחמד מלקקי המפשעות ומריחי הישבנים של תומכי טרור ושל השמאל הבוגדני האמריקאי קוראים לאחרים כלבים  שלומית בונה סוכה מוארת וירוקה אבל בקצב הזה השבוע היא הופכת לאדומה נחתם  avigrin10 בדמוקרטיה הגדולה בעולם הנשיא הנבחר ממנה שופט עליון מינוי שלישי שלו על בסיס פוליטי מובהק  כדי להעמיק את הרוב השמרני בבית… tomer5791 כתוב טוב גם עם ברק רביד אשמח להתפייס ערב יום כיפור לא היה לעניין שקיללנו אחד את השני בפגוש  סורי כשקוראים לי טמבל מול…  FerrerMisha אין לי בעיה moshebiton000 כי אני טמבל tomoshed chaimlevinson חחחחחחחחחחחחחח הוא הגיע עד לתביעת דיני עבודה שהיתה לי אז נראה לי שאנחנו תיקו כזה כתבתי את התיקון הכללי   נסיון לתקן את מה שנשבר בין קלמן לגידולי הפרא שהם לא עיתונאים ברמה של קלמן ערב יום הכיפ…  moshebiton000 haskioren chaimlevinson אה תנקס haskioren chaimlevinson איך מעלים דבר כזה ארוך לוינסון ערב יום כיפור  בוא נשלים chaimlevinson אהבתי את הלהתחיל לדבר כאילו זה לא מה שאתם עושים 900 שנה  uriakenig אז סגרו לנו את בית הכנסת יום כיפור הזה לא הולך להיות קל שעות של תפילה בחוץ במזג אוויר שרבי וגם כשחוזרים הביתה אי אפשר א… yodfatyoni 🥂🥂 Nadav96205178 הדדי צעקתי עכשיו בנינגה ישראל ליעד יא אפס מה נפלת בסחרחרה והעפתי עם היד את כל הקופסא של הגלידוניות בקרוב הסלילים הגנוזים מהאאודי שיח לוחמים 🤣🤣  2jNInBqLHfHJAzN איזו רשעות לעשות הקבלה בין מלחמת יוהכ למלחמה בקורונה   שם היתה התראה שזלזלו בה  במקרה של הקורונה  מזלזלים בהתראה … YinonMagal רק בריאות אוהב דקל oranmikel YotYotam חחחחחח לפני עוד יום שידורים מיוחד ופריצות מהפגנת הפריבילגים תזכרו 1196 מנדטים של ישראלים מצביעי ליכוד לא ליכוד ביבי…  אבל אני לא עיתונאי   dovikco ברק רביד לא מצליח להתמודד עם האמת שנועם פתחי מטיח בו וקורא לו טמבל  לראות ולא להאמין כמה נמוך העיתונאי הזה יכול לרדת  michaeldvorin YotYotam חחחח גם ברק רביד הצבוע יחטוף כשצריך  michelletelaviv הנה למה לא נדבקים בהפגנות הגברת מגלה לעוקביה באינסטגרם   שהיא  הולכת להפגין ומשאירה את  הטלפון שלה בבית כך שאם היא ת… מעדכן בעקבות הויכוח עם לוינסון קיבלתי כבר 2 טלפונים ונקבעו פגישות לגבי עבודות פרסום אף אחת לא ממאפייה כושלת snunnitg לא אשר מחשבון להשקעות בלבד חברים זה אולי לא עובר בציוצים אבל הויכוח עם לוינסון נחמד לי ומצחיק אותי בשיא הכנות שבת טובה לכולם כולל לחיימקה לוינסון אז ככה כתבתי את הויקיפדיה שלי  BarashiKinneret chaimlevinson נשמה  אז המשתנק הלך לתביעת דיני עבודה שהתנהלה ביני לבין פובליסיס שם כל עיתונאי יודע כותבים בכתב ההגנה כל מיני דברים כדי…  chaimlevinson אני לא יודע נשמה רמזת שאני כתבתי את הויקיפדיה שלי והענקתי לעצמי טייטלים אז הנחתי שאתה חושב שאצל כולם זה ככה יא דביל chaimlevinson מצחיק 🤣 chaimlevinson שא ברכה חבר לוינסון בוא נלך למכונת אמת ואני אענה על השאלה האם ערכת לעצמך את הויקיפדיה נעשה את זה על 100000 שקל  אם אני יוצ…  chaimlevinson מרגיש לי שאתה מנצח בקרב הזה 🤣🤣🤣🤣 chaimlevinson חיים נשמה אין לי מושג איך עושים את זה בכלל אני טכנופוב ברמות chaimlevinson חחחח מההההה אהבתי שהמשתנק הולך על הקטע המקצועי בתקופה שבפח האנטישמי שהסכים לקלוט אותו דימם יותר ויותר מנויים אני ראיתי איך מו…  chaimlevinson כל טאלנט כמעט מביא איתו כותב בטח בסדרי הגודל של קמפיינים כאלו זה לא לכתוב איזה קישקוש שמישהו הדל…  לוינסון לפני שאתה נובר בויקיפדיה של אחרים אגב מי כותב אותם לך תנקה את שלך מתקיפות מיניות שיש לך שם chaimlevinson חזירוני לא כל אחד יושב וכותב את הויקיפדיה שלו כמוך יצאת נעל כבר היום שחרר הריב המטופש עם חיים לוינסון הוכיח לי הם באמת חושבים שעיתונאי בישראל זה מקצוע נעלה מעל למקצועות אחרים שזו משאת נפש…  chaimlevinson אגב שתדע הומור בריטי צונן לא גורם לישראלי הממוצע לברר על מחירי ביטוח בישראל זה הקמפיין הזכור והאה…  chaimlevinson מה אתה עשית בחיים חוץ מכתבות זניחות ולהשתנק מול ניב רסקין אני באמת רוצה לדעת josephandmeyer מתי ראית סקרים לאחרונה תפסיקו לקרוא לי עיתונאי chaimlevinson michaeldvorin תפרסם בראשי יא אפס WaitWattttt מבחינת איש תקשורת שידעו מי הפרצוף והקול מאחורי העיתונאי המוכשר זה היה בערך המצב chaimlevinson קמפיינים בולטים חוץ מהברושור למאפייה שוקה עם שני כהן 10 שנים הבנק הבינלאומי עם אסי כהן 11 שנה החת…  nuritshmuel תנקס 10 שנים הובלתי את קמפיין שוקה עם שני כהן 11 שנה את קמפיין הבנק הבינלאומי עם אסי כהן קמפיין החתול של הפח הכתום קמפ…  oferdann michaeldvorin chaimlevinson מעולם לא טענתי שאני עיתונאי chaimlevinson אפסוני רוצה לעשות יחד סרטון מצגת שמדבר על מה אני עשיתי בעולם הפרסום מהדורות שישי רואות שהציבור מבין ומפנים ושומר על הסגר וזה מטריף אותםםםםם YanivTurgi amitsegal בול עכשיו נתניהו אחראי לזה שיש הפגנות   יופי קלמן התקבלת לחלאות האלה  לאן העלימו המהדורות המטיפות של 12 ו 13 שרוצות להדביק רק לנתניהו את המצב את הגורו יורם לס תחזירו אותו אתם בניתם אותו אז זה נכון דרוקר אתם אשכרה מסתובבים עם איזו תחושת עליונות מה הגאווה הגדולה להיות עיתונאי אתה הרי הודית שיחד עם ח…  תהיה העיתונאי הטוב בעולם אבל כשאתה בוחר לירוק לבאר רדיו גלי ישראל  קול חשוב לבית הגידול שלך שנתן לך במה יומית לה…  yairmarom כשהוא הביא תחקירי מופת היללתי אותו גם אם יביא מחר כזה undisabled28 בדיוק תיקון הטור ביבי לא מאחד בינינו כרגע YanivTurgi זה מדהים איך כל הצייצנים שטינפו על קלמן ליבסקינד בכל מוצש כשהיה מצייץ את הטור השבועי שלו הפכו עתה ללהקת המעודדות כמובן ש… גאה להיות גידול פרא שמבין מהי מלחמת הקודש בשמאל ומי הסמל שלהן  קלמן הוא בסוף עוד עיתונאי מוכשר עם כזה סיפור או…  YinonMagal שלום קלמן הבנתי שמפריע לך שגדלו בימין גידולי פרא לא עיתונאיים תגיד  מה לגבי דוברי הפרקליטות דוברי כחול לבן דוברי מרץ שממ… Rereshef אני מת rothmar יותר יריקה לבאר חברים קלמן נעלב תסגרו את הפתחים של כל הבארות איזה איש קטן BarakRavid מי כותב לך באיחוד האירופי YehudaGreen4 aviadglickman מה אתה רוצה כל הרדיו שירים של יזהר שי aviadglickman נהיית הגמד מהיה היה כל השיח עם השמאל והתקשורת החולה שלו אחרי נאום של נתניהו זה תמיד אה אז עכשיו אנחנו אשמים בקורונה אז ההפגנות א…  טעות של נתניהו בנאום מסיים אותו בבשורה על חיסון שבדרך על זה שנגבר על הקורונה במקום לסיים באזהרה והפחדה בסגנון ע…  כמה מהיללנים השחורים בבלפור מחזיקים שלטי שכתוב עליהם יוהרה  אין עכשיו הוא בטוח מתפטר ציוץ השנה 🤣🤣  shimritmeir מחאת בלפור היא דוגמא למה שקורה כשמחנה שרוצה להוביל את המדינה הולך כעיוור אחרי הבייס והאקו שלו בתקשורת משכנעים ומשלהבים זה… כן את נתניהו מעניינים 2000 איש בבלפור כאילו שכשהוא דוחף לסגר הוא לא יודע שהוא מאבד 20000 מצביעים שכועסים עליו…  מנלבליט מאשר הפגנה של 2000 איש בבלפור מפגינים יאיי נהיה 400 יותר מהרגיל מדינה של אבא שלהם  איך מספרים למר גנץ שאפילו שושקה וגברת מסננת על הראש כבר לא מצביעים להם היי יצא לי קצת חנוך לוין עוד כתב משפט אובייקטיבי  שאשא ביטון בתפקיד מנדלבליט בתפקיד כחול לבן עושים מה שבא להם  ביבי זה הדיקטטור הגרוע בתבל פחות מעניין אותם אם אנשים ימותו  itayenat1 כי טעיתי בניסוח aviadglickman טעיתי בניסוח אבל לא אכפת להם שאנשים ימותו עמית סגל חשף מקבוצות הווטסאפ של כחול לבן הם בוויכוח ביניהם אם להמשיך להגן על ההפגנות רק כי הבוחרים ייכעסו עליהם אם…  הפריבילגים מקשקשים על ההפגנות שהן בשטח פתוח כאילו הם לא הגיעו לשם באוטובוסים אלא בקבריולטים מעדכן נכון להיום שעה 1728 שאול ברבי מרוצה מהפיצויים שקיבלו העסקים אבל דואג לתחלואה 🤦‍ IsraelGaley יריב אופנהיימר אסור לעצור הפגנות פתחי אתם יוצאים חבורת פריוולגים איך אתה לא רואה את זה אתם פשוט מפחדים לאבד את המיז… לא מנדלבליט  שום מילה טובה לגמזו על ההתבטאות הנוכחית נגד ההפגנות אתה כבר חודשיים מסתובב פה רץ להצטלם ביישובים ערביים כותב מ…  טוב שלא לקחת את הזמן  פריבילגיות שחצנות ובורות חילונית תפילה בקהילה חשובה לציבור המתפללים פי מאה ומתרחשת מאות שנים כמסורת  והיא חשובה…  urieltzaitlin חחחחחחחחחחחחחחחחחח זה השייח הכי אשכנזי שראיתי בחיים  אני צריך שביבי יאשים את שאשא ביטון ידעתי שיש לה אחריות כמובן לא האשמה העיקרית בתחלואה בגלל 12 השבועות שבהם לא טר…  arielelharar צפו איך נראה נשמע ומריח הסתה  עומדים מול מצלמה מאחורה מסיבת הדבקה של השמאל בבלפור ומדברים על בתי הכנסיות וחרדים בבני… למה מנדלבליט שולח רמזים נואשים לביבי דרך עיתונאים מהציונות הדתית נגמרו כל האביעד גליקמן עם כל הכסף שאתי אלון גנבה אי אפשר היה לקנות לחן אמסלם פאה נורמלית tzachidvori510 אהבה למדינה ושינאה לתוצאות הבחירות 12 שבועות הם מעודדים אלפי מפגינים לעשות מה שבא להם להגיע באוטובוסים  עם קורונה לתקוף שוטרים  עם קורונה  להפר סדר…  חמוצים מה זה אין בכלל סגר איך אני אתלונן עכשיו על זה שיש סגר רצח האופי שעושים לקלמן לא במקום אבל כמובן שהאיש היקר הזה טועה בענק אנחנו במלחמת קודש על תיקים תקדימיים תפורים על…  Arieliluz מפגין שמאלן קורא לשוטר יא מניאק ממרחק אפס ומנסה להעיף לו שלט לפנים זיהיתם נכון זה אותו שמאלן שבציוץ הקודם שהעלתי ניסה… אין קורונה רק אצל ערבים וחרדים אה 13 נדבקים בקבוצת כדורגל אחת  אז תמשיכו לעלות לבלפור להפגין יא חבורת מופרעים מ…  What hers hers  נחמד לראות על איך בזמן שהמפגינים שלו בבלפור יושבים בחג באמצע רחוב על כיסאות כתר פלסטיק ואוכלים מסכום של יומולדת ה…  עוצמתית  armandkadosh בלי המה YanivTurgi זו התוצאה כשהתקשורת הישראלית מתעקשת לחבק פעם אחר פעם דמויות נוסח יורם לס ויפעת שאשא ביטון ובלבד שהם יקדמו את האגנדה של ה… מישהו יודע למה בתי מסעדות וחדרי כושר לא והודעות ווטסאפ כמו נועם שבשנה הבאה קורונה תזכיר לנו רק בירה כן כל מה שהחמוצים אומרים נשמע לי כמו למה אדם דתי יכול ללכת להתפלל בבית כנסת ואני לא יכול להדביק את אמא שלי בת ה 80 ב…  filbers בגדול חופש ההפגנה של כ 15000 ישראלים שהביאו לשבירת הציות של 5 מליון נוספים יעלה לנו בסגר של כ 20 מיליארד שח בחשבון פשו… תיכלה שנה וקללותיה תחל שנה ותביאו חיסון כבר יא מדענים עצלנים  הטילטיל של הפוליטיקה  IsraelGaley פתחי אתם בכחולבן לא גיניתם את ההפגנות ההמוניות בבלפור באף רגע  השר Izhars7 אז אני אספר לכם שאסור לי לגעת בהפגנות לפי… חולה על הציוצים של mclbgn אני זמר מזרחי עכשיו  מה סימנת בשאלה 4  ראיתי רק עכשיו את הקטע עם דנה וייס ויאללההה ניסתה לייצר רגע חמוד עזבו אותה shashtech כשאתה מקווה שיצאו לך 3 דובדבנים בסלוטמאשין אבל יוצא לך 2 שייחים ויונית  איך אמר לי חבר שמאלני חמוד שלי ראיתי את הטקס וזה באמת יום היסטורי יאללה שנזכה רק לימים כאלה לא משנה מי מביא אותם   זה לא שלום היסטורי אומרים אנשים שמנסים לעשות שלום בין לפיד לעופר שלח יואו המלאניה טראמפ הזאת לא סותמת avidans מטורף ביום כזה היסטורי צריך כל ישראלי להסתכל למעלה לשמיים ולהודות לה  תודה לך הקדוש ברוך הוא מלך מלכי המלכים על שהא…  liyaomer אין דרך אחרת לומר זאת  יאיר גולן מזוכיסט ללכת ולקבל בראש פעם אחר פעם מעמית סגל ובצדק מוחלט מזוכיזם טהור  אל תתייחסו לעולם הערבי גם מבחינתם זה לא שלום זה כולה נורמליזציה של יונים שאוהבות להחזיק עלים בפה  אז כאילו גבי אשכנזי עכשיו חתם על לתת לערבים מטוסי F35 הימין נתניהו מביא שלום היסטורי שמשנה את המזרח התיכון  השמאל עם התייחסות לשתי מדינות בעמוד 67B BarashiKinneret פיד שמאל לפדופיל  אתה גיבור תהיה חזק אוהבים אותך אל תחמיר עם עצמך  פיד שמאל לינון מגל  רוצח  לחיים הערב בזמן חתימת הסכם השלום בבית הלבן יפגינו מחוץ לגדר פעילים מארגון stemu tape kvar matter מזרח תיכון חדש עכשיו עם הקובץ אני מודיע בזאת כי עד שינון מגל לא יפוטר לא אקשיב יותר לתכניות של 103 או אשתמש במגל או בינון איפה שלא משתמשים בינון בימים אלו גם לא אעבור ברחוב של 103  עזבו את ינון מגל עם מופע הירי וחיקויי רימוני היד אולי הוא בדיוק יצא מסרט של רמבו אז בית המשפט עצר את השכונה שמנדלבליט איפשר לגבי הדלפות בתיק 4000 במשך 4 שנים והסיצילאני וחבורתו בהיסטריה אני מבין נכון YossiFuchs דרמה היום בדיון בבגצ אלוביץ על ההדלפות מתיק 4000 השופטים לא קונים את סיפורי אלף לילה ולילה של היועמש מנדלבליט הרואה ב… IsraelGaley חכ צבי האוזר לnoamfathi וYotYotam על הניסיון להמשיך בהפגנות למרות הסגר די כבר עם המסך המפוצל הזה הגיע העת למסך מאוח… הערב בקשת החלפת הגומיית אטם שטילטלה את חיים אתגר תכתבו לי על הקבר מי זכה בסוף בהישרדות אז אתם אומרים שאחרי 8900 מומחים רפואיים באולפנים שסותרים אחד את השני ומסכמים בצריך לזכור שאנחנו יודעים מעט מאוד על…  אהבתי שדנה וייס מיללת על הניראות שבפתיחת בתי הכנסת ועשרות מתפללים ואז עוברת להפגנה המיותרת עם אלפי משתינים מהמקפצה…  יופי עכשיו בגלל כל החמוצים עוד מטוס פרטי יישאר השבוע מובטל  בחריין מה זה הדגל הזה אתם מדינה של שייחים עם שפם בכאפיות לא ממלכה במשחקי הכס  ShlomiEi נגד מי הציוץ הזה מסית הפעם הם ישלחו כתב לעשות כתבה חצי שעה על לאן נעלמה גירית החורש ולא יישלחו כתב לוושינגטון כי ביבי מביא שלום בחיים לא תנצחו ככה 703 ביי היללות של השמאל על המטוס הפרטי של ביבי זה בגלל שאת השלום של רבין ופרס הם הביאו עם אוטובוסים שהתרוממו באוויר MosheOren פשוט תניחו לנו כבר אז אני מבין שנוגה ניר נאמן שטסה ברחבי העולם כדי להביא לנו מחירים של בתי מלון שאפשר למצוא בטריבאגו לא מרוצה מאיך שנתניהו טס להביא שלום TalOr314 לכל העיתונאים ששואלים בתדהמה האם הבריאות של נתניהו חשובה יותר מבריאותם ובכן התשובה הקצרה היא כן התשובה הארוכה היא בהחלט… Tsahihagag נשיא ארהב 2 מטוסים פרטיים ומסוק צמוד נשיא צרפת 2 מטוסים פרטיים נשיא רוסיה 132 מטוסים פרטיים קנצלרית גרמניה 2 מטוסים… לא הוזמנתי הפעם  באסה סגר בחגים והפעם אין אפילו את המשחק מילים המפגר הזה של ליל הסגר  אז הוא לא רק שקרן הוא גם קשה הבנה זה לא מה שטענו נגדך שייקה טענו למה אתה עונה לאלשייך וחושף את זה שמטרת העל היא ל…  baruchikra איך אומרים מזל שיש את המייל עצמו ואת השקר של ניצן כשהוא לא ידע שלעמית יש אותו davidi39781333 galshalevs חחחחחחחחחחח ILLogger חיפשו בזול yakov57v לא ממש galshalevs כן לגיטימי ILLogger אני יותר הנוקב כולנו פספסנו את הסיפור הרומנטי המקסים  חוקר שנשלח לדפוק את שרה וביבי מתאהב פתאום במקרה במישהי שהיא במקרה אחות של…  asafl דיברתי על התגובות שם איזו בדיחה בחיי  אנחנו מאמינות לך  אלא אם כן מדובר בעיתונאי לבנבן מהארץ או אהוד ברק 9BC9yqkjxF5RSp1 לקחתי לפייסבוק ברשותך הצעדים הנשקלים לחגים 1 סגר היקפי 2 עוצר חלקי 3 סגר מהודק 4 הידוק מאפשר  5 סגר עצירתי אדום כתמתם 6 נו נו נו ל…  מתעסק בחרוזים במקום להגיד אלה חבורת שקרנים מושחתים  מנדלבליט חייב ללכת הביתה ודי לחכימא ביאללה זריזה מה יכול להיות שגם המפכל גם המשטרה גם מחש וגם הפרקליטות כולם קשרו קשר כדי להעמיד את עמית סגל וכינרת בראשי לפרס פוליצר BarashiKinneret אבי ניסנקורן אומר שהתעקש להחזיק בתיק המשפטים להגן על שלטון החוק  צודק להגן על גנץ מפני המימד החמישי  להגן על אשכנזי… צפו השומר של הקניון לא מסוגל להוציא מילה מהפה שמנדלבליט לא הכתיב לו  המדינה הזאת צריכה סגר כללי עם אפשרות תנועה רק למחלקות הקורונה לראות מה זה אנשים מונשמים aviadglickman אתה מדהים אותי בנאדם ניסנקורן זה אביעד גליקמן עם משכורת מהמדינה IsraelGaley עמית סגל מדינת ישראל לא יכולה להרשות לעצמה את התוצאות של משפט netanyahu אני חושב שהפתרון היה ללכת לפרשת קו 300 חנינה… רשימת היישובים השחורים שיצטרכו להיכנס לסגר מהיום נווה מחש עין פרקליטות סביוני 433 ושי ניצן בעיני עמית סגל הוא גיבור בנאדם שמציל ככה את אור הלר לא רואים כל יום אביעד גליקמן עדיין מקלידה תיקי נתניהו המומצאים ברמה העולמית הם מלחמת קודש של כל אזרח ואזרח פה מי שלא מבין את זה הוא בת יענה או בור  לצלם על מצב טיסה עדיין אפשר קשקשני איפה נעלמת משעה 8 כזה 🤣🤣🤣  העיקר ריקלין קורא לימנים לא לשבת באולפנים YotYotam אביעד גליקמן סיפור פצצה הערב של מעיין פרתי מחדשות 12 על שקר סלטי הטחינה שאפו הפרקליטות מה אמרנו לכם שהעבירות של ליאת בן ארי זה כלום כבר עונה 2  אביעד גליקמן עזבה את הקבוצה יואו בטח אליעד שרגא בטירוף עכשיו realadamgold בואו נתעכב שניה על השקר הבוטה של שי ניצן בתגובה לעמית סגל זו נקודה קריטית כשאתה משקר על משהו שרק אתה יודע  זה דבר אחד… שמישהו ישים את הפרצוף של אביעד גליקמן וגיא פלג על קרטוני חלב amitsegal תותח ניסנקורן לא ראיתי עמית סגל אבל אני מחזק את ידיהם של מי שהוא דיבר עליהם שם עמית סגל חושף איך חבורת מושחתים סיצילאנית במשטרה ובפרקליטות טייחה עבירות פליליות של עצמה ושרפה מליונים כדי לבצע הפ…  אוקיי תיק 2000  סיציליה נקסט באמת מאיפה ביבי מביא את זה שהמפגינים מנתקים את הטלפונים שלהם </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liorrotbart יושבים לארוחת ערב הילדים שואלים יש סיכוי שבסגר תהיה במילואים אני יש סיכוי סביר ילדים יששש איזה כייף שלא תהיה פה לא… YShalgi תודה גרמת לי להסמיק וזה לא קל Ayeletnnv יומולדתשמח לסמפקד חוליה מצומצמתהמכדרר המהיר בצד הזה של המזרחאין לו בת קטנה בשם רחל אבל לכל האחרים כנראה ישתכלס עבר מסיר… zviashkenazi איתן כבל כיהן כחבר כנסת מטעם HavodaPartyבעל פינה בתוכנית הבוקר בradio103fmנולד בראש העיןלמד במדרשיית נועם ולאחר מכן… filbers אפשר לשתות ויסקי ביחד הרבה לפני filbers בזה אני מסכים filbers מה שיפה מומו שגם אני יכול לספר שביכולתי למלא את הפיד בשרשור אין סופי של ציטוטים שבטוח שלא תאהב בכל מקרה…  filbers ככה באופן עצמוני ללא שום סיוע החלטת מומו פילבר לעוף על עצמך הסיבה שאין תשתיות תקשורת ראויות בישראל איננה…  CrypTomerpers ShirPeled לא אמרתי כמראיין שום דבר יוצא דופןכי קודם קבעתי שבעיניי היא צודקת ולי אין בעייה עם זה…  CrypTomerpers ShirPeled עושה מה ShirPeled CrypTomerpers נכון CrypTomerpers ShirPeled בכל מקרה לא אני הוא זה שאמר זאת אבל שיהיהאם יוצא לך טוב BarShemUr חשוב מאוד להבהיר שהסכמתי לבסוף לוותר על חקיקה אך במקום זאת נקבעו יחד עם רשות החשמל כללים מאוד מאוד ברור…  BenCaspit ראש המודיעין התימני מאיים הערב בעברית על ישראל בזמן ש YehoshuaYosi מתקשקש עם אטילה jSoFKY2Cnopndtw ברק סרי עושה פאנלים ו… liorrotbart אין שום דבר שאנחנו אוהבים יותר cabeleitan ואני אצל מראיינים נהדרים אבל אוהדים קצת ממורמרים AviMeshulam ו roykatz… liorrotbart הטירוף נמשך והחגיגות הספונטניות בעיצומן לכל אוהד מכבי ת״א יש אליפות  liorrotbart יש אליפות הקומץ מתעלה אפילו על איביץ׳ ופורץ בחגיגות מטורפות cabeleitan yoramavrahami  BenCaspit לאחרונה השתלט על משבצת שידור יוקרתית ברדיו radio103fm יחד עם שותפו לקנוניה ולעדה איתן כבל liorrotbart הפתעתי אותי אני נגד בזבוז כספי ציבור אבל בעד החוק הנורבגי התראיינתי יחד עם cabeleitan ל AviMeshulam בעניין והאם אנחנ… GalonItay BenCaspit הבנתי אותךאזמין אותך אחרי שנפרק אתכם בדרבי BenCaspit אכלתי שם ביום חמישי 46 akivanovick israelHatan cabeleitan מקווה שצחצחת את הארמית שלך hsh411 אתה כותב סאטירה מופרכת על דביל מושלם  מצהיר בתחילת כל פרק שמדובר באירועים דמיוניים נטולי אחיזה במציאות  ועשר שנים אחרי ביבי מ… bruria1947 baruchikra צודקת ועכשיו כשהדם של כולם עלה לי לראש זה מאוד מתאים לי samanio למה איתן כבל הוא מלך ירדן  samanio cabeleitan תרטווט אני רוצה לייקים baruchikra מי זה האוליגרך cabeleitan שהוזמן לאולפננו  Ayeletnnv יחד עם cabeleitan סייענו להישרדות של ערוץ 20 ודחפנו למיזוג בין 10 ורשת כדי שלא יפלונדהמת מעיתונאים ששמחים לאידו של הערוץ… GilLitman אלוף  nadavabeksis YehoshuaYosi הקינאה אוכלת אותך נדב🤣 nadavabeksis roykatz TLV102FM amirperetz HavodaParty המאבחן roykatz StavShaffir barakehud GabbayAvi ביום שני הקרוב אצביע אמת בקלפי urizaki מזל טוב מעומק הלב תמר tamarzandberg ואורי urizaki יקיריי מהמומחה שמגדל יחד עם נועה רעייתי ארבע בנות🥰🥰 EsawiFr לוינסון יא סחבי הולך על זה אבל כדי לשדר לעם הפלסטיני תחושת ביטחון אבקש מטראמפ שעל הדרך יוסיף לחילופי האוכלוסין גם את שכניי… liorrotbart ההסכת ״הפרוצדורה״ עם cabeleitan ואיתי אירח את הפרשן הצבאי עמוס הראל לשיחה מרתקת על צה״ל החזיתות גיוס חרדים וגם סיפור א… היום כשחברי הכנסת החדשים ישנים הושבעו לכהונה שגם הם לא יודעים את אורכה השתתפתי בפרוייקט ציור למען ארגונים חברתיים…  yanircozin יניר לא שומעים טוב שלח את הקטע🤣 yakovf35 תודה למילים החמות עוד אשוב חבל על דאבדין ולא משתכחיןישראל קיסר ז״ל ממנהיגי תנועת העבודה היה עבורי מורה דרך ומנהיג עובדים במובן הכי נעלה של המ…  motiohana1 פולניה תוניסאית מאיה עזריה היועצת המיתולוגית שלי מתחתנת היום בחופי קיסריה עם אהוב ליבה רביב  מאחל להם להקים בית נאמן מלא בשמחה…  YairNetanyahu sefiova newsisrael13  3461837347733 תודה יקירי לדברים שהצגת בפתיח של הציוץ ואין לך מושג כמה אתה טועה  אל תטעה תמיד אני בצד הנכון ofershir מסתובב ועוד איך ואפילו לא מורח קרם שיזוף איך shtern14 sefiova newsisrael13 מאוד מעריך את המחמאות לך בכוחך זה איש יקר ofershir sefiova newsisrael13 אין לך מושג כמה לא ארגיע איך החשיפה של sefiova בnewsisrael13 מוכיחה לי שגם כשעצרתי ובלי הגזמה לעיתים בגופי  את הרצונות המוטרפים של ביבי לרסק…  Ayeletnnv chaimlevinson אל תדאגי איילת העלתי גם בפייסבוק וגם באינסטגרם chaimlevinson אני מתנצל בפניך חיים על שמעת לעת אני לוקח ממך מעט ואולי קמצוץ מתשומת הלב המופנית אליך בטוויטר מבט…  בוקר ושנה נפלאה לשתי בנותיי הקטנות לשחר שעולה לכיתה ו׳ ולשירה שעולה לכיתה ב׳בהצלחה אהובות שלנוובהצלחה ושנה נפלאה…  booj1981 MatanAlcalay אין לך מושג אפילו הלך עם פק״ל 500 מסע כומתה 95 קילומטר ורק כשסיים ידע שזה היה על הגב שלו MatanAlcalay זה הכי פשוט שייש כששם המשפחה הוא מוקי ואז שמו של האבא רחמים מוקי והבן מוקי שגיא כבוד לאלוף העולם מוקי שגיא הבן של חברינו למחלקה 3 מוקי רחמים ממחזור נוב׳77 גדוד 202 של הצנחנים גאים בך ומתרגשים בשבילכם zviashkenazi HavodaParty תודה צבי ברכתך ברכתנו בוקר טוב ישראל חיברתי את עצמי לבלון ההליום שבכניסה לביתי ועכשיו אני יכול לעוף על עצמי ולומר בשער בת רבים שאומנם אני…  GavishYoram מבין ללבך האמת שזו משימה שהנחתי לפתחיאבל כבר לא בכנסת הקרובה RimonRan כל הכבוד RimonRan שנה וחצי ללא עישון כל מה שאני יכול לעשות זה לכתוב את זה לעיני כולם כדי שאם אתפתה  יהיה מספיק קהל לצפות בבושה  למה עישנתי 2… benirabin YehoshuaYosi עכשיו כבר אינני יכול להתאפק שוב YehoshuaYosi מטעה אותך במראה שלו ובכמה מילים ששינן בתימנית benirabin YehoshuaYosi אמן ואמן Shemtov8 dovhanin tamarzandberg טוב שם משמן טוב yudazdk dovhanin tamarzandberg עכשיו אתה לוקח אותי לפרוצדורה הכל נדון וסוכם במהלך החקיקה מהיום נכנסת לתוקף מהפכה למען הציבור שהובלתי עם dovhanin tamarzandberg ויעקב אשרהצלחתי לכפות על הממשלה לשנות גישת…  motiohana1 bezalelsm תודה מוטי אתה אלוף Shiritc מבלי להתעמק ומקריאת הכותרות התוכנית נשמעת לי מאוד מאוד מוכרת ואני זוכר ויודע שמר״צ התנגדה מאוד מאוד לתוכנית בחירות סמוטריץ ליברמן ביבי שקד גנץ לפיד העבודה עמיר ברק וכל שאר הירקותמי ינצח מי יהיה רוה״מהכל חשוב אבל עכשיו ה…  eMgg2vDX1UlDhMQ LifeRivlin קרן יקירה כמה דיונים בנושא קיימתי בועדת הכלכלהזה לא המעשה המנוול הראשון וכמעט מדי יום…  TomerAvital1 תומר אתה מדאיג אותי BenCaspit מה לא עושים בשביל לקבל קצת יחס יח״צ BenjaminTovias YuvalKarni הבנתי זאת כבר מאתמול קראתי הסכמתי עם המעט ועדיין עומד מאחורי דבריי וזאת גם כשרעייתי…  shalevai חד כתער לא מצליח להתאושש מהסרט החדש של פדרו אלמודובר כאב ותהילה איזו גאונות  שעולה על גדותיה מרגשת ומפתיעה אנטוניו בנדרס…  YehoshuaYosi אני נטרף מהודעת הבכיר מאוגדת עזה שחיילינו לחמו בגבורהואני מאמין שכך היה אך כשזו ההודעה היא באה ל…  YoazHendel1 YHepstein LVertzhaizer Ayeletnnv Meravbenari HassonYoel cabeleitan חייב לכם פשוט ערב מלא סחים מזל שהייתי כדי להרי… DayanNetanel התמזל מזלי והייתי בנסיעה בשעה האחרונה ושמעתי את התכנית המיוחדת ב GLZRadio עם דקלון בהגשתם של cabeleitan ו YehoshuaYos… YehoshuaYosi בדרך לבון ג׳ובי בשעה 2000 פותחים GLZRadio  cabeleitan ואני מארחים את דקלון לרגל זכייתו בפרס אקום אף מילה על פירוקים… SeXK1TJMNiriNYy אתה צודק בטענה שלך אבל התבלבלת כי אינני ממשלה בהצעת החוק המקורית שלי נכללו משרדי הממשלה אך הממשלה…  היום ייכנס לתוקף החוק הצרכני המהפכני שהעברתי בכנסת הקודמת מענה אנושי מקצועי עד 6 דקות במוקדי שירות לקוחות שישים סוף…  Ayeletnnv מחשבות על איחוד איפה היה כל ״האומץ״ הזה כשרק שני פוליטיקאים התריעו שזאת דהירה מהירה אל הקירלמשל לפרק את המחנה הציוניאולי… talshalev1 ריכלתי עם cabeleitan ו liorrotbart על פרץ ואורלי לוי ועוד חיבורים ואיחודים היה כיף חיים     htt… liorrotbart “הפרוצדורה הפודקאסט של איתן כבל וליאור רוטברט” אירח את טל שלו על האפשרות לאיחודים בימין ובשמאל האזינו כדאי לכם יצא מע… עוד קצת מאמץ והכבל בפנים ברוכים הבאים לגהינום הכניסה לירושלים תסגר לרכבים פרטיים לשלוש שנים תאמינו לי ומניסיון שרק עקב זאת ממש לא כדאי להבחר לכנסת YehoshuaYosi benirabin וחוצמזה לשאול את יוסי יהושוע על גת זה כמו לשאול תימני איך מכינים רגל קרושה חכמינו כבר אמ…  YehoshuaYosi benirabin אין מחלוקת בעניין כי ברור לעוסקים במלכת הלעיסה שגת אדום נותן את התוצאה המירבית hshilorunning israelifalcon EstyS יפה שהדגש הוא על דעתך בדקת גיגלת ביררת אבל מה זה חשוב העיקר להגיד  ברוך הבא בפעם השלישית לאהוד ברק מחייה השבתאות והנכס האסטרטגי החדשישן של נתניהו Nefolet kannnews YaronDeckel ReshetBet מקנא שייל לך זיכרון קצר ולי אין פעמיים תמכתי בברק ובפעם השנייה עשיתי ז…  MFaibis בזכות תמיכתי גבאי ניצח סתם עניין שולי PerlGoor תודה ומעריך את כנותך המתפרצת אצביע עמיר פרץ כי בתנאים הנוכחיים הוא הסיכוי היחיד שנצליח לשרוד בתאריך 11119 עמדתי מעל במת ועידת מפלגת העבודה ו…  tinman אני מדבר אתך על מהות ואתה מדבר אתי על הפרוצדורה veredop שמעת על המושג במרכאות ברור שאף אחד לא עוצר נשימתו KfHyiCg6x5eWxSa אומנם יש לך רק שלושה עוקבים אבל למה כבר לעשות לי יורצייט AlonPinkas BenCaspit ענקקק AlonPinkas BenCaspit זה האפטר שייב היחיד שאני לא אלרגי אליו Ayeletnnv RimonRan zviashkenazi המשלוח יגיע RimonRan zviashkenazi נכון לרגע זה נאכל פירות ובעיקר אבטיח leibo871 היטבת לתאר zviashkenazi זה מה שגם נעשה faketibi חולה על זה faketibi תמיד זה היה כך רק שעשיו צייצתי על זה פייק giligiliz אוהב הכי טרי שאפשר archwayh זהו בערך שבועיים והבערך טרם חלף CHAGAID אף פעם לא מלכלך zviashkenazi יש הזמנות של בנות הבית דגי דניס בתנור חזה עוף בערמונים כנפיים ברוטב צ׳ילי מתוק והתוספות תיכף נחליט העולם כמרקחה  ארה״ב מול אירן ואולי מלחמה ובישראל כולם ״עוצרים נשימתם״ לקראת הפריימריס בעבודה אבל אצלי יושב עתה רגל…  TLV102FM חילונים חרדים יהודים ישראלים ומה עשה יוסי שריד המנוח כאשר איתן כבל השתתף בקמפיין למען מזוזות הכל הכל בפרק החדש של ״הפרוצד… TomerVaron נראה לי שאתה לא התעוררת תם הטקס בסדרה ענקית טורונטו רפטורס אלופה גולדן סטייט האלופה היוצאת זוכה רשמית בתואר איוב של הפציעות Omu6UgTgqcPYcNs Avichais GabbayAvi אני עסוק בלכאוב את כאבה של מפלגתי PerlGoor יפה כתבת אלוף אתה shashaasaf תודה מתוק guyelster זו הבעייה שלך הנהי שלי או הבעייה שגבאי עמד בהתחייבותו להפיל את הבית עלינו moraep1 זוכר היטב ובמקרה הנוכחי הבעייה איננה עם הנופל אלא עם הנופלים ההודעה על לכתו הייתה מאוחרת מדיפתטי אני לא נושם אני לא נושם תמיד אספר שראיתי את המשחק החמישי בין טורונטו לגולדן סטייט yiftachm השעה גרמה לי כנראה למחוק את גולדן סטייט מקווה שזו לא קריאה בקטנה של העתיד כי חייבים משחק שביעי לפני דקות התחיל המשחק האחרון בין טורונטו רפטורס או רק המשחק החמישי  הלוואי והסדרה תסתיים בשבעה משחקים oferdann מה אתה חותר לי בראש בשבת בבוקר ועוד באיזה נושא טוענים שאני ספוילריסטאז רק אומר על המשחק הרביעי שיתכן שאחת הקבוצות במשחק בין גולדן סטייט לבין טורונטו רפטורס מתח…  MLayosh חיבוק ענק חבר zviashkenazi azariarachel realrafiperets DayanNetanel בהצלחה לך אלוף לא להם🥇 GideonMeir תודה גדעון למילים החמות והחכמות שלךובעיקר לכבוד שזיכית אותי בהובלת העבודה לאבדוןאתה צודק נבחרתי להובי…  NehemiaGA גדול אתה על זה נאמר ציוץ ממוסמך sDavidovitch וניו יורק תהיה האלופה איגוואדלה מוציא את גולדן סטייט מהקבר והתוצאה מול הרפטורס 11 משחק מותח ומלא בפציעות ודריימונד גרין אחד בוקר טוב לחבריי במנזר השתקנים פתאום הבנתם שגבאי צריך להתפטראיפה הייתם כשניתן היה להציל את הבית ולא את עצמכםאני נ…  orenfarber עם מצביע כמוך ראוי לשקול זאת Noam20fer תמיד ליברפול איזו פתיחה מ ט ו ר פ ת ליברפול 1 טוטנהם 0 orenfarber ornashtoffer daniellebe86 ronithedin ברור אורן כל הקמפיין היה מונח על כתפיי השחות מתנצל שלא עמדת…  ayeletmm איילת אני מניח שכתבת את הציוץ שלך בלי משקפיים בגלל זה לא ראית את מה שכתבת hdi9xXvEOL1NeZl daniellebe86 תודה אליעזר ממש מגניב לקרוא את דברי ההבל שלך JoshBreiner תיכף קם לבשל קציצות עוף ברוטב עגבניות ועוף בגריל והבנות יחליטו על התוספת ornashtoffer daniellebe86 ronithedin אורנה את באמת מאמינה שאם נמות מחובקים הציבור ינהר אחרינו זוכרת את ימי רבי…  jk6GN825EP7YejI תודה יקירה ומאוד מעריך את כנותך ואת ההתנסחות שלך על הסגנון הישיר שלי ornashtoffer daniellebe86 ronithedin אורנה לא יפה לצערי אינך עוקבת אחר עשייתי וזה מאכזב ornashtoffer daniellebe86 ronithedin נו גבירתי אז למה להתגולל על כולם במקום על אברהם archwayh ברור רק בגלל זה לא מצביעים כמה שטוח ורדוד עוד אפשר להיות YuvalRivlin הייתי עונה לך אבל לא שווה לי להתאמץ כשייש לך רק שישה עוקבים  miki1650 ברור מיקי שאני אשם ברור שכל הבעייה זה רק איתן כבל שהתרעתי והזהרתי אבל כך נוח להאשים את השליח תתעורר מ…  אחרי שהרג את מפלגת העבודה נכמרו רחמיו של הקברן עלינו וברוב טובו וחסדיו הוא מטפל עכשיו בסידורי הקבורה  הבעייה כבר מ…  notpolicorrect MaarivOnline GabbayAvi במתותא ממך אני מקווה שאינך מטיף לי על אי עשייה פרלמנטרית MordechaiSasson ברור קניות נקיונות בישולים הקסם של שישי טורונטו מנצחת את גולדן סטייט לפני הכל דרך ההגנה יש מצב לסדרה אש Meravbenari KahlonMoshe KahlonKulanu את אלופה ובהצלחה relbytes אני מבין ותודה אתה מפרשן אותי באופן מוטעה ונפרד כל אחד לדרכו relbytes לרעיון לא לציטוט אבל אם זה מניח את דעתך אז תהנה ללט הבשורה הגדולה שעולה מדבריו של נתניהו שסוף סוף גוש השמאל גדל relbytes לא אקרא לך בשמות ורק אגיד לך שממש לא אמרתי זאת ולא התייחסתי לעניין הסזון אבל לא נורא אמרת היה ליכודניק ונשאר ליכודניק סיים להפיל את הבית עלינו ועכשיו בורח חזרה הביתה כדי להציל את עצמו בתוך כל ההמולה יש חדשות טובות בנק חדש  ב4 שנותיי כיו״ר והכלכלה עמלתי שבנק הדואר יהפך לבנק מסחרי שמשרת בעיקר את…  NitayAnavi IMFNews אני דווקא קראתי את החלק הלא מרומז שנוגע לצורך של בנק ישראל לשפר את השקיפות שלו מול הציבור ומול…  TheProletariat ״עבודה זה איתן כבל״ תכלס  TheProletariat גדול ברכות מכל הלב לRonnyLinder על הזכייה בפרס סוקולוב  אחת העיתונאיות המקצועיות והאמיצות ביותר שסיקרה ללא מורא את חוק…  איזה סוויפ מפואר של החונקים מגולדן סטייט מול הנחנקים מפורטלנד לפני כעשרה ימים הגיע הצפע והיום בא לביקור השועל ובשבוע הבא אני מניח ישובו שפני הסלעמעניין מי שולח אותם  DanaYarkechy gilshil KahlonMoshe ohaddanus עוד אין מהות ואת כבר לוקחת אותי לפרוצדורה BiniAshcknasy עם רינה או בלי הלילה הולך להיות לילה לבן ולא בגלל האירוויזיון  בחצות אתארח בגל״צ בתכנית ״ציפורי לילה״ עם רוני קובן ועמרי אסנהיי…  וואוו וואוו גולדן סטייט בלי דוראנט  מגדירים מחדש מול יוסטון רוקטס את המושג משחק כדורסל הירואי Yaakov82547150 ולידיעתך הצפע נכלל ברשימת החיות המוגנות ולוכד הנחשים משחרר אותו בחזרה לטבע במקום מרוחק Yaakov82547150 יקירי לא נמאס להטיף לי על מה שכבר הבהרתי חזור והבהר שזה בחלק של העירייה הצמוד לגינה שלי ובשבוע הבא…  DrEligula תודה ומעריך את הכנות rachel80720 זו צמוד לחצר שלי DrEligula באמת אתה דוקטור או פייק lirondavidzada נראה לי שהצפע הזה מאוד מאוד זעמןכך לפחות לפי דברי אדי הלוכד sharonidan החתולה שלנו בוטן שרק לפני כחודש ימים המליטה ארבעה גורים מנהלת משא ומתן עם הצפע ואני מת מפחד שלא תפגע  y1shaul זה שטח של העירייה חבר אבל מטפל היה בטוח וואחד נחש  אצלנו בחצר הבית  איך אמר אדי לוכד הנחשים המהולל זה לא נחש צפע זו מפלצת ענק הצפע הזה לא ויתר עד הרגע האחרון  על עופר באתר יזכור  יום הזכרון מגיע ודמותו של חברי סגן עופר שטרנברג ז״ל שנפל במלחמת לבנון הראשונה בכפר סיל צפה ועולה בראשי יחד עם תחוש…  ביבי רוצים הסדרה אבל ההסדרה שלך הורגת אותנו Ayeletnnv את צודקת שאני לא זקוק להתנפח בהליום כדי לעוף על עצמי Ayeletnnv תודה חברה אהובה ומוערכת bbsch9721 אם נשמעתי לך מתמרמר אז אתה טועה קשה להאמין אבל אני ממש לא ממורמר אבל למה לקלקל לך את הציוץ אחרי 22 שנה שבת ראשונה בלי התואר חבר כנסת ותאמינו או לא גם אלו שמתרווחים בכיסאותיהם ומרוצים מעצמם על שעשו לי קפד…  EytanAvriel לפני שבוע סיימה ועדת חקירה פרלמנטרית שהוקמה בשל קריסת פישמן את עבודתה עכשיו מתברר שעם האשראי שקיבל בבנקים ובאמצעות הבעל… kaplaneran tuvipollack במטוטא תזרום מודה שהייתי פסימי הערב לגבי הבוסטון שהיא הקבוצה שתמיד בליבי שנתנה הערב הצגה מול מילווקי מחזיק את כל האצבעות ויודע…  EytanAvriel ועדה של מחוקקים ורוצה להעניק לפיקוח על הבנקים יותר סמכויות יותר כלים יותר זכויות לחקור להעניש ולהרתיע — ובמקום לחבק את… פשוט לא מבין מה קרה לכל החולצות שלי כולן התכווצו אחרי חג הפסח האחרון  כבר מתרגש לקראת המשחק בין גולדן סטייט ליוסטון והאמת שאני בכלל אוהד של הבוסטון Israel74537410 אסקופה נדרסת עשית ממני אבל אתה צודק הGSW נתנו ליוסטון ולאיש עם הזקן אחלה מנוחה איזה משחק ענקקק לLAC שלא ברור להם שאנחנו חייבים את הסדרה של הגולדן…  ברמת הגולן מחכים במתח איזה יישוב ייקרא על שמו של טראמפ לאחר הודעת נתניהו שיקרא יישוב על שמו של נשיא ארה״ב בינתיים…  מועדים לשמחה  בשעה 1100 יהודה ידידי ואנוכי נשדר את המילה האחרונה בגל״צ  אז למי שבדרכים מי שבטיול או בעבודה הצט…  FakeEddiKopel אדי למה אתה פסימי ככה בערב החג אני פה תמיד zviashkenazi חג שמח גם לך ולכל עוקביךאיתן sharonidan תודה על העצה שרון חג שמח שיהיה BarShemUr תודה רבה יקירי חג שמח גם לך תמיד שאלתם את עצמכם איך עושים את החרוסת הכי טעימה שיש אז קבלו חרוסת מבית כבל עם המתכון המלא וסרטון הדרכה קצר יחד…  tzikibrandwine צודק חג שמח כשאתי בנדלר המשנה ליועמ״ש הכנסת ואחת הותיקות במשכן מפרגנת ככה הייתי חייב לשתף אתכם  RoyFolkman תודה רועי אח יקר  היית שותף מלא ונמרץ בפעילות בועדה הרוח גבית שנתן שר האוצר כחלון לעבודת הועדה הייתה…  ltltהענקת סל כלי אכיפה וחקירה פלילית לפיקוח על הבנקים ורשות שוק ההון הקמת שולחן רגולטורים הארכת תקופת הצינון ומניעת…  ltltמחובות הטייקונים הרגולטורים לא פיקחו לא בדקו לא חקרו לא עשו שימוש בסמכויותיהם כדי להטיל עיצומים ולא דיווחו ל… </t>
+  </si>
+  <si>
+    <t>SecPompeo Wishing a blessed and sacred Yom Kippur to all the Jewish people May your fast be easy and meaningful Gmar hatimah tovah…   היום בשעה הזאת לפני שנה בדיוק   הדברים שכתבתי אז בכתל נכונים היום שבעתיים  ״לא נוכל לשום אתגרלא בטחוני ולא מדינ…  מי שמתגורר בסביבת ביתי ומבקש להביע מחאה מוזמן לעשות זאת תוך הקפדה על הסימונים   קפסולות של 20 אנשים ומרחק 2 מטר אח…  talschneider כלי השבכ איתר ובידד בלעדית למעלה מ40 אלף חולים מתוך כ180 אלף חולים שאותרו מאז ה1 ביולי shimritmeir אפשר להתחיל מכאן  יום שישי בבוקר  יותר מ7500 חולים ב24 שעות האחרונות  ישיבה חריגה ורציפה בכנסת מאתמול  אני יושב בועדת חוקה ויש ל…  dereheretz 6700 נדבקים חדשים בקורונה אין שום ״מתווה״ אפשרי מלבד עצירה מוחלטת של התקהלויות גם הפגנות וגם תפילות  חיי אדם קודמים לכל אדוארדו בולסנרו יו״ר ועדת החוץ והבטחון של ברזיל המדינה השישית בגודלה בעולם  ״אתמול חתמנו  על מסמך חסר תקדים לשית…  BolsonaroSP Hoje assinei documento estimulando maior interação entre deputados do Brasil e Israel pelas nossas comissões de relações e… BolsonaroSP 🤝 AO VIVO agora assinando documento de diplomacia parlamentar que visa cooperação entre os parlamentos de Brasil e Isr… 33  הטקס היום עשה גם היסטוריה היה זה ההסכם הבין פרלמנטרי הראשון שנחתם באמצעות שיחת וידיאו שגישרה על פער של 10000…  23 היא מדינה חשובה מאוד ביבשת אמריקה ומר בולסונארו הוא ידיד אמת ואוהב ישראל שמחתי על כך שבמהלך הטקס מר בולסונארו…  13 לצד המאבק הבלתי פוסק בנגיף הקורונה השלמנו היום מהלך היסטורי  הערב חתמתי על מסמך הצהרה משותפת במעמד יור הכנסת…   ספרד מצטרפת לצרפת הולנד שוויץ אוסטריה צ’כיה ומדינות נוספות שקיצרו הבידוד  אני חוזר וקורא לממשלת ישראל לקצר הבידוד…  BolsonaroSP Intermediação será feita pelo Embaixador de Israel no Brasil Sr Yossi Shelley que foi peça fundamental nessa aproximaçã… BolsonaroSP Brasil e EUA nunca estiveram tão próximosassim como também Brasil e Israel  Amanhã assinarei declaração conjunta entr… ZvikaKlein עובד בכיר בזום יהודי כמובן  איפשר לכ300 בתי כנסת שימוש בפלטפורמה באופן חריג לשידור של 72 שעות  וזאת כדי לאפשר שידור של… RoitEverly תודה על הברכות והדברים החמים ותודה על התמיכה שלך לאורך כל השנה ״ עֵת לִרְפּוֹא עֵת לִפְרוֹץ וְעֵת לִבְנוֹת ״ שנה טובה לכולכם  מפסיקים עם המסך המפוצל ידענו בעבר להתמודד ביחד ולמרות הכל נדע גם עכשיו  שנה טובה  שנת בריאות שנה של דרך ארץ  doroneran ידידי ח״כ צביקה האוזר יו״ר ועדת חוץ וביטחון אחד מהאנשים הבודדים יחד עם שותפו השר יועז הנדל בזירה הפוליטית  שמכיר באמת… באנו להגיד שנה טובה לחולמים ומגשימים בנגב  בתמונה יו״ר המועצה האזורית רמת נגב ערן דורון ושני חברים  הממשלה ממשיכה להתעלם מהצורך לקצר את ימי הבידוד משרד הבריאות מסרב להכיר בקיצור הבידוד שנעשה במדינות אחרות ואנחנו מש…  UEvental לא יהיה שלום נפרד בין ישראל לעולם הערבי אני רוצה שזה יהיה ברור מאוד לכולכם לא לא לא ולא לא יהיה בלי תהליך עם הפלסטי… dovalfon libe ברכות dereheretz הרמת כוסית לשנה החדשה עם פעילי דרך ארץ המעולים מי יתן והשנה הבאה עלינו לטובה תהיה מוצלחת בריאה ומאוחדת יותר מהקודמת ״לא… נפגשתי היום עם ראש עיריית אשדוד  ד״ר יחיאל לסרי שוחחנו על שני נושאים  א הכורח לפרז את עזההצעד היחידי שיבטיח  ה…   sugawitter מברך את מזכיר הממשלה של יפן יושיהידה סוגה שנבחר היום לראש ממשלת יפן  ברכות מירושלים  MaarivOnline חכ האוזר במערכה הבאה ההישג הנדרש הוא פירוז עזה מטילים תושבי עוטף עזה הם האוכלוסיה היחידה בעולם שמתמודדת באופן שגרתי עם ירי רקטות ישראל הגיעה לקצה גבול ההכלה של ירי על א…  נשוב ונדגיש את עזה יש לפרז מטילים זה ההישג הנדרש יכולים וחייבים לקצר את זמן הבידוד ביומיים אנחנו המדינה עם הכי הרבה מבודדים בעולם אפשר לצמצם הפגיעה באזרחים ובמשק…  YoazHendel1 אחרי ההחלטה אמש על הסגר זה הזמן לקבל את דרישת חברי ZviHauser לקיצור ימי הבידוד ביומיים  כך נהוג במדינות אחרות זה לא מג… dereheretz תכירו את ראש מועצת אורנית ניר ברטל שותפנו לדרך איש ערכי ציוני פרגמטי מגיע לייצר מציאות חדשה  ברוך הבא לדרך ארץ  urielevy ככל שאני נכנס לפרטי מלחמת העצמאות מעמיקה בי ההבנה כמה אקראי הוא קו הפסקת האש שזכה לימים לכינוי הקו הירוק לו רק היו יודעים… יש שמדברים ויש שעושים גם בתקופה של שיתוק מערכות מי שרוצה להוביל מהפכות מצליח  אחרי אישור דור 5  שר התקשורת מעבי…  radio103fm חכ צבי האוזר ZviHauser דרך ארץ מתחילת יולי מיליון ישראלים שהו בבידוד זה נתון חסר תקדים בעולם ביחס לגודל האוכלוסייה… kannnews דוח משרד הבריאות חושף מ1 ביולי ועד היום התבקשו כמיליון אנשים להיכנס לבידוד יור ועדת החוץ והבטחון צבי האוזר קרא לבחון אפש… DaphnaLiel שימו לב לנתון המטורף הזה כמיליון  מבודדים מתחילת יולי יו״ר ועדת החוץ והבטחון ZviHauser פנה לקבינט הקורונה וביקש לקצר… EladSi זאת ועוד הצרפתים טענו שנוכח הסיכון הקטן עדיף לקצר את הבידוד לשבוע כדי להקל על אזרחים וכך להגדיל את שיתוף הפעולה מצידם  סיכו… HauserTov האמת אמת שקצת מתרגש  הלילה בפעם הראשונה אשדר תוכנית מוסיקה  2200 בגלצ  ספיישל עם המון שירי דרכים חוויות מהטיול שעשיתי לפ… GershonJerry YoazHendel1 יועז הנדל וצבי האוזר מוכיחים פוליטיקה אחרת יום יום בחרת בהם קיבלת בדיוק את מה שהם הבטיחו הם להבדיל מהרבה…  שמח לבשר שהממשלה נענתה לבקשתי ובמסגרת אישור תוספות התקציב אושרה אתמול בלילה תוספת תקציבית שתאפשר לספריה הלאומית לחז…  יועז הנדל וצבי האוזר  כלכליסט  100 המשפיעים  2020  איתן פטיגרו ראש מועצת שהם  מצטרף ל׳דרך ארץ׳   ברוך הבא איתן יחד נפעל לשינוי מציאות לטובה  אין דרך אחרת …  חייבים לקצר את זמן הבידוד  מיולי נכנסו לבידוד כ900 אלף ישראלים אנחנו היחידים בעולם הנעזרים באיכוני שב״כ לאיתור מ…  zalmanovitz ברכות פרופ׳ גמזו נכנס לבידוד כמו כ 900 אלף  ישראלים שנכנסו לבידוד מאז ה1 ביולי  אולי עכשיו יש סיכוי לקיצור הבידוד ביו…  dereheretz מחלקים הערב עם פעילי המפלגה עשרות מחשבים למשפחות מעוטות יכולת בירושלים אסור שמצב כלכלי ישפיע על היכולת של ילדים ללמוד תוד… kunikran סיור יפהפה באתרי שכונת בורוכוב ערכנו הבוקר ליו״ר ועדת החוץ והביטחון ח״כ צבי האוזר הסיור למר האוזר חובב היסטוריה ושימור כל… הקורונה לא מבחינה בין יהודים לערבים  כפי שקראתי בתחילת המגפה אני פונה בשנית למשרד הבטחון צה״ל ולרשות השרות הלאומי…  שישה חודשים פחות 13 יום  dasides חכ צבי האוזר בשיחה לגומרים הולכים ZviHauser  dereheretz  TLV102FM  usegal  גומריםהולכים   ישובי קו התפר בעמק חפר מתמודדים עם גל מסתננים הולך וגדל נפגשתי היום עם תושבי האזור ועם ראשת המועצה גלית שאול וסייר…   grolnik גיאהתזה שלך בנויה על ציטוט שלא נאמר אני בטוח שתבדוק ותתקן בהתאם הידעתם כשאתם אומרים   ״רוב הציבור מבין שהמצב קשה אבל אין פתרון פוליטי למעט ממשלת אחדות״  יצטטו אותכם כך  ״זה שיש…  ׳פייק לאנשים חושבים׳   דברים שמעולם לא נאמרו הפכו לכותרת בציטוט ישיר שלימוזמנים להאזין לפודקסט עיתון הארץ מפר כ…  MalachiVin מוזמן לעקוב כמו שההורים שלי אמרו לי ביום הראשון של כיתה א  ׳תלמד תצליח׳  אין קיצורי דרך   בהצלחה לכל המתחילים  היום במסע הא…  hendmana     The first commercial flight from Israel to the UAE landed in Abu Dhabi today carrying a USIsraeli delegation led… misscorina2 netanyahu נסחפת שאול מרידור שורה תחתונה  IsraelinJapan    השבוע ב׳ישראל השבוע׳       לסיכום עוד שבוע סוער מוזמנים לצפות עוד מעט בראיון שנתתי לאופירה וברקו  שבת שלום  YoazHendel1 סיכום 100 ימים ראשונים שתפו  AbeShinzo     שינזו אבה ידיד אמת לישראל הודיע על התפטרותו  בשם אגודת הידידות הפרלמנטרית ישראל יפן אני מודה לראש ממשלת אבה על שי…  הצלחנו למנוע את טירוף הבחירות  על זה ועל דברים נוספים  מוזמנים לקרוא ראיון שנתתי למוסף ישראל השבוע של ישראל הי…  מ ע ו לה   ממשיכים במאבק לקיצור הבידוד  עד היום כ700 אלף אזרחים נכנסו לבידוד מנכל״ית האוצרקרן טרנר ענתה לפנייתי והבהירה ש…  מינוי מצויין  DaphnaLiel שימו לב למספר האנשים האסטרונומי שנכנסו לבידוד תוך פחות מחודשיים לפי נתוני האוצר יום בידוד עולה למשק כ78 מיליון שקלים יו״… בעוד חמש דקות אעלה לפייסבוק LIVE הצטרפו אליי   בשם הרוב השקט בישראל  הצטרפו אלי היום לפייסבוק LIVE  מוזמנים לשמוע על משבר הבחירות פשרת האוזר ועל מפלגת דרך ארץ כתבו לי  שאלות  וא…  radio103fm חכ צבי האוזר יור ועדת חוץ וביטחון דרך ארץ חתן השמחה זה עם ישראל אתם עסוקים במה יצא לנתניהו ומה יצא לגנץ אבל המרוויחי… תיכנסו תקראו תצטרפו  dereheretz מנענו בחירות שוב תעקבו אחריו רץ למרחקים  0600 שחר של יום חדש סיימתי עוד יום עבודה מקווה שהצלחתי לעצור את טירוף הבחירות  yanircozin בפשרתו חכ צבי האוזר פשוט מבקש להזכיר לצדדים את סעיף ד בהסכם הקואליציוני עליו שני הצדדים חתומים  פעם מזכיר ממשלה תמי… מוזמנים לעקוב גם באינסטגרם  סיפור מקסים לשבת  נותרו 5 ימים לפיזור הכנסת  משוגעים רדו מהגג   KnessetT מליאת הכנסת אישרה בקריאה ראשונה את הצעת החוק המבקשת לדחות את מועד אישור התקציב במאה ימים נוספים יוזם ההצעה חכ ZviHauser מד… MyIsraelorgil 2 החידוש של האוזר החוק יחול גם על היישובים ביוש בכל החלטה חלילה על עקירת יישובים יחויב לערוך משאל העם בישראל זו… MyIsraelorgil 1 הצעת חוק של חכ ZviHauser שחייבת לעבור הסבר קצר כיום קיים חוק משאל העם לפיו בכל החלטה מדינית של ויתור על שטח ריב… zoharm7 השתתפתי היום בשדולת ארץ ישראל בראשות ח״כ חיים כץ וח״כ בצלאל סמוטריץ׳ אני בטוח שהם יעשו עבודה חשובה ומועילה למען ההתיישבות ומי… רוצו לראות  KipaNews חכ צבי האוזר מקדם החלת חוק משאל עם גם על ישובי יהודה ושומרון  נוסח הצעת החוק להחלת חובת משאל עם בעניין יו״ש  שהנחתי בפני הכנסת בכוונתי לקדם החקיקה כבר השבוע  44 בכוונתי לבקש כבר השבוע פטור מחובת הנחה להצעת החוק שהגשתי מתוך הבנה כי לחוק זה יש תמיכה רחבה ויש לקדמו במקביל לקידום יוזמות השלום 34 כחלק מלקחי העבר ולאורם של ערכי כבוד האדם וקניינו ואחדות ישראל  כל החלטה היסטורית העלולה לפגוע במעמדם של היישו…  24 הגשתי הצעת חוק ברוח זו בשבוע שעבר ההצעה תואמת גם את רעיון הליבה בתכנית השלום של הנשיא טראמפ המכירה ביישובים ה…  14 אני מברך על הסכם השלום ההיסטורי בין ישראל לאיחוד האמירויות המבשר כינון יחסי מסחר תיירות ותרבות בין המדינות  ב…  22  12אתמול ציינו 110 שנים להולדתו של נתן אלתרמןהאיש שברא מאותיות דו מימד עולמות תלת מימד פתאומי לעדשהעברית תקוד לו…  לא כל כך נפגשנו השבוע  GLZRadio ועדת החוץ והביטחון בראשות חכ האוזר דורשת דיון נוסף בבגץ בנוגע להריסת בית המחבל שרצח את עמית בן יגאל זל TsahiDabush radio103fm אם נלך לבחירות מאות אלפים יצאו לרחוב  חכ צבי האוזר רוב מוחלט בציבור מבין שמול איתני הטבע האלה צריך להעמיד ממשלת אחד… KnessetT 46 החוק לדחיית ׳טרוף הדעת הלאומי׳ ודחיית היציאה לבחירותעבר בקריאה טרומית  אעשה הכל כדי להחזיר השפיות והיציבות למערכת…  IsraelinBrazil A embaixada de Israel agradece ao deputado  BolsonaroSP pela proveitosa conversa com o Sr embaixadoryossi e o Sr … סוף סוף יצאתי יועז  YHepstein לא זוכר שהיה לי ברור בעשור האחרון כמו שברור לי עכשיו מה הייתי מצביע אם היו מפילים עלי בחירות מהיום להיום  האוזרהנדל danizaken   גנץ בכותרת המעניינת מחוב  פועלים תמורת שבויים ונעדרים האוזר התריע בחירות הן סכנה בטחונית zvi2008 מוזמן לעקוב  kannnews יור ועדת חוץ וביטחון חכ צבי האוזר יודיע מחר בוועדה שלא יאשר את המשך איכוני השבכ  אם לא יקוצר משך הבידוד מ14 ל12 יום… הצעת החוק שהנחתי לדחיית מועד התפזרות הכנסת בשל אי קבלת חוק התקציב  לעיונכם   הצעת החוק שלנו תעלה ביום רביעי לקריאה טרומית במליאה וזו התקדמות מבורכת   בחירות בזמן משבר הקורונה ולאור האתגרים ה…  הרב שטיינזלץגאון בדורנומענקי הרוח וההגות היהודית הלך לעולמובמפעלו רחב היריעה חיבר עולמות של תורה מדע ודרך ארץבפ…  קרוב לחצי מליון מבודדים בחודש יולי   משך תקופת הבידוד בלתי סביר אם הממשלה לא תקצר תקופת הבידוד לאלה שבאים במגע עם…  ברוך הבא אביב   kannnews יור ועדת חוץ וביטחון ZviHauser לSyechimovich וYigalGueta אין היגיון לאמץ נוסחת ניהול סיכונים שכוללת 14 ימי בידוד בהי…  נגד אנרכיסטים  בעד אחדות ואחריות לאומית  נגד חוקים פרסונליםבעד חוק יסוד החקיקה שיסדיר יחסי רשות מחוקקת עם רשות ש…  radio103fm חכ צבי האוזר ZviHauser דרך ארץ ממשלת אחדות טובה יותר מכל אלטרנטיבה אחרת בעוד 3 חודשים נהיה עם נגיף קורונה נגיף שפעת… אתגרהיישומון יוצא לדרך  כמה שיותר אנשים צריכים להוריד את יישומון המגן בכדי לשטח את העקומה ולקטוע שרשראות ההדבקה…  22 פניתי לפרופ רוני גמזו לבחון לקצר את מספר ימי הבידוד לאנשים שהיו בסביבת  חולה מאומת מ14 ל12 הסיכון הבריאותי…  12 כמה זה עולה לנו  בחודש יולי נכנסו כ400 אלף אנשים לבידוד  רובם המוחלט מטעמי זהירות ולא בגלל שהיו חולים ויתור…  10elilevi שר התקשורת ח״כ YoazHendel1 ויו״ר ועדת חוץ ובטחון ZviHauser נפגשו בסמוך לחוף בצת עם ראשי יישובי קו העימות בהם יו״ר הפורום מ… הנחתי היום הצעת חוק הדוחה את מועד התפזרות הכנסת בשל אי קבלת חוק התקציב במאה ימים נוספים  הדבר יאפשר לכל מרכיבי הקו…  KnessetT לקראת כינוסה הראשון היום של ועדת המשנה למדיניות ואסטרטגיה של ועדת חוץ וביטחון היור ZviHauser אומר לערוץ כנסת כל המערכות… מי שחושב שניתן יהיה להתמודד בחורף עם נגיף הקורונההשפעת ובנוסף לזה להכניס את ישראל לקלחת בחירותלא מבין בפני מה אנח…  DEArabicFans مبادرة رئيس لجنة الشؤون الخارجية والدفاع عضو الكنيست تسفي هاوزر تخفيض عدد أيام الحجر المنزلي الإجباري من 14 يوما الى 12… ודאות פוליטית היא תנאי הכרחי לביסוס ודאות כלכלית ולחיזוק אמון הציבור במקבלי ההחלטות בזה מבחנינו בימים טרופים אלה dereheretz כל מנהיג עם טיפת אחריות לאומית מבין שאי אפשר ללכת לבחירות מציעים לכולם להרגע gideonallon היוזמה החשובה של ח״כ צבי האוזר שיכולה לחסוך למשק 600 אלף ימי עבודה  הנחת העבודה המעודכנת של ממשלת ישראל שהקורונה כאן לפחות עד סוף 2021  אזכיר שלפני ארבעה חודשים משרד האוצר התעקש להני…  ShaiCohen13 חנוך דאום במשפט שאני מאוד מזדהה איתו  אני איש ימין הדמות שמייצגת אותי היום בכנסת כימין ליברלי היא יועז הנדל YoazHen… IsraelTechNews1 פיתוח המגן 20 הושלם – האוזר נזף במשרד הבריאות מה עם ההשקה בהכנת חוק השבכ לקריאה שנייה ושלישית הדיון התמקד יותר… karineb שרשור דיון של 8 שעות בוועדת חוץ וביטחון על חוק הסמכת השב״כ והפעלת חלופה אזרחית  ברכות לZviHauser על ניהול מקצועי ועמוק  הח… kannnews יור ועדת החוץ והביטחון מתכוון להוסיף לחוק האיכון הסלולרי הרחב חיוב על משרד הבריאות להתחיל להשתמש בכלי איכון אזרחי כדי לצמצם… 6 מיליארד שקלים צריכים להיות מופנים קודם כל למערכת הבריאות להערכות חרום לחורף אנחנו עומדים בפני אתגר בלתי נתפס עם…  YoazHendel1 מברך את ידידי ורעי ZviHauser על המינוי משוכנע שימנה שופטים ראויים למדינת ישראל 33 שופטים שמבינים את חשיבותה של הפרדת הרשויות במדינה דמוקרטית ואת חשיבות האמון ההדדי בין  שלוש הרשויות ובינן לבין הציבור כולו 23 על בחירת השופטים לשקף נאמנה את רוח החברה הישראלית השקפותיה והרכבה האנושי מערכת המשפט אינה חפה מטעויות ואינה ח…  13 אני מודה לחבריי חברי הכנסת על האמון הרחב שנתנו בי כנציג הכנסת בועדה לבחירת שופטים אפעל ברצינות הראויה על מנת ל…  חומוס עלי  radio103fm חכ צבי האוזר ZviHauser יור ועדת חוץ וביטחון משבר הקורונה לא מנוהל טובהמערכת צריכה להתנהל אחרת הצבא צריך להיות מעור… radio103fm חכ צבי האוזר ZviHauser יור ועדת חוץ וביטחון המספרים של השבוע מוכיחים את יעילות כלי האיכון של השבכ הכלי לא מחליף את… זה בידיים שלנו  שומרים על ההנחיות ומצילים חיים שבת שלום מהבידוד  טקסט מרטיט לשבת איזה אוצר  voiceofajew BenCaspit XJVuTorl7xke5gr כנראה לא האמינו שהבריטים יעזבו 🤔 XJVuTorl7xke5gr שמח לראות שבנים הולכים בעקבות אביהם  ושמח לתת סימוכין  נשכחים מתוך האוסף שלי  Isachar1495 העימותים בממשלה התמיכה בפסקת ההתגברות הסיעה שהקים ולדבריו כאן כדי להישאר איכוני השבכ ועוד יור ועדת חוץ ובטחון חכ צב… radios100 השבוע בתוכנית הנבחרים עם דוד בן בסט ראיון עם יור ועדת החוץ והביטחון חכ ZviHauser dereheretz מחר שישי 1000 בבוק… Talimetser אין מופעי תרבות לפרסם אז ממלאים את הנדל״ן בהיסטוריה עיריית כפר סבא שאפו על היצירתיות  YoazHendel1 דו״ח קורונה הצלחנו להשיג סיוע קטן וחשוב לבעלי עסקים זאת רק ההתחלה  שתפו את הלינק למי שזקוק לסיוע  dereheretz האופוזיציה מנסה להטריל את הקואליציה ולקחת את ישראל לבחירות בזמן משבר לא ניתן לזה יד יש לנו כרגע רק מטרה אחת לעצור את שרש… לא נתפס  SrugimNews ראיון מהבידוד  חכ ZviHauser מדגים לציבור חבישת מסיכה לקחתי מסיכה וקשרתי חוט סביבה וכשאני לא חובש את המסיכה היא סביב ה… SrugimNews ראיון מהבידוד  חכ ZviHauser לסרוגים בהינתן שכלי השבכ לא מדויק ומשמש ככלי עזר הסדרנו מנגנון מפורט להגשת ערר משרד הבר… בדיוק  נגיף הקורונה הוא איום גלובלי העיר מלבורן אוסטרליהכ 5 מליון תושבים נכנסת היום ראשונה לסגר שני  יש לנו שלושה חו…  Eyalo365 כל הכבוד ZviHauser   זה מה שהציבור צריך לשמוע ולראות דוגמה אישית   אני רציני ולא ציני mharzion אני בעד ההאוזרון OttomanArchive Osmanlı Dönemi Sana Yahudileri Yemen Jewish men in OttomanEra Sanaʽa Yemen  RoitEverly תודה רואית 🤓 gevakraoz גבע תודה על שאתה מפיץ העניין לעוקביך המשך בעוז roiberenshtein רועי רגע ברצינות יש לך קרוב ל700 עוקבים ועוד מלא חברים וקרובי משפחה תשכנע אותם לשים חוט למסכה…  roiberenshtein רק היום במחיר מוזל ההאוזרון  reefli1 תפיץ ותמליץ לחבריך וליקרים לך חשוב לעשות הכל לשמור על החיים reefli1 וואו האוזרון הזה גאוני עשיתי ונושעתי  ZviHauser attilus משרד הבריאות שאנטי שאנטי  שימו מסכה המסכה צריכה להיות כל הזמן עליכם הנה פתרון פשוט מציל חיים אל תגידו  שכחתי נפל לי  אכלו לי  שתו לי…  תודה לך צבי צבי🦌  מה עוד אבקש  תודה בן אהוב  ברכות מישראל לארצות הברית החוגגת 244 שנות עצמאות    4thofJuly2020 Happy  אתנחתא בשבע עם רבקי גולדפינגר 9ScQ9pw3lpQR349 מוזמנים לקרא  chickos99  dereheretz נעשה סדר  מי שמצביע עם איימן עודה שישראל היא מדינת ״סיפוח ואפרטהייד״ שלא ימכור לנו גינויים בשקל  תודה  arikbender צביקה האוזר נותן הרצאה במליאה על מארק סייקס מהסכם סייקספיקו ומספר שהוא מת בגיל צעיר מהשפעת הספרדית  kannnews חכ האוזר לKalmanLiebskind וroysharon11 הבשורה הגדולה של תוכנית טראמפ זה שהיא התוכנית הראשונה שמתכתבת עם המציאות בשטח… RonelAdani לאמאמיןבשרשורים RonelAdani מאתיים שמונים תווים בלבד 🤫 צפיתי בנסיבות מעצרו של אמיר השכללא היתה שם אלימותמשום צד נראה על פניו שהמשטרה תצטרך לתת הסבר טוב מדוע נעצר הזכו…  60 שניות על עיקרי השבוע שלי  שבת שלום  attilus יור ועדת חוץ וביטחון האוזר שימוש באיכוני שבכ זה כלי לא טוב בדמוקרטיה צריך לפתח חלופה אזרחית לשבכ אם לא תפותח חלופה בין… attilus יור ועחוב חכ צבי האוזר ביומן הצהריים של רדיו 90 אנו ערב החלטה היסטורית לשנות הגבולות אני תומך בהחלת ריבונות ובהרחבת הגב… dormimun ישיבת סיעה  מארועי היום במליאת הכנסת ראו הנושא ראו רשימת התומכים   וחו״ב תקיים עוד השבוע דיון חירום לבחינת החלופות לאיכון טלפונים בידי השבכאם לא תוצג חלופה אזרחית זמינה עד סוף החודש…  IsraelinJapan  4022… שבת שלום  ישראל לא תאפשר לאירן להגיע לנשק גרעיני וכך גם מצופה ממדינות העולם החופשי נסיונות ההתחמקות של אירן מפיקוח אפקטיבי ע…  מינוי מצויין של אשה מצויינת  בפני ישראל עומדת הזדמנות הסטורית שאסור להחמיצה גבולות 67 אינם בני  הגנה יש לשנותם לתוואי גבולות שתואם את החזון הל…  kannnews יור ועדת חוץ וביטחון ZviHauser על האיומים נגד שופטי ביהמש העליון המרחב הציבורי בישראל מלא בגילויי הסתה ושיסוי מימין ומש… kannnews יור ועדת חוץ וביטחון ZviHauser על כוונת הסיפוח ישראל לא יכולה לפספס את ההזדמנות וצריכה לראות איך היא פועלת לשינוי הגבולו…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רק לידיעתכם כבר כיומייםשלושה מופצים סרטוני תחקיר המגלה שאילהאן עומאר חברת הקונגרס המוסלמית ממדינת מיסורי מעורבת…   מעניין מתי שופט יעיז לתת להם הוצאות כמו שהם עושים מול קבוצות של הימין  arnonsegal1 מסרו לו זקנים מזקני בית דין וקורין לפניו בסדר היום ואומרים לו אישי כהן גדול קרא אתה בפיך שמא שכחת או שמא לא למדת  ערב… עוד קצת ריבונות בירושלים  ריב חמולות בכפר אזעים שנמצא בריבונות ישראל כחלק מירושלים  כך ניראה ריבונות בממשלת נתניהו אז מי צריך ריבונות  kahanezadak היה טוב אהוב בלי כוונה להרוויח מזה חדל מלדבר רשע חדל מלחשוב רשע חדל מלחפש רשע ברעיך היזהר שלא לפגוע במי שאתה אוהב חש… ItshakWaserlauf באותו המקום בדיוק לפני קצת יותר מ20 שנה כיכר פריז ליד בלפור הפגנה של הימין נגד הגירוש מגוש קטיף שוטרים הודפים אותנו… IsrealSly פחות מיממה לכניסת היום הקדוש האם עוד ילד יהודי שנמצא בכפר הערבי יזכה לחזור השנה לחיק היהדות או שימשיך להיות בכפר הערבי זה… IsrealSly את פדיון הכפרות נותנים לישיבת הרעיון היהודי   חתימה טובה וצום קל   YotYotam זה כאילו כל התאוריה של אבישי בתמונה אחת  מפקד הגרוש והחורבן של גוש קטיף  האיש שביצע את הגרוש באכזריות מעיז לפתוח את הפה אחרי האסון שהיה שותף אליו  ארהב ניצבת בצומת דרכים במידה והשמאל ביידן יעלה היא תלך לכיוון ונצואלה ובמידה וטרמפ שוב יבחר הכיוון יהיה מילחמת אז…  mclbgn וואו נשמות אם תקשורת המיינסטרים ושאר שופרות הדיפסטייט היו עושים פולואפים לקלמן על החשיפות שלו של מערכת המשפט כמו שהם מהדהדים… אין סגר  אנטשמים שונאי יהדות תמיד ידחפו להפגנות מצד אחד וסגירת בתי כנסת  מתיוונים מודרניים וזו הסיבה שהם נגד הימין כי הם שונ…  IsrealSly בגצ בחסות המחבלים ניגמר הסגר מי שרוצה לצאת מאילת לקרית שמונה יגיד או שהוא בדרך להפגנה מבלפור או שהוא בדרך חזרה  חבל על המילארד…  זוהי גזענות לימין ולשמאל וגם לחכים הערבים לא איכפת שימותו ערבים  GuyBechor הפרוגרסיבים העיתון לאנשים לא חושבים והעם המומצא פותחים סוכת אבלים הסכם שלום עם סודאן מתקרב מה חשיבותו ומה עם המסתננים… עכשיו הם קיבלו הבטחה נוספת אחרי החגים לא אמרו איזה  במועצת ישע זה תמימות או טימטום  משבר הבנייה באיוש מהצהריים מתנהל מומ ממושך של גורמים במועצת ישע מול משרד רה…  הנכד בניה בנה במגנטים משהו יפה ופתאום אני רואה תוספת מעניינת   שימו  למסכה  BenCaspit כבוד מדויק  תפילה יותר חשובה מהפגנה וכך נפעל  עוד החלטה כושלת שלביבי  DZilbershlag לעיתים החלטות קטנות של אנשים קטנים מבטאות את יחסם לענינים ברומו של עולם הפער בין אלפיים בבלפור לבין עשרים  בתפילה חושף… שותפה של בנט  מחריבי היהדות שלצערי לאחרונה גם רבנים ועלונים נותנים להם הכרה  נכון אבל העובדה שאין לימודים מסודרים והשנה יש יותר חופש מאשר לימודים תשפיע מאוד בעתיד על התלמידים שהסתובבו ללא מסגר…  GuyBechor האסלאמיזציה של אירופה לא נעצרת לרגע לפניכם אחד המאמרים האהובים באתר לאורך השנים כך נראית העשרה תרבותית בבריסל  IsrealSly ימים אחרונים של קמפיין עשרת ימי התשובה של ארגון להבה  לא מחכים לרגע האחרון תורמים ומתרימים את כל המשפחה והחברים עוד היום… אהוד ברק היה מצטיין בעיקר ביחסי ציבור ואיסוף צלשים אחד מגבורי ישראל שהיה ב101 וממיסדי 890 אמר לי שבמידה ולברק מגיע…  מול שקרן משקרים מול מסית מסיתים מול פושע לא שותקים מנדבליט בושה  בדיוק בנט נכשל בכל מה שעשה אבל הוא סומך על הזיכרון הקצר של הציבור  אבל בנט ושקד לחצו לפתוח  כל יום אנחנו מבינים יותר כמה את השמאלנים לא מעניין השלום  נשארה משימה אחת שגללה הם עשו את אוסלו וגרמו למוות ופציעה…  גאונות  כמה היו הורגים במדינה ערבית  או בפלסטין שאתה רוצה להקים או אצל החברים שלך בעזה   טרוף  פרקליטות של שקר ומירמה  מסמך שאיתרו פרקליטי נתניהו והוגש היום לבית המשפט בניגוד להכחשותיו מנדלבליט ידע כבר קרוב לש…  זה מה שקרה לכל הרפורמות של נפתלי בנט כשהיה שר כלכלה ואחכ כשר חינוך לדוגמה הבטיח להוריד את שכר הלימוד וכלום לא קר…  elchangr זוכרים את יונתן פולק שלפני חדשיים הוציא לו ביהמש צו הבאה בגלל שלא התייצב לדיונים בתיק שמתנהל נגדו  אז בנתיים הוא לא נעצר ו… GuyBechor אתם מאוד אוהבים את המאמר הזה ובצדק השקרים נמסים עשרות אלפי כניסות תוך כמה שעות  אנחנו חיים על אותה פלנטה בנט שייך לאום מנהיגות זה לבחור צד ולקחת סיכונים  לא מדובר בגבר ושאר הסיפור ברור  הפגנות זה דבר חשוב אבל זכות התפילה היא פי 1000 יותר חשובה  יהיו הפגנות יהיו תפילות גמזו לך תחפש את החברים שלך בבלפור  ZadakKahane פרשת האזינו  וַיאכל תנובוֹת שֹדָי ויֵנִקֵהו דבש מסלע ושמן מחלמיש צור  אומר מור  אם ישראל יבטחו בקבה הוא יפרנס א… חברת כנסת שבחוצפתה מערערת על אלוהים ומלאכים  זה מהתקופה שבשבע היה עוד עיתון לפני שהפך לפשקוויל משפחתי  הראשון והחלוץ כמו בדברים רבים לפני 36 שנים הרב כהנא זצל היד בכנסת רואה ומזהיר מפני האויב המסוכן בגץ ולמה הוא פוע…  לא מוכן שימותו עוד 5000 איש שהכלכלה תשתפר  זה רק במיקרה קורה שם פ5 מאשר במגזר היהודי  drmichaelbenari אבל המשומדים הרפורמים לא יבקשו להדיח את הפלשתנאצי גם לא נגד השייח מוחמד חוסיין שמכנה את היהודים בני הקופים והחזירים ו… DanielGinat אני עדיין בהלם שיועציו הקרובים ביותר של ראש הממשלה מפירים בידוד ואפילו לא ננזפים מה לעזאזל קשור פה ימין או שמאל כפיתם על… בסיפורים שחיות מספרת ההרכבים זה עניין של המחשב אז לא חשוב שהיא תהיה שם  חזק ביותר  מחלקים שם מנות של חומר חינם או שזה רק עולה בזול בכל מקרה אף פעם לא היתי חסיד של נתניהו אבל הוא בודאי עדיף על חבורת…  היכן היפיופית הזו היתה אחרי הסכם אוסלו אוטובוסים מתפוצצים והפגנות הרבה יותר גדולות בגרוש מגוש קטיף תמכת ולכן אינך…  ברור אבו מאזן מזמן איננו גורם שמישהו סופר ביוש תראו איך ההפגנות שהוא מארגן נראות בלי כסף לא באים  העולם נדרש לעצור אין דין ואין דיין עד שהתופרים בתיק נתניהו לא יסיימו  שמאלנים אבל מצחיקים  Vitaliko נפתלי בנט – כוכב גיוס הכספים של הקרן החדשה לישראל לקראת “ועידת השלום” של ‘הקרן החדשה’ ו’הארץ’ הזהרנו ב’מידה’ כי השתתפותם של פ… יבוא החיקוי מפלסטיק של נתניהו נפתלי בנט שחוץ מפוזות לא מסוגל לכלום  אין דין ואין דיין תקיפת שוטר בנסיבות חמורות ומשחררים  מדינה בטרוף מערכות  אני רואה חדשות 12את משה נוסבאום בין אלפי מפגיניםצפופים מזיעים  אני אומר סוף סוף הוא יגנה את הארוחת שחיתות מחוץ ל…  כשבתפילה אמרנו להעביר ממשלת זדון היום יש לכוון רק על בגץ  כי הרי לנתניהו וממשלתו אין כל משמעות בגץ הוא השליט הזדו…  שווה צפיה עמית סגל אומר את כל האמת ללא הפרעה  ותודה לארז צדוק  תקשיבו היטב  2 נקודות שחסר  1בחוגגי בלפור יש אנשים שרוצים שהקורונה תתפשט והכלכלה תקרוס זה יביא…  הרב כהנא היומי הגלות היא קללה וחילול השם וחייבת להתחסלכאשר ישראל רצו לברוח מאי למצרים אחרי שנהרג גדליה אמר הנביא…  אכיפה בררנית המשטרה החליטה לפזר את ההפגנה בבני ברק ברימוני גז בניגוד להפגנות האלימות בבלפור ששם השוטרים מותקפים…  כל עוד ההפגנות מתקיימות עבורי אין סגר  מסיבת ההדבקה בבלפור יוצאת משליטה  השמאל האנרכיסטי תוקף שוטרים יורק עליהם ז…  גיבורים על מתפללי בתי כנסת גיבורים על אומן וכמו תמיד ביבי חלש מאוד נגד האויב  זוכרים את המגנומטרים שלערבים הורדו ול…  איזה מרגששש פשוט מביא דמעות  נפתלי בנט תפסיק לחשוב שכולם מטומטמים ולא זוכרים שבגללך אין ממשלת ימין ושהיית שר כלכלה…  עוזרים לנכד הצדיק שלי להגיע ליעד יש עוד 4 שעות לתרומה   שחצנות זה מיקצוע וזה הולך שם חזק בימינה  בנט אני אייפון 12 ונתניהו נוקיה אנשים בסגר בגלל הממשלה  לא בגלל הקורו…  עוד בוגר הגוש ורקדן מה יפית  עוד מינוי כושל של איילת שקד שכדי להכניס אותו הסכימה למינוי של 2 שופטים מהשמאל הקיצוני  החוצפה של בנט ושקד שהיו בתוך המערכת וידעו שזה הערכות  גם לחצו שיפתחו וגם היום עושים קופה על חשבון האזרחים שיש להם ז…  לאן עוד הם יכולים לרדת  אולי פעילי הר הבית הפסיקו לשלם לפירסום   כל עוד זה מותר אני מצפצף על כל ההגבלות  yoelituv רק מתאר לעצמי את השוטר שעולה לאוטובוס ומתחיל לשאול כל נוסע מה תפקידו חזן מעריב חזן הודו עד המלך חזן מוסף כהן לוי  גבאי… היו כבר 10 טכסים כמה עוד טכסים יהיו עד שנוכל לנסוע בכביש  מדהים ומפחיד כמה חפים מפשע יושבים בכלא זה בדיוק הסיפור של עמירם אוליאל וזדרוב ועוד רבים הגיע הזמן לועדת חקירה  עם הארץ ובור שלא יודע כלום איך קוראים בתורה שמעת שיש כזה דברמניין וגם נשים רוצות להתפלל במיניין  דרשתם לפתוח ונתניהו נכנע ללחץ ופתח אז מהיכן החוצפה תקחו אחריות ותתפטרו טעיתם תפסיקו להפריע לעבוד  להרוג את הזקנים זו ההצעה  okirsh מדברים פה הרבה ביממה האחרונה על פרטים מוכמנים אז הנה עדות של בכיר שבכ שראה מקרוב איך הדברים מתרחשים חשוב לזכור שאם הרוצחי… לדיסקוטק הזה קוראים מחאה כך להם את הזמרים והם נעלמים  כמו המנהיג שלך בנט שלא עשה כלום כשר ביטחון חוץ מכותרות וספינים המשיך להזרים כסף לחמס המשיך להפציץ דיונות וכו  לך לבגץ הם עובדים אצלך  או שאתה אצלם  בנט מיסטר קלין הוא חיכוי זול של נתניהו וגם נתניהו אף פעם לא פעל נגד מערכת המישפט אכן במקום בצלאל שרואה שמנהיגו בורח…  כל עוד תהיה מדינה יהודית אפילו רק בתל אביב לא יהיה שלום  בכל מקרה ברור שהשיחים של אבו דאבי ובחריין לא היו חותמים בלי קבלת תמורה והרבה תרומה  כך גם הסוחר טרמפ לא עובד בחינם…  הלך לקבל מעטפות  N12News guypch2news הההשג המישפטי הראשון של נתניהו הגיע עי עוד איתמר בן גביר אנחנו יודעים מה באמת בצלאל חושב על נפתלי וכמה הוא לא סומך עליו לא בענייני יהדות ולא בנוגע לארץ ישראל יש לא מעט ציטו…  שוב נפתלי מנפח בלונים מצהיר הצהרות ולא עושה מעשה מליונר כמוהו צפוי שיתרום ביד רחבה או שהכל דיבורים  אצל הבוגדים של שלום עכשיו בלי גרוש יהודים ופיגועים זה לא שלום  הם יודעים שנתניהו עשה ויתורים נוראיים אבל בלי פגיעה…  דנה ויס גם האמריקנים וגם הבחריינים קיבלו על עצמם שלא לפרסם את פרטי ההסכמים עד אחרי הטקס בשל אלמנטים רגישים שקשורים…  כמו שאמרנו מהיום הראשון נתניהו שוב פוגע בארץ ישראל כתבים גם האמריקנים וגם הבחריינים קיבלו על עצמם שלא לפרסם את פרטי…  במידה וסמוטריץ יקבל תפקיד שר בכיר ימינה תשאר מאוחדת ברוח של בנט  החיילים הרגילים בריאים וטובים זה עם ישראל  כך מתחיל המשא ומתן בין  בנט לסמוטריץ אבל מאחר וכל הקלפים בידיים של בנט כולל האס שהוא מעל כל האידאולוגיה אצל בצלאל…  זה מנהיגה בליכוד אין אידאולוגיה וארץ ישראל לא מענינת אותה  כתבה מסרוגים השרה גמליאל מה זה משנה מה כתוב בהסכם  שקד ובנט  סומכים על הזיכרון הקצר של הציבור הם לחצו יומם ולילה להפסיק את הסגר ולכן יש גל שני  אבל כשבנט היה שר ביטחון הוא לא פעל בנושא  כזו אחדות בציונות הדתית לא היתה שנים לכולם יש 0 אמון במערכת המשפט כולה וכולם קוראים לסייע לעמירם אוליאל חוץ מבנט   סהכ הפרקליטות שיקרו אותם וניסו לסחוט אותם זה קורה הרבה פעמים ולא עושים בלאגן למה הם כן עושים  כמה שהם בורים  כולם תורמים לעצור את העוול  בתשעח אומר האדמור מקרצינף זצל  כל הכבוד לעמותת אחיעד מי שיכול לסייע הפרטים בסוף הסרט   yossidavidov10 הנה אלוהים  שיאשרו רק הפגנת יחיד  ראשי המאפיה  שריפה גדולה פרצה  פעם נוספת כחודש אחרי הפיצוץ הגדול בלבנון  זה הפגנה  בנט כן ולא  אסור לשתוק צריך לעצור את ההסכמים המסוכנים  YakiAdamker כל כך מרתיח שהיועמש מנדלבליט אדם עם כיפה לראשו שמנהל אורח חיים דתי קפדני יודע להגן בלהט על קיום ההפגנות בשעה כל כך קריט…  כל עוד ישמן את העסקנים ומקורבי הרבנים הוא מסודר ויבחר שוב  יש 2 אפשרויות או שנתניהו חדל אישים ואינו מסוגל לומר סגר כולל הכל כולל הפגנות או  תחושה שלישאולי נתניהו מעוניין בהפ…  נשמע מוכר  אי אפשר לעשות סגר כשיש הפגנות הפגנות חשוב מאוד תפילה פי 100  גזעניים כשעשו את זה ליהודים שתקתם  דע את האוייב ומה שכתוב בספר לדעת שזה להפך  kobisudri הפרקליטות טוענת ששיחת מנדלבליטאשכנזי היא האזנת סתר שאסור לפרסמה  אם כך מי שקיבל את תמלילה ופירסם אותו עבר שתי עבירות פשע… אין מתנות חינם טרמפ ולהשיחים במיפרץ הובטח תמורה לעזרה שלהם לנתניהו ולטרמפ האמרקאים יתנו נשק אסטרטגי וישראלנתניהו י…  מטורף  כך הם פועלים עשרות שנים פשוט חבורת פשע  היגיע הזמן למרד ההוראות לא חוקיות  בית הכנסת הגדול בתא בחוץ מסעדות מפוצצות בפנים סליחות בקפסולה של 20 איש  מתפללים לגדול הדור gt התפללו הגרמ מאזוז פונה לבית החולים  בחדרי חרדים gtgt  drmichaelbenari בקשתי מהימ״ר לזרז את ההליך כדי שמנדלבליט לא יוכל לתרץ  ׳פתחתי בחקירה ואני צריך עוד זמן׳ קבעתי בזמן הראשון שנח לה… drmichaelbenari תרגילי מנדלבליט אני מקבל עכשיו טלפון מימ״ר ש״י ׳אתה מוזמן לחקירה בעניין ההתבטאויות׳ הבנתם מנדלבליט צריך למסור תשוב… השמאל אומנם מתגלה במלוא עליבותו וצביעותו  אבל כאחד שכל כך ששילם מחירים כבדים על מעשי בגידה בעבר של נתניהו  אני חושש…  YinonMagal ענק adhalperin מחנה השלום  עבור השלום כדאי וצריך לשלם כל מחיר שטחים פינוי התנחלויות 2700 קרבנות שלום  כל מחיר שווה בשביל השלום  אב… שלמה רז זה השודד של משרד מבקר המדינה  hakolhayehudi הטרור השבועי 3 פצועים ועשרות אירועים שלא דווחו  במהלך השבוע נרשמו עשרות אירועי טרור עשרות רבות יותר שהתרחשו כלל לא דוו… אנחנו לא שוכחים מי לחץ לפתוח את הסגר רמז אחכ כתב ספר  זמני שבת קודש פרשת ניצביםוילך מוגש על ידי בחזית היהדות  שבת שלום   איתם  בנט לא מתעסק כי הם יתחילו לבדוק לאן נעלמו המיליונים של הבית היהודי  הם תופסים אותו במקום רגיש   הפתגם היומי   טעות זו טעות אפילו שכולם עושים אותה אמת זו אמת אפילו אם אף אחד לא מכיר בה  בוקר ט…  GolanMay שמחה לבשר שאעמוד בראש ועדת המשנה לבחינת השלכות ההגירה הבלתי חוקית על כלכלת ישראל בועדה נחשוף את כל מה שלא תשמעו בתקשורת נזמ… כמו שיתנו לפקח על הפעילות של בנצי גובשטיין ואיתמר בן גביר  גרמי יששכרוף הוא האבא של  דין יששכרוף דובר שוברים שתיקה שבה חברים עוד מבני משפחתו מה לעזעזל חשב נתניהו שמינה אותו כ…  מזכיר לי את בנט  האיש שלנו בדמשק בקן הצרעות השמאלני קיצוני אין מקום לאיש ימני אפילו אינו לובש כיפה  הקבינט החליט סגר מלא מהשבוע הבא למשך שבועיים ההחלטה אינה סופית ותובא לאישור הממשלה בראשון השרים ישראל כץ יעקב…  חהכ יצחק פינדרוס חושף באולפן קול ברמה סיפור נוסף על ההתנהלות המאפיונרית של הפרקליטות  itamarbengvir אפילו שלא יהיה סגר במוצש מומלץ להישאר בבית  Arieliluz ככה זה אמור להיגמר הנה התובעת הכללית של מדינת פנסילבניה קתלין קיין לאחר שנעצרה והואשמה ב9 סעיפים הדלפה לתקשורת עדות ש… Menachemcohen1 מישהו רואה שמירה על ההנחיות פה אה גמזו אה סליחה הם לא חרדים אז הכל בסדר  שתפו  אסור להעלות לא יהודים לארץ זה הרס וחורבן ובמיוחד יפגע ביהודים שעלו מאתיופיה  עיתון הארץ שמטיף מוסר יומם ולילה לכולם הוא המקום הנגוע והמזוהם ביותר  ItshakWaserlauf עוצמה יהודית אמרה לראש הממשלה במועד ג אנחנו מוכנים לפרוש אם אתה חותם שתשנה את ההרכב של הוועדה למינוי שופטים לא יותר… arielelharar על החתונה ברהט הערב אני מאמין שלא תראו את זה בכותרות הראשיות אנחנו פה בשביל שכולם יראו  כתבת ספרון אתה מדבר הרבה אבל תגיד ברור  בנט בעד סגר או נגד סגר עסקים כרגיל או נגד בעד הפגנות או נגד בעד תפילות או…  הלילה התקיים אירוע סליחות מרגש במערת המכפלה במעמד שר הדתות הרב יעקב אביטן והרהג הרב מדינה שליטא ובליווי הפייטני…  GuyBechor כנופיית הטרור ברמאללה איבדה גם את המאחז האחרון שלה  הליגה הערבית בקישורנו   בלוף ושמו איילת שקד  shalevRightMan שווה צפייה יושב ראש הכנסת יריב לוין עושה בית ספר לשר המשפטים אבי ניסנקורן  meiretingr מדויק ויותר בשורש הרעיון העקום של ניהול המלחמה באויב כמאבק משפטיפלילי של העמדה לדין יצרה את התרבות הארגונית של השבכ כ… עוד ממשלת ימין כזו ואבדנו  מדהים שלעבריין המאפיונר מנדבליט יש את האומץ והחוצפה לפסול את דר מיכאל בן ארי הצדיק  לפני שנבחר הזהרנו מנדבליט איש מסוכן  fakeNaor אזרחים מנסים להבין משפט משפט זו אומנות מורכבת של מכלול שיקולים מה שנכון היום לא נכון מחר שופט נולדים כך פועלת המאפיה  tzvisuccot זה חתיכת אירוע הפלסטינים אשכרה ארגנו כינוס זום מיוחד של הליגה הערבית על ההסכם עם המירויות ולא הצליחו להוביל לגינוי של הליג… אפליה מותרת נגד דתיים  MoranT555  GolanMay שר המשפטים ממשיך להתבטל ולהתרפס בפני פקידי הפרקליטות והיועמ״ש ישראל השנייה הרימה את ראשה ולא תקבל עוד את האפליה וחוסר הצדק ש… שילך לעזעזל מי שמינה אותו  הם לא יעיזו להעמיד אותה לדין זה יפתח את כל הנושא  toomyko דוח נציבות התלונות על שופטים כרבע מהתלונות על ניהול המשפט  מוצדקות  השמאל הקיצוני פועל לחיסול מדינת ישראל  amitsegal התביעה של החוקר הראשי במח״ש דובי שרצר היא אחד המסמכים המפחידים שיצא לי לקרוא לאחרונה YoavNews1 זוכרים  בעקבות חשיפת News1  דרמה בפרקליטות אורי כרמל משה סעדה ודובי שרצר מסרו עדות המפלילה את שי ניצן ודנינו  הנציב דוד… avishaigrinzaig המפכל רב ניצב רוני אלשיך לראש מחש שחלה בסרטן אורי כרמל בביקור בביתו אתה הרי יודע שאני מומחה לפירוק ארגונים עוינים… Haaretz שי ניצן לא למדת כלום ממש בונבוניירת ראיות הגשת לנתניהו  BarashiKinneret יום טוב לכם  JoshBreiner סיפור מדהים מהעתירה דיון בפברואר 2017 חודש אחרי אום אל חיראן מנדלבליט שי ניצן אלשיך ועוזרו עם ראשי מחש אלשיך ועוזרו… מטורף אפילו אני מתחיל להיות מופתע מעוצמת העבריינות במערכת המשפט  מאות חסידי ברסלב שתקועים בבלרוס חלקם כבר קרוב לשבועיים במצב הומניטרי קשה התכנסו לעצרת תפילה ותחנונים על יד ציונו…  המינימום שהיה צריך לעשות שביום שמסתנן עובר על החוק מעיפים אותו החוצה לא לכלא לבית  JoshBreiner אני מומחה בפירוק ארגונים עויינים בכירים במחש מפילים פצצה ומגישים תצהירים בהם טוענים כי מחש במצב של שיתוק כמעט מלא ב… ממש לא דרמה זה מה שהם עושים כל יום  meiretingr מוטיב חוזר ברשמים בדפי הפייסבוק של הערבים שחצו את הגדר בחודש שעבר בהעלמת עין של צהל לביקור בים היה הענין של זכות השיבה הם… yossidavidov10 הבנתם למה סקרי האמון במערכת כל כך נמוכים ofiroshr בויכוח בין דרוקר לסגל ברור שאני עם סגל למה תקשיבו לחשיפה הראשונית של דרוקר מאוגוסט 17 ושימו לב היטב למלל של דרוקר עצמו  … עדינים עדינים  שיבואו אלי ואלמד אותכם איך מטפלים בנושא  שבכניק מכסה על שבכניק ככה זה מתנהל שנים  זה מה שעושים לרוהמ פופולארי וחזק  אז תחשבו על האזרח הקטן  איך מנתנהלים השי ניצנים מולו כמה חפים מפשע יושבים בכלא כ…  זה ניראה כמו הפגנה  AvishayBenHaim לילות הסליחות בית הכנסת עדס כעת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">נתאחד כולנו מחר בליל יום הכיפורים בשעה 2100  שתפו בבקשה  ההפגנה כעת בבלפור כשהמדינה כולה בסגר חסרת אחריות ותביא לעליית התחלואה כשהם נוהגים בחוסר אחריות אנחנו נדרשים לאחר…  ביחד עם שר האוצר ישראל כץ סיכמנו הערב על העברה מיידית של 25 מיליון שקלים לרשויות מקומיות להכנת מתחמי תפילה באוויר…  בשאר ימי הסגר כשמשרד הבריאות ימנע התקהלויות במקומות סגורים נתפלל כולנו במרחב הציבורי בתקופת הסגר מי שירצה להפגי…  בתי הכנסת חייבים להיות פתוחים ביום הכיפורים היום הקדוש בשנה בתי הכנסת יוכלו לפעול במתכונת מצומצמת על פי תו סגול מ…  אני מבקש לאשר היום בישיבת הממשלה קיצוץ בסך 20 משכר נבחרי הציבור כולל הנשיא רהמ שרים חברי כנסת וראשי רשויות ה…  שנזכה כולנו שהשנה שנת תשפ״א תהיה שנה טובה ומתוקה שנת בריאות פרנסה לכולם שנת שלום ביטחון וחיים טובים ותכלה מעל…  שנה טובה ומתוקה לכל בית ישראל  ברוח ימי הקורונה שוחחתי כעת בשיחת זום עם 150 ראשי רשויות במסגרת ההערכות לחגי תשרי ראשי הרשויות הם הזרוע הביצועית…  בגל הראשון הענקנו פטור לעסקים ב27 מליארד שקלים אנחנו עושים ככל יכולתנו לסייע לעסקים שנפגעו קשות במשבר הקורונה חתמתי היום על הנחה בארנונה לעסקים עד ליוני 2021 עלפי התקנות תוענק הנחה בהיקף 95 מסך החיוב לעסקים שמחזורם עד 200…  הרמת כוסית לשנה החדשה במשרד הפנים אף אחד מאיתנו לא רצה סגר לא רצינו לפגוע בפרנסה לפגוע בחרויות האזרח אבל חייבים…  צר לי מאד על התפטרות חברי הרב יעקב ליצמן מהממשלה נמשיך ביחד בממשלה ומחוצה לה להאבק בנגיף הקורונה למען בריאות תושבי…  מי שלא מקפיד על ההנחיות והכללים זה רצח זו עבירת לא תעמוד על דם רעך דברים שאמרתי אמש מוצאי שבת לצידו של הראשון ל…  הממשלה אישרה הלילה תוספת של  750 מיליון שקלים לתקציב משרד הפנים לטובת הרשויות המקומיות בימים אלה כשהרשויות המקומי…  והנה התרגום לעברית לפניה שלי ברוסית לעולים מחבר העמים אני פונה אליכם מעומק הלב אל תקשיבו לליברמן ואל תסכנו את החי…  Либерман число мандатов — это не главное в жизни человеческая жизнь выше политики возьмите свои слова обратно Обращаюсь к вам от всего сердца не слушайте Либермана не рискуйте своей жизнью и жизнью близких  Коронавирус не…  צר לי מאד שהגענו להסדרה עם החמאס ללא החזרת השבויים והנעדרים שלנו לישראל זו היתה שעת כושר מצויינת וחבל מאד שהוחמצה…  התפרצות הקורונה בעזה ודרישות ארגון חמאס מישראל מחייבות אותנו לעמוד איתן ולדרוש את שחרור השבויים והנעדרים שלנו בעזה…  כמי שהשתתף בקיבוץ מעל עשור לא צריך להסביר  לי את חשיבותו אני עסוק יום וליל למצוא פתרון שיאפשר את הקיבוץ באומן צר…  מזועזע וכואב על הירצחו הנפשע של האברך היקר מיקירי חסידי ברסלב תלמיד חכם ואב לארבעה הרב שי אוחיון הי״ד  שנפל קורבן…  כמו כן תינתן הנחה של 95 לעסקים שמחזורם בין 200 מיליון שקלים ל400 מיליון שקלים ושנפגעו בהיקף של למעלה מ80 הרשוי…  ביוזמה משותפת של שר האוצר ישראל כץ ושלי אישרה כעת הממשלה מתווה חדש להנחות בארנונה לעסקים תוענק הנחה בארנונה בהיקף…  אבד צדיק מן הארץ  בצער רב שמעתי על פטירת הגאון הרב עדין אבן ישראל שטיינזלץ הרב שנמנה על חסידות חבד והיה מתלמידיו…  בשס דואגים לאלה שאין להם וחרב עליהם עולמם הכלכלי יישר כח לחכ מיכאל מלכיאלי על הצעת החוק שאושרה אתמול בכנסת בקריא…  מברך את אזרחי ישראל הדרוזים והמוסלמים לרגל חג הקורבן חג שמח  ערב ט׳ באב ובעיקר השנה אנו זוכרים כי בית המקדש חרב בגלל שנאת חינם ובעזרת ה׳ יבנה באהבת חינם  בדיוק היום לפני שלוש שנים הקמנו את עיתון ״הדרך״ היו קשיים רבים היו ספקות אבל היום אנו מסתכלים בגאווה אחורה ובתק…  היום אושרה התכנית שיזמתי למען האוכלוסיות המוחלשות בישראל בתקופה הקרובה יוענקו למשפחות נזקקות שנקלעו למצוקה קשה בשל…  אבישי בן חיים יכול להיות ד״ר באוניברסיטה סגן אלוף ביחידה קרבית בצה״ל עיתונאי מוערך אבל עבור אנשים בחברה הישראלית…  אבישי בן חיים היקר חזק ואמץ אל תירא ואל תחת אתה איש אמת שפיו וליבו שווים ושאף אחד לא ירתיע אותך מלומר את מה שאתה מאמין בו אני מברך על כוונת שר האוצר ישראל כץ להענות לדרישתי ולאשר תקציב משמעותי במסגרת התכנית הכלכלית למען הקמת רשת לביטחון…  נמנעתי היום יחד עם שר הדתות בהצבעה בממשלה על התכנית הכלכלית לאחר שדרישתי להקמת קרן ערבות למתן רשת לבטחון תזונתי ל…  משתתף בצערה של משפחת וקסמן על פטירת אב המשפחה יהודה וקסמן  ממחלה קשה יהודה יחד עם רעייתו שתחיה הראו לנו מהם כוחו…  היום יום פטירתו ה26 של הרבי הרבי מלוּבָּבִיץ זצל הוא מקור קדושה ואהבת יהודי ללא כל תנאי אין אחד מאיתנו שלא פוג…  נפגשתי כעת עם נשיא התאחדות התעשיינים ד״ר רן תומר שתיאר בפני את מצוקת התעשיינים ובעלי העסקים בשל משבר הקורונה הוד…  שוחחתי עם הרב ברוך גזהיי לגבי הדברים שאמר בסרטון הרב אמר לי כי מדובר בכמה משפטים שהוצאו מהקשרם מתוך שעור של שעתיי…  ביקרתי כעת במאהל המחאה של בני העדה הדרוזית בירושלים אנו מעוניינים לסייע לפתור את הבעיות שהציגו התחלתי להסתער על ת…  נפגשתי כעת עם ראשי הרשויות החרדיות ודנו בלקחי משבר הקורונה הקשה שעברנו הקורונה עוד כאן ראשי הציבור החרדי מיומנים…  הריגת איאד אל חאלק ממזרח ירושלים היא טרגדיה הוא הלך לבית ספר לבעלי צרכים מיוחדים נורה בשוגג בידי שוטר ומת מוות מיותר עצוב וכואב אני מתפלל מעומק לבי להצלחת ראש הממשלה בנימין נתניהו ומחזק את ידיו ראש הממשלה מנהיג את מדינת ישראל מול האתגרים הגדו…  השתתפתי כעת בכנס הוקרה למתנדבי החמ״ל של עיריית ירושלים שפעלו ללא לאות במאבק נגד התפשטות נגיף הקורונה תודה לראש העי…  יישר כח מיכאל שמש יישר כח ספי עובדיה שבת שלום ומבורך לכל עם ישראל  בשבעה בבית משפחת החייל הקדוש עמית בן יגאל זל שנרצח השבוע בכפר יעבד סמוך לגנין בידי מחבל מתועב שמעתי מאביו ברו…  לא אגיע הערב לחגוג את ל״ג בעומר במירון אחגוג בבית ביקשתי גם מכל חברי הכנסת של שס שלא להגיע למירון למרות שהחגיגות…  אני חב לו אישית הכרת תודה עמוקה על תמיכתו החמה בי לאורך כל הדרך בשירים מיוחדים שחיבר ושר שביטאו אהדה גדולה לדרך ש…  רתם את כשרונותיו האמנותיים לקידום מעמדם של יהדות המזרח בכלל ויהדות מרוקו בפרט מתוך אמונה בצורך לרומם את קרן יהדות…  קיבלתי בצער רב את הבשורה המרה על פטירת ידידי היקר הפייטן המשורר והמלחין הדגול לעדת יוצאי מרוקו משה אטיאס ז״ל הידו…  עשרה זוכי פרס ישראל נבחרו לרגל יום העצמאות ואף אחד מהם לא מזרחי או ערבי חתני פרס ישראל ראויים אבל איך לא נמצא אף…  לחברי זאב אלקין מזל טוב גדול להולדת הנכדה וברוך הבא למועדון הסבים בתור סבא ותיק אתה עוד תלמד שנכדים הם טעם החיים…  מרן הרב עובדיה יוסף זצ״ל בתפילת אשכבה מרגשת לעילוי נשמת חללי צה״ל שנפלו במערכות ישראל  וְיִצְרוֹר בִּצְרוֹר הַחַ…  הלב נשבר מהטרגדיה הבלתי נתפסת פטירת הרב אברהם ישעיהו הבר ז״ל יהודי יקר ומסור מארגון ׳מתנת חיים׳ שהציל את חיי מאות…  צילום שירה הרשקופ ברוך רופא חולים שמחתי לשמוע על החלמתו מקורונה וחזרתו ארצה של אלי ביר נשיא איחוד הצלה ותודה רבה מעומק הלב לכל מתנ…  שהחיינו וקיימנו והגענו לזמן הזה אני מברך את ראש הממשלה בנימין נתניהו ואת בני גנץ על הקמת ממשלת חירום עם ישראל זק…  עם צאת חג הפסח מאחל לכל עם ישראל מימונה שמח וקיץ בריא המימונה מסמלת את האחדות השמחה והאמונה היהודית אותה חווינו…  ברוך דיין האמת מתאבל מרה על פטירת הרב הראשי הראשון לציון הרב אליהו בקשי דורון הרב בקשי דורון היה תלמיד חכם ענק…  המראות של חיילי פיקוד העורף היקרים המסייעים במסירות לתושבי בני ברק בפינוי חולים במזון בציוד ואפילו בשריפת חמץ מ…  מחר נסב לשולחן הסדר כל אחד עם הילדים שגרים עמו ונקרא את ההגדה אולם אנחנו לא לבד אנחנו מאוחדים ואוהבים כל עם ישר…  התמונה הזאת מרגשת אותי כי למרות כל ההבדלים תל אביב ובני ברק שייכות לאותו עם והערבות ההדדית חשובה בעיקר בימים אלה…  מזעזע שבערוץ 12 שבמדינת היהודים קוטעת המראיינת דנה ויס את ראש ממשלת ישראל שאומר בעזרת השם ומעירה לו באופן מזלזל וב…  בשעת החירום הזאת תשכחו לרגע את הציניות המפורסמת שלנו ונסו להתעלות מעל המחלוקות הפוליטיות הרגילות בבקשה נסו לקרוא…  אני מבקש מכולם בכל לשון של בקשה להישמע להוראות משרד הבריאות שהופצו כעת זו מלחמה כולנו חייבים להישמע לכל ההנחיות…  ישראל זקוקה לממשלת אחדות רחבה גם בגלל משבר הקורונה ובעיקר כי זה רצון הבוחר ניסיתי ככל יכולתי לפעול להקמת ממשלת א…  סיימתי כעת ישיבה עם ראשי מרכז שלטון מקומי ונציג האוצר והחלטנו לבחון סיוע לרשויות המקומיות שנמצאות בחזית המאבק בהתפש…  הנחיתי כעת את רשות האוכלוסין למצוא פתרון מיידי למטופלים הסיעודיים כדי שלא ישארו ללא מטפלים זרים בשל איסור הכניסה ארצה עקב התפשטות הקורונה לאחר מערכת בחירות מתישה אולי הקשה מכולן הצליחו להפתיע אותי הבוקר בלשכה לרגל יום הולדתי ה61 תודה לכולם על הברכות…  כחול לבן מוכנים להקריב את טובת המדינה ואחדות העם על מזבח השנאה האישית לנתניהו שמאחדת בינם לבין ליברמן והרשימה המשות…  הרעיון להעביר לאחר הבחירות ואחרי שהציבור אמר את דברו חוק אישי שימנע מנתניהו לכהן כראש הממשלה הוא חרפה ושבירת כל כל…  תודה רבה מכל הלב לכל מאות אלפי מצביעי ומצביעות שס שהביעו היום פעם נוספת אמון בתנועת שס אני מתחייב שנציגי שס ימשיכו…  יו״ר ש״ס בקריאה אחרונה ודחופה לכל נציגי ופעילי ש״ס 100 אלף איש ממאגר התומכים של ש״ס לא הצביעו נתון שלא היה כדוגמ…  BorochovYair לראשונה הצבעתי שס ואני מרגיש ממש טוב שלם וגאה בבחירה בסיומה של מערכת בחירות מדממת נזכרתי הבוקר בסבתא שלי זל ששמרה ב… אחוזי ההצבעה בשמאל החילוני גבוהים מאד לעומת אחוזים נמוכים מאד בישובי הימין המסורתי והדתי אם לא תצאו כעת להצביע יש…  תהיו טוקרים  על קברו של מרן זצ״ל התפללתי שהערב נשיג 61 לגוש הימין תנועת ש״ס תתחזק ונקים ממשלה טובה לישראל כל קול קובע  הבוקר עליתי לקברו של  מרן הרב עובדיה זצ״ל מייסד תנועת שס להתפלל שהלילה תהיה הכרעה שנוכל להקים ממשלה שתמשיך לשרת…  הכתבה שפורסמה כעת בחדשות 13 כאילו סיכמתי עם אנשי הרב ברלנד על תמיכה בשס תמורת הטבות היא שקר מוחלט כזב זדוני לא נ…  בהתרגשות רבה הכנסתי כעת את נכדי יאיר בבריתו של אברהם אבינו בירכתי  אותו שיזכה לתורה לחופה ומעשים טובים בברכת הסנ…  הדברים שאמר נתן אשל חמורים ומקוממים טוב שרה״מ נתניהו נזף בו על הדברים שאמר חייבים להיאבק בכל גילוי של גזענות ללא פשרות ובנחישות כבר אמרתי בעבר שההסתה מסוכנת בואו תראו עד כמה ליברמן לפיד  זה עליכם  אי אפשר שלא להתרגש מלראות את גדול הדור מתייפח בבכי וזועק מקירות ליבו על הסכנה למדינה היהודית בידנו להכריע  בכנס הארצי של המועצות האזוריות נוכח האתגרים הביטחוניים והכלכליים שבפניהם עומדת המדינה אני מקווה שבבחירות הפעם תהי…  התרגשתי לקבל הערב את אות ׳יקיר ההתיישבות׳ מראשי המועצות ביהודה ושומרון ואני מודה להם מקרב לב על האמון והתמיכה  זכו…  נציב שירות המדינה פרופסור דניאל הרשקוביץ בישר לי היום כי הוכפל מספר החרדים מבין המצטרפים לשירות המדינה מ35 ב…  הסיפור של כולנו תגבירו רמקולים   רות יקרה ברוכה הבאה הביתה   עד החלת הריבונות אנחנו עובדים וקובעים עובדות בשטח  בני גנץ אל תיגע בשבת לא ניתן לך  להפוך אותה משבת מנוחה לעוד יום של עבודה וחול השבת היא מקור הברכה וסמל המדינה הי…  בועידת מרכז השלטון המקומי כ 70 אחוז מתקציב משרד הפנים הולך ליישובים בפריפריה ורשויות מוחלשות משרד הפנים הוא המשר…  תודה לך צבי היקר אבל אצלנו חוגגים בתאריך העברי ושלי הוא ט׳ באדר ואגב הבחירות ייערכו שלושה ימים לפני יום ההולדת ש…  וַיִּשְׁבֹּת בַּיּוֹם הַשְּׁבִיעִי מִכָּל מְלַאכְתּוֹ אֲשֶׁר עָשָׂה  ליברמן מאשר בקולו את טענתי שסיכם עם גנץ להקים ממשלה עם מרצ והמפלגה הערבית המשותפת זו פשיטת רגל אישית ואידאולוגית…  אי אפשר שלא להתרגש  מתפלל להחלמתם של פצועי פיגוע הדריסה הלילה בירושלים לוחמי חטיבת גולני הטרור מרים ראש ואני סומך על צה״ל וכוחות הביט…  בושה וחרפה זו מדינה יהודית  בעקבות הוראה זו שיגר חתנו וממלא מקומו הרבי מלובביץ את שליחי חבד למרוקו והללו הקימו שם מוסדות תורה מפוארים היום…  לכו אל יהודי מרוקו שצריכים מלמדים ומורים והרביצו תורה ביניהם אין חילוק בין בני ישראל אם אשכנזים או ספרדים המה…  מי אוהב את השבת  כעת כולם יודעים אביגדור ליברמן סיכם עם לפיד להקים ממשלת שמאל עם העבודה והמפלגה הערבית המשותפת אם לא נפעל בכל הכוח…  אבו מאזן אחרי שהכחשת את השואה עכשיו אתה מכחיש גם את המציאות ישראל היא מדינה יהודית בזכות ההבטחה ההיסטורית לעם י…  מברך את ראש הממשלה בנימין נתניהו שהצליח לשחרר את נעמה יששכר שהיתה כלואה עשרה חודשים בכלא הרוסי מצוות פדיון שבויי…  כולם מכירים את שלוחי חבד בעולם אבל גם כאן בישראל פועלים מאות שלוחי חבד לקירוב לבבות וחיבור בין כלל היהודים בשב…  מברך את ראה״מ נתניהו ונשיא ארה״ב טראמפ על ההכרה ההסטורית בזכותו של עם ישראל בארצו כדבריו של הנשיא ״ארץ ישראל הובט…  מבקעת הירדן ארץ אבותינו אנחנו שולחים תפילה וחיזוק לראש הממשלה בנימין נתניהו בשליחותו החשובה אל נשיא ארה״ב דונלד…  14 שנה לפטירת זקן המקובלים הצדיק רבי יצחק כדורי זצוק״ל איש קדוש שהתפלל על עם ישראל היתה לי הזכות הגדולה להיות אי…  Dear FrankWalter Steinmeier your heart warming speech at Yad Vashem which included the Shehecheyanu blessing a…  נשיא גרמניה פרנק ואלטר שטיינמאייר ריגשת אותי מאד בנאומך כעת בטקס ביד ושם ברכת שהחיינו המילים החמות שדיברת על יש…  אל תירא ישראל  שותפות אמת עם נתניהו זה רק פתק ש״ס  קיבלתי כעת את פניו של נשיא גרמניה פראנק ואלטר שטיינמאייר שהגיע לכנס פורום השואה העולמי אמרתי לנשיא הגרמני כי יש…  סיעת שס בראשותי תתמוך בחוק ובכל החלטה ויוזמה להחלת ריבונות בבקעת הירדן ובהתיישבות ביהודה ושומרון זו נחלת אבותינו ש…  הרבנות הראשית החליטה לאשר מחדש את פסיקת מרן הרב עובדיה יוסף זצ״ל להכרה ביהדותם של עולי אתיופיה הרב ברוך גזהיי מוע…  תודה רבה לעובדי ועובדות רשות האוכלוסין המסורים מבטיח שנמשיך לעבוד קשה למען הציבור  חברון עיר האבות שייכת לעם ישראל מכוח זכותנו ההיסטורית על ארצנו ותישאר בידנו לעד לא נירתע מפורעים ומחבלים שכבר בש…  לאחר שח״כ אלכס קושניר מישראל ביתנו הפגין שוביניסטיות אנטישמית  נגד הנשים החרדיות והדתיות הגיע הערב מנהיג מפלגתו אב…  מהפכת השרות בלשכות האוכלוסין וההגירה היעילות הגדולה והשרות המהיר הם בזכות מנכ״ל רשות האוכלוסין פרופ׳ שלמה מור יו…  כולנו מתאבלים על גיבור ישראל מוטי בן שבת שמובא כעת למנוחת עולמים לאחר שהציל בני משפחה בנהריה ונסחף למוות מוטי ה…  עדיין תחת הרושם המרגש מהאירוע הכביר וההסטורי ׳סיום הש״ס׳ ב׳ארנה׳ בהשתתפות גדולי הרבנים ואלפי משתתפים תקציר קטן מ…  נרגש ונפעם עדיין מהמעמד האדיר אמש  סיום הש״ס המרכזי של תנועת ׳אל המעיין׳ בירושלים 15 אלף איש במעמד העצום ששנים לא…  סיימתי להדליק את שמונת נרות החנוכה יחד עם נכדיי המתוקים שנזכה להפיץ אור ואחדות בעם ישראל חנוכה שמח  ברכות חמות לך ראש הממשלה בנימין נתניהו על היבחרך לראשות הליכוד ומועמדו לראשות הממשלה כשותף לדרך אני שמח על הבעת…  מדליקים נרות חנוכה מוסיפים אור ושומרים על כל מה שחשוב לנו  חנוכה שמח  יפה רעייתי אם ילדיי האשה שאיתי והשותפה הכי גדולה שלי שהלכה איתי במדבר בארץ לא זרועה וביחד הקמנו משפחה לתפארת חג…  כואב על פטירת גאולה כהן לוחמת הלחי חברת כנסת כלת פרס ישראל ויקירת ירושלים אשה אמיצה שתרמה במשך עשרות שנים לעם…  דווקא בתקופה בה מנסים לערער על נתניהו כמנהיג גוש הימין ומועמדנו לראשות הממשלה חשוב לנו לתמוך בו נתניהו הוא היחיד…  שמח בשמחת עוזרי הנאמן והמסור ר יוני משריקי המכניס הערב את בנו בכורו שלמה נ״י לעול התורה והמצוות כחוליה נוספת בשר…  היום יט כסלו בו מציינים חסידי חבד את חג הגאולה של האדמור רבי שניאור זלמן מלאדי זצל בעל התניא ומייסד תנועת…  שס מתנגדת נמרצות להגדלת יחידת המימון לבחירות אם וכאשר ייערכו בחירות שלישיות בתקופת קיצוצים קשים וכואבים בתקציבי ה…  ברכות חמות לתושבי מבואות יריחו שאחרי כ20 שנה ללא מעמד רשמי יקבלו סוף סוף מועדת הישובים בראשות משרד הפנים סמל יש…  בשורה קשה התבשרתי הבוקר פטירתו הפתאומית של עלם החמודות דניאל נהרי זל תלמיד חכם ואיש משפחה בנו של ידידינו היקר ר…  ליברמן הוא אחראי הראשי שלא קמה ממשלת אחדות ליברמן אחראי לכך שאנחנו בדרך לבחירות שלישיות שעלולות לגרום לנזקים נוספי…  מנכל משרד הפנים מרדכי כהן מציג בכנסת את החזון שלי לחיזוק הפריפריה  במדינת ישראל ישנן 257 רשויות מקומיות 200 מתו…  לא ייתכן שילד בפריפריה לא זוכה לאותה הזדמנות כמו ילד במרכז הארץ זה מה שאמרתי לחברי משלחת הoecd המכינים את הדוח על…  כואב על פטירתו הטראגית של הרב דוד לוי זל בתאונה במרוקו מעמודי התורה והחסד באשדוד מנהל כולל ופעיל מסור של תנועת ש…  ליברמן די עם הספינים והשקרים אתה זה שדרשת וסחטת אחרי בחירות אפריל  עם חמישה מנדטים שלל תפקידים ותקציבי עתק איך…  אני מברך על החלטת הממשלה כעת להקצות 34 מיליון שקלים ליישובים ביהודה ושומרון מענק ביטחוני שיועבר באמצעות משרד הפנים…  סיפור ההחתמות של ליברמן הוא כאמור זיוף והולכת שולל ולמרות זאת הוריתי כעת לח״כ יואב בן צור להחתים את הח״כים של שס…  סיפור ההחתמות שהציע ליברמן הוא פייק זיוף ניסיון נוסף שלו להתל במערכת הפוליטית לחתום כעת אין טעם כי נותרו 11 ימים…  YuliEdelstein אתמול התחלנו בניסיון להוציא את המערכת הפוליטית מהקיפאון אליו היא נכנסה הבוקר נפגשתי בכנסת גם עם יו״ר ש״ס שר הפנים אריה… נרגש בכנס נאות חובב לתעשיה סביבה ונגב במלאת 30 שנים למועצה התעשייתית נאות חובב אותה הקמתי לפני 30 שנה כשר פנים 4…  הלב נשרף נוכח הטרגדיה המחרידה שאירעה בליל שבת בנתניה בעלותם השמיימה של שני ילדי משפחה בדליקה נוראה זו גזירה קשה ע…  יאיר די עם השקרים  הייתם מוכנים לתת לנו הכל ולחתום לנו על שמירת הסטטוס קוו ככתבו ולשונו כדי שנעזוב את נתניהו ונצ…  אני מברך על הצהרת הממשל האמריקאי כי ההתנחלויות אינן מהוות הפרה של החוק הבינלאומי זהו צדק היסטורי ותמיכה חשובה בזכ…  הגעתי היום לאשקלון כי אשקלון אינה נכללת באזור עוטף עזה לא זוכה להטבות למרות שסובלת מירי רקטות  הודעתי לראש העיר…  אמש נפל דבר ליברמן הודיע כי יעדיף לשבת עם איימן עודה ואחמד טיבי שאותם כינה ׳גייס חמישי׳ ו׳מחבלים׳ ולא איתנו אחיו…  כולנו מכירים את דמותה של רחל כאם אם שחסה על בניה שגם לאחר מותה ממררת בבכי על צרות בניה ו״ממאנת להנחם״ אולם רחל ה…  התשובה שלי לביטול הארוע של הרב פירר היא תרומה אישית בסך 1800 שקלים למפעל החסד האדיר של הרב עזרא למרפא אני קורא גם…  שמח שבית המשפט העליון קיבל הבוקר את עמדתי שלא להאריך את אשרת שהייתו של עומר שאקיר מראשי תנועת הBDS בשל תמיכתו בפ…  כנסת ישראל התאחדה היום ימין שמאל חילונים דתיים וחרדים כדי לחלוק כבוד לזכר מרן רבנו עובדיה יוסף זצ״ל זכותו תגן…  זוכרים ומתייחדים בקברו של מרן 6 שנים של געגועים ותפילות שמרן יעמוד כמליץ יושר עבורנו בשמיים נדליק היום עם נרות הש…  לאורו של מרן  יחד עם נרות השבת נתייחד עם זכרו של מרן הרב עובדיה יוסף זצל נדליק נר נוסף לעילוי נשמתו ונבקש שיתפל…  דברי הברכה במסיבת יום הולדת 70 של רה״מ נתניהו  לחברנו היקר והאהוב שמעון חזות מתאבלים מרה על פטירת בנך יקירך אשר בן ה14 שנפגע אנושות ממכת ברק ונפטר כעת בבית ה…  פיגוע הטרור המזעזע בגרמניה ביום הקדוש ביותר לעם היהודי מלמד שוב שהאנטישמיות ממשיכה להכות ביהודים רק בשל יהדותם א…  אֵל נוֹרָא עֲלִילָה הַמְצִיא לָנוּ מְחִילָה בִּשְׁעַת הַנְּעִילָה  אין מי שלא מתרגש מהתפילה שחיבר רבי משה אבן עזר…  הוצאתי כעת צו איסור יציאה מהארץ לארבעה פעילי טרור שיציאתם עלולה לפגוע בביטחון המדינה ולגרום להעלאת הסיכון לפעילות…  הוריתי הערב לרשות האוכלוסין וההגירה  להכין לי חוות דעת לביטול התושבות בישראל של עומאר ברגותי מייסד תנועת החרם על…  הודעתי לפני הבחירות כי שס תתמוך בנתניהו ונתמוך בו גם ב21 הימים שלאחר החזרת המנדט אי אפשר לזלזל בשני מליון איש שבי…  שנה טובה ומבורכת לכל בית ישראל שנת אושר הצלחה ובריאות טובה כתיבה וחתימה טובה שנה שנדע כולנו להתאחד סביב המשותף…  בני גנץ הוא איש טוב ערכי ומסורתי שתרם את חייו למען ביטחון ישראל אמרתי זאת גם כשתקפו אותו באכזריות במערכת הבחירות…  שס ויהדות התורה גדלו ב90 אלף קולות בסך הכל בבחירות שס גדלה ב72 אלף קולות ויהדות התורה גדלה ב18 אלף קולות למרות…  הרמת כוסית לשנה החדשה עם עובדי משרד הפנים עבדנו קשה מאד בשנה האחרונה ביצענו מהפכות למען כלל הציבור ואני מתכוון לה…  במפעל החסד ״יד ביד״ שמנוהל על ידי חברי הרב יענקל’ה גלויברמן עם המתנדבים האורזים סלי מזון לנזקקים לקראת ראש השנה מ…  תודה רבה לכל מצביעי שס 330 אלף איש ואשה נמשיך לעבוד עבור עם ישראל בכל הכוח  שבת שלום ומבורך ובשורות טובות עברנו מערכת בחירות לא קלה בחודש הרחמים והסליחות הגיע הזמן לשים מאחורינו את שיח השנאה והחרמות ולזכור שאנשים אחים אנ…  צאו להצביע יש עוד 40 דקות אפשר לנצח בגדול המצב קשה אנחנו במלחמה על המדינה היהודית  צאו עכשיו והצביעו שס  לכל אוהדי שס ברחבי הארץ עוד כארבע שעות ייסגרו הקלפיות המצב לא טוב ישראל היהודית עם המסורת הנשמה השבת וכל הערכ…  וְאַתְּ עָלִית עַל־כֻּלָּנָה בשעות הקשות הללו כשאנו עומדים בפני סכנה אמיתית להרס המדינה היהודית יש מי שעומדת לצי…  רק הצבעה לשס זו הצבעה בטוחה לנתניהו כראש ממשלה מחר יום שלישי מצביעים שס ומקבלים בפתק אחד פעמיים כי טוב גם מרן ו…  ruvirivlin כבוד הנשיא בתלמוד יש אמרה״מדשתקי רבנן שמע מינה דניחא להו״ אם החכמים שותקים משמע הם מסכימים  כשליברמ…  אם הייתי קורא לממשלה בלי רוסים הארץ היתה רועשת אם הייתי קורא לממשלה בלי ערבים היו מתלוננים נגדי ואולי פותחים בחק…  אמש בבית כנסת בירושלים שאלתי את כבוד הנשיא ראובן ריבלין מדוע אינו מוחה נגד הקריאות להחרים את החרדים מדוע אינו…  שיילך בשלום וישוב בשלום עם כל חיילי צה״ל אמן  ביום שלישי ישראל הולכת למשאל עם בשאלה האם תהיה מדינה יהודית או מדינה חילונית נותנים תשובה בקלפי  הצטרפו אלינו לשידור חי מהמעמד האדיר בהתאסף ראשי עם  הכנס המרכזי של תנועת שס gtgt   לאחינו הדרוזים המציינים היום אח חג הנביא סבלאן שעל פי המסורת פעל רבות כנגד עובדי האלילים וחיזק את האמונה באל אחד מת…  בִּזְכוּתֵיהּ דְּמָרָן עֲנֵנוּ  להתרגש עם מיטב הזמרים והפייטנים שהתאחדו לביצוע מדהים של הסליחות תפתחו את הלב ותגב…  arutz7heb דרעי זו זכות לסייע להתיישבות  מי אוהב את השבת  כואב ומצער שגנץ נגרר אחרי לפיד וליברמן ובחר בדרך של שנאה התנשאות ושיסוי ציבור בציבור רק כדי לקושש קולות  בני גנץ…  אני מודיע בצער כי השנה אאלץ להיעדר מעצרות הסליחות בהן אני משתתף עשרות שנים מימי מרן הרב עובדיה זצ״ל אני עושה ויתו…  כדי לשמור על נתניהו חייבים שס חזקה  לפיד תלמד אפשר גם אחרת בסובלנות באחווה לא בהסתה  מחזק את חיילי צה״ל וכוחות הביטחון ומתפלל לשלומם חיבוק ותמיכה לתושבי גבול הצפון הישגים חברתיים לא נופלים מהשמיים  יהיר לפיד אני בעד הצבת מצלמות בכל הקלפיות יזמתי זאת עוד בבחירות לרשויות המקומיות לנו אין מה להסתיר השאלה היא מה…  ילדי מעלה אדומים לא צריכים להיטלטל כל יום עד לבית הספר בירושלים ולכן הוריתי לחברי המועצה מש״ס לפרוש מהקואליציה  עֲטֶרֶת זְקֵנִים בְּנֵי בָנִים וְתִפְאֶרֶת בָּנִים אֲבוֹתָם  גם ביבי יודע אין ממשלה חברתית בלי שס חזקה  הגזענות עדיין כאן חיה ובועטת לצערנו  ח״כ רם בן ברק תתבייש לכנות אנשים שחורים כי הם בוחרים להצביע למפלגה שאינה…  חייבים לעצור את ההסתה עכשיו יש חיים גם אחרי הבחירות  מתפלל להחלמת הפצועים בפיגוע הנורא הבוקר סמוך ליישוב דולב בבנימין הפיגוע הנפשע מחייב תגובה קשה משוכנע כי כוחות הב…  ביטלתי כעת את מעמד הקבע בישראל של שני מחבלים ממזרח ירושלים שהיו מעורבים בפיגועים קשים בירושלים ובחיפה מי שגרם לרצ…  I approved her request as a gesture of goodwill on a humanitarian basis but it was just a provocative request aim…  Rep Tlaib just tweeted that she wont be coming to Israel Just yesterday she sent me a letter asking to visit he…  חברת הקונגרס רשידה טליב צייצה כעת שלא תגיע לישראל אמש שלחה לי מכתב ובו ביקשה לאפשר לה לבקר את סבתה בת ה90 ״כי זו…  שתי חברות הקונגרס האמריקאי רצו להגיע לישראל כדי לפעול נגד המדינה להוציא את דיבתה רעה ולכן החלטתי למנוע את כניסתן  השכל הישר ניצח </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mosheifargan אם עכשיו וואטאבאוטיזם הופך לטיעון משפטי לגיטימי מתברר שזו לא רק אכיפה בררנית זו גם סנגוריה בררנית NadavEyal SaraHaetzniCohe RonnyLinder טוב שהפרופסור טרח להרגיע את הציבור ולצאת נגד אזהרות משרד הבריאות רק לפני…  מעניין אם היא או האחרים שדקל הפעיל קיבלו סיקור חיובי יותר יש כאן בהחלט בסיס לחקירה פלילית על יחסים שוחדיים כפי ש…  אם אתם רוצים הפסקה לרגע מהטרללת הכללית הנה נאום מעולה של שר המשפטים האמריקני ביל בר על פוליטיקה חקירות והגבלת כוח…  OrenNahari OmerGendler אני חושש שאתה לא בדיוק קורא נכון את הגרף הוא אומר בדיוק את מה שאמרתי וככל שתוסיף יותר מדינות הוא יגיד זאת יותר Syechimovich מעניין האם את מבינה שמדברי קלמן יוצא שאת לגמרי בצד גידולי הפרא של ערוגת העיתונות רק משמאל OrenNahari OmerGendler פשוט לא נכון הפריחה הכלכלית של ארגנטינה הייתה בתחילת המאה ה20 תבדוק את עצמך אורן אתה טועה ומטעה תרשו לי להיכנס לדיון דתי לרגע אני קורא אמירות בסגנון להתפלל מחוץ לבית כנסת זו גלות אני כופר בזה לחלוטין להתפלל…  YinonMagal מה שנקרא קונספציה DaphnaLiel הדאגה שלך לאמון הציבור נוגעת ללב במיוחד בציוץ שכל מטרתו לערערו rothmar mosheifargan שמחה לא ברור מה אתה טוען מה התחום מי ההוגים DaphnaLiel אם זה מה שיחליטו טעות חמורה עיתונאי השמאל הופכים לפתטיים מיום ליום הספין החדש המטרה של נתניהו היא לעצור את ההפגנות זה כל מה שמעניין אותו הא…  כחוללבן דבקה במשימת ההגנה על ההפגנות באופן מרשים מאוד לא זכור לי מפגן כזה של אווילות בו מפלגה שטוענת למרכזיות ומ…   אנחנו המונים מאות אלפים שיפילו את נתניהו  אבל קורונה אוסרים התקהלויות כולל תפילות   טוב מה אתה משווה תפ…  האם לא ברור לכולם שבממלכת המשפטנים ההפגנות הללו הן בעדם האם עדיין צריך להסביר למישהו שבתור התובעים הם נטולי אי…  mosheifargan בעולם מושלם הרינג היה מוצא מחוץ לחוק ronnyeps תודה רבה יש דיבור על זה אבל אני מניח שנצטרך לעבור את הסגר ואז יש לדורטל עוד אנשים בתור לפני זמן מה הופיע אצלי תמיר דורטל הניח על השולחן אוסף של מיקרופונים אזניות ומכשירי הקלטה ופרץ באוסף שאלות נוקבות…  יש לנו 3 שבועות לשמור על קפסולות כדי לעצור את הדבקה ההמונית 3 שבועות עם המשפחה זה הכל זה לא עונש זה נכס שדרוג…  faniaoz ILpolice I rest my case faniaoz ILpolice ואנחנו חשבנו שאת מוטרדת מהתפוררות האמנה החברתית פשוט לא ידענו שהאמנה החברתית היא כשהממשלה עוש…  מעולה הארד ריאליטי  GadiTaub1 שמע אני מרגיש שדופקים אותי לי יש 4 ילדים במערכת החינוך והנה מתברר לי שהנטל היה צריך ליפול על עוד 6 מבוגרים amirleshem מולטקה הזקן Blackhag אז היו הרבה יותר מ25 מיליון ילדים מישהו יכול להסביר לי את החשבון איך זה שגלנט אומר שיש במערכת החינוך 25 מיליון ילדים ו5 מיליון הורים ממתי לכל ילד…  Riklin10 שמעון שמעון להגיד את זה היום זה לא חוכמה שים לב מתי זה כבר נאמר   יושב בקפה בדיזנגוף  באה מלצרית  רק לא ביבי היא מתריסה  מפגינה של קריים מיניסטר  הליכוד מחריב את המדינה האסי…  MeirRubin זה גם זה אמונה טפלה עוד אין מספיק נתונים אבל החשש משמעותי YinonMagal שוב אתה מסית greenarik ErelSegal לא חמקתי זאת שאלה לא רלוונטית בא לאראל לדבר על בנט מה אכפת לי או לך איזה מין דיון זה בכלל greenarik ErelSegal בתור מי שעוקב סותר גם סותר ואראל צודק בעניין הסגר שגם שם לא ברור מה העמדה שלו להגיד אני…  greenarik ErelSegal מי אמר ביבי הפכת לאחד מאלה   אין פה טובים אין לאף אחד תכנית לא לביבי ולא לבנט שסותר את ע…  greenarik ErelSegal מתפקד ויעיל תכף תגיד לי גם פרקליטות לא מוטה וצהל מנצח אני מציע רעיון יותר טוב בוא נ…  avishavit mosheifargan אי אפשר להמשיך כרגיל אחד יצטרך להיות בבית או שתעשו תורות תלוי בעבודה ובאפשרויות אחרת כולם בסוף בסגר זה עדיף שלוש פעמים נכשלו במדיניות פתיחת הלימודים שהוכחו שוב כמדגרות קורונה ועדיין לא לומדים אין עם מה לעבוד mosheifargan ההורים יסתדרו ברובם סתם מיתוס לא מגובה mosheifargan אין שום סיבה לכיתות ד ומטה הכל אז היועמש אמר אין לו שום מעמד אתם הממשלה אתם מחוייבים להטיל מגבלות על הפגנות בדיוק כמו על כל דבר אחר ומי שרוצה…  amitsegal יש בדיקה כדי להגיד שהכל נבדק ולא נמצאה שום בעיה לא רק בהודעות דובר כלומר שר המשפטים אלא באופן רשמי ברור לכם שאילו השמאל היה בשלטון חופש ההפגנה היה מקבל התייחסות משפטית מידתית ומאוזן מול בריאות הציבור הפגנה המ…  GadiTaub1 ShimiOtsri זה המחקר  יותר בדיקת היתכנות מאשר מחקר רפואי מבחינת המספרים זה מאוד…  ShimiOtsri GadiTaub1 לא ראיתי שיש משהו ספציפי לגבי קורונה אבל ויטמין D מועיל באופן כללי אז אין מה להפסיד 2 מתוך 2  שני מאמרים שלי מתפרסמים היום  השני פה סיכום השבועות האחרונים בחזית המדע מול הקורונה מה אנו יודעים ואיפ…  1 מתוך 2  שני מאמרים שלי מתפרסמים היום  הראשון כאן כתב אישום זועם למדי במקור על השחיתות האמתית במערכות השלטון של…  כששי ניצן שואל בפאתוס היעלה על הדעת זה מזכיר לי את שמעון פרס שואל בוועידת העבודה אני שומע את חבריי אומרים פרס…  היש טרלול גדול מזה סרמטכל שנאם בתפקיד על תהליכים של גרמניה הנאצית בישראל ולא מבין עד היום למה זאת בעיה חושב…  מהפכה חוקתית gt הפיכה משפטית gt דמוקרטיה מהותית yoavr רק אומר יום אחד תאלץ להתנצל על הפוסט הזה סאביח מאטרס yoavr במקרה נפלת על ארגטינאי לאדינו ואני קרובי משפחה כולל חיבה לחריף yoavr מעולם לא טעית יותר סביח הוא הרבה יותר מסביח כנראה שעשו לך מנה לאשכנזים זוכרים את התיאוריה שהקורונה תיעלם בקיץ מפות יפות של כדהא עם חום וקור מוקדי התפרצויות שישבו בטווח טמפרטורה מסוים…  צריך לדבר גם קצת על נתניהו וההסכם עם האמירויות לא בכל זאת קרה השבוע אירוע היסטורי אז התנדבתי תהנו gtgt  בכל הכבוד מי שאומר שמאז המהפכה החוקתית נהרסה בישראל הפרדת הרשויות מתעלם מכך שיש בישראל שלוש רשויות שלטוניות מוסמכו…  הסיפור הזה נשמע כל כך הזוי אבל הוא לא ראשון ולא אחרון הבעיה שבדרך כלל הימין סובל ממנו אני פונה לשמאל איך אתם לא…  yCe0GV6LXJP3UXO אולי זה שהגבת לו קפה לא מספיק צריך ללוות אותו בשיעורי קריאה accurateWell חח אתה חושב שאם אתה כותב נקמה סערה להכות מישהו משתכנע אתה חושב שאתה מייצר מציאות בציוצים טפילי…  MOSHEG101 זה לא הוא yCe0GV6LXJP3UXO מעניין כי הוא בשמאל ואומר שאני עושה את זה אתה בלופ של סתירות טרולי שתה קפה ותרגע accurateWell טרול יקר שפן חביב השטויות המופרכות ובעליל המגמתיות שאתה כותב מקרבות אותך לחסימה ראה הוזהרת yoavbartov חחח youwillbesaved7 תודה תודה אבל בהחלט יש עוד רבים הרבה פעמים הייחוס של מתלהם לחבריי לא משקף כי כשזה בא משמאל אומרי…  טוב אז דהמרקר בחרו אותי לרשימת 100 המשפיעים ולא רק שבחרו נדן פלדמן גם כתב עליי בצורה הגונה וראויה ככה שלא נותר…  netaelbandel 1 ביקשו להתערב באופן שבו בית המשפט מופיע במנוע החיפוש הפופולרי ביותר זו השפעה דומה מאוד  2 אין רא…  accurateWell gershuni MidaWebsite מי שאומר שמידה אתר כחלוניסטי לא דוק ולא היטב זה האתר שהיה הביקורתי ביותר כל…  YinonMagal חמוצים זה בקלאוות לידם GA1789 yehuday30 זה יותר מפסק דין אלה הדיברות שירדו מסיני הציטוט הוא של גורו הגורואים אהרן ברק שופט בחברה דמוקרטית yehuday30 יש הבדל מהותי בין זה לבין אם בעולמה של היהדות מצוי זרם פרטיקולריסטי וזרם אוניברסלי מן הראוי הוא לשופט…  מצחיק שמרידור מדבר על עבודת מטה הרי הוא זה שנכשל כאן מקצועית ההנחיות שלא מתקיימות החלטות הממשלה שלא מתבצעות …  HaniZubida AlonaMiryam barak1cohen האני אני ממליץ לך להקפיד יותר על ההתבטאויות שלך כבר לא מספיק רק שפלות והוצאת…  מסתמן מספר הימנים שהלכו לבלפור לבדוק אם מספרי המפגינים המדווחים בתקשורת אמתיים גדול ממספר השמאלנים שבאו למחאה mosheifargan שים לו עניבה ומשקפיים והוא דומה לך 2 טיפות מים EithanOrkibi akibigman מילא קריאות ביבי אבל מתוך הרכבים שמעתם פעם דבר כזה שבוע טוב לשכת רהמ ומערך ההסברה  אסור שיקרה דבר כזה כשל שיש מספיק זמן לתקן  alonabaron קראתי אהבתי אין ספק שפויר במיטבו אבל בסוף כן היה לי חסר מאוד גם הצד של הקיבוצניקים בניר דוד בעיקר ש…  GlaznerYoav קרלסן הוא הפייבוריט אין ספק לאף אחד שהוא השחקן הטוב יותר אבל הוא מותש מסיבוב מאוד ארוך לכן לא הגיע…  markobalkoski21 הייתי צריך לכתוב שהמנצח מקבל כניסה חופשית להאסי והיית רואה מה זה טראפיק עדכון שח נוסף למתעניינים אחרי מסע ארוך מאוד בטורניר של chess24 הגיעו לגמר היקרו נקמורה האמריקני ומגנוס קרלסן הגמ…  giladzw למה צביעות הוא רוצה את החופש לחנך את הילדים שלו וגם את הילדים של אחרים YinonMagal שכחת את רהיטי הגן רעידת אדמה שלטונית akibigman מבכירות אי אפשר להחלים מה קרה לך אני מציע גם שכל מי שאינו חולה בקורונה ובמהלך הזמן יהפוך לחולה לקורונה יחשב כמי שאינו חולה בקורונה איני יכול עוד  האמת שקשה לי להאמין שהוא אמר את זה אבל מי יודע מנסיוני למדתי שבדרג המקצועי בישראל הכל אפשרי  ErelSegal globesnews לוחם צדק אתה אראל mosheifargan הייתי אומר בין מי שנדרש לחשבן ומי שיכול להגיש חשבון פגשתי את גביזון פעם אחת לפני כשנה ומשהו במקרה לגמרי יצא שישבנו זה לצד זה בארוחת ערב כלשהי ושוחחנו לא מעט היא הרש…  חם מאוד בחוץ חשוב לזכור לשים מים לחתולה וחמשת הגורים המופרעים שהשתלטו לך על החיים  33 ועדיין השמאל היה מחליף את טראמפ באובמה בלי שום היסוס פוליטיקת הזהויות מחריבה את שיקול הדעת 23  נשיא אחר זוכה לשנאת המוסדות הבינלאומיים הטיל על איראן סנקציות ביקר את האום על הטייתו וקיצץ בתקציבו מכבד את…  13 נשיא אחד קיבל פרס נובל לשלום על זה שנבחר קרא לאיראן מעצמה אזורית חיובית ועשה איתה הסכם גרעין הפגין זלזול וס…  יפה מאוד הקרן החדשה ניסתה להשתיק כדי להתחפש ללא רדיקלית שוב התבררה האמת  אני חש שיש כאן כמה שקצת חשים אכזבה מזה שנתניהו השיג הסכם שלום גלוי עם מדינה ערבית במפרץ אז למען הסר ספק הישג נדיר…  יהיה קשה לסלוח לפרקליטות וליועמשים ששיגעו מדינה שלמה במשך שנים עם דברים כמו חמגשיות סיגרים שמפניה ופיצול נכס לצורך השכרה YonatanJaku אפילו בפנטזיות הכי פרועות שלי לשם עוד לא הגעתי הדבר הכי טוב שיכול לצאת מהבלגאן הזה הוא שיסירו 90 מהתקנות המופרכות על הבניה בשטח שלך ושיגדירו סיקור אוהד ועוין…  הבעיה היא שלכולם ברור שהרכב אחר היה יכול לפסוק אחרת הפסיקות הסובייקטיביות האלה הן הדבר שפוגע יותר מכל דבר אחר במעמ…  yakovahimeir לא ביקורת ראויה ולא הסתה סתם דעה שגויה ראיתי שמתי כספי יצא על נתניהו ויאיר בצורה קצת קיצונית וזה לא היה נעים לראות אז אני רוצה להבהיר שאין דבר שמתי כספ…  לא ראיתי אף אחד מהפוליטיקאים בשמאל כולל לפיד ובוגי ואפילו גנץ ואשכנזי שמגנה את האלימות בהפגנות ואת הבוטות הדוחה…  EithanOrkibi GadiTaub1 כל הדיון הזה כל כך אנטי ליברלי עצם קיומו הוא סוג של יקום שקורס לתוך עצמו האמת שכבר מזמן הגעתי למסקנה שאין טעם להגיע לאולפנים אם 1 הזמינו אורחים שידוע שלא מעוניינים לדון כי קל מאוד לפוצץ…  טעות קשה ופגם מוסרי  הפגנה מול אנשי ציבור צריכה להיתחם בעיקר למקום עבודתם כי בני משפחותיהם שכניהם ותושבי שכונותי…  TheTowers5 GadiTaub1 חלילה חתולה יפיפיה שלוקחת מנוחה רגעית מטיפול בחמישה גורי קיץ Iaskquestions30 GadiTaub1 חתולים מתייחסים למשימות האלה אחרת מאיתנו python35 אפשר גם לשתות GadiTaub1 שים לב אגב לחתולה המנמנמת מתחת לעץ ששומרת על הגידולים naftalibennett רק בריאות chickos99 תזה כל כך מופרכת שקשה להחליט איפה להתחיל בזה שסוציאליזם הוא ההפך מחמלה משטר של דיכוי ואלימות שמבוסס ע…  Cannabisrael חח תודה לרשויות על ההיתרים ולבורא עולם על הצומח בואו נגיד שהרבה מעתידי הבריאותי תלוי ועומד על השאלה האם צריכה בלתי מוגבלת של בזיליקום היא בריאה כשם שהיא טעימה  mosheifargan לפעמים גם האמת היא אופציה 15 שנה להתנתקות זמן טוב להיזכר שלעיתונאים אצלנו אין שום מושג של אמת ושום מחויבות לעובדות לא בזמן אמת ולא בדיעבד…  3 המלצות  1 פודקאסט איתן אורקיבי ועקיבא ביגמן אידיוטים שימושיים  2 וידאו גדי טאוב ש…  eladshpier רק תיזהר לא להגזים בהפגנת מוסר ויושר תשמור משהו לעתיד ראיתי שהשמאל חוגג ואפילו עותר בעניין הייעוץ של לימור סמימיאן דרש אז הלכתי לגוגל scholar וכתבתי את השם שלה ואני שם…  mendieilat להפך זה רגע של כבוד לאומי עוד עדכון בוריס גלפנד מטורניר האגדות של Chess24 אחרי פתיחה טובה בוריס קצת התקשה אבל ביומיים האחרונים הוא ניצח פעמ…  איתמר פליישמן הוא אדם מסוכן שמטעה את הציבור  1 הוא רומז איזו מין חיה הוא מיץ פטל זהו ספויילר חמור  2 מיץ פטל ל…  navedromi תודה על ההמלצה matangeva טעיתי אתה צריך גם בחשבון וגם בפוליטיקה oferdann עמוק עמוק עמוק matangeva אני מבין מדבריך שאתה צריך שיעור בחשבון או בפוליטיקה אין יותר מדי מה להתרגש הפופוליזם האלים של השמאל ושופרותיו ההסתה והנאצות בטורבו על רקע מופעי החשפנות וביזוי הסמלים…  המאמר השבועי שלי במקור ראשון הוא בעצם נגד נחשול הסוציאלפופוליזם ששוטף אותנו בזמן האחרון  בשמאל ומדאיג יותר גם…  alonabaron נראה שזה דווקא כן די מה שנשאר מהשמאל זה מה שטוען שי גולדן הזרמים המרכזיים לא נפקדים מהשיח הם נפקדים היום מהשמאל idoarad אשריך idoarad אין ספק שאם בנט היה שר הביטחון היית מייחס את הפוסט הזה לכהונתו ככה זה בנטיסטים one track mind אני טוען מזה זמן שתקציב הביטחון אכן בחסר  אבל כדי להוסיף לו יש לבצע רפורמות מקדמיות גדולות מאוד במשרד הביטחון וצה…  מעדכן גלפנד ניצח עוד משחק וניצח בסיבוב הזה את אחד השחמטאים המובילים בעולם כל הכבוד מעדכן שבוריס גלפנד ניצח עכשיו את דינג לירן אחד החזקים בעולם בטורניר שח של Chess24 ומוביל בתוצאה 1505 קדימה גלפנד arielSugar1 תענוג לשמוע תודה רבה mikeymi90652048 אל דאגה כנף מעילו של החייל הימני ביותר יטבול במימי התעלה מבטיח yoavr אני לא עוקב באדיקות אבל אם אינני טועה הם מדברים על כיתות באוניברסיטה וקהל שבוי לא על המרחב הציבורי ועד כמ…  DiscussingEcon1 NirGodin לא זה לא שתי הטענות שלך פה שקריות mikeymi90652048 77 לא 72 באמת קצת נמוך אבל הממוצע לבד לא אומר יותר מדי mikeymi90652048 אבל אבל בחשבון ההיסטורי תוקידידס יותר חשוב מהציונים מאמר מקור ראשון שלי על האלימות המהפכנית קונדורסה ומכתב הארפר  שמתחברים למהומות בבלפור   חוץ מזה מעניין כמה ס…  KIDO24408004 TalYaacov51 ואני מוחה על הערת השעמום והתקופות הרדומות הדיונים האלה מעניינים וחשובים תמיד KIDO24408004 TalYaacov51 השרלטנות עולה כסף ונזק אני חושב שזה די ברור binyaminschein OriKatz3 איך כולם אני מכיר רבים וחשובים שלא יש מחקרים על בעיית המומחה בכלכלה וכלכלנים לא יוצאים…  OriKatz3 מכיר אתה טוען שכלכלה איננה מדע ולא קרובה לכך עם נסיון כן להיראות קצת קרוב מפני שהכלים המרכזיים ביותר…  TsurDanino זאת לחלוטין לא שרלטנות אם מישהו ישר לגבי מידת ידיעותיו ויכולתו לחזות תוצאות של מדיניות יש גם כאלה TalYaacov51 לא יש בהם שימוש הם מספקים נתונים חשובים לקבלת החלטות גם בצבא יש שימוש ומלחמה איננה מדע גם בארכיון…  TalHeller23 TBBReCyUG7O6ZYh לדון במה לא ראיתי שאלה או הזמנה לדיון ראיתי גילוי בורות אגרסיבית בדרכ שגורה בשמאל…  TrutaChipanta לא יצאה לך הבדיחה גם אני חושב ששמחון טועה אבל זה לא קשור ליומרות מדעיות avf204 אני חושש שאינך זוכר את הקורס כראוי או שאינך זוכר את ההבדל בין הטקטי לאסטרטגי כפי שהוגדר בקורס אתה ודאי זו…  TBBReCyUG7O6ZYh אם לא היית לא היית שואל haimorti כן אעלה אותו מחר תודה על התזכורת ronnyeps OriKatz3 איפה ראית שהגנתי עליו ואיפה טענתי שכלכלה היא לא דבר רציני ואיזה שצף קצף אני חושב שאתה צריך ל…  binyaminschein OriKatz3 לא טענתי לכשל לוגי וכל משפט הוא טענה אתה מתכוון כנראה למשהו אחר שלא הבנתי NirGodin ולעצם שאלתך ההגדרה שלי יותר אופרציונלית וכוללת לפחות ניסוי מבוקר כתנאי בלעדי לשליטה במשתנים ותיאוריה …  NirGodin הפוך אלו שטוענים שכלכלה היא מדע חולקים עליו לכן כלכלנים רבים מאלו שמתעניינים בסוגיה דוחים את עקרון הה…  OriKatz3 ואגב מה שציינת כשרלטנות לא קשור למה שהמילה אומרת סתם כדי לשפר גם את ידיעותיך לא רק במדע אלא גם בעברית ל…  OriKatz3 אני מבין שעברת לאד הומינם והכפשה מפני שאתה טוען ככלכלן כמה מפתיע שכלכלה היא מדע מה לעשות ויש קריטריונ…  noamtomer2 eli19 benjilachkar לא זה מאמר ארוך כשיתקרב מועד הפרסום אעדכן Gilad02736300 אם אתה יכול לראות איך זה עובד אשריך עכשיו נסה פרנולוגיה אולי תשתכנע גם מזה sz2744 חח מי איבד את זה מרגברת טרול אני מהמתנגדים noamtomer2 eli19 benjilachkar זה מאוד תמציתי כמובן בנוסח טד האמת שיש לי מאמר בקנה בנושא המומחיות במד…  TsurDanino קיצוני הוא מי שקורא לכלכלה מדע אם הוא מתכוון למשהו שדומה למדעי הטבע וברור שלכך הרוב מתכוונים כך נהו…  TBBReCyUG7O6ZYh בוא נתחיל בתיקוני עברית אחרי זה נפסיק לפחד להסתתר מאחורי דמויות פיקטיביות ואז נוכל לדון במידת השכלתך בתחום avf204 אסטרטגיה צבאית וזה שמשהו אינו מדע לא אומר שאין עוד הבדלים בין תחומים שונים ומידת שימושם אבל היומרה מסוכנת…  Gilad02736300 גם גרפולוגיה ואסטרולוגיה eli19 benjilachkar אם אתה רואה בהיסטוריה מדע אז סבבה הכלכלנים בעצמם יחלקו עליך benjilachkar אפילו את זה אי אפשר לדעת אפשר להעריך בסבירות שגם אותה אנחנו מנחשים אני חוזר אין מומחים ואין מדענים במדעי החברה במובן שבו אנו מדברים על מומחיות ומדע בתחומים שבהם המושגים האלה רלו…  Morpheus1099 selorange שחרר עוד תפרוק זה טוב לנפש Morpheus1099 selorange לפחות אינני בור תהא זו נחמתי Morpheus1099 selorange אין במדע המדינה במערב הגדרה מקובלת לדמוקרטיה מהותית זה מושג כמעט לא קיים מי היו קרובים…  berman917 amsterdamski2 אני בטוח שיש לך מלא דוגמאות שבהן יצאתי לדעתך טוב אז לא נורא פעם אחת שלא וקיבלת תשובה מנ…  amsterdamski2 תמיד שמח לעזור amsterdamski2 הבעיה פה היא בתורת המשטר לא בתפיסה הכלכלית זו אוליגרכיה טיפוסית תחת אמתלות מעודכנות של העידן הבירו…  אנטידמוקרטיה במיטבה הפקידים גם לא נבחרים וגם לא עובדים אצל מי שנבחר הם עובדים אצל הציבור רק כנראה לא הציבור ש…  haggaisegal לא יאומן שהיא מרשה לעצמה להתבטא כך כלפי מבקרי מערכת המשפט בכלל וחברי כנסת בפרט וירוס של שבת rothmar gershuni אז עכשיו לחלק כסף למי שלא מגיע לו זה חכם אני אומר כבר הרבה זמן לא אוהב את המהלכים הכלכליים של הממשלה גם המענקים הם טעות יש לזה מקום אבל על בסיס צרכי סעד…  Blackhag מאוד מצחיק חשבת על זה לבד תראו את חישובי המוות העודף בעולם אנחנו בחברה בינלאומית כל כך מוצלחת עכשיו לדאבון הלב אני חושש שאנחנו בדרך להצטרף…  itayr2 אני חושב שלא הבנת את הזאנר כמה מפתיע אתכם לגלות שכותב הפשקוויל חסר המודעות המנופח וההיסטרי הזה הוא פרופסור להיסטוריה ותקשורת  ב14 ביולי 1789 הסתערו על הבסטיליה ב1792 נרצחו כ1500 אסירים בטבח ספטמבר בספטמבר 1793 הוכרז צו הטרור הוקמו…  RafaelHamorasti Aufhebung ומה עם להטיל ספק בפוליטיקאים שלא מטילים ספק בפקידות לולאת האוזר  alonabaron תעבירי את התרומה למידה ותראי ישועות ליברליות קלאסיות לאלוף יצחק בריק מגיע פרס ישראל על המאבק שלו להחזיר את צהל לכשירות מלחמה שאותו הוא מנהל מול מערכת הביטחון הגוף הח…  GlaznerTzaci לא אני אמנם מעדיף שהמחנה הלאומי יצביע למפלגת השלטון אבל כל עוד מצביעים להם זה מה יש AvielDabush מאחל לו שימצא במלוא הרצינות Daniel4Micky mea culpa hanangershuni נו האמת שזה יותר מקורי ומשעשע מנוביק idokius תרוויח itayr2 איתי רום עקיבא נוביק הוא הרול מודל שלי אהיה לו חומה בצורה והוא יהיה לי השראה idokius מה אתה לא חסום אצלי GalCohe97291103 מותר להיות ימני נגד ביבי לצאת נגד תומכי ביבי זה משהו אחר GalCohe97291103 לא המאמר בהארץ שבו הוא תוקף ביביסט כמובן תוך סילוף גמור אבל מבוגר ערוץ 13 לא ציפיתי למשהו אחר עקיבא נוביק בזאנר ההומוריסטי החדש של המגזר פעמיים השבוע בטוויטר פלוס אזכור שלי במאמר בהארץ נדמה לי שפעם קראתי…  רק שתדעו כי אני צריך להוריד את זה מהלב אני חולק עליו בהרבה דברים ובהחלט חושב שמדי פעם הוא מתנהל באופן בעייתי אב…  התגובות לציוצים שלי על האתגר הכלכלי החל ב16 במרץ מראות עד כמה המודעות לבעיה עלתה אבל אני שוב חוזר על המסר ההכרח…  פנו אליי להתראיין עניתי שאני לא מתראיין לתכניות ערוכות שאלו אם אני יכול להציע מישהו עניתי מאותה סיבה שקשה לי ל…  ממליץ לכל הורה לשרוד את הפתיחה הארוכה מדי ולראות את ההרצאה הזו של גונתן הייט </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  swid4 KseniaSvetlova עצוב מאוד תנחומי כמה ההבטחות של netanyahu מופרכות במבט לאחור המציאות לא מתרשמת מההנחיות של ראש הממשלה והציוצים שלו זחוחים ומביכים…  מאות מכוניות בהפגנה בקיסריה   דורניקו זה עוד אחד מכזביו של netanyahu אסור להאמין למילה שיוצאת מפיו אני מכיר את המהלכים לקראת המינוי מוזי סיפר…  RafiMann חיפוש בארכיון בעניין אחר העלה את זה 90 מן הטקסט יכול להיכתב גם כיום  המלצת קריאה תמלילים  מתוך חקירת נתניהו שמפרסם היום גידי וייץ במוסף ״הארץ״ אם ראש הממשלה הנאשם בשוחד יתמיד בגרסה ש…  נתניהו ״המפגינים רק עוזרים לי פוליטית״ להלן מצבו בסקרים והנאצות  41 מנדטים  פוגעים בסמלי המדינה  37 מנדטים …  JoshBreiner הכוונה של נתניהו להביא את הגבלת ההפגנות כתקנה לשעת חירום רק כי הוא לא הצליח עדיין להעביר אותה כחוק בכנסת היא עדות נוספת לכ… בכל זאת הציבור אשם הרי אנחנו בחרנו בנאשם בשוחד ומרמה לראשות הממשלה מה ציפתם שאתכם הוא לא ירמה רמאי הוא רמאי הוא…  אחרי הנאום של netanyahu השתכנעתי סופית שחייבים לפתוח את בתי הכנסת ראש הממשלה הזה לא יציל אתכם אולי השם יעזור נתניהו ״כולם אשמים חוץ ממני צאו לבלות״  מה לעשות עכשיו 🟠 לסגור את כל בתי הכנסת 🟠 לסגור את כל ההפגנות 🟠 לסגור את netanyahu מאחורי סורג ובריח 🟠 אין צורך…  faniaoz ניגפנו פושעי הקורונה לדין זהו אפילו ועדת החקירה מיותרת מי ששלח ילדים למדגרות 25 מהנדבקים בבתי ספר מי שאישר תפילות …  במילה אחת מחדל בשתי מילים בנימין נתניהו  ishmuli אמירה הזויה היקף הבקשות לסיוע במזון בחגים זינקה פי 2 השנה ל12 מיליון בקשות את התקציב הגדלנו פי 3 וזו רק דוגמה אופס השקר נחשף עוד לפני תום השנה  האיום האמיתי על מדינת ישראל לא מגיע מטהרן אלא מהבית ברחוב בלפור בירושלים  MeravMichaeli צער גדול  itamarbz שרשור ארוך אך עמוס תופינים תבדקו אותי  מהו גוף התקשורת שעושה הכי הרבה כסף מפרסום של תעמולה ממשלתית סמויה נתוני אמת שנחשפי… גמר חתימה טובה  סיכום ביניים של הסגר בחג הציבור ברובו המכריע יותר נבון ממנהיגיו ומתנהל הרבה יותר בחכמה מממשלתו המטומטמת Ayeletnnv שנה טובה מקסימים RoyIddan  הבחירה כעת היא בין חיים למוות לא בין ימין ושמאל נתניהו וממשלתו הכושלת הפקירו אותנו במחדליהם האיומים לגורלנו אנחנ…  Eladingo זה בלתי נתפס זה אלי זעירא מתראיין עם אשתו בלבוש חג בגליון ה 9101973 על המלחמה הקשה בחזית מדהים  subtext100 faniaoz  ברור שnetanyahu לא מסוגל לנהל את המשבר הזה פשוט גדול עליו הוא מדינאי  לא מנהל לא איש עשייה הכי טוב למדינת ישר…  שנה טובה שנאמין היום בפרוייקט הציוני כמו שהאמינו אז כסבא שלי ואחרים בנו את הנמל בת״א  ובצדק מזל טוב יקירה שנה טובה בריאות טובה בשורות טובות וציוצים שהופכים את הבטן  שאלת הדיוט אם כולם משוכנעים שהסגר לא יעיל  למה לא מודיעים על ביטולו והחלפתו באיסור התקהלות של מעל 10 אנשים ונתניהו הוא לגמרי לא כשיר התדרדר כל כך עד שהוא בניגוד עניינים עם עצמו  Haaretz ך צודק  הודעת אחרונה בהחלט ממזכיר הממשלה ההחלטה היא לא להחליט בעניין הסגר עד שתיכנס לתוקף החלטה אחרת שתחליט מה שיחליטו הפוליטיקה הישראלית פשטה את הרגל הסקטוריאליות ניצחה את הממלכתיות והזלזול בתהליך קבלת החלטות הרס את אמון הציבור יהי…  talibo8 שר הבריאות מעז לדבר על הציבור שלא ציית כמה חצוף הוא יכול להיות בכל מקום נורמלי הוא היה מחזיר את המפתחות ומתפטרYuliEdelstein  השלום מדבק  השלום עם המפרציות חשוב מאוד בפני עצמו  אבל הוא חשוב שבעתיים בגלל ההבטחה שנתן netanyahu להקמת מדינה פלשתינית חבל…  limormoyal EmilieMoatti שתיכנן  33 וכמובן אודי אנג’ל הוא עד מטעם התביעה במשפט  netanyahu  ואני שואל איפה amitsegal כשיש דיון על ניגוד עניינים בפרקליטות 22 נתניהו יודע שצריך בקרוב מאוד לקבל החלטות בקשר למכרז של הפקת אשלג בים המלח המכרז אמנם יתקיים  סמוך לסיום העשור…  12 שאנחנו צועקים ״הוןשלטוןעולם תחתון״ אנחנו מתכוונים בדיוק לזה ראש הממשלה התכוון לטוס לארצות הברית במטוס פרטי ה…  איך הציונים בתעודה עוד לא בדקתם עם הילדים תברכו אותם על סיום שנת הלימודים שבת שלום    yayafink YoavKisch כדי שnetanyahu יוכל לנסוע להצטלם בוושינגטון ולחזור סגר הוא דבר נורא גם שחיתות היא דבר נורא מדינת ישראל לא מצליחה להתמודד עם מפירי הכלללים בעיקר במגזר החרדי והערבי …  TomerNaor בואו נצא למסע נוסף בעקבות יצירת תודעה כוזבת מוכנות ומוכנים לפני שעתיים מפרסם עמית סגל את הציוץ הזה שמספר שמנדלבליט מקיים… zionnenko ראש ממשלה שעסוק רק בענייניו האישיים המשפטיים ולא מצליח לנהל את המשבר הגדול ביותר מאז מלחמת יום כיפור צריך לצאת לנבצרות עכשי… אומר זאת כך יונית הסרחון במח״ש איום ונורא בלי קשר  ואולי עם  התיק של amitsegal נסגר אבל הוא בסך הכל המיקרופון  אם המספרים מצביעים על מחדל וההנהגה חסרת אונים מול המחדל  ואין תכנית להתמודד עם המחדל זה מחדל 2020  כל ישראלית…  Urieldenn מגלגל עינים עמית הוא מדווח תחת הכותרת החשד לטיוח חקירות נתניהו  ואין בדל הוכחה לטיוח Urieldenn  22 זכותו של סגל לחשוב שתפרו תיק לביבי אבל בשביל לבטל משפט או לסגור תיק צריך הוכחות והוכחות אין סגל רמז בדיווחיו…  12 בשפה המקצועית קוראים לזה אינאונדו הצגה של דברים בדרך של רמיזה והוספת פרשנות שמצוצה מהאצבע וזה בדיוק מה שעושה…  מזל שהמשפט של netanyahu יתנהל בבית משפט בפני שופטים ולא בכיכר העיר בפני בית הדין של טוויטר acrionline סמי מיכאל נשיא האגודה  לנוכח המשבר הבריאותי הכלכלי והמוסרי הפוקד את החברה הישראלית אנו באגודה זקוקים לתמיכה במאבקנו למ… תכירו האיש שלא לקח מעולם אחריות  aviadglickman baruchikra עזוב תבקש ישר חנינה אסטרטגית יציאה לקראת הכניסה  arik3000 דיקטטורה אאוצ׳  amitbentzur תודה יקירי OmerLubi תודה  guylerer תודה גיא אתה מגזים ובכל זאת  Syechimovich תודה שלי  RavivDrucker  LeviYonit  DanyCushmaro  Syechimovich  KerenMarc היום קפצה התזכורת הזו מלפני 12 שנים תמונות מהקרנת הבכורה של ״שיטת השקשוקה״ בסינמטק בתלאביב מאוד מטריד שהאליטה הת…  נתניהו אעמוד איתן מול הלחץ החרדי למנוע את הסגר כמו שמנעתי מאיחוד האמירויות מטוסי F35 ובדיוק כמו שעצרתי את מכירת הצוללות הגרמניות למצרים עכשיו ברצינות ברור לכם שהבריאות שלכם והחיים שלכם שווים בעיני netanyahu פחות מהמשך שלטונו  השפןימין חזק שוב ברח Shiritc פרויקטור הקורונה נשלח לוועדת חוקה הבוקא ובמשך ארבע שעות מנסה להגן על הסגר הצפוי שאושר כבר על ידי הממשלה ונתניהו  שעתיים אחר כ…  עמוד שער מצויין  הלוואי שמשטרת ישראל היתה ״מתנפלת״ ככה על חקירת השחיתות של netanyahu בפרשת הצוללות האמיתיות היס״מ חכמים רק על צולל…  פורח החצב ועולה ליד ביתנו השנה הבאה תהיה טובה מהחולפת  AmirHaskel כל מי שחרד לעתידה של הדמוקרטיה הישראלית נקרא להגיע הערב לכיכר פריז בירושלים  shiramakin חמישי 1050 מיקי זוהר מאשים את המפגינים בהפצת הקורונה חמישי 2043 יאיר נתניהו מאשים את השבכ בהסתרת ״נתוני ההדבקה בהפגנו… זה שבת שלום תמורת שלום או שוב רימית  מתגעגע ל״מסיבות העיתונאים״ של netanyahu  אומרים שהוא ישוב לתת כשנגיע ל4000 שבת שלום Irisleal15  יגון קודר שאלה בלוגיקה האם שקרן שמשקר אומר אמת או שהתוצאה היא שוב שקר התשובה 100 אלף במוצש בבלפור  RazShechnik נציב קבילות החיילים בצה״ל פתח בהליך בירור בגל״צ בעקבות מכתב אנונימי ובו תלונות חיילים בתחנה נגד ראש חטיבת החדשות אמיר איב… הוןשלטון ובעיקר כישלון  משטרה פוליטית מטורף  ZmanIsrael אנחנו שופטים את מנהיגינו עפי מוצא פיהם במקום עפי מה שיוצא תחת ידיהם גנץ אמר שלא יילך עם ביבי ועשה הפוך נתניהו הבטיח ס… איך לבחור לך פוליטיקאי  דרך zmanisrael שיתוק לאומי שניהם הביתה  rutirutiiii תבור  22 מי שחושב שבאמצעות כריתת בריתות עם מדינות ערביות ניתן לדלג על הבעיה הפלשתינית טועה ומטעה או שנפרד מהם בהסכם או…  12 אני מפרגן לראש הממשלה netanyahu על ההסכם עם איחוד האמירויות טובים סיכוני השלום מסיכוני המלחמה בלי קשר  האמי…  תעודת 100 ימים של הממשלה 🟡 הטיפול בקורונה  נכשל 🟡 המצב הכלכלי  נכשל 🟡 מערכת החינוך  בלתי מספיק 🟢 יוזמות שלום …  טיטאניק הקפטן עסוק בהישרדותו הצוות המקצועי נוטש את הספינה והנוסעים הסמויים השתלטו על הפיקוד  כל צמרת האוצר עוזבת או מושתקת אחרי החשב הכללי גם הממונה על התקציבים מדובר בסכנה אמיתית לכלכלת ישראל לא תמיד הדרג…  33 בסך הכל ההפסד המצטבר של העתון בעשור האחרון היה למעלה ממיליארד שקל  החינמון המכונה גם ״ביביתון״ מהווה שופר לעמ…  23 ההפסדים של העשור האחרון שולמו במלואם על ידי המיליארדר אדלסון  לחינמון ״ישראל היום״ יש הכנסות ממודעות והוא אף מ…  13 המיליארדר האמריקני שלדון אדלסון הזרים בעשור האחרון למעלה ממיליארד שקל כדי לקדם את netanyahu   לידי הגיעו נתונ…  מיליארדר אמריקני הזרים בעשור האחרון למעלה ממיליארד שקל לקדם את netanyahu  פרטים בקרוב הנאשם netanyahu ישיב  RinoZror בהצלחה חביבי  Irisleal15 ההפגנות נגד נתניהו יצליחו מעגלי המצטרפים יגדלו גם מצביעי הימין יגיעו ברגע מסויים תווצר מסה קריטית והשלטון שלו לא יהיה לג… NuritKoren תודה נורית אני מאוד נרגש שבת שלום UriahCanaff אופס  אולי זה ישמע מוזר  אבל לדעתי צריך להנהיג פה בדיקה נפשית של ראש הממשלה אחת לשנה מנהיג שחלילה יוצא מדעתו מאבד את ה…  itayr2  רגעים מופלאים תודה  kannnews hadover1 shemeshmicha בריאות שלמה ofracarmi1  תודה יקרה GlickmanPaz Shiritc בדרך כלל האמת והעובדות אין שום דיון עיתונאית מצויינת ואין בעיה עם העובדה שיש לה דיעות מגובשות גם אין בעיה עם כתבים בעלי דיעות ימניות הב…  Shiritc בהצלחה sharonkarni תודה שרון יקרה  YossiYonah תודה יוסי  talibo8 תודה טלי  guymeroz תודה רבה חבר הציפיות שלי ממנו הוא כמו ההסכם עם ילדי תהיו מאושרים ואני אדאג לכל השאר 🤨 GilliParann שערוריית שיפוט nissimdouek תודה יקירי  רק בשורות טובות Ohsolomio2 רון subtext100 זהו פורש בשיא miki1650 תודה רבהרבה  ryabetz1 liorchorev רודף בצע liorchorev תודה רבה חביבי תביא לי מתנה את סילוקו של השקרן ShuliMR תודה רבה שולי רק בשורות טובות ושמחות Mickeygitzin תודה מיקי  אפ36 אפ37  MICHELLELITTAUE תודה רבהרבה  smadarp תודה רבה סמדר בשורות טובות ושמחות  ramivered תודה רבה רמי  shaquedmorag תודה רבה יקרה  yanivba7 תודה רבה יניב שמחות ובשורות טובות בהצלחה בשנת הלימודים החדשה Eyalo365 Syechimovich תודה רבה נראה לי שאקים קבוצת תמיכה עלפי מספר הפונים בסוגייה  MKmeircohen תודה רבה מאיר בשורות טובות ושמחות sabbabale בקרוב AmitTali ברכות טלי איזה כיף המון נחת drAnatBerko תודה רבה ענת אני מאוד נרגש tamarzandberg תודה רבה תמר אושר גדול baruchikra תודה ברוכי  שמחות ובשורות טובות francescabraun1 תודה רבה יקרה  Syechimovich תודה יקרה  אני מתקשר לבן ולבת שלך 🥴 Irisleal15 תודה מקרב לב איריס  רק שמחות ובשורות טובות Ayeletnnv תודה איילת אהובה רק שמחות ובשורות טובות MikiMiki1949 תודה רבה חביבי כך שמעתי  PolakR10 תודה חביבי OrlyAzoulay תודה אורלי אהובה  AviAmit26 דווח בהזדמנות gideonallon תודה גדעון  רק בשורות טובות TomerMichelzon תודה תומר ykarniel תודה רבה יובל AviAmit26 תודה אבי יקירי  מה שלומך עוקב בדאגה אחרי קורותיך yayafink תודה יקר שלי  בשורות טובות mgenelevi תודה רבה רבה MKMickeyLevy תודה חבר רק בשורות טובות eransinger תודה רבה יקירי בהזדמנות זו  הסדרה על השפה הערבית חשובה ומעניינת מאוד  oizreel  ItaiVered תודה איתי  mreshef1  ybhlashon תודה רבה  AmirP77 תודה  dinadayan תודה דינה יקרה מבטיח לדווח בהמשך  רק בשורות טובות giladmeir חן חן  תודה limormoyal תודה מקרב לב לא חושב שהעוגה המשמחת תקהה את שיני  mkorlyfroman תודה אורלי  hkim14050017 תודה חני רק בשורות טובות yigal1957 תודה מקרב לב KElharrar תודה קארין  amitbentzur תודה עמית subtext100 כל העניין הזה של הפתעה ידועה מראש מצריך באמת בירור מעמיק נולד לי נכד  אני לא מאמין שהפכתי לסבא אני סבא בטח קשירת קשר להפיל אותי RinoZror מחכה לספר בהצלחה הבחור סובל מדמנציה או שזה הלא היה כלום החדש  schatzah סנצ גוואטה מכה שנית סרטון חדש חושף שגוואטה חזר לתקוף העצור בשנית אחרי שכבר נעצר ובנוסף תוקף צלם  מה שהכי עצוב הוא שזה כבר לא משנה אם מכריזים על בחירות או עניין הבחירות נדחה יש אדם אחד שנמלט מאימת הדין ונאחז בקרנ…  השקרן שאמש אמר שהוא לא מתערב במינוי פרקליט המדינה אוחז היום במינוי הזה בדיוק כאמצעי סחיטה אירגון פשע השתלט על בלפור אחרי כל הבדיקות שיקלול היתרונות והחסרונות  יש לנו ממשלת שיתוק לאומי היינו יכולים לשים עציץ בראשה ולהציב אדניות ס…  ימין חזק   אירגון פשע ממשיך לשלוט בממשלת ישראל החלו התשדיר של הליכוד לכבוד חגי תשרי השופרות הגבירו את הפצת הדיבה והספינים אסור להתפשר עם אירגון הפשע של בלפור ועם העלילות שהוא מפיץ באמ…  ״רק ביבי״  ממתין בציפיה דרוכה    שרשור חשוב בבלפור מתנהל אירגון פשע  זה ידוע לאירגון יש פלנגות של פעילי מקלדת המתחזים לעיתונאים המפיצים חצאי אמית…  almogychen1 JDNsg6sw0Hamed4 שבת שלום גם לך EmilieMoatti חברים אנחנו צריכים להביו שהרגע שבו נפלת לפה של שופרות הבלאי ושחייני הביוב מבלפור הוא רגע של גבורה לא של שפל נגמרו הימי… ShaiCohen13 תודה חביבי שבת שלום פורסם כעת  כלומר פורסם ב2017 אתה עיתונאי  כמו שאני חבר ליכוד  אני מתעב את הצבועים ומגלגלי העיניים לשמים שמצד אחד מצפצפים על החוק קוראים שלא לקיים את החלטות בית המשפט יושבים עם…  תראו ציפור  אפילו הרעיון למנות את האיש המושחת הזה פגום בעיני  פה קבור הכלב פה קבור הכלב זהו עצם העניין לא זה העצם של הכלב אבל הכלב מת מזמן טוב זה עצם העניין  2017 netanyahu מכחיש שאישר לגרמניה למכור צוללות למצרים 2019 ביבי מודה שאישר מכירת צוללות למצרים 2020 נתניהו מכח…  נתניהו לא מדובר בחמקנים אלא בחמגשים  MaximovNatan amitsegal RavivDrucker לפי עיתונאיי וצייצניי הימין אני חריגת בניה עצומה  בפועל ובמציאות מעולם לא… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">המטרה של הימין מאז ועד היום הייתה לחסל כל אפשרות של שלום והקמת מדינה פלסטינית אבל המאבק לשחרור לא יסתיים עד שלא יה…  היום לפני עשרים שנה פרץ אריאל שרון בחסות אלפי שוטרים למסגד אלאקצה בצעד מתסיס שהצית את האזור  האינתיפאדה השנייה שפר…  כל הכבוד לחבריי עופר כסיף ואוסמה סעדי שבלילה אינסופי בוועדת החוקה הצליחו לדחות ואף למנוע את חוק איסור ההפגנות של נת…  עכשיו בוועדת הכספים נאבקים שוב על דמי אבטלה לבני 1820  נתניהו  אתה אחראי וגם אשם  אתה אשם במוות של האזרחים שהפקרת למרות כל האזהרות  אתה אשם בריסוק מערכת הבריאות שייבשת…  בזמן שכולם עוסקים בסגר הממשלה החליטה בהתרעה של שעה להביא לוועדת הכספים עוד הערב שלושה חוקים כלכליים הקשורים לסגר…  לשאלתי ענה מ״מ הממונה על התקציבים שהניתוח של האוצר לגבי היציאה ממשבר הקורונה מניח כי המשבר יסתיים ויוסרו כל המגבלות…  אנחנו בשיאו אחד הכישלונות הגדולים ביותר של ממשלות ישראל לדורותיהן בהתמודדות עם משבר הקורונה הכישלון הזה אינו רק רפ…  המסקנה הברורה מההתנהלות הזו היא שממשלת ישראל לא מעוניינת להעביר תקציב מסודר ושקוף אלא להמשיך לעבוד עם תוספות זמניו…  כשאנחנו חוזרים על הדרישות שלנו לתקציבים לרשויות המקומיות להתמודדות עם הקורונה להעברת עודפים של תוכנית 922 או לדמי…  מה שאנחנו כן יודעים זה שמתוך 11 המיליארד – כמיליארד ש״ח מיועדים לכספים קואליציונים שעיקרם תמיכה בהתנחלויות וב״זהות…  האוצר היה אמור להציג בפני ו׳ הכספים תוכנית לשימוש ב11 מיליארד תוספת שהכנסת אישרה להם לשם התמודדות עם מצב החירום של…  שמחון יועצו האולטרה קפיטליסט של נתניהו צריך לשמוע על המנקה שהוצאה לחל״ת ומקבלת עכשיו 3000 ש״ח בחודש על איש הסאונ…  אני מברכת את חברי סעיד אלחרומי שנבחר עכשיו ליור וועדת המשנה בוועדת הפנים לטיפול באוכלוסיה הערבית הבדואית בנגב  הג…  המגיפה לא בשליטה מערכת הבריאות מתקרבת לסף הספיקה הממשלה כשלה בטיפול במשבר ולכן אין לנו על מי לסמוך חוץ מעל עצמנו…  מופעי הגזענות האלימה הזו הם דרך של הכיבוש להשאיר את הפלסטינים מפוחדים נוער הגבעות הוא הכיבוש והכיבוש הוא טרור קשה להאמין שההודעות האלה אמיתיות אבל נוער הגבעות יודעים שגם אם יפיצו את רשימת התקיפות השנתית שלהם בתפוצה רחבה  דב…  ההכרזה של ארהב שתחזיר את הסנקציות על איראן מתלכדת עם ההסכמים שיזמה בין ישראל למדינות המפרץ  המטרה היא להסלים את ה…  שוחחנו על המשמעות של הסכמי ישראל ומדינות המפרץ לעתיד האזור והעמים החיים בו ועל איך שנתניהו בורח מהבעיות בבית להצלח…  נפגשתי עכשיו יחד עם דר עקל טקז ממפלגת העם הפלסטינית עם נציגים של מפלגות קומוניסטיות מכל העולם  מבריטניה איראן ע…  שנה טובה למי שחוגג  שתהיה שנה של מאבקים מוצלחים בריאות שוויון ושלום  שנזכה להפיל את הממשלה הרעה הזו בשנה הקרוב…  התנהלות הממשלה היא כישלון חסר תקדים  ההנחיות נראות גם דרקוניות וגם לא אפקטיביות רופאים רבים חושבים שניתן לשנות ול…  נפגשתי עם שגריר הולנד בישראל האנס דוכטר בנצרת אליה הוא הגיע כדי להביע סולידריות עם הציבור הערבי שנאבק במגיפת הקורו…  לא היו פלסטינים במדשאות הבית הלבן הערב  ככה לא נראה שלום  תסתכלו על שני המנהיגים הרעים האלה חוגגים עסקת נשק פיננסית עם רודנויות בזמן שהעמים שלהם נמקים תחת המגיפה  סדרי העד…  סוף סוף היה משהו בידי אשכנזי רגע של תהילה  והוא קיבל החלטה להסמיך את נתניהו  כל הכבוד לפעילים שעשו את הדבר הנכון הסכם השלום שצריך לקדם הוא מול הפלסטינים  אבל התנאי לשלום הוא סיום הכיבוש והקמ…  היו״ר פינדרוס מסכם כי המהלך של משרד הכלכלה מחייב מנגנוני פיקוח יעילים בשווקים ודורשת דיווח עד 1 בנובמבר על מנגנוני…  יעקב וכטל הממונה על התקינה  לפי ההערכה שלנו הרפורמה תביא לחיסכון של כ400 מיליון ש״ח ההנחה שלנו היא שהעלות תרד מה…  גרישה דייטש יועץ להתאחדות התעשיינים לתקינה  מדובר פה באימוץ של אלמנט אחד מהגישה האירופאית  של הצהרות ברגע שמאמצ…  אופיר גמליאל מנכ״ל מעבדות אייטיאל  במצב הנוכחי אנחנו לא בודקים כל מוצר אנחנו מכירים בבדיקות של קולגות מחו״ל אנ…  אילן בר מנכ״ל מעבדות חרמון  אם הרפורמה תעבור כפי שהיא אנחנו 3 מעבדות נהיה בחוץ הרפורמה הזו פותחת בצורה מאז׳ורית ד…  גלעד גולומב מנכ״ל מכון התקנים  הרפורמה שמוצעת כאן עוברת מאכיפה בנמלים לאכיפה בשווקים זה מחייב קודם בניה של מנגנונ…  יעקב וכטל הממונה על התקינה במשרד הכלכלה  היעוד של תקן רשמי הוא שמירה על הבטיחות אבל הרפורמה לא תפגע בבטיחות ידרש…  ח״כ מטאנס שחאדה מדינה לא אמורה לוותר על הבדיקות של מוצרים שמגיעים בשעריה זה לא הגורם ליוקר המחיה צריכים לנסות ליצור את האיזון העדין בין הורדת יוקר המחיה לבין הבטיחות של הצרכנים  היום אני רוצה לברר מה עמדתו של מש…  אני חוששת שהרפורמה הזו שתוריד את התקנים תסכן אנשים שמשתמשים במוצרים אנחנו גם לא נדע לבדוק בדיעבד אחרי תאונות  מדו…  זה דיון על איזון נכון בין צרכנות בטוחה שבה המוצרים אינם מסכנים את חיי ובריאות הצרכנים לבין שיקול של ״הורדת יוקר המח…  מתחילה דיון ביוזמתי בוועדת כלכלה בנושא ביטול בדיקות מעבדה למוצרי צריכה מיובאים  יש רפורמה מוצעת של משרד הכלכלה שפו…   צמצום הצעדים הבירוקרטים הכרוכים בקבלת תמיכה  עיבוי וחיזוק דרסטי של השירותים החברתיים לתמיכה בקהילות שנפגעו  הסגר…   פיצוי העסקים שייסגרו את דלתותיהם  פיצוי שכבת הצעירים בגילאים 1820  עידוד החזרה לשוק העבודה באמצעות תמיכת המדינ…  סגר ללא תכנית כלכליתחברתית הוא אסון השלכות הסגר הראשון עדיין לא עברו ומוכיחות לנו שתכנית הסגר לבדה אינה מספיקה י…  אני זוכרת את המראות הקשים של בית משפחת דוואבשה אחרי הרצח בית שהיו בו חיים והפך לגיהנום שרוף  לסעד ריהאם ועלי התי…  פניתי לשר הרווחה איציק שמולי בבקשה לפעול כדי לגבש תוכנית מלווה למאבק באלימות כלפי נשים בזמן הסגר ניתן להציל את הנש…  הגשתי עכשיו הצעה לדיון מהיר בוועדת הכספים על הצורך בהכנת תוכנית כלכליתחברתית משלימה לסגר  אי אפשר להפיל על הציבור…  לא יעזור הכיבוש עוד יסתיים ומדינה פלסטינית עצמאית בגבולות 67 ובירתה ירושלים המזרחית עוד תקום אל תתנו לו לעבוד עלי…  נתניהו עושה שרירים ומנרמל״ יחסים דווקא עם מי שהיחסים איתם היו מאז ומתמיד יחסי בני ברית שום שלום היסטורי זהו חבל…  עכשיו יצאתי מפגישת חירום עם ח״כיות ופעילות ערביות ויהודיות מכל הארץ בעקבות הרצח בנגב אתמול  הדיבור על סגר מתקרב מד…  משטרת ישראל אונס והטרדה מינית הם לא עבר מיני שחשיפתם פוגעת בפרטיות הם עבר פלילי שחשיפתו היא חובה מוסרית מהמעלה הר…  תודה אבי נכון  הסיוט עוד רצח  אשה בת 30 ברהט  עוד חיים הסתיימו  והרבה רצונות וחלומות יגנזו  אנחנו כבר לא בשלב שאיכפת מי רצח ולמה  רק שה…  לא רק כישלון בטיפול בקורונה המשתוללת אלא מערכת הבריאות קורסת בשל ייבושה המתמשך תוצאות הנאוליברליזם והפונדמנטליזם…  הדיון הסתיים בלי הרבה תשובות ברורות ממשרד החינוך  יור הוועדה ramshefa סיכם שנכין יחד רשימה של כל השאלות שעלו בדי…  במקום שיפקחו טוב מדי על המכללות משרד החינוך החליט שהוא הולך לדרוש מהמורים עוד בחינות הכשרה שמשפיעות על הניקוד שלו…  סוניה פרץ ממשרד החינוך הנוהל ברור ואני רוצה להסביר את ההיגיון מאחוריו ואת עודף המורים בחברה הערבית   עאידה אנחנו…  שיטת הניקוד קיימת רק בחברה הערבית ועל פיה המורים ממונים לבתי ספר  יש אינספור בעיות בשיטה  אין סמכות למנהלים בכלל…  מתחילים דיון ביוזמתי בנושא שיבוץ מורים ומורות בחברה הערבית  יש וועדה שאחראית לשיבוץ המורים אבל אנחנו לא יודעים מי…  איימן סייף התמסר בחודשים האחרונים למאבק בקורונה בחברה הערבית אחרי אינספור ימי עבודה בישובים בהם התחלואה גבוהה  הי…  נתניהו ושותפיו הפכו את אבואלקיען למחבל  הם וההסתה הגזענית שלהם נגד הערבים  ההתנצלות שלו עכשיו לא שווה דבר והי…  צילום שמוליק גרוסמן דוברות הכנסת רחל הבת המתוקה של tamarzandberg עושה רושם של פמיניסטית מבטיחה כאן בוועדה לקידום מעמד האישה  הילד התמים מנצרת ניצל בנס ובעזרת הרופאים אבל הניסים לא הצילו שתי ילדות חנאן ורפיף בנות ארבע בירושלים המזרחית לאח…  איור של ShimonBurshtein הקורונה פוגעת יותר בעניים  בין אם הם ערבים חרדים או יהודים חילוניים  ראו את המתאם המובהק בין התפשטות הקורונה למ…  להצתה השניה של ביהס שמלמד ערבים ויהודים יש את כל המאפיינים של פשע שנאה נגד הערכים הכי צודקים וראויים שיש  של שותפ…  תמיד חשוב לעזור לאנשים החיים בעוני אבל נתניהו וממשלתו לא מבינים שהעוני מתרחב וחלק ממנו לא ידוע לרשויות במקום לתת…  אבל כדי להגיע למצב בו אנחנו מגינים על עצמנו מחויבת התארגנות והקדשת משאבים מצד המדינה מוכרחים להנגיש יותר שירותים…  המדינה כשלה בהתמודדות עם המגיפה אבל זה לא העיקר ברגע זה עכשיו הגענו למצב בו אנחנו מוכרחים להגן על עצמנו על החברה…  בימים האחרונים יצאנו בקמפיין להעלאת החששות של הציבור מהמגיפה כמעט כל אנשי הציבור התגייסו למאמץ ההסברה הזו יותר וי…  המדינה כשלה בהתמודדות עם המגיפה אך זה לא העיקר ברגע זה עכשיו הגענו למצב בו אנחנו מוכרחים להגן על עצמנו על החברה…  על הגיפה בחברה הערבית  הגיע הזמן להפסיק לצפצף על מגבלות הקורונה אי אפשר להמשיך בהלך הרוח ששלט בתקופה האחרונה – שא…  הבית השכונה העיר  באחריותך זה המסר שהוצאנו עכשיו בחדש המצב חמור הממשלה נחשלה כישלון חרוץ בהתמודדות עם המגיפה…  אם לשלושה שריפה אבו מועמר מורה ואם לשני ילדים קטנים מרמלה הכינה אתמול הפתעות ובלונים לתלמידיה לקראת שנת הלימודים החדשה כדו…  הם לא ידעו שהלימודים מתחילים ב1 בספטמבר  מחר תתחיל שנת הלימודים המאתגרת ביותר שידעה המערכת והגנרל היהיר שעומד בר…  סמוטריץ מסית לרצח הוא רוצה לראות את החיילים רוצחים פלסטינים ומדכאים כל נסיון התקוממות נגד הכיבוש מה שהוא לא מבין…  לא רק שאלשיך לא התנצל על שכינה את יעקוב אבו אלקיעאן ז״ל כמחבל אלא שעכשיו 3 שנים אחרי הוא חוזר על אותו שקר גס  זו…  כל הפלפולים המשפטיים לא משנים את העובדות הפשוטות שעולות מהעדויות ב30 במאי איאד אל חלאק פלסטיני אוטיסט בן 32 הוצ…  לא מפתיע שפעילות זו מופנית כלפי כפר קדום – שהוא מעוז של התנגדות עממית ועיקשת לכיבוש הצבא לא מצליח לדכא את ההפגנות…  כבר קשה להבחין בין צבא הכיבוש לבין הטרוריסטים של תג מחיר הנחת מטענים מוסתרים למטרות ״הרתעה״ היא הפעלה ברורה של טרו…  אני מקווה שהגדלת התקציב הזו מצביעה על שינוי מגמה במשרד העבודה הרווחה ושירותים חברתיים שישתקף בהקצאת תקציבים אני…  אני מברכת על ההחלטה להגדלה משמעותית של תקציב מרכזי הסיוע לנפגעי ונפגוץעות תקיפה מינית ובמיוחד את השר איציק שמולי ש…   נציגי השבס ורשויות החוק והאכיפה ישבו מולנו בוועדות הסתכלו לנו בעינים והבטיחו שבשחרורים המינהליים בשל העומס בבתי ס…  חיברו את החולה למכונת הנשמה אבל ריח הבחירות עדיין נודף ממנו הקואליציה תמשיך לטרלל את הציבור ואת עצמה זה לא פתרון…  מה שראינו אתמול בוועדת הכספים והיום במליאה הוא הליך רפואי מורכב  החייאה של חולה במוות קליני  נפגשתי עם השרה לשוויון חברתי cohenmeirav ובתחילה בירכתי אותה על ביקורה בסוכת האבלים של נורה כעביה שנרצחה על ידי ב…  השעה 118 ועדיין מתווכחים על הניסוח של חוק האוזר וכל זה לאחר שנכנסנו לוועדת הכספים לאחר שכאילו יש הסכמה  טירלול שעוד לא ראיתם ברוטאליות וכוחניות זה מדרון חלקלק  זה עוד יגיע לפתחם של כל המעזים להגיד ״לא די״ לכן ההתנגדות להם צריכה להיות עקר…  האלימות חסרת המעצורים של קצין ניסו גואטה תועדה בידי מפגינים וטוב שכך  באותה העיר קילומטרים בודדים הרחק מבלפור נ…  רצח שהיה אפשר למנוע  גבר עם היסטוריה של אלימות שהורחק מביתו רצח את אישתו  נורה בת ה50 היא עוד קורבן של אלימות…  אני עכשיו פועלת מול שר הכלכלה עמיר פרץ כדי לטפל בנושא הזה לא מתקבל על הדעת שאנשים לא יוכלו למלא את הטפסים בגלל מגב…  טוב שנמצא פתרון לתוכניות החינוך המשלימות נקווה שאף אחת לא תיפול בין הכיסאות היעדר התקציב וההתכתשות הפוליטית פוגעת…  לרשות הנערה הייתה צריכה לעמוד מעטפת תומכת שתטפל בה תגבה את העדות שלה ברגישות הנדרשת ותאסוף מיד את הראיות הפורנזיות…  הידיעות על האונס הקבוצתי באילת מצמררות עוד אונס קבוצתי 30 גברים אלימים הרוע בלתי נתפס המחשבה שנערה בת 16 הייתה…  עוד התפרצות גזענית אלימה הפעם בכינרת  כאשר ראש הממשלה מסית בלי הפסקה נגד הציבור הערבי ונציגיו כאשר שוטרים שהורגי…  עבור הכיבוש  חיים של פלסטיני לא שווים כלום עונש ראוי לחציה ברמזור אדום על נטילת חייו של אדם שנרצח בזמן שעזר לאדם…  נתונים שאסף ארגון GishaAccess  מהשנה האחרונה על הגבלות על שטח הדיג ועל סגירת העברת הסחורות לעזה  ישראל אסרה השבוע על כל פעילות דייג בים של עזה והפסיקה את הכנסת הדלקים לרצועה – כך שהחשמל בעזה יפעל רק שעות ספורות…  אום חליל וכל שאר האימהות שצעדו מחיפה לירושלים התחילו במהלך לשינוי מהותי בתדמיתו ואופיו של המאבק נגד פשיעה ואלימות…  9 מדינת ישראל תהיה חוד החזית של האימפריליזם האמריקאי באזור  10 כפי שאמר בעל הדוקטרינה לנצח נחיה על חרבנו 6 כריתת בריתות עם הכוחות השמרנים ההרסניים והעשירים ביותר באזור  משטרי מדינות המפרץ  7 הסכמי שלום – רק עם מי שלי…  2 העמקת הפירוד בין חלקים שונים של העם הפלסטיני – בעזה בגדה בירושלים המזרחית בפליטות ובתוך ישראל  3 עקרון יסוד…  נתניהו אמר שההסכם עם איחוד האמירויות הוא תוצאה של ״דוקטרינת נתניהו״   להלן 10 הנקודות של דוקטרינת נתניהו האמיתית…  הירי על אדם עם מוגבלות חושף שוב ההתנהלות הפושעת של כוחות הכיבוש נגד הפלסטינים היד קלה על ההדק וחיי בני אדם לא נחשב…  המדינה מתחמקת מאחריות במקום להשקיע יותר תקציבים בחיזוק תשתיות חינוך ולאפשר להורים לחזור לעבודה הממשלה מייבשת וסוג…  טוב עשה גמזו שהתנצל כפי שדרשתי בראיון המצורף  אבל זה לא מספיק עכשיו זה הזמן לבנות תוכנית בשיתוף פעולה קרוב עם מנ…  אולי הוא יכול להתעלם מהזעקה שלנו בעראבה אז באנו לבלפור כדי שישמע אותנו  ביבי הביתה  הצעירים שקוראים פה צדק לסולומון וצדק לאיאד יודעים שמאבק בכיבוש הוא מרכזי למאבק בנתניהו דרכו וממשלתו בבלפור עם אלפים שאומרים מספיק נתניהו הוא ראש ממשלה גזען מושחת וחסר רסן המאבק נגדו הוא המאבק של כל מי שמאמין בשוו…  This deal will not advance peace but legitimize the occupation  The only solution is one aimed at ending the Israe…  This deal underpins a dangerous alliance between 3 forces who want to eliminate the chances for real peace in the r…  מפת הדרכים הלגיטימית היחידה היא זו שמובילה לשחרור של העם הפלסטיני מפשע הכיבוש והקמת מדינה העצמאית בגבולות 67  ההסכ…  עכשיו בטמרה עם המנהלים והמורים של תכנית הילה במחוז הצפון שוקלים את הצעדים הבאים הנדרשים על מנת להפעיל לחץ גדול יו…  הצטרפתי לצעדה של האימהות השכולות שאיבדו את בניהם לפשיעה המשתוללת בחברה שלנו   האמהות לקחו את השכול האישי שלהן ויצא…  Congratultion to my friend IlhanMN for winning her primary in Minnesota  Ilhan is a true ally of all who fight fo…  עכשיו עם מורי הורי ותלמידי הילה  היום התבקשנו להעביר סכומים גדולים לחינוך אבל את תוכנית הילה מתכוונים לסגור א…  מערכת החינוך צריכה עוד 13 אלף מורים ומורות לשנה הקרובה במקביל יושבים 13 אלף מורים ומורות ערבים עם תעודות הוראה בלי…  מדברים הרבה על התקציב אולי שפשוט יתנו לנו לנהל אותו  הרופאים נמצאים בחזית המאבק במשבר הזה ועל המדינה לעשות כל שניתן כדי לחזק אותם  בבתי החולים ובקהילה  עכשיו זו גם הה…  הרגע שוחחתי עם פרופ זאב פלדמן יור ארגון הרופאים עובדי המדינה שהתקשר לספר לי שהושלם ההסכם מול האוצר שיבטיח תשלום…  ShovrimShtika חלק מאיתנו התאמנו בשטח אש 918 לא תמיד סיפרו לנו על תושביו הפלסטינים שהמדינה הכריזה על ביתם כשטח אימונים כדי לפנותם זה… עוד מופע של גזענות מזעזעת בירושלים מה עובר בראש של הכותב ממה בעצם הם מזהירים ולמה מקום ציבורי מאפשר את זה הגזענ…  חיימוביץ׳ הוועדה רואה בחומרה את שלילת הזכויות והאזרחות של אזרחים שחיים פה נבקש ממשרד הפנים להעביר לנו תוך שבועיים…  עמרי בן צבי ממשרד המשפטים בהקשר שלנו אין החלטה מנהלית שהופכת אותם לאזרחים  חיימוביץ׳ למה לא פשוט לאזרח את כולם הם חיים פה כל חייהם יועצת משפטית של לשכת האוכלוסין קיבלנו אישור ב2017 ממשרד המשפטים שזה לא שלילת אזרחות כי האנשים לא רכשו אזרחות בתי…  עאידה אלה בני אדם שאתם שוללים את האזרחות שלהם מונעים מהם חופש תנועה וזכויות אתם עוברים על החוק וזה מה שצריך להגיד אחת ולתמיד סלים מביר אל הדאג׳ אני ואבא שלי עשינו צבא ואני כבר שלושים שנה לא מקבל אזרחות למה אתם מענים אותנו ככה רונן ירושל…  חיימוביץ׳ בדקתם גם אנשים שאינם בדואים ירושלמי לא  ח״כ אלחרומי אבא של סלים ג׳ומעאה דנפירי נרשם ב51 ושירת בצבא…  ח״כ ג׳אבר עסאקלה לכמה אזרחים בדקת אם האזרחות שלהם מזויפת  נציג משרד הפנים ירושלמי הפקיד צריך לבדוק כשיש חשש  ח״…  עאידה לנציג משרד הפנים ירושלימי אתה משחק במושגים כאילו זה תיקון טעות ולא שלילת אזרחות אתה יכול לקרוא לזה איך שאתה…  יו״ר הוועדה ח״כ מיקי חיימוביץ׳ אתה גוזר גורלות על פי טעות שנעשתה לפני ארבעים שלה אין למדינה קייס לערער על האזרחות של בני אדם נציג משרד הפנים אנחנו עומדים על זה שזה לא שלילת אזרחות אלא תיקון אחרי הדיון ב15 חיפשנו רשימה של אנשים כאלה מצאנ…  עאידה אנשים מפחדים להגיש בקשות כי הם מפחדים לבוא במגע עם הרשויות כל מגע עם הרשויות מסתיים בהריסת בית או בשלילת אזרחות או במעצר עודד פלר אני רוצה להציע את סעיף 9 בחוק האזרחות זה מאפשר לשר הפנים להעניק אזרחות אם הענקת האזרחות היא מעניינה המיו…  עודד פלר כרגע משרד הפנים שולח את האנשים לעשות בקשת התאזרחות לשלם אגרה ולהוכיח ידיעת שפה עברית ובדיקה עם המשטרה ו…  עודד פלר מהאגודה לזכויות האדם הבעיה של משרד הפנים זה שהוא לא עושה בדיקה יזומה אדם בן 50 שכבר הצביע בבחירות ונסע ל…  סלים מביר אל הדאג׳ אני בן מעל 50 ואני לא יכול לצאת מהארץ ביקשו ממני תעודות מהשייח ומבית הספר ומהצבא ואני עדיין ל…  סלים מביר אל הדאג׳ אני בן מעל 50 ואני לא יכול לצאת מהארץ ביקשו ממני תעודות מהשייח ומבית הספר ומהצבא ואני עדיין ל…  עו״ד סאוסן זאהר מעדאלה הזכות לאזרחות היא הבסיס להיותו של אדם חלק מהחברה ובעל הגנה חוקתית אי אפשר לבטל את זה חוק…  היועץ המשפטי של הוועדה עו״ד גלעד קרן אם מישהו משקר במסמכים שלו לגבי האזרחות  אחרי שלוש שנים פקיד כבר לא יכול לשלו…  ח״כ רם בן ברק המדינה צריכה להתבייש באופן בו היא מטפלת באוכלוסיה הבדואית אזרחים במדינת ישראל צריכים לקבל טיפול ממד…  ח״כ ג׳אבר עסאקלה המקור של הפעילות הזו של משרד הפנים נובע מהחשש המשוגע מהאיום הדמוגרפי ח״כ סעיד אלחרומי הבעיה הזו היא בעיקר בשבט אל עזאזמה עשרות מבני השבט נרשמו אחרי הגל הראשון של ההרשמה למפקד האוכלוס…  עאידה בפתיחה אנשים נכנסים למשרד הפנים בבאר שבע כאזרחים כדי להוציא מסמך ויוצאים כתושבים מכבסת המילים לפיה מדובר…  עכשיו בוועדת הפנים דיון ביוזמתי על שלילת אזרחות לאזרחים בדואים בנגב תופעה שאני מלווה מאז שאני בכנסת   לשידור הדיו…  כל אנשי הימין מזדעקים כי בג״ץ הפעם עצר הריסה של בית בו חיה אישה פלסטינית עם שמונת ילדיה  מדיניות הריסת הבתים הנפ…  מגיעה לכל הפלסטינים גישה קבועה לים נקודה  מחמוד נואג׳עה מתאם תנועת BDS בשטחים נעצר באמצע הלילה לפני כשבוע בביתו ברמאללה הוא נעצר מול אשתו ושלושת בנותיו הקט…  עכשיו בהפגנת האמנים אנשי התרבות והצוותים הטכניים בחיפה הממשלה הזו לא נותנת פתרונות אמיתיים למי שכל פרנסתם נלקחה…  העובדה שהתקשורת ממשיכה לתת לאברי גלעד ולדומיו במה להסית ולהתגזען  ועוד להתרברב בזה  היא אינדיקציה לעומק של התפיסו…  עכשיו במליאה איך שזה נראה נתניהו ביקש מהמשמר לשמור עליו מפני איימן עודה הבן אדם מנסה להציג את עצמו כקורבן גדול…  אסון כזה יכול לקרות גם כאן הוא ישפיע על כל תושבי מטרופולין של מפרץ חיפה  מעכו ועד עתלית  ישראל חייבת לפעול מהר ב…  במדינה מתוקנת אקט הסולידריות הזה עם השכנה שלנו מצפון היה מובן מאליו אבל אנחנו לא במדינה מתוקנת  אלא במדינה שמלאה…  הלב עם ביירות  פניתי ליו״ר ההסתדרות ארנון ברדוד בדרישה לכלול ייצוג לציבור הנשים ולציבור הערבי בפורום העצמאים שהוקם הפורום מבורך…  מה שכל העולם למד שצריך לעשות ושהממשלה הקפיטליסטית הקיצונית פה מסרבת לקבל זה שעכשיו צריך הרחבה תקציבית הדפסת כסף…  במאבק על תקציב חד שנתי או דו שנתי העלו היום כץ ונתניהו טיעון חדש  תקציב דו שנתי יהיה תקציב קיצוצים וגזרות  להלן ה…  לא צריכים קיצוצים  לא בתקציב חד שנתי ולא בתקציב דו שנתי  בזמן משבר כזה  כל קיצוץ הוא אסון  מה שנדרש הוא הרחבה תקציבית והשקעה חברתית בדיון בוועדה לביקורת המדינה אמרתי שביהח בנצרת במצוקה תקציבית ותפעולית קשה הקורונה פגעה ביכולתם לעמוד על הרגליים…  ב קלמןליברמן שר האוצר אמר את האמת בין השורות הסיבה שהוא מתעקש על תקציב חד שנתי היא שהממשלה מתכננת קיצוצים וגזרות…  ועוד מילה לנתניהו  יש לך הרבה מה ללמוד מחברי AyOdeh  יור הרשימה המשותפת  שמהווה דוגמה הפוכה ממך לנקיון כפיים א…  נתניהו משקשק מהמחאה אז הוא בורח לאזור הנוחות שלו  הסתה גזענית כלפי הנציגים של הציבור הערבי שהיא הסתה כלפי הציבור…  לא נתפשר על תיקונים את חוק הלאום צריך לבטל  אני מקווה שהפגישה שקיימנו אתמול תהיה התחלה של שיתוף פעולה פורה עם השרה בשורה של נושאים וכבר בתקופה הקרובה מתוכננים…  כאן רואים איך לפשיזם יש זרועות מאורגנות  בריונים פשיסטים תקפו ודקרו אתמול מפגיני שמאל בתל אביב זה לא קטטה ולא הפרת סדר  זה ניסיונות רצח  ומה שצריך לזכור…  אחרי יום ארוך מאוד של דיונים בוועדת הכספים  הצלחנו חברי המשותפת בוועדה להביא הישג  הממשלה הבטיחה להעביר תמיכה של…  EliBitan לא רק המענק שהעביר דרעי גם ההישג של גפני היה בשתפ הדוק עם חברי ועדת הכספים החכים עאידה תומא סולימאן ואחמד טיבי שהתעקשו על… במשבר החברתי הזה יש שתי אפשרויות שעומדות מולנו  או מדיניות ניאוליברלית של צנע או מדיניות של הרחבה תקציבית והשקע…  קודם העלו את רעיון הפחתת שכר המינימום עכשיו רוצים לבטל את ההפרשות לפנסיה  המדינה צריכה להפסיק מיד עם הרעיונות האל…  מנהיגות מכל העולם מתקשרות אליי ואומרות ביבי  מה סוד ההצלחה שלך  לבקשתי עכשיו בוועדת כספים האוצר הסכים לבחון תשלום מענק לעצמאים בני 18 עד 20 שכיום לא זכאים השאיפה האוטומטית של האוצר לקצץ בשירותים החברתיים כדי לתמוך בשירותים החברתיים היא פארסה  בכל העולם מגדילים את ההוצא…  bethavemiller So looking forward to joining MK AidaTuma and Faisal Saleh of PalMuseumUS on behalf of jvplive to hear from MK Touma… הניצחון של העו״סיות הוא הישג לכל ציבור העובדים בישראל ולכל השכבות המוחלשות אני רוצה לברך את מנהיגת המאבק חברתי י…  אני מברכת את העוסיות על הניצחון החשוב שלהן ההסכם שהושג ממלא את רוב הדרישות שלהן וישפר את השירותים החברתיים בארץ…  ממשלה קפיטליסטית פונדמנטליסטית שמסמנת את העובדים כאויב הרעיונות האלה לא יעברו לא ניתן להם לעבור  ממשלת ימין עמוק בבריטניה מעלה את השכר במגזר הציבורי עקב המשבר  בישראל לא מוכנים לפתוח הסכמים עם עובדי השירותים החב…  בסיס השכר של העוסיות נמוך ביותר לבקש מהן לעבוד שעות נוספות כדי להעלות השכר נשמע נצלני וקבלה של המובן מאליו תוכנ…  בדיון על תחבורה ציבורית בוועדה לביקורת המדינה  שאלתי איך מצפים לחבר את הציבור הערבי לתשתיות תחבורה כאשר הפערים בנג…  עכשיו גם שר האוצר סכנה להמשך כהונת ממשלת נתניהו  כך לפי מיקי זוהר בישיבת וועדת הכספים  כמה ראשים עוד יעיפו כדי שז…  ההצעה מגדילה את דמי האבטלה באופן פרוגרסיבי שייטיב עם המובטלים העניים ביותר עבור מובטל שהרוויח 4000 ש״ח דמי האבטלה…  על כן – מוצע כי בנוסף להארכת תקופת הזכאות לדמי אבטלה – יוגדלו גם שיעורי דמי האבטלה עד סיום המשבר או עד אשר שוק העבו…  על פניו הסיבה ששיעור דמי האבטלה נמוך משמעותית מהמשכורת של המובטל היא כדי לייצר תמריץ לחיפוש עבודה אבל בעת משבר הקו…  מציעה עכשיו בוועדת הכספים  להגדיל מיידית את דמי האבטלה החודשיים ב750 ש״ח לכל המובטלים עד לסיום המשבר או עד ששיעור…  הבוקר העובדות הכי חיוניות בימים אלה  האחיות  יוצאות לשביתה ומצטרפות לעוסיות הדרישות שלהן הן דרישות של כולנו ה…  בכל הארץ אזרחים מתקוממים נגד הממשלה הזו והכישלון הנורא שלה בהתמודדות עם המגפה והמשבר הכלכלי המפגינים מגוונים אבל…  נתניהו מעדיף לתת כסף למי שלא צריך ויכול לממן כמה משרדי ממשלה ביחד במקום לתת למי שמטפל בכל האוכלוסיות המוחלשות במדי…  מאיר כהן יעקב אשר סעיד אלחרומי משה ארבל אימאן ח׳טיביאסין וליד טהא תהלה פרידמן עינב קאבלה יצחק פינדרוס מיכל שיר סגמן הח״כים החתומים ינון אזולאי ShahadehAbou KElharrar DrJabareen YairGolan1 tamarzandberg mikihaimovich1…  הוצאנו עכשיו מכתב חתום על ידי 32 חברי כנסת בדרישה משר האוצר לקבל את הדרישות הצודקות של העו״סיות השובתות  תקצוב תוכ…  עם העו״סיות השובתות בנצרת המאבק הזה הוא מאבק של עובדות אמיצות מכל קבוצות החברה למען הציבורים המוחלשים ביותר בארץ…  תוכנית המענקים של נתניהו היא תוצר של פאניקה פוליטית לא של דאגה לאזרחים  כשנותנים אקמול למחלה קשה מרגישים טוב לזמן…  ביבי איבד את זה איזה הצלחה  תוציא את הראש מחלון הבונקר בבלפור ותראה את הציון שנותנים לך  כישלון מוחץ  ניסינו עכשיו להכניס דמי אבטלה לבני 1820 בתוך החוק על תוכנית הסיוע הכלכלית ההצעה לא התקבלה אבל ביקשנו רוויזיה על כ…  בדיון בוועדת הכספים על תוכנית הדיור של השר ליצמן להתמקד בפריפריה זה טוב אבל לא כל פריפריה היא אותה פריפריה החברה…  לטעון שבעיר העתיקה בים המזרחית שהפכתם לבסיס צבאי המרושתת במצלמות כשחיילים ורובים אורבים לתושבים בכל פינה זה הר…  עם חברי asaqla ו ofercass בתמיכה בעוסיות השובתות  האוצר צריך להתעשת ומהר כי בלי שירותים חברתיים מתוקצבים היטב…  מעדיפים את הקורונה  </t>
+  </si>
+  <si>
+    <t>Freshofftherun לא יפה  shache18 לא ביבי לא פריווילג yeridathadorot אז אל תיתן לו תפסיק להתגזען Floatingpoop1 שאתה שקרן yaronbitton אני לא חרדיתוואוו Yoelzad1Yoelzad מה פתאום מחזירה לפרצוף הגזעני שלכם nimrodper בוגי היה בתשליך  elisulam מכירה שקיבלת בראש  nimrodper הנה עוד שקרן זה מלפני שבועיים Matanos7 שמחה שהבנת תשנן את זה עד להפגנה הבאה eupheu לא להטיף מוסר אין לכם זכות  matanw9 ברוך הנמצא UdiKfir אז מה גם האחיינים שלי חצי אשכנזים הם לא פריווילגים BarNahum5 בוקר אור לא הגזמתי אם אנשים שמשתוללים בבלפור בלי טיפת אחריות מתגזענים ומאשימים אחרים אני אחזיר להם יותר חצופים YoavShani1 דעתי היא שאתם פושעים והם פושעים אתם הורגים אותנו בבלפור והם הורגים את עצמם שם eldadgarfunkel גם לי אכפת מהתחת של ביבי משלך ושל החברים המופקרים שלך לא SchibyAmir ApisOiG ועוד לא דיברנו על כמה ימותו אצלכם  GidonR AdarDotan1 אהה ההפגנות זניחות צביעות תדביקו ותפילו על אחרים אולי תסתמו אנחנו יושבים בבית ולא עובדים…  talrab2 הכי חשוב שהבנת ronenwei מדביקים ונדבקים  AKcholi בדיוק רק שהצבועים מפיצי המחלות יסתמו מפיצים ומתגזענים hazoreket SchibyAmir תשתדלו להדביק פחות תודה  ApisOiG SchibyAmir שקט מי שמפגין בבלפור או תומך בהם שיסתום עוד מדברים על קילקול צבועים  TheNilbog1 כנראה כספית או אחד מהשדרים השמאלנים הדביק אותו כולם בהפגנות ayk251053 MAMOKAWINYA וגם לא מהשבוע TheNilbog1 דביל האנשים האלה היו 55 ימים בקפסולות אף אחד לא חולה או חיובי סגורים בישיבה הבנת מטומטם elisulam שיא הטימטום להביא את ניו יורק כדוגמא הנה ספרד וגרמניהמלא חרדים  FO0S8rYBLP5KwaY Ofir77744530 למה צריך זה האיש שתפר תיק ליעקב נאמן DMeyers36420685 אם הוא יפשוט את הרגל דיינו olgawaknin אמן לכולנו AdarDotan1 מי שלא רוצה לראותלא רואה  arielpesco PlaotJudith aviadglickman  GONENB1 אז תלך shashashayli לפי החישוב שלי אתה אמור להיות חסום אצלי אחרי שקראתי מה כתבת עלי עם חברים שלך יאללה גזגז FHKMiriam talschneider הנה עוד חצופה היא מסיתה ומסכסכת ואלי את באהצביעות שמאלנית במיטבה omerdamry לא מצדיקה אף אחד רוצה שמי שמפגין שיסתום שיא החוצפה להפיץ מחלות בבלפור ולהתלונן על חרדים רק פריווילגים לבנים גזענים מרשים לעצמם מסריחים tevel55 talschneider וואלה יש לי משפחה ענקית אף אחד אצלנו לא טבח או נהג כולם לוחמים כמה מהם אפילו קצינים אח של…  yankihebrew חחחחח tevel55 talschneider בשמחה גם ככה יוצאים מהם מלא וענונו ואדיב ronenwei talschneider נראה לי שאתה תקוע פה לך תבדוק אנשים אמיתיים RWolkowiski עוד שקר שלושת הערוצים דיווחו בזמן אמת בשידור חי והכותל הוה ריק נקסט talschneider תמשיכי את וחברייך להפיץ מחלות בבלפור ואנחנו נמשיך לא לראות את הילדים שלנו הכל בגללכם מנוולת yarivop הן לא היו המוניות ראית שם אלפים אלף תעדכן YoavShani1 SShpurer שקרן זאת תמונה מלפני שבועיים manshlomo זאת היא הקבלה לשיר שלה HalaliShlomit שולחת לך חיבוק גדול עם מלא אהבה simabezalel oryossef אפשר גם להבין אותי אם קראתי את הציוץ והוא לא נראה לי AdShlomo meirisarit גמר חתימה טובה גם לך ShmuelDimov aviadglickman מוזרתמיד המשטרה טועה עם המפגינים AdShlomo meirisarit אני כועסת על מי שקילל וחסם כי לא ריטווטתי אותו מותר לי נראה לי ואם אתה חושב שאני לא ראויה ל…  mayalev7 avihaihaddad ErezZadok1 מה עם אביחי הוא תותח mayalev7 avihaihaddad ErezZadok1 יאללה תעקבי אחרי שניהם AdShlomo meirisarit פעם ביקשתי או עשית את זה כי הסכמת איתי avihaihaddad ErezZadok1 אפשר חדרתים ירושלמים Juliaknafo1  avihaihaddad ErezZadok1 תשאל אותו כמה הוא משלם ErezZadok1 avihaihaddad חחחחחחחח חוזרת לפייסבוק VioletHason קראת מה כתוב יצאו אחרי 55 יום ואין אף חולה תראה מה הולך אצלכם  YehudaiI ממך תמיד AdelDavid12  ronenwei חחח טוב תבדוק שוב santimach igalmalka נשיקות  santimach CosmoKramer111 smadarshmueli כי אתה חופר בומבה צור פראייר לידך קודח YanivTurgi  MayaG97495177 smadarshmueli אצל בן עוד כשהגעתי amit5791amit  smadarshmueli חחח אותי ראיין אחרי שחסם ronenwei ראשית מכם לא ממכם שנית אמרתי לך שהתמונה תעזור לביבי ותפגע בכם  smadarshmueli רק עכשיו ובלי ללכלך עלייך לפני michael46637402 נכון eliavitan חחחחחחחחח mosfoodographer חתימה טובה AkerZeev K0YLkLhC7TL8plv דווקא ימני AkerZeev K0YLkLhC7TL8plv כן snunnitg אשכרה כאילו אני פעם ביקשתי שיעקבו אחרי או ירטווטו אותי חצוף aviattias שלחתי K0YLkLhC7TL8plv שלח לי לפרטי חצוף 9eGCjKVsomhJOsi מעניין  Onetruth011 אם היה אמיץ לא היה חוסם אחרי שקילל הייתי קורעת לו את האימאמא יש פה אנשים שחושבים שאני לוח מודעות שאני עובדת אצלם או שאני חייבת לארגן להם עוקבים וריטווטים הם טועים לא חייבת כ…  yarivop פחחח 200 איש לא היו שם ליצן Za82166286 ביי מותק לך תעשה עוד פייק ותחזור ככה נראה שמאל שקרן ומסית לקח תמונה ממוצאי שבת  לפני שבועים והדביק אותה לערב כיפור כשהוכרז סגר חתיכת שקרן מסית ומ…  Roi עכשיו אתקן שלא תחרטטו Roi   מוצאי שבת לפני שבועיים JHardy100 LiSteinitz שקרנית מסריחה Hanmeez Benny56885403 aviadglickman לא תשטוף אתה מפיצים ומשקרים YanaiShaul שקרן מנוול תמונה ממוצאי שבת זה הפרצוף המנוול והשקרן של השמאל גועל נפש HUGoofXxckowBK4 הכל מצויין אנחנו מרוצים אתם תמשיכו להפגין ואנחנו נמשיך לנצח YairGolan1 למי רצית שנאמין לך  aviadglickman רק להם צריך לוותר נכון יגזען  alonkar3 moshe10471401 אני חוסמת מספיק באים תמיד תמיד חדשים HUGoofXxckowBK4 קודם פריימריז ביש עתיד alonkar3 moshe10471401 כשיורדים לרמות כאלה אני מגיבה ברמות כאלה נראה לך בטח שאשתוק Freshofftherun aviadglickman shlomokarhi תלוי למה אתה קורא גבר alonkar3 moshe10471401 אהה הכל לא הוא והחברים שלי שישבו לי בפיד כל הכיפור וקיללו yuvalim123 קשור מאוד לא מוכנה להטפות מוסר ממחנה שרק מקלל ורודף Za82166286 אתם מתים עלינו alonkar3 moshe10471401 מנסה להדביק אתכם  nitsangalon זה לא aviadglickman shlomokarhi תקשיב יאהבל כרמי בוזגלו לא קשור ולא זקוק לבכירי הליכוד הוא לא מגדולי תומכי נתניהו וה…  HUGoofXxckowBK4 ככה חייבת לומר את האמת HUGoofXxckowBK4 כמה עצוב לי עליך ולא בצחוק רק לוזר שמפסיד כל פעם מחדש מתפלל שראש ממשלה ילך לכלא כי הוא לא מצליח לנצח אותו מסכן HUGoofXxckowBK4 לא תזכה HUGoofXxckowBK4 מאחלת לך שהשנה תגור בקיסריה ולא תפגין בבלפור אפשר naftalibennett מחכים לספר שלך איך נצלח את התעלה עד אז אנחנו מבולבלים HUGoofXxckowBK4 גמר חתימה טובה ILLogger moshe10471401 אני צחקתי ואתה מנסה לעשות ממני רוצחת המונים תרגיע YaaraZered ShayPatael יפה לך shelaba שנה טובה fhg5676 YaaraZered אהה לא הלכת עם בז Udil29241413 מכירה הרבה יהודים שלא צמים MosheSoffer1 שלכםהבנתי מזמן שאתם לא יהודים VaturiZion ההמלצה לא התקבלה shomersaf שום דבר לא קשה לי fhg5676 YaaraZered אחרי שראיתי את הזכריםנשים שלכם הגיוני שאתה חושב ככה yonatanhatrul פחחחחח galit577917912 או זה  galit577917912 לא כמוכם צדיקים  YairNetanyahu מצידי שיגורו שם ושיפילו את הממשלה therealbear12 צריכה ללמוד להיות אדיבים כמוכם  yuvalim123 קטן עליכם  ILLogger moshe10471401 כי כשחזרתי מצאתי מלא כאלה  oshratlevy5 3EMfBcgvOczD6vw גמר חתימה טובה Udil29241413 אנחנו לא מתערבים לאנשים אם לצום או לא 3EMfBcgvOczD6vw גמר חתימה טובה TomWilder1 עוד מיחזור כזה ותיחסם איזה משעמםמסכנה המשפחה שלך eranbd חתימה טובה moshe10471401 YaaraZered היא חצי מרוקאית תיזהר Zchokamoral YaaraZered לא נטיפי ביצים עם מרק עוף טעיםם BrW1c RomanBronfman השמאלנים מדביקים יותר YaaraZered מכירה  זהבה השקרנית  BrW1c RomanBronfman גם אצל הערבים וגם בהרבה ערים חילוניות אבל ברונפמן הגזען שמפיץ מחלות שכח לספר YaaraZered טברקישה יודעת מה זה עוגות מרקים סלטים עוף בקטנה therealbear12 פחחח לשסותאיש באחיו Moriel63891684 הבנתי מצויין מי שטינף פה כל הכיפור לא הבין rafigabay YaaraZered שלומית היא שלומית ורונית היא רונית orly2k תחסום וימשיך להיות לך רגוע F8KwZ4KEfY9z9aU אני יודעת moshe10471401 אחד את השני BdmaorMajor יש כאלה שחוזרים ויש כאלה שלא הפסיקו sarityahav חבל היית נחה Meira1967 גמר חתימה טובה YaaraZered מה אני גבר אכלתם שתיתם יאללה חזרה לעבודה נתנו להם שקט 25 שעות מספיק ItzhakBargreen LikudParty אהה זה באפריל RomanBronfman כל זה ואתם מדביקים יותר גזען מסריח Riklin10 גמר חתימה טובה שמעון ErelSegal גמר חתימה טובה אראל tomer5791 תמיד zeev2020 Miv9xbn8WMSaDme hagitotz SShpurer מסרבת לקבל הטפות מוסר ממי שמחבק את ברק מרגלית ודומיהם תשתדל לא להי…  tomer5791 לא מיועד אליך ושכמותך haimmisgav זה לא יקרה אדון קלמןראש הממשלה לא יפנה את כיסאו בגלל כמה אלפי חוליגנים פורעי חוק שמסכנים את בריאותם של מיליוניםהמ… RanOtmi גמר חתימה טובה GONENB1 בן כספית עשה בדיקה כבר vyjMLuInY6MFStd YairNetanyahu גמר חתימה טובה zoli12343 YairNetanyahu גמר חתימה טובה shlomomeirisra3 netanyahu גמר חתימה טובה וצום קל שלמה נשמה YairNetanyahu גמר חתימה טובה יאיר לך ולמשפחה roaicc גם וגם netanyahu גמר חתימה טובה אדוני ראש הממשלה בשורות טובות לעם ישראל אמן  6s2tXXt4uVg3fL7 YanivTurgi netanyahu אנחנו באים מאהבה roaicc דבורה באנגלית זה  bee כפול 2 מה יוצא YanivTurgi netanyahu אני סולחת לך בשמו NathanYishai לא יודעת אלוהי שמרני מן הגאווה ומכעס וקפדנות ועצבות ותצילני מקנאת איש מרעהו ומקנאתם של אחרים ותן בליבי לראות מעלתם של אחרי…  46UNhbybDf01b9L גמר חתימה טובה roaicc קטלהרג TZMehnpupeILyKB מתאים מאוד romic48 גמר חתימה טובה התקוה יום כיפור שנת 2020  giladzw מחקרים בארהב מלמדים שאין הדבקות קורונה בהפגנות לא נכון  להלן מחקר מאוגוסט שמצא קשר ישיר בין הפגנותהתפרעויות להדבקות  המחקר… amireemh SShpurer כי אצלכם אין בכלל אדון חצוצרה  matanw9 ולפני כיפור  גמר חתימה טובה theJusticeLeg hrsharh עוד מעט תדללו את האוכלוסיה עם ההדבקות בנפגנות האבטלה תרד וגם לאחרים יהיו גיפים יוקרתיים Anat56735095 SShpurer תודה yuvalim123 galidalal כן  ronenwei AviNissenkorn זה קרוב אליכם ronenwei MTrj2O1m4f2zIGz SShpurer פתחתקוה זה קרוב לתל אביב ronenwei AviNissenkorn חחחח חופשי אותם הזויים כל שבת אותם מסוממים מפיצי מחלות מצורעים המשיכו כך ronenwei AviNissenkorn אהה הוא לא צריך סיפקתי לו את תמונת הניצחון כבר אמרתי לך  yuvalim123 galidalal פחחחחח אתה חי בסרט תל אביב עמוסה  ronenwei rubi77121651 SShpurer מסכנים מכוניות ישנות וכאלה בשיירה עצוב  yuvalim123 galidalal לא grngs100 AviNissenkorn מה שבא לך  grngs100 AviNissenkorn מלך זאת המלצה שלי yuvalim123 galidalal וזה עוד משבוע שעבר  igalmalka חחחחחחחחח tzachidvori510 YanivTurgi היית מת הוא ישאר בבלפור על הלב שלכם מצידי שתדביקו אחד את השני ותהרגו אחד את השני בטח מזיז לנו חשבת qkSyyJn45MrHu5S כן twittoztuuitter גמר חתימה טובה igalmalka רונית לוי הביביסטית לא תופס AviNissenkorn חתיכת חצוף שמענו מצויין מה אמרת ועוד בזמן שהשמאלנים מפיצים מחלות בבלפור shahar168 הקבלה לבאב אל וואד שלה גמר חתימה טובה ונזכור את כולם את סטלני הבלורית והתואר כי הפצת מחלות שכזאת לא תיתן את ליבנו לשכוח הדבקה מקודשת בדם את תשובי בינהם ל…  zeev2020 hagitotz SShpurer נומה זה ענייננו mayatenenbaum5 SShpurer גמר חתימה טובה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מכינים עם מה שיש בבית ויוצאים יאללה להפגנה  ביזוי סמלי המדינה  ראש ממשלה עם כתבי אישום על שוחד מרמה והפרת אמונים שמסית נגד מוסדות המדינה זה ביזוי   אנרכיסטי…  שוב ממשלה אטומה שמפילה את הצעת החוק להשוואת קצבת הנכות לשכר המינימום  תודה לחבריי NitzanHorowitz KElharrar שהעלו…  צחי הנגבי לאופירה וברקו ״השטויות האלה שאין לאנשים מה לאכול זה חארטה  הודעה שקיבלתי בפייסבוק לפני כשעה  אמנון אברמוביץ  גיבור ישראל הוכיח שלא צריך להכנס לממשלת נתניהוטייטל חליפי כלשהו מכירת אידיאולוגיה וג׳ובים בשביל…  amirperetz אני מרגיש מרומה באופן אישי זה כבר לא קשור לפוליטיקה שנים דיברנו על חיבור בינינו חבריי האמינו בחיבור…  חברות וחברים תודה אחרי יומיים של מנוחה ואחרי מאות טלפונים והודעות חשוב היה לי להגיד כמה מילים על הכבוד שהיה לי…  עכשיו ברמת גן עומדים מחוץ לקלפיות ומשכנעים עד הרגע האחרון כל קול בסיבוב הזה הוא מכריע אם אתם רוצים ממשלה חדשה מ…  אנחנו נכנסים לשעות המכריעות חייבים שתצאו להצביע זה הכל תלוי בכם תבחרו באמת שלכם  עכשיו בבאר שבע לא מוותרים על אף קול תבחרו באמת שלכם  בשביל הצדק בשביל השלום בשביל השוויון בשביל ממשלה חדשה באמת צאו לבחור באמת שלכם  צאו לבחור באמת שלכם  זו האמת שלי זו האמת שלנו בעבודה גשר מרצ אם זו גם האמת שלכם אתם יודעים מה לבחור מחר תבחרובאמתשלכם העבודהגשרמרצ  בשביל לעשות שינוי בשביל להביא תקווה בשביל הצדק החברתי בשביל השלום בשביל ממשלה חדשה שמשרתת את כל אזרחיה  תבחרו…  yarivop למה אמת כי זאת הרשימה היחידה שמחוייבת לעשות הכל כדי להוציא את ביבי מבלפור מחוייבת יותר מכמה חברי כנסת בכחול לבן שהכשילו את ה… netanyahu לא הבנתי איך ממשלה שבראשה רמטכ״ל לשעבר ולצידו שר הביטחון שהביא את כיפת ברזל מסוכנת יותר מממשלה שבראשה ע…  בחרתם גנץ קיבלתם יועז הנדל דובר נתניהו לשעבר בחרתם יאיר קיבלתם צבי האוזר ממנסחי חוק הלאום ומזכיר הממשלה של נתניה…  tamarzandberg urizaki  פנינו צעקנו כינסנו ועדות והממשלה המשיכה להתעלם לא הוצג מתווה להמשך העלאת קצבת הנכות ופניותיי כמובן לא נענו מה…  אני רואה פה כל מיני גאונים אסטרטגיים שטוענים שאם לא הייתה כיפת ברזל בעיית עזה הייתה נפתרת ״היינו נכנסים בהם אחת ול…  tomereznik אני מעדיף כלכלת הסתדרות על כלכלת מסודרים ומה עם מי שמעסיק ישראלים ולמה רק במגזר החקלאי למה להפלות בין מעסיקים בואי נבטל בכלל לכל העובדים את הזכויות הן ר…  talschneider זה מדויק כיוון שנתניהו מסתובב כיום באירועי קמפיין ומתגאה בהעלאת שכר המינימום מהלך שהיה כולו דרישה ומאבק של דב חנין אילן… המתכון הקבוע  מסית משסע מפריד כדי למשול ואז כשיש תוצאות בשטח הוא מגנה כאילו אין לזה שום קשר לקמפיינים האלימים…  ט״ו בשבט הגיע חג לאילנות וזו כמובן עוד הזדמנות מצויינת להכין ריבות אז קבלו את המתכון שלי  פה עם עלי ורדים אבל א…  שוב הנשיא ריבלין מוכיח שיש על מי לסמוך ודאי אל מול חוסר המעש והעניין של ראש הממשלה שעד עכשיו לא שמענו ממנו אף לא ה…  היחיד פה שירד מהפסים זה אתה מאז שהגישו נגדך כתבי אישום את מה שחברי YairGolan1 עשה למען ביטחון המדינה ברוורס אתה…  מה האמת שלנו אתם שואלים נפגשנו כדי להסביר MeravMichaeli swid4  התקדמות משמעותית שרק מוכיחה את טענת הודיה והמשפחה האם נשמע סוף סוף משר החוץ ורה״מ משהו בנושא ואם לא אנחנו לפחות…  במשרד האוצר מנסים ״לחנך״ את המוחלשים ביותר באמצעות הרעבה העיקר אתמול בוועדת הכספים מכרו לנו את הלוקש הקבוע של אין…  orenhelman הודיה מונסונגו צעירה עם מוגבלות שכלית עדיין כלואה בפרו חצי שנה  מאשימים אותה בהברחת סמים וברור שבגלל המוגבלות השכלית של… שוב ״אין תקציב״ למי שהכי צריכים אותו למטוס רה״מ כמובן היה גם 4 מיליארד לאינטל היה ועשרות מיליונים לכספים קואליצי…  לא הייתי מופתע ככה מאז שהנייה לא חוסל תוך 48 שעות וסכר אסואן נשאר עומד על כנו  איפה Israelkatz בסיפור הזה איפה כל היכולות המדיניות של netanyahu שהוא לא מפסיק להתרברב בהן איפה אדון ״ליגה אחר…  כן לשלום שלום מוסכם בין שני עמים החיים בשלום זה לצד זה שלום אמיתי לא לדילים מושחתים תוכניות סיפוח הזויות וטרנס…  השמאלני הצעיר הנכד שלי כמובן משכנע בכל הכוח אנשים לבחור באמת שלהם  העבודהגשרמרצ  NitzanHorowitz חוזרים לדרך השלום  רק אתנו בממשלה זה אפשרי  לא מוותרים על הקצבה ממשיכים להיאבק אם לא יוצג מתווה באופן מיידי נלך לבג״צ הבטחותצריךלקיים  פניתי הבוקר לשרי האוצר והרווחה בדרישה להציג מתווה באופן מיידי להעלאת קצבת הנכות בחוק צוין במפורש שעליהם להציג מתו…  הכנתי נאום כל כך יפה היום לדיון החסינות במליאה תכננתי להצטרף לפסטיבל הסחטנותחסינות ולדרוש בעד החסינות מינוי לריבן…  סדנת ריבות עם הצעירים של מכינת גבעת חביבה מעביר את כל תורת הריבות על רגל אחת ובין לבין קצת על סוציאליזם סולידירי…  הפעם זה קל מתמיד פשוט תבחרו באמת שלכם  kannnews חכ אילן גילאון מהעבודהגשרמרצ בשבת תרבות בנס ציונה על תוכנית המאה העסקה המוצעת כפי שפורסמה בתקשורת גרועה בכל קנה מיד… לא שלום ולא בטיח דיל בחירות של מושחתים שנאחזים זה בזה ומדברים בינם לבין עצמם כאילו אין פלסטינים בסיפור הזה לפי מ…  מוציאים אצבע בודקים לאן נושבת הרוח אתמול הרוח נשבה נגד סיפוח היום נשבה בעד אלו הם פניו של המרכז ה״אידיאולוגי״…  תיק 10000 חסינות תמורת שגרירות MaarivOnline חכ אילן גילאון ההתלבטות השנתית האכזרית של מי נידון לחיים ומי למוות הוכרעה עם פרסום סל התרופות מברך על כל תרופה חדשה ש… מרגיש טבעי  השותפות בין מרצ לעבודה גשר מציתה את להבת התקווה לחברה צודקת ולמדינה מתוקנת שואפת שלום ברכות לחבריי ושותפיי לדרך נ…  לא לעולם חוסן  להטב״קופוביה אפרטהייד שנאת הזר  ״כך״ נראה שלטון הימין של היום הפנים הם פני רפי פרץ אבל מי שמינה אותו לתפקיד ומ…  מופתעים אל תהיו את מי תרמוס הרי הממשלה הזו אם לא את החלשים ביותר תגידו לי ביקשתי מגפני דיון דחוף בוועדת הכספים ב…  קסם רוזנבלט שהייתה היועצת הפרלמנטרית שלי עד לא מזמן עושה סדר אחת ולתמיד במשמעות החסינות הפרלמנטרית לכל מצדיקי בקש…  צ׳רצ׳יל או דרייפוס שיחליט הביטוח הלאומי ציין כי העלאת קצבאות הנכות צפויה להוביל לצמצום העוני אך לאור התחמקות הממשלה מהצגת מתווה להמשך העלאת…  היום יצא הדוח שמסכם בצורה הטובה ביותר את עשור נתניהו שבחר להילחם בעניים במקום להילחם בעוני ממש יחיד בדורו ליגה א…  קשר ״מצויין״ שמוביל לכך שבחורה ישראלית צעירה נרקבת בכלא הרוסי ועשרות ישראלים נתקעו בשדה התעופה במוסקבה רק בשבוע שע…  הדבר הראשון שקפץ לי לראש אחרי שראיתי את כל מה שקורה עכשיו ברוסיה זה זה  אין פה שום פלונטר פוליטי יש פה אדם אחד שעושה את השימוש הכי ציני שיש במדינה שלו  talshalev1 מי אמר חמוצה ולא קיבל ריבת  מיוחדת של mkgilon לפיזור הכנסת  מה שקורה פה זה לא משבר פוליטי זו אחיזת חנק של נאשם אחד בשוחד מרמה והפרת אמונים יקרה מה שיקרה בסוף היום הזה האיש…  פותחים את הכינוס בנושא קצבאות הנכות לא דורשים חמלה ולא דורשים רחמים דורשים את מה שעבר בחוק על ידי כל יושבי הבית ה…  KnessetT במהלך דברי הפתיחה של חכ mkgilon מDemUnion בכנס בנושא קצבאות הנכים קטע אותו חכ YairGolan1 אבל כסף למטוס רהמ העברנו… מתחילים את מפגש החירום בנושא קצבאות הנכות לינק לצפייה באתר הכנסת  דוח העוני של לתת הוא כתב אישום חמור נגד רה״מ כתב אישום נוסף העובדה שילדים נאלצים לוותר על ארוחה וקשישים נאלצים ל…  שוב סטודנט שברח לו לא סטודנט ולא נעליים פשוט שרת תרבות גזענית פני דוברות המשרד כפני השרה זה הכל עלאק נציגת ״יש…  רק כדי לסבר את האוזן  עלות הפעימה השנייה של קצבאות הנכות שנדחית אם בכלל תקרה  105 מיליארד ש״ח בושה וחרפה  MrYoavoss ואני לתומי חשבתי שטרויה כבר ענו על זה קודם  שמח לפתוח את היום הבינלאומי לשוויון זכויות לאנשים עם מוגבלויות יחד עם חבריי ושותפיי מהנציבות בכינוס החשוב שלהם מד…  newsisrael13 ח״כ mkgilon על ההחלטה לתכנן שכונה יהודית חדשה בחברון כעומק השחיתות עומק ההתנחלות שר הביטחון ורהמ מתחרים מי יבעיר רא… על פועל הבניין מספר 43 אמין עודה רדאיידה ז״ל שקיפח את חייו באתר בנייה אתמול בן 63 במותו בן גילי ועל ממשלה שלא ע…  בכנס השנתי והחשוב מאוד  של האגף לקידום שוויון בהסתדרות בנושא אנשים עם מוגבלות ותעסוקה מדברים על המאבק ועל החוק…  ציוץ חשוב כמעט ושכחתי שאתה רה״מ כבר מעל עשור מה עשית בעשור הזה כדי להילחם בתופעה מנעתם הקמת ועדת חקירה לא קידמת…  הסמוטריצ׳ים והביביסטים קוראים למרד לא פחות מרד בדמוקרטיה ובשלטון החוק מול הכוחות הקיצוניים והמושחתים שמנסים לרסק…  איזו בושה כאחרון העבריינים לך הביתה שוחד מרמה והפרת אמונים עד לאן נוליך את החרפה אם אני הייתי מואשם בעשרה פרומיל ממה שהוא מואשם הייתי קובר את עצמי…  היום יום הילד הבינלאומי ועל כן בתוך כל העניינים הפוליטיים המסעירים ראוי גם שנדבר על כך שבמדינת ישראל חיים מעל 80…  כחול לבן מה קורה תגידו לי  אני מכיר את חלקכם הגדול אני יודע שכולכם הרגשתם בחילה כשראיתם את כהנא קם לתחייה אתמול…  המסית הראשי לישראל יודע שאם גנץ יחליט ימיו בבלפור תמו ולכן הוא מעלה הילוך מופעי הגזענות והשנאה שיצאו משם בימים הק…  בוקר קשה גם אצלנו באשדוד חצי מדינה משותקת סבב נוסף שמי יודע איך יגמר צר לי שאיני מצליח לעמוד בדרישה הלאומית לשתו…  מדהים לראות את האיש שריסק יותר מכל את הממלכתיות הישראלית באמצעות הסתה שיסוי גזענות ושנאה  מעיז לדבר על פריצת הממל…  התשובה לשתי השאלות  לא  כשסדרי העדיפויות עקומים המציאות בהכרח תהיה עקומה הקשישים בישראל הפכו גם הם לכלי למיקסום רווחים במהפכת ההפרטה שנתנ…  מפרסונה נון גרטה לחייל הנאמן ביותר ועכשיו מגיע הפרס על חשבוננו כמובן בלי מחשבה על התאמה לתפקיד על מה נכון לממלכ…  KElharrar mkgilon אילן יקר הנכים לא מעניינים אותם גם לא הצעירים והצעירות שמתים ברחובות כי אין להם הוסטל להיות בו וגם לא מצב הבריאות… בתשובה לשאלתי על קצבאות הנכות היום במליאה קיבלתי את התשובה שכבר הפכה להיות שגורה בפי חברי הממשלה  ״כשתהיה ממשלה״…  healthletters חכ אילן גילאון מראה תמונה מהעיתון של אישה שחיכתה במיון 27 שעות רצופות אם אני צריך להשקיע את אותו כסף במע הבריאות או… מתחילים את מפגש החירום על המשבר במערכת הבריאות שום משבר פוליטי לא יכול להוות תירוץ לקריסת המערכות הטוטלית חיי אדם…  מברוק חבר על נאום ההשבעה בכנסת שמח שאתה אתנו YairGolan1  במאהל המחאה עם חבריי ושותפיי שדורשים את מה שאמור להיות ברור מאליו  להיות בטוחים בביתם בעירם במדינתם  ברכות לחברתי מיטל להבי שמובילה את אחד הפרוייקטים החברתיים החשובים ביותר שמתרחשים כיום במדינת ישראל תחב״צ נגישה ז…  הבקיאות בחומר של מי שאחראי על החזרתם של אברה והישאם מראה בדיוק את היחס של המדינה לנושא שום לקיחת אחריות שום ניסי…  עשרות אלפי חברים וחברות למחנה השלום עכשיו בכיכר זוכרים מזכירים וממשיכים להיאבק למען השלום  יחד עם חברים טובים באשדוד נאבקים נגד הבנייה המתכוננת על שפת הים שוב קומץ שמנסה להשתלט ולמנוע מהרוב את הנגישות והז…  לא ניתן להם למסמס הסכמים קודמים הנכים חייבים לקבל את מה שמגיע להם כפי שהובטח וחוקק עתידם של רבע מיליון ישראלים וי…  גזענות רשעות ואי צדק כמדיניות  מעצר ילדים במהלך שנת לימודים הוא שינוי מדיניות שאינו בסמכותה של ממשלת מעבר  הממשל…  מן הראוי שבעצרת רבין שכותרתה השנה היא ״כן לשלום״ ידברו גם ראשי המפלגות שמייצגות יותר מכולם את האימרה הזו רבין לא ט…  המאבק על גובה הקצבה הוא מאבק על הזכות הבסיסית לחיות בכבוד העובדה שעד עכשיו לא הוצג שום מתווה להמשך העלאת הקצבה כפי…  חולה לא יכול לחכות שנה כדי לקבל את התרופה שלו וכל עיכוב כזה הוא גזר דין מוות לאנשים מסויימים ההתלבטות האכזרית הזו…  שמח שרה״מ התעורר בכל הנוגע לנוער הזוועות של יצהר תוהה איפה הוא היה בשבוע שעבר כשאותו נוער ריסס גרפיטי גזעני השחית…  מתווה נתניהו הוא עוד ספין של בלפור שנועד להפעיל לחץ על מי שניצחו את הבחירות האלה המתווה היחיד שרלוונטי הוא כזה שנת…  יהלי בן חיים גילאון ותום גירון גילאון נכדי היקרים שברו באותו היום את הידיים בלי קשר אחד לשני   Break a hand    ש…  ממש לפני השנה החדשה סלקום הודיעה על תכנית ״ההתייעלות״ והחליטה לפטר מאות עובדים כמובן שאין בתכנית התייחסות לזינוק ב…  שעות אחרונות חייבים שתצאו להצביע  תקשיבו לדין הנכד היקר שלי הוא יודע מה הוא אומר  וצאו להצביע למחנה הדמוקרטי  הצבעתי עכשיו תורכם חייבים לצאת להצביע  המחנה הדמוקרטי בפתק מרצ  משכנעים מחוץ לקלפי  המחנה הדמוקרטי בפתק מרצ צאו להצביע  צריכים אתכם אתנו אז צאו להצביע המחנה הדמוקרטי בפתק מ ר צ  כל מהלך של סיפוח מרחיק את הפתרון היחיד שהוא גם מוסרי וגם ציוני  שתי מדינות לשני עמים מסע ההרס שיוצא מבלפור והגיע…  StavShaffir  השתתפתי בהרבה מערכות בחירות אבל נדמה לי שזו החשובה מכולן צפו ושתפו  כי אין לנו דמוקרטיה אחרת  עם הפעילות והפעילים של המחנה הדמוקרטי משכנעים עד הניצחון  נדמה שהמחשבים של עיריית קריית גת תוכנתו אי שם בשנות ה50 של דרום ארה״ב ההפרדה הגזענית לא רק שאינה מוסרית היא גם א…  DemUnion הגענו הבוקר לקיבוץ ניר עוז בעוטף עזה אזור שממשלת הליכוד של נתניהו הפקירה אותו המדיניות של הממשלה בנוגע לרצועת עזה היא מדינ… globesnews ראש בראש אילן גילאון ושרן השכל בעד ונגד שביתה בבתיהס  צועדות וצועדים למען השלום נשיםעושותשלום  במקום לכנס את המליאה ולטפל בתקציב מערכת הבריאות הקורסת בקצבאות הנכות או במשבר בחינוך המיוחד מפלגת השחיתות והגזענו…  משאיר את הזקן  מצער לראות שעדיין 40 מהגופים הציבוריים נוהגים כאחרוניי העבריינים לא עומדים בדרישות החוק ומפלים ומדירים אנשים מעו…  בממשלה הזו דיבורים לחוד ומעשים לחוד חולה לא יכול לחכות עד לאחר הבחירות כדי לקבל את התרופה שלו וכל עיכוב שכזה הוא…  העיר היפה בעולם אשדוד כמובן נצבעת בצבעי הגאווה ‍  העו״סים שוב יוצאים לרחובות כי לממשלה פשוט לא איכפת שהם חוטפים אלה שנמצאים בחזית למען החלשים ביותר בחברה פשוט לא…  בצעדת הטרנסים נגד אלימות ולהטב״קופוביה האירוע הנורא ביום שישי הזכיר לנו שוב כמה הצעדה הזו ואחרות חשובות ושהדרך לש…  מציינים 20 שנה ל״נגישות ישראל״ בבית הנשיא שותפה בכירה למהפכת הנגישות שמקדמת עולם שבו שכל אחד ואחת יכולים להגיע למח…  משרד הבריאות צריך לתת תשובות ומהר לסיפור הזה זו לא הפעם הראשונה שהתוכנית הזו נתקלת בקשיים תקציביים ושוב אנחנו רוא…  הלב נשבר למשמע הבשורה ואני מייחל להחלמתו המהירה של הנער נער שלא יכול להרגיש בטוח גם במקום שבו הוא אמור להרגיש הכי…  השמאל הישראלי קם היום לבוקר של תקווה ואחדות ופותח במסע חדש לעבר שינוי פניה של מדינת ישראל הרכב משובח של פייטרים ש…  michalpeylan חבריו לכיתה של קיאן בן ה10 מפגינים כעת מחוץ למתקן הכליאה בנתב״ג נגד מעצרו למקום הגיע גם ח״כ אילן גילאון שהגיע לשם עם הנ… מעדכן ש״בעיית הנגישות״ נפתרה מנסים למנוע ממני להיכנס למתקו המעצר בו מוחזק קיאן יחד עם משפחתו לקראת הגירוש כי הוא ״לא נגיש״ מה עושה מגורש נכה אם…  leeyaron בעקבות גל המעצרים חברי כנסת ממרצ הודיעו כי יארחו בביתם כל ילד ומשפחה ממוצא פיליפני העומדים בפני גירוש תוך ניצול חסינותם זנ… ההדחה של פלמור מריחה כמו עוד צעד בניסיון הנואל של החשוד בשוחד מרמה והפרת אמונים להשתלט על מערכת המשפט כדי להפחיד…  שביתה נוספת של עובדות ועובדים שנאבקים למען מערכת ציבורית מתפקדת כשהפעם האחים והאחיות נאבקים על הזכות של כולנו למער…  שלי יקרה אבדה גדולה לכנסת ישראל ולמחנה הסוציאל דמוקרטי שואף השלום והצדק מקווה שההפסקה היא זמנית בלבד ושכפי שהבטחת…  ילדה שהצליחה למרות כל הקשיים להשתלב במסגרת לימודית ולהתקדם בה הם לא דבר של מה בכך הניסיון של עיריית יבנה לסחור בחי…  הנכדים לבית גירוןגילאון ממשיכים להיאבק למען ישראל שוויונית בלי טיפולי המרה ובלי אפרטהייד בלי שנאה ובלי אפלייה מ…  תודה לחברים על האמון המחודש מרצ היום בחרה נבחרת של שחקנים מהטובים שיש עכשיו יוצאים כולנו יחד למערכה הגדולה והחשובה  החלפת השלטון מה עם הפקקים האמיתיים בכבישים   BottleCapChallenge אתגרהבקבוק  תכירו את דין הנכד שלי דין יצא היום להפגין על הזכות של אח שלו טל ובני הדודים שלו יהונתן ורומי גם הם נכדים שלי…  ברכות לחברי אבל באמת חברי amirperetz  עכשיו הזמן וזו ההזדמנות לייצר שותפות סוציאלדמוקרטית YediotAhronot פתאום באמצע החיים mkgilon עבר שבץ מוחי חמור אחרי 3 חודשים של שיקום במהלכם למד לדבר מחדש הוא חוזר העילגות שלי זה הד… אין צעד דוחה ומבזה ככל שיהיה שהחשוד מבלפור לא יעשה על מנת להציל עצמו מכתב אישום את הנזק שהאיש הזה והמשת״פים שלו…  זו ממש לא מנהיגות זו החלטה שערורייתית ואטומה קיצוץ רוחבי מעיד על פחדנות ועצלנות לא על מנהיגות ואחריות  גאווה בראשון לציון ‍‍‍  diklaaharon ח״כ אילן גילאון mkgilon האשים בתגובה לפרסום כי ההזנחה והקריסה של מערכת הבריאות בימי נתניהו היא בגדר פשע ידוע לכל ואמר כי… חג גאווה שמח ‍‍‍‍  שוב צועדים בראש מורם צובעים את ירושלים בצבעי גאווה וסובלנות כמו ששירה בנקי ז״ל ביקשה לצבוע עד שיושג השוויון עד…  בוקר עצוב מאוד הלכה מאתנו אישה חכמה טובת לב צנועה אשר הראתה לכולנו באמצעות דוגמה אישית אהבת אדם ואנושיות מהי ת…  כפי שגם אמרתי לפני הבחירות הגיע הזמן לחבירה של מפלגת העבודה ומרצ לטובת הקמת גוש שמאל ציוני סוציאליסטי גדול וחזק ז…  הנזקים של ישראל כץ וממשלת נתניהו קורעים לכולנו את הכיס מבזבזים לנו את הזמן ופוגעים לנו בבריאות באופן לא מפתיע ממש…  נתניהו צריך להתפטר עכשיו ומיד אף אדם לא יכול לתפקד כשהאשמות כל כך חמורות מופנות כלפיו ודאי לא באחד התפקידים הסבוכ…  בהצלחה היום בעתירה של ״כן לזקן״ ו״המרכז לעיוור בישראל״ כנגד האפלייה בעלייה של קצבאות הזקנה לאנשים נכים מדהים איך ה…  לא מונגש לא ניגש סרטון מצוין של ביה״ס נטעים ברמת גן  newsisrael13 חכ אילן גילאון מרצ השתתף באירוע שבת פיליפינית במחאה על גירוש אימהות מהפיליפינים וילדיהן החלטת משרד הפנים לגרש מישר… יום עצוב לדמוקרטיה הישראלית כאשר מפלגתו של אהובי אורי אורבך ז״ל שייצג את כל מה שיפה ביהדות מתאחדת עם אלו שמייצגים…  Partners4Israel Knesset members mkgilon chair of the Knessets caucus against police violence amp mossiraz at todays protest by Is… newsisrael13 מחאת יוצאי אתיופיה  ח״כ אילן גילאון מרצ יו״ר השדולה נגד אלימות משטרתית הגיע להפגנה ואמר ״אנו רואים שתרבות הטיוח הש… כי האנשים תחילה זו לא רק סיסמה זו תוכנית עבודה  Syechimovich ראיתי שתייגו אותנו על הפוסט יאללה נלך על זה אינשאללה מהממשלה הבאה  שבתון זה תמיד טוב ואפשר יותר מפ…  השראה כבוד הוא לי להמנות בין חבריה  itsikcohen1983 אני לא איש מרצ ואין לי דבר משותף איתם אני כן יכול להגיד שחבר הכנסת אילן גילאון דאג לחרדים הממלכתיים הרבה יותר מכל חב… מילים רבות נאמרו פה מהבוקר על השחיתות של אפי נווה השותף של שרת המשפטים שונאת השופטים אבל חשוב גם להגיד מילה טובה…  לא לתקן לבטל את החרפה הזו וכמה שיותר מהר חוק גזעני מפלה שכל מטרתו היא לסמן להפריד והכל כדי למשול ולשלוט אם מ…  קודם כל אתה לא נותן לאף אחד אנשים מקבלים את מה שמגיע להם ולצערי גם זה הרבה פחות ממה שצריך דבר שני בשום יקום 17…  לו היה קיים לא רק פרס ביאליק אלא פרס ״המתמיד של ביאליק״ דב חנין הוא האיש הראשון שעליו הייתי חושב dovhanin לא מתאר לעצמי את המקום הזה בלעדיך שליח ציבור פרלמנטר חבר במלוא מובן המילה והמשמעות אני בטוח שעוד נכונו לנו עלילות news10 יור סיעת מרצ mkgilon על דוח העוני של הביטוח הלאומי עלייה בחומרת העוני ובהעמקתו באחוזים כה גבוהים צריכה להדיר שינה מעייני כ… בפרפרזה לדברי נתניהו אני לא מתערב כיצד הימין מחלק את הקולות שלו  talschneider למשה כחלון יש קרדיט על המון מהלכים במשק אבל הוא כל הזמן חוזר על כך שהעלה את שכר המינימום בעוד ההחלטה על מהלך זה קודמה ונד… מפזרים הממשלה הזו הייתה צריכה להתפזר עוד לפני שהיא הוקמה ממשלה של עליבות שבה הישראלים משמשמים כתפאורה קטנה לפולי…  תכף מתחילים את הטקס החגיגי עם טליה היקרה שהגיעה אלינו למשכן להנחות את הטקס ואלישע הבן המקסים שלה  KnessetIL יש יותר מדי תווי חנייה לנכים ומעט מדי מקומות חנייה לנכים חהכ mkgilon בוועדת הכלכלה בראשות חכ cabeleitan בבחינת הצעות… פותחים את היום הבינלאומי לשוויון זכויות לאנשים עם מוגבלות עכשיו בועדת החינוך של הכנסת בדיון על הנגשת מוסדות תרבות…  שני דברים מתקרבים אלינו תמיד  הבחירות והמוות שהמוות יתרחק כמה שאפשר ושהבחירות יתקרבו כמה שיותר בדיון בועדת המדע והטכנולוגיה על אפליית שכר כלפי נשים חרדיות בעולם הייטק בעוד יומיים עולה הצעת החוק שלי בדיוק בעניי…  בסמינר הקיבוצים מדבר עם סטודנטים הצעתי להם שדווקא הם כאנשי חינוך לעתיד צריכים תמיד לקבל את ההחלטות וללמד את תלמי…  בצעדת העו״סים והעו״סיות אין סיבה בעולם שמי שעומדים ועומדות בחזית הראשונה של מערכת הרווחה של מדינת ישראל יצטרכו להל…  עד שאני מוכן סוף סוף ללבוש משהו צהוב אני נאלץ לרצות 11 שעות בנהיגה מונעת אז לצערי לא אתכם פיזית אבל אתכם בלב ובנ…  בהפגנת העו״סים שנלחמים למען כולנו על פניה של מדינת הרווחה כל אחד עשוי להיות עני נכה או קשיש יום אחד ולכן המאבק ה…  news10 יו״ר סיעת מרצ ח״כ mkgilon מהפגנת העובדים הסוציאליים בקריית הממשלה ״המאבק על ביטחונם הפיזי והתעסוקתי הוא לא פחות ממאבק על פנ… news10 יור סיעת מרצ חכ mkgilon על דוח העוני של עמותת לתת ״הנתונים הם אות קין למדינה המחשבה שילד הולך לישון רעב או שאדם נאלץ… הכנסת שוב החליטה שאדם יצטרך לבחור אם הוא זקן או נכה הוא לא ״יזכה״ להיות גם וגם ולכן הוא לא יקבל את שתי הקצבאות שמ…  בכינוס חירום של השדולה לשוויון בבריאות על הקיצוץ ההרסני בתקציב הגרעוני של מערכת הבריאות שאף אחד לא יגיד לכם שזה ה…  tomereznik לחברה הישראלית יש חוב גדול לדרור ישראל ולכלל תנועות הבוגרים כדאי לזכור כשנראה את זה קורה נאמין ונברך אנשים לא יכולים לגור בהצהרות שהיו למכביר בלי בנייה תקציבית פשוט לא יתקיים דיור ציב…  ביום הזה אנו עומדים כאן בסולידריות יחד עם נשותינו אחיותינו בנותינו נכדותינו חברותינו כולן ואומרים  די…  כמו עם הנכים כך עם הגמלאים אם המדיניות של הממשלה הזו הייתה הגינות לא היינו רואים כל כך הרבה אנשים נאבקים על כבוד…  היום מצביעים בעד העלאת קצבת הזקנה ומשווים אותה לשכר המינימום במקום שהממשלה הזו תדאג לכך שכל אחד יוכל להתקיים בכבוד…  JoshBreiner בעקבות הפרסום חכ mkgilon פנה ליור ועדת הפנים בדרישה לקיים דיון בהתנהלות בית הדין למשמעת של המשטרה מהמקרים עולה כי מדו… אני לתומי חשבתי שמירי רגב תבקש במסיבת העיתונאים הצרחה עם ליברמן  הוא יקבל את תיק התרבות והיא תקבל את הבטחון במקו…  mivzakimnews הצעת חוק שהעלה חבר הכנסת אילן גילאון עשויה לחולל רפורמה בתווי החניה לנכים השינוי הצפוי במקום להיות קשור לרכבו התו יקו… pninaneeman יש אנשים טובים באמצע הדרך בשם עמותת נאמן אנו מגישים אות הוקרה לחכ אילן גילאון על תרומתו להעלאת המודעות לשבץ המוחי  tomereznik לא את הגרעון צריך להקטין אלא מימדי העוני ואיהשיוויון המאבק של הסגל הזוטר במכללות ובאוניברסיטאות הוא מאבק צודק מאין כמותו העסקה שוויונית ראויה שמכבדת את המרצים אמורה…  kannnews חכ אילן גילאון בתגובה לתיעוד שפורסם בכאן חדשות על הנער שהוכה על ידי שוטרים באשדוד מה שווה ששרת המשפטים ונשיא המדינה סוגרי… מברך את השר לוין שהצטרף לעמדה המתקדמת והשוויונית שרואה בAirBNB גורם שפוגע בשוכרים ובדיירים  אחרי התרגיל של האופוזיציה בו הצלחנו להפיל את חוק המקרקרעין יואב קיש זעם וטען שזה בניגוד למה שסוכם מראש אמרתי לו ש…  נאום בנט  כמה פאתוס בשביל פחות מדי חזון עוד עבדאי שעושה שרירים מתחת לשמיכה מביש אבל לא מפתיע כמו שכבר אמרה המשוררת ״רק על עצמי לספר ידעתי צר עולמי כעולם נמלה״ נאום שמשקף מצוין את האיש  הוא אינו רואה איש מ…  על זה סבא שלי היה אומר ״יותר טוב תשתוק יגידו לך תדבר מה תדבר יגידו לך תשתוק״ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">גמר חתימה טובה לכל חברותיי וחבריי כאן בפיד צום משמעותי לצמים וזמן מחשבה ורגיעה משמעותי לכולם  בקיסריה מאות רבות של מכוניות ולא מפסיקות להגיע עוד שומרים על הכללים ונזהרים כל עוד יש אזרחים טובים שמוכנים לצאת מ…  yonatanlevi יש סיבה שמשטרי ימין פופוליסטי – מארהב וברזיל ועד בריטניה וישראל – נכשלים בהתמודדות עם המגיפה 1 חיסול מתמשך של הדרג המק… AOC alexbkane When we stand for peace there will  be those who will tell us its impossible even threaten us R…  MahmoudJabari StavShaffir writes in haaretzcom Israeli Politicians Don’t Blame Us for the Lockdown Ask for Forgiveness  כועסים שכולאים אותנו שסוגרים על החופש שלנו ומחסלים את הכלכלה הבעיה היא כבר לא נתניהו הוא חסר מצפון הבעיה היא במ…  YaelCohenParan היום יעלה בכנסת אם אכן יוחלט בממשלה חוק להגבלת הפגנות לא תהיה ממנו דרך חזרה הדיקטטורה כבר כאן  כל אזרחית שעתידה וע… AmirMoyal לא מכירה משרדים ממשלתיים שלא עובדים עם פקס כבר היום אבל תקן אותי אם אני טועה הצרה שם שלהרבה מהם לא נית…  מי צריך קידמה כשאפשר לרוץ אחורה לפני כמה שנים העברתי בטרומית את חוק המיילים שנועד לחייב את השירותים הממשלתיים להש…  הבוקר הכנסת מעבירה מאות מיליונים מכספנו  לדילים פוליטיים בזמן שסיפרו שהקימו ממשלה כדי להילחם בקורונה הם סגרו מאח…  רפי רק בריאות אסביר פרסום סדרי העדיפויות האמיתיים שלכם ואת רצונכם לחלק את הכסף שלנו לעמותות ועסקני המפלגות שלכם…  zviashkenazi תודה צבי  נו באמת ישראל איך יכלו לצפות את החגים תכף תגיד שגם צריך להיערך לחורף  itzikwolff הדבר הזה שקוראים לו מענק בטחוני למועצות הוא סידור פיקטיבי שכבר נכתב עליו בדוח המבקר בעבר הוא הגיע ב…  Mosheortwitt  tuchfeld אלה לא התקציבים השוטפים זה כספי חירום שהסיבה הרשמית להעברתם היא הקורונה הם אמורים היו להגיע לצרכים הדחו…  tuchfeld מתי אם אתה רואה בזה סדר עדיפויות נכון בכספי הציבור בזמן שהמשק בקריסה מיליון איש באבטלה אלפים צונחים לע…  רק רשימה חלקית אגב לתוהים הסעיף תרבות יהודית למשל זה רשימה של עמותות ימין שכמעט ורק הן זוכות בכסף הזה ואיתו…  itzikwolff לא ישנו כסף בנפרד לצרכים האלה שלא כללתי פה ברשימה משום ששירותי ביטחון מגיעים לכולם הפוליטיקאים מאשימים את הציבור בתחלואה ומה הם עושים בינתיים מחר הם מתכננים להעביר 20 מיליון שח להתנחלויות 296 מילי…  NitzanWaisberg אנחנו יושבים עכשיו בסגר שני   אני רוצה להזכיר לכם שגם לא חשבנו שיהיו בחירות שניות ואז היו בחירות שלישיות   כל עוד הנ… OrlyVilnai תודה אורלי שנה טובה AmirBenDavid תודה  שנה טובה מאד השיר המלא תודה למאיר אריאל   אחרי כל מה שעברנו הלוואי שהשנה הזו תהיה שנת ריפוי שנלמד מתלאות המציאות הזו כדי לבנות אחרת שנצא מההסתגרות והפחד א…  natitucker לגמרי וואו dovalfon למרות כל מה שלימדו אותנו כל החיים בסוף יצאנו האומה הכי פראיירית שיש קראו את המאמר שלי הבוקר בהארץ…  תותר הנסיעה לעבודה אך ייאסר להיכנס לבניין תותר הישיבה בפארק אך ייאסר להריח את הדשא תותר פעילות ספורטיבית אך ייאסר…  idogur כבוד גדול עידו  בעשור האחרון עיתונאים רציניים מצאו את עצמם פתאום חולקים אולפן בכפייה עם שופרות ששלח השלטון במטרה להשליט שנאה ופחד…  קלמן שכח להזכיר שויקיפדיה הפכה לזירת קרב מאז ששקד ובנט הקימו במימון מועצת ישע קורס להכשרת עורכי ויקי לשכתוב ההיסטו…  תקראו את חגי  ישראל הגיעה לתהום כה עמוקה שכעת ניצבת לפנינו בחירה קשה להיות ניצבים בקרקס האימים של הממשלה ולהמשיך לממן אותה בעודנ…  BSephi תודה לך  BSephi להפסיק לשנוא להתחיל לחלום  דעות  StavShaffir סתיו שפיר אומרת את מה שאני מרגיש עלינו להציג אלטרנטיבה… גברים אמיתיים  תודה  בתוך המציאות המטורפת שאנחנו חיים בה יש כמה נקודות אור הנה אחת שזוהרת למרחק עזרו לשתף כדי שיגיע לכמה שיותר מחנכים…  Duduoppe הטענה שלך משונה משני כיוונים 1 אם היה פטור גורף לכל הנשים היו פחות נשים בתפקידים משמעותיים בכללי הפ…  Duduoppe בכל שנה יותר ויותר נערות דתיות מתגייסות מרצונן הרבה פעמים בניגוד לעמדת המערכת רבות הולכות לתפקידים משמע…  Duduoppe לא הבנתי נשים לא מתאימות להיות טייסות מפעילות כטבמים לוחמות בוא תחדד לנו את התובנה הזו שלך רגע בנות שהיו צריכות להגייס לצבא יתנדבו במקום במשרד ממשלתי שלא היה צריך להתקיים סדרי עדיפויות  גלי חום שוטפים את העולם אבל כאן שיח האקלים נראה לתקשורת כבדיחה מרוחקת כתב מעולה Slonim מגלי חום אפשר למות 50…  NitzanWaisberg אילת איזה אלופים  כל ילדה שנכנסה השבוע לביהס יודעת לתכנן טוב יותר מהממשלה שאחראית להנהיג אותנו במהלך המשבר הבריאותי והכלכלי הגדול בי…  YaelCohenParan הגיע זמן לעבור לשלב הבא כניסה חינם עם הזמנת מקום מראש  לכל שמורות הטבע והגנים הלאומיים בישראל לא רק למי שיכול לשלם… מהאיש שהעלה לאינסטגרם הרשמי שלו בדיחות על קבלת שוחד לא רוצה לדעת מה יקרה כשייכנס לטיקטוק  וכמובן חשוב ללמד  גם שיש דברים שלא משתנים בעולם א יוני רכטר ועלי מוהר ב זהו זה  ג כל עוד    האתגרים בעולם השתנו רק המערכת לא התעדכנה האם מלמדים לחשוב באופן ביקורתי להתמודד עם ריבוי מידע שרק חלקו אמת להתכ…  תכלס כולנו בשנת לימודים מאתגרת מאד השנה לומדים כאוס ולומדים שאפשר להסתגל מהר למציאות חדשה הבוקר כשהילדים חוזרים…  MatanKahana ezrachmudag YairGolan1 ReemSherman naftalibennett AyeletShaked מעניין אם יש לך גם מה להגיד לגופ…  drorg נכון זה זמן האזרחים לפעול בנוסף להפגנות המחאה כל הכבוד shaiagmon NogaHalevi nivshai לחשוף ומיד כשהכנסת מתאבדת האזרחים מוכרחים לפעול החוק שעבר השבוע יפקיע מהציבור את השליטה ב470 מיליארד שח כולל כספי הקורונה…  karineb OferBavly וממילא יכולים להפוך גם ל365 ימים karineb תודה קרין  karineb שקיפות זה לא טכניזה לא סקסי לדבר או לקרוא על זה אבל זה קריטי וחשוב לחיים שלנו לאור הדחיה באישור התקציב אם בכלל ל3 חודשים… 🤣  BoazEfrat 🤦‍ BoazEfrat ואני בטוחה שככתב בריאות אתה מאד מתעניין בנושא מאחר וכל הכספים המיועדים לענייני הקורונה שלא לדבר על בתי…  בלי שקיפות בלי פיקוח של הכנסת בלי מעצורים עוד שלושה חודשים יבוא חכ שימושי אחר ויבקש שוב דחייה בהצבעה על התקציב…  כשגיליתי לראשונה איך ועדת כספים מעבירה את הכסף שלנו ליעדים עלומים עיתונאי שהיה שם ייעץ לי להתמקד בנושא אחר זה מש…  עוד עבודה מעולה של דורפמן בחשיפת הפייקים של השלטון שנועדו להפיץ פה שקרים כדי להפחיד את הציבור תקשורת איפה את לא…  ohadh1 מזל טוב כבר בחנויות אל תשאלו בסוף עוד יסתבר שנתניהו גם עקף את כל מערכת הביטחון והחוץ שוב גם שיקר לציבור גם נתן לטראמפ לדרוך עליו…  אובדן שפיות בליכוד באמת מאמינים שכל הגורמים שאמורים לפקח ולרסן את כוחו של השלטון ולוודא שהוא משרת את העם צריכים…  הפגנתי בקיסריה אמש היינו המון אנשים והמון משטרה וחזרנו הביתה בשלום באותן שעות בבלפור חברים שלנו חטפו אגרופים מב…  hamakom YTB2018 תודה לכם hamakom nivshai כמה קל להאשים את אמיר אוחנה תבינו כל יום שכחולבן נשארים בממשלה מי שמרביץ בכח למפגינים זה בני גנץ זה אסף זמיר זה גבי אשכנ… עכשיו בקיסריה  YaelCohenParan הכניעות שבה מוצגים כל השחקנים הפוליטיים בישראל לפיה רק איש אחד יחליט אם נלך או לא לבחירות פשוט מטריפה את הדעת די יש… harnevo זהו סימן שחייב לחזור לארץ yanircozin כנראה שההתיישבות לא מספיק חשובה גם להם שאחרת היו מביעים את מחאתם בקולם ופרצופם צודקת השמאל יכול להתגאות בהישגים גדולים בשחרור משאבים לציבור מהכנרת לחופים בניגוד לחכים בימין שלא טרחו להגן אפיל…  מקום המדינה ישראלים משלמים מחיר כבד מנשוא בשביל להבטיח את בטחונה ושלומה נלחמים במדינות אויב שעל גבולותינו וכן גם…  תקראו את חן  ybhlashon  דחיית התקציב לא אומרת שהכסף שלנו קפא הממשלה תזיז מיליארדים רק במקום שזה יהיה בפיקוח הכנסת היכן שאפשר לשאול שאלות…  שתי הפתעות משונות נתנה לי הקורונה תודה נסתפק בזה התמכרות לריצה ולפודקאסטים במקביל כמובן השבוע התארחתי באחד ה…  תראו את זה  וכבוד גדול ל yoavz שמביא סיקור מעמיק ומצויין של אחד האירועים הכי חשובים שקורים עכשיו בעולם  MatanLevi18 שקר דוחה במיוחד תתבייש כיבדתי אותך ועניתי כאן אבל לחינם מי שמעז להשתמש בנשים שעברו אונס כדי לקדם…  MatanLevi18 התראיינתי על כך בהרחבה לפני שבוע בגלצ לאף אחת גם לא לשרה לא מגיע לספוג הערות או מתקפות על בסיס מיני…  חירות הדור הבא  אגב מי שמחליט על הכסף שלנו כרגע זו ועדת חריגים באוצר מנהלת החלטות על מיליארדים בלי לכתוב פרוטוקול למה כי לא בא ל…  YarinRaban להצביע על חוק דחיית התקציב מה שאומר שיהיה תקציב חדש עוד כמעט שנה  עד אז כל הכסף שלנו ינוהל בחשיכה ועדת כספים החליטה כעת על ביטול הכנסת בנושא הכי חשוב שהיא משפיעה עליו  סדרי העדיפויות של הממשלה התקציב זה לא יועי…  chagailifshits brandalon מסכימה ועדיין במבט היסטורי  עד שזה ייצא לפועל בערים גדולות הרעיון של רכב פרטי כבר אמור להפוך למיושן chagailifshits brandalon יקח עוד זמן וגם לא בטוח שזה יייעל את המצב יתכן שאף יגדיל את הפקקים בעיר בגלל הגדלת כמ…  lilyoftheyard hananc ספרי לי sarahnadav Thats horrible So sad to hear that But please dont avoid public transport  its the attackers who should not be on the bus האוצר מעכב תשלומי פיצוי לבתי חולים בזמן מגיפה טירוף מערכות והעניין הוא שזה לא קורה רק עכשיו  גם בזמנים רגילים ה…  ShaniAshkenazi כן והסיבה שהם יכולים לגבות כאלה מחירים זה רק כי התחבורה הציבורית פה ככ לא יעילה זה בחיים לא היה מצליח אחרת ShaniAshkenazi לנסיעות מחוץ לעיר עשיתי חישוב על נסיעה אחת בשבוע שכוללת לילה  נהיה לא משתלם אבל אשמח לשמוע איך אתם מתנהלים מול זה Birnhack AlonJasper ILParliament TAULAW תודה אשמח לשמוע ShaniAshkenazi מאד יקר ולא משתלם לא ככה פידהתיעצות מישהו מכיר יוזמות מעניינות לרכבים שיתופיים בעיקר לנסיעות מחוץ לעיר כל מה שהכרתי  יקר מדי ולא יעיל…  כל הגשרים מובילים לבלפור  המטיילים מתחרים על כל נקודת נוף   yoavz שמעתי שמסבלט במחיר כמעט כמו תל אביב  איזה עונג לראות כל כך הרבה מטיילים בנגב היום שבאו ליהנות מהמטאורים באמצע הלילה עוד ראינו המונים מגיעים  בתמונה ה…  AvishayBenHaim לו היית בודק את העובדות יכולת להרגיש באמפתיה הזו גם בוועדת כספים כשנילחמתי בכמה מחבריך בימין שגנב…  אבישי מכבדת את דעותיך אך כאן אתה פשוט זורע שנאה למה כחיילים בהתנתקות בכינו עם תושבי הגוש בזמן שפינינו לפי פקודה…  סליחה נרמול יחסים אחרי ששחרר את גלעד שליט כדי להדעיך את מחאת 2011 נתניהו בודק שוב את השיטה עוד כמה הפגנות ויש שלום עם הפלסטינים elnatanSch ועכשיו עדיין צוחק  talfriedman1  זה נשמע הזוי אבל במציאות הזויה שבה אנו חיים זה בדיוק החזון שיש בו תקווה לעתיד revitalamiran מה איפה ראית מישהו שתומך בזה רויטל אגב גם את חופי הכנרת שבעבר לחלק מהקיבוצים היתה שליטה בלעדית על…  אחרי שדיברנו על שרה על תאורת בניין ומיצג אמנותי אולי נדבר על מה שבאמת ישנה את החיים שלנו השבוע כתבתי על שלום וחט…  זהבה צודקת לגמרי קראו אותה  תכלס פשוט מעריצה של גיקונומי האוצרניקים סתם תירוץ כדי לבוא  בואו גם  הי ביבי ככה נראה איום ברצח מקבלת כאלה מדי פעם בגלל מכונת ההסתה שהקמת מעבירה למשטרה ומנסה לשכוח אתה מהאנשים המא…  אתם מבינים שכל הזמן הזה לכנסת ול90 מהשרים אין מושג מה קורה בכסף שלנו תקציב הוא החוק הכי חשוב שהכנסת מעבירה כל דח…  eranetzion בשביל סבא  orenhelman הי אני ליחי 23 עם מוגבלות מונשם מעכו  מחפש עבודה מהבית בזכות הקבה שנתן לי ידע במחשבים אני יודע לכתוב מהר ולכתוב ב p… KeidarKesten מעולה זה מה שעושים כעת בבית המשפחה המהממת והאידיאולוגית של YaelCohenParan   herzliyacity תודה על התגובה שמחה לשמוע Thanks LahavHarkov  but the fact you made me watch this horrible thing  on Tu BAv  is UNFORGIVABLE  Eyalo365 בעיקר כי השכונה קשה נדרשת מנהיגות הפעלת כח כשצריך לצד שימוש בתמריצים כלכליים וניצול הקשיים של החיזבאלל…  הדיון על הדלקת אורות בעיריית תל אביב כןלא פטריוטיבוגדני  הוא בעיקר שולי השיח שצריך להתקיים כאן הוא למה כך נראי…  פעם קראתי למיקי זוהר מושחת והממשלה השעתה אותי לשבוע מהכנסת למרות שכולם שם יודעים עכשיו שמסתכלת כאן מבינה שי…  itaytimor הנסיגה מגוש קטיף היא שבר בחלק לא קטן בציבור הישראלי גם אם אנחנו בשמאל לא התייחסנו לזה וכן סתיו שפיר דאגה למפונים אחרי הה… בזמן שהחכ מתלונן בצדק שהשר מתחמק מהוועדה המפלגה שלו מחפשת קיזוזים כדי להתחמק מהצבעה על הקמת ועדת חקירה בפרשת הצ…  היוש הרצליה כשתסיימו שם עם סדנת המניקור בבקשה כנסו לשעון שלכם לעדכן ל2020  NitzanWaisberg ״כשאתה ניצב בשדה הקרב אתה חזק רק אם אתה מגן גם על המשפחה שלך על החברה שאתה חי בה — ולא על עצמך בלבד״ מאמר מצויין ihateliarsppl פרופיל פייק עם 30 עוקבים מדבר על אמינות 🤣 יום טוב חמוד talfriedman1  בכל פעם שביבי והשופרות טוענים שהמחאה ממומנת זכרו את זה נתניהו הוא הפוליטיקאי היחיד שעלה לשלטון באמצעות מחאה שאירג…  באחת ההפגנות האחרונות בין קריאות השוחד מרמה הפרת אמונים צעק פתאום מישהו בוגד מיד הושתק עי כל המוחים שעמדו…  EladWolf די בטוחה שהבנת שלא אבל בא לך לסכסך לכיף  שמאל  ערבים  שמאל  ערבים נתניהו  הסתה  MartinKiel DanaGat1 🤣 שומר מסך חדש  BenariNoa  waldagan1 קרה בדרך מכוניות מעופפות פקקים בנתיבי האוויר 🤦‍ סוף סוף 2020 מתנהגת כמו מה שצפינו ב90s שהיא תהיה דיונים סוערים על חייזרים orlybarlev YTB2018 הוא צודק ואת אלופת עולם לא סתם בחורות בחורות עם ערכים  EdriGai בינתיים ממשלת ה35 שרים ו200 סגני שרים לא רק שלא התמודדה עם המגיפה  היא החמירה את המצב זה מה שקורה כשבו…  EdriGai מהי הפיכה שלטונית באמצעות הפגנות הפגנות נועדו להפעיל לחץ על השלטון מדובר באחד הכלים המרכזיים בדמוקרטיה…  שיטת ההשלכה של נתניהו האיש ששנים ממומן עי גורמים זרים  תמיד מאשים בכך את יריביו הפוליטיים האיש שפוגע באינטרסים ש…  AmraniLidor תסיר עוקב נראה אותך 🤣 וזה מאחד שמבין בזה משהו  אם קלמן רוטן על סיקור לא הוגן נחמד להיזכר בקונספירציות שהפיץ ב2011 החל בטענה שיזם המחאה הוא סטנלי גרינברג 🤣 שת…  הכי יפה עד עכשיו  YaelCohenParan הערב בקיסריה המחאה נגד ראש הממשלה הנאשם בפלילים הולכת ומתעצמת ההפגנות בכל הארץ בגשרים בבלפור בתל אביב ובקיסריה רק… zOrv8H0hSbNpeSB  maozinon ⁦⁩ אור ירוק למנהיגות נשית  ⁦⁩   ביביתתפטר  מוכנים שמתם מסכה יאללה צאו לגשרים לכיכרות לבלפור חוששים להתקהל קחו דגל ופשוט צאו לכביש ליד הבית האיומים לא ע…  תראו איזה יופי כתבתי סטטוס שמחזק את אריאנה מלמד אחרי שמעריץ של ביבי איים עליה באונס קבוצתי   ובתגובה נשלחתי להבי…  כולנו עם אריאנה והיא  יש לה בציפורן יותר אומץ וחכמה ממך ומחברייך לאונס הקבוצתי שאתה חושב שאתה מאיים איתו על מיש…  yonatanlevi איילת שקד 2011 המחאה החברתית מובלת עלידי ארגונים פוסטציוניים אנרכיסטיים מירי רגב 2012 ראשי המחאה החברתית אנרכיס… מבינה שהשיטה החדשה היא לא רק לשרת את ביבי בישיבה בממשלתו אלא גם להגיב כמוהו  השאלה היא מי פתח את החשבון הזה ומתי אם יש איום על ראש הממשלה השבכ צריך לדעת ואם ראש הממשלה המציא איום על עצמו…  eranetzion תודה ערן  עידן נתניהו קרב לסיומו למרות האיומים ההפגנות יגדלו הלחץ יופנה לשותפיו לממשלה וכשהם יתפטרו  הוא סוף סוף ייאלץ לל…  yishaybs YTB2018  TheGrandNagus5  מתביישת ככ שהאיש חסר המצפון הזה עדיין ראש הממשלה שלי 5 פצועים שוכבים בביח בגלל האלימות מתומכיו במקום לרוץ לשם ו…  אנשים שבעצרות רבין נאמו על ההסתה ששולהבה עי נתניהו אנשים שפעם זעקו נגד החיבור שלו לקבוצות הקיצון להפמיליה ועוצמה…  GileadSher יונה אברושמי 1983דוד בן שימול 1984המחתרת היהודית 19801984רפאל סלומון 1989עמי פופר 1990ברוך גולדשטיין 1994… itayalmogbar שמע הזוי העולם הזה מתוך דיון שערכתי בוועדת השקיפות עם מנכלית המשרד הקודמת  אוקטובר 2018 תקראו זה לא יאמן  די אתה צוחק  אגב המשרד לנושאים אסטרטגיים השקיע בשנים קודמות מיליונים בארגונים כמו ועד מתיישבי שומרון זה בטוח ע…  TamirZagury שווה לדעת לאן הפנו את כל הכסף הזה שלנו במשך שנים על בסיס איזה קריטריונים ומה היתה התועלת ואז  יהיה ברור שעדיף לסגור בקדנציה הקודמת המשרד לנושאים אסטרטגיים  או בשמו השני מכתזית כספי ציבור של 300 מיליון שקל בשנה  עשה הכל כדי להחר…   ia42 Arspoeti Ronjinia  תראו מה קורה כשאיזו בחורה לא עוצרת ברמזורים האדומים  האיש שרמס את אמונם של כל מצביעיו והלך לשבת עם נאשם בשוחד מרמה והפרת אמונים מדבר איתנו על פגיעה בסמלי השלטון  edvalotan רואה הבוקר את כל התגובות של איפה הייתם כשהשתמשו במכתזיות נגד חרדים ורק רציתי להזכיר את הסמולנים שהימין כל כך אוהב לשנ… שוב האנרכיסטים האלה מנקים זבל מהרחובות אחרי ההפגנה בטח ממומנים מגורמים זרים בחברה להגנת הטבע  עמיר יש דרך לעצור את התוקפנות הזו להעיף את המסית העליון מהשלטון תתפטרו מהממשלה במקום לצייץ פה תנחומים למי שחיי…  ארבעה מחסומים מכאן עד לבית של נתניהו מאוישים בעשרות שוטרים מעניין מה ככ מפחיד באזרחים שומרי חוק שלא נהגו באלימות…  כל הארץ דגלים דגלים וכאן בקיסריה מול בית המלוכה שתכף עומד ליפול  המשטרה גייסה שוטר על כל מפגין יותר מ250 צמתים…  ביבי מצא אשם חדש לכישלון הכלכלי שלו האוצר מי היה מאמין שהנוכל שמתנער מכל אחריות יזרוק אותה הפעם על פקידיו המסורים…  GershomG האמת הלא נעימה פקידי האוצר הם פוליטיקאים ועוד איך מStavShaffir  IsraelRebellion הבוקר חסמנו את הכניסה לכנסת במחאה על חוק ההסמכה מדינה דמוקרטית היא תנאי בסיסי במאבק במשבר האקלים  YaelCohenParan חוק ההסמכה לא יעבור בדקות אלו ממש עשרות פעילים ופעילות מכל רחבי הארץ אזרחים ישראלים פטריוטים  חוסמים בגופם את כל הכ… chiefdayan1 יש גם אווירה בחוץ אל תדאג יפה מאד ואפשר גם להפסיק עם הדוחות המוגזמים לעסקים ולא לנצל כל קפריזה של הממשלה כדי לעשות כסף כשהממשלה מתנהלת בלי…  קדימה רשויות מקומיות זו ההזדמנות שלכן לעשות עימנו ועם העסקים חסד  לסגור כבישים למכוניות ולתת למסעדות ולמקומות הבי…  brownjohnbrown תגידו למה כל הקמפיין אשכנזים  NitzanWaisberg צריך להביא קצת אנרכיסטים ליערות קק״ל לאסוף את הזבל  ציבור ענק בכל הארץ שבר השבוע את מחסום הפחד תכף הגלגל יתהפך אלה שהתקרנפו שהתחנפו ששיתפו פעולה עם המושחת נגד הציב…   מפת הדגלים השבועית tomashinyu3 peretzsami  tomashinyu3 כל חלל שעומד בהנחיות ויש בו הגברה בסיסית או אפילו בלי הגברה אם זה קטן יתאים לזה המחיר ייקבע לפי המקום ובואו נסכים שזה… הי אתם אנרכיסטים בני 60 ו20 שעבדתם קשה ושילמתם מיסים שישבתם בשקט חודש כדי לשמור על המדינה שלנו מפני המגפה בזמן…  כשהממשלה פועלת בלי מידע בלי שקיפות וגורמת לאנשים להפסיד עוד ועוד כסף כולל על היערכות לפתיחה בסופש ובלי לתת פיצו…  אבל בגלל שאין פה שכל ישר ניאלץ להסתפק בשכל העקום המושחת והשקרן שבנמצא ובאפס מידע כי השכל לא היה מעוניין בו  בדיוק  SaraPeled2017 זה חשוב מאד ומזמינה את כל מי שיכול להשתתף אבל במדינה נורמלית עובדים סוציאליים ועצמאיים לא מתקיימים…  להרבה משפחות הכסף שיכנס לחשבון הוא אוויר לנשימה וזהו כמה נשימות חמצן שיתפוגגו ואחריהן יישאר החנק בהיעדר שירותי ר…  🤣🤣🤣🤣🤣🤣🤣🤣  zehavagalon תודה זהבה 3gt zehavagalon סתיו שפיר במאמר נוקב על שיטת החיסול האהובה על נתניהו ביד אחת לחבק את הכאב שהציפה המחאה ובשנייה לחסל את מנהיגיה באמצעות… TaliaShoval Haaretz יותר מאשמח  TaliaShoval Haaretz ברור טליה השתמשתי במושג לפי ההגדרה המנמיכה שבה משתמשים בו נגד המחאה כעת בשביל לעשות עליה…  אנרכיסטים אנרכיסט זה מי שהחליט ששלטון החוק זה לא בשבילו שרומס את הדמוקרטיה וזורע פה תוהו ובוהו על סף מלחמת אזרחי… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dverthaim זו הערה חסרת טעם יהיו משפחות שכולות שייעלבו מציע לך להוריד שורות אלה Vered1Q84 EladSi ברוח מאמרו של חיים שיין הבוקר בישראל היום  ועתה הגיעה העת לעשות שלום בינינו כנראה משימה ה…  Riklin10 החוצפה היא שנחשפת ולא בפעם הראשונה ההטייה הפוליטית של ערוצי תקשורת חשובים בהכירי מעט את התקשורת מחוץ ליש…  Riklin10 גם ערוץ 11 לא ישגר כתב מדיני לסיקור הטקס והרי זה ערוץ ציבורי שאמור לשקף ולשרת את כלל הציבור בישראל והח…  TobyStupp navedromi  3 3 TobyStupp navedromi הניצול של מסבע הלשון מגש הכסף לצורך הפגנה פוליטית הינו חסר טעם אלתרמן טבע כינוי זה כסמל ל…  TobyStupp navedromi ⁷ KarivGiora למדתי אבל לא מבור כמותך saralegliksberg בדיוק כך חשבתי עליך איזה מזל Mcohen1234 מכיוון שאת מנסה בטימטומך לכלול את הורי נע בגידופך אשמח לחסום אותך תתביישי sawsansbait לשמחתי חסמתי אותך GaashHaim גם מחנה של יחיד הוא מחנה Vitaliko ספרו של אודי לבל  הדרך אל הפנתיאון הוא ספר מצויין המתאר את התופעה של נסיון השלטון להשכיח את חלקם ואת…  rbinyamini רן יהודי קשיש אחד עדיין חושב שאתה מגיש הוגן מצויין שבת שלום dverthaim פרופ זליכה אתה עם הדגלים השחורים EladSi שני המתמודדים מחזרים אחר תמיכתו של בוגי mottyf למה זה חשוב SecuritiesIL ruvirivlin כבוד הנשיא איני מבין מדוע אתה משתהה בפירסום ברכה חמה לעושי השלום לפני המראתם לאבו דבי…  AmichaiStein1 אני שופר בסה לא ידוע לך AmichaiStein1 ואני מברך את ראש הממשלה על ההשג בהמתנה דרוכה להשגים המדיניים הבאים gerishwartz אכן התכוונתי לכלל gerishwartz אקח פסק זמן מה שיאפשר למגיבים להצטייד במנת גידופים נוספת רעננה gerishwartz כאן לפחות אני שנוא על רבים כאן אני למד על סגנונו של חלק מן החברה אגב רבים מן הגידופים כבר שחוקים כמו זקנתך say2way טוב עשית שמח שלא צפיתי בך Anat56735095 הבושה הדדית razayal רק חבל שעקב פיטורי עלי להיתקל בך GaashHaim הם הרבה יותר לטעמי לעומת התבטאותם גסת רוח כלפי מן המחנה שלך iloveisraell תבורך אשמח אם תחסום אותי אנא ZviHauser אל תדאג עם ממשלה כזאת ועם שני קליינטים לא פשוטים לא תלך  בטל יזדקקו לשרותך ishimmoto לא ידעתי אם כך אמר יאיר נתניהו אני מוקיע התבטאות זו sawsansbait שמח ומאושר שאינך מעריכה אותי הייתי בוש ונכלם לו הכרזת כי את מעריכה אותי ZadokSara גבירתי ברגע שאתה מוכר כאיש ימין אתה הופך להיות חשוד arikarielpopper יש לי קושי בהבנת טיעונך ryabetz1 אל דאגה גילי המתקדם ינחם אותך בוקר טוב חכ יעלון עוד לא התנצל על ההשוואה המתועבת שעשה בין שוטרי ירושלים לבין ממלאי הפקודות הנאצים יעלון מתרץ בני…  RakOmerRO UriKadish איך תגיב אם יוטחו בגנץ הגידופים שאתה מטיח בנתניהו hkim14050017 z7654321 פרופ לב גרינברג הכי שמאל בסקאלה DN36843929 ואותך הפסדנו כאחד מחכמי ישראל בעלי חוש הומור מפוקפק בוקר טוב והיה אם תמכור ארהב לאמירויות את הF35 ייתכן שזו תהא עיסקה חשובה אם ארהב ישראל והאמירויות ייאלצו להשמיד…  nechace4 יופי נחמה Eshahar21 טוב שאני קיים כי למגדפים יש יעד יש להם יעד הם לא מחוסרי עבודה בסגנונם הם ממיטים בושה על עצמם והכל בשמות בדויים איזו גבורה MotiSerok dasides כבר נאמר גם על ידי רק בית משפט בפסד חלוט יקבע עבורי אם נתניהו מושחת או לא קל לכתוב ולחקו…  barakehud מר ברק הרשה לי לעדכן אותך סודן בדרך dvirnet אני שופר וותיק אני גם כתב חצר אל תשכח yakov57v אם אני מעציב אותך אשמח לסייע לך לנגב את הדמעות פנה אלי דובר משרד החוץ של סודן הודיע כי ארצו קרובה לשלום עם ישראל אני חוזה את תגובות המפגינים מי צריך את סודן פרס כבר הי…  CohenRoiy הבנתי להבא אצטט רק את חכ עודה כך אחזיר את המוניטין ששקע NotYoavBerliner יש לי אגנדה Bennynatan יש הסוגדים לקיסר ויש הסוגדים למופתי Soloph0ne לא ציפיתי שאלוףבמיל ידלין יגיע גם הוא לפוליטיקה ברמזיו haggaisegal וגנין  זה בית אל ושכם  זו התישבות ברכה haggaisegal מישהו מעלה על דעתו שאפשר בקלות דעת לקלקל את יחסי הידידות עם הנשיא טראמפ היש לחזור שוב לאמירה החשובה…  חידוד שהשמיע אלמוני על רון חולדאי להורות על קישוט בנין העיריה בצבעי מחוז קטלוניה בספרד לאות השתתפות בצערה של ברצל…  doroniko mossiraz YTB2018 צל לא נחשב כעיתונאי הוגןתיקון טעות במקור doroniko mossiraz YTB2018 עיתונאי ימני לא נחשב בעיני השמאל כעיתונאי לא הוגן הוא תמיד שופר אין לו דעה משלו…  Pnimen הוכחת בהערתך את קוצר ההבנה שלך לגבי האמירה שלי פשוט מאד אולי מישהו חכם ממך יסביר אני מתגורר בחול סליחה בירושלים haimetgarr אמור לי השתגעת אני בהחלט מבין לליבם של חוגי שמאל המתקשים לבלוע את ההסכם עם האמירויות נתניהו  ראהמ השלישי שעושה שלום עם מדינה ערבית לא יאומן פרופ רות גביזון המשפטנית שהלכה לעולמה תיזכר לא כחוקרת מעולה של עולם המשפט אלא כמי שהלכה נגד הזרם בין השאר תי…  BoazGolan הטלפון הנייד מצלצל הלו מי מדבראני יועץ אסטראטגי שמי נ ואני מסייע להקים מפלגה חדשה אני תודה לא מעוניין שלום ohLaEMAhZU2EL4k bogieyaalon לא ולא EilonPoem bogieyaalon תודה שאתה נותן לי אישור אבל מי שמך bogieyaalon לא קבענו bogieyaalon לא קבענו דבר batiag הסכסוך על נחל האסי מעמיד את הקיבוצניקים באור לא נעים נזכר בתרעומת שהשמיע בגין כלפי הקיבוציםמיליונרים י…  DayanRoee bogieyaalon התחסנתי השתריינתי ציפצפתי EitanSegal1 bogieyaalon איני אחראי לכך שאתה לא שמעת AmirFass bogieyaalon ראוי שראש הממשלה יגיב למגדפיו bogieyaalon שבת שלום לבוגי יעלון שר ורמטכל לשעבר הסגנון הביקורתי שאימצת אינו ראוי לדעתי לא ראוי שמי שכיהן בת…  yishaiporat לוחמי משמר הגבול חיזקו ואימצו מול פרחחי נוער הגבעות אני מקווה כי מיידי האבנים ייתפסו וייעצרו מוקדם ככל הניתן כל טוב ללוחמים yishaiporat זוהי תופעה מבישה לידות אבנים באנשי משמר הגבול על ידי נערים ישראלים בושה גדולה EladSi אלעד תבין שהרי מדובר במזג הישראלי לא הבריטי OrenAmir2 E4J5jHbJAMNOMae לא ולא צילום היום שר הביטחון גנץ עטוף בטלית צילום של גבו של גנץ מתפלל בודאי להצלחת הטיפול הרפואי רמטכללשעבר עטוף בט…  naftaliamirgal naimleee שרי זקוקה לשתיה לעידוד למרות שאיננו מצביעים לאותו מחנה אני מקווה שתשמרי על עצמך  מפני השמש תחזיקי מעמד yairlapid KamalaHarris נדמה לי לאחר ביקור ביפאן נעשה חכ לפיד ידידו של קיסר יפאן נדמה שנפגש בפאריז עם נשיא צרפת…  AravaHagay הבטתי במראה וראיתי אותך הזיהום היה מדהים העתק מדוייק של פרצופך ממש doronbg לא רוצה להתבייש ofFYrEavC0FOyHS למדת פעם עברית dr114 אז למה אתה עוקב אחרי תפסיק אשמח yarimiofer זהו אחד הרגעים שבהם אתה שואל את עצמך למה אתה מתיחס או משתתף בכלל במשחק הציוצים הזה yarimiofer תביע חמלה על אלה שמגדפים אותימה הקשר בין ההנצחה בהר רשמור לבין יחסו לישראל מה הקשר וטרומן בעינ…  מדהים טראמפ רוצה להיות מונצח בהר ראשמור לצד וושינגטון לינקולן טדי רוזוולט גפרסון אפילו טרומן או פרנקלין…  BoazGolan כבר אמר מי שאמר בלי בגצ ובלי בצלם RanBaratz מתי כספי כינה את נתניהודיקטאטור האם זו הסתה או ביקורת לגיטימית האם בהוראת הדיקטאטור מתי כספי נלקח לחקירה AmichaiStein1 מתנצל על כי קשרתי את חכ ליברמן עם בלארוס במקום עם מולדבה מבקש סליחה מן הצופים שהוטעו AsaToledo לא כולם טרחנים כי אני למשל טרחן וגם שופר וגם לקקן ועוד RuthiLandau אני שופט לפי הכתוב בשלטים מאד ברור ירושלים היא נעדרת כל חשיבות לכשעצמה אלא חשיבותה היא על שום היותה לאירושלים אלא חול אין מנוס כי הקטטות הריטוריות באולפנים כמו באופירה וברקו רק מגבירות את המתח באוירה מורטות את העצבים ובעיקר אי אפשר לעקוב אחר הנאמר YinonMagal העריכה של החדשות כבר לא תמיד לגופה של חשיבות הידיעה אלא לגופו של אדם  אם הידיעה משרתת אותנו נדפיס…  AmichaiStein1 ליברמן כבר הצביע אולי הצביע בדואר באיזה מועמד שם צידד batiag אמירה בנאלית לחלוטין YediotAhronot זכור לי אותו יום הייתי שם כתבנו חשתי כי עם התפטרות ניקסון התיתם המערב הדמוקרטי ונותר חשוף במל…  GilSamsonov amitsegal עמית אל תירא ועל תיחת Flixii ariehking נא לפנות לעיריה מדוע ירושלים חשובה מדוע כדאי לבקר בה ובכן העיריה עצמה לא מעריכה את הבירה שלנו שלטי הפירסום שנועדו למשוך ישראלים…  AviganorAvi זו דרך מכוערת ביותר לנסות ןלהעליב את עמית סגל דרך חטאו של אביו לא זו הדרך Judeoespanol EladWolf לפיד היה שר אוצר בלי ידע אקדמי בכלכלה הוא גם הסתבך בסתירה פעם אחת אמר כי שר אוצר צריך להי…  rinatgoldberg איני מהגר כי מחיר המילקי כאן זול יותר מאשר בברליןשאל את חבריך אני כאן כדי שטיפוסים כמוך לא יגנבו את המדינה RenanaNeeman שמעתי הרבה על צביעות הרבה שמעתי וקראתי על כך את או אתה דוגמא רננה erancherpak מגעילים אותי כמה מן המגיבים מאד BarNahum5 הצטרפת לנושאי הבולבולים התרשמתי כי זה הולם אותך היכן אתם אירגוני הנשים שותקים  זו ההפגנה המקובלת עליכם היכן את אורית סוליציאנו את שקראת להחרים אותי בטלביזיה על…  michelletelaviv arik3000 מה אתה רוצה זו המצאה שלי arik3000 ותרגיל זה כונה בדברי הימים התרגיל המסריח את הכינוי הזה המציא יצחק רבין זל יריבו הגדול של פרס זל אז UriMisgav אכן היתה תנועת מחתרת רוסית שפעלה כדי לבטל את משטר הצארים שמה ברוסיתנרודניה ווליה או רצון העם היא…  orlybarlev Eyalo365 חבל איזה מגיב אחד תוקף ומגדף אותי על כי כתבתי ספר על נתניהו לא היה ולא נברא k64yPS4CAax9zsY לא נכון אני שופר מאד איכותי וגם כתב חצר DN36843929 זה נכון אני שופר אך גם כתב חצר האם נכון שאמצעי התקשורת מסקרים את האירועים בהגינות ולא מעניקים למפגינים רוח גבית האם נכון שאמצעי התקשורת רובם לא…  Omribarbash ואתה מבחנה של שתן המטפס במעלה עורקיך oeribar כל הערה שלי נתקלת במענה גס רוח pfeifel שכחת את לפיד pfeifel ניפגש בשביעיות Omribarbash אני מכחיש Omribarbash מבחנה של שתן לא תאיים על מגדל של בולשיט טובסליחה הרי לא הבנת כי הנוזל סתם את ראשך GmailRamagure הקרנף אינו מגיב לאמירות של צבועים זה חוק הגונגל הכל מודיעים כי האתר שפירסם איום על חיי נתניהו מפוברק ממש חוצפה שהמאיים לא השאיר כתובת מדוייקת ומס נייד אלא זייף…  Riklin10 אינך רשאי להתערב בעניניה הפנימיים של מדינה אחרת הלוא מדינת תל אביב Ronmarks1988 או רפי שכל כמוך Ramos88946529 ועוד אמר יעקב חזן המתנחלים הם כמו החלוצים ברית המועצות זו המולדת השניה לזכותו ייאמר שלא חתם על מב…  MorRoey כמוך גם וגם EitanSegal1 חוץ מהקריאות לרצח נתניהו אין אלימות בשמאל  אתה צודק BoazGolan אל תשכח את הצעד האומנותי של תחיבת דגל הלאום בישבן זו עצה שלא תתקבל לצערי משעות אלה לקראת תחילת צום ט באב יושעו כל ההפגנות ויחודשו רק ביום אאם זה יהיה רצונם של…  pL7D1FqaohiX3fh אבל אין להפקיר את כל דברי האיוולת הנאמרים ללא מענה זהו גם ציווי יהודי מאד כידוע lewenhoff אני מצפצף עליך במלוא ריאותי EitanSegal1 לא אמרו לך שאני קיצוני ימני שופר כתב חצר מלקק זקנתי מבישה את נערותי מתפלא הכל מותר לי YuvalLeshem נדמה לי שאתה מתכוון למצביעים לא למנהיגים Gross136 eyalhayoun אצלי זה עוד אפשר אני מתרשם כי אצלך אפסו הסיכויים לשיפור בתחום זה eyalhayoun מתנצל רק עתה קיבלתי מבלפור את דף המסרים המעודכן כל טטב השופר zviashkenazi perezesty RoiYanovsky כדאי שתיזכר מדוע עלה אמדורסקי לראש הכותרות AssafYNews perezesty RoiYanovsky לצערי אסף ידידי איני יכול לתת קרדיט למי שנימת קולו המלאכותית מסגירה לגמרי את דעתו בנושא הראיון perezesty RoiYanovsky אם חוזרים ודשים בראיון יום ההולדת של רעיית אדלשטיין הרי יהא זה אך הוגן לראיין את אסף אמד…  perezesty RoiYanovsky הזמן שחלף מאז מסיבת יום ההולדת של רעיית אדלשטיין אסור שימנע ראיון עם אסף אמדורסקי הלוא כן הרי אנו הוגנים perezesty RoiYanovsky אם נושא מסיבת יום ההולדת של אשת אדלשטיין הוא עדיין רלוונטי הרי בזמן שחלף לא צריך למנוע ר…  perezesty RoiYanovsky כל עוד נושא הראיון משרת את מתנגדי נתניהו הוא רלוונטי לנצח נצחים חוזר ומזכיר לגדי אייזנקוט הרמטכל לשעבר בדרכך לפוליטיקה אל תפסח על ביתו של השר בני גנץ בסוגיית ההצטרפות לפוליטיק…  Syechimovich missshakim מציע לאייזנקוט כי בדרכו לפוליטיקה יודיע לציבור כמה מחבלים הרג במהלך שרותו כמו כן יודיע כ…  Syechimovich missshakim באמת לא יפה להיכנס לחיים הפרטיים אז איך יתנהלו הרשתות החברתיות אם לא נדע מי נפרדה ממי או מי מצא את אהבת חייו danaspec yaelsr אז אולי המצב לא כה גרוע YinonMagal קיימת תופעה נפוצה לעתים יותר מדי קרובות  נתפסים אמנים המופיעים בציבור כאומרים דברים מטופשים אסור לפ…  BBKing00711945 joel88783887 תודה לך מגיב אלמוני מילותיך מוכיחות כי רגש השינאה לא מפעם בך RQoyWPO1DVJsMAw ועוד אתה מכנה אותי חלוד ואתה חלול RQoyWPO1DVJsMAw ואתה בור קבינט צללים בישראל מונח שנגנב לא בישראל ירון אברהם מדווח כי חכים המתנגדים לנתניהו הקימו קבינט צללים זהו כינוי מוטעה גוף כזה מקורו בבריטניה שם מפלגהל…  NaamanStavy בודאי נתניהו הוא נאשם אבל האיש המכונה הנה כך נפתח היום מאמרו של צבי בראל בהארץ במלים אלההאיש המכונה ראש ממשלת ישראל אמרתי לעצמי אם זו רמת הטי…  בדקתי וחזרתי ובדקתי ולא נמצא בן משפחתינו אשר בבעלותו אולם אירועים IdanYosef קלמן אחד החשובים בעיתונאי ישראל למרות שהוא ימני היית מאמין noalandau כל מי שמביע דעה ימנית הוא שופרניכסתי תואר זה נא לא להוציא אותו מחזקתי הוא כתב חצר ועוד noalandau אולי ההגינות מחייבת להשמיע דעה שונה לא מקובל הכלל הזה RTsipris הכלבים נובחים RotemShtarkman איני מקבל משכורת מן המדינה אדוני הרמטכל האם תוכל לנמק לי מדוע איש היחידה הצהלית רינו צרור מגלי צהל משמיץ אותי תוכל לבדוק זאת הרי המסים…  haskioren doroniko מה פתאום משתפים ימני אחד בפאנל מה קרה יש להם לימנים מה לומר tamarmital מצפצף עליך קצר ולענין shoshgru הכלבים נובחים רונן צור היועץ האסטרטגי  מספר בדיחה ולפיה המחאה אינה פוליטיתחה חה חה KotikMoti הכלבים נובחים DN36843929 הכלבים נובחים Gross136 דאגתך לבריאותי כל כך נוגעת ללבי Amitna87 הדאגה שלך כל כך נוגעת ללבי עשבים שוטים זה הכל לא מבית ספרינו מה רוצים בכלל מן המפגינים האלימים למדתי את התשובההם עשבים שוטים אבל היכן היתה הערוגה שבה גדלו העשבים האלה Riklin10 הסיבה נשיא פולין המכהן דודה שהוא שמרן נבחר מחדש וגבר על המתמודד ראש עירית וורשה שהוא ליבראלי yossidavidov10 BismuthBoaz הבוז לך ארז קומרובסקי התבטאותך מרחיקה אותי מלחמך כי כל פרוסה ממנו תזכיר לי את הטעם ה…  GilTevet זה הולך טוב רוני נומהבני חותא WzJerXmorM8yFsP תודה דורית מקווה ששלומך בטוב avidareli נתניהו לדעתי יתפטר שעות אחדות לאחר שליברמן יממש את הבטחתו ויחוסל האניה realAviLevi יפה שהעניק לו את זכות הבחירה זוהי סובלנות זוהי דוגמא מופתית לליברליות טוב שהעמדת אותי על הדיוק בדבר…  ArieMenachem הכלבים נובחים hgkkuh הכלבים נובחים Adico24928794 רוצו למשטרה זקנתו מביישת את בחרותו רוצו התלוננו 75BNSXlXe7ti2QU הכלבים נובחים moshehar מציע למחמיאים שלא ימשיכו כך פן יבולע להם sagita2010 אני מבין שכל המגיבים הם פסיכיאטרים הציבור לא מטומטם כותרת של בן כספית וכאשר הוא שולח לכנסת יותר מ30 חכיםלליכוד גם אז הוא לא מטומטם כמעט שכחתי והנה אני משליםזקנתך מביישת את בחרותך ועודאחימאיר הפך להיות פטפטן זקן פעם הערכתי אותו אוהגיע…  YoelH5 אתה רק מוכיח את בורותך לגבי אירועי המהפכה הצרפתית צא ולמד רציתי להסתייג מאמירתו של אסף אמדורסקי כי מקומו של נתניהו בבית משוגעים אבל במחשבה שניה חששתי מפני תגובות כמו על ב…  LiaSpilkin GLZRadio טעית זו הפגנה לא אלימה talktomee2 arik3000 הטעות אינה שלי DavidNoam16 odedrevivi arik3000 ביבי לפחות  אינו מידה אבנים בדלתות זכוכית של בנק arik3000 הפגנהאנו רואים כיצד מפגינים מנפצים את דלתות הזכוכית של סניף בנק ליד מידי האבנים עומדים באדישות מפג…  JackBBB3 LiorTayler ולא תהיה תקווה לשקרנים odeddugma כן לדמוקרטיה כן להפגנות לא לחילול דגלינו הלאומי הזיהום בהתגלמותו מפגינים ליד מעון ראהמ מנופפים בדגלי הלאום מזוהמים בדגלים שחורים בושה בוז למזהמי שמה של המדינה עם פיסות הבד השחורות dverthaim אני רוצה להבין נוכח הגילוי של יאיר לפיד כי גדל בשכונת יד אליהו אפשר לראות בו מעתה נציג השכונות בכנסת Eveline56322116 מחבר שכנים הוא יאן תומש גרוס מחברת הספר השני היא אנה ביקונט ושם הספר הפשע וההשתקה הוצאת כרמל ofFYrEavC0FOyHS DroraGr1 בכל אופן אני שופר עיתונאי חצר ועוד כלומר בכל זאת משהו שבת שלום נניח שאתה או את אחראים על תחום ממשלתי כלשהו שיש בו מגע או סיוע לאזרח והנה באופן מפתיע מתדפק על דלת משר…  vladyisrael רק להזכירך אני לא עומד למשפט כידוע אני בסה רק שופר  וכתב חצר של נאשם עקב הגילויים על תכלית המגעים בין ברק לבין קרן ווקסנר אני סבור כי ברק מבקש לפתוח עסק מיוחד תמורת תשלום הוא ינפק ל…  tolkora אכן בגילי עוד מעט 82 אני בקבוצת סיכון ערב ערב יום יום מטיפים לנו האזרחים לשמור על ההנחיות כולם מתנבאים בלשון אחת אבל בינתיים מופר המופת של דוגמא א…  arikarielpopper אינני שופט אבל כמה שנים צריכות לעבור עד שהאזרח יפסיק לחיות בצל חקירה של שנים וענין זה איננו פוליטי אכן נדרשת עוד  חקירה בענינו של  גל הירש לא חקירה של גל הירש אלא חקירה של הפרקליטות הגוף שצריך להיות נחקר כי כמה… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כמה מילים שמיוחסות לנלסון מנדלה ורלוונטיות לימים כאלה ״שההחלטות שלכם ישקפו את התקווה שלכם ולא את הפחד״   צום מועי…  מעל 1300 מתים ומשבר אמון הוא לא יכול לקחת אחריות גם אם החיים שלנו תלויים בזה רק העובדה שאנחנו 24 שעות מכניסה לסגר מחמיר ואין תוכנית כלכלית ברורה שתפחית את חוסר הוודאות והחרדה שמיליונים חווים ע…  בלי שינוי חברתי עמוק לא נוכל להתגבר על הקורונה פופוליזם שנאה שיסוי הם כולם מקדמי הדבקה סולידריות חברתית היא התש…  מוכרח להודות שאני מופתע שהיועץ הכלכלי של נתניהו מודע לכך שיש פה אנשים עניים NimrodFlash בלי התלהמות או פוליטיקה קטנה בזמן שהקואליציה חסרת אונים ורוב האופוזיציה נסחפת אחר תיאוריות קונספירציה  יש מי שמשמיע קול… למרות הזעם ותסכול המוצדקים על הכשלון המוחלט של הממשלה אסור לוותר על ההנחיות הקורונה מסוכנת ואם הציבור לא יצליח איפ…  אף אחד לא מופתע מכך שלקרוא לאנשים מפיצי מחלות יוביל לרצח נתניהו יודע בדיוק מה הוא עושה החג הזה יהיה קשה לרבים אבל חשוב לזכור שכל ציון של שנה חדשה גם מסמלת מחזוריות שנה באה ושנה הולכת המוחלשים עוד יהיו…  NewIsraelFund Member of Knesset and head of the Joint List AyOdeh last Sunday at our National Virtual Gala  The day in which hundre… ואולי זה גם הרגע להזכיר שההחלטה על הסגר כמו כל ההחלטות שהובילו למשבר הזה התקבלו ברוב יהודי  הציבור לא מבין את ההנחיות המשטרה לא מבינה את ההחרגות שרים לא יכולים להצדיק החלטות העיקר שיתחילו לחלק קנסות לאלפי…  התחלואה שוברת שיאים והממשלה פרסמה בנתיים 14 דפים של החרגות הזויות להגבלות מבלי לפרסם מתווה פיצויים זה לא סגר זה כס…  הטקס בוושינגטון הוא לא הסכם שלום היסטורי אלא עסקת נשק היסטרית קבלה של מציאות בה פלסטינים חיים תחת כיבוש בלי עצמאות…  הכיבוש ימשיך גם מחר פלסטינים יחיו תחת משטר צבאי מתנחלים ימשיכו לגזול מהם אדמות וחיילים ימשיכו לעמוד במחסומים ולהכנס לבתים 23 ביום שבו נחגוג את השלום נוכל כולנו לנשום לרווחה מיליונים ירגישו עצמאות שנמנעה מהם במשך עשורים וכל האנשים החיים באר…  גזר הדין לרוצחי משפחת דוואבשה הוא צדק חלקי לנרצחים ואחמד הקטן ששרד את אותו הלילה הנוראי הצדק המלא יעשה בסיום הכיבו…  נראה שהממשלה עשתה הכל כדי להמנע מסגר חוץ לבנות מערך חקירות אפידמיולוגי להכשיר אנשי רפואה נוספים לתקצב עוד מיטות ב…  כל הכבוד לח״כ משה ארבל לא הפעם הראשונה שמגיע לו מילה טובה  הגעתי גם הערב כמה ימים לפני סגר הוודאות היחידה שהממשלה הכושלת הזאת מספקת לציבור היא שגם בשבוע הבא תהיה סיבה להפגין…  Mickeygitzin מאמר מעולה של איימן ששם דגש על השקר של פוליטיקת המרכז שבדיוק כמו אצל מחנה רק ביבי הם לא מוכנים להודות בכשלים של המערכת כ… Shabi72 “בעוד מחנה הימין תוקע אותנו עמוק יותר בהווה של הפרדה ושנאה ומחנה המרכז מנסה להחזיר אותנו אל עבר שבו אף פעם לא היינו אזרחים שו… AGvaryahu לכן נשקול להשתמש במרכז כדי להחליף את נתניהו אם נצטרך אבל מי שרוצה להיות שותף לבניית אלטרנטיבה חייב להיות שותף למאבק על צדק…  שי ניצן טייח את הרצח כדי להגן על אינטרסים של מערכת אכיפת החוק רהמ ניצל את הטרגדיה של המשפחה כדי לתקוף את הפרקליטו…  zaherabuelnaser ברשתות בשלושת הימים האחרונים משרד הבריאות העלה שישה סרטונים בעברית בעמוד הפייסבוק של המשרד בחודש האחרון העלו רק ש… מחדל חמור חומרים לועדת חקירה עתידית  נגמרו המילים כמה סבל ותסכול עברו על היתומים האלמנה משפחתו וחבריו של יעקוב בשנים האחרונות עכשיו רק נשאר לשער כמה…  הוא לא ראוי לדבר עם אלמנתו ומשפחתו האבלה של יעקוב גם אם יזחל את כל הדרך אליהם על ארבע  פעם אחר פעם מתגלה כמה החיים של אזרחים ערבים זולים בעיני נתניהו הטרגדיה של משפחת אבואלקיעאן היא לא יותר מספין תקשו…  התנצלות בפני אזרח ערבי אחד עכשיו נשארו לו רק עוד 1999999 התנצלויות כדי להשלים את כולנו  יעקוב כבר לא איתנו אבל משפחתו עוד כאן איתנו חיים במדינה שרצחה את יקירם פעמיים פעם בירי ופעם בהסתה והכפשה   קל לה…  הרצח של יעקוב אלקיעאן והטיוח שהובילו אלשיך ארדן ושי ניצן הם כתם שלעולם לא ימחק מהמשטרה ומהממשלה   אנחנו דורשים ב…  אתמול amitsegal חשף מייל בין הפרקליט הראשי שי ניצן ומי שעמד אז בראש מח״ש שם ניצן קובע שהתנהגותו של אלשיך היא בלת…  אירועי אום אל חיראן הובילו לגל הסתה כמעט חסר תקדים נגד האוכלוסייה הערבית ונגדנו החכים אחד אחרי השני השרים וראש המ…  הייתי כמה מאות מטרים מיעקוב בזמן שהמשטרה מנעה ממנו טיפול מציל חיים הגעתי לכפר בניסיון אחרון לעצור את ההרס ששמעתי…  איש חינוך אבא אזרח  תויג מיד על ידי האנשים החזקים במדינה כמחבל של דעא״ש הם התבססו על עיתון ישן של ישראל היום שנ…  כתוצאה מהירי של יעקוב הרכב התדרדר והרג את השוטר ארז לוי המשטרה גזרה על יעקוב גזר דין מוות במשפט שדה ולא אפשרה לטיפ…  הכל התחיל כאשר המדינה הכריעה להרוס את הכפר אום אל חיראן של שבט אבואלקיעאן כדי לבנות את הישוב היהודי חירן   ב18 לי…  אז איפה היו הח״כים הערבים בפרשת אום אל חיראן שרשור למי שהספיק לשכוח את הפרשה  GLZRadio חכ AyOdeh תוקף אצל razibarcay הימין מדבר על אום אלחיראן בגלל הפרסום אתמול אבל לא על איאד אלחלאק אנחנו רוצים צדק  בכ… בוקר טוב אני דורש שמפקד מחוז ירושלים ימונה בהקדם למפקד להב 433 כדי שהימין גם ידאג לצדק לאיאד אלחלאק נאמר זאת כך צדק ליעקוב אבו אלקיען וצדק לבנימין נתניהו יובילו לשתי תוצאות הפוכות זיכוי של הראשון והרשעה של השני IssDean מדהים לראות איך פתאום אכפת לו מהרצח והטיוח של יעקוב אבו אלקיען נראה אם הוא ושרים בליכוד יתמכו גם בפתיחת ועדת חקירה שתבחן את… בקרוב אגיש דרישה נוספת לפתוח בועדת חקירה בעניין הטיוח של רצח יעקוב אבו אלקיען בפעמים הקודמות שהעלתי את הדרישה זה ל…  מדליית זהב בזריקת אחריות למרחק בנימין נתניהו  לאורך ימים של זיגזוג ומאבקי כוח יש קבוצת מנהיגים ששמה בראש סדר העדיפויות שלה את בריאות כלל הציבור  ראשי הרשויות המ…  שוב אלימות משטרתית מופרעת כלפי מפגינים בבלפור והפעם גם מעצר שווא של אחד המפגינים שהגיעו מנצרת   שוחחתי עם עו״ד לאה…  שלא כמו אירועים אחרים הפגנות ותפילות הן זכויות יסוד וכל עוד הן נערכות בשטח פתוח עם הקפדה על עטיית מסיכות אסור להגב…  ביקרתי היום את משפחתה של שריפה אבו מועמר אשת החינוך שנרצחה ביום שבת שמעתי את הכאב העצום של משפחה שהתריעה בפני המש…  אנחנו נכנסים לסגר באשמתם ונצא ממנו בזכות האחריות שכל אחד יגלה כלפי משפחתו והציבור וכן זה כולל הפסקה מיידית של אירועים המוניים נכון להיום אזרחים ערבים מרכיבים 28 מכלל חולי הקורונה בישראל גבוה מידי ואנחנו עושים הכל כדי לצמצם את המספר  אבל ז…  הממשלה חייבת להבין שאין מצב להטיל על הציבור סגר מלא או חלקי מבלי להציג מתווה כלכלי ברור הציבור לא יקבל את זה והסגר…  בסבירות גבוהה אנחנו כעת נמצאים בפני סגר נוסף הממשלה מחפשת באופן נואש  שעיר לעזאזל בין אם זה פרוייקטור שמינו מאוחר…  בנוגע למצב בחברה הערבית בשבועות האחרונים נראה שכלל אזרחי המדינה חזרו לשגרה כמעט מלאה ורבים מתעלמים מההנחיות מספיק…  חורג ממנהגי לפרסם ציוצים קצרים ומפרסם שרשור ארוך יחסית בצומת קריטית של הגל השני   מצב התחלואה המדאיג בקרב כלל האזר…  סיפורה הטרגי של אשת החינוך המצטיינת היא סיפורה של החברה הערבית כולה אנחנו עושים ככל שביכולתנו לשפר את חיי ילדינו ו…  אין צורך בהודעות ניחומים וביקורי שרים שאינם מתכוונים לפעול בנושא אם אי פעם הייתה לנתניהו גנץ ניסנקורן וגלנט הזדמ…  היה יכול לסיים את הציוץ באמצע המשפט הראשון סמוטריץ׳ מעדיף אלף סרטונים של אלאור אזריה נקודה  יום הולדת שמח לאור בחיינו עם הנפש העדינה המחשבה המהירה והחיוך הנצחי שאם שלנו בת 8   סופ״ש נעים לכולם  asaqla אושרה סופית הצעת חוק לביטול שלילת רישיון נהיגה לחייבים בהוצאה לפועל בחצי השנה הקרובה  זוהי בשורה גדולה לאזרחים החייבים עשינו… אם ישראל היום היה עיתון אמיתי הייתי מציע להם להעסיק כמה מהתלמידים המדהימים מפקיעין כדי להעלות את הרמה עד אז נראה ל…  מקווה שהילדה תלמד מהאנושיות ואסטרטיביות של הנהג למרות הגזענות של אמא שלה  בקיצור נתניהו האריך לגנץ שליש בדיון בוועדת הפנים אחרי שניסו האלים התנפל על מפגין כמו חייל של לה פמיליה זה מה שהיה לי להגיד לניצב דורון ידיד  את…  כשהפשרה היא קפאון של ממשלה כושלת היחידים שמתפשרים הם האזרחים כל דקה שעוברת בה סגן ניצב ניסו גוואטה עדיין שוטר הוא דקה שבה הילדים שלכם פחות בטוחים צריך להפנים המפגין הצעיר שהו…  הנה מצאתי אותך  צועד עם המפגינים ככה נראים פרשים שמסתערים עלינו בלי סיבה ומאות יהודים צעירים שמתחילים להבין איך נראית אלימות משטרת…  אין דבר בעולם שיעצור את זעמה הצודק של אמא שכולה ווטפא ג׳באלי קראה להפגנה למיגור אלימות ופשיעה בטיירה רק שבוע אחרי…  ללא מילים אל מול האונס האכזרי באילת הלב עם הנערה והדם רותח על מציאות בה איבוד צלם אנוש שפל לא פותח מהדורות ומוציא…  asafzamir הגעתי הבוקר לביקור בגסר אזרקא עם ח״כ איימן עודה חכ סמי אבו שחאדה וראש המועצה מוראד עמאש בג׳סר התיירות יכולה להוות מנוע… עד שלא נראה שוטרים אלימים יושבים בכלא לצד עבריינים כמו שמגיע להם הציבור לא יאמין שמדובר ברפורמות אמיתיות אלא שינוי…  סיימתי עכשיו סיור בחוף היפייפה של גסר אזרקא עם שר התיירות אסף זמיר חכ סמי אבו שחאדה וראש המועצה מוראד עמאש   פ…  הדבר הכי מזעזע בסיפור הזה הוא שאף אחד לא מופתע מביטויים כאלה אלימים של גזענות בכל זאת אסור לעבור על זה בשתיקה הלש…  באיחור אבל חשוב בכל זאת מאחל לחכ גפני בריאות והחלמה מהירה  asaqla כרגע בדיון בוועדת החינוך על ההיערכות לפתיחת שנה״ל תשפ״א בחינוך הערבי  השר לא הגיע מנכ״ל משרד חינוך גם לא נמצא מהח״כים הגיעו… אנחנו דורשים שחרור מיידי של התיעוד ממצלמות האבטחה במחסום קלנדיה בו רואים מאבטחים יורים במבוגר בעל לקות שמיעה לפני…  kannnews יור הרשימה המשותפת AyOdeh לSyechimovich וYigalGueta על העלייה במספר הנרצחים בחברה הערבית על רקע פלילי מתייחסים אלינו… צילום מארק ניימן לעמ ruvirivlin אנחנו חייבים לשלב ידיים ולהלחם במגפת הפשיעה והנשק הבלתי חוקי בכל החזיתות נפגשתי כעת עם נציגות צעדת אמהות למען החיים המא… אחרי שבוע ארוך של הליכה הגענו לנשיא ריבלין שהקשיב לכאבן של האימהות והדרישה שלנו מהממשלה והמשטרה למגר את ארגוני הפשי…  רגע אנושי נוגע ללב  בכניסה לירושלים חיכו לנו עשרות מפגינים יהודים שהצטרפו לצעדה עד בית הנשיא ביניהם רוחמה שהגיעה…  חבל שבזמן שהרופאים הערבים נמצאים בחזית המאבק בקורונה הפרוייקטור יוצא באמירה שפוגעת בחברה שלמה   במקום אמירות אומלל…  הרבה הערכה ל⁦TehilaFriedman⁩ שהגיעה לצעוד אתנו את העליות של ירושלים  בוקר אחרון התחלנו לעלות לירושלים  AGvaryahu מאבק על החיים עצמם  תודה AyOdeh ולכל הנשים האמיצות שמסרבות לשתוק  השבוע לא יכלתי להיות עם המפגינים בבלפור בגלל צעדת האימהות אבל אני רוצה לברך את חברי הכנסת טיבי תומא סולימן וכסיף…  Ahmadtibi בצעדת האמהות השכולות למען החיים לפני אבו גוש זעקת האמהות חייבת להישמעמכאן אני ממשיך לבלפור  في مسيرة الامهات الثاكلات ام… סיימנו את היום עם הילדים של אבו גוש מחר מסיימים בבית הנשיא לילה טוב  samiaah10 משתתפי  צעדת האימהות השכולות למען החיים חוסמים את כביש 1 בשער הגיא לכיוון ירושליםכ90 אזרחים ערבים נרצחים מדי שנה מחר האימ… zehavagalon אולי חסימת הכביש תעיר את האדישים מרבצם  לנוכח הפיכת ערים ישראליות למעוזים של מצוקה ומשפחות פשע לאדישים שחושבים שזה שם ולא… JessicaMontell Hundreds of Jews and Arabs lead by mothers who lost children to gun violence have blocked Road 1 demanding a respons… תצטרכו להגיע להפגנה בבלפור קצת באיחור ירדנו לחסום את כביש 1 עם האימהות השכולות שדורשות למגר את הפשיעה ואלימות מהחב…  ממשיכים לצעוד לירושלים מאות ערבים ויהודים הגיעו לתמוך במאבק של האימהות נגד פשיעה ואלימות  יום ראשון 600 יציאה מאבו גוש  1030 הגעה לגשר המיתרים 1230 הגעה לבית הנשיא סיימנו עכשיו יום נוסף של הליכה עם האימהות ממשיכים לצעוד מחר  מוזמנים להצטרף  יום שבת 0730 יציאה מנווה שלום 10…  ShahadehAbou עכשיו צועד במחאת האמהות השכולות למען חיים בחברה הערבית  הן דורשות צדק לבניהם שנרצחו ודין לפושעים ורוצחים ולהפסיק מההתעל… On Tuesday we started marching alongside two mothers who have lost their sons to gun violence Walking from Haifa t…  drorfo הצטרפתי לצעדת האמהות נגד האלימות שהורגת והורסת את החברה הערבית מבפנים היה חם וחשוב בתקווה שהשינוי יגיע בקרוב AyOdeh hebayaz… תודה לג׳לג׳וליה על קבלת הפנים הנדיבה ממשיכים לכיוון ירושלים מלאים באנרגיה אחרי מנוחה טובה  MkSondos הצטרפתי הערב לצעדת אמהות למען חיים שצועדות השבוע להגן על האם הבן והבת הבאות בתור  אחוז פיענוח תיקי הרצח בחברה הערבית הנמוך… הסכמים עושים בין פוליטיקאים  שלום עושים בין עמים כל עוד ישראל ממשיכה לשלוט במיליוני פלסטינים בשטחים הכבושים ימשיכ…  מהרגעים המרגשים בצעדה אימהות נגד אלימות המגינות על מפגיני בלפור הגיעו לפגוש את האימהות השכולות שנאבקות לשים סוף לפ…  בוקר טוב לכולם פתחנו את היום השלישי של צעדת האימהות עד ירושלים עד שנמגר את האלימות והפשיעה מהחברה הערבית  asaqla כל הכבוד וההערכה לאימהות שהחליטו יחד עם חברי איימן עודה להרים את הכפפה ולצעוד מחיפה לירושלים צעדת מחאה נגד תופעת הפשיעה והשי… “נגד מדיניות ההתעלמות וההזנחה שרק מעמיקה את האלימות והכאב הצטרפו למחאה”  ״האמהות לקחו את השכול האישי שלהן ויצאו למאבק למען כל החברה״  AbrahamInts עכשיו ליד באקה אלגרבייה משתתפות קורס הביטחון האישי שלנו ורכז קהילות בטוחות סעיד גורבאן שהצטרפו לצעדת האמהות השכולות… בזמן שאני צועד בואדי ערה נגד הפשיעה עבריין נואם במליאת הכנסת ותוקף את בתי המשפט   מה אני אמור להסביר למשפחות שצועדות אתנו הגענו לאום אל פחאם ומשפחתו של חאלד אגבריה שנרצח לפני שבוע וחצי קיבלה את פנינו יחד עם ראש העיר סמיר מחאמיד  ״אין כוח בעולם שיעצור מאבק צודק של אימהות כואבות״ כל מילה  התחלנו את היום השני אום שוקאת ואום חליל  IssDean דברים שקורים כשעובדים עם AyOdeh  תודה יאיר  יום שישי 148 כפר קאסם כפר ברא ג’לג’וליה   יום שבת 158 לוד רמלה אבו ג’וש   יום ראשון 168 אבו ג’וש עד ירושלים מסלול צעדת האימהות לירושלים  יום שלישי 118 יוצאים משכונת חליסה חיפה עד הזורע   יום רביעי 128 צומת מגידו דרך…  דיברנו ועשינו כל כך הרבה למען שותפות בשנה האחרונה עכשיו החברה הערבית צריכה אתכם לצידה   אני מבקש שתפנו דקה לראות…  תודה גדולה למוחמד הנכד של אום חליל שצעד כל הדרך כדי לתמוך בסבתא ולכבד את זכרו של דודו חליל  JessicaMontell The Mothers March is on its way For the next five days we will march with the women who have payed the heaviest pri… JaljuliMaisam הצטרפתי הבוקר לאמהות השכולות שהתחילו היום לצעוד מחיפה לירושלים למען החיים החיים של הילדות והילדים שלנו גאה באמהות האמי… ReutMor תחשבו איך מתנהלים רוב הפוליטיקאים במדינה הזאת במה הם עסוקים ולאינטרסים של מי הם דואגים  ואז תחשבו על זה שיו״ר הרשימה המשותפת… schatzah במקום ההתקוטטות הפוליטית שקוברת אותנו במשבר עדיף היה שכל מפלגה הייתה שולחת נציגה לצעדה החשובה הזו תקשיבו לכאב של אום חליל גיבורה  yoavetiel אם הערבייה שבנה נרצח פתחה בצעדה מחיפה לים  וואלה חדשות ⁦AyOdeh⁩   samiaah10 אמהות שאיבדו את יקירהם באירוע רצח כתוצאה מהאלימות והפשיעה הגואה בחברה הערבית החלו לצעוד הבוקר מחיפה לירושלים תחת הכותרת אמ… ActArab צעדת אמהות למען החיים יצאה לדרך מחיפה לירושלים בהשתתפות יו״ר הרשימה המשותפת  AyOdeh  kannnews משפחות שכולות מפשיעה ואלימות החלו לצעוד מחיפה לירושלים בדרישה למגר את אירגוני הפשיעה מהחברה הערבית הצעדה תימשך חמישה ימים ו… צעדת האימהות יוצאת לדרך   במשך חמישה ימים נצעד יחד עם הנשים ששילמו את המחיר הכבד מכל כדי למנוע את הקורבנות הבאים…  אין מילים שיתארו את ההערכה שיש לי לאימהות השכולות שמובילות את הצעדה נגד פשיעה ואלימות בחברה הערבית   נצא לדרך מחר…  בעיצומו של המשבר החברתיכלכלי החמור ביותר שחווינו הממשלה לא תתכנס כי נתניהו עסוק מידי במילוט מגזר דין ככה היה נראה…  מאחל הצלחה לכל מי שמחוץ לבלפור ואבטלה לכל מי שבפנים לפטר את המפטרים  מספר ההרוגים ופצועים בביירות ממשיך לטפס וברור שאנחנו עוד לא מבינים את עומק האסון הכבד דבר אחד ברור אנחנו חייבים ל…  Tonight our heart is with Beirut as the magnitude of the horrible tragedy unfolds Condolences to the families of t…  لبيروت وجهان وجه لحيفا ونحن صديقان سجناً ومنفى سميح القاسم  Beirut has two faces one for Haifa  And we are frie…  AidaTuma נתניהו משקשק מהמחאה אז הוא בורח לאזור הנוחות שלו  הסתה גזענית כלפי הנציגים של הציבור הערבי שהיא הסתה כלפי הציבור הערבי עצמ… יש מיליון מובטלים וכשלון מוחלט במניעת התפרצות של המגפה כרגיל הדבר היחיד שיש לנתניהו להציע זה שנאת ערבים זה כבר לא…  אסיל מלמד אותי לצוף עיד סעיד ממשפחת עודה  לקחתי הפסקה של שעה מחגיגות חג הקורבן כדי להפגין בבלפור להעיף את נתניהו ואת הדרך הגזענית ומושחתת שהוא מייצג זה הצעד…  ״חג שמח ואל תשכחו  מי שמצביע מחבל״  يا أطيب الناس وأعزّ الناس  كل عام وأنتم جميعًا وعوائلكم بألف خير بمناسبة عيد الأضحى المبارك  العيد فرح وراحة بال و…  ממשיך את התפיסה המוטעית מיסודה שבתי ספר הם בסך הכל בייביסיטר לילדים בזמן שההורים בעבודה   אני לא מחסידיו של צ׳רציל…  ראיתי את הלהט בעיניים של המפגינים לא ידכאו אותם באגרופים וגם לא בסכינים לא באלות ולא במכת״זיות   התשובה לאלימות…  מברך על המינויו של עו״ד מוחמד נעאמנה לוועדה לבחירת שופטים מינוי ראוי של אדם שייצג את האינטרס המשותף של כלל האזרחים…  שום מכת״זית לא תמנע מערבים ויהודים להפגין יחד למען בריאותם ופרנסתם של כל האזרחים במדינה הגיע הזמן ללכת  תפנו דקה וחצי להקשיב למונה חליל אם שאיבדה את בנה היחיד חליל חליל בגלל מגיפת הפשיעה ואלימות המשתוללות בחברה הערבית…  בתחנת המשטרה מרחב מוריה להגיד תודה לעצורים בשם כולנו עכשיו הם בידיים המסורות של עו״ד ⁦gabylasky⁩  הגענו להפגנה בבלפור עם פעילים ערבים ויהודים שדורשים יחד שלום שוויון וצדק חברתי  תתפטר  דברים שאמרתי אתמול לyairlapid לפני ההצבעה על חוק ההסמכה  ההספדים של ״הדמוקרטיה הישראלית״ מזכירים את הסנה הבוער בסיפור של משה בער באש ואיננו נאכל   תמיד יהיה עוד חוק נורא…  כל הכבוד וברכות לעובדות הסוציאליות שעמדו על הדרישות שלהן ונאבקו לזכויות שלהן ההצלחה שלהן מוכיחה שמאבק עיקש הכרחי כ…  באמת גאים בך  zaherabuelnaser נודע לי עכשיו ש IssDean יועץ התקשורת שלנו בצוות של AyOdeh בין העצורים הערב בירושלים וואלה גאים בך  gontarzn  בהפגנה פוליטית  תומך בכל המסעדנים ובעלי עסקים הערבים שיצאו לרחובות בחיפה הערב אצעד עם המפגינים בירושלים אסור לפספס את ההזדמנות לא…  asaqla בניגוד לממשלה שמתנהלת תוך פאניקה ובלבול בוועדת הקורונה מתייחסים לנתונים באופן מקצועי ומנהלים שיח במטרה למצוא את האיזון הנכון ב… הבוקר כולנו צריכים להחליט אם אנחנו בצד של האחיות והעובדות הסוציאליות או בצד של הממשלה  זה לא רק מאבק למען תנאי העס…  המפגינים פרצו את הגדרות והשתלטו על המעון   בזמן שאוחנה מכנה אלפי מפגינים אמיצים נגד הממשלה אנרכיסטים הוא והמשטרה ממשיכים להתעלם מהאנרכיה האמיתית שארגוני הפשיע…  ג׳ון לואיס עבר מהעולם אדם ענק והשראה עצומה ממובילי המאבק לשוויון בארה״ב המורשת של אי ציות אזרחי למען צדק רלוונטי…  AidaTuma הוצאנו עכשיו מכתב חתום על ידי 32 חברי כנסת בדרישה משר האוצר לקבל את הדרישות הצודקות של העו״סיות השובתות  תקצוב תוכנית המוגנו… מליון מובטלים דורשים סיוע מיידי ליעקב חגואל  מסתבר שעל כל 5000 מפגינים בבלפור כל אזרח יקבל 750 ש״ח בואו נגיע למיליון יש 10 מצלמות במסלול האחרון שאיאד אל חלאק הלך בו ואז רץ בו ואז נרצח בו המשטרה מח״ש משקרים שוב  מכל הדברים שהיו לי להגיד להפגנת העובדות הסוציאליות יש דבר אחד שמקדים את כולם תודה  asaqla הגענו להפגנת העו״סים כדי להביע את תמיכתנו  תמיכתנו היא במאבק כולו למען תנאי עבודה ושכר טובים יותר ולמען החזרת היוקרה והמעמד ל… הח״כים המסורים שלנו תומכים בשביתת העובדות הסוציאליות הן אלה שיעשו את מה שהממשלה מסרבת לטפל באזרחים בזמן משבר חברת…  שרידים של עמוד שדרה התגלו בקרב חברת כנסת מהליכוד והיא מיד נשלחה לבידוד בהתאם להנחיות ראש הממשלה פירוק המאהל בבלפור שוב מוכיח שהזכות היחידה שחשובה לנתניהו היא הזכות לשמור על שתיקה asaqla בוועדת הקורונה נלחמים בצווים הגורפים לסגירה של מסעדות ברים מכוני כושר בריכות ואולמות גם חברי הקואליציה יודעים לבקר יפה מאו… אין דבר יותר פוליטי ממחירי הלחם ברוכים הבאים לאופוזיציה  עוד מסמר בארון קבורה של המשק אני מדבר עם בעלי עסקים שאומרים לי שכבר עברו את נקודת האל חזור הם אובדי עצות זועמים…  ההצעה המסוכנת של סמוטריץ׳ נפלה בזכות הקולות של הרשימה המשותפת שוב מתברר שכדי להתנגד לאג’נדה של נתניהו צריך אותנו להרבה יותר מהצבעה אחת אם הקורונה הייתה לובשת גלימת שופט נתניהו היה מחסל אותה עוד לפני הגל הראשון לקרוא להם מנותקים עושה להם טובה הם יודעים מה קורה מכירים את המספרים ושמעו את הקולות פשוט לא אכפת להם אתם משעממים אותו אין טעם לדרוש מהממשלה הזאת לעזור לאזרח הקטן הם רק יודעים לקחת כדי שאנחנו נקום מהמשבר הזה הממשלה צריכה ליפול  הבוקר בדיון על העובדות הסוציאליות בועדת העבודה והרווחה   לא הגיוני שעו״סית אחת מטפלת ב300 משפחות או 500 קשישים…  אחרי שפוגשים את המשפחה של מיכאל בן זיקרי מתבהר מאיפה הגיעו תעצומות הנפש שהחזיק כדי להציל משפחה שלמה מטביעה   נדאג…  ביום כזה יש רק 36 אנשים במדינה שראוי לפטר בלי פיצויים להסתה של נתניהו וגופי תקשורת ימניים יש שתי תוצאות הרסניות הראשונה והמוכרת היא האלימות שהיא יוצרת השניה היא הסטה ש…  המשבר הרפואי מוביל למשבר כלכלי שמוביל בתורו למשבר חברתי   מי שיוציא אותנו מזה הן גם העובדות הסוציאליות שכבר שנים ע…  ילדה בת חמש בורחת מהבית בזמן שאביה רוצח את אמה אין מילים שיתארו את האימה והכאב  רק השבוע הממשלה קיצצה 80 מהתקציב…  הזכרון שלך ראוי להיות מופת לכולנו תודה לך גיבור  אפשר לחשוב שבאתי עם מזוודות של מזומנים   יש עובדה אחת שאי אפשר להתחמק ממנה פיוס בהנהגה הפלסטינית הוא צעד הכרחי למ…  akivanovick מצטער מאוד לשמוע אין לי ספק שעיתונאי מוכשר יהיה נכס למקום הבא שיעסיק אותך יש עוד חדשות טובות אחרי שנים כיו״ר הוועדה לקידום מעמד האישה AidaTuma הצליחה להעביר היום את החוק לאיזוק אלקטרוני ש…  הוועדה לזכויות הילד אותה הקימה הענקית תמר גוז׳נסקי נמצאת בידיים טובות בהצלחה DrJabareen  האדמות החקלאיות בעמק אלבטוף לא רק מפרנסות אלפי אנשים באזור הם גם נכס תרבותי והיסטורי שלנו במשך עשרות שנים העמק סב…  נצחון גדול בשביל סכנין שעלו היום ליגה וגאווה עצומה בשביל כולנו מברוק לקבוצה אתם השראה לאלפי הצעירים שצפו בכם  מוותר מראש על האודי  אבל איך הוא יסגור עכשיו את החודש  נתניהו חשב שאם יעשה מסיבת סיום מתוקשרת לקורונה ויקבור את הראש בתוכנית סיפוח מסוכנת המגפה ומיליון מובטלים פשוט יעלמו…  התנגדו לדמי אבטלה לעצמאיים ואישרו איכוני שב״כ מדהים איך הממשלה המנותקת בהיסטוריה היא דווקא שעוקבת אחרינו יותר מאי פעם אחרי שגנץ הפגין אפס ידע במשא ומתן פוליטי התפנה להראות אפס הבנה במשא ומתן מדיני   סיפוח של הגדה יצור מציאות של מדינ…  מתי המשטרה חוקרת מקרי רצח בחליסה בחיפה   נאסר נעימה 14805  לא פוענח נור נעימה 29706  לא פוענח זיאד שינאווי…  RealChadEchad בשמחה תשלח פרטים בהודעה כאן בטוויטר אֶתבְּנֵיכֶם יִקָּח וְשָׂם לוֹ בְּמֶרְכַּבְתּוֹ וּבְפָרָשָׁיו וְרָצוּ לִפְנֵי מֶרְכַּבְתּוֹ וְלָשׂוּם לוֹ שָׂ… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לחלוטין הכשל מתחיל מלמעלה  מגדרה נסעתי הערב לתל אביב באישור ומשם לבית שלי באדם  ומה המצב הכבישים מלאים בלי חסימות ובלי בידוקים  לא סגר…  שנה טובה לכולם כמדי שנה נסעתי בערב יום כיפור לגדרה בהיתר כבעל תפילה הכבישים היו ריקים בחלקם חסומים ועברתי תש…  שנים רבות אני עובר לפני התיבה בימים נוראים מעולם לא שיערתי שהמילים ׳מי במגיפה׳ יהפכו להיות מציאותיות כל כך אך ״המ…  RashedSaeed Unique simonarann אל נורא עלילה  تسجيل نادر للمغنية المصرية ليلىمراد اليهودية الأصل ليليان زكي مراد موردخاي التي ولدت لعائلة يهودية وكان… rothdanielle  natitucker רק אל תתפללו במקומות סגורים בלי אוורור קבוצה בפתח תקווה התפללה בבית כנסת שממוקם במקלט לא עזרו המסכות כולם חיוביים Vitaliko arik3000 IsraelHayomHeb הפצתי מיד כי זו כתבה מצויינת גמר חתימה טובה adindan IsraelHayomHeb תגובה ברורה ועצובה יום כיפורים שעבר איננו כיום כיפורים זה IsraelHayomHeb  נתניהו ויתר על הניסיון לאשר בממשלה את התקנות לשעת חירום לצמצם את ההפגנות במקום זאת הממשלה תשוב ותנסה ביום ג׳ לתקן…  ערב יום הכיפורים תשפא ערב יום הכיפורים הכי נורא שאני מסוגל לזכור YotYotam ועכשיו אחרי שכתבתי ורבתי והתווכחתי על הסיפור הזה יותר מדי רוצה להגיד לאנשים שאני ממש אוהב כמו ריקלין קלמן ארז כנרת וכולם… EmiRudnik ביממה האחרונה נוספו  8178 מאומתים חדשים                                      מספר החולים קשה        708 מספר המונשמים… בשירת האזינו שנקרא השבת מתריע משה רבנו שאחרי השגשוג בארץ ישראל תבוא הקריסה וַיִּשְׁמַן יְשֻׁרוּן ישראל וַ…  yaronavraham אגב אני בבחירות 96 הייתי פעיל שטח אצל נתניהו זה אומר שאני ביביסט l1oro1l ariyederi חשבתי כמוך  לנוכח המצב אני מוותר על המשוואה אדוני ראה״מ השר ariyederi יאללה עזבו אותם ש״יפגינו״ שידביקו שיזרעו אנרכיה במרחביהם שאר המדינה קלטה את המסר ע…  yiftahc משרד החוץ   היום בשעה 1400 כמו לפני 47 שנים הייתי מפעיל את כל צופרי החירום במדינה  אולי אזעקת החירום תגרום למנהיגים שלנו לה…  YoavYoavkrak סאטירה משובחת סליחה ראש הממשלה  בהצלחה עם העם הבא kann     אין גל שני בעולם  eranetzion מגיפה משתוללת ישראל במצב חירום לאומי רחובות ישראל ריקים ורק חבריך ואתה מרשים לעצמם להתכנס ועוד מטיפים…  נתניהו אולי לא לקח אחריות אבל מי שנמצאים פה הם חסרי אחריות  ראש הממשלה לא התייחס לדבר העיקרי שעם ישראל שואל את עצמו הערב  איך ולמה הגענו למצב חירום לאומי איפה הוא היה בחצי ה…  notkin1985 כשלון לכל אורך הגזרה קואליציית ענק והם על הקשקש עוד קצת והם מפסידים לגנץ היה נאום מצוין הוא מתח ביקורת אך לא במידה שמעוררת התנגדות התרומם לגודל הרגע ואף התגבר בקור רוח על ההפרעות…  AyeletShaked תשמעו סיפור חבר של חבר הייטיקיסט שרצה לעשות מעשה לקח 100 אלף שקל במזומן נסע לעיר בצפון הארץ נכנס לשש מכולות ושאל מ… Riklin10 DaphnaLiel זה אינטרס של נתניהו או של מדינת ישראל בחיי מה נסגר אתכם IsraelHayomHeb מנכל IsraelMOH מה פוליטי פה מישהו מכיר בעולם דרך לבלום התפרצות של coronavirus שלא על ידי מניעת התקהלויות והדבקה… NGOmonitor ע״פ הדוח החדש של NGOmonitor ממשלות אירופה מעניקות לארגון מאות אלפי דולרים במטרה לקדם את התביעה נגד ישראל בהאג שוויץ לדוג׳… כן גם מהמשבר הלאומי הזה נשתקם בע״ה אך משום מה זה השיר שרץ לי בראש כל היום   ״ארצי מולדתי את הולכת פייפן״ GeraldNGOM European governments fund Palestinian NGOs to file lawsuits against Israel in the IntlCrimCourt New research from NGOMon… ArielKallner יחסינו עם מדינות שמנהלות נגדנו לוחמה משפטית לא יכולים להישאר ללא תגובה אתמול פירסם arik3000 ב IsraelHayomHeb שמדינות… אין ספק שניתן היה וצריך היה למנוע את הרגע הזה של סגר שני וקיצוני היו מי שהתריעו בשלבים הרבה יותר מוקדמים שטייניץ…  זה הזמן לסמן בדיסלייק כנסו כנסו  yairlapid אולי כדאי שכבודו יתחיל מדוגמה אישית ובטרם יטיף לאחרים למשל לא יישב במעגל צפוף עם אחרים הפגנת האומנים…  ElmasDean שגרירת ארהב לאום USAmbUN קלי קראפט לרשת אלערבייה מדינה ערבית נוספת תחתום על הסכם שלום עם ישראל מחר או מחרתיים … סגר הרמטי  זה הצעד עליו יוחלט סוגרים הכל חוץ מחנויות מזון בתי מרקחת ומפעלים חיוניים עוד פרטים באתר…  Riklin10 omerdos arutz20 netanyahu כל כך קרובים ובלי מסכות כזכור מהעבר הממשלה משנה את החלטות קבינט הקורונה ואז חולפים עוד יום יומיים עד שהמשפטנים גומרים לנסח וכו  על כן י…  IsraelHayomHeb הממשלה תתכנס הלילה ב2230 היכונו לסגר כללי ראש הממשלה בדיוני הקורונה   אנחנו הולכים לסגר מלא בלאו הכי בגלל התחלואה לכן עדיף עכשיו בחגים במחיר כלכלי נמוך ולא…  6700 נדבקים חדשים 634 חולים קשה אבל איציק שמולי אומר עכשיו בגלצ שנתניהו רוצה לסגור את כל המדינה רק כדי להפסיק את ההפגנות  פחד shimonyaish זה היה קצר המטוס של ישראייר בדרך חזרה מבחריין אחרי ביקור קצר של כמה שעות ברגעים אלו שוב מעל סעודיה IsraelHayomHeb  ISR… yosefack אבא של עמיתה מהעבודה נפטר מקורונה   בן 70 ללא מחלות רקע רזה עושה כושר  אוכל בריא   נדבק לפני חודשיים היום נפטר   מתי אנ… arikarielpopper אוקי אבל עכשיו יש מלחמה מבין מלחמה arikarielpopper סבבה תתעקשו בטוחה הדרך לתהום זאת ועוד הרבנים הראשיים השר אדלשטייין אדם דתי רבני צוהר ורבנים אחרים מביעים נכונות לסגור את בתי הכנסת ביום הכ…  עדותו של יעקב שהחלים מקורונה ועדיין מתמודד • צפו  ״התסמינים הם נוראיים שעות ללא שינה כאבי פרקים  עשיתי ט…  horowitzb YoazHendel1 IsraelHayomHeb מסכים איתך בתחנות רבות בעולם לא מורידים גם בזמן השידור אגב רשתות גדולות…  בלשכת ראש הממשלה נבחנות מספר אפשרויות באשר למהלך החירום שיש לנקוט אחת האפשרויות היא הכרזה על מצב חירום אך יתכנו…  kann IsraelHayomHeb נכון הייתם ראשונים וכל הכבוד על כך עדכון ראש הממשלה בתום התייעצות שרים אנו נמצאים בשעת חירום אבקש להעביר החלטה על סגר כללי נרחב והידוק משמעותי במג…  yairmarom IsraelHayomHeb ולא רק הם במקומות רבים בעולם כתבים משדרים עם מסכות כאשר הם במגע עם אחרים דעתי מלפני שלושה חודשים לא השתנתה כבר אז היה נדרש סגר עכשיו עם 6000 נדבקים ביממה 9 בדיקות חיוביות ובדרך ל70…  moxypen500 אבא שלי נפטר כשפרש לגמלאות תיכנן לטרוף את העולם באה הקורונה וטרפה אותו אבא שלי לא הלך להפגנות לא הלך לים לא הלך למסעדו… שר התקשורת יועז הנדל קורא לערוצי הטלוויזיה לשמש דוגמא אישית ולשבת עם מסכות באולפנים כל עוד לא מדברים מי שמדבר יו…  MyIsraelorgil יוצאים לדרך gtgt מתגייסים למען איתן זאב ומסייעים לו היום במימון המשפט שמחכה לו תרמו בלינק gtgt  כי א… LTCPeterLerner yaakovkatz לא מסיר אחריות מהממשלה אפילו בגרם  אבל אם אנשים שיודעים ומבינים מה קורה שקיבלו קנסות…  תוצאות הסיבוב הקצר מהבוקר בבית הכנסת במכולת באוטובוס יש אנשים ללא מסכות מעטים אבל יש וחלקם ממשיכים בכך גם אח…  sariazoulay רק הציבור יוכל לעצור את המגיפה זה בידיו IsraelHayomHeb ממשלות באירופה מממנות ביודעין ובמכוון עתירות נגד ישראל לבית הדין בהאג • בין המדינות שבדיה דנמרק והולנד  arik3000  h… זה רק בידיים שלנו  tzvitessler עמוס גלזר זל נהג דן היקר שהיה כולו חסד ונתינה  בזכות הנסיעות איתו הפכנו לסוג של משפחה כל חייו התגעגע לבנו תמיר זל שנ… גנץ פגש הערב את קושנר בבית הלבן לרגל האירוע או לפחות לכבוד התמונה החתן המפורסם עטה מסיכה  צעד בלתי שגרתי בהחלט…  קושנר עטה מסיכה לכבוד גנץ משעשע אה כן והם גם דיברו על ״דרכים לשמירה על היציבות באזור וביטחון ישראל״  אגב את הצעת הפשרה למתווה אחיד להפגנות ותפילות העלה השר גבי אשכנזי ונתניהו אימץ אותה  כמו כן וממש בקטנה כי מה…  דרעי בדיון אצלי מדינה היהודית קודמת לדמוקרטית ממשלה שתסגור בתי כנסת ביום כיפור אבל תאפשר הפגנות אינה ממשלה יהו…  קבינט הקורונה הטיל על משרדי הבריאות בטחון הפנים והמשפטים להכין לישיבה מחר מתווה שיאפשר תפילות בבתי הכנסת ביום כיפו…  YotYotam RoyIddan elchangr ILpolice hakolhayehudi פשוט המשטרה הייתה עסוקה בחקירת מתיישבים שירו באוויר אחרי ש…  IsraelHayomHeb רהמ netanyahu ויורש העצר הבחרייני שוחחו לראשונה מאז נחתם הסכם השלום בין המדינות • השניים בחנו שיתופי פעולה אפשריים בי… AmbMeron UN SecretaryGeneral in his centerpiece address to 75th session of General Assembly said he saw several reasons to be hopef… carmeldangor למרבה הצער אין פה שום דבר חריג במקרים רבים מדי המשטרה בפרט ביוש חוקרת את המותקפים במקום את התוק…  באמת שאין יותר אבסורד מזה  הממשלה הענקית שלנו על 32 שריה ושני אגפיה לא יכולה לקבוע את היקפי ההפגנות כי כוווולה ב…  IdoDaniel julienbahloul כנל netaelbandel rothmar אי הקשבה ליועמ״ש  חוץ מאשר התערבות של בג״ץ שיזהר מאוד לא לעקוף מימין את מנדלבליט  הייתה גו…  OferHadad התנגדות להשמעת חוות דעת של מומחה שעשוי לערער עמדתך היא מופע של אטימות משונה שגויה במהות אבל לא פחות מזה בנראות תקשיב ותגי… judash0 הודעת כחול לבן  מתנגדים נחרצות לניסיונו הפסול של השר אוחנה לכפות השתתפות יועץ משפטי חיצוני בקבינט הקורונה ולהפיץ חוות דעת חל… IsraelHayomHeb ההפגנות יימשכו  לישיבת קבינט הקורונה הוזמן דר אביעד בקשי שייתן חוות דעת משפטית אחרת מזו של היועמש אביחי מנדלבליט לס… alonbeer1 אתה תישאר חבר כל כך טוב שלי למרות שאני כל כך לא מסכים איתך arnonsegal1 משטרת הר הבית לא מחמיצה הזדמנות להתנכל ליהודים העולים להר כרגע אוסרים על מדריכי הקרן למורשת הר הבית לעלות להר כי לא מדוב… MenachemIlan הכוונה לנסיעה כולה הלוך וחזור ואגב הצוות שלכם היה באמת יוצא מן הכלל גם שירות נעים ואדיב מאוד וגם…  kukulush משרד הבריאות קובע את ההנחיות LahavHarkov NTarnopolsky TopazLuk talschneider noalandau BarakRavid But then those of us who kept strictly…  למה בעצם לתת את השירות הזה רק לנוסעי טיסת ראהמ אם עושים 50000 בדיקות ביום ובקרוב נגיע ל100000 אפשר לבדוק את…  kfiron משרד הבריאות אישר לכל נוסעי הטיסה ואני בתוכם  לסיים את הבידוד אלה ההוראות לפחות יש סוף טוב כל נוסעי טיסת ראה״מ לוושינגטון נמצאו שליליים לקורונה שר המשפטים ובכירי משרדו בישיבת הממשלה מסכימים להפחתת שכר השופטים IsraelHayomHeb UNWatch Seventy nongovernmental organizations today urged the UNs highest human rights body and Member States to act immediately t… איטליה זה כאן   אני הקטן גם לא סבור שנתניהו צריך להסכים לעסקת ׳פרישה תמורת סגירה׳  מה כן ואם בכלל מהלך רחב ועמוק שיסדיר מחדש ומה…  אני מחבב ומעריך את ReuvenAzar  לאירוע הזה אין שום הצדקה במיוחד שמדובר בפעם השניה צריכה להיות פה הסקת מסקנות לכ…  YairGolan1 אף אחד לא יודע פרט לכל העולם  כתוב בגוגל abraham accord text ותראה ישועות עכשיו כשבתי החולים שלנו מתחילים להיראות כמו בלומברדיה כל מיני חכמים שהטיפו נגד הגבלות הצביעו נגד סגר או עוררו חו…  GadiTaub1 מה מדובר אשמח להסבר הרבה תשובות מרגיזות ׳לא אחקור הדלפות׳ ומתחמקות ׳נונונו לצוות קו כחול׳ נתן מנדלבליט ב״תדריך״ ליהודה יפרח…  הדבר הכי חשוב שאתם צריכים לקרוא ולזכור עד תום המגפה  MatanKahana הסססמממאאאלללניים האלה  שכחו מה זה לאהוב את המדינה  חברים  צום גדליה היום  תזכורת לאן זה עלול להגיע  IsraelHayomHeb ערך הוויקיפדיה של מנכל משרד החקלאות שונה ונמחקה ממנו פסקה המאזכרת שורת פרסומים בישראל היום על ניגודי עניינים לכאורה… אחרי שנתיים וחצי של פעילות אינטנסיבית שגריר ישראל בגוואטמלה MattanyaCohen יכול להתהדר בהישג שספק אם יישבר אי פעם…  ראש הממשלה נתניהו ונשיא הונדורס חואן אורלנדו הרננדז  החליטו סופית ורשמית כי עד סוף שנת 2020 הונדורס תעביר את שגרירו…  איש יקר ומיוחד שהעמיד שבט מפואר בישראל ודורות של תלמידים נלקח יהי זכרו ברוך  IsraelintheGulf ofirgendelman omaralbusaidy Thani75 HammadiAD uae4k YassiSS عام جديد سعيد لكم جميعاً وشكراً جزيلاً لكم ״וְהָיָה בַּיּוֹם הַהוּא יִתָּקַע בְּשׁוֹפָר גָּדוֹל וּבָאוּ הָאֹבְדִים בְּאֶרֶץ אַשּׁוּר וְהַנִּדָּחִים בְּאֶרֶץ…  כדאי לשים לב להערכת המצב הזו IsraelHayomHeb   YonatanJaku GadiTaub1 יש טעות אחת בכותרת המילה ״אם״ מיותרת ממליץ לצפות בסרטון המרשים הזה עד סופו הקשר עם האמירויות יחייב אותנו לסטנדרט מקצועי גבוה לנורמות מוסריות אוניברסלי…  YishaiFleisher The AbrahamAccords are not just an international phenomenon  they are also happening on the ground in the CityOfAbra… ספר תהילים עתיק ומרהיב  מתימן הצגתו שם בתצוגת קבע הבחירה להראותו לעיתונאים ישראליים ותיעוד הדבר ע״י צלם של המוזיא…  תש״פ הייתה שנה רוויית שיאים היא התחילה בהצהרת פומפיאו ׳ההתנחלויות חוקיות׳ המשיכה בתכנית מדינית דימיונית ׳איש ל…  As was tweeted earlier by IsraelHayomEng a mistake occurred and nothing more than that To completely cut off conspiracies which friends from the Arab world are telling me about here is the tape of…  JNSorg USAmbIsrael on AbrahamAccords When the dust settles IsraeliArab conflict will be over Palestinians need to understan… AymanHunaiti IsraelHayomEng  סרטון מקסים שמוציאה תנועת ש״ס הקורא לשמור כל ההנחיות בזמן התפילות  אין על הפיוטים ואין על הפייטנים האלה  הסרטון ה…  eitanzeliger חכ יפעת שאשא ביטון לפני שבוע  לא יהיו 600 חולים קשים על סמך מה אתה אומר את הנתונים המציאות 594 חולים קשים עוד לפני… הבהרה בראיון שפורסם הבוקר עם השגריר פרידמן נפלה טעות השגריר הדגיש שהממשל לא עוסק באפשרות למנות את מוחמד דחלאן כ…  ספרנית בספריה הלאומית בירושלים תושבת מזרח העיר ששיבחה מחבלים וטרור ברשתות החברתיות נתפסה כמרגלת איראנית כך חשף…  MoranT555 rotemdavid אולי כדאי שנכיר אותם אחרי השלום עם סעודיה ייגמרו החדשות המדיניות  פחדים של כתב מדיני NGOmonitor אספנו בשבילכםן את כל ההצהרות של ״ארגוני השלום״נגד הסכם השלום    חברת התעופה של האמירויות משיקה קו של מזון כשר לטיסותיה  וזה יהיה האתגר האמיתי בפני בעליה החדשים והחרדים של אל על  דברי ג’ון קרי שיקפו לא רק את התפיסה של אובמה והמערב אלא גם של מרבית ״המערכות החושבות״ בישראל רמטכ״לים אמ״ן משרד…  בצד ההתלהבות הגדולה גם שלי ממה שנראה כשלום אמיתי וכן צריך לומר שיחלפו עשורים רבים עד שנוכל להשתכנע סופית שהערבים…  שגריר ארה״ב לישראל דיוויד פרידמןUSAmbIsrael לIsraelHayomHeb אמשבמטוס ראה״מ  ״זו תחילת הסוף של הסכסוך הישראלי ער…  שימו לב לדברים המדהימים האלה של האנליסט הבחרייני ״מקווים שישראל תגמול לטרוריסטים של חמאס״ ויש לו מאות אלפי עוקבים…  הגדולה של טראמפ ואנשיו היא הנכונות לאמץ את תפיסת נתניהו בנוגע למזה״ת ולא את ה Common Wisdom שביטא קרי ושמרבית ״האנ…  כבאית רשות שדות התעופה מתיזה מים על מטוס ראה״מ במחווה לרגל הנסיעה ההיסטורית צילום שלי מתוך המטוס וידאו…  כבאית רשות שדות התעופה מתיזה מים על מטוס ראה״מ במחווה לרגל הנסיעה ההיסטורית צילום שלי מתוך המטוס IsraelHayomHeb   בבית BenCaspit GLZRadio הכוונה בידוד מדיני חח matanamirr GilTevet GLZRadio לא קבעתי עליהם דיברתי על העיתונאים daridor כדאי להיצמד לעובדות את הכללים קבע משרד הבריאות העיתונאים שמרו עליהם כולל בזמן הטקס בו לא יכולנו להתערבב בקהל חבל סתם לומר דברים GilTevet GLZRadio שאל אותם לכבוד GLZRadio ו ד״ר שרון אלרועי העיתונאים שנילוו למשלחת לוושינגטון שמרו על הכללים בנוגע לקורונה ולכן אין סיבה שנ…  ״בשעות האחרונות קיים ראש הממשלה בנימין נתניהו התייעצות ביטחונית עם שר הביטחון ראש המלל והמזכיר הצבאי לרהמ ראש ה…  לפחות מאז 2014  על סמך שיחות עם שלל מקורות אני כותב שהפלסטינים צנחו לתהום בקהילה  הבינ״ל כולל הערבית לצערי…  ואו Wow AbrahamAccords PeaceInTheMiddleEast  IZI41 IsraelHayomHeb You took this photo  מעגלי ההשפעה אל מול ארבעת מפגיני אנטי ביבי שהבנתי שמסוקרים בהרחבה בארץ יש גם שלושה מפגיני ימין תומכי טרמאפ וביבי  שגריר ישראל באו״ם גלעד ארדן אנחנו בפני שינוי היסטורי IsraelHayomHeb  תפילת מנחה המונית בסוף הטקס ללמדכם מהם מעכלי ההשפעה החדשים IsraelHayomHeb  חותמים AbrahamAccords IsraelHayomHeb  שר החוץ של האמירויות ״תודה לך ראש הממשלה שעצרת את הסיפוח״ ראוי לשים לב שהוא לא השתמש במילה ׳ביטלת׳ או מונח דומה לתאר את המהלך  אשרר בחי  בעוד זמן קצר כניסת נתניהו לבית הלבן IsraelHayomHeb תיקוןעבדאלה בן חליפה הוא שר החוץ הנוכחי של בחריין הצטרפו למשדר המיוחד באתר ישראל היום לרגל החתימה על שני הסכמי השלום בהנחיית rothdanielle  התחלנו שר החוץ של בחריין חאלד בן חליפה אחיו של המלך נכנס לבית הלבן IsraelHayomHeb  אגב אצל אובמה זה לא היה נגמר בפחות מ45 דקות לכל נואם טראמפ תודה לאל לא איש של נאומים טקס קצר ולעניין…  ראה״מ ינאם חמש דקות הוא ישלב כמה מילים בערביתIsraelHayomHeb  גורם בפמליית ראה״מ דרישת גמזו לסגירת מע׳ החינוך נבחנת על ידי נתניהו הבוקר התקיימה שיחה בין נתניהו לשר הבריאות בעניין IsraelHayomHeb בעוד כמה דקות ניכנס לבית הלבן משמר הכבוד כבר מוכן  IsraelHayomHeb  שיא האבסורד מימין העיתונאים הישראלים הקבועים בוושינגטון  משמאל העיתונאים הישראלים שבאו מהארץ ונדרשים לשמור על ת…  RabbiMSchneier Here is a timeline of events which led up to todays event BahrainIsrael  1 2013 – 2015 King Hamad led the effort fo… ElmasDean שר החוץ של איחוד האמירויות ABZayed במאמר לWSJ האמירתים הישראלים וכלל תושבי המזרח התיכון עייפו מעימותים מה שנמצא בראש ס… עשרות שנות השנאה במדינות ערב נגד ישראל יצרו למדינה דימוי מפלצתי והיוו חסם משמעותי בדרך לשלום  היום בעה המחסום…  טוני בלייר שלמעשה הניח את התשתית לפריצת הדרך מול האמירויות יהיה בין מאות המוזמנים לטקס היום IsraelHayomHeb…  הבית הלבן מודיע שלאחר החתימה על הסכמי אברהם תהיה ארוחת צהרים מרובעת של טרמאפ נתניהו ושרי החוץ בן זאיד אמירויות…  מחוות כאלה ודומות להן נוטעות בי את התחושה שהשלום שייצא לדרך מחר עם האמירויות ובחריין יהיה עמוק וחם בשתי המדינות…  CarolineGlick המפגינים השמאלנים שמגיעים מחר לבית הלבן למחות נגד netanyahu ושלום עם מדינות ערב יעמדו לצידם של מפגינים מ50 ארגונים אנטי… פמליית ראה״מ והעיתונאים מתארחים במלון ווילארד אני מקווה שהסכמי השלום שייחתמו מחר יסתיימו טוב יותר  ElmasDean שר הפנים של בחריין ראשיד בן עבדאללה אנחנו מתמודדים עם סכנות מתמשכות שהצלחנו להדוף את רובן איראן בחרה לכפות את ההגמוניה של… IsraelintheGulf بنك الامارات دبي الوطني يوقع مذكرة تفاهم مع بنك هبوعليم الاسرائيلي في اول اتفاق من نوعه بين الطرفين   simonarann htt… KolBarama העיתונאי arik3000 ׳ישראל היום׳ בפמליית ראש הממשלה לmosheglassner ב׳המהדורה המרכזית׳ חתימה על הסכם שלום עם מדינה ערבית ז… גורם בפמליית נתניהו בוושינגטון יש רגישות רבה לקראת האירוע מחר כיוון שמדובר בשיח מורכב בין ארבע מדינות הוא הוסי…  HSajwanization  Likud Youth appealed to 2005 Nobel Prize for Economics laureate Professor Israel Aumann to nominate Benjamin Ne…  צעירי הליכוד פנו לפרופ׳ ישראל אומן בבקשה שימליץ על נתניהו כמועמד לפרס נובל לשלום כמי שקיבל פרס נובל הוא זכאי להמלי…  הדאגה של מנהיג השמאל הישראלי להמשך הבנייה בהתנחלויות באמת נוגעת ללב  כך או כך גורם בפמליית נתניהו בוושיגנטון מגיב…  בוקר טוב מוושינגטון פמליית ראה״מ הגיעה לעיר לפני שעה קלה רוצים לראות ולשמוע על מאחורי הקלעים של טיסות נתניהו  עד…  simonwiesenthal הרבה סימנים מקדימים היו לשלום המתגבש עם מדינות המפרץ אחד מהם ואליו פחות שמנו לב הוא הגשר שהניחו באמירויות ובבחרי…  LahavHarkov Ok the details First of all the White House does encourage people to wear masks This is from the email Abraham Accord… mdubowitz LahavHarkov It was taken before take off But the truth is after the flight he looked even better PleaseNoBoebert JakeSherman LahavHarkov  מטוס ראה״מ נחת בשדה התעופה הצבאי אנדרוז שליד וושינגטוןIsraelHayomHeb  מיד שידור חי של הצהרת נתניהו בעליה למטוס IsraelHayomHeb That was never seen before  Bahrein and UAE flags near Israel’s PM aircraft  דגלי בחריין והאמירויות ליד מטוס ראש הממשלה IsraelHayomHeb  תהיה יהודית איך קונים 4 מינים בסגר aryeyoeli בבית הלבן מכחישים את הידיעה הזו יש להם עד 2023 להוכיח זאת עימות חריף הך בממשלה בין השר דודי אמסלם ליועץ המשפטי לממשלה אביחי מנדלבליט  מנדלבליט ״יש חוק הקורונה צריך לאפשר…  שר שנוכח בישיבת הממשלה ״ההדלפות מגמתיות רוב מכריע של מנהלי בתי החולים דווקא צדדו בסגר מלא״ הוא הוסיף כי המסר של מ…  חוצפה  דרעי ״מקווה שליצמן יחזור לממשלה״ משמע לא מתכוון להצטרף אליו זה אומר שכרגע אין כדור שלג IsraelHayomHeb  וזה כבר לא דבר שקורה בכל טיסה מטוס ראש הממשלה עבר אמש חיטוי נגד קורונה החיטוי בוצע על ידי אנשי  חברת IPM GROUP…  המשוואה אני חושב צריכה להיות ברורה אם נסגרים בתי הכנסת יש לסגור גם את ההפגנות  ולהפך  ״איך נראית טיסת ראש הממשלה״  אינספור פעמים נשאלתי את השאלה הזו אז היום משעות אחר הצהרים ואילך אעלה בערוץ הטלגרם…  sariazoulay יש שורה תחתונה ואין עליה מחלוקת sariazoulay כי אתמול ע״פ הלוח העברי מלאו ארבעה חודשים  מתוך שישה שהוקצבו מראש  להקמת ״ממשלת החירום למאבק בקורונה״   אבל יש דב… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חתימה טובה לכם לבני המשפחה ולכל עם ישראל   שנה טובה וחתימה טובה לכוחות הביטחון ולאנשי הרפואה הניצבים על משמרתם גם…  ישראל תחתום על הסכמי שלום עם האמירויות ובחריין והפלסטינים ישגרו רקטות   שגרירויות יעברו לירושלים והפלסטינים יעשו פ…  כרגע בסיור בטחוני  כלכלי בגבול רצועת עזה עם חברי NirBarkat   לתושבי העוטף וילדיהם מגיע פתרון בטחוני ומינוף כלכלי…  ככל שהרשפ בונים יותר בשטחי C ואנחנו הורסים פחות כך ההרתעה שלנו נשחקת והחוצפה שלהם מתחזקת  רצח הרב שי אוחיון הי״ד הוליד פקיד נוסף ברשות הפלסטינית מעכשיו המחבל  יקבל משכורת חודשית מהרש״פ לכל ימי חייו האחר…  שמח שההיגיון ניצח  זה היה חוסר אחריות לאומית לקחת את ישראל לבחירות בפעם הרביעית בתוך שנה אהלן וסהלן ביכום  שבת שלום צפו ושתפוgtgt  בג״צ הטיל היום ממרומי בניינו אבן גדולה על מרכיב חשוב בהרתעה נגד מחבלים   את הבניין ממנו הוטלה אבן גדולה בראשו של ה…  אף אחד לא רוצה להיגרר לבחירות  זו האופציה האחרונה והיא אופציה רעה אבל להתכתש עם כחול לבן ולא לעשות כלום זו אופציה…  לאור הודעה שקבלתי כעת ממשרד הבריאות אני נכנס לבידוד לאחר שהסתבר שביום שני האחרון 277 הייתי בפגישה בכנסת עם חולה…  הבטחתי לכם שחוק יסוד הלאום הוא בטון יצוק   הניסיון לשנותו נגמר ב 53 ח״כים שהצביעו נגד התיקון מול 21   חוק היסוד ש…  תחזית רשות המיסים בדיון בועדה  שבראשותי מדברת על 200 מיליארד ש״ח בשנת 2064 כלומר בעוד 44 שנים  הנגיסה הדרמטית…  חיזבאללה אל תנסו את עוצמתו של צה״ל  מחזק את חיילי צה״ל וכוחות הבטיחון על סיכול החדירה של חוליית המחבלים לישראל…  פתוח ובטוח לשנה הקרובה  זו האסטרטגיה שתחזיר את אמון הציבור בהנחיות  צפו בדבריי מתוך העולם הבוקרgtgt  מברך את החלטת הממשלה להקצות בתור התחלה 15 מיליון שקלים לטובת תנועות הנוער להתמודדות עם ההגבלות בתקופת משבר הקורונ…  ההשתלחות של ח״כ avidareli במשנה ליועמ״ש רז ניזרי היא גסה ואינה ראויה להישמע מח״כ בודאי לא מול בכיר כרז נזרי העושה…  שבת שלום לכולכם  מי שמכנה את ראשי מערכת הביטחון רוצחים על סיכולם של מפגעי טרור אין פלא שלוקח חלק בגל הטרור מבית היוצר של החמאס והרש…   בשנה הקרובה לא יהיה חיסון ולכן נדרשת אסטרטגיה ממנה ייגזר   לא האם יסעו ברכבות  אלא איך  לא האם יטוסו לחו״ל  אלא…  kannnews חכ דיכטר שמעתי את איומי הרשות לפרק את עצמה 200 אלף פקידים וצמרת הרשפ על משפחותיהם חיים פה חיים שלא חלמו עליהם בפזורה… רינה מה שלא מתועד לא קרה חשפי את מקור האמירה או שתניחי את המפתחות מתפקידך כעיתונאית לא נסבול הסתה חמורה שכזו נגד…  מוזמנים להתרשם מהראיון שערך עימי  judash0  במוסף סוף השבוע של ישראל היום  שבת שלום לכם ולמשפחותיכם  המתכונת לביזבוז כספי ציבור בכנסת   כ 800 הסתייגויות אבסורדיות שנכתבו על חוק חומרי נפץ חוברו עי אלגוריתם מבית הי…  ממשלת ישראל נמנעת  בשנה זו מלקיים את חוק קיזוז כספי משכורות מחבלים שהעברתי בכנסת החוק איננו המלצה החוק מחייב מדו…  החלטת שופטי בגץ שלא להרוס בית מחבל רוצח פוגעת בהרתעה שלנו מניסיוני הבטחוני הנימוק ש5 חודשים מנתקים את ההרתעה מהרי…  דרושות רפורמות משמעותיות בתחומים רבים ואעשה כל שביכולתי כדי להוביל אותן ומילה לסיום ליכודניקים יקרים נתתם בי את…  בארבע השנים האחרונות הצלחתי להוביל חקיקה עם רוב של למעלה מ60 חברי כנסת גם את חוק הלאום וגם את חוק קיזוז משכורות מ…  מתפקדי ומצביעי ליכוד רבים תמהים איך קורה שהוחלט כך למרות מיקומי בעשירייה בפריימריז ומהעובדה שכיהנתי פעמיים כשר במ…  בכנסת הבאה אמלא את תפקידי בגאווה ובגאון כחבר כנסת מן המניין לצערי ראש הממשלה נתניהו החליט שלא למנות אותי כשר בממש…  antwaneliaroni אני גאה בחוק הלאום זהו חוק הדגל של הליכוד אני גאה שהייתה לי הזכות להוביל אותו זאת בשעה שתפקידי שרים הוצעו לח״כים הממוקמים הרחק מאחוריי ברשימת הליכוד ואף לחברי כנסת שאינם חלק ממפלגת הליכוד זוה…  יש גבול לזלזול החלטתי שלא להשתתף היום בהצבעה על כינון הממשלה למרות העובדה שנבחרתי בעשירייה הראשונה ברשימת הליכוד…  fWepBm6M27yVXek תודה איריס יקירתי מעומק הלב ההקלטות שחשפה AyalaHasson לא יכולות להישאר במקום חבוי המאמצים להשאיר את הפרשה הזו בפינה רעים מאוד יש בהקלטות אמי…  natihatar תודה נתי יקירי מכל הלב מוזר מאוד לראות גורמים פוליטיים שמוכנים לבלוע ולהסתיר את פרשת הרפז מהסיפור הזה נודף ריח רע מאוד אסור לו להישאר במ…  מתפקדי הליכוד בחרו את רהמ נתניהו לתפקיד יור הליכוד אותם מתפקדים בחרו בי לעשירייה הראשונה בליכוד אני סומך על רה…  שתפו  GLZRadio חכ avidichter תוקף אצל efitriger את הדיון בבגץ כל החלטה שתתקבל היא החלטה פוליטית אין פה שום דבר שיפוטי צילום פלאש90… חג עצמאות שמח ביחד איתכם נשמור תמיד על ישראל מדינת הלאום של העם היהודי מדינה יהודית ודמוקרטית יום הולדת שמח מדי…  מוזמנים לשידור החי עם אבי דיכטר מורשת קרב לזכר חברים שנפלו הצטרפוgtgt  מוזמנים להצטרף אליי הערב בשעה 2045 לשידור חי בפייסבוק ערב מורשת קרב לזכרם של חברים שנפלו במלחמות ישראל יהי זכר ה…  בשעות אלו שב ארצה אלי ביר מנכל איחוד הצלה לאחר שבעזרת השם החל להתאושש ממחלת הקורונה המון בריאות אלי יקירי  מחכ…  הצטרפו עכשיו לשידור החי בפייסבוק  זיכרון בסלון עם סגן שר הביטחון חכ אבי דיכטר   הצטרפו אליי הערב לשידור החי בדף הפייסבוקgtgt  בזמן שראשי שבכ מניפים דגלים שחורים יש ראש שבכ שמניף דגל ישראל כחול לבן בגאווה את הסרטון הזה חשוב לי שתשתפוgtgt   VaturiZion תודה רבה gadip1973 בעזרת השם תודה Haim41148471 תודה רבה מכל הלב גם בימים אלה במיוחד בימים אלה תמיד כאן למענכם  גנץ ואשכנזי עוד שותף שלכם מהמשותפת בכנסת  ח״כ סאמי אבו שחאדה מבל״ד מברך אמהות בגלל שבניהן הם מחבלים רוצחי ישראלי…  גאה בך יולי על שהלכת עם האמת שלך פעלת בממלכתיות מתוך אחריות וכבוד לעצמאות הכנסת וכלל רשויות השלטון אני לא זוכר תקדים שבו יור הכנסת נדרש בתוך שעות לתת תשובה יולי אדלשטיין נלחם על כבודה ועצמאותה של הכנסת לו הייתי…  ובנימה אישית בני  גבי ובוגי עשרות שנים דרכינו הצטלבו בלחימה באויבים תוך סיכון חיים שלנו ושל לוחמינו כדי להגן על ה…  הציבור לא ישכח זאת ולא יסלח לכם על שבזבזתם מליארדים על בחירות נוספות במקום להקצותם לטובת חולים ועסקים שקרסו אתם כב…  זהו צו השעה שמכתיב משבר הקורונה שהינו משבר גם בריאותי וגם כלכלי מהחמורים שידענו מזה עשרות בשנים   אם לא תתעשתו ות…  לא נקריב את נתניהו או את יולי כדי להוציא אתכם מהבור אליו נקלעתם עם הח״כים תומכי הטרור משעה שהבנתם כי ממשלת מיעוט ב…  לראשי כחול לבן שהחלו היום הלכה למעשה בשיתוף פעולה עם חברי כנסת תומכי טרור אומר באופן חד וברור  הדחת יולי אדלשטיין…  אנו רוחשים כבוד לרשות השופטת ולעצמאותה אך חובתנו כמחוקקים היא לשמור על עצמאות הכנסת חוקי יסוד משנים בחקיקה ברוב…  יור הכנסת השיב נכונה לשופטי העליון כשאמר כי  קביעת סדר דיוני הכנסת אינו בסמכותה של הרשות השופטת הניסיון להכתיב לי…  אני אומר זאת באופן חד וברור לא אתמוך ולא אסייע בהקמת ממשלה כלשהי כל עוד מקימיה נשענים על קולותיהם של חברי הכנסת ה…  כחול לבן יצאתם משליטה איבדתם את חוש האחריות הלאומית ונדבקתם בנגיף רק לא ביבי תתעוררו זוהי שעת ממשלת חירום לאו…  שלושה רמטכלים מעדיפים חברי כנסת תומכי טרור על פני ראש ממשלה מכהן בישראל אללה יוסתור אלוהים ישמור צפו ושתפוgtgt  גנץ ולפיד  ללכת עם הרשימה המשותפת תומכת הטרור זה כמו לדהור אל קצה המצוק משם תתרסק מדינת הלאום של העם היהודי לשמ…  פורים שמח  שתפו  radio103fm חכ אבי דיכטר ליכוד לקחת את הרשימה המשותפת ולהפוך אותה לחלק מהשלטון זה מהלך אסוני מקווה שכחול לבן יתעשתו ומיד YinonM… GLZRadio חכ avidichter אצל efitriger המום שיש מפלגה בישראל שבכלל חושבת על הרשימה המשותפת כפרטנר צילום פלאש90  הוסיפו לזה את אמירתו בטלויזיה של עודה כי ראשי מערכת הביטחון העוסקים בסיכול טרור כמו אבי דיכטר ובמשתמע גם גנץ בוגי…  הבסיס האידיאולוגי לכל זה היא תפיסת עולמם של החתומים על הצהרת חיפה לצידו של איימן עודה שבה הם דוחים את הציונות כתנ…  את הפיוס בין העם היהודי הישראלי לבין העם הערבי הפלסטיני כהגדרת החותמים הם מתנים בכך  שהיהודים יכירו בזכות השיבה ש…  גנץ אשכנזי בוגי יועז הנדל וצביקה האוזר  הכירו את איימן עודה האמיתי השותף הפוליטי החדש שלכם בשנת 2007 חתם איימ…  על אפם ועל חמתם של כחולבן ממשלה בהובלת הליכוד ובראשות נתניהו קום תקום   מיליון ושלוש מאות אלף ישראלים לא טועים  המחשבה שמה שלא עבד בקלפי יעבוד בחקיקה מעוותת ומעידה על יוזמיה כי דמוקרטיה אצלם היא דמוקרטיה בע״מ הכרנו זאת ביש עת…  חוק אישי נגד ראהמ נתניהו  יוזמה מעוותת ואנטי דמוקרטית כחול לבן החליטו לעבור מקמפיין ״ביבי לא״ לחקיקת Bibi law ע…  המחשבה שמה שלא עבד בקלפי יעבוד בחקיקה מעוותת ומעידה על יוזמיה כי דמוקרטיה אצלם היא דמוקרטיה בע״מ הכרנו זאת ביש עת…  תודה רבה לאזרחי ישראל שנקראו לדגל התייצבו ויצאו לקלפיות כדי להציל את המחנה הלאומי בעזרת השם נקים ממשלה יציבה בראש…  תושבי אשקלון צאו עכשיו להצביע מחל בידיכם היכולת להכריע שתפוgtgt  עם פעילי הליכוד בחיפה הניצחון בהישג יד צאו והצביעו מחל  אז מה לפיד קצת לחץ ויוצאות לך קללות מהפה ״ח׳ארות״ ״ונהר של זוהמה״ זה הנמוך ביותר שאתה יכול לרדת בתיאורים של מילי…  בידיכם למנוע את הסיוט שהשמאל מתכנן לכם ולהמשיך את שלטון הימין   הצביעו מ ח ל  כל אלו רוצים להקים יחד ממשלה מסוכנת לישראל רק גנץ עם אפס ניסיון פוליטי נותן שיכניסו אותו לכלא פוליטי שכזה מולם ה…  עסקת המאה של השמאל והרשימה הערבית המשותפת עמיר פרץ חשף עכשיו את ״עיסקת המאה״ של השמאל גנץ ביחד עם מרצ  התומכת בה…  תושבי עירי אשקלון יודעים ביום שני כולם יוצאים מהבית מצביעים מחל ומנצחים את הבחירות שבת שלום  לחמתי בסיירת מטכל עם רבים מהחותמים על המכתב לנשיא מדובר בלוחמים נועזים אך הייתי מצפה שישלחו גם עצומה הקוראת לא…  anbQmD9JRtfzVUM netanyahu תודה רבה מעומק הלב إصحوا يا عرب إسرائيل ערביי ישראל התעוררו   netanyahu  בשבוע הבא יתקיימו  הבחירות בישראל מול גנץ עם אפס ניסיון בכנסת ובממשלה מתייצב מועמד הליכוד ראש הממשלה המכהן מזה 1…  אם כיו״ר דירקטוריון מסובבים אותך בכחש איך תתמודד עם הזירה הפוליטית העליונה  בכחול לבן יודעים  לא לתינוק הזה פיל…  את החברה שגנץ הוא יו״ר הדירקטוריון שלה מוביל נוכל ושקרן אשר הציג עצמו כקצין בצהל וכאיש 8200 בעוד שבפועל הוא היה לא…  אלא שהתדמית הנקיה לכאורה שלו היתה הסיבה היחידה להריצו לראשות הממשלה והנה התדמית נסדקת הפשרת הסיפורים חזקה ומהירה…  המימד הרביעי הוא המידע והחרדה של צמרת כחול לבן לפיד יעלון ואשכנזי יודעים הרבה יותר מיואב יצחק ופחות משיודע גנץ…  בורסת ההשערות רוחשת ורוגשת העובדות ידועות רק לגנץ וככל הנראה ההשערות רחוקות ממה שבאמת היה שם  ולא לטובתו של גנץ…  המימד השני הוא גנץ עצמו שיודע כי מעל ראשו מתנוססת חרב שמאיימת עליו כל אימת שיעסוק בנושאים רגישים יזכירו לו האירא…  אפשר לבחון את ההשלכות ובעיקר את הסיכונים מכל זה במספר מימדים  המימד הראשון הוא הסחיטה את שיקוליו של גנץ ימהל ה…  בהם השתמש הסתרת המידע מעוררת שאלות קשות בדבר אופן התנהלותו ושיקול הדעת שלו גנץ נתון עתה לסיכון אמיתי של סחיטה…  הרבה כח משקיעים לפיד ובוגי ואשכנזי כדי להחזיק את המכסה צמוד לסיר אשר בו מבעבעת עיסת גנץאם נסתמך על דברים שכתב יואב…  מה באמת יודע המודיעין האיראני על גנץ בין מתי המעט שיודעים נמצאים ראשי כחול לבן מבחינתם הבחירות צריכות להתקיים הי…  בני גנץ אמר הערב שמערכת המשפט צריכה להיות עליונה על המערכת הפוליטית זוהי אמירה הזויה ומסוכנת שמוכיחה שהאיש לא מבין…  SharabiShilo תודה רבה שילה היקר האמת פשוטה בני גנץ מפחד להגיע לעימות כי אין לו מה להציע מלבד רק לא ביבי המשימה שלנו ברורה מיליון מצביעי הליכוד…  כשערעורה של נעמה יששכר נדחה פוליטיקאים מהשמאל אנשי תקשורת ואחרים התחרו ביניהם מי ישמיץ יותר את רהמ נתניהו כעת…  יום גדול ממתין בפתח זה היום שלך  שלך ישראל מדינת הלאום של העם היהודי תודה לך רהמ נתניהו ותודה לך הנשיא טראמפ אל לנו להמתין למהלכים של הרשפהמתנה שכזו עלתה לנו בדמים מאז קמה הרשות הם טענו שהזמן פועל לצידםהיום הוכח להם ולעו…  עלינו מוטלת כעת החובה להחיל באופן מיידי את הריבונות הישראלית על כל הישובים הישראלים ביהודה ושומרון בקעת הירדן במוב…  שהחיינו וקיימנו והגיענו לזמן הזהזוהי שעת ריבונותכעת עלינו להחיל ריבונות מיידית על כל היישובים הישראלים ביוש תוד…  סיום מרגש ליום מצמרר ס נשיא ארהב מייק פנס מברך בעברית עוֹשֶׂה שָׁלוֹם בִּמְרוֹמָיו הוּא יַעֲשֶׂה שָׁלוֹם עָלֵינ…  בתמונה  השתקמות העם היהודי כפי שראה מאריס בישופס בקריקטורה הכל כך אמיתית שלו 50 מדינות המיוצגות בידי מלכים נשיאים ראשי ממשלות ובכירים אחרים כולם אומרים בקולם וברגליהם לעולם כולו  כן אנח…  50 נציגי מדינות מתכנסים היום בירושלים בירתה של ישראל מדינת הלאום של העם היהודי זאת כדי לציין את יום הריסתה של מ…  naftalibennett תודה רבה נפתלי ביחד ובעה נעשה ונצליח במשך שנה שלמה בני גנץ אומר לנו שישראל לפני הכל היום מתברר שמבחינתו חסינות נתניהו נמצאת לפני ישראל גנץ תודה שחשפת…  אחמד טיבי חושף את האמת הבלוק של כחול לבן לא יכול להעביר שום דבר בלי הבלוק של הרשימה הערבית הצבעת גנץ קיבלת טיבי…  במלחמת ששת הימים נערכה ישראל למתקפת גזים מצרית 53 שנים אחרי ישראל מייצאת גז למצרים זהו מזהת חדש מזלנו שלא הקשב…  אני מתבייש לראות שמפלגת העבודה התחברה למרצ הם לא בדקו עם מי הם נכנסו לחופה זו המפלגה שביקשה לשנות את המנון המדינה…  8hjzNjP0WXHBY82 xKAR6Ew971p8rDs מעציב לגלות שזו הרמה וזה הסגנון xaeGI7elP0SVb7C אין כמוך הני תודה על הכל TsadokRonit תודה לך רונית אני מוקיר ומודה לך על תמיכתך מעומק הלב yankihebrew mohsaud08 אם אתה איתי אני רגוע mohsaud08 תודה מוחמד על התמיכה שמח שאתה איתי xKAR6Ew971p8rDs natihatar תודה דוד יקירי נפעל בכל כוחנו בכדי להביא לניצחון הליכוד ולהקים ממשלת ימין לאומית לקריאת הכתבה היכנסו לקישור  תודה לכם מעומק הלב בסקר שנערך בקרב מתפקדי ליכוד בחודש שעבר בחרו בי 675 אחוזים למקום השני ברשימה אני מודה לכם ומ…  natihatar תודה רבה על הפרגון נתי יקירי הדבר יוביל את שתי הרשויות למסלול התנגשות שבו הנזקים ודאיים דרושה לנו מערכת משפטית עצמאית וחזקה וכנסת עצמאית וחזקה…  לא ייתכן שבגץ יקבע תקדימים משפטיים הכנסת תתקן ותחוקק ובגץ ימשיך לנהל דיונים על אותם חוקי יסוד שהכנסת חוקקה  ע…  והנה קם לו המחנה הלאומי והעביר את חוק יסוד הלאום שמטרתו לאזן ולתת משקל למאפיינים הלאומיים של מדינת ישראל מקרה מו…  חוי הלאום שהובלתי בכנסת לפני כשנה ברוב של 62 חכים הוא דוגמא מובהקת אף יותר למשבר במשך שנים הסתמכו שופטי בגץ על…  החכים תיקנו את חוי הממשלה לאחר פסיקת בגץ בעניין דרעי פנחסי והגדירו את הדברים בצורה ברורה לפי התיקון ראש ממשל…  אינני מעלה בדעתי שהשופטים מעוניינים להחליף את המחוקקים כפי שאינני מעלה בדעתי שחברי כנסת באים להחליף את שופטי העליו…  רבים טוענים כי החכים נמנעים מלהכריע בסוגיות שנויות במחלוקת ולכן בגץ נכנס לחלל הריק ונאלץ להכריע במקומם אלא שמב…  אמש התקיים בבגץ דיון מקדמי בעתירה האם לאפשר לנשיא המדינה להטיל על רהמ נתניהו להרכיב ממשלה הדיון הנל מסמן צומ…  הכנסת יודעת להגן על הדמוקרטיה לא פחות טוב מבית המשפט העליון אני קורא לשופטים השאירו לכנסת את הדיונים על חוקי היסוד gtgt כשהייתי צריך לירות במחבלים יריתי בלי שהידיים רועדות אני לא מתרגש מהאיומים של הרשות הפלסטינית על קיזוז המשכורות שה…  עם צעירי הליכוד ונוער הליכוד אתם דור העתיד של התנועה אני מביא את הניסיון אתם את ההתלהבות ביחד אתכם ננצח  הקיזוז מבוצע מכספי המיסים שישראל גובה עבור הרשפ על פי החוק שהעברתי בכנסת יחד עם חכ שטרן אני מברך את השר…  שמים סוף לתשלום המשכורות למחבלים כל עוד ברשות הפלסטינית ימשיכו לשלם משכורות למחבלים נקזז להם מכספי המיסים עד השקל…  אני מברך את ראש הממשלה בנימין נתניהו על הניצחון הגדול בפריימריז הערב יישר כח למתפקדי הליכוד שהוכיחו למדינת ישראל כ…  אף סערה לא תרתיע אותנו לא נשארים בבית כולנו יוצאים להצביע netanyahu   בוקר טוב למתפקדי הליכוד אני כבר הצבעתי בנימין נתניהו ואני קורא לכם להגיע ולהצביע לנתניהו לראשות הליכוד לא מוותרי…  ביום חמישי הקרוב כולנו יוצאים לבחור נתניהו בפריימריז לראשות הליכוד כדי להבטיח ממשלת ימין לאומית בבחירות הארציות שבת שלום ומבורך בחמישי הקרוב חשוב לחזק את הבסיס שעליו יבנה הליכוד וביבי בראשו את עמודי השלטון לפעם הבאה הפעם ללא עמודי שמאל אלא…  עשור מדהים בשלל הישגיו תחת נתניהו עלול להתהפך עם עליית ממשלת שמאל בראשותו של גנץ שטרם היה באמת חבר כנסת שלא לומר…  אנחנו הליכודניקים מביטים על ה2 למרץ שבו חייבים לנצח בענק ביחד עם בנימין נתניהו כראש ממשלת הימין כדי שזה יקרה נתנ…  אמנם בשבת הקרובה נקרא את פרשת וישב  אבל ביום חמישי הקרוב אף אחד מאיתנו מתומכי נתניהו לא נשאר לשבת בביתו שתפוgtgt NadavGvil1 תודה רבה מעומק הלב NadavGvil1 תודה יקירי gadip1973 תודה רבה גדי יקירי מעריך ומוקיר את תמיכתך וביחד עם ההכרה האפשרית של ארה״ב בבקעת הירדן כגבולה המזרחי של ישראל נשלים מציאות שעד לפני שנתיים נשמעה כחלום מר…  אבל דומה שלפסגות שהביאנו נתניהו בשנתיים האחרונות אין תקדים  הכרה של ארה״ב בירושלים כבירת ישראל העברת שגרירות ליר…  נתניהו הפך לבן בית אצל מנהיגי העולם ובדגש על נשיא ארה״ב ונשיא רוסיה וראש ממשלת הודו ורבים אחרים ולפיד שסובב בעולם…  מבחינה בטחונית התעקשותו של נתניהו במאבק נגד הסכם הגרעין תרמה רבות למהלך של הנשיא טראמפ לביטול ההסכם ולבידוד של אי…  והאמת היא שתחת שלטון נתניהו האיש והניסיון הביאו לכך שכמעט בכל קטגוריה שניתן למדוד מדינת ישראל צעדה צעדים עצומים…  זה לגיטימי אבל חובה שנחשוף את העובדות כמו גם את האמת אפילו אביו טומי לפיד ז״ל שלא היה צמחוני בביקורתו על ראשי ממ…  כתבי האישום כנגד נתניהו ייבחנו בבוא העת בבית המשפט עד שיקבל זה את הכרעתו נתניהו רשאי להתמודד ולכהן כראש ממשלת ישר…  המחלוקת בין אנשי הליכוד לבין כחול לבן איננה קשורה לכתב האישוםהיא טמונה בשאלה לאן נצעיד את המדינה בשנים הקרובותחבר…  ישנם רגעים בחיים הציבוריים שבהם צריך לדעת לקבל החלטותאני מכיר את לשונם של המלעיזיםקראתי את שכתבו עלי כשקידמתי את…  יאיר לפיד הקדיש לי פוסט מיוחד וגינה את החלטתי לתמוך ברהמ נתניהו בבחירות לראשות הליכוד חשוב לי באופן אישי שתקראו…  אז מה נותר לנו לאחל לך עוד שנים רבות של תרומה למען מדינת ישראל וביטחון אזרחי ישראל  מאחלים לך המון מזל טוב הרבה…  אתה מוכיח לנו מדי יום שסופה של האמת לנצח ומהו כוחה של דבקות במטרה  אנחנו לומדים ממך המון  דווקא ברגעים הכי קשים…  אבי היקר היום אתה חוגג יום הולדת 67 אז החלטנו לארגן מבצע חשאי משלנו אנחנו גאים להיות אנשי הצוות שלך זכינו לרא…  נתניהו הוביל את המדינה להישגים מדיניים ביטחוניים  וכלכליים אדירים אני סבור שבעת הזאת ראהמ נתניהו הוא המועמד המת…  אני מכיר את ראש הממשלה בנימין נתניהו כבר 48 שנים עוד מימי היותנו לוחמים בסיירת מטכ״ל דרכינו הצטלבו לאורך 25 השנים…  זכות גדולה נפלה בחלקי להגן על עם ישראל אני גאה על כך ובעיקר על שזכיתי לחנך דורות של ממשיכי הלחימה בטרור במקצועיות…  הוכחתי זאת בלחימה בטרור באינתיפאדה האחרונה כן מדינת ישראל ניצחה את הטרור הפלסטיני באיו״ש בלחימה שנמשכה 3 שנים אל…  בשם חופש הביטוי יש לפרשן את היכולת לכתוב ככל שירצה איני מתכוון ללמדו כתיבת פרשנויות זה לא תחום עיסוקי המומחיות ש…  לרוגל אלפר ולאיימן עודה אין בעיה לקרוא לראש השבכ טרוריסט שניהם בחרו בכינוי בגלל היותי מוביל בתפיסת המלחמה בטרו…  רבים אינם מבינים זאת גם היום קולו של רוגל אלפרכמו קולם של פרשנים במקומות אחרים נאלם מול תמונות של אוטובוסים קרוע…  כראש השבכ הבהרתי תמיד לפקודיי את כלל הברזל בלחימה בטרור אלף אמהות של מחבלים תבכינה ואם ישראלית אחת לא תבכה״מי…  בתפקידי אז כראש השבכ סברתי כי יש לבצע זאת עם פצצה של טון או חצי טון כדי להבטיח החיסול של כולם גם במחיר של נזק סבי…  אמש שודרה בערוץ 11 התוכנית זמן אמת בתוכנית נחשף לראשונה ניסיון החיסול של ראשי החמאס ב 6 בספטמבר 2003 הייתה זו…  פרשן בעיתון הארץ כינה אותי טרוריסט אמירתי ידועה אלף אמהות מחבלים תבכינה כדי שאמא ישראלית אחת לא תבכה את הטרור…  יאיר היכן האחריות הלאומית שלך זה או רוטציה לך או בקעת הירדן לכלל ישראל גם אם אתה סולד מנתניהו מצופה ממך בתשעת…  כולנו תקווה שטראמפ יזכה בכהונה נוספת כיאה לידיד אמת של ישראל אך מה אם הבחירות שם יכתיבו אחרת  מדוע לא להבטיח את…  חכ לפיד אמרת מספר פעמים שאתה רוצה להיות ראש ממשלה איך ייתכן שאינך מבין את המשמעות של הכרה אמריקנית בריבונותנו ב…  כדאי שנאמר זאת בצורה ברורההדברים הללו קרו תחת כהונתו של הנשיא טראמפובזכות הקשר האישי שלו עם רהמ נתניהולנשיא יש…  בהובלת הנשיא טראמפ ובשיתוף פעולה הדוק עם ראש הממשלה נתניהו ארהב הכירה בירושלים כבירתנו והעבירה אליה את השגרירות…  יאיר לפיד זה או רוטציה לך או בקעת הירדן לכלל ישראל  הטענה של יאיר לפיד כי הכרה אמריקאית בריבונות ישראל על בקעת ה…  ציבור שמתריע על ליקויים בתפקודם של אנשי מערכות אכיפת החוק ראוי שיתקבל בהקשבה רצינית יותר בדיקת ליקויים ותיקונם הי…  הדרישה של כחול לבן להחליף את רהמ נתניהו בתמורה לממשלת אחדות היא דרישה חצופה ולא ממלכתית הליכוד היא מפלגה דמוקרטית…  אלו הם ימים לא קלים לכולנו אבל חברות ורעות הם ערכים שנמדדים ברגעים הקשים לשון החוק מאוד ברורה ומאפשרת לו להילחם ע…  חזקת החפות עומדת לכל אדם גם אם קוראים לו בנימין נתניהו נדמה שרבים שכחו זאת היכרותי עימו משתרעת על פני עשרות שנים…  שמעתי את יאיר לפיד אומר שאיימן עודה הינו שונה לחלוטין מעוכרת ישראל חנין זועבי שהיתה על ״המרמרה״ נו באמת מר לפיד…  oferdann חוק הלאום לא פוגע באף זכות של אף אזרח אני גאה בחוק הלאום בתפקידי כיור ועחוב וכיום כסגן שר הביטחון אני מסייע לנשים חרדיות העובדות בתפקידים מסווגים בצהל להן אתה קורא א…  איתי בסיירת מטכל היה בחור חרדי הרב פירר שמסייע לאלפי ישראלים הוא אנטי ציוני חברי ושכני סגן השר איציק כהן ששירת…  ליברמן אני ממליץ לך לעשות סיבוב פרסה תתנצל על האמירות הקשות שהטחת היום בחרדים ובעיקר האמירה שלך לגביהם שהם מתחילי…  סוריה כנותנת אכסניה להתעצמות איראנית על אדמתה לא תישאר חסינה תשא באחריות לכך ותשלם מחירים יקרים על כך אם תמשך הה…  המנוע העיקרי מאחורי המתיחות הזירה הצפונית הוא איראן מדינת טרור שהחליטה להעצים את מאמציה הצבאיים בניסיון להקים ציר…  התקיפה הלילה היא מסר ברור לאיראנים היעד שהכריזו מנהיגיכם להשמיד את ישראל ובינתיים להתישנו מסוריה ייענה באגרוף ב…  אסור שזה יקח עוד 40 שנה גם לא 4 שנים ממשלת ימין או ממשלת אחדות יעשו זאת ממשלת מיעוט בתמיכת רשימה משותפת ערבית ת…  עתה לא נותר לנו אלא לפעול להשלמת ההכרזה ולהחיל ריבונות ישראלית בכל אחד מהישובים הישראלים באיו״ש כדי שתושביהם ירגיש…  בהכרזתו של מזכיר המדינה פומפיאו שללא ספק תואמה עם הנשיא טראמפ שונתה רשמית ופומבית העמדה האמריקאית משנת 1978 gtgt עכשיו תורנו להחיל ריבונות ישראל בישובים באיו״ש ארבעים שנה הלך הממשל האמריקאי במדבר הדין הבינלאומי עד שהחליט לקבוע…  כשממשלת המיעוט המטורפת הזו תסיט אותנו מהמסילה הלאומית לא תוכלו אתה עמיר ואתה איווט לומר לא ידענו עצרו את רכבת ההר…  המילה בושה הינה חלשה מכדי לתאר את האסון בצבעי כחול לבן שאתם בונים לנו האם בשם תאוות השלטון הכל כשר עבורכם  אני קו…  שגריר הרשות הפלסטינית בכנסת ישראל אחמד טיבי ולצידו שותפיו של מי שהיה איש החזבאללה בכנסת עזמי בשארה אלה יהיו המשענו…  אם גנץ ואשכנזי היו אז חברי כנסת הכינוי רוצחים היה מתייחס גם אליהם שכן שניהם היו רמטכ״לים שעסקו כמוני ועימי בסיכול…  רוצחים יש רוצחים בכנסת זעק יו״ר הרשימה הערבית איימן עודה בראיון בערוץ 12מי הם שאל אותו המראייןואז המיועד להי… </t>
+  </si>
+  <si>
+    <t>כולם פה עם המלצות קריאה אז זה מה שאני קראתי ביום הכיפורים  amsterdamski2 יש בארץ לא מעט רופאים שמחכים לתקן שיתפנה למשל כאלה שמחכים לפעמים שנתיים שיתפנה מקום להתמחות במחלקה מסוימת וכמובן הכפלת משכורת לצוותי הרפואה במחלקות הקורונה כפול ועדיין יישאר הרבה עודף מה20 מיליארד 12med865 איך אין ווינר לזה איך  Irisleal15 יפ Irisleal15 הטרלה של צייצנית ותיקה בדיוק במקום לשפוך לביוב 20 מיליארד שקל על סגר פוליטי קחו את הכסף הזה ושימו על מערכת הבריאות 500 תקנים לרופאים 2…  בנט לפני כמעט ארבעה חודשים  למה לא ליוו אותו למעצר זה מה שלא ברור לי  avigrin10 לעדכונך היועמש הוא ראש התביעה הכללית לא בדיוק פקיד אחד ואם אתה כבר רוצה ללמוד מארהב בוא תתחיל עם…  eitanzeliger למשל Doco28 מקסים DavidLifshitz מי שהכניס לארץ טיסות של אברכים מברוקלין האדומה מי שלא סגר ערים חרדיות בגלל שיקולים פוליטיים ובמקום זה סגר בסוף את כולנו… avigrin10 אתה מבין שאתה עושה בדיוק מה שאתה מבקש שלא יעשו נכון motiszuszan1958 הרגע קלטתי שאתה גם מאיית שוּשן בכתיב פולני motiszuszan1958 שימחת אותי מאוד עם כתיב יידישאי מדויק מול מיליארד אנשים שחושבים שביידיש פשוט תוקעים ע פה ושם חתימה דלוקס מוטי תביאו לי את האנשים האלה אני רוצה לשמוע מה הם אומרים עכשיו  odedkramer שר שדקה לפני שנכנס הסגר השני ארגן מסיבה וטען ההוראות עדיין לא בתוקף יוצא נגד אנשים שעשו בדיוק אותו הדבר אין גבול לחוסר… ב8221 אם לגבי כל מאומת מגיעים במהירות ל10 מגעים עשרה ימים אחורה זה קצב של כמעט 3 מיליון איש בבידוד בחודש זה…  Ronkofman1 למי שתוהה מהו הרוטב הסודי המופיע במתכון  BenCaspit הראשון שזיהה קישון הגדול עע זהוזה  idoefrati1 קורונה מספר מתים יומי למיליון נפש ממוצע שבועי  24 באפריל  ישראל   084 בריטניה – 121 ארהב – 72 האיחוד האירופי –… Niro זה פאה haaretzcom AnshelPfeffer Who has  who’s Not whose EstyS גבירותי ורבותי ראש הממשלה שלכם  hagitw כן 1966 אבא שלי אליק היום תשע שנים למותו  zionnenko BenMittelman HaOshIa ranboker את זה כל ילד יודע אתה רוצה להרשים  תן שעה מדויקת ומספר רישיון טיס VigyRotem akivanovick moshenayes הלוואי שגם אני הייתי akivanovick moshenayes  הילדים שלי יושבים בחצר עם פיצה והראש במסכי הסלולרים אני מתקרב לברר מה יש שם שדחוף להם לראות קרן מרציאנו לא סלחתי לא אסלח N12News מי היה כאן ראש הממשלה בחצי השנה האחרונה אולי גם לו יש אחריות כך הגיבה KerenMarc  להצהרת ראש הממשלה  Nefolet קרן מרציאנו תמצתה את הנאום של ביבי במדויק ״זה נאום אני מאשים  אתכם״ amsterdamski2 AyeletShaked הלוואה מהמלצרית של ריקלין dimikolo YairNentanyahu זה לא הוא תסתכל על היוזר הבהרה חשובה הכוונה לתלמידי ישיבות שמאלנים שמפגינים בבלפור  shiri19801 BershadMr seerpico1 אנחנו גם עושים חילופי זוגות liorchorev קומה שנוצטרה subtext100 NaimNaor קצב ממוצע של 155 תווים בשנייה  כולל רווחים וסימני פיסוק מילה ממוצעת בעברית היא 5 אותיות כ…  shiri19801 seerpico1 זאת הייתה כתבה של מוסקו NeriaKraus הצעת פשרה שם הרחוב יוסב לרחוב מלכה לייפר chardimk שייקספיר מקבת כמובן יפה שעלית על זה גם מיליון כביסות בכל מרככי הכביסה המבושמים של אמריקה לא יצליחו לכסות על סירחון מחדל הקורונה AmichaiStein1 זעקת גמזו בישיבת הממשלה  פאקינג לא ייאמן  yaircherki ״מי שמתקשה בצום יוכל להתפלל במבנה סגור״  מי שבקבוצת סיכון יוכנס למקום שימקסם את סיכוייו להידבק איפה ההיגיון אבל המפגינים בבלפור  hamakom סיור בבירה החרדית מגלה שיירות של ילדות בילקוטים מוסדות תלמוד תורה שוקקים ומחנכים שמתחננים שלא נחשוף את הסוד בזמן שהקבינט דן… אבל בכיכר פריז זאת מסיבת הדבקה  asafkfir אופס  ברייקינג פרס נובל ברפואה יוענק השנה למגלי התרופה לווירוס הקורונה  איסור על הפגנות נגד נתניהו מעריך שד״ר שרון אלרועי עשתה אתמול צעד גדול לקראת מינויה לפרויקטור ב111 baruchikra בדיוק אין לתאר  יבוא אישי  JordanUhl checkmate fauci  BarShemUr העצוב זה שטופז דווקא כן בגיל guyzo ניצחנו בפער לדעתי יאללה לפתוח את הקווים תביאו את השאלות מכל העולם תקשיבו לגלצ ביום חול רגיל יום אחד יספיק ותדעו בדיוק איך להתקבל לתחנה של דקלאלקבץ באמת שקורס זה הדבר האחרון שצריך GadiTaub1 Riklin10 כן זה באמת מנהג חדש שם gilicohen10 יועצו של רהמ נתניהו טופז לוק שהה בהפגנה בסמוך לבית ראש הממשלה בבלפור לאחר שביצע את בדיקת הקורונה  כך עולה מנתוני הציל… zionnenko זה מעגל שני לא רואה סיבה שעופר גולן ייכנס לבידוד בעיני השימוש בבידוד כאמצעי ענישה נקמה השתקה או הרחקה פוליטית מסוכן מאוד naimleee בדרך לבדיקת קורונה עוצרים בהפגנה המונית talschneider בתגובה לעיל יש כמה בעיות א דוברות הליכוד לא ענתה לשאלה אם לוק היה שם ולאיזה מטרה ב מתחם הבדיקות לנוסעי מטוס רהמ היה לי… Nefolet טופז לוק היה בדרכו לבצע בדיקת קורונה אצל המלצרית של ריקלין LevineHagai ישראל צריכה סדר לא סגר סגר זה עוצר עם יחסי ציבור צריך לעצור התקהלויות בחלל סגור לא את התנועה האקורדיון הוא אסון הוא מוע… NitzanWaisberg אורן קיבל דוח על מסיכה ערער ויצא זכאי  איך הוא עשה את זה  הוא הציג תמונות מחודש אוגוסט של הנאשם השר לבטחון פנים וב… Shualaravot אמרתי בפירוש אין עדיין חיסון וגם כשיהיה חיסון הוא לא יהיה מה שאתם חושבים אני חושב שלא ייחדנו מספיק תשומת לב להצעה של ריקלין להמתין לטעות של הנגיף ואז לתקוף nadavabeksis ruthelbaz yigal1957 שעה לפתוח אצלך את הדלת בבית שעה אם יש שריפה וצריך לברוח אל תנסה את הדלת או חלון או ישר לשמע ישראל amsterdamski2 אפרסק כתום כלומר אמיתי בטעם של שנות ה70 כלומר כשעוד היה לו טעם לפני שהפך לקולורבי עטוף זמש עם חיי מדף jamesbb25 אני יכול להגיד לך את היצרן של השתל 12med865 גם הפרס ברפואה ההצעה להכליל מיסופוניה בDSM לא ממש מגוחך אני מכיר מישהי שסובלת מזה וזה אכן מקשה מאוד…  12med865 פסיכולוגיה לא פיזיולוגיה ובהנחה שיש מיתאם במה זה יותר מגוחך או פחות מועיל מאינסוף מחקרים על זיהוי שקרנים לפי מחוות גוף yairlapid קשה לחבק ולהצדיע בוזמנית Riklin10 ההומור שלך משהו Riklin10 שכחת להגיד שמפגיני בלפור אשמים מהמקפצה  Riklin10 מי בדיוק אמרת שלא דואג לעם ישראל מי מסכן את חיינו מי יגרום להארכת הסגר  segaleran העברנו לנובי גוד alonbeer1 ההיגיון כולו על רגל אחתהשרה מרב כהןתלך לאכול ארוחת ערב עם ההורים היום כי מחר אסורהוירוס לא עובד בחמישימתחיל משמרת רק מחר… לידיעת כלבי הדשבורד  haimhz שאלה לי אליכם idfonline  למה נועה קירל חיילת בשירות סדיר מופיעה בסרטון של נבחר ציבור שהועלה לעמוד האישי והפוליטי שלו לא ל… ErelSegal YakovSela אם ההלכה הייתה מכירה את הקורונה המקווה היה איסור חמור הרעיון של מקווה הוא טהרה לא הפצת מחלות עם חצי אחוז תמותה MeytalinkaVan  rottemd משרד הבריאות שלום לאחר שנודע כי ישנה התפרצות קורונה בבית הלבן ברצוני לדווח כי ראיתי מספר לא מבוטל של ישראלים אתמול באותו המק… danakarni Yesssssssss ברור לכם שריבלין נושא נאום שהוא כתב לנתניהו כן shimritmeir yaronavraham כי זה הגיוני OferFarandyan galit577917912 amitsegal ועכשיו רואה הבדל  OferFarandyan galit577917912 amitsegal המספרים שונים לחלוטין אני מבין שהיית מעדיף וירוס מהונדס בדיוק לאירועים…  OferFarandyan amitsegal לא שכחתי צא מהפוזיציה אם תביא נתונים שבהפגנות יש אחוז הדבקה שמתקרב לישיבות חתונות ומו…  amitsegal קחו שני מיליארד מתוך ה20 ותנו למערכת הבריאות ותבטלו את הסגרדמיקולו הזה הרבה יותר מועיל נגד הווירוס…  NehemiaGA לא כי תפילות זה באופן כללי מופת של לוגיקה GadiTaub1 הפנה אותי בבקשה לספרי הלימוד בישראל שבהם מופיעים שטחי הרש״פ shimritmeir טוב יאללה אחרון ודי shimritmeir ראש הממשלה כשינחת יצטרך לחתוך בסכין או שמבטלים את הסגר במתכונתו המגוחכת הנוכחית או שמבטלים לאלתר את כל ההחרגות סגרסגר… N12News דפנה ליאל מפרסמת כשנתניהו כבר בארהב התברר שרק שר חוץ מוסמך לחתום על ההסכם DaphnaLiel RinoZror זה בשביל הפרק החיובי של השבחים רינו בקיצור חילונים בערים ירוקות ושמאלנים מפגיני בלפור  תסתגרו בבית דתיים ומצביעי ליכוד  יאללה שנה טובה משוחררים חבר…  NitzSha ברור shimritmeir זה עדיין פרמטרים טכניים סוגרים את הים ופותחים בתי כנסת אבל בלי לקבוע אם יגיעו לשם דתיים או חילונים ייצא מה שייצא avishaiz NehemiaGA זה בקטע סאטירי TheMaya IlanLukatch  סגר בראש השנה על ערים ירוקות הגיוני כמו סגר על בני ברק בנובי גוד NehemiaGA בוא תצטט גם את כתב הצרכנות של הדי אולגה אבל דחוף להכניס את קיבוץ שפיים לעוצר סגרפוליטי   יש שתי אפשרויות או שהבידוד לא דרוש כשהבדיקה שלילית  או שמאבטחיו ורופאו האישי של האדם המאובטח והשמור ביותר במדינה…  roysharon11 כמו שכולם יודעים שאחת שתיים שלוש ארבע  מגרמניה היטלר בא הוא שיר עממי משנות ה50 נכון רועי עכשיו…  DaphnaLiel מאות אנשים ישתתפו בטקס בוושינגטון ועדיין נתניהו ופמלייתו לא יחוייבו בבידוד עם שובם יסתפקו בבדיקת קורונה לך תשכנע אחרי זה… NehemiaGA זה מדויק לחלוטין שמעתי מרופאים בכירים את שתי הדעות מנתונים עולמיים גם של הקורונה וגם של אפידמיות שקד…  מה נסגר עם השופטים האלה לא קלטו שעמירם בן אוליאל שרף את משפחת דוואבשה בקטע סאטירי שמישהו יעדכן את יגאל עמיר 20 שינון התכוון לסאטירה zionnenko ועוד דבר אפשר רק לדמיין את הדיונים הדחופים בכנסת והקריאות לפיטורין לו גיא פלג באותה תחנת רדיו או RinoZror בגלצ היו מאומרי… ShiraHN Riklin10 neoraytal BarakRavid אני בדיוק עובדת על קטע יותר ארוך על ההבדל בין עיתונות לאמנות אבל להגיד סאטירה זה לא כמו … idogur קודם כל אני רוצה להגיד תודה ענקית לתוכנית הספורט של 103 שנתנה לי במה מרכזית במשך כמה שנים טובות נהניתי מכל שנייה בכל שיחה לצע… Riklin10 YonatanKit חחח הרגת  magazineLiberal הכותבים המשתתפים בגיליון ״משפיעים 2020״ של ליברל EliBitan Meravbenari avrahamdov NechamaDuek AmalyaDuek YaronD… odaskal זה היה קטע סאטירי  לא יאמן  אשמים הם האנשים שנותנים לו את הבמה ב103   לא פאקינג יאמן AssafYNews OferHadad יש מישהו ספציפי שהיית רוצה לציין במיוחד בכישלון הזה או שזה כל הממשלה ככה יחד כמיקשה אחת odaskal המגזר העסקי יושב בבית ולא באמת יכול לעבוד כי הילדים על הראש שלו אבל לפחות המדינה עשתה הסדרי תפילה להמשך הדבקה בבתי כנסת הגיונ… ISudri איציק אני זוכר שהגבת באופן דומה להוגה המדיני אלירז שדה ואני מקווה שהעיסוק שלי אשלח בפרטי רזומה מאפשר לי ב…  ShaniAshkenazi בתי כנסת  מהמקומות שהתרחשו בהם הכי הרבה הדבקות יפעלו כמעט כרגיל עד 120 איש בחלל סגור בעיר אדומה בית קפה בעיר ירוקה… praklitut גם הבוקר לצערנו ממשיכים לפרסם פייק ניוז לגבי בני משפחתה של ליאת בןארי שווקי למען הסר ספק הפרסום בגלי ישראל IsraelGal… nadavabeksis zionnenko סיריוסלי נדב לא הייתה פעם אחת שמנהל בי״ח אמר שחסר לו תקציב ולא בצדק אם יש הבדל אז הוא ל…  סגר על כפר מל״ל דחוף  mossiraz היום הבנתי מה פירוש הביטוי האירוניה התאבדה כששמעתי את עמיר פרץ אומר שהבעיה שלנו היא אובדן האמון nadavabeksis zionnenko כן נדב זה באמת נורא שבתי חולים יקבלו תקציבים בואו ניזכר לרגע בפעם האחרונה שמישהי מחתה נגד הרעבת מערכת הבריאות בפריפריה ובתגובה הספונטנית של ביבי ״את משעממת או…  טים רינה  אפקט הפרפר 2020 בוויזניץ עושים חתונה המונית ועל קיבוץ קליה מוטל עוצר סגר פוליטי מיותר זה בפרטיטורה של רסיטל הנשפנים ״תפילה חשובה יותר מהפגנה״ כותב ריקלין ״רוצים סגר כי קורונה מאה…  GalDeLevie עוצמים עיניים עכשיו תדמיינו את אהוד אולמרט נוסע לטקס בוושינגטון באמצע מלחמת לבנון כל מילה  הכוונה לעזמי בשארה למי שלא הבין  GadiTaub1 יאיר גולן צודק ולא בפעם הראשונה אגב GadiTaub1 OrenNahari בוא נדבר על חברים באמת  segaleran האם יש אנשים שמחוסנים טבעית לקורונה מבלי שנחשפו  מחקר חדש שלנו מצא תגובה חיסונית צולבת בין הקורונה ה׳רעה׳ לבין קורונות עו… DaphnaLiel מכל החרא שאנחנו שקועים בו עד צוואר המחשבה האופטימית היחידה היא שעוד חודשיים תיגמר הטעות ההיסטורית האיומה ששמה הנשיא דונלד טראמפ amsterdamski2 tamarishshalom לא צנוע דברים לחשוב עליהם בזמן שאתם נחנקים בסגר מיותר  לרבים ששואלים על עמוד ההשוואות המדהים של אוקספורד הנה הלינק  ממדליסטים למחדליסטים gorodezk amsterdamski2 כשביבי ובוגי יהיו רופאים יפנו גם אליהם בתואר אגב לפרופ׳ גמזו יש שני דוקטורטים שני מאסטרים ותואר במשפטים amsterdamski2 אגב ממתי זה מר גמזו הוא פרופסור הזדכה על המר ביציאה מביס לרפואה לפני 26 שנים amsterdamski2 יושב וקורא את פרוטוקול ישיבת קבינט הקורונה מחמישי ופתאום קולט שנפלה שם טעות סופר פרוידיאנית  chaimlevinson נישתי hadarse פרופ׳ חגי לוין ברור וחד משמעי הפקירו אותנו הכל פוליטי גם הסגר הצפוי  זה פשוט עצוב  chaimlevinson מאמי צרחותתתתת ואני על האלגנט הספורטיבי orenaharoni1 zionnenko unh axuck vo fnuci vjukho zionnenko הרגת לי את משפט הסיום לכתבה של מחר ivgiz בגימטריה  אדוה דדון רוברט ג׳ונסון  672 חיים אתגר  672 ממנשן את המומחה  shlomokarhi שנון הדוקטור  הלם  פצצת אטום 20 וכמו כן בוקר טוב אליהו  מתלבט בין ריקלין לאלירז שדה  gilshil yoelituv כמדד אמין כל השאר הרבה פחות אמינים אבל ברור שיש להם משמעות YoazHendel1 ריאלי כמו משהו מאוד ריאלי NehemiaGA yoelituv חשיבות כן אבל האינדיקציה האמינה למגמות היא מספר המתים מספר המאומתים יכול לשמש אותך להערכה …  yoelituv מספר המאומתים אינו אומר דבר מלבד זה שעושים יותר בדיקות וממקדים אותן איפה שצריך ואלה דווקא חדשות טובות ס…  MDarabaner פה ניסיתי להסביר את ההבדלים באופן שלא מצריך רקע מדעי    celestialannihi אכן דיוק חשוב תודה זה החיסון של אוקספורד אסטרהזנקה והוא מבוסס על אדנוֹוירוס כמו החיסון הרוסי אירוע מעניין מאוד  guyro13 מכירים את החברים כאן גם אני לא אבל הם זכו באליפות העולםבמקצוע הכי נוראי אבר במתמטיקה  הם גברו על רוסיהארהב ספרד אנגלי… yaronavraham BenMittelman עיקר הסכנה אכן נשקפה מסצינת המועדונים של בני ברק ומהפאבים הטרנדיים של טייבה CohenAsaf בשר טחון עם חציל בפיתה כמה הבהרות  1 היטלר בא מאוסטריה 2 אפשר לאכן סלולרי גם כשהוא כבוי 3 מי שפועל הפוך מדרישות המומחים שהוא עצמו מינה לא רשאי להטיף לאחרים YoavRibak יו״ר הכנסת יריב לוין בתגובה לליברמן זה חוסר אחריות במדינה דמוקרטית אי אפשר לעודד אי ציות למוסדות שהם לא בית המשפט העליון igalmosko המסיבה על הטיטאניק ממשיכה כרגיל  yaircherki קראתי ומכיר ועד כמה שהבנתי זה כבר לא נספר ככה yaircherki אסימפטומטי הוא עדיין מדבק ומדבק הרבה יותר מחולה תסמיני כי הוא לא יודע שנדבק והוא לא בבידוד freyisrael1 בעזרת הקומבינה ננצח את הקורונה תושבי בני ברק קיבלו הודעה קולית מלשכת ראש העיר בה התבקשו לצאת ולהיבדק מומלץ להביא ילדים… ayakorem יש סרט שלם ג׳מפינג ג׳ק פלאש סביב זה שבסטונז תמיד דחפו את השירה למעמקי המיקס עד שלפעמים קשה לאמריקאים…  radio103fm אוהד חמו ohadh1 חדשות 12 מחבר הספר פני השטח המגמה כרגע בשטחים שאני שומע בעיקר מכיוון הצעירים זה ויתור על מדינה פלסטי… תתחדש  aradnir ״האומץ הוא מה שנדרש כדי לקום ולדבר אומץ הוא גם מה שנדרש כדי לשבת ולהקשיב״ ווינסטון צ׳רצ׳יל פרופ׳ אייל לשם איש אמיץ  עומד… N12News סגר כללי  כישלון של החברה הישראלית וההנהגה שבראשה  פרופ אייל לשם דעה gt   צילום אוליבר פיטוסי  פל… לציוץ שהעליתי בתאריך 247 בעניין אבנר נתניהו שממנו משתמע שהוא הריע לשירי הלל ליגאל עמיר לא היה כל בסיס והוא נמחק…  rabeabader עד היום נדבקו בקורונה בכנסת ממשלה יותר אנשים מאשר בהפגנות ניסיון רצח  Nefolet משוכנע שהם גם עושים ניסויי צ׳לנג׳ דיקטטורה זה לא פיקניק attilus ובכן אטילה כפי שכתבתי  רסיטל פחות מוצלח של ריקלין  roysharon11 מכתב ששלחה תושבת איתמר בתפוצה פנימית הרגע שבו היא הבינה שרעולי הפנים שיידו עליה אבנים בדרך הביתה היו יהודים  hadover1 מהמם אבל מביני דבר מעדיפים מוקה YoavNews1 netanyahu זה יפה איך אתה ממנשן את נתניהו בסוף כל רסיטל רוצה להסביר למה sinnerinnorth GadiTaub1 איזה מחקר אתה צריך יש נתונים מסתכלים על הנתונים אין גם ״מחקר״ על ההדבקה בטייבה ובאלע…  sinnerinnorth GadiTaub1 יש לי יותר מאשר מושג היו לי שיחות עם חוקרים יש נתונים אין עלייה בהדבקה הנתונים מארה…  RotemShtarkman יש עוד תשובה אתה יודע ולוּ רק בשביל הפריים הזה היה צריך להמציא את המימרה תמונה אחת שווה אלף מילים  sinnerinnorth GadiTaub1 אני לא בדיוק עובד אצלך אתה יודע הנתונים מירושלים נמצאים אין לינק נתונים מההפגנות בא…  sinnerinnorth GadiTaub1 יש נתונים בהחלט וחוץ מזה  כמה לדעתך ממפגיני בלפור באים מבני ברק טייבה אלעד וג׳לג׳וליה GadiTaub1 שום חלק גדי הפגנות באוויר הפתוח לא מייצרות עלייה בהדבקות גם פה גם בארה״ב נבדק אמפירית שוב ושוב ביולוגיה ללא פוזיציה AssafYNews גורם בכיר תכנית הרמזור הייתה רלבנטית לפני חודש עכשיו אין מנוס מסגר מיידי 🤔 האם זה הגורם הבכיר שמרח את מינוי הפרוייקטור… EHaski2 שמח שנהנית מחקתי כי החלטתי שאתה לא מספיק מעניין בשביל לספק לך טראפיק מי שמסתיר יש לו מה להסתיר בדיוק כמו שמי שמסרב לבדיקת ינשוף נשפט כמי שנהג שיכור ככה ישיבה שתסרב לבדיקות צריכה להי…  urieltzaitlin yoch21 ספר לי בבקשה מתי החולירות מאילת הציגו את עצמם כצדיקי עליון מורים רוחניים ומטיפי מוסר עם שעות קבלה לצאן מרעיתם PlotkinYuval לכאורה גיזס איזה סתומים אבל 1 בוא תיזכר לרגע מה קרה לשיר All Along the Watchtower אחרי שהנדריקס ה…  DaphnaLiel הוא ימין מדיני ושמאל מגיני</t>
   </si>
   <si>
     <t xml:space="preserve">פותחים עם ד״ר לימור סממיאן דרש חברת צוות הייעוץ לקבינט הקורונה אחריה יעקב ברדוגו על המערכת הפוליטית והאופוזיציה בע…  צום קל וגמר חתימה טובה YairNetanyahu איזו מדינה מוזרה ארה״ב שם העם בוחר את הנשיא והנשיא בוחר את שופטי בית המשפט העליון אשר עוברים שימוע ע״י נבחרי העם בסנאט… אז מה מישהו ממאות החברים החדשים של קלמן שהדהדו פה את המניפולציות שלו רוצה להתנצל אתם יודעים דקה לפני כיפור וכאלו…  האמת היא שאני מתבאס להתעסק עם הרפש הזה דקה לפני כיפור אבל מכיוון שכדברי מארק טווין השקר מספיק לעשות את דרכו סביב ח…  akibigman תמונת ניצחון  YinonMagal רפואה שלמה ינון וגמר חתימה טובה gershuni זו אכן הערכה מקלה לפי תמותה של 09 אחוזים אנחנו עלולים להגיע לכ70 מתים ביום  8000 נדבקים אומר שבעוד כמה שבועות אנו צפויים ל50 או 60 מתים מדי יום זו מלחמה על חיי אלפי ישראלים ככה פשוט במצב…  תותח  amitaydror אני יודע שזה מה שהבנת מהטור של קלמן שהוא כאמור מופת של מניפולטיביות אבל האם אתה יכול להצביע על מקום שב…  JyOuFsvhTi3Nlgs YotYotam תודה יהודה שבת שלום YotYotam את ״ביבי צריך ללכת״ אנחנו שומעים כבר עשור לא ריגש אותנו הכל התחיל מזה שהוא הציע כניעה למערכת מושחתת כנ…  RonelAdani אני יודע שזה מה שהבנת מהטור של קלמן שהוא כאמור מופת למניפולטיביות אבל האם אתה יכול להצביע על מקום שבו…  RonelAdani אני בניגוד לאחרים יודע להפריד בין קלמן והביקורת שלי עליו לתחקירים שלו ומשתדל לעשות פולואפ לכל תחקיר של…  RonelAdani חחח שנים שאני ואחרים מתאפקים ומגיבים לו ולאחרים שנוקטים בטרמינולוגיה מתנשאת ותוקפנית באיפוק ובצורה מנו…  RonelAdani נדבר אחרי התגובה המלאה והמנומקת ואז נראה אם יש לך יושר אינטלקטואלי או שאתה קלמניסט שוטה זה הרבה יותר מזה הטור של קלמן הוא מופת של מניפולטיביות ערבוב בין טענות שונות הצגה חלקית ומגמתית של טענות של  אנש…  noamfathi תהיה העיתונאי הטוב בעולם אבל כשאתה בוחר לירוק לבאר רדיו גלי ישראל  קול חשוב לבית הגידול שלך שנתן לך במה יומית להפוך מנוב… ltlt שופרות וכדומה שנים שהגבנו באיפוק בסבלנות ובצורה מנומקת לכל טענה מתוך רצון להמנע ולהחריף את הירי בנגמ״ש בפעם ה…  לפני שבוע הציוץ הזה היה נראה לרבים מוגזם דומני שעכשיו רבים יותר מבינים את כוונתי תגובה מנומקת לגידופי קלמן תפורסם…  עוד לא בינתיים יסתפק בכפיים ובריטווטים מצלאח אדין עוד כמה טורים יהיה על מה לדבר  זכות גדולה נפלה בחלקנו שמעון  גאולה כהן הכירה בטעות ההרסנית שעשתה בהפלת שמיר התנצלה והפיקה לקחים ביקורת מימין רצויה וחיונית אבל להפוך את עצמך…  mosheifargan על 10 מהתופעות שאנו רואים מהמפגינים האלה כשהם בימין אז יש מי שבשמאל מזהה תהליכים אגב האדם שתקע את השלט לפרצוף של שר… YaaraZered ראיתי הבוקר שלקלמן ליבסקינד מפריע שהייתי בפעילות בליכוד וחזרתי לתקשורת תגידו שמעתם את קלמן אומר את זה פעם על הנדל יחימוב… YinonMagal מתוך הספר המתריע של עמוס גלעד אחד היועצים היותר נחשבים מתברר שלא תמיד היועצים צודקים לפחות לא בעידן נתניהו  realadamgold זמן טוב להזכיר שמה שחשוב זה לא מה אתם אומרים אלא על מה אתם מדברים  לדוגמה ממליץ לא לשכוח שאפילו בנקודת הזמן הזו  ב… כשמדובר בפוליטיקאים כולם מבינים שהתנהלותם אינה עניינית נטו והיא מושפעת משיקולים אישייםזרים משום מה כמה מאנשי התק…  BoazGolan שמאלנים תקפו את רן כרמי בוזגלו בעת שתיעד מחאתם בנס ציונה חשוד שנגח בפניו וייתכן ושבר אפו נעצר במקום בעת התקיפה שבוצעה מול… GadiTaub1 חבר כנסת שמעודד מסיבות הדבקה בבלפור שלא יטיף לנו מוסר על המחיר הכלכלי bardugojacob שיטת מנדלבליט ממלמל בשיח חופשי בממשלה עושה אחר כך שיחות רקע עם עיתונאי חצר ואז מודיע לציבור לא קבעתי בשום שלב שסגירת ה… yoniOzery 7000 מאובחני קורונה ולמעלה מעשרה נפטרים ביום מאות חולים קשה ציבור שמאבד אמון בגלל איפה ואיפה ועל מה נלחמים שרי כחול לבן… GadiTaub1 למה לא חותכים חד משמעית  עד סוף הסגר שום התקהלות משום סוג לא בתי כנסת לא הפגנות ולא סיאנסים כלום  עכשיו  לא אחרי שב… HaleviAmit בכחוללבן זועקים שאין להגביל את ההפגנות כי הן נשמת אפה של הדמוקרטיה  מבחינתם שהדֵּמוֹס ימות במגיפה הדמוקרטיה המהותית גם כ… akibigman אגב השאלה אם איילת שקד מתווכת לעיתונאים פגישות או מסרים ממנדלבליט בנוגע לפרישה של נתניהו הרבה יותר מעניינת וקריטית מהשאלה א… הכל פה מטומטם ברמת פיקוח נפש ההפגנות עושות הכל חוץ מלהחליש את נתניהו והימין הרי אי אפשר להמציא קמפיין יותר אפקטי…  YinonMagal ראש הממשלה הולך הכי חזק נגד הבייס שלו וסוגר את בתי הכנסיות ביום הקדוש ביותר בשנה וכחול לבן כחול לבן כהרגלם במין פיינשמייק… JoshBreiner הבנת הנקרא כפרה יש את זה גם בגרסה מושמעת בראיון עם סגל הביקורת פה היא בעיקר כלפי מנדלבליט וצלאח אדי…  בהקשר הנוכחי הכתובת לביקורת היא בכירי צלאח אדין והבושה היא כולה של דרוקר גליקמן פלג וברוכי שהציגו לנו הדלפות מגמת…  למישהו פה אין מושג מה זו עיתונות הסימביוזה שבין מערכת משפט פושעת לאנשי תקשורת בכירים היא האיום הכי גדול על הדמוקרט…  6780 נדבקים אובחנו אתמול נפתח עם ד״ר יואב יחזקאלי ממקימי צוות הטיפול במגפות כנרת בראשי על מנדלבליט והקריאות לעסקת…  mosheifargan שלא ייעלם מעיניכם המושג המרכזי שמחולל כאן את ההרס גם בקורונה אכיפה בררנית היא שמביאה להרס שלטון החוק המבוסס על שוויון… CarolineGlick בדיוק ועוד דבר יש משהו מקומם בעדר מאוד ספציפי בתוך מחנה הימין שיודע היטב לדבר ולחקור אבל במבחן המעשה ברגע האמת פועל ל… GadiTaub1 הם רוצים עוד קורונה אין שום הסבר אחר אם לא הם היו נוהגים באחריות ודוחים את ההפגנות לאחרי הסגר שום דמוקרטיה לא נפלה בגלל… liyaomer כל עוד יהיו הפגנות לא יהיה כאן סגר חברי הכנסת האנרכיסטים שממשיכים לדחוף את ההפגנות שרי כחול לבן שנראה שזו כל מטרתם עלי אדמו… YinonMagal תעזבו את כת המופרעים מבלפור שיפגינו וידבקו אתם קחו אחריות תסגרו את בתי הכנסת אל תתקהלו וְנִשְׁמַרְתֶּם מְאֹד לְנַפְשֹׁתֵיכֶם BarashiKinneret דובר משרד המשפטים מוציא תגובה שיקרית  ל natitucker ואומר שמנדלבליט מעולם לא ביקש להיפגש עם Riklin10 ובכן להלן גרסת… GadiTaub1 אני אתרגם לכם לעברית את הצעתו של קלמן ליבסקינד שנתניהו יפרוש תמורת ביטול ההליך הפלילי נגדו המלצה להיכנע לרעיון שהפקידות יכו… IsraelGaley אלי ציפורי לtadmorerez48 ״מנדלבליט היה בטוח שנתניהו ישבר היועמ״ש רוצה יותר מתמיד עכשיו את עסקת הטיעון הוא יודע שהמשפט… elizipori ממליץ מאוד לקרוא ארז תדמור על הפחדנות של אליטות הציונות הדתית  הווה אומר הקלמנים   mosheifargan אם אנשים שהציעו את ראשו של נתניהו ורמיסת בחירתנו תמורת עסקה קיבלו לפניכן תדרוך ממנדלבליט הרי שלכאורה מדובר באחד האירו… liyaomer ארבעה עיתונאים בכירים קמו בוקר אחד והחליטו לכתוב בשינויים קלים את אותו הטור כולם מצאו את אותה התרופה לקורונה כולם החליטו… סבא איפה היית בהפיכת צלאח אדין כשהפרקליטות תפרה תיק למנהיג הימין ״אני חשפתי את השחיתות שלהם ואת שגעון הגדלות זעק…  elizipori מאמר מצויין של ארז תדמור כבר ב2016 ב״מידה״ המצב לא השתנה מאז  קליקת ה״סרוגים״ השתלטה על משבצת הימין אבל ממש לא מייצגת את… כשנלחמנו בטרור המתאבדים קיבלנו את בצלם ושוברים שתיקה כשניאבקנו בבידוד המדיני קיבלנו ארגוני BDS דוברי עברית עכשיו…  IsraelGaley ד״ר GadiTaub1 לtadmorerez48 ״אני חושב שההפגנות האלו יעלו ביוקר לשמאל בקלפי זה נכון גם לארה״ב הציבור כבר לא מאמין לתקש… elizipori תשמעו בדיחה בראיון למקור ראשון בכסות תדרוך מנדלבליט אומר שכתבי החצר שלו ושל הפרקליטות גורמים לו רק נזק שמעתם אביעד גרינצ… גלית דיסטל אטבריאן על מסיבות ההדבקה הנמשכות בבלפור פרופ׳ אמנון להד יו״ר המועצה הלאומית לבריאות הקהילה על חזית הקור…  gtgt 6 טהרנות היא חולשה ולא מעלה להתהדר בה האסטרטגיה של מסע הציד נגד בנימין נתניהו ובוחרי הימין פשוטה להפיל את אבן…  gtgt 5 מכיוון שכל תכנית אקטואליה רצינית אמורה לעסוק בסקופים של קלמן אבל קלמן של הרדיו לא עוסק בחשיפות של קלמן מהעית…  gtgt בתאגיד נמנע באופן שיטתי מעיסוק בחשיפותיו על מערכת המשפט קלמן של הרדיו לא רוצה לעסוק בסקופים של קלמן מהעיתון 4…  1 קלמן ליבסקינד הוא עיתונאי חוקר בחסד עליון ליגה אחרת בשלולית הדלוחה שלנו 2 אם היתה כאן תקשורת אמיתית כל תכניות…  Yehonatansb אכן דומני שהנסיבות מחייבות לשתף פה את המאמר הזה של רן ברץ מלפני 3 שנים מתלבט האם ועד כמה להוסיף ולהרחיב בנדון במוצאי ה…  DannyHendler רן ברץ תיאר פה חלק מהעניין לפני 3 שנים  rothmar itayr2 שמחה ניהלנו אינספור ויכוחים ביחס לנתניהו מתחת עליו ביקורת חריפה מאוד בנוכחותי האם האשמתי אותך אי…  itayr2 איתי אין דרך קלה יותר לקבל לגיטימציה תקשורתית ממעצבי דעת הקהל מאשר לבקר את נתניהו תמיכה בנתניהו הופכת אותך…  nirelkabetz זה לגיטימי תמיד ולגיטימי גם למתוח ביקורת נגדית יש הרבה מבקרים של נתניהו מימין שאני חושב שהם שוגים או…  DannyHendler דעתו של קלמן נוטה להסתדר עם האינטרסים שלו האלמנט האותנטי זו הטהרנות אבל לצדה יש לא מעט אינטרסנטיות…  ציפורי טועה בדבר אחד קלמן לא פועל בשירות בנט הוא פועל בשירות קלמן כשזה ישרת אותו הוא יתהפך גם על בנט הרבה זמן א…  חלק גדול מהזעם וההתפרקות משמאל נובע מחדירתם של קלמנים למיניהם לתקשורת המיינסטרים אני מציע שכמחווה של רצון טוב וכצע…  gtgt זאת מלחמה ואם לא נתעורר נשנה את ההתנהגות שלנו וננהג באחריות ובערבות הדדית אלפי ישראלים ישלמו על זה בחייהם המ…  gtgt את הססטיסטיקה הזו חייבים לקחת בחשבון גם ביחס לבתי כנסת מקומות עבודה וקל וחומר ביחס להתכנסויות המוניות מופקרות ד…  gtgt אם המחשבה היא לערוך ארוחת חג רחבה אצל הסבא והסבתא עם כל האחים האחיות בני הדוד ובנות הדודה האחוזים עולים ומוכפ…  אם מוסיפים את הילדים הרי שבמשפחה של 4 או 5 נפשות יש סיכוי של כשני אחוזים אולי יותר שאחד מבני הבית הוא חולה פעיל ל…  gtgt בערך חצי אחוז מאוכלוסיית המדינה מכיוון שכרגע כל המדינה אדומה ומכיוון שיתכן שמספר החולים שאינם יודעים שהם נושאים…  בישראל יש כעת מעל 46 אלף חולים פעילים מאומתים אם נצא מנקודת הנחה שמרנית שיש מספר דומה של חולים פעילים שלא נבדקו ול…  motymichaely benshapiro akibigman sellameir קריאה מהנה ושנה טובה IsraelGaley השר steinitzyuval לtadmorerez48 ״בשנת 2015 אמר לי בנימין נתניהו שהוא עובד על כך שבעוד כמה שנים נבקר באיחוד האמירויות״ GadiTaub1 מתקפה ערבית על ההנהגה הפלסטינית בעקבות הביקורת שלה על הסכם הנורמליזציה בין האמירויות לישראל העניין הפלסטיני הוא כבר נחלת ה… נפתח עם שר האנרגיה ד״ר יובל שטייניץ ואז ד״ר דורון מצא משה איפרגן ויריב אופנהיימר ולסיום אלי ציפורי גלי ישראל…  YotYotam שלום של הימין  קווי טיסות לבחריין ודובאי שלום של השמאל  אי אפשר לנסוע באוטובוס לסנטר הישג היסטורי ופריים אחד שלוכד 3 עשורים של מאבק רעיוני ומנהיגותי בשעה שמנסה אדם לתקן את המגרעות שבבני אדם ובנסיבות…  BarashiKinneret האנשים שמבקשים מנתניהו את הסכם השלום לאישורם הם בדיוק אותם אנשים שנתנו לאבו מאזן עט ומפית ואמרו לו  אנא שרטט את הגב… amitd441 שמונה שניםשתי קדנציות רצופות אובאמה לא הצליח להזיז כלום במזרח התיכון  חצי מיליון נשחטו תחת המשמרת שלו בסוריה וכמעט כלום לא… IsraelGaley ד״ר רן ברץ לtadmorerez48 ״בישראל יש תרבות של שקר של דיווח לא נכון של סגירת דברים שהמנהלים כבר לא יודעים מה הם מנהלים… IsraelGaley ד״ר GadiTaub1 לtadmorerez48 ״אנחנו צריכים לבוא בטענות לעצמנו הימין עדיין מפחד מהשמאל מהצווחנים בבלפור הימין לא יודע… יום היסטורי נהיה עם פרופ׳ דן שיפטן ד״ר גדי טאוב ד״ר רן ברץ ולסיום עו״ד יוסי פוקס אבל לפני הכל נפתח עם ההולוגרמה…  דסק כתבי החוץ שלנו יעשה הכל כדי למנוע מאיתנו להבין איך עובדת הגרסה האמריקנית של מתפרת צלאח אדין אז גדי טאוב הענק…  arianamelamed אריאנה כל מי שמקשיב לדברים מבין שמדובר בהתנסחות מוקצנת ולא מוצלחת כדי להעביר טיעון על הרדיפה שנתניה…  אין עדות טובה יותר לעוצמת ההגמוניה של ישראל הראשונה מיכולתה לחסל קריירות של אנשי ימין בגלל התנסחות עילגת או בדיחה ל…  זה לא שלום בלי אוטובוסים מתפוצצים פיגועי ירי בכבישים פינוי יהודים מבתיהם וייבוא סיטונאי של גנגסטרים וכנופיות טרור…  Nygy1RF9JeGllpS עורכת גלובס נעמה סיקולר הפתיעה אותנו מאוד עם הווידוי הזה gtgt  יש פה אי הבנה דמוקרטית אחת גדולה לא רק שאין לצרי עין כמונו שום זכות להתלונן אנחנו אמורים להעריץ את מפגיני בלפור ע…  אמנון לורד והודיה כריש חזוני על המזרח התיכון החדש גיל ברינגר על הפוטש המהותי שלפי הפרסומים נשקל כעת בצלאח אדין פ…  GadiTaub1 נראה לי שבימים האחרונים אנשים מבינים את מה שאנחנו אומרים על כמה כתבי משפט כבר שנים שהם מועלים בתפקידם יומיום משועבדים לא… בצלאח אדין יושבים פקידים בורים ומנותקים אין להם כלים להבין את מצבם תיבת התהודה המנותקת שלהם דוחפת אותם לשקוע עמו…  כמו כן יישר כוח גדול למבוגר האחראי במערכת ׳הארץ׳ שהבין שידיעה שטוענת שהיועמ״ש ואנשיו דנים באפשרות לביצוע הפיכה שלטו…  liyaomer התדרוכים שיוצאים עכשיו מהיועמש עברו את גבולות ההזיה מה הקשר בין ביקורתהתקפההתקפה פראית לטענתם כנגד שומרי הסף על עצמם ל… shlomokarhi אם מנדלבליט יעז לקבוע דבר לא חוקי ושערורייתי שכזה הפגנות בלפור יראו כאין וכאפס לעומת מה שיהיה כאן לא נשאיר זכר ממפלגת צ… רק פירומן נרקיסיסטי מעורער בנפשו ובעל נטיות אנטי דמוקרטיות שמצוי תחת השפעת חומרים פסיכואקטיביים קשים יכול להעלות בד…  בדבר אחד השמאל צדק הכיבוש משחית הכיבוש המוחלט של מערכת המשפט והתקשורת השחית את השמאל עד היסוד מחנה פוליטי שלם הפ…  netanelgla מה לדעתכם ההגמוניה היתה עושה למפכ״ל מתנחל מקריית ארבע שלא נותן את הראש של נתניהו ומעליל על ערבי שמת מירי שוטרים שהוא מחבל… מה בדיוק בקונספקט של איזונים ובלמים אתם לא מצליחים להבין אין חיה כזאת שהמערכת תבדוק את עצמה תשמרו את המעשיות האלו…  מחנה פוליטי שלם מגויס לחלוטין לעמדה חשוכה נבערת ואנטיליברלית לפיה המערכת תבדוק את עצמה מחנה פוליטי שלם של בורי…  amitsegal ראש מח״ש אורי כרמל לשי ניצן אחרי שזה סירב לנקות את שמו של אלקיאן ואת שמה של מח״ש מזה שנתיים מוקרבת מח״ש על מזבח האינטרסים… ivgiz אם דברים כאלה נאמרים על ידי בכירים במערכת אכיפת החוק במיילים ומסמכים לא מתאר לעצמי מה נסגר בחדרי חדרים פרקליט שסרח מכירים את הז׳אנר הקולנועי שבו כל המחלקה עושה יד אחת כדי להפליל את השוטר היחיד שמסרב לקחת שוחד אז תיקי נתניהו טיפ…  realadamgold בואו נתעכב שניה על השקר הבוטה של שי ניצן בתגובה לעמית סגל זו נקודה קריטית כשאתה משקר על משהו שרק אתה יודע  זה דבר אחד… amitsegal פניתי לשי ניצן ושאלתי אותו אם התבטא כך על המפכל לא סיפרתי לו שיש לי את המייל תגובתו אלה טענות כזב שקריות מתלבט אם להאמי… IsraelHayomHeb איני יודע עד כמה ניהול המשפט משפיע על netanyahu כשהוא מקבל החלטות בענייני המדינה אבל דומה שהתנהגותו של היועמש מנדלבל… זה שיש פה קבוצה פריבילגית חסרת אחריות שמנסה לחולל אנרכיה בעת מגפה לא מעניק לאיש היתר או לגיטימציה לחקות אותה ולנהוג…  IsraelGaley ״אני משוכענת שגמזו מת להוציא מילה על ההפגנות הוא מת אבל הוא מפחד״  גלית דיסטל לtadmorerez48 ramonhaim 1תשמעו סיפור לפני שנה זעקו הכותרות שבע שנים של שחיתות בכיר בחברה עירונית בירושלים העניק אלפי כרטיסים חינם לאירועים והופע… rothmar תנחשו מה  אנחנו מחזירים עטרה ליושנה  מחר בבוקר פעמיים הפוך עבדכם הנאמן יחד עם האיש שאסור לקבל ממנו הוראות נסיעה כי הוא מצב… הכירו את האילשוך שם פועל שיעניק לנו את היכולת לתאר במילה את יכולתן של האליטות להכניע להשפיט להכפיף לאחוז במקו…  mosheifargan קורונה אומן בלפור  אנשים אשכרה מתעקשים לנהוג ברכב במהירות 180 קמש בכביש עירוני ולא לציית לתמרורים ולחוקי התנועה ולאח… ronnyeps לפני שבועיים נפתחו הישיבות ובאופן לא מפתיע יש התפרצות של קורונה בישובים החרדים אז לפני שהחרדים מאשימים את כל העולם ואשתו… RanBaratz בכל הכבוד מי שאומר שמאז המהפכה החוקתית נהרסה בישראל הפרדת הרשויות מתעלם מכך שיש בישראל שלוש רשויות שלטוניות מוסמכות ברורות… IsraelHayomHeb אפשר לטבוע כאן מושג חדש לאלשך יכולתן של אליטות השמאל להכניע ולאלף שחקנים בזירה הציבורית  מנדלבליט ואלשיך הם החוליה… YossiFuchs אז מה היה לנו בתיק 4000 תיק הדגל של הדיפסטייט נגד נתניהו כתב אישום על כלום שנתניהו נתן שלא אושר כבר עי הרגולטור על כלו… דסק חוץ משפט ותרבות של איש אחד ועל הדרך גם שומר סף הכי מומלץ שיש  IsraelGaley התמלילים שלא תאמו את ההקלטה  עו״ד דוד פורר לשעבר בכיר בפרקליטות לtadmorerez48 ״ברגע שהפרקליטות גילתה את הטעות  יש לכ… הקשר הסודי שר מהליכוד נפגש עם פעילת ליכוד שר לביטחון פנים נפגש עם פעילה פוליטית שמלינה על פגישה בחופש המחאה ש…  ivri99 בגין עושה רושם של אדם לא חכם במיוחד ורודף כבוד שעסוק בעיקר בצורך נואש לקבל הכרה מהשמאל כאחרון הליברליים בימ…  ivri99 לא בנאום ספציפי אלא בכל האופן שבו היא מתבטאת בעשור וחצי האחרונים יש שם שכנוע פנימי זה שזה לא עמוק במיוחד זה עניין אחר פרק 13 במדוע אתה מצביע ימין ומקבל שמאל עוסק בחלקם המכריע של הנסיכים בחוסר היכולת של הימין לשלוט ובהעצמת מוקדי הכ…  לבני היא היחידה מבין הנסיכים שנעו שמאלה שאפשר להאמין לה שמדובר בשינוי תפיסתי ולא באופורטוניזם ובכניעה סוציולוגית ופ…  michaeldvorin חולצה חומה ובלורית מזכיר תהליכים HulaveNatan תודה mxYZGTGV0FoxNG6 תודה JyOuFsvhTi3Nlgs תודה יהודה yossidavidov10 תודה אחי  1 בלי גרם ציניות שמח להיכלל ברשימת 100 המשפיעים של דה מרקר 2 כותרת ענקית וגם כמה פסקאות קורעות צחקתי בקול 3…  בן אדם מוכן להתעורר בשעות לא שעות כדי לראות תופעה כמו לוקה דונציץ ומקבל תעמולה נאומרקסיסטית מרוחה על הפרקט הגופי…  סקרים לחוד בורסה לחוד  ענק מיניסטריון האמת מעלים ידיעות שלא באות בטוב לסובייט העליון בתכלס זה קורע שיש בינינו אנשים שעדיין נותנים אמון ב…  כתבי החוץ שלנו נוטים שלא להביא אירועים רצחניים כאלו לידיעת צופי המהדורות בארץ אבל הם מייצגים את המתרחש ברחובות ארה…  מתוך ׳האינטלקטואלים והשוק׳ של ג׳רי מולר אגב ספר חזק ביותר תיאור של חבל אוסנבריק מערב גרמניה ליד הגבול עם הולנד במאה ה18 מתאר לא רע את ישראל 2020 ישנם חברי ישראל הראשונה…  navedromi התפרסם שבוע שעבר אבל שכחתי לשתף איתכם אז ביום ההיסטורי הזה חשוב לזכור למה יש מי שההסכם עם האמירויות מוציא מהם מרמור מוכר… GadiTaub1 בתחילת אוגוסט היינו ב 5000 מנויים בערוץ שומר סף ביו טיוב עכשיו סוף אוגוסט ואנחנו כמעט כמעט ב 6500 יותר מכל צפייה שהיתה ל… השלום עם האמירויות מעורר חמיצות משמאל לא רק מכיוון שהוא מחליש את פרדיגמת הנסיגות אלא גם כי הוא מפריך שקר נוסף הטענ…  ח״כ עמית הלוי על האמירויות שאול מרידור והסרטון המביך מחברון אריאל כהנא ופרופ׳ עוזי רבי על המזרח התיכון החדש ד״ר…  YaaraZered כמה חוצפה יש לפקיד בכיר ככל שיהיה להדביק לעיתונאים שהעבירו עליו ביקורת מימין ומשמאל את הכינוי שופרות חייבים להפסיק להא… דר רן ברץ הסביר פעם את עניין שומרי הסף בצורה מושלמת   לראשונה מזה מי יודע כמה זמן ממשלת ישראל והדמוקרטיה יוצאים מעימות עם פקידות לעומתית כשידם על העליונה כמו כן בדמוקר…  הפרובוקטורים המקצועיים לא רוצים בחירות ואפילו הם מבינים שנתניהו בחיים לא יתפטר קשה להמנע מהמסקנה שהמטרה היא אנרכי…  תסתכלו על הקלות והטוטליות שבה הם רמסו ואילפו את אלשיך מנדלבליט או מרידור ותבינו את עוצמת המקלות והגזרים שהאליטות ה…  הוא לא דמון הוא שבר כלי עבד נרצע נכנס לתפקיד והכריז על מלחמת חורמה בהדלפות כולל פוליגרפים ותוך חצי שנה של לינץ…  IsraelGaley עו״ד BarashiKinneret לtadmorerez48 ״יש כאן ציבור שלם שמוכן לקבל הכל כולל דיקטטורה משפטית ומערכת אכיפת חוק מושחתת העיק… WTF איזה אימביציל בחיי  GadiTaub1 שמעו זה ממש רק למשוגעים לדבר כי זה ארוך כמו הגלות אבל זה אולי ייתן לכם חיסון מסוים להפגזה המתקרבת בעקבות הדוח החדש של הס… האנרכיסטים נטולי המסכות שחוסמים כבישים צועקים על שוטרים ומתפרעים מחוץ למעון ראש הממשלה אוהבים את סבתא אבל אם אתם רוצים להבין מה באמת קורה בארה״ב  BarashiKinneret מפכל לשעבר מתראיין אצל מול עיתון אותו חקר בעבירה של ניסיון ל מתן שוחד לרוהמ רוהמ סירב לקבל מוציא ספר אצל הנאשם… השלב הבא במאבק פגים בני יומם יזרקו אותם באוויר וכשהשוטרים ירוצו לתפוס אותם יפרצו את המחסום  חצי שנה זה מה שלקח להם למעוך לגרוס לפרק ולהרכיב מחדש את הגיבור המהולל מהשבכ מדהים  בני גנץ נדרש להכריע האם פניו לאחדות אמיתית שתותיר חלק גדול מבוחריו זועמים או שבכוונתו להמשיך ולהכפיש את נתניהו מתו…  noamfathi בוקר טוב סיציליה רוני אלשייך מתערב במשפט נתניהו  אצל מציע השוחד נוני ובעיתון שלו שאמור היה לעמוד לדין אז תפרו פה ראש ממש… המדינה של אמא שלו התקשורת של אבא על כל איש ימין באולפנים יושבים 6 פרשני שמאל שלא נותנים לו לסיים משפט אבל הקולות…  rothmar שומע על הפיגוע בפתח תקווה ותוהה לעצמי אם זה מספיק מקרה קיצון בשביל קרא ומזוז IsraelGaley פרופ׳ בועז סנג׳רו לארז תדמור ״למערכת אכיפת החוק יש המון כוח ואיפה שיש הרבה כוח אתה צריך ביקורת חזקה במשך עשרות שנים הם מ… מאה שנה של רעב ונחשלות בכל מקום בו הקומוניזם נוסה לא מספיקים לבורים משמאל כדי להבין את סכנות הכלכלה המתוכננת ועקרונ…  YaelGreen007 115 אזהרה השרשור הבא ארוך וברובו הוא קשקוש אחד גדול שאני לא מאמינה למילה שאני כותבת בו  למה בכל זאת הוא נכתב כי… Doco28 נתקל באיזה ידיעונת על איזה משברונצ׳יק מסתמן בין ישראל לאמירויות בגלל הפ 35 ובתגובות אנשים  קופצים משמחה יש יש ביבי אכל א… shalomdov770 תודה שלום ארי שביט על מאמרו ׳גדולה שנאת נתניהו מאהבת השלום׳ ניצב בדימוס אורי ברלב על האלימות בהפגנות בלפור עמיחי שיקלי על ב…  ramonhaim 1זה יהיה ארוך ישבתי פעם בועדה לאיתור פרקליט המדינה העידו בפנינו שורה ארוכה של בכירים בפרקליטות שהיו מועמדים וסיפרו על תי… YoavNews1 שאלת השאלות מדוע היועמ״ש מנדלבליט לא דיווח לציבור עם סגירת התיק לשר המשפטים ניסנקורן התשובה מנדלבליט וניסנקורן הסתירו מהצ… שוקינג  לשכת רוהמ פרסמה רשימת פגישות ומכתבים בהם התנגדה ישראל לעסקה הבית הלבן מכחיש את הפרסום שר החוץ של האמירויות מכחיש…  השבוע האחרון חשף את שלושת הלאווים של השמאל הישראלי לא לשלום לא לשוויון ולא למלחמה בשחיתות נשף המסיכות הסתיים והת…  bardugojacob מנדלבליט קווים לדמותו  ב2014 חקר רפק דובי שרצר את האלוף אביחי מנדלבליט בפרשת אשכנזימנדלבליט  חקירה שרודפת אותו עד הי… IsraelGaley ארז תדמור ״מי המטומטם שמשלם היום על הסחבה השלילית ידיעות אחרונות אני באמת מנסה להבין מי הם האנשים הללו״ tadmorerez48 IsraelGaley עו״ד פיני פישלר לtadmorerez48 ״לא שמעתי את התנועה לאיכות השלטון על כך שהיועמ״ש מחזיק בשלושה כובעים בו זמנית יועמש תובע… mosheifargan מנדלבליט שעוסק בניגודי עניינים כשהוא יועמש פנה לפרקליט המדינה כדי שישנה את עילת סגירת התיק אחת הפעולות החמורות ביותר מ… וכאן בראיון למקור ראשון  דקה 130 בשומר סף מלפני ימים ספורים  יגאל כרמון הביא לנחום ברנע הקלטה של ערפאת אומר שהסכמי אוסלו הם הונאה שמטרתה השמדת ישראל ברנע סירב לפרסם והשיב אי…  חשיפה ראשונה האודישן שעברו הערב המועמדים המובילים לתפקיד פרקליט המדינה בכירים במשרד המשפטים המועמדים הרשימו ההכ…  כסף קטן ואף אחד לא החביא גרביים במקרר לא אייטם  בטח פרקליטות מיסוי וכלכלה יקרעו להדר שווקי את הצורה מה לא  ArielKallner ניסנקורן המשטרה לא תחקור יותר את עצמה תראו את היועמש הוא לא יכול לחקור את עצמו פרקליט המדינה אחראי על כך נכון אדוני… IsraelGaley העיתונאי שי גולדן לtadmorerez48 ״יש המון שמאלנים מתונים כמוני שמפחדים לומר בסהכ  ׳תודה נתניהו תודה על הסכם השלום שהבאת… GadiTaub1 שווה לקרא את כל הויכוח בין עמית ורביב לינק למטה אבל זה בעיני המוקד מקהלה שלמה של עיתונות באופן אקטיבי ומודע הסתירה צד של… ErelSegal דרוקר קורא לי בהארץ וגם פה מאפיוזי אבל כשופר הדיפסטייט הוא מגן על אלשייך השקרן מהמימד החמישי החוקרים הפרטיים שלא היו ואום… hananamiur הכל טוב אצלנו מותר לא להסכים מחנה השלום חמוץ מהשלום עם האמיריות מחנה השוויון סוגר את האסי לתושבי בית שאן המחנה הערכי מטייח את פרשות בן ארי לא…  ErelSegal 1 גיא ליברמן פרסם הערב בגלובס globesnews דברים לא מדויקים בלשון המעטה לדבריו הטענה שלליאת בן ארי היה אסור להתמודד במכרז… טקסט חשוב של איתן אורקיבי ״ קבוצות שעד כה היו מנוכרות  או שהתנכרו להן  מזרחים פריפריה ערבים חרדים אפילו מתנח…  hananamiur השמאל לעולם לא יסלח לנתניהו על כך שהוא מוכיח לציבור שהדרך המדינית התבוסתנית ורוויית הדמים שלהם נכשלה בעוד שהדרך המדינית המ… שמעון ריקלין עודד רביבי גדי טאוב ואמנון לורד ריבונות אמירויות והאירועים בדרום גלי ישראל  1065 או 94FM רדיו דר…  מחאת ענק בכיכר פריז  Riklin10 כמעט כל העולם הערבי מריע לנתניהו חזון אחרית הימים של הנביאים מקבל ממשות אך לשמאל המפונק והפריבלגי שמפגין בבלפור זה לא מספיק… rothmar אם אני זוכר נכון אחת הטענות של שופרות הפרקליטות כדי להצדיק את הגשת כתב האישום ההזוי בתיק 2000 הייתה נכון שדילים בין נוני מוזס… GadiTaub1 אין לי דעה עצמאית על חומרת העבירה של עוד ליאת בןארי  אבל ההתגייסות של כתבי לסנגר עליה היא עדות למה שאני אומר מזמן  ביש… akibigman 5 נכסים שווי מוערך 15 מיליון שח אימפריית הנדלן של ליאת בן ארי   פרסום שלי ושל ErelSegal  IsraelHayomHeb  </t>
   </si>
   <si>
-    <t xml:space="preserve">זה הזמן לומר סליחה לסרטון המלא gtgt    ההחלטה ההזויה על הטלת סגר מלא מחר בניגוד לדעת המומחים היא תוצאה של התנהלות פושעת מצד הממשלה בחודשים האחרונים שבשל…  דחייה ועוד דחייה הממשלה בורחת מהשיוויון בנטל מצער שבג״צ נתן דחייה של חודש נוסף לחקיקת חוק הגיוס מעניין עד מתי תמשך הפארסה הזאת הכתבה המלאה  לא יעלה על הדעת שבמדינה דמוקרטית לאדם אחד תהיה סמכות בלעדית בקבלת החלטות גורליות מבלי להתייעץ ולקיים דיון   הצעת ה…  kannnews יור ישראל ביתנו AvigdorLiberman לgolanaryeh על הדיון בסגירת בתי הכנסת מול הגבלת ההפגנות החרדים מתנהלים כמדינה בתוך מד… kannnews יור ישראל ביתנו AvigdorLiberman לgolanaryeh כל הדיון בקבינט הקורונה היה פוליטי נטו לא קשור לבריאות הציבור יש ניסיון… GLZRadio חכ AvigdorLiberman יור מפלגת ישראל ביתנו לamirivgi חוזר ואומר לציבור  אל תסמכו על הממשלה תפעילו שיקול ענייני ותתנה… המדינה צריכה סדר ולא סגר  אלה המהלכים שאני הייתי מבצע כדי לטפל במשבר   בשנה החדשה נעשה פה סדר  Thank you President avucic for your decision to open a Govt Representation and Chamber of Commerce Office in Jeru…  Beytenu נמשיך להילחם למען השוויון בנטל  בעקבות בקשת המדינה לדחות את חוק הגיוס בפעם השביעית החלטנו לעתור לבגץ לא נאפשר שבישראל יהיו… kannnews לקראת סגר  יור ישראל ביתנו AvigdorLiberman לא מבין למה סוגרים בתי ספר אבל הישיבות פתוחות אתה שומע על ההפגנות של החרדי… אני מברך את ידידי מילורד דודיק חבר בנשיאות בוסניה הרצגובינה מטעם רפובליקת סרפסקה על הצעד האמיץ להעלות מחר במושב…  GLZRadio יור ישראל ביתנו חכ AvigdorLiberman לrazibarcay צרם לי שרהמ נוסע לוושינגטון בעיצומו של המאבק בקורונה המדינות האחרות… radio103fm חכ אביגדור ליברמן AvigdorLiberman יור ישראל ביתנו צרם אתמול שבזמן שמגפת הקורונה משתוללת נתניהו נוסע לוושינגטון לחתום… בזמן שביבי חוגג בוושינגטון החמאס חוגג באשדוד ובאשקלון  ״ועדת השרים שדנה בשורת הגבלות הסגר הגיעה להסכמה על סגירת חופי הים לרחצה״ Ynet 1592020  צריך דוקטורט במתמטיקה בשביל להבין את הנוסחה של מתווה התפילות לעומת זאת לא צריך שום השכלה בשביל להבין שאין היגיון ב…  kannnews יור ישראל ביתנו AvigdorLiberman לSyechimovich וYigalGueta על הסגר בחגים מה שצריך זה לא סגר אלא סדר המשבר האמיתי זה… kannnews יור ישראל ביתנו AvigdorLiberman לSyechimovich וYigalGueta על ההסכם עם האמירויות ובחריין מצד אחד יש בזה הישג אבל כנר… לא צריך להטיל עונש קולקטיבי על הציבור כולו בגלל ראש ממשלה שלא סופר את אנשי המקצוע שהוא בעצמו ממנה ושר בריאות שלא מק…  בבדיקת קורונה שערכתי הבוקר התקבלה תוצאה שלילית לנגיף על פי הנחיות גורמי רפואה בשבוע הקרוב אמשיך לעבוד מהבית אף מדינה מתפתחת בעולם לא הטילה שוב סגר כללי כי מדובר בוידוא הריגה למשק ולכלכלה אבל בישראל כולנו בדרך לסגר בגלל שיק…  הבוקר לפני קבלת ההודעה על הצורך להיכנס לבידוד סיירתי בבקעת הירדן בדיוק לפני שנה ב10 בספטמבר 2019 הציג נתניהו מפ…  ״לממשלה שלנו אין מדיניות מי שכופר באמירה הזו שיתכבד ויפרוש במשפט או שניים מהי אותה מדיניות הרי אין אדם אחד במדינ…  זה פשוט בלתי נתפס שאנשים משתמשים באלוהים כתירוץ לאלימות  גינת וליהי גרינוולד היקרות אני רוצה לחזק אתכן למה שקרה…  מאוחר מידי ומעט מידי  בדיוק כמו שאמרתי אתמול כדי שנצליח לנצח את הקורונה נתניהו דרעי וליצמן חייבים להפסיק להתערב…  לממשלה הזאת כבר לא יעזור שום רמזור הדבר היחיד שצריך לעשות לממשלה הזאת זה לשלול לה את הרישיון כי היא מסכנת את כולנו כשמדובר בהכפשות אישיות גם ariyederi מתחיל לדבר עם מבטא רוסי אני אמנם רק 40 שנה בארץ אבל האולפן היה טוב ואנחנו מד…  kannnews יור ישראל ביתנו AvigdorLiberman בריאיון לMichalRabi הממשלה גורמת לאנרכיה  לא היה דבר כזה מקום המדינה חדשותהערב  במקום להחזיק את אזרחי מדינת ישראל כבני ערובה ולהוביל את המדינה לסגר כללי בחגי תשרי בגלל שאתה מפחד מדרעי ומליצמן…  כולנו בני ערובה  קבעתם תוכניות לחגים חבל שלא תיאמתם קודם כל עם דרעי וליצמן בשל הכעס של המפלגות החרדיות החלופה…  GLZRadio חכ AvigdorLiberman באלון מורה עד שהימין לא יצא להפגנה נגד netanyahu  כלום לא יזוז אני מוכן להצטרף לממשלת ימין אבל אין… במקום סגר זה הזמן לעשות פה סדר הגיע הזמן שרהמ ושותפו הרזרבי יפסיקו להיכנע לגחמות של ליצמן ודרעי ויטילו מגבלות רק…  מה מה פתאום  מסכים עם הרמטכל בכל מילה לא מתקבל על הדעת שחיילי צהל יישאו לבד בנטל בזמן שרבים אחרים חופשיים מחובות לא ייתכן…  ההחלטות על מערך הבדיקות חייבות להתקבל רק על בסיס מקצועי לטובת כלל הציבור כולל האוכלוסייה החרדית יש להמשיך ולהגדיל…  אצל ביבי זה קודם כל ש״ס ויהדות התורה ואח״כ כל השאר  שלום תמורת כספי פרוטקשן ההסכם עם חמאס הוא יום היסטורי שנתניהו עומל עליו כבר שנים שנים של סחיטה באיומים שנים ש…  תוכנית הקיצוצים של שר האוצר לא רק שלא תייצב את המשק אלא תפגע בעובדי המגזר הציבורי יש לקצץ רק בשכר הבכירים ובמקביל…  למה משלם המיסים צריך לממן מלוניות למי שמפר הנחיות ומסכן את בריאות הציבור  בשוק הפרטי הנהלה כזאת היו מפטרים בבעיטה  שוב נתניהו מוכיח שיותר מאשר שהוא דואג לאזרחי ישראל ופועל להכריע את הקורונה הוא דואג למפלגות החרדיות ופועל מתוך שיק…  אני שולח את תנחומיי הכנים למשפחת אוחיון היום נקטעו חייו של הרב שי אוחיון ז״ל עי מחבל ארור משכם אני סמוך ובטוח כי…  אין כמו מראה עיניים ומכיוון שבמדינת ישראל מתקשים לקבל החלטות אני מציע שקבינט הקורונה יתכנס באומן והשרים יגיעו באמצ…  בשעה שראש הממשלה דוחה את העברת התקציב למדינת ישראל יש כאלה שתמיד מקבלים ממנו כסף בול בזמן  ההצבעה על דחיית התקציב אתמול מהווה חבלה חמורה בכלכלת ישראל  אין מנועי צמיחה אין בשורה לעצמאים ואין פתרון למובטלים…  נפגשתי הבוקר עם נשיא המדינה רובי ריבלין לדון בנושאים הדחופים על סדר היום הסכמנו כי בעת הזו בראש ובראשונה צריך לט…  4 תאשרו את מתווה הרמזור שימנע סגר מיותר בחגי תשרי  5 תורו על איסור מוחלט של טיסות ישראלים לאומן מישראל או מכל מ…  2 תורו על חל״ת גמיש כך שמעסיקים ימשיכו להעסיק את עובדיהם גם אם זה בחצי משרה והעובדים יקבלו השלמת שכר למשרה מלאה…  כששני ראשי ממשלה מתנהלים כמו שני ילדים בגנון אולי כדאי להזכיר להם שיש פה מדינה לנהל לפני שאתם לוקחים את כולנו לבחי…  הממשלה דוחה שוב ושוב את תוכנית הרמזור של פרופ גמזו ואת המלצתו לא לאפשר טיסות אברכים לאומן מינוי פרויקטור לקורונה…  radio103fm נתניהו רוצה בחירות ולא מסתיר את זה  יור ישראל ביתנו חכ AvigdorLiberman הוא לא מתבייש איבד את כל הבלמים nissim… נתניהו נהנה לשחק בכאילו מבטיח בכאילו שתהיה החלת ריבונות בכאילו שאכפת לו ממשבר הקורונה והמשבר הכלכלי ובכאילו הוא מ…  מפלגת הליכוד הפכה לשס וליהדות התורה אחרת לא ברור מה כל כך דחוף למיקי זוהר תקציב הישיבות בתקופה של משבר כלכלי עמוק…  GLZRadio ההתחממות בדרום  שר הביטחון לשעבר AvigdorLiberman אומר לamirivgi רהמ netanyahu עשה הכל כדי לסכל כל יוזמה ברצועת עזה ל… GLZRadio יור ישראל ביתנו AvigdorLiberman תוקף אצל amirivgi התרגלנו שפוליטיקאים ומנהיגים עומדים מול הציבור ומשקרים netanyahu ו… פרופ רות גביזון כלת פרס ישראל שהלכה לעולמה היום היתה אישה פורצת דרך מומחית למשפט ובעלת חזון  אמנת גביזוןמדן…  הרסתם את המשק עוד החלטה של הממשלה המנותקת מתקבלת בגלל לחץ של דרעי וליצמן ובלי שום קשר לנתונים  מזמן אמרתי שנושא החלת הריבונות הוא תעלול בחירות בלבד אני מצפה שנראה הסדר שלום עם האמירויות שיפתחו שגרירויות וקו ט…  GLZRadio חכ AvigdorLiberman אצל lucyaharish וגקי לוי אנחנו כבר במערכת בחירות נתניהו לוקח את הימור חייו מי שראה את הנאום שלו את… GLZRadio יור ישראל ביתנו AvigdorLiberman מגיב אצל lucyaharish וגקי לוי על דברי סגן השר כהן נגד חכ קושניר הוא היה קצין בגבעתי ס… נגיף הקורונה והמשבר הכלכלי הם הדבר האחרון שמעניין את נתניהו הכותרת בישראל היום מהבוקר מוכיחה מעבר לכל ספק שהוא ממו…  radio103fm נתניהו מרסק את כלכלת ישראל הוא מתנהג כאילו אחריו המבול מפזר את הכסף הזה כשוחד בחירות  יור ישראל ביתנו חכ Avigdor… KnessetT הכדור עגול ואנחנו נפגש בסיבוב יור Beytenu חכ AvigdorLiberman לחכים מהמפלגות החרדיות במליאה יבוא היום לא לעולם חוס… איחולי בריאות והחלמה מהירה לשר הביטחון בני גנץ ivgiz פוטושופ kannnews יור ישראל ביתנו AvigdorLiberman להבוקרהזה נתניהו נחוש ללכת לבחירות ולוקח את הימור חייו  אם בנובמבר הוא יצליח להגיע בל… מה שהכי חשוב לכלכלה זו הוודאות המכשול שלנו לכלכלה נכונה זה נתניהו הכלכלה האזרחים והמאבק בקורונה הפכו לבני ערובה…  פרשת הפוטושופ  הסיפור האמיתי   KnessetT יור Beytenu חכ AvigdorLiberman נצביע נגד ניסיון לדחות את התקציב מ258 כי מה שמדינת ישראל זקוקה לו זה תקציב בנוסף כ… כל הכבוד לשבכ על הפעולה לתפיסת המחבל שהיה מעורב ברציחתם של רסן אלירז פרץ וסמר אילן סביאטקובסקי זל ידע כל מחבל…  הצטערתי מאוד לשמוע על פטירתו של הרב עדין אבן ישראל שטיינזלץ חתן פרס ישראל למדעי היהדות ואחד מהרבנים הדגולים שידענו…  GLZRadio יור ישראל ביתנו AvigdorLiberman לilanadayan1 מיניתי את עצמי לפרויקטור להזזת netanyahu מהשלטון לא מתכוון לשבת תחתיו בשו… GLZRadio יור ישראל ביתנו AvigdorLiberman אצל ilanadayan1 רואה את עצמי מועמד לראשות הממשלה אם זה יבוא להכרעה צילום שריה דיאמנט… ליבי עם בעלי האולמות והזוגות הצעירים שרואים איך החסידים מבעלז מצפצפים עליהם ועל המדינה  במהלך הבחירות אמרנו שגנץ ונתניהו יחלקו את ישראל לחרדים זו דוגמה נוספת לכניעה של הליכוד וכחול לבן לדרישות של המפלגו…  נחשו מי כתב את הנאום שלי שהצליח להרגיז כל כך את חברי הליכוד  kannnews יור ישראל ביתנו חכ AvigdorLiberman במליאת הכנסת אווירת השתקת יריבים פוליטיים היא סכנה אמיתית לכל חברה חופשית מי שנוקט…  התוספת של 400 מיליון שח למפלגות החרדיות בעת הזו זה לא תקציב לישיבות אלא כניעה לדרעי ולליצמן ושוחד בחירות יום אהבה שמח   על פי השכל הישר ביבי צריך ללכת הביתה  במקום להקשיב לגורמי המקצוע במשרד הבריאות ולפרויקטור שהם בעצמם מינו ראשי הממשלה הרזרביים ביבי וגנץ מעדיפים להיכנע…  I just uploaded “ישיבת סיעת ישראל ביתנו עם חיילים משוחררים וסטודנטים…  I just uploaded “יש פה אי צדק והחלטות פוליטיות שנובעות מכניעה של ביבי …  לתשומת לבו של שר האוצר Israelkatz הובא לידיעתי שנכון לעכשיו לא בוטלו תשלומי המענקים לאסירים ביטחוניים לטיפולך  תקשיבו לפרופ׳ גמזו אסור לאפשר כניסתם לארץ של 16000 תלמידי ישיבה מחול לישראל   כפי שהתרעתי במהלך השבוע הכנסתם א…  המחאה היא זכות לגיטימית אבל בואו נכבד אחד את השני  אהבתחינם  zelama אהבת חינם  אני ומלך זילברשלג חיים בשני עולמות נפרדים ומחזיקים בתפיסות עולם שונות למרות זאת ישנם דברים רבים בגינם…  שוד לאור היום   במקום לדאוג לעצמאים ולאנשים שעבדו כל חייהם שילמו מיסים שירתו בצהל ועושים מילואים שוב מנסות המפ…  לא מעניקים הטבות למחבלים  פניתי לשר האוצר Israelkatz בדרישה לעצור מיד את המענקים לאסירים ביטחוניים ובני משפחותיה…  DaphnaLiel כעת בועדת הכספים odedforer דורש מענק גם לחיילים משוחררים עוד 500 ש״ח לכל חייל שהשתחרר בשנה האחרונה במקום לתמוך בחיילים משוחררים אנשי מילואים שעובדים ומשלמים מיסים  שוב נכנעים רהמ ורהמ הרזרבי ללחצן של המפלגות הח…  odedforer ממשלת ישראל אמרה לא לחיילים משוחררים לא לחיילי המילואים ולא לסטודנטים נתניהו וגנץ נתנו שוב לדרעי וגפני לקבוע חלוקת תקציבי… יש אנשים שהממשלה כן דואגת להם  ממשלהמנותקת  לקריאת הכתבה gtgt  רק ככה ננצח את הקורונה  שבת שלום  עכשיו ברור שיש ראש ממשלה אחד ושניים רזרביים  החלטה נכונה וחשובה מי שתורם למדינה צריך להיות בראש סדרי העדיפויות כל הכבוד לצהל ולמשרד הביטחון שהחזירו את התוכני…  היום יובא לכנסת חוק הקורונה שמשמעותו הפיכת הכנסת לחותמת גומי הרצון של הממשלה לשלול מהכנסת את סמכותה לפקח על עבוד…  בימים האחרונים נפגשתי עם המון אנשים הבעיה הקריטית החדשה שעליה אני שומע מכולם בנוסף לאיבוד השליטה עי הממשלה היא…  Beytenu פתחנו שוב את המסעדות  כולנו תקווה שהממשלה תביא מתווה מסודר עם הסדר פיצויים למסעדנים במקום להלחם במשחקי אגו הממשלה לא צריכה ל… התוכנית ממדים ללימודים אושרה בתקופתי כשר הביטחון ובין מובילי התוכנית היו הרמטכל לשעבר גדי אייזנקוט ומנכל משרד הבי…  GLZRadio שר הביטחון לשעבר AvigdorLiberman בתגובה זאת בושה והוכחה לכך שמדובר בממשלה מנותקת שדופקת קודם כל את הצעירים שתורמים לחברה ו… אדוני רהמ netanyahu אולי שכחת אבל תפקידה של הכנסת לפקח על עבודת הממשלה ולא להיות חותמת גומי  אין שום נתון שמראה כי התקהלויות בסופי שבוע הן גדולות יותר מאמצע השבוע ושקצב ההדבקה בהן הוא גבוה יותר ולכן אין שום…  ברכות חמות לחכ חמד עמר על מינויו כחבר בוועדה לבחירת קאדיםמדהב של הדרוזים  ראש הממשלה עשה בלאגן אז אני עושה סדר החלטתי ביחד עם חברי הכנסת ונציגים מוניציפליים של ישראל ביתנו להעביר הלאה את כ…  ערב מרתק הליכוד חובר לרשימה המשותפת שחוברת לכחול לבן כדי להבטיח שליטה של נתניהו בוועדה למינוי שופטים   ממשלהחרטא כבר אמרנו אם מסעדה כמו בראסרי נאלצת להסגר זה יכול אחד משני דברים או שהמשיח בדרך לכאן או שנתניהו בדרך לפנסיה מקווה שהאופציה…  ביבי די  נכשלת בניהול המשבר הנוכחי תודה על כל מה שעשית עד היום הגיע הזמן לפנות את הבמה גם הפעם אני מוותר  נתניהו נכשל  והארץ הייתה תוהו ובוהו ואתם עדיין חושבים שאין עוד מלבדו אני מתחייב אם הליכוד יחליפו את netanyahu אקים איתם קואליציה תוך שבוע  אני קורא לחברי הכנסת מכחול לבן אם נשארה לכם טיפת כבוד עצמי וקצת אחריות כלפי הבוחרים שלכם  תתנגדו להדחת חכ sbyifat מראשות ועדת הקורונה שאפו לחכ sbyifat על העמדה האמיצה על זכותם של חברי הכנסת להצביע בהתאם להיגיון ולשכל הישר ולא בהתאם לאינטרס פוליטי צר של הקואליציה אדוני ראש הממשלה וראש הממשלה הרזברי תקשיבו טוב העם אומר את דברו מנותקים נמאסתם אני תמיד שמח כשיש לי הזדמנות להצביע נגד סמוטריץ ונתניהו אני מתבייש שכנסת ישראל במקום לעסוק בטיפול בהתפשטות המגפה…  יש לנו ממשלת חרטא וראש ממשלה חרטבונה  המפלגות החרדיות מאיימות לפרוש מהממשלה במידה ויסגרו את הישיבות אז שיפרשו זה שנסגרים מסעדות ועסקים כנראה פחות מעניי…  ברכות חמות לאיסמעיל חאלדי תושב הכפר חוואלד שבגליל התחתון שמונה היום לשגריר ישראל באריתריאה חאלדי שימש כיועץ שלי…  אבא וסבא אהוב שלנו לכבוד יום ההולדת השתלטנו לכמה רגעים על העמודים שלך מזל טוב   איימן עודה השתתף בכנס ווירטואלי של פתח וחמאס בנושא הסיפוח הוירטואלי של נתניהו אני מקווה שאיימן עודה והחברים שלו יה…  ביקרתי עכשיו באוהל המחאה של נציגי ענף התיירות בישראל אם הממשלה לא תתעורר מנוע הצמיחה מן החשובים בכלכלה הישראלית…  שמישהו יסביר לי מה ההבדל בין הגבינה בהרצליה לגבינה בתל אביב🤔  בעולם מתוקן ונורמלי היינו צריכים לקום בבוקר ולשמוע שרהמ פתר את משבר חברות ההסעים בעיות האומנים העובדים הסוציאליי…  במקום לקיים דיונים 247 על המצב הכלכלי הקשה של המשק  של חברות ההסעות העסקים הקטנים העצמאים האומנות ועוד שורה של…  יש לי לא מעט שעות בדרכים ולכבוד יום המוזיקה הבינלאומי אני משתף חלק מהפלייליסט שמתנגן איתי שנים  יוםהמוזיקה    מחר בוועדת הכספים בחסות רהמ ורהמ החליפי  שודדי הקאריביים 6  לתסריט המלא בתגובה הראשונהgtgtgt  מחבלים מאז ולתמיד  שמענו את אריה דרעי מצהיר הערב כי הוא מקדם את החוק לפיו יוכר בישראל אך ורק גיור ממלכתי הצהרה זו באה כהמשך ישיר להת…  אליהו ובניהו הם מודל לחיקוי התרגשתי מאוד מהסיפור שלהם מי ייתן וירבו כמותם הם האות והסימן לכך שמתקרב קיצו של חוסר…  ביום שהחוק להשתמטות משירות צבאי יובא להצבעה בכנסת ישראל ביתנו תגיש בגץ במקביל הגשתי לאחרונה הצעת חוק שירות צבאי…  ליבי בערב הזה עם נאווה וברוך הוריו של סמר עמית בן יגאל זל אני מקווה שלכידתו של המחבל המתועב תיתן קצת מזור לכאבם…  AvigdorLiberman תעלומת העלמותו של הכסף שהובטח לעצמאים ולבעלי עסקים קטנים נפתרה  הוא הועבר לאבו מאזן ולרשות הפלסטינית זה סדר העדיפויו… תעלומת העלמותו של הכסף שהובטח לעצמאים ולבעלי עסקים קטנים נפתרה  הוא הועבר לאבו מאזן ולרשות הפלסטינית זה סדר העדיפ…  הספר שבוי פעמיים האוטוביוגרפיה של אבי לב ליברמן זל תורגמה והוצאה לאור עי ילדיי קורא ומתגעגע   שבת שלום מנו…  בתחנת רדיו צבאית אין מקום לאומנים שהם עוכרי ישראל ומכפישים את חיילי צהל בהיותי שר הביטחון דרשתי ממפקד גלצ שזמרים…  השבוע העבירה הממשלה בקריאה ראשונה את החוק הנורווגי שמוסיף עוד 12 מקבלי משכורות מהכנסת כולל לשכות רכבים צמודים ו3…  🤦‍🤦‍🤦‍  הנחת מכשול ברחוב הצחקתם אותי המכשול היחיד שצריך לפנות הוא ממשלת ביביגנץ  KnessetT מה שאמר ליברמן נכון הרמטכל לא ראה את המפות כך אומר אלוף במיל גדי שמני בבוקר טוב כנסת עם IKweller בנוגע למפות תוכנית… הממשלה הנוכחית מבינה רק את שפת הכוח היא חזקה בהבטחות אך מקבלת אפס בביצוע בלי שהשולמנים ואנשי עולם התרבות יפגינו ו…  שוד לאור היום  הממשלה חייבת להקים דחוף את המשרד לחוזרים מלהלהלנד אולי לפחות שם יצליחו להנחית מישהו מהקואליציה על הקרקע  אני תוהה האם הדיבורים על גל שני של קורונה הם לא הסוואה לקטסטרופה הכלכלית ולעובדה שמחר תעבור בממשלה ההחלטה להקמת משר…  במציאות של היום קיצוץ רוחבי של 15  מהתקנים בביטוח הלאומי ובשירות התעסוקה רק כדי לממן לשכות לשרים החדשים והלא נחוצ…  אחרי שעשק את נתניהו הוא בדרך לעשוק אותנו  החדשות הטובות של היום השוער האגדי של בית״ר זה שעליו כולנו גדלנו עוד מהימים של ימק״א יגדל את דור העתיד של הקבוצה…  מה שמשוגע והזוי זה שאתה חכ בכנסת ישראל ולא ברמאללה  דין בוזגלו כדין ליברמן כדין נתניהו נהיה אופוזיציה לוחמת ונציג אלטרנטיבה שלטונית  יש לנו רהמ ורהמ חליפי אבל ראשי הממשלה בפועל הם גפני ליצמן ודרעי   לכתבה המלאהgtgtgt   אנימתבייש אחרי שקראתי את ההסכמים הקואליציוניים שנחתמו עם המפלגות החרדיות אין לי צל של ספק  ליצמן דרעי וגפני מחזיקים את נתני…  אני לא יודע איזה הישגים אם בכלל יהיו לממשלה ה5 של נתניהו אבל שיא בביזיון של כל הזמנים כבר נקבע  שיחקו כדורגל בשבת לפניך וישחקו גם אחריך  שס ויהדות התורה קיבלו הבטחה כי התקצוב הממשלתי שהובטח להן לטובת ישיבות ומוסדות חרדיים יוסיף לעבור גם בתקופת החירום…  אני שולח את תנחומיי למשפחתו לחברה שכה אהב ולכל אוהביו של סמר עמית בן יגאל זל לוחם גולני שנפל הלילה בעת פעילות מ…  שוב חוזרים המראות מחגיגות פורים כאילו שלא למדנו שום דבר   הצטערתי לשמוע על כוונתו של תאל רפי מילוא לפרוש זו תהיה אבדה גדולה לצהל ולמדינת ישראל מדובר באחד הקצינים המרשמים…  הכתבה בערוץ 13 על חסידות גור מדברת בעד עצמה הממשלה המסתמנת מנוהלת על ידי ליצמן ודרעי תקציבים ודיור בר השגה לאברכי…  ממליץ לכל הפוליטיקאים   חיילים בודדים אאוט 36 שרים 16 סגני שרים חוק נורווגי ומעון שרד לממ רהמ אין  הוצאת לימודי הליבה מבתי הספר במגזר החרדי  פגיעה קשה בכלכלה  עקיבא תיקון הליכוד והגוש שלו חברו לרשימה המשותפת והצביעו נגד סיפוח מיידי של הבקעה  akivanovick עקיבא תיקון הליכוד והגוש שלו חברו לרשימה המשותפת והצביעו נגד סיפוח מיידי של הבקעה עדכון מהמליאה ברגעים אלו הליכוד כחול לבן שס ויהדות התורה הפילו הסתייגות שהגישה ישראל ביתנו למתן דמי אבטלה לעצמא…  בני גנץ תחשוב טוב טוב לפני שאתה נותן את המנדט לנתניהו מחר  לאיזה נתניהו אתם מאמינים של היום או של אז  הבסיס עליו נשענת הקואליציה המסתמנת הוא חוסר אמון מוחלט  מי שיש לו ילדים או נכדים מבין שהחזרה ללימודים זו פארסה  אני בזמנו גיבשתי מתווה מאוד ברור להקמת ממשלת אחדות אצה לגנץ הדרך הוא החליט לשבור את הכלים הוא החליט במקום ממשלת…  נתניהו מחפש תירוצים ללכת לבחירות  המסר אחד והיחיד מנאום נתניהו אתמול  הולכים לבחירות התירוץ  בגץ המטרה  פסקת ההתגברות החוק הצרפתי הימלטות מאי…  ברגע שחוק גיוס בני ישיבות עובר במתכונת של מועצת גדולי התורה אני הראשון שהולך להגיש בגץ  אחת מחמשת הדרישות של ישראל ביתנו לכניסה לממשלה היתה הכנסת לימודי ליבה בבתי הספר במגזר החרדי למי שתהה למה עמדנו ע…  בימים אלו בהם המערכת הפוליטית משעבדת את חוקי היסוד לטובת הסכמים קואליציוניים והקמת ממשלה נוספת הנשלטת על ידי המפלגו…  כזה דבר באמת עוד לא היה  דיור בר השגה הולך ומתרחק   ליצמן משרד השיכון המנהל לתכנון מנהל מקרקעי ישראל  דרעי משרד הפנים משרד הנגב והגליל  משה גפני ועדת הכספים…  יום עצמאות שמח לכל עם ישראל  הופתעתי לשמוע את הצהרתו של לפיד להצלת נתניהו על חשבון גנץ אני מקווה שהדברים נאמרו בבדיחות הדעת או הוצאו מהקשרם הגענו ל1126 מיליון מובטלים יותר מ80 מהעצמאיים והעסקים שפנו לקרן לסיוע לא הצליחו לחדור את סבך הבירוקרטיה ולקבל…  אני קורא להוציא את משרד הבריאות מהפוליטיקה ולמנות שר מקצועי שיהיה נקי משיקולים זרים ויפעל להבראת מערכת הבריאות כמה עצמאיים ובעלי עסקים קטנים קיבלו סיוע מהקרן שהקים נתניהו אף אחד לא  יודע מה שאנחנו כן יודעים בוודאות שהוקדם והו…  את נתניהו לא מעניין ש67 מהציבור לא רוצים את ליצמן במשרד הבריאות גם לא מפריע לו שליצמן דורש שהכספים הקואליציוניים…  קראתי בעיון רב את ההסכם הקואליציוני את האותיות הקטנות ואת האותיות הגדולות זה לא יותר מאשר סידור עבודה לגנץ וחסינו…  ממשלת נתניהו ה5 36 שרים 16 סגני שרים  החוק הנורווגי אוסטריה  11 שרים גרמניה  16 שרים כולל קנצלרית ארהב  16…  ברכותיי לאלי ביר נשיא ומייסד איחוד הצלה שניצח את נגיף הקורונה ושב ארצה לאחר 3 חודשים במיאמי מאחל לך אלי בריאות ו…  אני מברך על הקמת הממשלה למרות שזאת לא ממשלת אחדות אותה הציבור רצה והיא צו השעה  נהיה אופוזיציה עניינית אם הממשלה…  ברגע שיור כחול לבן בני גנץ בלם את כינוס הוועדה המסדרת לצורך קידום הליכי החקיקה והקמתה של הוועדה המיוחדת החלטת נשי…  בני גנץ זוהי שעת המבחן האמיתית שלך אני שב ודורש ממך לאשר מחר בישיבת נשיאות הכנסת את 5 החוקים שהגישה ישראל ביתנו ו…  כתוצאה ממשבר הקורונה הפכו רבים מאנשי ונשות המילואים למובטלים או כאלו שהוצאו לחלת על מנת לסייע להם צהל צריך לגיי…  נתניהו וגנץ במקום מופעי הראווה ההאשמות והטפות המוסר ההדדיות תנו דוגמה אישית תקימו ממשלה רזה עם מינימום של שרים… </t>
+    <t xml:space="preserve">AyeletShaked ממשלת ניסנקורןנתניהו קושרת בין הגבלת ההפגנות לסגר כללי וכך למעשה דוחפת עשרות אלפים לאבטלה ללא צורך  ניסנקורן לא מוכן… הליכוד מציג למה אתה בוחר ימין ומקבל שמאל טייק 363788  כמו יין טוב  רפואה שלמה  עם ישראל נפרד היום מאשה גדולה שתיכנס ללא כל ספק לפנתאון הנשים המנהיגות הגדולות בתולדות עמנו  את הרבנית לוינגר זל…  זה ממש לא מצחיק יושבים עשרות אנשים בחלל סגור חלק גדול בלי מסיכות זה חוסר אחריות וחוסר דוגמא אישית  נתניהו כרגיל נכנע למנדנבליט וניסנקורן וכורך את הפסקת מסיבות ההדבקה בבלפור עם סגירה מוחלטת של המשק הוא הופך את המ…  אמר רבי עקיבא אשריכם ישראל לפני מי אתם מטהרים ומי מטהר אתכם  אביכם שבשמים ואומר מקווה ישראל השם מה המקווה מט…  שְׁנֵים עָשָׂר עֲבָדֶיךָ אַחִים אֲנַחְנוּ בְּנֵי אִישׁ אֶחָד  שבטים שונים דעות שונות אמונות שונות העדפות פוליט…  רפואה שלמה ינון רק בריאות  איזה עם יש לנו  שבת תשובה בלי דרשת הרב בבית הכנסת זר לא יבין שנתיים בלי ארי פולד היד שנתיים בלי האנרגיות הבלתי נגמרות שלו האמת הבלתי מתפשרת הנחישות חסרת הבושה והאהבה הבלתי…  כל מילה  נתניהו הפך את ניסנקורן לראש הממשלה האמיתי שלא יתפלא שהוא מתבטא כמו אחרון האופוזיציונרים אבל מה שהכי חמור זה חוסר…  אין על דודי  אם זה נכון שהולכים לסגר כללי על המגזר הפרטי שירסק את הכלכלה ואת הפרנסה של עשרות ומאות אלפי אנשים רק כי ניסנקורן דור…  חיים כץ צודק כאופוזיציה התנגדנו לבחירות כי חשבנו שזה חוסר אחריות לגרור את המדינה לבחירות תמכנו בכל צעדי הממשלה…  ועכשיו שלב סגירת החשבונות   הציבור הדתי צריך להוביל ולא להיגרר עם כל הקושי צריך לסגור את בתי הכנסת ולהתפלל באוויר הפתוח גם ביום כיפור ולעמדת…  השיעור הגדול שלימדה אותי מירית בעשרת ימי תשובה   אני לא מסכים עם KalmanLiebskind עם כל הביקורת הרבה על נתניהו אני לא חושב שמותר לנו להרים דגל לבן במאבק בחונטה המש…  rothmar פעם ראשונה מזה הרבה זמן שאני משתף את קלמן ולא מסכים עם כל דבריו  אני חושב שאם ההליכים המשפטיים מפריעים לניהול המדינה על ידי מ… תשפ הייתה שנה עם רגעים שמחים והתקדמויות אבל גם עם מורכבויות לא פשוטות האמת היא שהרבה אתגרים לפנינו אבל נתמודד אי…  ככה לא עושים צדק  תודה רבה על הבחירה מבטיח להמשיך בעה לייצג את הציונות הדתית בנחישות ובגאווה גדולה גם בשנה הבאה שנה טובה  גיא עושה לכם סדר והוא צודק תקשיבו לו יש עוד שעתיים לקמפיין שיאפשר לעמירם להוכיח את חפותו כן את חפותו בה הוא מאמ…  liyaomer נדיר שאני מבקש משהו אני מבקש שתראו את הסרטון הזה אני לא מכיר את הילדה אבל זה שבר אותי מי שיכול לפתוח את הלב ואת הכיס זה… navedromi אני לא מאוכזבת מחברי הכנסת מהליכוד שלא הצביעו בעד ועדת החקירה פשוט לא היו לי שום ציפיות האמון הרב שהציבור הישראלי נותן בנו מלמד שהוא כמהה להנהגה אחרת כזו שתהיה נאמנת לערכיה קשובה לצרכיו תעבוד קשה כדי…  BarashiKinneret בפעם הבאה שחברי הכנסת מהליכוד יעשו קולות של חתול שרעב לצדק במערכת המשפטית תחזירו להם בקולות של בת יענה  כך נערכה היום השרה רגב לסגר ובגלל זה לא היה לה זמן להגיע לכנסת כדי להצביע על הקמת וועדת חקירה לבדיקת מערכת המשפט…  arutz20 השומר העליון של בית המשפט  חברי הליכוד ובראשם נתניהו מדברים הרבה על הצורך בשינוי במערכת המשפט הבוקר לעומת זאת נעדרו חבר… חברי הכנסת של הליכוד והמפלגות החרדיות הגיעו היום לכנסת לבושים סרבלי עבודה ואוחזים בידיהם כף טייחים פועלים פשוטים ש…  ככה נראית אחריות מי שמכיר את ישיבת הר המור יודע שהדבר האחרון שאפשר לומר עליה זה שלימוד התורה הוא לא הדבר הכי חשוב…  הרמנו עכשיו כוסית לרגל השנה החדשה עם ראשי מוסדות וארגוני החינוך של הציונות הדתית הציונות הדתית היתה ובעזרת השם תמש…  הפלשתינים אין עם כזה הם האויב הגדול ביותר של השלום הביטחון והיציבות במזרח התיכון אין להם שום זכות קיום כקולקט…  אדוני ראש הממשלה netanyahu בצד הישגיך המדיניים תרשה לי להזכיר לך בבוקר הזה שיש גם כמה דברים חשובים כאן בארץ שדחוף…  תודה שלמה קדימה תוביל את הקו הזה במפלגתך מבחינתי תעמוד אתה בראש הוועדה ותוביל את התיקון ההכרחי כל כך בערכת המשפט  החכים החרדים מועלים שוב ושוב באמון הבוחרים שלהם ובהבטחותיהם החוזרות ונשנות להיאבק על תיקון מערכת המשפט הציבור החר…  טקס החתימה על הסכמי השלום הערב בבית הלבן היה בהחלט מרגש ועדיין אפשר וחובה לשאול מה המחיר והאם הוא שווה את זה נתנ…  ברור לו רק היו נותנים לך הזדמנות להיות שר ביטחון היית מחסל את הניה תוך 48 שעות גיבור מקלדת קטן  התנהלות המשטרה והפרקליטות בתיקי netanyahu כפי שחשף amitsegal חמורה ודורשת תיקון כך גם ניגודי העניינים של שופטי…  זה פשוט לא יאמן במקום לאסוף את הנשק הבלתי חוקי שצבור בהמוניו בפזורה הבדואית אוספים את הנשק מהפקחים אחלה עמיר פרץ…  הצורך באישורי תנועה לחזנים ובעלי תוקע נובע דווקא מההגבלות הגדולות שהוטלו בצדק על גודל המניינים ממילא יש יותר מני…  אורי אין דבר כזה ישראל חילונית כמו שאין דבר כזה ישראל דתית לאף אחת מהן אין זכות קיום יש ישראל יהודית עם כ 80…  טיפ מהיר שכדאי להכיר רוצה להסתובב חופשי חופשי בכל ימי הסגר אין בעיה הכנס לתיקך שלט כל שהוא עם סיסמא מטורללת תגי…  תגיד לוחם הזכות להדביק ולהידבק בהפגנות המופקרות בבלפור לא יותר פשוט להכריז על המסעדות אתרי הפגנה של הדגלים השחורים…  בעלי תפילה ובעלי תקיעה לא מסתובבים בכיף בימים הנוראים גוש הם מסתובבים באימה וביראה בחרדת קודש מיום הדין כדי לק…  אתם יודעים למה השמאל ממשיך לשלוט כאן תראו את חילופי הדברים האלה במליאת הכנסת בין יור הכנסת יריב לוין מהליכוד לבינ…  דילמה בליכוד האם להמשיך להתגולל על מערכת אכיפת החוק בנאומים חוצבי להבות אש אבל בפועל לשמור עליה מכל משמר או להיות…  israelganz סיור לילה בעבודות בכבישי בנימין צומת עפרה עוד כמה שעות יפעל עם רמזור חדש מרגש  תודה גדולה לחבר טוב שהפעולות שלו עדיין ר… arutz7heb סמוטריץ נבחר לאחד ממשפיעי ליברל  אהלן שמעון אפשר להתחיל את שינוי התודעה בהצבעה ביום רביעי בעד הצעתי להקמת וועדת חקירה פרלמנטרית שתבדוק את כל העיוות…  זוכרים הכרזות ולקיחת קרדיטים על תוספת של 11 מיליארד שח לתקציב והצלת התכניות החינוכיות והחברתיות מקריסה  אז אחרי ש…  לא מבין מה אתם רוצים מינון מגל הוא ממש לא קרא לרצח עיתונאים פשוט כי אין דבר כזה עיתונאים שמאלנים יש עיתונאים ימני…  עתידות היועמש יורה למשטרה לפתוח בחקירה נגד YinonMagal   למה כי לשמאל מותר ולימין אסור לשמאל מותר לחסום כבישים…  לא צריך את ניצן הורביץ העובדות הן ההוכחה הגדולה ביותר והעובדות הן שלראשונה מאז התחלף ממשל אובמה נתניהו מונע כבר…  תרגע ברק זה בסך הכל מערכון הומוריסטי של היהודים באים ב kann  קורא לראש הממשלה לחשוף עכשיו ומיד את הסכם השלום עליו הוא יחתום מחר ולהוכיח שניצן טועה והוא לא אימץ את קונספציית של…  הליכוד ממשיך להיכנע לניסנקורן והממשלה הזו ממשיכה לא לתפקד שבוע שני שמורידים ברגע האחרון מסדר היום הצעת החוק של…  כבר לפני חודש וחצי פניתי לרהמ ולפרופ גמזו וביקשתי היערכות לוגיסטית כזו שתאפשר לקיים את התפילות תוך הקפדה מוחלטת…  KalmanLiebskind ברוכים הבאים למדינת שושקה  המצב שבו התפילה לא חשובה והפרנסה לא חשובה והבריאות לא חשובה והחיים אינם חשובים וכל מה… שומריה באר שבע ערד דימונה ירוחם ומרחבעם מסיימים יום עמוס בדרום עם מנהלי גרעינים רבני קהילות מנהלי מוסדות חינ…  סמוטריץ למנדנבליט בסיור בנגב מנדלבליט כפקיד אסור לך להגיד לנבחרי הציבור מה לעשות שמחתי לעזור  אם השרים מצייתים…  בימי התשובה עם ישראל דורש שממשלת ישראל תחזור עם תשובה  נדרשת היערכות מוקדמת לחגי ישראל  מענה מיידי לקראת התפילות…  צריך לומר את האמת ההתעקשות של מנדנבליט והכניעה של נתניהו לגבי טרלול ההפגנות בבלפור הם מהגורמים העיקריים לחוסר האמו…  מה שחגי אומר  הוא לא עשה את זה למרות שהיה ברור לו לאן זה הולך  עכשיו הוא נזכר אבל עכשיו אולי כבר אין ברירה וכמי שאמונים על הציו…  ליצמן גם צודק וגם טועה מאוד הוא צודק שהדחיה המכוונת של תזמון הסגר לחגים מלמדת על סדרי עדיפויות עקומים במדינה יהודי…  זה שאנחנו לא יודעים על מה יחתמו שם זה הדבר המסוכן והבעייתי ביותר ואם מקשיבים לקושנר אז יש בהחלט ממה לחשוש  וזו הזדמנות טובה להודות ולברך את אמיר אסרף התותח ראש הרשות הארצית לתחבורה ציבורית היוצא שסיים אתמול את תפקידו ולא…  מי היה מאמין שאוטובוס יכול לרגש ככה בתפקידי כשר תחבורה הכנסתי לתכנית העבודה כניסה של אוטובוס לישוב מבואות יריחו שב…  אין ספק מילים כדורבנות של יור הכנסת יריב לוין ביום רביעי המילים האלה יעמדו למבחן כשהצעתי להקמת וועדת חקירה פרלמנ…  תקראו כדי שנעצור רגע אחד לפני שהדמוקרטיה מתה הפעם באמת  hodayakh אכן יש עניין של מראית עין אבל גם בעניין הזה יש עין טובה ועין צרה אני מעדיף עין טובה אני בכלל לא חושב שטקס החתימה עם איחוד האמירויות הוא חגיגה גדולה אפשר גם להתווכח אם נכון לדחות אותו על רקע המשבר הב…  אופוזיציה עניינית ואחראית שלא חולה בפוזיציה הרסנית קווים לדמותה  הוא לא טס בנסיעה פרטית הוא טס בשבילנו כן בשבילנו בשביל מדינת ישראל בריאותו לא יותר חשובה משל אחרים באופן אישי…  טוב זו דמגוגיה זולה ואני כותב את זה למרות שאני לא חסיד גדול של הסכם השלום עם איחוד האמירויות בשל המחיר שלו בחזרה…  לעיריית בני ברק יש טעם רע מאוד אם נתניהו יביא פסקת התגברות אישית ואיגואיסטית נתנגד לה בכל הכח אם הוא יביא פסקת התגברות כללית שתחזיר את הריבונות ל…  זה כל הסיפור של נתניהו הכל אישי הביטחון והיכולת להרוס בתי מחבלים כדי להרתיע לא מצדיקים פסקת התגברות תושבי דרום ת…  שמח שהצעתי להגדיל את מסגרת התקציב לשנת 2020 ולאפשר למדינה להמשיך להתנהל למרות חוסר האחריות של הממשלה שלא העבירה תקצ…  hadover1 יש כנראה הרבה מאוד אנשים שאתה לא מכיר כיהודים מאמינים חשוב מאוד להתפלל אבל חשוב הרבה יותר להקפיד באדיקות דתית על הנחיות משרד הבריאות לחבוש מסיכות להימ…  גדלתי בבית אל עם הרב נחמיה לביא היד שנרצח בסמוך לביתו בעיר העתיקה בירושלים משפחתו הקימה לזכרו פינה חמה לחיילים ו…  שלום אדוני שר המשפטים AviNissenkorn תלמד ככה שומרים על הדמוקרטיה ועל שלטון החוק  זה מתסכל ברמות על הממשלה נכשלה כשלון חרוץ האחריות עכשיו היא על הכתפיים של כל אחד ואחת מאיתנו שימו מסיכות שימרו…  החלטה של מנדנבליט פקיד לא נבחר על הוצאת ראש ממשלה נבחר לנבצרות עקב סיטואציה שמנדנבליט יצר בעצמו היא הפיכה שלט…  ivri99 אבישי אחי מדובר על פילוט לכמה ימים בודדים על פני לוח השנה שיאפשרו גם לנו להנות באותם ימים ממשאבי הטבע ה…  שי ניצן גדל באותה ערוגה מנהל המחלקה לתפקידים מיוחדים ומי שליווה שנים את מערכת הביטחון ומבחינתו זה היה כמו כפפה לי…  הסיפור הוא פשוט אלשיך הביא למשטרה את התרבות הארגונית המורכבת של השבכ שקרים כוחנות מניפולציות עבודה במחשכים א…  אני קורא לראש הממשלה netanyahu ליור הכנסת יריב לוין וליור הקואליציה וסיעת הליכוד zoharm7 לקבל עכשיו  בישיבת ס…  חוצפה שאין כדוגמתה מנדנבליט ודינה זילבר משליטים את הערכים הפרוגרסיביים שלהם בכח על החברה הישראלית בניגוד מוחלט לחו…  בה אלוקים שומר אדם אחד מצליח לגרור את כולם פנימה רק כשהוא צודק אדוני שר המשפטים ממה אתה מפחד אתה יודע איך קורא…  אנקדוטה לדעתי פספסת כאן אנקדותה שנראית קטנה אבל למעשה מספרת את הסיפור כולו מעבר לריח הפישינג העז שנודף מהידוק החבל סביב…  זאב אל תקנה את הספין הזה שבוע הבא נתניהו ואולי גם לוין עצמו יהיו על מדשאות הבית הלבן בחתימת ההסכם עם איחוד האמי…  כשיור הכנסת חכ יריב לוין לכאורה מי שצועק כל היום על משילות ותיקונים במערכת המשפט מונע באופן אקטיבי את התיקונים הל…  ועדת חקירה פרלמנטרית לבדיקת הכשלים זה מאסט בגלל התחקירים הרבים ובשביל אמון הציבור אני לא מעלה בדעתי שיור הכנסת י…  שבו טוב שלא תיפלו מהכיסא ותנשמו עמוק  עכשיו אני הולך לומר את זה  שי ניצן צודק  ובדיוק מאותה הסיבה צריך לסגור את…  אורי קול מצא את הציוצים האלה שלי שלא זכרתי תודה אורי אז גם אני צריך להתנצל לא בושה טעיתי והייתי חלק מעוול שנעשה…  ביקרתי עכשיו בהתרגשות גדולה במיזם החסד האדיר שמוביל חברי אמיתי כהן במכינת שובו אחים ברחובות חמש עשרה אלף חבילות…  כשיור ההסתדרות יורד ממעמדו והופך לפועל פשוט טייח  אחלה רגבים  אהלן אלמוג למיטב זכרוני גם אם תחפש טוב לא תמצא התבטאות שלי קורא לו מחבל גם לא בזמן אמת כבר אז לא קניתי את גרסת ה…  תירוץ זול ושקרי הליכוד כנראה שוב בורח מהאפשרות לתקן את מערכת המשפט ומסתפק בנאומים וציוצים הייתי סגן יור כנסת וחב…  יופי חברה בפרקליטות המדינה תעשו טובה תמשיכו כך תמשיכו להתעלם מהעובדות להסתיר לטייח ולהדוף כל ביקורת לטעון שה…  החשיפה של עמית סגל על ניגודי העניינים של חוקרי נתניהו מחייבת הקמת וועדת חקירה פרלמנטרית הוספתי להצעה הקודמת שהתמק…  שי ניצן כבר נעצר זה המקום להזכיר את בריחת נתניהו והליכוד מההצבעה על הצעתי להקמת וועדת חקירה פרלמנטרית לבחינת ניגודי העניינים של מערכ…  שאלת מליון הדולר האם מנדנבליט ידע על הסיפור ואז זה מסביר את ההתעקשות שלו על מינוי מומי למברגר לממ פרקליט המדינה…  כלל המעורבים בשחיתות המערכתית שחשף הערב עמית סגל חייבים להיחקר מחר בבוקר השאלה מי יחקור אותם אין סיבה להניח שאפשר…  מה שמדהים זה שתיקי נתניהו מבוססים על טהרנות שמחילה על netanyahu סטנדרטים מחמירים ותקדימיים בשעה שהמערכת שחוקרת ומ…  הפרסום הזה של עמית סגל הוא רעידת אדמה שחיתות עמוקה במערכות אכיפת החוק ששמו צלב על הראש של netanyahu והחליטו שטו…  דווקא בתוך בתי הספר אפשר יחסית לנהל ולשלוט באירוע טוב יותר זאת בנוסף לנזק החינוכי ארוך הטווח של נוער בלי מסגרת תקו…  אני חושש מאוד שסגירת מוסדות החינוך רק תגדיל את ההדבקה ותביא לאיבוד שליטה בני הנוער לא ישבו בבית הם יסתובבו עם חבר…  אביגדור ליברמן הוא פוליטיקאי מסוכן וחסר אחריות קריאתו לא לציית להחלטות הממשלה היא חציית קו אדום אנרכיסטית שמחייבת…  החיבוק שנתנו לו שני ראשי המועצות בסיור אתמול הוא טעות קשה שאסור לעשות הצורך הנכון לאתגר את נתניהו לא מצדיק חבירה ל…  ליברמן הוא איש שמאל שתומך בהקמת מדינה פלשתינית בגבול כביש 6 פוליטיקאי ציני ומסוכן שלא הביא שום הישג ב 30 שנה שלו ב…  IsraelHayomHeb בין המיליטריזם האריסטוקרטי הסמכותני של YairGolan1 לאקטיביזם האותנטי וסלילת הדרך הפוליטית דרך הרגליים  אני לגמרי בצ… לחיים חסידים היום חי באלול יום ההולדת של מייסד החסידות הכללית רבי ישראל בעל שם טוב וגם מייסד חסידות חבד רבי שנ…  סיימתי ישיבת עבודה עם ראש עיריית עמנואל וצוותו העירייה עושה עבודה נהדרת וצריך לחזק אותה ולעבוד איתה בשיתוף פעולה…  כל מילה תקראו  תיראו מופתעים  יש כאן בפיד הרבה ביקורת על ההתנגדות של ראשי הרשויות החרדיות היום לסגר אני חושב שהאופן שבו ההתנגדות הזו מוצגת על יד…  mizhpekramim חברי הכנסת של  האיחוד הלאומי bezalelsm ofirsofer יחד עם מנכל הסיעה yehodavald ביחד ראש המועצה israelganz ביקרו היום… מאיפה הבאת את הקשקוש הזה בתקופתי העבודות הואצו בשל השבתת הרכבת עקב הקורונה ולחלוטין לא התבצעו בשבתות נהפוך הוא מ…  ולמרות זאת מאחר ומערכת הביטחון השבכ והפרקליטות שמו את כל יוקרתם על התיק הזה קשה לי לראות את השופטים אוזרים אומץ…  הודאתו של בן אוליאל הוצאה בעינויים קשים כפי שקבע ביהמש המחוזי שפסל את ההודאה ובלולינות משפטית מופרכת הכשיר את הש…  מסיים יום סיור בהתיישבות הצעירה בנטיעת עץ בשעת דמדומים בישוב מבואות יריחו שזכינו להסדיר בהחלטת ממשלה הסדרת ההתיישב…  כל כך פשוט כל כך עקום  המדינה מיישבת אנשים במצפה כרמים ומקימה ישוב בית המשפט מתפרע במגרש הפוליטי ומחליט להחריב את…  ראשי הרשויות החרדיות צודקים בכל מילה לגבי הניתוק וההתעלמות של הממשלה והעומד בראשה ולגבי חוסר שיתוף הפעולה איתם לכל…  ועוד הסגר אמור להיכנס לתוקף מחר בבוקר עד לרגע זה לא ברור מה הוא כולל אנשים לא יודעים אם הם יכולים לצאת לעבודה או…  בגל הקודם של הסגר שהוטל על ערים חרדיות כל זה לא היה והתוצאה היתה בלאגן אי אמון והתקוממות מוצדקת של האוכלסיה וממילא…  4 הסברה לציבור של רציונל הסגר ואיך יוצאים ממנו מערך ההסברה חייב להיות מותאם לכל אוכלוסיה בערוצי התקשורת וההשפעה ש…  תנאים מקדימים הכרחיים לסגר על עיר 1 מידע אמין שוויוני ושקוף על רמת התחלואה 2 הצבת יעדים מדידים ושקופים שהסגר…  סדום ועמורה  ומכאן לחוות גלעד אחרי רצח הרב רזיאל שבח היד הממשלה החליטה להסדיר את חוות גלעד yaelshevach הגיבורה והמרעננת הרש…  בוקר טוב  אתם בקואליציה שלו לא  הסדרת הצומת כאן  שקידמתי במשרד התחבורה כמו לאורך כל כביש 60 נותנת מבט ותקווה שאפשר גם אחרת גאה ושמח על פיתוח ההת…  תראו הגעתי היום לנופי נחמיה לפגישת עבודה חוק מרקם חיים שמוסמס נותן פיתרון למאות המשפחות בהתיישבות הצעירה הממשלה…  מקבל מהבוקר המון פניות מתושבים בערים אדומות שהולכות לסגר שלא מקבלים שום מענה כלכלי ראשי הרשויות אומרים לי שאף אחד…  ציוץ פופולרי לשבת שבת שלום  אחד הטורים החזקים תקראו  לגופו של עניין  הערתה כמו פסיקות רבות של בגץ בשנים האחרונות משקפת סולם ערכים מעוות לחלוטין מי שזרק את האבן על…  מעניין מה יגיד מזהה התהליכים חכ YairGolan1 על דבריה של סמלת אסתר חיות סולנית הלהקה הצבאית האם היא רשאית למתוח בי…  התשובה המילה אחת לא  התשובה בשתי מילים הוא מפחד  התשובה שהוא יתן בשלוש מילים מתקפה על שלטון החוק  התשובה שא…  3074 חולים מאומתים חדשים ביום זה כישלון טוטאלי של הממשלה שהציבה לעצמה רק לפני כחודש יעד של 400 חולים ככה זה כשאי…  הימין הגזען המשיחי הטרוריסט והצבוע מסית יאיר גולן טינופת צופים של אחדות וקירוב לבבות חנה בבלי ממש  אתה מס…  הבעיה עם נתניהו וההתיישבות היא שהוא פשוט לא אומר את האמת לא אומר את האמת לגבי הריבונות לא אומר את האמת לגבי הסכמת…  זה סיפור מקומם ברמות על שמלמד על אבדן דרך של המשטרה והפרקליטות ועל העוינות הגדולה שלהם להתיישבות אף אחד מהפורעים ה…  זה לא מחדל אבישי זו התנהלות פושעת ומכוונת רדיפה מודעת של נתניהו שבה כל האמצעים כשרים ואם זו ההתנהלות מול ראש ממש…  בראיון לקראת כנס בשבע שייערך ביום רביעי הקרוב התייחסתי לבעיית ההתבוללות ולאיום שהיא מציבה על עתיד הקיום של העם היהו…  ועוד קצת לצורך העובדות עם המעצר הלבישו אותי בגדי אסיר בניגוד לנהלים עצור ימים נשאר עם הבגדים שלו בדיוק בשביל התמ…  גיבור טוויטר אם אתה כל כך בטוח בעצמך אתה מסיר חסינות   שמור כמה טענות הגנה שהסתמכת על כתבות שקריות בניסיון שיי…  חלפ שומרון כל הכבוד ראיתם פעם נהג הסעות לילדים שעומד בכניסה לאוטובוס מברך בחיוך כל ילד לשנה טובה ומחלק לכל אחד שקית קטנה עם חמצוץ ופ…  לא יאמן בעצם כן הכל כבר יאמן במערכת המשפט הישראלית  וגם האמהות שהולכות בעקבות הילדים וגם הסבים והסבתות שמתרגשים יחד עם הילדים לכולם כולם שנה טובה ומתוקה שנת התקדמות…  אתם שם בממשלה לא ידעתם מראש שה1 בספטמבר מגיע מחר לא יכולתם לקיים את הדיון ולקבל את ההחלטה לא לפתוח מוסדות חינוך…  שלום YairGolan1 אשתי לא עובדת עכשיו קורונה אתה יודע ויש לי ברוך השם שבעה ילדים לפרנס כן ירבו משכנתא וכו…  גנץ לא אמר השבוע שעבר בתקיפות שהסתיימו מאה ימי שתיקה והבלגה  הסיפור הוא לא אומן אלא בחוסר הכבוד של הממשלה לחגים המתקרבים  למצוות לתפילות ולמנהגים ולמיליוני אזרחים מאמינים מב…  אני לא תמכתי במעשה של אלאור אזריה אלא כתבתי שאני מעדיף אלף תקלות מהצד שלו שגובות חיים של מחבל בן מוות ולא אחת מה…  צד בויכוח לא יכול לחלום ליריב שעושה לו את העבודה טוב יותר מיאיר גולן 1 גולן מסכים איתי שתגובת החיילים בסרטון היא…  אמירה ערכית נכונה וחשובה  אבל את האצבע המאשימה לא צריך להפנות ללוחמים אלא למפקדים הבכירים ולמשפטנים שכבר שנים מס…  החלטתי להצטרף ליוזמה חשובה ומרגשת לזכרו של חלל צה״ל סמ״ר ליאל גדעוני שצוואתו הייתה להעלות חיוך על פניו של האחר במס…  3 זה נכון שבצבא יש איזו תפיסה שאומרת שהשכל נמצא על הכתפיים במציאות זה רחוק מלהיות נכון וראיה לכך העיוורון המדיני…  יש כאן כמה ליצנים שמבקשים לסתום לי את הפה בסוגיות ביטחוניות בשל שירותי הצבאי אז כמה הבהרות 1 הייתי שר תחבורה בלי…  דורשים תשובות לגבי תפילות הימים הנוראים  את המכתב הזה שלחתי כבר לפני כחודש   אנחנו מתקרבים בצעדי ענק ואין שום חש…  שלום צבי יאללה יאללה כמי ששירת בגלצ בקושי נראה לי עדיף שתתמקד בברכות לימי הולדת  מה זה די כבר לאלימות נגד החרדים  אופס לא יודע התהליך שאני מזהה הוא עוד ועוד אימהות לחיילים שמבינות מי היה יכול להיות כאן בטעות רמטכל וכמה היה י…  מעדיף אלף רבטים בקריה מאלוף אחד שהיה חלק ממכונת הסירוס של לוחמי צהל ומשווה את החברה הישראלית לנאצים בדיוק בגלל מ…  ככה נראית ממשלה שעסוקה בעצמה ולא בעם ישראל עצוב  שנים שפוליטיקאים פחדנים משפטנים קטנים וחסרי אחריות ומפקדים חניכי אסכולת אוסלו מסרסים את צהל והתוצאה היא אבדן הר…  מעדיף אלף סרטונים של אלאור אזריה ולא אחד מביש ומסוכן כזה מי שאימן את החיילים האלה להגיב ככה לא ראוי להיות מפקד עוד…  גנץ לא אמר השבוע שהסתיימו מאה ימי השתיקה וההבלגה  יש עוד כמה פינות יפות בארץ האהובה שלנו שבגץ לא הצליח להרוס  השוטר הזה צריך ללכת לכלא לא פחות  תגיד אדוני השר על מי אתה עובד אין סיכוי שחיות תסכים לדיון נוסף בפסק דין שלה מקסימום תסכים להעביר לבוררות אצל גר…  בגץ מחפה על מחדליו של יור וועדת הבחירות שהוא איך לא אחד מהחברה שופט עליון בעצמו גילדה במיטבה  asafzamir YoazHendel1 צפונבון  קח  YoazHendel1 התמונה הראשונה עוד לפני הנוזלים ולא על האש אל דאגה מוזמן לבוא לאכול איתנו תכף על הכינרת מתחילים תתפללו  לו רק במצפה כרמים היתה גרה איזו אמא תמימה של מחבל בגץ לא היה מאפשר לגעת שם באף בית שופטי בגץ איבדו את המצפן והמצ…  אם בעקבות פסקת בגץ על הריסת מצפה כרמים ישוב לכל דבר netanyahu לא מוביל מיד את חקיקת פסקת ההתגברות וחוק ההסדרה…  ההתיישבות תמשיך להתרחב ולהתבסס על אפם ועל חמתם של שופטי בגץ ושאר המבולבלים ומאבדי העשתונות והמצפון הערכי והציוני…  יש לנו 3 שנים להשלים את החקיקה ולזרוק את פסק הדין הזה של בגץ לפח האשפה של ההיסטוריה כמו פסיקות לא יהודיות ולא ציו…  פסק הדין הזה גם הופך את פסילת חוק הסדרה בטענת המידתיות למגוחכת חוק ההסדרה נפסל בטענה שהוא היה גורף מידי וישנם פתרו…  פסילת סעיף 5 תקנת השוק על ידי בגץ במקרה המובהק ביותר שבו הוא מתקיים ופסיקתו האכזרית והאבסורדית לפינוי הישוב מצפ…  טוב מהתגובות כאן אני למד ששלושה סבים זה כנראה לא 7 דורות אלא 3 מתוך 4 בדור השלישי נשמע הגיוני תודה למתקנים בכל…  AmnonHarari נשמע הגיוני תודה  צריך לבדוק את המקור בגרמנית אבל לפחות לפי התרגום הזה מדובר לכאורה על 9 דורות ולא 3 יאלה משרוקית תרימו את הכפפה…  אכן פרופ אמנון רובינשטיין לא כיהן כחכ באותה התקופה תודה על התיקון  ואם כבר אז עוד נקודה שמפריכה לכאורה את טענת…  יאיר הניתוק המוחלט שלך מערכי העם היהודי ואבדן הדרך המוסרי שלך הם הסיבה שלעולם אבל לעולם לא תוכל להיות ראש ממשלה…  באמת מזמן האנטישמים בהארץ לא זילזלו באיזה סממן יהודי  שאפו גדול לשרה omeryankelevitc גם על הבנת חשיבות ברית המ…  חיים נקטפים אלמנה ארבעה יתומים עוד משפחה נהרסת  אבל מבחינת שופטי בגץ זה כנראה לא מקרה קיצון שכדי למנוע את הב… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שאמרה שרת המשפטים דאז שקד כשנתניהו החל להזדעק כנגד ניצן וצוותו אני מכירה היטב את היועמש ואת צוותו כולל ניצן ולי…  שמונה לתפקידו הוא עשה זאת באמצעות החוק הרי רדיפת נתניהו וכל הטרפת שגרמה לא הייתה אקורד הסיום של הקריירה שלו רתי…  שי ניצן מסוכן לישראל יותר מראשי ארגוני הפשע כך אמרתי ב2013 כי פושע קטן פועל בניגוד לחוק אבל פושע גדול  משתמש…  אמריקניים הפרתם את ריבונותה של ארהב ולמעשה פתחתם נגדה במלחמה לכן בכוונתנו להתגונן מפניכם ולהשיב מלחמה שערה בדיו…  ריבונותנו שלנו והתדפקה גם על גבולותיה של ארהב כנגד כנופיית האג שהחליטה לרדוף אחר חיילים אמריקניים בגין מה שכינו…  נשיא ארהב דונלד טראמפ עושה זאת שוב ההחלטה להטיל עיצומים אישיים על התובעת הראשית ובכירים אחרים בבית הדין הביןלאו…  אבל חשוב להבין זו אכן צנזורה  משטרת מחשבות אם תרצו  ובדיוק מן הסיבה הזו אצא בקרוב עם בלוג חדש ומושקע שבו לא ניתן…  טוב אז שוב צוקרברג החליט לצנזר אותי ולהסיר פוסט שלי  האמת  אין לי בעיה עקרונית עם זה זו החצר שלו ובעקרון זו זכות…  דיווח של אהוד יערי מהיום  מה לא ברור אהוד  חיזבאללה רכשו את החומר מאיראן כדי לדשן את שדות לבנון  לפעמים אני צר…  והוא צדק הייתה לה אגנדה לאשת השמאל וזכויות האזרח הייתה לה אגנדה שמעולם לא הסתירה והיה לה את רוחב הדעת הצניעות…  רות גביזון הייתה קול שפוי קרן אור באפלה ההולכת ומסמיכה יש לה אגנדה פסק אהרון ברק 2005 ופסל את מינוי הקול הט…  הם הרי התריעו מפני ההקמה בפועל של המדינה הפלסטינית ולכן יצאו בקמפיינים נגד הסיפוח וסכנותיו והנה עכשיו התחלפה הסכנ…  בשביל שלום כזה לא הופכים את נתניהו לאתרוג  אפילו לא מבטלים את החגיגה בבלפור אבל גם הימין אינו מתברך בכנות וקוהרנט…  עולם הפוך השמאל רודף השלום אינו יוצא מגדרו בצהלות שמחה לקול בשורת השלום החדשה עם העולם הערבי טוב נו  בינינו  מה…  וחשוב הרבה יותר הוא הרחיב את החזית הרחבה והמאוחדת נגד איראן והנשיא טראמפ קיבל את הטקס שלו היה זקוק ערב הבחירות…  כלומר נתניהו אפילו לא שילם עבור ההסכם החדש בסחורה שלא הייתה לו אלא בסחורה פגומה שעז היה רצונו להיפטר ממנה  וכבר…  אם כל מחיר ההסכם עם האמירויות הוא ביטול הפייק סיפוח הרי שמדובר בעסקת המאה שבה כולם באמת הרוויחו ישראל  הרוויחה כי…  תדע כל אם עברייה כי רצח חיילינו אינו מקרה קיצון עבור שופטי ישראל  כשייכון שלום יגיע זמנה של האמפתיה הגלויה שבוע טוב וילדים בפרט המראות הללו קשים לי כלכל אדם סביר אולם ככל שמדובר במדינה ובאומה המוגדרת מדינת אוייב אני נוצר רגשות א…  להמשיך ולחיות בצל הסכנה הזו מאשר להסיר אותה במחיר שכזה  לכן הגורם לפיצוץ נותר מבחינתי בגדר תעלומה  ונקודה אחרונ…  את הסיטואציה המהותית  וחלקתי אותה איתכם  בנקודה אחת סביר להניח שטעיתי  היות ומדובר בסכנה בהיקף אדיר הערכתי כי מד…   ושחומרי הנפץ העוצמתיים הללו מיועדים היו לשמש נגדנו  במה שצבי יחזאלי מכנה מלחמת לבנון השלישית  כל אדם נורמלי…  אז עכשיו אפשר לומר שזה די רשמי  1 שלא מדובר היה בכימיקלים תמימים  אלא באמצעי לחימה שנצברו על ידי החיזבאללה   2…  כן בניהו עבורך יהודי טוב זה רק בתאי הגזים אבל כשהגזים הללו מתפוצצים אצל מי שהכין אותם עבורך אתה מזיל דמעה תתביי…  AviBenayahu כן בניהו עבורך יהודי טוב זה רק בתאי הגזים אבל כשהגזים הללו מתפוצצים אצל מי שהכין אותם עבורך אתה מזיל דמעה תתבייש אתה זה הזמן ללכלך עליו נראה כי עיתונאים רבים איבדו לחלוטין כל מימד של אחריות לאומית העיקר הכותרת ושיישרפו כולם אז א…  אבל במקרה הזה הייתי נוהג כך עם כל עיתונאי אכן יש לי בטן מלאה כלפי גמזו וגם כלפי סימנטוב ומאותה סיבה ויכולתי לנצל…  עיתונאי ידיעות ניסה לקבל ממני לכלוכים על פרויקטור הקורונה החדש  פרופ גמזו  שבשל מאבקי כחכ לטובת הקנאביס הרפוא…  אם אני חושב שאין למדינה זכות למנוע קנאביס מאנשים בגירים  אז אני ליברל ונאור  אבל אם אני חושב שאין למדינה זכות למנ…  עולם חסד יבנה  ההבדל בין חסד לסוציאליזם  הוא ההבדל שבין נטילת אחריות להשלכתה על הזולת  הדגלים האדומים המתנופפים…  במקום לגייס את הציבור להקריב עבור עתיד ילדיו ממשכנת הממשלה את עתיד הילדים כאתנן לציבור במקום מנהיגות משותפת המציבה חזון גדול ואופטימי מנהיגות שנותנת דוגמה אישית ומגייסת את כוחות האומה לקראת עתיד מלא תק…  אז בואו נמתין ונראה באלו אמצעים תנקוט עכשיו הפרקליטות נוכח עבירת ההמרדה החמורה והאווילית של חכ רול  אל תעצרו את נשימתכם באותה אשמה אגב רול צודק בטיעוניו הממשלה אכן פועלת ממניעים פוליטיים אלא שבכל פעולה של פוליטיקאי יש גם מניעים פו…  לא לציית לסגר צייץ חכ רול הממשלה פועלת ממניעים פוליטיים כשאני קראתי לציבור שלא לציית   ולא מדובר היה אז בש…  מי שהעלה  על סדר היום את האפליה וההתעמרות בעסקים הקטנים הייתה מפלגת זהות למפגינים אני רוצה לומר שחבורת אנרכיסטים…  כאן  בארצנו הקדושה יש את כל סממני הפרוגרס החיצוניים ואת כל יסודות השמרנות והמסורת הפנימיים שמספקים אנרגיה לתחזוק…  אחר תיאוריות לניניסטיות מרקסיסטיות וקיבל מיליונים מזי רעב וגולאגים  או את דיאטת מדורו בוונצואלה זה אותו אספסוף…  במלחמת העולם ה3 אין משמעות לגבולות לאומיים ומשני צידי המתרס עומדות מצד אחד כל הזהויות וכל המהויות ומנגד עומדת של…  הודו לה כי טוב כי לעולם חסדו  השבת נערוך במשפחתנו סעודת הודיה לאבינו שבשמים אשר ברחמיו השיב לחיים ואלינו אחרי ת…  כן  קראתם נכון  מועצת הלול תשלם מיליוני שקלים ללולנים כדי שלא יגדלו עופות  המטרה היא כמובן למנוע את הוזלת המח…  תוכנית המאה נראתה תחילה כהליך החלת ריבונות חד צדדי תוך תשלום מס שפתיים לאויבינו כעת זה הפך להסכם ישראלי אמריקני מ…  שונים המגיעים ממדינות מפותחות שחררו את מערכת החינוך תנו להם ולנו לחנך את הילדים כפי שנרצה שחררו את צהל מן החובה…  עוד גל הגירה אדיר הגיע ארצה ההערכות הרשמיות מדברות על 100 אלף עולים וישראלים חוזרים שיגיעו השנה לממשלה יש תפקיד ק…  והדבקות בהרשעה התמוהה או לחלופין הפגנת יכולתה של המערכת לבחון עצמה מחדש ולשנות את מסקנותיה לאור הסולם שמוגש לה עכש…  עדויותיהם של אנשי מקצוע ההתנהלות שנגדיר אותה בעדינות  תמוהה ביותר מותירים ספק רב אם אכן הראיה החדשה תביא לשחרו…  חף מפשע  כי אינה מסוגלת להודות בעוולותיה שהולכות ותופחות זו התוצאה של מערכת שאין בה אחריותיות accountabilty …  התוצאה היא שהמוטיבציה של כל שרשרת עשיית הצדק  משטרה פרקליטות ומשפט  אינה עשיית צדק אלא שמירת יוקרת המערכת כאילו…  היינו רוצים להאמין כי מטרתה הראשונה והיסודית ביותר של מערכת המשפט היא עשיית צדק  ולכן שדי בראיה המטילה ספק סביר בא…  כשהגעתי כחכ לעצרת בככר רבין שדרשה משפט חוזר לרומן זדורוב הופתעתי לגלות שבשל אימת הפרקליטות לא העז שום חכ להופ…  סוציאליזם על רגל אחת עמיר פרץ תכנן להעלות את המס על יבוא מלט ב175 כדי לסייע לתעשייה המקומית במילים פשוטות…  אם אין כאן בעיה מוסרית אז די לצדקנות כלפי הכדורגלנים ואם יש כאן בעיה מוסרית אזי לא הכדורגלנים אשמים אלא אנחנו …  באמצעות המחוקק  אתם מבינים את המוסר הנשען על הערכים השמרניים שירשנו החלפנו במוסר פופולרי ונזיל הנשען על הצבעה ש…  אבל אנו מבינים שהערך הזה לא באמת התאדה אנחנו רוצים משפחה וילדים ואת המשך הקיום החברתי אז איך נגשר בין הבעיטה בערכ…  אמה מה  אנחנו מנסים לערבב פה את ההיבט המוסרי  וכאן הסיפור הוא כבר לא הסיפור של הכדורגלנים והקטינות אלא הסיפור…  יש בוגרות מאוד בגיל 15 ויש קטינות מאוד בנות 25 אבל המחוקק היה צריך למתוח איזה קו בין אסור למותר אז הוא קבע 16 ל…  הכדורגלנים והקטינות סיפור של בלבול בין חוק למוסר  וגם המון צביעות מה הופך בעילת נערה בת 15 וחצי לשערורייה מוסרי…  אי אפשר לגדל ולשחרר את המפלצת כל עוד נדמה לך שתצליח להסתדר איתה ואז לזעוק מרה רק כשהיא נושכת אותך בתור התחלת תיקון…  פשוט משום שהם ערביים משני עברי הקו הירוק  מי הוא פושע גדול ומילה אישית לרהמ נתניהו כשאתה זועק  ובצדק  על הע…  ואנא אף מילה על שלטון החוק וכל החרטא ברטא הזאת מדובר במדיניות של אכיפה סלקטיבית מדובר באידאולוגיה באגנדה בכל…  אלא משתמשת בה לצרכיה כשהאלימות משרתת אותה היא מתמקדת במה שגרם לה ובעקיפין מצדיקה אותה עע סיקור מהומות השחורים…  בתיהם של 5 משפחות הוחרבו השבוע אם היה זה בית מחבלים שום דבר שמתקרב לכל האטימות המכוונת והמרושעת הזו לא היה מתרחש…  ייתכן שאנו מתחילים לקצור את פירות השינוי התודעתי ביחס לקנאביס שהובלתי לפני למעלה מעשור עד לפריצת המחסום התודעתי במ…  כל מהומות החורבן וההרס האחרונות בארהב התרחשו משום מה רק בערים שבשליטה דמוקרטית הם לא מחריבים בגלל רצח גורג פלויד הם משתמשים ברצח פלויד כדי להחריב אם התחלנו ליפול במדרון הזה של פריצה לבתינו ללא צו ניפול ונוסיף ליפול והעניין ייהפך לשגרה אם אתם לא רוצים משטרה בב…  עד עכשיו דחפו לנו את האפשרות של כל שוטר לפרוץ לבית פרטי ללא צו מכוח תקנה לשעת חירום עכשיו מצהירים על כוונה להפוך ז…  ErezZadok1 ארז יקר תודה על הפירגון אבל הוא לא מגיע לי אמנם נתניהו הציע לי להמשיך את ההסכם איתו במועד ג אך אני…  החלטת שר האוצר להוסיף ולהפחית את המכס על ייבוא החמאה היא למעשה החלטה להוסיף ולהוציא את ידי הממשלה מכיסי האזרחים לה…  ציינתי כבר שכל דבר טוב שהממשלה הזאת תעשה אני אראה כבונוס והנה שר האוצר כץ מפתיע עם בונוס ראשון בכך שלא נכנע לש…  לראיון המלא אצל אראל סגל ErelSegal   מאחד כזה קל מאוד לגזול את זכויות האדם ולקברו חי במקום לזכות לפחות מחמת הספק ולשחרר מתיבת הפנדורה את כל חטאי המ…  עמירם לא מצטלם טוב מן שחור ברסלבי תימהוני שכזה אחד שאפשר להכניס למגרה סטראוטיפית ולהמשיך בטרדות היומיום הוא לא ה…  מתייצב לטובת מעשה הנבלה ובמקום להגן על עשרות נערי המגזר העצורים נותן רוח גבית לעינויים  ומבקש שכר כפנחס הימין ה…  חבל התלייה נכרך עוד בטרם החל המשפט מחול שדים של תקשורת התובעת את ליטרת הדם שר ביטחון חסר עמוד שדרה יעלון שמספ…  אל עמוס ברנס זדורוב ועוד לא מעט מן המורשעים ברצח על לא עוול בכפם הצטרף היום באופן רשמי גם עמירם בן אוליאל העובדה…  לימין לדורותיו לא הייתה אלטרנטיבה של ממש לדרכו של השמאל לשמאל יש אידאולוגיה שמטרתה שנהיה עם ככל העמים מדובר ברעי…  שנית אני מלא כבוד והערכה לציונות הדתית אבל לא מחשיב עצמי כחלק ממנה כהנהגה פוליטית היא חדלה מלהתקיים בכפר מימון ב…  בראיון אצל מנדי וביתאן המראיינים החליטו שאני חלק מהציונות הדתית תחילה הסברתי שבקונגרס הראשון של התנועה הציונות ה…  יש נק מסוימת שהגיע הזמן להבהיר כי יש כמה שאולי לא הבינו – ההסכם שלי עם נתניהו היה תקף רק למועד ב וכידוע לא עלה…  אלא שגם גרמה לעיכובים באספקת הצרכים החיוניים עם פרוץ הקורונה אז עכשיו זה לא חכ פייגלין זועק אלא דוח של המלל נו…  אז עכשיו מתברר מדוח של המלל שחברת שראל  ההיא שמקבלת במשך עשרות שנים פטור ממכרז עבור האספקה של כמעט כל בתי החו…  מה שהרג את עמית היא הקונספציה לפיה זה צודק ומוסרי לסכן את לוחמינו בכדי לשמור על חיי האויב מי שהרג את עמית זה הדור…  כמו נירון קיסר המוקסם מהאש האוחזת ברומא כך ממשיכה החבורה העיוורת לתוצאות מעשיה לשקוע עמוק יותר ויותר בתוך הפארסה…  רבע מאה ויותר שיקע עצמו בית המשפט העליון יותר ויותר עמוק במרחב הרשות הנבחרת ולמעשה החליף אותה אני מביט על החבורה ה…  מפלגת הבגצ לא רוצה להצטייר כמי שהובילה לבחירות רביעיות ובוודאי לבחירות שכמו שזה נראה עכשיו המרוויח הגדול מהן יהיה…  האחד במאי  מנהיג הפועלים שמש העמים  שהרעיב והשמיד עשרות מיליונים מבני עמו בשנות השלושים  ושכמעט השמיד את חמשת מ…  כמו שאת זכר השואה עיקרנו במכוון ממשמעותו כך עשינו גם לזיכרון הנופלים התוצאה היא תשדיר פרסומת בשידור הציבורי המזמי…  ותקשה על העברות ההון האם קלות עשיית העסקים תישאר גרועה האם את גל העלייה המסכם את שיבת ציון המודרנית נדע לקבל בלי…  עכשיו אלו כבר לא רק הערכותיי ותפילותיי עכשיו זה רשמי  וזה נפלא האם נצליח הפעם לעשות את זה נכון האם נדע להכין את…  מחיר האחדות כך מסתבר הוא בית משפט עליון המציב עצמו ללא שום עכבות בחוד החנית של האגנדות הפרוגרסיביות המטורללות בי…  בית דפוס שסירב להדפיס כרזות בעלי תוכן להטבי נקנס השבוע עי ביהמש לדעתי מי שלא מעוניין להכניס לבית הקפה הפרטי של…  הימין היה ונותר בנוי על שלילת השמאל ועל אתוס הביטחון בלבד הם יפרקו מאחז בזמן הקורונה אבל לא יעשו סדר בנגב אפילו…  בעידן של שבירת הזהויות הישנות והגלובליזציה  ברגע משבר הקורונה אף אחד כולל הגלובליסטים לא נושא עיניים  לא לאום…  יונית לוי יש מיליון מובטלים  אין לכם סולידריות יפה בן דוד לא מכבדים את המורים אנחנו צריכים תקציב להוספת ימי עב…  אתמול נתקלתי בהצעת חוק מסוכנת ובלתי מוסרית שמנסה לעשות זאת בכפייה זה קומוניזם זוחל מי שפגע בקדושת הרכוש הפרטי י…  הריסת 7 הבתים ביצהר פיגוע הדריסה והדקירה והקשר ביניהם אמנם חדלנו מן הטרור בעת הקורונה  לכל העולם וגם לנו יש עכש…  עוד מעט וניכנס לשבת כשבאופק מתקדרים ענני מועד ד היהודים צודקים  אנחנו הרוב הלאומי הישראלים צודקים  אנחנו הרו…  באיראן מחליטות האייתולות מי יוכל להתמודד בעתיד בתורכיה מחליט הרודן מי מתמודד עכשיו בשמאל הישראלי מנסים לקבוע מי יכול היה להתמודד בעבר     נכון לעכשיו חסרים לפחות 5 מנדטים של אנשי ימין כדי לסגור את הפער   המשמעות של ממשלת שמאל כלכלית בראשות ניסנקורן היא…  ימינה ועוצמה לא רצו את זהות ברגע האמת לכשפרשנו עטו כמוצאי שלל רב על מצביעינו   נתניהו אמנם ביקש מזהות לפרוש אך…  אינני מתפאר בזה זו הייתה חובתי אני מציין זאת כדי שתדעו שאם תכניסו אותי לממשלה אמשיך את המאבק משם כשבאמתחתי הסכ…  את חוק הלגליזציה לחולים אני מתכוון לכנות  חוק סיוון מימוני  אני יודע היום בחירות וכל הלשונות הרעות תשתלחנה עכש…  לכו להצביע אל תשאירו את גורל העם שלנו בידי מפלגות השמאל והערבים  כל קול קובע האם המחנה הלאומי ינצח ויקים ממשלה עם…  חברים יקרים אנחנו בשעת רצון הזדמנות היסטורית לממש את המצע של זהות הזדמנות היסטורית להכניס שר של זהות לממשלה הזד…  אני פונה אל כל מי שרצה לראות את זהות בכנסת במועד א וקמו ככ מאוכזבים   חברה שימו לב מה השוכן במרומים שולח לנו…  YinonMagal פליטת הפה הכי משמעותית עד עכשיו של גנץ   לפעמים קשה לדעת מה טוב זה זה עשוי לבלבל אבל קל מאוד לדעת מה רע  קבלו הזמנה אישית לכנס בחירות שייערך היום יום ראשון 150919 בבת ים  הכנס במעמד ראש הממשלה בנימין נתניהו רעייתו ה…   8YCfDdd8cf2MGNV בשביל זה תומכי זהות מוכרחים הפעם להצביע מחל מאז הסכמי אוסלו הארורים  זו פעם ראשונה שהימין מציב אסטרטגיה חלופית לזו של השמאל  האמירה של רהמ על ריבונות בשטחי…  בכדי לממש את רשימת ההישגים המרשימה עליהם חתמתי בשמם ובאישורם של כל מתפקדי זהות  נדרשת ממשלה עם זהות  בבחירות הק…  תיעוד מצולם של הקלפי לבדה ההצבה ועד סיום הספירה והדיווח  הוא צעד בונה אמון המאיר באור יקרות את ההליך הדמוקרטי…  חברי זהות הצביעו ברוב מוחץ בעד ההסכם של זהות עם ראש הממשלה נתניהו והם פועלים בכל כחם ומרצם בכדי ליישמו הפעם אנחנו…  מי היה מאמין  קנדה מוכנה לקלוט 100000 פלסטינים  כמובן מי שקרא את הפרק המדיני במצע זהות אינו מופתע כלל ועיקר…  בבחירות הקרובות אנחנו מצביעים זהות בפתק מחל  כי אנחנו כאן כדי לשנות  כי אנחנו יודעים איך  כי אנחנו לא באנו לשנוא…  ההסכם בין הליכוד לזהות מתייחס בין היתר למכת המסתננים בדרום תל אביב ובאזורים נוספים בארץ  מתפקדי זהות היקרים הצביעו בעד  ב1100 אעלה ללייב בדף הפייסבוק שלי    מוזמנים לצפות רהמ בנימין נתניהו מביע כוונות חיוביות לעמידה בסיכומים בין הליכוד לזהות  talschneider Sykocan המראיינת ובצדק רב ככ התרגלתם להיות תוקפניים ומגעילים עד שאתם מאוד מופתעים שלעיתים נדירות זה מכה בכם בחזרה talschneider Sykocan שלום טל התרגלנו שלהיות תוקפני ומגעיל זו פרווילגיה ששמורה לעיתונאים בלבד ובכן  מראיינת בכי…  היום בשעה 1600 אשיב לשאלותיכם בעמוד הפייסבוק שלי מוזמנים YehudahGlick netanyahu ZehutHerut תודה יהודה לב טהור מביט מעל לגובה הדשא ללייב שלי עם ראש הממשלה בנימין נתניהו  yairlapid המצע הכלכלי של זהות מבוסס כולו על קיצוצים וחיסכון במגזר הציבורי זאת בין היתר בשל גירעונות שאתה יצרת yairlapid שלום יאיר אינני מעשן  אבל נלחמתי בשרת הבריאות שלך כשמנעתם מן החולים את זכותם הבסיסית לקנאביס רפואי לע…  דר רונית דרור מספר 3 בזהות חקיקה לא שוויונית מעצימה את המלחמה בין המינים במיוחד כשמגיעים לגירושין זאת באמצעות מ…  הכלכלן גלעד אלפר מספר 2 בזהות הבחירות הבאות הן על השאלה האם ישראל תתקדם לכיוון שוויץ או שנתדרדר באמצעות פופוליזם כ…  אנחנו אומרים את האמת גם כשהיא לא פופולרית אנחנו נשכבים על הגדר בעקבותינו כולם דיברו על לגליזציה כולם מדברים על ל…  כנסו ללייב של כנס זהות יהיה מעניין  מוזמנים   הזדמנות אחרונה להירשם ולהגיע לכנס gtgt    דרכי הגעה לכנס gtgt    טבלת…  היום יום שלישי בשעה 1900 זה קורה   כנס זהות  מחזירים תמדינה לעם   כל הפרטים על הכנס gtgt…  תגובתי לפרסומים האחרונים  מצב הביטחון לא ייפתר אם לא נרד לשורשה של הבעיה מה שאבד לנו כאן זו לא היכולת הטכנית – כי אנחנו הכי חזקים באזור זה…  יש קשר הדוק בין היכולת של נערה לשכשך רגליה במעיין בשומרון לבין האיום על תא על ידי חמאס חיזבאללה והאיראנים ואף עם…  3 מעמד תושב גרין קארד למי שבוחר להישאר ואינו טרוריסט 4 מסלול אזרחות מובנה למי שרוצה לקשור את גורלו במדינה הכו…  מקסימום להתמגן עוד ועוד באלעזר יש כבר יש בודקה לחיילים זהות מציעה אלטרנטיבה כזו שתייבש את ביצת הטרור שתבהיר לכ…  בריטואל חוזר של מוות ושכול מתייצבים השחקנים במקומם הצפוי קורבנות השלום והפוליטיקאים לאשר תוכניות בנייה להרוס…  מוזמנים  YoelH5 הממ לא זכור לי שהגבת כך לגירוש יהודים מביתם החוקי לא עידוד הגירה אלא גירוש וחורבן בכח אה רגע  הם בארצ…  המציאות דוחקת לכיוון התוכנית המדינית של זהות שכוללת עידוד הגירה של ערביי עזה לפי מחקרים וסקרים שפורסמו  יותר ממח…  יש קשר ישיר בין הרפיסות בהר הבית בתשעה באב לבין פיגוע הדקירה הנתעב אתמול בעיר העתיקה לינק לראיון שלי בתכנית השיטה של איציק מצרפי בגלי ישראל על מפלגת זהות  מי שמבקש שוויון בסוף מוצא את עצמו מתחלק בעוגה שהולכת וקטנה חברים יקרים גם היום הפעילים הנמרצים של זהות ממשיכים לשטוף את המדינה   אנחנו ברגע האמת  אתם מוזמנים להצטרף ולהשפי…  Riklin10 שמעון מותק  אלה לא היו האמריקנים אלא הבריטים ציטטתי במאמר ישן את הנציב הבריטי הראשון לסיני לורד דארו…  הדיון בפסילת אזרחים מהתמודדות הוא חתירה תחת הערך הבסיסי ביותר של הדמוקרטיה להכרעה בענייני עברות על החוק  יש בתי מ…  מפלגת זהות היא חלק מהמחנה הלאומי  תהיו בטוחים שלא נלך עם השמאל והערבים  אבל אנחנו שבים ומדגישים  מה שחשוב לזהות…  עמיר היקר amirperetz  אתמול בעקבות פרסום הדרך לוונצואלה שאתה מתכנן לנו הזמנת את ראשי המפלגות להתעמת מולך בנושא…  2 לחלק היצרנים יברחו והמדפים במרכולים יתחילו להתדלדל החדשות הטובות הן שכולנו נרד סוף סוף במשקל  בוונצואלה קוראי…  1 שלום amirperetz כסוציאליסט מובהק התכנית הכלכלית שהצגת חסרה כמובן את רכיבי העלות ומקורותיה התקציביים שהרי ע…  מקדש מילים ומנגינות  שווה להיות שוב אצל אופירה וברקו  הערב ב1800 קשת 12 לפני שבת  שבת שלום  מפלגת זהות מתכוונת לעסוק בסוגיות חברתיות שאף מפלגה אחרת לא עוסקת בהן  הרצח הנורא הבוקר הוא תולדה של תפיסת אוסלו לפיה הארץ הזו איננה ארצנו  זו ארצנו אבל גם ארצם   לא אנחנו לא מהאו…  התייחסותי לדיווח בערוץ 13  ברור לכל שלא נחליף את החזון והבשורה של זהות תמורת כיסא כזה או אחר תמורת כיסוי החובות או כל אתנן פוליטי אחר זהות…  ברור לכולם מי משתמש ברעיונות עבור הפוליטיקה  ומי משתמש בפוליטיקה עבור קידום רעיונות  הפעם אל תתנו להם להפחיד אתכם  מכתב מרגש שקיבלתי לכבוד יום הולדתי לפני 4 שנים נחשפתי לרעיונותיך ביוטיוב אני חייב לציין שלפני כן הייתה לי בראש ה…  וגם בטוויטר  הם לא רוצים מדינה הם רוצים שלנו לא תהיה הם מעולם לא דרשו מדינה בשטחים כשאלו הוחזקו בידי ירדן ומצרים הדרישה שלה…  ההגדרה העצמית הפלסטינית אינה ריבונות של הלאעם הזה בארץ ישראל אלא שלילת הריבונות היהודית מטרת היהודים בפלסטינה…  לינק לראיון המלא  זהות מביאה פוליטיקה של תוכן ותרוץ עצמאית בבחירות הקרובות  בשורת החירות תהיה בכנסת הקרובה ובגדול  הבוקר התראיינתי…  המצע והרעיונות של זהות הם נר לרגלנו  אנו מבקשים את אמון הציבור על מנת ליישם אותם באמת   אנו נחושים במטרה זו אך נכ…  מי שטרח בערב שבת יאכל בשבת  מי שמעל לחודשיים מפעיל מדי שישי עשרות דוכנים ששיכנעו עשרות אלפי אנשים מקבל הערב 4 מנ…  המבנה הנכון לרוץ מימין לליכוד הוא דו ראשי גוש ימניליברלי וגוש ימניחרדלי  הנה דברים שאמרתי לנסלי ברדה בחדשות הבו…  לסרטון המלא    הזהות הלאומית והחירות האישית הן שני הצדדים של אותו המטבע  דרכי הפוליטית החלה במאבק על הזהות ועם השנים הצטרף אליה ה…  כשאתה תולש דף ומקריא מהמצע של זהות  זה עדיין לא הופך אותך לליברל   צפייה מהנה  המבנה הפוליטי שבונה איילת שקד יבריח שמאלה קולות ימניים ליברליים ועשוי לשלוח את שקד לאופוזיציה  האזינו לראיון שנתתי…  השביתה היא נשק יעיל של עובדי המדינה כי המדינה היא מונופול כשעובדי חחי רוצים לשבות אין חברת חשמל פרטית שתספק חש…  תקווה היא לא מילה גסה אם אתה מאמין ביכולתך לשנות עכשיו הזמן להתפקד לזהות    מטה טבריה  שעה 1100 בצומת הרחובות הבונים ובטיילת  מטה צפת  שעה 1000 רח ארלוזורוב…  פעילים ותומכים יקרים נוהל שישי בשטח  מטה כרמיאל  שעה 1100 בקניון לב כרמיאל ‐ מטה נהרי…  מזמין אתכם לצפות ולשתף את סרטון של הפעיל הנפלא שלנו עידו שוב שמסביר לעומק למה זהות  כל מילה  3 שי מלכה 4 ד״ר רונית דרור 5 עו״ד ליבי מולד 6 ד״ר רפי מינס 7 אלברט לוי וכן הלאה  במידה ותהיה ריצה משותפת בב…  ביום ראשון הקרוב יתקיימו בזהות פריימריז על תפקיד יו״ר התנועה ליו״ר שייבחר יקבל את הכלים הסמכות והאחריות לקדם את…  הפעיל היקר שלנו עמרי קינגסלי כשאמרתי שאני תומך בזהות קראו לי מסומם שונא נכים וגזען אמרו לי שבגלל שאני הומו דתי…  חברות וחברי זהות היקרים  את המשבר שנוצר במפלגתנו נפתור באמצעות הצבעה דמוקרטית של כלל חבריה  לסרטון המלא  עדכון גבעתיים שונה ל12 במקום 11 1100 גבעתיים  גם אני אהיה שם רח כצנלסון פינת וייצמן יונתן 0548301330  1130 מודיעין קניון עזריאלי ברחוב לב העי…  1100 מטה בית שמש יוצא לשטח במרכז המסחרי רמת בית שמש ג איש קשר יהודה 0505799903  1100 מטה יקנעם יוצא לשטח בביג…  1100 מטה כרמיאל יוצא לשטח בקניון לב כרמיאל ברחוב מורד הגיא 100 הראל 0509980338  1100 מטה קרית שמונה יחד עם הרב…  חברים מחר יום שישי הצוותים שלנו ימשיכו לשטוף את השטח 900 מטה אשדוד יצא לשטח בכניסה לחוף יא איש קשר אלון 05382…  אדם ללא דירה הוא אדם ללא חירות  היכולת להגיע לדירה בישראל הולכת ומתרחקת ועמה מתרחקים גם צעיריה  הפתרון לא טמון ב…  צפונים יקרים פנויים הערב יום שני  ליברטריאן חסר חמלה כך כינה אותי חכ אבי ניסקורן AviNissenkorn בשישי תרבות האחרון בבית שמש בהנחיית אטילה שומפל…  תראו איך נראית תקווה לעתיד טוב יותר הצעירים של זהות  אין לנו ספק שעוד תשמעו עליהם  ובעיקר אותם  בינתיים אתם מ… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaya9053 judash0 גיבור AdlerShiri7 ברור יהודי חברוו הם נאצים בדיוק אותו דבר למה שכחו להפעיל כלפיהם את החוק לעשיית דין בנאצים בערך כמו להאשים את הרצל בכל העבריינים שקמו במדינת ישראל  מרים לוינגר היתה ללא ספק החלוצה שלפני המחנה בהתיישבות היה…  LettheShofarBlowonZion  urizaki YinonMagal תיכף נראיין את רחל ונשמע מה יש לה לומר על החזן 1nitzan והמברכת תתברך בכפלי כפליים danizaken מקסים KseniaSvetlova קסניה יקרה תנחומנו וחיבוקינו judash0 אכן  המציאות האופטימית מעבר לכל דימיון ולכל ציוץ עכשיו רק למצוא את הדרך להביא את היופי הזה למרקע 1nitzan ריגשת yanivbiton99 אדיר talshalev1 asafzamir אסף פוליטיקאי ישר והגון דברים יוצאים מהלב הכנות ניכרת בכל מילה שותף לתפילה לאיחוי הקרע והשבר  נותרתי אופטימי YakiAdamker סוף תפילת נעילה בכיכר דיזנגוף בתל אביב כמה יפה  Ahmadtibi הילד המתוק מג׳ד שחאדה בן 8 מכפר יאסיף נהרג בתאונת סקייטבורד לפני כמה ימים משפחתו האצילה תרמה את איבריו שהצילו 3 בני אדםהל… Ahmadtibi כל הכבוד בהחלט אצילי ביותר SaraHaetzniCohe אין על השכונה המקסימה הזאת פארקים ותפילות לרוב  אין לקבה תירוצים השנה חובה שתהיה שנה טובה mossiraz אמן SaraHaetzniCohe לגמרי והשנה בחוץ  העוצמה כפל כפליים MyEvilOtherSelf ruthelbaz מקוה שהיה מועיל ruthelbaz התחשמלת yoshela שפע טוב סולח ומוחל  לכל מי שהחמיא לי  ולא הגיע לי  סולח ומוחל  לכל מי שהשמיץ אותי  ולא הגיע לי  נשתדל  לא להשתכר מאלו  ולא…  אדון הסליחות  בוחן לבבות חטאנו לפניך  רחם עלינו  ועל כולם  אלוה סליחות סלח לנו מחל לנו  כפר לנו sebastiankurz Shana Tova Chancellor DanielBShapiro JulieFisher4 CalforNC stevebullockmt Hickenlooper CaptMarkKelly GreenfieldIowa harrisonjaime…  AryeErlich אני מגיע אתמול לערבית של מוצש בבית הכנסת נער במבט מפוחד בן 15 בלי כיפה עומד בחוץ שקית ביד רוצה להגיד לי משהו עברתי… YoniYofe 🧡חייכתני אתה ואת  המאבטח נהג האוטובוס הקופאי מנקה הרחוב השליח השוטר שלא שמתי לב אליך כראוי אתה ואת  שפנית אליי לעזרה…  חברים יקרים ואהובים מטבע הדברים בבמה הזאת נכתבים דברים לעתים בשליפה מהבטן בלי מספיק מחשבה מראש או מתוך כעס נקודתי…  Ayeletnnv נכון   ואף על פי כן לא מרימים ידיים  גמר חתימה טובה אחות יקרה ZviHauser היום בשעה הזאת לפני שנה בדיוק   הדברים שכתבתי אז בכתל נכונים היום שבעתיים  ״לא נוכל לשום אתגרלא בטחוני ולא מדיני  לאומי… InsteadofGame ruthelbaz שנה טובה גם לך ruthelbaz ילדה יקרה המשיכי לקפץ  קיפצי בחבל קיפצי באלנבי קיפצי לביקור  קיפצי לאימא מאמו ולאבא קיפצי למים  וזיכר…  ruthelbaz יום עדין ruthelbaz יום הדין  ראש השנה יום כיפור יום הרחמים והסליחה יוזמה מבורכת כולנו מחר בערבבשעה 2100 במרפסת בחזית הבית בחלון יחד נקרא  שמע ישראל ה אלהנו ה אחד  ariyederi ישר כח  יוזמה מבורכת arielelharar וואו  מקסים AyeletShaked פרוייקט מקסים תודה איילת על השיתוף פרוייקט נפלא של המסעדנים בתל אביב תודה על השיתוף AyeletShaked  זה בידינו  כל אחד ואחת מאיתנו הוא עוד יכול להיות יום הכיפור הכי משמעותי בחיינו  זה בנפשנו  ruthelbaz  ידעת שכתבו עלייך ספר  הרב עדין שטיינזלץ אבן ישראל זל מאד אהב ילדים והתייחס לשאלותיהם בכובד ראש לקראת יום הכיפורים שכולנו נתפלל בחוץ חייב…  מתפללים שאף אחד לא יתפרק לא הימין ולא השמאל רק קצת פיוס וקבלת האחר לא יזיקו לפחות ערב יום כיפור  YinonMagal בריאות ruthelbaz לאן לבוא אני אחרייך Ladies first arikbender אשריך אריק גמר חתימה טובה gidonsaar חזק ואמץ גדעון יקירי גמר חתימה טובה gidonsaar עת לחשבון נפש ולבלימת השנאה המשתוללת בתוכנו ובינינו  ZviHauser דמוקרט asherfeld eladshpier שנה טובה גם לך shlomod לא אתייאש שנה טובה vl11331 לא אתייאש שנה טובה MyEvilOtherSelf לא מתייאש שנה טובה SharonYosef שנה טובה גם לך liorchorev שנה טובה גם לך  ושנדע לקבל אחד את השני eladshpier מתחייב לפעול שכן תהיה שנת פיוס אמיתי  אמן Colaholic1972 שנה טובה גם לך המועמדת ככל הנראה של הנשיא טראמפ לבית המשפט העליון Amy   Coney Barrett שופטת מוערכת אישה מרשימה  אימא לשבעה ילדים…  ruthelbaz מתפללים שאף אחד לא יתפרק לא הימין ולא השמאל רק קצת פיוס וקבלת האחר לא יזיקו לפחות ערב יום כיפור ברגעים אלו ממש בלב וושינגטון הבירה מתכנסים מאות אלפים לארוע תשובה לכבוד שבת שובה ויום כיפור הארוע משודר ל120 מדינו…  Hundreds of thousands of people now LIVE from Washington DC praying and repenting part of Shabbat Shuva and Yom Kip…  Benny20370410 פחות משמעותי ruthelbaz תחזיקי מעמד אחותי JeMima1981 ובכל זאת שתהיה לך שנה טובה BenShush ruthelbaz 4 קוראים לזה  מזל השגחה פרטית חיבוק חם של אבא yauluhim אכן אתפלל הרבה מהרבה סיבות bernsteinariel אם העובדות לא ממש משנות לך  מוזמן לדלג   ושתהיה לך שנה מקסימה  Mishu90843937 ruthelbaz Yup ruthelbaz חוץ מזה מצאת לך עם מי ללכת מכות לפלף ruthelbaz בקורונה מותר רק מרפקים או משני מטר Mishu90843937 ruthelbaz ברור רות תמיד מחפשת רק אמת ושלום ולכן אני מת עליה Tsoosh מילים כואבות מאד כתבת YaronK58 מתכון מעולה לחורבן ruthelbaz מישהי פה מחפשת דם מכות תקופת הסגר החלה זמן מעולה לחשבון נפש עם עצמי עם האשה ועם המשפחה מקוה להיות השנה טוב יותר אכפתי יותר מקשיב יותר שמגמ…  saragusti netanyahu Haaretz למה איזה דבר טוב ייצא מזה יותר הארת פנים יותר שלום niminim2 יש לי חומר מצויין לראש שבור דבק מגע ממרח שוקולד חמאת בוטנים  וכבר אמר מישהו חכם אין לך דבר שלם מראש שבור  או משהו כזה ZviHauser  כל מילה  מה קורה לנו    rangliks1 צודק yonashaked avribloch שנה טובה גם לך איש נחמד bernsteinariel שנה טובה גם לך איש נחמד שאין בתור מי שהתחנך שטין יותר חשוב מחיי אדם אנשים שמזלזלים במסכות ובמרחק חברתי מדהימים אותי כל פעם מחדש  אני כל כך בהיס…  מה שטוב באיש מאמין שיש לו בטוויטר  אתה קורא את השנאה שמפלחת את הלב וחוסר האמון ההדדי והדמעות יורדות מעצמן ואז אין צ…  BokerIris נכון יהיה הר בית ה בראש ההרים ונשא מגבעות ונהרו אליו כל הגוים והלכו עמים רבים ואמרו לכו ונעלה אל הר ה א…  BokerIris templemountstud מה השאלה הבוקר גברת בוקר היקרה אני לא מוצא הבדל אולי הימני יותר ישר KalmanLiebskind  templemountstud יהודה גליק ואשתו הפגינו הבוקר מחוץ להר הבית בדרישה לאפשר לתקוע בשופר בהר הבית קצין משטרה אומר להם מבחינתי ההפגנה הזו… נתנאל אלינסון בתפילה נפלאה למען המתפללים לבד השנה ביום כיפורים מי שענה לכל גיבורי התנך שהתפללו לבד הוא יעננו יצחק…  עם אחד אנחנו  רק מזכיר DavidZviel יום של הארת פנים templemountstud הלוואי שהיו רבים כך גם על פתיחת הר הבית ליהודים 247 או על תפילת יהודים בהר הבית  מה למדתי מהחשיפה של amitsegal  א Good news  בתוך המפלגה הזאת מתקיים דיון פתוח ומנומק שבו כל צד מרגיש בנוח לטעו…  בלי להיכנס לוויכוחים ולמלחמות היהודים   כל אלו שעסקו השבוע בשאלה מה ההבדל בין תפילות להפגנות  רציתי להגיד לכם שלתפי…  dovbsin אחרי דין ודברים בציוצים ואחרי כמה ימי מחשבה הגעתי למסקנה שבויכוח בינינו אתה צדקת היה נכון יותר לכתוב משהים סליחה ותודה מתגעגע לימים שמשבר לאומי היה מאחד אותנו  זה עוד אפשרי זה בידינו  אבל בעיקר  בנפשנו HaimJelin הדדי לגמרי כידוע  HaimJelin סולח גם למי שאין לו מבטא דרום אמריקאי ישששש ruthelbaz אבא אוי כמה התגעגעתי ruthelbaz מה אלהים לא יעשה בשביל להחזיר את בתו האובדת  אפילו יכניס לה רעיונות לראש daniellazarovic לגמרי IritLf כל אחד ידמיין מה שהוא רוצה שיתפתי את הדימיון שלי מוזמנת לדמיין את שלך שנה טובה🧡 סוגר את העיניים ומדמיין את יום הכיפורים הפוטנציאלי השנה כל הארץ לבושים לבן כולם בפתח הבית  בנייני מגורים כל דיירי ה…  מחשבות של עוד בוקר בעשרת ימי תשובה זמן מצויין להארת פנים אחד לשני זמן מושלם להוריד את מימדי החיכוך והקיטוב זמן נפלא…  shimritmeir מי שהיה צריך להודיע על הגבלת התפילות בחגים הם הרבנים לגווניהם ומי שהיה צריך להודיע על צמצום ההפגנות הם ראשי האופוזציה לגוו… yaelshevach amitsegal מחפשים בעל dovbsin יש לי קטע מוזר כזה שהעברית שאני מצייץ בה היא לא תנכית אלא עכשווית ruthelbaz בדיקת דם או שרק ראתה את תמונת הפרופיל dovbsin השעיה להשעות הייתי שמח אילו המפגינים מיוזמתם היו באים ואומרים מפאת האחריות לשלום הציבור אנחנו משעים את ההפגנות  הייתי המאושר באד…  ruthelbaz מה הקטע של תמונת פרופיל שחור לבן בלי חיוך זה רציני יותר או כמו שאומרים  זה המצב אתה יודע revachmo חסכן חרפה  MartinIndyk 2 state is not a solution rather perpetuation of the conflict yiftachm א כל הנושאים הם לא רק נושא למחשבה אלא באופן קיומי מציקים לי עד כדי כאב גדול ב בכל הנושאים חש מועקה צור…  eyaleyal564537 א מי שמחפש אשמים במקום לעשות הכל כדי לתקן ב מי שבטוח שכל האשמה אצל האחר מחשבות תהיות ושאלות שחלפו בראשי וגם בלב ובנשמה בחשבון הנפש הלאומי בראש השנה  א הקיטוב והשנאה בתוכנו בשפל שאיני…  OmriRahamimov בהצלחה olmertyair שנה טובה גם לך It is a Global crisis We need to overcome it together Lets do it the way the Bible tells us to…  meirmarcovich AbnormalSchwa CarmonDvir kereneubach מתנגד לחובת חגורת בטיחות ברכב kereneubach SherriPizza מוזמנת להקשיב לדברים שלך בראיון הזה   TheWeatttt CarmonDvir kereneubach כשמדובר בחיי אדם אני קיצוני   אני בהחלט תומך בחרות הפרט בתחומים לגליזציה של ס…  SherriPizza kereneubach כולנו סובלים בגלל המעשנים לא רק מי שאסמטי אבל הם מצפצפים ומקבלים גיבוי הזכות שלנו לחיות…  yaacovbaruch kereneubach תאונות דרכים סיבת המוות הרביעית 300350 בשנה   הרבה הרבה פחות מגורמים אחרים עישון מקום ראשון 8000 בשנה mosspeedy mossiraz kereneubach ברור borbilbulbil AmirOhana שמח לחיות במדינה שמותר לנו לא להסכים SherriPizza kereneubach נאבקה נגד המאבק בעישון  זה המשפט המזעזע שהיא אמרה לאנשים יש זכות להנאה שלהם CarmonDvir kereneubach א אכן אין אכיפה ואני פועל בכל כוחי להכריח את גורמי החוק בישראל לאכוף את החוקים חוקים בךי…  borbilbulbil AmirOhana מתנגד למהומות בהר הבית ולכן מתנגד לכניעה לטרור בהר הבית SherriPizza kereneubach 1 מאד אוהב ומעריך את קרן נויבך 2 אף אחד לא חסין מפני טענות CarmonDvir kereneubach אתה בעד לתת זכות השתתפות בבחירות לילדים אתה בעד לבטל רמזורים חגורות בטיחות הוראות קורונה Ayeletnnv מרים את הכפפה למרות שלא נסכים ביום הזה על הכל כידוע לך CarmonDvir kereneubach מזמן כל המחקר מודה שאנשים לא בוחרים בעישון 1 אנשים מתמכרים לעישון 80 אחוז מהפעמים בניגוד…  kereneubach 25 איש מתים כל יום מעישון מתי את מקדישה לזה תוכנית arnonsegal1 אפילו שם המשפחה סגל ראש החץ במאבק נשאר מילה רעה לשר לבטחון הפנים AmirOhana ולפיקוד המשטרה שאתם מאפשרים ומעודדים התנהלות כזאת של שוטרים  מילה טובה לשר לבטחון הפנים AmirOhana ולפיקוד המשטרה שלמרטת הלחץ המוסלמי הבלתי פוסק לא סגרו את הר הבית למי ששומר בק…  זה כבר בלתי נסבל שתי ממשלות מתנהלות במקביל  לפי חלוקה מפלגתית כל אחד מראשי הממשלה נפגש עם השרים מהמפלגה שלו  מירית הררי היתה אישה מיוחדת במינהוהיוותה השראה לרבים הן בהתמודגות עם המחלה והן בהתנדבות בעמותה המדהימה סחי  כשאשה…  Ayeletnnv מקבל תודה איילת מעריץ אותך יותר כל יום עוד כמה כמוך במדינה הזאת והכל היה נראה אחרת🧡  Ayeletnnv תודה איילת מעריץ אותך יותר כל יום עוד כמה כמוך במדינה הזאת והכל היה נראה אחרת🧡 אשתי המדהימה הדס הצליחה לאחד את חברי הכנסת מכל מפלגות הכנסת לברך את משפחות אמיצים אלמנות ויתומים צעירים לכבוד הש…  חיפשתי ולא מצאתי את הפוליטיקה  אם השימוש בשירותיה יכול לשמור על הבריאות ולהעלות את המוראל נהדר וטוב שעשתה את זה  USAmbIsrael Amen yaelshevach אבינו מלכנו פתח שערי שמים לתפילותינו אוליי לביים תמונה צריך להתאמץ 15 דקות לפזר שנאה מסתבר שמספיקות 15 שניות סמרטפון וחשבון טוויטר  shimritmeir למי שלא הבין כבר מזמן שהעם הפלסטיני מאס במנהיגים שמובילים אותו שנים אל עבר פי פחת ככל שאני צופה שוב ושוב בדברי של גון קרי בועידת סבן 2016 אינה בדיעה שהוא מחזיק  דיעה לגיטימית גם לא בעובדה שהוא ט…  regevmiri שנה טובה מירי יקרה USAmbIsrael Thank God we did not follow this stale misguided and conventional “wisdom”  CotlerWunsh סקר של האוניברסיטה העברית בתקופת הסגר בקרב מעשנים בישראל 30 העידו שהם מעשנים בבית ומתוכם 10 מעשנים יותר בתקופת הקורונה… מישהו מהמזלזלים במדינאות של ראש הממשלה בנימין נתניהו לאורך השנים מוכן כבר לקום ולהתנצל  We are waiting for anybody from the Obama administration to get up and apologize to IsraeliPM netanyahu for not w…  ימים נוראים RegevGur ומה שהיא עשתה לגילי כהן באמצע ראיון עם חיים סבן גם נראה לך מגניב michalaharoni10 רק לציין שחיים סבן אמר אתמול לדנה וייס שהחלק שלו בהסכם הזה היה שולי ביותר michalaharoni10 מבית המדרש של ימנים יקרים נקצר לכם את התהליך לא תהיה הכרה אמריקאית בירושלים בירת ישראל ואין סיכו…  כל הכבוד לחכ אחמד טיבי על נדיבות לב מעמדה של מנהיגות ומכריז שלמען השלום הוא מוכן לוותר על ההעדפות שלהם זוכים אזרחי…  ruthelbaz ויתרת אופה זה סקופ ruthelbaz אף מילה על זה שבתמונה כולם גברים ZviHauser sugawitter   azironen LevineHagai CotlerWunsh TaliPloskov tamarzandberg diklaaharon MaytalYasur YuliEdelstein YoavKisch…  LevineHagai CotlerWunsh TaliPloskov tamarzandberg diklaaharon MaytalYasur YuliEdelstein YoavKisch…  glicksh זכרנו ביום הזיכרון הזה אחד הדברים שהכי מרגשים אותי שמו של ההסכם הסכם אברהם מי היה מאמין לפני 2000 שנה העם היחיד בעולם שלא היה עובד אליל…  AhmadAlotumi  ברכות לך ולעמך מירושלים giladerdan1 כל הכבוד גלעד זה הספק לא רע  תוך חודש מאז שהגעת אני רק יכול לדמיין מה יקרה בקדנציה שלמה שנה טובה ומתוקה בגולה בשליחותנו noalandau Yes they have been closed for so long לאוהביי לשונאיי ולכל מי שעל הרצף ביניהם  שנה טובה ומתוקה  יהי רצון שלכל הפחות כגודל הברוך של השנה שהיתה בכל כך…  nurro1 YunaLeibzon GONENB1 והרעל שיש באנשים האלו יכול להאיר את כל היקום KseniaSvetlova ברכות קסניה שנה טובה ומתוקה דש לגינגיות צודקת במיליון אחוז אבל אם מותר להיות חלמן חזירי הייתי מבקש שישלים את הסידרה  ב אריבונות על יהודה ושומרון ב זכויו…  talshalev1 צודקת במיליון אחוז אבל אם מותר להיות חלמן חזירי הייתי מבקש שישלים את הסידרה  ב אריבונות על יהודה ושומ…  אם מי שנתן פרס נובל לשלום לאובמה לא ייתן אותו לטראמפ ולשותפיו היום להסכם השלום יוכיח שאין כל קשר בין הפרס הזה לשלום…  לא מרב MeravMichaeli הטילים מזכירים לנו עם מי אין לנו על מה לדבר  שלום עושים עם מי שרוצה לעשות שלום ולא עם מי שמק…  malachiobrien The old city wall In Jerusalem right now   Wow History is unfolding   Well done realDonaldTrump   AbrahamAccord ht… Putting terror and settlement building as two synonyms is the legitimacy that you gave to terror  Terror must sto…  MartinIndyk Putting terror and settlement building as rwo synonyms is the legitimacy that you gave to terror Te…  היה מכובד יותר אם נתניהו היה לוקח לוושינגטון את גנץ ואשכנזי ולכל הפחות אחד מהם לא היה מוריד מכבודו אלא מחזק את מעמדו YunaLeibzon GONENB1 בלי שושה והמיצגים TomerPersico אתה איש אמיץ DanielBShapiro JulieFisher4 2 states  They dont want it We dont want It has nothing to do with peace  We are on t…  eldadgarfunkel שלום עושים עם מי שרוצה לעשות שלום המשימה שההנהגה הפלסטינית לקחה על עצמה הולכת ודועכת  לא מדינה פלסטינית את זה הם אף פעם לא באמת רצו  היו להם אינסוף…  ruthelbaz לזה הוא התכוון  לא רק הפלסטינים גם מלבי אלו שהסבירו לנו שאוסלו יביא לפריחה וצמיחה וההתנתקות תהפוך את עזה לסינגפור לא מפספסים הזד…  gedery4 תודה המראה נשלפה ויצא המרצע מהשק  הפלסטינים כל השנים  ישראל לא מאפשרת למוסלמים להתפלל באל אקצא הפלסטינים היום  לא נאפ…  LVertzhaizer ruthelbaz בטוחה ChenSror תסמכי על שלמה קרעי  תדעי גם את הגימטריה ruthelbaz אני רק סקרן לדעת איך נראה המועדון שלך בעל הר הבית השתגע  ruthelbaz ruthelbaz תגידי כבר באיזה מועדון את רשומה ונצטרף ruthelbaz פשוט תגידי כבר באיזה מועדון את רשומה ונצטרף  ZjjEQNaQucRW9D1 נכון מאד קשה עם ההפגנות קשה עם אומן קשה עם הברים הפתוחים קשה עם האירועים שלא באמת נפסקים קשה עם קריצות העין בקניון באוטובוס… </t>
+  </si>
+  <si>
+    <t>הערב המנאייכ אוכפים את הסגר  BShlom שלום קרא שוב את תגובתך ותגיד בכנות מי פה שיכור הכוח אלה ששולטים במדינה כבר למעלה מעשור ומתייחסים למשאבי…  טיסה נעימה ותבלו בסגר  ילד נכנס לכיתה רגע  Rereshef אם נבצרות זה שביבי שם רגע את עינייני המדינה בצד ומטפל רק בעיניין המשפטי האישי שלו אז הוא כבר מזמן בנבצרות Haaretz המערכון הזה הוא כמו אגרוף בבטן אל תחמיצו  סדר וניקיון  ביקשתם קיבלתם yanivbiton99  יש מה לעשות בעוצר הלילי  מאשאפ שופרות לחג רק שמאלנים תלאביבים מפגינים בבלפור ובגללם הערים החרדיות והערביות אדומות Omer111111 יש לי רק בנות  במערכון המצלק הנ״ל נעשה שימוש בילדי הכותבים ושלי בלבד במציאות  בשלכם  Rereshef התייעלות במשרד האוצר אם אין תקציב לא צריך ראש אגף תקציבים DavidLifshitz שנכנסה כמובן לכנסת בקולות של הקיבוצניקים דפוס פעולה רימה את גנץ הפר אמון של הרוב בציבור שתמך באחדות וחושב שייחלץ עם שוחד בחירות של 750 שקל גם קמצן אחרי הכל EretzNehederet התרומות הגדולות של העם היהודי לאנושות אמונה באל אחד וחוש הומור ארץ נהדרת  היהודים באים  ItayBlumental ברוך בן יגאל אביו של לוחם סיירת גולני עמית בן יגאל זל קוטע קריאות מוות לערבים במהלך הפגנה הערב בתא נגד החלטת בגץ… DaphnaLiel נראה שכל הצגת הבחירות שאנחנו רואים פה והמלחמה המזוייפת על התקציב היא רק אמצעי לחץ על כחול לבן להתפשר על מה שבאמת חשוב לנתני… NitayAnavi EretzNehederet ישנים עם נעליים Slonim91  תבלה TomerPersico זה נכון עקרונית אבל בממשלת האחדות השנייה שפרס ניסה לפוצץ לא היתה רוטציה FogelEran ברור אבל ממש לא רק מי שטוען שההפגנות הן על טהרת השמאלרק לא ביבי צריך לשאול את עצמו למה דווקא עכשיו זה מתפרץ למה לא בשלושת סבבי הבחי…  Rereshef אני קורא גם ליונה אברושמי וגם לאמיל גרינצוויג להוריד את הלהבות Tommyperetzz בעצם ההסכם היחיד שביבי כיבד זה הסכם אוסלו baruchikra די שניה עם גניבת הדעת המבחן הוא באמת כל כך פשוטלשיטתו של נתניהו מה יותר גרוע למדינה תקציב דו שנתי או הליכה לבחירות בנובמ… noalandau Live from Tel Aviv A rare moment of solidarity   TelAviv  כשדוברי הימין מסיטים את הדיון ל״סיקור התקשורתי״ זה אומר א הם לא מסוגלים להתווכח עם המחאה עצמה ב היא מפחידה אותם לאללה irmyshikblum שנתיים כתבתי למבזק של EretzNehederet ובקושי הכנסתי פאנץ אחד אתמול נכנסה בדיחה שכתבתי במקור ברשת וזכתה לביקורת מפרגנת… AmirBenDavid וואו בנדה איזה יופי AmirHaskel נגנים אנרכיסטים ברחוב בלפור  YossiDorfman נתניהו התלונן על הסתה בדיוק באותו הזמן שהכותרות עסקו באלימות מצד תומכיו מאחר שאני לא סומך על ביבי הלכתי לבדוק מי זו א… YuvalKarni השר לבטחון חוץ עדכון מה אתם בוכים זאת בסך הכל אלימות לא אלימות פלסטית מה אתם בוכים זאת בסך הכל אלימות לא אלימות לגאלית AviBenayahu מאדם שאין לנצחו לאדם שאין לנצחו בבחירות DavidLifshitz לפחות שחקן אחד עם עבודה הראשון לזהות  mottyn Naild it אילוסטרציה מושלמת לניהול המשבר  גורמים בימים הקרובים ימונה פרויקטור שיתכלל את הליך בחירת הפרויקטור למאבק בקורונה  צילום עודד בלילטי AP  calcalist תעשו חיים כך הפכה חגיגת החזרה לשגרה ופתיחת המשק לגל השני של מגפת הקורונה  למי שחוגג  TaliMoreno  שועל מופיע ב0212  itayr2 נו וזה לא שיפור עמדות אישי של נתניהו בין 2015 ל2020 ישראל הלכה לבחירות 4 פעמים כי נתניהו חש צורך לשפר עמדות עכשיו החמישית בדרך זה לא המדינה זה אני…  VladimirBeliak MedabrimIL הכל פורסם ובהבלטה בהארץ לפני שנתיים כחלק מתחקיר של גידי וייץ AmitZed lucyaharish DemocratTV NirHefez זה פורסם בשער של הארץ לפני שנתיים כחלק מהתחקיר המיתולוגי של גידי וייץ adindan ממש לא עבר בשקט צויין בשער של הארץ בכתבה המפורסמת של גידי וייץ לפני שנתיים תיקון זה לא היה ניר חפץ אלא מקורב אחר חוץ מזה היה כיף אצל לוסי lucyaharish DemocratTV NirHefez  יש מדינות שבהן כוכבי כדורגל דווקא מסייעים לתלמידי בית ספר  tuvipollack EretzNehederet טובי ידידי תתפלא כמה אומרים את אותו הדבר על ביבי שרה מירי וגנץ  בכל מקרה היחס בי…  RazShechnik רייטינג ופרשיות למיניהן ארץ נהדרת קורעת את הפריים עם 214 ומסיימת עונת שיא מאז הפיצול המקור עם 59 ברשת האזרח גואטה על… EretzNehederet נפגש בעונה הבאה  EretzNehederet חוגגים בשושו 🤫 מסיבת סיום סודית הערב אחרי החדשות בקשת 12  שירת המסיכה  talibo8 בקטנה אחרי החדשות לא תכנית מלאה israzohar כן מערכון מיוחד לא תכנית מלאה הערב איש אחד מדבר ושישה אנשים שותקים  odaskal הלוואי ויכולנו להגיע לרמה כזאת odaskal בעניין הזה הוא פעל הפוך מחבריו הטובים דונלד בוג׳ו והאהבל מברזיל ואם זה עושה אותי ביביסט סו בי איט  דווקא היום צריך להודות מהמדף של המנהיגים המושחתים הפופוליסטים מלבי השנאה והאנטי דמוקרטיים לפחות אנחנו קיבלנו את…  RavivDrucker מאמלק את משפט נתניהו חובת צפייה    צוות ההגנה מוכן  GLZRadio העורך הראשי של ארץ נהדרת mulisegev מציע במהבוער השלמת הכנסה ליוצרי הממשלה ה35 מי שעשה את הקריאייטיב של שמות המשרדים ה… מגש הכסף  בתיאבון  EretzNehederet מסיבת סוף קורונה עם כל המשק הערב 2115 וגם ומחר בחמישי בקשת 12 אפילו הכנו   תקציר נתניהו ניצחתי את הקורונה אלא אם בגצ יתערב ויחזיר אותה עונה מצויינת של ״לא נפסיק לשפוט״ Abushon10 אסי כהן ערן זרחוביץ ושרון טייכר שמחנו לעזור  דווקא בתקופה כזאת  הגן סגור גם בשבוע הבא והמערכון המלא פה   TRUMP  EXOTIC 2020  אנשים גועל נפש מצפצפים על ההנחיות ועושים מנגל הסיפור המלא הערב אחרי החדשות  ReshefRafi ארץ נהדרת הראשונים לזהות לפני 24 ימים  YonatanKit EldadYaniv SylvieKeshet fridatuito כל הקרדיט לאחים גרים kunikran yshpiller ItayBlumental ynetalerts CarmelShama גם לברוקלין יש גאוות יחידה וגם לצ׳לסי אבל יש ראש עיר…  kunikran yshpiller ItayBlumental ynetalerts CarmelShama תקראו לזה איך שתרצו אבל ניהול מטרופוליטי חזק שיחתוך ב…  sharonbd ItayBlumental ynetalerts kunikran CarmelShama תבדוק בניו יורק לונדון ולוס אנג׳לס ItayBlumental ynetalerts kunikran CarmelShama המשבר הזה מוכיח סופית האבסורד שכל שכונהרובע במטרופולין ת״א היא…  ארוחת החג בבלפור מוגשת כעת  לא יודע מהו החטא היו לא מעט אבל אורלי לוי זה עונש לא מידתי והיו מי שלגלגו על אהרוני שפתח קצבייה ולא מסעדה כמו כל השפים הגדולים  NadavEyalDesk וידאו מיוחד לשלוח להורים שעושים רגשות אשמה  לילדים שלהם שלא באים בחג ולכל המבריקים שהחליטו שאין סיכוי שהם ידביקו את… הגל הראשון של סרטי הקורונה  תנו כבר לשלוח את הילדים שלי למערכת החינוך של רפי פרץ גם עם עברנו את פרעה אין שום קשר לזה  Patient Zero  הערב במהדורה הפציינט של המדינה  תופעה אנשים מביימים את ההלוויה של עצמם בשביל לפגוש חברים בשישי בצהריים ShaiCohen13 מדהים שודר רק לפני יומיים החברה גאונים mulisegev  אס זוכה גנץ בוכה  שיט עלו עלינו  EretzNehederet הערב גבי ויונית הזוג המלכותי של עידן הקורונה מגיעים לאולפן  היקום נותן לנו סטירת השכמה  חשבנו שראינו כבר הכל בחיים  AstroJessica Gazing down at the city in which my father was raised I take to heart one of his most uttered expressions “This too sh… RazShechnik התגעגעתם לובה והטורטלים חוזרים לארץ נהדרת שתשודר ברביעי ובחמישי  maxbrooksauthor A message from me and my dad Melbrooks   coronavirus DontBeASpreader  EretzNehederet מערכון פתיחת העונה שלנו התממש מהר מהצפוי בחירות2030  למערכון המלא gt  ארץ נהדרת במהדורה מיו… dovalfon מכיוון שזה עניין חשוב והוא מתפתח במהירות אוסיף בשעות הקרובות מידע ככל שהוא מצטבר בשרשור הזה לה מונד ״הצהרת השר מבוססת על נ… ShaiCohen13  פאודה וולקאם טו קורונה המערכון המלא פה   avishaysela זה נכון אבל הפוך קודם היתה נעימת הנושא לסרט שכתב רן שם טוב הגאון ובגלל שיצאה כל כך מוצלחת הוא הוסיף…  לחצנו תחת  מיד בדד  לפחות נגמרו הימים שבוחרי מרצ מתנשאים על בזבוז הקולות של מצביעי כחול לבן צודק  Doco28 בגלל זה ה״ולהיפך״ דורון  רק בישראל האנשים שנבהלו מהקולות של 20 אחוז ערבים הם בדיוק אותם אנשים ששואפים לסיפוח ומדינה אחת עם 50 אחוז ערבים ולהיפך אם תהיתם איך זה נשמע  Schiby1  2015 אמתפהמרצ 40 מנדטים 2020 פהאמתמרצ 40 מנדטים קולות מהימין לגוש כן הנדל הביא את האוזר והאוזר הביא את הנדל לספור את הסופרים EretzNehederet איך עבר יום הבחירות על נתניהו וגנץ ליווינו אותם בישורת האחרונה  לצפייה במהדורת הבחירות המלאה של ארץ נהדרת לחצו gt htt… EretzNehederet מוכנים לקרב האחרון הערב 2100 ארץ נהדרת במשדר בחירות חגיגי 🤠 קשת 12  NadavEyalDesk שמאלנים ציונים שהולכים להצביע לרשימה המשותפת  מעבר לעניין העקרוני אתם רק תעשו את החיים של גנץ הרבה יותר קשים בהרכבת ממ… YigalGueta אחי ואחיותי בני עדות המזרח תתעוררו יצא המרצע מן השק כשיועצו ואיש סודו הקרוב ביותר של נתניהו אומר על השרה רגב היא בהמה… משעמם אוקיי אז דמיינו שהם אומרים את זה לאיזה רב ומקליטים אותם  ehudkaldor DNisanovich AbuKedem SShpurer EretzNehederet שנתיים אז אם הבנתי נכון בחירות 2020 הן בין שלמה המלך ומשה רבנו EretzNehederet חשיפה בלעדית הערבים נוהרים 2 הסירטון שנתניהו הכין ליום הבחירות כבר מוכן  צפו בפרק המלא של ארץ נהדרת gt  EretzNehederet לפעמים הפכים נמשכים איימן עודה אמיר שורוש מקופה ראשית🤩 מגיע הערב לארץ נהדרת  EmilieMoatti תהיה ביום שני EretzNehederet בלירשותך  EretzNehederet אפשר להמנע מקורונה בישראל  זה תלוי רק בנו   לצפייה בפרק המלא של ארץ נהדרת לחצו gt   EretzNehederet הערב באוף דה רקורד   מיקי זוהר לא מרחם על חנוך דאום איך יגיב חנוך  ואיך הסתיים הראיון הזה צפו הערב מיד אחרי החד… Larry David Makes America Great Again  אינתיפאדת אלאקווה EretzNehederet מחר רביעי ארץ נהדרת מתגייסת לטפל בקורונה  אגס קימל מתגייסת לצהל ועוד מיד אחרי החדשות קשת 12  EretzNehederet היישר מוושינגטון ספיישל תכנית המאה   הערב אחרי החדשות  EretzNehederet הערב 2115 סדרת מערכונים חדשה חנוך דאום יצא לפגוש מועמדים מכל קצוות הקשת הפוליטית לקראת הבחירות בפרק הראשון האיש…  EretzNehederet מנהיגי העולם כבר כאן תכף מתחילים  EretzNehederet הערב דרכון פורטוגלי גורי אלפי יצא לבדוק מה הישראלים מוכנים לעשות בשביל דרכון אלבני התחקיר המלא הערב בארץ נהדרת A… EretzNehederet מחר רביעי אחרי החדשות פוטין יגיע לאולפן של ארץ נהדרת ויש לו הרבה מה להגיד   הצעת נתניהו לפוטין תן את נעמה יששכר וקח בחזרה את יולי אדלשטיין לגולאג ההצעה תקפה גם בלי נעמה יששכר EretzNehederet יחי ההבדל 🤨 צפו בכל מה שקרה מאחורי סגירת הרשימות לכנסת בפרק המלא של ארץ נהדרת gt   לא מבין מה הבעיה מפלגה עם שלושה שמות כמו רוב המצביעיםות הפוטנציאליים שלה  רק לא ביבי lt רק לא סתיו סיכום עידן ביטן במשרד החקלאות  EretzNehederet שיגעת את רבי רבי  הערב אחרי החדשות אירנה מגיעה לפתוח על מאתיים יעני  ושוב תודה לראשי המתנחלים על תרומתם לביצור המעמד המשפטי של הסאטירה בישראל  EretzNehederet ברכות לביטן על המינוי ברביעי הוא יבוא לחגוג איתנו בספיישל פתיחת העונה   נוסחת פורטיס קמפיין אחד  סל אאוט שני קמפיינים במקביל ללא ידיעתם  פאנק רוק EretzNehederet מה מה פתאום   שודר במקור במאי 2019  לצפייה במערכון המלא  לחצו gt   EretzNehederet הבחירות חזרו אל תדאגו גם אנחנו    בקרוב בקשת 12  ruthelbaz הלוואי והבנות שלי יגדלו להיות כמוך HayekAmir ORIGROSS attilus פוטש סוכל ריבלין סער אדלשטיין לבני לפיד פוטש מהפכה הדחה נגד אסור להתמודד הפלת ראש ממשלה מכהן דיפ סטייט מסמכי נאמ… EretzNehederet שום דבר לא קרה אפשר להמשיך כרגיל שודר במקור בנובמבר 2017  למערכון המלא gt   EretzNehederet אנחנו מוכנים 🤕 Rereshef בלעדי תמונה של יאיר לפיד והעץ שהוא טיפס עליו  zionnenko הבעיה עם ההתנחלויות מעולם לא היתה החוק הבי״ל אלא האינטרס הישראלי ההבנה שהתנחלויות שייאחזו בשטחים יובילו בטווח הארוך לאחת מש… shaiagmon השבוע akivanovick סיפר כמה נפלא היה לו בקיץ 2004 בגוש קטיף אבל בזמן שנוביק קטף עגבניות והשתכר בלילות חברים שלי זחלו על צי… EretzNehederet כבר מרגישים בטוחים יותר  למערכונים נוספים של ארץ נהדרת gt   israzohar לידיעת המשטרה אצלי בסלולרי אין כלום חוץ מקיטורים על הפועל וכמה פאנצ׳ים גרועים כל מי שזכויות אדם בסיסיות חשובות לו צריך להתקומם נגד החרמת טלפונים בנסיבות בלתי קיצוניות כאלה היום זה גולן ואוריך…  yauba כן בדוק בתכנית של ליל הבחירות הליכוד אחרי בחירות סבב א 65 מנדטים נתנו אמון בנתניהו הליכוד אחרי סבב ב 55 מנדטים נתנו אה לא מדיחים ראש ממשלה בחדר חקירות ShaiCohen13 חוויה מעצבתזכות גדולהטראומת ילדות תהיה ממשלת אחדות רק כשהימין יפסיק לדמיין שנתניהו הוא שליח האל והשמאל יפסיק לדמיין שניצח בבחירות אז כנראה לא תהיה EretzNehederet הערב מופע איחוד 🤝 או שלא   2115 קשת12  EretzNehederet תכינו את התפוחים והדבש הערב 2115 פותחים את שולחן ראש השנה בארץ נהדרת  ביקורת ממישהו שכן צפה בסרט  נעבור את זה ביחד  therealguypines nadavabeksis הקרב הוא על הזכות להיות חילוני במדינה לא על הזכות להיות דתי תזכור את זה כשהחירות הבאה תילקח ממך  להגי… אמש בסקרים המפלגה של בן גוריון  4 המפלגה של כהנא  4 EretzNehederet הבחירות שוב איתנו ואתם יודעים מה זה אומר   ארץ נהדרת חוזרת בעונת בחירות מיוחדת שלישי הבא אחרי החדשות  amitsegal ושכחת האזרחים לעתיד במדינה האחת שתיכון מהים לנהר zionnenko מעניין לראות שהרוב מוחלט של התגובות הנזעמות נגד רפי פרץ והגינויים מצד ראשי מפלגות הן על תמיכתו המקוממת והנוראה בטיפולי המר… CNN Watch Jon Stewarts speech slamming Congress for its inaction supporting 911 victims and first responders   What an incredible… EretzNehederet התגעגעתם אליהם אז מזל שיש מועד ב  הערב אחרי החדשות הבחירות חוזרות  amitsegal מפלגת פועלי אי בראשות ד בן גוריון הסכימה בכ״ט בנובמבר 47׳ לתכנית האו״ם לחלוקת הארץ לשתי מדינות עצמאיו…  EranSwissa בחירות או לא ב״ארץ נהדרת״ ינהלו הערב את הפאנל הפוליטי בשידור חי כדי להגיב לאירועים באופן הכי אקטואלי שאפשר  אסי כהן הוקפץ… EretzNehederet מי יציל את הזוגיות של נתניהו וליברמן 🤝  ברביעי מיד אחרי החדשות הם יגיעו לאולפן של ארץ נהדרת  EretzNehederet עדיין לא נרגעתם מהאירוויזיון מחר שלישי בארץ נהדרת הופעה חד פעמית של המלכה האם הזהרו מזיופים  RTsipris הולך עם זה עד הסוף  ronenbergen פתיח מושלם של חדשות 12 ״מה מה פתאום״  הולך למסגר את זה מחר  DaphnaLiel נתניהו לא יכול לומר שקיבל מנדט מהציבור לקדם את חוק החסינות להפך הוא הצהיר שוב ושוב שיתנגד לחוק כזה  EretzNehederet מה אם  RazShechnik ערן זרחוביץ׳ הגאון בתפקיד מוריס קאהן שלפו מהר בEretzNehederet לפני הערב  EretzNehederet החצבת שוב מתפרצת אבל מתנגדי החיסונים כבר התקדמו לשלב הבא  EretzNehederet דואגים לכם לספיישל פסח כהלכתו  הערב ב2115 קשת12  EretzNehederet העימות שכל המדינה מחכה לו מגיע לארץ נהדרת  נתניהו מול גנץ הערב אחרי החדשות  EretzNehederet ביבי הפתיע את קרן מרצאינו בראיון היא הפתיעה אותו בשעשועון   צפו במערכון המלא gt   EretzNehederet חמאס שיגר טיל ביבי חזר בטיל וזהבי שיגר טיל לאוסטרים הערב באולפן של  ארץ נהדרת מהדורהטיל  מתחילים מיד אחרי החדשות… NewsChannelIL הצצה נדירה אל חדר האיפור הכי מצחיק בארץ  הכתבה המלאה הערב בחדשותסוףהשבוע ב2000  EretzNehederet הערב כשהסקרים לא מריחים טוב מוכרחים בושם חדש PANICA by Ayelet Shaked  chaimlevinson תארו לעצמכם שבעוד 20 שנה ירוץ לפרלמנט בניו זילנד בתמיכת ראש הממשלה אדם שמחזיק על הקיר תמונה של הרוצח במסגדים מה תחשבו ע… EretzNehederet מפלגת זהות מגיעה לאולפן לדבר על השאיפות שלה  הערב ב2115  EretzNehederet חשבתם שכבר ראיתם הכל תחשבו שוב הערב מיד אחרי החדשות הטורטלים ממציאים את הריאליטי מחדש וגם עימות טלוויזיוני חד פעמ… EretzNehederet תודה רבה לחברי האקדמיה לקולנוע וטלוויזיה על הפרס לתכנית הסאטירה  הטובה של השנה  קשת12  JTGProductionYT That night in Paris  EretzNehederet קבלו את מקהלת הפייקניוז בלהיט ביבי או טיבי  לצפייה בפרק המלא של ארץ נהדרת gt   odedkramer הכל נכון</t>
+  </si>
+  <si>
+    <t>AvishayBenHaim Riklin10 לא הגיוני שהם מודעים אחרת היה להם לא נעים והם היו מרגישים שזה לא מוסרי  העוולות שהם גורמים  דוגמא ההפגנות… סקר מגלניוז  ליום הכיפורים האם אתם בעד אחדות בעם uripaz77 מה הוא שמאלני גם אסד הבין כנראה מי האריה של המזרח התיכון  מי שרוצה שאשחרר ממנו את החסימה שידאג לשלוח לי לינק וישוחרר YanivTurgi לא מייסדת נשיאה אוהב דקל hagitofran  guycotev  AviBenayahu כן רק שהוא בניגוד אליך נבחר להיות ראש הממשלה באופן דמוקרטי כך שמה שאתה מגדיר מלחמת שיחרור ידידי…  zehavagalon Haaretz זהבה זה מצחיק כמו שאני אשלח אותך ללכת לעשות כביסה AviBenayahu מרד מלחמת שחרור התבלבלת אבי AvishayBenHaim ערב יום הכיפורים הכותל ריק   מידי שנה בערב הזה שהוא ערב השיא של ישראל המסורתית עשרות אלפי מתפללים הערב ניתן אישור ל2… טוב הגיעה התוצאה יש לי קורונה🤦‍ המזל הוא שהחום כבר ירד כמעט לגמרי ואני מרגיש טוב בהרבה ומקווה שזה מאחורי הבאס…  BenCaspit נשארו אנשים בבתים ברחבי הארץ הפרוייקטור קורונה בירדן יותר מצחיק  ביום רביעי התחלתי להרגיש לא טוב התקשרתי מייד לרופא בכללית משם יצרו קשר וקבעו לי תור לבדיקת קורונה רק ליום למחרת בח…  כשהארץ עושה פולו לטור פובלציסטי במעריב  afriatnoa יצא מקסים תודה רבה לכן עכשיו סוף סוף קלמן יקבל סוקולוב ליום הכיפורים יש לנו עוד מה ללמוד  שלום קלמן הבנתי שמפריע לך שגדלו בימין גידולי פרא לא עיתונאיים תגיד  מה לגבי דוברי הפרקליטות דוברי כחול לבן דוברי…  omerbabai הבר של ינון  יובל הציבור ברובו לא בשום משבר אמון להפך הציבור באחוזים עצומים חושב שצריך להפסיק מייד את ההפגנות פשוט וקל  ניגוןלשבת  מתוך תפילת יום כיפור צולם השבוע במלונית קורונה יו טיוב Noa Afriat לחן איתן כץ  לְמַעַנְךָ אֶלקֵינוּ…  מתוך הספר המתריע של עמוס גלעד אחד היועצים היותר נחשבים מתברר שלא תמיד היועצים צודקים לפחות לא בעידן נתניהו  mohsaud08 מוזר שהימין דוחף לשלום עם מדינות ערביות וקורא לפלסטינים להצטרף ודווקא השמאל עם מיליון עמותות שלום מביא הסתייגויות עם שלל תי… אמש התברר בסקר שרוב הציבור חושב שהוא עצמו אשם במשבר הערב אחרי הנאום המצויין של ראש הממשלה אמרה קרן מרציאנו שביבי…  גמזו אינו כשיר לתפקיד הזוי שהממשלה מחליטה על הגבלות חמורות יותר ממה שהוא ממליץ האיש לא מבין איפה הוא חי מזל שיש לנו…  מאיזו פלדה עשוי נתניהו שהוא מצליח להמשיך ולתפקד חרף העליהום הנבזי הרשע והמופקר על כל מה שהוא עושה  על כל מילה שהו…  אנשים שלא הבינו מה ההיררכיה בממשלה ומי מקבל את ההחלטות אבל מנדבים שרים להתפטר  TheIsrabot בושה וחרפה ביבי מפתח חיסון לקורונה השמאל לא היה וירוס buzieph אחת אז אחרי שהאשימו את נתניהו שהוא משבית את המשק רק כדי לפגוע בהפגנות ואז היועמש הבהיר שאין קשר בין הדברים עכשיו הם מ…  התפקיד של גמזו הוא לדאוג לבריאות לא לכלכלה  מה עובר עליו  אוי אבל מה יהיה על כל הציוצים שטענו פה באובססיה שנתניהו סוגר את המשק רק בשביל לפגוע בהפגנות חבורת כלומניקים אובססי…  yehuday30 בסוגיית ההפגנות תומכי נתניהו צודקים   ההפגנות עצמן הן לא הסיפור  הסיפור הוא שהן הפכו את מגבלות הקורונה למגבלות עם כוכבית ועם… כת  כת  חודשים הם חופרים לנו שהציבור איבד אמון בהנהגה ופתאום יש סקר שמראה שרוב הציבור מאשים את עצמו בהתדרדרות למצב שהגענו…  אם למישהו היתה התלבטות האם הרק לא ביבי זו דת באה הקורונה והוכיחה  הם אובססיביים להפגנה יותר מיהודים לבית כנסת בי…  RotemShtarkman IlanShiloah נו באמת מענין מה שלום משה מלצר חולון חושב עליו לפעמים היועמש מנדלבליט הוציא הודעה שאינו מכיר את ריקלין האם אתם מאמינים לו benirabin NitzanHorowitz כמה הבלים אלוקים שישמור סוף הסיפור אגב היה נורא ואכזרי ביותר MoranT555 أتوجه بأطيب وأسمى التهاني والتبريكات للشعب السعودي بمناسبة اليومالوطنيالسعودي وأتمنى أن نحقق السلام بين السعودية  وإسرا… אני שומע שהעדה החרדית בירושלים מתכוונת להכריז על מרד נגד סגירת בתי הכנסת זה בשבילם  shimritmeir מחאת בלפור היא דוגמא למה שקורה כשמחנה שרוצה להוביל את המדינה הולך כעיוור אחרי הבייס והאקו שלו בתקשורת משכנעים ומשלהבים זה… neoraytal הספד לשופטת גינזבורג בסגנון הפטרה filbers RonenRt ורוב הציבור מאשים את עצמו ולא את הממשלה oDiDFrnql3mNZIK הערב זימרוש פלא שהשם סוגר לנו תבתי כנסת🤦‍  כבוד ראש הממשלה אל תקשיב להם הם לא מבינים כלום לך מייד על סגר מלא מלא חפצי חיים אנו Israelcohen911 מבית האדמור מצאנז הודיעו הערב לחסידים כי הרבי יתפלל במנין בביתו ביום הכיפוריםהציבור נקרא לא להגיע מחוץ לעיר כמו שטענתי השיקולים של כחול לבן בשעה קשה זו הם פוליטיים בושה  LiberalRiWo ראיון חובה של דליה איציק על המפגינים שאשא ביטון לפיד ובקיצור כל הדרך מהשמאל הציוני השפוי של פעם לחבורת המטורללים של היום judash0 דיווח מדהים של ירון אברהם נתניהו וכץ ביקשו להשאיר חלק קטן מהמשק פתוח בעיקר במגזר הפרטי ואנשי כחול לבן מתנים את ביטול ההפגנ… DovMorell freyisrael1 יותר חשובה לי האמת DovMorell freyisrael1 עוד רקדן מה יפית מבולבל ירחשל תשרי עשרת ימי תשובה בין כסה לעשור צילום מהר ברכה בשומרון yesnomabyyes  freyisrael1 לפחות בכיר ולא שוליה Machlufb ב זה פוגע freyisrael1 ישראל שמחתי לראות שהתחלת לכתוב באיזה אתר קיקיוני  חשוב שיהיה לו נציג המייצג נאמנה את המגזר החרדי נזכר שאלה שמפגינים עכשיו בבלפור ומכחישים הדבקות בקורונה בהתקהלויות הם אותם אלה שדיברו יותר נכון לא הפסיקו לדבר ע…  יהודים מוותרים על בית כנסת בכיפור מתוך אחריות לבריאות של כולנו והם לא מוותרים על הזכות לקרוא לביבי ללכת הביתה לאי…  ומה שהכי מקומם במאבק של כחול לבן להשאיר את ההפגנות ולא תשמעו על כך הוא שמדובר פשוט בשיקולים פוליטיים לבייס מדומיין…  HauserTov היית צריך לכתוב הרדיו שלי שיהיה יותר ברור שהסתננו לך לשידורים AmosSchocken1 עמוס בבקשה טיפת מודעות עצמית AmosSchocken1 בוא אם כבר אז ההסטוריה כבר תשפוט ביננו מי היה נוכל AmosSchocken1 עמוס אם אתה רוצה שאתייחס אליך אל תקרא לי נוכל בברכה דקל ראש הממשלה הולך הכי חזק נגד הבייס שלו וסוגר את בתי הכנסיות ביום הקדוש ביותר בשנה וכחול לבן כחול לבן כהרגלם במין פ…  BenCaspit לא יודע אמא שלי דווקא חושבת שהצליח לה מאד איתי אבל מה היא מבינה BenCaspit האזינו לריב שלי עם ישי הדס על ההפגנות דו שיח של חרשים  התפוח לא נפל רחוק מהעץ חזק וברוך  FosterAmir אחת הטענות המובילות של מתנגדי מתווה הגז בזמנו היתה שאין שום קשר בין גז ליחסי החוץ של מדינת ישראל הם טענו שיצוא גז למצרים… Doco28 בסך הכל זו תקופה טובה פרצופם האמיתי של האנשים מתגלה כל המסכות מוסרות מהפנים הזיוף נעלם והמקור יוצא לאור אתה מבין ממי כדאי לה… arutz20 ערוץ 20 נענה לקריאתו של שר התקשורת יועז הנדל והחל מהיום יחוייבו כל הפאנליסטים והאורחים באולפן לעטות מסיכות על פניהם כל עוד א… AfifAbuMuch radio103fm BenCaspit מעדיף בית מקדש radio103fm הצטרפו לבן כספית וינון מגל BenCaspit YinonMagal  RonenRt תם עידן ביבי RafiRodnik12 למה בגילך אתה לא ישן כבר האם לסגור את בתי הכנסת yarivop noamfathi יריב אתה יכול יותר תתאמץ טיפה אוהב מאד את מוטי קרפל  UriMisgav כל מה שכתבת לא רלוונטי לתביעה תכין תכסף משהו מתחיל להשתנות אצל החרדים  ב9 בפטריוטים patriotim20  פליישמן itamarfleishe  עפרה לקס ofralax2  אבי גרינצייג avigrin10  ביני אשכנזי…  natitucker מה נהיה ממך אגב איפה פרופ לס קצת נעלם לי תעזבו את כת המופרעים מבלפור שיפגינו וידבקו אתם קחו אחריות תסגרו את בתי הכנסת אל תתקהלו וְנִשְׁמַרְתֶּם מְאֹד לְנַפְ…  לכתב הארץ מפריע שבחרו לתפקיד באוניברסיטה גבר ולא אישה העובדה ששניהם אשכנזים לא מפריעה לו  RonenRt פיקוח נפש דוחה הכל זה הזמן לעצור לשבועיים ולאפשר למדינה להתחיל להבריא לעצור הפגנות לעצור בתי כנסת לעצור התקהלויות להקטין… talibo8 טלי על זה בדיוק אני מדבר חשוב ברגעים הקשים לצאת קטן  dverthaim בפטריוטיםות יותר מענייןת משיחה עם תומס מאן יאק רק חושב איזה חגיגות היו פה אם פרס למשל היה מקים פרוייקט בין לאומי ענק כזה  omrimaniv אכן במשך דקות ארוכות הוקפנו במעגל של עשרות מפגינים שלא נתנו לנו לשדר קיללו צעקו באוזן חסמו את המצלמה אחד נתן לי מכה עם… dxpU82FE18PsY9o YairGolan1 בחצר YoniRoten בדיוק במקום בו פונה פעמיים באלימות ובאמצע שבת המאחז מעלה שי נסלל עכשיו לעין כל כביש רחב בשיתוף פעולה של הרשות הפלסטינית… אבישי בן חיים המכונה הדר טוען שההגמוניה לא מודעת להגמוניותה דעתכם Onetruth011 ErelSegal הרב עובדיה זצל היה אומר לדעתימה יש לנו מהם רוצים להפגין שהפגינויש להם תורה אלה יש להם ונשמרתם הם חוגגים מ… AvishayBenHaim למה מנדלבליט חובש הכיפה השחורה מצטייר כמי שמשרת את ערך ההפגנה הרבה יותר מאשר את ערך התפילה  כי לא רק ההגמוניה בלתי מוד… בושה וחרפה לא מוכנים לשמוע חוות דעת שונה מה יהיה אתכם  Advamagal ההתעקשות להמשיך בהפגנות בשיא המגיפה היא זיקוק האטימות של מי שמבקשים להחליף את השלטון בשם העם הדמוקרטיה והצדק כן שטח פתוח… וואו מתברר שרומן אברמוביץ תורם עשרות מליונים לחיזוק ההתישבות היהודית באגן הקדוש בירושלים כל הכבוד רומן יישר כח גדול…  GadiTaub1 אני אתרגם לכם לעברית את הצעתו של קלמן ליבסקינד שנתניהו יפרוש תמורת ביטול ההליך הפלילי נגדו המלצה להיכנע לרעיון שהפקידות יכו… מנדלבליט ירד מהפסים בגללו לא יעצרו את ההפגנות בגללו לא יסגרו בתי הכנסת בגללו אנשים יעשו חרות לעצמם לא להשמע להוראות…  ההוכחה הטובה ביותר להבדל בין הסכם השלום עם האמירויות לזה שנחתם באוסלו באמירויות כבר הכניסו אותו לתכנית הלימודים בב…  YairGolan1 מה איתי עם כל הקושי שבדבר אני בעד לסגור את בתי הכנסת מייד אבל צודק הרב הראשי שטוען שאי אפשר לעשות זאת בלי להפסיק את ההפגנות shimritmeir NadavPerry ולהפגין מותר שם🤔 הסטוריה ישראל יוון קפריסין מצרים ירדן הרשפ ואיטליה חתמו על הקמת ארגון גז במזרח הים התיכון  ועל הקמת…  uripaz77 מניח שאתה מבין מה אתה רוצה פרופ ברבש זועם מצב הזוי שבו הממשלה לוחצת על הפרויקטור לעשות סגר תפקיד הפרוייקטור הוא לדאוג שהתחלואה תרד כל שיקו…  HebAcademy תודה HebAcademy Tirdon או Teradon radio103fm הצטרפו לבן כספית וינון מגל BenCaspit YinonMagal  ב9 ב radio103fm  קפה ומאפה בן כספית פרופ מסעד ברהום מנהל ביח נהריה חכ דר שלמה קרעי קורע את שאשא ביטון ח…  הפריבילגים קווים לדמותם הם לא מרוצים מנתניהו  אז אף אחד לא מאמין למילה שיוצאת מפיו כולל תומכיו ואין מנוס מלהחל…  BenCaspit Riklin10 טעות שלי מתווה מגל להחמרה מיידית של הסגר 1 סגירת בתי הכנסת להתפלל רק בחוץ 2 איסור הפגנות שלא בקפסולות 3 להקים בתי חולים שדה אוהב דקל netanelgla קובלנץ מי אמר שקלמן לא מעורר שיח Onetruth011 לא יודע ממתין עם התיק והתפילין  עם מי אפשר לדבר ב9 בפטריוטים patriotim20  שלזינגר judash0  לילי דרעי lalyderai  אורי זכי urizaki  אודי טנא uditenne   סגר…  למה זה נראה סביר שהפאנל מורכב באופן תמידי משני אנשי שמאל קיצוני ואיש ימיןמרכז אחד חבר משנות התשעים שואל  נתניהו שוב נותן גיבוי לאיש שלו שהיה כנראה לא בסדר גבר  צילום יוסלה ברגמן  מתוך  תפילת 18 להפלת נתניהו  אין שום אינדיקציה כמה היו שם בבתי הכנסת בבני ברק ובירושלים אבל כנראה היו שם רבים מאות ואלפים גאוני  Litalsun טראמפ הכריז לפני זמן קצר על סנקציות חדשות נגד איראן  אם תהיתם למה מדינות המפרץ מיהרו לחתום על הסכם שלום עם ישראל רגע לפני הב… מי שלא נותן גיבוי לאנשיו  שתחת לינץ תקשורתי  ובטרם התבררו העובדות לא ראוי להנהגה הבושה פה היא של המועדון של מכבי  ראש ממשלת בריטניה בוריס גונסון מנחם את היהודים שלא יוכלו להתפלל כרגיל בחגים אחרי מאות שנים שלא הפסיקו כולל תחת ה…  BenCaspit radio103fm מעדכן לימור לא הצביע ליכוד גם בבחירות האחרונות אוהב דקל זו לא תהיה כותרת ראשית גם לא בחדשות 13 אבל התיק נגד הכדורגלנים נסגר מחוסר אשמה אז עם מה נישארנו עם תרבות סלבס אכז…  L0V3isAllWeNeed מציע לפטר אותה yzakai יכול להמליץ לי איפה BarakShvartzman ברקוש א לא קראתי לרצוח עיתונאים ב אתה על גבול החסימה ג בברכה Riklin10 אין בעיה אם הפיד היה יודע כמה לייקים אתה חייב לי הוא לא היה מתרגש avishaigrinzaig רק בזכותך אני רואה שהוא קיים ודל ElizabethRimini לזה אני קוראת חתימה טובה שר החוץ של איחוד האמירויות שייח עבדאללה בן זאיד שחתם על הסכם השלום עם ישראל באזהרה מאוד מ… avishaigrinzaig למה אתה מגיב לו זה שגלצ ממשיכים להעסיק עבריינית בתור כתבת הפלילים זה נפלא פני העיתונות שרשור  GLZRadio לראשונה מזה 23 שנה רוב מקורות המים הטבעיים של ישראל נמצאים מעל לקווים הירוקים AyeletBrun באיזה מצב רוח אתם עם כל החגים והסגר והקורונה והשנה החדשה אם ההפגנה היא זכות יסוד בדמוקרטיה אז הנדבקים בקורונה הם בעצם קורבנות הדמוקרטיה radio103fm הצטרפו לבן כספית וינון מגל BenCaspit YinonMagal  ב9 ב radio103fm  בקפסולה בן כספית מפגינה בבלפור שמלה ריקלין רופא ראש עירית אילת איש משרד החוץ חקלאי שירי…  נשארו גברים בעולם  TheBlackFlags1 נשמות ינון עם יוד אחת אוהב יש לי רעיון בואו נפגין נגד ביבי  נתקהל בניגוד להנחיות כולם יעשו כמונו יהיו הדבקות יהיה עוד גל ואז נאשים את ביבי ונצא להפגין חג שמח  יחזקאלי מוסר דש ושנה טובה מאומן  kaisos1987 אחמד אלמנסורי מהאמירויות מנגן בעוד את התקווה כאזרח באמירויות רציתי לעשות מחווה פשוטה כדי לבטא את הגאווה שלנו בהסכם שנחתם… RoyIddan רועי נשמה מה ההבדל בין ההפגנה הזאת ובין ההפגנות בבלפור או שזה לא אותו דבר איזה כייף ששנה מסתיימת וחדשה מתחילה  עם פרץ האהבה הזה מהערבים מהאנשים במפרץ מדהים שהחיינו תודה לכם אנחנו מחזירים ל…  Kkalmutairi חברים יקרים יהודים ברכות   אני רוצה לברך את כולכם לשנה היהודית החדשה ואני מאחל שזה יהיה מתוק כמו הדבש ומלא בריאות כמו ש… מי שבימיןבבלוק וקורא לנתניהו ללכת גם בעסקת טיעון או חנינה הוא כפוי טובה שמחתי לעזור אוהב דקל הצעת חוק מי שהוגש נגדו כתב אישום לא יוכל לקבל פרס נובל ניגוןלשבת  מתוך תפילת ראש השנה בונוס תקיעה בשופר  חֲמוֹל עַל מַעֲשֶׂיךָ וְתִשְׂמַח בְּמַעֲשֶׂיךָ  שבת שלום ושנה…  לא רוצה לחשוב מה יקרה פה אם ביבי יקבל נובל לשלום מפחיד נורא מזעזע אוהב דקל ביי אחד המצחיקים   AviBenayahu באמת נורא שנה של התגשמות חלומות🧚‍  harhmornik BenCaspit זה פוגע האם אתה בעד שבן כספית יתחיל להניח תפילין BenCaspit מה צריך לעשות כדי להלחם בקורונה ביעילות מחנה השלום מה שנשאר ממנו  johndeere3350 dudid2428 אמיתי sabbabale YanivTurgi חחח תודה אח אדלשטיין סיכל את ברבש כפרוייקטור ועכשיו אנחנו משלמים את המחיר כרוניקה של קטסטרופה ידועה מראש והסיבה אגו חברי הטוב ר אור זיו פתח במבצע סעודה לחג לקשישים נזקקים ניצולי שואה ומשפחות מצוקה הלינק לתרומה…  רמבו 3  Irisleal15 עדיף לייזר BenCaspit מענין כשהעלת את בגין הרוצח ישן על ספסל לא טענת שהיה לו מושב בפירסט MoranT555 إسرائيل في انتظار الشعبين الإماراتي والبحريني  שיר מאיחוד האמירויות קחו אותי לביקור בתל אביב  الإماراتإسرائيل… ב9 בפטריוטים patriotim20  מתן פלג matanp2  גוש בריינר JoshBreiner  יאיר לוי iairLevy  עפרה לקס ofralax2…  אני מקווה לפחות שהכתבים המדיניים ומערכות החדשות שלהם מרוצים שראש ממשלה שחוזר מהסכם שלום היסטורי בבית הלבן ישן על הר…  צודקים החרדים בבקשות המופרכות שלהם להפגנות בכל הארץ אם יתנו לשמאל להפגין זה ימשיך לפורר פה את הסדר זה לא משחק את…  תקשיבו לפרופ ברבש תעשו עכשיו ומייד סגר הרמטי בלי חורים אחרת לא ננצח את המגפה מאיר אדרי מסביון שהעלה באיילון בגל הראשון את מס המובטלים מפרגן הערב בענק לנתניהו  לכל האפידמיולוגים בפיד שלום לא רק שחייבים סגר אם הייתם מקשיבים לפרופ ברבש היינו נכנסים לסגר כבר לפני כחודשיים …  מתברר שוב שרוב היהודים בישראל הם על הרצף המסורתידתי החילונים הם מיעוט של 43  לזה אני קורא חבר  מה עם היועמש  החליט כבר אם לפתוח נגדי בחקירה על הסתה לרצח כי אני פה עם התיק והמברשות שיניים  ממתין למעצר כמה זמן זה לוקח דוד אלחיאני ראש מועצת ישע מתפוצץ בשידור על ראש הממשלה נתניהו הונה אותי באופן אישי בנוגע לריבונות  radio103fm דוד אלחייני יור מועצת ישע תם זמנו של בנימין נתניהו אנחנו צריכים לקחת אחריות על ההתיישבות ולא לסמוך על אף אחד BenCasp… radio103fm דוד אלחייני יור מועצת ישע בנימין נתניהו רימה אותנו נתניהו ידע אז שהוא משקר הוא עשה את זה לצרכי בחירות הוא רימה אותי ב… radio103fm BenCaspit YinonMagal  ב9 ב radio103fm  בגלביה בן כספית יוסי ביילין דני דיין פרופ ערן סגל ברסלבר מגבול אוקראינה בלארוס סטפן לגר …  TheBlackFlags1 ינון עם יוד אחת הוא יעשה שלום עלינו ועל כל ישראל השניה שמתם לב שכשכל הכתבים צועקים נתניהו ביקש מטרמפ לתת לליטל שמש מערוץ עשרים לשאול שאלה כוכב מנחה בבית הלבן וואו  zehavagalon ברור שלא זו החלטה של עם ישראל מה עוד פעם לא ברור לך ב9 בפטריוטים patriotim20  פליישמן itamarfleishe  ללי דרעי lalyderai  אופנהיימר yarivop  ישראל מאיר   מרימים…  הפלשתינים מציינים בירי 27 שנה בדיוק להסכם אוסלו AvishayBenHaim הסכם השלום משובב הנפש זו הזדמנות להצדיע לישראל ה2 ולבייס האלקטורלי של נתניהו שהוכיח עמוד שדרה אידאולוגי וזהותי ולמרות… סאטירה  michalgivati כל הכבוד לערוץ 20 פאנל מרשים ומכובד ארי שביט אמנון לורד ד״ר קידר והמנצחים על הפאנל ריקלין וינוגן מגל איזה כיף a…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoaLiberator Rutshapira זה משחק גאווהסקריפט אז פשוט אפשר להעתיק את הקוד ולהריץ מקומית לא NadavPerez DorDugy הם מספרים בכתבה שהמילים נכתבו שנים קודם בעקבות פיגועי שנות התשעים  וואי הלוואי שאני אקפוץ קדימה בזמן איזה 50 שנים ככה  למה בגלל הקורונה   לא כדי שאם מישהו שם גיף של I underst…  DorDugy איך קוראים לאהבה שלי לא נכתב כתוצאה מהאינתיפאדה השניה מבחן האזרחות שהממלכה המאוחדת עושה למהגרים  מתי פותחו רעיונות חדשים במתמטיקה  1 לא ביוון העתיקה טפו 2 לא בעולם ה…  OdedFire האםםםםם שמעת על מצילינו ומושיעינו הקדוש האדס ישתבח שמו IraImmergluck ZmanIsrael היי אירה אין לי תלונות לכתבה שלך שכתובה היטב יש לי תלונות לבחירה של העורך למצב בכותר…  AnerOtto איך מוגדר ויטמין AnerOtto אני רואה שהציוץ שלי על ויטמין D משך קצת אש שזה מעניין כי הייתי בטוח שהחלק המעניין שלו הוא שויטמין D הוא לא ויטמין אלא הור… ZmanIsrael IraImmergluck לא רוצה לסכסך אבל יש מצב שניו זילנד הצליחה קצת יותר noamginger מוגלגלי סליחה ia42 MemeR Shluli אם אני פונה לאדם וקורא לו מישהו במקום להשתמש בשם הספציפי שלו שם שאני צריך לזכור בעל פה יש…  dinadayan זה ללא ספק מרכיב מהותי בסיפור האם זה כל הסיפור אני לא בטוח דווקא בגלל פגיעות היתר של האוכלוסייה הזו ק…  MemeR ia42 Shluli כן בזרה לנו דיברתי עלי ועל עירא מקווה שלא השתמע אחרת תמצית הדינמיקה הטוויטרית    האם יש דבר מיותר יותר מאריות ים   סליחה אדוני אריה ים הציל את חיי בוייטנאם משפחה ש…  ia42 MemeR Shluli מטאפורה יפה הנה הצד השני שלה זו חוויה שזרה לנו לגמרי אבל יש אנשים שהעברית שגדלנו בה דופקת להם מכות פטיש ISudri מר סודרי אתה מבין שהרעיון בקפסולה הוא לא שהנמצאים בה חסינים מהמחלה אלא לצמצמם את ההדבקה למי שנמצאים ב…  dinadayan לא קשור ללצחוק קשור לנבואה שמפריכה את עצמה הגל השני לא הגיע מעצמו בגלל הכוח הגרביטציוני של הירח הוא ה…  Wlrving considerthefish לא הוא לא אבל כן יש חשש לבעיות בריאות כרוניות אצל אחוז לא מבוטל Gili95664232   אוהבים לדבר על שבדיה כמדינה שהצליח לה עם חסינות העדר זו לא הטענה של שבדיה עצמה  העניין הוא שחסינות עדר זה לא מ…  idan315 יש לנו הנחה  adistav ברור שזה היה יכול להיות אם היו מגלים כזה דבר זו הייתה הפתעה מדהימה בלי קשר לדרך אבל בתיאוריה גם ייתכן…  adistav זה כמו המשפט האחרון של פרמה היה ברור לכולם שזה נכון כבר מאות שנים אבל היה גם ברור שאין שום סיכוי שבעולם…  adistav אה ההתלהבות כאן לגמרי תהיה לא מהתוצאה אלא מהטכניקה המטורללת שיצטרכו כדי להוכיח משהו כזה idan315 Solance מדבר כל היום על מג מג מג ואף פעם לא על דוזה שרץ שאול טיפוסי אז יש תחקיר של ענייני המיסים של טראמפ שהוא כנראה עבודה עיתונאית פנומנלית ואני מתקשה להבין מה הביג דיל בו כי איכשהו…  AidaTuma שרון נכנס אל תוך המסגד לא הצלחתי למצוא מקום שבו זה נאמר אפשר פירוט DorDugy גורמים בממשלה מדברים על מתי יהיה חיסון אילוסטרציה  RanBalicer אני תוהה כמה אנשים צריכים למות פה מדי יום כדי שיפסק המינהג השערורייתי לעניות דעתי של הקריינות בסגנון ׳מתו עם קורונה או ב… BenDror4 לא מבין בזה מספיק אבל להבנתי זה לא לינארי אלא קשה בהרבה BenDror4 הם יהיו רועשים ולא יהיה אפשר לעשות איתם כלום צריך לזכור שרוצים שתתאפשר סופרפוזיציה של כל הקיוביטים הללו…  chonye91 YaelSherer אה התפיסה שלי היא שהדת היהודית היא תועבה מיזוגינית ששומר נפשו ירחק ממנה ואסור שתהיה נתיב החת…  שמאלן מצביע בבחירות אילוסטרציה  ExMaahal AvinoamY נראה לי שזו עמדה בלתי נמנעת גם לסתם חילוני שגדל פה הדת נכנסת אלינו עמוק מדי מתחת לעור lilyoftheyard אוקיי זה יצא ממש אגרסיבי בצורה שלא התכוונתי אליה מה שרציתי לומר הוא שממש משמח אותי לשמוע את זה  lilyoftheyard לא נכנסתי שם למתמטיקה theconfigurator תהיה אותה שיחה גם ב5000 אנשים אחרים כותבים ציוץ אחרון בסדרת ציוצים פיקטיבית וכולם מגיבים לזה כאילו זה היה עמוק נורא כדי לעבוד על הדתיים…  mipcodes שעון קיץ כאן מסמל לא איזור זמן מסויים אלא את הקונספט להזיז את השעון שעה אחת קדימהאחורה בהתאם לעונה שנת 2000   וואי כמה אפשר למה הם נלחמים כל כך על לעבור לשעון חורף לפני יום כיפור אני מת פה  עזוב המפלגות האלו…  LongtimeNut dubikan האמת שאחרי הMCU ותאנוס נהיה הרבה יותר קל להסביר את אלוהים פשוט בתור נבלעל עם דרך משונה מאו…  dubikan CrazyVet noamginger gilgu oferron מעניין בארץ אין לחץ מיוחד להכיר את המיתולוגיה היוונית אבל די באופן…  JenAshleyWright realDonaldTrump Thats also pretty much the story in Israel dubikan CrazyVet noamginger gilgu oferron הם מכירים את המיתולוגיה היוונית eyal6699 אני לא מנתח קומיקס בעיקרון גיבורי על הם מן הסתם אלגוריה לשלל טיפוסי סלבים ואלמנטים קלוקלים בתרבות gil73965867 Obar06485129 אני מקווה שאתה יודע שמים זה חומר רעיל בכמות מסויימת ובטח שזה רע לילדים שנופלים לבריכה ולא יודעים לשחות whtstar2 tessartype כבר לא מרגישים הבדל בין כיפור ובין סתם סגר shirlior asafabcde MatanHolzer FakeYoel למה בלי להניד עפעף לפני הקורונה מה שצעקנו עליו כל הזמן הוא ללכת להתחסן נגד שפעת כי זו מחלה קשה MatanHolzer asafabcde FakeYoel מהיכן המידע רובם משתחררים תוך יום eyal6699 אגב Hades הוא באופן טבעי רפטטיבי כי זה הזאנר אבל הסיבה שכולם נשפכים ממנו היא הבית ספר שהוא עושה לגבי…  eyal6699 ואם אתה כן במצב רוח למשהו קצת יותר נסיוני Return of the Obra Dinn התחייבות שלי לינארי לא מבוסס שוטטות…  eyal6699 ביושוק אינפיניט Nowa לא יודע אותי זה הצחיק jonobarel IdanDekel DanielleBN MemeR כן חוץ מאלו שבהם הספין אוף מתבסס על דמות שקיימת בחומר המקור ומקבלת במה מש…  מתחשק לי לאמץ את אבח ולהגיד שהוא מדמחניק זה הרי מתאים לתיאור שלו לא פחות מכל תואר הזוי אחר שהוא מייחס לעצמו  mashkazg perryallon Amitna87 roeer היה לי רק את ציפורי לילה בננטקט בתור ילד וכל כך אהבתי אותו  Amitna87 ואן דייק לדעתי התנצל פומבית מרוב שזה היה נורא hyuvii כן כן אני יודע את כל זה אבל זה לא משנה את העובדה שהתפילות הללו טרחניות בעיני בצורה קיצונית והתוכן שיש בה…  FakeYoel MFaibis רק מציין שהחשבון של 1 ל1000 על מדינה של 9 מיליון איש מתורגם ל9000 מתים וזה בלי להיכנס לנזק…  FakeYoel MFaibis איך פתאום קפצת לדיבור על סגר FakeYoel MFaibis זו אותה מגמה בדיוק למה אתה מעיק  FakeYoel MFaibis האמירה זה עצר בכל מקום אחר בעולם היא שגויה  Amitna87 לדעתי זה פשוט שייך לעידן שבו כשעיבדו ספרים לא הבינו שחייבים לקצץ על ימין ועל שמאל TalGoldman במקרה הנוכחי פשוט תכתבו בגדול הירשמו והתחברו לאתר על מנת להזמין צמיד TalGoldman tomer תודה גולדמן אני יודע שאתם אנשים טובים שעובדים קשה ורוצים שיהיה טוב לכולם ומקווה שלא משתמע אחרת  eyal6699 זה חשוד מאוד משחק שמשאיל בצורה כל כך מובהקת את הסגנון הגרפי הייחודי של משחקים אחרים זה בדרך כלל סימן…  eyal6699 שיחקתי קצת אמרתי וואו איזה מגניבבבבבב נתקעתי באיזה קרב שלא הצליח לי לא חזרתי מאז  אוקיי רגע מה הכוונה היא יותר מכניסה אחת בבת אחת או שיש לי רק פעם אחת לראות את כל הכנס ואחר כך זהו אני מניח שה…  גם מהמחשב לחיצה על הזמנת צמיד כניסה מקשרת לתוכנייה שבה אין שום הסבר איך מזמינים צמיד כניסה  האם אני אסתדר בוו…  saralegliksberg כדאי לבדוק מה הנתונים המעודכנים על החודשיים האחרונים   קשה לנצח את הבוס האחרון ב Hades יותר קשה לטפס על האוורסט עוד יותר קשה לעצור את הקורונה הכי קשה להבין איך נרשמי…  ClarkMcFly מפלצות העל  FakeYoel מתנצל לא הבנתי תוכל להסביר במילים למה הכוונה ולהדגים איך זה תואם את הגרף שיש בארץ FakeYoel מה זה אומר שטוח המונח לא מוכר לי בהקשר הזה FakeYoel אנחנו רואים גל כזה במקום אחד בעולם ישראל אז המינימום שאתה צריך לעשות הוא להבין שאם אין דבר כזה ביתר העו…  omeresh לא כי אני לא חושב שזה ייגמר ב5000 אם לא נעשה כלום כמו כן הסגר עכשיו הוא לא פתרון והדיון הוא לא על סגר…  אגב מקדים תרופה למכה רוצים לומר לי שזה לא מיוחד לתפילות יום כיפור אלא זה ככה בכל תפילה ותפילה כן אני יודעעעעע FakeYoel חשבתי הרבה זמן בדיוק כמוך על הנתון הזה אבל הוא מטעה כי אנחנו לא יודעים מה הולך לקרות במדינות שיחטפו גל ש…  omeresh rutihersh אבל אתה אמרת לפני רגע שאי אפשר לדעת מה יקרה בעתיד מה גרם לך לשנות דעה כל כך מהר היית צריך לענ…  omeresh rutihersh אגב לא הבנתי איך להתעלם מהמגיפה יציל אותנו מהמשבר הכלכלי את שוודיה זה לא הציל omeresh rutihersh אתה לא יודע בודאות את העתיד מכחישי קורונה אל תעשו סגר זה יהיה אסון כלכלי המדינה תיחרב העתיד   מתנגדי קורונה אוקיי אבל חייבים צעדי מ…  omeresh rutihersh אתה לא יודע את העתיד אבל אם אתה רוצה לדבר על המחלה אתה חייב לנסות ולהעריך אותו בצורה שמחוברת…  omeresh rutihersh בוא תסביר לי אחת ולתמיד את הקטע הזה  אתה אומר 1500 בחצי שנה למה הנתון הזה הרי אתה יודע ב…  geifmany למשל לא להתקהל במקומות סגורים זה רעיון חדשני אני יודע אבל הוא טרם בוצע פה FakeYoel אני לא חושב שהתמותה תחומה ב5000 ומציע לא לתת תחזיות של חסמים עליונים כי אנחנו אולי יודעים איך זה מתחיל…  rutihersh omeresh הטענה שקשה יותר להשפיע על שיעור התמותה כי זה תלוי בדמוגרפיה עוד איכשהו ברורה לי למרות שגם זה לא…  NoaLiberator אני מהמר על או אחרי החגים אם הממשלה ממש מטומטמת או עוד חודשיים מה אנשים כנראה רואים בתפילות יום כיפור חשבון נפש בקשת כפרה שיפור עצמי יופי  מה אני ראיתי בתפילות יום כיפור כשהל…  ehmaimon צחוק צחוק אבל יש לי הרגשה שפספסנו את הOregon Trail הישראלי פה nitayp Sstoyaabulafia עם זה אני מסכים דברים שאני חושב שאסור לעשות למידה בטכניון בכיתה סגורה קפסולות שמקסולות…  Sstoyaabulafia אני לא רואה בעיה במפגשים בחוץ עם שמירת מרחק ומסיכות Sstoyaabulafia נראה לי שכולנו נסכים שבערך כל הצעדים של הממשלה נגד הקורונה הם אסון ושגם הסגר הזה מבוצע בצורה…  ia42 MemeR גם חברים יכולים לפגוע אפילו בלי כוונה לפעמים כשהמכה מגיעה מכיוון אנשים שאנחנו פתוחים אליהם היא חזקה…  hadarinke מאז כבר הרגתי אותו שוב ושוב ושוב rutihersh nitayp אני מאמין שהייתה ירידה משמעותית אבל שכדי שזה לא יסתיים באסון היה צריך יותר מירידה משמעותית eranbe אני לא מתערב עם אף אחד אני מבטא את ההיסטריה שלי MynaHodit רק מזכיר שאנחנו לא הולכים למודל השבדי כי בשבדיה היו זהירים יותר מאיתנו HuffiMuffiGuffi Idanyo יאפ זה אקסקום הישן והטוב adlerizm CactusBavarius אתה כנראה לא תופס משהו בסיסי  אחרי הסגר הראשון הייתה הזדמנות להימנע מגל שני אם כלל הציב…  Idob82 NucleusDawn אני שונאאאא את הקטע הזה של לקנות בונוסים זמניים תמיד זה נגמר כשבאמת צריכים את זה maayanef מתנצל  זו הייתה בדיחה אני לא הצלחתי להבין את ההערה של ההוא בעצמי maayanef מתנדב להיות עוד נודניק שמסביר לך שילדים הורסים את הכיף  RikerGoogling can a dermal regenerator fix a leather couch shmuelfarkash לא Elinorigby אצלי הרבה פחות לשמחתי אנשים אחרים שונים ממני בדרכים שאני לא מתיימר להבין ובוודאי שלא לשפוט Sammyd453 אני מקווה שכולם יתעשתו ולא נגיע ל5000 אבל זה לא יקרה מה Elinorigby אני הייתי בעיקר בודד יותר  התעלקתי על אנשים ספציפיים שאלוהים יודע איך סבלו אותי Sammyd453 אם הסגר נמשך כמו כרגע לא רואה איך זה יציל אותנו ואם תפילות יום כיפור הלכו גרוע כמו שאני חושב אנחנו נחטוף גם עם וגם בלי סגר Jenny666Beans מלוא כל הארץ כבודו eyal6699 אז מה אמרנו העמדה שלך בנוגע לHades אני לא אפידימיולוג ולא פיזיקאי עם מודלים ולא חתן פרס נובל 2013 כך שכשאני זורק תחזית לאוויר היא לא מבוססת על כלום חו…  Jenny666Beans הוא מהאלו שנכנסים לתפילה עם מסיכה ומורידים אותה בדיוק כשמגיעים לקדוש קדוש קדוש PazFeed TRIGGERED EdGorinstein Well you managed to recreate the feeling of one of my favourite boss fights Thanks AradFirer זה כמו התנך מלא קסמים והרפתקאות ובעיקר חטפנו מנה גדושה מזה בתור ילדים וקשה להשתחרר אם השטן היה קיים האקט הראשון שלו היה להמציא את אלוהים רק אומר אני מנסה להבין מה עובר לאדם כזה בראש ופשוט לא מצליח אנחנו כאלו פסיכופתים  SupergiantGames Artemis told me she digs my Coronacht Case closed   Also deflecting the witches with its special is SO satisfying adlerizm CactusBavarius להיטפל לאלפי כאילו אם היו אומרים אלף ארבע מאות זה לא היה נוראי באותה מידה זה מטומטם…  Icel אתה משתפר בכל פעם תמשיך amph מתנצל בהנחיות נפלה טעות צל כאשר אתן מדברות עם מעריצי אבישיה מתיה מוטב כי תהיו לא מנומסות chonye91 YaelSherer כפייה כזו פירושה מתן גט ללא הסכמת הבעל או סתם לגיטימציה להפעלת אלימות כלפי הבעל YaelSherer אל תדאגי לא ייתן גט ישימו אותו בכלא זה כבר יראה לו NeuOmer יודעים לתת מדדים עם גרפים יפים   Stillwa16458825 לא NeuOmer מה אתה מודד MyHactana דקה לפני כן הוא יוצר באופן חופשי זוויות של תשעים מעלות הוא יודע ליצור ריבוע Hofshia GrimBeholder AviRabina הוא מדבר על ניסוי אפידימיולוגי שתלמידי הישיבות מפעילים על עצמם כל חיי רציתי לראות שלט כזה שבו לא עומדים בדדליין תודה קורונה  AvishayBSG idan315 DenisVi אני משחק בעיקר בhandheld האדס ספציפית אבל גם כל דבר בכללי eman70y Nefolet PhysicsRocks3 יש oblong למלבן שאינו ריבוע אבל הוא כן מלבן לא מרובע כללי idan315 DenisVi AvishayBSG בסוויץ זה רץ חלק ונראה מעולה Nefolet אני לא בטוח למה את מתכוונת אני מכיר עיגול בתור החלק שתחום על ידי המעגל עיגול הוא העוגה מעגל הוא שפת העוגה yuvalv yoavgo eyalbhaim צריך טיפה להיזהר כאן  אחד מהדברים המרכזיים שעושים כרגע בתחום הוא לנסות ולבצע אבסטרקציה…  yoavgo eyalbhaim אני לא יכול לומר אם אני מתנגד או לא כי אין לי הבנה אסטרטגית של השיקולים והמטרות של ישראל אני יכ…  קוראים באי התעלומות ופתאום המהנדס מחשב זוויות על ידי חלוקת מעגל ל360 חלקים   למה למה מעגל שלם למה למה לא לי…  yoavgo eyalbhaim לדעתי זה בדיוק אומר שלא הולכים לבנות מחשב אלא רק ללמוד איך להשתמש בו ולפתח דברים אליו yoavgo eyalbhaim אגב גם כדי ללמוד איך להשתמש כדאי שיהיה תקציב מהמדינה כן yoavgo eyalbhaim לא בונים מחשב אני לא מבין איך הגעת לחוקרים איך להשתמש שאת זה עושים גם כרגע בלי קשר כבר מתו יותר מ1400 אנשים וחובבי הקורונה עדיין מנהלים ויכוחים על קוצו של יוד בסגנון התחזית מופרכת הבטיחו היום 8…  eyalbhaim yoavgo בניית מחשב קוונטי היא תחום נפרד מפיתוח אלגוריתמים קוונטיים וכדומה בשביל שיהיה לך מחשב קוונטי את…  NoamsArk זה הדגל NucleusDawn מקווה שיש לך קצת דם מנחים כי זה פותח שדרוג לאקסל שמסייע להתקפה הקריטית adlerizm CactusBavarius יאללה יאללה אלפיים מתים כבר יהיו ושום דבר שנעשה לא יכול למנוע את זה מציע להפסיק עם ההתפ…  eyalbhaim yoavgo כיום המחשבים הם של סביבות החמישים קיוביטים אבל זה לא המדד הכי מעניין יבמ למשל כל הזמן משפרת את…  yaelrashlin NoaLiberator זה בגדול הרעיון מאחורי רעש קוונטי אבל הפרטים מסובכים יותר eyalbhaim yoavgo זה לא מירוץ במובן של למי יהיה קודם וגוגל עושים יחסי ציבור בעייתיים מאוד לתחום לדעתי אלא פשוט…  yoavgo eyalbhaim בשלב הנוכחי מחשבים קוונטיים לא מאפשרים לנו לעשות כלום שהוא גם מועיל וגם לא ניתן לביצוע במחשב קלא…  eyalbhaim yoavgo קטונתי מלהגיד לישראל איך לנקוט ברמה האסטרטגית ומן הסתם ישמח אותי אישית אם הם ישתפו פעולה עם יבמ…  yaelrashlin NoaLiberator אני לא יודע מה זה ריקבון ומה בדיוק קורה בשבבי 7 ננומטר יש בעיות שבזרגון המקצועי מכ…  yaelrashlin NoaLiberator הרעיון למחשב הגיע מהחתול של שרדינגר כמובן eyalbhaim yoavgo יש בגישה הזו שתי בעיות ראשית אפשר יהיה לעשות עם מחשב קוונטי גם דברים שהם לא האלגוריתם של שור…  yoavgo לשאלות עניתי eyalbhaim yoavgo אם נגיע לרמה של האלגוריתם של שור כן כרגע נראה מאוד לא סביר שנגיע לאלגוריתם של שור בעשור הקרוב…  yoavgo כי כאמור לבנות מחשב קוונטי זה לא לעשות קופי פייסט למחשב קיים בפרט כזה שאין לך גישה אליו מלכתחילה UdiQimron horowitzb amsterdamski2 ArielMunitz GerlicL aradnir NadavEyal נניח שהתחזית הייתה רק של 700 ולא…  yoavgo אז בבקשה תנסה לנסח את השאלות שלך בהתאם ולא לטעון טענות על בסיס תמונה שגויה שיש לך בראש yoavgo השאלה היא למה שישראל תרצה טכנולוגיה חדשנית yoavgo זו לא נחיתה על הירח שבה רק מי שמגיע ראשון זוכה yoavgo לא yoavgo זה השלב שבו אני תוהה מה ההבנה שלך בעצם כי אנחנו בעולמות שונים לגמרי yoavgo יבמ כבר בנתה מחשב קוונטי וכבר משכירה זמן חישוב זה לא אומר שאם מחר הם מפתחים מחשב שמריץ את שור ישראל תקבל גישה חופשית אליו yoavgo מי מוכר כמו כן זה לא משהו שמחברים לשקע וזהו אתה צריך אנשים מיומנים לתחזוקה שוטפת של זה yoavgo זה לא פיתוח מדעי זה פיתוח טכנולוגי אי אפשר לעשות קופי פייסט Icel חושב שהמשחק היה מתסכל אותי הרבה יותר אם לא הייתי במקביל משחק עם הילד בGod mode ומתרגל אליו שם עכשיו ניצחתי…  Jenny666Beans זה הדבר שיש לי ואני מרוצה ממנו אין לי היכרות עם התחום מספיק טוב כדי לקבוע איך הוא ביחס לאחרים   therealkingonly MadaGadol בהתחלה הייתי על מיוט כמו טמבל וחוץ מזה חישוב קוונטי זה מגניב אבל ממש ותודה לNoaLiberator שהאיורים שלה מראים עד כמה lt11  חלק ממה שצריך לזכור פה הוא שמחשב קוונטי זה לא 0 או 1 וסליחה על בדיחת האבא האלגוריתם של שור הוא הדבר הכי מפורסם א…  אז האם ישראל אומן צודק כשהוא מזהיר את נתניהו מפני השקעה במחשב קוונטי קטונתי מלחרוץ דעה בעניינים אסטרטגיים שכאלו ו…  האם אי פעם נוכל להגיע לשם כאן אין תשובה חד משמעית המתמטיקאי פרופ גיל קלעי למשל חושב שלא נוכל ויש לו טענות לא ט…  ראשית צריך הרבה קיוביטים פיזיים כדי לקודד קיוביט לוגי חסין רעשים בודד אז צריך מחשבים גדולים יותר שנית וחשוב…  אולי תגידו  אבל רעשים זה משהו שקיים גם בחישוב קלאסי ויש קודים לתיקון שגיאות שמתגברים עליהם זה כמובן נכון ויש גם…  סתם להגיד יש לנו מחשב קוונטי עם 1000 קיוביטים זה חסר משמעות צריך להבין מה אפשר לעשות עם הקיוביטים הללו בצורה שא…  העניין הוא שמידע שמיוצג בצורה קוונטית הוא מאוד רגיש לקלוקלים מבחוץ בשיטת הייצוג שמשתמשות בה כיום חברות כמו גוגל ו…  אלא שהאלגוריתם של שור הוא תיאורטי הוא אומר אם יהיה לנו מחשב קוונטי חזק נוכל לעשות בו את זה מחשבים קוונטיים כאל…  הדבר שכנראה פרסם את החישוב הקוונטי יותר מכל דבר אחר הוא תוצאה תיאורטית לגמרי מ1994 של פיטר שור שמצא אלגוריתם קוונט…  מה זה חישוב קוונטי יש לי פוסט שמתאר את זה בפירוט אבל הרעיון הבסיסי הוא לנצל אפקטים פיזיקליים מגניבים כמו סופרפוזי…  הסיפור האווילי הזה של ישראל אומן על השקרנות הפתולוגית של נתניהו הוא בעיקר הזדמנות טובה בשבילי לקשקש קצת על חישוב קו…  מחקתי כי גיליתי שאומן עצמו אמר את ובכן זה יצריך ציוץ נפרד זה לא מבחן אלא שאלה אין לי מושג וגם לא למשתף המקורי AvinoamY או כמו שאנחנו קוראים לזה בחיפה יום ראשון eyalrh בכנות לא אכפת לי מה היו הכוונות שלו אני רוצה שהוא יסתום פשוט יסתום HuffiMuffiGuffi OmerLahav idan315 האהוב עלי מבין 49 הוא 9 ואחריו 6 ואחריו 7 לדעתי הוא ממצה הכי טוב את האופי…  EdGorinstein Got to ask Is the TheseusAsterius battle a nod to Dark Souls OrnsteinSmough battle  Also the Hy…  HuffiMuffiGuffi OmerLahav idan315 תודה כבר יש לי את 789 וכדאי שקודם אגיע אליהם HuffiMuffiGuffi אני קצת לא מאמין שאני אומר את זה אבל עדיף החידוש מה דעתכן קובי אריאלי יתחיל עכשיו לסתום פשוט לסתום  כשהייתי קטן ושיחקתי בxcom המקורי אני זוכר איך זעמתי על מדינות שהחליטו לחתום על הסכם עם החייזרים ולהפסיק לתמוך בנו…  LitalCohen אלופות הניו מדיה האמיתיות עושות שרשור מיץ תפוזים ברמת אביב ג OdedFire Icel GadiAleks SupergiantGames אתה עיתונאי רק אם משלמים לך על זה אני גיימר מבעבע DrMelodyPond עשית לי נוסטלגיה  DanaGat1 תיקון יש מצב שברמה האישית ההפגנות מרגיזות מאוד אותו ואת המשפחה והוא רוצה להיכנס בהן אבל אני לא חושב שהו…  DanaGat1 לא חושב שההפגנות מזיזות לו חושב שהוא עובד הרבה על להטיל את כל האשמה בקורונה עליהן זה בוודאי מה שהשופרות…  DanaGat1 בנט כנראה יקבל משמעותית יותר מנדטים וכידוע בנט שונא את נתניהו שנאת מוות אז בהתחשב בכך שהאלטרנטיבה הוא…  odedkramer אתה אשכרה רוצה שנגלול בפיד של קובי אריאלי האימה Hey SupergiantGames thanks for an amazing game Question When crosssaves come and I load my Switch save on the…  smallweed michaelzil לא קרן טטנוס תוקף סליחה </t>
+  </si>
+  <si>
+    <t>NiflaPo בוקר טוב בני בוקר טוב גבי בוקר טוב אבי קיבלתם את הקולות של למעלה ממיליון איש ממש כמו סגול בשיער שישב עוד כשעה באמצע השולח… Dragonwithtat אתם יודעים שכשזכות ההפגנה תילקח היא לעולם לא תוחזר נכון orlybarlev פותחת שידור חי מהשיירה לכנסת אצלי בפייס baruchikra לאור הצפה אינטנסיבית של רעיון החנינה או עסקת טיעון גרנדיוזית אני מעלה פה שוב את הקטע הרלוונטי ממאמרי ביום חמישי  מי שתומ… roeishapira We have a flair for the drama BRBY063 אין מה לעשות תמיד אמרנו Soloph0ne  כי אין שום ברירה אחרת אנחנו נאבק על הזכות שלנו להביע ביקורת ודעה חופשית כי על זה המאבק  החופש שלנו לבקר את השלטו…  אבל בחיים לא חשבתי שזה יגיע לכדי כך שהוא ידרדר אותנו אל פי פחת שהמציאות תגיע לכדי כך זה כל כך סוריאליסטי לפעמים…  אני מפחדת ממחר זו האמת סליחה שאני לא יכולה להתעלות מעל זה ולהפיח אופטימיות לא מסוגלת אני פשוט מפחדת לא רוצה אפ…  zelama אנחנו בתוך בבושקה של סגרים ItaiLeshem חנינה בשום פנים ואופן לבחור מיטה עליונה או תחתונה יש על מה לדבר orlybarlev הפגנה במרחק של 1000 מטר מהבית זה דיכוי זכות היסוד של הפגנה חופש ביטוי והמחאה כל הסגר המטורלל הזה בניגוד לעמדת אנשי המקצו… segalyaniv מושלם  DonMacLoof ShragaTichover Soloph0ne הדדי  HalperinShirly  היה כיף להיפגש מהממת segalyaniv היוש כנסת אנחנו נתראה מחר אנחנו הולכות לוודא שאת הולכת לעשות את התפקיד האחרון שלך שעדיין לא הפקרת וזה לשמש לנו מגן נוהר… sadibenshitrit איש ענק היה תענוג להיפגש סוף סוף זכינו להיפגש ומה אומר הוא אפילו יותר חתיך וסוחף במציאות  orlybarlev אלה מספרי הטלפון של חברי כחולבן סמסו להם תסבירו להם מה תפקידם כעת תזכירו להם שהם לא רוצים להיות בצד של ההיסטוריה שמחסל ד… ShragaTichover דמו קרט יה misscorina2  Soloph0ne  hadarse אצל בני גנץ עם קורינה המלכה בני תתעורר או תתפטר misscorina2 gantzbe  netanyahu תתפטר kumiiisrael 13 זוהי נקודת זמן קריטית מחר שלישי נעלה לכנסת בשיירת ענק מכל הארץ ניפגש שם החל משעה 1000 השיירה המרכזית תגיע קצת אח… gevakraoz גם אני חושבת yanivbiton99 יניבבבבב אני אוהבת אותך איזה שחקן גאד דמיט אני צמרמורות אימלה מי זאת מפרת פסיקת בגץ המהממת הזאת   instabaluga שלומית במצוקה נסערת וירוקה לכן היא עסוקה היום ויש לה בסוכה שרשרת הדבקה שלומית התחרפנה היום היא לא תשכח לשים תחמושת בכיסים… CactusBavarius אני תמיד אומרת לאנשים שמכירים ואוהבים אותי שהם פשוט עוד לא פגשו את בעלי הוא הדבר האמיתי CactusBavarius זה נכון חברים היום ב2030 רחוב הטללים 7 ראש העין מול הרמטכל שכשל  קרדיטים רעיון בעלי המהמם ביצוע CactusBavarius האחד ו…  barakshalev כשאתה ילד המספר הגבוה ביותר הוא ״שמונתאלפים״ SharonYosef עכשיו מתגלעים שני ויכוחים שהאחד מצדיק את השני ולהיפך  אנחנו התמימים והטהורים של מדוע לפרסם את הסרטון והשניים צדיקים וטהור… Ogi43188459 Zakiel91  iloveisraell הערב בראש העין  2030  cch444444 על הבחורה עצמה אין מה לרדת היא תוצר של קעקוע תודעה בשיטות של שרלטנים הקשר בינה לבין יהדות וישראליות ומגובשות מקרי בהחלט ש… cch444444 תודה AvishayBenHaim נשמה התאוריה עם הפיוס שלך עובדת מלא מלא חצי מדינה הפכו למוכי כת גואל רצון פינת אושו RTsipris misscorina2 יש גם אותם  RTsipris  RTsipris לא יודעת מה לעשות כרגע עם כל הטוב הזה אני רוצה תערוכה של כאלה במוזיאון OBOW2jV7KJuKXcD רק באחת WowGilush אמירת האמת בימים של הונאה אוניברסאלית היא מעשה מהפכני גורג אורוול arnavonet מסכן רוב הסיחרור שהוא עבר בצילומים לסדרה הזאת מערבל בטון 90 טון SharonYosef sadibenshitrit תרגיש טוב יותר חשוב מהכל  sadibenshitrit באה SharonYosef שתדע שאני באיזור sadibenshitrit חברים היום בערב בשעה 2030 אני הולך להזכיר לגנץ העציץ שיש לו אפשרות למזער את הנזקכולם מוזמנים רחהטללים 7 ראש העין עכ… RTsipris אין ולא יהיה יותר טוב מזה Soloph0ne וואו וואו וואו Ogi43188459 התמכרות GalonItay אנסה לפעול לטובתך אך לא יכולה להבטיח דבר לא מאמינה שקריירת המשחק שלי סוף סוף התחילה להתניע ועוד ביום כיפור  hgidt34 גם אותי ולכן מצאתי את עצמי בניגוד עניינים חריף בנושא SharonYosef למה שביבי לא יהיה האדם הראשון שטס למאדים  מוותר לו על משפט טוב אני באמת מרחמת על רקדנית ההסתה ולא תיכננתי להשתף בפסטיבל אבל זה כל כך טוב בעיני שלא יכלתי שלא תהנו  NitzanWaisberg אני איתך Soloph0ne VennySol  rankarmibuzaglo רנוש התגעגעתי אלייך חיים שלי מקווה שאתה מרגיש טוב אחרי הפציעה אני עוד מחכה לתפקיד במחזה החדש שלך מ…  Banboonsdum מוחה בשם דוקטור אביצי SharonYosef נראה לי שיום כיפור הוא יום נהדר להעלים מתנגדי משטר hadarse אני רוצה להיות שרת התרבות ולהוציא את הכפיים מחוץ לחוק אפשר Soloph0ne נתניהו טופז תעלה תמונה של הכותל לכבוד כיפור ותכתוב חתימה טובה  טופז כן בוס על זה  CactusBavarius netanyahu בולללל ItaiLeshem כן אחרי התמלילים היא לא משחררת לו מזון regevmiri מזל טוב עם הנשיקה 1010 בפופוליזם מהזן הנחות  חתימה טובה מותק NiflaPo מסכן זאת לא אשמתו היה לו עותק מהספר בכיס של המכנס אבל הוא עבר כזו הרתחה במכבסה בארהב שהכל שם נמחק נשאר ר…  SharonYosef יוסףףף  gontarzn orlybarlev פעם הבאה חסר לך שאתה לא בא להגיד שלום instabaluga orlybarlev cnnbrk CNN cnni  hagarsi orlybarlev גם אני חתימה טובה אהובה וואלה המחמאה הכי יפה שקיבלתי עד היום חתימה טובה גם לך נשמה  orlybarlev  תודה על הכל וחתימה טובה אורלי יקרה  Teodor1  netanyahu אתה מבזה את הקיר שאתה עומד על ידו freyisrael1 אתה חתיכת איש מהמם חתימה טובה BenCaspit כל מילה וגמר חתימה טובה baruchikra חתימה טובה איש יקר ראיון אצל אורלי חלק ב  אז בין ההמולה של הכל זכיתי אתמול להגשים חלום ולעלות לראיון אצל orlybarlev המדהימה חלק א  Soloph0ne avidareli שונאת אותך ביוש netanyahu אתה מרגיש את האדמה רועדת אבא Lolavanhorn תודה רבה eladmeidar idaholloway זה נכון גם אנחנו צריכים על זה חשבון נפש BenCaspit שלום תמורת כביסה טורשישי מלא   idaholloway  יועזי חייב לנו סליחה שהוא כזה חתיך קולע לסל שהשתמש בצורה המהממת שלו כדי לסנוור אותנו באופן כל כך מביש אם לא היה ברור עד היום למה אני מעריצה ואוהבת את האישה הזו אז הנה  orlybarlev לאה סטולר ניצולת שואה בת 88 שעלתה אתמול בשיירה ההיסטורית לבלפור העיניים התכסו דמעות  צפו בראיון הקצר שערכתי איתה  chaimlevinson האישה הזאת עושה לי ניים שיימינג ואני רוצה למחות על כך Banboonsdum  Banboonsdum אין לי מה לבקש סליחה כי אני מושלמת orlybarlev תודה על הכל אישה יקרה TheTLVgirl אחפש תודה רבה  adindan לא משרת יותר את הימין במילותיו שלו Eladingo מזל טוב נשמה טובה orlybarlev במספרים אלפים יצאו לגשרים לצמתים ועוד אלפים בכיכרות תא בקיסריה רבבות בהפגנה הווירטואלית רבבות מול השידורים החיים מהש… hagarsi הוא עמד כמה מטרים ממני בבלפור היום צילמתי כי כאב לי בלב שבמקום לבלות ולהנות מהחיים הוא צריך לעמוד בבלפור עם שני דגלים  מציאו… eranetzion איך יודעים שנתניהו בפאניקה  מילא החיוורון הפנים הנפולים העיגולים מתחת לעיניים העפעפיים הנפוחים שימו לב לעריכה את הסרט… instabaluga dudiamsalem  Yoglas74 רותם אוחיון אנחנו ניפגש בבית המשפט המפקדים שלך סימנו אותי בקהל כי לא נעים להם לשמוע שאתם מתנהגים כמו עבריינים הכל מתועד א… dudiamsalem אמא שלך אנרכיסטים מופקרים arianamelamed קורינה אחותי את ובני דורך הם התקווה שלי ואנחנו החטייארים פה בשבילכם בשבילנו בשביל המדינה המשונה הזאת שכולנו אוהבים… arianamelamed  לא יודעת אם יש לו עבודה פנסיה משכורת אדם מבוגר שבא למרות כל הקשיים לזעוק את הזעקה שלו האיש הזה הוא גיבור ישראל  המשטרה שועטת עכשיו לתוך המפגינים והכיכר עשרות שוטרים שלוקחים את ציוד ההגברה בניגוד לפסיקת בגצ שמרשה נאומים עד 23…  hadarse קורינהההההה  misscorina2  adindan אתה אלוף והיה מרגש מאוד להיפגש  adindan אני רוצה להגיד לכם שהמחאה הזו היא מרגשת באופן שקשה לתאר כל פעם ממציאה עצמה מחדש בנחישות ביצירתיות במסירות נפש ממש כל המ… TheMaya עם  misscorina2 המהממת  Soloph0ne מחפשים את TopazLuk   Yoglas74  חנינו האוטו הולכים בירושלים כל הכבישים רכבים של שיירת המחאה לא היה דבר כזה מעולם למעלה מעשרה שבועות שאני פה אנ…  simontetros חברים לעצור את השיירות קובי אריאלי אמר שהוא לא מבין על מה ההפגנות והם מיותרות בעיניו אז די עם זה YTB2018 בלתי נתפס מה שקורה בארץ עכשיו דיווחים על הפגנות בכל צומת וכיכר מאות אנשים מתאספים סתם כך בנקודות רנדומליות ברחבי הערים ובגשר… Soloph0ne אני כבר ציינתי שאני רוצה פסל שלו בבית NiflaPo איזו חיוך  noamfathi שיאללה איזה גבר אתה דש לחתול נשמה ZivYekutieli ליבי במזרח ואנוכי בסוף מערב שולחים איזה שוטר פעור להגיד לנו שאסור להפגין למושחת מול הבית בקיסריה הוא רק לא יודע למה אסו… avidareli נכון GONENB1 הערב הוא ערב היסטורי מדינת ישראל נגד בנימין נתניהו לצוקים ולטרש  אבל בהול  chaimlevinson הרגת יאללה יצאנו לבלפור  כבר בכיכר הראשונה מחוץ לקיבוץ עמד שוטר חביב שהסביר לנו שקיבל הנחיות מלמעלה שאסור להפגין במרחק…  NitzanWaisberg הגיעו עדויות שמשטרת ישראל עוצרים אנשים בדרך לבלפור ומחלקים דוחות בטענה שהם ״מקדימים״ להפגנה טירוף  עו״ד יאיר נהוראי ה… hagarsi AaocP dudubitn elisulam ZVIKA68 BarakKrenzler dovsim DonMacLoof oftopic udiperets…  jamesbb25 סטרייט מזיין עם חברו המיליונר לא סטרייט מוציא ממנו כרטיסים למריה קארי jamesbb25 בכי orlybarlev מרגש ניפגש בבלפור NiflaPo לגמרי מתביישת בעצמי NiflaPo מאת גון לה קארי סליחה NiflaPo אגב לא רבים יודעים שפאקר אף היה מאורס למאריה וקנה לה יהלום בגודל חצי בריכה בקיסריה אך האירוסין בוטלו בנס…  NirACohen77 זה מאבק למנוע את חורבן הבית אנחנו נאבקים על הבית של כולנו וביבי נאבק על הבית הפרטי שלו המדינה ואזרחיה ממש לא מעניינים או… Soloph0ne או או או או או או או או או או או או או או  לוקחים מעניים נותנים לעשירים איזו ממשלה של מושחתים  או או או או או או או או או א… michalbgigi חולהההה שרופהההה  michalbgigi נוווו מתי נדב אייל מוצא כבר את ההורקרוקס האחרון ומציל אותנו מביבי BenCaspit כל פרויקט אצלהם הצלחה כבירה  ProfBenDavid אלופים noamfathi מאמי אולי הובלת את קמפיין שוקה הבנק הלאומי רנו מרצדס והקמפיינים שלך שודרו בכל העולם אבל נשארת עם…  jamesbb25 להפגין להתפלל לאהוב ברשת זו הדרך שלנו לאחוז ידיים  ולהעביר את המידע 2 מי מכם שיוצא מביתו  שמרו והקפידו פי מיליון על כל ההנחיות…  אבל חשוב לי לציין שלדעתי אין מקום אחד שהוא עדיף ממקום אחר אני חושבת שכל אזרח צריך להפגין בדרכו לפי צו ליבו ובאופן…  בוקר טוב ישראל יוצאת היום למחאת מלחמה תחת הסגר דנו השבוע רבות בשאלה האם וכיצד נכון לקיים אותה למעשה המחאה כבר…  Soloph0ne בוקר צרחותתתתת  Soloph0ne הבן רק חוזר על מה שהאם חושבת hagarsi אני מתה על השיר הזה ומתה עלייך hagarsi שישי  שנסון   PaulizDead EstyS זה רעיון נהדר ואני בפנים kumiiisrael בוקר אחד הילדים שלנו ישאלו אותנו איפה היינו כשישראל עמדה להפוך לדיקטטורה ספרו להם בגאווה שנלחמתם עליה בבלפור תהיו בצד הנ… Ronkofman1 נכון עמית סגל אלוף בלהביא עובדות חצי קשורות מן העבר כדי לבלבל עם נתונים לא רלוונטים ולהסיט את הדיון המ…  CactusBavarius חיימשליייייייי GalonItay  CarmitSoliman  arianamelamed  אריאנה אוהבת אותך Soloph0ne חיימשליייייייי  מחווה לשרה  פרק 4  דנה הו דנה חלק ב  איזה אבי וייס אבי וייס שלנו  sofalakatino78 1 על שניהם michalbgigi תמציאו כבר בושם בריח עוגות שמרים שוקולד מה הפאקינג בעיה adimessika אני קוראת לו ככה שנים הכי מתאים לו Soloph0ne כל מילה Soloph0ne עכשיו ראיתי שרן כרמי בוזגלו הותקף על ידי מפגין אמש בושה וחרפה אלימות צריך להוקיע ולא משנה כלפי מי היא ננקטת אני מקווה שהמ… TheMaya ביבי מכניס את ישראל לסגר כי הוא כושל ומפחד מהפגנות חבורת הקרנפים גם ב12 וגם ב13 לא שואלים את השאלה איזה תכנון כלכלי יש למ… fessunion תמסור לו תודה גם בשמי mysilentaccount  אם אני עמוס שוקן אני מסדרת לגידי ווייץ איזו חופשה מפנקת על חשבון המערכת הבן אדם בטח הגדיל היום באיזה 300  את כמות המנויים להארץ יזהר שי מאמי להאשים את אופירה וברקו בדיקלום דף מסרים מבלפור זאת כבר רמת התגוננות של ילד בכיתה ג שתופסים אותו זורק…  limormoyal למחאה הזו אין מנהיגים יש ארגונים שיש להם ראשים ויש המון דעות וחילוקי דעות וגם לא מעט הצהרות לתקשורת אבל האמת היא שזה… limormoyal כל מילה ותודה רבה BenCaspit שווה מחווה BarNahum5 יד שרוססה לפני כן בתרסיס אקונומיקה ועם כפפה כמובן שרוש לא מרשה אחרת NiflaPo הוא בדיוק מתעסק בבתי הכנסת כדי לאסוף חומרים לאסטרטגית השיסוי לשבוע הבא אז טרם הספיק לעיין בכתבה chaimlevinson מכל העולם מתקשרים AvishayBenHaim זה הפייק בדוק Sammyd453 מהמם  NeumanRoee BRBY063 פיפי NiflaPo כל מילה וגמר חתימה טובה מר כ היקר dorzach אוהבים אותך דור TheMaya נכון sadibenshitrit סדי התגעגענו iloveisraell  נתניהו עד עכשיו שירת את הימין מעכשיו לא אז אפשר לפתוח תפיות  OsnathilaMark אוסי בקרוב את ופיך הרעיל יעופו על טיל מהציבוריות הישראלית ואני אספר לנכדים איך פעם בתקופת השפל חסר…  Doronhakatom התמונה הכי חמודה אוורררר  החוויה נשמעת קצת פחות ואני נדחית אינטואיטיבית מגברים במשבר גיל העמידה שחושבים שהסקס אפיל המעופש שלהם מדביק אליהן בחורות כמו זבובים אז הם…  baruchikra כמה מלים על הטור של קלמן  1 טוב וחשוב שנכתב 2 תמיד טענתי שקלמן עיתונאי מעולה גם כשהוא תוקף אותי וגם כשבעבר תקפתי אתו… Ahmadtibi תודה רבה לכם Ahmadtibi ישיבת ועדת החוקה ננעלה  לא תהיה היום הצבעה במליאה  על חוק הגבלת ההפגנה בבלפור גאה בחבריי אוסמה סעדי ועופר כסיף ובכלל האו… iloveisraell אז ניפגש בבלפור adindan וואו וואו וואו Ogi43188459 yanivbiton99 עוד מאותו כלום LikudParty טופי נפתח לך על החשבון של המפלגה בכל פעם שאבישי בן חיים מצייץ אני צריכה להיכנס במיוחד כדי לוודא האם מדובר בפרופיל פייק או האמיתי giladlevi73 עיתונאי הימין ידעו שנים על תאוריות הקונספירציה והטירלולים מבית היוצר של בלפור הם צפו בגדילתה של המפלצת ולא פצו פה כשעיתונ… orenhaz בהצלחה אבא  אלי אבידר למיקי זוהר נמנעתי מהלגיד לך את זה עד היום אם תשתפר אתה תהיה אהבל  והמיקרופון נפל  NiflaPo או שניצל zoharm7 מיקי רק רציתי לעדכן שכבר שמחתי בליבי היום על 7000 חולים מיליון מובטלים ו1405 מתים תודה אבא וזו בדיוק הבעיה שלי עם עיתונאי הימין והבית היהודי נקבל כל דבר שנתניהו עושה נעלים עין משחיתות מדפי המסרים מחדלות הא…  ליפסטיק כתב טור יצא ב200 על ריקלין ושאר ירקות כי הם טינפו עליו השבוע וואו וואו כל הכבוד באמת טור מצוין הבינג סייד…  NiflaPo העוגת שמרים נתקעת לו ככה בגרון הוא נחנק מסכן חברים זה לא יפה gantzbe מאמא שכחת את הקומקום על הגז רותח השריקה כבר כל כך חזקה מעידה על ההתנפצות הקרובה לאלפי רסיסים אבל אתה עוד…  YossiZabari כל מילה GoodbeerOssi yairy yaelgaon Eranw44 גם לי  ItaiLeshem בולללל</t>
+  </si>
+  <si>
+    <t>yarivop תראו את התמונה הזאת כחול לבן עושה יחד אחת עם הליכוד והחרדים כדי להשתיק בחוק את האנשים שבחרו בהם  ב ג י ד ה FCkzombibist נראה לי שלא הבנת את האנלוגיה הכוונה היא שזה סתם מילים הכל מילים בשורה התחתונה הנתונים מראים שריכוזי ההדבקה הם בישובים חרדיים וערבים ובמקום לט…  אבל האם אי אפשר להגיד בדיוק הפוך יש המון הדבקות בחצרות וישיבות ובתי כנסת ומשתיקים את התופעה כי זה לא מתאים לאג׳נד…  חלק מהחרדים ובוודאי חברי הכנסת מהליכוד מאשימים את המפגינים בעליית התחלואה אבל מאחר שיודעים כבר שהקורונה הרבה פחו…  לא הבנתי כלום  BarashiKinneret baruchikra להסיט talialin אני פשוט הולכת נכנסת למאפיה כלשהי לקנות קפה gt רואה מישהו ממתין שם עם מסיכה רק על הפה gt מפחדת קצת להעיר אז רק דופקת בו מבט מאייםמא…  ינון מגל שגר בכיכר המדינה כזכור חושב שנדבק בקורונה ממאמן הכושר שלו מסתבר שהפה של ״ישראל השניה״ עממי כמעט כמו המנ…  וגם מזדהה הרגע אכלתי קרואסון שוקולד חלווה מלחמנינה   Amos123Biderman  dudiamsalem דודי משחירים על שמאלנים גם גרוטו אמר להעיר לאנשים שישימו מסיכה כמו שצריך אבל אני כשלעצמי מעדיפה קורונה מלהידקר netanyahu אבא אתה לא מעודכן davidoflod missmentos למההה לא יודעת מה אתכם אני הצלחתי להזמין וולט תשפ״א מסתמנת כאחלה בינתיים chaimlevinson הזמנתי קרפ אני רוצה לראות ראשון את כל הסרטונים של שר הדיגיטל דודי אמסלם אמר אף אחד אף פעם  RoiReshef BenCaspit קוקסינליים זה לא כינוי מתקבל על הדעת ועל כך תיחסם AfifAbuMuch לא  מה קורה פה זה יום הכן את הפיצה שלך הרשמי SargonoffAkkad מדהים איך כל שנה אנשים מופתעים מזה מירי רגב hold my beer  RoyIddan kann יאללה איזה כיף DorMuskal איזה מטומטם netanyahu חתימה טובה אבא תחשוב טוב טוב מירי רגב התנצלה שוב בפני אנשים שהתכוונה לפגוע בהם כנראה מדובר בהרבה אנשים אם שמעתי כבר שתי התנצלויות כאלה BenCaspit חתימה טובה  BenCaspit אהבתי מאוד tavlinos אני מתה על HKorach אבל גם שם חייבים להתנגד להבאת אורחים מסוימים כדי לשמור על הרמה זו הייתה פעם תכנית רצינית למה אנשים רציניים צריכים בכלל לבזות את עצמם בדיונים עם אנשים כאלה ומה אנחנו אשמים ChaimShore הכל אחלה אבל שלום תמורת שלום זה שקר אז חלאס ניצני הנכונות של אנשי ימין להתנער מהטרולים הביביסטים הם המפתח לנורמליזציה פנימית ChaimShore לגמרי נגד סיפוח אבל זה מחיר שישראל שילמה לאחר שביבי הכריז עליו ובחייאת  אנחנו אישרנו לאמריקאים למכור…  ChaimShore שלום תמורת ויתור על סיפוח ומכירת f35 רק שנדייק Leemalach המכנה המשותף הוא היעדר מצפון על זה תלבישי מה שבא לך כמו פלסטלינה nitayp קבוצת הפייסבוק של שיכון דן גועשת הימורים תוך כמה זמן חוזר בו ומדבר על לצופף שורות  אנשים שחייבים לי התנצלות השנה בני גנץ גבי אשכנזי יועז הנדל וצביקה האוזר שלוש מערכות בחירות הצבעתי לכם הטיקט המ…  האיש הזה זה מתיחה נכון תיכף מושון יצא מאחורי העץ ויגיד חחחחחח ואתם חשבתם שהוא חבר כנסת יאללה הנה המצלמה חייכו  talshalev1 מיקי זוהר ישן על האף itayr2 לא הקשיב היה עסוק בשינון מסרים על הפגנות הסרטון הזה אמור להרגיע אותי הבנאדם באמוק  netanyahu שבוע טוב אבא זה 5111958 dudiamsalem מתביישת שאתה שר בממשלה שלי  איך אני יכולה לצפות בסרט על אולמרט Lilitlv חשבתי שאני הראשונה שהוזמנה אבל כשחיכיתי ראיתי את קלמן יוצא Whataboutism for dummies  BenCaspit השאלה איך מבטאים קרעי אבל טוב יאללה אני בעד חנינה לנתניהו לתחושתי נענש מעל ומעבר  קרוב לוודאי שלאחר הסופש יוכרז איסור על שהיה של פחות מ1000 מטר מבני זוג  באמת שתמונות מיוון כעת צריכות להיות מחוץ לחוק בעיני BarakRavid המשפחה הזאת מקולקלת chaimlevinson בבקשה תמשיך  israzohar מוכנה להמליץ עליך וואו מישהו ממש נעלבי  yosefyisrael25 אני מספיק זקן לזכור כמה לחץ מיקי זוהר הפעיל כדי שמדגרות ההדבקה האמיתיות המכונות גני אירועים אלה שחצי מהמשפחה שלו מפעי… ועוד משהו העובדה שהם מוזמנים לפאנלים כאלה ואחרים בערוצי טלויזיה ותכניות אקטואליה לגיטימיות מנרמלת את התופעה די ל…  רק חבל שהעיתונאים הימניים האמיתיים כל עוד הם נהנים מחיבוק של הטחב שצמח בערוגה הזאת לא מתנערים ממנו ומחבקים חזרה…  ובכן קראתי את הטור של קלמן מסכימה כמובן שאנשים כמו ריקלין ארז תדמור וברדוגו הם לא פחות ממסוכנים מפיצים פייק ניו…  zoharm7 חבורה של אימבצילים התעסקתם בפטור ממס לביבי ובהתנגחות עם כחול לבן וברמיסת מערכת אכיפת החוק ובמה לא הכל חו…  ערב טוב לכולם  ברקו הוא הילד שצועק ״המלך הוא עירום״ וזה בא טוב ruthelbaz ועוד יערה זרד מכה מכה אין לי מה להגיד רוצה לבוא אלי נזמין גלידה מישהו שינזוף בנתניהו כמו שאופירה וברקו נוזפים כעת ביזהר שי זה מה שאנחנו צריכים Ronkofman1 דיקלמה את דף המשרדים מקסים כולל הלהיטים ״שמאלנים אנרכיסטים״ ו״ההפגנות דווקא מועילות לנו פוליטית״ chaimlevinson חשבתי שראיתי הכל בימי חיי אבל קופרייטר כושל שלולי היה מלקק לביבי היה כותב היום ברושורים למאפיות טוען שקלמן ליבסקינד הו… ruthelbaz מעליב elikmargalit קולטים את הליצן הזה העיתונאי שחתום על עשרות תחקירים במעריב כולל תחקיר שהציל אותנו מגלנט כרמטכל היה צריך את גלי ישראל… asafd1 אוקי אז אחסום ביוש asafd1 ״טרחתי״ להדביק כי חסום גם אצלי וראיתי את זה אצל מישהו אחר כך והאם אני עובדת ציבור שאתה משלם לה משכורת לא…  האזנתי עכשיו לאסנת מארק מאתמול אצל דקלוינסון ויש מלא שטויות חמודות אבל הכי חמוד שהיא קראה לחופש התנועה ״זכות התזוזה״  asafd1 נשבר לי שאומרים לי מה ״להדהד״ ומה לא אני רוצה לבקר משהו אני ״אהדהד״ אותו יכול להסיר עוקב פשוט asafd1 מציעה שכל אחד יעשה בחשבון הטוויטר שלו לפי שיקול דעתו הכי טוב עדיף עליהם מעלינו  איזו מדינה מיוחדת במינה  Sounds about right  RinoZror איש נוראי AyeletShaked ומה עם סנטה קלאוס שמביא מתנות אמיתי באותה מידה ולא יהודי BarakRavid ממש מפתיע אין מנוס  Nefolet החל ממחר תשבו בבית ותחשבו על מה שעשיתם לביבי תודה לשם על אבא שבזכותו אנחנו פה netanyahu כל כך רציתי שיזכיר בדוגמאות להתקהלויות עוד משהו חוץ מבלפור לא קרה מקהלת הכל סבבה שניה רק ללהקת הכל עובר חביבי מה הקשר גז שהוצאנו מהמים מה איפה כל המדינות האלה שמטילות סגרים זה אמיתי האיש הזה יש כזה  דעה לא חשובה המסיכה של מירי רגב מזעזעת YaelTesler HKorach לרוב הפוך הוראות הבימוי אל תיתני לאף אחד לדבר בלי שאת מפריעה לו כנראה פרפראזה על דיקנס  it was the best of times it was the worst of times עוד ״החתונה הזאת עם כחול לבן היא קלה היא קשה״ מה איזה כיף אסנת מארק אצל HKorach משפט ראשון ״יהודים אחרי 2000 שנות גלות שהצלחנו להתפלל שמים על כף המאזניים תפילה…  רק אני שמתי לב שבפרסומת לג׳רוזלם פוסט לייט הזה ללימוד אנגלית היא אומרת I’ve been acceptend מה זה acceptend NiflaPo עכשיו כשאנחנו ב7000 חולים ביום וברור מי אשם בעניין נראה לי די מקורי שתתחילי את הציוץ הבא שלך במילה סליחה לציבור שאת מקבלת מ… 7000 נדבקים ביום וסגר שני זה תוצר ישיר של ממשלה שהתעסקה בחודשים האחרונים בהכל חוץ מבקורונה זה והעובדה שביבי לחיץ…  JoshBreiner מקומות עבודה JoshBreiner הפצת שנאה ושקרים ברמה כזאת זה פול טיים ג׳וב BarakRavid השר יזהר שי הצביע נגד החלטת הממשלה על הסגר זה מה שהוא אמר לפנות בוקר בישיבה קריאת חובה לכל מי שאכפת לו איך מתקבלות החלטות… YHepstein יקי די נו מה הקשר בין הדברים די מה עוד יש לומר עצוב לי שזו הכנסת וזו הממשלה עידן קשוח מאוד  הסגר הכללי עומד לגרום לפי הערכות למאות אלפי מובטלים חדשים ונזק של 35 מיליארד ש״ח למשק אבל זו התמונה בכתבה על הסגר…  NBecher חולי קורונה בבני ברק 136 לאלף איש בתל אביב 28 בשם איזה טירוף צריך לכלוא אותנו עכשיו לחודש נוסף במקום להטיל עוצר על הערי… YuvalYoaz סיכום היום 1 נתניהו לא עוסק בהתמודדות עם המשבר אלא רק בחיסול ההפגנות נגדו 2 כבוד למפגיני בלפור מקומץ קטן בגורן הפכו… זה שנתניהו בכלל מתעסק בהגבלות על הפגנות נגדו זה ניגוד עניינים מטורלל MBlumenblat תנסה תחתונים  yarivop את הקטע הזה כל ישראלי חייב לראות RavivDrucker  דיכאון מדינה דיכאון  וושינגטון פוסט הוא חבר של פדופיל לא נקבל ממנו הטפות מוסר קלירלי מדובר בילדים שהלכו לבית ספר בבוקר ולבלפור בערב רק משם הקורונה  chaimlevinson מי שהיה מטומטם מספיק להישאר אני  מגיע לו והגראנד פינאלה ״מצטערת אם פגעתי במישהו זה לא היה בכוונה ומצטערת גם במי שפגעתי בכוונה״ מכל העולם מתקשרים לשאול מי משלם את החשבון של הכביסה “Yifat shasha biton made me do it” הופה והנה גם דף המסרים ״ההפגנות משרתות אותנו פוליטית אנחנו פשוט דואגים לבריאות הציבור״ בארור מירי רגב מסבירה את הציוץ שלה מעמידה את חופש הביטוי והדמוקרטיה מול חופש הפולחן כאילו השניים מתנגשים ואז אומרת שאם…  והתגובה  אותו דבר רק באנגלית  לא תיאמן המשפחה הזאת  ומדברים רק על ההפגנות הכל מטורלל פה והפעם זו סכנת חיים  למה הגענו למצב הזה ולא עשו סגר עד עכשיו למה אפשר להתחרפן מי המדליף מכחול לבן ותודה גם לחילי טרופר מדהים מדהים מדהים ישיבת קבינט הקורונה אך ורק על ההפגנות מדהים תסמונת שטוקהולם  ובכן קראתי את פסק הדין של בג״ץ בעניין הרב אליהו והנה קטע מתוך פסק דינו של השופט שטיין מרגיש לי רלוונטי במיוחד לעו…  אם חברי הכנסת מהליכוד היו מדברים על התקהלות בבתי כנסת או על חתונות עשירית מהזמן שהם מדברים על הפגנות הייתי מאמינה שאיכפת להם מהבריאות שלנו BarakRavid יש להם סיבים לתת לנו michaldiament regevmiri בתור שמאל לא ענייני regevmiri את מכה TopazLuk איזה קטע שעמית חדד מייצג גם אתכם סוד הקסם  היעדר מצפן מוסרי שבדכ מרסן את כולנו בשורה התחתונה  זה יהיה ניצחון מזהיר של נתניהו מצא דרך להפסיק את ההפגנות בלי לשלם מחיר פוליטי בצד שלו קוסם  הנהג של שרה היה על הטיסה לארה״ב BenCaspit nitayp ב20 בדיקות חיוביות בריכוזים חרדים כשבתי החולים למעשה בתפוסה מלאה עדיין תפילה בציבור בתוך בתי הכנסת היא אפשרות   זאת הפקרות… מה יותר אות קלון על המדינה היהודית שאלה שריה פלגנות שיסוי קיטוב הסתה שקרים ליבוי יצרים הכל בחסות המשטר ווא…  ShaniAshkenazi רק שלא ייצא מפתח תקווה ואנחנו בסדר zoidzalach פשוט כל פעם שמצייצים נגד המשטר פרייסלס  ksoko123 אולי הודו עד כדי כך משעממת שהחליט לקחת את הזמן ולכתוב לי הודעה נסיך  talchaim אתה מותח את גבולות השימוש במילה ״ענייני״ גם שטייניץ היום אצל ישי שנרב נותן דוגמאות להפרת ההנחיות הפגנות בים סעודה בבלפור מסעדות טיילת בתל אביב מה חסר לי פה ״למה להדהד אותו״ זה האקוויוולנטי הטוויטרי ללצעוק לי הוראות איך לחנות למרות שלא ביקשתי amitsegal לפי הסרטונים מאומן יש עוד דתות כאלה וואו  YoazHendel1 הפגנות הן באוויר הפתוח תפילות אפשר לעשות גם בבית מבאס שאתם נופלים לרטוריקה של הסימטריה המדומה OreJedi חולה על פאסיב אגרסיב  יאללה קדימה מתוקי חמודי  מאזינה לפודקאסט של הארץ שאני מאוד מעריכה ומדברים שם עם פרופ׳ יורם יובל שאני מאוד מעריכה ואז הוא אומר ״הפרויקטור גימזו״ OreJedi הסקת מסקנות מדהימה בהצללה בחיים מותק Shimon19390145 guykindler ashkenazitzafri BenCaspit שמעון ביוש ביבי שכנע מלא אנשים בציבור שההפגנות הן מקור הגל השני האיש הזה כל כך הרסני למדינה ודואג רק לעצמו באופן כל כך שקוף ו…  ashkenazitzafri BenCaspit כן רק לא חכם שמעתי את חכ שלמה קרעי אצל BenCaspit והשני היום והחלטתי לפצוח בהדסטארט על מנת לרכוש לו אונה נוספת אנא פתחו את לבכם GONENB1 נו לפחות זה CohenGal1993 Israelmeir4 tamarlask אכן MarkZlochin בפעם הבאה שעוד שופר יתחיל עם השקר הזה של ההפגנות הן מדגרות קורונה תראו להם את הטבלה הזאת  יש כאן רשימת ערים שבהם מספר… חידה מי יגיד על עצמו שאינו עלה נידף רמז עלה נידף  talshalev1 הקרב האהוב עלי בתש״פ בפער שמחה שמלווה אותנו גם לתוך תשפ״א מתקנים אותי פה ששכחתי את צלם התחתונים המדופלם beware12863855 נכון הושמט בטעות לחשוב שהאנשים הכי קרובים לביבי אלה יאיר שרה טופז לוק עופר גולן ואוריך ולהבין הכל BarakRavid בלתי נסבל האיש הזה איך קוראים לבעיה הזאת שלא מבחינים בין מציאות לדמיון  carmelkamin כיף Asaf13444472 morkalfonbekuf לקחתי בטח Asaf13444472 morkalfonbekuf ורצהיזר Teodor1 אני אשלם מיוזמתי מס הכנסה וגם מה זה ההנחיות השתנו מספר פעמים האם באיזושהי גרסה של ההנחיות זה היה סבבה להסתובב ברחוב בתוך קהל אנשים אוף זה מרתיח פרופ׳ חזי לוי מדבר על רק על ההפגנות ולא מדבר על החרדים וחוץ מזה לתחושתי הסיבה היחידה לזה שעושים ״סגר״ מחורר שכול…  זימברו אותנו הילדים האלה הא איזו תגובה להקיא עליו  ״אני מתנצל שהפכו אותי לכלי ניגוח״  הכי לא התנצלות שראיתי בחיים  yakov57v hkim14050017 מה זה קנס 5000 שח קטן עליו BarakRavid מציעה גם למפגינים זה כמעט כאילו לא צריך לשים אחריות על אי התפשטות מגיפה בידיים של ילדים  BoazCohen וואו זה אחד האיחולים הקשים דין אחד לבלפור ואנשי שלומו דין אחר ליתר פשוט attaliami די נו סתם צוחקים מפרגנת למה לא freyisrael1 מתעב את ההשוואות השלטון רוצה לשסות אותנו זה בזה אסור לתת לו להצליח אבל רק כדי לנקות שולחן על כל מפגין בבלפור היו לפחות… yaronavraham רצחת amitsegal לא מכיר את ראובן עזר אבל גם אם מדובר ביועץ הטוב ביותר בנמצא את היום הזה הוא צריך לסיים עם מכתב פיטורין אי אפשר לדרוש ציו…  להלן פרעות  הבנאדם אשכרה השתמש במילה ״פרעות״  הידד  מעבירה קורס על איך להתקבל לחטיבת קשרי חוץ  שיעור ראשון חינם דברו אנגלית  בבקשה israzohar רשף כמובן  Maayanian בהחלט היא באמת משאירה אבק למיקי זוהר  Yoglas74 מנגנון ההשחרה בשרותו של הנוכל הנאשם עופרגולן וטופז לוק נמלטים בחשיכה אחרי שצילמו קבוצה של אנשים מכחישי קורונה בשולי הפגנה … ומה עם התגובה הזאת חברים גם מאחוריה אתם עומדים  טופז לוק ErelSegal פופוליסט בשקל עשיתי את זה נכון noalandau בארור האם אכלתי עכשיו גביע שהגיע עם גלידה מלפני מספר ימים בהחלט כן אם טופז לוק הדביק מפגינים אז סוף סוף ההפגנות מדבקות ruthelbaz את אדם גדול יותר ממני ruthelbaz חיים שלי תחסמי את כולם אני פה</t>
+  </si>
+  <si>
+    <t>kunikran DdongISR יפה ידידי ראש העיר המוכשר  גמר חתימה טובה ובריאות לך לתושביך ולכל אזרחי ישראל צילום דוברות ILpolice  צילום מירושלים אוליבייה פיטוסיפלאש90 תודה לשוטרות והשוטרים הכחולים והירוקים הפועלים ברחבי הארץ נאבקים בפשיעה בטרור וכעת גם בהתפשטות הקורונה  תודה לכם…  YinonMagal רפואה שלמה והחלמה מהירה לך ולכל החולים בעה  נראה למישהו שההיא עם הסיר על הראש או זו שביזתה את סמל המדינה או הפריבילגים המפונקים שירקו ערב החג בפרצופם של מילי…  MDanielLevi YanivTurgi רפואה שלמה והחלמה מהירה לאבא דניאל היקר שנה טובה ומלאת בריאות לכם ולכל אזרחי ישראל היום חלה תפנית היסטורית ביחסי ישראל עם העולם הערבי  השלום הזה ואלה שיבואו יפתחו אופקים ושיתופי פעולה חדשים שאנו עד…  שמעתי שהיועץ הלין על דברים שאמרתי  לו היה מתעניין במה שבאמת אמרתי ולא רק בכותרות הוא היה מבין עד כמה הפרקליטות…  היש ראש ממשלה ב25 השנים האחרונות שלא נחקר בחשד לפלילים נתניהו ברק שרון אולמרט שוב נתניהו כולם שרים חכים…  כשר המשפטים הקמתי וועדת בדיקה ממשלתית למחש היועמש המצוי בניגוד עניינים כמי  שממונה על מחש קבע יש מניעה הת…  עצוב לראות את השחיתות במערכות אכיפת החוק לא רק בסדרות טלוויזיה אלא גם בחיים עצמם מערכות שהעמידו אגנדות מעל חקר ה…  שבריר שניה של חוסר עירנות עלול להפוך לטעות האחרונה שתעשו החיים של כולנו של היקרים לנו ושל זולתנו כל כך שבריריים…  AmirOhana JudyMozes YediotAhronot בן הזוג המהמם שלי אלון חדד HadadAlon גדל בצפת למשפחה ברוכת ילדים  הוא בוגר תואר שני במתמטיקה מהט… JudyMozes YediotAhronot בן הזוג המהמם שלי אלון חדד HadadAlon גדל בצפת למשפחה ברוכת ילדים  הוא בוגר תואר שני במת…  נשמע לי מוכר  ביקרתי היום ביחידה ללוחמה בטרור הטובה ביותר בעולם — היממ gtgtgt    אלה ודוד עולים לגן חובה  חייכו אל העולם ילדים שלי והוא ישיב לכם חיוך בחזרה  אבא נונו ואני אוהבים אתכם מאוד …  בהצלחה ללוחמי האש שיוצאים הלילה לסייע בכיבוי שריפות הענק בקליפורניה ולהראות לבת בריתנו הקרובה את הישראלי היפה — שי…  איפה הם היו בהתנתקות איפה הם היו כשהימין הפגין נגד אוסלו איפה הם היו כשנערות נכנסו לבתי מעצר וצעירים אל מאחורי סו…  AmirOhana bogieyaalon ILpolice וכל זה שבועיים אחרי מה שכתבת כאן לא יודע באיזו הפגנה אתה נמצא לא זוכר על מה אתה מדבר ההידרדרות… bogieyaalon ILpolice וכל זה שבועיים אחרי מה שכתבת כאן לא יודע באיזו הפגנה אתה נמצא לא זוכר על מה אתה מדבר…  AmirOhana bogieyaalon כבר תקופה שאתה מפיץ רעל ומטנף עלי התעלמתי כך נוהגים במחפשי תשומת לב כמוך אך על דברי הבלע וההסתה שלך נגד שוט… bogieyaalon כבר תקופה שאתה מפיץ רעל ומטנף עלי התעלמתי כך נוהגים במחפשי תשומת לב כמוך אך על דברי הבלע וההסתה של…  ביקרתי הבוקר עם צמרת המשטרה את מ לוחם מגב שנדקר אתמול בירושלים וסיכל את המחבל  מ שסיים טירונות בהצטיינות לפנ…  KalmanLiebskind לשמוע שקבוצות ישראלים יוצאים לרחובותברלין כדי לשפוך חמתם על הממשלה הרקובה זהו דבר מכאיב ומעורר בוזאיזו זכות… ״הארץ״ שלום אכיפת חוק הזנות בלי מתן מענה שיקומי וטיפולי לאוכלוסיה בזנות – תביא לנזק קשה בעיקר לאוכלוסיה זו   באופ…  קרדיט תיעוד מבצעי כב״ה מי שינסה את מדינת ישראל צריך לדעת 3 דברים א אנחנו נעמוד במבחן כולנו יחד  ב ארגוני הביטחון הישראליים אך לצידם…  שבוע טוב  motiszuszan1958 לא נונו זה הכינוי של אלוני כבר שני עשורים עוד הרבה לפני הילדים benybenshlom למה לשקר  חמש לאלה ודוד  אם הייתי מנהל בית ספר להורות השיעור הראשון הבסיסי ביותר היה  אהבה ללא תנאי  יש עוד הרבה דברים…  ישראל איבדה היום את אחת מטובות בנותיה  פרסיה מאמריה ותאריה הרבים של פרופ רות גביזון מעידים על החותם שהותירה על ע…  iairLevy בדיוק  שלום שלום  יום לספרי ההיסטוריה  כינון יחסים עם מדינות ערב תמיד היה משאת נפש  ודאי כשאין כל ויתור על שטחים כפי שהיה לצערנו ב…  שמונה הנקודות – יעדי המשרד לביטחון הפנים  בקרוב אשלים שלושה חודשים ראשונים בתפקיד וברצוני לשתף אתכם הציבור בקוו…  את זעקת הוריו של הלוחם עמית בן יגאל זל ואת עמית אינני יכול לשכוח החלטת השופטים שלא להרוס את הבית בו התגורר וממנ…  rafiperlshtein רפואה שלמה ומהירה רפי היקר חזור אלינו בשלום GadiTaub1 מהנדסי התודעה מערוץ 13 החליטו שהתעלמות לא תעזור וצריך לנסות להרוס את השר AmirOhana    מאוחר מידי ושקוף מידי רובנו כבר לא… YehudahGlick גם אני הקטן שותף לחוויה שעברו  רבים וטובים התקשרו מתוכנית שעושים כתבת תדמית על AmirOhana ורוצים לשמוע מגוון דעות קבעו… ItsikSaban לא יאומן לא זה לא יאומן  השבוע זעק המפכל לשעבר דנינו כי אוחנה חצה קו אדום במחאה של 2011 סגרנו את תל אביב לחודשיים ומעולם לא השתמשנו במכ…  באחד העימותים שלך עם מנדלבליט ישב בבית כנסת יהודי חסידי מבוגר וירש ואמר לי כך אם היו מספרים לי לפני שנים שיתעור…  מוזמנים ומוזמנות לקרוא את הראיון שערך עמי יהודה שלזינגר בישראל היום על אירועי השבוע gtgtgt     תשעה באב שלי לילה טוב   ramonhaim  عيد أضحى مبارك لكل مواطني دولة إسرائيل المسلمين والدروز  חג קורבן שמח ומבורך לכל אזרחי ותושבי ישראל המוסלמים והדרו…  מברך את מי על פעולה מהירה ונחושה נגד מחוללי האלימות אמש  חרף כל המחלוקות אין ולא יהיה שום הכשר לאלימות וכל מקרה…  AmirOhana yairlapid יאיר תשעה באב ואני לא רוצה לשטוח כאן את כל שקריך הם רבים רבים אבל רק כדי שאוכל לבקר את עצמי במידת הצורך… yairlapid יאיר תשעה באב ואני לא רוצה לשטוח כאן את כל שקריך הם רבים רבים אבל רק כדי שאוכל לבקר את עצמי במיד…  בחייכם  תורידו את הלהבות  כמה שנאה באוויר  תשעה באב  לא משנה בעד או נגד מי אתם אני קורא לכולכם – ימין שמאל ב…  החלטתי לממש את החוק הנורווגי ולהשהות את חברותי בכנסת לא מהממשלה  הצעד מגשים את הפרדת הרשויות ומאפשר לי להתמקד ב…  RoyIddan  AmirOhana guypch2news יודע למה כי על הפגנות היועמש יצאו הנחיות מיוחדות המרחיקות המוחים מביתו לכיכר גורן מגבילות את השימוש באמצעי ה… guypch2news יודע למה כי על הפגנות היועמש יצאו הנחיות מיוחדות המרחיקות המוחים מביתו לכיכר גורן מגבילות את השימוש…  בשבוע שעבר ביקשתי לשמוע מעיתונאים ומובילי דעת קהל חרדים על היחס בין המשטרה לבין הציבור החרדי במטרה לתקן מי היה מא…  arielelharar שלום אריאל תודה שהבאת לידיעתנו השוטר אותר יטופל במלוא חומרת הדין אדווח על התוצאה YVider השתתפתי הערב בישיבה שקיים ידידי השר לביטחון פנים חכ אמיר אוחנה עם ממ המפכל ניצב מוטי כהן ובכירי משטרת ישראל  סיפרתי להם מ… menachemtoker אתה צודק לחלוטין האחריות על בידו המצויה בשטחי הרשפ היא של צהל ולא של מי בכל מקרה אעביר את פנ…  menachemtoker מנחם היקר שוטרי משטרת ישראל שוטרי השר אוחנה פעלו במהלך הסופש סביב האירועים הללו ועד כה נתפס…  bnyiroz תודה בני היקר שבת שלום Yossieli מחזה נהדררר ברמת בית שמש הילדים צועקים נאצים לעבר המשטרה שאוכפים הסגר ומפקד תחנת בית שמש מנגד מחלק ארטיקים לילדים שחוט… RoyIddan  עדיין שוהה בבידוד שוחחתי הבוקר עם רהמ ועם יור הקואליציה בנוגע להצבעה על הקמת וחקירה פרלמנטרית לשמחתי דעתי התקב…  יש דברים שאי אפשר להכניס ב280 תווים מכתב גלוי לשוטרות ושוטרי משטרת ישראל על שליחות ונחישות שיקול דעת ורגישות…  AmirOhana AviNissenkorn שמעת אביחי  AviNissenkorn שמעת אביחי  כך נראית רדיפה  ראש התביעה הכללית והיועמ״ש וממ פרקליט המדינה ממשיך לפגוע במראית פני הצדק ופועל בניגוד עניינים…   החסימות התרחשו רק לאחר שנלקח תאל השכל  זה השקר שהתועמלנים חלקם מגדירים עצמם עיתונאים מוכרים לכם עכשיו  צפו…  ולדמוקרטים המודאגים ששולחים לי הודעות דרישה כי אורה מיידית לשחרר את התאל א בדמוקרטיה שר הבטפ אינו מורה למשטרה…  רבאלוף תאל או טוראי – לא תהיה סובלנות לחסימות כבישים  להלן העובדות במבול הפייק ניוז    כבר ב262020 הודעתי שאף שוטר לא ייכנס לבית ללא צו שיפוטי או הסכמה כדי לאכוף את הוראות הקורונה  זה לא מידתי זה ל…  עדכון חשוב  כוחות המשטרה פתחו במבצע אכיפה מקיף בביר הדאג  14 חשודים נעצרו 3 כלי רכב נתפסו ציוד וכסף מזומן הוחר…  המצב של בית משפט לעומתי הוא מצב בעייתי מטריד ומציק KalmanLiebskind רחוק מהאמת  הגרסאות הבעייתיות של השופט מני מזוז  מזוז דן בעתירה הקשורה למקום העבודה של בתו וסיפק הסבר שלא מתחבר ל… DoronNehemia דווקא היה מגניב אהבתי את המדים שוקל לאמץ את הרעיון  משנים כיוון  משטרת ישראל מחוז דרום ואני לא נישאר אדישים להתפרעויות בכבישי הדרום ולתופעת הגניבות מבסיסי צהל המשך יבוא אני משתתף בכאבה של משפחת אלחלאק ומביע צער על מותו של איאד צעיר בעל צרכים מיוחדים  האירוע נבדק כמתחייב בחוק ונפעל…  התחקיר הזה של uriyaelk מעלה תמונה מדאיגה מאוד המעשים שלכאורה נעשו כאן לא יכולים להתקיים במשטרה מתוקנת בביקורי הב…  YakiAdamker יקי היקר חיבוק חזק הלב אתכם בצער ובכאב משמיים תנוחמו OtefTM להלן ההספק של המשטרה בדרום תא בשבת האחרונה   11 חמארות נסגרו  צו סגירה למשך 30 יום 11 בעלי חמארות נעצרו  הרחקה מהאיזור  … ILpolice משטרת ישראל מברכת את חכ אמיר אוחנה AmirOhana לרגל מינויו וכניסתו לתפקיד השר לביטחון הפנים של מדינת ישראל בשם פיקוד המשטרה… אני אמיר אוחנה בן אסתר ומאיר מתחייב כחבר הממשלה לשמור אמונים למדינת ישראל ולחוקיה למלא באמונה את תפקידי כחבר במ…  netanyahu בהצלחה לשר לביטחון פנים AmirOhana ברכות המצויות תחת המשרד לבט״פ  לשמחתי ראש הממשלה החליט למנות את חברי הטוב חהכ גדי יברקן כסגני ואנו נפעל יחד במלוא הכח…  12  אני מודה לרה״מ על הזכות והאמון שנתן בי לכהן כשר לביטחון הפנים  רוב חיי הבוגרים וכל חיי המקצועיים אני חלק ממער…  AdiVaknin6 חיבקתי אותו גם בשמך כרגע חיבוק חזק בלי מילים AmirOhana attilus אטילה הנרגש הפניה למבקר לא היתה כדי שיבדוק את הפשע הנתעב האמור אלא שורה של כשלים וטענות אחרות הפגישה נקבעה בחמ… attilus אטילה הנרגש הפניה למבקר לא היתה כדי שיבדוק את הפשע הנתעב האמור אלא שורה של כשלים וטענות אחרות הפגישה…  nadavabeksis רפואה שלמה והחלמה מהירה חזור לאיתנך במהרה לא פגשתי הרבה פרקליטים ישרים הגונים ערכיים ומקצועיים כמו דן אלדד  פרקליט שלא חשש להתווכח איתי כשמצא לנכון למשל…  את אלי ביר מנכל איחוד הצלה פגשתי לראשונה בניו יורק התחברנו מיד איש של חסד ונתינה איש של חיבורים בונה גשרים…  למרות כל הזום והטכנולוגיה ליל הסדר לא יהיה אותו הדבר  אבל אפשר למצוא את הטוב   ללמוד להעריך את כל מה שעד לא מזמן…  To our brothers and sisters in Italy France Spain England Belgium NewYork and all over the world  Youre in…  כמה מחברי הנפש היקרים לי בעולם וכמה מהאנשים רחבי הלב והפתוחים ביותר שהכרתי מתגוררים בבני ברק  ליבי אתכם ואני שולח…  אני רואה במאבק בהפצת הנגיף גם הזדמנות   חודשים רבים עבדנו על נושא אימות תצהיר ע״י עו״ד מרחוק בלי צורך להגעה פיזית…  ErezZadok1 ארז היקר משתתף בצערך ובצער המשפחה משמים תנוחמו ילדי המשמורת המשותפת לא ישכחו וגם לא הוריהם שני ההורים   בעקבות פנייתו של ראש לשכת עוה״ד אבי חימי ושל פורום דינ…  לו אני יו״ר הכנסת אני משיב לא  הקטע כולו מהצדהשני gtgtgt   הפוליטיקאים ואנשי התקשורת שזועקים על כך שהממשלה סגרה את בתי המשפט ועל הפגיעה בדמוקרטיה – הם לא יותר משקרנים בזו…  כמי שעבד ופעל בשירות הביטחון הכללי שנים התנגדתי לכתחילה לסוגיית השימוש האלקטרוני באמצעי השב״כ למאבק בהתפשטות הקורו…  GermanYael1 יעל היקרה הקשר בינינו נוצר עוד בטרם תחילת כהונתי בכנסת הצטערתי מאוד לשמוע שלא נראה אותך היום איתנו ב…  AmirOhana א אתה משקר כהרגלך ההחלטה מליל אמש על מתכונת פגרה נגעה להיום 153 בלבד את ההחלטה בנוגע לדחיית הדיון שהיה קבוע ל173 קי… א אתה משקר כהרגלך ההחלטה מליל אמש על מתכונת פגרה נגעה להיום 153 בלבד את ההחלטה בנוגע לדחיית הדיון שהיה קבוע…  ההחלטה אמש על מתכונת פגרה ל24 שעות התקבלה בתיאום עם היועמש ומנהל בתי המשפט כפי שאישרה היום במכתב הנשיאה חיות מי…  הצצה לממשלה האנטי ציונית הראשונה שעלולה לקום כאן בחסות ״חוסן לישראל״ ״תל״מ״ ו״יש עתיד״  יש בישראל גם תקשורת אחרת עיתונאים ששחו נגד הזרם  כינו אותם בלעג שופרותדוברים מטעם ואלה עוד הכינויים הפחות מעליב…  הניצחון הזה מוקדש לכם שפעלתם מהלב ומהראש מאהבה ולא משנאה  ונתתם את כל הגב האמון והנשמה לראש הממשלה הטוב ביותר…  zalmanwolff פרנסה לחוד ואידאולוגיה לחוד  talgilboa בשנה האחרונה היתה לנו אופציה לראות מי בא לשרת את העם המדינה את בעח ומי לא עשה דבר מלבד להצניח עלינו אידאולוגיה משונה בשם… mmk3386 לא נחים  עד שמנצחים כל הכבוד צבי רבים ריגשו אותי שיצביעו ליכוד בגללי אבל ריגש אותי במיוחד יאיר שטרן שהגיע היום במיוחד מניו יורק וברביעי ישוב לשם ל…  dovikco כבשנו גם את רוטשילד   ליכוד חזק צריך תל אביב חזקה  LikudnikTLV  KalmanLiebskind ו KoheletForum נותנים תשובה מעמיקה ומלומדת לשאלה מדוע ביהמ״ש העליון מסכל שוב ושוב את מאמצי הרשו…  שוק התקווה מלא בתקווה וכמה אנרגיות   ביום שני יוצאים מצביעים ומנצחים זה תלוי רק בכם  ניצני אובדן העשתונות ופשיטת הרגל הציונית האוחזת בשבט הכחולבן שברצותם להתחנף לאחמד טיבי ולהיבא יזבק לצורך הקמת ממשל…  טרם קראתי את פסק הדין אך מהמעט שקראתי עליו נראה כי הדבר הנכון יהיה להמשיך ולפעול לקידום החוק שהגשתי ובו אני מאמין…  יחד עם זאת אני חייב גם להישאר נאמן לעקרונותיי מי שאמור לקבל את ההכרעות הערכיות בדמוקרטיה זה הציבור באמצעות נבחריו כלומר – הכנסת  45 מעולם לא הצבעתי נגד אף הצעת חוק פרולהט״בית ולמעשה אני הח״כ מהקואליציה שהצביע הכי הרבה פעמים נגד המשמעת הקואליציונ…  על כן הגשתי הסתייגות ברוח זו והצבעתי בעדה גם כשהדבר היה מנוגד למשמעת הקואליציונית ומאותה הסיבה הצבעתי נגד חוק הפונ…  שמח מתוכן הפסיקה – אך ההכרעה צריכה להתקבל בכנסת ואפעל כדי שכך יהיה  למותר לציין שאני תומך בכל ליבי בחופש לפונדקאות…  ממשיכים לעבוד עבורכם gtgtgt    אני קורא לציבור הרחב להגיש בקשות למחיקת רישום פלילי בגין שימוש אישי והחזקת קנאביס באופן מיידי gtgtgt…  יש פה אמירה חמורה מאוד הנובעת מחוסר הבנת יסודות הדמוקרטיה במקום איזונים ובלמים ההכרעות החשובות ביותר תתקבלנה על י…  GadiTaub1 עידן אוחנה  הפקידים לא יכתיבו לשרים אם השרים ינהגו כך שאפו   AmirOhana  AmirOhana yairlapid אז עכשיו אתה בעד זה למרות שזה לא חוקי  yairlapid אז עכשיו אתה בעד זה למרות שזה לא חוקי  netanyahu בחנתי הנושא והחלטתי על קידום מחיקת רישום פלילי לעשרות אלפי ישראלים על שימוש אישי והחזקה בקנאביס דבר שגורם סבל מיותר לרבים ו… כיף לשמח את ההורים   voiceofajew RichardGrenell realDonaldTrump   voiceofajew RichardGrenell realDonaldTrump   Yeshivisher21 RichardGrenell realDonaldTrump   ברכות חמות לידידי היקר וכוכב עולה אמיתי שגריר ארה״ב בגרמניה RichardGrenell  על מינויו למנהל בפועל של המודיעין הל…  Best wishes to my dear friend and a true rising star US Ambassador to Germany RichardGrenell on becoming Acting…  אחרי שנעצר בכח על הר הבית בעוון הנורא של ״הליכה איטית״ ובילה שעות בתחנת המשטרה שוחרר חברי יהודה לביתו בחצות הגיעו…  ברוך הבא לליכוד ברוכי baruchikra  מרגע שהממשלה מינתה את הוועדה בראשות השופט היא הפכה לישות עצמאית ובלתי תלויה שתפקידה להגיע לחקר האמת  וטוב שכך א…  Duduoppe אמיר אוחנה גורם לי בפעם הראשונה לשקול ברצינות להצביע ליכוד GYevarkan אני מברך את חברי השר אמיר אוחנה על קידום המהלך להקמת ועדת חקירה ממשלתית לבדיקת מח״ש בתקופתי במפלגת כחול לבן ניסיתי לקדם חק… החלטתי להביא לאישור הממשלה את הקמתה של ועדת בדיקה ממשלתית לבירור טענות בנוגע להתנהלות למבנה הארגוני ולכפיפות של המ…  גם אני רוצה לספר לכם משהו ״שאף אחד לא מדבר עליו״ באמת בני אלה שמאשימים את נתניהו שהוא עסוק כל העת בענייניו המשפ…  לאחר תקופת מה במסגרתה שמרתי על דממת אלחוט בנושא מינוי ממ פרקליט המדינה אני מודיע הערב כי החלטתי למנות לתפקיד את ע…  Photo credit epaefe  Michael Reynolds היום הזה יזכר בדברי הימים של עם ישראל   זוהי שעתם הגדולה של הנשיא טראמפ ורהמ נתניהו שאלמלא הניסיון המדיני העשיר…  yaircherki כבוד לשר AmirOhana על צעד חשוב ומתבקש איך לא חשבו על זה קודם  גילוי נאות ברשימת המעוקלים גם המחבל שרצח את אחי  navaboker נאוה היקרה תנחומי לכל המשפחה ולמוקיריה של יונה שלא תדעו עוד צער ברוך השב לליכוד GYevarkan תתרגל  MDanielLevi קלטתי את הקטע שלכם לקבל מאות פיברוטים תוך כמה שעות אתם פשוט מצייצים וידאו של אמיר אוחנה וכותבים תותח ובום מאות פיברוט… שבוע טוב regevmiri  ManofForum ידידי הצעיר YanaiCohen איננו  ינאי שהאגף הימניליברלי הכיר היטב מפעילותו ברשתות היה אידאולוג חריף ואיש אמת  הי…  תודה לישראל שלי מהעמותות הציוניות החשובות והערכיות שיש ותודה למצביעות והמצביעים הרבים שבחרו בי לאיש השנה בפוליטיק…  אני מגנה את דבריו האומללים של השר פרץ ולא בפעם הראשונה התבטאויותיו אינן משקפות את עמדת הממשלה   זהו קרב מאסף של…  kobisudri bezalelsm עו״ד סודרי הנכבד נושא החנינות מקבל נתח משמעותי מאוד מזמני עשרות בקשות נבדקות על ידי באופן א…  קרדיט תמונה ranboker היזהרו מחיקויים  einatd1 dandayan ofirdayan94 אני משתתף בצערכם משפחה אהובה ויקרה חיבוק חזק בעיקר לדני החבר היקר שלי שלא תדעו עוד צער אצלנו לשכה ירוקה ממחזרים סרטונים מהשנה שעברה  שנה אזרחית טובה לכולם  Поздравляем Всех с Новым Годом    אתמול לפני 4 שנים נשאתי את נאום הבכורה בכנסת  אני עדיין זוכר את הצו לזכור את יומי הראשון ואת מה ואיך שבאתי לעשות…  את סוף השבוע הזה מתחילים באוחנוכה כל הפרטים בפנים כולם מוזמנים נתראה בקרוב  netanelgla תודה נתנאל הערה יפה וחכמה בחרתי בנתניהו  ממחר — כולנו יחד לניצחון הליכוד למען מדינת ישראל    dovikco במהלך ביקור של שר המשפטים AmirOhana בארצות הברית במהלך אחד הכנסים שהשתתף קמה אישה יהודיה ומחתה על הרג 2300 פלסטינים   השר… AmirOhana aviadglickman קיבלת אתמול תגובה לפנייתך למה לא לפרסם מדובר באירוע הסברה שהשר אוחנה עורך בכובעו כחכ כמדי שנה באותו המק… aviadglickman קיבלת אתמול תגובה לפנייתך למה לא לפרסם מדובר באירוע הסברה שהשר אוחנה עורך בכובעו כחכ כמדי שנה…  מחרתיים – ביום ו הקרוב יום אחרי שכולנו מתפקדי הליכוד נבחר בראש הממשלה נתניהו להוסיף ולעמוד בראשות התנועה והממשל…  AmirOhana newsisrael13 baruchikra מה קורה ברוכי מכיר אחד גליקמן כדאי לתאם גרסאות להבא  newsisrael13 baruchikra מה קורה ברוכי מכיר אחד גליקמן כדאי לתאם גרסאות להבא  AmirOhana bogieyaalon בגלל שהציוץ הזה חושף את העובדה המביכה שלא קראת ואו לא הבנת את מכתבי ליועמש הריני לצרפו כאן ולו למען עוקביך… bogieyaalon בגלל שהציוץ הזה חושף את העובדה המביכה שלא קראת ואו לא הבנת את מכתבי ליועמש הריני לצרפו כאן ולו למ…  ronitlev12 netanyahu זכיתי ריגשה אותי מאוד אמא שלך  נווה דרומי המצוינת כרגיל בהארץ  ״עד כה אוחנה הוא קמפיין הליכוד המוצלח ביותר לקראת בחירות מועד ג אחרי שכבר ה…  SrugimNews תמונת היום שצילם haimgoldberg  YotYotam עמית סגל אמר בחדשות שהוא מעריך את אורלי בן ארי למרות שהוא לא מכיר אותה רק כי ראה אותה לוחצת יד לאוחנה ואין דבר קשה יותר מללכ… מה שאבישי ועמית  🤣  אינני יודע אם יש אמת בציוץ הזה או לא אך זאת אני יודע אף אמירה מצד טוקבקיסט חכ שר או ראמ לא תרמה לירידת אמון…  baruchikra לא אפרט את מה שהתחייבתי לא לפרסם אך הדיווח שלך הוא שקרי עכשיו תתחיל לעבוד בלעשות תחקיר ולא לאכול מידם…  baruchikra שקר וכזב כהרגלכם בקודש newsisrael13 baruchikra שקר וכזב כהרגלכם בקודש לאחר התייעצויות עם הנשמ והיועמש – החלטתי כי עוד אורלי בןארי גינזברג המשנה לפרקליטת מחוז מרכז – תכהן כממ פרקלי…  AmirOhana אגב ארבע כתבות מאותו כתב באותו עיתון בתוך שבוע הספק יפה  אגב ארבע כתבות מאותו כתב באותו עיתון בתוך שבוע הספק יפה  קרדיט על צילום הכתבה לא חשבתם שקניתי כן  nadavabeksis תחקיר שהקיף רבים שהכירו אותי קיבלתי המון טלפונים והלך רחוק עד לבדוק אם כשהתמחיתי ב2004 קיבלתי אישור לעבוד במקביל…  RonelAdani  אני מברך את כל אלו שעסקו בהחלטה על ההקמה ועבדו עליה לאורך השנים ומודה על הזכות שניתנה לי לחתום על צו הקמתו של בית…  בית משפט חדש בישראל   חתמתי הערב על צו הקמה לבית משפט השלום בבתים מדובר בצעד משמעותי לעולם המשפט ולעיר   בית המ…  מוזר הרי פרסמתי שאוועץ בנשמ וביוהמש כך אמרתי לאורך כל הדרך הפגישות נקבעו למחר  מה הכותרת והכתבה הזו באים להשמ…  האם בעקבות הפרסום בדהמרקר מהבוקר שר המשפטים הגיע לביהמש בתא כדי לסגור הסדר טיעון  לא אבל אם שמים סימן שאלה בכו…  בעוד שבועיים יסיים פרקליט המדינה את כהונתו היות שאנחנו מדינת חוק מי שיקבל את ההחלטה מי ימלא את מקומו יהיה אני בה…  תוספת בעקבות קשיים בהבנת הנקרא של חלק מהמתקראים עיתונאים לא הובא לידיעתי אין פירושו לא ידעתי על קיומו לא הובא…  היו כפיים או לא היו היו זה לא מה שמשנה  תוכן ומהות הדברים שנשאתי אמש בכנס הפרקליטות השנתי באילת נראים לי יותר…  AmirOhana guypch2news להלן דממה רועמת איך אנשים עוד מאמינים לכם זו באמת תעלומה  guypch2news להלן דממה רועמת איך אנשים עוד מאמינים לכם זו באמת תעלומה  elirazsade יפה אלירז חשוב מאוד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מדינה בחצי התורן  גמר חתימה טובה שמעתי זה עתה באיחור נאום לתפארת של ד״ר שקמה שוורצמן על חובת כולנו להתגייס כנגד שלטון היחיד העריץ של ביבי האזינו לה היטב בית הסוהר אליו הכניס אותנו רב גונדר ביבי מזכיר 2 שורות מאת ז׳בוטינסקי ״יד אחים הסגירתני לכלא  ותנעל בית אמי לפניי…  שתי דמעות  המשטרה נשלחה על ידי הנאשם בפלילים רב גונדר ביבי למנוע בניגוד לחוק את הגעת שיירת המפגינים לבלפור רב גונדר ביבי  סתימת ענק בכביש לירושלים ע״י חמד משטרה או תאונה  אני קורא לכל עיתונאי הגון בטלוויזיה ובאתרים לראות סרטון עכשווי של התנכלות פרועה של המשטרה לחופש ההפגנה ולפרסם בהרחב…  תומאס ג׳פרסון  When injustice becomes law  resistance becomes duty    ועוד There is no justification for taking…  פרופסור רוני גמזו אתה רואה שביבי נוכל אתה אדם הגון שנלכד ברשתו זו ההזדמנות שלך חזור הביתה אל בני האור ותתקבל ב…  טל זנזורי אל תטעה מה שיכבוש לא יחזיר ביבי ימנע חידוש ההפגנות אם ייפסקו אז נמשיך בצמצום אבל לא לוותר על הגחלת ביבי נכשל במלחמה בקורונה אילו בחר בנתיב של בנט ומנע סגר היו התוצאות טובות יותר אבל הוא טרם נכשל במה שמעניין אותו…  לשואלים איזו התערבות מתבקשת ובכן זו כפי שמדינות ידידות מרשות לעצמן לפרסם הסתייגות מבנייה ביהודה ושומרון למשל כך…  קרא ציטוט של יואב אבן מהדסה ושערי צדק וקודם שיבא על שקרי הממשלה כאילו הם קורסים ביבי הורס הכלכלה כדי לשבש משפטו…  אני שולל את הדיקטטורה האוסרת הפגנה דמוקרטית למען הדחת הנאשם ביבי גם שקר שיש תפוצת קורונה בבלפור צריך להזעיק את מר…  אין ממשלה בעולם שרשאית לאסור עלינו להפגין אם תעשה כן יש להזעיק מיד sos  את כל העולם נגד הדיקטטורה של ביבי היא…  שאילתא האם הממשלה מגבילה כניסת נוצרים לכנסיות ומוסלמים למסגדים אני מקווה שלא אז הרפו מבתי הכנסת ביום הכיפורים אלא התערבו באורח מזערי בלבד להלן שני ציוצים שהם אחד כדי לתקן רושם מוטעה זה כיוון שהמשטרה יקרה לי אני גם נענה לפנייתו למחוק את הציוץ מ298 שמא מישהו יפרש את דבריי באו…  ב29820 כתבתי כנגד האלימות שהפגין סנ״צ ניסו גואטה כלפי מפגין בירושלים והגיבוי שלטעמי גובל בחיפוי שתת ניצב עופר שו…  יש דחייה בשידור הראיון שלי עם אסא כשר בערוץ של אורלי וגיא בפייסבוק קשיים טכניים בהעלאת השידור בפייסבוק מיד הבנתי נכון כי Bono boba מייחל למותנו מגיפת הקורונה תיעצר כשיימצא חיסון יעיל בעוד כמה חודשים עד אז ראוי ללכת עם מסיכה ולשמור מרחק סביר ולשכנע מבוגרים וח…  אין סגר אבל המשטרה נשלחה על ידי ביבי ואוחנה להציק לישרי דרך הנוסעים לתומם לעבודתם מחסומיה אגב גרמו לרבים להסתובב ו…  שנה טובה אין קורונה בבלפור ובקיסריה כי זה ציבור ממושמע חובש מסיכות ושומר מרחק כל מי שזיהיתי בכ35 הפגנות מגיע כי…  ברכות חג שמח לאחייתיי גיבורי ההפגנות שהתייצבו לסעודה בבלפור תוך ויתור על כינוס במשפחתם היגיון עקום אם הממשלה אינה מרוצה מהסגר שכפתה עלינו עתה ותתכנס בשני להחליט על סגר כרצונה  למה היא כופה עלינו כבר…  פרלמוטר תירגע לא לעצמי אני מתלונן לי יש מכשיר הליכה מראשית הקורונה ממשלה שסוגרת חדר כושר עם מחיצות ומרחק מסכנת אותנו חולי הלב יותר מכל אדם בלי מסיכה שרים אטומי לב נגד אזרחים טובי לב ממשלה משוגעת רוויית נוכלות היא מטילה עלינו סגר שהיא מודה מראש שאינו יעיל טרם היה כדבר הזה המחלה ממילא תתנהל על פ…  לא הדס במדבר  גברת בשם ציפי נבון טסה על חשבוננו כמזכירתה של שרה ומטפלת בילדים מטפלת בילדים מכינה איתם שיעורי בית בזום  משפחה חומסת וחסרת רגישות לא יעזור לכם בבלפור מקפידים על מסיכות ואין קורונה ראו היום ראיון עם לס ואולי תבינו הסגר הוא מאסר בלתי חוקי הממשלה יכולה לכפות אמצעי זהירות שחולה לא ידביק חולה מסיכה מרחק טלאי צהוב למפגינים שאני…  האם הממשלה החליטה לאסור ההפגנות בבלפור למי יש תשובה מוסמכת ומה אמרו על זה גנץ ואשכנזי שטרם קראו את ההסכם עם המפרשיות דוד אמסלם פשיסט נקלה שרוצה למנוע מאיתנו את חופש הביטוי הוא ראוי לביבי וביבי ראוי לו אני כמובן בעד הסכם עם איחוד האמירויות אבל החוצפה של ביבי שלא הביא את אישורו לממשלה ולכנסת  בניגוד למנחם בגין ויצח…  הפגנת סוף הקיץ  ריצ׳רד ניקסון ברח מהטבעת הפלילית המתהדקת על צווארו בו וטרגיים לבירור במזרח התיכון ניקסון הישראלי בורח מההווי הפליל…  מי יודע מה הסיפור על המטוס השלישי של יוסי כהן נבון שאני לא אובייקטיבי וצריך לציין זאת קראתי בYNET את פרטי מעצרו של ערן זהבי ולא מצאתי שאיים על שוטרים כהואזה אם כי דיבר במרירות מוגזמת ולמזלו לא שלחו מ…  ח״כ ד״ר יפעת שאשאביטון מתנהלת כאשת ציבור אחראית ורצינית צפיתי עתה בראיון עם ד״ר שרון אלרועי  היורשת של סדצקי  ש…  הפגנה וזיכרונות  ביבי ניסה לחטוף מטוס פרטי לטיסה לארה״ב על חשבוננו בגלל השקר שמא יידבק בקורונה הוא נסוג מפני הביקורת וזה מלמד כי א…  הנשמה קודמת  היי רוני גמזו גםזולרעה בלבלת קשקשת נכשלת רמזור בלי זכוכיות בצבע קיבלת לפחות הצעה למקום טוב ברשימת הליכוד לכ…  חולה שקרונה  ד״ר יפעת שאשא ביטון מרסקת את ההיסטריה של ביבי ומרעיו בעניין הקורונה בערוץ12 למרות שברבש וקושמרו מפריעים לה להציג א…  עמוס עוז נורית גרץ  קורונה בערים חרדיות   ביבי ואלשיך  זה עתה נחת על שולחני ספרה של נורית גרץ ״מה שאבד בזמן״ 224 עמודים על הכרות בת 45 שנות שיחה עם עמוס עוז הגעתי רק עד…  שקר שרר שקר  ביבי שקרן משתתפי ההפגנות נגדו מתהלכים עם טלפון נייד פתוח לא סוגרים אותו ראש ממשלה נוכל משבש משפט ובחוצפה מציג א…  תשמע טוב רוני גמזו אל תשמש בסיס לסתימת פיות דיקטטורית  ואל תפחיד אותנו תוך ניפוח מלאכותי של עוצמת הקורונה אדלשטיין דמגוג במסגרת הדיכוי והרודנות הוא מציג תמונה מסולפת מבוגרים וחולים נקראים להישאר בבית אך הממשלה מנצלת זא…  מייסד המדינה  המשטרה באלימותה ממשיכה לשקר כאילו זאב אנגלמאיר היה עירום או התחפש לשרה נתניהו ואני מסכים עקרונית שלא  ראוי להתחפש…  שום קורונה אינה סיבה לסגור את הר הבית בפני יהודים ומוסלמים הנזק רב בהרבה מהתועלת זה כמו ביבי וכץ שבמרדף השווא להצ…  הניחו לדתיים הם משפחתיים ומכבדים ההורים המבוגרים יותר מאיתנו ויירתעו מלסכנם בקורונה יש להם אקזיט ״פיקוח נפש דוחה…  עוד דו״ח מהגנת הסמוקרטיה  המשטרה מרחיבה את השאח החסום כדי להכביד על מפגינים  בגילי ובמצבי הבריאותי להגיע לכיכר בלפור בהיעלם הקורונה   השבוע חשוב ביותר להגיע להפגנות למרות השרב כי ביבי מפעיל את שריו הנרצעים לבטל את ההפגנות הבה נבוא בהמונינו ביבי רוצה לבטל את המחאה אפילו במחיר הגדלת הקורונה הוא מסית את החרדים ליצור חרם כללי כדי למנוע מבני האור להפגין וכ…  הניו יורק טיימס פרסם שביבי שיקר כאילו לא ידע שארצות הברית תמכור מטוסי חמקן לאיחוד האמירויות ידיעה עיתונאית צריכה מ…  מינו לעצמם נאשם  אלי ור והמזרחיים של ביבי  מי יותר נקלה בשחיקת הממשל התקין  ישראל כץ שמוציא דיבה על משפחת מרידור או אמיר אוחנה שמוציא דיבה על אביחי מנדלבליט הבחירה ביניהם קשה איש הסטד  גם שאול בנביאים   ישראל קץ לא שגיאת כתיב אלא סימון של עתיד הקריירה הקרובה שלו לאחר שהדוצ׳ה ביבי ישתמש ויזרוק אותו  אתה פשוט מביש…  הגנגסטר הפוליטי מיקי זוהר אינו חושב שחתימה שלו ושל הנאשם בפלילים ביבי מחייבת עתה הוא מתנה שהממשלה תתקיים רק אם יחר…  על המשטרה מבית ומחוץ  מתנצל לא צפיתי במשחק אבל מאושר לומר כי ״צהוב עולה״ ועוד איך עולה 03 עולה ומעולה קראתי זעקת בוז של פרופ׳ שמעון זנדהאוז כלפי ביבי ושריו על חרפת סגירתה של בספרייה הלאומית לפי היהדות שהנאשם יודע על…  עם אלדד יריב ובן דרור ימיני  השר אלי כהן הצטרף לבני החושך גם הוא רוצה פרקליט מדינה ויועץ משפטי שיהיו פקידים של הליכוד הרוע מצטבר  מיקי זוהר ב…  מופע אחיזת העיניים  ביבי  המקצוע נבל בי נשבעתי לוא אני בראש מחלקת החדשות באתר טלוויזיה איני מאפשר לו שידור תעמולה ישיר אלא מקליט את…  נאום הבכורה המרגש  כולנו שקמה שוורצמן  הוא בתבהלה פניקה ונכשל בקורונה ובהסכם עם איראן והצוללות המצריות ושיקר עליהן ועל מטוסי החמקן למפרציות ומעמיד פני…  דיווח דחוף מבזק עיתונאי  בזה הרגע מגן דוד מעביר את רותי צוקרמן שהשוטרים דחפו אותה ודרכו עליה מזעזע  מתקשה לדבר יש צלם עימנו קדימה לכיכר  התיק שביבי תפר לגנץ ואלשיך התמוטט גם עתה נגד אבי ניסנקורן ששאפו לו על עמדתו עד כה להגנת שלטון החוק גילה גמליאל…  הבהרה לא השוטרים קלגסים הם אחינו ובכל נאומיי בקיסריה תיארתי אותם באחינו מפעיליהם בשליחות ביבי נוהגים כקלגסים מנחם בגין בקיסריה עימנו  פעילותו של ביבי לבטל את ועדת איתור הבכירים היא חיזוק בהוכחה נסיבתית לאישום שהוא עבריין כי אם אין כלום כי לא היה כל…  מה משותף לביבי ולחמאס כלום כמעט כלום רק זאת שניהם חושבים כי אין חובה לכבד הסכמים משטרת הקלגסים של ביביאוחנה התנפלה ופצעה ואזקה אותנו בבלפור ירושלים ודמנו הפקר ״כל בחור וטוב לנשק בחורה על המשמ…  מיקי זוהר ביבי רתח שערוץ12 עסק במכירת מטוסי חמקן לאמירויות בהקשר ל״הסכם ההיסטורי״ אך ביבי שלח מאחורי הגב את עושה…  וביבי כצפוי לא ידע  YaelGreen007 לא מאמין שדרוקר אמר זאת היכן היום ב״אנחנו מהבית״ של אורלי וגיא בפייסבוק בשעה 0915 קרני אלדד מ״משור ראשון״ על אכזבת המתנחלים מביבי לאן נעלמה הסלידה מהשחיתות אם נעלמה לפחות לפחות  ראיון מעולה של נגיד בנק ישראל בדימוס הפרופסור יעקב פרנקל  מחותמי עצומת 15 הכלכלנים  כנגד המדיניות הכלכלית המוםקרת…  יהודים אוהדי ישראל אינם מצליחים לעבוד ב״ניו יורק טיימס״ ובאוניברסיטה בקליפורניה בלחץ השמאל האנטישמי  מאמר חשוב ומז…  בשם אומרם  מתנצל שמו של האנטי דמוקרט אריאל קלנר ולא מיכאל הרגע סיימתי ראיון קשה עם האידיאולוג האינטלקטואל של מאיר כהנא ששולל את הדמוקרטיה וחובה להאזין לו והנה מיכאל קלנר מ…  צל״ש מהמשטרה למנדלבליט  מי בימין האנטידמוקרטי ניכס לעצמו את רות גביזון ז״ל מוזמן לצפות בראיון שלה אתי ב״חותם אישי״ נכון שהיתה נגד אקטיביז…  אין דבר יותר שלם ללב שבור ממפגש עם רופאלב בהפגנה נגד ביבי ולמען טוהר המידות גאה למצוא עתה בהפגנה בבלפור בירושלים…  המכתב הדיקטטורי הנורא השני ששלח ביבי לד״ר אביחי מנדלבליט שומט מתחת לרגליו את טענת החפות נאשם בפלילים שרוצה להתער…  אושר לראות את שמו של עמיתי הצעיר ד״ר רונן ברגמן מתנוסס בnew York times כדבר יום ביומו הכל זמני ביבי  גם בפוליטיקה העכורה יש רגעי הומור והצחוק טוב לבריאות ביבי הודיע שלא ידע שקרנף שלו ח״כ שלמה קרעי פנה לעליון להדיח…  וגם יאיר לפיד מקבל נפח של מנהיג ממשי בהופעותיו האחרונות עופר חדד ראיין בצורה נאותה את שרה נתניהו היא הייתה עצבנית מאוד בחלק מהראיון התעשתה רק בסוף מדוע ערוץ12 הסכים לקאיינה בלי שראו אותה הפשיזם כבר פה בקרוב לא יהיה מספיק להשוות את ביבי לדוצ׳ה מוסוליני נעבור למלחמת האזרחים בספרד אולי גם הלאה ביבי ש…  הייתי בהפגנות רבות מעולם לא ראיתי אמבולנס מעוכב שרה נתניהו ציטטה רופא מ״הדסה״ שחולה ״כמעט מת״ כי המפגינים החוליגנים עיכבו אמבולנס ובכן שתגיד מי הרופא ונמצא את נהג…  מעמדם של לפיד ויעלון נוסק זה עתה נאום חזק של לפיד ציטט מאביו בן ציון נתניהו לבנו שבראש הממשלה ביבי ״don’t touch…  מנחם בגין תמיד לימד כי האופוזיציה מבקרת את השרים לא את עובדי המדינה שפועלים בשירותם ביבי לא היה בשיעור ולכן אנשי…  מציע להכניס את נאומה של החכית האלמונית תהילה פרידמן לתכנית הלימודים  קורע לב נוגע ללב מקור לתקווה על מה ביבי מלכלך את מנדלבליט  היועצים של ביבי חובבנים הרי הוא הולך לחנויות שיראו שהוא  הקמצן הידוע  משלם אז כשקונה מוצר אחד זה מגוחך ומלאכותי…  כד ראש ההר  על סיירת מטכל  מה הסיבה שמיקי זוהר ביטל הסנקציות על מי שהימרה פיו בליכוד שביבי נחלש הורה לו לבטל הסנקציות למניעת עריקות בלתי צפו…  אחיתופל עכשיו  הראיון המדהים ממעמקי משרד מבקר המדינה  ערכתי בטורי בפייסבוק ראיון מדהים עם דובר משרד מבקר המדינה שלמה רז שיצא לגמלאות הפגנה מרנינה  הפגנת ענק מבורכת בבלפור ירושלים אם נגיע לחצי מיליון איש ברחובות יש סיכוי שהוא ייפול מיד אכתוב על ההפגנה בפייסבוק בוגי יעלון שוב איתנו יאיר לפיד היה בשבוע שעבר על הגשר המונים בבלפור לא צריך לשמור על החוק ביבי מוכיח שלא המשטרה התעללה עתה במפגין שהוריד לשנייה המסיכה כדי לשרוק  ומיד חטף קנס 500 ש״ח אולי ביבי רוצה לגלות נדיבות שאין בו…  כעיתונאי נכחתי בהפגנה בה רצח יונה אברושמי את אמיל גרינצוייג ראיונו אמש  טלוויזיה מוכיח כי לא למד לקח אלא להיפך הל…  אלשיך בוא  חלף בראשי שראוי שרובי ריבלין יעמוד בראש גוש הימין האחראי ולא העזתי בן כספית היום במעריב העז וצדק אבי בניהו גם נה…  אזהרה אוהדת לגמזו  עם ירון לונדון  אני מסרב להאמין שמשה פייגלין פרסם דברים בהם הוא רוקד על דמם של לבנונים חפים מפשע שנהרגו בפיצוץ בביירות יהודי אינו…  ישראל הציעה סיוע הומניטרי ללבנון על רקע האסון המחריד בביירות וזה צעד ראוי נכון אמר רון חולדאי שהאנושיות לפני הכל…  רק עתה קראתי ראיון מאת גידי ויץ עם דובר משרד מבקר המדינה שלמה רז שכל מכריו מוקיריו ויושרתו מוכחת מוסף ״הארץ״…  סוזי נבות על הצוללות  ישראל כץ מתנגד למענקים נוספים כי ביבי ישחד את האומה וכשיבוא יום פשיטת הרגל הלאומית כץ יהיה אשם ביבי אף פעם לא אשם…  נגיד בנק ישראל הפרופסור אמיר ירון הפך לכפוי טובה עוכר ישראל שמאלן שהוא סמולן כי כמו כל פרופסור בעל ערך לכלכלה קרא…  אז והיום  לקראת ימים נוראים  לפי הא״ב רונן ברגמן שחר גינוסר רביב דרוקר בן כספית קרן מרציאנו ברוך קרא שקמה שוורצמן אליעד שרגא  ועתה נוסף…  הסבר כוכבים חדשים שיחברו ללפיד ויעלון לא תחתם מוקדם להעריך אם ביבי באמת רוצה להקדים את הבחירות או רק מאיים בכך אם כן הוא מפר התחייבות לגנץ מה חדש אולי מקווה…  כתבה מעולה של רונן ברגמן ב״ידיעות״ על תצהירי בכירים בטחוניים המחשידים את ביבי וסביבתו בשחיתות חסרת תקדים בפרשת הצול…  ישראל כץ מותר לך להחניף לביבי אבל קרא את מנשר 15 הפרופסורים ותבין כי בתביעה לתקציב בן יומיים וחצי שלושה חודשים…  מי הואהיא ״דנה רון״ שהסיתה לרצוח את ביבי מקורב של ביבי תובע חקירה משטרתית אני מצטרף לדרישה רק שאוחנה לא יתערב…  יורם לס המסקנה  אוחנה שכזה  ביבי לא שלח אותם להיות עבריינים אלימים אך לשונו ושל מקורביו דירבנה לכך ד״ר יפעת שאשאביטון אבירת איכות השלטון לוא אני תחת לפיד ובוגי הייתי קורא לה להצטרף לאופוזיציה במעמד של סיעה כמה ר…  יש יש יש מכבי תל אביב אלופת ישראל בכדורסל בפעם ה54 יש גם רגעים משמחים בימים קשים אלה ״לעולם לא תצעדי לבד מכבי תל…  המשיח בט׳ באב עד ימינו  ביבי ומשפחתו מוגנים יותר מכל שליט בעולם וצריכים להיות מוגנים וההיסטריה מלאכותית אך מפגינים למען הדמוקרטיה מותקפי…  דיווח מהשטח המשטרה מכבידה על מעבר חופשי להפגנה מול אמיר אוחנה סגרה שטחים עצומים מיד ב״אנחנו מהבית״ ובטור שלי בפייסבוק ראיון עם פרופסור עוזי בלר ואליעזר יערי  חבריו של ביבי מימי הנעורים ועד לאחרונה השידור מתחיל ב0915 LOdinaev אם אוחנה הדליף סימן ששיקול הדעת שלו מחוספס ואטום וחד ממדי שלא הבין שזה טוב לביבי אבל מזמין בוז כללי כלפיו אחיותינו ואחינו השוטרים  מוסרים לי שהכתב מיכה שמש כל הכבוד לך הכבוד והיקר ל״כאן״11 המשתפר מי הכתב ראוי לצל״ש שפרסם את שיחת העבריין בכוח אמיר אוחנה עבד בלפור עם  הניצב הנרפ…  חייבים להציל את הדמוקרטיה מציפורני אוחנהביבי אמיר אוחנה מנחה את המשטרה לפעול שלא לפי הוראות בג״ץ היש עילה לפתוח בחקירה נגדו  אסור להיכנע לו אסור לזוז מההפגנה…  משקל המחאה  מקיסריה תצא הבשורה  הגענו לקיסריה באיזה רחוב ביבי גר ביבי כינה אותנו מגיני הדמוקרטיה ״מפיצי מחלות״ איננו היהודים היחידים שהכפישו אותם כ״מפיצי מחלות״ אבל ביבי  את זה…  דנה ואני הגענו להפגנה בקיסריה ואנשים הנראים כשוטרים סמויים אמרו כי היא בוטלה האומנם ביבי  אפילו אני מעולם לא השוויתי את הרודנות שלך למה שהוא סמל הרשע האנושי בכל הדורות אבל אתה זוכר מי האשים את היהו…  אדם בשם ניר אדן  נכדו של האלוף אברהם ״ברן״ אדן  שהיה מאבטח של ביבי פרסם דברים מדהימים ונוראים וחמורים ומדכאים ע…  אנו רבים הרוב צעירים איש ליכוד ארנון גרוסמן שגדל בהתנחלות מסביר עד כמה הוא מתגעגע למנחם בגין ומואס בנאשם הפלילי ביבי מעורר התרגשות הדו שיח בין הרבחנפן אמיר אוחנה לבין ניצב מוטי כהן כשהשר אומר לו בדיון ״אל תענה לי״ מעיד שאוחנה לא דמוקרט מתקשה לה…  האם גערותיו של רב חנפן אמיר אוחנה במשטרה עולות בקנה אחד עם שלטון החוק אוחנה הוא סכנה לדמוקרטיה זוכרים לפי קודקס…  פנייה למ״מ המפכ״ל  בעזות מצח דורש הדוצ׳ה בעבי הנאשם בפלילים שאביחי מנדלבליט לא יעסוק בהסדר ניגוד העניינים שלו אז מי כן אמיר אוחנה דן אלדד ״עלה עלה קירח״  uricovagerev זה שופט כדורגל שהתנכל לערן מזרחי ממכבי תל אביבזה שופט הכדורגל המתנכל למכבי תל אביב אורלי בר לב  חומת המגן לפני הדיקטטורה  משדרת עתה איך המשטרה מסלקת מפגינים מהכניסה ל— טוב כדי לא להשתמש בלשון ההי…  הנוכל הפוליטי מיקי זוהר דואג לבריאותנו חח ורוצה לאסור ההפגנות בטענה שהן מפיצות קורונה אין בהנמקה מילת אמת אילו…  מפציר בכל אזרחית ואזרח  בקשה שהיא חריגה  לצפות בראיון עם הפרופסור עוזי ארד באתר הפייסבוק של אורלי וגיא מחכים בטירוף מיקי זוהר עלית על מוקש אומנם אעקוב ברצון אחרי תביעת הדיבה של הגברת כץ נגדך אבל אומרים לי שהיא אגוז קשה לפיצוח ויו…  אני סקרן לראות אם המשטרה תחקור מי השחית שלטים ביקורתיים על נתניהו שהציב מאיר אדרי איני יודע דבר על זהותם של העבריי…  דוצ׳ה א׳ דוצ׳ה ב  פגשתי את הצעיר שחסמתי בדרך לקטטה עם אבישי בן חיים שמו לירון קרומה בעל מסעדה באבו גבירול פינת בזל בן קיבוץ יפתח…  ברוך השם ברוך השם  מהפך רוב של מעירים בהםגנה מול הבסטיליה של ביבי התנועה לאיכות הסביבה וארגוני מחאה רבים מקיימים הערב ב1930 הפגנת ענק חשובה מכולם נגד החוק המעביר את חיינו לשליטת ב…  מיקי זוהר תפס רגשי גדלות הוא כתב מכתב מתבכיין על מצבו בליכוד כאילו היה ביבי כל הכבוד לד״ר יפעת שאשאביטון וועדת הקורונה שהעמידו את הממשלה תאבת הכוח במקומה יותר משחשוב שנאכל במסעדות  חשוב ש…  מישהו מתנכל לי כאילו כתבתי בסגנון בלתי נאות על יאיר נתניהו אני מפציר בכל אזרחית ואזרח הגונים לחזור על מה שכתבתי כא…  הצדעה לרונית אשכנזי ובנה איתי  רעיית שר החוץ גבי אשכנזי ובנו  שהתייצבו ביושרה למען האמת והמפגינים ואומץ הלב של יפ…  שעשוע עצוב  בכנסת ובין עובדי מדינה בכירים הנתונים ללחץ דיקטטורי של הממשלה יש גם שושנים בין החוחים לפי א״ב אבידר אלי טרנרא…  רק קדימה  אני מודיע בפעם החמישית כי נוכל כלשהו מפיץ בחתימתי קטע נגד יאיר נתניהו שכתוב בגסות ובצורה בלתי ראויה זה זיוף מעולם…  ביבי קראתי את הטוויטר שלך נגד אהוד ברק ירדת לרמה של פרחח ופוחז נוסף תואר להיותך מושחת ועבריין פלילי לכאורה ושקרן…  amor28364937 שלום אמור איפה בורג הציע זאת ״בזמן שהציבור שרוי בצער אל יאמר האדם אלך לביתי ואוכל ואשתה ושלום עלייך נפשי״ נכון מאוד אז ניפגש בהפגנה נגד ביבי… </t>
+  </si>
+  <si>
+    <t>itayalmogbar עובדה שיכול מותר לי לחשוב באופן עצמוני כן וכל מה שכתבת כאן לא רלוונטי אני לא חושב שממשלה יכולה…  radio103fm פרופ חגי לוין יור איגוד רופאי בריאות הציבור LevineHagai לינון מגל ובן כספית הממשלה ממשיכה להתנגש בקיר ולעשות את הפעול… radio103fm הצטרפו לבן כספית וינון מגל BenCaspit YinonMagal  קורע ונכון  erancherpak ברור זו כוונתי לפני שלושה חודשים בלי קשר לזה שאני חושב שצריך להשעות את ההפגנות ההמוניות בבלפור למשך הסגר ולהמשיך במחאה עוצמתית ב…  וואו תודה צרפק אחד החזקים  ronmaiberg OrenNahari Free2BeMeIL אני לא מתווכח על דעתך רק על הנבואה המוקדמת כנראה לא הבנת מילא ronmaiberg OrenNahari Free2BeMeIL לא על כל דבר צריך עימות סתם זהירות ronmaiberg OrenNahari Free2BeMeIL רון את החבטות סופרים במדרגות אנא כבר היינו בסרטים האלה erancherpak מתוך הראיון של בן כספית עם האלוף אורי גורדין מפקד פקע״ר בדיוק ככה צריך לענות כל לובש מדים ופקיד ממשלתי בישראל בעניין ההפג… YakiAdamker מקסים אלוף פיקוד העורף אורי גורדין בראיון בלעדי למוסף כיפור של מעריב לא מבוהל מהקורונה כן נחוש להלחם בה לא מתוסכל שהת…  AlMonitor Prime Minister Benjamin Netanyahu is blaming everyone but himself for Israels failure to cope with the pandemic  iloveisraell LVertzhaizer לא היתה התייחסות מפורשת שלהם לחוק כזה ויש עם חוק כזה בעיה לא פשוטה למרות שאני מאוד בע…  ונשמרתם לנפשותיכם זה פשוט מסיכה על הפה והאף הפה והאף הכי מסוכן בחלל סגור הכי מסוכן בחלל סגור מעלית גם כשהיא…  LVertzhaizer 1 מתנצל בשמם 2 לדעתי האוזר והנדל פטורים אמרו לאורך כל הדרך שלא יילכו לממשלה בתמיכת הערבים לצערי…  benirabin לא נוהג לכתוב על רבנים אבל אי אפשר יותר לעמוד מנגד כאשר מתפרסמים הוראות ואף פסקי הלכה נגד חבישת מסכות ועוד במקומות ס… YinonMagal זה כולל אותי הוא שכח  שלום תמורת כביסה טורשישי מלא   itaizil מוכן לכיפור BenCaspit  MichaelRozolio נקווה מאוד שלא נצטרך לזה ונקווה מאוד שלא נגיע לאלימות ונקווה מאוד שלא נפרק את מה שנבנה כאן וכן…  למד מהבוס הפר בידוד יצא כגנב בלילה לצלם סרטוני הכפשה במחאה אבל מה לא אחראי לכלום אתם אשמים  מי שהוציא את ההמונים אתמול לירושלים לקיסריה לצמתים לגשרים למחלפים ולכל מקום מי שגרם לבני 90 לצאת מהדיור המוגן…  YinonMagal אתה SagiOrli אף אחד לא הוציא אותם להיפך הבנים והבנות שלהם התחננו שלא ייצאו וכנל הצוות למה לקשקש lUaV2b0D4iKpWmT אמא שלי מתה amibit62 הי מטומטם אני משדר מהבית כבר חצי שנה תירשם להשתלת מוח NaomiBentov נדמה לי שהחסרת פרט כלשהו בביוגרפיה של אלי FuchsAlon מטומטם נראה לך שמישהו גייס אותה אין שכל אין דאגות בריאות ביום שלישי אתה בבוקר משדר כרגיל עם הקורונה או בלעדיה האם נכון שבקטטה בין הריקלון לקלמן ועמית הוחלט לחתוך…  קבלו את יהודית ירקוני בת 94 ירושלמית בוגרת מלחמת השחרור מפגינה עכשיו בהבימה בריאות יהודית     טוב בבירור הכי מרגש היום דיירי הדיור המוגן ברמת השרון יצאו להפגין אחד מהם שמואל כסלו ערך סרטון אלה האנשים שבנ…  דיירי דיור מוגן יצאו להפגין שרים שירי פלמח והתקווה אוכלוסיה בסיכון שכנראה מרגישה שהמדינה בסיכון גבוה יותר  קיסריה עכשיו משוגע  טוב שכחתי את ההפגנה הלא קטנה מול הבית של גנץ קיצר אחד הערבים או כמו שקישון נהג לפתוח אחד האמשים  בלי מילים  יש עכשיו שיירת ענק בדרך לבית רהמ בקיסריה הפגנה מול ביתו של עוזי דיין בכוכב יאיר דיין יצא למפגינים ממש עכשיו אל…  zviashkenazi ליאל רגע שלמה לטענתך את משרוקית הכלבים שלי אף אחד לא שומע אז איך שמעת או שאתה טועה או שאתה כלב אני מהמר על האפשר…  מכתב היחידה של בוגי  התמונה הכביסה והכיתוב  7הזכר בערכים ובנורמות של היחידה אתה יודע באין אמון של החיילים בהנהגתם אין מנהיגות לא הדרגה או התואר קובעים את…  6ביבי זוכר איך מתחילים תחקיר ביחידה במצבך אינך יכול לתחקר אינך מסוגל להפיק לקחים אינך כשיר להביא ישועה לישראל…  5ראיתי אותך בסופש בנאום לאומה שמעתי אותך ואת שליחיך מאשימים במחדל את יריביך הפוליטיים את חכ שאשאביטון את היו…  4 לא היינו מגיעים לרמת התחלואה מהגבוהות בעולם ביבי יותר ויותר אזרחים גם מקרב תומכיך בעבר מבינים שאתה אוחז במדי…  3 מעל דוכן הכנסת אומר שמותר לך לקבל מתנות בניגוד לחוק הבנתי אתה הולך לסבך את מדינת ישראלמאז הצלחת להיאחז בכס…  2 וחינכנו ביחידה שכדי להיות טובים יותר כל תחקיר אחרי מבצע או תרגיל מתחיל בשלוש אצבעות כף היד המופנות אליך כלומ…  1 קבלו את מכתב היחידה ערב יום הכיפורים שולח משה בוגי יעלון לשעבר מפקד סיירת מטכל רמטכל ושר בטחון אצל נתנ…  OriUzan שלך אורי גם דיירי הדיור המוגן רמת החייל יצאו להפגין  הסגר בעיצומו ברוטשילד  אין מצב שהכביסה המלכותית תוכנס לכאן סורי  The 2nd Yom Kipur fiasco by Benjamin Netanyahu  דיווחים מהשטח כבישים מפוצצים הכי עוצמתי עד עכשיו  באמת איך  shaulmert איך הגעת להפועל מבית ביתרי ואיך עברת ועדת קבלה שיירות בדרך לירושלים וגם אורלי  Meravbenari KalmanLiebskind שכחת את AviBenayahu אנשים שילמו על הרבה פחות מזה בול  המפגינים מפיצי מחלות  AmirBenDavid BoazCohen בוא היית צריך להתחיל במחכים למשיח לא אותך לשלום adimessika רצחת AmirBenDavid BoazCohen ממש מה היה שם כאן לדעתך AlonPinkas LimorYoav talialin RanIsraeli רק חבל שחיה שנהב גנבה אחרכך את זה והפכה אותו לגברת עם סלים של אריק…  הכוונה לבועז גולן כמובן  Doronpaz1 noamfathi chaimlevinson radio103fm לא אשתף פעולה עם חתרנות לבין עתונאי כלומר בועז כהן השופר מערוץ 20 המשפט האחרון נאמר עי קרעי טוב אז גייסנו את בועז שפשוף נעים  אפרופו הטור של קלמן ליבסקינד והמהומה שמנסה עכשיו יאיר נתניהו להקים סביב תיאום בין צוותי טלויזיה למפגיני הצמתים והגש…  noamfathi תודה פתחי על זה שאתה מוכיח עבורנו שכל קשר בינך לבין עיתונות שהיא מקצוע מקרי בהחלט אתה מוביל קמפיינ…  הראשון שזיהה קישון הגדול עע זהוזה  misscorina2 לדעתי כן KalmanLiebskind בשולי העיתונות הימנית צמחו במהלך השנים באין מפריע גידולי פרא תקשורתיים אנשים שאין להם עניין בעובדות ושאתיקה וערכי… DanArbell Great analysis BenCaspit re netanyahu’s leadership failure vs COVID19  ronenwei KalmanLiebskind לא אפול מהכסא רמי בןיהודה אין קשר לאליעזר בשיח פורה עם תת עלוב אמיר השכל קבלת שבת בבלפור  על המעשה החמור שעשה היום KalmanLiebskind אגיב בחומרה בזמן ובמקום סטיי טיונד כמו שאומרים טעימה קלה מטורשישי עכשיו במעריב   טוב אני פועל להשגת חיסון לקורונה לעם ישראל אפשר לחזלש YinonMagal ויחסית לאלוהים מעל או מתחת BennyRefined faniaoz מקווה שתתגבר על הכאב אני יושב שם כי ניתוק מגע הוא לא פתרון וכי אין לנו הפריבילגיה לוותר על…  אמר הגאון שפתח את מערכת החינוך בניגוד להמלצות  אורלי לב מראשי הביביסטים מודאגת מאלפים אלפים אלפים של אנרכיסטים מגעילים ורוצחים על הגשרים והכבישים  apalachilaw AnshelPfeffer אין שום כניעה לטיעון שהם מפיצי מחלות למה זה לא מובן להיפך זה מעקר את הטיעון הז…  D9yyn714Crhhamj AnshelPfeffer אין כוח בעולם שיעצור את המחאה הזו הדלק שלה היא המצוקה והיא רק תלך ותחריף המאמץ לע…  מסתמן אין דבר כזה מגבלת טפשות  אם תהיתם מיהם מנהלי קבוצת הווטסאפ המופלאה הזו אז הנה  ושימו לב לתגובות החינניות איזה עם נפלא יש לנו   arikbender צמרמורת אגב שבע שנים אחרי הייתי רספ מדור נטר בגוליס תכלס חדשות הליכוד בראשות נתניהו זה בלעדי אגב  nivli זה לא רלוונטי ואני מציע שתפסיק לבלבל לי את המוח עם זה אני לא אומר שהפגנות מגבירות תחלואה אם כי יש כבר מחקר…  nivli ההצעה שלי הזויה הבנתי אבל לצופף 20 אלף איש בימים של 7000 נדבקים ביום כשכל המדינה חוץ מההפגנה בסגר טוטלי…  ravitkho amospickel benirabin אני אפילו לא מתחיל להיות בטוח בצדקתי כל ההוויה שלי הפוכה מהקביעה המופרכת הזו אני…  benirabin amospickel תגיד למה כשאני מגן על עמדתי אני תמיד צודק אגב אני ממש לא תמיד צודק ואני טועה פעמים רבו…  מה נשאר לנו לצחוק  amospickel benirabin מכל מלמדי השכלתי למזלנו הרב לשר המשפטים הנוכחי קוראים אבי ניסנקורן אני מבין שכולם מביטים…  benirabin YehoshuaYosi eldadarieh בישיבת קבינט פינוי חאן אל אחמר עד השבוע הבא רצוף כבוד  benirabin YehoshuaYosi הוא חתום על הסדר ניגוד עניינים לא יכול לעסוק בי בנורקין ובחותים benirabin יש ועדת חריגים AnshelPfeffer בוא נקים איגוד מקצועי אנשל הביוגרפים AnshelPfeffer כל מילה של בן מחאת בלפור צודקת וברור שהיא לא גורמת לתחלואה אבל היא מנותקת יהירה ותורמת לנרטיב השקרי של נתניהו הצודקי… אלוף פיקוד קורונה בראיון בלעדי אורי גורדין מפקד סיירת מטכל לשעבר אלוף פיקוד העורף בראיון ראשון ובלעדי מהחמל…  benirabin בני זה הציוץ הנכון שלך לחודש ספטמבר שכוייעח עוד בוגר וקסנר  YehoshuaYosi haimslutzky קיצר כוכבי מפרק את גולני faniaoz chaimlevinson וכלכליסט כבר העלו פיצר faniaoz chaimlevinson למה רק לוינסון NiflaPo על האש כמה בושות כמה וושינגטון פוסט  19 מזוודות גם באנגלית  HaniMazor צר לי שהתאכזבת אבל מעולם לא יצאתי נגד ההפגנות כשיש 7000 נדבקים ליום ועשרות מתים ביום ומחליטים ללכת לסג…  הגיע הזמן שגם מישהו מהמחנה שלו יגיד לו את האמת  השוטר הטוב והרע  שני פרופסורים ועתונאי ברקוויאם לקורונה כלומר לנו  chaimlevinson תאזין לראיון אצלנו אתמול בחמש בערב עם דר דורית ניצן הנציגה בארגון הבריאות העולמי סיםרה שהרוסי בנוי…  benirabin urizaki הבעיה אצלך שאתה בטח עובד בשחור כמו המגזר דולרים או זהובים radio103fm חליתי בקורונה ונפלתי למשכב זה לא צחוק ואין לזלזל תודה לאל הבראתי  חכ ינון אזולאי שס אין ספק שערך החיים הוא החשוב… radio103fm הטיפול במגפה הינו פוליטי ולא רפואי  חכ YSegalovitz קבלת החלטות מופרעת לחלוטין של ממשלה שפשוט לא מתפקדת ולא מסתמכת על… radio103fm עוד EldadYaniv ופעיל חברתי עד שהאמון בין האזרחים לבין הממשלה לא יחזור לא יעזור פה שום סגר BenCaspit eldadarieh radio103fm מנכל ביהח הדסה פרופ זאב רוטשטיין בתום הסגר מצבם של החרדים והערבים יהיה יותר גרוע כי סגרנו אותם באותו מקום אחד על השני… urizaki benirabin כמה מגיע לשניכם על הניתוח הזה ואני צריך חשבונית  משאל radio103fm  לנוכח המצב הקורונה המשתוללת והזעם הקוסמי השמימי על עם ישראל ובכלל ביום הכיפורים אני בבלפור הם לא יכולים לדמיין את חייהם בלי הזעם הקדוש והשכנוע הפנימי העמוק שרק אם נשיג עוד שושקה אחת הם מיד יארזו א…  יפלו שוב על אזניים ערלות אגב רעיון נוסף להמשיך להפגין בבלפור במספר קבוע אלף מפגינים נרשמים באתר נערכת הגרלה…  יום שני צפונה להקיף את חיפה מקיף כינרת שניים ברכב בתקנות הסגר בלי להרגיז אף אחד בלי לתת לחרדים סיבה בלי לתת…  שכמעט מצטרפות למחאה כי היא מוצדקת אבל נרתעות מהסגנון מהארוגנטיות מהאנחנו ואפסנו עוד מההתעלמות הסטואית ממה שקור…  ואין בלתה אנחנו היינו צריכים להכריז על הפסקה בסגר לא השלטון לא קבינט הקורונה ולא נעליים משגב מאיים שמעתה והלאה…  חברי אורי משגב טועה והתגלמות הטעות שלו היא במשפט מתוך המאמר מתפתח פה דיון בשאלה אם צריך להמשיך בהפגנות נגד השלטו…  YinonMagal אז איך אתה מסביר לאן אתה נפלת מהיכרות באדיבות שבס עם אביך ואמך ברכות לבני גנץ זוכרים את הנומרטור ההוא מהסרטון הראשון של הערבים המתים בצוק איתן אז מזל טוב נולד לו נומרטור חדש…  BenCaspit משאל radio103fm  רהמ נתניהו האשים את חכ שאשאביטון בהתדרדרות היא האשימה אותו באי לקיחת אחריות אני בעד galhaimovich גל לא מתאים לך לא להבין מה קשור לביבי לא קשור לביבי זו צריכה להיות החלטה שלנו האזינו לריב שלי עם ישי הדס על ההפגנות דו שיח של חרשים  ובעצם הבנתי לחבורה הזו הרבה יותר חשוב להמשיך להפגין נגד נתניהו מאשר להחליף אותו הם צודקים הם אמיצים הם יפי בלו…  kzipi100 בדיוק רוצים עוד הכי פשוט והכי נכון זה צריך לבוא מהם מתוך סולידריות כדי להגדיל את המחאה ולא להקטין אותה מה לא מובן פה  BarakRavid 1  ברייקינג משלחת ישראלית בכירה יצאה הבוקר לבחריין לשיחות על ניסוח הסכם השלום בין המדינות כך אמרו לי פקידים ישראלים בכיר… אחרון ודי חברה נוספת בצוות הווי אורלי לב מביעה את דעתה המנומקת כולל מובאות וציטוטים אגב ממשרד הבטפ נמסר שאיציק…  ועדיין באותו אירוע זה מה שהיה לאורלי לב ראש הקנוניה להגיד לקצין המשטרה שלתפיסתה מטייח את התקיפה שעבר עי בנה של…  אותו אירוע ההפגנה מול ביתה של ליאת בןארי ברכות מיוחדות לחג ובקשת מחילה ממנה וממנדלבליט תיהנו  radio103fm הצטרפו לבן כספית וינון מגל BenCaspit YinonMagal  גנץ באמריקה  קטן עלינו משווה ומעלה ליד הבית של עוד ליאת בןארי במושב חרות ברכה מיוחדת לחג   aviadglickman בינתיים הוא מאיים בעיקר על האינטילגנציה הקוסמית Orlylevy כנאמר בחיאת זוםזום  אהוד ברק מנסה לעשות סדר בבלגאן של קבוצות הווטסאפ של המחאה בינתיים ללא הצלחה אבל נסיון מרשים  OferShelah ציוץ מדוייק benirabin השלכת אוזניות לטווח רחוק נמצאת בלימודי הליבה אתה תחטיא ואני לא אעזוב את החרדים עד שהם יבינו שהם עלול…  radio103fm חמש עם בן כספית ואריה אלדד צפו BenCaspit eldadarieh  משאל radio103fm  רהמ נתניהו האשים את חכ שאשאביטון בהתדרדרות היא האשימה אותו באי לקיחת אחריות אני בעד nurro1 idaholloway תרמתי את תרומתי לחברה בהבאתו של החבר זרקא לתודעה הציבורית לא אני סידרתי לו את הגוב אצל שר הבטפ BenCaspit משאל radio103fm  נניח שביבי פורש ראש הממשלה שיכול להוציא אותנו מהכאוס להתגבר על הקורונה ולשקם את הכלכלה הוא radio103fm בן כספית BenCaspit ״אתה תקפת אתמול את ח״כ יפעת שאשא ביטון״ ח״כ שלמה קרעי shlomokarhi ״אתה מתבלבל זה מיקי זוהר״ בן כספ… radio103fm הצטרפו לבן כספית וינון מגל BenCaspit YinonMagal  YinonMagal ב9 ב radio103fm  קפה ומאפה בן כספית פרופ מסעד ברהום מנהל ביח נהריה חכ דר שלמה קרעי קורע את שאשא ביטון חכ משה א… YuvalYoaz AyeletShaked AmirOhana לא האזנת לה אצלנו בחמש חבל BenCaspit תקשיבו ללימור לבנת אין ליכוד  Riklin10 אההמ אין כזה דבר אלי ורטר מי שכתב עבורך את הציוץ התכוון ליוסי ורטר המכונה בחוגים מסויימים המנוח תקשיבו ללימור לבנת אין ליכוד  radio103fm לימור לבנת שרת החינוך לשעבר אני לא זוכרת תקופה עם רוח כה רעה שנשבה על פני הארץ כאוס טוטאלי אין רגע אחד ואין דבר אחד… radio103fm שרת החינוך לשעבר לימור לבנת אין כבר ליכוד  יש מפלגה שכולה בנימין נתניהו LivnatLimor BenCaspit eldadarieh radio103fm שרת החינוך לשעבר LivnatLimor תוקפת את התנהלות הליכוד קיצור הבידוד ל5 ימים לפמליית רוהמ והבת שלי יושבת 14 יום טופז לו… radio103fm שרת החינוך לשעבר LivnatLimor על התנהלות הממשלה במשבר הקורונה בגל הראשון ראינו חלק מהמנהיגים קוראים לציבור שישאירו את המב… eranetzion dlashbel radio103fm דניאל וערן מסיבה פשוטה הטוויטר נותן רק 4 אופציות במשאל YinonMagal radio103fm זה שערכת לה חקירת שתי וערב צולבת והתנצלת לא אומר שאתה יודע מה היא הצביעה כך או אחרת הי…  saragusti יקרה זה לא סקר זה גימיק ואנחנו מציינים את זה השכם והערב בואו בהמוניכםן  משאל radio103fm  נניח שביבי פורש ראש הממשלה שיכול להוציא אותנו מהכאוס להתגבר על הקורונה ולשקם את הכלכלה הוא מציע לשמוע את לימור לבנת על מה שנותר מהליכוד תיכף ברדיו radio103fm  akivanovick chaimlevinson עם מסיכה ומשקפי שמש הם מתגנבים להפגנה ומנסים לצלם כשעולים עליהם מסתלקים במהירות כאחרוני הנוכלים צריך לקוות שלא חזרו לבלפו…  ראש הממשלה מסתובב בטקסים בבית הלבן בלי מסיכה כולל ארוחה רבת משתתפים אחד מיועציו ראובן עזר יוצא לריצת בוקר בניגו…  YinonMagal ב9 ב radio103fm  בקפסולה בן כספית מפגינה בבלפור שמלה ריקלין רופא ראש עירית אילת איש משרד החוץ חקלאי שירים מסביב… radio103fm הצטרפו לבן כספית וינון מגל BenCaspit YinonMagal  klaiman14 כל התקשורת עוסקת בהפגנות בלפור אף אחד  חוץ מסטטוסים מצייצים לא עוסקים במסיבת הטראנס של חסידי ברסלב הלילה מיותר לציין בל… מי שלא הספיק אתמול טורשישי ראש השנה מלא כולל דילמת ההפגנות  NitzanWaisberg באמצע ההפגנה כל הכבישים חסומים פתאום חונה בכיכר רכב ביביסטי מבט לצד מראה לנו חבורה הזוייה של מכחישי קורונה מאחורי ה… talschneider noalandau כנ״ל גם אני הייתי בבדיקה במשרד רה״מ למרות שכבר הייתי חולת קורונה ואין סיכוי שאני חולה אחרי הטיסה דחקו בי ו… noalandau גם אני הייתי באותה בדיקה אליה זומן טופז לוק הלילה עם שאר המשלחת לוושינגטון זה היה במשרד רה״מ בפורמט ״היבדק וסע״ יענו עם ר… עדכון אחרון משרד הבריאות רואה בחומרה הפרת בידוד ראו המצב עכשיו נראה את אדלשטיין אוכף על עופר גולן…  igalmalka ואם טרם השתכנעת קח  igalmalka תנוח דעתך יגאל הבחור מוכר לכולם היה פעיל במחנה עמיר פרץ ערק לצד שלכם זכותו עדכון עופר גולן לא חייב בידוד לא היה בוושינגטון טופז לוק דווקא כן גורמים המקורבים לגולן טוענים שלוק היה בדרך ל…  Yoglas74 מנגנון ההשחרה בשרותו של הנוכל הנאשם עופרגולן וטופז לוק נמלטים בחשיכה אחרי שצילמו קבוצה של אנשים מכחישי קורונה בשולי הפגנה … הגיע תורו של בוגי נכנס לבידוד יזום אחרי שפגש ב16 בספטמבר את חכ משה ארבל שנמצא הערב חיוני לקורונה בוגי אני חש…  אוויל שיענה ויזמין אותו ובכן בינגו קבלו את עוץ לי גוץ לי שמו של מי שקבע שהקורונה זו חרטא והזמין אותו לבוא…  אז איך נולד פייק ואיך השופרות פועלים השארו עימי ביביסט בשם יובל מור מוסלי העלה עכשיו פוסט קורע לב על מפיצי הקורו…  BarakRavid Scoop A decisive meeting between US UAE and Sudan in Abu Dhabi today could lead to IsraeliSudanese normalization My s… BarakRavid חשיפה הפגישה המשולשת באבודאבי הערב שתכריע אם סודאן תצטרף להסכמי הנורמליזציה עם ישראל כל הפרטים בWallaNews   eladman AmirKochavi האם הכלבה רשומה אצל הוטרינר העירוני ואם אפשר מספר חיסון ותאריך שחוסנה בבקשה בשם עמותת כ…  eladman AmirKochavi סימנת איקסים על הדשא לצורך ריחוק חברתי כמובן eladman דיווחתי בעילום של לAmirKochavi שאתה מכנה את עירנו כפר אתה מגדל תרנגולות</t>
+  </si>
+  <si>
+    <t>הדמוקרטיה היא יותר מסך כל החוקים שמסדירים אותה היא תלויה גם ביכולת שלנו לזהות מה לגיטימי ומה לא מה חוקי ומה חוקי…  אייר Amos123Biderman Haaretz  קסנייה יקרה שולחת לך חיבוק גדול ותנחומים  4 הדבר היחיד שהיועמש רשאי להציע כעת לנתניהו הוא עסקת טיעון – הפחתה בעונש בתמורה להודאה מלאה וחשיפת כל האנשים שעבד…  3 אבל בהצעת החנינה לנתניהו טמונה סכנה מרחיקת לכת יותר היא תאותת לציבור ולכל פוליטיקאי מושחת שדרך המלך להיחלצות מז…  2 כמו שאני מכירה את נתניהו הוא הרי יחזור שנתיים לאחר מכן עם הוכחה ניצחת לקונספירציה הפרנואידית שהוא רקח והפיץ ה…  1 חנינה לנתניהו בואו נסלח לנתניהו וניתן לו ללכת הביתה אתם רציניים מימין ומשמאל להעלות את היוזמה הזו למה לתת חני…  einatovadia אֵל נוֹרָא עֲלִילָה הַמְצִיא לָנוּ מְחִילָה   בִּשְׁעַת הַנְּעִילָה  מלחמת יום הכיפורים צריכה ללמד אותנו את האמת המרה  מי שאינו מוצא את האומץ לפשרה ולפיוס בעיתות רגיעה ימצא את עצמו נ…  מה הנהגה ישראלית חייבת ללמוד מטעויות העבר כדי לבנות עתיד שונה שלא מנבא עוד מלחמות והרג שהכיבוש הוא הנושא המרכזי לח…  mossiraz היום לפני 25 שנה נחתם הסכם אוסלו ב רבין הביא אותו לאישור הכנסתקונספט שביבי טרם שמע עליו ההסכם אושר למרות שחברי הכנסת זיסמ… הרבה נכתב על הכשל המודיעיני וליקוי המאורות של הדרג המדיני במלחמת כיפור ועל מחירה של הקונספציה זה מדהים איך הכל עדי…  רהמ מוכר לנו קונספצייה חדשה של שלום תמורת שלום חבל שהוא לא למד את הלקחים העיקריים ממלחמת כיפור ועם כל החשיבות…  47 שנים למלחמה שהייתה האיומה שבמלחמות  כדרכן של מלחמות יש קשות ממנה אבל אין קשות כמוה 3000 הרוגים כ 5000 פצועי…  ZulatEquality שנדע לבקש סליחה שנדע לסלוח גמר חתימה טובה לכולם וכולן  Partners4Israel To protect the media Israel needs to pass a law that criminalizes assault on a journalist including an act of police… ShemuelMeir תודה שמואל אין ספק שאחרי 47 שנים אנחנו צריכים לבחון מהם הלקחים מאז ומה מחבר בין המלחמה ההיא למציאות חיינו היום ב47 השנים שעברו מאז מלחמת יום כיפור החלפנו את האויב המצרי באויב הפלסטיני את גולדה  מאיר בנתניהו את הקונספציה של…  איירה תמר בלומנפלד Haaretz  NitzanWaisberg שוטר רשאי לתת קנס לאדם שלא שמר מרחק רק לאחר שהזהיר את האדם והוא סירב  על פי סעיף 28 א א לחוק הקורונה הגדול שוטר רש… lioramihai דיווח ראשוני YeshDin מתנחלים פגעו ברכוש פלסטיני ביישוב קוסרה שרפו טרקטור פגעו בציוד משק והשליכו אבנים על מכוניות   תחק… ושוב עם המשפחה בבלפור  gontarzn כמה מילים על מה שקורה כאן מאת zehavagalon  הצלחנו להגיע לבלפור תיכף פרופ׳ ירון זליכה נואם  הכניסה לירושלים היתה סבירה אבל אני לא מבינה למה המשטרה בירושלים חוסמת את העלייה לרחוב רמב״ן וגורמת לסיבוב מיותר של…  zviashkenazi גם אני שואלת המעבר במחסום ליד מחנה עופר ב 443 ממש סביר שאלו לאו אתם אמרנו להפגנה אמרו סעו וואהו הגשר בכניסה למודיעין מכביש 443 מפוצץ באנשים עם מסיכות ודגלים ששומרים על ריחוק חברתי ממש מרגש  את כל המרץ והיצירתיות שלו רהמ השקיע בשחיתות ועכשיו בניסיון לחסום כל ביקורת נגדו באמצעות השתקת ההפגנות בתירוץ של…  Former Meretz leader Zehava Galon said Netanyahu had made his appointments into a Turkish bazaar  Netanyahu i…  Ahmadtibi לזכרם  יושבים המצקצקים האחראים מטעם עצמם באולפנים ומסבירים למפגינים שהם צריכים לגלות אחריות וסולידריות ומתעלמים מהאחריות…  hadarse פרופ׳ איתן פרידמן ״שום מדינה בעולם במצבנו לא עושה סגר כללי״  leeyaron מדברים על מפוטרים ומובטלים  האמת היא שזה שקר האמת שצריך לדבר על מפוטרות ומובטלות האמת היא 463 אלף מובטלות  70 אלף נשים י… אני אהיה במוצש בבלפור להפגין נגד רמ מושחת שמפקיר את הבריאות של כולנו 7000 נדבקים חדשים ביום ביח שמתקרבים לסף ס…  chaimlevinson אתם חושבים שגם עליהם יגיד מיקי זוהר שהם מפיצי מחלות כפי שאמר על המפגינים בבלפור ונתניהו יוסיף שמדובר במדגרת קורונה… tamarzandberg בלתי נתפס היה לצפות בלילה באובססייה הליכודית בכנסת לא חולים לא מערכת הבריאות ולא מובטלים עניינו אותם רק חיסול המחאה… baruchikra תחזית השעות עד כניסת השבת לאחר שנתניהו שוב כושל הפעם בהסדרת החקיקה עד השבת ולאחר שהיועץ יודיע שאי אפשר להעביר את הגבלת ה… LifeRivlin היכולת הנדירה של נתניהו לשקר בלי למצמץ נתפסה כיתרון עורמה של מדינאי ותחכום של פוליטיקאי משוכלל בסוף סוף מדובר בפתולוג… כבוד לכן  NewEraDic הֲקַלּוֹת  ההחרגות במתווה החמרת הסגר כפי שפורטו ימשיכו לפעול תעשיות חיוניות לרבות תעשיית השקרים תעשיית ההסתה וההתקרבנות ו… למה התיקון לחוק הקורונה שמאפשר לממשלה למנוע את ההפגנות בבלפור הוא תיקון מסוכן שפוגע באופיה הדמוקרטי של ישראל מאמר…  איור ערן וולקובסקי Haaretz  ראש הממשלה עשה את מה שהוא יודע לעשות הכי טוב להטיל אשמה ניהול המדינה גדול עליו אבל ביחסי ציבור והטלת רפש יש לו קיל…  orlybarlev דברי יזהר שי המתועדים ישמשו לוועדת החקירה שתחקור את הפשעים והמחדלים של נתניהו כולל בהליך קבלת ההחלטות הלא חוקי אמש מי שיצב… YaelCohenParan החוק להגבלת ההפגנות עבר בקריאה ראשונה זאת בושה לכנסת ישראל ועדת החוקה מתכנסת להכנתו לקריאה 23 אם יש אופוזיציה הם צ… NitzanHorowitz לידיעת הציבור  הממשלה יכולה לפי החוק הקיים להגביל מאוד את ההפגנות כמעט עד ביטול מלא החוק שעבר רק לפני חודש מאפשר זאת… זה סיפור כל כך מומצא שמלצרית בבית קפה סיפרה אותו לריקלין והוא אמר לה די הפעם הגזמת  צריך להכריז על מצב חירום במדינה הודיע רהמ בשיחה טלפונית עם שרים יועצים משפטיים ונציגי משרד הבריאות לקראת כינוס…  החנינה לנתניהו גם תשמש תקדים למושחת הבא הוא יבין שאפשר להימלט מהחוק בישראל יש רק לקחת מדינה כבת ערובה הדבר היחיד…  החנינה לנתניהו לא תחסוך מהציבור דבר ולא תחזיר את ישראל למסלול שפוי יותר היא אולי תחסוך מהציבור את נתניהו לזמן קצר…  זה נכון שבמשך שנים הוא מצפצף על אנשי המקצוע לגבי הצדקתי במאה אחוז אולי כדאי שיבדוק את זה עם 200000 ישראלים שנד…  הקומיקאי גורג קרלין אמר על אלוהים שתמיד הוא זקוק לכסף הוא כל יודע כל יכול אבל איכשהו קשה לו להסתדר עם כסף ראש מ…  בסגר הראשון כתבתי שנציגי החרדים בממשלה כשלו כשלא תיווכו להם את גודל הסכנה הם התעקשו על הקלות לציבור החרדי כאילו ה…  דבר ראשון לא מבינה איך עוד לא הוגשה תלונה במשטרה בתור התחלה דבר שני מה זה ׳מדיניות׳ שלא מכניסים ערבים מישהו צרי…  zazimorgil zehavagalon  הסגר הראשון נועד לקנות לישראל זמן להיערכות ונתניהו ניצל אותו בעיקר בהטלת אשמה חכ יפעת שאשא־ביטון המפגינים בבלפור…  שעות רבות ישבו שרי קבינט הקורונה ודנו בהגבלות ובנחיצותן וכל העת ריחפה בחלל שאלת ההפגנות ככל שהתארך הדיון התברר לנו…  ryellin אבל למה בחו״ל  איזו בריחה מאחריות  jewishsf Trump and Bibi are no great statesmen but rather marketing wizards who are up to their necks in trouble writes former MK… hamakom סיור בבירה החרדית מגלה שיירות של ילדות בילקוטים מוסדות תלמוד תורה שוקקים ומחנכים שמתחננים שלא נחשוף את הסוד בזמן שהקבינט דן… Ahmadtibi נתניהו לא נאבק בקורונה תמונת הנצחון שהוא רוצה היא כיכר בלפור ריקה לאורך זמן באמצעות חקיקה  VeredLee1 מברוכ 🥂לצלם הארץ תומר אפלבאוםםםםםםם שזכה בפרס בתחרות סיינה הבינלאומית לצילום תומר א זכה בקטיגוריה חדשה החיים תחת נגיף… היום קיבלנו עוד הוכחה שהדבר היחיד שמכתיב את המדיניות של הממשלה סביב הקורונה היא מה משרת את השרידות הפוליטית של נתני…  רק לאחרונה חגגו את מינויו של פרופ גמזו לפרויקטור הקורונה מינוי שנעשה באיחור מבהיל שהוא פרק הזמן המדויק שעבר מהרגע…  einatovadia מזכירה לכל מי ששכח זה הופיע בגרדיאן וגם בכתבה של practical1000 peretzsami  רק מסבה את תשומת לבכם שזה הופיע אצלי בטווי… מאמר מצוין שמגיב לדבריו של alufbenn עורך Haaretz שכינה את הביקורת משמאל על ההסכם עם האמירויות מכמירת לב בעליבותה…  einatovadia אולי תאשימו אותנו גם ברצח ארלוזורוב וזהו פתחתקווהאהובתי את לא אשמה יפה שלי  NitzanHorowitz עפר שלח לצערי נותן יד להשתקת כל מחאה חודשים קדימה העמדה הזו היא רוח גבית למי שרוצה ציבור כנוע כלוא בביתו שלא רשאי למ… בואו נעמיד דברים על דיוקם לא 20000 מפגינים בבלפור הובילו למצבה הנוכחי של ישראל עשה את זה נתניהו שמוכן למכור את…  barak1cohen אספר לכם בדיוק מה יקרה אם ההפגנות ייעצרו כל הקולות בחצר נתניהו שעתה מדברים על סכנה קיומית  ידפקו את החיוך הרעיל ויסננו… בואו תרשמו יהיה מעניין  כל מה שנתניהו עושה בשנים האחרונות זה לנסות לקבוע בעצמו את התוצאה של המשפט שלו אז טבעי שהוא יחשוב שמותר לו להחליט מ…  INegbi zehavagalon the7i אחרי ניסיון הדריסה של המפגינים נראה שהגענו לרגע שבו יש להעמיד במבחן משפטי את חומרי ההסתה שמנפקת כנופיית בלפ… עמדה מדוייקת ונכונה NitzanHorowitz לעצור את ההפגנות זו העמדה המועדפת על בלפור ומי שקורא להשתקת המחאה משחק ישירות…  ZulatEquality המשטרה מחליטה בעצמה אם מתאים לה להציג את אלימות השוטרים בבית המשפט והשיא  בהפגנות גם שם המשטרה מסרבת לשאת מצלמות גוף… StavShaffir הפוליטיקאים מאשימים את הציבור בתחלואה ומה הם עושים בינתיים מחר הם מתכננים להעביר 20 מיליון שח להתנחלויות 296 מיליון למוס… עוד חשיפה סופר חשובה של the7i  מהסוג שהגיע הזמן שנתחיל לקבל גם מכלי התקשורת עצמם ולא רק מארגון שתפקידו הוא לבקר או…  צריך להיות עיוורים כדי לפספס את הסימנים המראים איך הממשלה בחסות משבר הקורונה מטילה עלינו סגר מייצרת מניפולציות ומק…  שרשור חשוב  למה הציבור איבד את האמון בנבחריו  ReutMor בום האיש מאחורי עמותת אלעד  רומן אברמוביץ אלעד יודעים שהם גנבים שגוזלים את המעט מאלה שיש להם הכי פחות לכן הם מסתירים את ז… בדיוק ככה YVerter  אתם חושבים שהאינטרס הלאומי מדריך את ההחלטות של נתניהו ושל האנשים סביבו ממש לא והציבור מבין את זה מצוין ולכן לא נות…  אבל מה לגבי ליצמן למה הוא טרח לסייע לחשודה בפדופילייה והתעללות להימלט מהסגרה  תזכורת במשך שנים ליצמן ניצל את תפק…  NewEraDic סַף סְפִיקָה  מונח המגדיר את מסוגלותו של רה״מ לשקר לציבור ברמה שהוא רגיל ויודע מבלי שתיגרם פגיעה ביכולתו להמשיך ולספק כישו… btselem בצלם אבל על מותו של מירון בנבנישתי  פעיל זכויות אדם עיתונאי ואינטלקטואל  ושולח תנחומים למשפחתו ולחבריו בנבנשתי שימש בעבר כ… NewEraDic טוֹפּ לוּק  יישומון מחולל קיטוב הפועל באמצעות ספריית מניפולציות הכוללת מאות אפקטים תומך בכל הפלטפורמות ובפרוטוקול שיט היטס… itamars עם כל הכבוד לחובת הבידוד של טופז לוק והתחקירים הנרגשים בנושא אני די משוכנע שאתמול ניסה מישהו לדרוס מפגינים בחיקוי כמעט ישיר ש… mossiraz בביתו של הנהג שניסה לדרוס התגלו גליונות של ישראל היום בהצלחה רבה sivankli  NeumanRoee TopazLuk שטויות יש רק משוואה אחת כל זמן שנתניהו לא מפטר את TopazLuk אין לאף אחד בממשלה לגיטימציה להגיד למפגינים מה לעשות ShovrimShtika הרשימה המדהימה הזו היא חלקית בלבד כמובן מי שהרכיב את הרשימה הזו בחר להשמיט אלימות כלפי חיילים ושוטרים והיו כאלה בשפע… ZulatEquality ממש כפי שדון דרייפרכוכב הסדרה ״מד מן״ משקר כדי למכור סיגריות כך נתניהו מפזר מסך עשן של הונאה כדי למכור לנו את המשך השל… shacharbm הבעיה העיקרית עם טופז הסמרטוט של הנוכל ועם המתחזה לעיתונאי בשם גולן אינה הפרת הבידוד והשקרים הבעיה העיקרית זה ששלטון שולח… amirtibon אני הייתי בבידוד 14 יום אחרי טיסה מארהב למרות שהסיכוי שנחשפתי לחולה היה אפסי וקיבלתי תוצאה שלילית בבדיקה לא באו לבדוק אותי… NitzanHorowitz המחאה חשובה ביותר  דווקא בזמן חירום אל מול כשל בריאותי וכלכלי בלתי נתפס תוך מתקפה על הדמוקרטיה אנחנו חייבים להשמיע… ניסיון הדריסה הערב בבלפור הוא תוצאה של הסתה מתמשכת של רהמ וחסרי החוליות שעומדים לרשותו האנשים האלו פותחים נצרה וס…  arianamelamed קח נתניהו קח קרדיט נדב גלאון  INegbi עוד התקפה אלימה של אשה על ידי בן זוגה התרחשה היום במצפה רמון מצבה של האשה קשה מאוד מתברר שגם לפני שנה תקף הגבר את האשה והוגשה… נדב התבלבלת הכל זה בגלל ביבי  כל ההחלטות של רה׳מ והפלנגות שלו הם החלטות פוליטיות ואין קשר בינן לבין בריאות הציבור כשהם יתעלו מעל השיקולים הפוליט…  אסור לנו להשתתף במשחק שרהמ והפלנגות שלו גוררים אותנו אליו שבו אנחנו מתווכחים ומתפלפלים בינינו איזו הפגנה הייתה מיו…  ההחלטות של רהמ הם של פוליטיקאי בזמן משבר פוליטי שמבחינתו מערכות פגומות אינן בעיה שיש לפתור אלא הזדמנות שאפשר לנצל…  נכון כל מילה  תרשמו כי יהיה ממש מעניין  the7i השופט מנחם קליין פסק כי חושף השחיתות רפי רותם נעצר ונאזק לשווא והעניק לו פיצויים בסך למעלה מ200 אלף שקל  פסק הדין נפתח בציטוט… הספירה לאחור מתחילה עכשיו  via YouTube   אם גם אתם רוצים לכפות על נתניהו להתייצב למשפט ולצא…  לעלות הערב לבלפור זה לקחת אחריות זה לא גול עצמי ולא הפרה של כללי הסגר זה לקחת אחריות במקום שבו ממשלה ומערכת פוליט…  ZulatEquality  כדי להבין איך האישה המדהימה הזו שינתה את חייהן של נשים רבות כל כך מומלץ לצפות בסרט הזה לזכרה   זהבה גלאון מזמינה אותך לתמוך בפסטיבל סולידריות  via FacebookWatch  ZulatEquality NewEraDic אַחְרָיוּת  היכולת לשאת בתוצאות של מעשים ופעולות היות ובתום עשור שנות שלטון פג תוקף האחריות של רהמ כלפי המדינה ולנוכח הקל…  amirtibon בדיוק בגלל ההתנהלות בשעות האחרונות  בלאגן פאניקה חוסר החלטיות זלזול מוחלט באזרחים  אנשים ימשיכו להפגין נגד נתניהו והממש… ZulatEquality שנת שלום שנת שוויון שירבו זכויתינו כרימון שנה טובה לכולן ולכולם   EladCarmel For the piece in Hebrew  66 ZulatEquality במקרה שלפנינו השלום ההיסטורי עם מדינות שמעולם לא נלחמו נגדנו היה צריך לעורר היסטריה בשורות הליכוד בואכה מועצת ישע… הממשלה הזו היא ביזיון  החמוצים Amos123Biderman Haaretz  הפרשן המדיני AkivaEldar בדיון בנייר העמדה של זולת FAKEPEACE  הפרשן המדיני AkivaEldar בדיון בנייר העמדה של זולת FAKEPEACE  ZulatEquality חכ Ahmadtibi  שלום צריך לעשות קודם כל עם האזרחים הערבים באמצעות חוק יסוד השוויון FAKEPEACE ZulatEquality נשיאת זולת zehavagalon צריך לשים לב שרוהמ נתניהו לא דרש מבחריין להכיר בישראל כמדינת העם היהודי כמו שהוא דורש מהפלסטי… ZulatEquality חכ Ahmadtibi  אמנם הקהילה הבינלאומית רובה תומכת במאבק הפלסטיני אבל הבית הלבן והממשל האמריקאי עוי  שהמדיניות שלו כמע… ZulatEquality עקיבא אדלר בשידור החי בפייסבוק   מה שקרה פה משחק לידי החמאס  הם אומרים שכל המושחתים האלה  אבו מאזן והאמירויות  לא ש… ZulatEquality חכ Ahmadtibi בשידור החי בפייסבוק טראמפ ממשיך בקו העוין לזכויות של העם הפלסטיני יש כאן מפגש אינטרסים שהנפגעים שלו ה… ZulatEquality עקיבא אלדר בשידור החי שלנו בפייסבוק  אפילו הצעתי לקרוא להסכם מזימת המאה אני למדתי בשיעורי ההיסטוריה ששלום הוא תוצאה ש… ZulatEquality ‼תזכורת אחרונה ‼  ממש עוד רגע זה מתחיל 2100 שידור חי בפייסבוק  חכ אחמד טיבי עקיבא אלדר ונשיאת זולת זהבה גלאון ע… NitzanHorowitz ממשלה שכונה  ישיבת ועדת החוקה לאישור תקנות הסגר נקבעה למחר בבוקר  הרגע האחרון ממש  למה מה הבעיה למי אכפת מ9 מיליו… הקארמה טסה לארהב בזמן שכל המדינה בסגר ולא תאמינו מה קרה אחר כך  הייתי ממתין לטעות של הנגיף שמעון זה וירוס מה בדיוק התוכנית שלך לחכות לו ליד הוולדורף אסטוריה  תגידו אם הם הפרו הנחיות למה שלא יהיו בבידוד 14 יום הרי גם ככה יש סגר   אראל סגל  זהבה גלאון זו הונאה  זה פייק פיס  btselem 792020 חיילים מאבטחים מתנחל שנכנס לחירבת אטובא בתואנה לחיפוש צאן גנוב בליל ה7920 הגיעו כעשרה מתנחלים מלווים בחיילים לק… ZulatEquality תזכורתהערב ב2100  חכ Ahmadtibi עקיבא אלדר ו zehavagalon עונים על כל השאלות שלכם מה בדיוק כתוב בהסכם והאם הפל… ZulatEquality ואולם האמת היא אחרת אין מקום להשוות שדרוג של נורמליזציה עם שתי מדינות מרוחקות לסיום מצב הלוחמה עם המדינה החזקה ביותר ש… האמנם המשך מורשת רבין ופרס פאנל דיגיטלי בשידור חי היום יום רביעי בשעה 2100 האם זה הסכם שלום או FAKE PEACE רוצ…  Partners4Israel Netanyahu is basking in the light of the deal with the UAE But while the agreement scuttled immediate plans for de j… הרגה את רבין  talschneider מחוץ לבית הלבן  קבוצת המפגינים הישראלים בסיוע GONENB1  A unique idea by SusieBecher1 for a new strategy that can change the Palestinians image from naysayers to yeasaye…  מזכירה לך שרבין ופרס שאפו לדיאלוג עם הפלסטינים כדי להגיע לפתרון שתי המדינות רבין נרצח בשל חתימתו על הסכם אוסלו ובש…  באוקטובר 1994 יוסי שריד שהיה השר לאיכות הסביבה הגיע לבחריין כדי להשתתף בשיחות אזוריות בנושאים סביבתיים בבירה מנאמה…  ZulatEquality אז מה חשבנו על הטקס המרגש  שלום אמיתי זה  סוף הכיבוש  קץ למלחמות  שגשוג וצמיחה לישראלים ולפלסטינים  FAKE PEACE זה… אני חושב שנראה את הפלסטינים בשלב מסוים אומר הנשיא טרמאפ בטקס החתימה החשוב על הסכם הנורמליזציה  כל עוד השלב…  UnxeptableD שוחד מרמה הפרת אמונים גם בוושינגטון מזכירים למושחת שהוא מואשם בפלילים  ZulatEquality האמנם הסכם שלום או אולי הונאת השנה נשיאת זולת zehavagalon מפרקת את הFAKE PEACE של נתניהו במאמר מיוחד בHaaretz ספויל… כאילו מצחיק עד שנזכרים שזה נגרם בדיוק בגלל אותה רשלנות פושעת של נתניהו שהביאה עלינו את המשבר הרפואי והכלכלי הבלתי…  OrRavid ערב החתימה על ההסכם ההיסטורי עם האמירויות ובחריין פעיליי שלום אנונימיים הגיעו לפנות בוקר לנתניה והחליפו את דגליי איחוד האמירוי… EmilieMoatti אמילי יקרה תנחומים וחיבוק גדול מתרגשת בשבילך וברכות על פרסום הספר וממליצה לכולם לקרוא את השרשור כדי להתרשם מרוחב היריעה והמקצועיות של חברתי…  IshayShnerb אני לא חמוצה זה פשוט פייק פיס בקישור הראיון עם זהבה גלאון מהבוקר החתימה היום של רהמ על הסכמי הנורמליזציה בוושינגטון היא חשובה לישראל מבחינה דיפלומטית וכלכלית אך היא אינה הסכם של…  ZulatEquality פאנל דיגיטלי בשידור חי יום רביעי הקרוב בשעה 2100 חושפים את הונאת הFAKE PEACE של נתניהו רוצים שנענה על השאלות שלכם… einatovadia אההההה אני רק רוצה להזכיר לכווולכם שזה קודם כל לפני הכל הופיע במוחו הקודח של רוני הגאון ⁦NewEraDic⁩ וקודם כל לפני הכ… GLZRadio יור מרצ לשעבר ונשיאת מכון זולת לשוויון וזכויותאדם zehavagalon על ההסכמים עם בחריין ואיחוד האמירויות מנרמלים סכסוך וכיב… ניתן להירשם   amirtibon גורמים במערכת הבריאות מתווה התפילות בחגים מסוכן ובלתי אפשרי לאכוף אותו בקיצור הולכים לרסק את הכלכלה והמשטרה תרדוף עם נייד… Partners4Israel Latest in our Kolot Voices of Hope series ZulatEquality was launched by zehavagalon as an activist think tank to… UnxeptableD On Tuesday September 15th PM Netanyahu will sign the diplomatic agreement between Israel and UAE We American Israelis… כל מילה  מרגש שאתם איתנו במאבק rachelbatish offirgolan   ככה נתניהו מנסה להסיח את דעתו של ציבור מוכה תחלואה ושבור כלכלית בעוד אירוע השקה מפונפן על מדשאות הבית הלבן של השקה…  רהמ נתניהו טס לוושינגטון לחתום על מה שהוא מוכר לנו כהסכם שלום מבלי לעדכן את הממשלה והכנסת רוצים לדעת מה יש בהס…  ShuliMR הסתיים ערב הזכרון לקורבנות הזנות של קואליציית הארגונים הדתיים למאבק בזנות והעיתון MakorRishon  יותר מ  2000 צפיות  מע… einatovadia קרדיט לרוני שניידר NewEraDic המוכשר einatovadia תודו שזה כבוד שגם מישהו הדפיס את כשלט וגם זה מופיע בגרדיאן  לא נגזר עלינו שיעור ההדבקה הכי גבוה בעולם לא נגזרו עלינו חצי מיליון מובטלים אלף מתים ובתי חולים קורסים זה קורה כ…  בגדול זה שעברת מלחפור למלצריות כל היום ללהמציא שיחות מדומיינות איתן זאת התפתחות חיובית  שימו לב שלא אמרו איזה בית אתם יודעים איזה בית במקרה נמצא פחות מ  500 מטר מכיכר פריז בית ראש הממשלה  StavShaffir קלמן שכח להזכיר שויקיפדיה הפכה לזירת קרב מאז ששקד ובנט הקימו במימון מועצת ישע קורס להכשרת עורכי ויקי לשכתוב ההיסטוריה כד… omrifeinstein ליצמן מודיע על התפטרותו  freyisrael1 ליצמן המציא קונספט חדש של התפטרות מתפקיד שר אבל הישארות צמוד לשמנת שמע אדון נכבד אם אין לך אמון בממשלה אתה מוזמן להתפטר… אוי לא רק שליצמן לא יתפטר    nirhasson אפילו ביביסטים חייבים להודות שמדובר במחאה מרשימה מאוד מזכיר שזה השבוע ה12  תראו איך נראית ממשלת נתניהו  — שולחת לאולפנים חנפנים ומוגי לב להסביר לנו מה זו דמוקרטיה  OrRavid הדגלים השחורים מציגים מיצג מחאה מרשים ויוצא דופן בצוק מנרה N12News  VeredLee1 כל הכבוד אריאנה   השבוע התברר שהמשטרה שטייחה את רצח אבואלקיעאן אינה שונה בכלום מהמשטרה שעורכת היום מעצרי שווא המוניים של מפגינים בבל…  sadibenshitrit בואו לבלפור אנשים אני לא אהיה מקווה שאנשים שעדיין לא הגיעו יגיעו יאללה חברים יקרים בואו נוציא אותו מבלפור  אתם צריכים לקרוא את הכתבה הזו את התיאורים המחפירים של מאפייני ההפרדה במסלולים האקדמיים לחרדים וזה קורה בגלל המלג…  זו הפעם היחידה שאני הולכת להמליץ למפגינים על אסטרטגיה של איתמר בן גביר הגישו תביעות נזיקין נגד השוטרים ונגד המשטרה…  3000 נדבקים חדשים מדינה לא מתפקדת והאיש מתעסק בסידורים של הפרייבט גט שיטיס אותו להגיד ביי אחרון לטראמפ ולהרים פו…  OdehBisharat שי ניצן אין דבר כזה שאי אפשר לקבוע שזה פיגוע או לא פיגוע זאת אומרת שהחשד יימשך לכל החיים וגם אחרי תום החיים זו התעללו… einatovadia שבת שלום מתוקות  barpeleg זו תמיד כרוניקה ידועה מראש אשה אחת שבורחת מבני משפחה רצחניים חנין אלעביד שנרצחה הערב חותנה כשהיתה קטינה בת 16 לבן זוג בן… orlybarlev היום  צעדת מגש הכסף 1530 יוצאים ממשכן הכנסת הישנה המלך גורג 24 וצועדים לבלפור שידור חי יועבר אצלי בפייס  ועוד התפתחות משפטית מעניינת בפרשת הצוללות אצל YVerter הבוקר ב Haaretz   היערכות לקראת עתירה לבגצ שתגיש עוהד ד…  המשבר מחריף ונתניהו עסוק רק במשפט שלו  רה״מ נכשל במילוי תפקידו לחצו כדי להצטרף לקריאה לח״כים להפסיק לשתף פעולה ול…  ShemuelMeir BarakRavid NoganNir מטוס פרטי של נתניהו ורעייתו לפסטיבל שלום פרטי שארגן נתניהו לעצמו במדשאת הבית הלבן בעיצומה של קורונה… asihaim SShpurer hamakom מציעה שתקרא את המאמר שפרסמתי היום בהארץ אתה יכול למצוא אותו גם בטוויטר זה לא ״פיגוע הסברתי״ זו התנהלות רעה ברמה הכי בסיסית זה נזק הסברתי כי הדבר עצמו בזוי לא כי מישהו ׳ינצל׳ את זה  התחקיר של SShpurer שכל אחד חייב לקרוא כבוד ל hamakom   מלחמה בהטרדות מיניות ברשת יוזמה חשובה ומרגשת של arianamelamed וחברותים נוספים איך עושים את זה תומכים ותורמים…  ZulatEquality איך מצלמה על כל שוטר תגן על המפגינים מפני אלימות המשטרה בואו לשמוע בשיחה של מנכ״לית זולת einatovadia עם meroy91   ס… RonSkolnik The struggle is for equality within 2state framework Its delusional to think one can make 2 peoples btwn whom flows a…</t>
+  </si>
+  <si>
+    <t>מי שמייעץ לאולמרט מחרבן לי את המקצוע עוד הרבה הפתעות בקרוב מבאס שבגלל הקורונה גיא פלג מחוץ לאולם והתביעה צריכה להסתדר בלעדיו aviadglickman מבין שפחות התחברת לוחם ענק עד הסוף זקוף נחוש מנצח גאה בו וגאה להיות איתו  אם צופים בפרק מהסוף להתחלה זה יוצא יותר לוגי  מי שהצליח להבין משהו מ״המקור״ מקבל ממני צוללת לא מאשר ולא מכחיש שזה לא אני  Israelcohen911 מזל טוב ענק ישראל הרבה בריאות ונחת לגמרי  זמן בלעדיו  מה קורה באופוזיציה  יום הולדת שמח לאחי היקר והמוכשר TopazLuk  לעוד הרבה שנים טובות של עבודה פסיכית ודאחקות עד דמעות אין כמוך  הבהרה טרם אני נכנס לשבת לא איימתי על ראשת מח״ש חס וחלילה לטעמי מי שסירסה את הגוף עליו היא ממונה לא צריכה להמשיך…  BenCaspit אתה עושה עבודת קודש את סך המנדטים שהבאת לנתניהו לא אצליח להביא גם אם אחיה 200 שנה ולכן אני מכבד אותך ו…  BenCaspit בפעם הבאה שאובססיבי כמוך יכנס לי לטוויטר יגיב ואז יחטוף בעיטה לביצים ויגיד ״הנח לנו״  אני יורה זיקוקים מהגג BenCaspit אחלה בן כספית  BenCaspit חבל שאתה לא מפרגן את העדינות הממלכתיות וניקיון הכפיים ביחס לביקורת אני למדתי ממך אתה שזהיר כל כך בבי…  BenCaspit כל מה שלמדתי על כבוד לעובדי ציבור למדתי ממך שבת שלום הגברת קרן בן מנחם לא עשתה כלום עם תלונות שהגשנו לה על פעולות בלתי חוקיות שביצעה המשטרה נגדנו בחקירה למרות שבית משפ…  תם עידן ״תם עידן נתניהו״ guyzo  ErelYuval השופט סולברג בדיון על החדירה לטלפונים של יועצי רהמ jonatanu  וGolanOfer צריך להיות איזשהו תג מחיר לטעות של המשטרה א… kannnews ביהמש דן בחיפוש של המשטרה בטלפונים הניידים של יועצי רהמ בהם יונתן אוריך ועופר גולן נציגת המדינה אמרה בדיון כי הייתה חוקר… מה עשו במשטרה ובמח״ש אחרי שבית משפט עליון שלח אותם למצות את הדין עם מי שפעלו באופן בלתי חוקי בחקירתנו כלום תיראו…  את GolanOfer ואותי מייצגים מחר עורכי הדין עמית חדד ונועה מילשטיין אך מכיוון שזה לא הסיפור האישי שלנו התיק בעניינ…  פסיקתו של השופט אלרון הבהירה למשטרה שאסור לה לפגוע בזכויות נחקרים  ושאם תפגע היא תביא בכך לעצירת החקירה לפני הפסי…  בית המשפט העליון ידון מחר בהרכב מורחב בפסיקתו של השופט אלרון ״הלכת אוריך״ עבדכם שמאז שניתנה כבר הספיקה לסייע בחוד…  EldadYaniv SrulikEinhorn  היום ניסיתי להתקין לבד בידה שקנה לי חברי הטוב SrulikEinhorn זה נגמר בהצפה של כל הבית ובשכנים שנבהלו לשמוע צרחות ש…   מוצאי הבחירות ברוך שהחיינו וקיימנו והגיענו לזמן הזה  יוצא לחופשה בספה BarakRavid JoshBreiner אתה באמת כתבת על עצמך פוסט ״תראו איזה גיבור אני ואמשיך להיות נועז ונחוש״ רק בעקבות התחקיר…  רעב כמו דקל וקנין אחרי מה נשתנה מאחל לברק רביד לחיות עם עצמו עד 120 מועדים לשמחה ובריאות טובה לכולם שבת שלום עמי חי  ראש המל״ל מאיר בן שבת לא ישן כבר חודש במלחמה למען הצלת חיים תוך שהוא הגורם שמתכלל את כל פעילות הגורמים השונים במדי…  ErelSegal שבועיים לליל הסדר ולבקשת חבר יקר אני מצטרף ליוזמה חשובה שמסייעת ל800 משפחות נזקקות כדי שבימי הקורונה לא ישארו לבד וללא מזון… BenCaspit אתה מדבר על קלון כאילו אני מתמודד להחליף את אסף זמיר בכנסת במקרה הכי גרוע אני לוקח חשבוניות כמו רם כספי…  BenCaspit אחלה בני אבל אם היה לך כסף לשלם לי כבר היית משלם לי  BenCaspit אסביר אני בלי נתניהו יכול לחיות אתה בלי ביבי תאלץ לפרסם מתכונים אתה יורד לסוף דעתי BenCaspit מאחל לך בריאות ואריכות ימים ושתצא מהטנטרום גם כי זה אמיתי וגם כי לא בריא לשנוא וגם כי אורי משגב עושה את…  אנשים מדברים על סחבת בבתי המשפט בזמן שהעליון כותב 19 עמודים בחצי שעה לכו תעמדו בדואר BenCaspit לא הטרדתי והעליון כבר קבע זאת בסוף ימצאו חיסון לקורונה אבל בן כספית עוד יגסוס בשנאה לביבי וזה באמת ובלי ציניות מעציב אותי לא מגיע לשניהם BenCaspit הצבעתי אוריך BenCaspit אתה ענק ואני מאחל לעצמי שבגיל 59 יהיו לי חיים ב12 בלילה ולא אציק לאנשים בני 31 שמנסים לשבת על ערק מי תרצו שישמור על החיים שלכם BenCaspit בני אתה משעמם יש לי אופי אמיתי אז אני מצייץ את דעתי ומשנה אותה לפעמים בטווח של 10 שנים תגיד למה בטור…  יולי אדלשטיין ישב בכלא הסובייטי והיה על סף מוות במלחמתו בעד ציון ולמען דמוקרטיה הערב היו מי שאמרו עליו שהוא ״חותר…  אם כותבים פסק דין מראש למה צריך d9 בגצ נותן תשובה בתוך דקות אחרי הודעת יו״ר הכנסת הוכחה טובה לכך שאפשר לקיים דיון מעמיק גם בעמידה ממרחק של שני מטר  רואים את המרחב והזמן  פעם כשהלכתי ברחוב  אדם צעק לי  והתקרבתי  ודיברנו  והפער שנראה כתהום  הצטמצ…  baruchikra אל תהיה ילד אם היו עושים סרט על עמית חדד כולם היו באולם הזייה  BarakRavid איך הוא לא מתבייש אשרי יושבי ביתך aviadglickman עוד לא התחלתי aviadglickman הכל התחיל ברפי ויצמן לפיד ״המצב קשה ולכן אצייץ עליו בטוויטר מאוחר יותר אכתוב פוסט בפייסבוק״  ערד ידידי אמרת שהקורונה היא כלום ושום דבר אז למה פתאום צריכים להזעיק רופאים  RanBaratz בקצב שבו בוגי משנה גרסאות אני חושב שאפילו בתור עד מדינה נגד ביבי היו מסרבים לקחת אותו Liberwomen ולכן שיתפת אותו גאון benirabin בני יקירי אם היית מבין משהו אני משוכנע שהיינו מתייעצים מי אמר שגיא פינס בבידוד  baruchikra כמו כן לא הבנתי את האייטם baruchikra ראיתי פעם כלב מלקק פרח וזה היה מעניין יותר מהעבודה שלך לא שמענו את זה מספיק    טוב שההגה בידיים של ביבי תזכורת  גילי מוסינזון בלחץ  עניין של זמן עד שהארץ יכריזו על המציל המלך של חוף מציצים כמבוגר האחראי יאיר הזועביז לפיד דוהר בכל הכח אל עבר ממשלה שתלויה במי שמהלל מחבלים ופוגע בחיילינו אלו פרפורי גסיסה של מי שאבד ע…  יש פה הרבה יותר עיתונאים שעובדים למען הרשימה המשותפת לעומת מעט מדיי עיתונאים שעובדים למען ממשלה ציונית  וזה כל הבע…  liorchorev למה צפייה באים לאולם אנחנו לא ביציע אחי  על המגרש liorchorev חג שמח ליאור  sharongal מה נפלת לי על הפרנסה chaimlevinson אל תכעס בחג פורים שמח  לסיכום בסיכויי הצלחה קלושים הבאנו עוד 300000 קולות לליכוד ועוד 4 מנדטים הישג ענק וחסר תקדים קצת הגזמתי השבוע אח…  חוזרים לעליון  3 שופטים בעזרת השם נעשה ונצליח  BenCaspit תודה לראיון המלא   מי אמר שאין אמת בתקשורת  biranitgoren EldadYaniv מקסים יהונתן גפן כל כך שיכור שהוא מביא לי את הגרבוז באיחור של יומיים נכון מאוד  biranitgoren בחמש לפנות בוקר מצאתי את עצמי מרותקת למסך jonatanu הגיע לאולפן של יונית לוי ובמשך כמעט חצי שעה נתן ראיון זחוח ערמומי…  היה אש הלילה אצל יונית לוי למרות שלא הרשו לי לעלות עם כובע  BenCaspit עכשיו באים natitucker משתתף בצערך הניצחון הגדול ביותר של נתניהו  אהלן BarakRavid ראש הממשלה הנבחר בנימין נתניהו נואם כעת בגני התערוכה בתל אביב אין דבר כזה ״כחול לבן״ זו מפלגה שלא מייצגת כלום הקשר בין גנץ לבוגי לאשכנזי וללפיד הוא אפס זו אסופה אקראית של אנש…  מישהו יודע מי זה   אחלה  בום בָּרוּךְ אֱלֹהִים אֲשֶׁר לֹא הֵסִיר תְּפִלָּתִי וְחַסְדּוֹ מֵאִתִּי לוחם  RonenRt עזוב בוא לבלפור אין לך לאן לחזור הערב איש מדהים  מבין שאילנה דיין הביאה איזו הקלטה הערב RonenRt הדדי אחי רק אל תקליט בוא ניפגש בעירום בגורדון RonenRt לא שונא ולא מקליט לא בטלפון ולא בפגישות ככה עושים מקצוענים בסוף אם אתה לא דיסקרטי ולויאלי מה אתה שווה במקצוע שלנו חצי יום שובר את הראש איך להציף שוב את הקלטת ישראל בכר ערב לפני הבחירות ברוך השם שיש רונן צור מקצוען RTsipris 15 נכון להבוקר מקווה שנעמוד על 1 עוד הלילהמחר בבוקר בהצלחה  שבת שלום  liorchorev ומי מתאים ממך להיות פרזנטור לאחדות מומנטום פסיקת העליון aka ״הלכת אוריך״ כבר הספיקה לסייע לבלום בריונות משטרתית ולהביא לזיכוי במספר מקרים במהלך החודשיים האח…  כמובן שנפנה לבית המשפט העליון בעקבות החלטת המחוזי לא מוותרים על האמת והצדק נעמוד על כך שהפסיקה ההיסטורית שקבע בית…  אפשר ללכת דוך לעימות גנץאלשיך chaimlevinson לראות אותך מתפרנס מקופת המדינה זה לא ממשל צבאי זה ימות המשיח גיא פלג ישב הערב ב2000 במהדורה ולרלר בפסקנות וידענות שגנץ לא חשוד ושזו בסך הכל בדיקה 8 דקות אחר כך התברר שיש חקיר…  aviadglickman למה ככה להשתלח בשומרי סף לא מתאים אחי גיא פלג פתח פה מהדורות ערב ערב עם בדלי משפטים של הדס קליין ניפח כל נפיחה למימדים היסטריים מיחזר כל ידיעה בת עשור…  הבר נשבר  אה סבבה אז הכל טוב למה לא אמרת קודם  גנץ לא יהיה כלום כי אין כלום פעם בקריירה קונקול מצליח לעשות משהו וגם זה בזכותי מדברים פה על ספין כאילו זו מילת גנאי אין דרך להסביר למה אתה מצביע גנץ בלי להשתמש במילה ״נתניהו״ גנץ מוכן לעימות בלי נתניהו אלה שלא קשורים אבל נדחפים לסלפי  אני על אנטיביוטיקה אז נראה לי נעשה קצת פוזיטיב ליום יומיים ימצאו חיסון לקורונה לפני שגנץ ימצא איך להקים ממשלה בלי המשותפת גנץ לחדשות 12 על פרשת המימד החמישי לא היה פטור ממכרז כי לא היה מכרז   גנץ לחדשות 12 ננצח ב3 באפריל BenCaspit וואלה הפתעת כבוד על האומץ והיצירתיות  BenCaspit בסך הכל למדתי מהמטנף האהוב עליי  צודק  ניצחו בסופרבול  איך יאיר לפיד ינהל מדינה אם הוא כל היום בבתי משפט מגיש תביעות דיבה איך גאיה שאקי לא ח״כית בכחול לבן BenCaspit תודה על השיתוף realadamgold ואחרי ההישג המדהים צריך להגיד העובדה שיש כאן אנשים שכבר שנים ארוכות מקדישים את כל זמנם ומרצם לנטרל את נתניהו וליטול מכול… BarakRavid לפיד על נתניהו ״אתה הרסת את היחסים עם ארה״ב אמריקה השתנתה אבל אתה נתקעת בשנות ה80״ נתניהו דין איתמר כדין תל אביב אף אחד לא ייעקר מביתו הממשל הצבאי ביו״ש יבוטל  שמח שגנץ בכל זאת הגיע  כחול לבן מה פתאום נתניהו מסתתר מאחורי חסינות שילחם על חפותו בבית המשפט נתניהו מסיר חסינות והולך למשפט כחול לבן…  מה שמבאס בלשחק שחמט מול ביבי זה שבסוף אתה מוצא את עצמך בג׳ט לג עם 20 דקות שינה בדרך לדיון בחסינות של חיים כץ במקום…  כבר הרבה שנים אני לא רץ בבוקר ואף פעם לא נתקלתי בדנה ויס לשלוח את דנה ויס וברק רביד לסקר את נסיעת ראש הממשלה נתניהו לוושינגטון זה כמו לשלוח את טל גלבוע לעשות ביקורת מסעדות באווזי היום שנתיים בלי אבא  זוכר איך הלכתי ברחוב  בפעם הראשונה בלעדיו בעולם ובעליית הרחוב שבו טיפס כסא גלגליו הרגשתי פתאום…  בלימה סיבוב ונסיקה נתניהו מוכן aviadglickman גליקמן ידידי אחרי שפרסמת הדלפה מתוך חקירתי יום אחרי שנחקרתי ובעודי מנוע מלהגיב אתה אמרת שהחיפוש ב…  sanegoria בסיום החלטתו קבע כבוד השופט אלרון כי על המדינה להקפיד על זכויותיהם של נחקרים בקלה כבחמורה ואל לה לאפשר לחוקרים הפועלים מטע… יש תמלוגים  ברוך השם הפסיקה של השופט אלרון מהבוקר תשים סוף לחיפושים הבלתי חוקיים שמבצעת המשטרה שינוי דרמטי בזכויות נחקרים במד…  יש שופטים בירושלים עדיין ממתין לתשובה  אחלה ווינט  שמישהו יבדוק אם יועז הנדל שמע את הבוס שלו אומר הערב בטלוויזיה שהוא מרצ ו״העבודה״  netanyahu בני גנץ ״כדי שהאג׳נדה של מרצ והעבודה תתממש אני צריך להיות ראש הממשלה״ אם לא תצאו להצביע מחל  נקבל ממשלת שמאל עם המפלגות… פייק מועמד עם פייק מפלגה בפייק קמפיין עם פייק ניצבים ופייק אידיאולוגיה קלקר אחד גדול  רה״מ נתניהו במענה לשאלת גל״צ כעת יש תחקיר של חדשות 12 נגד בני גנץ והוא לא התפרסם עד עכשיו הם גנזו אותו לא נתניהו  לא מפרסמים bezalelsm liyaomer קודם פרסמתם פייק מפה עכשיו אתם טוענים שיש מפה שלא קיימת בידינו על מה אתה מדבר שננלחץ עכשיו…  bezalelsm אחי קודם תענה לשגרירות ארה״ב בישראל שמבקשת מכם להפסיק להציג מפה שקרית כאילו היא חלק מתוכנית טראמפ אח״כ…  מבין שאחרי שנועם פרשה סמוטריץ׳ מחליף אותם על משבצת ההזייה שמישהו יעדכן את bezalelsm שלפי תוכנית נתניהו הריבונות…  המפה שבנט פרסם  לא נכונה פייק ניוז לא על דעת ממשל טראמפ לא ברור למה בנט מוכן לפגוע ביחסים הרגישים עם ממשל טראמפ רק בשביל ציוץ בטוויטר השמאל כל השנה למה ביבי לא מתראיין מה זה דמוקרטיה או מה  השמאל ערב בחירות אחרי שביבי מתראיין מה זה התעמולה הזאת…  צאו להצביע מחל  BenCaspit תודה רבה על שהחמאת לי על כך שאני שכיר חרב עם חגורת נפץ וסכין בין השיניים שמשתדל לעשות את עבודתו בעזרת הש…  noalandau חכי להצהרה דרמטית noalandau אין מה להשוות את התנאים שהושגו כעת בעבודה מאומצת של השגריר דרמר מול ממשל טראמפ חכי ותראי ברית ההגנה עם ארה״ב לא פוגעת בכהוא זה בעצמאות ישראל לביצוע תקיפות או פעולות ביטחוניות הבורות של גנץ בעניין הזה מדא…  shimritmeir התקשורת השמאלנית דוחקת בנתניהו נו מתי כבר מלחמה בעזה ומיטוט החמאס אה מיטוט החמאס איך לא חשבנו על זה קודם והוא מסביר למ… שמישהו יוציא צוות של זק״א לנווה אילן sharongal רשת ראיון נתניהו  92239 קשת ראיון גנץ 75237  שבת שלום yaronavraham גנץ מתבלבל ואומר לרינה מצליח אני לא נגד אף אחד אני נגד כל הציבור בישראל NewsChannelIL הגענו לתקופה נהדרת בה שואלים ראש ממשלה בראיון רדיו ראשון למה פורסם בסטורי שלו גיף של דמבו  עופר שלח בתשובה לשאלה של השר יריב לוין האם הוא תומך בסיפוח עליו הודיע ראש הממשלה נתניהו ״אני נגד צעדים חד צדדיים״ nadavabeksis נתניהו אתמול ברגע השפל שלו בבחירות האלה אזעקה תוך כדי נאום שבוע לפני בחירות מתנה לכחול לבן מתנה לשמאל באים גנץ ואשכנ… netanyahu הצהרה מיוחדת של ראש הממשלה נתניהו  בום בשעה 1700 IsraelGaley מרתק  שר המשפטים לשעבר לsharongal אין משהו שלא הבטיחו לאלוביץ׳ כדי שיתן את ראשו של נתניהו שרון וואלה מה הבטיחו רמון… RonenRt פגז פנוי מרביעי הבא RonenRt כפרה עליך תתמקד בחומרים חדשים של מיקי גנור ותן למקצוענים לעבוד שבוע הבא בחירות טופל  לפיד ביבי לא יחדש כלום על איראן עמליה דואק איך אתה יודע לפיד כי אני יודע עמליה דואק אבל עוד לא שמעת מה יש לו ל…  netanyahu ראש הממשלה נתניהו בהצהרה מיוחדת על הגרעין האיראני  🤦‍  ראש הממשלה נתניהו חושף עכשיו אתרים חדשים המהווים חלק מתוכנית הגרעין של איראן ראיון מביך מאוד של יאיר לפיד בשש עם הוא מבטיח שראש הממשלה נתניהו לא יחשוף היום שום דבר חדש תכף שוב יצא אהבל בפני מדינה שלמה הישארו עימנו פיטרתי היום מישהו ששאל אותי במטה אם קראתי את הציוץ האחרון של רוני ססובר לא משלמים לי מספיק על השיט הזה akibigman דברים שנחשבים ספין  חשש לזיוף בחירות  האיום האיראני  יוזמת השלום של טראמפ  דברים שנחשבים לקמפיין רציני  חינוך חינם… YoazHendel1 בתור בכיר במטה הציונות הדתית של יאיר לפיד הייתי מצפה שתדע מה שכתוב על נבואה אחרי חורבן בית המקדש בבא בתרא יב גידי וייץ המבקר אנגלמן החליט להחליף את גלילי נייר הטואלט במשרד מבקר המדינה מ״לילי״ ל״אורנים״ עמרי מניב בחופשה ואני עובד כמו חמור קיבינימט GLZRadio יור לשכת עורכי הדין אבי חימי לamirivgi הופעלו לחצים בלתי חוקיים על עדי המדינה בתיקי נתניהו אני עוסק בפלילים 30 שנים ותר… shemeshmicha ליברמן כעת נצביע נגד חוק המצלמות ליברמן לפני פחות מ24 שעות  תגידו newsisrael13 אתם השתגעתם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">וַתִּקַּח מִרְיָם הַנְּבִיאָה אֲחוֹת אַהֲרֹן אֶתהַתֹּף בְּיָדָהּ וַתֵּצֶאןָ כָלהַנָּשִׁים אַחֲרֶיהָ  הרבנית מרי…  KseniaSvetlova זה תמיד שובר את הלב לאבד אמא  בעה בזכרונות הטובים ובמשפחה תמצאו נחמה תזכו לשנים רבות נעימות וטובות  לִבְרִיתְךָ שׁוֹכֵן זְבוּל וּשְׁבֻעָה זָכְרָה לְעֵדָה סוֹעֲרָה וּנְגוּעָה וּשְׁמַע תְּקִיעָה תּוֹקְעָה וּתְרוּעָה…  שְׁמַע קוֹלִי אֲשֶׁר יִשְׁמַע בְּקוֹלוֹת וְהָאֵל הַמְּקַבֵּל הַתְּפִלּוֹת  עצוב כל כך  לראשונה אחרי 17 שנים ברצ…  איך בכלל הזמינו אותה  תומכת BDS אנטישמית ששוללת את קיומה של מדינת ישראל   arikbender תודה אריק על השיתוף זכיתי ואני חברה של אילה הנפלאה  היא מורת הדרך בשבילי וגם לאנשים ונשים רבים כל כך…  shimco תבחר אחד מהדניים  ליאור אלמליח בלחן המרוקי יואב יצחק בלחן התימני  שניהם נפלאים  גמר חתימה טובה shimco לך אלי תשותקתי 8178 נדבקים חדשים בקורונה וסוכן האנרכיה ממשיך לזרוע הרס    ayeletgiladi עלי  מביאה לך אחרי הסגר  הַאֲזִינוּ הַשָּׁמַיִם וַאֲדַבֵּרָה וְתִשְׁמַע הָאָרֶץ אִמְרֵי פִי  הלואי שאצליח תמיד להאזין ולהקשיב לפני שאני מד…  ayeletsbr כפרעלייך איילת בזכותך גמרתי את היום המייאש  הזה עם חיוך  nadavabeksis תבוא בטוחה שתבוא nadavabeksis אני מתפללת שכולנו נפסיק כבר להיות צודקים ונתחיל להיות חכמים תקשיבו לדליה איציק שזועקת מדם ליבה דברים נכוחים   yitzhak55 תנוחמו מן השמים  meitalbonchek אני לא יודעת כמה מכם קראו על הסיפור שלנו ותוכנית הכושר להורים לילדים מאושפזים שנבעה מהסטרס ההורי מצרפת לינק לכתבה מווינ… מאירה בזרקור כואב את אחד מ 1316 הנפטרים ממגיפת הקורונה חברנו עמוס גלזר אביו של רב  סמל תמיר גלזר שנפל באסון המסו…  yaircherki    בציוץ מדוייק   alizalavie zviashkenazi מזל טוב עליזה יקרה  בואו  גם בימים הקשים האלה החקלאים חייבים את הגב שלנו  חקלאות  ציונות  ריבונות   אמון הציבור הוא קריטי במלחמה שבה אנו נמצאים כדי לשמור על בריאות הציבור וחיי אדם ולהימנע מפגיעה נוספת בכלכלה   ההפ…  yotameyal חיבוק  תודה על השיתוף  כאחות נשבר לי הלב שיש אחיות שמתייחסות בצורה כל כך נוראית  ועידת אצבע הגליל ה 6 מוזמנים להצטרף עכשיו לשיח על ההזדמנויות שמביאה הקורונה לשינוי מערכת הבריאות בצפון  Topic פ…  סוף סוף מתקבלת ההחלטה הנכונה אחרי 9 שנים  ו  74 אישומים   גם היום ליבי עם הקורבנות  התלמידות   תמונות מזעזעות מראש השנה בהר הבית AmirOhana  ILpolice  nevokatz1 נבו היקר איזה שבר וכמה כאב באובדן של אבא  אבידה למשפחה ולעם כולו  בזכרונות הנפלאים בעשיה למען הכלל ובמשפחה תמצאו בעה נחמה  כמה ניתוק צריך כדי להיות חלק מהחרפה הזו  אני חושבת על אחותי הבכורה בת ה75 שהיתה לבד בחג ורוצה לצרוח מתסכול …  מירית הררי הלכה לעולמה בת 52 לא היכרתי אותה אבל בכל פעם ששמעתי או קראתי ראיון איתה למדתי עוד משהו על החיים הלואי…  השנה מילות התפילה מקבלות משמעות חזקה יותר וכואבת יותר   אָבִינוּ מַלְכֵּנוּ מְנַע מַגֵּפָה מִנַּחֲלָתֶךָ אָבִינ…  מצורפת קריאתו של חברי דר אלי רוזנברג רופא בחסד ואיש ירא שמים לקיום תפילות החג במרחב הפתוח בלבד  haggaisegal…  DilmoniYigal מתחילים את הפאנל אצל Riklin10 ב arutz20  נשתדל לגוון SaraHaetzniCohe ShuliMR yaakovkatz  ממשיכים את התיקון  בדרך לחברה טובה יותר  מועדוני החשפנות היו השער לכניסה לזנות לכל כך הרבה נשים  במועדוני החשפנו…  שעה טובה למדינת ישראל   הסכם שלום היסטורי ושינוי פני המזרח התיכון ידידות ביטחון ושגשוג כלכלי חזקים וברוכים רוה…  EmilieMoatti אמילי יקרה חיבוק ותנחומים שובר את הלב לאבד אדם יקר ואהוב  בוקר טוב ליום היסטורי  ברכות לראש הממשלה netanyahu ולכל הנשים והאנשים שעסקו בקידום הסכמי השלום במהלך השנים  וַ…  הסתיים ערב הזכרון לקורבנות הזנות של קואליציית הארגונים הדתיים למאבק בזנות והעיתון MakorRishon  יותר מ  2000…  לִפְנֵי מֶלֶךְ מִתְרַצֶּה בִּדְמָעוֹת  הִשְׁתַּדְּלוּ וְהַרְבּוּ תְּחִנָּה וּבַקָּשָׁה לִפְנֵי מֶלֶךְ אֵל רָם וְנִ…  מַכְנִיסֵי רַחֲמִים הַכְנִיסוּ רַחֲמֵינוּ לִפְנֵי בַּעַל הָרַחֲמִים  מַשְׁמִיעֵי תְפִלָּה הַשְׁמִיעוּ תְפִלָּתֵנוּ…  בשנים רגילות בחודש אוגוסט מתכנסים רבות ורבים לזכור את הנשים בזנות שמתו מוות קשה בתוך החושך של הזנות ברוח הימים האל…  ok125125 YakiAdamker יקי ותמרי  מתרגשת איתכם וכואבת איתכם  הלימוד מהשבעה דל רננה חיה הולך איתי במח ובלב הלואי שמחות בעה מה השתנה בעמדת היועץ מיום 39  איפה כל אלה שהסבירו לנו שזה סיפור ישן  שאין קשר בין שני הסיפורים …  Urieldenn yossinagel arikarielpopper AvishayBenHaim תמיד שמחה להיות טריגר לדיון מעמיק מודה שכוונתי היתה פשוטה…  AvishayBenHaim זה פשוט  רוני מענטש אמיתי  צנוע חכם מאיר פנים ובעל נשמה גבוהה  המייל הזה הוא תמצית ההשחתה  איך היד של שי ניצן לא רעדה  איזה כשל מוסרי וערכי מוביל להחלטה כל כך נוראית  מאיפה הש…  השחתה קשה של מערכת אכיפת החוק שצריכה להדיר שינה מעיני כולנו מזעזעת הידיעה שחקר האמת ומשפט צדק אפילו לא בגדר המלצה…  חרפה  מי שמתיימר להנהיג את הציבור הישראלי זורע אנרכיה וחוצה עוד קו אדום ומסוכן  זה בטח אותו שכל ישר שהבטיח לחסל א…  lamaligif yedidyagoelman חברה יקרה ומעוררת השראה  avital1974d איזו יצירתיות וצבעוניות מהממות  מקסים Riklin10 מִי שֶׁבֵּרַךְ אֲבוֹתֵינוּ אַבְרָהָם יִצְחָק וְיַעֲקֹב הוּא יְבָרֵךְ אֶת חַיָּלֵי צְבָא הַהֲגַנָּה לְיִ…  אני יודעת שתרצו לצרוח מתסכול   בכל זאת תקראו את קלמן שעושה שוב סדר בדרך שבה התקבלה בבגץ ההחלטה הנוראית להרוס את מצ…  YYotamz כמובן מבטיחה במוצאי שבת שבת שלום ומבורך   הלואי שבת קרירה לכולנו  בגוש עציון האויר עדיין לוהט   YehudahGlick בית הכנסת שלום על ישראל ביריחו  אמן שיתקבלו התפילות כולן איך כל פעם זה מצליח לך הניתוק וההתנשאות  בתי כנסת היו סגורים שבועות רבים אנחנו וכל המשפחות השכולות לא עלינו ל…  NaamaPTal רפואה שלמה בעה GoelPinto דש חמה לצביקה שלא מפספס ושולח ברכות לכל אירוע משמעותי פרטי וציבורי  שיפה ושונה תהא השנה אשר מתחילה לה היום מתחילים היום בפעם האחרונה כיתה ט באולפנה שמצטרפת לאחותה ביא  וואוו זא…  מַה נָּאווּ עַל הֶהָרִים רַגְלֵי מְבַשֵּׂר מַשְׁמִיעַ שָׁלוֹם  מְבַשֵּׂר טוֹב  מַשְׁמִיעַ יְשׁוּעָה  אֹמֵר לְצִיּ…  8xJHSXjvLpKXpjK חום ברורררר אבל לא כזה  NumberArba ליבי עליכם אנשי מישור החוף  וְאֵד יַעֲלֶה מִן הָאָרֶץ בראשית ב ו  לא זוכרת דבר כזה   חום ולהבה גם בהרי גוש עציון  תזכירו לי את זה כשא…  arianamelamed שלט מכוער ומתנשא  העיקר אחינו השוטרים ממש משפחה למופת  AviBuskila מרגש ככה נראה תיקון drorfo דרור כתבה מרתקת ומראה זוויות חדשות   הכי תפס לי את העין המשפט הבא  מנסים לצייר אותו כמזרוחניק אומרים ל…  uriholzman hadover1 הנכדה שלו מתחתנת הערב  שמחות גם לך בעה בגץ נגד הסדרת ההתיישבות ביהודה ושומרון  בהחלטה אכזרית פסל בגץ את סעיף 5 המאפשר את הסדרת מצפה כרמים שהוקם על ידי…  hadover1 רפואה שלמה ומזל טוב גילוי נאות וכו  אינני מכירה את אלונה או נעמה  הציוץ הזה כל כך מבעס  למה לכתוב ככה שרון נגד שלוש נשים  אישה ראשונה alonabaron שהיא מול של עיתון  אישה שניה…  AvnerHofstein Shiritc אבנר  אני באמת חושבת שהציוץ שלך ממש עושה עוול לשירית שהיא עיתונאית מצויינת לטעמי כמובן  ש…  אמאלה  גם אישה  גם מזרחית גם עם כיסוי ראש  גם משדרות  גם מעיזה לחשוב שהיא עיתונאית וגם חודרת לתקשורת   כל קר…  Shiritc מלכה שאת כפרעלייך   ברכה והצלחה בגלובס בעה הרב שי אוחיון היד נרצח בגלל היותו יהודי על ידי ערבי  האם גם המקרה הזה נכנס תחת הקביעה של השופט קרא  פיגוע המסת…  Ayeletnnv IsaacHerzog מקסימה שאת  אני יודעת שגם שם זה יהיה עם הלב והנשמה מלא מלא  ברכה והצלחה בעה  הקשר שבין…  mikiros1 מזל טוב מיקי  בעה בימיו יבוא הגואל chananale חד נס למה גם כשאני בחופשה אני קמה בשש בבוקר   תמונות שצילמתי בשש ובשבע בבוקר עם הקפה  פשוט קסם על ים כנרת  חופשה משפחתית קסומה שנותנת כוחות לשנה החדשה שתיכף תיכף בפתח   עם ישראל מדהים בדרכים בחופים…  KeidarKesten IDFWidowOrphan פעם ראשונה שאף אחת מהבנות שלי לא תהיה במחנה  יהיה להם נפלא ומשמעותי  אין עליכם IDFWidowOrphan 85 שנה לפטירתו של הרב אברהם יצחק הכהן קוק הבקשה בעצמה היא התכונה המבוקשת לא המציאה שהיא תמיד בלתי אפשרית כי הננ…  כשמשהו מעצבן את זחאלקה את הפלשתינאים ואת איראן אני יודעת שהוא טוב לישראל עלוב   YaelSherer את מדהימה  מצטרפת ומחזקת אותך בעבודת הקודש שאת עושה  חזק וברוך לכל הפועלים למציאת הפתרון התקציבי הילה קרב מילת צהרונים שירות לאומי אזרחי ותוכניות נוספות הן בנפשנו…  כבר היום הבא ועדיין לא הצלחתי לנסח משהו חוץ מצרחה פנימית שמהדהדת לי בבטן בלב בנשמה שלושים מול אחת שלושים על אחת…  Meravbenari וואוו איזה גדולה  אצל אחרים הזמן עובר מהר נשארנו השבוע לבד עם בתנו רוני  בת ה14 שממש רצתה שנעשה קמפינג על שפת הכנרת  אז נסענו ואנחנו כאן ללילה אחד נט…  הסתכלתי שלוש פעמים כדי להאמין   חבר כנסת סמי אבו שחאדה מבלד מסביר שתכנון פיגועים ורצח יהודים היא בעצם פעילות פולי…  talschneider  מִי שֶׁבֵּרַךְ אֲבוֹתֵינוּ אַבְרָהָם יִצְחָק וְיַעֲקֹב  הוּא יְבָרֵךְ אֶת חַיָּלֵי צְבָא הֲגַנָּה…  כולכם מתפללים איתי לרפואת דור בן מיטל ויהושע  חייבים לקרוא מיטל חברתי האהובה יחד עם האיש שלה יהושע במסע שלהם כהור…  ISudri YairEttinger נראה נהדר קידוש של מזרח ומערב  ביצוע מרגש  עיניי זלגו דמעות של אושר געגועים לקול ולנגינה של אהובה עוזרי הכל כך מיוחדת   התרגשות גדולה ושמחה על הסכם השלום עם איחוד האמירויות  ברכות לראש הממשלה  netanyahu ותודה לידיד ישראל הנשיא…  שוב סרטונים מזעזעים ואלימות שטנית של מטפלות בילדים בגן ברמלה  מצרפת את הדברים שכתבתי לפני שנה וחודש מול הזוועות של…  איתמר כדרכו משתף ופותח בפנינו את הלב שלו ונכנס ישר ללב שלנו  תקראו ותפיצו והלואי שנצליח לעזור לפחות לאדם אחד   yoelschwartz87 יואל היקר זוכרת את המילים שלך בערב יום הזכרון באלעד שבו היינו יחד  את הכאב והשבר  הזכרונות והבחירה בחיים יעל הציוץ הוא מטריד וחולני בלי אבל הטרדה אף פעם לא תהיה דאחקה בין חברים ואין משמעות לזמן שחלף המתנפחים שהונפו הם…  giladerdan1 ברכה והצלחה גלעד לך ולמשפחה שופטי בגץ מזוז וקרא בהחלטה נוראית שמוזילה את חיי חיילי צהל מול משפחות מחבלים  באופן שיטתי בגצ הורס את ההרתעה ומ…  חברי כנסת שרוצים בחיסולה של מדינת ישראל תומכים בטרור ופועלים בשיתוף עם הגרועים שבאויבנו  אכן לא צריכים להופיע על…  AryeErlich מרגש כל כך  החזרת אותי באחת לפעמיים שלי אצל הרבי לקבל דולר וברכה  כואבת את פטירתו של הרב עדין שפתח בפנינו עולמות רבים וחדשים של  לימוד הגות חינוך יצירתיות ותרבות יהודיים  הרב עדין…  yaircherki כואבת איתך YairEttinger carmeldangor פשוט להרבה אנשים הגירוש הוא פצע שלא מפסיק לדמם  לא חצי דאחקה ולא רבע  carmeldangor YairEttinger התגובה שלו אל תבדוק אותי והצחוק בצידה נתנו לי בוקס בבטן  15 שנים לגירוש משפחות עד…  נראה למישהו ששאלות תקציביות היו מונעות מחזור גיוס לצהל אותה התשובה ביחס לשירות הלאומי אזרחי שכשמו כן הוא מיזם…  רזי אתה יודע שזו היתה ממש עלילת דם ושפיכת דמו של חנן פורת מציעה שתמחק את הציוץ ואל תהדהד את השקר הזה   געגועים למ…  על מה אתה לוחץ להם AvishayBenHaim  כמה שנאה  כמה אלימות גועל נפש   ofirsofer בהצלחה אופיר  רבים ורבות כל כך נושאים אליך עיניים ומחכים להתקדמות בעה  לא די שיידע המפקד את מלאכתו עליו להיות אוהב את האדם שחיי הפקוד שלו יהיו יקרים לו והחייל שנשלח אליו יהיה יקר לו…  חובת קריאה   ציטוט אחד שהחזיר אותי לתחושות הקשות של השמחה לאידם של המגורשים וחוסר החמלה שהופגן כלפיהם בתקשורת  ב…  נסיון ראשון להכין כנאפה   שבת שלום ומבורך אנשים יקרים   הרבה בריאות   LinoyBarGeffen פשוט מעוררת השראה  לינוי את הקול  של רבים כל כך   המון כוחות ותפילות להתקדמות בלתי פוסקת בעה  שבת שלום ומבורך לכולכם חג קורבן שמח לדרוזים ולמוסלמים בריאות לכולנו  كل عام وانتم بخير  ayeletgiladi איילת אהובה חיבוק ונחמה  היא זכתה בחברה נפלאה עם נשמה גדולה ועיניים טובות  האובדנים האלה כואבים כל כך  מנחה של תשעה באב בחצר המשותפת שלנו   זהו הפכנו סופית לבית כנסת  יש קידוש בשבת לכבוד אחת המשפחות שעוברת דירה…  qsFSPjpe89y1tyr MichaKaufman AYoskovitz ILpolice איתמר מכתב חיזוק בשבילך  הלואי ויעלו יותר ויותר יהודים להר…  כל הנכנסין להר הבית נכנסין דרך ימין ומקיפין ויוצאין דרך שמאל חוץ ממי שאירעו דבר שהוא מקיף לשמאל ושואלים מה לך…  מַה נָּאו֨וּ עַל־הֶהָרִ֜ים רַגְלֵ֣י מְבַשֵּׂ֗ר מַשְׁמִ֧יעַ שָׁל֛וֹם מְבַשֵּׂ֥ר ט֖וֹב מַשְׁמִ֣יעַ יְשׁוּעָ֑ה אֹמֵ֥ר…  בימים שבהם שנאת חינם מלחכת את קיומנו נזכור את דברי הרב קוק  ואם נחרבנו ונחרב העולם עמנו על ידי שנאת חינם נשוב…  חברי שי פירון יחד עם המוזיקאי מיקי רוזנבאום בשיר וסיפור לימים האלה שבין הקורונה לט באב הימים הללו מובילים אותנו…  ברכה והצלחה פרופ רוני גמזו   שואלת הגמרא במסכת תענית  ומדוע קראו לו נחום איש גם זו  ועונה  שעל כל דבר שקרה לו…  KeidarKesten צמרמורת  איזה מילים נהדרות יש טוב בימי קורונה  כולם ראו את החיוניות בחיזוק הבריאות והרווחה במדינת ישראל שנים זעקנו יחד עם הצוותים הרפואיים ו…  amiaderlich KalmanLiebskind התיקון יקרה כשכולם כולל האבות ידברו על זכותו של הילד לשני הורים משמעותיים בחיים שלו …  ItamarCohen100 יש לך הגדרה אחרת למי ששותה בקבוק וודקה  נוהג נהיגה פרועה  דורס נער שעמד על המדרכה ופוצע את חברו…  הלב בוכה עם קובי דקלה והמשפחה גם היום כשרוצח בנם מקבל עונש של 12 שנות מאסר  הלב מסרב להאמין לרוע לאכזריות ולשקרי…  ראיון שחובה להקשיב לו על פוזיציה ועיתוי שמתאים או לא ובעיקר עובדות שלא נותנות מנוח  תשמעו טוב טוב כדי להבין את גו…  פשוט נשבר הלב  הסיוט של כל הורה   פייסבוק out טיק טוק in איפה נמצאים באמת הילדים שלנו איך בונים אחריות אישית  צפיה ביקורתית ואמון בזמן מסך   מיפגש…  עצמאים ועסקים קטנים הם מנוע צמיחה של הכלכלה הישראלית חייבים להוסיף לרשת הבטחון הסוציאלית לעצמאים גם גמלת אבל  כ…  ZvikaKlein ברוך ה שאתם ואתה כאן  בזכותך משמעות הקשר עם יהודי התפוצות קצת יותר מובנת לישראלים רבים  תמשיך  יש עוד הרבה עבודה מניעה את הכלכלה   קניות לנכדים המהממים שלנו   אמרתי לכם כבר שנכדים זה פאזה אחרת   ברכה והצלחה לפרופ גבי ברבש  נראה לי שכאן המקום המתאים ביותר לברכה של zviashkenazi   הצלחתך הצלחתנו  שולי  כל האוכל דג ביום דג ניצל מדג  עשה לי חשק dudiamsalem   שבת שלום ומבורך    KeidarKesten חיבוק  איזה איש  אִישׁ אֶת רֵעֵהוּ יַעְזֹרוּ וּלְאָחִיו יֹאמַר חֲזָק  בואו זה ממש הזמן לעזור ולחזק את מי שצריך יוזמה מרגשת  פשוט…  yarivop וואוו יריב  זה הכי מנותק שיצא לך ever  בריונים ואנרכיסטים שיעשו הכל להביא את האלימות לרחובות ישראל   בושה וחרפה   זנות היא חושך מוחלט וגהינום וכל מי שתומך בקיומה של זנות מאפשר ניצול ועוולה מתמשכת  מעולם עד החוק אף אחד לא התעניין…  הירי המוטרף שהתחיל בשבע בבוקר נמשך ללא הפסקה גם בשעות האלה  בטוחים שזה רק סיום הבגרויות  Meravbenari מטיילת בעולם את  השבוע היית כבר בויאטנם  שבת שלום יקירתי  תודה אבי שיחד עם אנשי JusticeGov המשכת את המהפיכה של השרה AyeletShaked והמנכלית אמי פלמור ביחד אנו נלחמים במצ…  שהחיינו וקיימנו והגיענו לזמן הזה לתיקון הזה התרגשות ותפילות ביום הזה שהגענו אליו כאיש אחד בלב אחד מעבר לכל ההבדל…  מרגש מחר יכנס לתוקף החוק האוסר צריכת זנות ופועל לשיקום הנשים הגברים ובני הנוער בזנות תודה לשותפי במערכת הפוליטית…  DanAvissar revitalamiran כל כך הרבה טעויות בציוץ אחד  פספסת רק את השקר המרכזי שמספרים לעצמם האנשים שעיוורים לנ…  תודה רויטל  אכן ימים מרגשים וזכות עצומה להיות ממובילות החוק לאיסור צריכת זנות ושיקום נשים גברים ובני נוער בזנות…  LinoyBarGeffen וואוו מרגש  איזה אנשים נפלאים alizalavie יבוא יום בו יתבוננו בפליאה בני אדם קנו גופן של נשים בכסף אכיפה אפקטיבית שיקום חינוך והגברת המודעות יצמצמו דרמטית את היק… חלי איטח  בן זיקרי מרסקת את הלב של כולנו אצל amirivgi  מיכאל קיבל בשניה החלטה לסייע לאבא שצעק הצילו הילדים שלי…  התרגשות עצומה ושמחה בחתונה של אמיתי שלום דן וזוהרה אפרת ביער השלום בירושלים  מברכת אתכם בברכתו של שמואל הנביא  …  dandayan פשוט מענטש  אתה איש נהדר ועשית עבודה נפלאה  מחכים לך פה המון אנשים להמשיך את העשיה המשותפת  בזכותך יות…  תשמע זה מביך  וזה עוד לפני שדיברתי על הטעויות והבורות   RazShechnik עצוב כל כך  תנוחמו מן השמים מקצוען מוכשר הגון ובעיקר בן אדם  פשוט חבל   cohenmeirav יעל נהדרת  ברכה והצלחה בעה לשתיכן  יש המון עבודה שמחכה לכן  tamarzandberg תודה תמר על תמיכה לאורך כל הדרך ועל המילים הנכוחות שאמרת היום בוועדה  אכן הסטוריה שאנו זוכות לחולל  zehavagalon לא כי הסכם אוסלו הביא  לבתי הקפה שלנו פרחים ושוקולדים   המודעות מתה והצטרפה לקורבנות השלום  באחד ממאות הפיגועים של…  nadavabeksis zehavagalon KalmanLiebskind kann ברורררר מתה עליך אתה אח שלנו בלב  nadavabeksis zehavagalon KalmanLiebskind kann תקשיב הרגת  אתה משוגע  כואבת את פטירתו של יהודה אביו של סמל נחשון וקסמן היד יהודה ואסתר היו לכולנו מופת של בחירה בחיים אהבת העם והארץ…  שאפו GLZRadio  תוכנית מעולה של profyifatbitton kobisudri על השסע העדתי שקיים ומשפיע על החיים של כולנו זהו מאבק…  LinoyBarGeffen ברוך ה  הרבה בריאות  מחכים לסבב הבא על הגלשן  בלב קרוע מצער אני משתפת אתכם שחברי האהוב מוטי בן שושן אִישׁ אֲשֶׁר רוּחַ אֱלֹהִים בּוֹ נפטר היום מוטי היקר איש ש…  LinoyBarGeffen מדהימים אתם  מתפללים איתכם  את  מעוררת בי השראה ורצון להיות טובה יותר  lelummy בימים שעוד היה כשר שם  לצערי הפסיקו להיות כשרים  Ayeletnnv  יקירה מזל טוב בֶּת חֲמִשִּׁים לָעֵצָה  קחי את העצה  הבינה והחכמה שיש בך להמשיך ולהתקדם בחיים שלך בח…  התנהגות שהיא חרפה  אז זהו KalmanLiebskind שזוהי ממש לא זכותם הזכות והחובה בשידור הציבורי הן גיוון קולות וייצוג ש…  GoelPinto אנחנו סופרים בשנים   41 שנים ו 4 חודשים והלב ממשיך להישבר ולחיות בחסר וגעגוע תמידי דייקת גואל  ויֹּאמְרוּ אֶל כָּל עֲדַת בְּנֵי יִשְׂרָאֵל לֵאמֹר הָאָרֶץ אֲשֶׁר עָבַרְנוּ בָהּ לָתוּר אֹתָהּ טוֹבָה הָאָרֶץ מְאֹ…  בגץ צועד לעבר התהום של אובדן מוחלט של אמון הציבור בעיניים פקוחות לרווחה  פסילת חוק ההסדרה הצודק והמאוזן פוגעת פ…  israelconnect ובעיקר להשלים מהר מהר פערים בידע  גולני זה הכי אחי  shirlypinto מהממות אמא שלך ואת  פירות שנתברכה בהם ארץ ישראל  מצאתי את  הסיבה לקור מקפיא העצמות שאני סובלת ממנו בגוש עציון בחורף  דובדבנים מהעץ של…  החיים שלי שלובים בשירות בלבנון מהיום שהיכרתי את בעלי האהוב סאל משה מועלם לפני 33 שנים  בעוד מספר דקות בחדשות ערוץ…  LinoyBarGeffen מרגש כל כך  בזכותך הוא בתפילותי תמיד  Meravbenari ברור  עשיתי זאת באהבה ובכוונה גדולה  בעה הגעתי בלי לתכנן לציון של התנא יונתן בן עוזיאל בעמוקה יונתן בן עוזיאל גדול תלמידי הלל הזקן היה וציונו ידוע כפועל יש…  התגעגענו וסוף סוף באנו תודה רבה שוטרי ומפקדי הר הבית ILpolice   התפללתי לרפואה ולשלום לכולנו הודיה עצומה ומשימ…  אחרי 70 ימים בהם הר הבית היה סגור לעליה ולתפילה  מחר הוא יפתח   מזמינה אתכם בהתרגשות גדולה להצטרף אלי מחר לעליה…  דְּבַשׁ וְחָלָב תַּחַת לְשׁוֹנֵךְ שיר השירים אנחנו הצמחוניים ממש מאמינים וחיים את המציאות שהתורה נמשלה לחלב ח…  israelconnect אני  אלו ימי קורונה  ברכות לפרופ חזי לוי שנבחר למנכל משרד הבריאות חזי מכיר מצויין את מערכת הבריאות עשה מהפיכות ברפואה בפריפריה כמנהל…  כמובן כמובן  תספר את זה למגורשי חומש שאנור  גנים וכדים אף אחד אף אחד לא מבין עד היום את  האיוולת שבהרס החיים של…  Meravbenari שימו  לשמירת המרחק עם היפות שלי ברחבה   Ayeletnnv ShuliMR  סיפור מסמר שיער של uriyaelk על פתיחת תיקים פליליים ללא סיבה ומעצרי שוא של אזרחים בתחנת המשטרה בקריית מלאכי כשל קו…  YakiAdamker יקי היקר  הלב בוכה איתכם  תנחומים על האובדן הנורא בגץ ביטל את הריסת ביתו של אחד מרוצחי דביר שורק היד המדינה חייבת לדרוש דיון נוסף ולבטל את ההחלטה  הרס בתי מחבלים…  mirilavi1 נהדרת שאת  מקצוענית ונשמה גדולה באישה אחת  בהצלחה באיזה יקום מקביל עבריין מורשע שהשחית את המערכות הציבוריות ופועל עם שונאי ישראל נגד המדינה במוסדות הבינלאומיים הוא…  היום לפני עשרים שנה כתבתי את המכתב האחרון למועלם  כשראיתי את הבופור מתפוצץ הרגשתי שמשהו מת גם ביכולת שלי לכתוב למוע…  איזה כייף היה לנו היום ביום ההולדת שנה לנכד שלי  מעיין  חיים עוגה טעימה מתוצרת עצמית   שבת שלום ומבורך לכולם  שִׂמְחוּ אֶתיְרוּשָׁלִַם וְגִילוּ בָהּ כָּלאֹהֲבֶיהָ  כמו כל שנה אני חוגגת את יום ירושלים בישיבת מרכס הרב  חג…  חזרנו אל בורות המים לשוק ולכיכר שופר קורא בהר הבית בעיר העתיקה  ובמערות אשר בסלע אלפי שמשות זורחות נשוב נרד אל ים…  cohenmeirav מזל טוב מירב יקרה  ארץ ישראל כשהיא ריקה מיהודים היא בשבילי שוממת וריקה  תקשיבו לנעמי שמר שמסבירה במילים כל כך ברורות את הגעגוע של דו…  התרגשתי לשמוע את שר הבטחון naftalibennett מסיים במילים שבהם החל את תפקידו לפני חצי שנה מי שברך אבותינו אברהם יצחק…  יצחק העמדת לכולנו רף גבוה ועוררת השראה בכולנו להיות טובים יותר איש ישר הגון מכבד כל אדם מוכן לסייע לכל אחת ואחד…  גם כשלא הסכמתי עם הכרעותיך בצמתי קבלת החלטות תמיד ידעתי שאתה פועל מתוך תפיסה מקצועית ומחויבות לשמירה על סטנדרטים ג… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BittonRosen מפגיני שמאל תקפו פקחים ושוטרים כעת סמוך לכנסת ואף פצעו שוטרת לאחר שהכו אותה באמצעות מקל avrahambin רפואה שלמה להבנתי השופט בעניין ליאת בן ארי קבע שהיא עברה עבירות בניה אבל היא לא עברה עבירות בניה או שהיא עברה עבירות בניה אבל…  רואה את אותו חלק של החרדים שלא מקפידים ואת התעקשות משתתפי המסיבות בבלפור ובחופי הים ואת שאר הלא מקפידים משתמש בכוח…  ISudri bnyiroz אם הקטע עם צילום המסך יעבוד תעדכן אותי אפתח גם חשבון itayr2 בריאות והחלמה מלאה גם לחולה לידך שצריכה להחלים בנווה תרצה MatanKahana שונא אנשים שמגיעים לסכך בלי כסא  mayalev7 ronitlev12 avihaihaddad חוסם את כולכם על חפירות avihaihaddad ronitlev12  avihaihaddad גם אני חסמתי אותה אחד מעפולה אין לי אחד ronitlev12 SharonaMazalian על השוק הדובי ברור שימי לב איך הם חוששים מבואם של השוורים נישתי שעתיים אחרי צאת כיפור הייתי נוסע להורי על הגז חמישה סירים עם מרק תימני טריטרי וסאלופות פיתות תימניות חמות שנערמ…  ואבי זל היה הולך לבית הכנסת בערב כיפור עם חולצה לבנה וחליפה לבנה ועניבה לבנה ונעלי בד לבנות וטלית לבנה וכך היה צוע…  RubiYona גמר חתימה טובה אחי ayeletlash9 גמר חתימה טובה בלי נדר כמובן במוצאי היום הזה אצטרף לטרנד שמסתמן כאן ואכתוב גילוי דעת פוליטי מפורט בינתיים שיהיה לכולנו גמר חתימה טובה ואם אפשר…  Rereshef אחי אתה מצחיק שנון ובועט פוליטית לכל הכיוונים זה הופך אותך למיוחד ונדיר גמר חתימה טובה menachemho יש קידוש מכובד hananamiur לגמרי גמר חתימה טובה hananamiur סליחה אחי המריבה לא בין אלה שעם נתניהו לאלה שרוצים יותר ימין מנתניהו בהכירי את הנפשות הפועלות כולן ר…  הדמוקרטיה התקשרה אלי עכשיו היא ראתה איך נשמת אפה נראית ובא לה למות לילה טוב yossidavidov10 תשמור על עצמך talibo8 gantzbe שאותם שיקר YinonMagal בריאות והחלמה מלאה אחי וגמר חתימה טובה israelconnect בחור מקסים ומוכשר מאוד Eyalo365 אתה גם לא יושב באולפנים ומתנשא על אחרים למה חשבת שאני מדבר עליך Eyalo365 קשה לכם עם ביקורת אני מבין ביקורת מימין זה תמיד שנאת חינם והסתה ברור הגמל והדבשת יקירי אדם שלמד מדעי הדשא באוניברסיטה לא עבד בעבודה אמיתית לא ייצר שום דבר לא הוסיף ערך לעולם עובד בעבודה שתנאי הקבלה…  talgilboa  talgilboa ההיכרות אתך היא אחד הדברים הטובים שהרווחתי השנה baruchikra וחברי הכנסת העלובים של כחולבן חוץ מהם היטבת לדייק לשם שינוי Rereshef 🤦‍ ayeletlash9 בעיה YinonMagal בול YinonMagal שלום קלמן הבנתי שמפריע לך שגדלו בימין גידולי פרא לא עיתונאיים תגיד  מה לגבי דוברי הפרקליטות דוברי כחול לבן דוברי מרץ שממ… נדמה לי שעופר כסיף הוא האחרון בשמאל הקיצוני שעדיין לא כתב שקלמן הוא עיתונאי אמיתי אמיץ וישר avihaihaddad  avihaihaddad ביאסת אחי מה אני אתך באותה קבוצה   בין קלמן לריקלין אני ריקלין למה בקצרה כי אני נגד התייפייפות מגאלומניה וצביעות ובעד האמת הפשוטה והברורה בלי לע…  ההחלטה נפלה גם בכיפור לא אכנס לבית הכנסת אחריות אישית כולם Itzik27692460 מסכים לצערי אני לא רואה אף אחד בימין שבאמת נלחם נגד המערכת המשפטית במטרה לשנות אותה ולנקות אותה מהשחיתות הכל כך עמוקה אז התוקף של רן כרמי בוזגלו הוא דר לפיזיקה לדעתי הוא נבחר למשימה באופן רנדומלי עי המחשב של בגצ BarashiKinneret לא מדויק נשמה הוא רצה להגיש מכתב התפטרות אבל בדיוק גנץ סיים את ההצהרה ורץ לשירותים 1C7SMLikLaxvRGQ Gs4MkpmheD9H3ze הבעיה לדעתי טמונה בעיקר בהיעדר רייטינג רשמי ראוי ואמיתי 1C7SMLikLaxvRGQ Simon96364181 גם את הרייטינג האמיתי של 12 ו13 אנחנו לא יודעים arik3000 השאלה אם כל זה היה למרות שגנץ התאפק או שאולי הלחץ שבהתאפקות מוציא ממנו משהו טוב zivc137 זאת התשובה הכי טובה שלך YanivTurgi אין אין אין דברים כאלה avihaihaddad אלוף אתה 1C7SMLikLaxvRGQ  zivc137 תקשיב נשמה אם ראש הממשלה היה החבר והשותף של הסרסור הפדופיל הנאלח ערוצי השמאל היו מזילים עליו כל כך הרבה…  1C7SMLikLaxvRGQ תודה אחי עושים מאמצים אבל צריך לזכור שאין לנו 800 מיליון כמו לתאגיד ועדיין מתקדמים כל הזמן  Yanivamos3 tsipisasony galya צופים יותר ויותר ועדיין יש מקום לרבים נוספים יש פה כתבים שלא אוהבים את העובדה שבמסיבת העיתונאים של נתניהו ערוץ 20 קיבל את השאלה הראשונה עוד יותר הם לא אוהבים א…  BarakRavid קשה לך להתמודד עם שמיעת שאלות ענייניות ולא לעומתיות איש קטן arutz20 האם משרד האוצר מנפח את תקציבי הקורונה   לקטע המלאgtgt  התכניתהכלכלית ErezZadok1  arutz20 אות הקין של תקופת הקורונה  מה אפשר ללמוד מפרשת בראשית על ההפגנות בבלפור  התכניתהכלכלית ErezZadok1  arielschnabel הרגת ShayPatael  כשכחלון פרש הוא התלבט מה לעשות כדי שימשיכו לזכור אותו ואת השטויות שעשה שעולות לנו כל כך ביוקר אז הוא השאיר לנו את שאשא ביטון איזה מלך מתאים לו  BarashiKinneret baruchikra אין עליך כנרת אין עליך בוקר טוב נשמה Simon96364181 בדרך כלל אני לא עונה למי שמנסה להתווכח בנושא אבל אתה הרי יוצא דופן  אז תקשיב נשמה א אני יכול ל…  Simon96364181 אני לא מאמין לעיתונות לא רוצה לשמוע סיפורים במעמד צד אחד ולכן זה לא מעניין כשאאמין למישהו בוושינגטון פוסט אולי אקרא zivc137 omeryankelevitc זיו מה זאת השאלה הזאת אני מבין מהרשת שהוושינגטון פוסט פרסם משהו על הכביסה של משפחת נתניהו והדבר האחרון שמעניין אותי זה לדעת במה מדובר פשוט לא מעניין Get a life avihaihaddad וואי וואי אם לא היית עונה בדיוק את התשובה הזאת avihaihaddad אתה גאון Ayeletnnv JoshBreiner אני רק שהוא לא פגש אותי ולא הודעתי לו אבל כל השאר מדויק arik3000 Riklin10 omerdos arutz20 netanyahu אורי urizaki הוא מהשמאל והם בטח פתוח אז יש להם הגנת בלפור הם יכו…  מדהים איך מיקי חיימוביץ כותבת בקבוצת עלובי הנפש של כחולבן שהשיקול להמשיך לתמוך בהפגנות הוא פוליטי אין מספיק מילים…  Rereshef  אכתוב את זה ברור כל מי שטוען שאין הדבקות במסיבות הקורונה המופקרות בבלפור הוא  או מטומטם או שרלטן הדבר היחיד במדינה הזאת שצפוף יותר מהחוגגים בבלפור זה הטמטום בחדר הסיעה של כחולבן בכנסת arik3000 הטמטום חוגג ברמות שקשה לתאר Soloph0ne פשששש סחטיין על המהירות כחולבן מסיבות הקורונה המופקרות בבלפור לפני הכל arielschnabel אז עכשיו ניכנס לסגר חונק במיוחד רק כי זו הדרך היחידה להגביל הפגנות הקנאות המטורפת של קיצוני בלפור בסיוע דחלילי כחל״ב ב… Rereshef הציונות הדתית תנצח arielschnabel הייתי צריך פסק זמן כדי לקלוט rightStudent1 RoyIddan אני לא מרגיש את זה מקווה שאתה צודק RoyIddan איזה סגר איפה אתה רואה סגר arutz20 ערוץ 20 נענה לקריאתו של שר התקשורת יועז הנדל והחל מהיום יחוייבו כל הפאנליסטים והאורחים באולפן לעטות מסיכות על פניהם כל עוד א… Rereshef אפשר להתחיל עם שלום בית בקפסולות בחוץ אחכ נעבור למבנים סגורים התנועה לאיכות השלטון מאיימת ללכת לבגצ אם יגבילו את ההפגנות בכך היא הופכת באופן רשמי לתנועה לאיכות הטמטום הנבזות והטרלול YoraiLahav amitsegal יוראי אתה דביל באמת לא לשם הקנטה או התרסה אתה באמת דביל talgilboa טל אחותי את כמה רמות מעליהם בכל תחום ובכל נושא  שמתי לב שהרבה אנשים פה נעלבו שמנדלבליט לא ניסה לתאם אתם פגישה ושואלים איך אפשר בכל זאת ליצור איתו קשר ובכן שימו פ…  liranlevi פתק בכותל הוא כבר יענה לך amitsegal רק דת אחת בעולם כולו דורשת את המשך הפולחן גם במחיר חיי אדם הדת היא רק לא ביבי ופולחנה  הפגנה שבועית בבלפור הצעת הממשלה להרחיב את קיצוץ שכר הבכירים גם לשופטים לא תעבור את מבחן הסבירות של בגצ AvishayBenHaim מצטייר זה מה שהוא עושה והוא עושה את זה כדי לשרת את אלו שיכולים לבטל את צו איסור הפרסום ולחשוף את…  כדי שתהיה אחדות נתניהו צריך לפנות את כסאו למנהיג שיפסיד לשמאל ivgiz בתאריך שמנדלבליט יקבע bardugojacob אין שיא שהחוצפה שלו לא תשבור הלכתי לקנות אצהריים שכחתי מהסגר המוכר צעק אל תכנס תתרחק התרחקתי מה את הרגיל כן קראתי בחזרה תהיה עו…  6NuedRvlDrRFbj2 אין לי הסבר כי אני לא חושב שהטענה נכונה וגם אם היתה נכונה חלקית הצד השלילי שבהצעה כזאת גדול משמעותית מהחיובי ZZEr2hI7asWtYf3 יש לו כאלה בייביפייס שאני שוכח שיש לו רישיון עדכוני משרד המשפטים קלמן ליבסקינד קיבל חניה עמית סגל יוכל לחסום את גליקמן בכפולה חגי סגל יחנה במקום אסתר חיות עד…  הסירוב שלי לפגישה עם מנדלבליט היה כל כך החלטי וחד משמעי שהוא נמנע מלהציע לי פגישה כזאת avitsadok ronitlev12 תגיד תודה ותשתוק  מוזר שאסתר חיות נכנסה לבידוד ולא הכניסו את המדינה לבידוד כדי שהיא תוכל להסתובב חופשי ab19894 לגמרי naamasik  galithemi  sivankli עורכות ראשיות גלובס  נעמה סיקולר כלכליסט  גלית חמי דה מרקר  סיון קליניבל העיתונות הכלכלית נשלטת עי נשים בלי ט…  sabi0204 תפסיקי לדבר ותתחילי לעשות Rereshef הילדים לא שמרו על הקפסולות אשכרה הכל פה מטומטם KakLxMbah9XykjI היה לכם קצת פחות כיף אבל הייתם שורדים אז לפיד כותב שיש 42 אלף מובטלים חדשים מה האמת 91 מהם בחלת רובם המוחלט יוחזרו לעבודה בתום הסגר 3636 מובטלים ח…  yairlapid 91 מהם בחלת 9 מובטלים לעומתם כ9 מובטלים מצאו עבודה חדשה עובדות לא פופוליזם שמחתי לעזור YonatanKit מישהו כתב שם משהו חיובי על נתניהו urizaki עשרות זה בביכ גדולים בקפסולות עם מס יציאות כדי שלא יהיה ערבוב בתוך ביכ ממה שאני מכיר כולם עם מסיכו…  urizaki אורי אני לא מכיר אנשים שהתפללו בחלל סגור עם עוד עשרות כל מי שאני מכיר שמר על הכללים בטוח שיש כאלו שלא…  yoosiiiiii זה לא התרנגולות אחי אם אתה רוצה לעשות כפרות על מי שאחראי למחסור בביצים תצטרך להניף סביב הראש שלך כמה אנשים ממשרד החקלאות RubiYona  RubiYona וגם מונעת הדבקה ariehking גזענות בחסות הנאורות לפני שעה קלהכששוטר מגב הצטרף לחבריו בניסיון להדוף את המפגינים בבלפורהחלו המפגינים לפצוח בנהמות קופ… ISudri יופי של ציוץ לפתוח איתו את הבוקר תודה  kannnews ראש שירותי בריאות הציבור דר שרון אלרעיפרייס לromy1n כל הפגנה שבה אנשים נמצאים אחד בתוך השני בלי מסכות ובלי מרחקים … SababaYomtov לא מסכים שנתניהו צריך לפרוש BarashiKinneret  arutz20 עוד מבלפור  עשרות מפגינים תוקפים שוטרים קוראים לעברם קריאות גנאי ומצטופפים ללא קפסולות וחלקם ללא מסכות gtgt  IdoA13 מותר בוודאי מותר גם אני מבקר אותו עניינית וחושב שהוא טועה בגדול אבל אני מבקר את הגישה שמייחסת לכל אחד שמ…  אומר זאת שוב לחלוטין לא מסכים עם קלמן אבל מכבד את דעתו כשהיא לא מתאימה לי בדיוק כפי שאני מכבד את דעותיו כשהן מתאימות לי YakiAdamker קול שפוי תודה יקי Yigaltwitt בעד ממשלת ימין נורמלית ומתפקדת עזוב בעד ממשלה נורמלית ומתפקדת מנדלבליט טוען שהפוליטיקאים יכולים להגביל תפילות אבל לא הפגנות כי ההפגנות נגדם ובכן גם חלק מהתפילות נגדם סבבה 1Ycmeired BittonRosen אליהם כיוונתי BittonRosen עלובים פחדנים נמושות BlueNasaon אתה לא יכול לאחל דבר והיפוכו לא אוכל להצליח בעסקיי ולהפסיד בפוליטיקה תבין אני בעולם ההשקעות אנחנו צ…  aJ84buIkZWZU42L תודה רבה שהרמת לי להנחתה אתה חבר טוב על אמיר אוחנה התחילו לחפור בטירוף זוכר את אגח שופרסל עד…  BoazGolan ניצחת באשר לדעת קלמן שנתניהו צריך ללכת בגלל הקיטוב נניח שבנט מנהיג הימין ומנסה ליישם מדיניות ימין בפוליטי מדיני משפטי…  yesnomabyyes eladrosenfeld גרמניה השניה Yigaltwitt arutz20 אוקי אנחנו מסכימים שחייבים להחיל את הכללים על כולם כבר טוב אבל לא הבנתי למה ביקורת לגיטימית היא סכסכנות ופילוג hananamiur כמעט מייאש רק כמעט נכנסתי לרשימת 100 הנאצים המשפיעים  ymeshiz שנה טובה איש יקר avishaigrinzaig YanivTurgi והאמת והשלום וכו YanivTurgi avishaigrinzaig אני מקווה שלא דן אותו לזכות michaelhoss avishaigrinzaig YanivTurgi תיקנתי את אבישי היא לא ליכודניקית אלי כהן בא מכחלון אבל חזר לליכוד היא לא 8xJHSXjvLpKXpjK avishaigrinzaig YanivTurgi מחילה יש לכל אחד רק שיחזור בתשובה קודם avishaigrinzaig YanivTurgi מטעם המפלגה הדפוקה של כחלון frdswrvh arutz20 מה קשור אהוד ברק לפה wtmAvqi2LFwiAQm arutz20 גם NisanovGoHome arutz20 תקשיב אמרתי גם את זה Riklin10  arutz20 ארז צדוק למצב הגרוע בו אנחנו נמצאים יש כתובת אחת  מסיבות הקורונה המופקרות בבלפור  התכניתהכלכלית ErezZadok1  igalmalka יש לי 4 יציאות מהבית ומספיק שטח נראה לי שאני בסדר igalmalka נצעק אצלי או אצלך מה חיפשתי באיש השנה פוליטיקאי ימני שאומר לפקידים חברים המשחק השתנה אני הבוס מי שלא מרוצה מוזמן לחפש לו מקום…  JoshBreiner עכשיו אתה אומר את זה אחרי שביטלו הכל וכל אחד בישל לעצמו RonenRt עוצר עם החרגה אחת כמובן  מסיבות הקורונה בבלפור f5iz1VszkKB7xvb העניין הוא שגם שווקים בערים אחרות סגורים MAMOKAWINYA  למה שוק מחנה יהודה יישאר פתוח ושוק התקווה ייסגר avital1974d בוא נשמה אין לך באמת חברים  NadavPerry מתלבט אם זה עדיף מבלפור או ככר ציון רוצה לראות איך מביאים לשם את הארפיון של שושקה NadavPerry שופר רטוב לא עובד נדב אתה אמור לדעת את זה filbers בגדול חופש ההפגנה של כ 15000 ישראלים שהביאו לשבירת הציות של 5 מליון נוספים יעלה לנו בסגר של כ 20 מיליארד שח בחשבון פשו… talialin filbers הציוץ היהודי הכי עלוב כנראה אי פעם mosheifargan שכחת הפגנות shalommarko מסכים אתך אבל לצערי הרוב לא חושבים כך ופועלים מהבטן ולא מהראש wqxOMRMsu0ejzZT קראתי את ההחלטות אין שום מתווה הפגנה אשמח לגלות שאני טועה תקן אותי מתווה התפילות בשטח פתוח כפי שאושר הלילה עד 20 איש עד 500 מטר מהבית מרחקים מושב ריק בין אנשים סימון פיזי לה…  anatnh שלום בית SimahovAlbina איזה חיה SimahovAlbina טבע האדם באמת נראה לכם שהישראלים ישמרו על כללי הסגר כשמסיבות הקורונה ההזויות המטורללות והמופקרות בבלפור יימשכו נפלתם על הראש שר הכלכלה של האמירויות לאחר השיחה עם עמיר פרץ אני מקפיא את כל ההתקשרויות והיחסים הכלכליים עם ישראל עד שאקים ועדי…  Riklin10 אסביר לך אחי כשאתה בעד ביבי זה תקיעה כשאתה נגד ביבי זה שברים כשאתה מתלבט זה תרועה אבל שופר זה שופר אתה מבין limorh6 מי זה Skasher נגעתי בנקודה רגישה שירית אז אחמיא לך לפחות את מודעת לצביעות יש כאלה שנראה שהם בכלל לא מודעים ורק כדי ש…  Skasher חחח איך לא אכפת לכם משחיתות אם היא מהצד שלכם שאלה שאף פעם לא תהיה לי תשובה עליה אם אתם יותר צבועים או יותר מושחתים בעל השליטה החדש באלעל מנהל מגעים עם אורי סירקיס מנכל ישראייר אורי אם אתה הולך לנהל את אלעל תתנה את זה בפירוק…  michelletelaviv תודה נשמה  AhronPchter שנהיה כולנו בריאים עד אז  כבר זמן רב לא ראיתי בית כנסת מבפנים למרות שיש בית כנסת מרווח בבניין המשרדים שלנו אנחנו מתפללים בחוץ שתיים בצהריי…  yoosiiiiii מצחיק ועצוב 8xJHSXjvLpKXpjK JoshBreiner וצדקת JoshBreiner עזוב את מספר הפעמים שעשיתי פולו אפ ועל הקשר התכתובות עם מושל אוהיו עובדות זה לחלשים גוש  אבל תודה על הציונים ריגשת JoshBreiner אותי מעניין מעשים דיווחתי על העברות כספים חשודות באי חוקיות מפדופיל נאלח מורשע דרך קרן שהוא היה נשיא…  JoshBreiner מצפה לתשובתך גוש התלונה בארהב נגעה להעברות הכספים של הפדופיל המורשע איזה חלק במערכת הערכים שלך גור…  BhMeir 🤦‍ 8xJHSXjvLpKXpjK  שנה טובה JoshBreiner רק מי שמגן על מושחתים ועל חברים ושותפים עסקיים של פדופילים מורשעים מהנאלחים שידענו יכול לזלזל בדיווח…  ביקורת פנים במשרד המשפטים הודיעו לי שתיבדק שאלתי האם ליאת בן ארי שילמה מס הכנסה בגין הטבה ממעביד   קבלת שירותי דוב…  YinonMagal חבר חקיין  yairkraus תנועת שמאל סוציאליסטית למה ציפית בית ספר בגוש דן נסגר כולו בגלל מורה אחת שנדבקה בקורונה ומלא מוריםות רשלנים וחסרי אחריות שלא שמרו על הכללים בסוף ס…  elnatanSch למה אתם נגד שלום עם האמירויות ובחריין JoshBreiner אחי קח  תתרגל את הכתיבה של זה מסיבות קורונה בבלפור מסיבות קורונה בבלפור מסיבות קורונה בבלפור מסיבות…  elnatanSch  DilmoniYigal לא מבין את חברי במועצת ישע שלום עם מדינות ערב כמעט בלי אזכור ערביי ישע ונטישתם בפועל מחליש את מעמדם את הרשפ וא…  Riklin10 חבל שהחליפו למטוס אחד וחבל שלקח אותם igalmalka מי זה שרון חולדאי jiri47910031 הצעה aJ84buIkZWZU42L קודם כל תבדיל בין מדיניות לאכיפה לגבי ביכ למרות שיש בבניין משרדים שלי ביכ אנחנו מתפללים בחוץ…  חזרה אלינו התוכנית למלחמה בקורונה ביטול הסגר קנסות עצומים לחתונות מסיבות פאבים וכו שיפרו את ההנחיות במגזר הכל… </t>
+  </si>
+  <si>
+    <t>Normalizing SudanIsrael Relations Now is a Dangerous Game write paytonknopf and JeffreyFeltman   arielelharar עשיתי ראיון לעיתון החג עם אחד מפעילי השמאל המוכרים הרגשתי בתור חרדי בדיוק את מה שהוא הרגיש כל הקורונה מעניין AfifAbuMuch הטור שלי הבוקר בYediotAhronot  על הסכמי הנורמליזציה הכישלון הפלסטיני תחושת המיאוס בעולם הערבי ושימור הסטטוסקוו של… JoshBreiner אפשר להיות פוליטקלי קורקט ואפשר להתייפיף אבל האמת המרה כפי שכותב AnshelPfeffer  שרוב המגזר החרדי מוביל אותנו להדרדרות מט… chaimlevinson  האום מאבד את זכות קיומו  האום מסתכן באבדן הרלוונטיות והלגיטימציה שעוד נותרו לו  הארגון היוקרתי והמנופח חייב… AnshelPfeffer כתבתי הבוקר בהארץ על טיול רגלי בבוקר כיפור בשכונות החרדיות של ירושלים  המסקנה המרכזית ההנהגה החרדית ברובה החליטה במ… IshayShnerb הצעת חוק שבעה חודשים מתחילת המגפה פוליטיקאים לא יורשו להשתמש בלשון עתיד בהודעות לעיתונות המבשרות על מהלכים שהצורך בהם יד… VeredLee1  talschneider פופי הרלו לדובר הבית הלבן הנשיא לא פרסם מסמכים שיסתרו את הפרסום של הני״ט תפסיק לתקוף את העיתון כאילו עשה יד עם המפלגה ה… KseniaSvetlova שלא תדעי עוד צער חיבוק גדול NadimKoteich كل التمنيات لفايروس كورونا بالشفاء من جبران باسيل EladStr On YomKippur we are dedicated to reconciliation with ourselves God and each other We commit to selfreflection and inner ch… On this Yom Kippur I wish all my followers in Israel and around the world Gmar Hatima Tovah To all of you who are…  IvankaTrump As Yom Kippur begins tonight I wish all the Jewish people observing this sacred day of atonement an easy fast and meaning… noamfathi גמר חתימה טובה נעם becktalia וגם מהדורות חדשות ופאנלים שפתאום לא שלמים בלי אנטידמוקרט נלהב אחד לפחות SecPompeo Wishing a blessed and sacred Yom Kippur to all the Jewish people May your fast be easy and meaningful Gmar hatimah tovah… גמר חתימה טובה לכל עוקביי בישראל ובעולם צום קל מועיל ומשמעותי לכל מי שצם והעיקר תהיו בריאים hagarsi yairlapid BenCaspit MeravMichaeli tamarishshalom בשמחה zalmanovitz תן בראש amirtibon Chasing AOC is a waste of time for liberal Jewish Zionists It would be better to focus on political leaders who actually wa… amirtibon Liberal Zionists it’s time to admit AOC just doesn’t want to be your friend And thats OK    מי שמסתמן כבר עכשיו כתגלית השנה הקרובה הוא zalmanovitz ממליץ לכם לעקוב אחריו AfifAbuMuch מציע ביום זה ללא מעט עורכיםות לבקש סליחה מהציבור הערבי על הדרתו המתמשכת מהאולפנים יש לי חדשות בשבילכם אפשר להזמין רופא… itzikelrov למה נתניהו עושה השוואה בין החרדים למפגינים אני מבין לגמרי  מייצר ספין  למה אנחנו החרדים נופלים למלכודת הזו כשברור לכל י… המפגינים בבלפור עשו הכול כדי למנוע מנתניהו תמונת ניצחון כותב danieldolev  נדב מנוחין כשמאות אלפי מובטלים יושבים בביתם בחרדה עצומה לעתידם הכלכלי המהדורות העדיפו לעסוק באובססיביות בשאלות…  newsisrael13 לא נכון זה ממש לא מה שכתוב בדיווח מדויק  כל השירשור  razshlomo חתן פרס נובל פרופ ישראל אומן בראיון לנחום ברנע  DanielBShapiro Very disappointing decision now confirmed by AOC not to attend this event A mistake to give in to pressure a misse… jacobkornbluh אזרחי ישראל היקרים  עם כל הקושי שבדבר אני מאוד מעריך את שיתוף הפעולה של רוב אזרחי ישראל   חייבים לעצור את שרשרת ההדבקה… BenCaspit מי שהוציא את ההמונים אתמול לירושלים לקיסריה לצמתים לגשרים למחלפים ולכל מקום מי שגרם לבני 90 לצאת מהדיור המוגן עם ההליכו… oronrazz לא יכול לפרט על החלק הזה Ygygygyg17 לא יכול לפרט על החלק הזה segaleran נראות ערבות הדדית וסולידריות בגלל זה צריך להשהות כרגע את ההפגנות הגדולות לא בגלל ההשפעה הזניחה כרגע על התחלואה  אז בי… segaleran חשבון פשוט אחרים גם עשו מראה שלהפגנות יש כרגע השפעה זניחה על התחלואה ועדיין לדעתי כרגע צריך להשהות אותן  הנה חשבון מוגז… בתחילת האינתיפאדה ה2 כמה ימים אחרי הלינץ ברמאללה היו אינדיקציות שעיראק של צדאם שוקלת לשלוח כוחות הטלוויזיה העירא…  מי שחושב שאת הקורונה מנצחים עם עובדות מדעיות ועם נתונים ולא באמצעות ספינים פוליטיים חייב לקרוא את הכתבה הזו הממשלה…  yaakovkatz מנהיגות מודל תשפ״א משסע מפלג ומפצל  עמוס הראל כותב בזמן שנתניהו ממוקד בדיכוי במחאה התחלואה בחברה החרדית מזנקת מספר הנשאים החרדים מטפס כבר יותר מחודש…  AfifAbuMuch לא יודע נראה שבבלפור יצטרכו לעדכן את התגובה הקבועה לאהוד ברק  chaimlevinson וזה בדרך למשדר סליחות שאלוהים יעזור לי  horowitzb בערב יום כיפור חייבים להיות אמיתיים עם עצמנו אין שום סיכוי שממעל 8000 נדבקים ביום נראה ירידה דרמטית בתחלואה לכמה מאותעשרו… axios  The fact that world leaders couldnt gather in person for this years General Assembly was another setback for Palestinian le… AfifAbuMuch darkenuIL כל הכבוד אחי התנהלות נתניהו בימים האחרונים תידלקה את זה  amirtibon אמא של אשתי עלתה לארץ מרוסיה לפני 30 שנה מעולם לא הלכה להפגנה לא התעניינה בפוליטיקה התעסקה בפרנסה ומשפחה וסמכה על השלטון… BenCaspit לבין עתונאי כלומר בועז כהן השופר מערוץ 20 המשפט האחרון נאמר עי קרעי טוב אז גייסנו את בועז שפשוף נעים  BenCaspit טוב בבירור הכי מרגש היום דיירי הדיור המוגן ברמת השרון יצאו להפגין אחד מהם שמואל כסלו ערך סרטון אלה האנשים שבנו את המדי… AnshelPfeffer עכשיו סופגים את העלייה במבדקים מהתקהלויות הסליחות בימים הקרובים יהיה את הגל של תפילות ראש השנה בשבוע הבא נקבל תפילות י… anerhaim1 גיליתי שבמהלך השבת שני אנשים יקרים לליבי נכנסו לקו האש אלו הן דעותיי בנושא   חיים לוינסון לא צריך עזרה הוא אוכל את פתחי כ… Shiritc אפשר לעזור freyisrael1 Shiritc במקרה במקרה ההגבלה היחידה שהממשלה רוצה לבצע ללא הכנסת היא ביטול ההפגנות נגדה צירוף מקרים ItayBlumental כ 20 בני אדם שהפגינו הערב במסגרת הדגלים השחורים בשכונת שפירא בדרום תא הותקפו על ידי שני רוכבי קטנועים שעברו במקום נדב… GrandmomLiza BarakRavid RMatsliah pgoshMTP N12News ברק שאפו לא נותן  לדמגוג פתחיה לגנוב דעת עם שקרים הזויים itaizil עכשיו בפגוש noamfathi טוען שהציוץ הזה של BarakRavid הוא עידוד עלייה להפגנה בבלפור ולכן לא אכפת לו מהנפטרים מהקורונה אני י… בעוד כמה דקות אדבר אצל RMatsliah בpgoshMTP בN12News מוזמנים לצפות  כל כביש 1 קילומטרים על קילומטרים של שיירה במסלול הימני אלפי כלי רכב של מפגינים  כביש 1  לכל נוסעי השיירה לירושלים כבו בבקשה את הווייז האפליקציה חושבת שכל כביש 1 פקוק ולא מזהה שזה רק המסלול הימני היועץ המשפטי של משרד הבריאות אורי שוורץ העביר אתמול למזכירות הממשלה חוות דעת לפיה קיימת מניעה משפטית להגביל הפגנות…  Ibishblog tabacoffd Many people dont think it is a non issue talshalev1 עכשיו ב WallaNews  גם במהלך הסופש נמשכו השיחות בקואליציה על העברת תקשח להגבלת הפגנות במשאל טלפוני בכחול לבן הבהירו לאד… במהלך סוף השבוע המשיך נתניהו לקדם תקנות לשעת חירום להגבלת ההפגנות במטרה להעביר אותן בממשלה לפני יום כיפור הדיווח ש…  chaimlevinson מישהו יודע מי החברים של גיימס פאקר בישראל אביעד גליקמן לא גיא פלג לא מעניין 🧐  בעקבות לחץ מצד פעילים פרופלסטינים אוקסיוקורטז ביטלה את השתתפותה באירוע לזכר רבין  בתחילת השבוע קיימה משלחת סודאנית שיחות באבודאבי עם בכירים בבית הלבן בנושא הנורמליזציה עם ישראל והוצאת סודאן מרשימת…  אלבורהאן לא התייחס ישירות לסוגיית היחסים עם ישראל אך ציין כי סודאן עומדת בפני הזדמנות חסרת תקדים להסרתה מרשימת הטר…  דבריו של חמדוק הבליטו את המחלוקת בין הפלג האזרחי של השלטון בסודאן לבין הפלג הצבאי בראשות יור מועצת הריבונות הזמנית…  ראש ממשלת סודאן עבדאללה חמדוק שעומד בראש הפלג האזרחי של השלטון הזמני במדינה אמר היום כי סודאן מתנגדת ליצירת קישור ב…  גם באיראן מחזירים את הסגר  jhaboush BREAKING Lebanon’s PMdesignate steps down after failing to form a new govt Sanctions likely to follow from France now t… מה שנדב אומר  שחקנית בריטית טוענת שהמיליארדר האוסטרלי גיימס פאקר מקורב למשפחת נתניהו ואיש מפתח בתיק 1000 כפה עליה לקיים יחסי מ…  chaimlevinson יתרה מכך הערך הועמד למחיקה היוזר האנונימי נאבק בדף השיחה נגד המחיקה הרחיב את האייטם במידע רב שלא ימחק טען שטען שהרדי… chaimlevinson למי שתהה למה נעם פתחי קורא לעצמו סאטריקן בויקיפדיה זה כנראה בזכות הסאטירה המשובחת הזו תנו לו לייק רחמים AnshelPfeffer halbfinger AOC It’s not really about the Palestinians or about Rabin It’s an internal squabble between tiny factions… halbfinger New peak reached in IsraelastoxicissueforDems aoc pulls out from Peace Now event honoring Rabin’s legacy under fire… amirtibon ArthurLenk 90 of elected Democrats including many of the young congresswomen first elected in 2018 would love to attend… tcwittes In which a US official who says she supports a peace agreement between Israelis and Palestinians shuns the US affiliate of Is… chaimlevinson אוקיי רבותיי כשכתבתי את הציוץ המקורי לא ידעתי שהקמפיין המבריק עם ההומור הבריטי הצונן והדק של שוקה זה של נעם פתחי  סל… A must read  YairRosenberg AOC Ill give the last word to a progressive Israeli and Egyptian You dont make peace between friends you do it by… YairRosenberg If AOC cant even do an event with Peace Now remembering Yitzhak Rabin the general turned peacemaker killed by a fa… mkoplow If you can’t recognize and honor the Israeli PM who recognized the PLO ceded Israeli sovereignty for the first time in parts… mkoplow Enormously disappointing decision by AOC to withdraw from PeaceNowUS Rabin event There is no such thing as a peacemaker wit… issacharoff bariweiss It’s sad that instead of strengthening the moderates on both sides she supports the extremists on one side… Ahmadtibi לזכרם  StavShaffir AOC alexbkane When we stand for peace there will  be those who will tell us its impossible even threaten us Rabin st… פתיחה חזקה ביותר של DanyCushmaro באולפן שישי בN12News bahdiplomatic وزارة الخارجية ترحب بنتائج الاجتماع التنسيقي الذي عقد في العاصمة الأردنية لإحياء عملية السلام في الشرقالأوسط  tcwittes ilangoldenberg BarakRavid AOC alexbkane PeaceNowUS Dear AOC Rabin shook hand w his lifelong enemy declared “enough of… ilangoldenberg BarakRavid AOC alexbkane Also PeaceNowUS is a great organization that is true to progressive values ilangoldenberg BarakRavid AOC alexbkane AOC I hope you do this Rabin was assasinated for pursuing peace He was a military man e… MChesterB BarakRavid AOC alexbkane I second this It was such a hopeful event It may didnt turn out as expected but it was a move… chaimlevinson אתם חושבים שגם עליהם יגיד מיקי זוהר שהם מפיצי מחלות כפי שאמר על המפגינים בבלפור ונתניהו יוסיף שמדובר במדגרת קורונה… RonenManelis BarakRavid PeaceNowUS FarkashOrit אין ספק שלשמוע לדבר ולנסות להשפיע גם עם מי שלא מסכים איתנו היא הדרך שאנחנו מאמיני… I hope not  chaimlevinson חשבתי שראיתי הכל בימי חיי אבל קופרייטר כושל שלולי היה מלקק לביבי היה כותב היום ברושורים למאפיות טוען שקלמן ליבסקינד הו… Suvanji לעתים רחוקותביבי צודק נקווה שהיא לא תתקפל  AOC alexbkane I hope you do attend the event You make peace with your enemies This is what Rabin did He was assassinated for doing this מסכים עם כל מילה של ראש הממשלה  chaimlevinson פרסום ראשון בעקבות פרסום תמליל מחקירות נתניהו  השבכ הגביר האבטחה סביב ראש הממשלה  shemeshmicha יזהר שי היום בזום לפעילים של כחול לבן  ״נתניהו עשה לנו תרגיל פוליטי אני משוכנע בזה  עוד פרטים בטלגרם  אירוע מעניין מאוד אגב  זו בדיוק הדרך להילחם בBDS לדבר עם המבקרים ולמצוא נקודות הסכמה כל הכבוד לPeaceNowUS מ…  jacobkornbluh Rabin signed the Oslo Accords Rabin signed a peace treaty with Jordan Rabin sacrificed his life for peace Rabin was a… eliorlevy חייבו את כל המנהיגים לשלוח נאום מוקלט של 15 דקות ולא יערכו אותם galberger תוספת קטנה בעיקר מחכה לאחרי הבחירות באמריקה ומתפלל שביידן ינצח Important thread  BREAKING Palestinian President Abbas called in his UNGA speech to convene an international peace conference on the…  הנשיא הפלסטיני מחמוד עבאס אבומאזן בנאומו בפני העצרת הכללית של האום אני קורא למזכל האום להתחיל בהכנות בשיתוף…  chaimlevinson פרסום ראשון של יערה זרד  talshalev1 1מנכל משרד הבריאות חזי לוי על המכתב שנשלח לבקשת אדלשטיין הנקודות הועלו בישיבת הקבינט ואף היו חלק מעבודת מטה עם המשטרה וה… avischarf טוויטר שמקום מושבה מעבר לים מאפשרת ביזוי והשפלת ישראלים היא שוכרת משרד עוד מקומי שינסה לא לאפשר לישראלי שנפגע להתגונן ש… מאמר מדוייק של KalmanLiebskind על חבורת ריקליןברדוגותדמור ושות למרבה הצער יש עוד הרבה כמותם טוב שקלמן כתב או…  بالضبط  נתניהו האשים את הציבור  בלי גרם של חשבון נפש כותבת KerenMarc  MarkZlochin אפשר לשער שנתניה ינסה להשתמש בחוות הדעת של חזי לוי כדי להצדיק מגבלות קיצוניות על ההפגנות לכן חשוב לשים לב לחלקים המודגשי… chaimlevinson נתניהו בתגובה   בכל הקריירה שלי היו מצבים רבים שלא שמעתי לאנשי המקצוע וצדקתי במאה אחוז kaisos1987 עסקת המאה כבר לא תהיה בקרוב אבל הטרלת המאה אולי תארו לכם שהיום בזמן נאום אבו מאזן באום טראמפ מעדכן על עוד מדינה שמצטרפת… SefyHendler נשמח לקרוא את הנתונים והמחקרים המדעיים עליהם מתבסס מנכל משרד הבריאות במכתבו AlonPinkas אה ״מענה״ מענה זה יפה ומנומס talshalev1 פניתי בשאילתא למנכל משרד הבריאות כדי לשאול מה מטרת המכתב שנשלח באופן חריג ביום שישי בצהריים והאם הנקודות לא הועלו בישיבות… בלשכת שר הבריאות מאשרים כי הרקע למכתב ששלח מנכל משרד הבריאות חזי לוי לנתניהו הוא מענה לבקשה של השר אדלשטיין השר…  aviadglickman ובגלל זה נתנו למשטרה סמכות בהפגנות לתת קנסות על אי שמירת מרחק ועל מסכות וגם סמכות לפזר הפגנות זה אותן תקנות שלפי חישוב… לפי המכתב הזה חייבים לסגור את בתי הכנסת ביום כיפור  אני מאוד רוצה לקוות שזה לא מכתב מוזמן של נתניהו ואדלשטיין כדי לקבל כסות מקצועית לדיכוי ההפגנות אבל זה מריח לא טו…  ברייקנג מנכל משרד הבריאות לנתניהו ומנדלבליט כל התקהלות בלתי מבוקרת ונשלטת בוודאי בחללים סגורים ובמידה פחותה א…  talshalev1 נתניהו אומר שההפגנות מחזקות אותו בינתיים נראה שהוא עושה לא מעט כדי לחזק אותן בחזרה erancherpak והעמוד השלישי שנשמט  erancherpak מוטב מאוחר מאשר אף פעם הטור של קלמן מהיום  talshalev1 עכשיו בצומת נתניה ועוד צמתים ברחבי הארץ שיירת תקווה של המחאות יוצאת למסע בין ערי ישראל  prokooter גידי וייץ פרסם היום תמלילי חקירות ארוכים מסמרי שיער אבל את הקטע הזה אני אקח איתי גבירותי ורבותי זה האיש שבגללו ישראל נכנס… בהחלטתה על הסגר שיעבדה הממשלה את עתידנו הכלכלי למצבו המשפטי של נתניהו כותב peretzsami  avischarf The Haredim have a strategy for dealing with the plague Change nothing It may cost more lives but once over they believe… אחרי שיחה עם בני גנץ יזהר שי לא יתפטר מהממשלה זה מומלץ תמיד  אבל עכשיו בסגר עוד יותר תעקבו אחרי freyisrael1 תענוג צרוף adiryanko כל הסיפור בשתי תמונות אחרי ההכרזה על סגר הרמטי שיחל מחר מהו ההבדל בינו לבין זה שנכנס לתוקף ביום שישי האחרון תראו בעצמכם… Nefolet החל ממחר תשבו בבית ותחשבו על מה שעשיתם לביבי freyisrael1 arielikobi רגע כל הזמן היית נגד הפגנות בלי לדעת על מה הם chaimlevinson  שאלה לכתב לוינסטוןNews  אדוני ראש הממשלה איך זה שאתה כל כך מושלם כל כך מנהיג כל כך חכם מנצח הקורונה משחרר יר… kann היינו שאננים בעיקר מוני  בהצלחה עם העם הבא   פרק חדש מהניילונים של זהוזה2020 2115 בכאן 11 ואיפה עוד בדיגיטל   עמוס הראל כותב ראש הממשלה כבר נמצא בעיצומו של גיהאד נגד המחאה ואם לשם כך צריך לסגור בסגר חונק את המשק כולו צעד…  JoshBreiner קיצר אנחנו אשמים RuthiLandau BarakRavid האיש המובטל המתגורר בבלפור ירושלים NadavEyal ההצהרה של נתניהו הציגה מצג עם הגיון פנימי לגבי מצב החירום לקח אחריות על ההחלטה וזה עליו  ואז הוא תקף את האופוזיציה ואת המ… chaimlevinson אגב חוק הקורונה עבר על 4 קולות אם ימינה היו טורחים לבוא החוק היה נופל מעניין אותי מי בלשכת ראש הממשלה כותב את השאלות לערוץ 20 נתניהו הוכיח הערב שבאמת אין גבול לבריחה מאחריות מי שפתח את המשק בלי חשבון ובלי תכנון קפדני וקרא לכולם לצאת לבלות מ…  ariehkovler To put it another way more Israelis were killed by the coronavirus in the last ten days 214 than were killed by terrori… ariehkovler According to Israels Health Ministry 1376 Israeli residents have died of Covid19 surpassing the death toll of 20 years… jacobkornbluh Scoop Jared Kushner speaks to AIPAC for the first time in his White House role  The White House senior advisor spoke ye… BenHowardIL לא מצליח להבין  אנשים רואים את הטיטניק טובעת ואף אחד לא קופץ BarakRavid rshamir אחת הכתבות היותר מפחידות ומטרידות שתקראו הערב BarakRavid מתאר את ישיבת הממשלה מאתמול ואת הדרך בה מתקבלות החלטות של חיים ומוו… NadavEyal פרסמתי הערב משרד הבריאות וקבינט הקורונה מנסחים אסטרטגיית יציאה השאלה הגדולה האם לאמץ אסטרטגיה של דיכוי הנגיף עד אפס או ק… gabibarh כולם בדיכאון כולם בחרדה כולם עבדים של הילדים בזום כולם מפחדים מהעתיד מחשבון הבנק המתרוקן מהנפש שמטרללת אמסלם קראו לי ש… עצבני אפוקליפטי ונרגן נתניהו דרס את אנשי המקצוע והשרים בדרך לסגר השני קראו את הפרשנות שלי בWallaNews עם הרבה פ…  NaamanStavy בשואה כמו בשואה אנקדוטה מישיבת הממשלה הלילית שר החוץ גבי אשכנזי צידד בהחלטה להשאיר את בתי הכנסת פתוחים ביום כיפור והשתמש באנלוגיה…  גנץ ימסור הצהרה בנושא הסגר ב2015 המשוואה הפגנהשווהתפילה של נתניהו היא שקר מרושע שיעלה לנו ביוקר כותב baruchikra   להקיא  wasilalitaha The article by jakesNYT appears understandably so very sympathetic to the terror victims but doesnt make any mention… OdehBisharat BarakRavid יש כאלה שמאוד עצובים שחיים ראה את המודעה בעיתון talshalev1 מה שכן איזה מזל שבני גנץ נסע השבוע לאמריקה YakiAdamker למי שלא קרא פה    YakiAdamker כשהושבעה הממשלה יזהר שי סומן כאחד האויבים הפוליטיים של נתניהו חשדו בו לא האמינו שיעבוד כתף לכתף ובחנו אותו משל היה מיש… DaphnaLiel נוצר פה ניגוד עניינים בעייתי רק במצב של סגר כללי ניתן לאסור לגמרי את ההפגנות בבלפור כשבשאר הזמן המפגינים יצטרכו לשמור על… talibo8 איזה פחד איזה פחד איזה פחד ViciousVictim המסמך הזה של Izhars7 ראוי שיהיה לו מקום של כבוד ב׳ועדת אגרנט של משבר הקורונה׳ שתוקם בוודאי בעתיד הלא רחוק אני מצדיע לו goldman1007 השר Izhars7 הוא אחד האנשים ההגונים והרציניים שאני מכיר אם יורשה לומר הוא מתון באופן קיצוני לכן המכתב שלו קריאת חובה אם… jw17061 לשמור לוועדת חקירה rolbishaul מטריד ביותר איזה מזל שחיים ראה את המודעה הזו בעיתון הוא נכס לעיתונות הישראלית  קו ברור וחד מחבר בין מכתב ההתפטרות של שאול מרידור לבין הדברים שאמר אתמול יזהר שי בישיבת הממשלה המסקנה לגבי התנהלות…  מחכה לעדכון  WallaNews חוסר טקט על המסך לא ברור אם צבי יחזקאלי הוא יותר חצוף או יותר חסר מודעות  natitucker אחרי חודשים של שליטת רשת 13 בטבלת הרייטינג בזכות הישרדות המומנטום כל כך התהפך לטובת קשת 12 עד שאתמול המרוץ למיליון עש… השתקת מומחים עקיפת שרים זגזוג בהחלטות סלחנות לגבי התפילות ואובססיה לגבי ההפגנות השר Izhars7 בעדות מבפנים על הכ…  השר יזהר שי צפוי להיפגש עם יור כחול לבן בני גנץ בשעות הקרובות כדי לדון באפשרות שיתפטר מהממשלה לאור ההחלטה על הסגר הכולל zalmanovitz אני מחבב את השר יזהר שי הוא מהאנשים הרצינים היחידים בממשלה  באיחור לא אופייני הוא גילה כמה הממשלה הזאת לא שווה את הדף על… alonkes חובת קריאה חברים וחברות erant יזהר שי הוא היחידי בממשלה שמבין משהו בבלימת הקורונה והאדם הכי פרקטי שם כדאי לקרוא את מה שהוא כותב DoronHorowitz מדינת ישראל עומדת על קצה המצוק ומבצעת צעד אחד קדימה BarakLS לקרוא ולבכות chaimlevinson כל דקה שגמזו לא מתפטר הוא משתתף בהונאת הציבור כאילו יש אלמנט מקצועי בהחלטות ItamarKatzir אני באמת לא מאלה בדרך כלל אבל סו קריאת חובה אנחנו בני ערובה של ממשלה שפועלת נגדנו  כולנו  בלי הבדלי דת מוצא מגדר וש… idanlandau בניכוי הטפיחה העצמית על השכם יזהר שי מסביר כאן במילים פשוטות שנתניהו פועל כדיקטטור oferdann מילים כדורבנות של השר Izhars7  אבל אין לזה כל משמעות אם אחרי כל זה הוא ממשיך לשבת בממשלה הזו asaflib זה מה שקורה כשאדם רציני כמו יזהר שי מבין באיזו ציניות מנהלים כאן את המדינה כדאי לקרוא השר יזהר שי הצביע נגד החלטת הממשלה על הסגר זה מה שהוא אמר לפנות בוקר בישיבה קריאת חובה לכל מי שאכפת לו איך מתקבלו…  AnshelPfeffer מעולם לא התקיים בממשלת ישראל בשעת חירום לאומית דיון כל כך עקר ומנותק מהמציאות מסגירת בתי הכנסת פרשנות שלי הבוקר ב ⁦Haa… benirabin דווקא עכשיו מיליון אנשים שיצאו להפגין בכל יום ויום בכל עיר ועיר בכל פינת רחוב בשעה קבועה itamareichner ממשלה מתנהלת כמו מתנס 4 שעות אחרי סיום ישיבת הממשלה אין עוד הודעה לא יודעים מתי הסגר מתחיל לא יודעים מתי נתבג ייסגר… amirtibon החילונים ייתקעו בבית אסור להם ללכת לפארק או לחוף הים אסור להם לעבוד עכשיו אסור גם להפגין אצל החרדים יהיו עסקים כרגיל ביש… NadavEyal אין אפשרות ליצור אמון בציבור אם מסתבר שגמזו והגורמים המקצועיים לא תמכו בסגר הזה במתכונתו החריפה ואם שורה של שרים מדווחים ש… avischarf מישהו הוציא בחול את הכביסה המלוכלכת על הכביסה המלוכלכת של ביבי</t>
+  </si>
+  <si>
+    <t>bambyshely Bbbsot2 אז מה אבל רק עכשיו זה הגיע לוושינגטון פוסט כולל פרטים מלפני שבוע Demoscratos11 חשבתי שבני ציפר הוא מעלי אקספרס חחח או שהוא הכובס שלהם זה נהיה יותר מצחיק מרגע לרגע לפי הוושינגטון פוסט הנתניהוז הביאו איתם מלא כביסה מלוכלת לבית הלבן כדי שינקו להם ו…  judash0 אלה בדיוק הערכים שאיש לא רוצה אם אלה היו ערכים שמישהו רוצה סמוטריץ׳ לא היה זוחל לכנסת בקושי איש איום הסגר המתוכנן הוא טירוף זה טמטום ובעיקר שפיכת מנוע מי יציל אותנו אולי ראשי הערים שיתעוררו אולי רון חולדאי בדרכו…  arianamelamed תנוח דעתך אריאנה אוכל במטוס הוא אף פעם לא טעים זה חוק טבע EldadYaniv 🧡🧡🧡 אם נפתלי בנט רוצה להיות ראש ממשלה ולהעביר אליו מצביעי מרכז חילונים הוא יצטרך להבדיל את עצמו גם מהומופובים מנומסים…  זה שקלמן ליבסקינד מדבר בנימוס ולא מנבל את הפה לא אומר שהוא לא ניבזי בנסיונות העיקשים שלו להוכיח איזה כיף זה שהומוא…  לפעמים קריאת חובה היא באמת קריאת חובה מדהים  harnevo מדהים כל הכבוד arianamelamed אריאנההההההההההה nadavabeksis אוי מחמאות לנתניהו לשרים מירי רגב גדעון סער יואב גלנט ישראל כץ ואחרים וקריאות בוז לאורלי לוי ניר ברקת אחמד טיבי וצחי חרטא אז לסיכום השבוע סיכמתי במאקו מה קרה סביב החוק נגד טיפולי המרה צל״שים לניצן הורוביץ איתן גינצבורג בני גנץ גבי אש…  GabiAshkenazi גבי כל הכבוד לך אל תיבהל מהמטורפים השכל הישר בסוף ינצח GabiAshkenazi תודה גבי תודה רבה לכם 🧡🧡🧡 tuchfeld אתה רוצה סקנד אופיניין אתה גם רשע מי ״רוצה״ טיפולי המרה ולמה הרב לוינשטיין תובע את גל״צ בטענה שהם אמרו שהוא בעד אבל הוא נגד TehilaFriedman כל הכבוד לך BarakRavid NitzanHorowitz AmirOhana עלוב NirBarkat  עלוב TzachiHanegbi   איך תסתכלו עכשיו לאמיר אוחנה בעינים LapidotYisahi הוא כבר התנצל בניגוד אליהם תוך שעות ומכל הלב ולא תוך שבועות ובחצי תחת NitzanHorowitz AgudaIsraelLGBT AviNissenkorn כל הכבוד ניצן להעלות מהאופוזיציה חוק כזה ולהעביר אותו בלי שיצעקו ש…  OhanaZion ציון תסתובב כבר ותן לעצמך להנות adleryonatan אבל כן תודה למי שבא adleryonatan רק חצים באו ליברמן לא בא והם לא הובילו את המהלך MikeGavriel תבוא איתנו אחורה תהנה כמו שלא נהנית בחיים mebitmehazad התנצל די YosefShua נכון סליחה כתבתי מהר GiladGal64 התנצל huandebubar ממש מצחיק מגרה אותך AyOdeh AviNissenkorn EitanGinzburg MeravMichaeli AmirOhana ishmuli YoazHendel1 ZviHauser gantzbe NitzanHorowitz כל הכבוד לבני גנץ שהרים את כחול לבן בעד החוק לינסנקורן שחוטף עכשיו מהחרדים תודה ליועז והאוזר ותודה לאיימן אודה…  JudyMozes ג׳ודי 🧡🧡🧡 HadasRibak מתי מדינת ישראל תפסיק לפחד ותתחיל לאהוב ציצי יש מצב שיעבור היום החוק החשוב לאיסור טיפולי המרה צריך שכחול לבן ודרך ארץ יצביעו עם הלב שלהם ולא יתחמקו זה יאפשר…  0etB0o3cTQrUwNg ממש לא sibiren אוחנה מצביע תמיד בעד הקהילה חוץ מפעם אחת בתחילת הקדנציה כשהוא ברח מהאולם כדאי לעדכן כרטיס TRy0l0GOOV5xR8h ואתה גם טיפש וגם רשע לוקחים בני 16 ומאמללים אותם זה לא למסוגרים אנשים מתאבדים בגלל זה achatshyodaat אין בתורה שום אזכור לזה גם לא בהלכה הטיפולים הומצאו על ידי כל מיני שרלטנים logicinaQirsh SaulRam30 EldadYaniv אכן לוגיקן בגרוש דייקת kurtV16814769 barv111 אוחנה מצביע תמיד בעד הקהילה חוץ מפעם אחת בתחילת הקדנציה כשהוא ברח מהאולם כדאי לעדכן כרטיס…  zizzion sariazoulay EldadYaniv באיזה צעצועים יא טיפש ואני 62 amitsh28 לפעמים עדיף לשתוק במקום לבלבל את המח lqla6w4TdPXcKCX ואמיר אוחנה גם חולה  אתה יודע מי חולה הרב המורשע מוטי אלון הוא חולה בגללכם mathteacher1978 telavivacation אוחנה מצביע תמיד בעד הקהילה חוץ מפעם אחת בתחילת הקדנציה כשהוא ברח מהאולם כדאי לעדכן כרטיס YehudahGlick חשבתי שאתה יותר חכם ופחות פייק ניוז באסה srh41810600 EldadYaniv אוחנה מצביע תמיד בעד הקהילה חוץ מפעם אחת בתחילת הקדנציה כשהוא ברח מהאולם כדאי לעדכן כרטיס BitonHagit כן ArielS62 אוחנה מצביע תמיד בעד הקהילה חוץ מפעם אחת בתחילת הקדנציה כשהוא ברח מהאולם כדאי לעדכן כרטיס zizzion EldadYaniv אוי אתה כזה חכם אגב ביבי מתנגד לטיפולי המרה kurtV16814769 barv111 חברי הכנסת הגאים מצביעים כיום תמיד בעד הקהילה כולל אוחנה תתעדכן shlomikakon תנוח נשמע שהתערטלות זה משהו שדי מעסיק אותך באסה שבמצעד בירושלים איש לא מתערטל אף פעם telavivacation sariazoulay EldadYaniv לפעמים אני לא מתאפק חחח Demoscratos11 אתה דוחה וסוטה dandin33 שטויות זה כמו שתגיד שאסור לרצוח זה מחלוקתי למה אסור לרצוח בעצם ואם אוכיח שאני רוצה להרצח SjoLicdZZJgxjfh EldadYaniv קראתי יש ערבים איסלמיסטים מחורבנים אבל יש גם ערבים נהדרים כמו אצל היהודים  SaulRam30 EldadYaniv אין לי עכשיו זמן אבל בכללי אלה טיפולים שאסורים על פי איגוד הפסיכיאטריה העולמי ומטרתם לשכנע…  JaCk18757213 EldadYaniv לא כי את sariazoulay EldadYaniv להציף בהומואים חחחח דפוקה mendieilat קשקוש תראי את הסדרה טרנס קידז ביס ותביני מה שאת לא מבינה אישה רעה NehemiaGA EldadYaniv אוי תנוח אלה טיפולים שדוחיפם אנשים להתאבדות זה לא קוסמטיקאית יא טרול מחר רביעי יעלה בכנסת החוק לאיסור על טיפולי המרה זה חוק מציל חיים טיפולים שאפילו הרב לוינשטיין מתנגד להם החוק ה…  AmirOhana ishmuli EitanGinzburg NitzanHorowitz idanroll YoraiLahav הממשלה תתן כסף לכל משפחה עכשיו אתם צריכים…  BarakRavid בהצלחה מגיע לך AidaTuma כל הכבוד איזה כיף שככה הגבת  🧡 כל הכבוד לך מרגש משמח ומעודד לעתיד טוב יותר AidaTuma  מישהו יסביר לי למה דווקא עכשיו החליטו שמעון ריקלין וינון מגל לכנות אותנו פדופילים וסוטים ולהצטרף למפלגת נעם הסמוטר…  זה רגע לא נעים במגזר הערבי עושים חרם על טחינת אל ארז בגלל שהחברה לקחה חסות על קו קשב ללהטב״קים ערבים צריך לתמוך…  Mmickgold EldadYaniv AviNissenkorn AmirOhana ishmuli לא אני אומר שהבטיחו שיכינו תשתית לקלוט את עובדות המין ול…  ronenwei EldadYaniv AviNissenkorn AmirOhana ishmuli טועה יש המון Riklin10 AviNissenkorn AmirOhana ishmuli ואגב פרויקט ״הלב״ של הקהילה שלנו הוא אחד הפרויקטים הכי חזקים ונועד לע…  chagayst EldadYaniv AviNissenkorn AmirOhana ishmuli לא הבנת הן עובדות בזנות כדי להוציא אותן משם צריך תשתית ו…  NBrandel80 AviNissenkorn AmirOhana ishmuli אתה צודק פשוט לטרנסיות עוד יותר קשה לצאת מהמעגל הזה כי לא משכירים ל…  Riklin10 AviNissenkorn AmirOhana ishmuli מה יהיה הסוף איתך ועם ההומופוביה מי מסרסר יש טרנסיות בזנות המדינה…  mako אתם רוצים דם של נשים טרנסיות על הידיים  שר המשפטים אבי ניסנקורן חוק הפללת הלקוח הוא רעיון יפה שהפך למכת מוות לנשים טרנסיות הבטיחו להכין לעזור עברה שנה…  יש מצב ששמעון ריקלין הפך להיות האיש הכי דוחה בישראל למעשה יותר מבנצי גופשטיין עצמו IlCurious nadavabeksis bezalelsm מזמין אותך לראות את סדרת הדוקו ״טרנס קידז״ ביס תנסה לצפות בפרק ובוא נדבר אחרי סבבה Riklin10 ואתה איש חולה ומסוכן דבר פעם עם פסיכולוג יעזור לך ביותר במובן אחד nadavabeksis חבר שלך המתנצל יוצא שוב מהארון כלהטבופוב זה מה שהיה לו להגיד על נאום מרגש עד דמעות של ילדה טרנסית בת…  nadavabeksis zvcn2707 אבל קודם העלבת אותי nadavabeksis zvcn2707 תן לי את הכסף עדיף zvcn2707 nadavabeksis נדב צודק אתה דוחה מי אתה בכלל יא אפס nadavabeksis דווקא ממשיך לצפות nadavabeksis יאללה אחרון חביב להפך להפך אני שמח שהלהט״בים הימנים יוצאים מהארון רק שאתה בתור איש חכם צריך שיהי…  nadavabeksis יאללה בוא נשמע אותו מדבר ולא תצליח להאשים אותי בזה שאני לא מקבל להט״בים ימנים להפך הקדשתי להם פרק…  nadavabeksis אוקי ניצחת בענין ההתנצלות רק שזו התנצלות רפה ומה הערך שלה אם הוא כל הזמן מקדם מתקפות עלינו ותומך ב…  nadavabeksis נדבבב אני מתעקש על עניין סמוטריץ׳ גם ביבי הוא פרו להט״ב גם אם הוא לא מזיז בסוף אצבע למעננו יש בי…  nadavabeksis אני הכי מכבד את המפגש איתם וכמו שאתה יודע אני בעד שהומואים ימנים יצאו מהארון ככאלה אבל יש הבדל בין…  nadavabeksis שום שקר נשאלת השאלה איך הומו יכול לחשוב להצביע לסמוטריץ׳ ורפי פרץ שמאמינים שאפשר להפוך ואפילו צריך להפוך אותו חזרה לסטרייט nadavabeksis כמו שאומר לוקאץ׳ קשקוש  אף אחד לא אומר לך להציב את ההומו לפני רק מבקשים שתסביר איך אתה בתור הומו…  אז אני קודם כל הומו ונדב אבקסיס הוא קודם כל בנאדם יופי נחמה תענוג וטוב לדעת nadavabeksis  Thinker RonHuldai לא נכון כי בכל שרותי העיריה זה נהפך רשמי כלומר ברישום בתי ספר בית חולים וכו ואם יגיע לדי…  שיחקו אותה רון חולדאי ואיתי פנקס RonHuldai  RonHuldai כל הכבוד רון 🧡 shireuven אמרתי לך שתתחתני איתנו ניסיתי להדחיק כל היום אבל בסוף נזכרתי בתמונה הזאת שהתחבאה איפה במחשב מהרגע בעצרת שבוע אחרי הרצח בבר נוער אוגוס…  isr812 MaropanitCohen EldadYaniv למה מכובסות לא כל תשובה היא שקר כדאי לפעמים סתם להקשיב ממי בדיוק אני ״מפחד״ לדעתך MaropanitCohen EldadYaniv צודקת לא רצינו לצאת לידי חובה באזכור קצר זה נושא מורכב וראוי לפרק שלם ולסיום תודה למשפחה המקסימה שלי שמבחינתי היא הצלחת המהפכה שלי היא והחברים שלי והקהילה שלנו המאוד נוכחת לירן עצמור ואני ניסינו לבדוק חלקים מחצי הכוס המלאה ולהנות מקיומם את חצי הכוס הריקה אמשיך לנסות ולמלא אני עושה את…  זהו הסתיימו שידורי ״המהפכה הגאה״ תודה לכל מי שלקח חלק ליותר ממליון צפיות בכל הפלטפורמות תודה לכל מי שהתעניין וה…  NehemiaGA TheTWMinister magenproject NHHZKHA Rutshapira ממש לא אתה התחלת בעיני השאלה שלך עברת על כולם בתג…  TheTWMinister NehemiaGA magenproject NHHZKHA Rutshapira בעברית שואלים אם בדקתי אחד אחד עברת על כולם זה מיני  שהוא יתנצל קודם NehemiaGA magenproject NHHZKHA Rutshapira אחרון ודי בהחלט כי אתה משקר הנה צילום של הציטוט שבגללו עניתי לך וה…  NehemiaGA magenproject NHHZKHA Rutshapira נחמיה אתה התחלת  תמחוק את עברת על כולם ואז הכל ימחק מעצמו אתה ענ…  NehemiaGA magenproject NHHZKHA Rutshapira שום הטרדה מינית נחמיה אתה שאלת אם אני עברתי על כולם אז עניתי לך תרגיע dovikco NehemiaGA Rutshapira זאת היתה התגובה שעליה עניתי לדעתי היא מינית  NehemiaGA Rutshapira  NehemiaGA talangert נחמיה תרגיע נקבל גם אותך כשתצא בקצב שלך לא לוחצים על אף אחד nadavabeksis לא קורא לך הומופוב חלילה רק מתבאס שמכל הברים בעיר בחרת את השפגאט היית בפיקוק ברובינא כל העיר הית…  amosday1902 ואתה מה טמבל BarakLS צודק אבל זה דיון אחר ruthbuaron תנוחי ותרגעי אלוהים ברא אותנו ולצערנו גם אותך yonashaked לא את האיידס שמרנו לאדיוטים כמוך NehemiaGA תבוא נחמיה כולם יעברו עליך אל תהיה עצוב אצלנו לכל סיר יש מכסה גם סיר זול Rutshapira היום יום הגאווה וגם שבועיים למסיבת הפוראבר באומן 17 שכל הטלוויזיות חגגו עליה  עברו שבועיים היה שם צפוף אבל איש…  nadavabeksis אתה אמיתי גם ככה פקחים כל החיים מציקים לשפגאט אבל תודה שקלקלת  ואגב היום זה בדיוק שבועיים לפוראבר…  אלכס קורוטייב הוא תלמיד י״ב בבית ספר תיכון חדרה וכוכב טיק טוק ואינסטגרם עם יותר ממאה אלף עוקבים יצא מהארון בגיל 1…  nadavabeksis ranboker הם פשוט נורא אוהבים חתונות אמיר אוחנה בפריימריז בירושלים מתוך ״המהפכה הגאה״ פרק 2 מוצ״ש בכאן 11 וכל הזמן ביו טיוב AmirOhana kann  אליעד כהן היצוא הישראלי הגאה מס 1 מעל מליון עוקבים התחיל את דרכו ביחד עם אוריאל יקותיאל בסרטוני ה״אריסה״ של עומר…  בל אגם אישה שהיא ניצחון המהפכה הגאה פרק 2 kann  פרק 2 ב״מהפכה הגאה״ מוקדש למפגש בין המהפכה המזרחית ללהט״ב ועושה כבוד לדנה אינטרנשיונל ודי ג׳י עופר ניסים שידור במ…  zersamuel EldadYaniv מה זה קשור odiy5 EldadYaniv טרור דתי לא בבית ספרנו לא בהודו ולא בכוש q5oXNMrtqhxOJoZ EldadYaniv המושג טרור להט״בי הוא מושג מעוות ושקרי באופן בזה ניתן לקרוא לכל אמירה דתית בישראל הטר…  כבוד  הערב בתשע וחצי בכאן 11 המהפכה הגאה פרק על צה״ל ששמו ״גיבור בצבא ההגנה״ עם השיר של אליוט פוליאנה פרנק בקטע המצ…  המהפכה הגאה מעכשיו כל הפרקים ביוטיוב חג שמח    רומי אברג׳יל התגייסה הקיץ לצה״ל במסגרת ה״מהפכה הגאה״ ליווינו אותה לפני שנה לפגישה הראשונה שלה בלשכת גיוס הילדה ה…  עוד רגע של גאווה מרגשת מתוך ״המהפכה הגאה״ שיחה עם אלישע לאב והוריו ממקימי התנחלות מעלה לבונה בביתם שבשטחים אולי…  q5oXNMrtqhxOJoZ EldadYaniv תפסיקו אתם עם הטרור המתנחלי CutTheBSDawg EldadYaniv אתה טועה הבעיה היתה קיימת עד לפני לא הרבה שנים ואם יתנו לרב יגאל לוינשטיין יותר דריסת רגל זה גם ילך אחורה סגן אלוף דנה בן עזרא היא מגדית גדוד האיסוף 869 של פיקוד הצפון רק לפני כמה חודשים היא יצרה סערה אצל הסמוטריצים…  ztomer TomerPersico והכי חשוב במקום להגיב תקרא את הראיון ztomer TomerPersico ומכות אפשר תמיד לקבל גם בתל אביב ztomer TomerPersico שטויות אתה לא מעודכן המפגש הכי טעון בצילומי ״המהפכה הגאה״ היה עם הראל סקעת האיש שכביכול הוצאתי מהארון לפני עשור יצא מפגש לא קל מרגש…  ראיון בשבעה לילות על ״המהפכה הגאה״ gabibarh ראיינה  Lasry32868542 EldadYaniv kann מה רגיל במשפחות הסטרייטיות 15 ילדים שלא לומדים מתמטיקה ואין להם דרך להתפרנס חיים…  rachelshteren kann למה את חושבת שהתא שלנו לא בריא יש לך גם מונופול על הבריאות את סתם חשוכה ומפחדת מכל דבר שהוא…  NatamC4 kann אולי חלקם אבל כל האנשים שמקללים אותנו הם רבנים לצערי אין לי דבר נגד הדת אני יהודי ומאמין שאלוהים…  rachelshteren azulayyair1 kann למה את כל כך מתנגדת תהיי דתיה של טוב ונתינה לא של רשע ושנאה VF241zAOps0MNep EldadYaniv kann הדבר טוב ביוצר שיצא מהקורונה זה שכולם יודעים שאלוהים מעניש את החרדים על יחסם לקה…  debkob1 kann אבל אנחנו בדרך לשם בזכות הבת שלך ובזכותך itzikm2 kann תראה את הסדרה ותבין זה ההפך מלהתבייש בזה שאתה יהודי או הומו ומה אם יגידו בצרפת שיהודים לא יתגאו ביהדותם כי מה יש להתגאות right90475584 kann אוי ואבוי מסיבות איידס אתה אמיתי להחצין ובכלל מי מדבר על מה שעושים בחדר מיטות להיות הומו…  rachelshteren intertextuali kann מה זה נורמלי משפחה עם 15 ילדים שלא לומדים מתמטיקה ואין לעם דרך להתפרנס בעולם ה…  menachemr kann מה שבטוח אותך הוא לא אוהב ושלח לכם קורונה שמפילה רק אתכם עונש על היחס שלכם לקהילה שלנו ולמיעוטים בכלל MfELxyaa3D70sT1 EldadYaniv kann אין לך ברירה יא אפס isr812 RoyIddan kann ממש לא נכון תראה את הסדרה נסיך תודה BoazCohen kann לא בדיוק זאת לא סדרה הסטורית אלא סדרת תזה Lasry32868542 EldadYaniv kann פחות מדבר שטויות תשאל את ביבי והוא יסביר לך למה מגיע לנו שיוויון זכויות slguy36 EldadYaniv kann לא כי אתה מהמם rachelshteren kann מי את מה את רוצה מה מפריע לך שאנחנו להטבים ruthbuaron kann במה את צודקת שאת יושבת שאני סוטה אמיר אוחנה סוטה ביבי שמקרב את הקהילה אליו סוטה ורק את גאון הדור rachelshteren azulayyair1 kann איימנו מה את רוצה למה את מלאת שנאה מה עם ואהבת לרעך כמוך henshrabi EldadYaniv kann יש פרק שלם על זה בינגו Jeronimo DrobRotem kann כן לפעמים אני קצת סתומה avshalo89892156 menachemr kann זו לא דעת מיעוט להגיד על יהודים שהם מסריחים זו לא דעת מיעוט להגיד עלינו שאנחנו…  rachelshteren intertextuali kann לא מסכים איתכם זה מושג שקרי לנו אין שוויון זכויות רבנים קוראים לנו סוטים וחו…  avshalo89892156 MfELxyaa3D70sT1 EldadYaniv kann לא הבנתי מה נורמלי בשאלה למה צריך לממן את זה לתאגיד יש מנדט למ…  intertextuali kann יש למרות שזה לא עמוד האש זאת לא סדרה היסטורית זאת סדרת תיזה בוחנת 3 זויות של ההצלחה intertextuali kann הצליחה מאוד בשנות השמונים עוד גרשו את עוזי אבן מהכור האטומי כי הוא גר עם בנזוג ובסדרה אנחנו…  azulayyair1 kann לצערי לא זרמו כבוד לכאן 11 נאמר להם תודה menachemr kann לא יעזור לך אלוהים אוהב אותנו נותן לנו אושר הצלחה כח שרים בממשלה ולכם קורונה זה העונש מא…  ruthbuaron kann חבל שאת נתפסת למשפטים הכי מכוערים בתנ״ך לאברהם היו שתי נשים בכי תצא מציעים לסקטל באבנים בנים של…  DrobRotem kann מי שלא הומו לא נהפך להומו ואם אתה חושב ששמנו משהו במים תגיס כסף ותשים משהו הפוך RoyIddan kann דווקא תעצור זה חלק מהעניין DrorArye kann נו ואצלכם אין סמים כשדוחפים רספירדל לנערים עם יצא מיני חזק זה יותר גרוע מהסמים שלוקחים אצלנו ואצל…  YoniBarnes מאיפה הבאת את זה יש בסדרה מתנחל הומו דתיים דתיים לשעבר והרבה אנשים מאמינים שמניחים תפילין כל יום BuDFB9nVqwpOvz4 kann אל תקיא פשוט לך ותקפוץ מהגג לא נצטער Lasry32868542 EldadYaniv kann תקציבי ענק אתה אפילו לא ליצן סתם אפס NaamaMeshulam kann יש פרק עם אמיר אוחנה פרק מאוד מענין MfELxyaa3D70sT1 EldadYaniv kann למה לא הוא מממן סדרות גם על אדיוטים כמוך RoitEverly kann יעלה מעדכן בדיגיטל לבינג׳ DrorArye kann לא יעזור לך אלוהים אוהב אותנו נותן לנו אודר הצלחה כח שרים בממשלה ולכם קורונה זה העונש מאלו…  LanonixNoa EldadYaniv kann אין בינתיים תרגום לאנגלית יהיו yotamsof EldadYaniv kann לא היא תעלה לרשת רק עם כתוביות בעברית לצערי שמח וגאה מאוד להציג את המהפכה הגאה סדרת הדוקו של לירן עצמור ושלי הסדרה מורכבת משלושה פרקים שכל אחד בוחן את המהפ…  shireuven תרגיעי הוא תפוס CutTheBSDawg EldadYaniv אין בעיה לחשוב אחרת  שיגיד שהוא בעד טיפולי המרה ונתמודד הוא טוען עכשיו שהוא נגד אבל הוא בעד ReefSimcha EldadYaniv אין לי בעיה עם אנשים שחושבים אחרת שיגיד שהוא בעד טיפולי המרה ולא עשר ויגיד שהוא נגד אבל ב…  לדבר הזה בדיוק קוראים ״טיפולי המרה״ אין בעולם פסיכולוג שפוי שחושב שהוא יכול להפוך נטיות הרב יגאל טוען שמשקרים ומו…  האיש הזה הרב יגאל לוינשטיין הוא פשוט מופרע ושקרן בראיון שנתן היום הוא מסביר שהוא נגד ״טיפולי המרה״ כלומר נגד מה…  CarmelShama מלך אתה 🧡 הרב יגאל לוינשטיין הוא פושע הדברים שהושמעו הבוקר בגלי צה״ל על טיפולי המרה המנוגדים לכל תפיסה מדעית קיימת הופכים…  shireuven מושלמת שאת EytamAsaf assiazar לא כי את מהממת וחמודה ונעימה ebenyair assiazar חבל שאין לך פנים יא מכוער פעילי ימין חרדלי התפוצצו השבוע כשהפרסומת  עם אסי עזר ובן זוגו הופיעה בניוזלטר מטעם מועדון ההטבות של משרד הביטחון…  חבורת חלאות כתבו לצה״ל  נגד הפרסומת של אסי ואלברט ל AIG הם מתפלאים שאנחנו שונאים אותם  אתמול בערב ראש מועצת אפרת…  eTdVlcDqIKg6smE לא נדחוף לך כלום תדחוף לעצמך אם זה כל כך מעניין אותך T00Xvz5O8z5WUKi רמה גבוהה ללא ספק מציע לך לנסות פעם תגלי עולם ומלואו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noyalooshemusic הייתי צריך את זה תודה noyalooshemusic כולנו הולכים למות גם ככה  liliLongstockin idokius זה בדיוק מה שאני חשבתי איזה ריאות יא וואראדי francoyaniv לעבור לפוליטיקה gt הצעות רציניות מאירופה מכל העולם באים ללמוד מנתניהו עקפנו אפילו את אמריקה גם כשמדובר במוות עם ישראל חי  mashkazg מאז ומעולם אני חולם להסתובב בעולם כמה ימים אחרי מותי כדי לראות מה יגידו וזה אגב  אין לי ספק שיסתדרו בל…  DannyU2020 כי כשהמספר לא רשמי נותרת הערכה ותו לא בשעתו ניסינו TheYossifoon ואני לאתר את שמות כל הנופלים והגענו…  katmendo Rereshef זה רק כי את בטיימזון אחר אם היית פה היית מקבלת ממני ״ערה״ כזה בדיוק  Rereshef אז תגידי אממ ערה כן גם אני כוסומו כן הא איזה דפוק זה אני רוצה לישון קיבינימט טוב לילה טוב ללט DannyU2020 למלחמת לבנון זו שמסיום מבצע שלום הגליל ב29 באוגוסט 1982 ועד הנסיגה ב24 במאי 2000 אין מספר הרוגים רש…  LitalCohen תיעוד נדיר של חולה הקורונה הראשון  תודה על ההשראה כמו תמיד DorDugy   AddieBenYehuda KobiLavi ועוד שאלה מטרידה נכנס ילד בן 15 למקעקע והוא לא צריך להביא שום אישור מאמאבא ואיך זה שהה…  odaskal ygurvitz אה אוקי ניחא odaskal ygurvitz אין לי שמץ של מושג מי זו ומה אמרה בדרך כלל זה היה יוצר לי פומו אבל אחרי שאני רואה את השיחה בינ…  AddieBenYehuda KobiLavi יש להם כולה מוסך עם מחלקת מכירות ואז בעלה אומר לה ״היי אני הולך לבנות דוג׳ו ולהשקיע בזה…  kettybar אני די בטוח שבדומה לפרקינסון ולמחלות אחרות הפוגעות בתהליכים קוגניטיביים איש עדיין לא מת מאלצהיימר לכל…  maykaduri צריך לומר וזה עולה לי בבריאות שבניגוד לעולם הבידור של שנות ה70 או של ימינו מועדון הכדורגל הצהוב מתל…  horowitzb האמת היא שקו העלייה יציב למדי זו אחת הבעיות לא lolo67097765 אנשים שמתים הם אנשים שמתים גם לאנשים בני 85 90 ו60 יש זכות לחיים ולאושר ממש כמו אנשים בגילי או צע…  RonnyLinder רוצה שנכתוב ביחד ספר נוכל לקרוא לו ״קורונה ההנהגה האבודה״ 1500 מתים מקורונה הם יותר מסך ההרוגים של צה״ל ב18 שנות המלחמה בלבנון כ650 במבצע שלום הגליל ועוד כ700 מסוף המב…  yairy יום הכיפורים לא היה שונה מכל יום אחר בלבנון Loriiii הוא בהה בפיצה נו בתיאבון RubyTelefus חס וחלילה להרגיש רע אתה איש מעולה ולכן אתה ראוי להרגיש הכי טוב שיש שנה מעולה איש יקר פינת האיןלישוםכוונהלאלהשוויץ מבול של דיאמים פה והודעות פרטיות בפייסוש מאנשים שקראו את הספר בכיפור והיה להם חש…  Loriiii זה טעיםםםםםםםםםםםם AssafCohen2 sDavidovitch אני היחיד שרואה מתאם חד ערכי בין נוכחותו של ערן זהבי במדינה כלשהי לבין התפרצויות דרמטיות של קורונה באותה מדינה כותרות שכוחן יפה לשנים 19491972 19742020  Loriiii סליחה על האשמת הקורבן וזה אבל מי שלא מתארגנת מראש על נגיצים נגיסי פיצה של מעדנות אל להתפלא שהיא עומדת…  Arspoeti חיבוק מגיע לך גמר חתימה טובה לכולכן ולכולכם צום קל וחתימה טובה פיד נתראה בצד השני של יום כיפור קליק smallweed ShimonBurshtein שמעון הוא מגדולי מבשרי הטוב כפרעליו מקווה שהמצברוח הטוב יימשך לכמה שבועות ברציפות לכל הפחות לב RonnyLinder יש לי קושי אמיתי עם זה שכתב ״אנא תפעלו״ מבחינת צרימה זו המקבילה התחבירית להעברת ציפורניים חדות על לו…  Rnusha כל הכבוד שהתקשרת כל הכבוד שאת מתעקשת על בריאותך ועל בריאות הסובבים אותך ופרט לאלה גם חיבוק גדול לב haimhz חברי סיעת הליכוד מסכמים את תש״פ  LJgTWEwCKRfZgsZ YuliEdelstein התמונה משקפת את ההנחיות זה מה שממשלת הליכוד עשתה היא הגבילה בלי שום סיבה את התפיל…  Shutup100000 גזענות היא לא דבר סובייקטיבי גזענות מעידה על כך שבקרב הגזען נוצר הקוקטייל ההרסני של פחדנות שפגשה בור…  arianamelamed נו באמת על מי את עובדת כולם יודעים שהפנס נדלק בשנייה שמוציאים את הסים HulaValley barakbl כן אבל האם הוא יכול לעשות את זה תוך כדי ריקוד מקרנה Shutup100000 אין שום פסול ערכי בכינוי גנאי אישי זולת העובדה שזה לא נעים למכונה בכינוי הגנאי ונועד לפגוע בו דאאא…  Shutup100000 אני לא חושב שאפשר בפלטפורמה המוגבלת הזאת להתחיל להסביר לפלונית את ההבדל העצום שבין הבעת דעה שלילית…  1 אבי צודק לגמרי 2 אדלשטיין בכלל יליד אוקראינה  Leemalach אני רק רוצה לציין כמו בכל פעם שמוזכר שמו ששמתי לדודו אוואט גול בין הרגליים בנופש מבצעי במתקן של האגוד…  kfiron אני היחיד שרואה פה ציפור  AddieBenYehuda גם החרדים ולכן הם משתפים פעולה  הרי לו רצו היו יכולים לצפצף על ההוראות מדי יום חול ומדי שבת והמ…  AddieBenYehuda זה כל מי שעניין המסורת יקר ללבו בלי קשר להשתייכות כיתתית כזו או אחרת יום הכיפורים הוא הרי המשמעות…  AddieBenYehuda האמת ממש כן בעבור דתיים לא ללכת לבית כנסת בכיפור זו קריעה של ממש אני חושב שרוב החילונים לא מביני…  dudiamsalem כן הצבעת בעד בממשלה זוכר זה היה ממש לפני כמה ימים AddieBenYehuda כי זו פעם ראשונה מזה המון המון המון שנים שאסור להגיע לשם בלילה לפני תחילת הצום זה באמת שבר רגשי בע…  חברי סיעת הליכוד מסכמים את תש״פ  ariyederi למעט צררנו הרי אינך צורר ואולי גם לצנו אין ברשימה הזאת ולו עבירה אחת שלא עשית בשנה האחרונה על כל מערכ…  MatanAlcalay חס ושלום על אמת YuliEdelstein כפרעליך עליך ועל שכמותך אומרים במקום דוגמה אישית  דוגמה היא שיט אתה לא נמצא בעמדה מוסרית להעביר…  torliber פףףף את זה אני יודע ג׳ון דיר זה ירוק SmadarS Drorlivne  בגיל 42 תכלס קרוב יותר ל43 למדתי לראשונה בחיי מה היא משדדה  ועל הדרך גיליתי שיש דבר שנקרא קלטרת מתברר שעולם…  NaimNaor לא חושב שאספיק מחר לפני הצהריים אחרי כיפור כמובן שיהיו משלוחים לירושלים מלוא החופן jonklinger NirHirshman זה המקום שידוע בכינוי ״הבתים בדרך למעלה החמישה״ או בכינוי הנפוץ אף יותר ״שיט פנינו לא נכון וזה לא אבו גוש״ YuvaLidor תן לבנאדם להגיע הביתה בחייך האם בחמש השעות האחרונות עשיתי אחד עשר משלוחי ספרים לירושלים קריית ענבים מודיעין שוהם קריית אונו רמת גן גבעתיי…  Guy09894400 haimhz תוך שעה אצלי ביד תודה  מהגשר שבין שער הגיא ומחלף שורש ועד המחסום המשטרתי במחלף חמד שיירה עצומה וארוכהארוכה של מכוניות עם דגלים שחורים וש…  dahanmicha 28 דק מרגע ההזמנה תודה haimhz  dahanmicha תודה מאמין שיגיע אליך עוד היום ואם אתה לא מתכוון לקרוא ואני יכול להבין את מי שבוחרים לא לעשות זאת א…  hanankal מהמדורה הראשונה הזמנתי 2 אחד תרמתי לספריה במודיעין מי שטרם הזמין מומלץ haimhz תושבי תל אביב רמת גן גבעתיים חולון בת ים ראשל״צ הרצליה בקעת אונו ירושלים ומודיעין אם תזמינו את ״לבנון המלחמה האבודה״… talschneider זו דוגמת טקסטבוק לאיך צריך להיראות ציוץ מושלם של דובר בלי התלהמות בלי סרקזם בלי ציניות  והכי נותן בראש מושלם israzohar משפחת לוק BendavidAmir ilanacuriel ברברה סטרייסנד של האלימות החייתית Shutup100000 כך תייצרי גרסה מנוקדת 1 קני את הגרסה הדיגיטלית 2 סמני את כל הטקסט ועשי קופי ל86000 המילים 3 פתח…  itamaralroey haimhz יאללה קניתי itamaralroey אם לא יגיע עוד היום ויש סבירות גבוהה שאספיק יגיע מחר בבוקר Loriiii למה שארצה לנקות את המראה הרבה יותר נוח לחשוב שהסיבה שכל מה שאני רואה בה נראה עקום נעוצה בה ולא בי  naglistal יש בהחלט אפשר להזמין אותה באתר בפורמט EPUB ואם לקורא שלך תהיה בעיה יש גם גרסת PDF schaingarte אני לא חוסם את הזולת  אבל גם לא מתערב לאחרים בחסימותיהם 🤷‍ תושבי תל אביב רמת גן גבעתיים חולון בת ים ראשל״צ הרצליה בקעת אונו ירושלים ומודיעין אם תזמינו את ״לבנון המל…  ililush התגובה היחידה מה logreisas היהודי הספורטאי מעל הגוי הספורטאי חלומו של נורדאו התגשם NirTsadok האחים ניסנוב צאו לחל״ת אנחנו לא קבוצה מקצועית hagigat1 LiorZatlavi YaaraZered אין בעיה שעיתונאי או חקלאי או חנווני יעבור לפוליטיקה אין גם בעיה שפוליטיקאי יעב…  NormanCleg מה yuval98 yaronriko LiorZatlavi YaaraZered talschneider בוודאי שכן היא הייתה הבעלים והכתבת של כלי תקשורת עיתונאי למשעי hagigat1 LiorZatlavi YaaraZered מה Bicherit צריך בעיקר להוריד את הקשקוש הזה של גיוס מעל סדר היום ואז הם ישתלבו בחברה מרצונם שלהם בשביל זה צריך מנהי…  רק מזכיר לכל מי שטוענים שהם ״מממנים חרדים שלא רוצים לעבוד״ אסור להם לעבוד אנחנו כמדינה אוסרים עליהם בחוק לעבו…  hagigat1 LiorZatlavi YaaraZered שם שם  yaronriko LiorZatlavi YaaraZered מי שאינו חלק ממערכת חדשות ואינו מגיש תוכנית הכוללת תכנים חדשותיים ידיעות עובד…  Amitna87 כשאתה מוצא משהו באזור דרוםמזרח תל אביב תמנשן לי אני בא Amitna87 NadavPerez  NadavPerez מעולם בכל כמעט 43 שנותיי לא טענתי שבשמאל יש פחות מטומטמים מאשר בימין נתניהו הוא כישלון כה מהדהד עד שאפילו הדבר המרכזי שבגללו הוא הלך לסגר מלא  הפסקת ההפגנות  הוא משהו שלא הצליח להעב…  yairyona בשעה טובה לב LiorZatlavi YaaraZered להיות פרשן כדורסל זה לא לסקר משהו לסקר משהו זה להביא את המידע מתוך הקבוצה  להגיד ״לברון…  LiorZatlavi YaaraZered אם יחזרו לעיתונות של ממש לסקר משהו בוודאי שיהיה בזה טעם לפגם ולמעשה ספק גדול אם יימצא כ…  ravitnachman EitanNachman רוית תמיד אומרת שז׳אנר הציטוטים של בני משפחה מעייף כמו ז׳אנר הציטוטים של מקורבים LiorZatlavi YaaraZered כמו שכתבת לפני שנכנס לפוליטיקה אין הבדל בין עיתונאי לבין חנווני לבין עורך דין לבין מור…  AKcholi LiorZatlavi YaaraZered הטור של היום כולו טור דעה הוא לא נותן עובדות שלא ידעת  הוא מביע את דעתו על המצב…  LiorZatlavi YaaraZered כל עוד זו לא תוכנית חדשות  אין בעיה זה בדיוק ההבדל בין לפרסם ידיעה דבר שמחייב איש מקצוע…  LiorZatlavi YaaraZered ניצן הורוביץ הוא חבר כנסת ולא עיתונאי שלי יחימוביץ׳ מגישה תוכנית דעות ופרשנות ואינה חלק ממערכת חדשות כלשהי עדיין נכון תמיד נכון  zionnenko אם היא רק ב1992 זה ייקח עוד כמה חודשים מה שכן צפויה לה הפתעה בעוד כמה שבועות כשתגיע ל1998 ותראה את…  YaaraZered שנת 1992 הייתה לפני 28  שנים ליבסקינד הפך עיתונאי רק אחר כך ומאז לא דילג מישיבת צוות הקמפיין לישיב…  משחק עם הבנות ״המירוץ למיליון״ עם רמזים למקומות שונים בבית ששם מחכים להן רמזים אחד הרמזים איזו פעולה באמת עושים ב…  N12News מי היה כאן ראש הממשלה בחצי השנה האחרונה אולי גם לו יש אחריות כך הגיבה KerenMarc  להצהרת ראש הממשלה  אני מוכן להתערב שאחוז לא מבוטל מהישראלים ששמעו שיזהר שי מתפטר מהממשלה הגיבו בשאלה ״מי זה יזהר שי״ einatfishbain בשבילך  הכל  raanantau קרא שוב sagivsteinberg בעבודה בהחלט היו מתנגדים לתהליך אוסלו  והם היו קולניים מאוד חלקם אף פרשו מהמפלגה על רקע תהליך השלום הליכוד הוא מחולל האסון כל מי שהצביע מחל בבחירות האחרונות הצביע לרשימה של חדלי אישים ופרוקי רגליים אנשים שאין בהם…  yoav85 יומולדת שמח איש יקר לב faniaoz אדרבא ככה אפשר להשיג דאבל אזכור שואה הרחוב יכול להיות מעתה גם על שמה של אנה פרנק ז״ל מאמסטרדם וגם על שמ…  SHAROOMBA1  mashiahno בפער עצום מה הגיוני יותר מאשר להטיס את הכביסה ליבשת אחרת אם מישהו במדינה זרה היה מסכים לעשות לכם את הכביסה וגם מחזיר אותה א…  bennyteitel כפרעליך לב anirozaleison ההישגים אינם כראש ממשלה menashlev1 כנראה ראש הממשלה הטוב ביותר שהיה לישראל מאז היווסדה הסיר את המשטר הצבאי מעל אזרחי ישראל הערבים ניצח ב…  Liberwomen כמעט על הכל אני מוכן לסלוח  אבל יש שם דאבל ספייס lilachv skoopit נו באמת ״יצאת שלילית בבדיקת קורונה״ קלללללללל arianamelamed אני לא יודעת איך עוד לצעוק את זה החזירו 3 מיליון ילדים למדגרת קורונה בידיעה וזה העלה הדבקות בטירוף  RamEliBrandts לא יצא לא ניסה לצאת ויותר מזה  העמיק עוד ועוד את האחיזה בדרום לבנון לאסמכתאות אמליץ על ספר מצוין…  neomian בהחלט RamEliBrandts תקע את ישראל בלבנון עם ה״הברקה״ של רצועת הביטחון ועוד פעם עם הגאונות ושמה ענבי זעם אביר ההפרטות והר…  danby בפער עצום אולמרט לא היה כזה גרוע  ברק הרס כמעט כל דבר שנגע בו ובאפס זמן ראשי הממשלה הגרועים בתולדות ישראל בסדר עולה במקום החמישי  יצחק שמיר במקום הרביעי  גולדה מאיר במקום השלישי  שמע…  igalk3 זה לא הציטוט Rereshef כל ישראל ערבים זה לזה אבל קודם אתם TZURSADE מתקן לך למה נרשמים לגביע ווינר בית הספר לשדאות מציג כך תיצרו הסוואה מושלמת  barzik  ואתם אמרתם שאין בעיר הזאת שום דבר תתביישו  michashulem אימצתי את הרעיון הזה לפני שלושים שנה בערך קצת לפני הבר מצווה אני לא רואה איך הוא מעלה או מוריד ממה…  TRADOCIDF ברור שעל ב׳ תכף גם עושים סיבוב רענון על הנגמ״שים מאחורי הסככות טרוסטורי shlomiavraham70 יש תרגיל בסוף אוקטובר כבר הגיע אליי הצו CrocodileDani החיים עצמם  QueerLizzy יאאאא מזל טוב לב לב לב idokius לא יודע מאיפה להתחיל אפילו זמן מאז החיול במילואים 28 דקות עוגיות שנצרכו 3 מסוג קרמוגית כוסות קפה שחור שהוצעו 1 זמן שעבר ללא עשייה כלשהי 2…  Rereshef הם צריכים לקבל החלטה על הפעם הבאה שבה ייפגשו כי בפגישה הזאת תיפול ההחלטה באיזו מהפגישות הבאות יוכרע מתי מכריעים LeoraLev נאחל שנה טובה וחתימה טובה ונקווה  כמו תמיד  שאיכשהו יהיה טוב לב ראש ממשלה של מדינה עם עשרות אלפי חולים שמתעסק רק בחילוץ ישבנו מאימת הדין שר אוצר של מדינה עם כלכלה מתרסקת שעושה לי…  RacheliSegel אנשים טובים הם תמיד הפתרון הנכון ביותר הייתי שמח אם הייתה התארגנות של אנשים כאלה לסוף נעילה זה בא…  Ofernicus עניתי כבר קודם וגם בהזדמנויות קודמות שבאמת לא ברור לי למה יש הגבלה על תפילה בחוץ ובלבד ששומרים על ריח…  Maayanian סבתא ז״ל הייתה אומרת שלא שווה כל הצום אם לא שמעת שופר נכון שזו לא חובה  אבל למה לא לעשות את זה בעצם…  barakltd נהדר itainathaniel jonklinger למה לוותר סתם כך על האפשרות להקים את המשרד לביטחון פנים פנימי ErelSegal יאללה תרים קבלו רעיון בתי הכנסת והישיבות ושאר מוסדות דת יחלקו שופרות לאנשים שמוכשרים לכך ואלה יתקעו ברחובות בצאת הצום כך שהכ…  LeoraLev אני לא חלק מהעליהום הזה כאמור וכן החום זו צרה צרורה ויש חשש אמיתי מהתעלפויות בטח בשעות הצהריים  אבל…  ISudri נו באמת איציק אתה תהיה הראשי הספרדי ואני הראשי האשכנזי קל יש לי אימון קצר במילואים היום אז התקשרו מהקישור לשאול אותי סדרת שאלות ארוכה ובהן האם חזרתי מחו״ל בשבועיים האחרונים…  omeryankelevitc חייבים שמישהו יגיד משהו לשרי הממש אה רגע Bicherit לכבוד הוא לי לב Bicherit אני לא מאמין שאת גורסת את התיק שלי אין לך לב Sykocan הכל מטומטם הכל הכל הכל הכל מטומטם באמת  LeoraLev אבל למה תפילת יחיד אפשר לארגן מניין בחוץ בחצר הבניין או ברחוב  וזה לפי כל ההוראות ושומר על העניין המהו…  supercoquette  supercoquette אף אחד לא משתמש במילים נרדפות למדע המדינה בסוף מדע המדינה ואומנות הנאום הם הרי לא עניין של לאומנים…  MayanRodeh ״אני בכלל לא יודעת לשיר״ liliLongstockin כן yosefack אני לא מבין באמת שלא מדוע יש הגבלה כלשהי על המתפללים תחת כיפת השמיים ובלבד שכולם עוטים מסכות LeoraLev זה סיפור אמיתי שהיא הייתה גאה בו בצדק לדעתי כל חייה מי שהמצווה חשובה לו ימצא תמיד דרך לקיים אותה והח…  tomersade1 לדעתי צריך לארגן הפגנות בכל ערי ישראל במקביל ובאותה שעה וכך יישמרו ההוראות וגם הנראות ותישמר גם זכות…  Elyashivz1 מה סבתא שלי והמשפחה שלה התפללו לבד ביום כיפור של 1944 בבית ספר טרנסילבני שהפך זמנית לגטו בדרך לגירוש לאושוויץ וזה הי…  AmirKoz לפי מירי רגב אתה איש ללא זהות  מה שאומר שיש לך אונות מוח מתפקדות ravitnachman ibagp EitanNachman לא נכון אנחנו תמיד ניצחנו את הקבוצות מזלצבורג yaniv82172266 מה ShiraltYt תזדרזו כי אוטוטו יחזירו אותו לשולח 🤦‍ ״המתח בין היהודים לישראלים״ מה יש מישהו נורמלי שיכול להסביר את המשפט המטומטם הזה השנה הזאת יותר מאי פעם הולמ…  RealLeonardCohe אתה צודק לא הבנת ShiraltYt ואת הספר שלך כבר אספת Arspoeti הוא לא טיפש  הוא חלאה טיפש הוא מישהו שעושה דברים בטעות אצל המנוול ערל הלב הזה הכל מתוכנן איזה איש מבחיל Israelcohen911 LeckerAmir אתה איש רשע וערל לב מנוול וכפוי טובה גם עשרה ימי כיפור לא יכפרו על הציוץ הזה שמנאץ את…  את דעתי על גיוס חרדים הבעתי לא פעם אני מתנגד לזה כי אני חושב שזה מטומטם אבל יותר מזה אני מתנגד לכפיות טובה ישר…  avi07325462 אתה לא מכיר אותי ומכאן שאין לייחס כל חשיבות לקביעה שלך אודות הקביעות שלי אני עושה את זה נכון kerenmelamed מעולה kerenmelamed כל כך נכון  natitucker וכרגיל אזכיר  barzik סקייפ ronenwei אף אחד לא הולך עם ההסכם וממילא מעולם לא ביקשו ממני דבר כזה  לא הפעם ולא בסגרים הקודמים פסח ויום העצמא…  מנסיעה בכביש 1 ובירושלים המסקנה היא אחת אין סגר למעשה אין אפילו מחסומים ריקים משוטרים שידמו ניסיון לסגר או אופצ…  comedychildren 8tSFx8GhfSG9198 לעשות בייביסיטר זה לא מה שהיא הציעה זה מותר בחוק אגב גם כיום מה שהיא הציעה הוא…  cinacity  IBenmoshe oxGNCxo נכון הנה אפילו מצאתי דוגמה לימים טובים יותר לא רחוקים שבהם ילדים בגילים האלה עבדו   8tSFx8GhfSG9198 ממליץ לך בחום לקרוא ספרים של צ׳רלס דיקנס זה יבהיר את העניין shalevra idaholloway לא כי הם שני אהבלים thought11G idaholloway וכמובן שהדבר הנבון ביותר שיש בווידאו כולו הוא אידה עם הטרלה שמקבלת 1010 idaholloway הדבר הכי נבון שיש באולפן הזה הוא השולחן 🤦‍ idaholloway זוט עני פתחו רמקולים  ravitnachman פיני בלילי  perryallon עונש מלקות והוצאה להורג בגין גניבת מזון edvalotan  swedishkeren eripowers שנתיים מנוי פרימיום לאתר האינטרנט שלי ב2100 שקל שמע ישראל ה׳ אלוהינו ה׳ אחד g1Co2Z9ktPzvBGn אמנם LVertzhaizer למה זה מגיע לו אני יודע  אבל למה זה מגיע לנו וגם היום אזכיר לכם שיפעת שאשאביטון הביאה לכנסת ישראל הצעת חוק שילדים בני שלוש עשרה  ילדים בכיתה ז׳  יצאו לעבוד…  odaskal שמע אני רואה את זה עם בת11 שראתה איתי לפני כמה שבועות את קראטה קיד מהאייטיז ומתענג על כל רגע זה טלנובל… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כתבה חשובה מאוד  לפי תרבות הגוים אין אליל יותר נשגב ואין עגל יותר זהוב מזה של הדמוקרטיה שלפניה תכרע כל ברך נכריה תישבע כל לשון מלש…  avrahambin אז מוסי רז ממרצ וליאור עמיחי מארגון השמאל הקיצוני יש דין בעד תג מחיר וריסוס גרפיטי על בית כנסת בליל יום כיפור  אז בפעם… YemanimNews צפו החטאים שיש לכפר עליהם ביום כיפור  ולא נמצאים במחזור   חדשות ימנים gtgtgt  על חטא שחטאנו לפניך  YemanimNews שבס רוצחים מתפללים קבוצתית אבל עמירם בן אוליאל זה מקרה שונה • בן גביר בשבס לא מפנימים שזו מדינה יהודית  חדשות ימנ… היה טוב אהוב בלי כוונה להרוויח מזה חדל מלדבר רשע חדל מלחשוב רשע חדל מלחפש רשע ברעיך היזהר שלא לפגוע במי שאתה או…  SYproudJew קצת להמחיש את גודל הבעיה  teslererez יש קישור ציוץ שלי הרפורמים ימש יחד עם מערכת המשפט הפרקליטות והתקשורת נלחמים בי ומנסים להשתיק אותי  בערב יום כיפור נהוג לבקש ס…  הטמטום של איש קבע שקונה אצל האויבים  בגץ רע ליהודים  Hellershlomi זה בסדר הוא לא ישאר מאושר אחרי שיפסיד  פעיל חברתי מטריד סדרתי DZilbershlag לעיתים החלטות קטנות של אנשים קטנים מבטאות את יחסם לענינים ברומו של עולם הפער בין אלפיים בבלפור לבין עשרים  בתפילה חושף… מי שבאמת מאמין בה באמת מאמין גם במושג של חטא ועונש והוא רועד מפחד בעשרת ימי תשובה הוא יושב ומתחנן בפני ה שיסלח…  YemotHamashiach אנחנו צועדים בצעדי ענק לקראת אסון טלוויזיוני המוקד עומד לקרוס אחרי שניה ופתאום הטלפון מצלצל מדבר מנחם מימות המשיח… פעילים יקרים ואהובים   בסרטון המצורף נמצאים המספרים המלאים של המקרים בהם טיפלנו   תתרמו ותהיו שותפים לפני יום הדין…  היהדות הינה יעוד לאומי עול של מלכות שמים אשר הוטל על היהודי שכורע את ראשו ומכופף את צווארו מתוך יראה הרועד בפני ה…  YemanimNews ארגון להבה יוצא בקמפיין לעשרת ימי תשובה במה חטאו הילדים   חדשות ימנים gtgtgt   תפוח בדבש לא אכלתי אבל אולי אולי אזכה ביום כיפור ללבוש לבן ולהתעטף בטלית לפזם עם החזן כל נדרי לשבור את הצו…  הענן החשוך עומד מעל ראשינו דבר הבא לביטוי בולט במרד של ביתהמשפט העליון בהלכה היהודית יהודים הנביא זעק שובו אל…  meiretingr אֵת כָּלאֲשֶׁר אָנֹכִי אֲצַוֶּךָּ אַלתֵּחַת מִפְּנֵיהֶםפֶּןאֲחִתְּךָ לִפְנֵיהֶם meiretingr רבנים שהצניעו את התורה בד אמות של הלכה  כאילו אין לתורה מה להורות לנו בנוגע לאופיה של מדינה יהודית תשובה אמתית פירושה לה… meiretingr בפסד בגץ נגד הרב שמואל אליהו אשמים לא רק שופטי בגץ הרשעים והחצופים אלא גם להבדיל הרבנים מכיוון שפסק הדין עושה אבחנה… יום שחור למדינת ישראל שוב שופטי בגץ מתייצבים לצידם של המשומדים הרפורמים ומנסים לסתום פיות של רבנים ולמנוע מהם להב…   הגלות היא קללה וחילול השם וחייבת להתחסל כאשר ישראל רצו לברוח מאי למצרים אחרי שנהרג גדליה אמר הנביא והיתה החרב א…  arnonsegal1 ככה ייעשה ליהודי שהעז לנסות להגיע עם שופר להר הבית דרך שער המיועד למוסלמים השער החשוך שנה טובה מדינה יהודית ודמוקרטית… יהודי או ערבי זה בידים שלך צפו בסרט המלא   קישור לסרטון המלא בתגובה הראשונה  anatgops שנה טובה לכל בית ישראל  להם מותר הכל  אפס אכיפה  אפס ריבונות תחל שנה וברכותיה  שנה טובה ממערת המכפלה  itamarbengvir טירוף הדעת התיק הזה היה חייב להסתיים בזיכוי יודע שעורכי הדין המוכשרים יערערו לעליון ורק מתפלל שימצאו אוזן קשבת שתעשה מ… elchangr guyzo עונה ליאיר גולן המאבק להוכחת חפותו של בן אוליאל לא רק לגיטימי אלא הוא מתבקש  חברים הקמפיין תיכף מסתיים  כנסו עכשיו… okirsh אין גבול לשנאה העצמית הגיע הזמן לפטר היום את המחבלים של מחר ולא לחכות  drmichaelbenari  ayeletlash9 לדפוק את הראש בקיר כל יום אבל כל יום ערבים מנסים לרצוח יהודים בחברון בסלעים בקתבים חסמי אבנים סכינים וזה גיבור חי… וְאֵין מוֹלִין אֵלָא וֶלֶד שְׁאֵין בּוֹ שֵׁם חֹלִי  שֶׁסַּכָּנַת נְפָשׁוֹת דּוֹחָה אֶת הַכֹּל וְאִפְשָׁר לָמוּל…  שופר כפוף ללמדנו שאדם צריך להיות כפוף ולא בעל גאווה מנהיג צריך להיזהר במיוחד מגאווה כי כאשר אדם מגיע למעמד רם י…  arieshapira1 ברוך דיין האמת בבנין ירושלים תנוחמו ולא תוסיפו לדאבה עוד ayeletlash9 בוקר טוב  תוך יום אחד  הציבור מביע חוסר אמון מוחלט במערכת המשפט הרקובה  קדימה חברים שימו כל סכום ותפיצו את הלינק… רגשי אשמה מה פתאום אין דבר כזה פלשתין זוהי ארץ ישראל היא שייכת לעם ישראל שקיבל אותה מידי אביו שבשמים היא שייכת…  ביבי מוכר את יהודה ושומרון והר הבית ומקבל פרסום וכבוד מזוייף  הקורנה מזכירה לנו שעם לבדד ישכון  והערבים מזכירים לנו שאין שלום עם אויבים הבדידות ליהודי ברכה ולא קללה ולולא הכריח אותנו הגוי להבדל ממנו לא היינו יכולים להתקיים בגלות כפי שהתקיימנו אלא א…  guymalka4 מילים חיים חפר  יוֹם הַדִּין גָּדוֹל סֵרַסְנוּךָ סֵרַסְנוּךָ יַא מוּחַמֶּד אָה  יוֹם הַדִּין גָּדוֹל בְּלִי נַ… malkatwito ברוך דיין האמת בבנין ירושלים תנוחמו elchangr זה מדהים  תוך כמה שעות גויסו מעל 100000 שח לטובת המאבק המשפטי של עמירם בן אוליאל  הציבור יודע שמדובר בעלילה שפלה ונרתם לע… elchangr כל פעם שאני מדמיין את עמירם בן אוליאל עובר את העינויים מידי חוקרי השבכ הלב שלי מתפוצץ לרסיסים  כעת משפחתו וחבריו פתחו בקמפי… אמונתו של הילד ברורה בלי ספקות אבל אחר כך הנער גדל נעשה מתוחכם ופתאום הדברים אינם שחורלבן הוא יותר מכולם זק…  arnonsegal1 ביום שישי עשרות אלפי מוסלמים הגיעו להר הבית בלי הגבלה אבל כעת לא נותנים לנו לעלות להר כי קבוצה בת עשרים יהודים כבר עלתה ו… בך בטחו אבותינו בך בטחו ולא בושו האמונה בה והבטחון בו חייבים להיות ללא בושה אוי לתקופה זו שאמונה בה וסמי…  LapidotYisahi רפואה שלמה IsrealSly מקבלים שבת עם יור ארגון להבה הצדיק בנצי גופשטיין  חיה ותן לחיות בחירה חופשית – ובחרת בחיים gtgtgt   arnonsegal1 נפגשתי איתו בשנת 94 הוא היה אחראי על התשובות לבגץ בזמן המעצר המנהלי שלנו ונלחם בחירוף נפש נגד זכויות האדם  YemanimNews להבה בסרטון חדש מפיצי נגיף ההתבוללות כבר לא נמצאים רק בכפרים או בערים המעורבות   חדשות ימנים gtgtgt   SegevYuval gtgtהסרטון יוביל לאתר של הארגון עם המשפט הגזעני המצוטט למעלה  תגובה להבה לא מדובר בגזענות קיבלנו תלונות רבות מבנות יהוד… כל יהודי קשור לכל יהודי אחר ומצד אחד הוא חייב לעזור לו ולאהוב אותו כנפשו משום שלכולם יש יעוד משותף כעם עליון סגו…   elchangr הגיע אלי סיפור נורא איזה כלב מנוול שהעלה טרמפיסטית צעירה ביוש סיפר לה סיפורי אלף לילה ולילה ואז סימם אותה ופגע בה כותב פ… anatgops פתחי לי אחותי  פורסם בעלון השבת גילוי דעת  וכחלק מצעקתנו וזעקתנו להחיש את הגאולה מצוה גדולה עלינו להקדים כמה שאפשר את השבת כדי שבזכות זה נקבל במדה כנגד מדה…  chanamel1 על רקע גמגומי בנט ושקד זמן טוב להזכיר מי נתן גיבוי מלא בזמן אמת לשי ניצן ואביחי מנדלבליט לעשות ככל העולה על רוחם צפו  מת… YairNetanyahu היום ברור יותר מתמיד רומן זדורוב ועמירם בן אוליאל חפים מפשע אני בטוח שיש לך תכניות ותקוות גדולות וכך צריך להיות אבל אל תתאכזבי אם לא תכבשי את ההר מיד הגאולה עצמה אינה מגי…  drmichaelbenari מישהו שמע הערב משהו מנשיאנו ׳בני עמי בחרו בטרור׳ שי ניצן חיפה על הריגתו של בידואי כדי לא לפגוע באינטרסים של המדינה… ביבי בטח ריטווט את עמית סגל וכל החסידים שלו יגידו תראו מה עשו לו ודאי שהם צודקים אבל היית כל כך הרבה שנים ראש…  avribloch עשרות ערבים רעולי פנים עם סכינים תוקפים הערב את הנערים בחווה של מיכה סמוך לכוכב השחר כוחות שהגיעו למקום מדווחים על 3 פצוע… מאיזה מגזר המטפל  תג מחיר אבל להם מותר  המלחמה בעוני – לא תיעשה בעזרת הכסף בלבד לא המחסור בממון הוא שורש הרע אלא מחסור בערכים אותם ערכים אשר נעקרו מעולי…  הקדושה יוצרת אדם עם משמעת עצמית יצור אנוש המסוגל להטיל משמעת על עצמו ולהביא את עצמו להקרבה עצמית כושר זה נרכש על…  yedidyagrosman מי שמתנכל לפעילי ימין  ישלם שאפו itamarbengvir  מעניין אם המשטרה עשתה משהו  שיפרוש זה מה שיש לו לעשות בירושלים רב תביא את התלמידים היהודים לירושלים ערבים בהר הבית יש מספיק תייצא לשם במ…  ariehking שמאלנותצביעות תודה יואב אליאסי על המודעה הכל כך צודקת ומאכזבת  amitsegal שני יהודים העניקו למוסלמי אחד ויתור לא כואב כי לא כאב להם לוותר  גם בקורנה נשמרים ושומרים מנגיף ההתבוללות  על המצוה המיוחדת בפרשה  שמחה ואיך אפשר לדעת אם בן אדם בוטח בה לפרשת כי תבוא  חזק על המסלפים והמזייפים  אם יסגרו זה רק ליהודים  מתי הבנות יקבלו שכל ויעזבו אותם  יְצַו ה אִתך את הברכה באסמיך ובכל משלח ידֶך כתב בעל הטורים באסמיך בגימטריה זהו סמוי שאין הברכה מצויה אלא ב…  chanamel1 ככה נראית הערב צומת תפוח במקום מחסומים של הצבא ועונש קולקטיבי עד שהם יקיאו מתוכם את הטרור הצומת ריקה מאדם והצבא מאפשר להם… almogbenzikri אני חושב שגם אתה לא תכחיש שיש הרבה יותר פגיעות מיניות עם רקע גזעני ואז הן הרבה יותר חמורות almogbenzikri הם לא ערבים יצאתי בחריפות נגדם אבל אוופס אף אחד לא ראיין אותי בנושא ובפייסבוק אסור להזכיר את השם…  הערבים עסוקים בפיגועים וצהל עסוק בפינויים  tzvisuccot לא חולה נפש לא רב עם אשתו אפילו לא פוטר מהעבודה מ ח ב ל עם אאודי A4 מנסה לרצוח יהודים כן גורמים במערכת הביטחון מ ח ב… הגאולה בלתי נמנעת ואין בכוחו של הגוי או של היהודי המתיימר להיות גוי לעצור בעדה וּבָאוּ עָלֶיךָ כָּל הַבְּרָכוֹת…  anatgops מרגש סיפור סוחט  דמעות אספר לכם מה לא רוצים שתשמעו בצינור אשה שיצאה מכפר ערבי בעזרת ארגון להבה לפני שנים ונקלעה למצוקה אתמ… אכן עצוב אחד מהקולות השפויים הבודדים שהיו בתאגיד  Lachjerusalem עובדי ועדת השיקום של מחלקת ההקדשות האיסלאמיות הוואקף מבצעים עבודות בבור שנפער השבוע בהר הבית  לצערנו שוב ישראל נ… יש לך דברים רבים כל כך לשמוח בהם בריאות שפיות משפחה אוהבת חינוך טוב ובית ספר טוב יש לך מספיק לאכול וללבוש יש…  כמה טוב שיש ממשלת אחדות חירום לטיפול בקורנה  ככה מקבלים החלטות בצורה אחראית עם הרבה תכנון הם משאירים את המחבלים הפוטנציאלים בתוך השטח  drmichaelbenari הנהג ממגזר הרופאים צודק הנוסעים שלא מוכנים לשמוע מוזיקה ערבית בקולי קולות הם גזענים זכותו להשמיע מוזיקה שמנעימה לו… איה נא אותם ההוגים הציונים שחזו נוער יהודי חדש גאה בלאומיותו ומשוחרר מהדת ומה עולה בדעתם שעה שרואים הם את פרי יצי…  MoranT555 מזל טוב שוב אונס עם רקע לאומני חייבים להחמיר את הענישה במקרים כאלה  itamarbengvir מקווה שהמסר יעבור אני יודע שיש הרבה שוטרים נפלאים ויקרים אבל לא אתן שיתעללו בציבורים שלמים סתם  בין ישראל לעמים יש רק הבדל אחד יש רק סיבה שכלית והגיונית אחת לאדם להתגאות בזה שהוא יהודי התורה זה סוד הייחוד והש…  itamarbengvir דם יהודי אינו הפקר עכשיו בהפגנה בפתח תקווה  בא נראה תוך כמה זמן יעצר  ayeletlash9 זהו המחבל שנפצע ביום שישי לוחם צהל מתנדב בארגון עין לציון הצליח לתעד את המחבל מקרוב צילום הפנים של המחבל נשלח לכוחות הב… zabardoker צהל מציב בצפון בובות בדמות חיילים ובחברון חיילים בדמות בובות בשורות טובות לפני שבת שבת שלום  tzvisuccot לפני כמה שעות נפצע חייל צהל מאבן לפנים בחברון ברשתות הערביות פורסם המחבל הזה שפצע את החייל באבן מטווח אפס הנה פה בתיעוד… YemanimNews בלעדי מחבל ערבי גלויי פנים מיידה אבנים לעבר חיילי צהל ושוטרי מגב בחברון צילום עין לציון צפו gtgtgt  IsrealSly הרהג דוב ליאור שליטא בטור שבועי בעלון גילוי דעת על ענייני השעה במדינת ישראל  דברי הרהג  נכתבו מתוך דאגה ואכפתיות גדולה… כי תצא למלחמה אסור שיהיה אויבים בארץ מי אשם ברצח של הרב שי אוחיון היד  shaimaymon את הבית שלי יהרסו בית שהמדינה הקימה בית שעבר פינוי ממקום אחר והמדינה החליטה איפה יקום מחדש בית של אזרח שומר חוק משלם… מתי מפנים את בגץ  שיעמידו אותו לדין עכשיו ויעיפו לכל הרוחות גם למי שלא איש שמאל יש זכויות  אמרה יהיו מזונותי מרורין כזית בידו של הקבה ולא מתוקין כדבש בידי בשר ודם דףיומי 1BlackIsrael האם בהפגנה הקרובה בבלפור ליד השלטים צדק לאיאד יופיעו גם שלטים צדק לשי או שפתאום ההפגנה היא לא פוליטית והממשלה האומללה הזאת הזוג המוזר הזה תורמת יום יום להרמת המורל לביטחון העצמי של המרצחים היא כובלת את ידיהם של צה…  avribloch עוד פנינה לAmirOhana  השופט מזוז בתקופת ההתנתקות היועמש הורה להחמיר את הענישה נגד חסימת כבישים ואמר כי אין קשר בין חסימ… arutz20 שמעון ריקלין לבנצי גופשטיין אני רוצה לשאול אותך שאלה  איך זה שכל המחבלים שלא בריאים בנפשם תמיד רוצחים יהודים והם אף פעם לא… מפטרים היום את המחבל של מחר אם אכן הם נעדרים אי אפשר לקרוא להם לא יהדות ולא תורה ועוד היו חבדניקים שהצביעו להם  arnonsegal1 עוד לפני שמתאמצים למנוע התקהלות חד שנתית באומן תמנעו התקהלות המוני מוסלמים מדי שבוע בהר הבית שוב גזענות במשרד החינוך  IsrealSly חודש אלול כבר כאן חודש הרחמים והסליחות היה שותף בפדיון שבויים על ידי הוראת קבע לארגון להבה בסכום של אלול 67 שקלים… בחול אין לנו ארץ שיהיה לה גבול בחול אין האדמה של האדם בישראל אלא חפץ שעליו בוודאי חל האיסור של גזל אך לא האיס…  ErelSegal די מטורף זה לא סוד שהיו מריבות גדולות עם bezalelsm בגלל הבחירות וההחרמה שלנו אבל יישר כח גדול שהוא מעלה את הנושא של מיהו י…  תקדים חשוב מעתה כל מי שבאים לפנות את ביתו יכול להגן ולתקוף את מי שבא להרוס את רכושו  המצוה פותחת לאדם את הדרך לקדושה היא מעדנת את חושיו ואת נשמתו כך שירגיש את הטוב ואת הרע את הקודש ואת הטומאה ככל שה…  YemanimNews גבר ערבי בן 29 נעצר לאחר שהטריד קטינה יהודיה בת 14 מספר פעמים ובפעם נוספת ניסה לאנוס אותה  חדשות ימנים gtgtgt  אין גבול לרשעות של בתי המשפט  kikarhatorah שוטר תופס באלימות במפשעה של מפגין חרדי  אף שוטר לא הושהה  אף שוטר לא פוטר  אף שוטר לא נחקר אף שוטר לא התנצל אֶרֶץ אַ… לא מחשבות ה מחשבות התרבות הזרה וגם לא מידותיו וגזירותיו יהודי שמערער את החטיבה של עם ישראל עי נישואי תערובת נענ…  מתי תקבלו שכל  מי אחראי לחרפה  אם אדם מאמין שהחיים הם כמו ימי שכירות ארעית ארעית מאוד שהם ניתנים כמתנה של הייעוד – כחובה להשיג גדולה וקדושה – אז…  חשוב מאוד הנאורים רוצים לקחת מאנשים את הזכות להיות נורמליים  12med865 10 וחתול איך הגעת לשפן צהל הגדול והחזק משקיע מיליונים להלחם בבלונים במקום לחסל את אלה שמעיפים אותם ומשפחתם מביך  יש לדייק מלשון כי יפלא ממך דבר שאם יש לך שאלה בדבר המכוסה ממך אתה חייב לשאול אבל אם אתה יודע בבירור את התשובה…  arnonsegal1 נבואה שנאמרה היום לפני 2540 שנים ועדיין רלוונטית בחדשׁ השישי ביום אחד לחדשׁ היה דבר ה ביד חגי הנביא לאמור העם הזה אמ… האם השופטים של דורינו יכולים לומר ידינו לא שפכו את הדם הזה ועל הסבר נפלא מהירושלמי לפרשת עגלה ערופה  YakovSela אנשים פה מדברים על הצורך בחקיקה חמורה נגד אנסים אז כמי שמנהל מלחמת חורמה בפדופיליה ובאונס ומשקיע בה חלק ניכר מחיי אני יכו… anatgops כוחה של תשובה  פורסם בעלון השבת גילוי דעת אלול המלך בשדה חודש טוב בשורות טובות  1BlackIsrael כמו בקורונה גם את החברה מאילת צריך למספר לפרסם מי מאיפה איפה הוא הסתובב ולבייש חולה מס 1 חולה מס 2 חולה מס 30 אלול הוא החודש של תשובה של חשבון נפש הוא נועד לגרד את האגו שהשתקע בלבנו ובנשמתנו אם פסח תובע לבדוק את החמץ שבבית…  ErelSegal כי ימצא חלל באדמה נופל בארץ לא נודע מי הכהו ויצאו זקניך וכל זקני העיר ההיא הקרובים אל החלל ירחצו את ידיהם על העגלה הע… assafgolan3948 30 צעירים שמקיימים יחסי מין עם נערה שיכורה באילת מוציאים אותי מדעתי יותר מעוד בחירות יותר מהטענות נגד ראש הממשלה יותר… YemanimNews רדיפה פוליטית חסרתתקדים כתב אישום נגד צעיר שאמר קדיש בהר הבית   חדשות ימנים gtgtgt  yeudiIsraeli כתבתי בתנאי שזה ביתי יודעים שזה שייך לאלוקי ישראל ולא לאחר בושה מה לכם לרמוס חצרי אל תעלי ואל תקראי להביא עוד זרים להר הבית הר הבית שייך לעם היהודי ורק לו גוי שרוצה לבוא…  מה שווה אדמור אם אי אפשר לשלוט בו אם את רוצה להיות שמחה הפסיקי לחשוב על עצבות ועל איך להיות שמחה אם את רוצה למצוא את עצמך הפסיקי לחשוב על עצמך ככ…  itamarbengvir אמת  arnonsegal1 זו המדינה שמזמינה את כל המוסלמים בעולם להתפלל בהר הבית מוסלמים בלבד ועוד קוראת לעצמה מדינה יהודית  yeudaprl לא ככ התחברתי להפגנה אתמול נגד היהודים באים מכמה סיבות אולי נרחיב בהזדמנות אבל השלט הזה מאוד תפס את תשומת ליבי יהודים… מעולם לא היתה גזרה משמים שהורים יהודיים יגַדלו דווקא רופא עורך דין או מהנדס מימות אברהם אבינו נצטווינו לגדל ילד ש…  עכשיו אצל ריקלין בערוץ 20 מוזמנים להצטרף  IshayFridman דמיינו את התמונה הבאה חכ מהליכוד עולה למסיבת שחרור למרצח יונה אברושמי נאומים חיבוקים נשיקות החכ מעלה לרשת את התמונ… בגין והליכוד השאירו שם את כולם את כל התבוסתנים את כל עוכרי ושונאי ישראל היום כולנו משלמים על כך הטלוויזיה והרדי…  אותי מעמידים לדין על מוחמד מת והתכניות של התאגיד מקבלות תקציב על ביזוי קדשי ישראל  כולם באים מחר להפגנה מול הבוגדים מבית אלה שהורסים את הנוער  YairNetanyahu  ayeletlash9 בחמישי האחרון התקבל במשטרה דיווח על גבר שביצע מעשים מגונים במספר קטינות בזמן ששהו בתוך הים בתל אביב החשוד תחזיקו חזק ער… מתי נתעורר  שוב ושוב ואנחנו לא מתייחסים להיבט הלאומני בסיפור  meiretingr והיה אשר תותירו מהם לשכים בעיניכם ולצנינם בצדיכם פחד ויראה מפני האל שבשמים שמעניש את החוטאים ומשלם להם כגמולם  הרי אלו מרכיבים חיוניים ביהדות והם מאוסים בעיני ה…  וואו יש ערבים עם דוקוטרט בעניני סייבר ואתם אומרים שאני גזען אני לא חושב שהם טיפשים או פרימיטבים נהפוך הוא הם ג…  YemanimNews ביום שני הקרוב היהודים באים למחות   חדשות ימנים gtgtgt  drmichaelbenari בימים אלו אנחנו כותבים פרק על ׳התנועה האיסלאמית׳ מתעסקים בפיגוע הרצחני ׳ליל הקלשונים׳ והתשתית הארגונית ורעיונית והמעט… ספורנו עצום על הפסוק הראשון בפרשה הביטה וראה שלא יהיה עניינך על אופן בינוני כמו שהוא המנהג ברוב כי אמנם אנכי נות…  MLayosh קושנר מבטיח למוסלמים שיוכלו להגיע בהמוניהם לאל אקצה אדם דתי אורתודוכס שלכאורה מתפלל בכל יום ולירושלים עירך ברחמים תשוב ו… ביבי מוותר שוב על הר הבית במקום להתיר ליהודים להתפלל בהר מייבאים עוד מיליוני ערבים אם אשכחך ירושלים תשכח ימיני  גם בלהבה חוזרים לשגרה וממשיכים למגר את נגיף ההתבוללות בכיכר ציון  אני גם מוכן לדחות את הסיפוח אם איחוד האמירויות יקחו את כל האחים שלהם מפה אליהם aryeyoeli הקריאה הזו לאחדות העם פורסמה בעיתון הארץ לפני חמש שנים לא מדובר בטוקבק של צייצן פייק מאוסטרליה אלא בטור דעה חתום שעורך… תשמרו על ההורים שלכם  כפירים רשו ורעבו ודורשי ה לא יחסרו כל טוב ויש לשאול וכי לא ראינו צדיקים נעזבים וזרעם מבקש לחם אין יראים שחסר להם…  arieldanino שוטרי משמר הגבול הורסים עכשיו בתים וכרמים בגבעת שבח הארץ ליד יצהר  העיקר למחבלים אסור להרוס אין כמו בגץ  הערבים פירשו את הויתורים היהודיים לא כבאים מתוך טוב לב ואצילות אלא מתוך פחד ויראה וכך את הערבי המכווץ בפחד הפ…  אף פעם לא מאוחר מידי ויש עוד הרבה  EdriGai כשיעשו על ערבים  אצחק גם על זה אוי צבועים לי אתם קוראים גזען אותי פסלתם לרוץ לכנסת כי לדבר נגד האויבים שרוצים לרצוח אותנו זה אסון אבל אלה שא…  Hellershlomi ארגון להבה בתגובה להסרת השלט הסרת השלט המתריע בפני נשים המגיעות לרחוץ בבריכה על זהותו הלאומית של המציל היא חמורה מאוד… meiretingr כל עוד ממשיכים להתייחס למלחמה באויב הערבי כאל משפט של עבריין שסטה מהדרך הטיעונים על הריסת בתים כהרתעה מייצרים עיוות מוסרי… herzelhajaj עיסאויה אתמול בלילה המחבלים ממשיכים לנסות לרצוח ולשרוף את חיילינו ובזכות הפסיקה של מזוז ובגצ הם גם יודעים שאין לנו שום אמ… למה שערבי מחבל לא ינסה לרצוח יהודים כאשר הוא מכיר את חסדם ורחמנותם המטופשים והאוויליים של היהודים  הרחמנות הישראלי…  מפגין מול הבית של העוזר של המחבל מזוז  אכן הריסת בתים היא לא הפתרון אין פתרון אחר חוץ מהריגת המחבלים וגירוש הכפר וְלֹא תַחֲנִיפוּ אֶת הָאָרֶץ אֲשֶׁר אַ…  שופט כזה מרבה רציחות בישראל elchangr אז היום שופט ערבי במדינת ישראל קבע שלרצוח יהודים זה לא אירוע קיצון ובקולו מכריע לא להרוס בית מחבל שרוצץ את ראשו של חייל באבן… משטרת ישראל מתהדרת בפעילות מהירה והעמדה לדין של יונה אברושמי כמיטב המסורת שלה להתעלם מהמסיתים מהשמאל והערבים רק…  הקבה פוסל את הרעיון של שויון טבעי ומעמד שוה לכל רעיון ולכל עם ואדם הוא קובע הגדרות טוב ורע קודש וחול קדשים קלי…  drmichaelbenari tzionezra ברוך אומר ועושה אשריך  YoniRoten מה זה רצח על רקע לאומני בעצם בליל שבת נרצח יאשיהו בלום בחוף ראשלצ ככל הנראה על ידי ערבים מלוד ורמלה זה מתויג כפלילי כ… elchangr פרסום ראשון צעיר ערבי מלוד החשוד ברצח יאשיהו בלום זל מעלי בקטטה בראשלצ היה עצור לפני כחצי שנה בחשד לעסקת נשק  החשוד שוחר… aryeyoeli EranSwissa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">רגע לפני יום הכיפורים האחדות חשובה לכולנו בפרט בעת המשבר שעובר עלינו ועל העולם כולו   אם נסלח אחד לשני נהיה מאוחדים ומלוכדים אז ננצח בפרשת השבוע האזינו כתוב בפסוק יעקב חבל נחלתו   כששוזרים חבל מהרבה חוטים אף אם יש בינהם חוטים פגומים לא מבחינ…  שנה טובה ומבורכת  רוהמ נתניהו ראוי בעיניי לפרס נובל לשלום ורק נייחל שעוד ועוד מדינות יצטרפו ליוזמה המבורכת   עושה שלום במרומיו הוא יעשה שלום עלינו לקראת השנה החדשה ממשיך ראש הממשלה בנימין נתניהו להביא את בשורת השלום בחתימה על הסכם עם האמירויות ובחריין   אני מאח…  הלב כואב עוד משפחה נהרסת אב ל4 בנות קטנות נרצח היום על ידי טרוריסט שפל כולנו מחבקים את משפחתו של הרב שי אוחיון ז״ל NitayAnavi אושר במליאה חברות המעסיקות לפחות 518 עובדים יפרסמו מ2021 דוח שנתי על פערי השכר בין גברים לנשים  הצעת החוק של חכ ettya… ועדת העבודה הרווחה והבריאות אישרה לקריאה שניה ושלישית את ההצעה לתיקון החוק שיזמתי חובת פרסום דוח שנתי המפרט את…  אני סומכת על שירותי מערכת הרווחה שיעניקו לנערה סיוע ותמיכה נפשית סכין ננעצה בנפשה וכעת הטיפול האישי והמסור דחופים זעזוע הלם כאב גדול פרשיית האונס באילת היא מעשה פשע בדרגה החמורה ביותר משטרת ישראל חייבת לחקור ולמצות את הדין עם…  כלת פרס ישראל פרופסור רות גביזון זל לא הסתירה את דעותיה העצמאיות גם כשהיו מנוגדות לאגנדה הרווחת במערכת המשפט וב…  זכאי מענק קורונה להם יש אפוטרופוס יקבלו את מענק קורונה במהלך שבוע הבא   בעקבות פנייה שהגיעה ללשכתי בנושא מענק קור…  חייבים מתווה לפתיחת השמיים המתווה שהציגו בפניי איגוד הטייסים נראה פתרון מעולה   בתמונה עם יור איגוד הטייסים קברנ…  החלטת בגץ לבטל את צו ההריסה שהוצא לדירת המחבל המתועב פוגעת בהרתעה ומעניקה למחבלים פרס בגיבוי הגנה משפטית מעוותת…  פגשתי הבוקר ׳על הדרך׳ את רוני לוי מהתכנית חתונה ממבט ראשון״   רובנו מכירים את הסיפור של רוני שהגיעה מארה״ב במטרה…  תודה רבה הילה  מאחלת לנו המשך שיתוף פעולה פורה למען הובלת השיוויון  בפרשת השבוע פרשת ואתחנן התפלל משה אעברה נא ואראה את הארץ הטובה ביקש משה לראות רק את הצד הטוב של ארץ ישראל   ב…  המבחן שלנו הוא לא עכשיו לא בזמן הזה זה קל מדי   Israelkatz לצד המרצת המשק כפי שהבטחתי לא נשאיר אף אחד מאחור  סיכמתי עם חכ ettyatia כי תבוטל ההפחתה של 30 למובטלים או לשוהים בחל… כוחה של הצעה לסדר תקראו סיפור מעניין שמפרסם העיתונאי אבי גרינצייג בחדשות כל הזמן איך נאלצה המדינה להתקפל בבית ה…   לפני כשלושה שבועות פניתי אישית לשר האוצר חכ ישראל כץ כדי לקדם פתרון ראוי לתנאי העסקתן של העובדים והעובדות הסוציאלי…  אורון שאול זל חייל צהל שנהרג ב20 ביולי 2014 בתקרית אש בקרב שגאעיה במהלך מבצע צוק איתן הוכר כחלל צהל שמקום קבו…  אני מלאת סיפוק שמשרד הבריאות אימץ את ההצעה שהעלתי בכנסת  היום פורסם כי משרד הבריאות פנה למוסד בבקשה שיסייע ברכש חי…  טיפטופי ירי הרקטות עלולים להפוך לצונאמי של טרור ולכן מדינת ישראל חייבת להגיב בעוצמה וליצור הרתעה מיידית כדי למנוע…  מתוך הטור שפורסם בעיתון יום ליום הגענו לרגע האמת אנחנו חייבים לנצל את הזדמנות ההיסטורית בהחלת הריבונות לא להחמיצ…  גייס חמישי בכנסת ישראל להוציא אותם מחוץ לחוק עכשיו  כשעוסקים בריבונות ומדינה פלסטינית חייבים לזכור  ריבונותהכרה בשטחי מדינת ישראל  מדינה פלסטיניתהכרה במדינת טרור…  RahavRan כל הכבוד לחברי הכנסת קטי שטרית ואתי עטייה וכמובן גם לחבר הכנסת לשעבר אילן גילאון תבורכו יובל בגנו מעריב  צילומים יחצ… ארץ ישראל לעם ישראל  היום חל יום ההילולה לזכרו של המנהיג  הדגול של עם ישראל ומורשת ישראל  רבי מנחם מנדל שניאורסון…  הצעת החוק להטיב את חייהם של ניצולי השואה שהגשתי נדונה בועדת שרים לחקיקה הוחלט כי בעוד חודש ידונו שוב בועדת שרים ב…  כעת עולה לדיון בועדת שרים לחקיקה הצעח שהגשתי ועתידה לשנות באופן דרמטי את אורחי חייהם של אלפי ניצולי שואה בישראל…  חג שבועות שמח  כולי תקווה כי השופטים יוציאו לאור את זיכויו המוחלט של ראש הממשלה בנימין נתניהו   עם ישראל מרגיש נשפט בעת הזו הוא זכאי ברכותיי לכל הנבחרת לממשלה ה35 של מדינת ישראל   נבחרתם לעשות ולהשפיע למען תושבי מדינת ישראל זהו יום חשוב למדינה ו…  alonschustermk  ברכותי  לרגל בחירתך בתפקיד שר החקלאות אתה האיש הנכון בזמן הנכון  אין לי ספק שבתפקידך כשר החקלא…  היום תקום סוף סוף ממשלה בישראל שתתחיל לטפל באופן יסודי במשבר הכלכלי שנוצר בעקבות הסגר  משימתי בראש סדר העדיפויות ה…  בנאום בן דקה בכנסת קראתי לעודד צריכת כחול לבן לא להפקיר את המובטלים להשיב את ההכשרות המקצועיות לתמרץ מעסיקים שי…  חברי הכנסת  נבחרי הציבור קיבלו היום במייל את מכתב האיום של פרובוקציית הבוגדים נגד החלת ריבונות   סיפחנו את הגו…  בפרט במשבר הבריאות מסירות נפשם יוצאת מהכלל למען הנכים הקשישים ואנשים עם מוגבלות כל הכבוד היום חל יום האחות והאח הביןלאומי אציין לשבח בפרט את האחים והאחיות העוסקים בסיעוד הם מהווים דוגמא ומופת למחויבות…  חיילי צהל מתמודדים עם טרור רצחני בידיים כבולות וכושר הרתעה נמוך חייבים לשנות את הוראות הפתיחה באש ובנוסף לגזור דין…  סמ״ר עמית בן יגאל ז״ל בן 21 במותו הלב נשבר שולחת תנחומים למשפחה היקרה שאיבדה הלילה את הדבר היקר להם מכל  מברכת את רוה״מ על ההחלטה להאריך ולהרחיב את ההקלות לקבלת דמי האבטלה  כבר בשבוע שעבר פניתי במכתב למנכ״ל ביטוח לאומי…  הגשתי הצעת חוק להשוואת זכויות סוציאליות של פרילנסרים לשכירים על פי ההצעה יוענקו דמי אבטלה וזכויות נוספות לעובד פרי…  ומצווה זו כידוע מזכה את האדם לאריכות ימים כבד את אביך ואת אמך למען יאריכון ימיך   שבת שלום בפרשת השבוע פרשת קדושים כתוב בפסוק  איש אמו ואביו תיראו  ואת שבתותי תשמרו יטג  מפרשים שגם כשאין האדם זקוק…  הדבר היחיד שניתן לקבל בסמכות בית המשפט היא ההמלצה לבטל חוק או לתקנו ולא ביטולו בפועל הכנסת היא הריבון   שכרון הכח של בגץ מוביל את מדינת ישראל לאי אמון במערכת המשפט ומסכן את המדינה היהודית הדמוקרטית   לא ייתכן שבגץ הופך…  חג שמח ליום הולדת ה72 של מדינת ישראל וחג שמח לכל האזרחים     בעקבות פיגוע הדקירה בכפר סבא יש להעניק צלש לאזרח שנטרל את הטרוריסט אני קוראת לשר הבטחון להורות על הריסה מיידית ש…  זוכרים את הנופלים  צילום דוברות הכנסת  בני העדה צאצאי יתרו אתם חלק בלתי נפרד מהמדינה תרומתכם למדינה ובטחונה מיום הקמתה חשובים לאין ערוך  אפעל בתפקידי כ…  לכל בני העדה הדרוזית אשגר את ברכתי לרגל חג נבי שועייב   אישית אני מרגישה ביננו קשר עמוק קשרתם את גורלכם בגורל מד…  לרגל חודש הראמדן ברצוני לאחל לכל תושבי מדינת ישראל המוסלמים חג שמח   מאחלת לכם שגם השנה יהיה הרמדאן בסימן של אחד…  טור דעה נקרע לי הלב לשמוע את סיפורי המלחמה מלחמת הקיום  בעלי העסקים מתמודדים עם קופה ריקה ותשלומי שכירות מלאים ש…  הבוקר קיבלנו תזכורת לכך שגם בימי קורונה הטרור לא מוריד את ראשו מאחלת החלמה מהירה ללוחם שנפצע בפיגוע ליד מעלה אדומי…  ישנם לצערנו ילדיםנערים ללא מחשב וזה פוגע בסיכויי הצלחתם בלימודים ולפני מבחני הבגרות בעיקר היום שהם אינם יכולים לה…  מחשב אחד משנה עולם האם ידעתם שלבני נוער רבים בישראל אין עדיין מחשב  כן כן קראתם נכון עבור רבים מחשב הוא מצרך נד…  אפנה אישית לשר המשפטים אמיר אוחנה ליור ועדת כספים עודד פורר ולמנכל הביטוח הלאומי מאיר שפיגלר ואבקש לשמור על זכ…  המתמחים שאמורים היו לגשת לבחינה בידיעה כי בחודש יוני יהיו זכאים לחודשיים ומכיוון שנדחה לאוגוסט הם יוותרו למשך חודשים מובטלים ללא שכר העסקים הקטנים מחזיקים את המדינה כרגע הגיע הזמן שהמדינה תחזיר להם ותעזור להם לעבור את המשבר    עשרות אלפי עסקים וח…  הוא נכנס לחודש שני ללא עבודה והפיצוי מהמדינה שעדיין לא הגיע הוא ממש זעום בשבילו לכדי קיום רק דמי שכירות הוא משלם כ…  נקרע לי הלב לשמוע את סיפורי המלחמה מלחמת הקיום בעלי העסקים מתמודדים עם קופה ריקה ותשלומי שכירות מלאים שחייבים לשל…  netanyahu המגזין הבינלאומי פורבס מדרג את ישראל כמדינה הבטוחה ביותר בעולם במגיפת הקורונה   ממשיכים להילחם להציל חיים  ולנצח מועדים… בימים אלו מצופה רמת רגישות גבוהה ביחס לחולים המטופלים אנשי צוות הרפואה פועלים למען בריאות החולים במסירות נפש לילות…  ברוך דיין האמת  הרב אליהו בקשי דורון הרב הראשי לשעבר הלך לעולמו אבדה גדולה לעם ישראל מתפללת שלא יהיו עוד קורבנו…   משאירים את הדלת פתוחה עם השכןה וכך גם הוא ישתתף אתנו יחד באווירת החג   אם אפשר להזיז לערב אחד את השולחן כמה שיותר…  בואו נקח יוזמה נשתף ונפרסם   כל מי שגר בבניין שיודע שיש שם מישהו בודד זוג מבוגרים או כאלה שזקוקים לזה שלא יתבי…  לפתוח דלת ולחגוג בליל הסדר יחד  בזמן שאנו נחגוג את ליל הסדר נזכור שיש גם כאלה בודדים עריריים ואפילו זוגות שיסבו…  רוב הציבור מתבודד בביתו וסובל לפחות ראוי שהנבחרים יגיעו להסכמות ויראו לתושבי מדינת ישראל  את האור בקצה המנהרה  בסי…   פיקוח נפש דוחה פוליטיקה  הקמת ממשלת חירום בעת הזאת היא בגדר פיקוח נפש כל זמן שהקמת ממשל…  מברכת על כך הטיפול בילדי החינוך המיוחד בזמנים אלו הוא צו השעה  האחדות מנצחת יום שמח לעם ישראל יום שחור לשמאל ותומכי המחבלים  מברכת את בני גנץ על החלטתו להתקדם לכיוון ממשלת אחד…  הגיע הזמן שמישהו במגדל הפיקוח ייתן קריאת השכמה לרביעיית הקוקפיט לפני שהם יתרסקו וייקחו אותנו איתם נסיגת יור כחול לבן בני גנץ מהאפשרות להיכנס לממשלת חירום לאומית כדי להילחם יחד במשבר הקורונה היא החלטה פחדנית מנה…  gantzbe בני מספיק עם הפוליטיקה הקטנה מי שבאמת רוצה ממשלת אחדות לא מתחנן לעזרת תומכי מחבלים בהקמת ממשלה ולא יוזם חקיקה נגד ראש הממשלה הקורבן הראשון של הקורונה אריה אבן ז״ל ניצול שואה הלב כואב תנחומיי למשפחה   שמרו על עצמכם ועל הקרובים לכם המגי…  מלחיצות ידיים כדאי להימנע  מחיאת כפיים לצוותי הרפואה מותרת ואף מומלצת   עם ישראל מודה לכם בערב זה  איבד את זה  בזמן כזה רגיש ומסוכן כאשר הציבור עדיין מבולבל בוחר יאיר לפיד ברוב חוצפתו וחוסר רגישותו להסית נגד רוהמ נתניהו והגו…  פעם נוספת נשבעת אמונים לכנסת מקווה שמכאן נמשיך להקמת ממשלת אחדות שתדע להוביל את המדינה אל מול האתגרים הניצבים בפני…  פניתי הערב לשר העבודה הרווחה והשירותים החברתיים חברי חכ אופיר אקוניס ולסגן שר הבריאות יעקב ליצמן בבקשה להנגיש א…  בזמן חירום שבו צריכים אחדות ממשיך מר יעלון לפזר שנאה וקיטוב מתוך תפיסת עולם מעוותת   אני ממליצה לבוגי להקשיב למיל…  YoazHendel1 מוסכם חייבים להתקדם הראיון הבוקר של בוגי יעלון המודה כי בשיקול איזו הבטחה להפר  לא לשבת עם נתניהו או לא להסתייע במשותפת  העדיפו בכחול…  גם ח״כ אורלי לוי מבינה שאי אפשר להעדיף את אויבנו לרמות ולשקר לציבור הבוחרים בעזות מצח  סיעת כחול לבן פרסמה כי היא פועלת בהקמת ועדה פרלמנטרית שתעסוק בהתפשטות הקורונה מגוחך  במקום להתאחד ולהקים ממשלת חי…  ממשלת חירום לאומית עכשיו  קצב התפשטות נגיף הקורונה בישראל גובר ומדאיג בכל קנה מידה   אם מצב זה יימשך ויחמיר אנו…  אני כבר הצבעתי ואתם  הכח בידיים שלכם צאו להצביע וננצח  כל כך פשוט כל כך חשוב  צאו  netanyahu פנייה חשובה ממני אליכם מצביעי כחול לבן  פחות מ24 שעות לפתיחת הקלפיות זה תלוי אך ורק בכם  תצאו להצביע  ננצח לא תצאו  נפסיד  הסקרים האחרונים מעודדים מאוד אבל אסור להיכנס לשאננות  על מנת שהניצחון יהיה שלנו אנחנו הליכודניקים צריכים לצאת ו…  הפעם לא מוותרים על אף קול  יוצאים מצביעים ומנצחים  אישרנו היום בוועדת הכספים הקלות מס מתרומות לרשימה של עשרות עמותות ומוסדות ציבור חברתיות לפי סעיף 46 בפקודת מס ה…  במקום לעשות סוף לביזיון הזה בית המשפט נותן אישור לח״כ שמהללת מחבלים בושה  ליבי הבוקר עם חיילי חטיבת גולני שנפצעו בפיגוע בירושלים מאחלת החלמה מהירה לפצועים אני בטוחה שכוחות הביטחון יתפסו את האחראים למעשה השפל הזה ״כל המציל נפש אחת מישראל כאילו הציל עולם ומלואו״  דרך צלחה   חדשות מרגשות הגיע הזמן שנעמה תחזור לחיק משפחתה שמחכה לה זה תקופה ארוכה רוה״מ הבטיח וקיים בשעה טובה נעמה חוזרת הב…  טוב עשתה ועדת הבחירות המרכזית לכנסת שפסלה את ח״כ יבזק מי שמהללת מחבלים ארורים ולא מסוגלת לגנות מעשה רצח מחריד של י…  יש על מי לסמוך  יום השואה הבינלאומי חל היום השנה מציינים 75 שנים לשחרור מחנה אושוויץ  מדינת ישראל היא מדינה עצמאית וחזקה שאחראית…  יצאנו לדרך  אתמול הוגשו הרשימות הסופיות שיתמודדו בבחירות לכנסת ה23  אני בטוחה שרשימת הליכוד בראשות ראש הממשלה בנ…  לא ייתכן מצב שבשנת 2020 תחבורה לא תהיה מונגשת לכלל האוכולסייה   החוק כרגע לא דורש ממפעילות התחבורה הציבורית להצטיי…  כאב וצער גדול סתיו הררי ודין שושני בני 25 מצאו את מותם באסון אתמול בתל אביב לא היה להם סיכוי מול המים הרבים שזר…  מסיבת חנוכה בבית כנסת שהופכת לזירת טרור האנטישמיות שוב מרימה את ראשה המכוער עלינו להילחם בה בכל מקום ובכל דרך מא…  החלטנו היום לאחר אינספור דיונים לעצור את דיוני ועדת הכספים  חינוך ילדי ישראל ותקצוב ילדים בעלי צרכים מיוחדים הם נו…  חג החנוכה הוא חג של אור ותקווה חג קסום   מאחלת לכולנו שנהנה מאורו של החג שנדע להאיר אחד את השני ושנזכה לראות את…  בבחירות לראשות תנועת הליכוד אתמוך בחבר הכנסת גדעון סער  אני מעריכה מאוד את ראש הממשלה בנימין נתניהו ותרומתו למדינה…  בסופו של יום האחריות היא שלנו אנחנו נבחרי הציבור מחויבים לכל אזרח במדינת ישראל על זה נבחרנו ההליכה לבחירות שלי…  יום המאבק הבינלאומי למניעת אלימות נגד נשים  האלימות כלפי נשים היא תופעה מזעזעת הקיימת בכל שכבות האוכלוסייה   האלי…  ביראת כבוד ובהתרגשות גדולה נשאתי היום את נאום הבכורה שלי   קישור לצפייה בנאום   זכותה של מדינת ישראל ואף חובתה לנקוט בכל האמצעים כדי להגן על עצמה את אדריכלי הטרור בדרום בצפון ובכל מקום  צריך ל…  אני רוצה לברך את ראש ממשלת ישראל מר netanyahu בהמון המון מזל טוב עד 120  מאחלת לך עוד שנים רבות של עשייה והצלחה…  וזאת הַבְּרָכָה אֲשֶׁר בֵּרַךְ מֹשֶׁה אִישׁ הָאֱלֹהִים אֶתבְּנֵי יִשְׂרָאֵל לִפְנֵי מוֹתוֹ  חבריי וחברותיי…  בַּסֻּכֹּת תֵּשְׁבוּ שִׁבְעַת יָמִים כָּל הָאֶזְרָח בְּיִשְׂרָאֵל יֵשְׁבוּ בַּסֻּכֹּת  חג שמח מלא באהבת חינם לכ…  מיד עם צאת הצום התבשרנו בפיגוע הירי הנורא כנגד הקהילה היהודית בגרמניה אירופה צריכה להתעורר ולהבין כי זרם קיצוני מר…  כִּי בַיּוֹם הַזֶּה יְכַפֵּר עֲלֵיכֶם לְטַהֵר אֶתְכֶם מִכֹּל חַטֹּאתֵיכֶם לִפְנֵי ה תִּטְהָרוּ  היום בו שערי ש…  שמחתי לחגוג עם שגריר טאיווואן בישראל מר צאנג נציג ישראל בטאיוואן אשר ירדן וחברים נוספים את היום הלאומי ה108 ש…  בעיית המסתננים היא בעיה שצריך לפתור במהרה אותם נתינים זרים תורמים לרמת פשיעה גבוהה ומעמידים את תושבי דרום תל אבי…  בפעם השניה בתוך כשנה מתחייבת אני לפעול אך ורק למענכםן למען ארץ ישראל ומדינת ישראל  תודה לכן ולכם שנתתם בי את אמ…  אני מאחלת לרוהמ netanyahu הצלחה רבה במהלך השימוע הצלחתו היא הצלחתנו ובטוחני כי רוהמ נתיהו ימשיך להוביל אותנו ו…  חברות וחברים שנה טובה ומבורכת לכולנו  מאחלת שהשנה הזו תביא איתה רק בשורות טובות לעם ישראל שנדע להרבות באהבת חינם…  אמש היה ערב נפלא ומרומם אני שולחת מכאן איחולי החלמה ורפואה שלמה לחברי חהכ yoavgallant בעה תחזור אלינו בריא ואית…  נמשיך לפעול למען שילובם של אנשים עם מוגבלויות בתעסוקה גם בכנסת ה22 בעה  פורסם בתאריך 23919 בעיתון globesnews  זה בוקר של גאווה נשית  לראשונה תכהן אישה כמפקדת טייסת מבצעית ובכך נשברת עוד תקרת זכוכית אין דבר העומד בפני הרצון…  שילובם של אנשים עם מוגבלות פיזית ונפשית תחזק את החברה הישראלית ותתרום לכלכלה ולחוסן הלאומי  מתוך דברים שנשאתי…  זכות ההצבעה החופשית והחשאית היא אכן מבין זכויות האזרח החשובות ביותר שיודעת האנושות בעידן הנוכחי זכות זו יותר מכ…  זה המאני טיים חברות וחברים לכל מי שטייל היום ערך קניות או סתם נח בבית זה הזמן לצאת ולהצביע  מחל אלו השעות הא…  אדם שמתרוצץ מפינה לפינה לשכנע מצביעים ראוי להנהיג את ממשלת ישראל  כרגע ישנם אחוזי הצבעה גבוהים בקרב מפלגות השמאל…  בוקר טוב ובהצלחה למשפחת הליכוד  מצביעים מחל ומבטיחים הקמתה של ממשלה ימנית לאומית בראשות רוהמ בנימין נתניהו צאו ל…  אמש בכנס סיכום קמפיין הליכוד בבת ים יחד עם חבריי לסיעה והאנשים הנהדרים של משפחת הליכוד  בעה ביום שלישי יוצאים כו…  חברות וחברים  ביום שלישי ה179 לפני שאתםן יוצאים ויוצאות ליום החופש שלכם עם בני ובנות הזוג והילדים עוברים בקלפ…  יצירתיות שכזו לא נשתף  ב179 שמים בקלפי רקמחל  תמונה של התומכת חן דהן  אני מברכת על הכרזתו של חברי חהכ אבי דיכטר כי העבודות על הנגשת מערת המכפלה תחלנה בקרוב לאחר מאבק ארוך ומסובך שניה…  יצירת האמנות הזו היא לא פחות ממבחילה ולא ראויה כל דמות אחרת במקום רוהמ נתניהו והמיצג היה נחקר במשטרה   ב179…  יישר כוח לרוהמ נתניהו שהכריז על צעד חשוב למען החלת ריבונות בשטחי בקעת הירדן זהו זמן מצוין להחיל את השליטה הישראלי…  לכבוד נשיא מדינתנו מר ruvirivlin  המון מזל טוב ליום הולדתך שפע ברכות ואיחולים לבביים בריאות איתנה אושר ואריכות ימים  יום הולדת שמח אולי חהכ מאיר כהן שכח איך עובדת דמוקרטיה כשהוא חבר במפלגה ללא פריימריז כלל אבל רודן לא יכול להיבחר על ידי יותר מ…  naftalibennett המון מזל טוב יצאנו לשטח ⁦⁩  רקליכודגדולימנעממשלתשמאל LikudParty  netanyahu   ב179 מצביעים מחל בקלפי  netanyahu בוחרים בדרך הנכונה   לכל 2 מיליון ו350 אלף תלמידי ותלמידות ישראל בבתי הספר ובגנים המון הצלחה עם פתיחת שנת הלימודים תשף  עלו הצליחו…  שגיא אתה אלוף ⁦⁩ הבאת המון כבוד וגאווה לעם ולמדינת ישראל   בושה ליריבך המצרי שסרב ללחוץ את ידך ספורטאי שמערבב…  כל בנייה באדמת המולדת היא מבורכת לכן אברך את רוהמ netanyahu על הנחייתו לקדם בנייה חדשה ביישוב דולב שבסמוך אליו…  בסוף השבוע פרסמתי טור קצר בעיתון יום ליום בנושא שילובם של אנשים עם מוגבלויות מוזמנות ומוזמנים לקרוא  שבוע טוב…  פיגוע קשה הבוקר בגזרת בנימין עוד בן עוולה בחר לפגוע בחיים ובמרקם החיים העדין ביוש ההתיישבות ביוש היא זכות גדולה…  בסופו של דבר אם הרכבת הממשלה תוטל על לפידגנץ לא תהיה להם ברירה אלא להקים ממשלה עם הרשימה המשותפת ומפלגות השמאל ה…  הסכם העודפים בין ליברמן ולפידגנץ נחשף והצביעות חוגגת פתק בקלפי לליברמן זה פתק בקלפי לממשלת שמאל בראשות לפידגנץ…  שימו לב  לynet יותר חשובה הידיעה שהעם האוקראיני נפגע ממקרה שרה נתניהו והחלה יותר מאשר העובדה שלילדה על הספקטרו…  מה  קרדיט תמונה פלאש 90 בוחרים בהישגים במקום צהובונים  בזמן שבתקשורת וברשתות החברתיות עסוקים במקרה של שרה נתניהו שלא קרה ראש ממשלת ישראל…  מגבה לחלוטין את החלטת רוהמ נתניהו ושר הפנים דרעי במניעת כניסתן של שתי נשות הקונגרס האמריקאי האנטישמיות התומכות…  אני מברכת על החלטת עיריית עפולה לאפשר קיום הופעה לקהל החרדי בהפרדה לכל קהילה בישראל יש את אורח החיים שלה ועלינו לכ…  netanyahu אבו מאזן בפגישה עם מרצ הערב ״מקווה שנתניהו יפסיד בבחירות״ אם מישהו היה צריך עוד סיבה להצביע לליכוד  בני משפחתי המתגוררים בארהב הגיעו לבקר בארץ ובפעם הראשונה שלהם עורכים סיור בכנסת ישראל  כמובן שהצטרפתי לסיור מרתק…  עזבו פוליטיקה עזבו את לחצי היום יום תבדקו את הרכב לפני יציאה בנס הבוקר ניצלה פעוטה חסרת ישע ברכב לוהט בבני ברק…  תִּשְׁכּוֹן בְּתוֹךְ יְרוּשָׁלַיִם עִירְךָ כַּאֲשֶׁר דִּבַּרְתָּ וְכִסֵּא דָוִד עַבְדְּךָ מְהֵרָה בְתוֹכָהּ תָּ…  סיום שבוע צורם במיוחד עם רצח החייל דביר יהודה שורק היד המרצחים עוד ייתפסו ויישפטו  פרשת השבוע דברים השבת של…  הַצְּבִי יִשְׂרָאֵל עַלבָּמוֹתֶיךָ חָלָל  אֵיךְ נָפְלוּ גִבּוֹרִים  כואבת את הרצח של חייל צהל בוגר ישיבת הסדר…  תנחומיי הכנים לשגריר ארהב בישראל מר דויד פרידמן על פטירת אמו מי ייתן ולא תדעו עוד צער משתתפת בצער המשפחה USAmbIsrael אני מקבלת המון פניות ציבור מצד נשים וגברים המתמודדים עם לקות או מוגבלות כלשהי שלהם או של בני משפחותיהם כל פנייה מ…  מחר יערך דיון בנושא אישור הנגשת מערת המכפלה אני רוצה להגיד יישר כוח לראש הממשלה netanyahu שמעלה את נושא ההנגשה לא…  חיזוק ההתיישבות היהודית ביוש הוא אחד היעדים החשובים בכנסת הבאה  אפעל ככל שניתן יחד עם חבריי למחנה הלאומי לביטול…   אב לשתי בנות נרצח רק בגלל ויכוח על חניה שתי בנות נותרו יתומות מאב ואם הסובלת מניוון שרירים נותרה לטפל לבדה בבנות…  האחיות והרופאים במרפאות ובביהח עושים עבודת קודש יום יומית לצערי בשביתה זו הראשונים להיפגע הן השכבות המוחלשות אני…  ברכותיי לנבחרת העתודה של ישראל בכדורסל ששמרה על התואר המכובד  אלופי אירופה   הבאתם גאווה וכבוד לכלל עם ישראל ומד…  בימים אלו נבקש כולנו להרבות אהבת חינם בעם ישראל כמה חשוב ללמוד מההיסטוריה הענפה והמיוחדת של עמנו כי עם שלא יודע…  בעוד שלושה שבועות מהיום לפני כ1950 שנה נבקעו חומות ירושלים עי צבאו של טיטוס ולאחר מכן נחרבה ירושלים ונחרב בית ה…  שבוע טוב אני רוצה לברך את ראש ממשלתנו בנימין נתניהו לרגל שבירתו את שיא הכהונה כרוהמ של דוד בן גוריון זל ראש מ…  בצער רב קיבלתי את הידיעה בדבר פטירתו של ראש העירייה המיתולוגי של נס ציונה מר יוסי שבו זל יוסי היה דמות לחיקוי בכ…  Syechimovich היתה פרלמנטרית מן השורה הראשונה השקפת העולם המדינית בינינו היתה כמזרח ומערב אך בנושאים החברתיים למע…  יעשה טוב אהוד ברק אם יחשוף את פרטי המחקר שמומן במיליונים ולא רק את פרטי האשראי המנופח שלו נפגשתי היום עם ראש עיריית אריאל אלי שבירו שסקר בפניי את הנעשה בעיר המצב הסוציואקונומי של התושבים והאתגרים הרוו…  כדי להנגיש את מערת המכפלה לאנשים בעלי מוגבלויות לשם תפילה עלינו לבסס את ריבונותינו במקום באמצעות פעולה חד משמעית…  יצאתי מדיון סוער בנושא סגירתם של ההוסטלים לנערות ולנערים בסיכון  יש לראות את טובת הנערות והנערים לנגד עינינו בלבד…  הגעתי לכבד גיבור ישראל  יוני נתניהו זל מסר נפשו למען הצלתם של יהודים במרחק של כמה אלפי קילומטרים מישראל  סיפור ג…  הרי זה ברור שמבקשי רעתו יחפשו בכל דרך להפיל את ממשלת הליכוד גם דרך תרסיס אף ומי מלח  אמנם המים לא מים המלח אבל ה…  שני מסרים זועקת שמה של מפלגת אהוד ברק הדמוקרטיה מתה ורק לא ביבי מה חדש כלום גם לא יור המפלגה  אהוד הדמו…  מזועזעת מהקלות שבה התנהלה הגננת שלא ראויה לתואר מכובד זה הפרשה רק מחזקת את הצורך ברישות גני ילדים ופעוטונים במצלמ…  לידידתנו הגדולה ביותר לנשיאה מר realDonaldTrump ולאזרחיות ואזרחי ארהב  יום עצמאות שמח  To Our greatest friend…  אשכנזי עיראקי אתיופי יהודים אחים  ברכות לידידי היקר dudiamsalem  עם מינויו לתפקיד שר התקשורת דודי הוא איש בגובה העיניים ואני בטוחה כי יעשה עבודתו…  האירוע אמש בקריית חיים בו נהרג סלומון טקה זל הוא קשה ומצער ביותר אני קוראת למחלקה לחקירות שוטרים ולמשרד המשפטים…  תלמידות ותלמידי ישראל היקרים  במהלך חופשת הקיץ אנא שמרו על עצמיכםן  היזהרו בדרכים ותבלו בבטחה בכל אשר תלכו תצב…  ניצחון קטן אחרי מחאת המנויים מפעל הפיס הורה לבטל את הפרס לסרט לאה צמל  עוד סרט המציג את סיפורה של עוד המי…  אני חושבת שטוב יעשה ירון לונדון אם יפרוש לביתו לעת עתה על מנת לחשוב על מעשיו ודבריו   נשמע כאילו הוא אינו מבין כ…  עם ישראל מאוחד לא ניתן יד להכפשת מדינת ישראל  פרס ללאה צמל  הוא פרס לטרור  זו תקיעת אצבע בעיניהם האדומות מבכי של המשפחות השכולות היקרות אפנה למפעל הפיס על מנ…  כמה מפתיע שהרשות הפלשתינית וארגון הטרור חמאס סרבו שוב לתכנית של שגשוג לעמם המטרה שעומדת לנגד עיניהם היא לא ש…  מדינת ישראל הייתה עודנה ולעולם תהיה מדינתו של העם היהודי   שבת שלום פסטיבל הגרבוזיאדה נפתח שנית  האלימות המילולית שלכם לא תפחיד אותנו העלבונות שאתם שולחים בנו רק מחזקים אותנו סל…  ברכותיי לראש לשכת עורכי הדין הנבחר עוד AdvHimi בטוחני כי תוביל את לשכת עורכות ועורכי הדין באופן המיטבי למען שי…  המדינה צריכה לרעוד נוכח המקרה המזעזע הזה  הבטן מתהפכת למשמע המעשים המזעזעים הללו בידי בני עוולה שאנסו ורצחו את נפש…  הגעתי היום לסיור מיוחד במינו במרכז מיוחד במינו על סיפורם של משפחות עקורי גוש קטיף המיוחדים במינם מוזמנות ומוזמני… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">השנה אלוהים צריך לבקש סליחה  ממשיך לעבוד בשבילכםשנה טובה לכל עם ישראל  בזמן שהוגבלנו ל500 מטר ראש הממשלה מתרחק בתשעה מיליון מטר עד וושינגטון ודווקא השבוע העיקר ש״נעבור את זה ביחד״  השלטון קורס ולא מערכת הבריאות  ספק אם ללא המחאות  הסגר היה עדיין על השולחן לחלק גדול מהעם פרק הסיום האמיתי של  ״הישרדות״ יהיה בסגר הבא כל כך שמח על ההזדמנות לבצע את השיר הזה ויותר שמח לעזור לחבריי בעולם התרבות בפרוייקט החשוב הזה…  מעבדות הקורונה מושבתות מזל שהוקמה ממשלת חירום לקורונה  ליאור שליין הוא אחד הקולות המבריקים והחשובים במארג הדמוקרטי העדין שלנו LiorSchleien בתקופה שאין הווה ומחר זה זמן טוב לבקר את האתמול  שנותהירח  זה לא כל כך נעים לראות גן אלים  ואני חשבתי שזה יהיה החלק הכי כואב בחיים שלי   הרצאה ראשונה שלי כרטיסים פה   Remix by Robin Schulz   שישי הקרוב סינגל חדש של בלאקפילד  “When youve got nothing youve got nothing to loose”  Bob Dylan  ״נסגרנו בשקט אבל זה יהפוך לכאוס ורעש ברחובות״  מתוך דברים שנשאתי בעצרת בכיכר רבין של עולם התרבות ב23420 גודל המחאה כגודל ההסגר The new single “Summer’s Gone” will be released on July 24 with a new music video Follow Blackfieldmusic on Instag…  הערב כולם בכיכר כי הממשלה יורקת עלינו ולא שמה מסיכה  וזה מסוכן אין ימין ושמאל הערב יש את כבוד האדם שנרמס  אתמול בכיכר רבין בזמן שאמפי שוני סגור ״מדיניות״ מוזרה YuliEdelstein  נהלל  בדיקת הקורונה שעשיתי חזרה שלילית תודה  אתמול עם שר האוצר ושר התרבותהתקדמנו  TheShowMustBePaused blacklivesmatter  שר האוצר ישראל כ״ץ הזמנתי את אביב לפגישה הבוקר במהלכה שיתף אותי בקשיים היחודיים של אנשי תעשיית המוזיקה מצאתי אומן…  חוזרים להופיע שמח שהצלחתי לעזור תודה לחילי טרופר וכל צוותו תודה לאדלשטיין שר הבריאות על ההקשבהזהו רק הצעד הראשו…  danawt אחרי הקורנה ובחזית המאבק avivgeffen כמו שלא שמענו קדום  הראיון המלא בשבת חדשותסוףהשבוע  RazShechnik שר התרבות והספורט חילי טרופר נפגש עם אביב גפן והבטיח לסייע בפתיחה מחדש של ההופעות במהירות האפשרית  GLZRadio avivgeffen במרציאנוסגל כל מי שבחר כמוני כחול לבן גמר עם ביבי התחושה קשה אבל כרגע אין ברירה  צריכים ללכת למסלול כלשה… yreguer אביב גפן נכנס כעת לפגישה עם שר התרבות חילי טרופר  יבקש מהשר שיפעל לפתיחת המופעים בשבוע הבא באופן הזהה למסעדות  תוך שמירה של… yreguer שלום חנוך אביב גפן  ריטה וישי לוי יופיעו מחר בעצרת תמיכה באנשי תעשיית המוזיקה העצרת שתתקיים ב8 בערב בגן צארלס קלור היא בתמ… ranboker שר התרבות חילי טרופר יקיים פגישה עם אנשי תרבות כדי להקשיב לבעיותיהם ומצוקותיהם בין השמות אביב גפן RazShechnik תמיד נשאר מחר מסתמן שאביב גפן ריטה וברי סחרוף יופיעו בעצרת האמנים בתל אביב חוף צ׳רלס קלור  gantzbe אין זמן בני חייבים להתקדם  הערב פניתי לידידי ערן מיטלמן  ממפלגת התעויוט והצעתי לו להכנס מתחת לאלונקה בשעה גורלית זו ולהיות שר ה״אחראי לאקורדים…  לילות לבנים  KanILArchive מזל טוב לאביב גפן שחוגג 47 שנות רוקנרול 🤘 הנה הוא בן 11 שר את כולך בת ארבעים לאמא שלו נורית בתכנית שמיניות  באוויר… פחות אבל כואב  Thanks Amy for your support Variety  ״מתכון מנצח״    האביב שציפינו לו על ההופעה של אביב גפן באמפי שוני הריק  תודה לחברים שלי בבני ברק שעזרו בתרגום וקריינות  נשף בובות   מקלחת לאגו  אין כמו אמא כל עוד היא בבידוד  ממליץ לעקוב אחרי NadavEyalDesk וממליץ לקנות עוד מטען גם הקורונה צריכה מוזיקת רקע פלייליסט שערכתי    אפליקציית ״המגן״ ממשיכה לטעון שאני בחדר כושר בהרצליה  אמינה כמו הרוטציה ליצמן שר בריאות כמו שאני זמר  מאסיר ציון לסוהר הדמוקרטיה אמר הקבלן  ZviHauser  בגלל המגיפה שם בחוץ בגלל שאנחנו בהסגר בזמן שאין ממשלה ובתי משפט ובלי יכולת למחות חוץ מלחכות שהקיסר שלא נבחר ינאם כ…  תודה סוףהעולם   אנחנו שמחים לבשר שהצלחנו להעביר את נשף רוק 9  בחזרה לשמונים בשלמותו לרביעי ביולימכיוון שמדובר בהפקה מורכבת וגדולה…  מברך על ההחלטה הנכונה והנחוצה בשעה זו שאוסרת התקהלות קודם כל הבריאות אם במקרה הציניות במילה ״עדין״ כתגובה לפוסט של אבא שלי לא היתה ברורה אני כמובן מסתייג ומתנגד לדבריו YediotAhronot אביב גפן netanyahu למד את הבייס שלו כמו שנטפליקס מרכיבים סדרות לפי טעם הצופה הוא יודע בדיוק מה יוביל אותם אחריו בזמן… טור שלי הבוקר בידיעות  ליינאפ של הסופרגרופ השנה בנשף רוק 9  הכרטיסים עפים   למה השנה בנשף רוק 9 חוזרים לשמונים מומלץ לקנות בהקדם   מרכלים על בילי אייליש BRITAwards HarryStyles  נפתחה המכירה לנשף רוק 9  לינק לכרטיסים    מתרגש להכריז על נשף רוק 9 השנה חוזרים לשנות השמונים עם זמרי הדגל שלהם Nik Kershaw LimahlJohnny hates jazz וכמוב…     טראמפ וביבי מרימים אחד לשני בשעה האחרונה יותר משלומי שבת ופבלו רוזנברג בקיסריה RIP Kobe Bryant  best NBA player of all time להקה מגניבה מאירן עושה קאבר לעכשיו מעונן של בלקפילד  איחוד השמאל לא יכול להרשות לעצמו להשאיר את StavShaffir מחוץ לרשימה מדובר באחת הדמויות היותר לוחמניות שפועלות למען…  MayaAsheri 452 בבוקר אני מתעוררת כי מישהו מהבניין ממול שומע חזק מדי את ואולי אתה פה חסר לי של נורית גלרון בהתחלה חטפתי עצבים ואז… זה היה מהר  הופעה נסגרת והופעה נפתחת    תודה לכל תחנות הרדיו שמחבקות את השיר החדש  מסתבר שגם בעמית סגל חבוי ילד אור הירח או לפחות ילד ליקוי ירח  ״ימי בנימין״ מבחינתי זה צילום רנטגן לחברה הישראלית …  הסינגל החדש ״וסלחתי לך״ יצא הבוקר תודה לשלומי שבן לתעויוט וArt Orchestra Budapest  מחר  כי להתאהב זה קצת כמו להיוולד מחדש ובאותו הזמן גם לחפור לעצמך עוד קבר ״וסלחתי לך״ סינגל חדש עוד יומיים  בשבוע הבא  זמן איכות עם אליוט  Thanks  תודה  מצלמים קליפ לסינגל החדש  בדיוק לפני 20 שנה  הקלטות אלבום יומן מסע באולפני זאזאמתגעגע  אבולוציה בפסטיבל הפסנתר צילום דניאל אהרוני  אתמול בפסטיבל הפסנתר היה איזה רגע אחד מיוחד שהפכתי לתעוט והסתכלתי מאחור על מנהיג הלהקה החדש depechemode  RazShechnik השבוע במוסף 7 ימים תחקיר חשוב על המנהלת הרפואית של ענקית התרופות באייר בישראל שהתחזתה במשך שנים לרופאה הדריכה רופאים וע… אחד הקריב את חייו במלחמה על עתידנו ואחר הקריב את עתידנו במלחמה על חייו   תקווה זה החמצן של השינוי אמש בכיכר רבין  מפגש עצוב אתמול בהופעה עם המשפחה של מיכל סלה ז״ל שנרצחה על ידי בעלהמיכל פקדה הרבה הופעות ואתמול הקדשתי לה ולמשפחתה…  paulcook25 masterpiece paulcook25 Plastic ono band dark side of the moon ziggy stardust paulcook25 Naaaaa אלקנה הזמינו אני באתי תודה על שהקשבתם גם לקול אחר וכיבדתם  ריח חזק של עשן באוויר  אחת היפות שלנו באמפי שוני תודה צילום אלון לוין  אזלו הכרטיסים למופע מחר באמפי שוני המופע הבא בבית גבריאל עם היהודים ב1610  ברכות  לסרט ״ימים נוראים״  אגב שם לא רע לתקופת כהונתה של מירי רגב כשרת התרבות זו שעתו היפה של נשיאנו רובי ריבלין להכריע שנים של התפלגות וקרעים בחברה הישראלית על כל גווניה  תפקידו ההיסטורי יהיה…   אולי יש אלוהים אבל יש סיכוי סביר שהוא יאלץ לשבת באופוזיציה mulisegev יאללה עונה אחרונה מתוך הטור שלי הבוקר בידיעות אחרונות   jbapkingdom אם רק היה יכול היה צועק לכם לכו להצביע זו המדינה שלנו  עזבו אתכם מאיראן  חיזבאללה וחמאס  ביבי חשף עכשיו שהאיום האמיתי לקיומינו הם עמית סגל ו״סברי מרנן״ בקטע של סברי מרנן אני דווקא איתו מוזיקה מחברת רק חבל שזה לא באותה השעה  אתגר מקבל כתבות בניו יורק טיימס יותר משאני קיבלתי כתבות במעריב לנוער  המכתב גרסת בחירות  על ההברקות והכשרון mulisegev EretzNehederet   על הדיפ פייק אריק דנינו  עמיר פרץ עושה הערב כיפת ברזל לשמאל גדול חבל רפי פרץ זה הפרק הכי טוב בינתיים בעונה החדשה של ״סיפורה של שפחה” כשהפרח שלי שר על קוצים אמפי שוניתודההיה קסום  אזלו הכרטיסים לאמפי שוני בקרוב נפרסם תאריך נוסף למופע האקוסטי  דילן ואני התרגשנו לבוא ולשיר את השיר שנחמה ריבלין ז״ל הכי אהבה במלאת 30 יום לפטירתה  ruvirivlin  הפוזה הרומנטית אני הרומנטית  Sicilian afternoon  יוצאים מהיכל התרבות לאמפי שוני התעויוט ואני במופע אקוסטי  דניאל בירנבאום מוכיח לי שאם אפשר לייצר סודה בדו קיום אז אפשר גם לחיות בדו קיוםSodaStreamCEO  החדש של ברוס ספרינגסטין עושה חשק להזדקן  אין לי בעיה שפרץ מונה לשר החינוך כל עוד זה נופל על החופש הגדול תודה ללוחמי הצנחנים מצוק איתן היה לי מרגש וחשוב לדבר ולהפגש אתכם תמשיכו להזמין ואני אמשיך להגיע  אפרים שמיר הדבורה הפחות מוצלחת בכוורת לילה טוב אירן לאור הביקוש הוספנו תאריך נוסף למופע האקוסטי עם התעויוט  תודה לוואלה   נשף רוק 8  תודה למיליארד טועים ול12 אלף איש מאוד מרגש   לקראת נשף רוק אני שמח להודיע על מהדורת טי שירט מיוחדת של המעצבת הבינלאומית המצליחה נילי לוטן הטי שירט נושאת את מיל…  עזבו הימורים ומקומות קובי מרימי נתן את הביצוע הטוב ביותר הערב באירוויזיון  שיהיה בהצלחה RogerMcGuinn  gidonsaar אלונה הבת האהובה שלי היא אדם פרטי צאו מהחיים הפרטיים שלה חזרות לנשף רוק עם סולן להקת סוויד ברט אנדרסון האירוויזיון של המדוכאים  Blackfield 6th  recording session at Trevor Horn’s home studio with StevenWilsonHQ  RogerMcGuinn Hi Long time my friend באתי לחבק ולחזק כמו בכל שנה את משפחת גוטליב שאיבדה את בנה מתן בצוק איתן ליבי היום עם משפחות חללי מערכות ישראל ונפג…  כרטיסים בודדים אחרונים על הדשא  עוד מעט עולה על במת זאפה לנגן לראשונה את ״כפרים של אהבה״ שנכתב בהשראת מכתבי אהבה של עליזה ועובדיה ברוך ז״ל שהחביאו…  תודה לבראשית שאיחדה את כולנו ונתנה לנו לשכוח לרגע את המלחמות שלנו פה למטה היה לי כבוד לקחת חלק במסע הזה…  תודה וחג שמח לכולם  השיר ״כפרים של אהבה״ נכתב בהשראת מכתבי אהבה שנכתבו בסתר באושוויץ  בתוך כל התופת האנושית עדיין הלב פעם גם בין גדרות…  טור משותף עם חנוך דאום הבוקר בידיעות  הטור שלי הבוקר בידיעות  אחד החלומות שלי היה לנגן עם המבריקים האלה ביחד על הבמה מזל שיש נשף עוד חודשיים לכרטיסיםgtgt   אחד החלומות שלי היה לנגן עם המבריקים האלה ביחד על הבמה  מזל שיש נשף עוד חודשייםהביצוע המלא בוואלה  WallaTarbut  עדיף להתנהל תמיד דרך מנהלים  צופה בכתבה בחדשות על תושבי עוטף עזה תודה לתושבים שאימצו את ״עורי עור״  מקווה שבקרוב נתעורר אני איתכם  נשף רוק 8 מומלץ לקנות בהקדם   נשף רוק 8 מומלץ לקנות בהקדם 9080  נפתול וחתול פורים שמח לכולם naftalibennett  NewProfilePic  מפגש לא נעים במנהטן yonibloch  הנשף מגיע לארץ נהדרת  עצוב לשמוע על לכתו המוקדמת של איציק רייזנברג ז״ל ממופע הארנבות של ד״ר קספר היה לי את הכבוד לחלוק איתו במות והופעות…  חוזרים לפארק נשף רוק 8  כרטיסים 9080  הכתבה המלאה מ״אולפן שישי״ yreguer   הערב באולפן שישי  נשף רוק 8  מומלץ לקנות בהקדם BerrySakharof StevenWilsonHQ AmirDadonOffici HayehudimBand shlomishaban…  נשף רוק 8  amirdadon BrettAndersonHQ StevenWilsonHQ HayehudimBand shlomishaban BerrySakharof  החלה המכירה לנשף רוק 8  Dream team  כרטיסים   In Seoul with my friend Eric Nam ericnamofficial  אתמול בהופעה אמרתי לפני השיר ״סוף העולם״  ״כשסמוטריץ׳ יהיה שר החינוך וכהניסטים יהיו חלק מהשלטון  אז זה לא דמיוני ש…  אתמול לפנות בוקר רגע השיגור בתעשייה האווירית  Rocket Roll  One hour away from launching space spaceil  קבלת החלטה על איחוד בין לפיד וגנץ זו כנראה ההחלטה החשובה ביותר מזה שנים  ותקבע את עתיד ישראל מקווה שאלה יקחו אחריו…  כדי שלא יהיה ילד עם אבא פרימיטיבי eliyishai1  ישראל נפרדת היום מאחד מגדולי הקומיקאים שהיו פה תודה אורןהיית מצחיק  Morning with my friend NasDaily1  קצת נסחפתם ״זה רק אור הירח״ זה כולה אלבום עם כמה שירים נחמדים  Steven invited me tonight on stage as a surprise to play “Blackfield” in acoustic version stevenwilsonhq  היכל התרבות ת״א אמש  תודה רבה היכל התרבות ת״א אחת היפות צילום גיא פריבס   אזלו הכרטיסים למופע האקוסטי בהיכל התרבות ת״א  אני לא נותן לפייסבוק או כל ישויות המשויכות לרשות פייסבוק רשות כדי להשתמש בתמונות שלי מידע הודעות או פוסטים גם בע…    כרטיסים אחרונים למופע האקוסטי בהיכל התרבות ת״א 9080  ברכות לגיסי אתגר קרת על זכייתו בפרס ספיר עם ספרו ״תקלה בקצה הגלקסיה״ תודה על הפירגון מעריך netanyahu  אזלו כל הכרטיסים לשתי הופעות במלון אלמא הערב ומחר צילום שרמן   באתי להפרד מהחללית ״בראשית״ שעושה את דרכה לקייפ קנוורל ומשם לירח תודה לתעשייה האווירית ולספייס איי אל שנתנו לי להי…  יום חזרות שני למופע האקוסטי בהיכל התרבות ת״א שיר   חזרה ראשונה לקראת המופע האקוסטי בהיכל התרבות תל אביב עם התעויוט יועד ניר ונועם חבקין  הגיע הזמן לרדת מההרים ולחזור לחדר חזרות עם התעויוט לקראת היכל התרבות  בעיקר היזהרו מחיקויים של ג׳וני ווקר   תודה לאורן ברזילי המוכשר ממופע הארנבות של ד״ר קספר שעלה הערב בהפתעה בזאפה </t>
+  </si>
+  <si>
+    <t>לכל עוקביי בטוויטר ולכל עם ישראל שנה טובה וחתימה טובה לבריאות והצלחה   מי יתן ונזכה להתגבר על המגיפה הארורה במהרה בימינו arabnews UAEs HESuhail and Israels steinitzyuval discuss investment opportunities in energy infrastructure cooperation UAEIsra… יצירת שיתופי פעולה בתחומים אלה יזינו בחזרה את הסכמי השלום ויעגנו את הביטחון האנרגטי ואמינות אספקת האנרגיה למשק האנרגיה הישראלי והאזורי שוחחתי עם מקבילי באיחוד האמירויות סווהיל אלמזראווי הסכם השלום הוא הזדמנות היסטורית לפיתוח משקי האנרגיה של המדינו…  AyeletBrun שר האנרגיה יובל שטייניץ שוחח עם מקבילו באיחוד האמירויות סווהיל אל מזראווי שטייניץ בירך את השר ובשיחה דנו בהשקעות אמירותיו… תומך לחלוטין בעמדתו האמיצה של ראש הממשלה ישראל ניצבת בפני תהום ונדרשת לסגר מוחלט למשמעת ברזל ולהחלטות אמיצות היע…  ברכת הגז מביאה לנו גם שיתוף פעולה אזורי ראשון מסוגו עם מדינות ערב ומדינות אירופה עם חוזים לייצוא גז כחול לבן לירדן…  חתמתי הבוקר יחד עם שרי האנרגיה של מצרים איטליה יוון ירדן קפריסין והרשות הפלסטינית על חוקת פורום הגז האזורי שיזמ…  AyeletBrun היום  בכינוס מקוון יחתמו ישראל מצרים ירדן איטליה קפריסין ומדינות נוספות על הקמתו של ארגון הגז במזרח הים התיכון דיווחתי… GLZRadio לקראת החמרת ההגבלות השר steinitzyuval אומר לIshayShnerb אם הסגר הזה לא יצליח תוך כחודש ההערכות על 800 חולים קשים לא י… kannnews שר האנרגיה יובל שטייניץ לyairweinreb על הקיצוץ בשכר הבכירים אתמוך בהפחתת שכרי השרים והחכים יפחיתו בשכרם כדוגמה אישית… GLZRadio קיצור ימי הבידוד של משלחת רהמ netanyahu ל5 בלבד • השר steinitzyuval לYaelDan1 לא ייאמן איך מנסים לפגוע באמון הציבור… GLZRadio המאבק על סגירת מערכת החינוך • השר steinitzyuval טוען אצל YaelDan1 אסור היה לפתוח מלכתחילה את בתי הספר הכתובת הייתה על ה… IsraelGaley השר steinitzyuval לtadmorerez48 ״בשנת 2015 אמר לי בנימין נתניהו שהוא עובד על כך שבעוד כמה שנים נבקר באיחוד האמירויות״ הישג היסטורי למדינת ישראל והישג אישי לבנימין נתניהו ההסכם עם האמירויות מחזק את החזית האנטי איראנית יתרום לשיתוף ה…  2 החל מפיתוח תשתיות וטכנולוגיה השקעה בחברות הזנק ומחקר ועד להרחבת ייצוא הגז הטבעי למדינות נוספות ולפתיחת השוק לח…  1 שברון היא אחת מחברות האנרגיה הגדולות בעולם שפרט לארהב פועלת בכ180 מדינות כמו בריטניה אוסטרליה הולנד וקנדה…  kannnews השר יובל שטייניץ לperezesty סגר של שבועיים או שלושה שבועות יש לו מחיר אבל המחיר של הימנעות מסגר בשיעורי תחלואה גבוהים… gtgtגם אם לשיטתי הסגר היה צריך להתרחש ולהסתיים לפני כחודש חודשיים מוטב מאוחר מאשר בכלל לא מברך על ההחלטה האמיצה והאחראית בדבר הסגר כמי שטען כבר לפני חודשיים שאין מנוס מסגר כללי אני שמח שידידיי הרופאים במ…  GLZRadio השר steinitzyuval על ההסכם עם בחריין לrazibarcay מאחר ויש עוד מדינות בקנה לא אופתע אם netanyahu יקבל פרס נובל לשלום ע… נפגשתי הבוקר בלשכתי עם שגריר הממלכה המאוחדת בישראל ניל ויגאן שוחחנו על שיתופי הפעולה הקיימים בין המדינות לרבות פעי…  השקעות בחיבור מפעלים ובתי חולים לגז טבעי קידום עמדות טעינה לתחבורה חשמלית והזנקת פרויקטים בתחום המחקר והפיתוח של א…  תודתי ל netanyahu ולשר האוצר Israelkatz על התקציב שעבר אמש לטובת אזרחי ישראל בזכות התקציב נוכל לסכם בצורה מיטבי…  radio103fm השר steinitzyuval ליכוד תוכנית הרמזור היא מעט מדי ומאוחר מדי הסוסים כבר ברחו מהאורווה 3500 נדבקים ביממה זה מיליון ו… radio103fm השר steinitzyuval ליכוד בלי סגר ייקח בין חצי שנה לשנה להוריד את נתוני התחלואה ל100 נדבקים ביום זה יפגע בכלכלה לא פחו… radio103fm השר steinitzyuval ליכוד טוב שרהמ התנצל בפני משפחת אבואלקיעאן לולא חקירות ראש הממשלה  היו מאפשרים למחש לחקור והאמת… כדאי שליברמן יקרא את את הספר ״מצעד האיוולת היהודי״ של אמוץ עשהאל כדי שיבין עד כמה אנרכיה עלולה להוביל לחורבן  IsraelHayomHeb ישראל תתחבר בקרוב לרשת החשמל האירופית באמצעות כבל חשמל תת־ימי • הסכם צפוי להיחתם עם יוון וקפריסין עד לסוף השנה  gilad… GLZRadio השר steinitzyuval אצל IshayShnerb חולק לחלוטין על עמדת גמזו ומשרד הבריאות תוכנית הרמזור לא תעבוד  אין מנוס מסגר כללי ל… חכ שאשאביטון החשבון פשוט 3000 מאומתי קורונה ביום זה יותר ממיליון חולים בשנה לפחות 4 מיליון מבודדים וכ10 אלפ…  kannnews השר יובל שטייניץ לKalmanLiebskind וroysharon11 אין ערים ירוקות במצב של 3000 נדבקים ליום זה עובר מעיר לעיר  הצעדים ה… kannnews השר יובל שטייניץ לKalmanLiebskind וroysharon11 אין מנוס מסגר מלא בגל הראשון היינו תקיפים בגל השני נכנענו ללחץ הציבור… newsisrael13 השר steinitzyuval אין מנוס מסגר ולא כדאי לדחות את הקץ כי זה יגיע אני אומר את זה כבר חודשיים אני מאוד מעריך את גמזו… GLZRadio השר steinitzyuval מהליכוד טוען אצל mazalm3 וusegal מבחינה הגיונית אין מנוס מסגר אם היינו עושים אותו לפני חודשיים כבר… האפשרות לטוס מזרחה מעל חצי האי ערב מקצרת את הדרך למזרח הרחוק כולו זה עוד הישג אדיר לדוקטרינה החדשה שגיבש נתניהו…  בשיחה שקיימתי  עם לשכת המסחר האמריקאית הזמנתי את החברות הבינלאומיות לקחת חלק במימוש הפוטנציאל האדיר הקיים בשוק האנ…  פתחתי את שנת הלימודים תשפא דרך הזום עם כיתת המצטיינים יא3 בבית הספר התיכון עש שמיר בפתח תקווה ידידי ראש העיר…  gtgt בזמן הביקור שוחחתי טלפונית עם רה״מ נתניהו שאמר לי כך ״בעוד מספר שנים נוכל לבוא לכאן לביקור רשמי עם דגל ישראל״ היום הזה הגיע היום  יום גדול למדינת ישראל הנחיתה של מטוס אל על באופן פומבי וגלוי בשדה התעופה באבו דאבי מסמלת את הצלחת הדוקטרינה החדשה…  קיימתי הבוקר הרצאה בפני חברי ״פורום קהלת״ דיברנו על המהפכה שמדינת ישראל עוברת בתחום האנרגיה בישראל ועל הספר שכתבתי…  GLZRadio השר steinitzyuval חבר הקבינט לא מודאג מהדיווחים על עסקת הF35 בין ארהב לאיחוד האמירויות מניח שהאמריקנים מפתחים אמצעים ל… GLZRadio השר steinitzyuval מעריך אצל amirivgi בארבעת החודשים הבאים נוכל לפתור את המחלוקות בקואליציה ולהימנע מבחירות המטרה היא לש… סוף טוב  הכל טוב  עדיין מוקדם לקבוע כולי תקווה שבחודשים הקרובים נלמד להתפשר ולעבוד בצורה טובה יותר בתוך הממשלה ו…  נפגשתי הבוקר בלשכתי עם שגרירנו ברומא דר droreydar שסיפר לי על החיים באיטליה בזמן מגפת הקורונה שוחחנו על קידום פ…  שבת שלום וחודש טוב ומלא באנרגיות חיוביות  ביש עתיד שוכחים לעתים מה היא דמוקרטיה היום במליאה הסברתי בדרך פילוסופית ליור המפלגה מדוע הצעת החוק שלו היא בנ…  kannnews שר האנרגיה steinitzyuval לperezesty על דברי שר הביטחון גנץ כי לא עודכן על ההסכם עם האמירויות זה הרבה מהומה על לא מאומ… GLZRadio שר האנרגיה steinitzyuval בשורההתחתונה עם itaizil סעודיה עשויה להצטרף בחודשים הקרובים לפורום הגז האזורי בקהיר כשיהיה ה… gtgt נושאים פוליטיים  משפטיים  מקומה הטבעי של משפטנית מעולה ונדירה כמוה היה צריך להיות כמובן לא רק באקדמיה אלא גם…  מקורית מבריקה שנונה ומעמיקה פרופסור רות גביזון הייתה ענקית הפילוסופיה של המשפט בדורות האחרונים זכיתי לשמוע את ה…  kannnews שר האנרגיה יובל שטייניץ על ההסכם בין ישראל לאיחוד האמירויות אם ההסכם יפרוץ את הדרך להשקעות בישראל זה מקור אדיר שאנחנו זקוק… YinonMagal בדיעבד נראה שהכניסה של ענקית האנרגיה שברון לעסקי הגז הישראלים על משמעויותיה הכלכליות היתה בגדר מבשר של הסכמי השלום עם מדי… אני מברך את netanyahu על נרמול היחסים עם איחוד האמירויות זו נקודת ציון חשובה בקבלתה של ישראל כשותפה אסטרטגית בעול…  arutz20 השר יובל שטייניץ המהלך שיביא את ישראל למקום ראשון באנרגיה סולארית steinitzyuval זמןכנסת YaaraZered  מעולם במדינת ישראל לא התנהגו בכזו וולגריות לראש ממשלה ולבני משפחתו   דברים שאמרתי הערב לYaaraZered בתוכנית זמן כנ…  הודעתי היום על החלטתי להקפיא תכניות פיתוח של ארבע תחנות כוח גדולות בעמק בית שאן באיזור הגלבוע באיזור עפולה ובאיז…  אריה שאג מי לא יירא כש giladerdan1 מדבר קולו רועם כמו אריה אבל מאחורי הדברים עומדים גם חשיבה תבונה וידע ארדן ע…  שוב בגצ מתערב בנושא מדיניביטחוני מובהק האחריות למיגור הטרור וההגנה על אזרחי ישראל נמצאים רק בידי הממשלה  אבל המ…  gtgtבדיוק כמו שאין לעבור בשתיקה על הקריאות לרצח ראש הממשלה נתניהו ולפגיעה בבני משפחתו  כך גם אי אפשר להשלים עם הקריא…  צפיתי בתדהמה בדברי ההסתה לאלימות של הרוצח יונה אברושמי כמי שנושא עדיין ברגלו מזכרות מהרצחנות והאלימות שלו בצורת ר…  קיימתי הבוקר פגישת עבודה ראשונה עם שרת האנרגיה הקפריסאית הנכנסת נטאשה פילידס במפגש דנו בפרויקטים המשותפים למדינות…  NatasaPilidou cyMECI Thank you NatasaPilidou I look forward to having the opportunity to meet you in the not to…  IsraelGaley השר steinitzyuval לsharongal על המתיחות בצפון ואיומי חיזבאללה ״לפעמים כדאי לאיים פחות בינתיים אנחנו אלו שפועלים ויוזמ… חכ HaleviAmit היקר ברוך הבא למסדרונות הכנסת היה לי הכבוד להתארח ולהרצות בנושאי ביטחון לאומי ואנרגיה במכללה למדי…  GLZRadio השר steinitzyuval חבר הקבינט המדיניביטחוני בנכוןלהבוקר קיבלנו הלילה הוכחה גם בחזית הדרומית וגם בחזית הצפונית על כך ש… ציפי חוטובלי היקרה אני בטוח מהיכרותי איתך שתעשי עבודה מצוינת כשגרירה בלונדון תהפכי לחביבת הבריטים בממלכה ובקהילה…  עיד אלאדחא חג קורבן שמח ומבורך לכל אזרחי ישראל המוסלמים הדרוזים הצ׳רקסים והבדואים  כל עאם ואנתום בחיר אדחא…  דמוקרטיה  כן הסתה ואלימות  לא  שוחחתי היום עם אלון בן דוד ויואב לימור האזינו…  למרות התהום הפוליטית שמפרידה בינינו לא יכולתי להתעלם מהעובדה שדב הוא יריב רציני בעל רמה ואיכויות אישיות   היו לנ…  ערב ט׳ באב החלטתי להשתתף בפרויקט מחובריםבערך ולבחור אדם ששונה ממני בתפיסתו אך בכל זאת יש לנו מן המשותף  בחרתי ב…  GLZRadio אלימות ערב תשעה באב  השר steinitzyuval שנפצע בהפגנה בה נרצח אמיל גרינצוויג זל לYaelDan1 יש סכנה של אלימות ויש להפסי… הפסל שהוצב הבוקר בכיכר רבין אינו אמנות אלא התרת דמו של ראש הממשלה חייבים לעצור את האלימות הפושה ברחובות  מימין ו…  לחשוב שהיו אנשים שרצו  וכמעט הצליחו  להשאיר את הגז בים עכשיו כולם מבינים כמה ירוויחו אזרחי ישראל ממתווה הגז שיזמ…  אויבינו יודעים שמי שינסה לפגוע בנו – ייפגע אני מחזק את הלוחמות והלוחמים שעומדים על המשמר GLZRadio השר steinitzyuval לamirivgi מתחיל לחשוש שמקרה אמיל גרינצוויג יכול לחזור מגנה את האלימות משני הצדדים  את ריסוס גז הפלפ… GLZRadio השר steinitzyuval חבר הקבינט המדיני ביטחוני לamirivgi אין לנו עניין במערכה בלבנון אנחנו פועלים למניעת ההתבססות של אי… הפגנה היא זכות דמוקרטית  אלימות היא קו אדום  מי שמכה שוטרים או יורק על נשים צריך לעמוד לדין כך גם מי שתוקף מפגינ…  כניסתה של הענקית ׳שברון׳ לשוק האנרגיה הישראלי היא לא רק בעלת משמעות כלכלית אלא גם משמעות היסטורית ופוליטית    אמש התארחתי אצל YaronDeckel מוזמנים לצפות בריאיון שבוע טוב                                         kannnews באתי עם אנרגיות חיוביות שר האנרגיה steinitzyuval מגיע להשבוע עם YaronDeckel  הריאיון המלא הערב בתוכנית החל מ1957… דיברתי הבוקר בוועדת הפנים והגנת הסביבה בראשות ח״כ mikihaimovich1 על המדיניות שאני מוביל במשק האנרגיה מאז כניסתי לת…  kannnews השר יובל שטייניץ על העימותים החריפים בליכוד לrbinyamini אנחנו צריכים לרסן את עצמנו גם בליכוד מותר לנו להיות עם דעות שו… kannnews השר יובל שטייניץ על מדיניות המגבלות לrbinyamini עדיף להפחית את התחלואה עם סגר מלא לעשרה ימים עד שבועיים ולא לגרור את ז… GLZRadio השר steinitzyuval מספר לIshayShnerb שברון אחת מחברות האנרגיה הגדולות בעולם תשקיע במשק הגז הישראלי GLZRadio השר steinitzyuval על העימות בין זוהר לכץ בתקופה כזו אנחנו צריכים להיזהר בלשוננו ולשמור זה על כבודו של זה צריכה להיות מש… GLZRadio השר steinitzyuval ממשיך לקרוא לסגר נושם אפשר להגיע למצב של פחות מ100 הדבקות ביום באמצעות סגר כזה התמיכה ביוזמה בממשלה ה… Thank you Secretary this act shows again that when it comes to the relationship between the United States and Isr…  פתיחת השמיים חיונית לכלכלת ישראל זאת הסיבה שהצעתי כבר לפני חודש לבצע סגר נושם של עשרה ימים שיוריד באופן מיידי את ש…  x אני מברך על כניסתה של שברון למשק האנרגיה הישראלי רכישת נובל אנרגי על ידי ענקית האנרגיה האמריקאית שברון מהוו…  אני לא זוכר אי פעם שניסו לפרוץ לכיוון בית ראש הממשלה   האזינו לדבריי בראיון הערב לsharongal  האלימות וההסתה נגד נתניהו הרימה ראש והיא גובלת בהתרת דם אמיתית   המפגינים לא רוצים רק את ראשו של רהמ אלא מבקשים…  עבירה של הסתה עלולה לעודד אנרכיה  בשורה לאזרחי ישראל  המכרז הראשון להקמת התקנים סולאריים בשילוב אגירת חשמל הוא צעד משמעותי בדרך להגשמת היעד שה…  GLZRadio השר steinitzyuval לYaelDan1 מבחינה כלכלית אנחנו חייבים סגר עכשיו כדי להוריד את התחלואה ולהסיר את הסגר האווירי GLZRadio השר steinitzyuval לYaelDan1 הנתונים האלה מאוד מדאיגים ענף ההייטק שהוא המנוע הכלכלי של ישראל נפגע  ynetalerts השר שטייניץ באולפן ynet חייבים סגר עכשיו לעשרה ימים   GLZRadio שר האנרגיה steinitzyuval יביא לאישור הממשלה את הקמת צנרת הגז איסטמד Eastmed שתוביל גז מאסדת לוויתן לקפריסין יוון ואיטלי… kannnews השר שטייניץ קורא בריאיון לgolanaryeh לפתיחת השמיים חשוב מאוד להגיע למצב שהמצור האווירי על מדינת ישראל מסתיים זה לא רק… kannnews השר יובל שטייניץ להבוקרהזה על ההגבלות החדשות הצעתי גישה אחרת של טיפול מהיר זבנג וגמרנו שבועיים של סגר נושם ואז לשטח את… היום בישיבת הממשלה הצעתי לשרים להטיל סגר נושם של שבועיים לצד ההגבלות החדשות רק כך נצליח לעצור את הזינוק בתחלואה ול…  Israelcohen911 בפגישה שהתקיימה היום בלשכת שר האנרגיה בהשתתפות השר דר יובל שטייניץ ורה״ע ביתר עילית מאיר רובינשטיין סוכם על קידום מתו… אנחנו במצב מלחמה היום בישיבת הממשלה קראתי לשרים לקדם פיתוח יישומון חדש מעין מגן 2 שכל אזרחי ישראל יחויבו להתקין…  אם נשמור על משמעת  נתגבר על הקורונה  המשימה היא לשטח את עקומת התחלואה רק כך נמנע פגיעה בחופש התנועה אבדן פרנסה…  בחודש שעבר התקבלה החלטת ממשלה לצמצם את סמכות השב״כ במעקב אחר חולי קורונה הייתי השר היחידי שהתנגד לכך היום אישרה ה…  סירבתי לאשר אפילו אחד מהם למרות הלחצים של הלוביסטים ולעתים אף של ראשי ערים ופעילים מתוך הליכוד אני משוכנע ששר הא…  החלטת שר הכלכלה להעלות את היטל ההיצף על יבוא מלט פוגעת בתחרות נוגדת את עקרון השוק החופשי ועלולה להעלות את יוקר המח…  חתמנו על הצהרה משותפת שתאפשר לנו להרחיב את שיתופי הפעולה גם בחשמל וזאת באמצעות כבל החשמל התת ימי EuroAsia שיאפשר ל…  במסגרת מפגש הממשלות ישראליוון שהתקיים הבוקר בירושלים נפגשתי עם חברי שר האנרגיה היווני KHatzidakis  במפגש דנו…  טראמפ ידיד אמת של ישראל אסור להחמיץ הזדמנות הסטורית  פאנל זה הינו חלק מסדרת מפגשים שממשיכים להתקיים תדיר בין שלוש המדינות ונועד לשמר את היחסים בין ישראל קפריסין ויוון…  למשמעות הגיאופוליטית בעקבות הפיכתה ליצואנית גז טבעי למדינות השכנות ובעתיד כיצואנית גז טבעי לאירופה באמצעות צינור…  השתתפתי הערב בפאנל שרי האנרגיה ישראליווןקפריסין במסגרת כנס מקוון של המכון האסטרטגי Atlantic Council ולשכת המסחר…  מעביר לידידי zeevelkin כנרת מלאה וגם את יחזקאל ליפשיץ כמ״מ מנכ״ל מצוין  kannnews האזינו לריאיון המלא עם השר steinitzyuval בכאן רשת ב  לידידי ח״כ מיקי זוהר zoharm7 בהצלחה רבה בתפקידך כיו״ר סיעת הליכוד וכיו״ר הקואליציה  תמשיך לעשות חיל והרשיעו  אני משוכנע מקווה ומאמין שבסופו של התהליך המשפטי נוכל כולנו לנשום לרווחה וראש הממשלה נתניהו ימשיך להנהי…  זהו יום לא קל לראש הממשלה נתניהו מנהיג בעל שיעור קומה עולמי ועתיר בהישגים היסטוריים ויום קשה ועצוב למיליוני אוהדי…  אני גאה להמשיך כהונה נוספת כשר האנרגיה באחד המשרדים הכלכליים המשפיעים ביותר על חיי כולנו נמשיך לפעול נמרצות לטובת…  Thank you Secretary Brouillette for the warm words The US and Israel remain ideal partners for energy cooperatio…  אני מודה לראש הממשלה על האמון אשמח להמשיך לשרת את מדינת ישראל במשימות החשובות בתחום האנרגיה ובממשלה בכלל  צילום…  הזדעזעתי לשמוע את האיומים המפורשים שנאמרו בגלוי במהלך ההפגנה כלפי בנו של ראש הממשלה איומים מסוג זה אסור שישמעו לא…  ״כולנו ממתינים לראות האם ביהמ״ש העליון יתערב בעניינים לא לו או שיתן לממשלה ולכנסת לתפקד כרשויות נפרדות אם בג״ץ ימ…  הזכות לבחור ולהיבחר היא ממש עקרון יסוד בדמוקרטיה דיון בשאלה האם לפסול את נתניהו  משמעותו לבטל את תוצאות הבחירות…  zeevelkin מזל טוב סבא זאב בריאות ונחת אנו מרכינים ראש ומתייחדים עם זכר הנופלים חללי מערכות ישראל ופעולות האיבה במותם ציוו לנו את החיים בארץ ישראל נס ש…  2 לכן אני מודאג מהחלטת בגצ ומסד הזמנים הכמעט בלתי אפשרי שאליו הוא מכניס את הממשלה בהתערבותו המוגזמת והמיותרת 1 כמי שעומד בראש צוות השרים שבחן בשבועות האחרונים את מעורבות השבכ במאבק במגיפת הקורונה אני קובע כי לעבודת השבכ…  2   1לפני זמן קצר קיימתי שיחת וידאו מיוחדת בהשתתפות שרי האנרגיה של מזרח הים התיכון בנושא התפרצות נגיף הקורונה והשפעתו…  KnessetT יש אנשים שדיברו מדם ליבם כי באמת יש התערבות מוגזמת של ביהמש העליון כך אמר השר steinitzyuval על חברי הכנסת מהליכוד שק… גם אם לדעתנו יש מקום לרפורמות מקיפות במערכת המשפט וגם אם לטעמנו בג״ץ שגה בהחלטתו ונקט בהתערבות שלא במקומה  אנחנו נ…  הדגשתי גם בפניהן את הנחייתי לחברות האנרגיה הממשלתיות  להכין כוחות מילואים שיוכלו להחליף בעלי תפקידים חיוניים במקר…  הערב קיימתי הערכת מצב נוספת תוך שימת דגש על משק החשמל בישראל יחד עם רשות החשמל חברת החשמל ונציגי יצרני החשמל הפר…  לצערי בכחול לבן יש מי שדוחף לחקיקת חוקים שיהיו בגדר הרס וחורבן של הדמוקרטיה מה שלא קיים באף דמוקרטיה מערבית אחרת…  תודה רבה לצוותים הרפואיים ולכל מי שעומד בחזית המאבק   בימים מורכבים אלו חשוב יותר מתמיד לעקוב ולמלא אחרי ההנחיות אל תזלזלו בהנחיות מצילות חיים ככה קיימתי עם יור ומנכ…  בהזמנות זו קורא לאזרחי ישראל  הפנימו את חומרת המצב והקפידו לקיים את הנחיות משרד הבריאות הן מצילות חיים חברי הקוקפיט תפסיקו עם הפוליטיקה הקטנה תיאוריות הקונספירציה והאשמות השווא ממשלת ישראל והעומד בראשה מנהלים את המש…  גאה להמשיך בפעילותי הציבורית בשליחותכם ולמענכם שנדע ימים טובים יותר של בריאות ושלום בינינו ימים שבהם נוכל לשוב ל…  נאור היקר תודה רבה על המילים החמות  העם אמר דברו בצורה חדה וברורה ואמר כן להמשך המנהיגות המוצלחת של ראש הממשלה נתניהו כראש מפלגת הליכוד והמחנה הלאומי…  עוד לא מאוחר גם יוגב מאשדוד השתכנע והצביע מחל גורל המדינה בידכם  צאו להצביע מחל  yb66957 השר שטייניץ משכנע מצביעי ליכוד לצאת מהבית להצביע  העוצמה המדינית של נתניהו מאפשרת לנו ליישם את תכנית טראמפ הישג עצום שהיתרון בו הוא סיפוח בהסכמה בגיבוי ולגיטימציה…  אין גבול לצביעות  דווקא אלו שהתנגדו למתווה הגז והודיעו חדשות לבקרים שכדאי להשאיר אותו עמוק בים פתאום עדים ליתרונ…  פותרים את בעיות אספקת המים ביו״ש״קידוח קדומים 2 יוצא לדרךgt לפני מספר שנים הנחיתי לקדם תכנית אב למשק המים ליו״ש ע…  יום היסטורי למדינת ישראל ההזדמנות להכרה בינ״ל בזכותנו ובריבונותנו בחבלי יהודה ושומרון ובקעת הירדן תחזק את הבטחון…  במיוחד בתקופה זו מעמדנו הכלכלי והבינ״ל מעולם לא היה טוב יותר ומעולם לא התקדם באופן מהיר וחזק יותר מאשר בעידן נתנ…  לפני זמן קצר הסתיים כינוס פורום הגז האזורי בקהיר בו השתתפתי יחד עם שרי אנרגיה ונציגי מדינות האזור בכדי לסכם על הפ…  יום היסטורי החלה הזרמת גז טבעי מישראל למצרים שר האנרגיה המצרי ואני הודענו יחד הבוקר על התחלת הזרמת גז טבעי מישרא…  תודה למגזין בשבע שבת שלום  kannnews בעקבות הנישוב  הנה מבחן האם אתה פריק של סביבה או לא התוצאות בפנים מהצדהשני עם guyzo  amitsegal רגע לפני סיום העשור ולצד הכתבה על המסרונים וניצחון הליכוד ב2015 זו הכתבה שהכי שמחתי לעשות בעשור החולף כך שני חברי כנסת… amitsegal על נבואות זעם ביטחון מופרז קמפיין של שנים תכניות חד צדדיות בשידור הציבורי ובקיצור על מאגר לוויתן שהחל השבוע לפעול  חתמנו לפני זמן קצר באתונה על ההסכם הסופי בין המדינות להקמת צינור הגז הטבעי מישראל לאירופה שיתוף הפעולה בין המדינות…  פרויקט לוויתן יצא לדרך השלמת הפיתוח של לוויתן כעשר שנים לאחר שהתגלה וכארבע שנים לאחר שגיבשתי את מתווה הגז הוא אי…  זהו יום היסטורי למדינת ישראל  החלה הזרמת הגז הטבעי מלוויתן למערכת ההולכה בישראל  הצטערתי לשמוע על פטירתה של גאולה כהן לוחמת אמיצה שפעלה למען שלמות הארץ וההתיישבות היהודית החדשה ולהעלאת יהודים למד…  השילוב בין מתווה הגז לרפורמה ההיסטורית בחברת החשמל נותן את פירותיו פירוק המנופול ויצירת תחרות ירידה בזיהום האוויר…  indemtel As in life so in diplomacy Waterforms the vital component of  bilateral partnership Minister of Jal Shakti gssjodhpu… בעוד שאיראן מתקדמת צעד אחר צעד בתחום הגרעיני אנחנו בישראל מתמהמהים בהקמת ממשלת אחדות לאומית רחבה ויציבה שמסוגלת לק…  בהצלחה אדוני ראש הממשלה netanyahu במאמציך להקמת ממשלת אחדות לאומית רחבה ניצבים בפנינו אתגרים רבים וזהו צו השעה  לעם ישראל ומדינת ישראל תנועת הליכוד היא תנועה דמוקרטית שבחרה בבנימין נתניהו לעמוד בראשה הוא ורק הוא היה ועודנו יו״ר המפלגה ומועמדה להמשך כהונה כראש הממשלה לפיד וגנץ ליברמן ועודה  חוץ מכם גם האיראנים רוצים בנפילת נתניהו המערכה שנתניהו מוביל כנגד איראן מאז עלייתו לשל…  קרדיט צילום אבי חיון נפגשתי היום עם נשיא הונדורס חואן הרננדס ובירכתי אותו על פתיחת נציגות סחר בירושלים במהלך הפגישה שוחחנו על תפיסת ני…  קרדיט צילום אבי חיון מדהים  קרדיט צילום עמית סישל הוועד האולימפי  לעולם לא אשכח כיצד הכריח אותי במהלך כהונתי כשר אוצר לחתום על האישור התקציבי להקמתה של האוניברסיטה באריאל תרומתו…  הצטערתי לשמוע על פטירתו של ידידי יגאל כהן אורגד יגאל כיהן כחבר כנסת ושר האוצר  מטעם הליכוד אבל דומני שיזכר יותר מ…  SecretaryPerry A decade ago no one would’ve thought that the US would be the number one oil and gas producing country in the world a… מפגש שרי האנרגיה שהתקיים היום באתונה בין ישראליווןוקפריסין יחד עם יועץ מזכיר המדינה האמריקאי מדגיש שוב את שיתופי…  הפעם הלקח ברור מי שרוצה להפקיד את מדינת ישראל בידי אחד המנהיגים הבולטים בעולם צריך לעשות אחד דבר פשוט להצביע לליכ…  SecretaryPerry Just returned from a historic trip to Egypt with Egyptian Energy Minister Tariq El Molla and Israeli Energy Minister s… חתמנו את ביקורו המוצלח של המזכיר פרי SecretaryPerry בתערוכה בסימן יזמות חדשנות וקידום פרויקטים להרחבת שיתוף הפעול…  Productive discussion at the Prime Minister’s Office with netanyahu SecretaryPerry and  USAmbIsrael today about…  SecretaryPerry Thank you Minister steinitzyuval for your warm welcome to Israel The shared energy and technology goals of our count… Great meeting with SecretaryPerry  We are committed to continuing the positive energy partnership between our two…  SecretaryPerry Excited to be back in Jerusalem at the Western Wall today with Rabbi Shmuel Rabinovitch and Minister of Energy steinit… Welcome to Israel Secretary Perry SecretaryPerry  מכירת תחנת הכח הראשונה אלון תבור יצאה לדרך מדובר בעדות נוספת להצלחת הרפורמה בחברת החשמל ובהבעת אמון של המגזר העסקי…  דודי חברי היקר ברכות חמות לרגל המינוי לשר התקשורת מהיכרותי עמך אני בטוח שתמשיך לשרת את אזרחי ישראל נאמנה ובכל תפקיד בהצלחה dudiamsalem EnergyDepSec Great tour of Israel’s Computer Emergency Response Team CEand Energy Security Operations Center SOC led by ISRAEL… יישוב חדש קם בגולן  לאחר עשרות שנים בהן לא הוקם יישוב בגולן אישרנו בישיבת ממשלה חגיגית את הקמתו של רמת טראמפ במה…  אני מאחל לכל חבריי המוסלמים עיד אל פיטר סעיד לכם ולמשפחתכם  أتقدم لأصدقائي المسلمين بأحر التهاني والتبريكات بمناسبة…  אמיר חברי בהצלחה בתפקידך החדש והמאתגר AmirOhana יחד עם כל אזרחי ישראל משתתף בצערו של הנשיא ומשפחת ריבלין על פטירתה של נחמה אשה יקרה וצנועה ושולח את תנחומיי יהי זכרה ברוך אני מברך את מתניהו אנגלמן על היבחרו לתפקיד מבקר המדינה ברוב גדול ובפער מרשים תפקיד מבקר המדינה הוא בעל חשיבות לניה…  הדבר האחרון שישראל צריכה עכשיו זה בחירות  אל לנו לזלזל בבוחרינו ומחובתנו לפעול באחריות ביחד ובשיתוף פעולה  העם א…  אני מברך על הכרזת טראמפ הגדרת משמרות המהפכה כארגון טרור היא עוד צעד חיוני בבלימת המערכה האיראנית נגד מדינת ישראל…  נרגש על השבת גופתו של רבסמל זכריה באומל זל מנעדרי הקרב בסולטן יעקב שחזר הביתה לאחר 37 שנים מברך את ראש הממשלה…  כולנו מתפללים לשלומה ולהחלמתה של רעיית הנשיא נחמה ריבלין במהלך פגישתי עם ידידי שר האנרגיה הברזילאי עודכנתי על כוונת חברת האנרגיה הברזילאית פטרובראס לרכוש את חבילת ההליך…  אנו מרכינים ראש על לכתו של רפי איתן שכיהן כשר בממשלת ישראל  לרפי חלק חשוב ביותר בשמירה על ביטחונה של המדינה כמי ש…  הצהרתו של נשיא ארהב להכיר בריבונות ברמת הגולן היא הוכחה נוספת לקשר החזק והחם בין הנשיא טראמפ לבין רהמ נתניהו אשר…  שרי האנרגיה של מצרים יוון קפריסין וישראל בפאנל משותף בכנס האנרגיה הבינלאומי ביוסטון מדברים על שיתופי פעולה אזוריי…  מזכיר האנרגיה האמריקאי ריק פרי הוא ידיד קרוב של מדינת ישראל במהלך וועידת האנרגיה הבינלאומית ביוסטון שוחחנו על שיתו…  לא מפתיע שמפלגה שהיא אוסף לא ברור של אנשים תציג מצע שהוא אוסף משפטים מנותקים מהמציאות מסתבר שעובדות זה לחלשים ש…  יש מדינה פלסטינית אין מדינה פלסטינית אין ימין אין שמאל מה כן יש לפיד וגנץ זה שמאל חלש</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RanBalicer 4 תובנות ממידע ומחקר הבאתי הערב בשידור  1 שיעורי התמותה בישראל מהגבוהים בעולם והתמותה המצטברת מטפסת בחדות  2 20 מהנדב… מקורות  4 אם מעל 80 מהציבור יעטו כל הזמן מסיכות ננצח את הקורונה בתוך 6 שבועות   מסקנה בואו נביס כבר את המגיפה הזו ח…  3 חבישת מסיכה על ידי המדביק פולטים 90 נגיפים פחות   חבישת מסיכה על ידי הנדבק  שואפים פנימה לגוף 90 נגיפים…  2 ״מנת ההדבקה״ היא מספר הנגיפים אותם נשפתם פנימה ברגע ההדבקה  אם מנת ההדבקה גדולהgtgtהמחלה חריפה   אם מנת ההדבקה ק…  שנה טובה  4 דברים חשובים מאד להפנים  1 בחללים סגורים ללא איוורור חיצוני הנגיפים נשארים באוויר למשך זמן רב אפיל…  אם 80 מהאוכלוסיה תעטה מסיכות אנחנו נביס את הקורונה בעצמנו תוך 6 שבועות  בואו ננצח   אנחנו עם חזק  וכשאנו מאוחד…  בזכות הגבורה של ״החיילים הקטנים״ האמונה שלהם בצדקת הדרך המוכנות שלהם להקריב הערבות ההדדית ההבנה שכולנו בסירה אח…  למרות שההנהגה קיבלה את כל ההתרעות וראתה את כל הסימנים למלחמה  חיילי צה״ל בשטח בגבול הגולן ובסיני הופתעו לחלוטין…  האחריות עוברת אלינו ל״אזרחים הקטנים״  לפני 47 שנים ו5 שעות ביום הקדוש לנו מכל פתחו מצרים וסוריה במתקפת פתע על ח…  מקור  אבינו מלכנו מנע מגיפה מנחלתך  גמר חתימה טובה עם אהוב   רבים שאלו האם מסיכות לא פותרות את הבעיה בבית הכנסת   תשובה בבית כנסת שהוא חלל סגור נטול איוורור רציני למשל במק…  לכל הכועסים על כך שאלפים הפגינו בבלפור ומה פתאום לבוא עכשיו בדרישות למתפללים  איננו באים בדרישות אני מבקשים מכם…  ציבור מתפללים יקר הסתכלו בתמונה  די שיש מתפלל אחד נשא קורונה בתוך בית כנסת בחלל סגור וכך ייראה בית הכנסת כבר ל…  רפואה שלמה אח יקר  אנחנו כולנו יחד בסירה הזו לרע ולטוב   אם אחד קודח חור בסירה ואז השני ״מעניש״ את הראשון וקודח גם הוא חור כולנו נ…  היום יותר מתמיד אנו צריכים ללמוד ממנו ולנהוג כדוגמתו להוסיף טוב לזכור את המאחד ולא המפריד עד היום זה מלווה אותי מהדברים שנותרים חרוטים חזק בראש ובלב  גיבור בחייו וגיבור במותו ארי היה אוהב אדם האמין באח…  עד היום שלט גדול מתנוסס בחנות פלאפל בצומת הגוש תודה ארי שהצלת לי את החיים רק אחרי שהמחבל נוטרל ארי הרשה לעצמ…  הוא לחם למען ישראל גם בתקשורת פעם אחר פעם הגן על המדינה בזירה התקשורתית הבינלאומית בין לבין גם סייע לחיילים בודדי…  היום לפני שנתיים נרצח ארי פולד זל גיבור ישראלי בחייו ובמותו   ארי עלה מארהב התגייס לצהל ושירת כלוחם בגולני…  מזל היא עוד אחת מקורבנות הקורונה  עוד עולם שלם שאבד בגלל הנגיף  תהא נשמתה של מזל צרורה בצרור החיים  קורבנותהקורונה בעלה יואל סיפר שהיא פונתה לבית החולים במצב קל ומהר מאוד הידרדר מצבה עד שנפטרה רות ביתה סיפרה בדמעות חנוקות על…  אמא שלכם כבר לא איתנו זה מה ששמעו בני משפחת דלאל בעיצומו של יום שבת מזל דלאל בת 53 היא עוד אחת מקורבנות הקורו…  דברים שאמרתי היום במהדורת חדשות 12  לא יקרה כלום לדמוקרטיה אם שבועיים לא יהיו הפגנות ענק  לראיון המלא  41 חללים ישראלים מתו היום מקורונה  אנחנו על סף תהום  זה הזמן לחדול לריב  לפעול יחד ולנצח את המגיפה הארורה   מי…  הודעה חשובה מאד  הפיצו   ביחד ננצח  אני מאוהב בעם שלי   צולם כרגע בסופרמרקט AllStock בעיר חריש שאלוהים יברך אתכם  רפי הוא עוד אחד מקורבנות הקורונה  עוד אדם עולם ומלואו שהולך לעולמו בדמי ימיו מהנגיף  תהי נשמתו של רפי צרורה ב…  במשך חודשיים וחצי הוא נאבק במחלה בגבורה השבוע הקורונה גברה עליו והוא נפטר  בנו אלעד אמר עליו אני ממש גאה בו בתו…  רפי חמאוי המורה האגדי מאשדוד נפטר מקורונה  רפי היה מורה לחינוך גופני אדם בריא שבעבר היה אלוף הארץ בריצה למרחק…  רק שרים שלא יודעים מה זה מלאי לקוחות ותחרות עולמית מסוגלים לשתק לחלוטין את התעשייה הישראלית ולהביא לאובדן נוסף של…  תהי נשמתו של עמוס צרורה בצרור החיים בתו ויקי אמרה זה מאוד קשה אנחנו לא יודעים איך הוא נדבק אני מאוד כואבת כרגע הכל קרה כל כך מהר  אני רוצה שתס…  עמוס גלזר ששכל את בנו תמיר נפטר מקורונה  עמוס היה אב שכול הוא איבד את בנו באסון המסוקים הנורא ב1997 רק חודש לפ…  אלה הפעולות שהייתי עושה כבר הערב כראש ממשלת ישראל  1 מודיע הערב לכולם שעד תום הסגר אין הפגנות ואין תפילות  מרסקי…  44 לאפשר בדיקה לכל מי שטס לכל מורה לכל זקן לכל מבודד ולשחרר אחרי קבלת תוצאה שלילית  מה עוד יותר מקומם שמי ש…  השיטה מתאימה למצב שהרוב שלילי נניח בדיקה יזומה של עיר כדי ״לנקות אותה״  איפה עושים איגום בארה״ב גרמניה סין פ…  24 אתה לוקח מעט חומר מכל אחד מ10 המטושים מערבב ומפענח את הערבוב הזה   אם התוצאה שלילית הרי שכל עשרת הנבדקים של…  14 יש דברים מאוד פשוטים שניתן לעשות כדי להאיץ את מיגור הקורונה שלא נעשים נטו בגלל ניהול כושל   למשל Pooling ״…  לנאום המלא  קיטוב בעם אני חושב שיש אחדות בעם אך יש מי שטורח להסתיר זאת   מתוך דבריי בנאום בכנסת היום  מאמר חשוב בניו יורק טיימס גודל מנת ההדבקה משפיע על חריפות המחלה    אם 80 מהציבור הישראלי יעטו מסיכות נרסק את הקורונה בתוך ששה שבועות   זו מעין הגנה קהילתית הנגיף פשוט לא ימצא את…  רשימה חלקית של מקורות   MeirRubin ושרשור כזה לא יכול להיות שלם בלי קצת אוגרים סוריים   MeirRubin  סרטון חדש זה מכיל מידע חשוב שאינכם מכירים  כיצד מנת ההדבקה מספר הנגיפים שמגיעים לגופכם ברגע ההדבקה משפיעה על ח…  ״שגיתי״  מתוך נאום שנשאתי כשר הביטחון לצמרת הפיקוד של צה״ל סגני אלופים ומעלה דברים שמיועדים לכל מנהיג מפקד מנ…  הרעיון להחמיר את ההגבלות על המגזר הפרטי הוא חסר אחריות וחסר הגיון  ואתנגד לכך בכל כוחי  במשרדי עסקים ובמפעלים ההי…  פרופסור יעקב כץ ז״ל היה קודם כל יהודי עם לב ענק  איש חינוך איש ארץ ישראל איש יהודי איש רגיש   הוא הותיר אחריו…  זהו אגואיזם   אנחנו כולנו יחד בסירה אחת שמאל ימין ערבים יהודים חרדים חילונים   הנגיף לא יודע פוליטיקה   מי…  IsraelHayomHeb יור מפלגת ימינה חכ naftalibennett מסיר את הכפםות בראיון חג ל bardugojacob  gtgtgt    אם גם המדביק וגם הנדבק חובשים מסיכה כמו שצריך זה מוריד את כמות הנגיפים בכ99   אם מעל 80 מהציבור חובשים מסיכות…  הנה נתון דרמטי כמעט לא מוכר  הדבקה אינה בינארית  מספר הנגיפים שנכנסים לגופך ברגע ההידבקות משפיעה באופן דרמטי על ע…  גיבור שקט  נכנסתי במקרה לסניף בבית שאן  של פיצה האט ופגשתי את אבי ראם הזכיין  אבי נאבק בציפורניים להמשיך לקיים א…  פטרישיה מנהלת חנות ואלישע סוכן מכירות מספרים שחודש אוגוסט היה חודש טוב מאד במכירות אך מרגע ההודעה על הסגר כבר צנ…  חברים מסיכה זה תמיד מעל גובה האף  לא אצליח להגיע לכולכם בשביל לסדר  אני חוזר וקורא לממשלה קריאה דחופה להצלת חיי דיירי בתי האבות ובתי החולים הגריאטריים  בטלו את רוע הגזירה  זו האוכל…  גאווה ישראלית דרוזית  סאל א מעוספיא הדרוזי הראשון שסיים מסלול כלוחם ביחידת שלדג התמנה היום למפקד היחידה  עוד ת…  CoronaCabinetIl דר וואיציאנג לי מנהל המחלקה לענייני רפואה ותכנון בית החולים הכללי טייפה קיימות אצלנו 167 מעבדות לבדיקות קורונה… בטאיואן כלקח ממגיפת הSARS הם הקימו מערך חזק וסדור למלחמה במגיפות   סה״כ מאומתים אצלם עד כה מתחילת המגיפה 499…  צוות קבינט הקורונה האזרחי כרגע בשיחה חשובה מאד עם הצוות שניהל את המאבק בקורונה בטאיוואן בתמונה צוות מיגור הקרונה…  CoronaCabinetIl שיחת ועידה מיוחדת עם צוות המאבק בקורונה של ממשלת טאיוואן  טאיוואן הצליחה להביס את המגיפה והמדינה מתנהלת כמעט באופן רג… אפשר לייצר מציאות אחרת לגמרי  זה לא יהיה קל  אך חשוב לי שתושבי הדרום ידעו זה אפשרי וזה הכרחי   מחזק אתכם ואוהב…  זו תוצאה של שנים רבות של אובדן הרתעה חוסר יוזמה ופאסיביות   אפשר לייצר מציאות אחרת  לא ביןלילה  לא אבטיח ״לחסל…  במהלך כל הלילה המחבלים המשיכו להמטיר רקטות על בתי תושבי הדרום ללא פחד   לילה לבן ללא שינה למאות אלפי ילדים ומשפ…  אנחנו איתכם תושבי הדרום היקרים   באתי אתמול בלילה לפגוש את תושבי השכונה באשדוד שספגו את פגיעת הרקטה שפצעה קשה אדם…  קריאה דחופה לממשלה  עיצרו  תבטלו את הקיצוץ של בדיקות הקורונה לבתי האבות  סיירתי היום בבתי האבות והם מתחננים לב…  ארגון לקט ישראל מציל מזון לנזקקים   ביקרתי במרכז הלוגיסטי של ״לקט ישראל״  מדינת ישראל במיטבה  במקום שבסיסי צה״ל…  תודה ריגשתם בזכותכם אלפים מכם הספר ״איך לנצח מגיפה״ עומד בראש רשימת רבי המכר בספרי עיון כעת אנחנו יוצאים להדפ…  AyeletShaked תפקידה של האופוזיציה הוא לבקר את תיפקודה של הממשלה בטח כשניהול המשבר כושל כל כך ברוב מדינות העולם מערך קטיעת שרשראות… המערכה בעיצומה אך העסק נראה הרבה יותר בשליטה   מכיון שהממשלה אינה מתפקדת צריך להעביר תקציבים משאבים וסמכויות לר…  לפני מספר חודשים שתי הערים היו בראש התחלואה הארצית ולמען האמת בבלאגן לא קטן  שני ראשי העיר לקחו אחריות  והחלו ל…  צריך להעביר מיד את עיקר ניהול המאבק בקורונה מהממשלה לראשי הערים   הממשלה כמעט ולא מתפקדת לכן  אם אנו רוצים תכני…  itayg1 יור ימינה נפתלי בנט הגיע כעת ללשכת ראש עיריית בני ברק אברהם רובינשטין לדון במצב בעיר ובהערכות לסגר הכללי  gtgtמוודאים ואוכפים בידוד שולחים ניידות אכיפה בתוך היישוב מאפשרים בדיקות ללא הגבלה בתוך היישוב   וזה מצליח בעזרת…  ללמוד מפיילוט כפר קאסם   לפני 34 שבועות כפר קאסם עיר אדומה  תפסה אחריות על גורלה  ומצליחה לצמצם בצורה דרמטית…  בחנויות שביקרתי בבני ברק סלולר כללי ופירות פרימיום ירידות מחזור של 3040  להערכתי זה נובע משני דברים פחות כס…  הבעלים של המסעדה הזו בבני ברק לא שרד ונאלץ לסגור  משפחתו נכנסה לתהליך קשה של כינוס נכסים כי הוא חתום על ערבות אישי…  פגשתי את נציגי הסטודנטים מהאוניברסיטאות ומהמכללות  מעבר לקושי בשכר הלימוד  יש אבטלה גבוהה של צעירים ותחושה שמשעבד…  עשרות משפחות שאלו אותי האם אפשר לעשות ארוחת ראש השנה עם הורים מבוגרים או סבא וסבתא  התשובה הקצרה לצערי היא עדי…  gtgtWhen our Arab neighbors understand that the Nation of Israel has returned to our homeland and will never leave i…  I extend heartfelt congratulations to President Trump and Prime Minister Netanyahu for expanding the normalization’…  לכבוד מנהלי המכללות והאוניברסיטאות בישראל  הסטודנטים נאנקים  רבים פוטרו ולא מצליחים לשרוד  אני קורא לכם תהיו בנ…  ישראל במצב חירום לאומי המגיפה פרצה את הסכר ונמצאת כרגע בכל עיר בכל שכונה ובכל קהילה במדינה   3127 מאומתים אתמו…  gtgtאני קורא לציבור אל תזלזלו במחלה  חבשו מסיכות  היפגשו רק במקומות מאווררים  שמרו על הוריכם   ביחד נתגבר  44 ltסוףgt gtgtבתי החולים מתקשים להתמודד  בית החולים שערי צדק יכולים לקלוט עוד חמישה חולים בלבד  ״זיו״ בצפת יכול לקלוט חמישה…  gtgt קצב התמותה גבוה בהרבה מבגל הראשון  מתים גם בני 60 50 ו40  ישנם אלפי ״נכי קורונה״ צעירים שכביכול החלימו לפני ח…  ישראל נכנסה לשלב השלישי שלב חדש וקטלני בקורונה הרבה ישראלים מתים כרגע מקורונה  הקשיבו לד״ר גדי סגל מנהל מחלקת פ…  קפצתי לשתות קפה ולשמוע את נטע עדן ודניאל עובדות בבית קפה ״בליקר בייקרי״ בגדרה הן תיארו לי את בעיית ״השקופים של מ…  תראו במה עסק ראש ממשלת ישראל בנימין נתניהו בשעות אחר הצהריים אתמול  ודרך סיפור קטן זה  תביאו את מקור הכישלון הנור…  פרויקט חברתי נפלא לצמצום פערים דרך החינוך שיזמתי כשר החינוך ועכשיו הממשלה משליכה לפח  על הדרך עוד מאות מפוטרים ש…  רשלנות פושעת של ממשלת נתניהו כשאתה נזכר באיחור ליישם את מה שהציגו בפניך לפני חודשים רבים   שסרבת ליישם תכנית טובה…  רונן מזה עשר שנים בעל פיצוציה בגדרה האיר על ״באג״ בשיטת חישוב הפיצויים ששמעתי הרבה כרגע יש רף ירידה במחזור שאם א…  אורזים חבילות מזון לחג עם החניכים הנמרצים של המכינה הקדם צבאית ״שובו אחים״ ברחובות בשיתוף עם רשת יוחננוף ועיריית ר…  החשיפה של עמית סגל מאירה באור קשה את מערכת אכיפת החוק בישראל  יש לחקור את הארועים המתוארים בצורה מעמיקה וללא מורא…  מי שקורא לאזרחים להפר את החוק בגלל ההתנהלות הכושלת של הממשלה יוביל את ישראל לאנרכיה יגרום לכל אחד לעשות מה שבא לו…  התראיינתי כרגע במהדורת חדשות 13  התייחסתי למשבר הקורונה ומה צריך לעשות למתקפות נתניהו נגדי וגם לסקרים   לינק לרא…  בדקות הקרובות אתראיין במהדורת newsisrael13 ואתאר את הצעדים הנדרשים כדי להשתלט על הקורונה ולשקם את הכלכלה   מוזמנים עיניה של רותי מנהלת חנות דמעו כשסיפרה לי שכסבתא ל19  היא עשתה לבדה את סדר הפסח והניחה תמונה משפחתית על השולחן…  zelama יאללה המלצתך התקבלה  אני שמח שהוא קורא את זהאבל חשוב גם לבצענפתלי  5 שנים בלי אבא  אני רוצה לספר לכם מעט על אבי ג׳יימס בנט  ומה קיבלתי ממנו   אבא נולד למשפחה יהודיתחילונית בארצות…  gtgtהמערכת יכולה לזהות שיש קורונה בשכונה מסוימת בחיפה עוד לפני שמערכת הבריאות יודעת ואז אפשר להסתער בטיפול יזום  נש…  ישראל יכולה להיות המדינה המובילה בעולם בטכנולוגיות למאבק בקורונה  יושב עם עובדי חברת ההייטק קנדו המוכשרים Kendo…  yb66957 מתקרב לחרדים נפתלי בנט בביקור במשרד חרדי באלעד שומע את מצוקת החרדים העובדים  מוחמד בן 32 שהקים לפני 3 שנים מסעדה בעיר שכעת אדומה טירה מספר לי שהקושי הגדול ביותר שלו הוא השינויים והתזזית של…  מרגש לראות עסקים משגשגים של חרדים מכל החסידויות כאן בעיר אלעד  נדהמתי שאף שר מהממשלה לא טרח לבוא לכאן ללמוד את ה…  AryeErlich נפתלי בנט כעת בלשכת ראש העיר אלעד  תגידו מה שתגידו על האספירציות  ישראל זקוקה למנהיגים אכפתיים כמו בנט  מסעהפרנסה  אלעד  gtgt יתרה מכך הממשלה לא מקיימת שיח לגבי מענה בעלי עסקים ושכירים שמנועים לצאת לעבוד בגלל הסגר   תכנית הממשלה תזניק א…  במרכז השליטה בעיר ה״אדומה״ אלעד יחד עם ראש העיר ואנשי פיקוד העורף  לא ייאמן 23 מהנשאים המאומתים כביכול בעיר הם…  ועכשיו הממשלה מודיעה שביטלה את וועדת השרים לחקיקה שהיתה אמורה לעסוק בקורונה וזאת בגלל מריבות פנימיות   מה אומר לע…  אני לא מפסיק לחשוב על אלון ששון בן 28 נשוי פלוס תינוק גדל בבאר שבע עובד מגיל 14  לפני 3 שנים רכש זיכיון ארומה ב…  אדוני ראש הממשלה  אם היית מודאג מהקורונה כמו שאתה מודאג ממני  היינו היום עם אפס תחלואה ובלי מיליון מובטלים   דברים שאמרתי לדני קושמרו  במהדורת חדשות 12 הערב   ״זאת לא מנהיגות  לציבור מגיע תכנית וחזון״  הראיון המלא בתגובה…  בעוד מספר דקות אתראיין במהדורת חדשות 12 כדי לתאר את תכנית הפעולה הנדרשת לצאת ממשבר הקורונה והכלכלה  מוזמנים RoyIddan להתחיל לקרוא או לשמור לסגר  NaftaliSariel1 הלך השנצ בסופש naftalibennett תודה באמת  בשעה 1630 אקיים תידרוך ״בגובה העיניים״ בלייב בעמוד הפייסבוק שלי  הנושא תמונת מצב קורונהכלכלה לאור התחלואה הגבוה…  הממשלה נכשלה כישלון מחפיר  ראשי הממשלה מעלו באמון הציבור שסמך עליהם  ישראל היא מובילה בעולם ברמת ההידבקות   הסיב…  חברים במצב הנתון המפתח הוא אחריות אישית שלנו האזרחים   מעל לכל שמירה הדוקה מתמיד על המבוגרים והפגיעים   היק…  צונאמי של קורונה עומד להכות באזרחי ישראל  כך תשמרו על חיי יקיריכםgtgt  ברגעים אלו יש בין 50000 ל200000 נשאי קורונה…  יש לנו עם טוב ואנחנו ננצח  מסעהפרנסה  שוהם  yaronavraham המשפט החשוב ביותר בספר המעולה של נפתלי בנט על מגפת הקורונה מי שלומד  לא מפחד כתב אישום החריף על מחדלי הממשלה רחב וארוך… מסעהפרנסה  שוהם  השרים גלנט וכץ אל תסגרו מתימטיקה וכימיה 5 יחידות לפריפריה בלימוד מרחוק   ישנם בתי ספר בפריפריה ללא מורים ל5 יחידו…  מברך את הקבינט הבטחוני על אימוץ מדיניות שלא לשחרר גופות מחבלים  בהצלחה שולי יקרה נתניהו וגנץ  כך לא נלחמים בטרור  מילותיכם ריקות   ביטלתם את הצו שהפעלתי שבלם העברת משכורות מחבלים חזרתם לשחרר ג…  MatanKahana זו יובל  סטודנטית שנה ג לתעשייה וניהול נפגשנו ב 2013  סוג של דייט היא לבדוק לאיזה תפקיד תוכל להתנדב בטייסת  אני לבדו… הספר נמכר כעותק פיזי    כעותק דיגיטלי  gtgtאוכלוסיה צעירה יותר מכל האחרים כאן  מזג אוויר חם   אז למה ישראל נכשלה כלכך כי היא לא מנוהלת  הממשלה עסוקה בע…  למה ישראל נכשלה כל כך בקורונה  חברים תראו גרף מעודכן מהיום השוואת שיעור התחלואה בקורונה פר גודל אוכלוסיה בין כל…  שיחה עם תלמידי כיתות א׳ בבית הספר היסודי קול יעקב של רשת אמי״ת בעיר ירוחם   הקורונה היא הזדמנות אדירה להזניק את הח…  MeirRubin את הערך המוסף האדיר שהביא naftalibennett בממשלה קל להעריך דווקא כשהוא חסר  באמצע מאי 2020 היו בערך 20 נשאים מאומתים ביום… פותחים שנה עם חבר׳ה נהדרים ממקיף דרכא ספיר בירוחם  בהצלחה  החינוך בעיר ירוחם מעולה ורק הולך משתפר משנה משנה  עם טל אוחנה ראש עיר מצוינת וכל צוותי החינוך בעיר שמחויבים ומק…  לנתח לנצח  בהצלחה לכל התלמידים כולל דוד בנט ולכל ההורים בפתיחת שנת הלימודים  במיוחד לילדי כיתה א׳  תודה לכל המורות והמורים…  רבבות ילדים הלכו לישון הלילה עם ילקוטים מוכנים מרוגשים לקראת פתיחת השנה ויקומו בבוקר באכזבה אדירה על ביטול הלימוד…  TsahiDabush שר הביטחון לשעבר naftalibennett ״נתניהו וגנץ מרסקים את ההרתעה של מדינת ישראל״  נסראללה מודיע שיהרוג חייל צה״ל הממשלה יושבת וממתינה   מחבלי חמאס מציתים 24 שריפות בכל רחבי הדרום מהבוקר קו הר…  יום היסטורי של נורמליזציה עם איחוד האמירויות  ברכותיי לנשיא טראמפ לראש הממשלה נתניהו לראש המל״ל ולכל העוסקים במל…  עכשיו הזמן לפעולה  מה אתם נתניהו וגנץ צריכים לעשות בעצם כלום  רק לא לדחות שוב  לתת לצו שאני הוצאתי להיכנס לתוקף היום   זה בנפשנו לא נוותר   נפעיל את כל הכלים הפרלמנטרים עד שיוחזר הצו והכספים יפסיקו לזרום לרוצחים   נתניהו וגנץ איננו רוצים מכם…  ואז קמה ממשלת נתניהוגנץ  גנץ החליף אותי בביטחון גנץ ונתניהו ביטלו את הצו  הרמנו קול הסברנו שזו שגיאה נוראה  כ…  הבנקים נבהלו עצרו את העברת הכספים  משפחות המחבלים השתוללו  ניפצו שמשות בנקים איימו על חיי מנהלי הבנקים וכו הר…  בכל חודש הרשות מעבירה כ110 מיליון ש״ח למחבלים ולבני משפחות של מחבלים שמתו בעת הפיגוע  כשר ביטחון פעלתי  הוצאתי ל…  ראש הממשלה נתניהו והשר בני גנץ—הפעם לא יהיו לכם תירוצים  אל תדחו שוב את הצו להפסקת משכורות המחבלים  נמאס לנו ממיל…  ראשי הממשלה ושרי הממשלה אם אתם פוחדים לקבל החלטות לא פופולריות בעניין אומן או הפעלת הרמזור תפנו את מקומכם   ידעת…  shaimaymon פקיד מתפטר נשיא המדינה אני מצר אני מודאג יש משבר קשה 46 משפחות נזרקות מהבית החוקי שהמדינה בנתה להם נשיא המדינה NadavEyalDesk על זה אשמח לרטווט את סמוטריץ שנת לימודים טובה לכולם 40 שעות לפתיחת שנת הלימודים התכניות החיוניות הללו לילדי הפריפריה לא ייפתחו תכניות לקידום 5000 ילדים יוצאי אתיופי…   מאות אלפי ישראלים איבדו את עבודתם רק בגלל שנתניהו מפחד ממני  ולכן לא יישם את התכנית למיגור הקורונה  רק כי היתה ה…  shaimaymon את הבית שלי יהרסו בית שהמדינה הקימה בית שעבר פינוי ממקום אחר והמדינה החליטה איפה יקום מחדש בית של אזרח שומר חוק משלם… רק לב מאבן ואיבה להתיישבות בארץ יכלו להוביל לפסיקה זו   אנחנו נוביל מהלכים למניעת חורבן היישוב פסק דין מזעזע של שופטי בג״צ שאין בו לא היגיון ולא צדק   לאחר ששופטי בג״צ פסקו שלא להרוס בית מחבל רוצח הם פסקו להח…  CoronaCabinetIl באלו פעילויות קיימת סכנה גדולה יותר להידבק בקורונה   מידע שחשוב שתדעו  הפיצו הלאה  תודה ל60000 העוקבים שלי באינסטגרם   יחד איתכם אנחנו נאחד את העם שלנו כדי לנצח את הקורונה   מוזמנים לעקוב…  aviblum קוראים לו דוד שפירא והוא נכד לסב מפורסם בעל יכולת פיקודית ואומץ לב שזיכוהו בצל״ש כסרן בחטיבת הצנחנים חיסל את המחבל בפיגוע… שרי ממשלת ישראל תנו לגמזו לעבוד  הממשלה מינתה את פרופ׳ רוני גמזו לפרויקטור הלאומי נגד הקורונה  ומאז במקום לעזור…  אני קורא לממשלה אל תפקירו צעירים וצעירות שעלו מצרפת לארץ ישראל  את כל רווחיי מהספר אתרום לעמותת ״פתחון לב״ לעזרה למשפחות שזקוקות לעזרה  למה כתבתי את הספר  כי ראיתי שרבים מתחילים להתייאש ולהרגיש כאילו אין מה לעשות   אפשר אחרת   אפשר להשתלט על המגיפה…  CoronaCabinetIl איילנד למערכת הביטחון לוקח הרבה זמן להתארגן ולהגיע ליכולת של קטיעת שרשראות הדבקה CoronaCabinetIl מואב דמי אבטלה לשנה גורמים לכך שאנשים לא ירצו לעבוד ויעדיפו להשאר בבית אין לי טענה כלפיהםהם פועלים בצורה חכמה CoronaCabinetIl פרופ׳ עומר מואב  פרופ לכלכלה במרכז הבינתחומי בהרצליה ובאוניברסיטת וורויק באנגליה   לשעבר יועץ כלכלי בכיר של שר האו… CoronaCabinetIl אלוף מיל גיורא איילנד  לשעבר ראש אגף המבצעים וראש אגף התכנון בצהל צריך לשקול סגר יזום על תקופת החגים שיתחיל ברא… מפגש קבינט הקורונה האזרחי תלאביב  מתחילים  ראש העיר שדרות אלון דוידי מנהיג את העיר באופטימיות ובמסירות   בעיר יזמו שורה של פעולות מעודדותפרנסה כמו משלוחי מ…  גם היום חצי שנה לתוך המשבר ביקרתי במסעדות עם שטח ענק בחוץ שמוגבלים ידי הממשלה ל30 לקוחות  חוק כלכך מטופש ומזיק…  במסע הפרנסה בשדרות פגשתי הבוקר אנשים חזקים   אךהם מספרים שהממשלה השלימה עם כך ששדרות תחטוף רקטות ובלוני נפץ כולל…  guylerer שמע עשיתם מעשה קדוש ממש גם אנשי פתחון לב וגם הצינור וכל המתנדבים והתורמים  הופתעתי שרבות מהמשפחות הפונ…  sagiguez חברים יקרים  נתקו פוליטקה  באמת  אתמול קיבלתי את הספר של naftalibennett התחלתי לקרוא בבית קפה  סיימתי אותו  לאחר3  סבבי קפה… מגיעה לישראל מנהיגות חדשה    עם בני כשריאל ראש העיר מעלה אדומים בביקור בעיר היפהפיה שלו   בני העלה שורה של הצעות יצירתיות להניע מחדש את הפרנס…  מעולם לא היתה לישראל ממשלה  כל כך מנוכרת לאזרחיה  כל כך עסוקה בעצמה כל כך מסורבלת כל כך לא חכמה כל כך לא מקצועי…  נכון מתמיד   ״הצדיקים הטהורים  אינם קובלים על הרשעה  אלא מוסיפים צדק אינם קובלים על הכפירה אלא מוסיפים אמונה…  AlonDavidi בשבוע שכולם מדברים על שלום תמורת שלום לי לא ברור באיזה עולם מדובר  אצלנו יש מלחמה יש טילים ויש חוסר ביטחון בסיסי לתושבי… ברוך ה׳  תודה לכל רבבות האנשים הטובים שנלחמו למען עתידנו  עצוב לי לראות מדינאי עטור זכויות עסוק בפוליטיקה קטנה במקום לדאוג לצרכי העם שסובל  שרי הממשלה תפסיקו לשלוף החלטות ברגע האחרון   מדוע כל כך קשה לכם לפתוח את יומן השנה  להבין איזה אתגרים יהיו להתכ…  TheMarker הקשר ברור הדרך לשכר גבוה עוברת בלימודי מתמטיקה  ועדיף שזה יהיה במרכז ולא בפריפריה   הנה הסוד 3 המילים שיכולות לחלץ אותנו מהבוץ ממשבר הקורונה  ולהזניק את מדינת ישראל קדימה  בונוס באמצעות 3 מילי…  FleurHassanN Thanks you naftalibennett for coming to the jerusalem shuk listening to the plight of the vendors and encouraging Isra… צפייה חשובה איתמר פליישמן הוא אדם אמיץ שממש עוזר להציל כאן חיים של אנשים בעיקר גברים בעת מצוקה כלכלית שכלשונו נק…  היתרון הצבאי האיכותי של ישראל הוא בבסיס תפיסת הבטחון שלנו ואינו ענין פוליטי  אני בטוח שבבית הלבן ובקונגרס מבינים א…  חייב לשתף אתכם  התקשרתי כרגע לחבר שלי זוהר ביישוב כרם שלום על גבול עזה  כדי לשאול מה שלומו לאור חידוש טרור הבלונ…  ועוד מילה מכל בעלי העסקים שפגשתי היום בשוק  לא שמעתי אפילו אחד שקיטר או התלונן—רק ביקשו לעבוד   אבא שלי ז״ל ג׳י…  חכ לשעבר גרשון שפט הלך לעולמו אתמול בגיל 93   הוא היה ממייסדי קיבוץ עין צורים ב1946 נפל בשבי הירדני במלחמת העצמ…  בסיור עסקים בירושלים בשוק מחנה יהודה   תלונה נפוצה מאד בחודש האחרון  יאצו בעל קפה ארומה בשוק  מספר שאנשים לא מ…  כתבתי בתכנית ״גל השני״ שצריך יכולת ביצוע של 100000 בדיקות ביום  כדי שבדיקות PCR יהפכו שגרתיות וזמינות כמו בדיקת ל…  אורי משמאל מנהל רשת חוגי ספורט לילדים בגילאי גןיסודי ברחובות   לא הולכים להיות חוגי ספורט מחשש שהמדריך ידביק את… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ליאת בן ארי מודה אני עבריינית בנייה  ״מן הראוי שהשינויים המסויימים שנעשו בבית כמו גם הפיצול ל2 יחידות דיור ייעש…  דוד רוזן במסר ברור לליאת בן ארי ולמנדלבליט בפרשת ראש העין משרת ציבור בטח ובטח משרת ציבור במשרה בכירה מצווה להקפ…  לידיעת קלמן ליבסקינד  לא יזיק לך להרחיב קצת אופקים ולעשות קצת הפוגה מהתעסקות אובססיבית בעצמך ובהטפות מוסר על כך שכ…  aviadglickman כֻּל כַּלְבּ בִּיגִי יוֹמוֹ ביטוי יפהפה בערבית שמתאים מאוד לרביב דרוקר ושלוחיו איתי רום שחסם אותי…  RavivDrucker כֻּל כַּלְבּ בִּיגִי יוֹמוֹ ביטוי יפהפה בערבית שמתאים מאוד לרביב דרוקר ושלוחיו איתי רום שחסם אותי ע…  avishaigrinzaig KalmanLiebskind כֻּל כַּלְבּ בִּיגִי יוֹמוֹ ביטוי יפהפה בערבית שמתאים מאוד לרביב דרוקר ושלוחיו…  KalmanLiebskind כֻּל כַּלְבּ בִּיגִי יוֹמוֹ ביטוי יפהפה בערבית שמתאים מאוד לרביב דרוקר ושלוחיו איתי רום שחסם אות…  כֻּל כַּלְבּ בִּיגִי יוֹמוֹ ביטוי יפהפה בערבית שמתאים מאוד לרביב דרוקר ושלוחיו איתי רום שחסם אותי ערב החג ברוך ק…  aviadglickman א עילג יש לך בעייה עם סוגריים ב דליפמן מה עם העמדה לדין של מדליפים ומודלפים פליליים כמוך ג מה…  המסיכות הורדו העיתון הבזוי ותופר התיקים ״הארץ דה מרקר״ קובע שצריך להוציא 315 אלף איש לבלפור כדי להפיל את נתניהו ע…  AvnerHofstein uribreitman itayr2 יו איזה חכם אתה בגלל זה הרי אף אחד לא סופר אותך מקצוע הפסיכיאטרה הכריז עליך…  AvnerHofstein uribreitman itayr2 תתפלא עוד שקר גס שלך היית מת לקבל את הסכומים שקיבלתי גם מחלקה סגורה כבר לא תעזור לרפא אותך AvnerHofstein uribreitman itayr2 ממשיך לשקר כהרגלך מחלה חשוכת מרפא אצלך praklitzameret uribreitman AvnerHofstein itayr2 איתי רום ואתה שקרנים כי טענתי התקבלה והערבות קוצצה עוד מאחז עיניים וגנב דעת uribreitman AvnerHofstein itayr2 תקרא עוד חלקים שמדברים בעצם עליך  זה היה מאמר ארוך מאוד ואחר כך תספר לנו איך…  AvnerHofstein uribreitman itayr2 ועוד דבר על הופשטיין ערל הלב ערוץ 10 וגלי צה״ל נפרדו משירותיו ״הטובים״  אולי…  uribreitman AvnerHofstein itayr2 כרגיל לא קראת את כל המאמר כנראה היית עסוק בקידום אתרים🤣 AvnerHofstein uribreitman itayr2 להופשטיין המרושע והמתועב יש איזשהי מחשבה שהוא כזה חכם שכל העולם מחכה למוצא פיו…  AvnerHofstein uribreitman itayr2 תראו מי מדבר כלומניק כושל בתחפושת של נאור שהתגלגל לאתר זניח שאיש לא קורא יאלל…  uribreitman Syechimovich YaronDeckel ברייטמן כל עוד התחנה הגזענית שירתה את צרכיך סתמת את האף ואת הפה עכשיו זה…  chaimlevinson חיים לא יפה התרפסות שקופה מדי חבל רק שלא הזמנת למסיבה הדביקה והמזויפת הזו את רביב דרוקר וברק רביד KalmanLiebskind איזה מתוקים אם חיים לוינסון וקלמן ליבסקינד מתחבקים ומחליפים התנצלויות זה רק מראה איך חיבוק הדב…  itayr2 TemujinEven שום דמיון היית חלק מקמפיין מכוער זה בדיוק כפי שהתחפשת לתמים אחרי כתבת החיסול שלך ושל דרוקר ע…  itayr2 levyguy77 Liberwomen גיא הכנס גם הכנס את המתייפייף הבטלן שעובד בשירותו של דרוקר כדי לעודד את האנרכיסטים…  uribreitman itayr2 תחסום ברייטמן איש קטן וערל לב אמרתי לך כבר מי שבורח מהאמת האמת תרדוף אחריו קודם עדיף שתספ…  HShezaf itayr2 את יכולה להחכים את רום במשמעות הפתגם כי בשביל הנאור הגזען זה ״ניבולי פה״ כנראה שיש לו חור ענק בהשכלה itayr2 רום יושב משועמם בביתו מתחילת 2020 לא פרסם שום כתבה  וכל שנותר לו הוא לעבוד את אדוניו דרוקר לשמש לו ככתבל…  itayr2 גאה בכל מילה כי כל תיאור במילון האנושי לא יכול להכיל את מעלליו של רום תזכורת עליו נשלח ע״י דרוקר לעשות לי…  itayr2 levyguy77 Liberwomen אתה בהחלט ״אתם״ גזען שכל הזמן רודף את אוחנה יחד עם פייק דרוקר yakov57v itayr2 כדאי מאוד שתפנים ואו תדע אנשים כמו איתי רום וחבריו לערוץ 13 הארץ דה מרקר והעין השביעית שפעלו…  Syechimovich amitsegal YaronDeckel מה נסגר עמית פתחת קבוצת תמיכה לכל חברי תאגיד השידור על חשבונינו  מקלמן ליב…  itayr2 הדבר הכי גרוע אצל אנשים שהם מייחסים לעצמם נאורות ליברליות ושפה צחה אבל מאחורי הקלעים הם פועלים באכזריות ב…  tadmorerez48 האמת היא שאני מתבאס להתעסק עם הרפש הזה דקה לפני כיפור אבל מכיוון שכדברי מארק טווין השקר מספיק לעשות את דרכו סביב חצי עול… BarashiKinneret בוקר טוב קלמן  לפני כיפור מזמינה אותך להקדיש 3 דקות לקרוא סטטוס קצר ומופלא ואישי של  לא עיתונאי   הצום בתא נכנס ב… Liberwomen שכחת גילוי נאות את שייכת לכנופיית רביב דרוקר שמעודדת כבר שלושה חודשים הפגנות של אנרכיסטים פורעי חוק itayr2 Liberwomen זה בעיקר רצונכם הלא כן אנרכיסטים בתחפושת של עיתונאים מי שימשו דוברים בפועל של פורעי החוק בבלפ…  כנרת בראשי עונה יפה לעמית סגל שממשיך לחבק את חברו קלמן ליבסקינד  זהבה גלאון הכושלת ואחת המסיתות והממרידות שצמחו לנו פה שוב נתפסה משקרת ה״דורס״ בכלל לא התכוון לדרוס והתשקורת שוב נ…  itayr2 ואוו איתי רום הגזען והשקרן יוצא פתאום נגד כל החבר׳ה האנרכיסטים מהמחנה שלו רק תזכורת זהבה גלאון הכושלת הי…  פרופ גורמן בלי עבודה השוואתית אי אפשר להבין איך צריך להתכונן למגיפה  מעריב פרופ׳ גבריאל גורמן לשעבר מנהל יחיד…  ואל תאמינו לנדב איל רביב דרוקר אביעד גליקמן ברק רביד ושות׳ שמנסים להכשיר את ההפגנות המופקרות מתוך פוזיציה ברורה…  yakov57v avishaigrinzaig orcarmi arielschnabel orduek KalmanLiebskind amitsegal netaelbandel akivanovick…  omrimaniv יפה רק שכחת להוסיף לאריאנה מלמד אחד קוראים לו אביעד גליקמןדליפמן דובר המפגינים והפרקליטות  והוא במקרה עובד יחד איתך בערוץ 13 תמונה ששווה אלף מילים גמר חתימה טובה  avishaigrinzaig orcarmi arielschnabel orduek KalmanLiebskind amitsegal netaelbandel akivanovick…  WxDMNojkTbOikQu לא ישר ולא כפלס בסך הכל בלון של יחסי ציבור DannyHendler אגב אתה כותב שאתה מתעב צביעות וסתימת פיות אופס וזה בדיוק מה שאתה מנסה לעשות עכשיו לסתום פיות איזו צביעות DannyHendler פרופ׳ יקר ליבסקינד יכול רק לחלום להגיע להישגיי בניגוד אליו אני לא רודף פרסום  כדאי שתעשה קצת עבודת…  uribreitman ואיזה לוחם אתה ליצן ואיש קטן למען הפריבלגים והאנרכיסטים מעושרי הפנסיה התקציבית יאללה תחסום בולשבי…  uribreitman BinderZivitbind KalmanLiebskind ברייטמן פחדן ממך לקבל ציונים🤣🤣🤣🤣איש קטן וערל לב uribreitman KalmanLiebskind יאללה תחסום בולשביק סותם פיות מי שמפחד מהאמת האמת תרדוף אחריו amitsegal האובססיה שלך עם חברך הטוב קלמן ליבסקינד רק מראה שנגעו לכם במקומות הרגישים ביותר שוב קלמן רחוק מלהיות…  תיראו מופתעים קלמן ליבסקינד נתפס בשקר והוא לא השקר היחיד במאמר שלו ליבסקינד הוא הבלוף הגדול ביותר בתשקורת אחרי רב…  avishaigrinzaig לעומת זאת לא סומך עליך שתעשה חשבון נפש מייאש כבר לעולם לא תהיה עיתונאי אלא חנפן מקצועי חבילת הפנסיה התקציבית של אמיר השכל האנרכיסט מבלפור – 15 מיליון שקל אופן החישוב שכרו של תת אלוף עומד על כ56 אלף ש…  yakov57v BarakRavid ג ז ע ן yakov57v ג ז ע ן itayr2 שימו למי לועג איתי רום באופן קבוע לאמיר אוחנה לדודי אמסלם למיקי זוהר ולמירי רגב איזה גזען מכוער ומלוכלך AviBenayahu עוד יסופר על אחד חלקלק ומאעכר ששמו אבי בניהו על חלקו בפרשת מנדלבליטאשכנזי הקשרים שלו עם ״עיתונאים…  avishaigrinzaig וכדאי גם לציין שאביעד גרינצייג ואבישי גליקמן שיבוש מכוון בשירות יחצ״נות לאבי ניסנקורן יו״ר עד ה…  avishaigrinzaig כדאי לציין שגם הדלפה פלילית של מנדלבליט ונוספים בפרקליטות לאבישי גרינצייג ואחרים היא עבירה פלילית אשר דינה עד 3 שנות מאסר ברק רביד המתנשא הצבוע והגזען מכנה את פתחי ״טמבל״ בשביל כנופיית רבידדרוקרליבסקינד פתחי הוא הרי בכלל לא עיתונאי ו…  avishaigrinzaig סיפור קטן על חשבון הנפש שצריך לעשות גרינצייג במשך יומיים רצופים הוא הטריד צדדים שלישיים כדי שישכנ…  itayr2 א שכחת להוסיף שפתחי הוא לא עיתונאי ולכן לפי סולם פייק דרוקר המתנשא שאותו אתה משרת אסור לו להביע דעה ב ש…  הללויה בן כספית חסם אותי לאחר שנגעתי לו בנקודות מאוד רגישות השיחות שניהל עם אישתו של גבי אשכנזי בפרשת מנדלבליטאש…  YuvalYoaz פריבלג מתנשא דנה וייס הבלתי נסבלת בסיקור אוהד ליו״ר ועד העובדים של מנדלבליט אבי ניסנקורן שום שאלה על הפנסיות התקציביות שניסנקו…  amitsegal היי עמית התחקירים של יואב יצחק על ניגודי העניינים של שופטים שמים בכיס הקטן את ״תחקיריו״ של קלמן על שני…  akivanovick naamasik danizaken נוביק יפה שאתה עוקב באדיקות תזכורת נוביק הפריבלג הוא שילוב קטלני בין ליצנות וגזענות naamasik danizaken הלו סיקולר הוכחה מס׳ 2 לכך שאבישי גרינצייג עבר על כללי אתיקה בסיסיים אחרי שהתוודה שהוא ״שרו…  naamasik danizaken הלו סיקולר הוכחה מס׳ 1 שאבישי גרינצייג עבר על כללי אתיקה בסיסיים ״שרוף״ על קלמן ובכל זאת כת…  אבישי גרינצייג התוודה שהוא ״מאזין שרוף״ של קלמןליברמן שליבסקינד הוא המודל לחיקוי שלו ושקלמן הוא העיתונאי מס׳ 1  …  roysharon11 KalmanLiebskind עוד פאתט ופריבלג מחבורת ״אנשי התקשורת״ של תאגיד השידור על חשבונינו שמתחנחן ומתחנף כדי…  ronen5956 NadavEyal צא ולמד נבעטתי מגלובס  ואני מודה להם מאוד על הבעיטה  בגלל שכנופיית דמויית נדב איילים טהרנ…  BenCaspit אתה אפילו לא מסוגל לדייק בשמות יקירי מה עם עשרות השיחות שלך עם אישתו של גבי אשכנזי בפרשת הרפז והטיסות…  NadavEyal KalmanLiebskind אתה גם משוכנע שאתה חכם נכוןמסוגל לענות תשובות מקצועיות או שזה קשה לירום הודו לרדת מה…  NadavEyal עיתונאים מזוייפים סליחה מה זו ההתנשאות והגזענות של להחליט מי זה עיתונאי או לא מי שטעה בטראמפ לעג וז…  NadavEyal KalmanLiebskind תראו מי מדבר ״אינטלקטואל״ השמאל האנרכיסטי זה ששיווק את ההפגנות של פורעי החוק בבלפור…  קלמן ליבסקינד  הגיע הזמן ללמוד מתחקירן רציני  יואב יצחק  העיתונאי והתחקירן מס׳ 1 בישראל ה״חיסרון״ היחיד של יצחק…  asaflib בום פתיח של שמאלנים איזו הפתעה אדירה ליברמן מהשמאל מחבק את ליבסקינד למעשה הוא מחבק אותו גם בתוכנית…  chaimlevinson לא ביקשתי ממך לפנות זמן למשפחה במקום לציוצים קבל את המלצתי החמה השנאה החולנית של אולפן שישי מחדל יום הכיפורים איך העורך רון ירון עד תביעה נגד נתניהו לא מתבייש להשוות ולקבוע נח…  YonatanKit אוקיי אז עדיף להביא את קלמן ליבסקינד הלא כן שתהיה מקהלה אחידה ואתה תמחא כף הלא כן תגיד יונתן מה…  YonatanKit יונתן הגם אתה ממחבקי השמאל לקלמן מה קרה גלובס פלוס גרינצייג התגייס למענו זוכר איך תמכת בלהט בתאגיד…  uribreitman KalmanLiebskind בום על התביעה נגד כנרת בראשי שנזרקת מכל המדרגות אתה רוצה לספר תועמלן בשקל הגיע הזמ…  Idan49531053 RavivDrucker amitsegal תלמד עברית ותחזור עוד לקקן חצר של דרוקר BarakRavid KalmanLiebskind כשברק רביד מחבק את ליבסקינד מה נותר להגיד מן מצא את מינו שני אגואים מפלצתיים ופריבלגיים elizipori RavivDrucker amitsegal רביב דרוקר עיתונאי לא נכון תזכורת את שלוש התוכניות שלו על תיק 4000 ערכה למעשה הפרקליטות עם חשד… RavivDrucker amitsegal רביב דרוקר עיתונאי לא נכון תזכורת את שלוש התוכניות שלו על תיק 4000 ערכה למעשה הפרקליטו…  משה כהן דובר משרד המשפטים השקרן והנכלולי על חשבונינו מחבק את קלמן ליבסקינד שוב ברור ונהיר לציבור שליבסקינד הפך ל…  VBbZCYJbsobJtIJ יופי בוט שלום ולא להתראות VBbZCYJbsobJtIJ אז למה אתה עוקב בוט דוחה שכמותך הצעה לדני קושמרו ורון ירון עורך אולפן שישי ועד תביעה נגד נתניהו בפעם הבאה תקליטו את התכנית לפני שבת ותזמינו כ״פרש…  elizipori KalmanLiebskind את התגובה המלאה להבליו של ליבסקינד אפרסם בשבוע הבא ב״מעריב״ והיו בטוחים שמר ליבסקינד יופתע מכמה גילויים וע… KalmanLiebskind את התגובה המלאה להבליו של ליבסקינד אפרסם בשבוע הבא ב״מעריב״ והיו בטוחים שמר ליבסקינד יופתע מכמה גי…  BiniAshcknasy amitsegal ליצן שוב קפצת התפקיד הראשי שלך בדה מרקר לקקן החצר וזה עוד בלשון המעטה ״מפאת כבודך״ chaimbiznas avishaigrinzaig אם אתה מרגיש רע אז צא מהטוויטר חבל על הבריאות ותזכור תמיד האנשים הכי מיופיפים כלפי…  eraneldor RoeyNevo כן בטח רואים לך את האף הארוך RoeyNevo על ראש הגנב בוער הכובע elizipori amitsegal היי עמית מי שמך ושם את ליבסקינד חברך להחליט מי עיתונאי ומי לא תנו לציבור לשפוט ותפסיקו להתנשא משקלם של ה״סרוג… amitsegal היי עמית מי שמך ושם את ליבסקינד חברך להחליט מי עיתונאי ומי לא תנו לציבור לשפוט ותפסיקו להתנשא משקלם…  RoeyNevo ולכן אתה עוקב אחריי מעניין ארז תדמור על גידופי קלמן בין היתר עליי בשבוע הבא תפורסם גם תגובתי המלאה להבליו של ליבסקינד ניכר שהאיש פלוס משרת…  avishaigrinzaig במיוחד בשבילך עוד ציוץ אופציונלי הלו סיקולר עורכת גלובס גרינצייג כתב השבוע שנתניהו נכנע ויחתום…  naamasik danizaken הלו סיקולר גרינצייג כתב השבוע שנתניהו נכנע וחתם על הסדר ניגוד העניינים שלו בעיה כי נתניהו ע…  naamasik danizaken הלו סיקולר גרינצייג משתולל בעקבות הציוץ את מבינה שעל ראש הגנב בוער הכובע שגלובס הפך למועדו…  chaimbiznas avishaigrinzaig אז למה אתה עוקב אחריי מזוכיזם avishaigrinzaig היה בטוח מר גרינצייג מעלליך מאחורי הקלעים עוד מתגמדים לעומת האמת הכואבת שכה מציקה לך כעת על ראש…  avishaigrinzaig YaaraZered נו רק מראה שכבר אז היה פוליטיקאי ולמרבה הצער גם נשאר כך avishaigrinzaig YaaraZered גרינצייג משרתם של מנדלבליט וליבסקינד איפה הגילוי המלא avishaigrinzaig YinonMagal גרינצייג כתבלב החצר של מנדלבליט וליבסקינד כשפרקליטות המדינה מחמיאה לקלמן ליבסקינד מהמקפצה  עכשיו הכל ברור  avishaigrinzaig ויש בעיה ש״עיתונאים״ כמו גרינצייג כותבים מאמר שלם מלוקק על ליבסקינד בלי לתת גילוי נאות שהוא חבר של…  droriko824 Bicherit itayr2 זה בדיוק איתי רום והשמאל האנרכיסטי מחבקים כשנוח להם מחסלים כשמתאים להם בנט מחרים א…  יערה זרד חושפת את הצביעות והטהרנות של קלמן ליבסקינד  תגובתו של גרינצייג ההבהרה לא היתה על דעתי ובהסכמתי naamasik danizaken לידיעת הטהרנית סיקולר אבישי גרינצייג כתב מאמר מתחנף ומלוקק לקלמן ליבסקינד בלי לתת גילוי נאות…  tamarishshalom RavivDrucker newsisrael13 א אז גמזו הוא הפעם המדליף של פייק דרוקר ב פייק דרוקר נוטה  בדרך כלל…  akivanovick בתמונה פריבלגים אבי ניסנקורן הוא יו״ר ועד העובדים של מנדלבליט ניסנקורן הוא גם יו״ר ועד האנרכיסטים מבלפור וניסנקורן הוא גם יו״ר וע…  aviadglickman העילג אביעד דליפמן בפעולת שירות לניסנקורן itayr2 avishaigrinzaig אבישי גרינצייג הוא עבד נרצע של מנדלבליט וליבסקינד חסר גילוי מלא איתי רום הוא עבד עבד נר…  לא עושה חשבון לקלמן ליבסקינד חגי סגל ועקיבא נוביק הם רוצים לתת פרס למנדלבליט הם לא רוצים שהאמת תיחשף במלואה דוו…  א כל פעם שמבקרים את עיתונאי הציונית הדתית אנחנו מקבלים עוד הוכחה שאתם פועלים כקליקה שמגנה על חבריה בדיוק כמו בשמאל…  elizipori amitsegal א אבישי גרינצייג הוא האחרון שיכול לדבר על דף מסרים האיש הרי בעצמו הוא דף מסרים מהלך של מנדלבליט ולא רק שלו ב… amitsegal א אבישי גרינצייג הוא האחרון שיכול לדבר על דף מסרים האיש הרי בעצמו הוא דף מסרים מהלך של מנדלבליט ולא ר…  tadmorerez48 כשמדובר בפוליטיקאים כולם מבינים שהתנהלותם אינה עניינית נטו והיא מושפעת משיקולים אישייםזרים משום מה כמה מאנשי התקשורת ש… netaelbandel הפוך גוטה הפוך כפי שאתה יודע היטב פילבר הוא העד הכי בעייתי מבחינתם אבל משום מה לא טרחת לכתוב מילה ו…  ברוך קרא השקרן סותם הפיות ומשרתו של מנדלבליט מלהג על שקרים בכותרת של וואלה כמה צביעות וכמה התחסדות צריך לגייס קר…  BoazGolan לא הפתיע אותי  אמש פניתי ליועמ״ש מנדלבליט וביקשתי לראיין אותו בתכניתי ״האולפן הפתוח״ בערוץ 20 ראיון מוקלט או בשידור חי  ב… יוזמה של אילת שקד ונפתלי בנט  aviadglickman עילג אתה מחליף את משה כהן הדובר הנכלולי של משרד המשפטים כי אחד משניכם מיותר RavivDrucker איך אתה יודע מנדלבליט הדליף לך ניסנקורן הדליף לך עיתונאי אתה לא תועמלן בהחלט כן שנאתך לנתניהו כב…  akivanovick כתבתי לך כבר אתה שילוב קטלני בין ליצנות וגזענות בסך הכל אתה עוד פריבלג חסר כישורים שהשתלב בתשקורת ומ…  מנדלבליט נכנע לקומץ מפגינים אנרכיסטים ליד ביתו והגיש כתב אישום תפור נגד נתניהו מנדלבליט נכנע לקומץ מפגינים אנרכיסט…  אבי רצון בשיחה עם כנרת בראשי ועימי בתוכניתו בגלי ישראל ברוך קרא סירב להתראיין כי הציב תנאים מסויימים  הקשורים לכם…  BarashiKinneret בוקר טוב ברוך קרא  שמעתי שפנו אליך מרדיו גלי ישראל וביקשו את התייחסותך לאילן ישועה ולהדלפות   עוד שמעתי שהתנת את זה… haggaisegal OriginalMosheC אם משה כהן על חשבונינו מחמיא לחגי סגל עם סיסמאות ה״לחם חוקינו״  זו רק הוכחה מצויינת…  פסוקו של יום 2 יועמ״ש מושחת מנדלבליט ויו״ר ועד העובדים שלו ומשרד היח״צ שלו ניסנקורן התחברו לחבורת אנרכיסטים מ…  aviadglickman עילג בעיניי זה מטורף שלא שידרת היום את המסמך שחושף את החברים שלך פייק דרוקר ופייק ברוך קרא היי הע…  פסוקו של יום 1 אבישי גרינצייג אחד מדובריו של מנדלביט מחלק ציונים על פייק ניוז לאחרים ואופס גרינצייג הטהרן נתפ…  RavivDrucker ואני גאה להגיד לך את מה שאתה בוודאי יודע שנתפסת על חם בהדלפות פליליות רק מעניין איך מנדלבליט יחלץ א…  חגי סגל מיתמם רק מזכיר לו כתבה של יהודה יפרח לפני ההחלטה על כתב האישום נגד נתניהו ב״מקור ראשון״ שהיתה העתק הדבק לד…  haggaisegal העיתון שלך שירת את מנדלבליט עוד לפני הגשת כתב האישום וכל השאר זה קצף על פני המים ותירוצים מגוחכים מס…  akivanovick מגוחך שאתה מכנה את עצמך ״עיתונאי״ akivanovick אתה שילוב קטלני בין גזען לליצן AmirLevi81 avishaigrinzaig אמיר זה הטהרן והחנפן והצבוע גרינצייג נתפס בקלונו ובחפיפניקיות שלו ועוד מעז להטיף לאחרים מנדלבליט מצפצף על בג״ץ אחרי שביקש דחייה בת יומיים לחקירת ההדלפות לרביב דרוקר עפ״י בקשת אסתר חיות מיום שני להיום…  ronenbergen ומה הפוזיציה שלך אנרכיסט הגיע הזמן לספר לציבור את הצנזורה של שוקן אתה הרי דוגל בשקיפות הלא כן כפי שחשפתי אין ספור פעמים ב4 השנים האחרונות החקירות המזוהמות והריקבון והשחיתות של הפרקליטות עם התשקורת רק מתחילים…  aviadglickman עילג לא נמאס לך להתחנף לדרוקר הפצצה האמיתית היא שנתפסתם על חם היום וצריך להעמיד לדין את כל תופרי ה…  26112018 דרוקר וקרא משדרים הדלפות פליליות מאילן ישועה 2822019 מנדלבליט מחליט על כתבי אישום נגד נתניהו בכפוף…  1 מנדלבליט והפרקליטות ידעו על ההדלפה הפלילית לרביב דרוקר וברוך קרא לפני ההחלטה על הגשת כתב אישום נגד נתניהו  ידעו…  ChezkyAisentark avishaigrinzaig צא ולמד המסמך הוגש לבית המשפט הוא לא בחזקתו הבלעדית של גרינצייג צא מהלופ השקרי ChezkyAisentark avishaigrinzaig גרינצייג לא חשף דבר אלו מסמכים שהוגשו לבית המשפט גרינצייג מתמקד בעיקר בלשרת את…  לא להאמין כך בחשו רביב דרוקר וברוך קרא יחד עם אילן ישועה בחקירות נתניהו עוד לפני ההחלטה להגיש כתבי אישום  המדליף הפלילי מס 1 – מנדלבליט 1 מפברואר 2016 ועד אפריל 2020 נפגש מנדלבליט 99 פעם עם אנשי תקשורת אבל לא ציי…  חגי סגל עורך מקור ראשון עלה היום אצל ארז תדמור בגלי ישראל להגיב על דבריי ואחרים על תדרוכי מנדלבליט ועיסקת הטיעון…  זו ״הרמה״ של דובר משרד המשפטים משה כהן שמרוויח עשרות אלפי ש׳ על חשבונינו ובמקום לשרת את הציבור הוא משרת עבריינים כ…  OriginalMosheC תשמע יש לך דקה להתנצל עם הקמפיין השקרי הזה וד״ל OriginalMosheC תגיד אתה דובר או מחסל חשבונות אם אמרת שריקלין לא הוזמן אז תגיד מי כן הוזמן ותפסיק לשקר בלי הפסקה…  OriginalMosheC אתה שקרן עז מצח על חשבונינו שפועל נגד עיתונאים שלא מיישרים קו טינפת עליי מאחורי הקלעים במטרה לסתום…  BiniAshcknasy chaimlevinson קיבלת אתה לא רוצה לגלות אותה כי אתה לא מסוגל לפתוח דוחות ״עיתונאים אמיתים״ זה כאלו…  BiniAshcknasy chaimlevinson תנסה לפתוח את הדוחות הכספיים של הממשלה ואז נדבר לא בטוח שתבין אותם  ועד אז ד״ש לסגן…  פסוקו של יום 3 מנדלבליט מודיע למעשה לאוחנה רק מה שאני קובע רק מה שאני מייעץ  זה חוקי כל השאר כולל ייעוץ חיצ…  פסוקו של יום 2 היועץדיקטטור המשפטי לממשלה מתרה באמיר אוחנה רק אני קובע ואין בילתי  אין ייעוץ משפטי חיצוני מע…  BiniAshcknasy chaimlevinson קפץ לפה עוד חנפן שלא יודע בכלל איך נראה דוח כספי ולא מבדיל בין רווח גולמי וגולם רווחי chaimlevinson א מוכן לבוא להרצאה ב״הארץ״ על העניין ב לא ״רוגז״ בר אלי פשוט הפך ליחצ״ן של אורית פרקש הכהן תמורת…  chaimlevinson זה בדיוק לב הפופוליזם של סגן המו״לניק אתה מודד הכנסות על פני אורך החיים של מאגרי הגז ולא בתחילתם ש…  chaimlevinson תשובה יפה של פוליטיקאי כמו המסוקרים שלך חיים אתה יודע שמרוב חריפות בר אלי והאנרכיסטים של דה מרקר י…  chaimlevinson חיים יקר יפה שאתה מקפיד לעקוב מודאג תגיד אגב מה אתה אומר על ההדחה בדה מרקר סגן המו״לניק שלך שוב דורס את כולם פסוקו של יום 1 אבישי גרינצייג במופע חנופה מביך לקלמן ליבסקינד חברו לקליקה בבוקר הוא התחנף למנדלבליט בסך הכל ע…  rothmar הציניות וההתנשאות האופיינית באין תשובות טובות זה מה שנותר לך חבל ומצער rothmar לדעתך טובות ולדעתי ממש לא כיוון שהן משרתות אותך הרבה יותר מאשר את הציבור שהיא פונה אליו ויש לי שפע של דוג…  rothmar שאלתי מי מימן תשמע שמחה זכותך להתפרנס ולהתפרסם רק אל תעטפו את עצמכם בהילה של קדושים מעונים שפועלים ר…  rothmar אתה מתחמק שמחה לא יפה מי הגיש את עתירת ההוצאות של ליאת בן ארי זה הרי ממש לא ברור  מוכן לענות בצורה עני…  rothmar אתה עובד בעיקר בשביל עצמך ובשביל פרסומך ופרנסתך לגיטימי עד שהעניינים בין תפקידך בתנועה למשילות ודמוקרטיה…  rothmar מספיק עם ההתנשאות הזו שיודעת מי ״ישר״ או לא ומי ״משמיץ״ במיוחד מהקליקה שלך תן לציבור לשפוט ותתחיל לספק ג…  יועצי רה״מ עופר גולן וטופז לוק הגישו תביעה דיבה נגד אהוד ברק אורי משגב ורוית נאור זאת לאור העובדה שהאשימו אותם וי…  תיראו מופתעים א אילת שקד מתווכת למנדלבליט את שמעון ריקלין מנדלבליט מנסה לתווך לציבור שקרים ב משה כהן הדובר הנ…  rothmar א יפה שנגעתי לליבו של מר רוטמן זה אומר שעליתי על נקודה רגישה ב גרינצייג הוא אכן משרת הפרקליטות ובצורה…  aviadglickman AmirOhana עילג איזו בדיחה עבשה זה התדרוך שקיבלת ממנדלבליט די עלוב תחזור אליו בבקשה haggaisegal MakorRishon אל תצחיק אותנו חגי כי כל מי שקרא את הראיון של מנדלבליט ליהודה יפרח בערב החג הבין זאת די…  שוב ניסיון מחטף כדי לאשר את ההיתר לליאת בן ארי בראש העין ישי אדוארד יור וועדת המישנה לתכנון ולבנייה הזמין למחר י…  netaelbandel קיבלת תדרוך ממנדלבליט איכשהוא הוא תמיד יוצא אצלך נקי ברייקינג אבישי גרינצייג קיבל הדלפה מארגון הפשע בפרקליטות ומיד שירת אותו וכתב ש״נתניהו נכנע״ התברר שהדברים קצת מור…  lulilulilit מי שמצייצת מחדש את יוסי דורפמן נו רחמיי אמיר אוחנה בתגובה להודעת כחול לבן בה איימו לפוצץ את ישיבת קבינט הקורונה ״בנושא המשפטי יש מונרכיה של היועץ המשפטי ל…  oferish1 ביוש אולי תחזור עם פחות זוהמה בין השיניים oferish1 מה קרה שופריקו רופא השיניים שלך לא אמר לך לשטוף את הפה מהזוהמה והשקרים שלך סיסמאות ליבסקינד 5 אני חש כאזרח זנוח לגורלי בגלל נתניהו גורלו של ליבסקינד דווקא שפר עליו הוא עובד בתאגיד ה…  סיסמאות ליבסקינד 4 הכלכלה מתמודדת עם מכה אנושה כל הכלכלות בעולם מתמודדות עם מכה אנושה ומה שרלוונטי אלו ההשו…  הסיסמאות של ליבסקינד 3 מאות אלפים קמים מדי בוקר לעוד יום שאין בו עבודה ופרנסה 2234 בלתי מועסקים 1828 אלף ב…  הסיסמאות של ליבסקינד 2 ״בתיה״ח באיספיקה 1 מנהלי בתי חולים רבים מודים שהם רחוקים מאיספיקה 2 מערכת הבריאו…  סיסמאות קלמן ליבסקינד 1 ישראל מגרדת תחתית הטבלה העולמית בקורונה השוואה נכונה היא ל36 מדינות הOECD ישראל במ…  asaflib avishaigrinzaig במקום לספר בדיחות קרש אולי תתחיל לדבר קצת על שחיתות מערכת המשפט בתאגיד השידור על חשבונינ…  yakov57v ג ז ע ן YinonMagal avishaigrinzaig למה אתה מתערב תזכורת שוגר דדי המכוער שלך יחד עם בן כספית רוצה להגיב על זה kannnews akivanovick KalmanLiebskind ErelSegal עקיבא נוביק המאיים בתביעות האם תודרכת על ידי מנדלבליט על עסקת…  האם מנדלבליט תדרך את ליבסקינד שלא יהיה ספק האיש שרוצה יותר מכל אחד אחר בעיסקת טיעון עם נתניהו הוא מנדלבליט כי הקר… </t>
+  </si>
+  <si>
+    <t>talialin תשמעי את הגרסא של עופר לוי ותחזרי אליי yanivbiton99 חיים שלי בלב שלא ברור אם מתפוצץ מצחוק או מאהבה יניבבבבב  מה יהיה הציוץ הראשון שהכי יעצבן אתכם כשיחזרו מהצום Why am I tweeting on Yom Kippur while I’m fasting Oh I had corona that’s why People stop being so boring I grew up in the heart of the peace camp people admired Rabin and his legacy Symbols…  אני צמה וגם בטוויטר כי מותר לי הייתי חולה בקורונה בגללכם איך שיוצא כיפור אבישי בן חיים יחגוג ויספר לישראל השנייה שבזמן שהיא צמה ישראל הראשונה צחקה עליה עם הסרטון של הרקדנית בטן Benguennak MoranT555 אני מבינה שאני צריכה להיות מהאמירויות כדי שתקבלי אותי אבל תנסי מורן  MoranT555 מצויין חוש הומור זו הדרך הבטוחה לשלום  qumranqu היא חסמה אותי אני אשמח MoranT555 את מסרטון אחד הנחת עליי אלף דברים ותקפת אותי אישית בלי שיש לך מושג עליי חצי דבר אז אני בטוחה שכמו שאת פה…  לא היה דייט אתמול טוב שלא שלחתם את המשטרה לדי אם וגם אם היה דייט דייטים זה הדבר הכי משעמם בעולם MoranT555 מורן בואי נדבר רק ככה עושים שלום מבטיחה לך שאת תופתעי BeriRozenberg איזה דייט ואיזה בטיח אבל תודה נשמה  בקיצור לא יודעת מי זו מורן ולמה ככה היא מדברת עליי כי היא חסמה אותי אבל תיכנסו תראו למה ככה קשה לה עם הערבית שלי🤣  There’s so much hate online When you criticize your own government When you’re trying to free your own voice and…  Easternprince אני גם מדברת אשכנזית מקרטעת שוטף aptlyengineerd She just reached out to me on Facebook today  Amazing story  AmitTali אין לי סטנד אפ בלעדיה ErmanHagai ייבוא אישי מאיראן הדודה הזאת כפרה עליה bilalyousef3 JaljuliMaisam תורגם כבר בטיקטוק ובאינסטגרם תודה דודה שלי התקשרה עכשיו כועסת עליי שאני ברשת ״מנסה לתקן את העולם בכל השפות במקום למצוא חבר״ וכמעט ניתקה לי בפרצוף  א…  rotemdavid אממממממ את יודעת שזה שלט של הצבא אז מה הקשר  AAvishay antoineeliaroni יש בחור בטיקטוק ובאינסטגרם שתרגם את כל הסרטון בוא תראה noamjoon AlonaMiryam חיים שלי  AlonaMiryam  ymaabi yorshay חחחחחחחחחח rafarefaella pL7D1FqaohiX3fh חחחח כן כמה קשה זה יכול להיות נועם פאקינג שוסטר ymaabi yorshay לא הם היו מוציאים אותי מאז כיתה י לכל מיני ״מבחנים״ ובגדנע מזרחנים היו עושים לי שיחות אישיות שאבי…  YuniFinehauzen 1Ycmeired eZI70fpogLYQlBU אני רק המזכירה שלו נועם שוסטר לא פנוי כרגע CHE66196805 יאללה מפרסמת עוד מעט עוד אחד justcohen13 🤣🤣🤣🤣🤣 AmodayIlan קדימה ללמוד לגבי החן זה גנים איראנים אין מה לעשות עם זה זו פצצה מתקתקת AzoulayHana חביבתי  רגע אחד סודנים הם סרטן שצריך לגרש רגע שני כי זה מסתדר עם טראמפ מצטלמים עם דגל ומעלים לעמוד בערבית כאילו לא רצינו לגרש אותם לפני שניה אין דבר שאני גאה בו יותר מאשר איך ששמרתי על הערבית שלי למטרות אחרות ולא נתתי אותה לפרופגנדה הסברתית ומודיעינית אני…  לא כי זה עדיף חברה של גברים סוחרי נשק 🤦‍🤦‍🤦‍🤦‍🤦‍ 🤮🤮🤮🤮🤮 שלום עאלק  לכל הימנים שמקללים אותי בגלל הסרטון כי אני יודעת ערבית יותר טובה ממה שאילפו אותנו לדעת רק בשביל מודיעין תאמינו לי…  kaduregelshefel במקום לתלות סטיקרים תלמדו ערבית 🤣🤣 kaduregelshefel יו זה אתם המפורסמים מהסטיקרים בכל רחבי העיר די נו תלמדו בעצם ערבית כדי שתוכלו להבין את התגובות על הסרטון אחת מנסה להסביר שאבא שלי אשכנזי שמאלני השני מאיים לקפ…  טוב הסרטון יצא משליטתי  לצערי צפיתי בחדשות כלומר הייתי בטלפון והחדשות היו ברקע דיברו שסין ניצחה את הקורונה בזכות לכידות חברתית אז חחחח ביייי היה נעים סהכ ביי Eldude86 מחשבה שהייתה כבר לכל אשה לפני 100 ימיםםםםםםםםםםם והתשובה היא כן לגמרי OmerLubi שטפו כפרה על יוסי YossiZabari   Rereshef היסטוריה טראמפ הודיע שיעביר את מכונת הכביסה של הבית הלבן לירושלים Here’s the original text from the case “when do you arrive to yitzhar the settlement”  Medic I wasn’t allowed i…  נהייתי מורה לערבית כאילו חחחח תלמדו ערבית כי מתחיל להימאס לייייייי  איזה יפה הוא משקר אמאלה Netanyahu in a special announcement “complete lockdown from tomorrow at least until I run out of clean underwear” נתניהו ההחלטה היא על סגר כללי ממחר עד שכבר לא יישארו לי תחתונים נקיים בארון NoaAngel1 מעולה שיעורים בחינם חחחחחח رسالة من بنت يهودية بلعربي  ellisshuman Too late  קרובת משפחה עם שני ילדים קטנים בבית היא מחנכת ומורה בן זוגה חולה קורונה בחדר נפרד בבידוד היא שלחה לי תמונה של שנ…  תליית כביסה המונית הערב ב2015 במרפסות די די נו תלמדו ערבית אני לא יכולה להיות לבד עם עמודי ההסברה שעכשיו התחילו להשתמש ביופי הנשי שלנו כדי ליפייף ולשכנע…  HarvardWCFIA Our International Comedy Night looks a little different this year Join us on October 6 at 4pm for a comedyinfused conve… mohsaud08 די נו יש לנו מספיק צרות גם ככה A Jewish settler needs a Corona test A professional medic who happens to be Palestinian tries to enter that settl…  Did you know your taxes clean Netanyahu’s underwear  אוקיי קראתי חדשות הבוקר והדבר ההגיוני והיציב ביותר לעשות כרגע זה לעבור לירוחם YounisRaeda aljehaniya اليهود ما بفهموا عربي بالمرة Palestinians this is your time to shine offer your 72 years of experience to Israelis on how to live under lockdown אחרי אתגר המטאטא מסתמן אתגר חדש במזרח ירושלים איך מוציאים את מג״ב מהבית Levyninho HapoelJLMfc מרגש גדלתי בבית של חולה כדורגל אם רציתי לראות את אבא הייתי חייבת לבוא לטדי אין אהבה כזאת כמו האמונה של המכורים הגדולים…  בארה״ב בשיא המגיפה בשיאאאאאא המגיפה אנשים יצאו בהמונים לרחובות מהברך שחנקה אותם ואת ג׳ורג׳ פלויד עוד לא נולדה המג…  בעקבות ההמלצות הרבות סוף סוף סיימתי לצפות בדילמה החברתית בנטפליקס לא יודעת מה דעתי על זה בעיקר כי הייתי רוב הזמן בטלפון When you try to watch the social dilemma and realize you’ve been on your phone the entire time 🤦‍ ציוץ חשוב  ערב טוב קיסריה וכו   NewProfilePic  SuleimanMas1 בוא נגיד שאם הוא לא היה יהודי זה היה נגמר קצת אחרת לשתף איתכם פה מה שאמרתי הערב על הבמה חוץ מערב טוב קיסריה  dantoren נועם שוסטר אליאסי עלתה לנאום והדבר הראשון שאמרה היה ערב טוב קיסריה  צודקת נאום חזק אני אחריה  חחחחחחחחח מי היועצים שלהם מייייייי  אני בזמני החופשי חוקרת על בתי כנסת באיראן ממש לא אבל יש מצב שהשמאלי זה בית כנסת דוד באספהאן מולו יש מסגד ושניהם…  yanivbiton99 gadler20 תודה שהזכרת לנו לבדוק מה עם גיא 🤣 AbbyYanow Thanks Working on it  MazJobrani The more I read about RBG the more inspired I become Sometimes people get upset at me taking a political stand and they t… יש לנו גיבורות צדק שנספיד ככה כשהן יילכו נשים שהלכו עם המצפון שלהן ונלחמו בכוחות רוע מטורפים אני לא יודעת אם אני…  irin I asked When the time comes what would you like to be remembered for Someone who used whatever talent she had to do her work… CMSImpact As we recover from the jawdropping display of talent at the 2020 LaughterLab we wanted to end this week with a huge shout… אין לתאר את ההתרגשות  AlonaMiryam חביבתי Jeremywade הם ככ סנובים ולא מתקרבים שלא יצא לי לבחון את העניין אוקיי מכיוון שכבר הבנתם שאני גבוהה ורווקה לפי הדיאם שלי אני מבינה שהשלב הבא זה פשוט להודות אני אלרגית לחתולים ככ…  OferZalzberg לא שוכחת לך את השנים היפות בזירה הבינלאומית יא מבריק  AlonMizrahi כפרה עליך אתה naamalazimi חיים שלי החיפאית היפה הזו  בחג לפני 3 שנים פיטרו אותי הבוסים שלי באו״ם שמום בלי מושג מה הלאה קמתי והתחלתי להופיע בעברית ערבית ואנגלית 3 שני…  mohsaud08 עוד פעם אתה רוצה שיזרקו עליך כסאות Everyone is talking about this day being a historical moment shifting power dynamics in our region while completely…  galithoogi לא מאמינה שנתנו לסעודים להפיק ולהוציא סדרה ככ סקסית על העבר שלכם בזמן שיא צפיות ברמאדאן במקום שאתתתתתת תכתבי אותהההההההה מישהו יכול להסביר לי איך ציוץ על גובה וגויים קיבל אותי למועדון הטוויטר  אני צעירה אני יודעת שרוב הצעירים החלימו אני בוהה בשמות האלה כבר כמה דקות ובוכה בוכה עליהם ועלינו נזכרת בריאות ה…  Hahahahhahahahahahahaha  rani96793311 sharonshri אני מאוהבת 8sBdY3yXodKJRFM לא הבנתי כלום אבל תודה RutziShmulik לגמרייייייייי NeuOmer לפחות רואים הכל בהופעות אז שכולם יילכו לחפש ErikLensher5 Chmeika כן אבל גוי חחח 🤪 rani96793311 טוב די להשוויץ שאתם מהממים הבנו 🤪 rani96793311 sharonshri איזה מתוקים אתם תפרגנו בתמונה כדי לעודד עוד להצטרף למועדון האנחנו בטוחים בעצמנו שלכם  בראשית ברא ה את השמיים ואת הארץ ואז שכח לברוא גברים שלא נבהלים מאשה בגובה 180  יש טיסות להולנד  סבתא אמרה לי אחרי גיל 30 אפשר גם גוי SuleimanMas1 זה הבית שלי  לא יודעים עדיין מה קרה بيتي   נזכרתי הבוקר שלפני חצי שנה הייתי חולה מס 3555 והיום יש כמוני כל יום חחחחחחחחחחחחחחח משתנה של מדינה Blessings to our new friends from the UAE Shalom The chosen people would love to welcome you to the number 1 coun…  הוא אפילו מוכן שנגיע למקום הראשון בהדבקות כדי שיהיה סגר כדי שייפסקו ההפגנות גם את זה הוא יעשה כדי לשמור על התחת שלו שטן naamalazimi לא זזה ממך  כשאת קמה עייפה קוראת חדשות מבינה כמה יש לך להספיק כדי לתקן את מה שמסביבך ולא יודעת מאיפה להתחיל תזכרי שאת אשה בעו…  barak1cohen אין כמוך ברק ZivYekutieli RaninBoulos בדיוק תמיכה במעיין אדם גם לי יש טראומות מערבים במיוחד מ RaninBoulos  אני בביביסי   NoyOrly تظاهرات ضد نتانیاهو در بیت المقدس هر هفته ده ها هزار که از دست فسادش خسته شدند مقابل خانه نخست وزیر و سراسر کشور  اعتراض میکن… My mother was born in Iran I was born in Jerusalem Bibi has been in power for too many years of my life destroye…  iPhilSomething i will never understand anyone thats the same after this year אם הוא היה מהאמירויות זה לא היה קורה איכס טפו על הגועל  כל הנשים שמפחדות להתלונן על כל המקרים היומיומיים הגדולים הקטנים והחוזרים ובכולם צריך לטפל אי אפשר לשתוק נגמר הזמ…  יש מאחורינו תמיכה וגברים שפויים שנמאס להם שאתם מחריבים את החיים והביטחון של כולנו לכו לטפל בעצמכם ותעזבו אותנו כי…  סוטים מטרידנים דוחים אם אתם קוראים את זה אנחנו לא נחכה יותר שתעמדו בתורים לעשות את הזוועות הגדולות ביותר אנחנו נת…  לעשות באותו רגע ואני ורק אני עניינתי אותו הוא מייד הלך למצלמות מייד עשה חישובים כל העיניים והפוקוס שלו היו על המ…  את העדשה שלו לדחוף את הטלפון שלו רחוק ממני הרמתי את המכנס יצאתי מהתא והוא כבר הספיק לברוח  לא היה לי מושג מה לעש…  לאחד התאים ואחרי כמה שניות הסתכלתי אחורה וקלטתי את היד שלו מחזיקה טלפון ודרך אחד החריצים שבין התאים מצלם אותי לא ס…  בהמשך לציוץ הזה הגשתי את התלונה נגד הגבר הדוחה והסוטה שצילם אותי ועוד בנות כנראה בשירותים של הבר האהוב והביתי של…  AGvaryahu זה בעצם אתה בהיתי בציוץ מספר דקות   YunaLeibzon פסיכופתים היום הזה ייזכר בתור היום שבו ראיתי יותר זבל בטוויטר מאשר בטינדר מברוק לכל הנוגעים בדבר היו שלום להלילה הלכתי לדפ…  nachiz9 מה לא ברור הניתוח בבי״ח פלסטיני במזרח ירושלים אני חוזרת בי״ח פלסטיני במזרחחחחחח ירושליםםםםםם ZivYekutieli מולטי טאסקינג שמעת PHRIsrael יש למישהו אצלכם דרך להגיע לילדה או לאבא שלה מהתמונה הבוקר כמה אנשים פנו אליי עם נכונות לעזור ashkenazitzafri בשפטה ברנג׳י במרק יש חומוס מבושל ובגונדי נוכודי עצמו יש קמח חומוס לך תעשה גוגל מה אני ספר מתכונים חחח סיפור חיי בציוץ אני מצייצת משהו שמאלני ימני עם שם מזרחי מטנף עליי בא שמאלני להגנתי ובאותה נשימה מתגזען על המזרחי…  לא ציפיתי שהציוץ מהבוקר יגרור ככ הרבה זבל מדהים אותי שאנשים מנסים למצוא מתחת לאדמה סיבות הגיוניות להפרדת אב מבתו ג…  KillingHSx חשוב assafpv אהההההה תודהההה עכשיו הבנתי GadVelan udiperets goldens32 תאמין לי אתה קריקטורה של למה השמאל נכשל תעיף את הגזענות שלך על מזרחים מכאן ומהר…  GadVelan udiperets goldens32 פעם אחרונה שאתה מעיזזזזזזזז להתגזען על מזרחים בקרבת הציוצים שלי שמעת הפתיל שלי קצ…  udiperets goldens32 שוסטר זה סנדלר שהכי מחובר לסוליית נעליו באירופה Nirkelev אבדוק תעניין ShanyHadas הבית חולים במזרח ירושלים מה אתה רוצההההההה shireuven חמסה חמסה חמסהההההה  Tell me more about peace in our region while you look at this picture of a father from South Hebron who doesn’t hav…  ספרו לי עוד על שלום באיזורינו בזמן שאתם בוהים בתמונה של אבא מחברון שאין לא אישור כניסה ללוות את בתו הקטנה לניתוח לב…  pninatamanosh בריאות מאמי עכשיו יש לך זמן למצוא לי חתן Chmeika גם ליקקנו גלידה כמו שאוחנה מלקק לביבי Chmeika צילמה יום פרודוקטיבי סגרנו וילון  AyeletShaked תגדירי מחוזות השואה שניה אתם מכירים אותי בתור טייס קפטנית כדורסל נשים באיראן חולת קורונה וכו אבל הרשתות בערבית מכירות אותי בתור הקומיקאית…  כפרה על העיניים של ביטון  צמרמורת בכל הגוף  LeahLev כפרה על לאה  מפחדת מהיום שביבי יילך ונבין לעומק שהמערכת שמגבה אותו שעוצרת ומטיחה אותנו לרצפה שנותנת אמון ומימון לשקרים שכבר ר…  lucyaharish זוועה זוועה הייתה לי הערב הופעה מול 20 אנשים לפי הכללים כי צריך להתפרנס והיה מדהים הצחקתי אותם על הפצעים הכי כואבים ומדממים ש…  nirhasson הגועל של הנפש בואו תסבירו לנו עוד קצת על האלימות של המפגינים  התפנו שני כרטיסים להופעה הערב בעקבות השבוע הקשוח שעבר על כוחותינו אני רוצה להעניק אותם בחינם בעדיפות ל שתי נשים…  אוקיי אני חוזרת בי בא לי שתדעו ערבית כדי לעקוב אחרי דאחי ח׳לפאן שמריץ פה דאחקה  שלום בין ישראל לפלסטינים כשיהיה ר…  hendmana بس ولا مرة كان في حرب بينتنا  שיניתי את דעתי אל תלמדו ערבית שלא תבינו את הציוצים של אביחי אדרעי עדיף תודה ליקום שלא נתתי את הערבית שלי למודיעין…  davidoflod לא קרה עם ירדן ומצרים ולא יקרה כאן ככה זה כשהדור מאמריקה משלם חחחחחחח העמוד של ישראל בערבית כזה שואל את העוקבים ״רוצים ביקור בישראל״ שמישהו יעדכן אותם במידה והם באים שישימו בצד…  מקום מיוחד בגיהנום שמור לעורכי דין שמגנים על אנסים Jeremywade חחחחחחחחחחחח אני נכנסת לחניה קטנה בתא ״נוווווו תתקדמי כבר כורבק״ צפירה צפירה צפירה נכנסת לחניה קטנה בירושלים נהג מונית מ…  אין כאן איזו בקשה לעזרה אנחנו יודעות מה לעשות אנחנו עושות אבל עד שלא תצטרפו ותגנו עלינו תעמדו איתנו תפחידו את…  הסיבה שכולנו ביום אבל ולא יודעות מה לעשות עם הזעם שלנו זה בגלל שחווינו כולנו בצורה כזו או אחרת את תרבות האונס על ב…  ההתמודדות היומיומית שלנו עם סוטים ואנסים היא מתמשכת מה שקרה באילת זה השיא השיא של המפלצתיות ואז זה בכותרות אתם…  עוד אפרסם באריכות בנושא אחרי שתוגש תלונה אבל לפני שבועיים תפסתי בחור מצלם אותי דרך חריצים בין תאי שירותים בבר תפסנ…  OmriGal1 השמפניה בת דודה רחוקה הגלידה בת אחותי DrHananAshrawi You’re a role model don’t listen to anyone  PrivateAy חד משמעית OmerLubi ילמדו מגדר בבתי הספר ערבית זכויות אדם shireuven הכל פה נשמע טעים  AngelOf80464659 בלשכת האבטלה 🤣🤣🤣 NaorMeningher אבל לא נראית לא שמאל רגיל מזרח תיכון חדש חחחח אני גם שוסטר וגם אליאסי כל המורכבויות הפנים עדתיות חיות בתוכי אני מוכנה להיות ראשת ממשלה באמת אני אצחיק את כל המ…  NaorMeningher תודה ובכן זה נכון כל חלקי העם יתחברו אליי זה בדוק אני אחבר אותנו חזרה למזרח התיכון לא רק לדיקטטורים של המזרח התיכון למדתי יחסים בינלאומיים ועבדתי באו״ם עובדת על הפרסית אני דוברת ערבית אני אהיה ראשת ממשלה טובה —gt להבהיר כמה דברים  אני לא אטוס עד שההסכם לא יקרה באמת ויהיה אפשר לטוס אני אגיע בטיסה מסודרת ולא במטוסו הפרטי של המ…  michalbgigi ולא לסנדלי שורש AvivSnir AOC צריך קודם לבנות סיפור עם מלא מלא פוליטיקה של זהויות ולרוץ עם זה חזק חחח אני מוכנה כבר להיות ה AOC של האדמה שלנו I think I’m ready to be the local AOC  AlonaMiryam naamalazimi הוא שומר על זכות השתיקה אני יוצאת לבדוק למה 🤪🤪🤪 DorisDukeFdn Congratulations to the winners of the 2020 LaughterLab Were proud to have supported 20 projects as finalists that were… AlonaMiryam naamalazimi הכל בבדיקה והצוות יחזור אליכן לסגור פרטים 🤣 היהודים באים באו יבואו וימשיכו בעה לבוא הביאו עוד כמה הלילה עוד צעיר  mohsaud08 דלוקים לך על התחת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יו״ר מפלגת העבודה ח״כ עמיר פרץ התייחס להסכם השלום ולירי מעזה בכנס מזכירי סניפים של המפלגה ״ממשלת האחדות עצרה את הס…  בואו להתחיל את השנה החדשה איתנו  אנחנו מזמינים את חברות וחברי המפלגה להרמת כוסית בזום ברוח התקופה תצטרפו אלינו ב…  מגפת הקורונה הכלכלית קשה לא פחות מהמגיפה הבריאותית  כשמאות אלפי אזרחים נמצאים בחרדה קיומית על המדינה לעמוד לצידם…  קישור להרשמה   המוסר הכפול מצד הליכוד זועק לשמיים אם הליכוד היה באמת דואג לאזרחי ישראל אז היה כבר מוגש לכנסת תקציב יציב לעד סוף…  כלכלה אנושית שרואה כל אדם מניעת הסיפוח הגנה על הדמוקרטיה הגנה על בית המשפט העליון הגנה על הזכויות שלנו לחיות בכ…  GLZRadio השר amirperetz אצל RinoZror אם נתניהו ימשיך לעמוד על תקציב חד שנתי ברור לנו לאן הוא מכוון הוא לא עושה זאת בגלל תקציב המ… newsisrael13 איפה הכסף  בממשלה ידונו מחר בהשבת 11 מיליארד שקלים שחברת אל על חייבת לנוסעים שרת התחבורה regevmiri מבקשת לדחות את… YuvalKarni מזכ״ל מפלגת העבודה Eranhermoni בפנייה לראש השב״כ ומ״מ מפכ״ל המשטרה ״להכריז על ארגון להפמיליה כארגון טרור לכל דבר״  כואבים את לכתו של זאגי שלנו בתאונת האופנוע המחרידה אמש יניב זגורי היה איש קריאייטיב שליווה במסירות את שני הקמפייני…  קריאות ההלל ליגאל עמיר מעוררות חלחלה וכל מי שישראל חשובה לו צריך לגנות אותן ולהוקיע את מי ששותף להן   אסור לשכוח כ…  קיבלנו בכאב את הידיעה על פטירתו של אלכס אוסטרינסקי אלכס הוא אביו של אייל אוסטרינסקי יועצו של שר הכלכלה ויו״ר המפלג…  הזכות להפגנה היא מעמודי התווך של הדמוקרטיה   השר עמיר פרץ תידרך את פעילי העבודה כי יש להשתתף בפעולות להגנה על הדמו…  כשליועץ המשפטי למפלגה עומרי שגב ולדניה היועצת של בוז׳י הרצוג נולדת בת זו חייבת להיות מפאיניקית אמיתית   המון מזל…  AyeletShaked גננות שהפקרתם בעלי עסקים שאין להם כסף לגמור את החודש הבטחות של שנים לדמי אבטלה לעצמאיים וכלכלה קפ…  חופשה ללא תשלום” זה יצור כלאיים שמותיר אנשים מועסקים “על הנייר” אך שולח אותם לגורלם הצגנו תכנית כלכלית ועיקריה…  כואבים את לכתו של חברינו פאדל אברהים ז״ל פאדל היה איש של צדק חברתי ושוויון כיועץ לשרת החינוך יולי תמיר פעל לצמצום…  המומים וכואבים את מותה של מיקה תל ניר ז״ל בת 71 במותה רק לפני שבועיים במערכת הבחירות עוד התקשרה לשכנע אנשים להצ…  מפלגת העבודה מודיעה בצער רב על פטירתו בטרם עת של החבר מזכיר סניף ידאליהו יורם צוברי ז״ל  יורם היה מהחברים הבולט…  לא היו סימנים מוקדמים משפט ששומעים יותר מידי בשנה האחרונה   כפי שסיכמנו במשא ומתן הקואליציוני הקודם כך נשוב ונד…  דרך רבין בסכנה  אל תעמדו מהצד  צאו להצביע והוכיחו שהרוצח לא השיג את מטרתו  ניצחון לעבודהגשרמרצ בוועדת הבחירות – הוועדה קיבלה את עתירתנו נגד הפרת האיסור של מפלגת שס על חלוקת חפצים אסורים ב…  צאו להצביע תבחרו בפתק אמת  עתרנו הבוקר לועדת הבחירות נגד חלוקת חפצים אסורים על ידי שס בקלפיות במרכז ושלחנו אליהן את חניכי תנועות הנוער   החו…  יוסי אלפי בוחר באמת שלו  לייזי גורדון בוחר באמת שלו ביום שני הקרוב תבחרו באמת שלכם  גם חסן בוחר באמת שלו  תודה שפרה  הפעם מצביעים אמת בקלפי ומכניסים לכנסת מועמדים שאפשר לסמוך עליהם  מהלך פורץ דרך – בממשלה הבאה אנחנו נמנה את השר הבדואי הראשון פרופ אליען אלקרינאוי   ככה מקימים ממשלת שינוי באמת  הקמפיין של כחול לבן נמוך יותר מים המלח  למצביעי מחנה השינוי יש רק פתק אחד  אמת  עצוב מאוד שגנץ בוחר בקמפיין של…  אנחנו מזכירים לבני גנץ שיש רק פתק אחד לממשלת שינוי בלי נתניהו והוא אמת  בזמן שצבי האוזר ממליץ על חבירה עם איילת…  רק עם העבודהגשרמרצ גנץ יכול להקים את הממשלה החדשה שישראל צריכה באמת  רק הצבעה לנו היא התשובה האמיתית והבטוחה כנג…  גם מאור תומך באמת  תבחרו במי שעובד בשבילכם אמת בקלפי  סימונה בוחרת באמת שלה  מה שדסקל אמר   רות בוחרת באמת שלה  בוחרים באמת שלכם  גם אורי מחדרה בוחר באמת שלו למען עתיר טוב יותר  זו אסנת וגם היא בוחרת באמת שלה  גם יסמין ורויטל הולכות עם האמת שלהן  בשביל חידוש תהליך השלום ליאור בוחר באמת שלו  ומה הסיבה של גיא להצביע אמת  גם קובי בוחר באמת שלו  גם מדי מצביעה אמת  אלו הפנים שלנו הפנים שלכם  ישראל מחכה לרגע בו תעמדו בקלפי ותבחרו באמת שלכם ושלכן  אנחנו כאן כדי להיות הקול של מי…  ממשלת גנץהעבודהגשרמרצ תהיה ממשלה של שלום וחברה צודקת ממשלה שרואה בני אדם לפני הכל  ב2 במרץ בוחרים באופציה היח…  נפתלי ואיילת מפחדים שהם לא יהיו בממשלה הקרובה צודקים  ב2 במרס בוחרים במפלגה היחידה שתבטיח שתקום ממשלת מרכזשמא…  כשמיליונר בלי ארנק ממנה מיליונר מנותק  בנט איבדתם את זה לגמרי גם הציבור שלך מעדיף שר חינוך שמקדם פלורליזם סובלנות ודמוקרטיה מאשר שר חינוך שמביא הומופוב…  השר החשוך או ניצן במשרד החינוך  גם במצודת זאב יתחילו לשנן  ניצן הורוביץ שר החינוך והתרבות הבא של מדינת ישראל   מירי תתחילי לארוז הגיע הזמן לעזו…  אתם בחרתם  אורלי לוי אבקסיס הכי ראויה להיות שרת הבריאות הבאה של ישראל  רוב ברור בחר  אורלי צריכה להיות מי שתשקם…  הלב החברתי והמצפן המדיני בפתק אחד – אמת ממשלה של שינוי ותקווה נמצאת במרחק נגיעה אורלי במשרד הבריאות ניצן במשרד ה…  מפלגה ממבט ראשון   כבר שנים שאיציק שמולי ותמר זנדברג משתפים פעולה בכנסת ועכשיו הם גם שותפים בבחירות תחת פתק אחד…  לבחור באמת שלכם זה קל  רוצים לתלות שלט גם במרפסת שלכם הרשמו בקישור ונגיע עד אליכם הביתה   ישראל יקרה הדירוג רק מדגיש את מה שאנחנו מרגישים בארנק יום יום   אז מה אנחנו מתכוונים לעשות  ביטול מעמ על מוצרי…  לגמור את החודש זה קשה  להצביע העבודהגשרמרצ זה קל  אנחנו לא צריכים לספר לכם שלקנות דירה זה קשה מזל שלבחור באמת שלכם זה קל  יש דברים קשים בחיים לבחור באמת שלכם זה קללללל  יש כיפה בשביל קמפיין ויש כיפה שנועדה להגן  יש את מי שעובד עליכם ויש את מי שעובד בשבילכם  הפעם בוחרים באמת  צריך לומר את האמת  ברגע האמת  בוחרים אמת  האמת שלכם היא מה שחשוב לכו איתה הפעם הבחירה קלה בחירה מהלב בחירה באמת שלכם היא בחירה ש…  לא אמרתי תוכנית מדינית אמרתי שלופים   netanyahu  לא נמאס לכם למחזר את קמפיין מי מפחד מערבים באמת אין לכם שום דבר אחר להציע  אז איך האמת שלכם נשמעת   בוחרים באמת גם בפלייליסט שלנו לבחירות 2020   יש לכם עוד שירים מתאימים שתפו איתנו   אוהד אמיתי מגיע גם כשהקבוצה מפסידה  תכף מתחילים  באמת  היום בכיכר הבימה  שבת של שלום   Who wore it better  Kachollavan19 LikudParty  יו שורטי איטס מיי בירתדיי כבר 52 שנה נותנת עבודה  השנה אני חוגגת עם החברות הקרובות מרצ וגשר נתחיל בבראנצ מפנק…  בקטנה יולי שמענו שהתפנה מקום בכחולבן  לא תרגיש בהבדל   לפי ההגיון שלכם אם נגיד שהתמונה תלויה כי הוא היה רופא אז היא פחות תזעזע אותך לא ככה  YairNetanyahu mkgilon  היה הרבה יותר פשוט לאחד את העבודהגשרמרצ מאשר לצאת היום מדיזנגוף סנטר   אנחנו מתחייבים שנדאג לכך שהממשלה הבאה תעב…  איזה פרץ יהיה בממשלה הבאה  גאים בתלמידים והתלמידות שיצאו היום להפגין נגד הדעות החשוכות של שר החינוך שלהם בממשלה ה…  ברמות של כלה  meretzparty  מי שערכי אהבת האדם חשובים לו – שיפסיק לעשות חישובים ויצביע שמאל   העבודהגשר תשמור שהממשלה הבאה לא תורכב עם קיצוני…  כחוללבן מה טבעי בשבילכם  העבודהגשר הוכיחה בבחירות האחרונות אחריות למהפך שלטוני כשסירבה להצעות מפליגות לאור סיר…  הפעם עושים מהפך בשביל זה דרוש אומץ דרוש שינוי מחשבה ובעיקר דרוש לא לפחד  קוראים לחברינו בגוש המרכז שמאל – אל תפח…  סטודנטים לא צריכים לבחור בין הצבעה ללימודים  פנינו היום לוועדת הבחירות המרכזית במטרה לאפשר למאות אלפי סטודנטים לממ…  האישה שבטנק תנצח מברכים את צהל על ההחלטה להמשיך ולשלב נשים במערך השריון 24 שנים אחרי שפרצו את גבולות השמיים ושול…  בוקר טוב ישראל ברוכים הבאים לעשור שאחרי נתניהו סוף שנה  סוף עידן נתניהו  צעירי העבודה מקרינים את הספירה לאחור על מטה הליכוד במצודת זאב  אירוע חנוכה של מרב מיכאלי חברת הכנסת המצויינת שלנו היה מרגש וטעים במיוחד MeravMichaeli  כתם על מפלגת הליכוד שהפכה למנותקת וגזענית הליכוד של נתניהו ורגב לא סופר  בני אדם  מדובר בכתם של בושה לליכוד ההתב…  עו”ד אורלי בן ארי נהגה בשכל ובהגינות כשוויתרה על התפקיד ולא שיתפה פעולה עם נסיונו של אמיר אוחנה להפוך את תפקיד פרקל…  אנחנו נוביל אלטרנטיבה גדולה ומרגשת היום כולם יודעים שמה שקובע זה גודל הגוש ולא המפלגה הגדולה רק אם העבודה גשר תהי…  אנחנו מכבדים מאוד את חכ עמר בר לב אך מדובר ברעיון פרטי שלו  מפלגת העבודה עומדת בהתחייבותה לחתום רק לח״כ בני גנץ לראיון המלא    אנו מברכים על כל מהלך כלכלי שיקודם ברצועת עזה כולל תשתיות מים וחשמל כולל האי המלאכותי אך זה חייב להגיע כחלק מנוס…  אל תשליכני לעת זקנה    המצב בו יש קשישים שזקוקים לאוכל לחימום בבית לתרופה הוא מצב בלתי נסבל   במומ של סיעת העב…  מפלגת העבודהגשר שמה שוויון בין בני אדם לפני הכל במסגרת ההסכמות עם כחול לבן דרשנו העלאת שכר המינימום ל6000 שח…  שולחים את נתניהו הביתה העבודהגשר יוצאת לשורת מחאות מול בתיהם של אלו שיכולים להחזיר את השפיות למדינה  משמרת מחאה…  ילדים לא נולדים בגיל 3 המדינה צריכה לקחת אחריות על הילדים מיום שהם נולדים  לכן אחת הדרישות המרכזיות שדרשנו במו…  ביטחון לפני הכל גם לחקלאים  העבודהגשר נאמנה להבטחותיה לחקלאות לחקלאים הישראלים ולמרחב הכפרי  הגענו להסכמות במו…  13 נשים נרצחו מתחילת השנה ועד היום אנחנו שמים את הביטחון בבית לפני הכל ולכן במומ עם כחול לבן דרשנו וסוכם על תקצו…  פייק ניוז של נתניהו  גונב הדעת מספר אחד בישראל יודע שאם העבודהגשר עוברת בגדול הוא לא ראש ממשלה וכעת הוא מנסה לגנ…  עזבו הכל צאו לקלפי והצביעו אמת לא תהיה לנו עוד הזדמנות  משימתו של נתניהו לחסל את מפלגת העבודה גשר עלולה להצליח רק פתק אמת מבטיח שינוי החלפת מדיניות וכיפת ברזל חברתית…  נתניהו מנסה לגנוב את הבחירות  אנחנו לא ניתן לזה לקרות  העבודהגשר פתק אמת זה המפתח להחליף את נתניהו ואת המדיניו…  מהבוקר פעילים של נתניהו משחיתים את פתקי ההצבעה שלנו ומפיצים הודעות שקריות אנחנו קוראים לכם אם נתקלתם במקרים חריגי…  MeravMichaeli איפה שלא הייתי אתמול בכל מקום שעברתי שמעתי בהצלחה מכל עבר לא יכולה לתאר לכןם כמה זה מרגש אז חברות וחברים בואו הי… swid4 זהו הצבעתי אמת בקלפי שלי ליד הבית ברעננה עכשיו תורכם עם HavodaParty בכנסת אין לביבי 61 מנדטים לממשלת חסינות אם אנחנו בחו… איציק שמולי כבר הצביע ואתם  מצביעים עם הלב  אמת בקלפי  עמר בר לב כבר הצביע ואתם   מצביעים עם הלב  אמת בקלפי  זמן האמת הגיע היום עושים יחד מהפך רק העבודהגשר חזקה תוביל להחלפת נתניהו אם לא תגיעו להצביע היום אמת – נתניהו יב…  מחר בבוקר יחל נתניהו בקמפיין שקרי במטרה לחסל את מפלגת העבודה אל תאמינו לאסמסים השקריים והשמועות שנתניהו יפיץ בעזר…  omerbarlev אנחנו למשל חלוקים על הרבה דברים אבל הבענו תמיכה בלתי מסויגת ב gantzbe לראשות הממשלה מתוך אחריות לעתיד המדינה אולי אם היי… omerbarlev אני מאמין yairlapid באמת שאתה רוצה מהפך ואתה גם לא נחשד בחוסר אינטליגנציה אז אולי תסביר בבקשה לי ולאחרים למה לכל הרוחות… מצביעים עם הלב  אמת בקלפי  המהפך אפשרי – זה בידיים שלנו שמים אמת בקלפי  ערב טוב תל אביב  עמר בר לב נסע לאתיופיה לפגוש את אחינו ולהבטיח להם  אנחנו לא נסבול מצב בו מתקיימת הבחנה בין יהודי ליהודי אנחנו מתח…  תודה לצחי נוי יודלה המיתולוגי על האמון והתמיכה שמים אמת בקלפי  העבודהגשר היא המפלגה החברתית היחידה בישראל  שמים אמת בקלפי  תודה ליוסי אלפי שמספר את סיפור אידיאולוגית מפלגת העבודה גשר  רון קופמן הולך עם האמת ומצביע אמת הצטרפו לשינוי   השבט אמר את דברו תודה לשמעון אמסלם על התמיכה במפלגת העבודה גשר יחד עושים מהפך  רק אישה יכולה להבין אישה באמת  אם נעצור רגע נראה שהבחירות האלו הן לא באמת בין ימין לשמאל  הן על המצב החברתי האיש…  רק בעבודה גשר אתם הילדים שלכם וההורים שלכם לפני הכל  בלי מפלגת העבודהגשר לא יתחולל מהפך פוליטי בישראל  רק אנחנו נשים סוף להפקרות החברתית של ממשלת נתניהו  ב – 179 הו…  כשאני מצביעה אני רוצה שהקול שלי יינתן למישהו שימשיך להיאבק על הערכים שלי גם יום אחרי הבחירות גם הפעם אני אצביע –…  אנחנו הבשורה לעתיד אחר אנחנו השינוי אנחנו המהפך  פחות דיבורים יותר מעשים  בקלפי זה או אמת או ביבי  צפו ושתפו…  תארו לכם את מדינת ישראל בלי כיפת ברזל וכיפת ברזל זה עמיר פרץ  כמו שהוא עשה את כיפת ברזל הביטחונית הוא יעשה את כי…  התשובה שלנו לגילוי הגזענות והשוביניזם נגד אורלי תינתן במסיבת עיתונאים היום ב1500  מפלגת העבודה היא מפלגה אידיאולוגית זו גדולתה זה מה שמחייב את הדור הצעיר ואת הוותיקים לתמוך במפלגה שבאה עם מערכת…  לעולם לא נעזוב אתכם ishmuli  נתניהו יצר כאן דור של אנשים צעירים שנשארים בבתים של ההורים שלהם או תלויים בכיס של ההורים שלהם עד גילאים מאוחרים הג…  אבדה הבושה   רק העבודה  גשר תשים סוף להפקרות החברתית שמאיימת על ישראל רק העבודהגשר תקים כיפת ברזל חברתית שמים…  בין ההסתה והגזענות של הימין לבין דרך רבין אין אמצע אין מרכז  אתם רוצים שוויון חברה דמוקרטית דרך ואידיאולוגיה ש…  מפלגת העבודהגשר תמשיך להוביל את מורשתו ודרכו של יצחק רבין והיא זו שתנצח  swid4 חד וחלק  גם אנחנו יודעים לעבוד מהר מהר לפני בחירות אם חוק המצלמות השערורייתי יעבור השבוע HavodaParty תעתור מיד לבגץ לפסילתו… אנו מגנים בכל תוקף את דברי הבלע החמורים של יאיר נתניהו נגד ראש הממשלה המנוח יצחק רבין ז״ל אך מה ניתן לצפות ממי שאב…  שומעים את האזעקה  מדינת ישראל נמצאת במצב חירום חברתי האזעקה היא אזעקה של משפחות צעירות שקורסות תחת הנטל ויכולות ר…  זה היה השבוע שהיה  את הכנס הערב בפתח תקווה רצו לבטל לנו אז רצו  ככה זה נראה שמנסים להשתיק אותנו מפלגת העבודהגשר היא המפלגה החברת…  swid4 בבוקר מכריז ניצן הורוביץ שהעבודה נטשה את מחנה השלום ובצהרים מודיע ברק  בוגר מצטיין של ממשלת נתניהו כזכור  שהמחנה הדמוקרטי נמ… יחד עושים מהפך  swid4 נעתור לבגץ נגד חקיקה הרבה אחרי הדקה ה90 עי ממשלת מעבר נצחית שכל מטרתה להטות את תוצאות הבחירות לטובת ביבי והימין הליכוד לא ב… ההתנשאות והזלזול של כחול לבן במצביעי העבודה שוברת שיאים של יהירות  הם רוצים להעלים את מפלגת העבודהגשר המפלגה החב…  המסר ברור מדינת ישראל נמצאת במצב חירום חברתי תכנית כיפת ברזל חברתית היא התשובה היום ברמת השרון  swid4 מנלדבליט חייב להורות מיד על פתיחת חקירה בעניין המשך בחישת נתניהו בשוק התקשורת לביבי אין שום קווים אדומים ואין גבולות החוק והנח… תודה לרחלי יזוז מנהלל  יחד עושים מהפך  יחד עושים מהפך  ממ״ד לכל אזרח  בני אדם לפני הכל  שמים אמת בקלפי  swid4 תמורת שלטון והכשרת ההזיות הלאומניות והאנטידמוקרטיות של ימינה בנט מוכן להכשיר בריחה של נאשם ממשפט וביזוי חסר תקדים וחסר תקנה של… swid4 מברכים ומחזקים את צהל על מאבקו המתמשך החשוב והמוצלח לסיכול פרויקט הטילים של חזבאללה ועם זאת יש לנו הרבה יותר מתהייה למה נתניה… שוב לרגל פתיחת שנת הלימודים ישראל תחת עננת שביתה מערכת החינוך מופקרת עי ממשלת נתניהו תנאי ההעסקה ושכר המורים לא…  swid4 נתניהו מכר את האינטרסים של הציבור הרחב בלי בושה לאלוביץ וכבר מזמן אינו כשיר למלא את תפקידו על רקע שלל ניגודי העניינים שהוא מצ… גם לנו חשוב שלילדים שלכם יהיו דירות יחד עושים מהפך   swid4 השפם ירד האמת נשארה לא נשב עם נתניהו בשום מצב זהו הבנתם אפשר עכשיו להפסיק עם כל הספינים מכל הכיוונים ולתת לנו לעשות את העב… swid4 לאור הרומן המלבלב ביניכם בעבר הלא רחוק והציניות המוחלטת המשותפת לשניכם היינו מהמרים על זה שבייאושו של נתניהו דווקא אתה זה שתקב… זה לא אתם שעזבתם את הליכוד הליכוד עזב אתכם תודה לתומכים הרבים שמצטרפים בכל יום למסע הישראלי החדש שלנו  ומה אתכם…  דוד ביטן אל תתבלבל  לא רק שלא נשב אתכם גם לא ננהל אתכם משא ומתן   אנחנו מבינים שאתם מפחדים מאיתנו בצדק    ב17…  swid4 הדיון שמתקיים כעת בעליון בערעור שHavodaParty הגישה יקבע האם יש מקום לגזענים בכנסת אנשי עוצמה יהודית מתחפשים לכבשים פועות למשך… ממשיכים במסע הישראלי החדש שלנו היום ביקרנו בחיפה ובקריות פגשנו אנשים שרוצים שינוי שרוצים הנהגה שרואה בני אדם לפנ…  המיתון מתקדם אלינו בצעדי ענק ביבי הפקיר את החברה והוביל אותנו לגירעון רק כיפת ברזל חברתית התכנית הכלכליתחברתית…  גם במושב ביצרון כבר יודעים אצלנו בני אדם לפני הכל ממשכים במסע הישראלי החדש שלנו  yairlapid swid4 הגשתי הרגע ביחד עם המרכז הרפורמי לדת ומדינה ובשם מפלגת העבודהגשר המחנה הדמוקרטי וכחול לבן ערעור לבית המשפט העליון בדרישה לפסו… יאיר לפיד שמעריץ את הקפיטליזם החזירי של ביבי שוב מאבד את עצמו לדעת באמירות חסרות שחר אנו מבקשים מבני גנץ לעשות סד…  גם ברמת גן בני אדם לפני הכל ממשכים במסע הישראלי החדש שלנו  שבת עם תושבי ונציגי ועד ואדי ניסנס בחיפה אצלנו בני אדם לפני הכל והמשימה ברורה –שוויון שהוא לא רק סיסמא  הוא תכנית…  המסע הישראלי שלנו הגיע הבוקר לאשקלון ואיזו קבלת פנים חמה חיכתה לנו שם  השטח מתעורר והרצון למהפך מורגש בכל מקום אלי…  אנחנו ממשיכים להפיץ את הבשורה החברתית בכל הארץ והערב אנחנו בעפולה העבודהגשר היא השינוי  אנחנו נביא קהלים ומצביע…  מפלגת העבודה משתתפת בצערה של משפחת גאנם על מותו של מועאד גאנם ז״ל שוטר בתחנת צפת שנהרג הלילה בתאונת דרכים מועאד ה…  swid4 מבינים את הצורך של כחול לבן והמחנה הדמוקרטי להתלהם בתקופת בחירות אבל הטענות שלהם מופרכות HavodaParty הגישה את בקשת הפסילה נגד… מאופקים תצא הבשורה הגדולה לאזרחי ישראל אצלנו בני אדם לפני הכל  הילכו שניים יחדיו בלתי אם נועדו  יצא המרצע מהשק הראשונים שקפצו נגד התכנית המהפכנית שהבאנו היום לציבור הם הקפיטל…  ishmuli יפה ש׳כחול לבן׳ התפנו לרגע מהמריבות הפנימיות שלהם רק כדי לתקוף את התכנית הרצינית היחידה שהונחה על השולחן עד כה אם זה מה שגורם… כל היושבים בקוקפיט של כחול לבן לא ראו במשקפות פתוחות את שעמיר פרץ ראה במשקפת סגורה אנחנו מזמינים את גנץ  לפיד  מ…  כל היושבים בקוקפיט של כחול לבן לא ראו במשקפות פתוחות את שעמיר פרץ ראה במשקפת סגורה אנחנו מזמינים את גנץ  לפיד  מ…  בני גנץ הוכיח באמירותיו האחרונות שכחול לבן כבר החלו לזחול אל עבר ממשלת נתניהו לאור ניסיון העבר ברור שכחול לבן ויתר…  בני אדם לפני הכל ברית חיים לפני הכל  יחד עם שיח׳ מוואפק טריף מנהיג העדה הדרוזית וסאלח סעד ציינו היום את חג הקור…  amirperetz בלי כיפת ברזל ביבי לא היה מחזיק מעמד כראש ממשלה כדאי שמר ימין חזק יפסיק לעוף על עצמו ללא כיפת ברזל אפילו נתניהו ההססן ה… swid4 מחריד לגלות שרוצחו של יצחק רבין זל מנהל לו בנחת מתאו שיחות בניסיון להקים מפלגה הזויה למען שחרורו יגאל עמיר צריך להירקב בכלא ע… בשבילנו בני אדם לפני הכל  מדובר בהתקפה גזענית ומכוערת נגד עמיר פרץ ואורלי לוי אבקסיס החיבור העבודהגשר הוא תיקון חברתי היסטורי שהופך את מפלג…     השותפות שהוצאנו לדרך אינה סתם שותפות זהו מסע ישראלי חדש מסע ישראלי שבכל יום יצטרפו אליו קהלים נוספים וקבוצות חדשו…  ביבי איבד את הבושה מדיניות נתניהו תעלה לנו ביוקר 2 משרד הבריאות  swid4 מי שנתן את השלטון לנתניהו בעבר תוך כדי פיצול מפלגת העבודה יושב היום במחנה הדמוקרטי moranynet knesset…  ועידת מפלגת העבודה החליטה כן לאיחוד העבודהגשר  הכל כבר מחכה לכם בואו להיות חלק מהשינוי  מטה המתנדבים העובדה – גשר מזמין אתכם להצטרף   יא…  גם ברקו כבר הבין שרק העבודהגשר תספק ביטחון חברתי לישראל  איחוד מרצברק ימנע אובדן קולות במחנה של רשימה שלא עוברת את אחוז החסימה החלוקה כרגע ברורהמפלגת העבודה היא האלטרנטי…  ברוך הבא חגי   אנו גאים לבשר כי מנכל משרד הבינוי והשיכון לשעבר חבר קיבוץ רביבים בנגב חגי רזניק ישובץ במקום ה 7…  העבודה בשטח  בבחירות הללו נהיה מפלגת השטח הגדולה בישראל  חוזרים לעבודה  סקר ערוץ 11 חדשות כאן העבודה עולה ל 8 מנדטים ברק לא עובר את אחוז החסימה  הנהלת מפלגת העבודה אישרה בפה אחד את הסכם הריצה המשותפת עם מפלגת גשר בראשות אורלי לוי אבקסיס  ברוכה הבאה אורלי חזקים ביחד  אורלי לוי אבקסיס בראיון ראשון   אנחנו מחפשים את המחבר והמחבר הוא להבריא את החברה הישראלית ולחזק אותה…  עוטף בכיף במתחם התחנה בתל אביב  אוהבים את תושבי העוטף לא רק בעת חירום אלא לאורך כל השנה  הסולידריות כאן מדהימה…   בשעה זו מפגינים בני הנוער שלנו מחוץ לביתו של שר החינוך רפי פרץ  בעצומה שפרסמו הבוקר כתבו ״הרב פרץ הוא אדם קיצוני… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ההגבלות מטרתן לעצור את התחלואה ולא להשתיק את המחאה בוודאי שלא אסכים לסיכולה הממוקד בתקנות שעת חירום בשל עיסוק אובס…  זו תהיה בושה גדולה ובלתי מתקבלת על הדעת אם כנסת ישראל תצא לפגרה תפקיר מאחור עשרות אלפי עצמאים ותקצץ בדמי האבטלה למ…  התפשטות התחלואה מחייבת הכרעות קשות זו מלחמה שכדי לנצחה יש למנוע התקהלויות בעיקר במקום סגור זכויות היסוד להפגנה ו…  אמירה הזויה היקף הבקשות לסיוע במזון בחגים זינקה פי 2 השנה ל12 מיליון בקשות את התקציב הגדלנו פי 3 וזו רק דוגמה  תודה לך יאיר  לך ולכל ההורים לילדים המיוחדים על שיתוף הפעולה למענם אסור לעולם שנאפשר שמוגבלותם תהווה סיבה לאפליית…  KerenMarc michalpeylan היי קרן זה לא נכון אצלנו אלו נתוני אמת שנאספים עי המשרד באופן ישיר מול המסגרות עב יומיומ…  אנשים עם מוגבלות הם אזרחים שווי זכויות ורק אחכ בעלי מוגבלות ומוגבלותם אינה צריכה להוות סיבה לסגירתם במעונות ולבידוד…  sivankli נשנה זו הכוונה סיוון מגיפת הבדידות מסוכנת לא פחות מהקורונה לכן החלטנו להשאיר את מרכזי היום לקשישים פועלים תחת הגבלות אנו פועלים מול מש…  התרעתי מראש כלפי האוצר שמדובר בסעיף מטומטם שהכניסו לחוק ולא יחזיק מים בזמן אמת אני שמח שדרישתי כלפיהם התקבלה במלוא…  סגר מוחלט אינו יעיל לט״א וספק אם יעמוד במבחן הציבור למיקוד מאמץ דיפרנציאלי ולנקיטת צעדים אגרסיביים במוקדי התחלואה…  על פחות מחצי אחוז הדבקה במערכת אין שום סיבה להעניש את ההורים הצעירים ולסגור את הגיל הרך גם תחת סגר הותרת המעונות…  הבטחתי לציבור הנכים שנעלה את קצבאות הנכות ואני גאה שהצלחנו להשיג זאת יחד בזמן שבו זה נדרש יותר מתמיד אני מברך את א…  כפי שהתחייבתי לציבור הנכים הקצבאות שלהם תועלנה  בתכנית התקציבית שאישרנו יש בשורות משמעותיות לאוכלוסיות הרווחה בתקופת הקורונה כפי שהבטחנו ביחד עם שר האוצר נעלה את…  במפגש עם מנהלי לשכות הרווחה בערים האדומות הבעתי את הערכתי הרבה לעבודתם המקצועית והמסורה בתקופה קשה זו החמ״ל המיוחד…  הגעתי לאלעד ולג׳לג׳וליה כדי לבחון את היערכות הרווחה לסגר ולראות את הצרכים מהשטח הערים האדומות מתמודדת עם אתגרים חב…  אנו ערוכים בערים האדומות להגיע ולהושיט יד לכל מי שזקוק לכך הקצנו תקציב מיוחד לערים העו״סים בשטח לצד המשפחות והנחי…  יצאנו היום למבצע אכיפה חסר תקדים בהיקפו במסגרות הגיל הרך במקום 20 פקחים שהיו עד כה התייצבו למבצע כ120 שיגיעו כל…  עשרות מיליוני שקלים יועברו היום לקשישים סיעודיים שלא קיבלו שירות בתקופת הקורונה בלתי מתקבל על הדעת שהם יוענשו כי ל…  גאה להתייצב לצד Reshettv ביום שמוקדש למאבק באלימות נגד נשים וילדים עם תקציבי החירום שהשגנו נוסיף 60 יח׳ ל110 המר…  גיא יזמת מהלך גדול זכות להיות חלק  ברגע האמת מאות אלפי מובטלים וחולים נושאים עיניהם למדינה וטוב שכך העובדים שאת שכרם רוצים לקצץ הם גם העוסיות המורי…  בלתי מתקבל על הדעת שפעוטות עם אלרגיות מסכנות חיים יוענשו ויורחקו מן הגנים בגלל מצבם הבריאותי הם לא צריכים להיות בנ…  מבקר במסגרות לגיל הרך לרגל פתיחת השנה אחריותנו לשלום הילדים עצומה והשנה נחולל מהפכה במקום ההפקרות שהיתה עד כהזו ה…  צילום חורחה נובמינסקילע״מ פגשתי היום יחד עם gantzbe הורים לילדים שעברו התעללות מזעזעת בפעוטון במקום ההפקרות שהשתוללה בתחום בעבר נוביל מהפך…  בפעם הראשונה אי פעם תקבע מדינת ישראל באופן רשמי מהם דמי המחיה בכבוד שפגיעה בהם תהווה פגיעה בזכויותיו הבסיסיות של כ…  אישרנו בממשלה 10 מיליון ₪ למקלטים לנשים נפגעות אלימות וילדיהן המקלטים יתוקצבו בסכום חדפ של 300 אלף ₪ ירכשו מחשבים…  כוננתי הערב את מועצת הביטוח הלאומי ובחרתי לעשות זאת בבית שלווה כאן אני תמיד מרגיש בבית   ״לא בחסדם של נדיבים יהיו…  הניצחון הזה הוא לפני הכל בזכות נחישותם של אלפי הורים שנאבקים כבר שנים על רפורמה בגיל הרך ענת שאיבדה במעון בגלל מע…  ההגנה על שלומם ורווחתם של חסרי הישע עבורי היא משימת חיים בכוחן של התקנות שאני מפרסם היום לחולל מפנה היסטורי בגיל ה…  פרופ׳ גמזו הוא המקצוען הטוב ביותר שיכולנו לבקש מול נגיף הקורונה הממשלה בחרה פרוייקטור להתמודדות מול הנגיף וצריך לת…  היום תתקיים ישיבה מכרעת עם נציגי משרד רוהמ והאוצר ואין לי כוונה להתפשר על שלומם של הפעוטות אין אדם אחד שנאבק יותר…  יש בידי הזדמנות היסטורית לעצור אחת ולתמיד את ההפקרות בגיל הרך ע״י תקנות הפיקוח זה לא יקרה אם אפרסם תקנות מרוככות ל…  הדאגה לשלומם ולרווחתם של חסרי הישע היא משימת חיים עבורי לכל אחד ואחת מהםן מגיעה הזכות לחיים של משמעות מוגנות ושי…  הנחיתי את גורמי משרדי להגדיל את תקציב התמיכה השנתי של מרכזי הסיוע לנפגעות ונפגעי תקיפה מינית ביותר מחמישים אחוזים…  על גופתי המתה  היום שמנו סוף לעוולה ארוכת שנים שהביאה לפגיעה קשה במאות מורי דרךאשכול ומנעה מהם לקבל את רשת הביטחון שהם כה זקוקים…  תודה ענקית ליו״ר ועדת העבודה והרווחה ח״כ חיים כץ לשר התרבות והספורט חילי טרופר ולמנכל הביטוח הלאומי מאיר שפיגלר מ…  עולם התרבות ספג את אחת מהמהלומות הקשות בקורונה ובתוכו עובדי הסט והבמה במיוחד לאחר מאמץ רב הצלחנו לאשר את החוק ההי…  לצערי ערב פתיחת שנה״ל החליט משרד האוצר באופן תמוה לקחת הימור מסוכן ומיותר על חיי הפעוטות עם האלרגיות מסכנות החיים ב…  נפגשתי עם נציגות ההורים של הפעוטון מהגיהנום ברמלה לפגישה קשה כאבא אתה תופס את הראש למשמע תיאורי הזוועה המחרידים הל…  החשדות לאונס המחריד באילת מחרידים כל  לב 30 תוקפים חייתיים  כנגד נערה אחת בת 16 אחת ולא נמצא מי מהם שיעצור את הזוו…  אם כבר מציבים אולטימטומים בעניין התקציב הם צריכים להיות על דמי האבטלה לעצמאים קצבאות נכים ופנסיית מינימום לקשישים אילו החזון מעורר ההשראה של בית שמש יצליח ישראל כולה תצליח דווקא בתקופה של קיטוב והסתה במקום הזה מתעקשים על הטוב ו…  zviashkenazi מתנגד נחרצות נתוני האבטלה פשוט זועקים לשינוי מודל החל״ת ומעבר לסבסוד שכר למעסיקים אסור שישראל תישאר מאחור בגלל קיבעון מחשבתי שע…  אני מודה לשאר שותפינו בממשלה וביניהם ראש הממשלה החליפי על הגיבוי והדחיפה למשרד האוצר המשרד לשוויון חברתי והמשרד…  אישרנו עתה בממשלה את תכנית ״מגן זהב״ לטיפול באוכלוסייה המבוגרת במשבר הקורונה מהרווחה בראשותי יוביל את המאמץ במטרה…  רות גביזון ז״ל כלת פרס ישראל הלכה מאיתנו לא רק ענקית משפט וערכים אלא שסימלה את הסיכוי לחיות כאן כחברה מאוחדת אך…  ההסכם ההיסטורי בין ישראל והאמירויות פותח עידן חדש של מימוש הזדמנויות חשובות והתמודדות מול סכנות משותפות באזורנו למ…  סרטוני ההתעללות האכזרית בפעוטות חסרי ישע מצמררים ומחרידים מול פשעים מתועבים וחמורים שכאלה הפקרות העבר תיפסק לאלתר…  עולם התרבות נפגע קשות במשבר הקורונה ואין לי שום כוונה להפקירו המשבר חשף במיוחד עד כמה חסרה בו רשת ביטחון מינימלית…  התכנית כמובן נמצאת באחריות משרד החינוך אולם ההשלכות על סגירתה יתנקזו כולן לרווחה לא מוסרי לא יעיל וגם טפשי להגיע לזה תכנית היל״ה היא המפלט האחרון לפני ההידרדרות עבור צעירים רבים שנקלעו למצבי סיכון סגירתה עלולה להנחית מכה אנושה על ע…  לקראת שנה״ל הנחיתי את הביטוח הלאומי להעביר השנה בהקדם את מענק הלימודים השנתי בהיקף כולל של 240 מיליון שקל לכ240 אל…  TomerPersico התייחסתי ומתייחס בכל ראיון תעשה גוגל TomerPersico הארכת דמי האבטלה ומענקי המבוגרים החזר של מאות מיליונים למקבלי קצבאות קיום הסכם היסטורי עם העו״סים…  נוביל יחד עם משרדי הממשלה וארגוני המעסיקים להקמת מערך הכשרות מודרני אטרקטיבי ואפקטיבי שיוכל להחזיר ישראלים רבים ל…  התכנית הלאומית להכשרות מקצועיות היא מהלך אסטרטגי מרכזי ביכולתנו להניע מחדש את המשק ולתת ישראלים שאיבדו את מקור פרנס…   AFP הלב בוכה מול המראות הקשים שמגיעים מביירות ליבנו עם העם הלבנוני בשעתו הקשה ונסייע לו ככל שנדרש מול טרגדיות קשות שכ…  إن العين لتدمع والقلب ليحزن على هذه الفاجعة والمشاهد المؤلمة التي نراها من بيروت، قلوبنا مع الشعب اللبناني في هذه ا…  בלתי מתקבל על הדעת להכביד את הנטל על המעסיקים כשהם ממילא בקושי עומדים על הרגליים הוריתי לביטוח הלאומי שלא לגבות את…  די מופרך לתלות בתקציב דו שנתי גזירות וקיצוצים אחרי פיזור של 6 מיליארד שקל לכל עבר במענקים במקום לספור אצבעות לא קי…  אני דוחף לתקציב יחד עם כח״ל דרישה להעלאת הקצבאות לקשישים העניים ביותר במדינה אנחנו דורשים להעלות את קצבאת השלמת הה…  דרישת ההורים לילדים עם צרכים מיוחדים לקבלת מענק מוגדל מוצדקת מאין כמותה אני פועל בימים האחרונים על מנת להביא לתיקו…  מודל החל״ת נכשל הגיע הזמן לעבור למודל חדש של סבסוד שכר למעסיקים מה שיעודד אותם להשאיר ולהשיב עובדים רבים למקומות…  חבורות הביריונים האלימות שאורבות ומתנפלות על מפגינים שיוצאים לממש את זכותם הדמוקרטית מגונה וחייבת להיפסק מיד הפורע…  תקציב ל3 חודשים בתוך משבר כלכלי חמור זו טעות שהציבור עלול לשלם עליה וביוקר במקום תקציב שאפתני שיספק ודאות ויציבות…  הזדמנות נהדרת לשבח את שהצליח להדביק רבים לפני שנים במחויבות לקידום זכויות לאנשים עם מוגבלות והניצחון הזה הוא קודם כל שלו orenhelman משרד העבודה והרווחה בראשותי יזם ויוביל את ״מגן זהב״ תכנית חסרת תקדים בהיקפה למען האוכלוסייה המבוגרת בקהילה ובבתי ה…  יחד עם שר האוצר נאשר הערב תיקון היסטורי עבור ציבור הנכים העלאת ה״דיסריגרד״ במקום לכלוא נכים שמסוגלים לצאת לעבודה…  מברך את Israelkatz על ההחלטה לא לקזז דמי אבטלה במהלך הכשרות מקצועיות ושמח שדרישתי התקבלה בלתי מתקבל על הדעת שבמק…  קריאת הנשיא במקומה ויש להפנימה לא נתפס שמול המשבר הבריאותי והכלכלי החמור ביותר שהיה כאן נדרדר  לתסריט בלהות של בחי…  יש רגעים שפשוט צריך לעשות בהם את מה שנכון ולא רק את מה שאפשר  טיפולי המרה הם פשע את הנעריםות הלהט״בים צריך לקבל…  Syechimovich amirperetz אין שאלה בכלל תודה לכםן תמיד אעמוד לצדכם  אני מודה לשר האוצר Israelkatz  שגילה כאן רגישות חברתית אמיתית ולאנשי משרדו לארנון בר דוד histadruthadash על…  אני מצדיע לעובדים הסוציאליים בהנהגת ענבל חרמוני על מאבקם העיקש ושמח שעלה בידינו לתת מענה לדרישותיהם הצודקות מול הא…  לא יקום ולא יהיה  ביחד עם gantzbe פגשנו את העו״סים כדי להביע תמיכה מלאה בדרישותיהם הצודקות הם הכוח החברתי הכי חזק שלנו שבלעדיו אין…  Thank you Mr ambassador for a wonderful and meaningful meeting I’m sure we can strengthen amp expand our partnershi…  יש לברך על הסכם האחיות החשוב שהושג אתמול עם זאת לא ברור למה האוצר ממשיך להתעלם מהדרישות המוצדקות של העו״סים ומפקי…  לאחר מאבק עיקש דרישתנו הצודקת  לחלוקת מענק מוגדל לשכבות החלשות התקבלה  פתרון יעיל יותר מבחינה כלכלית וצודק חברתית…  עד היום העצמאים היו שווים רק בחובות הגיע הזמן שיהיו שווים גם בזכויות יחד עם הביטוח הלאומי גיבשנו הצעת חוק לדמי אב…  החוק למניעת אלימות כלכלית שאישרנו עתה בממשלה הוא חוק קריטי שיספק לנפגעותים רבים נתיב מילוט ממציאות אכזרית של הזנחה…  השאלה אינה האם צריך לתת כסף לציבור צריך לתת גם יותר השאלה למי כשמעניקים לכולם אותו הדבר נותנים למי שצריךפחות מד…  חד וחלק במקום לזמן את העובדים הסוציאליים הבוקר לחדרי החקירות על הפגנות צריך להתכנס איתם בחדר המומ כדי להגיע להבנו…  עמדה אמיצה ונכונה כנראה שלא יכולתי לבקש לעצמי יריב אידיאולוגי עיקש יותר משאול מרידור וחבריו לאגף התקציבים אבל גם…  IdanYosef Israelkatz אז כתבו מכתב וואו מה אתה בולע כל מה שזורקים לך פרט לכך הדמגוגיה הזו עלולה לעלות ביוק…  IdanYosef Israelkatz תגיד מאיפה הנפצת את הקשקוש הזה  YTB2018 מבין שאתה לא משתגע על הרכב הממשלה גם אני אבל בחירות זו אופציה רעה יותר ולגבי השפעההארכת דמי אבטלה לשנה…  עדיף שהמסוקים עם המזומנים יפזרו את הכסף איפה שבאמת צריכים במקום מעל לעננים80 אלף בעלי עסקים נותרו בינתיים מחוץ למ…  GLZRadio שר הרווחה ishmuli תוקף אצל RinoZror ברקע כוונת האוצר להגביל את עצמאות הביטוח הלאומי זו לא הזרוע הארוכה של מס הכנסה אף א… להסתכל על העו״סים שמועסקים בשכר דל וקורעים תחת הנטל בתקופה הזו ובכלל ״כתוספת שכר במגזר הציבורי משקף פרדיגמה צרה וי…  איילת תתקדמי זה 2020 לא 2003 הרופאים העוסים ועובדי המדינה מעולם לא היו אויבי העצמאיים אלא משרתי העם רק שהדמוניז…  המחאה הערב היא כרטיס צהוב מוצדק לממשלה וחובתנו לתקן זאת כדי שהמובטלים החדשים לא יהיו עניים חדשיםיש לפעול ומהר כמ…  11 עו״סים נעצרו מחוץ לאולפן pgoshMTP כי באו להביע באופן לגיטימי את מחאתםן המוצדקת ביותר זכות המחאה היא זכות יסו…  בנוסף נמשיך לדחוף קדימה את ״המודל הגרמני״ ואפשרות לדמי אבטלה גמישים אתגרים ומאבקים גדולים עוד לפנינו במסגרת התקצי…  התכנית הכלכלית היא צעד בכיוון הנכון ואני שמח שרוב הצעדים אותם דחפתי  הוכנסו ובעיקר הארכת רשת הביטחון למובטלים ולג…  לקחת דווקא את הביטוח הלאומי שמשמש כעמוד התווך המרכזי למיליון מובטלים בתוך משבר הקורונה ולפגוע בו זו החלטה חסרת היגי…  צר לי באמת שאגף התקציבים ניצל את נכונותנו להידבר ובזמן שהתקיימו כבר פגישות בעניין מתוך הבנה שלא מדובר בבעיה פרטית…  לא נאפשר לאוצר להצמיד אקדח טעון בראשו של הביטוח הלאומי כדי לבזוז את כספי המבוטחים ולהשתמש בהם לטובת צרכים אחרים מד…  כפי שהתחייבנו קצבת הנכות תועלה בתקציב הקרוב ואיתה גם התמיכה לילדים נכים נכים מונשמים נכים מבוגרים ועוד גם הדיס…  ועדת החקירה היחידה שצריכה לקום כאן היא על איך בעיצומו של המשבר הבריאותי הכלכלי והחברתי הכי חמור שהיה כאן פוליטקאים…  קרן פיצוי מיידית לעסקים עב מחזור פטור מתשלום ארנונה לעסקיםהכשרות מקצועיות תוך מתן דמי מחיה דמי אבטלה לעצמאים הא…  בני גנץ מוביל את המאמץ להכנסתה לתכנית הסיוע של הממשלה והיא תקבל ביטוי רב בצעדים שיפורסמו לצד הבטחת הקיום התכנית תס…  תכנית ״חיסון כלכלי״ יוצאת לדרך אסור לתת למאות אלפי ישראלים עצמאים שכירים ואחרים ליפול לתהום ולכן יחד עם…  ygil לדעתי ההודעה אינה מעודכנת קרי יצאה לפני שהוארכה הזכאות אבל זה בבדיקה צילום אריאל חרמוני משרד הביטחון הדבר הראשון שעשינו היום הוא לפגוש את נציגי הענפים שנפגעו קשות מההגבלות הם זקוקים לחבל הצלה לא לחבל תלייה המשוואה…  לאור העליה הגדולה בתחלואה אין ברירה אלא לנקוט בצעדים אגרסיביים יותר כדי להימנע מסכנת קריסה של מע׳ האשפוז יחד עם זא…  מחאת העוסים מוצדקת מאין כמותה ואני פועל על מנת לגבש הסכמות בין הצדדים ולהביא לפתרון מציאות שבה ילדה שנפגעה או קשיש…  טוב שהשר הנגבי חזר בו מדבריו מיליון ישראלים איבדו שלא באשמתם את מקור פרנסתם ונזרקו לאבטלה ולחרדה כלכלית קיומית הע…  HadarGil בהצלחה רבה  אחרי שנאבקנו והשגנו את הארכת דמי האבטלה לשכירים בכוונתנו לדחוף להגדלת הסיוע לעצמאים כדי שאף ישראלי לא ישאר מאחור ב…  מול מיליון מובטלים שכמהים לחזור לנורמליות אין שום דבר קדוש בתאריך של היום פרט להבטחת רשת הביטחון שלהם ויצירת מקומות…  gantzbe מיליון מובטלים לא מתעניינים בסיפוח אלא באיך לגמור את החודש ואני מבטיח שנעשה את הכל כדי לדאוג לכך שמצבם הכלכלי ישתפר   באתי לע… שמח שלצד הארכת דמי האבטלה ומענקי המבוגרים עד לאוגוסט התקבלה גם דרישתי להתמיד במדיניות אי קיזוז הקצבאות מדובר בהישג…  הקורונה היא לא רק מגפה בריאותית אלא גם כלכלית ולמרות נתוני התחלואה שעולים תחת ניהול סיכונים נכון יכולת הספיקה של מ…  אני שמח שראש הממשלה ושר האוצר נענו לדרישתי הנחרצת להארכת תקופת הזכאות לדמי האבטלה ולמענקים לאוכלוסיה המבוגרת עד לאו…  הזכות להפגין היא מרכיב מהותי בחופש הביטוי ויש להגן עליה מכל משמר מעצר מפגינים המוחים באופן לגיטימי הוא אקט קיצוני…  אין לנו זמן להמתין אם לא נתעורר ביום חמישי הבא 262097 ישראלים מובטלים יגלו שהם לא מקבלים דמי אבטלה ביוני חודש של…  קורונה חברתית לא רק בריאותית אנו עדים לזינוק חד במספר הפונים ללשכות הרווחה עלייה של 61 בהשוואה לשנה שעברהוא…  fessunion לא נכון ותודה הקריאות המביישות וההסתערות האלימה על אמנון אברמוביץ׳ בזויה ומעוררת חלחלה אני מגנה אותה בכל תוקף התקפה על עיתונאי…  הצעת האוצר שלא לגרוע מימי הזכאות של המובטלים את תקופת הסגר היא צעד בכיוון הנכון אך אינה מספקת והתוצאה של מאות אלפי…  אם לא תוארך הזכאות לדמי אבטלה עד לאוגוסט נגיע לכחצי מיליון מובטלים שרובם המוחלט לא יקבלו דמי אבטלה כלל השאר יקבלו…  בהחלטה משותפת עם Israelkatz העברנו עכשיו החלטה חשובה בהיקף של 340 מלש״ח עבור המענקים המיוחדים בתקופת הקורונה לטוב…  צעדת העו״סיםות היא צעדה למען החברה כולה אני תומך במאבקם בכל לבי ואתייצב לצדם בממשלה ובכל מקום הגם שמועסקים בתנאי…  המענק הזה הוא אוויר לנשימה עבור האוכלוסייה המבוגרת אלפי גמלאים פשוט לא ידעו שאם יעבדו אפילו שעה אחת ילקח מהם מענק…  EsawiFr NitzanHorowitz tamarzandberg עיסוואי עם כל הכבוד ויש הרבה כלפיך קצת התבלבלת בעניין של מי הכניס את מי בחייך zviashkenazi DotzMR netacheha מושלמת זכינו זכיתי  אני שמח שההחלטה התקדימית שקיבלתי מתחילה להניע את גלגלי השינוי עבור המתמחים ומברך את שר הבריאות על הודעתו האמיצה שנ…  הקשישים שלנו לא אמורים להינמק בבדידותם ובעליבותם לא בחייהם ובטח שלא במותם כשר העבודה והרווחה שאמון על עיקר הטיפו…  הנתונים מהערב מדאיגים ולא מפתיעים מאות אלפי ישראלים עדיין בבית לא כי הם מאוהבים באבטלה אלא כי לשוק אין מקום עבור…  GLZRadio שר העבודה והרווחה ishmuli לRinoZror לא אחתום על היתר עבודה של 26 למתמחים   זה שוק עבדים מודרני לא רוצה שמנתח הוריי יחז… GLZRadio השר ishmuli תוקף אצל RinoZror לקחת את הנכס האסטרטגיביטחוני של מדינת ישראל בדמות מחויבות מדינות המפרץ לקידום הנורמליזציה… Israelkatz zionnenko ישראל יישר כוח וכל הכבוד על היוזמה ושיתוף הפעולה גילית רגישות חברתית אמיתית  התחייבתי לבטל את מחדל קיזוז הקצבאות בקורונה ואמש אישרנו את החוק בכנסת 250 מלש״ח יוחזרו לשכבות המוחלשות ביותר בזכות…  בסופ״ש איבדנו את רואן אל כתנאני ואת העובר שנשאה ברחמה לאחר שהוכתה למוות בשטנות ע״י בעלה 12 נשים שכל אחת מהן היא ע…  פניית שגריר האמירויות לעם בישראל היא מעשה אמיץ ומעורר השראה שמלמד על מחויבות האמירויות לקידום הנורמליזציה במזה״ת ל…  gontarzn Anon1450012136 gantzbe netanyahu regevmiri AmirOhana הוא יכול וכך היה עם או בלי קשר למה שכתוב בתקנ…  אדגיש כי לא ניתן מעשית לשנות את המתווה בין לילה באופן פשטני ע״י אי חתימה על ההיתר בכלל דבר שעלול להכניס את מערכת ה…  אין בכוונתי לתת צ׳ק פתוח להמשך ההעסקה הפוגענית של המתמחים ברפואה לכן דחיתי את הבקשה למתן היתר ארוך וגורף להמשך של…  אדגיש כי לא ניתן מעשית לשנות את המתווה בין לילה באופן פשטני ע״י אי חתימה על ההיתר בכלל דבר שעלול להכניס את מערכת ה…  גולני גולני שלי מצדיע ללוחם גולני הערכי הנחוש והאמיץ שהתייצב בגופו כדי להגן על אדם חסר אונים מול התוקפים האלימים    אני שמח שדרישתי החשובה להאריך את מענקי הקיום לבני ה67 התקבלה ומברך את שר האוצר על הצעד הנכון בצד הנעת המשק א…  אני שב וקורא לראש הממשלה ולשר האוצר לאשר הערב את דרישתי להארכת מענקי הקיום לאוכלוסייה המבוגרת ואת החל״ת למובטלים שפ…  בג״צ קבע את המובן מאליו לא הסדרה נועד להשיג החוק כי אם הכשרה בדיעבד של עושק וביזה משכך טוב שנפסל על ידו ברוב מוח…  MKMickeyLevy מיקי תודה על תמיכתך בדרישה שלנו הצלחנו שתתקבל דרישתנו להארכת חל״ת לעובדים ואני משוכנע שהשר כץ…  אין לי כוונה להתפשר על דרישתי להארכת מענקי הקיום לבני 67 שנפלטו משוק העבודה ואם הנושא לא ייפתר לאלתר נביא זאת מיד…  אני שמח שדרישתי להארכת החל״ת גם ביוני התקבלה במלואה עם זאת אסור בשום אופן להפקיר את האוכלוסייה המבוגרת מאחור וחו…  הממשלה חייבת דחוף לחשב מסלול מחדש אחרת עם חצי מיליון מובטלים שאין להם לאן לחזור פשוט נתנגש בקרחון מע׳ הרווחה ממש…  אנו יוצאים עם תכנית חירום עבור ניצולי השואה העניים ביותר במדינה שנפגעו קשות בתקופת הקורונה המהלך ירחיב מאוד את מע…  במקביל הנחיתי לוודא שבכל בתי האבות קיים ציוד מיגון מספק גם במלאי ושישנה הקפדה יתרה על הנהלים במקביל נגביר ונרחיב…  אנו פועלים בצוותא עם ״מגן אבות ואמהות״ וישנה שליטה על מקרה ההתפרצות בבית האבות באור יהודה עד כה נספרו מס׳ חולים מק…  ישראלים רבים יהפכו בקרוב בעל כורחם ל ענייםהחדשים כשיצנחו מהכנסה נורמלית להבטחת הכנסה לזמן ממושך במקום לדחוף לני…  yairlapid יאיר אתה זורק סיסמאות על הרווחה כבר כמה ימים תעשה שיעורי בית אף אחד לא לקח לילדים עניים אוכל מהפה וג…  היי יאיר פשוט מאוד זו משימת חיי ואני מתכוון להילחם עבור המוחלשים כפי שלא היה מעולם בחלק גדול נצליח בחלק אולי פ…  מצדיע למנהיגיות המאבק נגד אלימות במשפחה שהגיע הערב לשיא עלינו להפוך את המשוואה ולספק עולם בטוח ומוגן לנשים ולילדי…  ״חירום״ אינו סיבה מספקת לשוטרים לפרוץ שרירותית לבתים פרטיים לממשלה להורות שבית המשפט והכנסת נסגרים ושהאזרחים מנועי…  קיצוץ התקנים במשרדי הרווחה והבריאות בתקופה זו הוא דבר בלתי מתקבל על הדעת ואדרוש בישיבת הממשלה להחריגו לנוכח הזינוק…  מתוך מחויבות עמוקה לשלומה של האוכלוסייה המבוגרת מהרווחה יקיים הערב לצד ״מגן אבות ואמהות״ ומהבריאות הערכת מצב בא…  חג שבועות שמח     ynetalerts אבא של מאיה ווישניאק ז״ל ביקש משר אחד לקום ולהגיד ׳מעכשיו זה עליי׳ אז שיהיה ברור המאבק כנגד אלימות במשפחה הוא עלי…  נפתלי אין מפה טובה לישראל עם סיפוח ח״צ לא עכשיו ולא בהמשך אזרוח המוני פלסטינים עם נרטיב עוין תביא לתבערה בטחונית…  אחרי העקומה הבריאותית חייבים להשטיח את העקומה החברתית לאחר הקורונה תחולת העוני עלתה ב15 הסיכוי של משפחות עם 2 מ…  אתמול נודע לי כי באחת ממסגרות הטיפול שלנו התגלה לאחרונה חשד לפגיעה והתעללות בחוסה חסר ישע הוגשה תלונה למשטרה והפוג…  צריך לומר ביושר ובהגינות יישר כוח גדול לשר האוצר Israelkatz שגילה רגישות חברתית מיוחדת כלפי ביטול העוול של קיזו…  kannnews שר העבודה והרווחה ishmuli התפקיד הזה זו משימת חיי יש הרבה בעיות במדינה קלמןליברמן KalmanLiebskind asaflib מדובר בהישג חסר תקדים לטובת השכבות החלשות אני מודה לשר האוצרישראל כץ על הגיבוי למנכל הביטוח הלאומי ולנציגי אגף ה…  לאחר דיונים מרתוניים עם נציגי אגף התקציבים עלה בידי להגיע לסיכום בדבר עצירת הקיזוזים השערורייתים של דמי האבטלה מקצב…  תודה מיכל זו רק ההתחלה  המשפחות העניות הן האחרונות שצריכות לשלם את המחיר ואני שמח שהצלחנו להשיג את התקציב להמשך פעילות המיזם לביטחון תזונתי…  אמרתי עתה בישיבת הממשלה שבצד המאמץ להחזיר לתעסוקה מחובתנו לדאוג לאלה שאין להם לאן לחזור יש לפתור את מחדל קיזוז הקצ…  מרכזי היום ומועדוני האזרחים הוותיקים יחזרו לעבוד מחר לאחר מאמץ רב שהובלנו יחד עם מהבריאות והאוצר בדידות הקשישים מ…  אנשים מבוגרים שהמדינה דוחפת לעוני ונאלצים ״לחיות״ על מצות מפסח זו בושה לכולנו מזה כ3 שבועות שאנחנו דוחפים את החוק…  עצרתי הכל ונסעתי למקום בו הותקף השבוע עובד סוציאלי כדי לדבר עם העוסים הם חוד החנית במאבק מול זינוק במקרי אלימות ב…  נשיאנו המיוחד והיקר ruvirivlin פרס את חסותו הערב על המאבק כנגד אלימות נשים והודיע כי יקדיש חלק ניכר מיתרת כהונתו ל…  באירוע לזכר מיכל סלה ז״ל ביוזמת אחותה וחברתי הקרובה LiliBenAmi אשר יזמה הקאתון לפיתוח טכנולוגיות במטרה למגר את תו…  תחושת הבדידות בקרב הקשישים קשה ואסור להקל בה מעבר לתחושה הקשה היא מסכנת אותם בריאותית ונפשית במידה רבה כמשרד הראש…  באחריותי לגייס את הממשלה כדי להעמיד משאבים שיאפשרו הקמת מערך ליווי מעקב והרחקת גברים אלימים הרחבת המעטפת להגנת נפ…  אני נכנס לתפקידי היישר למציאות מחרידה שבה מספר רב של נשים נרצחו מתחילת השנה התופעה המתועבת הזו היא אחת מהבעיות הקש…  במשמרת שלי העו״סים לא יהיו שק החבטות של אף אחד ולא משנה כמה קשות נסיבות חייו הם שנמצאים בקו החזית של המשבר החברתי…  Ayeletnnv Meravbenari תודה רבה איילת יקרה ריגשת מאוד guylerer תודה גיא  Meravbenari תודה נשמה  תודה רמי זו משימת חיי  אני מושבע עתה כשר הרווחה העבודה והשירותים החברתיים של מדינת ישראל לנגד עיניי מיליון מובטלים אלפי בעלי עסקים שנשב…  לאחר מאמץ גדול ומשותף עם ההורים וצוות משרד העבודה והרווחה עלה בידינו להביא לסיום מוצלח של המשבר במעונות היום כ 40…  כואב מאוד את נפילתו של עמית בן יגאל בנו של חברי הקרוב מאוד ברוך רק ביום הזיכרון האחרון ביכה עמית את לכתו של דניאל…  במשבר הקורונה העמותות לקחו על עצמן במסירות את מתן הסיוע הישיר למיליוני ישראלים במצוקה הן פעלו ביוזמתם ועל חשבונם…  צעד ראשון בכיוון הנכון אבל עדיין צעד חסר ומפלה החיילים הבודדים המשוחררים יקבלו מענק בגובה 4000 ש״ח אם עבדו חודשי…  החלטת הממשלה מהערב לאשר את המשך המתווה לקבלת דמי אבטלה הכרחית אך חסרה ומחוררת החיילים הבודדים המשוחררים שוב נותרו…  מודה לחברי המפלגה שאישרו את הצעתנו ברוב מוחץ הכרעה לא קלה אך נכונה נוביל שינוי חברתי טוטאלי ונבלום כל ניסיון השת…  יאיר אני מציע שתתעמק ותדייק קרא אתה את החוק הצרפתי שרצו לקדם בכנסת וגם את ההסכם שבתוכו  פריטטיות ותפוגה לביבי… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תנחומיי למשפחת החייל שנרצח הלילה בפיגוע הקשה אני מכיר ומוקיר את ישיבת מגדל עוז מזה שנים ושולח חיזוקים לרב שלמה וי…  מערכת הבריאות  קורסת חוסר במשאבים עומס אדיר ואלימות עולה כנגד הצוות הרפואי אני תומך בשביתת האחיות שהיא קריאה לשנ…  לא מתקבל על הדעת ששר זמני סמוך  למועד בחירות יפטר מנכל״ית  כאמי פלמור אמי עבדה במשך שנים בממלכתיות וברגישות ציב…  HassonYoel akivanovick יואל הכנסת היא לא לשכה לסידור מקומות עבודה אני מתכוון לסיים את מלוא הכהונה אליה נבחרתי ו…  ⁦Syechimovich⁩ יקרה תודה רבה על העבודה הקשה והשנים כפרלמנטרית ולוחמת צדק אמיתית המון בהצלחה בהמשך טל  טל דווקא את אמורה לדעת לא עזבתי את העבודה המפלגה ולא את העבודה בכנסת  שמחתי לשמוע שגבי ושטרן יצטרפו לסיור הש…  amirperetz ידידי ברכות והצלחה בהובלת המפלגה למחוזות חדשים תנחומיי  לנשיא המדינה ראובן ריבלין ובני משפחתו  נחמה ריבלין ז״ל בדרכה הצנועה המאחדת והמקבלת  הייתה להשראה מבור…  אז כן הליכוד העלה הצעה בהתייעצות משותפת עם חברי הסיעה החלטנו לפסול על הסף את ההצעה בנאום הבכורה נאמתי שהפוליטיקה…  באתי לכאן להיות שומר סף של הדמוקרטיה לקבל את רצון הרוב ולא פחות מכך לשמור על זכויות המיעוט חברים חוקים נועדו ל…  מתכונן במרץ לקראת הנאום הראשון והאחרון שלי בכנסת ה21  אני רק שלושה שבועות בכנסת וכבר נתקל בחוקים פרסונליים שיח מתלהם ושחצני והשתלחויות בנציגי החוק אנחנו חברי האופוז…  אל תשארו אדישים בואו ונלחם יחד על הבית כדי שצדק מוסר ויושרה אישית  יהיו  למצפן חברתי ולסטנדרט בסיסי של  נבחרי…  נבחרנו לשרת את העם ולא את התיאבון הפוליטי חוק הגדלת מספר השרים יפגע בתפקוד של משרדי הממשלה ובאיכות השירות לאזרחים…  הופתעתם אולי כי התרגלתם לשיח של שיסוי אמשיך לדבר אל המחנה הימני כשותף ולא כאויב אבקר לגופו של עניין ולא לגופו של…  אני מקווה שהדברים אינם נכונים אף אדם אינו מעל החוק ולא משנה מה תפקידו אני מכיר את רוב חברי הקואליציה העתידית היכר…  המעבר החד בין יום הזיכרון ליום העצמאות הוא הסיפור הכי ישראלי בין האבל לשמחה בין הזיכרון לגאווה  זוכרים ומסתכלי…  היום כולנו מתייחדים עם זיכרון הנופלים כולם היו בנינו הטובים עמית אסולין ואור כהן ז״ל היו החיילים הראשונים שאיבד…  במועצה האזורית שער הנגב הצטרפתי לאופיר ליבשטיין ראש המועצה בקיבוץ ארז ובהערכות מצב באתי להרגיש את מה שקורה בדרום…  אני מתחייב לשרת את הציבור ואת מדינת ישראל ביושרה באמונה בדרך המתונה ובאהבת אדם שלכם טל רוסו  קרדיט דוברות הכ…  עם המשפחה זה מרגיש קצת כמו שלום כיתה א׳ בבית הספר של החיים הציבוריים  שיהיה לכולנו בהצלחה  AviBenayahu לומדים את המגרש We send our deepest condolences to the Chabad San Diego congregation after this brutal and senseless antiSemitic a…  חג חירות שמח גם השנה לצערי לא סמכו עלי בעניין העיצוב נתראה בכנסת ה21 לחיים   שמחתי לשמוע את ההודעה המרגשת על בחירתו של הזמר והיוצר יהודה פוליקר להדליק משואה ביום העצמאות הקרוב במהלך כל תקופתי…  zviashkenazi HavodaParty זאת הייתה משאית קלה  יקיריי  חטפנו מכה קשה  נזקוף את הראש   אנחנו  ממשיכים בכל הכוח אני קורא לכם לחזור הביתה יחד נבנה ויחד נתחזק…  זכיתי לגלי תמיכה גורפים מצד כלל חברי מפלגת העבודה ותומכים מבטיח לעדכן ומבקש לנצל את ההזדמנות להעביר את הערכתי  מגל…  חברים עזבו שמועות קבלו עידכון ממקור ראשון תוצאות הבחירות העגומות מבחינת המפלגה ומבחינתי האישית  מחייבות זמן לח…  ruthelbaz למי אני מצביעה  מסתובב בקלפיות תל אביב ופוגש את מפקדי היקר ראש הממשלה לשעבר barakehud אהוד ברק  שהלך גם הוא עם האמת שלו  GabbayAvi מצמצתם קבלו את זה  סיכום הבחירות ב90 שניות  חוזרים לדרך חוזרים לעבודה  GabbayAvi בלי מרפסת אבל עם נשים חזקות הנבחרת הכי טובה בישראל יחד כל הדרך לשינוי אל תפלו לספינים לכו עם האמת שלכם  רק קול לעבודה… תקשיבו טוב לאמנון אברמוביץ  הגענו לרגע האמת חוזרים לדרך חוזרים לעבודה HavodaParty  הולכים עם האמת שלנו  הולכים עם העבודה HavodaParty  GabbayAvi  amirperetz  ishmuli  Syechimovich  ביבי בנה את עצמו כ״מר ביטחון״ וזו אחיזת עיניים כשיש הצלחות בצפון  זה ביבי אבל בדרום כשלא כל כך הולך אז זה צה…  לכו עם האמת שלכם GabbayAvi HavodaParty Syechimovich amirperetz MeravMichaeli swid4  החזרת גופתו של זכריה באומל זל מרגשת  נמשיך במאמצים להשבת כלל נעדרי צה״ל ואזרחי ישראל  שוק הכרמל רוצה שינוי GabbayAvi  HavodaParty  גם ינעל העולם יודע  רק עבודה חזקה תביא שינוי  HavodaParty עכשיו בשוק הכרמל אבי גבאי וטל רוסו מתקבלים בסוכריות  newsisrael13 אלוף במיל טל רוסו HavodaParty רציתי להיכנס לפוליטיקה בגלל השיח הפלגני בין ימין לשמאל יהודים ערבים דתיים חילוניים… ״חשיפה יש מישהו שלא חושב שאלאור עזריה ילד מסכן שנוצל בידי גורמי ימין קיצוניים  ביבי הובס על ידי החמאס בעזה ועכשיו הוא מכתיר וממליך אותו במו ידיו ביהודה ושומרון  TSmotrich זה בסדר שיש ביננו חילוקי דעות אבל תזכור תמיד שהאחדות בעמנו היא הדבר החשוב ביותר טוביה יקירי גם אתה התבלבלת מהלך צבאי נעשה רק בשביל לשרת מהלך מדיני היום אין מדיניות  וכדאי שתלמד את זה  רק ״הפרד״ בלי למשול הזנחת עוטף עזה תמורת סיפוח איו״ש  שכמובן יביאו עלינו אסון וביטול החזון הציוני בשני המקומות  זאת התכנית שלנו להחזרת הביטחון לישראל  תכנית ״ביטחון לדרום״  GabbayAvi איציק מזל טוב אוהבים הנבחרת ishmuli  MaarivOnline בחירות 2019  אלוף במיל טל רוסו באירוע שבתרבות בפת אנשים לא נולדים להיות רמטכלים ולא ראשי ממשלה בין אם הם נולדו במ… kannnews מקום 2 ברשימת מפלגת העבודה roussotal בשבתרבות בפתח תקווה אני מאמין שיש לנתניהו יעד אסטרטגי  לרסק את הרשות הוא ויתר על… מזל טוב יקירנו  HenriqueBC הבוקר במטה בפגישת עבודה עם הרמבו של צהל האלוף במיל טל רוסו   ביטחון לצד יוזמה מדינית זו תמיד הייתה הדרך של מפלגת העבוד… calcalist אלוף במיל roussotal מפלגת העבודה בוועידת כלכליסט כל פעם שואלים מה עושים עם עזה אין פתרון קסם מה שלא עשו 10 שנים לא י… אם ממשלת ישראל תמשיך להתנהל בתגובתיות מול עזה והחמאס אזרחי ישראל ימשיכו לכבות שריפות גם מחוץ לעוטף עזה  תושבי המרכז התעוררו הבוקר לקול אזעקה כפי שתושבי עוטף עזה חווים מידי יום כל זאת עקב חוסר מדיניות חוסר תכנון וחוסר…  תענוג לצאת מכנס מוצלח ולשמוע שהנבחרת שלנו  יהודים ערבים צ׳רקסים בני העדה האתיופית אשכנזים ומזרחים  האמינו שהכ…  רפי איתן ז״ל היה איש רב זכויות רב פעלים עד יום מותו גם בעשייה הביטחונית וגם הציבורית וחברתית מדינת ישראל חבה לו חוב גדול מצדיע לו NechamaDuek טל רוסו חושף בשבתרבות בחולון לפני כחודש החמאס פתח לי עמוד פייסבוק מזוייף השב״כ ופייסבוק העולמי טיפלו בזה זה עידן שלא מס… ZwZd5Hf6NLqFBH0 ביקור של איש יקר חבר מפקד טל רוסו  דיווח מעניין בתכנית המקור על כך שפעלתי מול משרד החינוך לפתיחת מכינת בני ציון מחדש רק שזה פשוט לא קרה מעולם  טלפון…  ליבי יוצא אל הנפגעים ובני משפחותיהם בפיגוע הטרור הרצחני הבוקר  אני מחזק את ידיהם של אנשי כוחות הביטחון ואני סמוך ו…  מסיים בשבתרבות מעניינת בתל אביב בהנחיית נורית קנטי אמרתי לה שהמדינה בסטגנציה כמעט בכל תחום איבדנו כיוון הלוואי ו…  ברכות לצה״ל על חשיפת תשתית החיזבאללה בגולן הסורי זה הישג חשוב של צה״ל בהמשך לפעולתו המתמשכת למניעת התבססות איראן…  תודה אבי גאווה גדולה להיות חלק מהנבחרת המצוינת של מפלגת העבודה  עכשיו זה סופי אני רץ ואני צריך אתכם איתי הצטרפו אלי וביחד נוביל לשינוי במדינה  גאה להיות חלק מהנבחרת המצוינת של מפלגת העבודה  עמיר אני אוכל את הכובע  amirperetz  קפה של בוקר עם גדי ירקוני ראש מועצה אזורית אשכול מנהיגים כאלו הם הכוח הכי גדול שיש לתושבי העוטף  אני מחויב לביטח…  לילך תודה רבה לך על המילים החמות   lilacsigan  כמפקד וכלוחם שטעה לא פעם ולא פעמיים מגיעה מילה טובה לידיעות אחרונות על לקיחת אחריות ותיקון הטעות צעד כזה מגביר את אמון הציבור בתקשורת במשך כל סוף השבוע האחרון כאבתי את העיוות המוחלט של דבריי בראיון נשכתי את השפתיים אבל ידעתי שבסוף האמת תצא אל האור…  בטוויטר כבר 5 דקות  משוחרר כבר 5 שנים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ממשלת ניסנקורןנתניהו קושרת בין הגבלת ההפגנות לסגר כללי וכך למעשה דוחפת עשרות אלפים לאבטלה ללא צורך  ניסנקורן לא מ…  במוצאי יום כיפור הרבנית מרים לוינגר הלכה לעולמה אישה פורצת דרך שחייה בשותפות מלאה עם בעלה את חזון ארץ ישראל השלמ…  לארוחה מפסקת הכנתי גם קובה לזכר סבתי שמחה העיראקית שעלתה מאיראן וגם גפילטעפיש לזכר סבתי בתיה האשכנזיה צברית ש…  התחלואה בשיאה 8221 נדבקים ובכל זאת מפגינים מתעקשים להגיע הערב לבלפור באלפים ולפרום את הסולידריות החברתית שנדרשת ב…  במקום לדאוג לעובדים שר המשפטים פוגע בעובדים  גם את זה ננסה לתקן בועדת חוקה  zehavagalon זהבה די עם החמיצות אני מבינה שהמושג נתינה זר לך אכיר לך את אותו אדם אולי ישפיע עלייך תשמעו סיפור חבר של חבר הייטיקיסט שרצה לעשות מעשה לקח 100 אלף שקל במזומן נסע לעיר בצפון הארץ נכנס לשש מכולות וש…  ברגעים אלה ממש נלחמים להשאיר את ענף הבנייה והתעשייה עובדים אם הממשלה תחליט לסגור גם אותם למרות שיש הסכמה והבנה שה…  KipaNews חכ AyeletShaked תוקפת את התנהלות הממשלה באולפן כיפה אם אני הייתי שרת המשפטים הממשלה היתה מגבילה את ההפגנות  meravco… תפילה באוויר הפתוח ל20 איש מרחק של עד קילומטר מהבית כך גם הפגנות  במקביל לדאוג שהמגזר הפרטי יוכל להמשיך לעבוד תח…  KnessetT חכ AyeletShaked תזמנה שעה וחצי מתל אביב לירושלים בתגובה לטענותיה של חכ מyeminaparty על מחסומים מיותרים בכבישים אמר יו… טמטומה של ממשלת ישראל 2 בכל העולם המתקדם יש מעבדות בשדה התעופה כבר מיוני פה מורחים זמן בנתיים עסקים בורחים מיש…  טמטומה של ממשלת ישראל 1 שעה וחצי עמדתי בפקק בכביש 1 כי שוטרים עוצרים כל רכב אם המגזר הפרטי עובד למה לא לעשות…  ayeletkahana יממה לאחר החלטת המחוזי על הסגרתה של לייפר לאוסטרליה ח״כ שקד קיימה כעת שיחת עדכון בזום עם הקהילה היהודית במלבורן בתקופתה… ההפגנות המופקרות שפורמות את הסולידריות החברתית שלנו צריכות להיפסק בזמן הזה אין על זה ויכוח  אך אם ההממשלה הכושלת…  במממשלת השמאל של נתניהו מאריכים לדינה זילבר את הכהונה ולחברי פורום קהלת לא מאפשרים להציג חוות דעת מקצועית  הצבעת…  RahavRan אזכיר לכולם מה היה כאן ניסיון השחרה לשרת המשפטים איילת שקד  זוכרים  אז תזכורת ועכשיו יאלה תחסכי מכולנו את הבושה חי… naftalibennett סרטון חדש זה מכיל מידע חשוב שאינכם מכירים  כיצד מנת ההדבקה מספר הנגיפים שמגיעים לגופכם ברגע ההדבקה משפיעה על חריפו… בית המשפט קיבל את ההחלטה הנכונה מלכה לייפר צריכה להיות מוסגרת לאוסטרליה ולעמוד שם לדין בהקדם אפשרי בגלל הימשכות ה…  כשבארהב הנשיא טראמפ מחפש את הדמות השמרנית הבאה לבית המשפט העליון האמריקאי בישראל נתניהו נותן את הסכמתו להארכת כהו…  רוב האזרחים נשמעים להנחיות  אין סיבה למוטט את המשק ולשתק את המגזר הפרטי שעומד בתו הסגול הממשלה צריכה לעשות את תפק…  בדמי ימיה מתה אימי בגיל 55 בדמי ימיה מתה מירית הררי בגיל 52  אני מבקשת לשלוח לכן בנותיה של מירית חיבוק מנחם…  יש לנו בארץ את האנשים הכי טובים בעולם חייבים לעבוד ביחד כל המגזרים ולא לפרום את ההנחיות  רק ביחד ננצח שנה טובה…  liyaomer נדיר שאני מבקש משהו אני מבקש שתראו את הסרטון הזה אני לא מכיר את הילדה אבל זה שבר אותי מי שיכול לפתוח את הלב ואת הכיס זה… אורי גוטהלף המורה שלי למתמטיקה האיש והאגדה  צריך להחליף הנהלה לא לסגור את המדינה  תפקידה של האופוזיציה הוא לבקר את תיפקודה של הממשלה בטח כשניהול המשבר כושל כל כך ברוב מדינות העולם מערך קטיעת שרשר…  עובדי הרשות להסדרת ההתיישבות הבדואית בנגב נדרשו להפקיד את נשקם ולהיכנס לישובים בלי נשק אם תהיתם השרים שיגיעו ימש…  אפשר לנצל את משבר הקורונה לתקן דברים מקולקלים    דין ההפגנות כדין תפילות בחגי תשרי ככה פשוט כל התקהלות המונית פוגעת בכולם כך צריך לראות את זה  זה בידיים של השרי…  הממשלה הובילה את המדינה לכישלון הניהולי והמנהיגותי הגדול בתולדותיה  חובבנות ופוליטיקה קטנה הביאונו עד הלום כעת המ…  העץ אצל אבא שלי בגינה שנה טובה ושבת שלום   אולי כדאי להאריך את תקופת הצינון לגנרלים כדי שיוכלו להפנים טוב יותר את המושגים דמוקרטיה וחופש ביטוי  בעיירית בני ברק עם ראש העיר ופרויקטור הקורונה  התנאים קשים בגלל הצפיפות וחיי הקהילה אך נלחמים פה בהרבה יצירתיות בנ…  יועץ משפטי לא יקבע מי יהיה ראש ממשלה הכנסת היא זו שקובעת  כל קביעה אחרת חותרת תחת יסודות הדמוקרטיה ולעניין חשוב…  בית המשפט הולך סחור סחור בדחיית העתירה מסיבות ״תיאורטיות״ האמת הפשוטה היא שאין זה מתפקידו להתערב בהחלטות וועדת הכנ…  בחריש פגשתי את הרב מיכאל שעומד בראש קהילה דרום אמרקאית בעירהוא סיפר לי שיש 25 אלף תיקים של אנשים שרוצים לעלות ליש…  avital1974d מציע לאנשי הימין להרגע אבי ניסנקורן יטפל בפרקליטות כיור סיעת ימינה פניתי ליור הכנסת וביקשתי לעלות להצבעה כבר ביום רביעי הזה את הצעתו של חכ סמוטריץ להקמת ועדת חקירה…  ביקרתי במוקד הארצי של איחוד ההצלה והצינור שמחלקים את הכסף שגייסו לטובת סיוע במזון ותשלומי חשבונות מחמם את הלב לראו…  שאלתי את פרופ גמזו מתי יהיה מוכן המערך לקטיעת שרשרות ההדבקה התשובה  111  עדיף מאוחר מאשר אף פעם לא אבל אם רוה״…  בנט ואני היינו היחידים שהצביעו בקבינט נגד דחיית פינוי חאן אל אחמר מעניין מה יקרה קודם ישיבת ממשלה או פינוי חאן אל אחמאר שיחה לילית עם תושבי מצפה כרמים החלוצים דנים באפשרויות  שקרים קווים לדמותם כשרת משפטים נלחמתי בכל הכח שתוסגר לאוסטרליה וקידמנו ככל שיכולנו את ההליך המשפטי מקורביה של מלכ…  YoavKisch קראתי את המסמכים שהועברו לועחו״ב ושוחחתי עם יו״ר הועדה ח״כ האוזר שנינו תמימי דעים שלאחר שכלול כלל הנתונ…  סוף סוף אחרי שנים של מאבק משפטי יסתיים הליך ההסגרה מלכה לייפר צריכה לעמוד למשפט באוסטרליה  זהו הסתיים הבידוד מתכננים את החודש הקרוב   צריך להוריד את ימי הבידוד ל10 ימים או מקסימום ל12 כמו שכבר עשו בשוו…  מאחלת בהצלחה לשולי היקרה נפעל ביחד למען ערכים משותפים מכל מקום שבו נהיה היום ב1 בספטמבר אני מבקשת לחזור לאונס באילת  כי בסוף  הכל מתחיל בחינוך    שלום לחברים בממשלהתמשיכו לריב ביניכם ועם הפקידים וילדים שכבר הכינו את הילקוט בהתרגשות למחר יגלו בבוקר שאין בסוף ב…  TsahiDabush לזכותו של בנט ייאמר שהוא נכנס לתפקיד שר הביטחון הוא ירש גזרה חמה בעזה עם רקטות בלוני נפץ והפרות סדר בגבול וכשהוא סיים הו… Idan68492838 מתן כהנא מוכן לקצץ ואף יזם את זה talcohen86 לא peudi אין ilanco172 לא בעלי לא נהנה מפנסיה תקציבית ולמען האמת לא נהנה כרגע מפנסיה כלל ומתכוון לעבוד עד גיל 67 לפחות דרך א…  tommym2001 כן יאיר מה שמרסק את האזרחים זה הפנסיות התקציביות המנופחות שלך ושל חבריך הפקידים כשתסכים לקצץ בהן תחזור אלי  שבוע שלישי בלי ישיבת ממשלה  ילדי ישראל חוזרים ללימודים הקורונה משתוללת עסקים קורסים עוטף עזה עולה בלהבות וממשלת…  מיקי תזכורת יכלתם לפני שבועיים להעביר אותה אל תדאג תהיה לכם עוד הזדמנות בקרוב   zviashkenazi RavivDrucker צבי הספקתי לראות רק את מנאייכמעולה כעת קוראת את חתן הפרס של יעל טבתמומלץ בחוםאיילת RavivDrucker זה שתתקוף בצורה בוטה ומתנשאת לא יהפוך אותך לא ליותר חכם ולא ליותר צודק  טענתי טענה עניינית הגבת לא…  RavivDrucker אמירה מביכה שלך אסביר 1 הפעם תשובת המדינה הייתה טובה  מסדירים את היישוב לא מפנים בניגוד לתשובות מ…  פסיקה ארורה של בגצ צדק בטח אין כאן פסיקה של מחוזי ירושלים אישור יועמש תמיכה של כל הדרג המדיני וגם דעת המיעוט של…  כמי שנלחמה לגוון את מערכת המשפט שמחה לראות את השינוי שמתרחש בתקשורת הישראלית  מאחלת הצלחה גדולה לשירית בגלובס ומב…  misscorina2 נכון הרב שי אוחיון הי״ד אב לארבעה נרצח ע״י מחבל שפל כשחזר מלימוד תורה בכולל  אני שולחת את תנחומי למשפחתו של הרב שי או…  MatanKahana מירי את לא מתביישת  בטח שכחת שנתניהו שוב רצה לזרוק את הבית היהודי לאופוזיציה והציע לשלי יחימוביץ ויאיר לפיד את חצי המ… בניגוד לשקר הכפול שיוצא משיתוף הפעולה של הליכוד והשמאל נגדנו ייתכן שהם בלחץ להלן העובדות 1 בבחירות האחרונות ד…  כשהשקר הופך לאמת והאמת לשקר צריך דוברת מוכשרת אחת  שהצליחה לשווק את ההתנתקות בהתלהבות וחיפשה בית פוליטי במפלגת הע…  ayeletkahana בהתאם להנחיית היועמש הגישה היום פרקליטות המדינה בקשה לבגץ לקיים דיון נוסף בפסק הדין בעניין הריסת בית המחבל שרצח את עמי… בינתיים כשגנץ וביבי רבים על השד יודע מה הישראלים מוצאים בעצמם פתרונות כדי להתמודד עם הקורונה ככה נראיתה תפילת ערב…  במקרה הזה לא יהיו זעקות  שבר על מות הדמוקרטיה  אבירי חופש הביטוי זועקים רק כשזה משרת אותם  אמיר איבגיamirivgi א…  yoelituv לא חושב שאי פעם כיהנה בישראל ממשלה יותר צינית ואטומה לצרכי הכלל מנוכרת לאינטרסים של האזרחים ובטוחה שהיא מנהלת 9 מיליון מטומט… בעקבות פגישה שקיימתי ביום רביעי עם השרה פנינה תמנושטה אכנס לבידוד סוף סוף אראה את מנאייכ  מאחלת לפנינה החלמה מהירה מה יהיה עם הצורך של הגנרלים משמאל ללכת למחוזות השואה כל פעם מחדש חשוב להזכיר אסור להפיץ תמונות הקלטות או סרטונים בעלי אופי מיני ללא הסכמתו של האדם המצולם ופרסום כזה יכול להוות עב…  חוגגת 50 אלף עוקבים באינסטגרם וזו הזדמנות מצויינת להזמין את כל מי שעוד לא עוקב  להתחיל לעקוב  פחות רשמי יותר איש…  בול  האונס האכזרי באילת הוא פשע מזעזע שמעיד על פשיטת רגל מוסרית של החברה בישראל פילגש בגבעה הענישה צריכה להיות מחמירה…  ביקרתי במשתלת שפר ענף החקלאות זקוק לעובדים עד שלשמחתי אני סוף סוף מגיעה לעסק שהקורונה לא פגעה בו אני שומעת על מצו…  הגעתי היום לביקור בעיריית חיפה וראיתי איך אפשר אחרת יצירתיות זה שם המשחק עיריית חיפה היא דוגמא מעולה לאיך כשחוש…  בכל הערים הגדולות בעולם יש מעבדה לבדיקת קורונה בשדה התעופה מיוני תוצאות תוך דקות או שעות  ככה אפשר לפתוח את השמיי…  הייתה לה אג’נדה והיא שילמה עליה מחיר   shirlypinto הגיע הזמן שראש הממשלה netanyahu יעמוד מאחורי החלטותיו ויגיד את האמת לציבור   הסכם השלום עם איחוד האמירויות הוא חשוב לשני… נסו לענות לעצמכם מה אתם רואים שקורה כאן  אתם יודעים מה אשתו של האדמור אמרה לי שהכי כואב לה חוץ מהאובדן הנורא כמובן הקיטוב בישראל  שנהג מונית רואה שהיא חר…  ראש הממשלה netanyahu  אפשר לראות את מפת החלוקה  הפליליזציה שמערכת המשפט עושה לחיים הפוליטיים לכתה היא אבדה גדולה לעולם המשפט בישראל ולחברה הישראלית כולה שולחת תנ…  בתפיסותיה המנומקות כדבעי גילמה את כיבוד הרעיון הדמוקרטי של הפרדת רשויות וסברה שבית המשפט אינו אמור להתערב בסוגיות…  כלת פרס ישראל פרופ רות גביזון הייתה אישה מבריקה עם אג’נדה שדאגה לשים דגש על המשותף ולא על המפריד דעתה תמיד הי…  GilBringer על הטיפול שקיבל השופט מזוז מהנשיאה נאור כשסירב לאשר הריסות בתי מחבלים והפך אותה לדעת מיעוט  ועל יד המקרה שהובילה להעלמ… מודה לנשיא טראמפ על הסכם הנורמליזציה ההיסטורי עם איחוד האמירויות נשמח בבואו של יורש העצר לביקור בירושלים  איבדנו…  10elilevi בהמשך להחלטת בג״ץ שלא להרוס את בית המחבל השפל  צריך להגיד השבוע תודה לאלוהים שיש לנו שופטים כמו יעל וילנר יש לי המון שעות… YotYotam מזל טוב  אחלה תאריך חותמת על כל מילה  MatanKahana ניסנקורן קובר את השקיפות   כבוד השר  איילת שקד הכינה לך הכל  נשאר לך רק לחתום  ממה אתה מפחד מה יש לך להסתיר  Ayelet… הגעתי היום לבקר את הוריו של הלוחם עמית בן יגאל הי״ד הצדק צריך להיעשות ביתו של המחבל בן הבליעל יהרס כך קובע החוק…  ataragerman1 שקד הגיעה הערבלשבעה על הרב שטיינזַלץ פגשה את אשתו וילדיו  במפעלו התורני והחינוכי האדיר ננוחם  אם מזוז כיועץ משפטי היה מגלה כלפי מגורשי גוש קטיף עשירית מהאמפתיה שגילה כלפי משפחתו של המחבל המתועב אולי היה מקו…  השופטים קרא ומזוז מתנגדים עקרונית להריסת בתי מחבלים  המרחם על אכזרים סופו שיתאכזר לרחמנים  לממשלת ישראל לא בא ללכת מחר לבית ספר  לא נורא בסך הכל כמיליון מובטלים מגיפה מתפשטת נתב״ג סגור ותקציב אין לא סי…  חתן פרס ישראל  הרב שטיינזלץ הלך הבוקר לעולמו  הרב שטיינזלץ המשיך את מסורת חזל בהנגשת התלמוד הבבלי לציבור הלומדים…  סוף סוף  תרשמו תרשמו הליכוד והמפלגות החרדיות הפילו את פסקת ההתגברות תחכו לסוף ותבינו למה  במדינה מתוקנת הצבע הכתום היה צובע הערב את בניין עיריית תל אביב כתזכורת לגירוש מגוש קטיף במקום זה קיבלנו דגל של מד…  kannnews חכ AyeletShaked לasaflib וKalmanLiebskind מדינת ישראל היא בין המדינות הבודדות שהשמיים בהן כמעט סגורים בכל המדינו… GLZRadio פסקת ההתגברות תוגש היום לכנסת  חכ AyeletShaked פסימית אצל IshayShnerb נראה שהליכוד מגיש לניסנקורן את הערכים של הימין… shlomopyuter 22  2 התשובה ל1 פשוטה בכנסת ה20 לא היה רוב תיאורטי לפסקת ההתגברות רוב החכים הצהירו שייתנגדו זאת הסיבה שאף אחד בלי… shlomopyuter 12  הערה קטנטנה על ליכודניקים דמגוגיה ו AyeletShaked  מאז הבוקר אני שומע את הקושיה למה כשהיית שרת המשפטים לא העברת… IsraelHayomHeb חברי כנסת יקרים החזירו לעצמכם את הכוח לחוקק בעזרת העברת פסקת ההתגברות הדמוקרטיה הישראלית זקוקה לזה כבר חצי יובל ro… בליכוד הבטיחו שוב ושוב שזהו הדבר הכי חשוב עבור הימין אז  הקטע המלא בעמוד הפייסבוק שלי   zeevelkin זאב בידוד לא מונע הצבעה ח״כים מבודדים הגיעו בעבר להצבעה אם זה חשוב מגיעים בנוסף האופוזציה התחייבה…  מה אתה תצביע מחר zeevelkin  YuvalKarni מה נסגר עם זה ניתן לפתוח את השמיים עם מתווה פשוט  בדיקה לפני העליה למטוס במדינה ממנה ממריאים עד 72 שעות לפני ובדיקה בנתב״ג  ב…  מה אתה תצביע מחר zoharm7  ליצמן מה אתה תצביע מחר  יריב מה אתה מצביע ביום רביעי  משהו משמח שקיבלתי הרגע מכצל׳ה נכון להיום 472613 תושבים ביו״ש  והוא הוסיף בעה בקרוב מאד 500 אלף יהודים ביוש לא יאומן כי יסופר מה אתה מצביע ביום רביעי OfirAkunis  מה אתה מצביע ביום רביעי dudiamsalem  ayeletkahana פסקת ההתגברות מאפשרת למחוקק להגשים באמצעות חקיקה יעדים חברתיים ופוליטיים פסקת ההתגברות המשריינת את החוק היא חוקית למרות… מה אתה מצביע ביום רביעי YuliEdelstein  אחרי שכחול לבן מיצבו את עצמם תחת הסיסמא ״לא כיסא  לא מעניין״ יש להם עוד את החוצפה להטיף מוסר מילא שהממשלה המנופחת…  מה אתה מצביע ביום רביעי ZviHauser  תירוצים של ילדים בכיתה ה׳ שלא רוצים להגיע לביה״ס  שלא יבלבלו אתכם עם מספרים  לחקיקת פסקת ההתגברות נדרש רוב רגיל של חברי כנסת לא 61 ולא שום מספר או תירוץ אחר חוק י…  דיבורים לחוד ומעשים לחוד תישארו נאמנים לערכים ולהבטחות שלכם לציבור ביום רביעי תצביעו בעד פסקת ההתגברות  הזדמנות מיוחדת תעלה השבוע לחברי הכנסת מגוש הימין  הזדמנות להפסיק להתבכיין הזדמנות לעצור את הפיראטיות השיפוטית  ב…  אורי קבל את התנצלותי ששופטת בישראל לא פסקה לפי האגנדה שלך אלא בהתאם לראיות באמת חוצפה  אברהם גביש היה קצין נערץ בסיירת מטכ״ל כשמחבל חמוש פרץ לבית הוריו וירה בו הוא ביקש בשארית כוחותיו מאחיו את הנשק בז…  לכל מספידי הדמוקרטיה הישראלית שמבכים את מותה השכם והערב איפה הייתם כשהדמוקרטיה הישראלית נדרסה באלימות בתקופת ההתנת…  בוקר טוב עכשיו תקימו מעבדה בנתב״ג ותפתחו את השמיים אומת הסטארטאפ תעמוד בפרוייקט כזה  כמו רבי עקיבא בזמנו שראה את השועל יוצא מחורבות המקדש וזיהה בו את הנחמה שבוא תבוא ככה אני רואה מסביבי את הטוב שמבצ…  הימים האלו לא פשוטים תשעה באב שיחול היום מתאים בדיוק לאווירה הקשה ששורה עלינו את האלימות וההסתה צריך לקבור כך לא…  בקואליציה הרעה הזו עד שסוף סוף מישהי עושה עבודה טובה למען הציבור בלי פאניקה מדיחים אותה  sbyifat  אצלנו מעריכים נשים חזקות הדבר הכי טוב שהממשלה הזו עשתה עד היום זה למנות את רוני גמזו לפרוייקטור תוכנית טובה רק שיתנו לו לעבוד  ממשלת ישראל שוב הלכה לישון  כבר חודשים רבים שהשמים  סגורים זו פגיעה קשה מאד בכלכלת ישראל  בענף היי טק ביכולת לע…  KnessetT 15 שנה מאז שממשלת LikudParty ביצעה את הגירוש הכואב והמיותר ככ מגוש קטיף חכ AyeletShaked במליאת הכנסת 15 שנה עברו… בהחלט חייבים עוד מחדל של הממשלה המסורבלת הזו עד עכשיו לא קמה ועדת שרים לעלייה וקליטה גם את ההזדמנות הזו הממשלה מ…  ראיון בLHP לדוברי הצרפתית למרות כל הקושי משבר הקורונה טומן בחובו הזדמנויות המרכזית שבהן היא העלייה מצרפת  יהוד…  ״האהבה לא ניצחה גם לא הרוח״ 15 שנה להתנתקות הגענו למרכז קטיף להנצחת הגוש בישוב ׳ניצן׳ בואו בחופש לבקר ולהיזכר  התארחתי השבוע אצל RazShechnik ב׳פינג פונג׳ לראיון אישי כנסו לקרוא מתי הייתי הכי מאושרת מאיזה הרגל הייתי רוצה להי…  בהצלחה לרוני גמזו מינוי ראוי ומקצועי יש לו את כל הנסיון הידע והכישרון הנדרש לתפקיד רק שיתנו לו להצליח Make my day  במפגש עם בעלי עסקים בבית שמש עולה חדשה הקימה עסק לחוגי קרמיקה העסק פרח ושגשג עכשיו הכל קורס והיא לא מקבלת שום פי…  בועדת חוקה גם בקואליציה מבינים שהחוק עושה חוכא ואיטלולא מהכנסת ומסכימים בשיחות סגורות לתת 48 שעות לכנסת לאשר או לב…  איומי ההסתדרות להשבית את המשק בתקופה של מגיפה עולמית וקריסה כלכלית של ענפים שלמים הם מופקרים חסרי אחריות ומסוכנים…  אפשר לפתוח את השמיים זה הכרחי לעולם ההיי טק לכלכלה בכלל   בגרמניה מי שמגיע ממדינה אדומהישראל יכול לעשות בדיקת…  moranynet השבוע בתכנית שלי ״עניין אישי״ איילת שקד פותחת את הלב על הפרידה מאמא בגיל צעיר וחסרונה בתחנות החיים החשובות על תדמית ״אשת… מוקדי ההדבקה הגדולים ביותר הם בתוך המשפחות  לא בים לא בחדרי כושר ולא במסעדות בתוך המשפחות נתון כזה מצריך הסברה…  ריבונות הכנסת הפכה למילה גסה והכל בחסות קואליציה בראשות הליכוד שמונעת את הקידום של החוק הזה את יועמ״ש הכנסת צריכי…  zviashkenazi MakorRishon Barilan ayeletkahana מזל טוב החלטת הממשלה לסגור את המסעדות היא שגויה בוודאי לאור נתוני האין הדבקה על אחת כמה וכמה ההחלטה לסגור היום בלי לתת זמ…  עם השופטים הנכונים כבר לא ״הכל שפיט״  יש שופטים שמיניתי בירושלים  סגר בעת הזו לפני שחלף מספיק זמן מההגבלות הקודמות הוא הרסני למדינה ההחלטות השרירותיות לסגירת גני הילדים והקייטנות…  בהצלחה רבה לחברי הכנסת צביקה האוזר ואסנת מארק בועדה לבחירת שופטים ולחברי הכנסת מירב מיכאלי וישראל אייכלר בועדה למינוי דיינים חירשים הם לא הפקר ומגיע להם להיות שווי זכויות בישראל הנגשת מערכת הבריאות היא דרישה בסיסית ומצילת חיים שירלי תמשי…  bezalelsm פניתי עכשיו בדחיפות ליור הכנסת יריב לוין בדרישה שימנע את הדחתה של חכ sbyifat ואת רמיסת עצמאותה של הכנסת בידי הממשלה לא… הפצרתי בקואליציה לחוקק את החוק מיד ולא להפסיק את האיכונים הבטחתי את תמיכתינו הפצרותיי נפלו על אזניים ערלות  בדיוק ככה מסכסכים איש ברעהו קבוצה ברעותה מתעלמים מעיוותים של שנים שההסתדרות יצרה במגזר הציבורי מתעלמים ממשבר כלכ…  המחאה הערב היא המחאה של הסאונדמן של המוסכניק של המסעדן של בעל אולם האירועים ושל סוכנת הנסיעות  מחאה אותנטית וכו…  בשורה חשובה למסעדנים למעשה ניתן בעזרת ההקלות האלה להפעיל גם מסעדות גדולות  תודה לsbyifat על העבודה המקצועית בועד…  חוות דעת מופרכת  בהחלטתו היועץ מבטל את סמכות הכנסת כליל ההחלטה עליה הצביעו רוב חברי הוועדה היתה שקולה לאחר תהליך…  הגשתי הצעה לסדר בעניין חדירת המסתננים מהגבול הצפוני השר מיכאל ביטון היה אמור להשיב אך נעלם 34 שרים ואין אף שר במל…  כתב אישום זו לא סיבה לא להצביע בהצבעה במליאה אין ניגודי עניינים  היום הוא גנז  liyaomer יולי אדלשטיין דוד ביטן ניר ברקת עוזי דיין אבי דיכטר חיים כץ ישראל כץ בנימין נתניהו טלי פלוסקוב מירי רגב יפעת שאשא ביטון יובל… GLZRadio חכ AyeletShaked תוקפת אצל amirivgi ממשלה רשלנית ושלומיאלית יש לה אחריות גדולה להידרדרות המצב במקום להתחיל לדבר על סג… liyaomer חוץ מחכ shlomokarhi כל חברי הכנסת של הליכוד לא אומרים מילה הפקרתם את משרד המשפטים בידיים של ניסנקורן שבוע אחרי שבוע קלמן… bezalelsm היום תעלה להצבעה הצעתי להקמת וועדת חקירה פרלמנטרית לבדיקת ניגודי העניינים של העליונים זה יהיה מבחן לחברי הכנסת והשרים של… נחכה למחר לקבלת נתוני ההדבקה אבל אם הם כפי שראינו בעולם אין שום סיבה שלא יאפשרו להכיל יותר סועדים במרחב הפתוח כאשר…  משרד הבריאות עד עכשיו לא העביר את נתוני ההדבקה לועדת הקורונה הכנסת היא לא חותמת גומי של הממשלה כאן המקום שלנו להת…  פעם אחר פעם בג״ץ מצפצף על הממשלה ומסכל את מדיניות ההגירה שלה באמצעות חקיקה שיפוטית   החלטת בג״ץ להימנע מדיון נוסף…  פניתי לחברת הכנסת יפעת שאשא ביטון בבקשה לכנס היום או מחר את ועדת הקורונה ולשנות את החלטת הממשלה בנושא המסעדות כך שב…  זה לא חרטא  ניסיתי להבין היום בועדת חוקה כמה נדבקים היו עד כה במסעדות אין נתונים ככה מקבלים החלטות הטלת עוד מגבלות על ענף המסעדנות הגווע היא מכת מוות לעשרות אלפי עסקים וחורבן כלכלי למאות אלפי משפחות  הכנסת לא תהי…  וכמובן הממשלה המנומנמת מתעוררת באיחור  קרבות האגו והמאבקים על קרדיטים מטופשים עולים לנו ביוקר הגיע הזמן להתעורר…  Happy 244th IndependenceDay to all of our friends in the USA 🥳 The  amp  are united in our commitment to freed…  מיכאל בן זיקרי הציל אם ובנותיה מטביעה הוא קפץ למים ובכוחותיו האחרונים ציווה להם את החיים איזה גיבור אני שולחת תנ…   השבוע חזרתי באיזה ערב הביתה ואופיר אמר לי ״גידלת ילדים נפלאים עשית קריירה מפוארת אבל אין ספק שהחלות הן ההישג הגדו…  לא יעלה על הדעת שחבר כנסת בישראל ישתתף בכנס של ארגון טרור שמכשיר רבי מחבלים עם דם על הידיים בג״ץ נושא על דגלו את ה…  ה 17 יזכר כיום תחילת החופש הגדול ולא כיום שבו עשו היסטוריה  מניחים עכשיו אבן פינה לשכונה חדשה בהר ברכה  עשו להם שיימינג בתקשורת הוציאו את דיבתם שוב ושוב אבל הלוחמים שיוצאים מעלי ממשיכים לתרום למדינה כקצינים ביחידות הק…  גם שופטים הם בני אדם בדיוק כמו פוליטקאים וניגוד העיניינים הוא אותו ניגוד עניינים עד עכשיו הוא חל על הפוליטיקאים…  הממשלה לא מצליחה להעביר את חוק איכוני השב״כ מחדל שיעלה בפרנסתם של אנשים ובבריאותם אין לממשלה הזו יכולת ביצוע אפי…  נכון לעכשיו נתניהו נכנע ללחץ של הערבים אשכנזי וגנץ הוא ויתר על החלת הריבונות בבקעת הירדן לא מוותרים על הזדמנות ה…  naftalibennett שמואל אבואב  ממלכתי חרוץ מאוד  מאמין בשליחות מגדיר מחדש את המילה ׳בולדוזר׳  כנבחרת ציבור כעמי…  שוק חופשי כן חזירות לא  לאורי הבן שלי יש משהו חשוב להגיד לכם  היום הלך לעולמו אדם יקר  אדם שחווה טרגדיה קשה מנשוא כששכל לפני 26 שנים את בנו החייל נחשון וקסמן ז״ל לאחר שנחטף ונר…  KipaNews חברת הכנסת AyeletShaked תוקפת באולפן כיפה את הסחבת בהחלת הריבונות וטוענת אשכנזי וגנץ לא פראיירים הם מדברים עם האמריקאים… ishaycoen איילת שקד תוקפת את הסגר על אלעד  ההתנהלות של הממשלה בסוגיית הקורונה כרגע היא שערורייתית סתם נטפלים לציבור החרדי הוא הציב… לא נהיה כלי במאבקים בין ראשי הממשלה זו ממשלה משותקת שמתעסקת בשטויות  bahazitnews בחזית חכ שקד בסרטון תמיכה למגזר החרדי לאחינו החרדים אני יודעת שאתם עוברים תקופה לא פשוטה ובפרט אלה שנמצאים בסוג ש… החלופה לאיכון השב״כ זו אפליקציה וצמידי BT שאנשים צריכים להוריד או לשים בהתנדבות מעט מאד אנשים יורידו אפליקציה או י… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מתקבל עכשיו דיווח על מפגין שתקף שוטרת במכות מקל בהפגנות מחוץ לכנסת  מפגינים שמזלזלים בחיי אדם ומתקהלים באופן מסוכן…  כחול לבן מפחדת לדמם עוד רבע מנדט בסקרים ובשביל זה היא מוכנה למכור את הבריאות והפרנסה של כולנו ולהביא אותנו לכאוס…  YairNetanyahu sbyifat אכן הזמן לסלוח לחכית אנונימית שנכנסה לכנסת רק בזכות נתניהו הוא כבר לא היה מחוייב להכניס אותה לרשימה ההסכם עם… ניסנקורן מפחד לרדת מ 10 ל 975 מנדטים בדרך הוא רומס את בריאות הציבור ומנצל את המאבק בקורונה לתועלת פוליטית קטנה…  radio103fm חכ אוסנת הילה מארק ליכוד ההפגנות האלה גם ככה דועכות הרבע מנדט הזה לא מעניין אותנו אנחנו עוסקים רק בבריאות הציבור si… ביום שנתניהו עושה צעד שהוא כנגד כל הגיון פוליטי  לסגור את בתי הכנסת בכחול לבן ממשיכים במלחמת הבוץ הפוליטי כדי להג…  מערכת המשפט התרגלה שבועדה למינוי שופטים יושבות חותמות גומי ומאפשרות לה להמשיך בציפוף השורות  הגיע הזמן לפרק את הנח…  likudnetanyahu  rothmar בוקר טוב אני מבקש שתשבו לקראת ההלם הצפוי לכם  OsnathilaMark חברת הוועדה לבחירת שופטים דורשת לראיין מחדש את השופטים עליהם… קחי אחריות על ההחלטות המופקרות שלך קיבלת חיבוק דוב מהתקשורת והשמאל ושכחת שאת עובדת עבור בריאות הציבור את ההתנהלות…  YoraiLahav תתעדכן  טוב זה רבע המנדט שברח לו ללפיד  אם הפגנות הן זכות יסוד כל כך חשובה אז גם תפילה עיסוק ותנועה לא נקבל יותר את ההשת…  ynetalerts עימות בוועדה לבחירת שופטים חכ מארק מול ניסנקורן וחיות   הנחתי הבוקר הצעת חוק לביטול החרגת ההפגנות מחוק הקורנה  כל יום בו מסיבות ההדבקה המופקרות בבלפור נמשכות אמון הציבור…  GrimoldiPaolo I presented the candidacy of  netanyahu for the NobelPeacePrize Why 1 Pacification with UAE 2 Pacification with Ba… NaorIhia שימו את הציניות בצד לרגע תרשו לעצמכם להתרגש וגם לתת כבוד ומילה טובה לראש הממשלה נתניהו שהוציא את ההסכם הזה לפועל   150920… אֱלֹהֵינוּ שֶׁבַּשָּׁמַיִם תֵּן שָׁלוֹם בָּאָרֶץ תֵּן שָׁלוֹם בַּמַּלְכוּת  מדינת ישראל לראשונה בתולדותיה מכוננת…  עלילות הדם נגד הציבור החרדי מגיעות לשפל חדש  הכותרת האינטליגנטית מספרת לנו על הסליחות ההמוניות שהתקיימו אתמול בבני…  גם בחריין מצטרפת הערב להסכם השלום  למרות שהיא לא עוברת בגרון של כמה שוחרי שלום מטעם עצמם הנוסחה של נתניהו מוכיחה…  שי ניצן היעלה על הדעת שעשיתי את זה כדי לפגוע בראש הממשלה  יעלהועוד איך יעלה מצחיק שאחרי החשיפה השבוע הוא עוד…  אבל יושבת ראש ועדת הקורונה אמרה שהיו 0 חולים מוזר  באמת היה מישהו שהאמין לאפשרות שאלפים מתקהלים כל שבוע ואין נתון…  טור דעה שלי הבוקר בעיתון yomleyom על פרשת ניצןאלשייךמחש ועל סיפורי הבדים המכונים תיקי נתניהו  y9000000000  השטיח נשמט מתחת לרגליו של מנדלבליט המתפרה בצלאח אלדין פינת שיח גראח חייבת להתפרק לאלתר מי שינסה לבצע מחטף שלטונ…  מנדלבליט חוצה את כל הגבולות הוא מרגיש את החבל מתהדק ומשתמש בכוח שלו כאמצעי סחיטה פוליטי  מנדלבליט מי שחמאה מרוחה…  גם פרופ רהב ביביסטית הזויה שמדקלמת דף מסרים  דבר אחד ברור אחרי אתמול בערב  לי אף אחד לא יפריע  פייר נהניתי תום יער הגדולה הצליחה להצחיק אותי בענק  tomyaar  נפגשתי היום עם arielelharar ו iairLevy פעילים חברתיים מהציבור החרדי  שמעתי מהם על הצרכים והקשיים של הציבור בי…  מערכת אכיפת החוק בראשות אלשייך ניצן ומנדלבליט קידשו את כל האמצעיים במטרה להפיל את נתניהו שיטות חקירה פסולות וחשד…  YairNetanyahu  התחקיר שנחשף הערב על האופן שבו נוהלו תיקי נתניהו מחייב הקמת ועדת חקירה פרלנמטרית באופן דחוף  הנחתי עכשיו על שולחן…  היום ראינו איך פעל הקרטל המכונה תיקי נתניהו וזה רק קצה הקרחון  המשנה לפרקליט המדינה בשליחות הראשון מסביר בקוד…  ליברמן קורא לאזרחי ישראל לא לציית לחוקי הקורונה  אפשר לעצור את הפריימריז ביש עתיד נמצא המחליף של יאיר לפיד לאחר דיון מעמיק שהתקיים היום בועדת חוקה בו נכחו פרופ גמזו וגרוטו השמיעו את נימוקיהם ושמעו את חברי הועדה אני סבו…  כמעט בכל חתונה יש נדבקים כמעט בכל תפילה של 19 איש אנשים נחשפים ונשלחים לבידוד  רק בבלפור 15 שבועות אלפי מפגינים…  אם מנדלבליט יוצא להגנת לשכת עורכי הדין זה מלמד אותי שלושה דברים 1הוא כנראה חייב גם לאבי חימי 2 עוד סיבה מצויינת…  יפעת שאשא בקריאה נרגשת  נטרלו שיקולים פוליטיים והצמדו לאנשי המקוצע ריגשת מעניין איפה הייתה הדאגה לאנשי המקצוע כש…  אולטימטום בסגנון שמזכיר משטרים אפלים בחסות ובכסות שלטון החוק  כשהאופציה של סגר שבה ומונחת על שולחן הדיונים אי אפשר להשלים יותר עם המשך ההפקרות ברחובות סביב בלפור  אי אפשר לסגו…  אותם שופטים שיצטרכו לשבת ולהכריע האם סיקור אוהד הוא שוחד מעלימים ומטייחים ביקורת שלילית בעניינם לא יאומן זה מתחי…  ההחלטה האומללה והאכזרית של בגצ לעקור ישוב על 53 המשפחות שמתגוררות בו בתום לב ובהחלטת הדרג המדיני והבטחוני היא תוצ…  קרנבל הצדקנות התקשורתית סביב ההתפטרות של מרידור מביכה בסוף פקיד התנגד למדיניות שמוביל השר והתפטר כך צריך להיות ט…  לפי המשוואה הזו אם ביבי מתפטר אין עבודה ל 80 מהעיתונאים בישראל  מחכה ליום שבו בגצ יפסוק על הריסת בתי מחבלים באותה מוטיבציה שבה הוא פוסק היום על עקירת יישובים יהודיים עולם הפוך עוד החלטה אומללה של בגצ שופטי בגצ כנראה החליטו שאם השלטון לא עוקר יישובים הם יעשו את זה במקומו הפסיקה שהתקבלה…  מליציות האנרכיה מתכננות לבקוע את חומות השיטור ולכבוש את הבית בבלפור בגיבוי חוקי מפרקליט המדינה שהורה להפר את הסדר…  רוני אלשייך האיש שריסק עד דק את תדמית המשטרה מדבר על אמון על איזונים ובלמים האדם שניהל באופן מפוקפק את התיקים נג…  הפרקליטות מעודדת אנרכיה ההנחיה הזו מפקירה באופן מסוכן ומקומם את המרחב הציבורי מעניין שההנחיה התמוהה הזו באה לעולם…  נקבע מותו של הפצוע מפיגוע הדקיה בפתח תקווה אני אבלה וכואבת את מותו של אדם אזרח ישראלי שכל חטאו הוא יהדותו  אני מ…  ניסנקורן חושב בטעות שהוא עדיין בהסתדרות ושמנגנוני ההשתקה וההפחדה הבולשביקים יפנו לו את המוקשים תתעורר אדוני שר המש…  אותם אלה שרוממות שלטון החוק בגרונם החליטו בשבועות האחרונים לרסק את מערכת אכיפת החוק ובראשם את אנשי המשטרה  הפגנות…  לא כל אחד יכול לנהל בית ספר בטח מי שלא רוצה לקום בבוקר ללימודים טוב שאת בית הספר הזה מנהל נתניהו עכשיו הכל ברור ניסנקורן נלחם בחירוף נפש על שומרי הסף כי הם נלחמים עבורו חפה עלי ואחפה עליך בינתיים הוא מעכב את…  עוד עתירה שטוב שנדחתה וטוב יותר אם לא הייתה נידונה  EmilieMoatti באמת לא בסדר מצידי להפריע לך לשקר תמשיכי את מצטיינת בזה אמילי מואטי מבהירה ומסבירה ומתפתלת במקום להתנצל על השקר במקום למחוק במקום להגיד  האונס המזעזע הזה הוא לא סיפור…  לא רוצה להפריע לך עם השקרים והמעשיות זו דרך החיים של השמאל וזה גדול עלי לשנות את זה רוצה רק להמליץ לך על כוס מים…  rothmar 840  אוסנת מארק מצייצת בעניין האונס OsnathilaMark   1004  אמילי מואטי מצייצת שיש דממה מכיוונה של אוסנת מארק בעניין האונס… מחריד 30 גברים ואפילו לא צדיק אחד בסדום אחד שיעצור את הטירוף הזה אחד שיסתכל לה בעיינים ויתעלה מעל החיתיות והרוע…  יש מי שחושב שיש סביב ההסכם עם האמירויות מאבק קרדיט מטופש ודמיוני הפודקאסט הזה מסביר במעט את המאמצים שעשה נתניהו במ…  shlomokarhi השקנו את שדולת הנגב במעמד רהמ שרים חכים וראשי רשויות  הדיון הוקדש להקמת שדה התעופה הבינל הנוסף של ישראל בנגב   מאמ… מדינות נוספות רוצות לכונן יחסים עם ישראל  משוואת השלום של נתניהו שינתה את כללי המשחק לא עוד ויתורים לא עוד שלום…  בוגי בתחרות צמודה עם הרשות הפלסטינית על פרס התגובה המרירה להסכם השלום אולי הוא מנסה לרצות את הבייס של השותפות הטבע…  ראש הממשלה הביא עוד הישג היסטורי חסר תקדים למדינת ישראל שינוי משוואת השלום מוכיחה שוב שנתניהו הוא מנהיג ומדינאי עצ…  ממתי חוקרים פה הדלפות  Israelcohen911 הערב בשעה 1900 יוזמה של ח״כ אוסנת מארק מ׳הליכוד׳ נשים במפגן תמיכה בבלפור נגד האלימות הבוטה והפוגענית כלפי ״אשת ראש המ… מזל טוב ארגוני הנשים התעוררו אברי מין איומים ברצח באונס ותיאורים גרפיים מזעזעים לא העירו את ארגוני הנשים משנתם…  KnessetT על רקע מכתבו של רהמ נתניהו ליועץ המשפטי לממשלה דר אביחי מנדלבליט חכ OsnathilaMark טוענת בבוקר טוב כנסת עם YuvalKarni… ההחלטה לחקור את העבריינים שאיימו לאנוס את רעיית ראש הממשלה מתבקשת אבל המדרון חלקלק ועוד זה מדבר וזה בא תמונה מבהי…  החלטת בגצ רעה ומסוכנת החפים מפשע היחידים בסיפור הזה הם משפחת בן יגאל ומשפחות השכול שהולכות ומתרבות המסר היום ברו…  היום הייתה אמורה להגיע לאישור בישיבת הממשלה תוכנית ענק להאצת המשק וסיוע לאוכלוסיות מוחלשות בעלות של עשרות מליארדים…  המרחם על אכזרים   לבנון מוגדרת מדינת אויב חיזבאללה ארגון הטרור הרצחני שגבה את חייהים של המונים מטובי בנינו ובנותינו הוא חלק מהממשלה…  שמחה לראות שהאוזניים הרגישות של אנשי השמאל הזדעזעו למשמע קריאת מוות לשמאלנים קריאה אלימה מגונה ומסוכנת  עכשיו…  התקשורת סלחה לאנשי ההפגנה הזו על האלימות נגד שוטרים על האלימות נגד עיתונאים אז מה הפלא שהיא מכשירה גם אלימות מינית…  אני מקבלת הרבה תגובות ושאלות על הציוץ שלא צוייץ מדובר בפייק עריכה נבזית ושקרית  הסגנון של אחינועם ניני לא שווה ת…  הנה לא ינום ולא ישן שומר ישראל   הליכוד תומך בחקיקת פסקת ההתגברות זה ברור לכולם אבל ההטרלות השבועיות של שקד וחבריה מהטריבונה של האופוזיציה לא עובד…  עַל אֵלֶּה אֲנִי בוֹכִיָּה עֵינִי עֵינִי יֹרְדָה מַּיִם כִּי רָחַק מִמֶּנִּי מְנַחֵם מֵשִׁיב נַפְשִׁי הָיוּ בָנַי…  zionnenko ההפך הוא הנכון ממש לא מכחישי השימוש בשם כיכר מלכי ישראל נועד להזהיר מהאפשרות שעוד כיכר בישראל תיקרא…  LinoyBarGeffen ממש לא אני מתנערת מהפרשנות שלך כתבתי את זה בצורה הזו כדי להזהיר מההסתה המסוכנת ומהאפשרות שחס וחלי…  LinoyBarGeffen ממש לא מתכחשת להיפך אני מזהירה מהישנות האירוע המזעזע בתולדות מדינת ישראל וכדאי שהמקהלה הצבועה תא…  radio103fm לשכת עורכי הדין בישראל היא מקום שמרכז בתוכו כוח מטורף 60 שנה זה עובד כמונופול אנחנו רוצים שוק חופשי  חכ OsnathilaMa… שוטר שעבר לינץ בבלפור ושוכב עם פלטינות בקרסוליים זה מספיק דומה  אהוד צבא השכירים על הגשר מחכה לתלוש הלנת שכר מנוגדת לחוק כמעט כמו פדופיליה   תגובתי לאבי חימי    avribloch ההצעה של OsnathilaMark לביטול לשכת עורכי הדין הרבה יותר משמעותית ממה שנראה על פני השטח  שני המקומות של הלשכה בוועדה למינוי… הבוקר הנחתי על שולחן הכנסת הצעת חוק לביטול לשכת עורכי הדין  לשכת עוהד הוא גוף ארכאי מונופלוסטי ומסואב ההתלנהלות…  ומחציתם השני דובוני אכפאתלי שהלכו לאיבוד  ככה נראה הינדוס תודעה  מי שמזדעזע מאלימות שיזדעזע מכל סוג ומכל צד של אל…  שירי הלל ליגאל עמיר  אלימות קריאות לרצח ראש ממשלה  הפגנה  גז פלפל על מפגינים  זה יגמר ברצח גז פלפל על שוטרים  ה…  הנה סיפור שלא תשמעו ב N12 יונתן זכרין הגיע אתמול להפגין בבלפור והותקף עי שמאל אנרכיסטי הוא אמנם לא היה עם דגל פל…  כיבוש פלסטינים ספרו לי עוד על מאחת העצמאיים מעניין איך המחאה הספציפית הזו הייתה מתקבלת ברחוב הפלסטיני  אין מה להוסיף  רק תעשי גוגל אמנם ניגוח ראש הממשלה והליכוד זה תחום התמחות מפואר שיזכה אותך לתהילה עולם אבל כדאי לפעמים להרחיב א…  avribloch תצחקו על OsnathilaMark כמה שתרצו אבל הקורונה קיימת כבר שנים בבעלי חיים  למשל במכון בקריית שמונה חוקרים את נגיף קורונה כב… עופר כסיף האדם הבזוי שכינה את חיילי צהל קלגסים שקרא למרי אזרחי ולאי ציות לחוק  מכנה אותי שפחה נרצעת כשאמירה כז…  מנדלבליט משחק באש אם לא יפתחו חקירות נגד האנשים שמאיימים איומים ממשיים על חייו של ראש הממשלה אנחנו עלולים לבכות ע…  radio103fm חכ אסנת מארק OsnathilaMark ליכוד אני קוראת פוסטים שמאיימים על חיי רהמ אשתו ומשפחתו לאן רוצים שנגיע שיירצח פה עוד… MKMickeyLevy כן אה אולי נשאל את עדי קול מה דעתה על הסוגייה ולגבי החוק כאיש משטרה לשעבר אתה בטח מכיר את חזקת ה…  MKMickeyLevy כנראה שחבר במפלגה דיקטטורית שחבריה קוראים לאי ציות לחוק מקבל נקודות זכות מהשליט העליון על עידוד הפגנ…  הוא שאמרתי קומץ אנרכיסטים מופרעים ומסוכנים לקחו את המצוקה של העצמאיים ככלי ניגוח נגד ראש הממשלה ההפגנות הללו עברו…  avribloch השופט בדימוס odedmudrik אומר לי הערב  מי אלה השופטים או MovGov שיגידו לחברי הכנסת במי לבחור לבגצ אין כוח לאכוף בחירת נצ… כל רגע שהאיש הזה לא עצור זה מחדל פצצה מתקתקת  YairNetanyahu בושה לראש עיריית ירושלים משה לאון משאית אחרי משאית מורידה ציוד לאנרכיסטים שקוראים לרצוח את ראש הממשלה ומקימים מאהל מתחת…  יותר שופטים שמרנים בכל הערכאות   שקיפות מלאה בדינוי הוועדה לבחירות שופטים   פרוטוקולים מוועדת השתיים   רפור…  המשימה  מאבק על צביון מערכת המשפט על הפרדת הרשויות ועל זהות הריבון  זה לא יהיה קל אך כעוצמת הקושי כך עוצמת החשי…  כן אה   בבוקר חכ מיש עתיד קורא לצפצף על החוק בישראל לפיד שותק  בערב המון מוסת ושטוף שנאה מציג את אחת ההפגנות האלימות שנר…  להלן הפגנת שמאל רדיקאלי אלים ומסוכן  אם זכיתי לקללות וגידופים מאריאנה מלמד כנראה עשיתי משהו נכון  תודה על המחמאות והתביעה בדרך  הנה עוד סיבה לא להחליף את נתניהו  המנותקת הייתה כל חייה עצמאית בני המשפחה שלה עצמאיים המנותקת מכירה על הבשר את הקשיים של עצמאי בישראל היא הוציאה א…  ככה מטפלים במצוקת העצמאיים בשגרה ובחירום  הניצול הציני של מצוקת העצמאיים לצרכי ניגוח פוליטי לא יביא את הסיוע שאותם…  אנחנו במלחמה על הפרנסה ועל החיים עצמם הדרך לפתור את בעיית העצמאיים היא רק בשילוב ידיים עם הממשלה  הפגנות אלימות ש…  netanyahu ממשיכים לפעול למענכם אזרחי ישראל עדכון ממני אליכם gtgt  בזמן שראש הממשלה לא ישן בלילה בשביל להביא מזור למאות אלפי אנשים ומשפחות שאיבדו את מקור הפרנסה שלהם יש מי שעושה סיב…  מעניין אם בחוות הדעת יש התיחסות לשאלת ניגוד העניינים בדבר היותו של היועמש גם פרקליט המדינה נמתין במתח   זה לא…  netanyahu עבדתי מסביב לשעון כדי להביא היום תוכנית סיוע כלכלי לאזרחי ישראל  לשנה הקרובה  שתביא לכם את הכסף כמה שיותר מהר   אני קשוב… תעודת כבוד לגזור ולשמור  אפשר לדאוג לבריאות הציבור ולביטחון הכלכלי של אזרחי ישראל ובמקביל לדאוג ששופטי בית המשפט כמו כל מחזיק תפקיד ציבורי…  אם כחול לבן הייתה מקבלת מנדט על כל פעם שהם ביכו את מות הדמוקרטיה אולי היה להם קייס אמיתי לאיים בבחירות  האיומים של כחול לבן מגוחכים ומעלים תהיות מאוד מטרידות למה ששר המשפטים גורם שאמור לשאוף למערכת משפט נקייה מכל רבב…  האכיפה כנגד אזרח שלא עוטה מסיכה לא יכולה להיראות כמו פעולה למניעת פיגוע טרור האלימות הברוטאלית שמפעילה המשטרה כנגד…  אני נרגשת לחזור ולשרת אתכם מהכנסת  עצמאיים עסקים נשים מערכת המשפט ריבונות משילות  יצאנו לדרך  כשחברת כנסת מהללת רוצח תינוקות לא נפסלת בבגצ  זו תעודת ההכשר לשאר חברי הכנסת להשתתף בכנס תמיכה בארגוני טרור כהונ…  אז נפתלי בנט החליט להקים מערך עצמאי להתמודדות עם הקורונה מרשים אבל למה לחשוב בקטן אולי תקים מדינה ותעמוד בראשה…  ביזוי זכרו של יוני נתניהו בעוון היותו אחיו של ראש הממשלה זה כבר אירוע רגיל בכלי התעמולה הבולשביקים  אלא שעל החרפה…  ההחלטה של מנדלבליט שלא לאפשר לראש הממשלה לקבל מימון על הגנה משפטית היא עוד הוכחה לכך שהסיפור הזה מכור עד היסוד ואין…  zviashkenazi dudiamsalem ועוד איך לא הספיקה לעופר שלח התנהגותו הבהמית ומועררת החלחלה כלפי עיתונאי ערוץ הכנסת עכשיו הוא מרשה לעצמו להשתלח בשר…  לפיד ויעלון יכולים להמשיך לרוץ מאולפן לאולפן כמוצאי שלל רב ולשקר לציבור על פרשת השחיתות הגדולה בתולדות המדינה בפוע…  netanyahu סיכמתי עם שר האוצר להאריך את תקופת הזכאות לדמי אבטלה עד אמצע אוגוסט זה חלק מהצעדים שאנחנו עושים לאושש את המשק לדאוג לעצמאי… אל עם אשר לא יחשה שאת בניו לא יפקיר לזר  היום מציינים 44 שנים למבצע אנטבה ולנפילתו של גיבור ישראל יוני נתניהו…  למרות הניסיון ארוך השנים של יאיר לפיד בעולם הבידור והתקשורת הוא לא מצטיין בליהוק צמרת המפלגה שהבטיחה פוליטיקה אחר…  זו תולדה ישירה ומסוכנת של קמפיין השנאה האלים והבוטה שניהלו לפיד וליברמן בשנה האחרונה נגד הציבור החרדי רשת ויקטורי…  עד אז המדינה חייבת לנתק מיד את כל הקשרים שלה עם קרן וקסנר ולאסור את העברת הכספים לקרן מכספי ציבור הבטן מתהפכת הפרשן לענייני טוהר המידות ורהמ לשעבר קיים עפ התחקיר הזה יחסים לכאורה עם קטינות יחד עם העומד בראש קרן…  השבוע קבלנו תמצית מזוקקת של צביעות ומוסר כפול כששלח מתפרץ באלימות על עיתונאי בשמאל דוממים ונאלמים דממה שמאפשרת ל…  YairNetanyahu  עכשיו דמיינו מה היה קורה אם במקום שלח המשתלח היה מתראייו כך חכ מהימין מחכה לאייטם של רינה מצליח אם היא קראה למ…  על הרבה פחות ממה שעשתה אמש רינה מצליח הראו לקלמן וסגל את הדרך החוצה אצל מצליח זה יגמר בפייק נזיפה ואם ירצו ללכת…  KolBarama ח״כ לעתיד OsnathilaMark לronencatz ב׳אחת בצהריים׳ ״מי שניסה הבוקר להכניס מילים לפי שנבחר שופטים מהליכוד זה לא נכון נש… KolBarama ח״כ לעתיד OsnathilaMark לronencatz ב׳אחת בצהריים׳ ״אני לא צריכה להתנצל שאני מייצגת את הציבור ששלח אותי אמרתי שאני אכני… navedromi חברת הכנסת מארק באמירה חשובה היא אומרת את מה שכבר ידוע  הזירה המשפטית הפכה לפוליטית והימין נמצא שם בעמדת נחיתות במקום לה… כל ניסיון לעוות את הדברים ולשוות להם פוזיציה פוליטית צרה הוא שקר שקר שמטרתו לשים רגליים להכרעת הרוב ולרצון של למעל…  נציגותו של חכ בועדה למינוי שופטים נועדה להשמיע את קול הציבור בהליך הזה יש רוב בציבור שהצביע עבור מפלגות בעלות השק…  בחדשות 12 נחשף הערב ענף ספורט לאומי חדש חוקי המשחק ברורים  השחרת שמה של נתניהו ומלחמה תודעתית נגדה בתמורה לכסף גד…  מדינת ישראל צריכה להחיל ריבונות פעמיים  ריבונות על שטחי ההתיישבות בבקעת הירדן יהודה ושומורון  וריבונות על הדמוקר…  התקדימים המשפטיים נגד משפחת נתניהו הם שפל מוסרי וערכי עמוק של מערכת אכיפת החוק בישראל ההתנהלות הזו היא ורק היא מרס…  ריבונות עכשיו  הרדיפה כנגד רעיית ראש הממשלה לא יודעת גבול יש מי שמאמין שאם העובדות במעון העידו לטובת הגברת נתניהו הן כנראה משקרות…  radio103fm עוד אסנת מארק מקום 38 בליכוד מועמדת לוועדה לבחירת שופטים אני לא חושבת שמישהו מאיים על עוד ליאת בן ארי התובעת במשפט נ… radio103fm עוד אסנת מארק מקום 38 בליכוד מועמדת לוועדה לבחירת שופטים אני מחזקת את משפחת נתניהו הרדיפה נגדם היא מטורפת בגברת נתני… radio103fm עוד אסנת מארק מקום 38 בליכוד מועמדת לוועדה לבחירת שופטים רהמ לא דיבר איתי על הוועדה לבחירת שופטים אני מייצגת את הק… radio103fm אסנת מארק מקום 38 בליכוד מועמדת לוועדה לבחירת שופטים אף פעם לא צפיתי בארץ נהדרת אף אחד לא אמר לי לבוא לעמוד ליד רא… עומדת איתך כל הדרך יחד עם מליוני אזרחים שמאמינים בך ובחפותך  האמת איתך והאמת תנצח  בבוקר הזה כדאי לזכור אדם שמטייח וקובר פרשות פליליות לכאורה בכזו קלות יכול גם לתפור תיקים לאחרים באותו אופן בהצלח…  netanyahu ד״ר AvishayBenHaim ״ביום ראשון לא מתחיל המשפט של נתניהו אלא המשפט שלי שלנו״  סיקור האירוויזיון בישראל לא זכה לשלהוב ורוממות רוח כזו בערוץ 12 כמו שזוכה עכשיו סיקור משפט נתניהו בראשון הקרנבל באולפנים התחיל אולי תבקש מהחברים שלך בצמרת הפרקליטות שילמדו אותך קצת את תקנות סדר הדין הפלילי לפני שאתה מצייץ שטויות  אני יודעת ש…  חזרנו אל בורות המים לשוק ולכיכר שופר קורא בהר הבית בעיר העתיקה   עם ישראל חוגג היום 53 שנים לשחרור ירושלים וכמ…  החוק בסעיף 128 לחסדפ מאפשר לנתניהו באופן מפורש שלא להתייצב לדיון ההקראה תהה הסיבה אשר תהה  אבל כבר למדנו שנתניהו…  החלטת שר המשפטים הזויה ומקוממת מילא שהיא מנוגדת להסכם הקואליציוני היא בעיקר מותירה על כנו מצב משפטי מעוות ומסוכן…  שלוש נשים בפחות משלושה שבועות שלושה עולמות שלוש משפחות שכולות מרוסקות מדממות שלוש נשים שנוספו לסטטיסטיקת דמים…  ממשלת ישראל ה 35 יוצאת לדרך ברכות לראש הממשלה נתניהו ליור הכנסת יריב לוין ולשרים  עם ישראל זקוק לממשלה הזו בעת…  מיהו אותו ציבור ששקד קוראת לו שלנו היא בטח לא מתכוונת לציבור הדתי לאומי הרי היא ובנט טרקו לו את הדלת בפנים והשא…  YairNetanyahu  בוקר קשה ועצוב  אני משתתפת בצערם הכבד של משפחת בןיגאל על נפילת הבן עמית הלב דואב  אני מקווה ובטוחה שצהל ישים א…  בנט לא אידיאולוג הוא לא מייצג את הימין ולא את הציונות הדתית בסיפור הזה בנט לא נשכב על הגדר בשביל מחנה הימין הוא ה…  איילה חסון מטילה פצצת אטום שמרסקת את היסודות שעליהם בנויים כתבי האישום ההזויים נגד נתניהו  אדם שמטייח לכאורה פרשות…  בגצ לא הכשיר את כהונת נתניהו העם והחוק הכשירו אותו לא היה מקום לבגצ לדון בעתירה הזו כשהחוק והכרעת הציבור מפורשי…  מטורף אחד מאיים באופן סידרתי איומים מפורשים ומסמרי שיער על בנו של ראש הממשלה והפרקליטות בוחנת את פרטי האירוע האמיר…  ההרכב החגיגי של 11 שופטי בגצ צריך לדחות היום את העתירה  החוק ברור ומופרש  אין מניעה מראש הממשלה לכהן גם דברי הה…  אם מנדלבליט הגיש כתב אישום בשוחד על סיקור אוהד והפרת אמונים על סיגרים מעניין איך היה נראה כתב האישום על מינוי בתמו…  בימים שלפני פרסום תיקי נתניהו כתבי הפלילים הבטיחו רעידת אדמה קיבלנו סיפורי רכילות על סיקור אוהד וסיגרים שלא היו…  המהפכה החוקתית של הקומיסר העליון נולדה בחטא והשלימה תוך פחות משני עשורים את ההפיכה השלטונית  בתוך חודש הצליחו שופט…  חג עצמאות שמח מדינה יקרה שלי   העסקים הקטנים פתחו כי אין להם גב כלכלי ואין להם מנוף מול הממשלה ההתנהלות שלכם היא צינית ומכוערת פתחו מיד את החנוי…  התנהלות בעלי העסקים הגדולים והחברות דוגמאת ויזל והלפרין היא חרפה התיימרתם לאורך התקופה לייצג ולדאוג לעובדים ולעסקי…  talschneider אם כך אז בטח עכשיו כשקיבל את אמונם של מעל 70 חכים העותרים ימשכו את העתירה אין לי ספק זה לא אותו חוק יסוד שמאפשר לרהמ לכהן עד פסק דין חלוט  המציאות הפוליטית העובדתית היא שהליכוד היא הסיעה גדולה ביותר בכנסת בפער כפול מספר הממליצים על נתניהו הוא הגדול גם א…  אנשים שכחו שלפני עשר דקות היינו כפסע ממשלת שמאל קיצונית שהייתה עומדת על תילם של תומכי טרור ראש הממשלה ויתר על מחצי…  אבידה  סוף האמת לנצח כתב במחנה בטח יודע יותר טוב מראש המלל על מה הוא מדבר  amirivgi המהפך האנטי ציוני הושלם אסיר ציון הוא סמרטוט  ונסראללה הוא דוגמא ומופת להקרבה בקרוב בתוכנית הלימודים במערכת החינוך htt… באמת בני תפרגן לנשים מה עם מילה טובה ליושבת ראש וועדת הרווחה אישה קומוניסטית לתפארת שמסרבת לגנות פיגועי טרור מענ…  hadarse כן אה  כשאתה אומר למענכם אתה מתכוון  למענכם הפלסטינים כי בינתיים הכל נמכר במכירת חיסול לנציגי המוקטעה בכנסת ישראל  roycohen1979 יאללה תגיש תלונה  תצרף אליה גם תלונה על לפיד שקןרא לציבור לא להישצע להוראות משרד הבריאות בגצ ממשיכים לדרוס את עקרון הפרדת הרשויות ואת עקרון שלטון העם דיקטטורה אלימה בלתי נבחרת בלתי מפוקחת בלתי מרוסנת…  roycohen1979 תקרא שוב ולאט ממולץ להצטייד בכוס מים כתבתי   לרשימה roycohen1979 היו לרשימה כשנה קודם לכן אגב הבחירות ליור המוטלות בספק זכו לאחוזי הצבעה מהגבוהים שהיו בבחירות מהסו…  roycohen1979 ב 261219 שמחתי לעזור מצחיק לשמוע את יאיר לפיד מקונן בדמעות תנין על שלושת הימים בהם ישראל אינה דמוקרטיה לתפיסתו המעוותת מה שעושה את זה י…  בעולמו הצר כתוכנית אירוח של יאיר לפיד הכל פוליטיקה קטנה אלא שהנגיף לא מקבל הוראות מלפיד והוא ממשיך להתפשט ההנחיות…  TomerAlon6 רמת הענייניות  יאיר לפיד צודק לפיד הנגיף ישב בשקט ויחכה לכם שתקימו ממשלה עם אחמד טיבי כדי להתפשט מדהים איך האיש השקרן הזה דואג אך ורק לע…  GabiashkenaziMK אשכנזי תשמע להוראות משרד הבריאות ולא להוראות יאיר לפיד רמטכל שחבר למהללי השהידים צריך להיות בבידוד…  מי היה מאמין </t>
+  </si>
+  <si>
+    <t>IsraelGaley לאחר המאבק בתקשורת הימין ריקלין אומר הבוקר לnoamfathi וYotYotam היום אגיב בהרחבה על השקרים של KalmanLiebskind שהוא ע… IsraelGaley עוד מריקלין KalmanLiebskind שייך לקבוצת העזים בתקשורת יש פיל ענק בחדר של שחיתויות בביהמש ומה הוא עושה למשל הסיפור ש… IsraelGaley ריקלין ממשיך בעניין KalmanLiebskind האנשים האלו בתקשורת שהוא קרא להם גידולי פרא באים לעשות שינוי דברים שקלמן לא עוש… IsraelGaley זמרי ישראל כץ אומר שהוא הזרים תקציבים למשרד הבריאות פרופ זאב רוטשטיין כנראה הצינור סתום כי אני נאלצתי לקחת הלוואה לב… איזה יום היום ומה אני עושה פה yCe0GV6LXJP3UXO aviadglickman אחי חכה למחר אני באווירת פיוס aviadglickman הציוץ הכי מרגש של מנדלבליט אבר  סתם סחטיין עליך מאוד מרגש התפילות האלה בחוץ שתדעו SeQv3r2xWVK1xfX גם לך SeQv3r2xWVK1xfX אכן גמר חתימה טובה לכולם וגמר מריבה טובה לימין אין על השקט הקסום הזה של רגע לפני כיפור וחודש אחריו תנוח אנחנו צריכים את הגולן למלוניות  ivri99 זה כמו שמנאייכ הייתה הפריזמה דרכה ישראל הראשונה הסכימה לשחיתות הפרקליטות יותר קל להם להסכים עם טלוויזיה כנראה hgkkuh mosheifargan שיתנהל על סוגיית מהות לא על בין אישי mosheifargan אני חושב שכולנו נעשה טוב אם ננמיך קצת וננסה לפייס במקום לשמר את זה טעינו צדקנו בוא נתקדם mosheifargan בכללי בלי קשר לריב אל תיקח ברצינות מסקנות של רביד שמעתי את ברק רביד אומר היום שהקורונה הרגה עד עכשיו יותר מכל הפיגועים בעשרים השנים האחרונות מקווה שזה לא אומר שצריך עכשיו לתת לה מדינה arielplaksin1 מעולם לא רבו רבים כל כך על הזכות להשמיע את קולם של רבים כל כך alonkar3 בגלל זה אסור מניין בחוץ של מעל 20 איש כבר כמה חודשים סלח לי אבי כי גנבתי  את התמונה ivgiz זה כאילו כל התאוריה של אבישי בתמונה אחת  כולם פה מנסים לעשות שלום בימין בדיבורים ורק אחד עושה מעשה כל הכבוד ינון Baruch20288287 לגמרי shoham39 ahLVv8u1c9eDIgg שנה שעברה יצא לי להיות שם לא פעם לילה לפני כיפור תמונה עצובה מאוד אבל באופן מוזר גם משמחת כל הכבוד לכם  NatyBA555 חחח חולה על הקללות שלכם YinonMagal בריאות talangert GC0171 israelgrin כן מעניין למה הרצל וחבריו בחרו במקום הזה מניח שלא בגלל החנויות של דיזנגוף יותר כי ידעו לאן יהודים יבואו אין תוכנית שגורמת לי ללבוש חולצה מהר יותר מנינגה ישראל talangert כי במשך כמה חודשים אסור היה יותר מעשרים במניין בחוץ אני מבין שהפגנות זה יותר חשוב מתפילות אז מי שיכול בבקשה שיקרא כמה פעמים רק לא ביבי לרפואת חיה בת רבקה תודה arielschnabel MakorRishon 2 ahLVv8u1c9eDIgg אצלנו אמרו ביצה סרוחה RonelAdani דף מקורות בבקשה קראו לי מלא שופר של ביבי לאחרונה קוראים לי מלא שופר של בנט מחכה למחזה על חיי שופרם של שני אדונים ruthelbaz אצלנו זה מייק אפ מבט חושני ruthelbaz חח את לא מכירה את הימין הוא מתפרק רק כדי להתחבק אחר כך Ari39515932 אחלה בואו נתקדם db3329 כתבתי המון די אפשר להתקדם ועכשיו אחרי שכתבתי ורבתי והתווכחתי על הסיפור הזה יותר מדי רוצה להגיד לאנשים שאני ממש אוהב כמו ריקלין קלמן ארז כ…  michaeldvorin בסדר אני אימנתי אותו ראיתי את פתחי מחסל בורקסים בחיים אבל אף בורקס לא חוסל כמו ברק רביד לפני כמה דקות היי נינגה ישראל אתם תוכנית נחמדה של אנשים נופלים למים אבל אם אפשר לחסוך מאיתנו את הדרמה האדירה של אלכס חזנוב נגד…  noamfathi בסדר לו נכנסו שני פרסי פוליצר amirgu חחח די תמשיכו yairmarom arrhton בעיניך פופוליסטי בעיני אחרים המאבק הכי חשוב שהיה פה yairmarom ואתה והאלופים שלך יהיו אלה שיסבירו להם אני בטוח ivgiz אני מבקש יור המחנה הדמוקרטי yairmarom אה לגופם של דברים עוד דביל עלוב שגנבו לו את המדינה LiadLiadbens US2221 BarashiKinneret נו באמת אין לי בעיה עם ביקורת על טהרנות אבל אתם לא מבינים שכשאתם מדברים על…  1Ycmeired מההתחלה אחי חחח מה זה יש להם מחולל גנרלים  ZigManD88 Kronos240430 US2221 BarashiKinneret זה לגיטימי זכותכם 1Ycmeired חחח אדרי איפה לא הגנתי על פתחי אין דבר יותר מצחיק מלראות שמאל רדיקלי ישראלי מנסה לשכנע שמאל רדיקלי אמריקאי לא להחרים את האזכרה של רבין  AtiasDon הפקרת חבר Shutup100000 בסדר כולם יתקררו בסוף noamfathi שכחת את הפעילות שלנו לבוני הנגב SharonAbudraham BarashiKinneret יאללה סבבה מקבל SharonAbudraham BarashiKinneret קח טיפ אני מכבד את מי שמכבד אותי אתה לא כיבדת אותי ולכן זולזלת תתמודד DonSamuel54 זה לא עניין של להסתדר זה העניין של המהירות בה חסמה אותי מאכזב כנרת חסמה אותי  SharonAbudraham BarashiKinneret שלח לי מסודר למייל טיפים להתנהלות נכונה 1Ycmeired בוא תנה להבין ותחזור אלי ChefMoshikoSado אני מתנשא עליו משקלית BarashiKinneret בואו אני מוכן למכור את פתחי בכיף אבל לא בשביל לוינסון כנרת רצה לצייץ בלי לראות מה צייצתי נו שוין BarashiKinneret כנרת לא מזיק לראות לפעמים את כל התמונה ronitlev12 oubWjsND8meuMRg ItzikZion tadmorerez48 רונית שתי מים youwllbethestar ivri99 chaimlevinson עאלק אני לא מנוי להארץ Sy78745758 ronitlev12 tadmorerez48 לא יודע עד עכשיו כנרת טענה שהם לא אמרו כלום על קלמן ועכשיו היא אומרת אסור ל…  2Mysecret chaimlevinson מתלבשים youwllbethestar ivri99 chaimlevinson איזה תחקירים בחייאת בריכה של בנט וחניה של רני אני מבין למה השמאל היבשושי…  ronitlev12 tadmorerez48 רונית אני מעריך כנות וסוף סוף את וכנרת מודות במה שאמרתן מכאן הרבה יותר קל לי לחיות עם הצד שלי בויכוח cNOGAaTfoAq5ibT chaimlevinson אכן BarashiKinneret tadmorerez48 סוף סוף קצת אמת בויכוח את מודה שרמזת את זה מפה הכל יותר ברור לי youwllbethestar MH7818 ivri99 chaimlevinson כן אני יודע שהוא מוערך השאלה על ידי מי תאמין לי שאתה לא רוצה שאשאל את האנשים שציינת ivri99 כן אבל קמפיין לא יכול לעזוב אותך מתישהו ronitlev12 tadmorerez48 יותר אמרתם בטלוויזיה שקלמן בובה של מנדלבליט ronitlev12 ItzikZion tadmorerez48 חחח אהבתי שהקונספירציה מתפתחת ronitlev12 tadmorerez48 בינתיים אתם מתבכיינים פה כבר יומיים נראה ששני הצדדים קצת בכיינים chaimlevinson זה הזמן לחשוף את האמת אטילה שומפלבי כתב לנו oIkMKXZOkBMHzB9 BarashiKinneret tadmorerez48 ברור לי שאני במיעוט בקרב הזה אתמודד chaimlevinson זה ענק יאללה לוינסון לחשוףףףףףףףף את האמת ישששששש נכנסתי לריבבבבבבבב יאללה ביי   טוב אני לא עיתונאי ולא פרסומאי לכן אני נוטש את הטוויטר להיום והולך לעשות את מה שאני הכי טוב בו לחטוף מכות מהילדים שאו ברכה ושתו מים SeQv3r2xWVK1xfX tadmorerez48 הציבור אכן לא מטומטם ותן לי לספר לך משהו לרוב הציבור מעניין את התחת הריב הזה BarashiKinneret tadmorerez48 זה פשוט לא נכון כנרת ואת יודעת את זה הכל התחיל כשאנשים רמזו שהוא נפגש עם מנדלבליט ולכן כתב את מה שכתב SeQv3r2xWVK1xfX tadmorerez48 גבריאל אני מדלג אבל תודה שהוכחת לי את מה שאני טוען כלפי הריב המטופש הזה KakLxMbah9XykjI ניצולי אלטלנה יחלקו עליך youwllbethestar MH7818 ivri99 chaimlevinson בוא עשרים שנה בעיתונות לדבריו והחשיפה הכי רצינית היא חניה של רני ר…  SeQv3r2xWVK1xfX tadmorerez48 פתאום קלטתי שלפתע ריקלין וציפורי באותה קבוצה קלמן עשה שלום SeQv3r2xWVK1xfX tadmorerez48 בוא מכיר את האמת משיחות אישיות כבר שבוע היא אולי אמת אבל לא קשורה לעניין SeQv3r2xWVK1xfX tadmorerez48 וכמובן תחפש את המניעים הנסתרים אחרי כל ציוץ שאתה לא אוהב matanamirr תמות yotam53 ראיתי כבר תביעות חסרות סיכוי יותר שזכו מה שכן פתחי לא יילך על זה הוא מסודר אני לעומת זאת אשמח להשפלות פומביות SeQv3r2xWVK1xfX tadmorerez48 לא אתה לא תוקף רק מתחיל עם הזבל של מה שאומרים עליך וכאלה יאללה נקסט אוף כל הריב של פתחי ולוינסון גרם לי להבין שאני גם לא עיתונאי וגם לא עשיתי אף קמפיין ברמה של שוקה שמישהו יירה בי  SeQv3r2xWVK1xfX tadmorerez48 גבריאל הצבעתי נפתלי בחיי הצבעתי גם ביבי אבל אתה מוכיח יופי את מה שאני טוען אתה נ…  Sy78745758 tadmorerez48 חחחח התגובה הייתה אחרי מתקפה משןגעת של אנשים שלא הסכימו לזה שמישהו יכתוב שביבי צריך ללכת ומיהרו לחפש מניעים נסתרים OferDerey ראיתי שפה הוא קצת חושש כיף  youwllbethestar ivri99 chaimlevinson אני גרוע בהכל ובכל זאת אתה כאן מעניין tadmorerez48 כל כך לא ריגש אתכם שנכנסתם לאמוק מטורף קווים לדמותו של לוינסון מפרסם שפתחי קופירייטר כושל ואז הוא קולט שיש מצב שיקבל דיבה רועדות לו הביצים הוא מפרסם ה…  tadmorerez48 ולחשוב שהכל התחיל ממישהו שהעז לעלות על הכתב את המילים ביבי צריך ללכת חרפנאז לוינסון בעוד הישג עיתונאי   ivri99 זוכר את זה וסתם בריכה אפילו לא עם דם של ילדים פלסטינים בפנים FCAL2Y8M0qgEeAQ IdoA13 ivri99 chaimlevinson לא מערב שווארמות בריבי טוויטר ivri99 chaimlevinson רציתי תחום שהוא קשור אליו האמת שזה די מסכם את רמת העיתונאות בארץ   Moshehaim6 noamfathi חח בתחום הזה אני אכן נחות chaimlevinson חחח וואלה לא מסכים עם פתחי אבל הוא קופירייטר כושל כמו שאתה אסטרופיזיקאי מוצלח IdoA13 BarashiKinneret לאף אחד לא אכפת מביקורת על המאמר אבל כשאנשים שחגגו על התחקירים של קלמן פתאום מעבירים ביקו…  Efibully13 כתבתי גם על הנאום הזה אבל שווה לשמוע גם מה נאמר כמה שורות אחרי התעשו חיים Efibully13 אחלוש רואה את דני קושמרו הדרמטי עם השקף של מחדל יום הכיפורים בפתיחת אולפן שישי ונזכר בדני קושמרו הפחות דרמטי שעמד בסוף…  Shutup100000 BarashiKinneret איך הוא לוקח הוא טועה אבל ביבי יכול להחליט להאבק עד הסוף כמו שאני מקווה שיעשה YHepstein לגמרי porosi BarashiKinneret כל מי שלקח חלק בהזיה השבוע WTDT61WXKg8Ke0t BarashiKinneret אדרבה IdoA13 BarashiKinneret אני אפילו אמרתי את דעתי על ההכפשות האלה בתחנה עצמה זה מה שיפה בה US2221 BarashiKinneret אז למה אתם כל כך מתרגשים כשקלמן כותב שביבי צריך ללכת כולה קלמן moshebiton000 BarashiKinneret בסיידר האמת נמאס לי רק בריאות BarashiKinneret כן כולנו שמאל שחבר למשותפת זה אני כבר יודע liordavid4 noamfathi אין לנו בעיה שאנשים יורקים לבאר כל עוד זו לא הבאר שלנו ואם יותר לי קלמן הוא גם מהאחראים לזה שיש באר liordavid4 noamfathi נו והביקורת של עמית סגל היא שצריך לסגור את גלצ בכל אופן גם להגיד שקלמן היה נובאדי לפני זה…  liordavid4 noamfathi תשמח לדעת שגם עם הציוץ הזה אני לא מסכים כמו שעמית סגל יכול לבקר את גלי צהל למרות שגדל שם stwiess yossidavidov10 היא מושחתת עוד כשהגישה כתב אישום על סיקור חיובי yossidavidov10 איזה חוסר ברירה אתה מכיר את מערכת המשפט שלך WdU9F14VG1j4erK yossidavidov10 נו אז על איזה זיכוי אנשים מדברים Sy78745758 ynir5Ynir Moshehaim6 netanyahu רמזו גם רמזו שהוא בובה מתודרכת yossidavidov10 אמן ואמן אבל רגע אתה סומך על המערכת שתזכה אותו או שזה סיציליה Sy78745758 BarashiKinneret כן ההסבר שלי היא שהוא טועה katan2010 BarashiKinneret נו אחלה רק אל תגידו שלא קראו לו ותפערו עיני עגל מיתממות Sy78745758 netanyahu הוא עיתונאי גדול כל עוד הוא לא נוגע במאליכ katan2010 BarashiKinneret כן כן טקטיקה נחמדה נזרוק חרא לאוויר ונתפלל שהוא יידבק רק על מה שטוב לנו Roadrun86259229 BarashiKinneret אתה לא רוצה ללכת לשם כי אני יכול להביא לך כמה מאמרים של גדעון לוי בזכות נתניהו BarashiKinneret אתם כזה אנחנו רק נזרוק לאוויר את המילים תדרוכים מנדלבליט עיתונאים עם כיפה ואחרי זה נשאל בהיתממ…  BarashiKinneret מה לא קראת אנשים שכותבים שקלמן שופר של בנט לא קראת אנשים שכותבים שקלמן מופעל על ידי מנדלבליט כי…  netanyahu מתחביביי לחזור לשיתופים של ביבי את קלמן moshebiton000 BarashiKinneret בוא קלמן כתב על תקשורת השמאל לאורך השנים מילים קשות יותר מגידולי פרא doko2015 BarashiKinneret לא מפיל את זה על פתחי אנחנו חלוקים מאוד בנושא ואני לא מתיימר להיות עיתונאי מעולם לא טענתי שאני כזה SZalmanov BarashiKinneret זה נכון אבל הביקורת דיברה על שופר של בנט ובובה של מנדלבליט לא בהכרח של כינרת BarashiKinneret נו הנה עבר קצת זמן ועכשיו בימין מאשימים את התחקירים של קלמן שהם נגועים בפוזיציה מסתבר שיש הרבה יעל דן בימין 1379bac849584d4 noamfathi פנינו לשניהם mosheifargan ik300 יאללה מיציתי חתימה טובה mosheifargan ik300 בקיצור אסכם האחריות מתחילה מהאמצע mosheifargan ik300 גם באמצע צוק איתן אפשר היה למנוע את זה mosheifargan ik300 ראיתי ותירוצים אני תמיד מכיר אבל זה לא משנה אשם המחולל באמצע תמיד יש אשמים אבל הם משניים חשובים אך משניים mosheifargan ik300 ואני מבין שהדיון הוא קלמן אבל איכשהו הדיון על קלמן לא התחיל אחרי תחקיר על בגץ אלא אחרי שהס…  mosheifargan ik300 אבל זו הבעיה אחי איכשהו תמיד הדיון הוא מהאמצע mosheifargan ik300 כמו שביבי לא אשם באוסלו למרות שהוא לא ביטל אותו אשם מי שחתם על ההסכם mosheifargan ik300 הויכוח שלנו הוא על מה הדיון הנכון mosheifargan ik300 אחלה כל הטענות אליהם אם אתה מתנגד לתאגיד אבל איפה הטענות למקים ואמרו אמן  ik300 mosheifargan הבנתי הוא הקים בכוונה ל ואז השתבש לו לא יודע לי אמרו תמיד ולעיתים בצדק שביבי רואה יותר רחוק מכולם mosheifargan ik300 אבל אתה מתעלם מזה שנתניהו פעל גם להקים הסיפור לא מתחיל איפה שנוח לכל אחד מאיתנו ik300 mosheifargan אבל לטענתכם התאגיד טוב לבנט ורע לביבי אז למה ביבי הקים אותו mosheifargan ik300 אתה אומר בעצם בואו לא נדבר על מעורבות נתניהו בהקמה כי זה לא נוח לי ונדבר על אחרים אחלה ik300 mosheifargan אם הוא כל כך גרוע למה ביבי הקים אותו לעזאזל liordavid4 YaaraZered תודה חבוב yitzhakalt YaaraZered איש שפוי סך הכל yitzhakalt YaaraZered אתה קורא אותי כמו ספר פתוח YinonMagal תהיה בריא yitzhakalt YaaraZered וואי וואי זה מסלים ericalmaliache YanivTurgi noamfathi מי מכריח את נתניהו להתקפל מלבד נתניהו yitzhakalt YaaraZered זכותך המלאה סגר שמח yitzhakalt YaaraZered כן זה סוד ericalmaliache YanivTurgi noamfathi אני חולק עליו אבל האופציה השניה היא שקלמן מאמין שביבי לא יכול לממש שום דבר מהתחקירים האלה mosheifargan התאגיד חמק לקלמן בצוק איתן YanivTurgi noamfathi עובד גם הפוך yitzhakalt YaaraZered נו באמת Eladingo אפשר הרבה יותר טובה אגב yitzhakalt YaaraZered כן כן ברור bAtOfCHMFyriM8f YaaraZered אני ציני כי המתקפה על קלמן צינית YaaraZered אוקיי אז הם קורבנות הקלמן מעכשיו pwVqFvDsWieGcZU חחח שתיקה כתבתי על זה אלף פעם 10 דקות לסגר חייב לשתות עוד שתי כוסות מים אז גם אני מצטרף לירי בנגמש הימני אם נשאר בכלל נגמש טור שבועי מקור ראשון  יום ענק לכדורגל הישראלי  sDavidovitch בלי קשר לשמחה מהמשחק אין עוד שדר שיכול להביא יציאה כמו ואלרי קרפין קוברה קאי Pitzynivly TalKaplan גם נכון TalKaplan ראיתי את מכבי תא נגד זלצבורג ואת חיפה היום אולי אפשר להפסיק לזלזל כל כך בכדורגל שלנו יום לא פשוט לאוהדי טוטנהאם ספר הילדים הכי מוזר אי פעם  Danmargalit בדיוק מכין רשימה אתה מבני האור talsharon5 GrinfeldSagi yaelshevach itamarbengvir נו לך על זה שגיא yaelshevach GrinfeldSagi שגיא יש לך אומץ לכתוב מפורשות שאיתמר בן גביר מעודד רצח ואלימות כי הוא נורא ישמח לכסף itamarbengvir yaelshevach GrinfeldSagi אוי שגיא תסתום קצת ותן כבוד כשאתה מדבר עם האישה הזאת חצוף קטן HananiaYoram לא מעניין אותי אם הם מפיצי מחלות הם גורמים ובצדק לאנשים להגיד למה הפריבילגים האלה ואני לא זה העניין…  תגידו מה קורה עם נסיון הדריסה המטורף של מפגינים במוצש האחרון ממשיכים עם הספין או שנגמר theomerb כן כן זו בדיחה ברור HananiaYoram מסית נגד מי נגד חבורת המופקרים העלובים בבלפור מצווה מצות ליום כיפור  התקשורת זה כזה  פשוט מגוחך כמה הממשלה מתעסקת בהפגנות ובנושא אחר מזמינים אתכם להצטרף אלינו במוצש לערב שידורים מיו…  IsraelGaley עוד מגרינצייג לYotYotam וnoamfathi אני יכול לספר לכם משהו חדש בעניין העסקה שמציעים לנתניהו  מנדלבליט מתנגד לה בעיקר… IsraelGaley פתחי אתה רוצה להגיד שהוא לא מדבר עם עיתונאים גרינצייג זה לא סוד שהוא מדבר אבל גם נתניהו מדבר איתם ולא מעט avishai… IsraelGaley אבישי גרינצייג על טענות הקשר בין קלמן ליועמש יש פה תאוריית קונספירציה שרק הולכת ומתעצמת זה אומר שבהכרח כל הפרסומים של… סתיו ברדוגו  IsraelGaley זמרי לחכ bezalelsm מה דעתך בנוגע להצעות שנתניהו יפרוש תמורת ביטול ההליך המשפטי  חכ סמוטריץ אני מתנגד לכך נחרצות…</t>
+  </si>
+  <si>
+    <t>IsraelGaley KalmanLiebskind RikIin10 YotYotam ואז עניתי שזה בדיוק ההבדל אצל בן ארי לא עושים כלום אבל את גלנט הדיחו filbers רק חבל שהוא לא מבין את זה SdomsRighteous הערב בשבע בתוכנית שלי תראה 8gstSO3sGqWWII2 מי שמשקר זה אתה וקלמן לא אמרתי קלמן בשום מקום חוזר ואומר שניסו וחלק הצליחו לארגן למנדלבליט פגישה…  guylevy123 מעדיף פי אלף להיות השפוט של ביבי מאשר להיות הגיבור של הארץ דובר משרד המשפטים והפרקליטות gutmansh למה שאנשים לא יריעו לקלמן הצדיק Yossihaoved לא קלמן ליבסקינד הגיבור של השמאל  Hamutal1 את יודעת איפה ננוח AvishayBenHaim BoazCohen גם אני חושב שהם אנשים טובים אני גם חושב שאין דוגמא להגמוניה בעולם שאינה מודעת לעצמה פ…  BoazCohen AvishayBenHaim מסכים זה ברור אני חושב שאבישי הולך פה בין הטיפות כדי לא להעיר את הדב מריבצו כי אין ש…  AvishayBenHaim אחי היקר הם מודעים ועוד איך הם מרגישים גם מאוד נעים כי עמוק בליבם ואולי גם לא כל כך עמוק הם בזים ל…  חשבתי על הרבה דברים במהלך הצום אחד מהם היה על ידידי המתוק אבישי בן חיים שאמר ההגמוניה אינה מודעת להגמוניות שלה ו…  israelbenzeev מחר בערב בשבע בערוץ 20 zquXptqzhgzr3ru כמעט 30 שנה את כל נדרי התפללתי בכיכר דיזנגוף שחציה המזרחי הפך לבית כנסת ענק עם כיסאות על הכביש והמדרכה מעולם לא ראיתי את הכיכר…  Yossihadad2 ביני לנדאו וכשנרדמת בשלולית דמעותייך נשאתיך על כפיי וארחץ את פניך ואת הקוצים שליתי מתוך שיערך וזה יהיה לך האות שמעולם לא רחקתי…  1AYK1 יפה limorh6 YinonMagal rinio1984 בוצע danatenenbaum יפה Yodan57509590 ממש לא ממעיט דיברתי על המצוות השכליות לא על המזרחים שאינם שכליים היריעה קצרה פה מלהכיל ולכן כותב על זה מאמר TimtumAtzmi חס וחלילה Urieldenn בוודאי שניתנו אבל קח את ההתפתחות של העולם ההלכתי דקדוקיו ופלפוליו והניסיון לשוות חשיבות יותר גדולה למצוו…  גובר amitaydror LiadLiadbens yifator לצערי עד לרגע זה אתה ורבים לא מבין את הסיפור תראה ביום ג אצלי בתוכנית רמז הס…  amitaydror LiadLiadbens yifator גם אם תחזור על השקר אלף פעם הוא לא יהיה אמת אני לא הזכרתי את קלמן במילה צר לי…  CMoyshi במידה מסויימת כן ראש חץ כוהני נשא באחריות הרוחנית לכל העם כיום כל אחד נדרש להיות כהן גדול זה לא הגיוני ובלתי אפשרי ואולי סגירת בתי הכנסת מחזירה אותנו לאלוקים האישי הרגשי הארץ ישראלי שהרצון להיות במחיצתו גורם על הרצון לרצותו  לע…  tbhavhss dzroman6 AryeVarman ערוגה מסוכנת גידול פראי ומניין היו יודעין שהגיע שעיר למדבר דרכיות היו עושין ומניפין בסודרין ויודעין שהגיע שעיר למדבר רבי ישמעאל אומר ו…  Ofernicus vansivil תראה ביום ג את התוכנית שלי ואולי תבין שקלמן החליט שהוא גיבור האירוע אני לא דיברתי עליו ניסי…  AryeVarman DTzahor עוד שקר אנא הראה איפה אמרתי מילה רעה על קלמן עד הטור המטנף שלו או שטענתי שהוא נפגש עם מנדלבליט sefafefa YinonMagal riklu בדיוק yemarspace לא הבנתי YinonMagal רפואה שלמה אחי SaraSolomonsara Ofernicus מה פתאום צריך להגיש להוד טהרנותו עשרה עותקים DganitMandel ReiSheAlHakir AryeVarman קלמן לא מגדף הוא רק מקלל Sigalbz קלמן ליבסקינד טוען שבנט מחרים אותו כבר כמעט שנתיים ובכן  Ofernicus דווקא שאלו אותו כנרת בראשי שאלה הטהרן לא חשב שמגיעה לה תשובה logicinaQirsh mushyvider YairJacobi כי הוא הלך לפן האישי וגידף אותי לאורך כל הטור שלו הצדיק הטהרן KaromboPlombo YinonMagal ולכן הוא מקלל אותי אני לא הזכרתי את השם שלו במילה אחת logicinaQirsh mushyvider YairJacobi אני לא תקפתי אותו ולא אמרתי מילה עליו בתגובה הוא טינף וקילל בצורה מכוערת…  mushyvider YairJacobi לא זכור לי שקלמן ביקש תגובה ממני לפני שטינף וקילל אותי YairJacobi ביום שלישי בשבע בערוץ 20 אספר את כל הסיפור Iaskquestions30 YinonMagal טור דעה מלא גידופים ונאצות AryeVarman ולכן הוא קילל וגידף וטינף limorh6 תודה נשמה KaromboPlombo YinonMagal ברור מי אמר שלא אני לא ביקרתי את נתניהו מכאן עד להשמיץ לקלל ולגדף המרחק רב YinonMagal הארץ הבינו בדיוק את מי קלמן מקריב Sigalbz טהרן ושקרן אני המום לפני מספר דקות עזבתי את קבוצת הווטסאפ של הפטריוטים לי אין את יכולת הצביעות של קלמן לצחקק איתי בפרטי ולטנף עלי בפומ…  arilowinger תראה לי איפה כתבתי או אמרתי שקלמן נפגש לשיחת תדרוך Idoaskz12 תודה רבה JoeS15128922 תראה לי איפה אמרתי שהוא תודרך על ידי מנדלבליט קלמן משקר SababaYomtov תודה רבה אחי כל העוולות בתקשורת ובסוף נתניהו הפוליטיקאי היחיד שעומד על זה לדין כל העוולות במערכת המשפט ובסוף לפי קלמן מי ששוב…  YinonMagal גדול אתה  sssss0411701 תודה רבה וגמר חתימה טובה אין מחמאה גדולה יותר מכך שדובר משרד המשפטים תומך בקלמן בויכוח נגדי זה שהדובר החצוף הזה בכלל מתערב ונותן ציונים זה…  tadmorerez48 אכן אחי YinonMagal שלום קלמן הבנתי שמפריע לך שגדלו בימין גידולי פרא לא עיתונאיים תגיד  מה לגבי דוברי הפרקליטות דוברי כחול לבן דוברי מרץ שממ… royyair אעשה את זה במפורט ביום שלישי עד אז חפש איפה אני הזכרתי את השם קלמן ומדוע הוא מתמקד בעצמו במקום בסיפור Chapatack1 נתחיל בזה שבכלל לא הזכרתי את השם שלו עכשיו מי שקרן rothmar tadmorerez48 bardugojacob YaaraZered אם באמת היית אוהב את האמת היית לפחות עושה את עצמך ומנסה לשמוע מה א…  קלמן נותן ציונים לעיתונאי הימין ועמית ודרוקר מצטרפים אליו שמח מאוד להיות עם ברדוגו תדמור יערה וכמובן אראל האריה  ErezZadok1 תודה רבה אחי katmendo תודה נשמה גם לך SimahovAlbina  Sz14561 AdelDavid12 arielplaksin1 חחחחחחחח אני ההוכחה Cannabisrael חחחחחחחח Sz14561 AdelDavid12 arielplaksin1 שקר אני ממשיך לטעון שהסיפור הוא המפגש בין היועמש לפוליטיקאים לבין עיתונאי המגזר Asimmatrix  hovevamim תודה וחתימה טובה גם לך ExitTlv לשמוע תמיכה ממך זה מפתיע Orna12345678 תודה נשמה אתם לא תאמינו אבל אני שמח הבוקר הזה על הטור של קלמן נגדי שבו כינה אותי גידול פרא ועוד ביטויי גנאי הסיפור אינו העל…  arielpesco מניפולציה עלובה סרטון חתוך תביא את ההמשך TomWilder1 IlanLukatch amsterdamski2 AyeletShaked טיפש הבעיה הראשונה בעיני בהתמודדות עם הקורונה היא חוסר ההפנמה שהיא תיהיה איתנו עוד הרבה זמן הבעיה השנייה היא אובדן הערב…  oferdann להיפך אהבת חינם לכל עם ישראל שיהיה בריא מההתחלה אמרו בשמאל שאין קורונה והיה נדמה שעם הזמן הם הבינו שיש באמת מגיפה והיא לא מניפולציה או אינטרס של נתניהו כ…  DaphnaLiel זה אינטרס של נתניהו או של מדינת ישראל בחיי מה נסגר אתכם BdmaorMajor אני נגד גם עכשיו לפעמים בשיחותי עם ראש הממשלה נתניהו יצא לי לחשוב שהוא מגזים שהוא קצת רדוף ממציא קונספירציות גם אמרתי את זה לחב…  avribloch ELIM12 אענה קבל עם וטוויטר הצגת לי את הקשקוש שלך הסברתי שמעולם לא דיברתי על פגישה עם מנדלבליט או בי…  avribloch ELIM12 הסיפור שכתבת הוא שקר מההתחלה ועד הסוף פשוט קשקוש רשלני avribloch ELIM12 אתה לא רציני רק בריאות ELIM12 avribloch ביקש ועניתי לו שזה לא נכון ולמרות זה מצייץ פשוט שקרן avribloch אתה מדבר שטויות אתה יודע שאתה מדבר שטויות וממשיך לדבר שטויות OmerDahan5 Tzach10 אראל קצת רדום וחבל MrNoBS1 תודה arik3000 omerdos arutz20 netanyahu מהיום היינו עם מסכות כל התוכנית Baruch20288287 הוא יותר מתוחכם מזה הוא ניסה להסביר כמה המצב של ביבי בעייתי וחסר תוחלת omerdos arutz20 netanyahu תודה שהגעת היית מעולה BenHowardIL KalmanLiebskind akivanovick לא Thomas22483902 תראה איפה אמרתי את זה הסיפור אינו פגישה עם מקורות איש לא שולל את זה הסיפור הוא על יועמש שתפר שפוחד כעת מהמשפט של נתניהו ורוצה שהוא יפ…  גאה לספר שהעברתי כעת שעה של התוכנית שלי בערוץ 20 כאשר אורחי ואני עם מסכות לאורך כל השידור אפשר לדבר ושומעים מצויי…  ונשמרתם מאוד לנפשותיכם קודם לתפילה בבית כנסת ולהדביר את המגפה קודם לזכות ההפגנה הכחשת המציאות הנפרשת לפנינו היא…  arutz20 ערוץ 20 נענה לקריאתו של שר התקשורת יועז הנדל והחל מהיום יחוייבו כל הפאנליסטים והאורחים באולפן לעטות מסיכות על פניהם כל עוד א… issacbenzvi1 YKlfa KalmanLiebskind akivanovick amitsegal DFNnewsIL מעולם לא אמרתי שזה קשור לקלמן נא לא לשקר OriginalMosheC קודם כל תחזור בך מהדיבור אלי כצעקן אתה עדיין עובד ציבור ותלמד דרך ארץ חתיכת חצוף אדם להבל דמה ימיו כצל עובר  OriginalMosheC תיזהר חביבי יש לי עוד הרבה מה לספר ואתה יודע את זה הערב בשבע בערוץ 20 אספר לכם בתחילת התוכנית שלי איזו דמות ציבורית מפתיעה דוחפת ונותנת רוח גבית לפרסומים והסיפורים נגד שופטי העליון להתראות ruthelbaz judash0 בכל בדיקת דם אפשר להוסיף את סוג הדם אם תבקשי ruthelbaz judash0 מה סוג הדם שלך ivgiz יום אחרי סוף הדמוקרטיה ביהדות שומעים דעות שונות וסברות ונימוקים ואוקימתות ומקבלים החלטה בשמאל הפרוגריסיבי אין דעה אחרת גיוון בדעות לשיט…  BoazGolan צודק BoazGolan למה הוא מסרב להשיב chenjog AvishayBenHaim מתקיים פה דיון מנומס ומנומק מעניין למה דווקא אתה מדבר על מלחמה אפילו המרקר חושב שצריך להגביל את ההפגנות בבלפור אבל מנדלבליט שיכור הכח בשלו ההפגנות הדביקות ימשכו דמם של הרוגים…  omeraviram2 AvishayBenHaim בהכללה החרדים והציונות הדתית dasdasit כי אני בוט ahLVv8u1c9eDIgg AvishayBenHaim לא על החשיבות של האמונה אלא על תפקידו ומקומו של אלוקים בחיים שלנו Gil46937873 ElizabethRimini AvishayBenHaim תודה eitanzeliger בהחלט ElizabethRimini AvishayBenHaim זה לא תקף באותה מידה שאלת הסמכות היא קריטית והיא מסובבת סביב קפה בימי קורונה שלא לדבר שאין עוגת שמרים וגם אין מלצרית באסוש  avihaihaddad AvishayBenHaim לא טובה החדשה ששמתי ymynspwym AvishayBenHaim כלומר ביטאת רגש מסורתי שהוא מכיר בקיומו של אלוקים בדיוק לפי החלוקה שהצעתי ElizabethRimini AvishayBenHaim במוקד הויכוח בין אנשי המוסר לבין אנשי ההגיון עומדת גם השאלה האלוקית אי אפשר בלעדיה AvishayBenHaim ואולי הויכוח הוא בכלל על אלוקים יש את חסרי האל ויש את עובדי האלוקים השכלי ויש את עובדי האלוקים האמוני Vitaliko HhoUrCKK4iowrX6 תודה yonicohe תחשוב yonicohe לא יצחק שלום לאלי ורטר אף אחד לא מכין לי את הציוצים  כלומר אתה שקרן לא תאמין אבל בימין אנשים חושבים לבד ולא נעים בעדרים…  YaaraZered למה נראה לך שהזמינו אותם ElizabethRimini זה אדיר זכותו של כל אחד לחשוב שביבי צריך ללכת פחות זכות זה לומר ביביסטים במקום לענות לטענות למשל לא יכול להיות שאחרי שקל…  uv1709 בתי קפה בלי לשבת סופר יודה וכו IsraelGaley noamfathi YotYotam KalmanLiebskind לא אמרתי את זה נא לתקן GoremBahir אחמד טיבי אני מטייל בעירי האהובה תל אביב בניסיון לקנות משהו אין סגר שבוע טוב GadiTaub1 בושה YinonMagal מחייב אותך על הלייקים של הציוץ הזה radio103fm BenCaspit YinonMagal היי ינון אנא תקרא בשידור את בדיקת המשרוקית של גלובס לגבי הטענה של בן רמז קשקוש  SdomsRighteous radio103fm BenCaspit YinonMagal שקרן זה משפט שנחתך  GadiTaub1 בדיחה deemanuel3 NadavEyal נגד כמובן כל התקהלות ולא משנה מאיזה מגזר NadavEyal הזכרת את טופז ושום מילה על מסיבת הנשיקות וההדבקות בהפגנה בבלפור אתמול ElizabethRimini לזה אני קוראת חתימה טובה שר החוץ של איחוד האמירויות שייח עבדאללה בן זאיד שחתם על הסכם השלום עם ישראל באזהרה מאוד מ… dverthaim חוץ מזה שלא היה אירוע דריסה ציוץ די מדוייק MalachiVin תתחיל עם הסבר מדוע התנך לא מגנה את הרצח שלו הלכתי לבית הקפה ראיתי בחוץ את המלצרית עצובה שאלתי אותה למה אמרה תראה מה זה חבורת מפגינים קטנה רוצה לעשות הכל שהסג…  yaircherki יפה גדי כמה אנשים עוד צריכים למות פה כדי שחברי כת אוסלו יגלו אחריות ויפסיקו להתנהג כמו ילדים קטנים amitsegal חבורת אוסלו ממשיכה להכות בישראל shir1margalit אבל אני קורא בדיוק את זה לעשות לא לאפשר שום התכנסות מעל 20 איש כולם מסכימים חוץ מהחברים שלך ושנה טובה גם לך צדקת BdmaorMajor DaphniNLeef נגד כל התכנסות ציבורית מעל 20 איש שנה טובה לראש הממשלה חודש טוב לשר הבריאות שבוע טוב לרוני גמזו אם אתם רוצים שניקח אתכם ברצינות אתם חייבים להפסיק…  DaphniNLeef אני מוכן לעשות כל רגע חשבון נפש זה לא סותר את זה שהחברים שלך מסכנים את החיים של כולנו זו לא שנאה זו…  קו ישר עובר בין החתימה על הסכם אוסלו ואלפי נרצחיו וההפגנות חסרות האחריות בחוף הים ובבלפור בשני האירועים מגזר מסוי…  sabbabale מעולה sabbabale YinonMagal גדול captainB158 לך לטיפול יא אובסס מי דיבר פה על נתניהו רבי מאיר אומר עני ורש ומרושש מביט בנשל הנחש לו רק יכלתי גם אני כך להגיח בהשלי בלי כל חשש תרבות של עור אשר יבש…  RealDuduA כבוד Hzkczd5IYiKnz2b hananamiur אתה טרוריסט חצוף hananamiur הארץ עיתון שתומך בטרור מה אתה מופתע היום הרת עולם היום יעמיד במשפט כל יצורי עולמים אם כבנים אם כעבדים אם כבנים רחמנו כרחם אב על בנים ואם כעבדים ע…  IlanLukatch ברור שהם אשמים matanamirr אני גובה עמלה על ציוצי מלצריות benarinoam אין ברירה ראש שנה מוזר למרות תקיעות השופר כי הקורונה באה לסגור ולחבל ממש שמע ישראל ובמערב דע את עצמך ובמזרח דע את אלוקים…  moshebatwiter הקורונה מגיפה ואינה שפעת עם יחסי ציבור לצערי היא כנראה תיהיה איתנו פה עוד הרבה זמן וצריך לדעת איך לחיות לצידה מפגיני בלפור שהודיעו שימשיכו גם עכשיו עם הטירלול שלהם מוכיחים שהם לא דואגים לעם ישראל ולא בגלל השחיתות הם רוצים…  dasdasit לא יכול לגלות bnyiroz לא יכול לגלות זה רק היום ככה נראה שלום אמיתי וזה נהדר ומרגש  lionQueen420 כי הכי בעייתי זה צפיפות וכל מגזר צריך לוותר על הצפיפות שלו בגלל שלא מסוגלים יש את הסגר הזה Bicherit חוסר היכולת של הורים רבים פשוט להיות עם הילדים שלהם בבית פשוט מדהים amitsegal שנה טובה ואם חסר לכם עוד קצת ויכוחים על התקשורת העליון הפוליטיקה ותיקי נתניהו  הנה אצל dverthaim בglobesnews  העיתון… YuvalLeshem amitsegal dverthaim globesnews הלוואי זו שליחות amitsegal dverthaim globesnews ואם חסר לי רק על חצי מהנושאים לקרוא חצי כתבה amitsegal כסת״ח העדר חשיבה יצירתית חוסר הפנמה שמדובר באירוע שימשך הרבה זמן חוסר היכולת לאסור על כולם אירוע של יותר מ 20 איש ביחד יושב בבית הקפה ניגשת אלי המלצרית ושואלת אם אני חושב שהם סניף דואר אמרתי שלא אמרה תראה מה שלחו לך דרכנו אמרתי ת…  afiistheone Orna12345678 תגיד שאתה נוסע להפגין בבלפור מעולה וכעת להאיץ את קו מסילת הברזל בין אילת לנמלי הים התיכון לשינוע סחורות ברכבת שיחסוך את ההפלגה הארוכה והלא בטוח…  הסיבה האמיתית שאנחנו הולכים לסגר ולפגיעה גדולה כזו במרקם החיים והעסקים בישראל היא חוסר היכולת של הממשלה לאסור איר…  אין החלטה אמיתית ולטווח ארוך בנושא בתי הספר ובנושא הגנים ובנושא ההפגנות ובנושא בתי הכנסת והעסקים והעבודה הכל…  UsherBI דווקא הזמינו מה הקשר בכלל שיטת האקורדיון נהדרת לכלי נגינה לא לאנשים לסגור לפתוח לסגור לפתוח אנשים יתמוטטו השיטה הזו מלמדת שהממשלה לא מעכלת…  פלא שמאלני אני מתנגד למדיניות הממשלה ונתניהו באופן נחרץ בנושא הקורונה חושב שהם מנסים להביס את הנגיף ולא יצליחו ב…  quChQrUndp9kmma אני מכיר בקורנה כנגיף רע ומזיק הרבה מעבר לשפעת רק חושב שההתמודדות איתו שגוייה bZzge8Ua1sYR9x0 סוגר את כל האירועים הציבוריים בתוך מבנים פותח בחוץ עם הפרדה מסומנת ונאותה znX09LN0WiU6Uqh אם הם רק יעזו Advamagal אז נירה על השמיים כן המצב לא טוב הגיוני GurMegiddo chaimlevinson טיפש greenarik השתגעת Deridder אני כל הזמן כותב את דעתי צועק אותה ומשלם על זה מחירים אתה כותב עלי בלי להכיר אותי וסתם מכליל עכשיו מי…  ZzLWSZfgowjMOxR AchinoamSwisa chaimlevinson לסגור את המדינה זה צעד קיצוני שמעיד על פחדנות וחוסר באומץ לקחת אחריו…  פריצת דרך ישראלית במאבק בקורונה מעכשיו ידווחו כל שעה על מספר הנדבקים בישראל מה שיעזור כמובן להוריד את נתוני התחלו…  YinonMagal סוף סוף מפרגן במשהו idaholloway אומר לציבור את האמת AchinoamSwisa chaimlevinson גישה מערבית טיפוסית ״לעשות משהו״ לספור זה לא לעשות משהו להודות שאנחנו לא יודעים זו…  elicoh chaimlevinson לא לא נתווכח מי סופר יותר וזה ישמיד את הנגיף איזו בדיחה chaimlevinson החלשות שלו או גילוי פגיעות שלו למשהו סבלנות היא שם המשחק</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מיום הכיפורים ההוא עד יום הכיפורים הזה הביצוע שקורע לי תמיד את הלב בימים שהלב נקרע ממציאות חיינו גמר חתימה טובה…  השופטת רות ביידר גינסבורג לוחמת צדק ענקית והשראה לנשים בכל העולם נפטרה בראש השנה   ערכי השוויון והדמוקרטיה שעבורם…  “WOMEN BELONG IN ALL PLACES WHERE DECISIONS ARE BEING MADE”  Ruth  Bader Ginsburg an inspiration for generations o…  khalidalkhalifa Thank you sheik Khalid for your touching words Peace between our countries is a wonderful beginni…  מי יתן ותהיה זו שנת בריאות בה יבריאו החולים ונשכח מהמגפה בה תבריא הדמוקרטיה שלנו ונשכח מהמתקפה עליה בה תבריא הכל…  History is being made  Israel  UAE and IsraelBahrain agreements are changing our region Congratulations   המזרח התיכון משתנה לטובה כשהחשאי הופך לפומבי  מברכת על הסכם הנורמליזציה עם בחריין ארוע משמח בכל מובן  שבת שלום Women offer a broader perspective for more comprehensive decisions on notional security I enjoyed speaking in this…  TzipiLivni כשאתה AvishayBenHaim מגן על השחיתות בשם הזהות אתה עושה עוול לאנשים ישרי דרך בשמם לכאורה אתה מדבר עצוב שמי שסבל מעולם דימ… כשאתה AvishayBenHaim מגן על השחיתות בשם הזהות אתה עושה עוול לאנשים ישרי דרך בשמם לכאורה אתה מדבר עצוב שמי שסבל מע…  מאבק בשחיתות הוא ערךהיה גם חלק מהמאבק בשלטון מפאי ואינו חציית קו פוליטימישהו אחר חצה את הקווים אימץ בשלטונו נורמ…  מניעים אידיאולוגיים הובילו את הוריי לפוליטיקה וישרים כסרגל התנהלו בה וכך ילדיהם ואני בתוכם זוהי תורת ז׳בוטינסקי בה…  הזהות המשותפת נוצרה שם לא הזהות השטחית שאתה מתאר אלא זהות של ערכים שמחוברת לארץ ישראל וליהדות על מסורותיה ומנגינ…  טוב אבישי חבל שלא שאלת ישירות מהם מניעיי וכדי לחסוך לך תזות כיד הדמיון אענהולא בשם כל ״הנסיכים״ את הטקסט הראשו…  yaronavraham תמסור להראל כל הכבוד שהוא עומד מאחורי המילה  או האותיות שלו  לא מובן מאליו נורמליזציה תמורת הרס הדמוקרטיה זו העסקה שמציע ראש הממשלה לעמו   הנורמליזציה עם מדינות המפרץ מבורכת מאוד אבל היא ל…  NizamiGanjaviIC Over 50 Members of the NizamiGanjaviIC joined call of OfficeGSBrown 275 world leaders call for urgent action to avoi… חשוב ומשמח  פרופ׳ רות גביזון ז״ל הלכה מאיתנו ענקית משפט מורת דרך חכמה ומגדלור של צדק וערכים חלקה עימי  עד ימיה האחרונים דאגת…  TzipiLivni ברכות על הנורמליזציה עם איחוד האמירויות וגם על דחיית הסיפוח התמונה שצילמתי ממסך מטוס חברת ״איתהד״ בעת הנחיתה באבו דאבי נש… TzipiLivni attilus ונהנתי מכל רגע כולל מההודעה הערב CatcHaPixel attilus אחת ההחלטות הטובות לישראל שנסמכת עליה עד היום  גם ביבי  אלא אם אתה מעדיף להשאיר את חיילי צ…  attilus ונהנתי מכל רגע כולל מההודעה הערב camanpour Israel and the UAE have announced a historic normalization of relations Fmr Israeli Foreign Minister TzipiLivni says its… מאחלת שהרבה ישראלים יראו את התמונה הזאת ושרבים מאיחוד האמירויות יראו את המילים תל אביב וירושלים על מסך המטוס בבואם הנה ברכות על הנורמליזציה עם איחוד האמירויות וגם על דחיית הסיפוח התמונה שצילמתי ממסך מטוס חברת ״איתהד״ בעת הנחיתה באבו…  Congratulations KamalaHarris  A strong woman and a true fighter who sends today an inspiring message to women fro…  NizamiGanjaviIC Our Member TzipiLivni former Foreign Minister of Israel Vice Prime Minister Minister of Justice and Leader of the… TzipiLivni saragusti משמח ממש גם אישית כמובן אבל גם  בתרומה לכך שיותר ויותר מבינים שנשים יכולות לספק ביטחון והשאלה ״אז מי יענה לטל… saragusti משמח ממש גם אישית כמובן אבל גם  בתרומה לכך שיותר ויותר מבינים שנשים יכולות לספק ביטחון והשאלה ״אז מי י…  למי שצריך היה עדיין הוכחה מגפת הקורונה הוכיחה בעולם כולו שנשים מנהיגות מקבלות החלטות טובות יותר במשבר ומול אתגרי…  כ״ט בתמוז יום השנה לזאב ז׳בוטינסקי על קיר חדרי ועל לוח ליבי תמיד  Ayeletnnv תודה איילת עוד נדע ימים טובים מאלה zviashkenazi תודה צבי מסתבר שכמו בשיר למרות שנכתב על עיר״גם למראה נושן יש רגע של הולדת״ תרגיש בנוח לקרוא לי…  camanpour From July 1st Israel plans to annex parts of the West Bank a move that has been greeted with widespread international cond… PostOpinions Israel’s annexation of parts of the West Bank would be a historic mistake TzipiLivni writes  Pleased and honored to be a member of  the global steering committee to protect30x30 with distinguished global lea…  rafih2006 תודה רפי באמת מרגש Thank you Goerlitz for honoring me with the “Bridge award”  When the values of the free world are changing embrac…  למי שעוד לא הבין הויכוח הפנים ציוני על הסיפוחריבונות הוא לא בין דגלים שונים אלא על הערכים והמשמעות שמסמל המגן דוד בדגל ישראל חזקת החפות לא כוללת את הזכות להסית את הציבור נגד גורמי אכיפת החוק והמשפט בישראל   בדמוקרטיה שלנו אין אדם מעל החוק…  ReshefRafi לא רפי זה לא הגיל בסרט ״שיער״ זוהי סצנה קורעת לב ובלתי נשכחת שבה החיילים יוצאים אל הקרב כשהמשך הסצנה בסרט היא בית הקברות הצבאי eliorlevy notkin1985 למה שכונה איפה כתוב שלהיות חבר קבינט טוב צריך להיות עם ניסיון צבאי  חבר הקבינט הטוב ביותר בפורום הזה בעשור וחצ… eliorlevy notkin1985 תודה TodayIsrael RaoulWootliff LahavHarkov GilHoffman Wrong It was Shaul Mofaz not me I believe that history should be based on facts חזק ואמץ בג״ץ המתקפות על בג״צ מסוכנות לישראל יותר מכל החלטה שתתקבל דווקא עכשיו לפני שיודעים מה יחליט בג״צ הקול שצריך להשמע ברורצלול וללא תנאי יש לנו אמון במערכת המשפט לא נתקוף…  יום עצמאות שמח ישראל  עצוב נורא zviashkenazi ריגשת צבי אבל מה ששלה שלהציפי GershomG תודה  המגפה הכניסה הרבה דברים אישים לפרופורציה והיום אני מבינה הרבה יותר טוב את הברכה שהורי לוחמי האצ״ל ברכו אחד את השני…  לכל המתבודדים ראיתי שתוכן הפך למצרך מבוקש אז מצרפת לינק לפודקאסט שלי שבו אני מדברת על נושאים שונים אישיים ולאומיים…  TzipiLivni שיהיה ברור זה הרבה יותר חשוב מזהות יו״ר הכנסת זה על הזהות שלנו שיהיה ברור זה הרבה יותר חשוב מזהות יו״ר הכנסת זה על הזהות שלנו לשמוע ולא להאמין אפשר לא להסכים עם פסק דין אי אפשר לא לבצע אותו זכותו של יו״ר הכנסת להתפטר חובתו לקיים פסק דין…  בימים הקשים האלה אנחנו מצווים להיאבק במגפה ולשמור מכל משמר על הדמוקרטיה נקודה  צאו להצביע לישראל שהיא מדינת העם היהודי ודמוקרטיה עם שוויון חופש ביטוי ודעה מדינה של שלטון חוק וגורמי אכיפה ומשפ…  I was sorry to hear about the passing away of former Egyptian president Hosni Mubarak My condolences  בפגישה עם נשיא גרמניה פרנקואלטר שטיינמאייר חבר אישי וידיד אמת של מדינת ישראל הגיע לפגישה אחרי מפגש שערך עם ניצו…  אנה רגשת אותי המחשבה שנתתי לך ומקווה שלעוד נשים את הכח לעבוד להצליח לאהוב ולגדל את הילדים בלי יסורי מצפון שו…   ועכשיו גם בפודקאסט שלי מוזמנים להאזין  Goodbye 2019 Welcome 2020 Lets hope 2020 is the year that brings people together respecting different cultures…  kannnews ציפי ליבני כנס מעריב דמוקרטיה ושלום הפכו למילים אסורות אבוי לנו אם במדינת ישראל שרים יחליטו נגד מי מגישים כתבי אישום או… גאולה כהן ז״ל אשה ולוחמת שלא הפסיקה כל חייה את המאבק למען המדינה והארץ שאהבה מתוך אמונה ועם כל הנשמה תנחומים לצחי ולמשפחה יהי זכרה ברוך לו רק יכלו כל אזרחי המדינה לשמוע את הדברים שנאמרו היום בטקס הפרידה המרגש  מפרקליט המדינה שי ניצן ולהבין עד כמה אנשי…  מגיע מה ששלה שלה  EmilieMoatti אמילי נשמה תודה איפה הימים ששיחת טלפון היתה מספיקה להפגת געגוע מזמן לא התראיינתי אבל יש דברים שמוכרחים לומר משתפת בראיון שלי מאולפן שישי  ״במדינתינו פנימה יהיה הצדק השליט העליון השליט גם על שליטיה״  מנחם בגין   גורמי אכיפת החוק הוכיחו הערב שוב כי י…  IGCCatUCSD The Institute on Global Conflict amp Cooperation is delighted to have hosted former Israeli foreign minister deputy prime mi… תודה azariarachel  globesnews על אף חסרונותיהם  שומרי הסף ומערכת המשפט חשובים וטובים יותר מכול מהרסיהם  IsraelinBoston Yesterday alongside the HKS Israel Caucus and The Boston Jewish Film we hosted over 70 people for the commemoration of… איש חכם היה וחבר  היום לפני 25 שנה נחתם הסכם השלום עם ירדן שלום שהוא נכס ביטחוני מהמעלה הראשונה גם בימים מאתגרים ציוץ לא רק בשביל ל…  Thank you for the invitation  בהצלחה בשביל מדינת ישראל כולה   מאיר שמגר ז״ל  לוחם אצ״ל לוחם צדק חכם נעים הליכות כל מה שהמילים משפט והדר מסמלות התגלם בו המצפן הפנימי שלו צר…  Thank you daroff for a meaningful meeting Good luck with the challenges ahead as CEO of the Conference of Presid…  TzipiLivni AviBenayahu LivnatLimor אבי נלחם כל חייו כדי שמורשתם של לוחמי המחתרות תונצח במקום שהיה מוזנח שנים ארוכות עם קום המדינה… AviBenayahu LivnatLimor אבי נלחם כל חייו כדי שמורשתם של לוחמי המחתרות תונצח במקום שהיה מוזנח שנים ארוכות עם קום…  Congratulations Prime Minister AbiyAhmedAli for winning the Nobel Peace Prize The leadership and courage you show…  סליחה מחילה וגמר חתימה טובה לכל עם ישראל השיר שהופך את הנשמה מזכיר את נוראות המלחמה בצד התפילה והתקווה ומכניס את…  futurediplomacy TzipiLivni “If your want to reach an agreement both sides need to feel like they are NOT giving up their dignity… futurediplomacy “Women security is not a man monopoly Trust me” Said TzipiLivni encouraging KennedySchool female students to en… futurediplomacy “I looked at my sons and asked what kind of state am I leaving them And I turned to politics that day” said TzipiL… יש לי הרגשה ותקווה שהשנה הבאה תהיה טובה לישראל מקודמתה  מאחלת שההבטחות הטובות הגלומות בשנה החדשה יתגשמו עבורנו כעם…  Thank you Nick for the opportunity to be part of your distinguished institution RNicholasBurns KennedySchool  הקלה גדולה הקלה ושמחה עם תוצאות הבחירות גם לפני הרכבת הממשלה החדשה ברור שמשהו טוב קרה ואפשר לחבק אותו בקול שבת ש…  החובה לשמור על ממלכתיות במיוחד במשרד המשפטים ובתקופת מעבר גדולה וחשובה יותר מהכח לפטר  גם אם מדובר ב״משרת אמון״ אי…  yakovahimeir יעקבשר החינוך של ישראל אמר שרוצה להחיל ריבונות ישראל על שטחי יו״ש בלי זכויות הצבעה לערבים שחיים שםז…  זעקנו שממשלת נתניהו מוחקת את השיוויון ממגילת העמצאות ועכשיו קיבלנו את זה ישר לפנים משר החינוך טיפולי המרה ומדינת א…  תודה לכל המברכים ליום הולדתי בפומבי ובאישי הברכות היו מרגשות ונוגעות ללב הודעה   התעוררתי בארץ זרה באמצע הלילה מפניות בעקבות פרסום ב״הארץ״ המתיימר לדעת מה אני חושבת שוקלת או מתכוונת לעשו…  zviashkenazi תודה צביציפי הנחתי בכנס הרצליה את העקרונות והדרך סביבם צריכים להתאחד כל מנהיגי המפלגות הקרויות מרכז שמאל בחזית אחת בלי לתקוף זה…  IDCHerzliya ציפי לבני לשעבר ממ ראש הממשלה ושרת החוץ השיח גם כשהוא מתמקד בדמוקרטיה הוא מצומצם הסיפור הוא לא רק החסינות של ביבי נתנ… TzipiLivni עכשיו בשידור חי  עכשיו בשידור חי  תיכף בכנס הרצליה מוזמנים לצפות בלייב בדף הפייסבוק של המרכז הבינתחומי   במפגש הערב עם שר החוץ הבחרייני שייח׳ חאלד אלחליפה שיתפתי אותו בהערכה בה התקבלה פנייתו הישירה לציבור הישראלי וחשי…  מוסרות ד״ש מבחריין ועוד מנפלאות השוק באינסטגרם   ״הרעל הארסי ביותר שעלול להרעיל את מוסרו של אדם טמון במילים כאן מותר ״ אמר זאב ז׳בוטינסקי למה לבטל רק את הבחיר…  שמעתי שנחמד בבחריין אז קפצתי גם האמת שהוזמנתי להרצות בכנס אחר על המזרח התיכון לפני שהפך להיות צפוף פה   כשאזרחים לא מקיימים פסקי דין של בית משפט אנרכיה  כשהשלטון לא מקיים פסקי דין של בג״ץאוטוקרטיה כששר משפטים אומר שלא…  BertelsmannFdn New How to Fix Democracy episode w former Vice Prime Minister amp Minister of Foreign Affairs of Israel TzipiLivni who… נחמה ריבלין ז״ל אישה אמיצה ומיוחדת שנגעה בכנותה בלב של כל אחד ואחת מאיתנו אזרחי ישראל תנחומים לנשיאינו ruvirivlin בצערו העמוק הגאווה כולה שלי    תחשבו שכמה שהיה גועל נפש אתמול ככה יכול לצמוח מתוכו שינוי גדול Thank you rabbimarcbaker and avivaklompas for an open and sincere public conversation with the community about Is…  הדבר מצער אותי לא רק בשביל גיל אלא גם בגלל העולם ההפוך שבו מי שעוזר לאכיפת החוק נפגע ובעיקר בגלל שאני יודעת עד כמה…  נמנעתי מלהתבטא בעניינו של דובר צה״ל המיועד גיל מסינג כדי שלא ינצלו התבטאות שלי נגדו גם כך נגרם לו עוול גדול מאח…  מדליקי המשואות מרגשים עד דמעות יום עצמאות שמח באהבה גדולה למדינה ולאזרחיה  עצוב הערב בכיכר ובארץ כולה שרים לזכרם  כשנספר הערב ונשיר במנגינות שונות את הסיפור הלאומי של עם ישראל ויציאתנו ממצרים מעבדות לחירות נזכור שהחירות שלנו כעם…  ומעכשיו צריך להתייצב מול הציבור עם אלטרנטיבה של חזון ודרך גם נכון מהותית וגם אסטרטגית מצביעים ועושים מהפך כי בנפשנו הוא רפואה שלמה לנחמה ריבליןאישה מיוחדת ומקסימהשרק תהיי לנו בריאה תודה בן דרור ימיני על גישור הפער בין עולם הדימויים לאמת ההיסטורית BDYemini  ביום האישה הבינלאומי מודה שבחרתי לשים בין המנהיגות גם תמונה של אמא שלי אמנם לא מנהיגה עולמית אבל היתה עבורי עולם…  האמת מנצחת ושקרי נתניהו ביחס אלי התגלו והתנפצו לאזרחי ישראל מגיעה מנהיגות ישרה ודוברת אמת  תודה עודד odedrevivi הלוואי והוויכוחים הפוליטים בישראל יהיו על דרך ומתוך כבוד הדדי כפי שעשינו שבת שלום  קראתי לאיחוד שייצור מהפך שיוביל לדרך חדשה לישראל לשמירה עליה כיהודית ודמוקרטית ולהיפרדות לשלום אני מקווה שהאיחוד…  RahavRan תודה רני Ayeletnnv תודה רבה איילת נלחמת למען מה שאנחנו מאמינות בו שחקנית נשמה כל הכבוד ותודה ענקית zehavagalon תודה זהבה באיחור אופנתי DavidMakovsky Thank you David MichalRozin תודה מיכל tamarzandberg תודה תמר barakehud תודה אהוד AJCGlobal Thank you AJC MeravMichaeli תודה מרב saragusti תודה ענת WomenWagePeace תודה נשים יעשו שלום עוד תראו URJPresident Thank you Our liberal values will prevail Thank you AIPAC  DanielBShapiro Thank you Dan MartinIndyk Thank you Martin תודה מעומק הלב לנשיא מדינת ישראל בית״רי עם הדר שומר הדמוקרטיה בישראל  carlbildt Thank you Carl We will continue to fight together for our democratic values אני עוזבת ולא מתמודדת בבחירות אבל לא אתן לתקווה לשלום לעזוב את מדינת ישראל אין לי ספק שהדרך שלנו תחזור ותנצח מקוו…  madeleine Proud to be teaming up carlbildt Steve Hadley DMiliband tzipilivni and other leaders at MSC2019 to defend democratic… ועידת מינכן לביטחון עולמי חשובה להתמודדות משותפת עם אתגרי הביטחון למנהיגים כאן ברור שביטחון הוא לא רק צבא אלא גם מ…  בכנס מינכן לביטחון סדרת פגישות עם מנהיגים מכל העולם ביניהם גם אנגרט קרמפקרנבאואר המרשימה מנהיגת ה cdu ומחליפת…  IlanLukatch וזה מהאיש שהיה ב2005 בליכוד ב2008 פרש ב2012 הקים מפלגה בשם הישראלים לא חלפה שנה והצטרף למפדל ובדצמבר 2018 עזב וה… זה נראה רחוק אולי אפילו מוגזם אבל מה שלא האמנו כבר קורה הסימנים כבר כאן וזה יכול להגיע מהר יותר משחשבנו אם לא נ…  המפגש בוורשה חשוב וקשרים בין מדינות מבוססים גם על אמון בין מנהיגים צילום והדלפה ע״י ביבי של דברים שנאמרו בחדר סגור…  במדינת נתניהו  יועץ משפטי לממשלה לחיץ ומושפע מלחץ פוליטי במדינת ישראל שלנו  היועץ המשפטי לממשלה עצמאי ופועל ללא…  gileyni תודה גיל עוד פספוס מדיני של נתניהו שמעדיף את הבייס הפוליטי שלו על פני האינטרס הישראלי לביטחון ולשלום אחרי צוק איתן נתניהו ג…  newsisrael13 יור התנועה TzipiLivni בתגובה לפרסום בחדשות 13 על כך שנתניהו דחה יוזמה מדינית סעודית לחידוש תהליך השלום ולשיקום עזה בסי… עם חכ יעל כהן פארן ומאות מתושבי פרדס חנה שהגיעו הערב לשמוע כמה חשוב שהתנועה בראשותי תקבל את הכח שלא יאפשר לאף אחד…  YaelCohenParan הערב במגרש הביתי במושבה שלי פרדס חנה במפגש גדול עם יור מפלגת התנועה TzipiLivni פגשנו קהל גדול אנשים ואזרחים שרו… newsisrael13 מה שאל ברק רביד שגרם לציפי לבני להסמיק התשובה הערב במהדורה המרכזית בפרק 1 בסדרת הכתבות ״סודות המפרץ״ • 2000 ערוץ 13 … כפי שאמר מנחם בגין ״במדינתנו פנימה יהיה הצדק השליט העליון שליט על כל שליטיה״   התנועה בראשות ציפי לבני  כבוד תודה והערכה לכוחות הביטחון שפעלו נמרצות עד שאיתרו ולכדו את הרוצח של אורי אנסבכר ז״ל לא מעניין אותי מה הפלסטינים רוצים חשוב שבבחירות האלה נכריע מה אנחנו רוצים  רוב יהודי במדינה יהודית דמוקרטית ובטו…  עם תושבי כפר סבא בפורום מאג׳די  על החזון שלי שעוסק במימוש התפיסה של ישראל היהודית דמוקרטית חשיבות השמירה על רוב י…  דברי ההספד בהלוויית אורי אנסבכר ז״ל קורעים את הלב שיוצא אל המשפחה והחברים בוטחת בפעילות הנמרצת שנעשית כדי למצוא את הרוצח השפל TomerPersico יש מי שמעיזה לדבר על זה גם אם הציבור מבין שזה צריך לקרות זה יקרה רק אם תהיה מנהיגות שתתחייב לפני ותב…  לגמרי ובאופן אישי למירב כהן המצוינת cohenmeirav  דמוקרטיה היא כמו החמצן באוויר לא תמיד מרגישים אותה  כשהיא תיעלם אנחנו נתחיל להיחנק   התנועה בראשות ציפי לבני  AmosSchocken1 אני עומדת במבחנים שאני מציבה וכותבת ולכן כתבתי כל זוג בישראל לרועי פולקמן מזועזעים מהארוע הטרגי ומהאובדן הנורא של אימך נעמי ליב פולקמן ז״ל הלב אתך הערב אומרים שמשפחה לא בוחרים ובכל זאת אני בוחרת את המשפחה שלי כל יום מחדש מתגעגעת ומחוברת עד עמקי נשמתי לזו שנולדתי בה…  GLZRadio יור התנועה TzipiLivni נגד netanyahu במהבוער בעבר אנשי הליכוד יצאו כשכהנא דיבר וכיבדו את בגץ  היום הוא רוצה שאנש… שרים יקרים תנסו פעם לומר ״יש לי אמון מלא בגורמי אכיפת החוק ומערכת המשפט״   זה לא כואב יותר כואב לישראל שאתם שות…  zarvivtal חכ TzipiLivni בכנס של התנועה לאיכות השלטון אם נתניהו נתן בממשלה הקודמת את ההגה בידי קבוצה קיצונית  היום הדאגה שלו היא… אלה השותפים הטבעיים של נתניהו כהניסטים כמו ברוך מרזל ואיתמר בן גביר יחזיקו  בהגה ליד סמוטריץ בנט ושקד ולא יהיה מי…  שומרים יחד עם שומרי הבית  בפגישה עם שומרי הבית מפלגת התנועה בראשותי התחייבה למאבק משותף גאה בזה שהתנועה היא המפל…  כשראש ממשלה תוקף את שלטון החוק השר לבטחון הפנים ושרת המשפטים היו צריכים הראשונים להגן עליו ולא להצטרף לחגיגה התנ…  מציאות חיינו היא לא פייק ניוז למרות הלוחמה הפסיכולוגית של ביבי ננצח  בלי רוב יהודי לא תהיה מדינה יהודית גם עם אלף חוקי לאום  kannnews יו״ר התנועה TzipiLivni בשבתרבות במודיעין את ההיפרדות מהפלסטינים צריך כדי לשמור על רוב יהודי בלעדיו לא תהיה כאן מדינה… DaphnaLiel יו״ר התנועה לבני בשבת תרבות במודיעין יש לי עבודת שיקום גדולה לעשות בבחירות אני רצה במפלגה בראשותי על כך שמנסים לתייג אות… לא ביבי החלטת היועץ גורלית לגביך הרס מוסדות הדמוקרטיה על ידך גורלי למדינה  תשובה ציונית הולמת לנתניהו שתוקף שוב את היועץ המשפטי לממשלהמשרד המשפטים צריך להיות הבטחון שלנו במדינה שאין בה אי…  בואו נדבר ישר ולעניין על ימין ושמאל ועל ישראל  איילת שקד מוטרדת ובצדק בקדנציה הבאה נעשה undo לנזק שגרמה חוק יחזור להיות חוק שחל על כולם יועץ משפטי למגן החוק ש…  המחאה של העדה האתיופית היום היא מהמוצדקותדרוש שינוי ממשלתי וחברתי עמוק בעבר פעלתי לשילוב יוצאי אתיופיה כשוטרים ה…  זה לא שמאל זה לא ימין זוהי מגילת העצמאות  שרת המשפטים שקד אויבת הדמוקרטיה מספר שתיים אם נתניהו מחרב את הדמוקרטיה בגלל הקרימינולוגיה שקד עושה את זה בשם האי…  בחרתי לשלב את קסניה סבטלובה בתנועה מתוך רצון לתת ביטוי לציבור העולים יחד עם ההבנה העמוקה והשקפת העולם המדינית בטחונ…  בחדר שלי במשרדי התנועה תלויה תמונתו של ז׳בוטינסקי ליברל ודמוקרט מאמין בארץ ישראל ובשוויון מנהיג שנילחם גם כשהיה ק…  ישראל לא יכולה להרשות לעצמה עוד קדנציה של שקד נהגת ה D9 במשרד המשפטים ישראל לא יכולה להרשות לעצמה את נתניהו יום…  בלי תקשורת חופשית שתגלה את האמת לציבור  אין דמוקרטיה בלי חוק שחל על כולם  אין דמוקרטיה בלי משטרה פרקליטים בלי…  אנחנו במצב חירום לאומי לא צריך לפתוח את המקלטים  אלא ללכת להצביע ישראל חזקה מספיק כדי להתמודד מול האויבים שלנו…  kannnews יור התנועה TzipiLivni בפתיחת הקמפיין של המפלגה שקד היא הנהגת של הD9 שבא להרוס את בתי המשפט את היועצים המשפטיים ישראל… kannnews יור התנועה TzipiLivni אנחנו נעבור לחלקים יותר קשים בביקורת ובמאבק מול אויבי הדמוקרטיה בישראל sharonidan  היחידה להגנת הדמוקרטיה הצטרפו לשידור החי  התנועה  ולסיום הערב מפגש עם חברות עמותת פנים חדשות בהובלת חלי פרידמן הנהדרת נשים חזקות שכל אחת בדרכה פרצה תקרות זכוכית ו…  מחמם לב כנס לזכר ותיקי בית״ר אנשים שאת חלקם שנים לא פגשתי עם הרבה זכרונות משותפים ובעיקר כבוד הדדי למרות המחלוקו…  newsisrael13 יור התנועה TzipiLivni כל יום שנתניהו בשלטון הוא הורס את יסודות הדמוקרטיה הישראלית יש כאן מהלך משולב של נתניהו ושקד… מתחילים מוזמנים לשידור החי בפייסבוק מהכנס השנתי של הINSS   בנימין נתניהו הוא היום אויב הדמוקרטיה מספר אחד הוא האיש שמוביל את המתקפה על יסודות הדמוקרטיה שלנו לצרכים אישיים ו…  לכן פעלנו לסכל את מזימת חוק היועצים המשפטיים שיכפיף אותם לפוליטיקאים  כדי לשמור על הציבור מפני פוליטיקאים מושחתים…  נתניהו סיבך אותנו בפרוטקשן מסוכן ועכשיו החמאס מחזיק אותנו בצוואר כניעה לחמאס וקיפאון מדיני הוא כישלון ביטחוני חמור… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה לא מספיק אנחנו חייבים גם את שיתוף הפעולה המלא של האזרחים אני ממש מבקש כשאתם לא עונים בתשאולים במדויק יש מי ש…  שיתוף פעולה בין גופי כמפתח להצלחה  הגעתי הבוקר לבני ברק שם פיקוד העורף העירייה ומד״א מפעילים מתחם ״וולק אין״  ב…  ערב יום הכיפורים תשפ׳׳א אני מבקש לרגע לחרוג ממנהגי ולא לדבר רק על הקורונה אלא על הגיבורים שלחמו בגבורה ובאומץ וה…  Wishing the Jewish people around the world a Gmar Hatima Tova May we be inscribed in the Book of Life this challen…  7 חיילי צהל פרוסים ב38 מחלקות בבתי החולים לסיוע במחלקות הקורונה  8 מאות חיילים מטפלים ב30 אלף פניות במוקד 104…  הארץ ו15 ישיבות במתכונת מלוניות קורונה אנו ערוכים להגדלת הפעילות   4 חולקו כ30 אלף חבילות מזון למבודדים בהמשך…  מספר עדכונים בתום הערכת מצב עם בכירי מערכת הביטחון   1 יואץ הליך הכשרת חוקרים אפידמיולוגים כיום יש 1400 חוקרים ש…  אנחנו מפעילים את התכנית ביותר מ90 רשויות ומכשירים פרויקטורים קהילתיים שילוו מבודדים שצריכים סיוע ודואגים להם למזו…  לא נשאיר אף אחד מאחור 13 ערים נוספות מצטרפות לפרויקט אנשי חיל  קדימהצורן נתניה יהודמונסון חדרה בסמה גס…  לא נאפשר הפעלת תקנות לשעת חירום נגד הפגנות  ההחלטה על הסגר המחמיר נועדה לבלום את המגיפה ולא לחסום את ההפגנות או הת…  אנחנו ממשיכים בהיערכות לא נשאיר אף אחד מאחור  משרד הביטחון יצא במכרז מזורז לרכישת 150000 מארזי מזון שיסופקו למבו…  פיקוח נפש דוחה הכל הכל  נוכל לחזור לבתי הכנסת גם אני כאשר בעזרת השם נשתלט על המגיפה  אנחנו בימים נוראיים תרתי…  מי שייצא להתפלל ועלול לסכן אחרים במחלה או מוות – שיבחר להתפלל בביתו למפגינים אני מבקש להגידאני מאמין בזכותכם למח…  לא תמצאו שיקול אחד מבין שיקוליי שאינו טובת אזרחי ישראל ובריאותם שמפגין יגלה הבנה למתפלל ומתפלל יגלה הבנה למפגין ו…  ננהג באחריות וברגישות בכדי לשמור על חיי האזרחים ובריאותם אלו לא ימים רגילים ואני בטוח שכולם יקבלו זאת בהבנה נדון…  בוודאי ברגעי חירום לאומיים היא הזכות לבריאות ולביטחון בין כל הזכויות הללו נצטרך לאזן היום יוצגו בקבינט הקורונה מ…  במדינה דמוקרטית הזכות להפגין ולמחות היא קדושה דרישתם של המבקשים להתפלל כפי שנהג העם היהודי במשך אלפי שנים קדושה וצ…  We talked about ways to leverage regional opportunity while confronting forces undermining stability The US is an…  Ending a string of meetings in Washington with heads of the US defense establishment incl senior advisor to POTUS…  3 פרסנו 30 מתחמי דרייב אין לבדיקות ברחבי הארץ   4 יחידות קישור עירוניות של פיקוד העורף נמצאות בכל הרשויות כדי לס…  עדכון מהערכת מצב קורונה בקריה  1 צה״ל בהנחייתי ייערך להקמת בית חולים שדה למענה מיידי לעומס בבתי החולים כרגע אין…  Kachollavan19 כחול לבן תצביע היום בעד קיצוץ שכר השרים וחברי הכנסת בישיבת הממשלה זאת בהמשך להחלטת כחול לבן לתרום החל מחודש אפריל 20 מ… הנסיעה תהיה נסיעת קפסולה  אני יוצא עם צוות מצומצם מאוד אפגוש רק אותם ואת הבכירים האמריקאים אחזור ברביעי בערב…  במסגרת המאמצים לשמירת העליונות הביטחונית של ישראל אני יוצא היום בערב לשליחות ביטחונית של 24 שעות בוושינגטון מחר א…  במקביל מערכת הביטחון ממשיכה במאמציה בהעלאת מספר הבדיקות תגבור מערך קטיעת שרשראות ההדבקה וקידום שיתוף הפעולה עם הרשויות המקומיות סיימתי לפני כשעה התייעצות בנושא העלייה בתחלואה ביחד עם שר החוץ שר המדע ופורום מומחים אנחנו חייבים את שיתוף הפעולה…  The US governments continued pressure against Irans aggression is vital and I commend these uncompromising effort…  Even now Iran continues to pose a significant threat to the world and to the region Its leaders continue in pursu…  גם בימים אלו איראן ממשיכה להיות סכנה בינלאומית ואזורית מנהיגיה מוסיפים לפתח את פרויקט הגרעין ומפעילים גרורות טרו…  לצד האובדן הזהנפרדה החברה הישראלית במהלך החג גם ממירית הררי שחשפה באומץ ובאנושיות רבה בשנים האחרונות את ההתמודדות…  השופטת רות בדר גינזבורג פרצה את הדרך עבור נשים בארצות הברית ובעולם כולו והצליחה לשנות את המציאות עבור נשים באמצעו…  Wishing the Jewish people around the world a healthier happier and sweeter new year  Kachollavan19 חג שמח ושנה טובה לכל אזרחי מדינת ישראל  חיילי פיקוד העורף וגופי הביטחון עובדים מסביב לשעון במלחמה בקורונה וזאת הזדמנות להגיד להם מעומק הלב תודה רבה נמשי…  2 על רקע הסגר יימשך הפינוי המואץ למלוניות  3 אנו ממשיכים להרחיב את תוכנית הסיוע לאוכלוסיות בסגר שמוביל משרד הבי…  אני חוזר עכשיו ממפקדת הקורונה בתום הערכת מצב אנחנו ממשיכים לעשות הכל על מנת שנוכל לצאת מהסגר הזה חזקים משנכנסנו עם…   תכנית אנשי חיל מתרחבת לעוד שישה ישובים גבעת זאב שיבלי טורעאן כפר כנא נשר ואור עקיבא נעמיד לרשותם תקציב להסב…  משרד הביטחון ממשיך בהיערכויות לחגים  נפתח שתי מלוניות קורונה נוספות 15 ישיבות עם למעלה מ2000 חולים יפעלו במתו…  מיד לאחר שהורדנו מסדר היום את ההצעה להקים ועדת חקירה לשופטים יצאתי לדרום וקיימתי הערכת מצב באוגדת עזה יחד עם מפקד…  צה״ל יתגבר את כוחות המשטרה בכ500 חיילים נוספים 1000 בסה״כ בימי הסגר במשטרה הציפו את הצורך ומשרד הביטחון נכון לס…  אני שולח איחולי החלמה מהירה לפצועים מהירי הערב לאשדוד שוחחתי לפני דקות אחדות עם ד״ר יחיאל לסרי ראש עיריית אשדוד ש…  עם ישראל מתפלל לשלום רודף שלום ומבקש שלום החתימה על ההסכם הערב היא לא פחות מיום חג למדינה מוטלת עלינו האחריות וה…  מסיים סיור בפיקוד המרכז ביחד עם הרמטכל מתאם פעולות הממשלה בשטחים ואלוף הפיקוד הנכנס תמיר ידעי 20 שנה מאז שנכנסת…  אף עונש לא יחזיר את בני משפחת דוואבשה לחיים הרוצח המתועב הזה מזכיר לנו שחובה עלינו לבער את הגזענות מהשורש הבוקר באשדוד משאית עמוסה בחבילות מזון   משרד הביטחון רכש 60000 חבילות מזון למשפחות המשתתפות בתכנית ״בני חיל״ כדי…  אני חוזר עכשיו מסיור באשדוד עם שר התיירות זמיר וראש העיר לסרי המסר שלי ברור נגיע לכל מי שיזדקק לעזרה נעבור עירע…  I will continue to support every process that moves us toward peace wout compromising on Israel’s vital interests I congratulate the PM amp king of Bahrain on the agreement and thank President Trump amp the American govt for their e…  הסדרת היחסים ביננו לבין שותפות באזור מקדמת את היום בו המזרח התיכון יהיה מקום בטוח לכל יושביו כשר הביטחון בצומת הי…  כל קידום של מהלך שיש בו שלום הוא עת ברכה אני מברך את ראש הממשלה ואת מלך בחריין על קידום הנורמליזציה בין ישראל ובין…  Thinking about our friends in the US today who are marking 19 years since the unthinkable attack that robbed 3000…  כמו בכל סוף שבוע כמה מילים ממני אליכם שבת שלום  כבר 50 ערים נכנסו לפרויקט ואנחנו עושים הכל כדי להילחם מול העלייה בתחלואה ביחד עם הרשויות המקומיות פרויקט בני חיל מתרחב ל10 ערים נוספות נצרת באקה אל גרביה כפר קרע יפיע ריינה אילת ירוחם שדרות קרית מלאכי וב…  מדינת ישראל מתנהלת ללא תקציב זמן רב זמן רב מדי  זה משתק זה פוגע באיתנות הפיננסית של ישראל זה יוצר חוסר ודאות למ…  יש לנו מסר אחד ברור וחד לכל מי שעוסק באכיפת החוק במדינת ישראל אל תיראו ואל תחששו אתם תמלאו את חובתכם ותגנו על שלט…  תוכנית בני חייל של משרד הביטחון מתרחבת לארבע רשויות נוספות טבריה אעבלין בוקעאתא ושייח דנון  נמשיך להרחיב את פ…  הבסיס להמשך תהליך קבלת ההחלטות הוא מצבם של הצוותים הרפואיים הגעתי היום למחלקת הקורונה בבית החולים וולפסון לראות את…  היום ערכנו במשרד הביטחון מפגש עם כ20 ראשי התעשיות הביטחוניות בישראל התעשיות הביטחוניות מספקות אלפי מקומות עבודה א…  מסיים עכשיו שיחה עם ראש מועצת דלית אל כרמל רפיק חלבי שלקח אחריות וכפי שעידכן אותי פעל ביחד עם משרד הביטחון צהל…  ב24 השעות האחרונות  ביקרתי בבני ברק כפר קאסם ואלעד התחלנו בחלוקת 60 אלף מארזי מזון הכנו תגבור של אלפי חיילים ב…  לריאיון המלא בכיכר השבת   9 ערים נוספות  דליאת אל כרמל עוספיא כעביא טבאש ג׳ת ערערה פורדיס רכסים אשקלון ואופקים עד עכשיו כבר 40 ערים…  Just ending a great meeting with Croatian FM grlicradman joined by our tourism minister asafzamir On the agend…  יחד עם שר התיירות asafzamir אני מסיים עכשיו פגישה עם שר החוץ הקרואטי גורדון גרליץ רמדן המטרה להמשיך במאמצים ל…  לרגע לא שכחתי שהחוב שלנו הממשלה לתושבי כפר קאסם עמוק יותר מהטיפול בקורונה  תשתיות חינוך תהליכי תכנון ומאבק בפש…  אתמול סיירתי בבני ברק היום בכפר קאסם  במאבק בקורונה אין מקום למחנות רק ביחד ננצח החל מהיום צה״ל יציב אלפי חיילי…  הבטחנו לתושבים יחד נעקוב נבדוק נטפל עד שנתגבר ונחזיר את העיר לשגרה  לא נשאיר אף אחד מאחור  לא הפוליטיקה ולא הה…  אנחנו במלחמה נגד הקורונה ובמלחמה כמו במלחמה  מערכת הביטחון מתגייסת לתת את כל מה שצריך כדי לנצח את המערכה   הגעתי…  משרד הביטחון רכש 60000 מארזי מזון לטובת משפחות המשתתפות בתכנית בני חיל – כדי שלא יצטרכו לצאת מביתן בשביל להצטייד…  אני מבקש  להודות לנשיא טראמפ ולממשל האמריקאי על מחויבתם הכנה לברית הערכית והאסטרטגית בין מדינותינו ועל פעילותם לקיד…  אני מברך על החלטת ממשלת סרביה להעביר את השגרירות לירושלים ועל מיסוד הקשר עם ממשלת קוסובו שיביא להקמת שגרירות בירושלים רק ביחד ננצח את המגפה כמו בכל סוף שבוע כמה מילים ממני אליכם  שבת שלום  בסיום הערכת מצב  שני צעדים לבלימת התחלואה 1 צה״ל יתגבר במאות חיילים את כוחות המשטרה ב30 הערים האדומות 2 הארכת…  כמו תכנית הרמזור שתכנס לפעולה בשבוע הבא והסגר הנקודתי בערים האדומות מערכת הביטחון תגביר את הפעילות בערים הכתומות…  כמה נקודות אחרי יום של דיונים עם בכירי מערכת הביטחון ובקבינט לגבי העלייה בתחלואה  אני לא מוכן שהציבור יכנס לפזצטא…  התגעגענו גאים בך על המשך העשייה גם בימים המורכבים ברוך רופא חולים  ישיבה עם בכירי מערכת הביטחון לקראת ישיבת הקבינט ההנחיה להגביר פעילות בערים הכתומות והאדומות כל אמצעי מערכת הביטח…  BogdanAurescu Excellent discussion over working dinner 2day in Tel Aviv wBenjaminGantz Alternate Primeminister amp Minister of Defen… At the end I told him that my father who emigrated to Israel from Romania after all the suffering of the Holocaus…  Earlier this evening I met with the foreign minister of Romania BogdanAurescu a true friend of Israel We talke…  נפגשתי הערב עם שר החוץ הרומני בוגדן אאורסקו ידיד אמת של ישראל שוחחנו בצורך במאמץ בינלאומי לבלימת התוקפנות האיראנ…  מהלך חשוב ונכון של שר המשפטים ושר התרבות והספורט  אתמול ראיתי מקרוב כמה אור ונשמה יש בבית ספר המכיל בחדרה שמשלב ילדים עם ובלי צרכים מיוחדים ההחלטה של שר החינוך…  מאיפה שאני בא קוראים לזה יחידות  היום מיניתי את אלמ במיל אורלי גל ליור הקרן לחיילים משוחררים אנחנו נמצאים בתקופה מאתגרת חברתית וכלכלית הרגיש…  חתמתי על 4 צווי תפיסה לכספים ורכוש של חמאס בעזה ובעולם בהיקף של מיליוני שקלים את הצווים אנו מפיצים למערכת הפיננסי…  מיום שני הצטרפו לתכנית ״בני חיל״ בה פרויקטורים מקומיים מלווים ודואגים לצרכי מבודדים בביתם 7 רשויות אשדוד לקיה…  אני מבקש למסור רפואה שלמה ללוחם צהל ולשוטר שנפצעו הבוקר בפיגוע לא נאפשר לטרור להרים את הראש ונילחם במפגעים ובמי ש…  אחרי הפגישה איתםנסעתי לתרגיל חטיבתי שמתקיים בסימולטור חדשני ומדמה את שדה הקרב למפקדי חטיבת כפיר צה״ל מוכן לכל תרחיש ולכל משימה גם בקורונה גם כשהגזרות מתחממות צהל ממשיך להגן על אזרחי ישראל בכל החזיתות ביקרתי הבוקר את החיילים במערך קטיעת שר…  I told him that I am certain that our cooperation will continue to expand as will the ties of friendship between o…  I just spoke with my colleague in Cyprus Defense Minister Charalambos Petrides We talked about the strong defense…  שוחחתי כעת עם שר ההגנה הקפריסאי צארלמבוס פטרידס דיברנו על היחסים הביטחוניים הטובים שבין ישראל לקפריסין והפעילות…  המפקדה מפעילה עשרות נציגויות בערים השונות ותגברה את ההסברה בשפות השונות   רק בעבודה משותפת ננצח ובדרך הזאת אני מ…   מאז הקמת המפקדה נקלטו כ25000 חולים במלוניות הקורונה וכ16000 דרושי בידוד נוספים שונעו קרוב ל100000 בדיקות…  הגעתי הבוקר למפקדת הקורונה עם מפקד פיקוד העורף והפרויקטור גמזו   פחות מחודש אחרי שהחלטתי על הקמתה המפקדה כבר נכנס…  שלום כיתה א׳ מבית ספר המכיל בחדרה כאן לומדים ילדים עם ובלי צרכים מיוחדים דתיים וחילונים זאת זיו היום עלתה לכיתה…  מסיים כעת פגישה עם נשיא המדינה ruvirivlin לצורך סקירה ביטחונית על המצב בכלל הזירות בדגש על הפעולות והמאמצים להבאת…  ראשי הרשויות ההנהגה המקומית אתם אבן הראשה בשטח אתם הלוחמים בחזית ותפקידנו להמשיך ולספק את הארטליריה כדי לנצח כך נמשיך לעשות הצגנו את פעילויות הסיוע של משרד הביטחון שהצליחו להוריד את התחלואה בצורה משמעותית כבר מספר הרשויות והיה לנו חשוב מ…  ערכתי היום במשרד הביטחון פורום ראשי רשויות שנמצאים בחזית המאבק בקורונה  יחד עם השר דרעי השר ביטון ופרופ גמזו ישב…  אנחנו מרגישים היום את משק כנפי ההיסטוריה תקווה אמיתית לשלום לאחר שנים של הנחת תשתית מדינית ודיפלומטית ניתנת לכם ה…  The meeting was very productive and we agreed to continue working together to block Irans regional aggression pre…  Senior Advisor to the President jaredkushner Assistant to the President for National Security Affairs…  We will work together to promote additional agreements find the way to ensure our military superiority and uphol…  ראש אגף התקציבים שאול מרידור הוא איש מקצוע מסור ומנוסה שתרם רבות לכלכלת ישראל במסגרת תפקידו ידע לראות את האנשים דר…  אישרנו את מודל  הרמזור שפותח בתיאום עם משרד הביטחון למאבק בקורונה  התוכנית שיוביל פרופסור גמזו תחלק את הרשויות…  השליח למומ בינלאומי אבי ברקוביץ והשליח המיוחד בנושא איראן בריאן הוק  הייתה פגישה טובה וחשובה ואנחנו נמשיך לעבו…  נפעל בשותפות כדי לקדם הסכמים נוספים למצוא את הדרכים הנכונות לוודא שהעליונות הביטחונית שלנו נשמרת ולשמור על ביטחון…  משרד הביטחון יסייע לכל מתווה שיוסכם על הפרויקטור וצוות השרים בנושא קליטת החוזרים מאומן למלוניות   גמזו וצוותו ימש…  סיימתי עכשיו פגישה עם פרופ גמזו שעושה את עבודתו במסירות ובתחושת שליחות היום בקבינט הקורונה נתמוך כל שרי כחול לב…  זה היה שבוע משמעותי לכולנו נמשיך לעשות מה שטוב ונכון למדינת ישראל   כמו בכל סוף שבוע כמה מילים ממני אליכם שבת ש…  אנחנו ממשיכים לבחון זוויות נוספות דרכן ניתן לייעל את מערך המאבק בקורונה היום אירחתי את יור זקא יהודה משי זהב כ…  חובתנו לאפשר למכון הביולוגי להמשיך ולעסוק במשימה הלאומית להצלת חיים סיכמתי יחד עם שר האוצר על הקצאת 86 מיליון שקלי…  תגבור מוקדים עירוניים  – הקמת מתחמי בדיקות   הפעלת תוכנית בני חייל ליווי צמוד של חולים ומשפחות הנמצאים בבידו…  הוריתי להגביר את טיפול משרד הביטחון ביישובים הערבים והדרוזים במסגרת מיקוד המאמץ הרחבנו את הפעילות בימים האחרונים ב…  תודה לתא כתבי התקשורת החרדית על שיח פורה ומעניין שמחתי לארח אתכם  אתמול בשעה 2240 התבצע במרחב מנרה ירי לעבר כוחותינו משטח לבנון ירי שהסתיים ללא נפגעים  צהל הגיב במסוקי קרב וכלי…  אני מצפה לפגוש פנים אל פנים את אל באוורדי בארץ או באיחוד האמירויות בינתיים סיכמנו לשמור על ערוץ פתוח בינינו דרך הדרגים המקצועיים שוחחתי היום עם מוחמד אל באוורדי מקבילי בתפקיד באיחוד האמירויות דנו על שיתוף הפעולה הביטחוני בין המדינות אשר יחזק…  אופק 16 בפעולה בתמונה תדמור סוריה נמשיך לקדם את היתרון הטכנולוגי שלנו כחלק בלתי נפרד מהתמודדות עם האתגרים הניצ…  נפגשתי הבוקר יחד עם השרה FarkashOrit עם שר החוץ הבריטי DominicRaab   ישראל לא תרפה ותמשיך לפעול בכל המישורים כד…  הכלים כבר בשטח  מקימים את מפקדת הקורונה  המפקדה כבר רצה עובדת ומסייעת בקטיעת שרשרת ההדבקה ועכשיו אגף ההנדסה והב…  ולעשות את מה שהתחייבתי לו מאז שהתגייסתי לצהל ולמנהיגות הלאומית לשים את ישראל לפני הכל כפי שהתחייבתי בפניכם אני…  לעולם לא אאפשר למישהו לפורר את הדמוקרטיה לא אתן שמישהו ימנה בובות לתפקידים ציבוריים אמשיך לשמור על בטחון המדינה מ…  ביקרתי היום בסוללת כיפת ברזל בדרום הארץ   ראשי חמאס צריכים לדעת כשהבלונים מתפוצצים אצלנו הפיצוצים אצלם יהיו הרבה…  I expressed my appreciation to Secretary Pompeo for the efforts on the part of the US to promote normalization in…  Ending a working meeting with Secretary of State SecPompeo together with Foreign Minister GabiAshkenazi We wi…  מסרתי למזכיר את הערכתי על המאמצים של ארהב לקידום הנורמליזציה במזרח התיכון אנחנו נפעל בשיתוף פעולה כדי להמשיך ולהב…  אני מסיים עכשיו יחד עם שר החוץ GabiAshkenazi ישיבת עבודה עם מזכיר המדינה האמריקאי SecPompeo אנחנו נמשיך להעמיק…  pninatamanosh היקרה בשמי ובשם כל כחול לבן תרגישי טוב תנוחי כמה שאת מסוגלת תתחזקי  והכי חשוב תהי לנו בריאה סיימתי עכשיו הערכת מצב עם הרמטכל  צהל ערוך להגן על תושבי הדרום ומוכן לתקוף את התוקפים אותנו ולפגוע בהם פגיעה קש…  אנחנו לא אנשים של משחקים ותרגילים אנחנו אנשים של כבוד ותקווה  עבודה קשה יושר וערכים נפגשנו הבוקר כל כחול לבן…  פיילוט ביטחון ורווחה מגיע לכפר קאסם שתהיה הרשות הערבית הראשונה בתכנית ותקבל ממשרד הביטחון סיוע מוגבר  פרויקטו…  השיטה עובדתהתפתחות חשובה במאבק בקורונה   אני מברך על החלטת היועץ המשפטי לממשלה לבקש דיון נוסף בפסק הדין שניתן בנוגע להרס ביתו של המחבל שהרג את עמית בן יגאל…  דיון בקריה עם מפקד פיקוד העורף ופרופ רוני גמזו לקראת קבינט הקורונה  מערכת הביטחון ערוכה לכל אתגר ומוכנה לכל משימה…  החקירה המשטרתית עוד מתנהלת אבל חשוב לי להעביר מסר לאנשים שהשתתפו או שהיו עדים למקרה הזה או לאחרים הדבר היחיד שהוכ…  מאתמול בצהריים אני רוצה להבין ולא מצליח  מה מנסה להוכיח גבר שעומד בתור צפוף עם עשרות אנשים בדרך לחדר בו שוכבת נערה צעירה ומעורפלת מה חשבתם לעצמכם  אני גדלתי במערכת הצבאית ראיתי צעירים לפני ובמהלך השירות הצבאי שמנסים להראות לעצמם ולחברה ממה הם…  בימים הקרובים נמשיך לשמוע ספינים מכל הצדדים – אנחנו נמשיך לנווט ביושר ועל פי העקרונות שלנו  בניגוד לאחרים אנחנו ל…  בימים האחרונים קיימנו מגעים עם הליכוד מתוך מוכנות אמיתית למנוע בחירות ולמצוא את הפתרון שישרת את מדינת ישראל אני לא…  אנחנו בימים קריטיים למדינת ישראל  נתניהו עלול להוביל לבחירות איומות  כשהלכנו עם הליכוד להסכם הלכנו למרות מטח האז…  היה לי חשוב לפגוש את ראשי רשויות הדרום היום רציתי לשמוע איך הם רואים את הדברים בשטח באמת שהם מתמודדים עם המצב בצו…  שינינו את המשוואה מול עזה כבר שלושה חודשים שאין פגיעה ביטחונית שנותרת ללא מענה ואני מתכוון להמשיך אנחנו יודעים ל…  which exemplifies our deep bilateral commitment to upholding Israels security and Israels determination to ensur…  This morning I spoke with German Defence Minister Annegret KrampKarrenbauer I stressed the importance of the imp…  שוחחתי הבוקר עם שרת ההגנה של גרמניה אנגרט קראמפקארנבאואר ביקשתי מהשרה שתפעל לקדם בממשל הגרמני את המשך אמברגו הנש…  אני לא חושב שיש יהודי שיכול להישאר אדיש למראה מטוסי קרב ישראלים בשמי גרמניה שוחחתי עכשיו עם מפקד חיל האוויר האלוף…  כל עוד אני שר הביטחון לא יזוז פה דבר ללא תיאום ובחוסר אחריות ההסכם עם איחוד האמירויות הוא צעד חשוב ובעל פוטנציאל…  בחזרה לקריה  הצטרפו אליי לשידור החי gtgt  חוזר לקריה  הבוקר השתחררתי מבית החולים תודה רבה מעומק הלב לרופאים לאחיות ולכלל הצוות הרפואי של בית החולים שיבא…  ילוו מאות בתי אב של חולי קורונה השוהים בבידוד וידאגו לצרכיהם מקרוב נמשיך לעשות הכל כדי לשמור על חיי התושבים ונילחם…  ״ביטחון ורווחה״ מתרחבת גם לבני ברק  דיברתי עם ראש העירייה הרב אברהם רובינשטיין על הצטרפותה של העיר ל16 היישובים…  I offer my deepest sympathies to President realDonaldTrump on the passing of his brother Robert last night May…  אם בשדרות לא יהיה שקטבעזה לא יהיה שקט סיימתי הערכת מצב עם הרמטכל על כל בלון או רקטה שינחתו בישראל רשומה כתובת א…  Congratulations to the Republic of Korea a great partner of Israel on its Independence day which is detrimental to regional stability and global security Israel will continue to work with its partners acro…  In its unceasing attempts to achieve nuclear weapons and its efforts to fuel terror and violence Iran is undermin…  HappyIndependenceIndia Best wishes to the wonderful people of India who are celebrating their 74th independence d…  לכן ההחלטה של מועצת הביטחון לא להאריך את אמברגו הנשק מולה שקידם הממשל האמריקאי היא החלטה שגויה שפוגעת ביציבות האז…  בחתירתה המתמדת לגרעין ובמאמציה להפצת טרור ואלימות איראן מערערת את שלום האזור והעולם כולו פרופ רות גביזון היתה ענקית בעולם המשפט וגם בעולם הערכים והתרומה לחברה הישראלית לצד היותה לוחמת שוויון הערכתי את…  We also spoke about the strong economic ties between our nations and our mutual desire to get tourism in both direc…  I held a phone conversation with my friend Greek Defense Minister npanagioto We discussed Israels commitment to…  I am certain that the agreement will have many positive implications for the future of the entire Middle East and f…  The agreement reflects the alliance among the countries of the region interested in regional prosperity and stabili…  I applaud the important and significant agreement and thank first and foremost President Donald Trump a true fri…  كما أنها تؤكد سعي إسرائيل الأبدي لإحلال السلام مع جيرانها ولدي قناعة بأن الاتفاق سيؤثر إيجابيا على مستقبل منطقة الش…  أرحب بهذه الاتفاقية الهامة والملموسة وأشكر في الدرجة الأولى الرئيس الأمريكي دونالد ترامب، الذي يعد صديقا حقيقيا لإس…  אני בטוח שלהסכם יהיו השלכות חיוביות רבות על עתיד המזרח התיכון כולו ועל מעמדה של ישראל בעולם ובאזור  אני קורא למדינ…  אני מברך על ההסכם החשוב והמשמעותי ומודה בראש ובראשונה לנשיא ארהב דונאלד טראמפ ידיד אמת של ישראל שקידם אותו ביחד ע…  הסיירת הטכנולוגית שלנו מבטיחה שנהיה תמיד צעד אחד לפני אויבינו הניסוי המוצלח של חץ 2 עם ארהב הוא עוד הוכחה לכך  נ…  הרשויות המקומיות מכירות טוב מכולם את צרכי התושבים ושיתוף הפעולה הזה מאפשר לנו להיאבק במגפה בצורה יעילה יותר כך אנ…  בפיילוט ביטחון ורווחה אנחנו מצמידים מנהיגים מקומיים למשפחות של חולים או מבודדים שדואגים להם לכל צרכיהם לפני חו…  חמאס מאפשר להמשיך להפריח בלוני תבערה ובלוני נפץ למדינת ישראל אנחנו לא מוכנים לקבל את זה וסגרנו את מעבר כרם שלום כת…  GabiAshkenazi אנו נמצאים במצב חירום הליכה לבחירות תהיה פיגוע לכלכלה ולחברה הישראלית זה הזמן לקבל החלטות מתוך שיקולים לאומיים ולא מש… כמובן שנכבד כל פסיקה של בגץ אך פסק הדין שביטל את צו הריסת ביתו של המחבל שהרג את עמית בן יגאל ז״ל מצער מאוד הריסת…  מדינת ישראל צריכה ודאות לשנה הבאה כל צמרת הכלכלה הישראלית אומרת זאת וגם רבים מבכירי משרד האוצר לכל החלטה אחרת אין…  נתניהו מי שאוהב את מדינת ישראל  לא לוקח אותה לבחירות  בוא ונאשר תוך 24 שעות את דחיית התקציב בלי טריקים ובלי שטי…  נתניהו בוא נאשר תוך 24 שעות את דחיית התקציב בלי טריקים ובלי שטיקים מי שאוהב את מדינת ישראל  לא לוקח אותה לבחירו…  האופן שבו שירתנו בצהל ב70 שנה האחרונות אינו מתאים יותר וצריך לשנות אותו טיפול בקיצור השירות העברת חוק גיוס כפי…  אי אישור תכנית רב שנתית לצהל הוא חוסר יעילות נפשע ברגע שיש תקציב יציב המערכת מסוגלת להיות יעילה בתפקוד שלה   …  המשך האמברגו על איראן הוא יעד מדיני ראשון במעלהאיראן מנסה לפתוח סניף טרור בסוריה לא ניתן לזה לקרות   יש לנו אפ…  כמה נקודות חשובות שסקרתי היום בפני ועדת החוץ והביטחון  נסראללה הוא האויב הגדול שלנו מצפון והבעיה הגדולה של לבנון…  שמחים שאת איתנו גם הקבינט גם ואזרחי ישראל הרוויחו  גם אם יש השגות על הדרך והמתווה אנחנו לא מתכוונים להרפות עד שנחזיר את חייכם ופרנסתכם למסלול עד שנדאג לכולכם זו חובתנו קודם כל תודה תודה לכל אלו שבאו להפגין מחוץ לביתי היום  חשוב לי לחילי ולמדינה שתמשיכו להשמיע את קולכם כל הזמן אנ…  אני גאה בשר טרופר שלא מפסיק לנסות למצוא פתרונות לענף שנפגע כל כך במשבר דווקא בעת הזו אזרחי ישראל זקוקים לתרבות כמ…  בשורות טובות  עולם התרבות חוזר  כפי שעידכנתי בשבוע שעבר המאמצים שלנו להחזרת עולם התרבות לחיים הביאו תוצאות בזכו…  הגעתי היום למעבדת מיי הריטג שם חתמנו על הסכם להכפלת בדיקות הקורונה מ10000 ל20000 בדיקות ביום  לא מדובר בהסכם…  Kachollavan19 ישראל צריכה תקציב לשנת 2021  לא תקציב לתקופת החגים  מי שטוען שאכפת לו מהמדינה  לא גורר את ישראל לבחירות בעת הזו  לא יכול להיות שמי שטוען שאכפת לו מהמדינה ינסה להוביל לבחירות בתקופה כזו  אני אעשה הכל כדי למנוע זאת  הרב שטיינזלץ היה רב גדול וגדול בהבנה ובתרומה לנפש האדם מעולם לא הבחין בין אדם דתי ושאינו דתי והותיר אחריו תרגומים…  מדינת ישראל לא תקבל שום הפרת ריבונות ופגיעה  בתושבי הדרום בעזה צריכים להבין שאין פתרון אחר רק החזרת הבנים הביתה ו…  נמשיך לעשות כל מאמץ כדי להביא בשורה גדולה לאנושות  מתקדמים לחיסון הקורונה המכון הביולוגי יחל בניסוי חיסון הקורונה בבני אדם אחרי חגי תשרי   ביקרתי הבוקר במכון הביולו…  פיתוחים כמו ינשוף לגילוי הנגיף או אבחון דרך גלי קול אני והשר GabiAshkenazi דיברנו עם חברי המשלחת היום שעדכנו ע…  כשאין לך מודיעין אתה מכה בכל מקוםכשיש לך אתה פוגע פגיעות מדויקות לכן אנחנו ממשיכים במסע לקיצור זמן הבדיקות המוד… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  שלום מישראל سلام من إسرائيل  שמחתי מאוד לשוחח עם מקבילי מבחריין יור המועצה העליונה לסביבה ובנו של מלך בחריין…  את מירית הררי זכיתי להכיר אישית רק לאחרונה אשה עוצמתית נחושה ומעצימה לא פחות ריגש אותי לראות את המשפחה מגוייסת ל…  שמרו על הסביבה ועל הסובבים אתכם חג שמח ושנה טובה  السلام عليكم שלום עליכם  עֹשֶׂה שָׁלוֹם בִּמְרוֹמָיו הוּא יַעֲשֶׂה שָׁלוֹם עָלֵינוּ וְעַל כָּל יִשְׂרָאֵל וְאִמְרוּ אָמֵן  יום היסטורי  רגע לפני יונת השלום עכשיו תור השליו  חתמתי הערב על צו האוסר את ציד התור המצוי והשליו הנודד אני מודה ל…  לקראת החלטה שאקבל בקרוב בנושא חוק הפיקדון על בקבוקים גדולים הקדשתי בחודשים האחרונים זמן רב ללימוד הנושא לאחרונה ה…  שלום עליכם السلام عليكم    עושים היסטוריה השבוע בבית הלבן שלום מתוך עוצמה מדינית  בישיבת הממשלה השבוע אישרנו העברת תקציבים לתחומי הגנת הסביבה בין היתר נשקיע בטכנולוגיות סביבה ובחינוך סביבתי  מנקים את נהריה מאסבסט קיימתי היום פגישת עבודה מקצועית עם ראש עיריית נהריה רונן מרלי כדי לקדם פתרונות סביבתיים למע…  עוצרים את הציד ״הספורטיבי״ ומגנים על חיות הבר בימים הקרובים במסגרת צו מיוחד נאסור את ציד התור המצוי והשליו הנודד  SPNI ולפעמים חלומות מתגשמים  חודשיים בדיוק מאז שיצאנו לקמפיין הציבורי שמטרתו ביטול הציד הספורטיבי בישראל החליטה השרה להגנת הס… יחד עם שר האוצר Israelkatz אנחנו מקדמים את הוצאת הכלים החד פעמיים ממשרדי הממשלה בשנת 2018 משרדי הממשלה רכשו כלים…  בקרוב גם המפעלים המזהמים  IsraelHayomHeb ישראל מציעה לפדרציה הערבית להקים מרכז חדשנות לשינוי אקלים בסביבה מדברית • השרה GilaGamliel למקבילה באיחוד האמירויות … AusAmbIsrael Thank you Minister GilaGamliel for a good discussion today on waste management and recycling protecting biodiversity a… והחל ממחר כלי רכב מזהמים לא יוכלו להיכנס לכל חלקי העיר ירושלים כתוצאה מתוכנית משותפת שלנו ושל העירייה אני קוראת…  יחד עם ראש עיריית תל אביביפו סיכמנו על קידום תוכנית ״עיר אוויר נקי״  להפחתת זיהום האוויר מתחבורה בתל אביביפו יח…  בונים סביבה ירוקה סיכמנו יחד עם שר הפנים ariyederi  בנייה ירוקה תחויב בכל הארץ המהלך ישפר את איכות החיים של הדי…  ארבעה ילדים ואישה איבדו היום אב ובעל אהוב הרב שי אוחיון שנרצח על ידי מחבל בפיגוע בפתח תקווה אני שולחת את תנחומיי…  כלבים הם אהבה אינסופית תאמצו  talgilboa  10elilevi בעקבות השימוע לתש״ן  המשרד להגנ״ס בהובלת השרה GilaGamliel יורה לתש״ן לסגור מיכלים בחוות הדלק בק חיים זה נצחון זמני אבל צ… כל כך פשוט לראות את כל הקטע  לאורך כל הראיון בשישי האחרון הפניתי את הדרישה לאישור התקציב לבני גנץ וקראתי לו למנוע בחירות הרסניות ״אז תדאג להם…  לכל עם ישראל  שבת שלום   לרגל שנת הלימודים הקרובה נשקיע במערכת החינוך סכומים משמעותיים כדי לחשוף את התלמידים לנושאי משבר האקלים זיהום אוויר…  פרשיית האונס הקבוצתי באילת מהווה פשע שגם הענישה החמורה ביותר לא תתן לו מענה הולם השפל המוסרי העמוק דורש טיפול שורש…  לילדים שלנו מגיע עולם נקי יותר חד פעמי  לא בים שלי  לאחר עשרות תלונות מנהלי חברת תש״ן קיבלו הערב התרעה והזמנה לשימוע לא נאפשר למפעלים להוות סכנה סביבתית ולגרום למפגע…  עוד הישג עבור תושבי חיפה  לא נאפשר פגיעה בחופים ונשמור עליהם לטובת הציבור ולעתיד הדורות הבאים  כואבת על לכתה של פרופ׳ רות גביזון אחת מחוקרות המשפט החשובות ביותר בארצנו  גביזון כלת פרס ישראל הייתה משפטנית חד…  יום מרגש מהלך היסטורי עושים שלום מתוך עוצמה   קשה לבטא במילים את מה שהתחולל בגן הזוועות לכל הורה מגיע לשלוח את ילדיו לגן בראש שקט מבלי שיחשוש מתרחישי האימים ע…  ראש הממשלה ואני סיכמנו על הקמת וועדה שתבחן את עתיד מפרץ חיפה ותגיש את המלצותיה לממשלה תוך 90 יום מהקמתה התעשיות המ…  למען אלו שאיבדו את יקיריהם  יש לקיים דיון נוסף ולהפוך את ההחלטה הפוגעת במשפחות השכולות ובהרתעה נגד הטרור  מחזקת את כוחות הביטחון על תפיסתו של המחבל הנתעב שהיה מעורב בפיגוע בו נפלו רס״ן פרץ ז״ל וסמ״ר סביאטקובסקי ז״ל מדינת…  החיים שלהם בידיים שלנו שמרו על החופים נקיים שבת שלום   10elilevi השרה להגנ״ס GilaGamliel בראיון אצלנו בזירה חופשית news1075 ״ כחול לבן צריכים להבין שחייבים להעביר תקציב גם כדי שנוכל כבר… האירוע שהתרחש בנמל ביירות רק מוכיח שאסור לנו להפקיר את מפרץ חיפה הרכבת כבר נסעה  המפעלים בחיפה יסגרו והמתחם הפטרוכימי יטוהר GLZRadio הקרב על התקציב  השרה GilaGamliel תוקפת את gantzbe הוא רואה הכל מתוך הראייה הפוליטית הצרה שלו זה חוסר הניסיון חוסר ההבנ… קיימתי כנס משותף עם סגן מזכל הOECD בדרך להפיכתה של מדינת ישראל לכלכלה משגשגת ודלת פחמן  החזון  למצב את מדינת יש…  SvivaMinistry איך ישראל תוכל להתקדם לעבר כלכלה משגשגת ודלתפחמן הצטרפו אלינו לשידור חי מאירוע פרסום דוח המלצות הOECD בנושא במעמד הש… יישר כוח לצה״ל סומכים על ראש הממשלה נתניהו ועל חיילי צה״ל הפועלים ללא הפסקה למען ביטחונם של אזרחי ישראל  יש חשמל באוויר בשמש בים מדינת ישראל צריכה להפסיק להפיק חשמל בדרכים מזהמות ולעבור לאנרגיות מתחדשות כאן ועכשיו או…  הפרטים המלאים כאן  רגע לפני חתונתם של אלון ומאיה הפתעתי אותם בשיחת טלפון זוגות צעירים – לאור משבר הקורונה אני מזמינה את כולכם להתחת…  האלימות שמקבלת את ביטויה בהפגנות וההסתה נגד ראש הממשלה ומשפחתו הן תופעות מסוכנות שחייבות להיפסק לאלתר שבת שלום   אסון כבד שולחת את תנחומיי למשפחתו של סמל סהר אלגזר ז״ל חייל בחטיבת הנח״ל שנהרג בתאונת כלי רכב צבאי בצפון יהי זכר…  80 שנה לפטירתו של זאב זבוטינסקי ראש ביתר ומנהיג האצל השקפת עולמו הציונית והליברלית אהבתו לעם ישראל ואדמת ישרא…  מברכת על מינויו של פרופסור ברבש לפרויקטור הקורונה בטוחה שברבש יהווה סמכות מקצועית מצוינת ויחד נחזק את המאמץ הלאומי במלחמה בנגיף הצורך בגריןדיל ישראלי ובשיתוף פעולה בינלאומי לטובת ניהול המשברים הפוקדים אותנו צפו בקטע מדבריי מהכנס המקוון באו״ם…  בגל הראשון הדברים עבדו מצוין ללא האחדות וללא הפריטטיות שרים רוצים להעביר החלטות רק בהסכמה מלאה  כמו בועד הקיבוץ…  נתגמל את הרשויות המקומיות שיאסרו להכניס כלים חד פעמיים לחופי הים נמשיך להשקיע ולמצוא פתרונות שיצמצמו את הזיהום והל…  ערב של הסתה ואנרכיה שמסתיים בתקיפה פיזית של עיתונאים ושוטרים המצב חייב להיפסק  לפני שיהיה מאוחר מדי  תזכורת למי שעדיין לא השתכנע שחייבים לפנות את המפעלים המזהמים במפרץ חיפה אסון כבד נמנע  שמים סוף לים הלכלוך אנחנו מגבירים את האכיפה המשטרתית בחופי הים כדי שאתם תוכלו להנות מסביבה נקייה מפסולת שמרו על…  שמרו על הסביבה ועל הסובבים אתכם שבת שלום   הנחיתי לפרסם מחר בבוקר את מדד ההשפעה הסביבתית אשר מסמן את המפעלים הגרועים סביבתית בישראל שבבעלות ציבורית וממשלתית…  בכוחותיו האחרונים הציל מיכאל בן זיקרי ז״ל בני משפחה מטביעה גיבור שהקריב את חייו למען חייהם של אלו שלא הכיר אני שו…  למרות הלחצים אבצע את הדבר הנכון   איימן עודה חצה עוד קו אדום מזעזע לחשוב מה היה קורה אם האנשים האלה היו יושבים בקואליציה ומנהלים את המדינה זו שעת כושר היסטורית להחלת ריבונות ישראלית התמיכה הבינלאומית הדרושה קיימת  אוי לנו אם גורם מתוך הממשלה ישים רגליים למהלך המשרד להגנת הסביבה בראשותי יוביל את המהלך הלאומי של סגירת מפעלי מתחם בזן בחיפה ויציב יעדים סביבתיים ברורים לשיקום…  44 שנים לנפילתו של סא״ל יוני נתניהו ז״ל במבצע חילוץ החטופים באנטבה נזכור לעד את עוז רוחו את תרומתו ואת אהבתו העצו…  עוד הסתה מזעזעת מבית היוצר של אפרים שמיר עוד גבול נחצה מילים איומות שאסור שיכתבו מוכרחים לחקור  עכשיו  נפגשתי היום עם שגריר האיחוד האירופי בישראל עמנואל גופרה סיכמנו להגביר את שיתוף הפעולה בינינו במסגרת הGreen Deal…  הטמנת פסולת היא דרך ארכאית ולא סביבתית 80 מהפסולת בישראל מוטמנת בזמן שמדינות רבות בעולם הפסיקו להטמין פסולת בקרק…  הנחיתי היום לפתוח מחדש את נחל אשלים המדיניות ברורה  אפס סובלנות כלפי חברות הפוגעות בסביבה נעשה הכל כדי לוודא שהט…  ההסתה של רינה מצליח עברה כל גבול על רינה מצליח לחזור מאמירה אומללה זו ולהתנצל בפני ראש הממשלה ובפני כל אחד משני מי…  אין לנו ארץ אחרת שמרו על הטבע שלנו שבת שלום   מגבירים את האכיפה חייבים למגר את הימצאות האסבסט במרחב הציבורי לאזרחי ישראל מגיע לחיות בסביבה בריאה ונקייה  הגיבוי האמריקני שניתן למדינת ישראל בעת הזו מייצר הזדמנות היסטורית להחיל ריבונות בחבלי המולדת זו החלטה אמיצה ונועזת…  KHatzidakis Συναντήθηκα σήμερα με τη νέα Υπουργό Περιβάλλοντος του Ισραήλ GilaGamliel Βάλαμε τις βάσεις για κοινά πρότζεκτ στην πρά… נפגשתי עם שר הסביבה היווני קוסטיס הצידקיס כאן בירושלים בירתנו הטיפול בשינויי האקלים ושמירה על איכות הסביבה הם יע…  בין ההצבעות בכנסת ממשיכות לקדם עשייה למען זכויות בעלי החיים  פתחתי את השבוע בפגישת עבודה מצוינת יחד עם יור ועדת הפנים והגנת הסביבה mikihaimovich1 נפעל ביעילות ובמקצועיות למע…  שבת שלום לכל עם ישראל   IsraelHayomHeb הSvivaMinistry ישקיע 10 מיליון שקלים בהסרת האסבסט ממבני מערכת החינוך • GilaGamliel לתלמידים ולמורים מגיעה סביבה רא… סמל משמעותי של תחילת הסוף הפעם הקריסה התרחשה בטעות הפעם הבאה תהיה מכוונת לתושבי חיפה מגיע לחיות בסביבה בריאה  תמחור הפחמן הוא הכלי הכלכלי היעיל ביותר לצמצום פליטות גזי חממה במהלך זה  נצטרף לרוב המכריע של מדינות הOECD  ilanacuriel תפקיד השרה להגנת הסביבה הוא התפקיד היחיד שבו חכית זוכה לשחק בחול לטייל בחופי הים לחייך אחרי שמצאה ביצה של צב ים להכיר… ציינו היום את יום הסביבה בכנסת משבר הקורונה נתן לכולנו הזדמנות ”לחשב מסלול מחדש“ אלו האתגרים העומדים בפנינו gtgt  עצרנו לסלפי רגע אחרי פגישה מוצלחת עם טל גלבוע וארגוני זכויות בעלי החיים   עלינו כבני אדם לגלות רגישות וחמלה כלפי…  אני מברכת את כוחות הביטחון על תפיסת המחבל שרצח את עמית בן יגאל ז״ל ידע כל מחבל המנסה לברוח  ידו הארוכה של צה״ל תגיע לכל מטרה עצוב ומביש לראות את דגלי אש״ף מונפים במרכז תל אביב התשובה שלנו ברורה החלת ריבונות בחבלי המולדת לא נהסס ונמשיך לפ…  גורמים ברשות הפלסטינית מזהמים את נחל אלכסנדר ומזרימים אליו שפכי ביוב ודם מהמשחטות במשך שנים חוף בית ינאי נסגר היום…  ביקרתי במרכז ההצלה לצבי הים שנפגעו כתוצאה מהמפגעים שאנחנו בני האדם יצרנו בחופים עלינו להיות רגישים יותר כלפי בע…  ד״ש לדוד מאמריקה לא משנה כמה כוחות תפעילו  אנחנו נמשיך לעשות את המעשה הנכון ארץ ישראל ניתנה לנו בזכות  טל הראויה ביותר לוחמת צדק אמיתית שתפעל מתוך תחושת שליחות נעבוד בשיתוף פעולה למען בעלי החיים בישראל  ערכתי הבוקר מפגש עם הארגונים הסביבתיים מהדקים את הקשרים בנינו ועובדים בשיתוף פעולה למען סביבה נקייה ואיכותית יותר…  מחזקים את כלכלת ישראל דרך השקעות בסביבה   חג שבועות שמח לכל בית ישראל   globesnews השרה להגנת הסביבה גילה גמליאל בקרוב נפרסם תוכנית ליציאה ממשבר הקורונה באמצעות השקעות בסביבה   כול עאם וואאינתום בחיר בריאות אושר ושמחות לכם ולבני משפחותיכם  טל יחד נגיע להישגים גדולים יוצאות לדרך   ראש הממשלה נתניהו מקדיש את כל חייו למען אזרחי ישראל ומדינת ישראל כעת אנו מתייצבים לצידו ומאמינים בחפותו נתניהו ע…  נכנסתי לתפקיד השרה להגנת הסביבה בתחושת שליחות אני מקבלת הודעות רבות עם עצות ובקשות את המהפכה נעשה יחד רק שיתוף פ…  חוגגים את שחרורה של ירושלים הלב הפועם של ארץ ישראל ובירתנו הנצחית וההיסטורית יום ירושלים שמח   ראש הממשלה נתניהו הגיש בקשה טכנית חוקית וסבירה המחוקק העניק לשופטים סמכות להפעיל את שיקול דעתם במקרים מסוג זה בה…  הצטרפו אליי בשידור חי לטקס חילופי השרים במטה ישראל דיגיטלית  נרגשת להיכנס לתפקיד השרה להגנת הסביבה ומבטיחה למלא אותו בשליחות ובאחריות אתגרים רבים עומדים בפנינו אנו חולקים רבי…  הצטרפו אליי בשידור חי לטקס חילופי השרים במשרד להגנת הסביבה  מעמד מרגש נשבעת אמונים כחברת הממשלה   אני גאה על ההישגים הכבירים שהובלתי במשרד לשוויון חברתי ביניהם קידום מיזם ישראל דיגיטלית׳ הובלת השקעות אדירות בחב…  אני מודה לראש הממשלה על האמון שנתן בי ועל הזכות לכהן כשרה להגנת הסביבה עלינו לקדם תהליכים שיובילו לשגשוג ואיכות חי…  אסון כבד עמית בן יגאל חייל צה״ל ובן יחיד להוריו  נרצח במהלך פעילות מבצעית על ידי מחבל בסמוך לג׳נין   מלח הארץ ש…  בהובלת ראש הממשלה נתניהו אנחנו דואגים לחיילים הבודדים שתרמו רבות למדינת ישראל בשירות צבאי משמעותי גיבשנו מתווה לח…  כשהתברר שמשרד הבריאות הציע להשאיר את כל האזרחים הוותיקים בהסגר באופן גורף הצעתי לאפשר לוותיקים ללא מחלות רקע ובעיו…  חיילים בודדים לעולם לא תישארו לבד הגעתי להסכם עם האוצר במסגרתו המשרד לשוויון חברתי יעביר מענק הסתגלות מיוחד לחייל…  עקב הגבלות משרד הבריאות רק 17 ילדים יכולים להגיע לגן וכל השאר נאלצים להישאר בבית הגעתי להסכם עם האוצר במסגרתו המש…  מלכתחילה היה מיותר לקיים דיון פוליטי בבג״צ ראש הממשלה נתניהו קיבל את המנדט מהציבור הישראלי אסור שבג״צ יתערב ברצון הבוחר ויגרור אותנו למערכת בחירות רביעית מיותרת דרישתי לאפשר לאזרחים הוותיקים להגיע לעבודה אושרה כעת בממשלה אין סיבה שאזרחים וותיקים ללא גורמי סיכון לא יוכלו להמש…  המאבק על טיפולי הפוריות לאחר שהופסקו בשל הקורונה טיפולי הפוריות יוחזרו לנשים החל מגיל 39 אלה רק כ20 ממי שעוברו…  kannnews השרה GilaGamliel מהליכוד לZeevKam וקרן אוזן זה לא סוד שחלום חיי זה להיות שרת החינוך חשוב שמי שייכנס לתפקיד יכיר את מער… kannnews השרה GilaGamliel מהליכוד לZeevKam וקרן אוזן על עמדת היועמש בנושא כהונת נתניהו כראש ממשלה תחת כתב אישום עצם הדיון בבג… kannnews השרה GilaGamliel מהליכוד לZeevKam וקרן אוזן ראש הממשלה לא מעוניין בבחירות נוספות ורוצה להקים ממשלה למה שיהיה איזשהו ת… arutz20 השרה גילה גמליאל האיסור על מבוגרים לצאת לעבוד יבוטל   JerusalemPost Will older employees 67 be allowed to return to work  In a win for GilaGamliel Health Ministry says no longer opp… בעקבות פנייתי למשרד הבריאות ההחלטה לאסור על אזרחים וותיקים להגיע לעבודה תבוטל מדובר בהחלטה המהווה אפלייה על בסיס…  הריבון הוא העם ובג״צ צריך לכבד את הכרעתו ולאפשר הקמת ממשלת חירום לאומית שאפו לכלת חידון התנ״ך העולמי לשנת תש״ף רות כהן גאווה ענקית לגדרה חג עצמאות שמח בוא יבוא היום ועמי גדול יהא ובןחורין וארץישראל תזהר בכל צבעי הקשת של נופה הנהדר — זאב זבוטינסקי  לכל עם ישרא…  השעה הכי יפה ומורכבת בשנה  בין זיכרון לעצמאות נזכור כל הזמן את הגיבורים שהקריבו את חייהם למען החיים שלנו כאן עינב מדהלה זל נפלה בתאונת דרכים בעת שירותה הצבאי צפו במפגש מתחברים וזוכרים עם אחותה רון מזרחי שעובדת כאחות במח…  כעת בכנסת הדלקתי נר וירטואלי לזכרם של חללי מערכות ישראל ונפגעי פעולות האיבה זוכרים אותם תמיד  למרות אתגרי התקופה  נמשיך לזכור להנציח ולהתייחד עם יקירינו שנפלו הקמנו השנה את משמר הכבוד האזרחי שיעמוד באתרים מ…  23816 לנצח בליבנו  הוצאת האזרחים הוותיקים מהסגר על בסיס הגיל הכרונולוגי בלבד היא לא מוסרית לא אפקטיבית וספק אם חוקתית המשך הבידוד יב…  מברכת אתכם אחינו ואחיותנו הדרוזים בחג הנביא שועייב חג שמח וזיארה מקבולה  עצובה וכואבת על פטירתו של הרב ישעיהו הבר מייסד ויו״ר עמותת ׳מתנת חיים׳ אדם גדול בעל לב זהב מפעל הצלת החיים שה…  בין ההצבעות בכנסת  חשוב לי לשתף אתכם ביוזמה המרגשת שלנו שתתרחש ביום הזיכרון לחללי צה״ל בשעה 1100  גם אתם מוזמנ…  העליתי גם את סוגיית העסקים הקטנים והבינוניים ראש הממשלה ושר האוצר יציגו תוכנית סיוע שניתן ליישמה במיידי בנוסף דרשתי להחיל שקיפות מלאה על נושא הבדיקות לציבור יש את הזכות לדעת כמה בדיקות נעשות והיכן מעבר לכך משרד הברי…  מעבר לסוגיית טיפולי הפוריות דרשתי להביא תוכנית אסטרטגית למערכת החינוך קשה לעמוד בפני אי הוודאות אנשים צריכים לדע…  העליתי בישיבת ממשלה את נושא טיפולי הפוריות ישנה פגיעה באלפי נשים שחולמות להביא ילד לעולם בעקבות הפנייה שלי מנכל…  מברכת על החלמתו של נשיא ומייסד איחוד הצלה אלי ביר מנגיף קורונה חייו ניצלו וכעת הוא חוזר לישראל להציל חיי אנשים…  יום השואה מציף זכרונות מאמי היקרה עליזה גמליאל ז״ל ילידת לוב שאיבדה את סבה ואחותה בתלאות השואה במחנה הריכוז ג׳אדו…  יִזְכֹּר אֱלוֹהִים אֶת נִשְׁמוֹת אֲחֵינוּ בְּנֵי יִשְׂרָאֵל חַלְלֵי הַשּׁוֹאָה וְגִבּוֹרֶיהָ נִשְׁמוֹת שֵׁש־מֵאוֹ…  הצטרפו לזיכרון בסלון בשידור חי  דווקא בתקופה הזו דבר לא יעצור אותנו מלהמשיך ולהנציח את זכר השואה והגבורה ולספר את סיפורם של הניצולים שלנו השנה ב…  אנו נמצאים בעת משבר ואני פועלת מתחילתו כדי להגן על הקשישים והמשפחות ולהשפיע על מקבלי ההחלטות והממונים בעניין נשאלתי מדוע הייתי צריכה לדרוש להשתתף בדיון בתי האבות הסמכות לטיפול בבתי האבות מרוכזת בארבעה משרדי ממשלה שונים ולא…  MaarivOnline הדיון על בתי אבות  השרה גילה גמליאל נושא הביקורים מאוד קריטי חייבים לאפשר למשפחות את הביקורים כדי להפיג את בדידות הקש… סוגיות מרכזיות 1 אישור תוכנית עתירת תקציבים לטיפול בסוגייה 2 פתרון לביקורי המשפחות בבתי האבות 3 פתרון לעובדים ה…  אנחנו מקיימים כעת דיון בנושא בתי האבות בהשתתפות ראש הממשלה ופרופסור רוני גמזו דרשתי להשתתף בדיון כדי להשפיע על קבל…  במסגרת מיזם ׳ישראל דיגיטלית׳ אני מובילה העברת שירותים ממשלתיים לדיגיטל למרות שמשרדי הממשלה פועלים במתכונת חלקית …  לא מובן מדוע נאסר על כל האזרחים הוותיקים לצאת לעבודה ישנם רבים אשר פעילים בשגרת היום וללא מחלות רקע ביקשתי לבחון…  בצל משבר הקורונה אלפי נשים נאלצו להפסיק את טיפולי הפוריות הלילה העליתי את הסוגייה בישיבת הממשלה במטרה לחדש אותם בא…  גאה על הזכות להילחם למען האזרחים הוותיקים  גם כשלא שומעים על כך נמשיך להיאבק בסוגייה לגבי בתי האבות הנוספים כמו…  בדרך הנכונה שבת שלום   לאחר מאמצים רבים בשורות טובות לקראת השבת  בית האבות בראשון לציון לא יפונה לטובת חולי קורונה אמשיך לפעול מול כל ה…  בשורות טובות לאזרחים הוותיקים בזכות מהלך שהובלתי רשתות שיווק מזון ופארם גדולות יספקו משלוחי קניות לקשישים תוך 48…  סופרמן גרסת המציאות המתנדבים של המשרד לשוויון חברתי בשיתוף ארגון ״ידידים״ מסיעיים לקשישים בכל הארץ במזון ותרופות…  בצער רב וביגון קודר נלקח מאיתנו בחג החירות הראשון לציון הרב הגאון בקשי דורון ספר תורה מהלך בתקופה קשה זו שעובר ה…  33 למרות שהנושאים הללו אינם במסמכות המשרד לשוויון חברתי ובטיפול משרד הבריאות ומשרד הרווחה אמשיך לפעול מול הגור…  23 3 על משרד הבריאות לספק ציוד מיגון לכלל המטפלים והצוותים בבתי האבות   4 הרחבת המענה הפסיכוסוציאלי עבור אזרח…  13 התרעתי בפני שר הבריאות ושר הרווחה על סוגיית הקשישים בבתי האבות אלו הצעדים שדרשתי לקדם בצוות השרים  1 משרד…  חייבים להקים ממשלת חירום במהירות האפשרית אני קוראת לנשיא המדינה להעניק את המנדט לראש הממשלה נתניהו במידה ולא תורכב…  צוות המומחים להתמודדות עם מגיפת הקורונה לא כולל נשים מלבד שתי עוזרות מחקר לא ייתכן שבשנת 2020 החלטות אסטרטגיות יה…  השנה חוגגים בנפרד  כדי שבשנה הבאה נוכל לחגוג יחד חג פסח שמח לכל בית ישראל   מדי שנה אני מובילה את מיזם ׳סדר פסח חברתי׳ המקשר בין משפחות מארחות לאזרחים וותיקים המעוניינים להתארח בערב החג לצע…  מתפללים לרפואת ראש ממשלת בריטניה וידיד ענק של ישראל בוריס ג׳ונסון   ערים עדכון קצר מהכנסת gtgt  חבל שבמקום לעסוק באחדות העם ועזרה הדדית יש כאלה שבוחרים להכליל כנגד מגזרים שלמים באוכלוסייה המגזר החרדי הוא חלק ב…  קיבלתי פניות רבות מאזרחים וותיקים על עיכובים במשלוחים מהסופר לא ייתכן שמשלוח קניות יגיע רק אחרי החג במיוחד בעבור…  הכירו את עמית המתנדבת בביתה של פנינה מטעם ׳והדרת פני זקן׳ בשיתוף המשרד לשוויון חברתי פנינה חגגה לאחרונה יום הולדת…  מוזמנים להיכנס לפלטפורמת הלמידה הדיגיטלית שלנו קורסים אקדמיים ופסיכומטרי בחינם  שיר ההודעה שלך מחממת את הלב לכל ילדה וילד מגיעה ההזדמנות ללמוד ולהגשים את עצמם  ישראל היא המדינה הבטוחה ביותר במהלך משבר הקורונה המשיכו להישמע להוראות יחד  נעבור את זה  מרגש לראות את המתנדבים מ ׳והדרת פני זקן׳ בשיתוף עם החפ״ק הלאומי שהקמנו מגיעים לביתם של האזרחים הוותיקים ומסייעים ל…  לאחר מאמצים שהפעלתי בנושא נממש בקרוב העברת מענקים מיוחדים לבני 67 ומעלה שנפלטו משוק העבודה בנוסף לקצבת הזקנה המט…  יאיר לפיד כל הפוסל במומו פוסל בזמן שאתה מתכלל משא ומתן עם המשותפת מאיר בן שבת מתכלל את המשבר בצורה חכמה וצנועה…  אזרחים וותיקים לא משנה מאיזו משפחה אתם וכמה פעמים בשבוע אתם עושים קניות אנחנו כאן כדי לסייע לכם בקניית מזון ותרופ…  zviashkenazi KseniaSvetlova saragusti כבר אתמול בבוקר פניתי לראש המועצה לביטחון לאומי והתרעתי על הפגיעה במטפלים…  לאחר שפעלתי מול האוצר והרווחה  מתווה לטובת האזרחים הוותיקים מותנה באישור ראש הממשלה גמלאים שהוצאו לחלת יקבלו ק…  חייבים לאפשר לאזרחי ישראל לקיים אורח חיים מינימלי פניתי לראש המועצה לביטחון לאומי וביקשתי להגדיל את רדיוס היציאה מ…  GLZRadio לקראת סגר  השרה לשוויון חברתי GilaGamliel מציגה אצל razibarcay וRinoZror מספר לציבור 8840 כל אזרח ותיק יקבל סיוע בקנ… למה כחוללבן דורשים את תיק המשפטים ולא את תיק הבריאות החינוך והאוצר ולמה העסקנות המיותרת במקום לשבת למשא ומתן נו…  KolBarama השרה GilaGamliel לronencatz ב׳אחת בצהריים׳ ״ההחלטה על הארכת שעון חורף היתה פוגעת במערכות חיוניות ולכן בהתראה קצרה כזו ז… kannnews השרה GilaGamliel הודיעה לא יהיה שינוי בשעון הקיץ ההזזה של שעון הקיץ הייתה עלולה לגבות מחירים מאוד גבוהים מהמשק אמרה הש… אירחתי הבוקר במוקד החירום לאזרחים וותיקים במשרד לשוויון חברתי את ח״כ פטין מולא וח״כ טלי פלוסקוב כדי להגביר את המודע…  לכל האזרחים הוותיקים הזקוקים לסיוע פנו אלינו למוקד בטלפון 8840 אריה אבן ניצול שואה בן 88 נפטר אמש ממחלת הקורונה אני קוראת לכולם למען ההורים שלנו למען סבא וסבתא שלנו  הישארו…  מוקד החירום לאזרחים וותיקים מעניק תמיכה בנושא הקורונה גם בשפה האמהרית לצערי האזרחים הוותיקים בני הקהילה האתיופית…  התקופה הנוכחית מביאה עמה חרדות ואתגרים נפשיים בעבור האזרחים הוותיקים זה טבעי ובשביל זה אנחנו כאן  כדי לעבור את ז…  טל והודיה שמתנדבות ב ׳והדרת פני זקן׳ יצאו לעשות קניות לשתי קשישות שביקשו עזרה בהצטיידות במזון הקשישות השאירו לה…  mayaaidan מדובר בפייק ניוז שלך התוכנית אושרה היום ותתחיל לפעול כבר מחר תבדקי שוב את הגורמים האנונימיים שלך באוצר zviashkenazi חייבים לעשות מאמץ כדי להחזיר אותםיש הרבה מאוד צעירים כאלה בעולםאבדוק עוד הערב את הנושא מול הגורמים המקצועייםגילה חפ״ק לאומי של המשרד לשוויון חברתי יסייע לאזרחים הוותיקים להתמודד עם משבר הקורונה בתוספת של מליוני ש״ח    מתנד…  קראו gtgt  הודעה חשובה  אנו מקצים 50 מיליון שח לחברות שיפתחו פתרונות נגד נגיף הקורונה יחד עם הרשות לחדשנות ומשרד הבריאות ב…  MaarivOnline השרה גילה גמליאל הקורונה מהווה הזדמנות להבין כמה עולם הדיגיטל איננו מסתכם רק בשימוש בטיקטוק או צפיית בינג בנטפליקס וא… zviashkenazi YoavKisch זה לא הג׳קטזה מי שלובשת אותוגילה נשבעים שמרנו מרחק  YoavKisch  דווקא עכשיו כשאנחנו מנסים להקים ממשלת חירום רחבה כדי להתמודד עם משבר הקורונה ואתגרים לאומיים שעומדים בפנינו נעשה…  זאת התשובה של אחמד טיבי לריצת האמוק של גנץבוגיאשכנזי לזרועות הרשימה המשותפת שפל חדש ובושה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">גמזו״בעת הזו של סליחה ומחילה  אבקש זאת מכל אזרח ואזרחית במדינת ישראל על שלא הצלחתי למנוע את הסגר המלא ״ לא מצ…  בהמשך לציוץ הקודם אני מקבל חיזוק לדברים מבכיר היועצים הרפואיים הרב יוסי ערבליך גמר חתימה טובה ונשמרתם לנפשותיכם  בפנימיות ובישיבות בהן לא היתה הקפדה על מתוה הקפסולות מומלץ מאוד לא לשחרר את הבח…  אשכנזי תראה מה כותב היועץ שלך בצבא תא״ל בניהו בנוגע למפגינים ״ושמים את טובת המדינה לפני טובתם נוחיותם ובריאותם…  ניסנקורן ממשיך להפגין בתוך הממשלה נגד ראש הממשלה כעת מבשר לציבור הצופה בטלויזיה שראש ממשלתו עוסק רק בהפגנות  שר ל…  האם מנדלבליט אחראי לקיום ההפגנות כעת האם ההתקהלויות בעת הזו באחריותו הטלת האחריות על המשטרה לדאוג לחבישת מסכות וש…  מנדלבליט עקב אונליין אחר חקירותיו של ראש הממשלה כעת בטרם החלו העדויות במשפט דאג מי שדאג  לפרסם בעיתון הארץ קטעי…  גמזו ׳האמת האמיתית׳  מונח חדש שהמצאת תפסיק לרוץ לתקשורת ולהתמסכן על פגיעה בגב על פוליטיקאים ועוד מרין בישין את…  מנדלבליט החל לצייץ באופן רישמי בטוויטר היום הידהד מאמר שביקר עיתונאים המבקרים את מנדלבליט ככה ׳שומרים׳ על הדמוקרטיה בצלאח אדין במהלך ממשלת הרוטציה נאלץ ב1986 שר האוצר יצחק מודעי מהליכוד שכינה את שמעון פרס ראש ממשלה מעופף להתפטר  ניסנקורן…  ניסנקורן שהוקפץ מראשות ההסתדרות  ״מביש לראות שגם הערב נתניהו בוחר להמשיך להסית נגד המפגינים ונתניהו ממשיך לפלג…  שי ניצן ממשיך להתבוסס בפוליטיקה בראיון באוניברסיטת תל אביב  ״בסוף יש ערכים יותר חשובים מאמון הציבור  כמו שמירת ה…  בגץ דוחה העתירה נגד הסגר  יתכנו גישות מקצועיות שונות בנוגע לבלימת התפשטותה של המגפה אך אין זה מתפקידו של בית משפ…  מנדלבליט מרחיב את ממלכתו לאחר דיונים מקצועיים בנושא החליטו הרשקוביץ ומנדלבליט כי בחלק ממשרדי הממשלה שדורשים פעיל…  צריך לדעת שיש איזונים גם אם הממשלה תחליט להגביל הפגנות – בגץ קרוב לוודאי לא יאפשר את זה אלה איזונים שנעשים במדי…  גמזו ״המלצתי להדק את הסגר״ דיי עם סיסמאות וראיונות לתקשורת קח אחריות והצג תוכנית מלאה ולא כותרות צו השעה מחייב אותך גנץ אין פתרונות קסם הסיסמא ׳תנו לצה״ל לנצח הקורונה׳ לא החזיקה מים  דיי עם הפוליטיקה הקטנה תן כתף אל תפריע גמזו  די ליהיות שבוי ׳באמת שלך׳ ולהתראיין בכלי תקשורת עם דמעות תנין תציג תוכנית מלאה תסביר ותלחץ על הממשלה ואני…  המלחמה בקורונה הגיעה לשלב קריטי התחלואה מטפסת באופן מהיר ויש לנקוט בצעדים דרסטיים  המחלוקות הפוליטיקה וכל דבר שפ…  פרופ׳ גמזו הפרוייקטור לקורונה קיבלת את כל הכלים להגיש לממשלה תוכנית מלאה למלחמה מספיק עם הפוליטיקה עם גנץ ואשכנזי…  הקורונה הגיעה לשלב קריטי התחלואה מטפסת דרסטית ויש לנקוט בצעדים דרמטיים  יש להסיט הצידה את המחלוקות הפוליטיקה וכל…  מנדלבליט ובג״ץ  הפגנות וניגוד עניינים בעניין ראש הממשלה נתניהו מעסיקים אותם בימים אלו  המלחמה בקורונה הבריאות הכלכלה  שימתינו בתור מנדלבליט וניסנקורן מקומה 2 בצלאח אדין  הזכות להפגין היא זכות יסוד במדינת ישראל המהווה חלק מליבת הערכים הדמוקרטיי…  שיטת מנדלבליט ממלמל בשיח חופשי בממשלה עושה אחר כך שיחות רקע עם עיתונאי חצר ואז מודיע לציבור לא קבעתי בשום שלב שס…  GLZRadio יור מרכז הליכוד חכ חיים כץ אומר לירון וילנסקי וbardugojacob הצעד הכי נכון של netanyahu הוא לפזר את הממשלה והכנסת צר… GLZRadio הפרופ שוקי שמר חבר הצוות המייעץ לפרופ גמזו אומר לירון וילנסקי וbardugojacob הייתי עושה סגר מלא ממחר לכל אורך יום כיפו… GLZRadio הפרופ שוקי שמר חבר הצוות המייעץ לפרופ גמזו חושף אצל ירון וילנסקי וbardugojacob הצוות המייעץ הוא בעירבון מוגבל הפעם ה… GLZRadio הפרופ שוקי שמר חבר הצוות המייעץ לפרופ גמזו לירון וילנסקי וbardugojacob אני במקום רוני גמזו  כבר לפני שלושה שבועות הי… GLZRadio יור הכנסת לשעבר דליה איציק משתפת אצל ירון וילנסקי וbardugojacob הבן שלי בן 44 חלה בקורונה לפני חמישה וחצי חודשים אנ… GLZRadio יור הכנסת לשעבר דליה איציק על הטענות נגד רהמ netanyahu זה שטויות במיץ עגבניות כרגע יש מלחמה אחרת  לא הכל דרך העיניים ה… GLZRadio דליה איציק יור חבר הנאמנים של ביהח הדסה לירון וילנסקי וbardugojacob יש לנו שני אחים צעירים בין 50 ו55 שנלחמים על חיי… GLZRadio דליה איציק לשעבר יור הכנסת תוקפת אצל ירון וילנסקי וbardugojacob לא מצליחה להבין את היועמש מנדלבליט  מצד אחד הוא אומר… bardugojacob מנדלבליט תלמד  פרס ראש הממשלה שמיר שר החוץ וגם עוד כספי היה שם כיועצם הפרטי של פרס ושמיר כספי שותף בפגישות מסווגות של… GLZRadio חכ חיים כץ תוקף אצל ירון וילנסקי וbardugojacob מישהו פה השתגע קדושת החיים נמחקה וקדושת ההפגנות לא GLZRadio חכ חיים כץ טוען אצל ירון וילנסקי וbardugojacob לא מתאים להכריז על מצב מלחמה כי יורו לכל הרופאים בבתי החולים הפרטיים לעב… מנדלבליט תלמד  פרס ראש הממשלה שמיר שר החוץ וגם עוד כספי היה שם כיועצם הפרטי של פרס ושמיר כספי שותף בפגישות מסוו…  ניסנקורן אתם רוצים לאסור רק הפגנות בבלפור נתניהו שיפגינו מתחת לבית  יצא המרצע מהשק לא שמירת הדמוקרטיה לא ניגו…  השרה אורית פרקש ״צריך לעשות הכל כדי לשמור על הבריאות אבל במקביל גם לשמור על הדמוקרטיה לדרג הפוליטי אסור לקבוע את כ…  הנשיאה חיות פונה כעת לשר האוצר ומבקשת להחיל ההסדר שהוחל על ר הממשלה השרים וחברי הכנסת ולהפחית משכרה 10אחוז מעשה ר…  מנדלבליט היה עסוק מאוד בחודשים האחרונים בענייניו של ראש הממשלה והשתלטות על לשכת פרקליט המדינה לא היה לו זמן לכתוב…  לישראל היום נודע כי לאחרונה שוחח בנט עם מקורביו במפלגה בבורסת השמות עלו כמה אישים שאותם הם מעוניינים לצרף למפלגה…  מנדלבליט מתנגד להזמנת פרופ׳ בקשי לקבינט הקורונה ״לא יעלה על הדעת ששר יביא עימו לישיבת הממשלה מומחה צבאי חיצוני שיח…  מנדלבליט וניסנקורן מאריכים כהונת זילבר כיוון שהפכה לסמל עת בחרה להתעמת עם נבחרי הציבור בפומבי בהיותה סמל בחרו להא…  ״רהמ נתניהו הודיע למשנה ליועמש דינה זילבר שהוא מקבל באופן וולנטרי את הסדר ניגוד העניינים המקיף שלה ככתבו וכלשונו…  זילבר לא עוזבת הנציב הרשקוביץ שיושב בועדת חריגים יחד עם היועמש לא פוסל עצמו בשל מה שנראה כניגוד עניינים שכן זי…  bardugojacob קראתי כתבה מעניינת בישראל היום שאולי תעניין אותך  IsraelHayomHeb מדוע מתעקשים מנדלבליט וניסנקורן להאריך את כהונת דינה זילבר היא הפכה לסמל כשבחרה להתעמת עם נבחרי הציבור בפומבי ורבים ר…  קראתי כתבה מעניינת בישראל היום שאולי תעניין אותך  בכירי מפלגת העבודה פרץ ושמולי פותרים את מגיפת האבטלה בקלות  בנט פותר את מגיפת הקורונה והאבטלה בקלות  שאשא ביטון ל…  GLZRadio סגן שר הבריאות YoavKisch מעריך אצל ירון וילנסקי וbardugojacob אחרי יום הכיפורים נהיה חייבים להדק את הסגר GLZRadio מתווה ההפגנות  סגן שר הבריאות YoavKisch מאשים אצל ירון וילנסקי וbardugojacob היועמש מנדלבליט הנחה את הדרג הביצועי של… GLZRadio הדר מיקי הלברטל מנהל ביהח רמבם אומר לירון וילנסקי וbardugojacob לאור התחלואה הגבוהה אנחנו מכשירים את בית החולים התת… GLZRadio לקראת אי ספיקה הדר מיקי הלברטל מנהל ביהח רמבם אצל ירון וילנסקי וbardugojacob זו לא קריסה זה תעדוף יש לנו פתרונות… GLZRadio מנהל ביהח רמבם הדר מיקי הלברטל אומר לירון וילנסקי וbardugojacob אם נפתח בית חולים שדה  מאיפה ישיגו כוח אדם יקחו מב… מנדלבליט פתח את השנה החדשה בראיון למקור ראשון היה חשוב לו להבהיר כי הוא מנהל את הממשלה ובוחן מי לצידו ומי לא השרי…  מנדלבליט נלחם על מעמדו כשליט מעל הממשלה באיומים כלפי ראש הממשלה בנוגע להסדר ניגוד העניינים כדאי להזכיר לו שבלשכתו…  בג״צ בדחיית העתירה כנגד מנדלבליט ״נסמכת כאמור על חלקי שיחות מדובר בקטעיקטעים של שיחות אשר רב הנסתר על הגלוי בה…  GLZRadio עיריות עתרו לבגץ בדרישה להשוות בין מספרי המפגינים למספרי המתפללים בשטחים הפתוחים • TzvikaBrot ראש עיריית בת ים מסביר אצל… GLZRadio השרה regevmiri אומרת לירון וילנסקי וbardugojacob זמן החגים הוא זמן נכון לסגר כי גם כך המשק עובד בצמצום שלושת השבועות… GLZRadio הרב ישראל מאיר ריעני מייסד איגוד הרבנים בנועם מספר לירון וילנסקי וbardugojacob על המיזם לתקיעת שופר המונית בראש השנה … GLZRadio השרה regevmiri תוקפת אצל ירון וילנסקי וbardugojacob מי שרוצה להפר את הסגר צריך להגיד אני הולך להפגנה לכל שאר הדברים… GLZRadio השרה regevmiri אצל ירון וילנסקי וbardugojacob חכ bezalelsm לא היה צריך לעשות את זה כשרהמ בחול וכשאנחנו יומיים לפני… מנדלבליט היועץ ופרקליט המדינה חוזר בו מכתב אישום לאחר שבית המשפט קבע כי יש לקיים משפט חוזר לחוקר ברשות המיסים שהו…  GLZRadio פרשת אום אלחיראן השר לביטחון הפנים לשעבר giladerdan1 לamirbarshalom וbardugojacob אין ספק שהחשיפה האחרונה מעלה סימ… GLZRadio הסכם ישראל עם האמירויות ובחריין  השר yoavgallant לamirbarshalom וbardugojacobאנחנו משיגים הישג אדיר גם אם בנסיבות מס… GLZRadio סוגיית הסמכת רהמ לחתימה על ההסכם  amirbarshalom וbardugojacob למזכיר הממשלה אתם בדקתם את זה עם משרד המשפטים ולא התריעו… גנץ באולפן ynet לא ברור לי למה דרעי אמר את מה שאמר דווקא עכשיו הוא התחייב לרוטציה התרת נדרים ערב ראש השנה Refaelcohen98 כבוד  רפאל עלה והצלח GLZRadio הרב דוד סתיו תוקף אצל ירון וילנסקי וbardugojacob אף אדם דתי לא יבין למה מותר להפגין בבלפור ואסור להתפלל אם סגר  אז סגר… מנדלבליט בברכת שנה טובה  ״טענות על התנהלות פרקליטות המדינה ואף טענות על ההתנהלות שלי כיועץ המשפטי לממשלה בהחלט י…  hkim14050017 לא קראת  אזרח מהשורה מנדלבליט ראש הממשלה הוא גם אזרח של המדינה כמו כולם אנו נמשיך לעמוד על כך שמשפטו של האזרח בנימין נתניהו יתנהל כמ…  מנדלבליט שולט על שסתום ההדלפות מנדלבליט היחיד שיכול להורות על חקירה פלילית או משמעתית בנוגע להדלפות  כלי שליטה נו…  ניסנקורן  הדיווחים בעניין מקרה אום אלחיראן עוררו שאלות בנוגע להתנהלות הפרקליטות ומח״ש בקשר לאל קיעאן ז״לעל כן…  נעמה סוקולר העורכת הראשית של גלובס מתארת לחצים שהופנו אליה כעורכת עיתון לא לעסוק בתקלות והמחדלים של ראשי מערכת אכי…  ניסנקורן הצהיר אמש אצל רינה מצליח שהשחיתות היא בפוליטיקה ולא מערכת אכיפת החוק הבוקר פנה לחבר הקרוב של מנדלבליט רוז…  פרקליט המדינה בדימוס שי ניצן הסביר מהמקפצה שנבחרי הציבור בעלי הסמכות בחוק להקים ועדת חקירה ממלכתית לבחינת התנהלות…  מנדלבליט ניצן בן ארי ולמברגר אחראיים לקריסת אמון הציבור בראשי מערכת אכיפת החוק ברחוב צלאח אדין הביקורת המוטחת ב…  sarabeck75 תכירו זה חכימא האתר הכי חם ברשת עכשיו    מוזמנים להעלות את הסיפור שאהבתם עם התיוג הסיפורשליחכ… שי ניצן בטוח שהציבור מטומטם הזחיחות שכל מה שיוצא מפיו הוא תורה מסיני גורמת לאמת להחוויר הפרקליטות מחוייבת לקבוע ה…  ״הנבצרות שלו נתניהו צריכה להיות מהותית״ סימה קדמון המשפטנית הבכירה הסיסמה החדשה שהונפקה לכל השופרות ממסדרונות מפ…  “רשלנות הופכת למזימה טעות בשיקול דעת לפשע נראה שאנחנו לא יכולים אחרת״ כך קובע נחום ברנע לגבי התנהלות התקשורת לגבי…  ניצן נתן מחמאות למנדלבליט עכשיו אנחנו רגועיםמציע לניצן לאמץ את המלצתו לראש הממשלה ולעמוד לדין בפני בית משפט ע…  שי ניצן מתפלא הכיצד הוא ומנדלבליט נהפכו לאדם לא ראוי לאחר שראש הממשלה בחר בהם והפליא במחמאות וזאת לאחר שנים רבות בע…  מנדלבליט טבול כל כולו בפוליטיקה ׳ניגוד עניינים׳ מונח בו מאיים היועץ כל אימת שהקרקע נשמטת תחת רגליותפסיק לאיים ע…  גנץ כעת ״כחול לבן מחזיקה במשרד המשפטים כדי להגן על בתי המשפט ועל מערכת אכיפת החוק שתבטיח את חוסנה הדמוקרטי של ישראל…  מנדלבליט כינס את בכירי מפלגת צלאח אדין לאור האמת שמתחילה לבצבץ באשר להתנהלות ראשיה ׳דוברו׳ גליקמן צייץ כעת ״במשרד…  GLZRadio היועמש מנדלבליט עונה לרהמ netanyahu הטענה שפרקליטות המדינה קבעה אי פעם כי אבו אלקיעאן הוא מחבל  טענת כזב  ErelYuval amitsegal אם זה נכון הרי שהסיבה היחידה למהפך כה דרמטי היא הפרסומים הלא מחמיאים על הפרקליטות תג המחיר הגדול בהיסטוריה  GLZRadio יור הכנסת יריב לוין תוקף אצל ירון וילנסקי וbardugojacob התמונה של ראשי משטרה פרקליטות ומחש האוחזים זה בגרונו של זה ו… GLZRadio עימות במליאה  יור הכנסת יריב לוין אומר לירון וילנסקי וbardugojacob תפקידו של שר המשפטים הוא לא להגן באופן אוטומטי על… GLZRadio עו״ד עודד סבוראי המייצג את דובי שרצר שהגיש עתירה נגד המשטרה והפרקליטות מסביר אצל ירון וילנסקי וbardugojacob הוא נתקל בח… GLZRadio עוד עודד סבוראי המייצג את שרצר אומר לירון וילנסקי וbardugojacob בחקירת האירוע שבו מת אבו אלקיעאן שרצר הגיע למסקנה שהו… GLZRadio פרשת אום אלחיראן  השר alonschustermk אצל ירון וילנסקי וbardugojacob הבעיה היא האם מדברים על העניין הקונקרטי של שי ניצן… GLZRadio השר alonschustermk איש כחול לבן מגיב על הדברים אצל ירון וילנסקי וbardugojacob יש הסכמה בינינו שלא עושים מהלך משמעותי… amitsegal מסמך משטרתי חושף   החוקר רוטנברג ״ידע על בדיקה נגד נוני מוזס ועל קיום חומרים שנגעו לה״ avishaigrinzaig הרי המסמך לפניכם  GLZRadio רהמ netanyahu ישא הצהרה בעניין התנהלות המשטרה והפרקליטות  יור הכנסת יריב לוין אומר לירון וילנסקי ירון וילנסקי וbardug… מנדלבליט היועץ המשפטי לממשלה ופרקליט המדינה כל ה׳טוב׳ הזה שיוצא כעת לציבור היה כולו במשמרת שלך כר׳ התביעה הכללית  האחריות עליך גנץ אשכנזי רמטכלים לשעבר נותנים יד להגדלת אחוזי פנסיה תקציבית לפורשי צה״ל בניגוד לחוק כפי שקבעו המשפטנים במשרד ה…  GLZRadio פרשת הטיוח בתיקי נתניהו  השר לביטחון הפנים AmirOhana לamirbarshalom וbardugojacob המשטרה כנראה לא תבדוק את הדיווח… GLZRadio השר AmirOhana אומר לamirbarshalom וbardugojacob האיש החזק ביותר בממשלה לא חבר בה שמו מנדלבליט צריך לתקן זאת צילום… GLZRadio סגן השרה חכ אורי מקלב לamirbarshalom וbardugojacob המכתב היה על דעת המפלגות החרדיות GLZRadio שלמה למברגר המשנה לפרקליט המדינה לעניינים פליליים אומר לamirivgi הציבור לא נחשף לחוות דעת של מחש שאומרת לא לפתוח בחקיר… מנדלבליט שלח את למברגר לתקשורת להגן על הפרקליטות למברגר כפרקליט מחוז תל אביב לא העביר התיקים הפליליים בהם עסקה רות…  מנדלבליט פרקליט המדינה תגובת הפרקליטות נמסרה אמש לאחר חצות תוך זמן קצר לאחר פרסום ההתנהלות ה של בכירי הפרקליטו…  ניסנקורן כעת  ״מערכת אכיפת החוק תמשיך לבצע את עבודתה בעצמאות וללא מורא כי כך ורק כך תתקיים כאן דמוקרטיה״ דמוקרט…  ניסנקורן מנדלבליט האם נחשפתם להחלטות שי ניצן מומי למברגר ראשת מח״ש להחלטות ר אח״ק ר להב  הרי זו טענתכם באופן…  ״על כל פנים הם אינם עוד שוטרים ועל כן אין עניין ציבורי בפתיחה בחקירה במישור הפלילי  הנימוק לאי חקירת ר אגף החקירו…  GLZRadio סגן שר הבריאות YoavKisch מחזק אצל ירון וילנסקי וbardugojacob את ממונה הקורונה גמזו עושה עבודה קשה וכפויית טובה ואני ר… GLZRadio ההפגנות מול מעון רהמ  הפרופ RanBalicer ראש מערך החדשנות של כללית אצל ירון וילנסקי וbardugojacob ההחלטה להחריג בין ה… GLZRadio סגן שר הבריאות YoavKisch מפנה אצבע מאשימה אצל ירון וילנסקי וbardugojacob חברת הכנסת sbyifat עשתה נזק עצום בפגיעה באמו… GLZRadio סגן שר הבריאות YoavKisch על האפשרות לסגר כללי אם התחלואה תמשיך לצמוח בקצב הנוכחי  לא רואה דרך להתחמק מזה  צילום יונת… GLZRadio סגן שר הבריאות YoavKisch מאשים אצל ירון וילנסקי וbardugojacob משימת חייהם של כחול לבן היא לקיים הדבקות בהפגנות צילום… GLZRadio בצל הסגר המתקרב ראש עיריית ירושלים MosheLion אומר לירון וילנסקי וbardugojacob חלק מהשכונות החרדיות האדומות  צהובות ב… GLZRadio ראש עיריית ירושלים MosheLion אומר לירון וילנסקי וbardugojacob הפיתרון היחידי כשמדברים על סגר  זה סגר כללי אבל יש מח… GLZRadio שר הדתות הרב יעקב אביטן תוקף את AvigdorLiberman אצל ירון וילנסקי וbardugojacob לא ייתכן שמישהו שיושב בכנסת ישראל אומר… GLZRadio שר הדתות הרב יעקב אביטן מבהיר אצל אצל ירון וילנסקי וbardugojacob גם הם ישתפו פעולה עם הממשלה כולנו מחוייבים להחלטות ב… GLZRadio ברקע העלייה בתחלואה שר הדתות הרב יעקב אביטן אומר לירון וילנסקי וbardugojacob אנחנו נערכים לכך שבתי הכנסת יישארו פתוחים… הַמרָדָה היא עבירה של הטפה נגד הסדר החברתי הקיים או השלטון החוקי במדינה ליברמן בקריאה לציבור לא להתנהל בהתאם להנ…  GLZRadio ראש עיריית בני ברק הרב אברהם רובינשטיין תוקף אצל ירון וילנסקי וbardugojacob המכתב לרהמ  לא מרד לא אשתף פעולה אם אני… GLZRadio הפרופ עידית מטות מצוות המומחים של הפרופ גמזו לירון וילנסקי וbardugojacob בגל הראשון העומס בבתי החולים היה בעיקר במרכז א… GLZRadio רהמ נכנע לחרדים חכ מיכאל מלכיאלי דוחה אצל ירון וילנסקי וbardugojacob את ההאשמות אף אחד לא נכנע ההחלטה על סגר הייתה לא… GLZRadio ראש עיריית בני ברק הרב אברהם רובינשטיין טוען אצל ירון וילנסקי וbardugojacob ניתן למגר את ההדבקה בעיר ללא סגר נקבל רשימ…  IsraelHayomHeb המשחק הפוליטי בישראל נפתח מחדש מהלך הבחירות הבאות ותוצאתן ייקבעו במידה רבה בזיקה להצלחת OferShelah ו naftalibennett… רוזן לברוך קרא  דן אלדד אמר לי שלא נפל פגם בהתנהגות מנדלבליט אנחנו כעת רגועיםרוזן החבר הוא לא הכתובת לביקורת…  סיסמת המפלגות ׳רק לא ביבי׳ כבר לא מצליחה להחזיק את המאבקים והאגו שהוסתרו בכח מהציבורמי הציף את פרשת מאיר כהן מס…  ניסנקורן על השר אוחנה ״ מטריד ששר מרשה לעצמו לדבר ככה על היועמש להתקפותאין משמעות ברמה המעשית אלא רק הוצאת קי…  אבישי גרינצויג מגלובס מפרסם “נודע כי במספר מקרים ב20192018 תקף מנדלבליט בפורומים פנימיים הדלפות שמקורן בפרקליטות…  GLZRadio בדרך לפריימריז ביש עתיד חכ RamBenBarak אומר לירון וילנסקי וbardugojacob כרגע המטרה היחידה של יש עתיד בראשות יאיר לפי… ׳שומרי סף׳  רון דול היועץ המשפטי של נציבות שירות המדינה ושלומית ברנע היועצת המשפטית של משרד ר׳ הממשלה מכהנים למעלה…  עפר שלח ברכות על האומץ  כעת בוא ספר לנו את כל מה שהחבאת והסתרת מהציבור לגבי יאיר לפיד למה אתה ראוי ממנו להנהגת ׳יש עתיד׳ מנדלבליט  ׳שומר סף׳ מונח שהמציאו המשפטנים יש פקיד היום  מרידור כמשל שלא מתהדר במונח זה מונח שהומצא לאפשר לפקיד…  חיות בחרה יועץ תקשורת שלישי תוך כשנתיים עוד גוטליב נבחר לתפקיד במשרת אמון ״בשל ניסיונו העשיר בייעוץ בין היתר ב…  GLZRadio יור הסוכנות היהודית IsaacHerzog מספר לamirbarshalom וbardugojacob כבר קיבלנו פניות לעלייה ארצה מאיחוד האמירויות צי… התקשורת מחבקת ומהדהדת את הבכי והנהי את מרידור הבן  שר האוצר לא מקשיב לא מזמן לישיבות מרים קולו היכן היתה התקש…  חקר האמת׳ סיסמת מנדלבליט לאורך כל הקדנציה שלו להצדיק מחדליו הרבים היועץ היום מנמק אי מסירת תמליל מתוקן המשקף את ה…  הנהלת בתי המשפט פעלה מול גוגל ישראל להעלים כתבות ביקורתיות נגד שופטים כך פרסם נטעאל בנדל ראשי מערכת אכיפת החוק במ…  מסינג היועץ המשפטי במשרד האוצר היה המתמחה של שי ניצן קיבל אישור מיוחד מהיועץ המשפטי לממשלה ונציב שרות מדינה להשת…  GLZRadio השר Israelkatz מגיב אצל ירון וילנסקי וbardugojacob  על דברי יור ההסתדרות בר דוד מי שיעבור לתחום האיומים והשביתות  יכו… GLZRadio מסינג היועץ המשפטי במשרד האוצר היה המתמחה של שי ניצן קיבל אישור מיוחד מהיועץ המשפטי לממשלה ונציב שרות…  GLZRadio הטיסה ההיסטורית לאבו דאבי  השר Israelkatz מברך אצל ירון וילנסקי וbardugojacob ממש חלום שמתגשם כל מי שמנסה להמעיט או ל… GLZRadio פרויקט בנייה ראשון של איחוד האמירויות בארץ השר Israelkatz לירון וילנסקי וbardugojacob מנהל נמל דובאי מסתובב עכשיו בארץ… GLZRadio שר האוצר Israelkatz מגיב לדברי שאול מרידור המכתב שקרי לחלוטין מומצא ופוליטי התוכניות שהבאתי אושרו ברוב גורף בממשלה ובכנ… GLZRadio שר האוצר Israelkatz מספר לירון וילנסקי וbardugojacob נפגשתי אתמול עם היועמש ויזמתי הליך להדחת מרידור ציינתי שאין לי א… GLZRadio שר האוצר Israelkatz מגיב אצל ירון וילנסקי וbardugojacob על טענת מרידור לשיבוש אומדנים תקציביים זה שקר בוטה אם הוא כתב… ״מנדלבליט החל בבירור טענות בנוגע להתנהלותו של השר ישראל כ”ץ כלפי בכירים באוצר״ מדווחים ׳אנשי התקשורת׳ המקושרים לי…  ניסנקורן מסתבר שהפך ליהיות נציג הפקידים בשרות המדינה  ״שאול מרידור הוא איש מקצוע תרם תרומה גדולה לכלכלת ישראל…  naamasik אפשר לקרוא את מכתב ההתפטרות של שאול מרידור כמו שהוא ואפשר לקרוא אותו קצת אחרת הצעת קריאה אלטרנטיבית בחמש נקודות  הנשיא ריבלין  אני מצר מאוד על התפטרותו של שאול מרידור מתפקידו כראש אגף התקציבים במשרד האוצר הצעד הקשה בו נקט והמ…  FadidaOren פרסום ראשון ערן זהבי סיכם במכבי תל אביב אחרי מו״מ קצר עם גולדהאר הבעלים פתח את הכיס והציע חוזה על סך מיליון יורו עם בונו… אלשיך טוען שחייבים ׳לשחק בכללי המשחק׳ כללי משחק בו מנדלבליט ואלשיך עושים פוליטיקה מהבוקר ועד הערב והאזרח צריך להור…  פתטניסנקורן אחראי ל׳רפורמה׳ במח״ש איזרוח החקירות 3 חוקרי משטרה רפורמה היועץ מנדלבליט כלל לא ׳שייך׳בדיחה…   אלשיך כל כך נעלב שלא הוזמן לקבינט והמציא ״חוק״ שלא קיים כשטען ״זה חלק מהחוק״ להזמין אותו איש קטן bardugojacob   רוני אלשיך ״אני בהלם שהציבור שותק על העובדה שלא מינו מפכ״ל״ הציבור חכם לאחר 3 שנים שהמפכ״ל אלשיך היה עסוק בתקשורת…  ניתן להניח שהמחבל הנתעב לא יידע את בני משפחתו לאור פסיקתו של בג״ץעל כוונתו לרצוח היום יהודי בליבה של ישראל דאג ל…  GLZRadio השר MichaelBiton4 על המחלוקת בנוגע למיוניי הבכירים את כל המינויים  כולל ממלאי מקום  יש לעשות בהסכמה של 100 לא לעשות שו… GLZRadio השר TzachiHanegbi מודה אצל amirbarshalom וbardugojacob החלום זה לחולל ממשלת אחדות והוא במידה רבה נשבר או נשחק צילום… GLZRadio השר TzachiHanegbi תוקף אצל amirbarshalom וbardugojacob זה אחד מסלעי המחלוקת בחודש האחרון  כחול לבן לא אפשרו לכונן את… GLZRadio המתיחות בגבול עזה  השר TzachiHanegbi מאיים אצל amirbarshalom וbardugojacob אחרי 5 שנים שהיינו מאוד סובלנים כלפי אדם ב… GLZRadio השר במשרד הביטחון MichaelBiton4 מצהיר אצל amirbarshalom וbardugojacob יש פריצת דרך דרמטית בקידום חיסון לקורונה בפיתוח מ… GLZRadio חכ יעקב אשר מיהדות התורה תוקף אצל amirbarshalom וbardugojacob הממשלה צריכה לקבל את ההחלטה שלה לפני כל המכתבים לראשי מ… GLZRadio המשבר הפוליטי  השרה regevmiri אצל ירון וילנסקי וbardugojacob לא הגענו להסכמות לגבי הוועדות הפריטטיות ומינויי הבכירים… GLZRadio השרה regevmiri טוענת אצל ירון וילנסקי וbardugojacob ברור לחלוטין שGabiAshkenazi מאתגר את gantzbe איך יכול להיות שא… GLZRadio השרה regevmiri תוקפת אצל ירון וילנסקי וbardugojacob שר המשפטים צריך להיות נקי אני מצפה מAviNissenkorn שיפנה למנדלבלי… GLZRadio השר Izhars7 מעריך אצל ירון וילנסקי וbardugojacob נסכים גם על דחיית מינוי הבכירים ונקים ועדה לבחינת ההליך GLZRadio השר Izhars7 מכחול לבן אצל ירון וילנסקי וbardugojacob לא יודע אם פשרת האוזר תעבור במבחן בגץ GLZRadio השר Izhars7 מכחול לבן טוען אצל ירון וילנסקי וbardugojacob אם לא היינו בממשלה לא היה שלום עם איחוד האמירויות כי netanyah… GLZRadio בדרך לבחירות יור הקואליציה zoharm7 אומר לירון וילנסקי וbardugojacob ייתכן מאוד שכדאי שנלך למערכת בחירות  אלא אם ההסכם… GLZRadio יור הקואליציה zoharm7 משיב מתקפה אצל ירון וילנסקי וbardugojacob שוסטר מבוהל לדעתי הוא ימוקם מחוץ לעשירייה הראשונה בכחול… GLZRadio הליכוד נגד ניסנקורן  חכ zoharm7 אצל ירון וילנסקי וbardugojacob לא מרוצים מההתנהלות שלו GLZRadio חכ zoharm7 המקורב לרהמ מאשים אצל ירון וילנסקי וbardugojacob כחול לבן טירפדו את החלת הריבונות בוושינגטון מישו שמע מה אומרים חברי הכנסת מימינה וש״ס על עיתוי גניזת התיק נגד ניסנקורן והסתרתו מהציבור על ידי מנדלבליט האם הם מתודרכים גם  IsraelHayomHeb הגילוי שומט הלסת בדבר גניזת תיק הבדיקה הפלילי נגד שר המשפטים ניסנקורן על ידי היועץ המשפטי לממשלה מנדלבליט ערב כניסתו ל… התנהלות היועמש גובלת בניצול כוחו לרעה  החבר רוזן שוב ינקה אחרי מנדלבליט  amitsegal לא בשולי הדברים המצב שבו תיק נותר פתוח במשך למעלה משנתיים נגד איש ציבור אף שלא מבוצעת בו כל פעולת חקירה  בלתי נסבל ומזמין… לקרוא את תגובת היועץ המשפטי לממשלה ופרקליט המדינה מנדלבליט ולא להאמיןתיק פלילי פתוח כ  34 שנים בלי שום פעולת ח…  מנדלבליט מחזיק תיק חקירה פתוח נגד חבר כנסת המיועד לתפקיד שר המשפטים תיק פתוח משנת 2017 ממתינים כ 4 שנים לרגל כני…  BiniAshcknasy amitsegal היי עמית מאחר ששנינו בהכנות לשבת המתנו והנה היא הגיעה  17 במאי הושבעה הממשלה בכנסת שר המשפטים ניסנקורן נכנס לתפקידו באותו חודש גונז מנדלבליט במחשכים את התיק הפלילי כנגד…  פרשת מנדלבליטניסנקורן היכן חוות הדעת בנושא ניגוד העניינים בין השניים מנדלבליט כתב חתם וגנזוכעת ניסנקורן מדבר…  כעת פורסם שמנדלבליט גנז בדיקה פלילית כנגד ניסנקורן שר המשפטיםללא יידוע הציבורמנדלבליט לא מפרסם מתי גנזמי י…  ניסנקורן כעת לכל מי שמנסה להפיץ שקרים מופרכים ולהמציא פרשה לא תרתיעו אותי לרגע מהגנה על שלטון החוק עלובי נפש המ…  ה׳ארץ׳ היום  מאות נשים מדווחות מידי שנה על אונס קבוצתי אך רק מעטות פונות למשטרה משבר האמון בין נפגעות תקיפה מיני…  מנדלבליט מתי גנזת הבדיקה הפלילית כנגד שר המשפטים מדוע לא אפשרת למשטרה לפתוח בחקירה על מנת לבסס ראיות לחשדות כנגד…  המשטרה בדקה חשדות לכאורה כנגד שר המשפטים אבי ניסנקורן בגין ביצוע עבירות פליליות בתקופת הבחירות לתפקיד יו״ר ההסתדרות…  היועמ״ש מנדלבליט מייעד לתפקידה את עורך הדין גיל לימון עוזרו הבכיר״ לאחר שבסוף החודש הבא תסיים דינה זילבר המשנה ליו…  matanamirr ErelSegal נכון קרדיט אראל סגל פורסם כעת שמשטרת ישראל ניהלה בדיקה לחשדות לכאורה כנגד שר המשפטים ניסנקורן בגין ביצוע עבירות פליליות בתקופת הבחירות…  ErelSegal באגף החקירות ופרקליטות המדינה ובאישור היועץ המשפטי לממשלה  למען הסר ספק ועל מנת למנוע פרסומים שגויים נדגיש כי השר ניסנקו… ErelSegal להלן התייחסותנו  בשנת 2017 פורסמו בתקשורת מס ידיעות לגבי הבחירות לתפקיד יור ההסתדרות שבהן הועלו טענות שונות כגון הבטחות… ErelSegal משטרת ישראל ניהלה בדיקה לחשדות לכאורה כנגד שר המשפטים אבי ניסנקורן בגין ביצוע עבירות פליליות בתקופת הבחירות לתפקיד יו״ר ההסת… בימים האחרונים התנהלו בתוך כחול לבן שיחות בנושא בישיבה סגורה הביע ניסנקורן התנגדות לכך אשכנזי סוכם שמינויים ייעשו…  ראש התביעה הכללית היועץ המשפטי לממשלה ומ״מ פרקליט המדינה מנדלבליט  אונס מזעזע את המדינה והפקיד נעלם ונאלם דום מ… </t>
+  </si>
+  <si>
+    <t>Sign up and watch my hot shows Its FREE   nothing at all</t>
+  </si>
+  <si>
+    <t>אבדה קשה לחברון בפרט ולעם ישראל בכלל יהי זכרה ברוך  Menachemcohen1 רפואה שלימה צדיק Menachemcohen1 רפואה שלימה מוזמן להשתמש בזה בפייסבוק טוויטר  לפחות זה אמנם רחוק מאוד ממה שצריך להיות ואם מחבלים ערבים זוכים לתפילה קבוצתית לא ברור לי מדוע הוא לא אבל עדין יש ח…  תן בנו מידת הרחמים   אמרתי לכם  ivgiz זו אותה מדינה כאילו  להם מותר הכלאמנם אני נגד שימוש בתקשח כדי למנוע הפגנות אבל קשה להבין איך בישראל 2020 יש אזרחים סוג א מפגיני ב…  וכשלא מאפשרים ליהודים להתפלל בהר הבית גברת זילבר גם נזעקת  אם זה נכון זו חרפה  avishaigrinzaig לא סותר והאמת שכהל שעובר הזמן והמפגש שלי עם חלק מהפוליטיקאים מעריך אותו עוד יותר בתוך ים של פוליטיקאים לא אמינים רובם מילה זו לא מילה ומה שמעניין אותם זה הכסא משה פייגלין תמיד היה בעיני סמל ל…  מומלץ בחום  אני מוכן  הרגע שבו אמנון לוי ואני מסכימים בעניין פסיקת בגצ על הרב שמואל אליהו  עולה בשעה הקרובה אצל אמנון לוי להגיב על פסיקת בגצ בעניין הרב שמואל אליהו צודקת בכל מילה אבל לצערי לא מסוגל לשכוח שדינה  זילבר פרחה בתקופתך  כמה כיף הלחץ של השמאלנים המטורללים שיודעים שרוב הלקוחות שלי משתחררים או יוצאים זכאים הלחץ אוכל אתכם הא  העיקר שאת יזבק הם לא פסלו אבל כלפי מנהיג ציבור איש אמת גדול דור מפעילים את כל התותחים ומנסים לסתום לו הפה מביש  marikshtern מבין את התסכול שלכם בשמאל המטורלל  מכמות הזיכויים והשחרורים של הלקוחות שליתמשיכו להיות חמוצים ARotmensh מבין את התסכול שלכם בשמאל מכמות הזיכויים והשחרורים של הלקוחות שליתמשיכו להיות חמוצים לא כל בחור שצריך טיפול ועזרה זה אוטומטית ניסיון לפגוע במפגינים שמאלנים הסרטון מוכיח שלא רצה לפגוע ומי שרוצה לפג…  כמה נכון  nevokatz1 ברוך דיין האמת אביך היה אדם יקר וצדיק זזכה לחנך דור אין משטרה בירושלים אם זה היה הפוך  הערב  במוצאי החג  שנה מתוקה  drmichaelbenari איש השנה בנצי גופשטיין אשת השנה ענת גופשטיין מסירות נפש לבנות ישראל במקצועיות ובאהבה ללא גבולות טירוף הדעת התיק הזה היה חייב להסתיים בזיכוי יודע שעורכי הדין המוכשרים יערערו לעליון ורק מתפלל שימצאו אוזן קשבת שת…  הנחיות הסגר שמטילים על ישראל מלמדות כי הסגר מלא חורים גבינה שווצרית אטומה לידו לא תהיה שום בעיה לתרץ תירוצים  ו…  אחלה תקשורת ימנית  tzvisuccot בית משפט פסל לגמרי את ההודאות שלו שנגבו בעינויים הבחור מצולק לגמרי מההתעללות בחקירות כבר התחיל חיים חדשים למי דחוף לשלוח… שמח שגם בפרקליטות הבינו את מה שאמרתי מהרגע הראשון אין בסיס לחקירה אין בסיס לטענות ואין שום תקדים לאירוע כזה אם ה…  YinonMagal מועצת העיתונות היקרה אחרי שתזכרו לגנות את דבריו הבהמיים והמסתים של ירון לונדון שקרא בזמנו ברצינות לירות על מתנחלים אני… מכיר את חומר הראיותייצגתי בהליך המעצרהיום נשלח אדם חף מפשע לשלושה מאסרי עולם ההודאה שלו נתנה בעקבות עינויים ש…  YairNetanyahu  בואו נשמע עכשיו את כל אבירי חופש הביטויאופנהיימר זהבה האגודה לזכויות האזרח נאלמתם דום  הערב  אפילו שלא יהיה סגר במוצש מומלץ להישאר בבית  שמח שבסכנין הבינו שביזוי הטקס זה דבר פסול ומי שעשה זאת ראוי לכל גינוי  וגם שמח שהוסרה תביעה מיותרת מבלי שאשלם שקל…  tzvisuccot Einavschiff  בתפקיד המטרחן היומי עם ה אויאויאוי הקבוע  והפעם על NahumDana שאשכרה העיזה לראות משהו מעבר לקו הירוק שהוא לא… arielelharar על החתונה ברהט הערב אני מאמין שלא תראו את זה בכותרות הראשיות אנחנו פה בשביל שכולם יראו  כך סוחטים ראש ממשלה באיומים  chanamel1 על רקע גמגומי בנט ושקד זמן טוב להזכיר מי נתן גיבוי מלא בזמן אמת לשי ניצן ואביחי מנדלבליט לעשות ככל העולה על רוחם צפו  מת… לצערי נתניהו לא שמע לי שי ניצן לכלא כתבה במבט  על מינויו של ניצן לפרקליט המדינה כאשר הפצרתי  בממשלת ישראל לא למ…  drmichaelbenari ׳אין חשד סביר׳  ניצן העבריין מנאייכ לעניים עוול  כמי שייצג את עמירם בהליך המעצר ונחשף לעינויים הקשים שעבר אין לי ספק שאסור להרשיעו מקווה שלא יתייאש ויערער ל…  newsbuzznet בן גביר תובע מיליון שקלים מערוץ 7 – כל הפרטים  הם ליכלכו שיקרו סילפו לאורך כל מערכות הבחירות והתנהלו הפוך מאיך שאתר חדשות  מתנהל על כל אלה החרשתי אבל ההתנהלות…  השבח לבורא עולם עוד ניצחון בבית המשפט  ילמדו שוטרים לא לעצור אנשים שמתנגדים ל מצעד הגאווה רק בגלל השקפתם חופש…  רק בישראל  מוזר לא ראיתי את כבוד הרב בעצרת המחאה לרצח של הרב שי אוחין בפתח תקווהטוב הוא היה יהודי  העיקר שיש מזרח תיכון חדש אין לי בעיה עם שלום מול האמירויות בתנאי שזה שלום תמורת שלום אבל יש לי בעיה עם מדינ…  יום עצוב אורי לא רק עיתונאי מקצועי בחסד אלא איש אמת לצערי לא פלא שנזרק מקווה שערוץ 20 גלי ישראל תחנת שידור חרד…  שלום כיתה א  היום הכנסנו את דוד ציון המתוק לכיתה א בבית הספר הנפלא ממד חברון  גם בפעם החמישית ההתרגשות גדולה…  עושה רושם שהיא באה לעבוד שאפו  ביזיון  drmichaelbenari עתידות ההתפטרות של  מרידור לא תעבור ללא התערבות של ׳המשפחה׳ מבית המשפט העליון מרידור בשר מבשרם הוא זרוע שלטונית של… עולה אצל אמנון לוי בעוד דקה מקווה שהמסר יעבור אני יודע שיש הרבה שוטרים נפלאים ויקרים אבל לא אתן שיתעללו בציבורים שלמים סתם  דם יהודי אינו הפקר עכשיו בהפגנה בפתח תקווה  הבעיה שאת כיהנת כשרת משפטים  במשך 4 שנים ומלבד שינויים קוסמטיים לא באמת עשית רפורמה במערכת חבל  לירן היקר המצוקה היא מצוקה אמיתית ואסור לזלזל בה בין אם הוא מצביע לביבי או לעוצמה לאזרחי ישראל מגיע ללכת ברחוב מב…  שמח שהשכל הישר גבר ומקווה לקבל בקרוב הודעה רישמית מרשתי טענה לאורך כל הדרך כי מדובר בהתנכלות רק משום שסירבה להעיד…  העיקר שחאן אל אחמר עומד על תילוכפיים לבגץ  מקווה שהתקשורת תתעסק גם בזה  יום שחור למערכת המשפט שהגענו למצב כזה  kahanezadak זה לא סוד שהיו מריבות גדולות עם bezalelsm בגלל הבחירות וההחרמה שלנו אבל יישר כח גדול שהוא מעלה את הנושא של מיהו יהודי כ… carmeldangor פרסמנו במהדורה דקירה שבה נפצע אדם אנושות לפני כעשרה ימים  נחקרת במערכת הביטחון כפיגוע הדקירה דווחה בהתחלה כקטטה ומאז… urieltzaitlin שמאלנים יקרים איפה הייתם כשהם משכו בזקנים של חרדים כשהם היכו חרדים בני 70 כשהם תפסו באשכים של נערים חרדים בהפגנות כש… ayeletlash9 אבי בן שחר בן ה70 מכוכב השחר נכלא לראשונה בחייו בשנה שעברה הוא הושם במגרש הרוסים בני המשפחה חששו לחייו ודרשו מהשופט לה… כל מילה אמת רק חבל שהנציגים הפוליטיים שמתיימרים לייצג את הציונות הדתית שכחו את זה  TalAngel1 אתה חוצפן נתתי ליוצאי אתיופיה קורסים בחינם המשפטים YairNetanyahu רוצים הוכחה שישראל קיימת בחסד האל עובדה ששרדנו את כרמי גילון כראש שבכ gabigr007 מת על הבת ימים אבל זה ממש לא שייך מגעיל גזעני ובעיקר לא חוקי  עכשיו בנתניה  למה בהפגנות של השמאל הם תמיד מפרים את החוק ואגב אני כמובן בעד חופש הביטוי אבל האדם שבתמונה היה אמור להיות סמל…  yoni02cohen BiniAshcknasy מתוק שלי נעשה לכם גם קורסים בלשוןלא רק בדמוקרטיה BiniAshcknasy ביני יקירי אני יודע שאתה אדם חכםפשוט תספור עד 10 ואז תגיב אתה באמת לא מבין ההקשר אמת  mendystarck רפואה שלימה מביש  מאבדים את ירושלים צפו איך בריון מנוול מרביץ לילדים ומנסה להגביר השליטה הערבית בירושלים ומשטרת ישראל עוצרת כמובן את…  את טטיאנה סוסקין שתלתה כרוז נגד האיסלם שלחו לשנתיים בכלא דברים שאמרתי בהפגנה נגד הסדרה האנטישמית  בהפגנה נגד הסדרה האנטישמית  כולנו נהיה שם  EAnavin ממשיכים לכתוב דברים כמו שאתה כותב רק אל תגיד שלא הזהרתי ינון אחי זה מה שיש לך להגיב על המאמר אז כנראה שאתה יודע שאני צודק  תסתכלו על הפרצוף של אורי זכי ותבינו למה נתניהו  עושה מדיניות של השמאל  תכף מתחילים  WinnieRottem מעריך אותך מאוד אבל כדאי להפסיק עם ההשמצות אמרנו שנתמןך בו אם יעשה מדיניות ימין UdiBenDavid אודי יקירי זה לא ממש דומה  עם נתניהו יש לכולנו ניסיון לטוב ולרע רק מקווה שלא באמת האמנתעצוב  EAnavin עניתי מספר פעמים התשובה שזו השמצה  אבל יש כאלה שאני גם תובע אותם על אותה השמצה ואחר כך הם עושים במכנסים  רוצה להצטרף אליהם לא חייבים ללטף את נתניהו כשלא מגיע לו ולא תמיד צריך להאשים אחריםאולי הגיע הזמן להודות שחייבים לשמור על נתניהו מימי…  אמרנו או לא בלי עוצמה יהודית אין ממשלה ימנית  1gDArPt8EiaPBXk סיפורי סבתא בינתיים מי שהצביע למפלגות שהזכרת קיבל ממשלה כזאת רות גביזון הייתה מההגונות והישרות והחכמות במערכת המשפט הישראלי אמנם בחלק מהדברים עמדתי שונה ממנה כמרחק מזרח ממערב…  לשמעון ריקלין בידידות דברים שפרסמתי באתר ynet  לצהל באהבה משלוח ראשון מתוך רבים רביםשל משלוחים ופינוקים לחיילינו האהובים בעמדות שלידנו בשיתוף עם גילת בנט ותוד…  שמעון יקירי תפסיק להיות פרייאר  YairAltman IsraelHayomHeb כל הכבוד  תכלס  EHarfuf וביבי המלךאחלה סיפוח EHarfuf בטח רק אני אשם תראו מופתעיםלנתניהו אין אומץ  natihatar בהצלחה יקירי עשית עבודה מצויינת הי שליאת צבועה  YinonMagal ב9 בפטריוטים patriotim20  עידית סילמן iditsilman  יאיר לוי iairLevy  ביני אשכנזי BiniAshcknasy  איתמר בן גביר itam… Aviadbr יקירי גם כאשא עושים דילים צריך קווים אדומים haimmisgav חיים יקירי זו הייתה ממשלת ליכוד matanhuberman IsraelGaley YotYotam AyeletShaked noamfathi נכון ובהחלט יש לה זכויות לרגע אחד אני לא שוכח א…  hgkkuh גם אם אתה עובד עובדת בימינה צריך לדעת שאסור לשקר שקד מינתה את קרא לצערי לא שוכח שאיילת שקד מינתה את השופט גורג קרא יש לאיילת זכויות לא מעטות במינוי שופטים אבל מינוי קרא היה טעות…  פחחחעוד תגובה כזאת ואבדנו  מזוז וקרא אלה הם השופטים שמייצגים את דעת הרוב בבית המשפט העליון של מדינת ישראל כך נראה בית המשפט העליון שלנו וזו ה…  yaronavraham באלגנטיות בועז גולן עיתונאי אמיץ ישר ובעיקר אוהב ישראל גדול שאפו  avribloch המשטרה פונה בצורה יפה למפגינים נגד נתניהו ומתחננת שיתחילו להתפזר  אני מנסה להיזכר כמה פעמים המשטרה התנהלה ככה בהפגנות מול ה… ולך אני מאחל  לשבת בכלא  כנער בן 16 חוזר בתשובה ממבשרת ציון התחלתי ללמוד גמרא עם פירוש שטיינזלץ לא ברור לי כיצד הייתי יכול ללמוד בלי הפירו…  על עלילת הדם דן חלוץ יחטוף תביעה  אוהדי ביתר ירושלים הגיעו למשרדי כדי להפסיק את ההתעללות המשטרתית בהם מעצרי שווא רדיפותהתנכלותנמאס להם והם צודקים  ItshakWaserlauf מזל טוב יצחק היקר אחרי שקראתי שהיה מתמחה של השופט גובראן הכל ברור  רק ממשלה מטומטמת מציעה סיוע לאויבים שלה מיצר על כל ילד שנפגע אבל כשמדובר במדינת אויב שיבקשו עזרה מסוריה יש שם מ…  BiniAshcknasy לבנון היא מדינת אויב ויש מספיק בתי חולים בסוריה תמימות שכזאתיפים הדברים של דר בן ארי שיפתחו רכבת אווירית לסוריה  YotYotam לא הבנתי גם אם פיצוץ של מחסן גרעין בטהרן יעלה חצי עיר באוויר נציע סיוע או שמדובר במדינה שמזכירים לנו כל הזמן שמכוונת אלינו… המשטרה בירושלים יודעת לעצור רק פעילי ימין וחרדים  GolanMay kahanezadak ArielKallner כל הכבוד יהודי יקראוהב ישראל גדול ברוך דיין האמת  הפרצוף של השמאלניםויישר כוח לבועז גולן  carmeldangor סיפור מעניין מתוך דוח מבקר המדינה מנגנוני הביטחון של הרשות הפלסטינית עצרו וחקרו עובד פלסטיני במנהל האזרחי העובד משמש כ… אם אני יאיר נתניהו אני מגיש ערעור על ההחלטה ועולה עם זה עד לעליון מדוע להם מותר להפגין יום ולילה וליאיר אסור אפילו…  עכשיו זה רישמי  KalmanLiebskind התקשורת מתאמצת להגביר את הלהבות לחמם את האווירה לטפח את הכאוס לא לתת למחאה נגד נתניהו לדעוךעיתונאים לא מדווחים על… KalmanLiebskind נדמה לי שלא באמת הבנת במי פיד ימין מזלזל מצער לראות שערוץ 7 ממשיך בהתנהלותו המגעילה  מודה ועוזב ירוחם קיץ בריא  שמח שמוצאי תשעה באב סיימנו את המחלוקות וחתמנו על הסכם חשוב  ItamarKatzir אני ראיתי סרטון ערוך שעשו האנרכיסטיםלתדהמתי חלק גגול מכלי התקשורת העלו הסרטון עם הכותאות שהאנרכיסטים עצמם נתנו ItamarKatzir בסרטון הערוך והמבושל אתה מתכוון ItamarKatzir עבודה עיתונאית זה להבין שיש שני צדדים והמציאות מורכבת וגם אם פספסת לינץ של אנרכיסטים באוהדי מכבי הסר…  ItamarKatzir מניח שאם היית עוקב היינו רואים צילומים אלא אם כן צילמת וזה פשיט לא התאים לאגנדהמה קרה אתה מפחד ששוקן יפטר אותך פעם הצגת את עצמך בפני ככתב הוגן והיום אני מבין שאתה סותם פיות דיקטטור שמנסה להסתיר את האמת מה קרה לא נוח לך שלפתע…  נו יקירי עשה טוב חכם שלקח  את בן גביר או לא  בית המשפט שחרר את מרשי וקבע שאי אפשר להפלות ביןצשמאל לימין  הסרטון שהשמאלנים לא רוצים שתראו אין דין ואין דיין  מדהיםכתב הארץ העלה סירטון אלימות של אנרכיסטים שעטו על רכב והחלו להכות על הרכב ולפתע מחקמה קרה זה לא משרת את…  לשמחתכם אני מייצג את אלה שלא נעצרו אבל לא פלא שהאנרכיסטים בלחץ גם הם מבינים שהאמת עלולה להיחשף ואחרי הלחץ התקשורת…  notspecial2020 על חסימת כביש אנשים ישבו במעצרים עד תום ההליכיםטוב בעצם זה אנשי ימין אז בטח אתם לא מחשיבים YaelFreidson צר לי יעל אבל בהפגנות שנכחתיאלפי הפגנות  ובתיקים שאני מטפל מאות תיקים המדיניות המכילה הזאת לא קיימת בהפגנות השמאל למדנו משפט חדש משטרה מכילה מי ייתן וערב תשעה באב יעשו גורמים במשטרה חשבון נפש  ויכילו גם הפגנות…  לא להאמין במקום לטפל באנרכיסטים זה מה שמשטרת ישראל עושה בימים אלה  drmichaelbenari ׳בריונים׳ או לוחמים עזי נפש ההיסטוריון ד״ר בן ארי מגיע אליכם לסלון לספר את סיפורו של המרד הגדול מנקודת המבט של לוחמ… 8tSFx8GhfSG9198 בניגוד לכם לא הלכתי ותמכתי בחימי yoelcoh אבל בניגוד לפייק ימין בלשכה אני לא תמכתי בחימירק אומר שמאלן נשאר שמאלן  אני את שלי אמרתי והזהרתי לצערי חלק מהחברים הימניים והדתיים בלשכת עורכי הדין תמכו בחימי אלה התוצאות  ayeletlash9 פשוט מחפיר ומזעזע  עכשיו בחברון ארבעה נערים מחבלים תוקפים ילד יהודי לעיני חייל שעומד שם הם דופקים לו סלע לראש וחייל פ… יש לי לא מעט ביקורות על נתניהו אבל אף אחת מהן לא על הצוותים המוכשרים שעובדים איתו לא מכיר את טופז לוק באופן אישי…  יש שמאלנים הגונים לצערי הם מעט מידי  בקיצור אין דין ואין דיין  drmichaelbenari האיש שחתם הסכם והפר אותו בלי למצמץ YemanimNews עוד בן גביר זכויות מפגינים זה רק לשמאל המשטרה שכחה לעבוד   itamarbengvir חדשות ימנים gtgtgt  akivanovick בהצלחה יקירי profit1to1 2 למשרפות הקימו מחנות ריכוז באם אינך מבין שכאשר אתה משווה אותי לנאצי אתה פוגע בראש ובראשונה בשישה מל…  profit1to1 1 שאלת שאלה כביכול רטורית אם היית רוצה לשאול באמת היית שולח בפרטי מעולם לא דיברתי על עליונות הגזע ואי…  profit1to1 אמנם משתדל לא לתבוע על כח אמירה אבל אין ספק שעברת את הגבול יש לך 24 שעות להתנצל ולכתוב בהודעה שתתפרסם…  למה ההתפרעויות של האנרכיסטים ישמשו אותי בבית המשפט הגיגים שכתבתי בעקבות ההתפרעויות והיחס המקל של המשטרה  avribloch תנו לי להבין ההפגנות שהיו נגד רבין נחשבות להסתה אבל ההפגנות נגד נתניהו הן סבבה בדכ לא מעלה דברים מערוץ 7 שנהג בצורה שפלה בבחירותאלא ששימו לב לתגובת הערוץ באשר לדרישה  שהגשתי נגדם בשל הפרסומים…  UdiBenDavid ימנים ושמאלנים עכשיו אחרי שכבר הבנתם שכולם חרטטו אתכם מה תצביעו בבחירות הבאות kahanezadak תשעת הימים זה הזמן לדאוג להר בית ה אלוקינו היו שותפים  גזען  hundfritz הודה בעינויים GndjqzCibDYcmyJ AvrahamPeretz אמרנו וצדקנו אין עוצמה יהודית  אין ממשלה ימנית מתפלל שהצדק יצא לאור ועמירם בן אוליאל יחזור הביתה  כאמור לא אהבתי את הדיל עם המשותפת אבל אוסנת מארק יותר מראויה בהצלחה  OsnathilaMark ברכות אמנם לא אהבתי את הדיל עם המשותפת אבל את יותר מראויה בהצלחה רבה YaronH8 אין לי שום בעיה עם אוססנת מארק היא יותר מראויה  ואחרי כל זה מצפה שהליכוד לא יעשה דיל עם המשותפת על אף הביקורת הקשה שיש לי על איילת שקד ואותה אמרתי לא פעם בשנה האחרונה צריך לומר ביושר שהברית ליכוד רשימה משותפת…  ואם התוקפים היו מנוער הגבעות מה היה קורה   חופש ביטוי בודאי אבל למה באלימות  עולה לאילה חסון ערוץ 13 בסוגיית ההפגנות והאלימות נגד הציבור החרדי לשאלת רבים הנער שנעצר לפני מספר דקות איננו ידידיה אפשטיין אין בדברים כדי להצדיק אלימות שוטרים כלפי קטין שאיננו יד…  נראה לי שאני מוחרם בתוכנית של ברקוביץ והתוכנית הפכה להיות במה ללפיד ובוגי אבל אחרי כל אלה צריך לומר את האמת ברקו…  גועל נפשהשנאה לחרדים עוהרת כל גבול מדיניות המשטרה לא חוקית אם אני חרדי שמקבל דוח מבקש להישפט אכיפה בררנית  YemanimNews רכבו של בנצי גופשטיין ניזוק מירי ערבי במהלך השבת  גופשטיין ממשלת ישראל אדישה לחיי יהודים  חדשות ימניםgtgtgt  בשבת עברנו טרללת בחברון אלפי זיקוקים חזיזים ויריות החל מלפנות בוקר ואין דין ואין דייןפניתי למשטרה בסופו של דבר ה…  לפני כשעה הצטרפתי למקבלי הדוחות בגין מסכה מעבר לכך שהדוח לא חוקי ושלא נותנים דוח למי שעושה פעילות ספורטיבית ולעוב…  הבנות הללו צריכות לקבל פרס כשהתחילו את מאבקן אותו אני מלווה מספר שנים בהתנדבות המשטרה סברה שאסור להתפלל ברובע המו…  ובסיומו של היום הזה  הולך לישון מוקדם היום את האמת צריך לומר שאפו לבצלאל סמוטריץ יחד עם זאת חוששני שמעשיו של ח…  ותודה ללאה מרכזי עוצמה יהודית ששלחה תזכורת לסרטון הזה   מביש  issab5191 אומץ יקירירק אומץ Aviadbr מציע שתקרא את בקשת רשות הערר ואז נשוחחהחלטה מבישה שפוגעת בזכויות אזרח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עוד יום שהשלטון בישראל לא מביא תכנית כלכלית לא מקים מערך אפידמיולוגי ולא משקם את בתי החולים אלא עוסק אך ורק באובס…  כל מי שגורל המדינה חשוב לו חייב להתנגד מחר בכנסת לחוק שיאפשר לנתניהו לאסור על הפגנות לחלוטין כמו באיראן ורוסיה ז…  צריך להגיד את האמת לא ריאלי שתחלואה תירד לכמה מאות תוך שבועיים ייקח הרבה יותר זמן זה אומר שהלימודים והמשק לא יחז…  ערב מסעיר  מאות גשרים צמתים שכונות המחאה הכי עממית והכי נרחבת מזה שנים  אנשים מדהימים אנרגיה אדירה כ ל   ה כ…  רצית להשתיק אותנו חשבת שתצליח בעזרת הסגר לחסל את המחאה כשלת  וככה זה נראה  עכשיו בכרמיאל די להפקרות הכלכלית די…  peretzsami זה שסתום בסיר הלחץ למנוע פיצוץ אבל זה לבד לא נותן שום פתרון כי אין תכנית אין השקעות יוצרות צמיחה וא…  שנים ביבי שיווק את תדמיתו כמר כלכלה עם ארכיקפיטליזם של מעושרים ובוז לחלשים תוך לגלוג מתמיד על הכלכלה החברתית שלנ…  הניצחון של האופוזיציה בלי ימינה שלא השתתפו במאבק הזה הוא לא רק בטירפוד חוק שאוסר באופן מוחלט על הפגנות כמו באירא…  דיברתי עם בעל עסק למוצרי חשמל עד רגע זה אין לו מושג מה הוא אמורצריך לעשות  עם העובדים הספקים ההזמנות התשלומים…  לידיעת הציבור  הממשלה יכולה לפי החוק הקיים להגביל מאוד את ההפגנות כמעט עד ביטול מלא החוק שעבר רק לפני חודש מאפשר…  חבר כנסת שיצביע היום בעד זה  יהיה אחראי באותה מידה  urizaki ידעו נא מאות אלפי מובטלים חדשים עשרות אלפי עסקים קטנים שיקרסו ענפים שלמים שנרמסו שהסגר המלא שמטילה עליהם הממשלה נגד כל המל… 1 נתניהו הולך להחרבת המשק רק כדי לחסל את ההפגנות נגדו 2 מי שהתנדב להקפיא הפגנות נפל בתרבות השקר של בלפור הפגנות…  זה ביבי  מצדו שתיקבר המדינה העיקר שההפגנות יחוסלו  RamiHod אם אכן הולכים לסגר מלא וההחלטה תתקבל בניגוד לעמדת גמזו ומשרד הבריאות ורק במטרה לחסל כל סוג של מחאה נגד נתניהו כל המפלגות בכנ… benirabin ביבי יודע שלא צריך סגר מלא שזה הרס הכלכלה שזה לא יתרום להפחתת התחלואה שכל המומחים תמימי דעים נגד שאפילו הפרוייקטור מתנג… וכל זה רק כדי לחסל את ההפגנות כי זה מה שקרה היום בקבינט כשנתניהו הבין שהדרך היחידה לחיסול המחאה היא סגירה מוחלטת…  לא גמזו לא השמאל לא מנדלבליט לא ההפגנות לא שאשא ביטון לא ניסנקורן לא הם אשמים בהפקרות הכלכלית ובמחדל הבריאות  א…  במה עסקה היום הכנסת  ביום האחרון לפני השבתת החגים והחמרת הסגר עם גל מובטלים חדש וכל הקטסטרופה מסביב בדיון סוער שי…  zehavagalon בואו נעמיד דברים על דיוקם לא 20000 מפגינים בבלפור הובילו למצבה הנוכחי של ישראל עשה את זה נתניהו שמוכן למכור את חיינו כ… פקק עצום על כביש 1 לירושלים כי המשטרה סגרה שני נתיבים מתוך 3 והעמידה אוהל קטן בצד  כאילו מחסום לקורונה שני שוט…  עפר שלח לצערי נותן יד להשתקת כל מחאה חודשים קדימה העמדה הזו היא רוח גבית למי שרוצה ציבור כנוע כלוא בביתו שלא רשא…  zehavagalon עמדה מדוייקת ונכונה NitzanHorowitz לעצור את ההפגנות זו העמדה המועדפת על בלפור ומי שקורא להשתקת המחאה משחק ישירות לידיו ש… הכי קל להרים ידיים אבל אם מישהו חושב שהשעיית הפגנות תרצה את בלפור והביביסטים הוא חי באשליות באותו רגע הם יעוטו ע…  אפשר לייצר הפגנות בטוחות תוך שמירה על ההנחיות אין סיבה לתת למי שרוצים לחסל את המחאה את התירוץ לעשות זאת הם לא עוש…  עמדתי ברורה דווקא בשעת משבר חובה לשמור על זכות המחאה וההפגנה השתקת המחאה היא תקדים מסוכן שיערער את הלגיטימציה להפ…  הבעיה הכי קשה בסגר הזה עוד פיטורים והוצאה המונית לחל״ת עכשיו מצטרפים כ100 אלף איש לדורשי דמי האבטלה זה הרסני למ…  שאלה פשוטה אבל קריטית כמה מיטות נוספו לבתי החולים מאז תחילת הקורונה כן הובטחו אלפים אני יודע הרבה זמן אני מנ…  AlonMizrahi כל מערכות השלטון בישראל כל המשרדים כל התפקידים כל הקואליציה כל הפונקציות עוסקים רק בדבר אחד עיוות המציאות כדי שתתאי… התראיינתי אצל KalmanLiebskind ErelSegal על משבר הקורונה אבל כל מה שהם רצו זה לדבר על ההפגנות וכמה המפגינים רעים…  השב״כ המשטרה וצה״ל  וכמובן ראשי המתנחלים יודעים היטב מי שלח את ההודעות ומי ביצע את מאות פיגועי הטרור הללו נוער הזו…  BenCaspit ראש הממשלה מסתובב בטקסים בבית הלבן בלי מסיכה כולל ארוחה רבת משתתפים אחד מיועציו ראובן עזר יוצא לריצת בוקר בניגוד להנחיות… צודקים  בלפור עכשיו  בלפור עכשיו  אחת ההפגנות הכי חזקות ומרשימות  כ ל  ה כ ב ו ד  בואו  מפגן עוצמה מרשים בעליה לירושלים לאורך קילומטרים רבים  מושחת לך  המחאה חשובה ביותר  דווקא בזמן חירום אל מול כשל בריאותי וכלכלי בלתי נתפס תוך מתקפה על הדמוקרטיה אנחנו חייבים להש…  שיירה ארוכה ארוכה של הדגלים השחורים בכביש 6 בדרך לירושלים  כ ל  ה כ ב ו ד   בדרך לאולפן פגוש את העיתונות ואחר כך…  Justice Ginsburg was a beacon of hope for Human Rights activists all over the world She dedicated her life for Ti…  תכלה שנה וקללותיה תחל שנה וברכותיה  GLZRadio יור מרצ NitzanHorowitz זועם אצל ירון וילנסקי וkobisudri קורא לממשלה להתעשת ולצמצם את התקנות מדובר פה בחיים ועסקים של א… SefyHendler BismuthBoaz dovalfon We’ll always have Paris GLZRadio חכ NitzanHorowitz תוקף אצל ירון וילנסקי וkobisudri קיבלנו הגבלות שצריך להיות מדען טילים כדי להבין אותן זה פשוט ביזיון… KElharrar אופוזיציה לוחמת בוועדת חוקה נישאר פה עד שנקבל את כל התשובות על תקנות הסגר לאסגר שממשלת החלם ארגנה לנו   בוקר טוב ישראל  בשעה 2 בלילה הודיעו לנו כי ישיבת ועדת החוקה לאישור תקנות הסגר שנקבעה ל930 היום בבוקר מ ב ו ט ל…  הנשיא ruvirivlin צודק דבריו יצאו מהלב ואני מקווה שגם נכנסו ללב הממשלה פגעה קשה באמון הציבור וחייבים לשנות כיוון…  ממשלה שכונה  ישיבת ועדת החוקה לאישור תקנות הסגר נקבעה למחר בבוקר  הרגע האחרון ממש  למה מה הבעיה למי אכפת מ9 מ…  BenCaspit סיפור מטורף אסור לעבור על האירוע הזה בשתיקה 3 לוחמים שנתנו 3 שנים פלוס שנת שירות תיכף נעלה את הראיון המלא לידיעת ראש הממשלה המעופף בשחקים המעבדות קרסו בגלל העומס אבל במעבדות בהדסה ירושלים עושים עכשיו רק שליש  מהבדיקו…  Nefolet בוודאי אין שאלה בכלל כל מכחישי הקורונה  כדאי שתבינו מה קורה ראיתי את זה בעצמי בבתי החולים ועכשיו בוועדה לביקורת המדינה אני שומע את הנת…  הסגר אמור להתחיל ביום שישי ועד עכשיו התקנות לא הובאו לאישור ועדת חוקה אפילו המשטרה שצריכה לאכוף סגר על מדינה שלמה…  EmilieMoatti אמילי היקרה משתתף בצערך ובצער המשפחה ושולח לך חיבוק גדול זו לא טעות זו מדיניות בצלאל תכיר פ ל ס ט י נ י ם  אין שלום תמורת שלום  אין שלום בלי הפלסטינים  לא רק ביטול הסיפוח ועיסקת המטוסים בדיל עם המפרציות נתניהו הסכים גם להקפאת בניה בהתנחלויות הוא יכחיש את זה כמו שהכ…  בראיון מדהים בGLZRadio סיפר מנהל בי״ח העמק ד״ר זיו רוזנבוים שמאז תחילת הקורונה  כבר חצי שנה לא הוספה שם אפילו מי…  Partners4Israel Reaction from meretzparty chair NitzanHorowitz While relations with Bahrain are a positive productive step for Is… Partners4Israel NitzanHorowitz also demanded that Netanyahu  whose lies about the US selling advanced F35 jets to the UAE were ult… סיירתי היום בבית החולים בנהריה  הכי הרבה מאושפזי קורונה מצפון לת״א המנהל פרופ׳ ברהום והצוות המעולה עובדים מדהים א…  erancherpak טאטאלע GLZRadio חכ NitzanHorowitz חבר ועדת החוץ והביטחון תוקף אצל razibarcay הבקשה לכינוס הוועדה בעקבות הסכמי הנרמול אושרה אבל היור… ramonflor7 NitzanHorowitz גבר שבגבריםבאת עלית ונתת רוח גבית כל הכבוד לפוליטיקאי ישר אין עוד הרבה כמוך  גשר יגור כבר 12 שבועות  כ ל   ה כ ב ו ד   כל שבוע החבר׳ה האלה הם הראשונים במחאת הגשרים  על גשר אפק בקריות תמיד אני רואה אותם מהכביש הפעם עליתי על הגשר להג…  ממשיכים  צומת כפר מסריק  מושחתים הביתה  מתחילים את הערב הגדול הזה בגשר עין המפרץ בפאתי עכו  בואו להפגין  zionnenko הסכמי השלום עם האמירויות ובחריין חשובים מאד אבל חגיגות ״הפלסטינים כבר לא מעניינים אף אחד בעולם״ הן פשוט טמטום הסכסוך הישראל… הכל תלוי בכלכלה גם הקורונה בלי אופק כלכלי שום סגר לא יעזור ורק יחריף את הבעיה לנתניהו גם לבנט אין תכנית כלכלית…  zehavagalon הגענו לכמעט 4000 נדבקים וברור למה אנשים מעדיפים להתעסק בזה במקום באבואלקיעאן ובכל זאת טויח כאן רצח והמשטרה שטייחה היא… שיא עולמי באבטלה אבל ליאת בן ארי שיא עולמי בתחלואה אבל רוני אלשייך סגר כללי בפתח אבל אביחי מנדלבליט חורבן המש…  נבצרות עכשיו  נתניהו החליט לשרוף את המועדון הוא מנהל מסע ציד נגד רשויות אכיפת החוק כדי לבטל את משפטו הקורונה לא…  יום הולדת שמח לנשיאנו היקר רובי ריבלין  מאחל לך בריאות ונחת ועוד הרבה שנים טובות של עבודה למען החברה הישראלית ruvirivlin ח״כי הימין מתנפלים על השר ביטון ממשרד הביטחון ודורשים לחבר חשמל חינם אגב וגם מים וכבישים והכל למאחזים בלתי חוקיי…  לידיעת מגיני הצדק וחושפי העוולות החדשים  גם אחרי שאיאד אל חאלק נורה למוות פשטו על בית משפחתו כדי אולי למצוא שם מש…  ממש כאב לי באזניים לשמוע את השקרים שלו איש חסר בושה כאילו עד עכשיו הוא לא ידע שאבו אלקיעאן חף מפשע חצי עולם צעק…   כשהרגו את אלקיעאן מחינו ודרשנו במשך שנים לחקור את עלילת השווא שרקמו ארדן והמשטרה המקהלה הימנית עשתה הכל כדי להשתיק…  בתגובה לפנייתי ה3 בעניין הרג חף מפשע ע״י שוטרים ענו לי היום ממח״ש שהם תפסו את כל מצלמות האבטחה שם אך ״ארוע היר…  KnessetT יור meretzparty חכ NitzanHorowitz בעצה לפרופ גמזו גמזו צריך להחזיר את המפתחות לחזור לאיכילוב על רהמ netanyahu אמ… הורוביץ גמזו צריך להתפטר ולהשאיר לנתניהו את הדייסה שבישל  radio103fm חכ ניצן הורוביץ NitzanHorowitz יור מרצ נתניהו התקפל מול החרדים כמו סמרטוט זה שיא השיאים איך האזרחים יאמינו לממשל… tGwUh6X4V2ecwKo arutz20 NitzanHorowitz eitanzeliger Riklin10 חכ הורוביץ ראש הממשלה סמרטוט סמרטוט את זה הוא אמר לפני שאפשרתם… גנץ עוקף את נתניהו ובנט מימין ומאשר צונאמי של בנייה בהתנחלויות 5000 יחידות דיור בשטחים זו מכה קשה לפתרון שתי המדי…  f7FEPCkXfGH3sBU arutz20 NitzanHorowitz eitanzeliger Riklin10 הורוביץ מכנה את ראש הממשלה מר בנימין נתניהו סמרטוט ריקלין וזלינגר… כדי שלא יגידו ״למה סגר רק לחרדים״ אז במקום 9 ישובים שצריכים להיכנס לסגר מכניסים 40 ישובים יידעו אזרחי ישראל שיש…  בדיוק כך  אמרתי לגמזו בוועדה שכל הכבוד לו שלקח על עצמו את התפקיד כפוי הטובה אבל כשהוא הופך לשק חבטות כולנו מפסיד…  הדבקה בהפגנות  הנה הנתונים מטעם האגף האפידמיולוגי  MargotBM13 קיבלת  חזק ואמץ עכשיו בדיון בכנסת עם גמזו דיון מבורדק ומבלבל ונכנסים בגמזו כאילו הוא האשם הקואליציה וח״כים חרדים במיוחד מצאו ל…  הזילות שבה עוצרים בנאדם היא בלתי נסבלת מעצר הוא שלילת חירות זה צעד אלים שנוקטים רק כשאין דרך אחרת למה צריך לכבול…  עצרו את שושקה זאב אנגלמאייר בגלל התחפושת שלה  משטרת ירושלים ירדה מהפסים  טוב שישראל הכירה בעצמאות קוסובו שבבלקן זה צעד נכון  חשוב הרבה יותר שנגיע להסכם עם השכנים הקרובים שלנו הפלסטינים ונכיר גם בזכותם לעצמאות TomerMichelzon סחטיין על NitzanHorowitz שהגיש שאילתא בעקבות הכתבה שלנו במקום יותר מעשר חקירות על פוסטים נגד משפחת נתניהו תוך כמה חו… zehavagalon המשטרה במבצע הקש בדלת משטרה פוליטית הגשתי שאילתא דחופה למשרד המשפטים על המקרים המתרבים של אזרחים שזומנו לחקירות עקב ביקורת על השלטון ל…  ״גמזו תתכונן״ חבורת משוגעים  אתם חושבים שזה עסק פרטי שלו אז תעשו ״מרד״ ותנצחו את הפרופסור פששש איזה גיבורים…  שנים היית שרת משפטים ומה עשית כדי שזה יקרה ועצימת העין לנוכח המעורבות של שותפכם לממשלה ליצמן  לכן גם את אחראית לכ…  הממשלה הגרועה והעלובה ביותר מאז קום המדינה  אובדן שליטה וחוסר ניהול מוחלט תוך כדי השמצות ולכלוכים בלתי פוסקים כל…  אוויל שכמוך אתה שונא החרדים  אם לא הבנת  קורונה מחלה מסוכנת וגמזו מנסה למנוע הדבקה  מה אתה רוצה  שאנשים ייחלו…  לא עורקים לא מזגזגים לא מתקרנפים  נלחמים תמיד  על החופש השיוויון והשלום  מרצ ורק מרצ  הבחורצ׳יק הזה בן 84 מזל טוב לליאור ייני הזמר הנהדר שהוא כמו יין שרק משתבח עם השנים  לראות אותו בקליפ הלהיט שהוצי…  einatovadia Alikfinkelstein Ahmadtibi אתה כל כך צודק ולכן יש לנו נייר מדיניות נוסף העוסק בדיוק בהגבלת הכוח עם הצעת חוק שמסדירה את… SefyHendler התקלה ההיסטורית התיישבה על כסא יותר גבוה Syechimovich אבל זה לא העניין פה מרידור התפטר לא בגלל מחלוקת אידיאולוגית עם ביבי הוא באותו קפיטליזם רקוב אלא בג…  ״מר כלכלה״ הכלכלה של נתניהו היא בדיחה אז כן אני סוציאלדמוקרט אבל שאול מרידור קפיטליסט כמוהו והביקורת שלו מחרי…  הביביזם חיסל עוד שעיר לעזאזל הביביסטים בפאניקה הממשלה הזו היא הגרועה בתולדות ישראל והם מחפשים את מי להאשים מריד…  סטארט אפ ניישן ביקרתי היום בבתי ספר בגליל ובבתים של תלמידים בתכלס לחצי מהילדים בישראל תקשיבו טוב אין אפשרות אמי…  הנה הסוד של פקיעין מקום ראשון בזכאות לבגרות ד״ר לילה עבאס מנהלת התיכון באתי אליה ואל ידידי ראש המועצה ד״ר סוויד…  המונפורט על נחל כזיב תצפית מדהימה הכל ירוק והנחל זורם  שבת שלום לכולם  horowitzb קשה לראות את מספרי החולים מטפסים לחשוב על העומס בבתי החולים ושחיקת הצוותים להבין שנגיע לאלף מתים מקורונה עד לחגים ולראות… פינוי המאחז הבלתי חוקי מצפה כרמים הוא מימוש הדיבר ״לא תגנוב״ אי אפשר לשדוד קרקע מפלסטינים ולצפות שבגצ יאמר אמן  א…  samanio עומר דגל אדום זה דבר טוב ממשלה כזו גרועה ועלובה לא היתה כאן מאז קום המדינה  לקרוא ולהבין עד כמה מופקרת הקומבינה של ״דחיית״ התקציב ומי נפגע…  כי במאי העלינו KElharrar ואני את הצעת החוק להשוואת קצבת הנכות לשכר מינימום והממשלה התחייבה באופן חדמשמעי שזה ה…  ברכות לידידי סוויד ראש מועצת פקיעין  הישוב המוביל בישראל באחוז הזכאים לבגרות קצת מאחוריו ברשימת המצטיינים בחינוך…  סמוטריץ׳ ברח אחרי נאומו חוצב הלהבות התקפל והסיר את הצעת החוק שלו רגע לפני ההצבעה מדוע כי רק ח״כ אחד תמך בה הוא…  הצעת החוק היום של סמוטריץ׳ על ביטול חוק השבות לנכדים היא ההצעה שתקבל הכי פחות קולות בכנסת הזו אפילו פחות מהצעת הח…  לבי לבי על גמזו מקצוען עם הרבה נסיון וגם לא תמים בכלל שמכיר פוליטיקה אבל אפילו הוא לא דמיין לאיזו מאורת נחשים הוא…  ZulatEquality מאמר של נשיאת זולת zehavagalon בכל אל ערב על הצעת חוק שמקדם NitzanHorowitz שתפקיע את הליך איתור בחירת מועמדים למפכל… באמצע הבלגן בכנסת ידידי ZviHauser העניק לי את הספר הזה של שולמית אלוני ״ההסדר ממדינת חוק למדינת הלכה״  איך הרב…  ניצב ידיד אומר פה עכשיו בכנסת שהמפגינים כמו ישי הדס מקריים מיניסטר קוראים לציבור לבוא להפגנות כדי ״להתעמת עם המשט…  כיפה אדומה התמימה נפלה בפח של הזאב הערמומי ולמדה את הלקח אבל בממשלה הזו יש כיפה באמת טיפשה אחרי שטרפו אותה והיא ר…  kannnews יור מרצ NitzanHorowitz לgolanaryeh נתניהו ימשיך להשפיל את כחול לבן ולהתעלל בהם הפשרה כביכול שהם הגיעו אליה עם נתניהו… kannnews יור מרצ NitzanHorowitz לgolanaryeh שמעתי את הנאום של נתניהו אתמול זה היה נאום רצוף שקרים האיש פשוט משקר בלי הכרה כ… גם במיקרוסקופ יהיה קשה למצוא מילת אמת בבליל השקרים של הנוכל מבלפור השבחים שלו על מצב הכלכלה הם הזיה מוחלטת האבטלה…  עם MeitalLehavi סגנית ראש העיר ת״א ממרצ בעצרת החזקה הזו נגד תקיפות מיניות מיטל סיפרה היום בפעם הראשונה על ארוע…  אחת העצרות הכי כואבות ומרגשות שראיתי כבר שנים   המונים אומרים די לאלימות נגד נשים  עכשיו בכיכר רבין בואו  למה צריך שיקרה דבר נורא כדי שמשהו מובן מאליו יזוז פה אז בעקבות לחץ של ארגונים ומרכזי הסיוע וגם שאילתא דחופה שלי ל…  ספר חדש של יוסי חברי שהולך ומשתבח הרומן הקודם שלו היה מצויין ״זמן לא טוב לאהבה״  ואני ממש מצפה לקרוא את החדש…  מה השקרים האלה שהמשטרה מפיצה הייתי הערב בבלפור וראיתי במו עיני שמץ של אלימות לא היה שם מצד המפגינים קצין המשטרה…  zehavagalon בין אלפי האלפים בבלפור שמפלסים דרך גם יו״ר מרצ NitzanHorowitz  שלט מנצח בלפור עכשיו  שמאלנים  בבלפור עכשיו עם האלופה zehavagalon ותיכוניסט אכפתי שהכין את השלט הזה  כבוד לתנועה לאיכות השלטון ולג׳ינג׳י הנחוש הזה שנאבקים ללא ליאות הערב הם הרימו את ההפגנה בקיסריה  MovGov  אפשר להעיף את ביבי עכשיו במיידי אין צורך בבחירות רביעיות  ביום שני מרצ מגישה איאמון בממשלה כל מה שצריך וזו…  הצוללת הגיעה לקיסריה מושחתיהו לך  גשר עתלית אלופים  כמו כל מוצ״ש החבר׳ה בקריות ראשונים  אז היום הקורבן התורן הוא ניסנקורן חרפה ובושה על כל מי שמהדהד את הרפש הזה ויש לי מחלוקת גדולה  עם כחול לבן אבל הר…  אחרי הזעזוע מהאונס באילת השאלה מה עושים תכלס נדהמתי לגלות שאין בבית חולים שם חדר אקוטי  חדר יעודי לטיפול בקרבנות…  די להגיד ״יחסי מין״ עשרות גברים על נערה אחת זה אונס המוני התעללות כזו של שעות במקום ציבורי בלי שאף אחד מתערב …  קשה לתאר כמה מופקרת ההליכה לבחירות בפעם הרביעית תוך שנה וחצי בלי תקציב מדינה כבר שנתיים באמצע משבר כלכלי עצום…  zehavagalon שיהיה ברור שזה לא נוח עכשיו לחשוד בפלילים  לבחור את מפכל המשטרה הבא אז הוא מודיע לנו באמצעות השתול שלו במשרד לביטחון פני… החלטה נכונה של ניסנקורן בעניין מח״ש ועכשיו צריך לעשות את הדבר העיקרי שם סדר ושקיפות וקודם כל להפסיק טיוח ולפרסם…  freyisrael1 סוף הקריירה ניצן הורוביץ ויוסף גבארין משחקים במונופול של מחאת הסטודנטים רצה אלוקים ושניהם נפלו על המשבצת איבדת את העבו… אגודות הסטודנטים מכל הארץ שמו משחק מונופול ענקי מול משרד האוצר חברי ח״כ יוסף ג׳בארין ואני התחלנו לשחק וכמו המוני…  לא מעניין מה השר גלנט חושב שצריך לעשות בעזה  ״המסרים״ שלו לחמאס חסרי משמעות מה כן מעניין שעוד שבועיים נפתחת שנת…  ישראל בקטסטרופה כלכלית הטיטאניק כבר התנגשה בקרחון אנחנו במיתון שעלול לקחת שנים אז בואו נדחה שוב את התקציב ונפטר…  ישראל לא תספח שטחים והיא מקבלת את עקרון שתי המדינות זה מודגש בבירור על ידי מימשל טראמפ שנתניהו והימין רואים בו את…  talschneider לא ייאמן יש לך בן שמתגייס רק נחת שיצליח orlybarlev כל הכבוד לך אורלי  ממליץ לכולם  לעקוב אחרי השידורים שלה ולקבל תמונה אמיתית על מה שקורה בשטח 10elilevi נכון מאוד שיעשע אותי  10elilevi ששאל אם נצטרף לביבי  אז קודם כל אנחנו לא מאתרגים מושחתים ובנוסף לתיקים הפליליים הכלכלה…  Partners4Israel meretzparty chair NitzanHorowitz The normalization agreement wUAE in return for canceling annexation proves wh… MoavVardi נכון לעכשיו האקסיומה שהכתיבה עד היום את כללי המשחק במזהת  לא השתנתה אין יכולת לנורמליזציה עם העולם הערבי מבלי להראות נכו… GLZRadio חכ NitzanHorowitz ביטול הסיפוח ופתרון שתי המדינות הוא הדרך לנורמליזציה אזורית moriahasraf הסכם הנורמליזציה בתמורה לביטול הסיפוח מוכיח בדיוק נמרץ את מה שמרצ מדגישה הדרך לשלום אזורי תבוא רק כאשר ייפסקו אשל…  GLZRadio חכ NitzanHorowitz טוען אצל HKorach וsefiova רהמ netanyahu מנסה לברוח מהסיפור האמיתי  המשבר הכלכלי הוא לא יודע להתמ… ההתקרבנות המשפחתית ההצגות בתקשורת התעלול הנבזי עם התקציב  הכל כדי שיוכל להשתלט סופית על המשטרה ומערכת החוק זה ש…  אם משפחת נתניהו המתקרבנת היתה סופגת פרומיל מהאיומים איחולי האונס והרצח וגם האלימות הפיזית שסופגים שמאלנים בעיד…  זה אחד הדברים הכי מטורפים שקורים ויש תחרות קשה הפיטורים של מורי היל״ה לנוער בסיכון מכל הבזבוזים והשחיתויות במדי…  נערי הפרעות סביב יצהר תוקפים חיילים ושוטרים ובעיקר תושבים פלסטינים כי יש להם גיבוי פוליטי ותשתית שתומכת בהם ובכל…  ארכי נוכל העביר מכתב מלא דברי בלע ושקרים לראש התביעה במדינה שהוא עצמו מינה כדי להלך עליו אימים במטרה להיחלץ מהמשפ…  קמאלה האריס ראויה מאוד והגיע הזמן כי ארה״ב היא מהמדינות הבודדות שלא היתה בה אישה נשיאה ואפילו לא סגנית נשיא  אגב…  ״פקידי האוצר״ בחייאת ניר ברור שהסיוע הוא פירורים בהשוואה לעולם איך עושים את זה נכון  תקרא בתכנית הכלכלית של מרצ…  בדיוק וזו הצעת החוק שהגשתי בעזרת ״זולת״ ועדת איתור למפכ״ל 3 חברים פוליטים שר הבט״פ ח״כ קואליציה ח״כ אופוזיציה…  DoronKadosh לקראת 1 בספטמבר  עימות בצמרת משרד החינוך   בכירים במשרד במתקפה חריפה נגד השר yoavgallant והמנכ״ל עמית אדרי ״ההחלטות מ… מדינה שלמה נפלה בשבי 9 מיליון בני ערובה בידיו של נוכל שדואג רק לעצמו וגורר אותנו לבחירות רביעיות טירוף באמצע המ…  GLZRadio יור מרצ NitzanHorowitz אין הצדקה להרס בתי משפחות מחבלים ואין בזה הרתעה מביש שgantzbe מצטרף למקהלת המתלהמים בימין זה ל… צודקים שופטי בגצ אין הצדקה להרס בתי משפחה של מחבלים ואין בזה הרתעה כך גם קבע צה״ל בעבר  זו נקמנות ענישה עיוורת…  כל אדם אחר שהיה מהלך אימים ומנהל מסע הפחדה אישי נגד התובע במשפט הפלילי נגדו היה נעצר מייד על שיבוש הליכי משפט זו…  ארכי נוכל וחבורת סייענים שדואגים רק לעצמם הגו פתרון גאוני דחיית התקציב במאה יום אגב אפילו על זה הנוכל לא מתחייב…  פניתי למשטרה ולבט״פ כדי שימסרו פרטים על איאד אל חלאק כל פעם התחמקו שזה בחקירת מח״ש ואי אפשר למסור כלום כמה זמן המ…  orikol אתם מבינים שיש קמפיין מטעם נאשם בשוחד נגד התובעת שלו הנאשם הזה הוא ראש הממשלה ובזה השופרות שלו מתעסקים עכשיו יום יום  ראש מ… GLZRadio בצל המשברים הפוליטיים יור מרצ NitzanHorowitz יגיש הצעת חוק האוסרת על אדם המואשם בפלילים להרכיב ממשלה  yanircozin כולנו מתביישים  כביש החוף  יהודים וערבים מסרבים למושחתים  צומת מקסים חיפה  שלושת הכפים של מיקי זוהר בנוסח חיפאי  כולנו אנרכיסטים  אלפים בחיפה עכשיו  מרכז חורב חיפה עכשיו בואו  הקריות עכשיו  Partners4Israel While other capitalist economies have revised their thinking and encouraged govt investment in wake of the pandemicin… מופע של שקרים  מרצ יזמה את הדיון בכנסת עם רה״מ 40 חתימות הנושא קריסת השירותים החברתיים הצגתי לו נתונים הוא ע…  נתניהו נצמד לשמרנות הכלכלית וכולנו משלמים את המחיר  ניתוח שלי בגלובס היום  הנאשם נתניהו   למען המדינה הכלכלה בריאות הציבור ולמען הדמוקרטיה הישראלית עליך לפנות את כיסאך המשך שלטונך יביא…  הצגתי עכשיו במליאת הכנסת את כתב האישום הציבורי הזה נגד בנימין נתניהו בנוכחותו  סעיפי האישום 1 הפקרת מדינת ישראל…  KnessetT במקום להכין את המדינה לנגיף עסקת ברדיפה של מערכת אכיפת החוק ומתן טובות הנאה לעצמך ובקידום סיפוח השטחים יור מרצ NitzanHor… תבוסה מוחצת לאיילת שקד בנט וסמוטריץ׳ בהצעה נגד בג״צ  71 נגד 5 בעד  ועכשיו בנט מתלונן וצועק למה לא מתעסקים בקורונה danybahar מדוע לא נותנים לי ולאשתי להיכנס לישראל   ממשלת ישראל נותנת אישור ל12 אלף תלמידי ישיבות זרים ועוד כמה אלפי סטודנטים להיכנס… השרים החרדים לחצו להביא אלפי בחורי ישיבה אמריקאים גם בלי בדיקת קורונה גמזו נכנע עכשיו הם אומרים שזה חלק מהמאמץ …  מזמן הפסקתי להתרגש מהשקרים של הממשלה אבל כשאני שומע שרים חרדים שטוענים שעושים מאמץ להביא כמה שיותר תיירים זרים כד…  נתניהו אומר שצריך תקציב רק לשנה הזו כי בשנה הבאה יהיו קיצוצים האם להאמין לו מצד אחד נתניהו הוא נוכל וקשה להאמין…  kannnews חכ הורוביץ לשליגואטה הגשתי יחד עם מכון זולת הצעת חוק שאת המפכל תאתר ועדה ציבורית ולא השר לביטחון פנים החשש הוא שהתנאי… kannnews חכ ניצן הורוביץ לשליגואטה על דברי יאיר נתניהו החייזרים מצטרך למפיצי מחלות ולמילים שמשמשות להשחרת המפגינים עם הטענו… מכיר ומכבד מאוד את רוני גמזו אם יתברר שהאישור להגעת אברכים לישראל ניתן ״בתמורה״ לפתיחת עסקים בסופ״ש  זו החלטה לא…  מאות בני זוג של ישראלים נתקעו בחו״ל בגלל הקורונה כולל הורים משותפים לילדים ולא מורשים לחזור כדי לחיות עם משפחתם…  כל יום שעובר ונתניהו ממשיך לכהן כראש ממשלה הוא נזק נטו למדינת ישראל aviyalou השלט הכי תמציתי ומדויק כל העוולות אחת הן   מפגינות ומפגינים יקרים  הערב הזה מרגש ומעורר תקווה גדולה   חֲזַק וֶאֱמָץ אַלתִּירָא וְאַלתֵּחָת חג שמח לחברינו המוסלמים והדרוזים </t>
+  </si>
+  <si>
+    <t>tsahi8 זה לא כולם זה רק אני amotzsh בעקבות תלונה נגד ליאת בן ארינציב תלונות הציבור על התביעה משרת ציבור מצווה להקפיד ולהזהר בהליכותיו קלה בחמורה לא רק בעשייתו ב… danieldolev OriginalMosheC הוא אמר שהטענה מקובלת עליו אבל הוא כמובן לא בירר את נכונותה או עסק בה לגופה  לגופם…  danieldolev OriginalMosheC תחליט דניאל אם הנציב לא בירר את התלונה לגופה איך בדיוק הוא קיבל את עמדת המשרד ILLogger נראה לי ש keslasy הבין היטב ודווקא אתה לא הבנת RoyIddan קודם כל שתוכיח וזה ממשיך  האירוניה הוסיפה ארבע קומות לא חוקיותפרגולה לבית שלה פיצלה לעשרים דירות עלתה למעלה וקפצה אל מותה  ואז ליאת בן ארי טענה שמדובר באכיפה בררנית  וזהו דוקטור יותר אני לא זוכר כלום  KoheletForum ראש מחלקת הליטיגציה בפורום קהלת בטור נוקב על האיומים ניגודי העניינים סוגיית הסמכות ומסרים בעייתיים נוספים שהגיעו מהיועמ… taliaeinhorn רפורמהתקנותסדרהדין 14 בהמשך לעצתו הטובה של chaimindig שאציג בפניכם מידי יום תקנה מתקנות סדר הדין החדשות כדי שהצי… ronnyeps yehuday30 שמחה 40 מקבל את הזכות להתנשא בטוויטר מיד בצאת יום כיפור כי מתפלל כבר שנים חצי אצל האשכנזים וחצי אצל הספרדים Shaireiner orenaviel מצוין  תגיד לחברים שהתקמצנו שהם יכולים לעשות הוראת קבע לתנועה למשילות ודמוקרטיה במקום  avrahambin אז מוסי רז ממרצ וליאור עמיחי מארגון השמאל הקיצוני יש דין בעד תג מחיר וריסוס גרפיטי על בית כנסת בליל יום כיפור  אז בפעם… Shaireiner orenaviel אחי עלו עליך עם המכונת זמן orenaviel יום כיפור התשמ״א זכיתי להתפלל מהבית בבידוד  בין התפילות הספקתי לסיים את הספר  ״מפלגת בגץ״ של rothmar מורה נבוכים על מהפכ… rothmar את פדיון הכפרות שלכם תנו לצדקה לרעבים לחולים לבית כנסת שצריך ציליות וקפסולות למתפללים בחוץ ובפנים  אני לא מבקש שתתרמו ל … SababaYomtov וכן למר Shutup100000 סגור מארגן את כל זה פלוס מפטיר יונה בתרומה בתעריף בית הכנסת בכפר שמריהו  תתחילי מכירה פומבית ZviWaldman אצלי בחצר בית הכנסת שמחה לארצך וששון לעירך דקק פני קדם כבר מוכן  אם תמהרו לקנות מקומות נארגן לכם כסא עם נוף  yanircozin YairNetanyahu פרט קטן וחשוב יש להם רוב בקרב המיעוט תענוג גדול TzachiDavidi מאמין לך שאתה לא מבין יש כאן כתבה שמאירה זווית שמאוד מאוד מעניינת  היא לא מדווחת על הצלחת העתירה א…  itayr2 אתה רואה כשאתה רוצה אתה יכול IshayShnerb חייבים ליישר את העקומה itayr2 יאללה קורס מזורז  TzachiDavidi וואלה הכתב המשפטי איתמר לוין והעורך דין עוסקים בדיון המשפטי  תעצרו את העולם אני רוצה לרדת שום דבר כבר לא הגיוני כאן itayr2 איזה קטע הציניות שלך עובדת באופן חד כיווני  LeoraLev arielschnabel שיאומי זה מה שקורה כשמזמינים רב מעלי אקספרס  כאן יש לנו עסק עם 5G מסקנדינביה  אני כבר מ…  TzachiDavidi תלוי מה הנושא  גילוי נאות מעטים בעולם מכירים טוב ממני את פרשנותו של ס 39 לחוק עזר לירושלים שמירת…  TzachiDavidi להגיש בקשה לצו עראי דחוף וכשלא מקבלים אותו להמשיך להתנהג כרגיל זה חוסר נקיון כפיים  השיג ושיח מול…  את פדיון הכפרות שלכם תנו לצדקה לרעבים לחולים לבית כנסת שצריך ציליות וקפסולות למתפללים בחוץ ובפנים  אני לא מבקש…  המלצה חמה לשר המשפטים שלנו תפוס קצת אמריקה סע להשתלמות ותחזור עם גישה בריאה ודמוקרטית לתפקידך  AviNissenkorn…  TomerNaor גם לך תומר גמר חתימה טובה Carmitroth TomerNaor באמת מתנצל שלא צייצתי את דעתך על מה חשוב ומה טפל בסיפור כאן אלא רק את דעתי  לא יקרה שוב…  זו הנקודה העיקרית בכל הסיפור  בזמן שארגוני ימין כמו lavingo חוטפים הוצאות בלי סיבה מי שמשרת את האג׳נדה של שופטי…  JoshBreiner ג׳וש תהיה הגון  דבר ראשון שיתפתי כתבה לא שכחתי לציין דבר כי בראש הכתבה מצויין שאלרון היה בדעת מי…  TomerNaor תומר מה זה משנה אם הדברים הם בדרך אגב התיאור העובדתי כאן הוא הנושא  ואגב הבאתי את הדברים בעיקר בשביל…  TomerNaor תומר אל תהיה מצחיק  מה הקשר בין דעת המיעוט לבין תיאור ההשתלשלות הזו  השופטים האחרים חלקו על תיאור העו…  YiscaA מה הקשר בין תיאור ההשתלשלות לבין המסקנה המשפטית DoroniP ronnyeps JoshBreiner ענייני מצידך אגב כדאי לזכור את זה כשיסבירו לכם כמה חמור זה להתעלם מפסיקות של בית המשפט  התנועה עותרת סדרתית אבל כשהפסיקה לא מ…  שופט בית המשפט העליון יוסף אלרון ביקורת חריפה על שרגא ותנועתו קובע שהתנועה לאיכות השלטון פעלה בחוסר נקיון כפיים ח…  yehudaamrani אז בפרקליטות דוקא כן קוראים את המאמרים של קלמן ועדיין לא נפתחים שם תיקי חקירה כל שבוע אתם כבר יודעים למה yarivop לא הבנתי קראת לדניאל חקלאי שקרן  נראה לי שהוא סתם בור ועם הארץ שלא יודע איך נראית רחבת הכותל ביום רגיל…  mohsaud08 אני לא נרדם האקטיביזם השיפוטי משגע אותי ErezSalari  עוד שש דקות טראמפ מכריז על המועמדת לבית המשפט העליון בארהב  מדהים איך האמריקאים האלה לא מבינים כלום בדמוקרטיה מה…  yakhinzik לאל עורך דין yakhinzik שלנו זה שמחה לארצך או ותתפלל חנה yesnomabyyes yaelshevach יעל מקווה שיש לך אליבי amake86947145 BiniAshcknasy זו לא פסיקה פוזיטיבית שרלוונטית לסוגיה בכלל וזו בטח לא פסיקה פוזיטיבית שמחייבת את המ…  amake86947145 BiniAshcknasy מדהים שחברי הכנסת שחוקקו את החוק לא ידעו את זה  ולכן כשפיצלו את הצעת חוק זכויות האדם…  מוזמנים לפנות ליחידה הממשלתית לתיאום המאבק בגזענות שלא תאמינו אבל היא יושבת במשרד המשפטים  מוקד טלפוני 3406  an…  BiniAshcknasy אנא הפנה אותי לסעיף בחוק יסוד כבוד האדם וחירותו שעוסק בהפגנות Hadardv אין מגוחך מזה yaelshevach וכך במחי ציוץ אחד הכפלת את ההצעות הפוטנציאליות  כשרונית שזה משהו עמית כמובן צודק מלבד דבר אחד  במקום לגנזך הממשלתי יש לתייק את חוות הדעת הזו בפח וכך לחסוך מהנינים שלנו את הפדיח…  zeevlev סמכות בלי אחריות סמכות בלי אחריות סמכות בלי אחריות סמכות בלי אחריות סמכות בלי אחריות  OhadSobol taliaeinhorn הוגשה בקשה על ידי Meshilut amitsegal במשך חודשים פרסם קלמן ליבסקינד תחקירים על ניגודי עניינים של שופטים כל הצבועים שפתאום נזכרו להחמיא לו רק כשהוא תוקף ימניים… tsahi8 אני מודע וניסיתי לכבות את זה ללא הצלחה אז אני מבקש לעבור הלאה  אשמח אם תכבד את בקשתי YotYotam ועכשיו אחרי שכתבתי ורבתי והתווכחתי על הסיפור הזה יותר מדי רוצה להגיד לאנשים שאני ממש אוהב כמו ריקלין קלמן ארז כנרת וכולם… Onetruth011 כפי שכתבתי רבים וטובים לא הבינו את הציוץ שלי מיום שישי לכן מחקתי אותו  מציע שנפסיק לעסוק במריבה הזו tsahi8 אז בוא נפסיק את הדיון על הויכוחים המגזריים והאישיים שמשום מה הטוויטר הימני עוסק בהם באובססיביות thenthinkagain זה מה שניסיתי לעשות ביום שישי ולא ממש הצלחתי  אני חושב שאקשיב לחזל ולא אנסה לרצות את חבריי בשעת כעסם tsahi8 אל תיקח אותי ברצינות אם אתה לא רוצה זכותך המלאה  שבוע טוב הציוץ הזה נפלא בעיניי  הוא משקף את חוסר המודעות העצמית המטורף של הפרקליטות יחד עם ההרגל הקבוע שלהם לחשוב שמשחק ב…  RonelAdani כמו שאמרתי הסברים אחרי יום כיפור מחקתי את הציוץ אחרי שהבנתי שרבים וטובים נפגעו ממנו בניגוד לכוונתי  את הסליחה אבקש לפני שבת הסברים אולי רק אחרי י…  michelletelaviv Riklin10 tadmorerez48 bardugojacob YaaraZered הזמן יגיד ואני חושב שזה דווקא יקרב את הסולחה א…  michelletelaviv Riklin10 tadmorerez48 bardugojacob YaaraZered אה אני מלבה את האש  עד שלא שיתפתי את זה היו פה…  michaeldvorin Riklin10 tadmorerez48 bardugojacob YaaraZered לא אני אומר שהטענה שהודהדב שמנדלבליט נפגש עם קלמ…  LAMONITA1L עם העמדה של קלמן התווכחתי כל השבוע גם בראיונות  עם המתקפה המגזרית והאישית מהצד השני התווכחתי כל השב…  LAMONITA1L אם כאבת אז הבנת אם את חושבת שהצדקתי פה את אחד הצדדים אז לא הבנת Onetruth011 אני לא בוחר את הדברים שאני כותב לפי המשבחים או לפי המגנים אותם  מעולם לא עשיתי זאת ואני לא מתכנן להתחיל michaeldvorin Riklin10 tadmorerez48 bardugojacob YaaraZered זה פחות או יותר בדיוק מה שכתבתי חוץ מהקטע של אשפ…  LAMONITA1L נראה לי שלא הבנת את הציוץ שלי אבל לא נורא זה כנראה השבט היטיב לסכם  Yaron1225 Riklin10 tadmorerez48 bardugojacob YaaraZered לא יודע מה אתה רוצה את ההצעה של קלמן אני ביקרתי וגם…  inbar323 Riklin10 tadmorerez48 bardugojacob YaaraZered תתייחסי לציטוטים שקלמן מביא בכתבה ambuch99 Riklin10 tadmorerez48 bardugojacob YaaraZered א ברוב כלי התקשורת שאני מכיר הכותב לא בוחר את הכותרת…  ambuch99 Riklin10 tadmorerez48 bardugojacob YaaraZered איפה הוא דיבר על הערוצים הללו כערוצי תעמולה  קראתי את…  Shalon541 Riklin10 tadmorerez48 bardugojacob YaaraZered נכון inbar323 Riklin10 tadmorerez48 bardugojacob YaaraZered לא ואמרתי את זה במפורש בקולי כמה וכמה פעמים השבוע…  kobiafl Riklin10 tadmorerez48 bardugojacob YaaraZered לא מעניין אותי המקצוע  מעניין אותי ששקר כמו מנדלבליט נ…  inbar323 Riklin10 tadmorerez48 bardugojacob YaaraZered צר לי שאת מצטערת  גם בספר שלי כמו בציוצים שלי אני מש…  nurbinur Riklin10 tadmorerez48 bardugojacob YaaraZered ההפסד כולו שלך ambuch99 Riklin10 tadmorerez48 bardugojacob YaaraZered לא הבנתי עם מה בדיוק אני צריך להתמודד zersamuel Riklin10 tadmorerez48 bardugojacob YaaraZered תודה על הציון עכשיו אפשר גם לענות zersamuel Riklin10 tadmorerez48 bardugojacob YaaraZered מה הקשר עכשיו לטהרן Riklin10 tadmorerez48 bardugojacob YaaraZered העליהום שעובר מי שלא מסכים עם שורת המקהלה הוא לא דבר לגיטימי גם אם אני לא מסכים עם עמדתו Riklin10 tadmorerez48 bardugojacob YaaraZered שמעון גם אני עשיתי שיחת רקע עם מנדלבליט מה אתה רוצה  יש פה התי…  ShohatAlon Riklin10 tadmorerez48 bardugojacob YaaraZered תקרא ותגיע למסקנות בעצמך AsorSnir coyaron noamfathi אתה ממשיך להדהד את השקר שים לב neoraytal noamfathi לגופו של עניין הטענות שלו הן לגמרי לגופו של עניין של הסטנדרט שמאפשר להמציא פגישה שלא הייתה…  AsorSnir noamfathi שמעת און רקורד מידע נטול בסיס לחלוטין  האם עכשיו אתה דורש הסברים מארז תדמור מריקלין מכנ…  AsorSnir noamfathi א יש הכחשה ב השאלה היא כזו אחרי שאנשים שאתה מקשיב להם פמפמו שוב ושוב השבוע מידע לא נכון…  elchananz תמו הריסות בתי מחבלים  בקיצור מזוז פוגלמן וברון ניצחו למרות שיש רוב בבגץ נגד עמדתם  היועמשים החליטו לאמץ את עמדת השופט… AsorSnir noamfathi אני ביקרתי את הטור של קלמן אני לא הסכמתי עם ההצעה שלו ושל חגי סגל  אבל מה הקשר בין זה לבין…  nuritlach AsorSnir אני מאוד רוצה שהם ימנו שופטים הסיכוי שהם יקמבנו לבן הזוג שלהם או למתמחהעוזר משפטי שלהם מינוי…  noamfathi אה זו הרעלת בארות  עכשיו התעוררת AmirH90347597 AvishayBenHaim נו אז עכשיו יהיו עוד הרבה שמות על שם נשים ועל שם גיבורים וגיבורות שמסרו את נפשם על…  GilBringer מה שהיה נראה במאי אפיזודה בעייתית אך קצרה במסגרתה אמור היה מנדלבליט למלא לתקופה קצובה את מקומו של פרקליט המדינה במקביל… mohsaud08 מוחמד גם אני רוצה שיר אני כבר מחכה ליום בו השמאל בישראל יילחם לצדי שכם אל שכם על הגבלת הכהונות הסניוריטי והסמכויות של בית המשפט העליון…  DoreBloch AvishayBenHaim אני יודע איזה ספינים רצים על זה בפוליטיקה של בית שמש שממש לא מעניינת אותי  בפועל יש…  מצטרף להמלצה של דוד פטר תעקבו אחריו  DoreBloch AvishayBenHaim זה נראה בעיקר שהעדיפו מאוד לתת שם בן מילה אחת שישמש כשם הרחוב DoreBloch AvishayBenHaim אבל יש פה את הרשימה אין פה צמצום נוכחות נשית  יש פה החלפת שמות רחובות מעל שם חודשים וע…  AvishayBenHaim אבישי לא מצליח להבין את הבעיה כאן  למי זה משנה בדיוק אם לרחוב קוראים רח נתן אלבז או רחוב אלבז ע…  OrenNahari gershuni אורן יצאת קצת לא רציני בציוץ הזה שלך על תפקידו של העליון בפרשה  וכשאני אומר קצת זה כי אני…  ofralax2 zabardoker עם ספר תורה זו הרמת משקולות ThisAnd56493597 accurateWell dadoundaniel beshevanews יש מהלכים רבים שקודמו בעניין המשילות בממשלה האחרונה הי…  zomerg BiniAshcknasy השאלה היא בכלל לא כמה עתירות נדחות או נמחקות פעמים רבות עצם הגשת העתירה והחשש מפני מעורבות…  jonklinger KristalZvika DovMorell אתה התחלת jonklinger יונתן 11000 זה עבור עסקה מתנה מותר לתת ב50000 שקל  ובכל מקרה המגבלה היא על עסקה  כך שאם הוא פור…  chaimlevinson הייתי בטוח שתתרום לתנועה למשילות ודמוקרטיה  היינו מנפיקים לך כרטיס חבר  עדיין לא מאוחר חיים כל זמ…  dadoundaniel beshevanews כי מינוי קבוע דורש אישור ממשלה dadoundaniel beshevanews לא מדוע נתניהו האריך את כהונתה של דינה זילבר כתבה בעיתון beshevanews עם הרבה סימני שאלה  sfardm אז חשבון אתה יודע עכשיו תדאג לנפש DiscussingEcon1 naftalibennett TomerAvital1 השמצות של נבחרי ציבור זה שיטה או תחביב OrenNahari הפוך גוטה אנחנו ממש רוצים לחזור לבית המשפט של לפני 40 שנה sfardm אתה יושב על לפחות שתי רובריקות ממליץ על חשבון נפש almogtamar עם כאלה שופטים טוב שיש לנו אל עורך דין  גמר חתימה טובה  almogtamar  Idaneretz שיעשה הסכם עודפים עם מנדלבליט ביחד יהיה להם סמכות ואחריות ptrdvd דחוף  היועמש התנה את הגבלת ההפגנות בסגר מלא אחכ הכחיש בתקשורת כעת בנוסח התיקון לחוק הקורונה הוא מביא נוסח שבו הוא מנסה ב… עזבו הכל  כשאין סגר אני יכול לארח עשרה אנשים לחודשיים והקניות יעלו לי פחות מ7500 שקל  אין ספק שהאנשים הללו במצב…  לו רק לשופטים היה חוש אירוני או מודעות עצמית  BiniAshcknasy Music to my ears FtG9f4F8dUYueFU Yishai2 ErelSegal Refael81480415 mosheifargan כן זה ידוע שהמלחמה בין הקתולים לפרוטסטנטים באי…  Yishai2 ErelSegal Refael81480415 mosheifargan היא לא הייתה טענה תיאורטית בכלל היא הייתה טענה אמפירית אנשים מ…  yehudaamrani חשבו שמגיפת האקטיביזם המשפטי היא בעיה של מי שמעניין אותו מנהל תקין של סעיפים וכללים חשבו שזה מציק לתזה השמרנית ומיועד לד… Yishai2 ErelSegal Refael81480415 mosheifargan לא הבנתי מה הקשר או הסתירה לטענה ErelSegal Refael81480415 Yishai2 mosheifargan הדיון מעט משונה מדינת לאום נועדה לשימור ופיתוח הלאום גם מדינת…  Eli77581952  bfyyfSmVqAYQ4sw  shirant3  shirant3 אני מניח שלפחות ה100 פלוס אנשים שעשו לייק הבינו avribloch בפרקליטות אומרים לMeshilut כי משרד המשפטים היה גורם מקשר בלבד בין ליאת בן ארי ועיתונאים אבל מהפרוטוקולים בבקשה נגד אורלי ל… Mooshitwitt תראה מה זה אם גם אני וגם shlomopyuter  בחור לא טיפש בכלל הבנו את העניין ככה יש מצב שלפחות חלק מהש…  mosheifargan אתה לא רואה בחופש הדת ובחופש הביטוי הפוליטי זכויות נפרדות עם רגישויות אחרות והצדקות אחרות מחופש התנוע…  Skankilicious נו זה בדיוק התנאי בוא נניח שאני שר בממשלה ואני חושב מסיבותיי שהגבלת ההפגנות היא חיונית למאבק בק…  refaelu mosheifargan אני ואיתי מרבית ההוגים שעסקו בחירויות ובהגבלתן על ידי המדינה לא רבים יודעים אבל החתולה של פרומה המשוגעת ממאה שערים והכלב של אורלי בר לב מבלפור נפגשו ופרי אהבתם מכתיב למדינת…  זה לא שהוא משקר זה שבנסיבות מיוחדות ובאופן מידתי הוא לא אומר אמת  FriedmanIddo nadavkna TalYanko לא אתה צודק עדיף של 15 שופטים יהיו שלושה נציגים נציג לכל 5   80000 עורכי דין…  danieldolev אז שוב אנחנו במצב בו מותר להפגין בקבוצות גדולות ואסור להתפלל  אני לא יכול לארגן תפילה של 2000 איש בסג…  EdmondSoze mosheifargan שוב לגבי הצדקת המגבלות אין לי ויכוח אבל ההשוואה בין הפגנה ותפילה ובין בילוי על החוף היא מופרכת EdmondSoze mosheifargan לא נכון בעבור החופש להתבטא כרצונם אנשים יצאו למלחמות danieldolev למה לא רלוונטי  לכאורה אם יש 2000 איש בטווח של קילומטר מבלפור הם יוכלו לבוא ולהפגין לא EdmondSoze mosheifargan לא דיברתי מילה על דמוקרטיה דיברתי על ההפגנה כמרכיב זהות  אנשים לכל אורך ההיסטוריה היו…  מה שהוא אמר  TalYanko כך מבין כל אדם עם מח בקודקדו גם אם הוא דמוקרט תומך ביידן mosheifargan שטויות במיץ  המסקנה האופרטיבית שלך נכונה צריכים כללים אחידים בעיקר בשביל הפשטות האכיפה והציות  א…  diklaaharon נתון מעניין אבל השאלה היא החלוקה לגורם הבידוד  הרי באופן עקרוני כל מי שעושה בדיקה נכנס לבידוד עד קבל…  TheTeac39205141 RoyIddan איכות נבחרי הציבור הוא בידינו לא מוצא חן בעיניך תחליף  מהיכרות יש לנו חברי כנסת מעו…  KristalZvika RoyIddan אין ספק שהאשמה היא על הציבור ונבחריו שמסתובבים חשוף עם כל הדמוקרטיה בחוץ  אבל גם לגנבי הדמוקרטיה יש קצת אחריות TheTeac39205141 RoyIddan דמוקרטיות לא מתות מדום לב אלא מסרטן איטי והדרגתי ששולח גרורות  אנחנו בתהליך ארוך של א…  shlomohecht מה שצריך היה להיות  נתניהו ההצעה המובאת  עשרה אנשים במקום סגור עשרים במקום פתוח עד אלף מטר מהבית מקומות עבודה חיוני… TheTeac39205141 RoyIddan להגדיר מהי שיטה דמוקרטית זה קשה להגדיר מהי שיטה לא דמוקרטית זה קל  שיטה שבה שופטים…  RoyIddan איזה שטויות ממתי בחירות חיוניות לדמוקרטיה  אתה מפספס את האספקטים החשובים ביותר של דמוקרטיה  שופטים שמ…  sefafefa attilus cnnbrk כלום כל הכבוד להם אין ציניות attilus cnnbrk קריירה ארוכה הספיקה לעבוד עם הרבה trzFsTWjPnYu5JG אין לי איך להסביר לך יותר טוב  המפגינים לא מעניינים אותי בכלל  אם לא יהיו מגבלות אחידות ברורות…  אם אתם חושבים שממשלה שלא מסוגלת להעביר החלטה פשוטה יחסית על סגר כשמגפה משתוללת ברחובות תצליח להעביר תקציב ועוד דו…  trzFsTWjPnYu5JG אני מכיר שיש מגבלות משמעותיות על בתי הכנסת מישהו כבר דאג להם להגן על עמדת הממשלה בבגץ זה אחד מתפקידיו של היועץ המשפטי לממשלה  בעולם נורמלי מי שבא לבוס שלו ואומר שהוא לא מסוג…  trzFsTWjPnYu5JG כמה אתה לא מבין באיך עובדת מגפה מאחת ועד לחשוב שאני דואג לבריאות של המפגינים כשאני תומך בהגבלה על הפגנות DorelMasasa אין שום קשר בין הדיונים לבין משפט DorelMasasa אני חושב שאסור לייצר מגבלות מיוחדות על הפגנות שמבוססות על תוכן ההתקהלות אבל כאשר מייצרים הגבלות הנובע…  ShimonNataf IsraelCourts שזו חברה שעוסקת בניטור תכנים ברשת האינטרנט כשהיכולת של הממשלה לפעול למיגור המגפה מוגבלת ליכולת ההסבר המוגבלת משהו של היועץ המשפטי לממשלה וליכולת הקליטה המו…  MousaBlancos7 akibigman שאפשר לשאול המון שאלות בטוויטר ואפשר אשכרה להציג את השאלה העיתונאית לאנשים הרלוונטיים ולקבל תשובות ptrdvd יש תיאוריה הגורסת כי אם אי פעם יגלה מישהו לשם מה בדיוק נועד היועץ המשפטי לממשלה ומדוע הוא נמצא כאן ייעלם…  EdmondSoze aviadglickman baruchikra DaphnaLiel AmirOhana זה קצת לא פייר הוא לא מסתדר עם לקרוא ולהבין עברית…  MySmallfish IsraelCourts חינוך לאמת לא מתחיל ביום אחד צריך הדרגה והדרכה היוש IsraelCourts תרצו להתייחס לזה שהיועץ המשפטי שלכם מגיע לוועדת חוקה ומוסר לחברי הכנסת מידע לא נכון  2020 עוד לא נגמרה   BrdShr שטויות במיץ מינוי מחליפה קבועה לשבע שנים דורש וועדת איתור שעוד לא קמה ואישור ממשלה במליאתה  החלופה כאן…  accurateWell ayeletkahana globesnews netaelbandel כמובן מעמתים accurateWell ayeletkahana globesnews netaelbandel אז במקום להתווכח תצפה אתה בדיון תצפה בכל דבריו של ברק לייזר…  accurateWell ayeletkahana globesnews netaelbandel ובנדל לא מסביר לי על מה היה הדיון בגלל שבנדל לא נכח בדיון accurateWell ayeletkahana globesnews netaelbandel אני לא מבין בכלל על מה אתה מתווכח  אתה טוען שהתשובה שלו לא ה…  accurateWell ayeletkahana בוא נאמר כך  כששואלים אותו האם הייתה פנייה להסרת כתבות והוא עונה לא הייתה פנייה לאמצ…  Meshilut ברק לייזר היועץ המשפטי של הנהלת בתי המשפט היום בוועדת חוקה יש פה אמירות פומפוזיות על צוות ושמעתי אמירה על כך שמעסיקים חב… yehudaamrani על רותח  accurateWell ayeletkahana קראתי בעיון אבל יותר מזה הקשבתי לדיון בעצמי  הנה הציטוט המלא שלו אני מודיע כאן קב…  mic94496714 netaelbandel Haaretz נתנו תשובה היא ארוכה אז קצת קשה להעלות לטוויטר אנסה לבדוק אפשרות להעלות לאתר התנועה ולשים לינק AyeletMitsch dasdasit InOn1500 avihaihaddad לא הבנתי יש בעיה שנוביק יראיין אנשים מהמכון הישראלי לדמוקרטיה  הו…  נזרי הופסקה הפעילות הלא חוקית של הנהלת בתי המשפט  לאחרונה נחשף שוב על ידי netaelbandel הפעם כבר בעיתון…  חשוב להזכיר כאן את ההיסטוריה  כל קיומו של המאגר ונוהל הריגול נחשף עקב אמירה בדיון בכנסת  netaelbandel אז בעיתון…  AyeletMitsch dasdasit InOn1500 avihaihaddad איילת הסיבה שיש להם תוקף היא שהציבור סומך עליהם שיגידו את דעתם לפי…  ayeletkahana האמת היא מצרך כל כך נדיר  taliaeinhorn arrhton MischakMilim הצעת חוק לתיקון חוק יסוד השפיטה שתבלום את הרפורמה הונחה אתמול בידי חכ gidonsaar וHaleviAmit… מנדלבליטגנץניסנקורן לא מסכימים עם חוות הדעת של ptrdvd ואביעד בקשי מ KoheletForum והם מוכנים שתמותו כדי שחוות…  IdoA13 אני אומר את דעתי תמיד ומי שיוטרד מדעתי או שיאשים אותי בקונספירציות זו בעיה שלו אנקדוטה מעניינת הנהלת בתי המשפט הוציאה על מאגר הריגול שלה מאות אלפי שקלים כמובן בניגוד לחוק  כשהפסקנו את הפעילות…  GadiTaub1 אז מסתבר שאולי אקטיביזם שיפוטי זה לא כזה רעיון טוב בעיני השמאל פתאום איזה קטע</t>
   </si>
   <si>
     <t>sheffipaz מידי פעם יש במאבק גם רגעים משעשעים אחד מהם הוא צו הטרדה מאיימת שהוצא ממשטרת שר״ת נגד אחד הפעילים שלנו בגלל שהוא הצביע על או… uricirlin1 אוקיי אז יש תכניות לציט דיי rothmar יש לה או אין לה אחות rothmar ואז ליאת בן ארי טענה שמדובר באכיפה בררנית  וזהו דוקטור יותר אני לא זוכר כלום  יש סביח טשרניחובסקי בוולט ביי HisUncle4 אין סיבה גם שיצאו עכשיו בדיוק כמו החיילים GilCohe23283441 ivgiz izchaksalomon כן ממש אף אחד לא מטומטם ראינו את זה עד עכשיו בינתיים חיילים נשארים בבסיס שבועות שלמים בלי קשר לכוננות רק קורונה יש דרג ויש זרג  akibigman חריף בלי בושה  NadavEyal אז עושים עליהם את הניסוי הקליני shimritmeir אנחנו קמים לעונש קולקטיבי כי הממשלה כשלה בהתמודדות עם מוקדי התחלואה כשעוד היה אפשר וגם עכשו ההחלטות לא מתקבלות על בסיס מ… IshayShnerb הצעת חוק שבעה חודשים מתחילת המגפה פוליטיקאים לא יורשו להשתמש בלשון עתיד בהודעות לעיתונות המבשרות על מהלכים שהצורך בהם יד… אני מבין שהעוצר של שלטונות המנדט הולך להימשך עוד הרבה זמן HochmanGuy בשעה טובה hkim14050017 Bicherit כן בכל זאת האכסניא המכובדת שפירסמה את תחקיר הבוטים Yanix2Go odedkramer אפילו לא קרוב IsraelCourts 🤦‍ ProjectVeritas “Content is king”  JamesOKeefeIII BallotHarvesting  biranitgoren אז לכבוד יום הכיפורים אירגנו לכם בZmanIsrael שיחה אינטליגנטית ומעמיקה בין AmirBenDavid לYTB2018 RoyIddan cinemasc… באמת מה שהיה חסר זה איזו מלחמה בקווקז  YiftachDayan וואו אני כל כך הולך להתעורר לזה katmendo תייעצי לו נגד הבתי ספר יש דיבייט ביום שלישי  yairkraus MakorRishon 12med865 RackMada horowitzb CoronaVirusHebr naftalibennett YuliEdelstein…  odedkramer Idogross1 Yanix2Go EldadYaniv אכן החלק העליון של הזנב על האש פשוט מעדן OriKatz3 תחזיות שפחות הצליחו AlonBurak kann כן אבל בכיוון אחר לגמרי MZayfati kann סינופסיס ארוך מאוד 25 עמ YonatanJaku המדינה קיבלה ארכה מבגץ בעניין גיבוש קריטריונים למתן מעמד לסודנים לאור המומ לנורמאליזציה  זה נחמד אבל 5000 מסתננים… AShwartzman kann הרבה לפני EldadYaniv odedkramer טעמתי אני גרתי באזור של ארהב שזה נמכר באריזות מוכנות במקרר הבשר בסופר ליד הכנפיים odedkramer באסה זה פשוט בשר מעולה ואגב מאוד בריא נשלח מקווה שב kann לא יתהפכו עלי  odedkramer אין גם את החיות המתאימות החזיר פה זה לא אותו חזיר הבקר גם כן לא אותו בקר תנין בטח אין וחבל YuvalF odedkramer תיקח את זה בחזרה odedkramer אין פה בכלל את החיות המתאימות לכך roeeitah ומי אחראי בטחונית בשטח b ריבונות  היחידה הממשלתית לתיאום המאבק בגזענות במשרד המשפטים על זה  NadavEyal חתיכת דלקת בדרכי השתן יש לו RamiHod yonatanlevi בוקר טוב moshebiton000 הסיבה היחידה שאני יכול לחשוב עליה זה שהם פשוט לא יודעים מספיק טוב אנגלית hkim14050017 זה בסדר זה היה תמורת שכר שערורייתי TheOnionGod 1 בואו נפליג קצת לחופי צפון אפריק למקום שיש אנשים שמגדירים אותו בתור פומפיי של אפריקה לא אין פה שום הר געש או גופות ש…   CNN What is the purpose of this thing elizipori 🤦‍ i8Myotui5aD4q2K איזו טענה i8Myotui5aD4q2K עם המשטרה שלנו עדיף לא למסור כלום chaimlevinson יום שלישי מחר AmirPeleg2 לדעתי כל הפנימיות עובדות ישיבות חרדיות רבות הינן פנימיות יש בפרק האחרון של the boys דמות שכוח העל שלה זה זין ענק וערל שגדל לאורך של מטרים רבים וחונק אנשים חולה על הסדרה הזאת mclbgn וואו נשמות אם תקשורת המיינסטרים ושאר שופרות הדיפסטייט היו עושים פולואפים לקלמן על החשיפות שלו של מערכת המשפט כמו שהם מהדהדים… RonelAdani זה פשוט מדהים שאנשים ששוכחים את ביבי של 2005 זוכרים את קלמן של 1992 mosheifargan חייבים לעלות לשלטון ולעשות סדר michaeldvorin נדמה לך Why cant we all just get along rothmar Riklin10 tadmorerez48 bardugojacob YaaraZered מנדלבליט הכתיב לו כל מילה שם btselem נשמע הגיוני אני בשוק חיי  kannnews YoavZehavi אייטם גאוני ממש shlomokarhi היועץ המשפטי לממשלה הביא לכנסת נוסח חוק שכביכול עונה על הטענות שלנו לטובת הגבלת ההפגנות בסגר אבל תוך כדי הוא מנסה לשלול מ… לא יאמן הציוץ הזה הגיע למישהי מפניות הציבור של הצבא האישור כבר אצלי בוואצאפ אם למישהו יש משהו שהוא צריך מצהל תעד…  אשכרה הולכים להחזיר את התלמידים מהישיבות הביתה עכשיו לא היה יכול להיות לסיפור הזה סוף אחר  GilBringer מה שהיה נראה במאי אפיזודה בעייתית אך קצרה במסגרתה אמור היה מנדלבליט למלא לתקופה קצובה את מקומו של פרקליט המדינה במקביל… dudid2428 פששש איזה שוטר זה   TheMarduch זה לא עניין של תקווה או לא האסון הוא עובדה שרוקמת עור וגידים לפנינו וזה רק יחמיר ksoko123 כל אשכנזי הוא בעצם אוקראיני בגלגול היסטורי כלשהו ksoko123 להרוג את כל האשכנזים התקווה היחידה שיש לי כרגע היא שהאסון הכלכלי יהיה כל כך גדול שלאחריו כבר לא תהיה ברירה אלא לעשות פה פעם אחת ולתמיד סדר realadamgold זמן טוב להזכיר שמה שחשוב זה לא מה אתם אומרים אלא על מה אתם מדברים  לדוגמה ממליץ לא לשכוח שאפילו בנקודת הזמן הזו  ב… אתם אשכרה יושבים וצופים בזה איי מדהים MalkaElad הכתובת היתה על הקיר אתם לא תאמינו מה עושה שר החקלאות בתגובה פרטים מחר אצל giladzw  סוכות שנת אלפיים ולעולם לא  haskioren כאילו דא zurielevi7 כן אמרו לי שזה יגיע עד סוף השבוע Well סוף השבוע כאן Yosefros RonelAdani לאחרונה RonelAdani בטח פעמיים רשות המסיםמשרד הרישוי לידם זה משהו עתידני לפני 10 ימים  הזמנתי באתר האישורים הצהלי אישור אונליין הכי פשוט בעולם 10 ימים ArielKallner יחסינו עם מדינות שמנהלות נגדנו לוחמה משפטית לא יכולים להישאר ללא תגובה אתמול פירסם arik3000 ב IsraelHayomHeb שמדינות… MatanKahana מדינה במכירת חיסול נתניהו מוכר את המשק רק שלא יהיו הפגנות ניסנקורן מוכר את בריאות הציבור העיקר שיהיו הפגנות  הממשלה ה… UriahCanaff GoelPinto Go to hell 🤣🤣🤣  איך בדיוק הולכים לוודא שמפגינים בבלפור רק 2000 איש זה מעניין אותי HadarAvital arielplaksin1 גם אני HadarAvital arielplaksin1 הוא גם נראה אותו דבר רק  20 קילו HadarAvital arielplaksin1 לגמרי Idaneretz הנסיון שלי עם שוטרים הוביל אותי למסקנה שאינטליגנציה זו ממש לא הבעיה שלהם gabigr007 arielplaksin1 זה מודיעין קרבי מאשרים להם להגיע כבשר תותחים arielplaksin1 דברו נקי הוא היה חייל שלי ואני אוהב אותו chaimlevinson מה היה הסיפור הראשון ShuratHaDin נסו רגע לדמיין לעצמכם שמחר תמונה שלכם מהשירות הצבאי או מהמילואים הופכת ויראלית כחלק מקמפיין הסתה שקרי של הBDS מפחיד נכו… YonatanJaku נתניהו לא מצליח לעשות אפילו דבר פשוט כמו להציג חווד משפטית של דר למשפט חוקתי בקבינט שלו ויש אנשים שמדברים כאן על גולאג… DiscussingEcon1 חכ naftalibennett פתח את שוק המלט לתחרות שהביא לירידה של 20 במחירו בשנים האחרונות מצורף תרשים ולחיסול הכוח המונופ… אחד המינויים החזקים של ביבי  tbhavhss כן אם לא עבדו עלי yossisabag אני צם 168 לפחות בקבוע כבר כמה חודשים הרעלים שלי די מנוקים yossisabag חס ושלום הזמנתי שופר באינטרנט galisunrise1 ויועמש שכל מה שמציל אותו מכתבי אישום נגד עצמו זה כתבי האישום נגד רוהמצאפים שהוא מוציא לעצמו MoranT555 כמה הוא יתאכזב כשהוא יגלה שזה כבר האוכל שיש בסעודיה moshesiani רספקט מטורף לאנשים האלה IntelliTimes אין לזה שום משמעות הציבור ישים על זה ז בדיוק כמו עכשיו לא יביאו משטרהצבא אחרים מהבררה שיש avivaviv1975 אפילו זה לא יספיק MalkaElad מנכל משרד החקלאות מתראיין לביטאון חקלאי הבנאדם פה כדי למנוע ייבוא כדי שיהיה לכם מחסור וכדי שמי שייבא ישלם מכס גבוה לקופת… arbelaue כי הממשלה הזאת מיצתה את עצמה Diogene25937574 לדאבוני זה לא עובד ככה Hapil10 נו יאללה לך תפגין להם ליד הבית עד שיעשו את זה Hapil10 נשמע כמו תכנית עכשיו כל מה שצריך זה רק בחירות בחירות חיוניות לדמוקרטיה בדיוק כמו הפגנות ויש שיאמרו אף יותר אם אין בעיה להפגין בקורונה אז לא צריכה להיות בעיה לעש…  Hapil10 Name one ErezBerman וגם הייתי מצפה ממנו לצאת ולהגיד חברים אנחנו הולכים לאסון כלכלי של 20 שנה קדימה עכשיו הזמן לקצץ בתקציב המדינה barak1cohen ממש לא הוא הברקס אז עכשיו פתאום מדברים על איזה סגר מוחלט כזה כדי שסגר כזה יוריד את כמות הנדבקיםחולים וואטאבר לרמה ניתנת לניהול…  barak1cohen אם הוא כל כך לחוץ מהן למה הוא שמר עליהן כל כך בקפדנות עד שהמספרים של החולים נהיו משוגעים gershuni הכתבה הזאת של וופו שכולכם משתפים מיחזור של דברים ישנים וידועים מאז עדותו של ניר חפץ עכשיו רק צריך לחשוב למי היה אינטרס להק… YehoshuaYosi מוזר מאוד אם השכר המופרז של הפקידים האלה היה בסכנה אולי הם היו מפעילים קצת שיקול דעת אבל ככה זה כשאין לך  Skin in the game  realadamgold הצעה לתקשורת הישראלית המופקרת על כל שלושה אייטמים ששוב מנסים לנרמל ולקדם אנרכיה כשמגפה משתוללת כאן תראיינו גם אמא – אחת… barzik והנה משהו אופטימי זו תקופה טובה ואנחנו עוד נתגעגע לתקופה הזו     כי המשבר הכלכלי האמיתי עוד לפנינו amishav השתלטות ערבית  המצב הקולינרי משיטת הסלאמי של עוד בית עז ועץ  הגענו לשיטת העוגה אוכלים אותה שלמה באין מפריע  קחו שתי… elchangr מדהים  אשכרה צבא הגנה לערבים את היהודים מרחיקים ומסרבים להתייחס לזה שהפורעים הערבים גנבו להם פלאפון וציוד faridjubran חכה עשרה ימים יהיה הרבה יותר מבהיל YairJacobi שמעו שנה שעברה התפללנו בתוך בית הכנסת וראינו מה יצא בואו ניתן צאנס לבחוץ הזה shlomokarhi מערכת המשפט ואכיפת החוק בישראל משמשת כמפלצת בעלת כמה ראשים היא מאשימה את אזרחי ישראל מחד רודפת אותם מאידך עוקבת אחריהם… daniellazarovic תכלס keslasy לא הבנתי למה זה משנה Meshilut ברק לייזר היועץ המשפטי של הנהלת בתי המשפט היום בוועדת חוקה יש פה אמירות פומפוזיות על צוות ושמעתי אמירה על כך שמעסיקים חב… stillgray BREAKING Hunter Biden Received Millions From Wife Of ExMoscow Mayor Paid Suspects Allegedly Tied To Trafficking Had Cont… DiscussingEcon1 15 מעבר לכך שהשרשור שגוי מןהיסוד יש לי נקודה שכלכלנים מנסים להעביר כבר במשך שנים ללא הצלחה הפרדה בין הפרשה של חלק… שלחו לו גם הודעות נאצה אם אפשר תראו את השמאלני החמוץ המעפן הזה שביקש ממני לרטווט אותו כי הוא רוצה עוד עוקבים והסכמתי כי הוא אח  rothmar accurateWell ayeletkahana קראתי בעיון אבל יותר מזה הקשבתי לדיון בעצמי  הנה הציטוט המלא שלו אני מודיע כאן קבל עם ועדה… פרס ישראל לאישה הזאת  GidonDokow העיסוק הממשלתי המופרז בהפגנות ובתי הכנסת הוא לגמרי מאפיין של הכשל בהתנהלות הממשלה ביחס לקורונה השקעת משאבים וזמן נרחבים ב… mushyvider איך ידגדג פשוט לא מבין למה הסגר הזה טוב shlomokarhi מחר בבוקר בתשע וחצי בוועדת החוקה יתקיים הדיון שיזמתי על ההתנהלות השערורייתית של מערכת אכיפת החוק והמשפט  הדיון יתמקד… MyIsraelorgil מדהים באמת מדהים  תוך שעות ספורות הגענו למאה אלף שח בזכותכם לא עוצרים ממשיכים ודוחפים לעבר היעד  מתרימים משפחה ח… herzelhajaj בית משפט ישראלי אוסר על אמא שכולה להכניס את תמונת ביתה שנרצחה בפיגוע  היום בבוקר מירב חגאג ואני מגיעים לדיון בבית המשפט… Yossieli ממש חיוני להסתובב שם עם נשק ארוך roykatz המדינה היא לא גננת  מי שרוצה להתפלל במקום סגור בבקשה מי שרוצה להפגין במקום פתוח בבקשה  מי שרוצה לבדוק אם הקורונה הורגת בבק… מ ט ו ר ף  זה יהיה הפסד בפנדלים  eliavf1 אשכרה שווה תכסף יש דרך להיפטר מפרסומות הזוועה עם הילדים החולים ביוטיוב חוץ מלעקור לעצמי את העיניים עם כפית פריזאית LittleMoiz 1 תשמעו סיפור לפני שבועיים מלצרית אצלי הגיעה למשמרת עם כאבי גרון אחרי יומיים עשתה בדיקה ויצאה חיובית אני הקדמתי ועשיתי… GurMegiddo RonnyLinder ענק 🤣🤣🤣  fischlerpini  kaisos1987 Dairy factory אני בשוק  ramonhaim 1כמה עובדות שרובכם לא יודעים על מערכת הבריאות  בראשון לציון הוקם ביח לקורונה שבו 350 מיטות לחולים קשים הוא עומד ריק כבר… rothmar ronenbergen כן הימים הטובים האלה שבהם כשהתגלתה בעיה בתפקוד של המפכל לא היה את פרקליט המדינה שיכסתח עליו כדי שזה לא יעזור… elchananz זוכרים ש sheffipaz זכתה בפיצויים מופחתים מאוד בתביעת דיבה כי היא נגד בית המשפט העליון ולכן אין לה שם טוב אז עכשיו ידיעות… sheffipaz הבוקר אתייצב לדיון ההקראה במשפט האיחוד האירופי לא מפני שלבית המשפט יש סמכות לשפוט אותי אלא מפני שיש לו כוח להביא אותי לדיו… Meshilut למה חשוב להצטרף אלינו ולתמוך בפעילות שלנו כי היום the7i גילו שהנהלת בתי המשפט סגרה את מאגר המידע והצנזורה שהפעילה לפני שנתי… naamuli84 דווח עכשיו ש20 אלף תלמידים חרדים היו בבתי ספר  זו לא מדינה זו אנרכיה avrahambin כשהתקשרתי למשטרה לדווח על בקבוקי תבערה סרטון בלינק לקח להם 18 שעות לחזור אלי אחרי שפרסמתי פוסט בפייסבוק הלכתי להגיש ת… netaelbandel מודה שאיני אוהב את הפחתות השכר הוולנטריות של החכים וכעת של נשיאת העליון   כמו שכתב ריהל בכוזרי כוונתך רצויה אך מעשיך… SharonaMazalian זה שכווי ענק elchangr ILpolice hakolhayehudi סחתין על ההקפדה על מסיכה AyenonShmi חובת שמיעה כל מילה חצובה בסלע שמחה רוטמן הכניס חזק לשופרות מבלפור ולזומביבים די כבר להאשים את הציונות הדתית בשמירת הפרקלי… MyIsraelorgil יוצאים לגיוס המונים ומחפשים שגריריםgtgt זוכרים את איתן זאב החקלאי שהותקף וניצל מלינץ עי ירי להגנה עצמית שנחקר במשטרה… SaraHaetzniCohe מאומת בבקשה הפיצו  realadamgold תגידו אשכרה צריך להסביר למה מאבק מנדלבליט למנוע מממשלת ישראל לשמוע עמדות משפטיותנורמטיביות אחרות מופרע לחלוטין למה כ… OriKatz3 AvivSnir אתה טועה ומטעה  ptrdvd היות שהיא כבר פורסמה אני מציע לכולם לקחת כמה דקות ולקרוא את חוות הדעת שחיברתי יחד עם דר בקשי היועמש קבע שהממשלה לא מוסמכת ל… EladHumi משפחה מגוש שילה נקלעה לפני מספר ימים למארב מתוכנן של מחבלים שחסמו את רכבם במחסום אבנים ורגמו את רכבם בסלעים אב המשפחה הניס א… benjilachkar חברה ישראלית פיתחה בדיקת קורונה מיידית שתיושם בשדות התעופה של אירופה ובישראל כלום כמובן בין הפקידים האיטיים שחוסמים כל… שמוקמוקמוק סגולגולגול  realadamgold אז נתניהו נכנע לאיומים בנבצרות מהותית אימץ הסדר שאוסר עליו להתקרב לנושאים אינהרנטיים לניהול המדינה האריך כהונה לדינה… Yanix2Go GilBringer על סמך מה אתה אתה אומר את זה יאניק GilBringer לא נתפס כמה אנרגיה מנדלבליט משקיע בהשתקת עמדות אחרות   להלן עמדתו המלאה של היועמש מדוע יש למנוע מהממשלה לשמוע את עמדתו של… יותר טוב מהמקור  ayeletkahana פרסום חוות הדעת האלטרנטיבית של דר בקשי מפורום קהלת שאוחנה ביקש להציג היום לממשלה  אין בסיס לטענת היועמש לפי הממשלה ה… מטורף  משטרת הגטו  נס רפואי  YinonMagal לא נורמלי מי שמינה אותו יא אללה ErelSegal איך התלהבת מזה בתכנית בסוף הוא יצא עבד  כשהם אמרו ממשלת חירום קורונה חשבתי שהם מתכוונים שהם נגד הקורונה  meiretingr לפני חודש פונו באלימות בניצוח מחט בנימין דתי בוגר ישיבה המתיישבים במעלה שי מאז בחודש האחרון סוללים הערבים ופורצים ד… ביבי קומוניסט עקיבא וקלמן צודקים  shimritmeir צריך ללמוד משהו מידידינו הסעודים שהדת תסכימו איתי תופסת אצלם מקום לא פחות חשוב מאצלנו שלושה חודשים היו סגורים אצלם המס… mogo2009 שידביק שם את כולם אמן שייחנקו איתו  assafgibor למה בלשכת ראש עיר בישראל מוצגת מפת ישראל עם הכיתוב פלסטין לצידה מחוז קלקליה מתחתיה ודגל פלסטין מעל   NadavPerry כל מילה נוספת מיותרת  IshayShnerb סיפור מדהים  בגל הראשון הציע איגוד הפרמדיקים 300 איש לתגבור בבתי החולים במשרד הבריאות הביעו נכונות לקלוט 160 נחשו מה עד… Idaneretz תגידו איך בעצם אדם מגיע למצב שיש לו מכסות ביצים אבל אין לו לול גם אני רוצה להרוויח כסף מליטרלי אוויר galisunshine כמה סבלנות צריך צעד ראשון בהסכמי הכניעה אני מתחיל לחשוב שדווקא השמוק הוא מי שתידרך את קלמן  YonatanJaku אני בעד שלום עם סודן יש שם אתרי צלילה מהטובים בעולם ופירמידות  אבל בכל הנוגע להגירה חשוב לזכור שעל פי ביהמש העליון כ… uricirlin1 אסנת מארק ושי ניצן אותה מהפכה Blackbird2093 תרשי לי להניח שהרקע הפלילי המוגן בצאפים של מנדלבליט פחות מפריע לך</t>
   </si>
   <si>
-    <t>הדמוקרטיה היא יותר מסך כל החוקים שמסדירים אותה היא תלויה גם ביכולת שלנו לזהות מה לגיטימי ומה לא מה חוקי ומה חוקי…  אייר Amos123Biderman Haaretz  קסנייה יקרה שולחת לך חיבוק גדול ותנחומים  4 הדבר היחיד שהיועמש רשאי להציע כעת לנתניהו הוא עסקת טיעון – הפחתה בעונש בתמורה להודאה מלאה וחשיפת כל האנשים שעבד…  3 אבל בהצעת החנינה לנתניהו טמונה סכנה מרחיקת לכת יותר היא תאותת לציבור ולכל פוליטיקאי מושחת שדרך המלך להיחלצות מז…  2 כמו שאני מכירה את נתניהו הוא הרי יחזור שנתיים לאחר מכן עם הוכחה ניצחת לקונספירציה הפרנואידית שהוא רקח והפיץ ה…  1 חנינה לנתניהו בואו נסלח לנתניהו וניתן לו ללכת הביתה אתם רציניים מימין ומשמאל להעלות את היוזמה הזו למה לתת חני…  einatovadia אֵל נוֹרָא עֲלִילָה הַמְצִיא לָנוּ מְחִילָה   בִּשְׁעַת הַנְּעִילָה  מלחמת יום הכיפורים צריכה ללמד אותנו את האמת המרה  מי שאינו מוצא את האומץ לפשרה ולפיוס בעיתות רגיעה ימצא את עצמו נ…  מה הנהגה ישראלית חייבת ללמוד מטעויות העבר כדי לבנות עתיד שונה שלא מנבא עוד מלחמות והרג שהכיבוש הוא הנושא המרכזי לח…  mossiraz היום לפני 25 שנה נחתם הסכם אוסלו ב רבין הביא אותו לאישור הכנסתקונספט שביבי טרם שמע עליו ההסכם אושר למרות שחברי הכנסת זיסמ… הרבה נכתב על הכשל המודיעיני וליקוי המאורות של הדרג המדיני במלחמת כיפור ועל מחירה של הקונספציה זה מדהים איך הכל עדי…  רהמ מוכר לנו קונספצייה חדשה של שלום תמורת שלום חבל שהוא לא למד את הלקחים העיקריים ממלחמת כיפור ועם כל החשיבות…  47 שנים למלחמה שהייתה האיומה שבמלחמות  כדרכן של מלחמות יש קשות ממנה אבל אין קשות כמוה 3000 הרוגים כ 5000 פצועי…  ZulatEquality שנדע לבקש סליחה שנדע לסלוח גמר חתימה טובה לכולם וכולן  Partners4Israel To protect the media Israel needs to pass a law that criminalizes assault on a journalist including an act of police… ShemuelMeir תודה שמואל אין ספק שאחרי 47 שנים אנחנו צריכים לבחון מהם הלקחים מאז ומה מחבר בין המלחמה ההיא למציאות חיינו היום ב47 השנים שעברו מאז מלחמת יום כיפור החלפנו את האויב המצרי באויב הפלסטיני את גולדה  מאיר בנתניהו את הקונספציה של…  איירה תמר בלומנפלד Haaretz  NitzanWaisberg שוטר רשאי לתת קנס לאדם שלא שמר מרחק רק לאחר שהזהיר את האדם והוא סירב  על פי סעיף 28 א א לחוק הקורונה הגדול שוטר רש… lioramihai דיווח ראשוני YeshDin מתנחלים פגעו ברכוש פלסטיני ביישוב קוסרה שרפו טרקטור פגעו בציוד משק והשליכו אבנים על מכוניות   תחק… ושוב עם המשפחה בבלפור  gontarzn כמה מילים על מה שקורה כאן מאת zehavagalon  הצלחנו להגיע לבלפור תיכף פרופ׳ ירון זליכה נואם  הכניסה לירושלים היתה סבירה אבל אני לא מבינה למה המשטרה בירושלים חוסמת את העלייה לרחוב רמב״ן וגורמת לסיבוב מיותר של…  zviashkenazi גם אני שואלת המעבר במחסום ליד מחנה עופר ב 443 ממש סביר שאלו לאו אתם אמרנו להפגנה אמרו סעו וואהו הגשר בכניסה למודיעין מכביש 443 מפוצץ באנשים עם מסיכות ודגלים ששומרים על ריחוק חברתי ממש מרגש  את כל המרץ והיצירתיות שלו רהמ השקיע בשחיתות ועכשיו בניסיון לחסום כל ביקורת נגדו באמצעות השתקת ההפגנות בתירוץ של…  Former Meretz leader Zehava Galon said Netanyahu had made his appointments into a Turkish bazaar  Netanyahu i…  Ahmadtibi לזכרם  יושבים המצקצקים האחראים מטעם עצמם באולפנים ומסבירים למפגינים שהם צריכים לגלות אחריות וסולידריות ומתעלמים מהאחריות…  hadarse פרופ׳ איתן פרידמן ״שום מדינה בעולם במצבנו לא עושה סגר כללי״  leeyaron מדברים על מפוטרים ומובטלים  האמת היא שזה שקר האמת שצריך לדבר על מפוטרות ומובטלות האמת היא 463 אלף מובטלות  70 אלף נשים י… אני אהיה במוצש בבלפור להפגין נגד רמ מושחת שמפקיר את הבריאות של כולנו 7000 נדבקים חדשים ביום ביח שמתקרבים לסף ס…  chaimlevinson אתם חושבים שגם עליהם יגיד מיקי זוהר שהם מפיצי מחלות כפי שאמר על המפגינים בבלפור ונתניהו יוסיף שמדובר במדגרת קורונה… tamarzandberg בלתי נתפס היה לצפות בלילה באובססייה הליכודית בכנסת לא חולים לא מערכת הבריאות ולא מובטלים עניינו אותם רק חיסול המחאה… baruchikra תחזית השעות עד כניסת השבת לאחר שנתניהו שוב כושל הפעם בהסדרת החקיקה עד השבת ולאחר שהיועץ יודיע שאי אפשר להעביר את הגבלת ה… LifeRivlin היכולת הנדירה של נתניהו לשקר בלי למצמץ נתפסה כיתרון עורמה של מדינאי ותחכום של פוליטיקאי משוכלל בסוף סוף מדובר בפתולוג… כבוד לכן  NewEraDic הֲקַלּוֹת  ההחרגות במתווה החמרת הסגר כפי שפורטו ימשיכו לפעול תעשיות חיוניות לרבות תעשיית השקרים תעשיית ההסתה וההתקרבנות ו… למה התיקון לחוק הקורונה שמאפשר לממשלה למנוע את ההפגנות בבלפור הוא תיקון מסוכן שפוגע באופיה הדמוקרטי של ישראל מאמר…  איור ערן וולקובסקי Haaretz  ראש הממשלה עשה את מה שהוא יודע לעשות הכי טוב להטיל אשמה ניהול המדינה גדול עליו אבל ביחסי ציבור והטלת רפש יש לו קיל…  orlybarlev דברי יזהר שי המתועדים ישמשו לוועדת החקירה שתחקור את הפשעים והמחדלים של נתניהו כולל בהליך קבלת ההחלטות הלא חוקי אמש מי שיצב… YaelCohenParan החוק להגבלת ההפגנות עבר בקריאה ראשונה זאת בושה לכנסת ישראל ועדת החוקה מתכנסת להכנתו לקריאה 23 אם יש אופוזיציה הם צ… NitzanHorowitz לידיעת הציבור  הממשלה יכולה לפי החוק הקיים להגביל מאוד את ההפגנות כמעט עד ביטול מלא החוק שעבר רק לפני חודש מאפשר זאת… זה סיפור כל כך מומצא שמלצרית בבית קפה סיפרה אותו לריקלין והוא אמר לה די הפעם הגזמת  צריך להכריז על מצב חירום במדינה הודיע רהמ בשיחה טלפונית עם שרים יועצים משפטיים ונציגי משרד הבריאות לקראת כינוס…  החנינה לנתניהו גם תשמש תקדים למושחת הבא הוא יבין שאפשר להימלט מהחוק בישראל יש רק לקחת מדינה כבת ערובה הדבר היחיד…  החנינה לנתניהו לא תחסוך מהציבור דבר ולא תחזיר את ישראל למסלול שפוי יותר היא אולי תחסוך מהציבור את נתניהו לזמן קצר…  זה נכון שבמשך שנים הוא מצפצף על אנשי המקצוע לגבי הצדקתי במאה אחוז אולי כדאי שיבדוק את זה עם 200000 ישראלים שנד…  הקומיקאי גורג קרלין אמר על אלוהים שתמיד הוא זקוק לכסף הוא כל יודע כל יכול אבל איכשהו קשה לו להסתדר עם כסף ראש מ…  בסגר הראשון כתבתי שנציגי החרדים בממשלה כשלו כשלא תיווכו להם את גודל הסכנה הם התעקשו על הקלות לציבור החרדי כאילו ה…  דבר ראשון לא מבינה איך עוד לא הוגשה תלונה במשטרה בתור התחלה דבר שני מה זה ׳מדיניות׳ שלא מכניסים ערבים מישהו צרי…  zazimorgil zehavagalon  הסגר הראשון נועד לקנות לישראל זמן להיערכות ונתניהו ניצל אותו בעיקר בהטלת אשמה חכ יפעת שאשא־ביטון המפגינים בבלפור…  שעות רבות ישבו שרי קבינט הקורונה ודנו בהגבלות ובנחיצותן וכל העת ריחפה בחלל שאלת ההפגנות ככל שהתארך הדיון התברר לנו…  ryellin אבל למה בחו״ל  איזו בריחה מאחריות  jewishsf Trump and Bibi are no great statesmen but rather marketing wizards who are up to their necks in trouble writes former MK… hamakom סיור בבירה החרדית מגלה שיירות של ילדות בילקוטים מוסדות תלמוד תורה שוקקים ומחנכים שמתחננים שלא נחשוף את הסוד בזמן שהקבינט דן… Ahmadtibi נתניהו לא נאבק בקורונה תמונת הנצחון שהוא רוצה היא כיכר בלפור ריקה לאורך זמן באמצעות חקיקה  VeredLee1 מברוכ 🥂לצלם הארץ תומר אפלבאוםםםםםםם שזכה בפרס בתחרות סיינה הבינלאומית לצילום תומר א זכה בקטיגוריה חדשה החיים תחת נגיף… היום קיבלנו עוד הוכחה שהדבר היחיד שמכתיב את המדיניות של הממשלה סביב הקורונה היא מה משרת את השרידות הפוליטית של נתני…  רק לאחרונה חגגו את מינויו של פרופ גמזו לפרויקטור הקורונה מינוי שנעשה באיחור מבהיל שהוא פרק הזמן המדויק שעבר מהרגע…  einatovadia מזכירה לכל מי ששכח זה הופיע בגרדיאן וגם בכתבה של practical1000 peretzsami  רק מסבה את תשומת לבכם שזה הופיע אצלי בטווי… מאמר מצוין שמגיב לדבריו של alufbenn עורך Haaretz שכינה את הביקורת משמאל על ההסכם עם האמירויות מכמירת לב בעליבותה…  einatovadia אולי תאשימו אותנו גם ברצח ארלוזורוב וזהו פתחתקווהאהובתי את לא אשמה יפה שלי  NitzanHorowitz עפר שלח לצערי נותן יד להשתקת כל מחאה חודשים קדימה העמדה הזו היא רוח גבית למי שרוצה ציבור כנוע כלוא בביתו שלא רשאי למ… בואו נעמיד דברים על דיוקם לא 20000 מפגינים בבלפור הובילו למצבה הנוכחי של ישראל עשה את זה נתניהו שמוכן למכור את…  barak1cohen אספר לכם בדיוק מה יקרה אם ההפגנות ייעצרו כל הקולות בחצר נתניהו שעתה מדברים על סכנה קיומית  ידפקו את החיוך הרעיל ויסננו… בואו תרשמו יהיה מעניין  כל מה שנתניהו עושה בשנים האחרונות זה לנסות לקבוע בעצמו את התוצאה של המשפט שלו אז טבעי שהוא יחשוב שמותר לו להחליט מ…  INegbi zehavagalon the7i אחרי ניסיון הדריסה של המפגינים נראה שהגענו לרגע שבו יש להעמיד במבחן משפטי את חומרי ההסתה שמנפקת כנופיית בלפ… עמדה מדוייקת ונכונה NitzanHorowitz לעצור את ההפגנות זו העמדה המועדפת על בלפור ומי שקורא להשתקת המחאה משחק ישירות…  ZulatEquality המשטרה מחליטה בעצמה אם מתאים לה להציג את אלימות השוטרים בבית המשפט והשיא  בהפגנות גם שם המשטרה מסרבת לשאת מצלמות גוף… StavShaffir הפוליטיקאים מאשימים את הציבור בתחלואה ומה הם עושים בינתיים מחר הם מתכננים להעביר 20 מיליון שח להתנחלויות 296 מיליון למוס… עוד חשיפה סופר חשובה של the7i  מהסוג שהגיע הזמן שנתחיל לקבל גם מכלי התקשורת עצמם ולא רק מארגון שתפקידו הוא לבקר או…  צריך להיות עיוורים כדי לפספס את הסימנים המראים איך הממשלה בחסות משבר הקורונה מטילה עלינו סגר מייצרת מניפולציות ומק…  שרשור חשוב  למה הציבור איבד את האמון בנבחריו  ReutMor בום האיש מאחורי עמותת אלעד  רומן אברמוביץ אלעד יודעים שהם גנבים שגוזלים את המעט מאלה שיש להם הכי פחות לכן הם מסתירים את ז… בדיוק ככה YVerter  אתם חושבים שהאינטרס הלאומי מדריך את ההחלטות של נתניהו ושל האנשים סביבו ממש לא והציבור מבין את זה מצוין ולכן לא נות…  אבל מה לגבי ליצמן למה הוא טרח לסייע לחשודה בפדופילייה והתעללות להימלט מהסגרה  תזכורת במשך שנים ליצמן ניצל את תפק…  NewEraDic סַף סְפִיקָה  מונח המגדיר את מסוגלותו של רה״מ לשקר לציבור ברמה שהוא רגיל ויודע מבלי שתיגרם פגיעה ביכולתו להמשיך ולספק כישו… btselem בצלם אבל על מותו של מירון בנבנישתי  פעיל זכויות אדם עיתונאי ואינטלקטואל  ושולח תנחומים למשפחתו ולחבריו בנבנשתי שימש בעבר כ… NewEraDic טוֹפּ לוּק  יישומון מחולל קיטוב הפועל באמצעות ספריית מניפולציות הכוללת מאות אפקטים תומך בכל הפלטפורמות ובפרוטוקול שיט היטס… itamars עם כל הכבוד לחובת הבידוד של טופז לוק והתחקירים הנרגשים בנושא אני די משוכנע שאתמול ניסה מישהו לדרוס מפגינים בחיקוי כמעט ישיר ש… mossiraz בביתו של הנהג שניסה לדרוס התגלו גליונות של ישראל היום בהצלחה רבה sivankli  NeumanRoee TopazLuk שטויות יש רק משוואה אחת כל זמן שנתניהו לא מפטר את TopazLuk אין לאף אחד בממשלה לגיטימציה להגיד למפגינים מה לעשות ShovrimShtika הרשימה המדהימה הזו היא חלקית בלבד כמובן מי שהרכיב את הרשימה הזו בחר להשמיט אלימות כלפי חיילים ושוטרים והיו כאלה בשפע… ZulatEquality ממש כפי שדון דרייפרכוכב הסדרה ״מד מן״ משקר כדי למכור סיגריות כך נתניהו מפזר מסך עשן של הונאה כדי למכור לנו את המשך השל… shacharbm הבעיה העיקרית עם טופז הסמרטוט של הנוכל ועם המתחזה לעיתונאי בשם גולן אינה הפרת הבידוד והשקרים הבעיה העיקרית זה ששלטון שולח… amirtibon אני הייתי בבידוד 14 יום אחרי טיסה מארהב למרות שהסיכוי שנחשפתי לחולה היה אפסי וקיבלתי תוצאה שלילית בבדיקה לא באו לבדוק אותי… NitzanHorowitz המחאה חשובה ביותר  דווקא בזמן חירום אל מול כשל בריאותי וכלכלי בלתי נתפס תוך מתקפה על הדמוקרטיה אנחנו חייבים להשמיע… ניסיון הדריסה הערב בבלפור הוא תוצאה של הסתה מתמשכת של רהמ וחסרי החוליות שעומדים לרשותו האנשים האלו פותחים נצרה וס…  arianamelamed קח נתניהו קח קרדיט נדב גלאון  INegbi עוד התקפה אלימה של אשה על ידי בן זוגה התרחשה היום במצפה רמון מצבה של האשה קשה מאוד מתברר שגם לפני שנה תקף הגבר את האשה והוגשה… נדב התבלבלת הכל זה בגלל ביבי  כל ההחלטות של רה׳מ והפלנגות שלו הם החלטות פוליטיות ואין קשר בינן לבין בריאות הציבור כשהם יתעלו מעל השיקולים הפוליט…  אסור לנו להשתתף במשחק שרהמ והפלנגות שלו גוררים אותנו אליו שבו אנחנו מתווכחים ומתפלפלים בינינו איזו הפגנה הייתה מיו…  ההחלטות של רהמ הם של פוליטיקאי בזמן משבר פוליטי שמבחינתו מערכות פגומות אינן בעיה שיש לפתור אלא הזדמנות שאפשר לנצל…  נכון כל מילה  תרשמו כי יהיה ממש מעניין  the7i השופט מנחם קליין פסק כי חושף השחיתות רפי רותם נעצר ונאזק לשווא והעניק לו פיצויים בסך למעלה מ200 אלף שקל  פסק הדין נפתח בציטוט… הספירה לאחור מתחילה עכשיו  via YouTube   אם גם אתם רוצים לכפות על נתניהו להתייצב למשפט ולצא…  לעלות הערב לבלפור זה לקחת אחריות זה לא גול עצמי ולא הפרה של כללי הסגר זה לקחת אחריות במקום שבו ממשלה ומערכת פוליט…  ZulatEquality  כדי להבין איך האישה המדהימה הזו שינתה את חייהן של נשים רבות כל כך מומלץ לצפות בסרט הזה לזכרה   זהבה גלאון מזמינה אותך לתמוך בפסטיבל סולידריות  via FacebookWatch  ZulatEquality NewEraDic אַחְרָיוּת  היכולת לשאת בתוצאות של מעשים ופעולות היות ובתום עשור שנות שלטון פג תוקף האחריות של רהמ כלפי המדינה ולנוכח הקל…  amirtibon בדיוק בגלל ההתנהלות בשעות האחרונות  בלאגן פאניקה חוסר החלטיות זלזול מוחלט באזרחים  אנשים ימשיכו להפגין נגד נתניהו והממש… ZulatEquality שנת שלום שנת שוויון שירבו זכויתינו כרימון שנה טובה לכולן ולכולם   EladCarmel For the piece in Hebrew  66 ZulatEquality במקרה שלפנינו השלום ההיסטורי עם מדינות שמעולם לא נלחמו נגדנו היה צריך לעורר היסטריה בשורות הליכוד בואכה מועצת ישע… הממשלה הזו היא ביזיון  החמוצים Amos123Biderman Haaretz  הפרשן המדיני AkivaEldar בדיון בנייר העמדה של זולת FAKEPEACE  הפרשן המדיני AkivaEldar בדיון בנייר העמדה של זולת FAKEPEACE  ZulatEquality חכ Ahmadtibi  שלום צריך לעשות קודם כל עם האזרחים הערבים באמצעות חוק יסוד השוויון FAKEPEACE ZulatEquality נשיאת זולת zehavagalon צריך לשים לב שרוהמ נתניהו לא דרש מבחריין להכיר בישראל כמדינת העם היהודי כמו שהוא דורש מהפלסטי… ZulatEquality חכ Ahmadtibi  אמנם הקהילה הבינלאומית רובה תומכת במאבק הפלסטיני אבל הבית הלבן והממשל האמריקאי עוי  שהמדיניות שלו כמע… ZulatEquality עקיבא אדלר בשידור החי בפייסבוק   מה שקרה פה משחק לידי החמאס  הם אומרים שכל המושחתים האלה  אבו מאזן והאמירויות  לא ש… ZulatEquality חכ Ahmadtibi בשידור החי בפייסבוק טראמפ ממשיך בקו העוין לזכויות של העם הפלסטיני יש כאן מפגש אינטרסים שהנפגעים שלו ה… ZulatEquality עקיבא אלדר בשידור החי שלנו בפייסבוק  אפילו הצעתי לקרוא להסכם מזימת המאה אני למדתי בשיעורי ההיסטוריה ששלום הוא תוצאה ש… ZulatEquality ‼תזכורת אחרונה ‼  ממש עוד רגע זה מתחיל 2100 שידור חי בפייסבוק  חכ אחמד טיבי עקיבא אלדר ונשיאת זולת זהבה גלאון ע… NitzanHorowitz ממשלה שכונה  ישיבת ועדת החוקה לאישור תקנות הסגר נקבעה למחר בבוקר  הרגע האחרון ממש  למה מה הבעיה למי אכפת מ9 מיליו… הקארמה טסה לארהב בזמן שכל המדינה בסגר ולא תאמינו מה קרה אחר כך  הייתי ממתין לטעות של הנגיף שמעון זה וירוס מה בדיוק התוכנית שלך לחכות לו ליד הוולדורף אסטוריה  תגידו אם הם הפרו הנחיות למה שלא יהיו בבידוד 14 יום הרי גם ככה יש סגר   אראל סגל  זהבה גלאון זו הונאה  זה פייק פיס  btselem 792020 חיילים מאבטחים מתנחל שנכנס לחירבת אטובא בתואנה לחיפוש צאן גנוב בליל ה7920 הגיעו כעשרה מתנחלים מלווים בחיילים לק… ZulatEquality תזכורתהערב ב2100  חכ Ahmadtibi עקיבא אלדר ו zehavagalon עונים על כל השאלות שלכם מה בדיוק כתוב בהסכם והאם הפל… ZulatEquality ואולם האמת היא אחרת אין מקום להשוות שדרוג של נורמליזציה עם שתי מדינות מרוחקות לסיום מצב הלוחמה עם המדינה החזקה ביותר ש… האמנם המשך מורשת רבין ופרס פאנל דיגיטלי בשידור חי היום יום רביעי בשעה 2100 האם זה הסכם שלום או FAKE PEACE רוצ…  Partners4Israel Netanyahu is basking in the light of the deal with the UAE But while the agreement scuttled immediate plans for de j… הרגה את רבין  talschneider מחוץ לבית הלבן  קבוצת המפגינים הישראלים בסיוע GONENB1  A unique idea by SusieBecher1 for a new strategy that can change the Palestinians image from naysayers to yeasaye…  מזכירה לך שרבין ופרס שאפו לדיאלוג עם הפלסטינים כדי להגיע לפתרון שתי המדינות רבין נרצח בשל חתימתו על הסכם אוסלו ובש…  באוקטובר 1994 יוסי שריד שהיה השר לאיכות הסביבה הגיע לבחריין כדי להשתתף בשיחות אזוריות בנושאים סביבתיים בבירה מנאמה…  ZulatEquality אז מה חשבנו על הטקס המרגש  שלום אמיתי זה  סוף הכיבוש  קץ למלחמות  שגשוג וצמיחה לישראלים ולפלסטינים  FAKE PEACE זה… אני חושב שנראה את הפלסטינים בשלב מסוים אומר הנשיא טרמאפ בטקס החתימה החשוב על הסכם הנורמליזציה  כל עוד השלב…  UnxeptableD שוחד מרמה הפרת אמונים גם בוושינגטון מזכירים למושחת שהוא מואשם בפלילים  ZulatEquality האמנם הסכם שלום או אולי הונאת השנה נשיאת זולת zehavagalon מפרקת את הFAKE PEACE של נתניהו במאמר מיוחד בHaaretz ספויל… כאילו מצחיק עד שנזכרים שזה נגרם בדיוק בגלל אותה רשלנות פושעת של נתניהו שהביאה עלינו את המשבר הרפואי והכלכלי הבלתי…  OrRavid ערב החתימה על ההסכם ההיסטורי עם האמירויות ובחריין פעיליי שלום אנונימיים הגיעו לפנות בוקר לנתניה והחליפו את דגליי איחוד האמירוי… EmilieMoatti אמילי יקרה תנחומים וחיבוק גדול מתרגשת בשבילך וברכות על פרסום הספר וממליצה לכולם לקרוא את השרשור כדי להתרשם מרוחב היריעה והמקצועיות של חברתי…  IshayShnerb אני לא חמוצה זה פשוט פייק פיס בקישור הראיון עם זהבה גלאון מהבוקר החתימה היום של רהמ על הסכמי הנורמליזציה בוושינגטון היא חשובה לישראל מבחינה דיפלומטית וכלכלית אך היא אינה הסכם של…  ZulatEquality פאנל דיגיטלי בשידור חי יום רביעי הקרוב בשעה 2100 חושפים את הונאת הFAKE PEACE של נתניהו רוצים שנענה על השאלות שלכם… einatovadia אההההה אני רק רוצה להזכיר לכווולכם שזה קודם כל לפני הכל הופיע במוחו הקודח של רוני הגאון ⁦NewEraDic⁩ וקודם כל לפני הכ… GLZRadio יור מרצ לשעבר ונשיאת מכון זולת לשוויון וזכויותאדם zehavagalon על ההסכמים עם בחריין ואיחוד האמירויות מנרמלים סכסוך וכיב… ניתן להירשם   amirtibon גורמים במערכת הבריאות מתווה התפילות בחגים מסוכן ובלתי אפשרי לאכוף אותו בקיצור הולכים לרסק את הכלכלה והמשטרה תרדוף עם נייד… Partners4Israel Latest in our Kolot Voices of Hope series ZulatEquality was launched by zehavagalon as an activist think tank to… UnxeptableD On Tuesday September 15th PM Netanyahu will sign the diplomatic agreement between Israel and UAE We American Israelis… כל מילה  מרגש שאתם איתנו במאבק rachelbatish offirgolan   ככה נתניהו מנסה להסיח את דעתו של ציבור מוכה תחלואה ושבור כלכלית בעוד אירוע השקה מפונפן על מדשאות הבית הלבן של השקה…  רהמ נתניהו טס לוושינגטון לחתום על מה שהוא מוכר לנו כהסכם שלום מבלי לעדכן את הממשלה והכנסת רוצים לדעת מה יש בהס…  ShuliMR הסתיים ערב הזכרון לקורבנות הזנות של קואליציית הארגונים הדתיים למאבק בזנות והעיתון MakorRishon  יותר מ  2000 צפיות  מע… einatovadia קרדיט לרוני שניידר NewEraDic המוכשר einatovadia תודו שזה כבוד שגם מישהו הדפיס את כשלט וגם זה מופיע בגרדיאן  לא נגזר עלינו שיעור ההדבקה הכי גבוה בעולם לא נגזרו עלינו חצי מיליון מובטלים אלף מתים ובתי חולים קורסים זה קורה כ…  בגדול זה שעברת מלחפור למלצריות כל היום ללהמציא שיחות מדומיינות איתן זאת התפתחות חיובית  שימו לב שלא אמרו איזה בית אתם יודעים איזה בית במקרה נמצא פחות מ  500 מטר מכיכר פריז בית ראש הממשלה  StavShaffir קלמן שכח להזכיר שויקיפדיה הפכה לזירת קרב מאז ששקד ובנט הקימו במימון מועצת ישע קורס להכשרת עורכי ויקי לשכתוב ההיסטוריה כד… omrifeinstein ליצמן מודיע על התפטרותו  freyisrael1 ליצמן המציא קונספט חדש של התפטרות מתפקיד שר אבל הישארות צמוד לשמנת שמע אדון נכבד אם אין לך אמון בממשלה אתה מוזמן להתפטר… אוי לא רק שליצמן לא יתפטר    nirhasson אפילו ביביסטים חייבים להודות שמדובר במחאה מרשימה מאוד מזכיר שזה השבוע ה12  תראו איך נראית ממשלת נתניהו  — שולחת לאולפנים חנפנים ומוגי לב להסביר לנו מה זו דמוקרטיה  OrRavid הדגלים השחורים מציגים מיצג מחאה מרשים ויוצא דופן בצוק מנרה N12News  VeredLee1 כל הכבוד אריאנה   השבוע התברר שהמשטרה שטייחה את רצח אבואלקיעאן אינה שונה בכלום מהמשטרה שעורכת היום מעצרי שווא המוניים של מפגינים בבל…  sadibenshitrit בואו לבלפור אנשים אני לא אהיה מקווה שאנשים שעדיין לא הגיעו יגיעו יאללה חברים יקרים בואו נוציא אותו מבלפור  אתם צריכים לקרוא את הכתבה הזו את התיאורים המחפירים של מאפייני ההפרדה במסלולים האקדמיים לחרדים וזה קורה בגלל המלג…  זו הפעם היחידה שאני הולכת להמליץ למפגינים על אסטרטגיה של איתמר בן גביר הגישו תביעות נזיקין נגד השוטרים ונגד המשטרה…  3000 נדבקים חדשים מדינה לא מתפקדת והאיש מתעסק בסידורים של הפרייבט גט שיטיס אותו להגיד ביי אחרון לטראמפ ולהרים פו…  OdehBisharat שי ניצן אין דבר כזה שאי אפשר לקבוע שזה פיגוע או לא פיגוע זאת אומרת שהחשד יימשך לכל החיים וגם אחרי תום החיים זו התעללו… einatovadia שבת שלום מתוקות  barpeleg זו תמיד כרוניקה ידועה מראש אשה אחת שבורחת מבני משפחה רצחניים חנין אלעביד שנרצחה הערב חותנה כשהיתה קטינה בת 16 לבן זוג בן… orlybarlev היום  צעדת מגש הכסף 1530 יוצאים ממשכן הכנסת הישנה המלך גורג 24 וצועדים לבלפור שידור חי יועבר אצלי בפייס  ועוד התפתחות משפטית מעניינת בפרשת הצוללות אצל YVerter הבוקר ב Haaretz   היערכות לקראת עתירה לבגצ שתגיש עוהד ד…  המשבר מחריף ונתניהו עסוק רק במשפט שלו  רה״מ נכשל במילוי תפקידו לחצו כדי להצטרף לקריאה לח״כים להפסיק לשתף פעולה ול…  ShemuelMeir BarakRavid NoganNir מטוס פרטי של נתניהו ורעייתו לפסטיבל שלום פרטי שארגן נתניהו לעצמו במדשאת הבית הלבן בעיצומה של קורונה… asihaim SShpurer hamakom מציעה שתקרא את המאמר שפרסמתי היום בהארץ אתה יכול למצוא אותו גם בטוויטר זה לא ״פיגוע הסברתי״ זו התנהלות רעה ברמה הכי בסיסית זה נזק הסברתי כי הדבר עצמו בזוי לא כי מישהו ׳ינצל׳ את זה  התחקיר של SShpurer שכל אחד חייב לקרוא כבוד ל hamakom   מלחמה בהטרדות מיניות ברשת יוזמה חשובה ומרגשת של arianamelamed וחברותים נוספים איך עושים את זה תומכים ותורמים…  ZulatEquality איך מצלמה על כל שוטר תגן על המפגינים מפני אלימות המשטרה בואו לשמוע בשיחה של מנכ״לית זולת einatovadia עם meroy91   ס… RonSkolnik The struggle is for equality within 2state framework Its delusional to think one can make 2 peoples btwn whom flows a…</t>
-  </si>
-  <si>
-    <t>הממשלה הכושלת ממשיכה לדבר ב36 קולות לציבור נמאס מהצעות שלא עוברות הוא גם ככה כבר לא מאמין במי שמנהל את המשבר  ק…  notkin1985 מה יש להם למהר גם מחר תהיה קורונה זו ממשלה מנותקת של 36 שרים ו16 סגני שרים שדואגת לעצמה  כחול לבן משרתים רק את ראש ממשלה הם לא משפיעים ונשארים בממשלה שמפקירה את הציבור גנץ מה יש לך לעשות בממשלה הזאת  הסגר הוא כישלון של ממשלת נתניהו אפשר היה להילחם אחרת במחלה גם בלי להרוס את הכלכלה   פרופ גמזו זה לא אתה שנכשלת ושצריך להצטער בפני הציבור  נשמע שקצת מאוחר מדי בשביל זה  הסגר הזה הוא כישלון של ממשלת נתניהו  אפשר היה להילחם במחלה גם בלי להרוס את הכלכלה אסור היה לצאת לסגר שני בלי תוכנ…  בושה שכחו שהם צריכים לעבוד עבור אזרחי ישראל שעוד רגע מתחיל סגר הרסני  הסגר הוא כישלון של ממשלת נתניהו המחיר הכלכלי הנפשי והחברתי יקר מידי אפשרי היה להילחם אחרת במחלה גם בלי להרוס את…  ולשמור על כלכלת ישראל  gantzbe אתם משרתים ראש ממשלה שעסוק רק בפוליטיקה זולה אתם לא משפיעים ונשארים בממשלה שמפקירה את הציבור  מה יש לך לעשות בממשלה הזאת אולי מספיק לזרות חול בעייני הציבור לא היה לשר Izhars7 שום פועלו שאפשר להמשיך אותו  אי אפשר היה לנסח את זה טוב יותר  If you have to shoot shoot dont talk  arikbender חבל רק שהוא וימינה הצביעו ברגלים ולא היו במליאה בזמן ההצבעה הראשונים לזהות בטח לאור ההצהרה של נתניהו עכשיו  זה נכון  סוף סוף הגיע dudiamsalem  אולי סרטון של עוזרי נתניהו שומרים על ההנחיות יעזור  כחול לבן משרתים ראש ממשלה שעסוק רק בפוליטיקה זולה הם לא משפיעים ונשארים בממשלה שמפקירה את הציבור gantzbe מה יש…  תגידי cohenmeirav השר Izhars7 נפגש עם gantzbe  ואת בין פוליטיקה למנהיגות מפריד ערך האחריות יזהר שי 7920 תגידי FarkashOrit השר Izhars7  נפגש עם gantzbe  ואת בין פוליטיקה למנהיגות מפריד ערך האחריות יזהר שי 7920 תגיד MichaelBiton4 השר Izhars7  נפגש עם gantzbe  ואתה בין פוליטיקה למנהיגות מפריד ערך האחריות יזהר שי 7920 תגיד alonschustermk  השר Izhars7 נפגש עם gantzbe ואתה בין פוליטיקה למנהיגות מפריד ערך האחריות יזהר שי 7920 תגיד asafzamir השר Izhars7 נפגש עם gantzbe  ואתה בין פוליטיקה למנהיגות מפריד ערך האחריות יזהר שי 7920 רגע לפני שיפגוש את gantzbeרצינו להזכיר משהו לשר Izhars7 בין פוליטיקה למנהיגות מפריד ערך האחריות יזהר שי 7920     ומה שהוא באמת התכוון להגיד הסגר הוא כישלון של ממשלת נתניהו המחיר הכלכלי הנפשי והחברתי יקר מידי אפשרי היה להילח…  YakiAdamker  YakiAdamker  YakiAdamker  YakiAdamker  YakiAdamker  YakiAdamker  את תתנו לכותרת של MaarivOnline לעבוד עליכם שרי Kachollavan19 אשמים בדיוק באותה מידה מה הם עושים בממשלה שמפקירה כ…  זה אותו Izhars7 שהודיע שהוא לא רוצה להיות שר כדי למנוע ביזבוז ואז הלך להיות שר  attilus יש כאן כשל של ממשלה netanyahu עושהאת כל מה שאתה מתאר ושותפו gantzbe שנכנס לממשלה בתירוץ של טיפול בקורו…  זאת קריאה לשרי ממשלת ישראל את כל ה 200000 אנשים שנדבקו בקורונה 634 חולים קשה מאות אלפי המובטלים לא מעניינת הפו…  מי נתניהו שלנו מה פתאום  עם 6800 חולים חדשים אף אחד לא מאמין שהוא מסוגל  ככה זה כשלמקבלי ההחלטת אכפת רק מעצמם  היום לכל המאוחר מחר שיכנסו לתוקף אחרי יום כיפור שיהיו לא רלוונטיות נוכח הנתונים החדשים ושישתנו כי זה לא טוב פול…  מדינת ישראל לא שייכת לבנימין נתניהו ולאזרחי ישראל מגיע תשובות לכאוס הבריאותי והכלכלי שישראל נמצאת בו בגלל ניהול כושל של נתניהו וממשלתו נתניהו הבין שהוא איבד שליטה על רמת התחלואה בקורונה על הנזק הכלכלי הצפוי לאזרחי ישראל ועל חוסר אמון הציור ביכולתו ל…  נתניהו נכשל בורח מאחריות וכעת גם מפחד לשמוע את הביקורת הציבורית  במקום לקיים את החוק ולהתייצב בפני כנסת ישראל ר…  הלם  בשביל להחזיר את אמון הציבור בצורך האמיתי של ההגבלות צריך קודם כל דוגמה אישית הממשלה הזו נכשלה בריאותית כלכלית וג…  הציבור משלם את מחיר הכישלון של נתניהו  לשרים שתוקפים את הממשלה  כבר התרגלנו אבל כשיור ועדת החינוך תוקף ככה ומוסיף שגם היום הוא יעבוד כדי לשנות את זה…  ממשלה מנותקת של 36 שרים ו16 סגני שרים  הסגר הזה הוא חותמת הכישלון של נתניהו  בריאותית וכלכלית זה יכול וחייב להיות אחרת  שר הבריאות בבשורה לבעלי העסקים שעדיין לא הבינו למה הם יהיו בסגר ואחרים לא יהיה עוד ויהיה יותר גרוע  ממשלה כושלת שלא מצליחה לנהל את משבר הקורונה מישהו שם זוכר שמדובר בחיי האזרחים בפרנסה במסורת בושה נכשלתם תתפטר…  בזכות פניית AndreyKozhinov  לשר הבריאות מעתה מסרוני איכון השבכ ישלחו בשפות השונות  ככה מחזירים את אמון הציבור ב…  בנאומה על הצעת החוק המבקשת להחזיר את המיליונים שנגבים מהציבור מקנסות על הפרת מגבלות הקורונה  לציבור תקפה יוזמת הח…  GLZRadio netanyahu steinitzyuval YaelDan1 ברגע זה ממש ישנם בבידוד 3157 אנשי צוות רפואי שמשלימים שבועיים של בי…  כשגם סגן שר הבריאות מודה שבריאותית יש פתרונות טובים בהרבה מה ישאר מאמון הציבור בממשלה הזו לאחר הסגר  הקואליציה מחביאה את כשלון הממשלה במקום להעביר את הצעת החוק של idanroll שמבקשת לחשוף את הפרוטוקולים בהם מפורטים עמ…  עוד 40 תקנים להתמחות עבור רופאים עולים חדשים נוספו בזכות פנייתו של YRazvozov לחברי ועדת העלייה והקליטה בטח כשמערכ…  מנציגי הענפים יעל דניאלי מנכלית התאחדות המלונות 150 מלונות היום סגורים חצי שנה ומה יקרה עכשיו ביום שישי ייסגר…  מנציגי הענפים חיים פרנקל בעלים של רשת מכוני כושר אנחנו ענף שמעסיק מעל 140000 עובדים ודואג לבריאותם של מיליון ו…  מנציגי הענפים לילך ספיר בעלת מסעדות מתל אביב בשבילנו העצמאים העסק שלנו הוא הילד שלנו וילדים זה לא צעצוע שאפשר…  מנציגי הענפים השונים דדי ביטון בעלים של רשת חוגים מהוד השרון החינוך הבלתי פורמלי זה המקום בו מתקיימת הלמידה המש…  חבר ועדת הכספים MKMikiLevi לוקחים פה משק חבוט רווי אבטלה עם גירעון אסטרונומי 70000 עסקים שנסגרים בלי תקציב…  באותה הצהרה למניעת הסגר אמרה OrnaBarb במשבר בסדר גודל כזה צריכים מנהיגות אמיצה ולא מנהיגים פחדנים לא דאגתם למער…  ראש האופוזיציה יאיר לפיד תקף את הממשלה שמוליכה המדינה לסגר נוסף הממשלה היחידה בעולם שמכניסה את אזרחיה לסגר שני…  נתניהו יכול להמשיך להציג גרפים אבל את המספרים האמיתיים אזרחי ישראל מרגישים בכיס במכולת ובחשבון הבנק  גם בריאותית יש פתרונות טובים יותר מהסגר הזה  הסגר הזה הוא מכת מוות למובטלים לעצמאים לעסקים ולכלכלה כולה  בזכות פנייתו של YRazvozov לשרי הבריאות והספורט הוחלט שליגות הספורט המקצועניות ימשיכו לפעול גם בזמן הסגר  gideonallon בשבוע שבו הממשלה מודיעה על כשלונה הטוטואלי בטיפול במשבר הקורונה ומטילה על אזרחי ישראל סגר בפעם השנייה…  עד לשם הגיעה Orlylevy בסיורים שלה סחטיין  הסגר הוא הודאה בכישלון הנה דוגמה לניתוק של הממשלה שidanroll פועל כדי לתקן  arikbender בשבוע שבו הממשלה מודיעה על כשלונה הטוטואלי בטיפול במשבר הקורונה ומטילה על אזרחי ישראל סגר בפעם השנייה…  מזל שעדיין לא סיפרו לעולם שמאות אלפי ישראלים עדיין מובטלים  שלום כיתה א  ביי כיתה א סגר לא מתוכנן הוא מסוכן ופוגע בחינוך ילדי ישראל  הסגר בחגים הוא חותמת הכישלון של נתניהו  הממשלה איבדה את אמון ציבור  נכשלתם תתפטרו netanyahu gantzbe  zalmanovitz KolBarama בשבוע שבו הממשלה מודיעה על כשלונה הטוטואלי בטיפול במשבר הקורונה ומטילה על אזרחי ישראל סגר ב…  נתניהו נכשל בטיפול בקורונה  ככה נראה כישלון ששיקולים הפוליטיים גוברים על מה שחשוב באמת  האזרחים  ליצמן זה לא השר שברח מתפקיד שר הבריאות כשפרצה מגיפת הקורונה וזה ששנים העדיף שתקציבים יעברו למקומות אחרים מלבד מערכ…  נתניהו נכשל בטיפול בקורונה לכן אסור לממשלה להחליט על סגר בלי תוכנית מקצועית ליציאה ממנו  מזה חודשיים שאלפי פעילים שלנו יוצאים מחוזקים בחברי הכנסת להפגין נגד הממשלה שלא דואגת לאזרחיה במשבר הבריאותי והכלכלי…    מנותק נמאסת  הפרויקט מתחילים בהייטק של חכ idanroll  ממשיך והפעם עם פייסבוק ישראל חכ רול אני גאה שאחת החברות הגדולות והמצ…  ספירה נכונה של נפטרי הקורונה היא קריטית בקביעת מדיניות הממשלה לכן דורש YRazvozov מרה״מ לבצע ספירה מחודשת  צריך ל…  מילה טובה לMKMickeyLevy על עשייה משמעותית והישג חשוב עבור העסקים הקטנים  אנחנו נהיה שם ואתם  הממשלה נכשלה  בתגובה לכישלון הממשלה לעצור את קצב ההדבקה אמר netanyahu הפרקליטות והוסיף gantzbe אני עם היד על ההגה  מה שווה שאתם עם הרגל על הברקס אם אתם לא לוחצים על הדוושה  חברי Kachollavan19 אתם תחת ראש ממשלה שעושה הכל כדי…  בטח בתקופת משבר הקורונה כשהנתונים מראים שישנם יותר ויותר קשישים וקשישות שנאלצים לעבוד חשוב לאפשר למי שיכול להשתכר…  מתוך 100 המשפיעים של כלכליסט  ע׳דיר משמשת נציגה של ה״דרוזים החדשים״ בכנסת דור חדש של מנהיגות ומעורבות חברתית המ…  פנייה לכל חברי הכנסת כל מי שאי פעם דיבר על ממלכתיות החוק הזה תלוי בכם  אז מה יעלה בגורל קבינט הפיוס סוף סוף אחרי שהוועדה לבטיחות בדרכים לא כונסה מאז יוני 2018 מונה פה אחד BToporovsky ליור וועדת המשנה לבטיחות הדרכ…  מזל טוב בקרוב אצלכם חתונה  לא קורנה  21320 נתניהו ״אני מנווט את הטיטאניק אני עומד בסיפון״  חצי שנה אחרי  ממשלה מנותקת של 36 שרים ו16 סגני שרים שדואגת רק לעצמה במקום למה שחשוב באמת  האזרחים  עוד עלה בדיון שהקרן להלוואות בערבות המדינה לעסקים קטנים בסיכון חילקה פחות מרבע הסכום שהוקצה לכך ושהבנקים מודים שהם…  בועדת הכלכלה דנים על עזרה לעסקים הקטנים ואפשר היה לחשוב שאין בכלל משבר אלא אם BToporovsky לא חשף האמת שמאחורי הנת…  ממשלה מנותקת ומסוכנת לציבור gantzbe netanyahu  מנהל שנכשל צריך להתפטר  ישראל ניצבת מול המשבר הבריאותי והכלכלי החמור בתולדותיה netanyahu קח אחריות תודה בכישלונך ותתפטר  רק כך נוכל לשמ…    כישלון מסוכן של ממשלת ישראל  נתניהו נכשל בטיפול בקורונה והציבור איבד אמון ביכולתה של הממשלה להוציא אותנו מהמשבר  yairlapid הממשלה הזו כבר לא רק מנותקת היא מסוכנת יושבים צוותי מומחים רופאים כלכלנים אנשי מדיניות ציבורית וממשל מקומי בונים תוכני… אז הוא דחה מה הלחץ גם מחר תהיה קורונה  כשראש הממשלה נכשל בטיפול במשבר הקורונה והחליפי לא רלוונטי אזרחי ישראל ימשיכו לשלם את המחיר  הממשלה איבדה את אמון הציבור לכן KElharrar וYSegalovitz שומרים בדיון בוועדת החוקה שההחלטות על מתווה הרמזור הן מקצועיות ולא פוליטיות  mkorlyfroman אסור להפסיק כולנו חייבים להמשיך במחאה ולהגיע לבלפור ביחד נוביל לשינוי עד שנתניהו יתפטר  כשהפוליטיקאים לא מאפשרים לאנשי המקצוע לקבל החלטות הם אלו שישאו במחיר הכישלון  מי נתניהו נתניהו שלנו לא יכול להיות  yairlapid העלייה בתחלואה מדאיגה ונובעת מכשלון ניהולי מחפיר של הממשלה הזאת חייבים לפעול מהר ובמקצועיות ללא שיקולים פוליטים זאת האפשרו… yairlapid 36 שרים ואף אחד מהם לא לוקח אחריות על ענף המסעדנות מפקירים אותם לגורלם ללא תשובות ללא תוכנית אף אחד לא מקשיב להם לבעיות… תוצאה של ממשלה שעושה הכל חוץ מלדאוג לאזרחים  נתניהו נכשל כישלון מחפיר בניהול המשבר הכלכלי והבריאותי  לכן לפי דרישתנו ביום רביעי הקרוב הוא יתייצב בכנסת לדיון…  עוד עדות לכישלון של ממשלת הקורונה  תנו לאנשי המקצוע לעבוד מהר ללא שיקולים פוליטיים gantzbe netanyahu  yairlapid גם שבוע הבא לא מתוכננת ישיבת ממשלה הממשלה ויתרה על ניהול המדינה מדובר במשתמטי עבודה שאנחנו משלמים להם את המשכורות yairlapid יש לי כבוד רב לרב קנייבסקי ואני מקווה ומאמין שהקריאה להמנע מבדיקות קורונה בישיבות לא הגיעה ממנו בכל מקרה פרופ׳ גמזו צודק ב… yairlapid אחרי הכשלון בבריאות ובכלכלה יגיע גם הכשלון בחינוך מנותקים נמאסתם  yairlapid מאחל רפואה שלמה ומהירה לשני אנשי כוחות הבטחון שנפצעו הבוקר בפיגוע בצומת תפוח כוחות הבטחון פעלו בצורה מהירה וההחלטית שהביאה… אין אמון בממשלה מנותקת  תתחילו כבר לעבוד בשביל הציבור gantzbe netanyahu  bogieyaalon היום נחתה עלינו ״בהפתעה גמורה״ שנת הלימודים   אתמול נתניהו היה עסוק בשיווק נחיתת המשלחת באמירויות והתפנה רק בערב לדיון…  מגיע לילדים שלכם יותר  yairlapid בשורה התחתונה למי שלא הצליח לעקוב ברקת תוקף את כץ שתוקף את מרידור שתוקף את ביבי שלא נותן גיבוי לגמזו ואני שואל תגידו אתם… צודקת בכל מילה נתניהו וגנץ נכשלו נכשלו בטיפול בקורונה ונכשלו בטיפול במשבר   נתניהו נכשל בטיפול בקורונה  הממשלה איבדה את אמון ציבור  yairlapid הממשלה הזו שפכה עשרות מיליארדים בלי שום שיקול דעת ומסרבת לתמוך בתנועות הנוער ניאבק בוועדת הכספים עד שיימצא התקציב להצלת תנו… yairlapid מצדיע לראש ממשלת יפן שינזו אבה גם על הדרך בה שירת את עמו גם על הבחירה ללכת ברגע שהבין שהוא כבר לא בשיאו כך נראית הנהגה אח… yairlapid התפטרותו של שאול מרידור היא לא תמרור אזהרה אלא אזעקת אמת כפי שהזהרנו כלכלת ישראל הפכה לאיזור אסון הניהול הכלכלי של משבר הק… bogieyaalon כששומעים את פרופ׳ ברבש אומר שאילו היה הממונה היה מתפטר כבר 3 פעמים על כניסת 17 אלף תלמידים מחו״ל על אומן ועל פתיחת שנה… דבריו של ראש אגף התקציבים באוצר קשים ואמיתיים  MKMickeyLevy מציע לבטל להם 34 מהשכר או להוציא את כולם לחל״ת גם ככה רובם מיותרים ולא תורמים לאזרחי המדינה דבר bogieyaalon כשנחשפים לתהליך קבלת ההחלטות של נתניהו באשר לנסיעה לאומן מבינים את כישלונו בניהול משבר הקורונה וגם את המשבר בחינוך בכל… הקדימו את הבחירות ולא אמרו בכל אופן באמת חייבים שינוי כיוון ודרך אחרת מהדרך של netanyahu  yairlapid מברך על כך זה חשוב זה כיוון טוב מוכן בכל רגע לשבת לדיאלוג חוצה מפלגות ומחנות איך לעשות את זה נכון  KElharrar מדינה בקריסת מערכות תחלואה משתוללת אין מעבדות שנה״ל בסימן שאלה אין ישיבות ממשלה כבר חודש מה הכי חשוב ועדת שרים לענין ט… yairlapid החל מהבוקר עובדי המעבדות בשביתה רוב הבדיקות לא יערכו הממשלה לא תדון בזה כי היא לא תתכנס העיקר שהוקם צוות מיוחד לטיפול בנ… yairlapid ישראלים יפים במדינה יפה יוצאים נגד ממשלה מכוערת  yairlapid אין צורך בצוות שרים לנושא הנסיעה לאומן לא צריך מתווה לא צריך ממונה צריך רק ממשלה נורמלית שתעשה החלטה לפי המלצות גורמי המק… bogieyaalon זה לא ימין או שמאל זה ישר או מושחת  לאזרחי ישראל מגיעה מנהיגות ישרה שתדאג להם לי אין ספק שהגיע הזמן למנהיגות אחרת צפו… bogieyaalon את העוצמות שלכם בשטח  איש לא יצליח לשבור את הרוח שלכם על הגשרים בככרות ובבלפור  איש לא יצליח לדכא זה לא ימין או שמא… bogieyaalon שבוע טוב לכם מהגשרים והצמתים באזור נס ציונה באר יעקב ונצר סירני גאה בכם ניפגש גם בבלפור  BToporovsky לכל שבת יש מוצאי שבת  מנותקיםנמאסתם  YeshAtidParty     מה עם התנאי של טיפול במשבר הקורונה ודאגה לאזרחים מישהו בממשלה על זה  מנותקים  YoraiLahav מה קשה יותר להגיד  גנן גידל דגן בגן או יוראי להב הרצנו  N12News חבר הכנסת עידן רול ובן זוגו הזמר הראל סקעת בראיון זוגי לIdoSolomon מספרים על ההתמודדות שלהם עם ימי הקורונה על הקריאה של ר… yairlapid ההתקפה של גורמי שלטון על בג״צ בעניין מצפה כרמים היא חמורה ומסוכנת הבקשה לדיון נוסף היא נכונה ובמקומה אבל ברור שלא גורל תוש… yairlapid שוב אין ישיבת ממשלה ביום ראשון אם הם בכל מקרה לא עובדים אפשר פשוט להוציא אותם לחל״ת yairlapid בוקר שישי במדינת ישראל מפלגת השלטון מוציאה הודעה שמאשימה את הפרקליטות שהיא אנרכיסטית ראש ממשלת ישראל מוציא הודעה שתוקפת את… bogieyaalon גם הערב אנחנו איתכם ולצידכם במחאה בככר רבין לא סתם נתניהו מודאג מהמחאה היא צודקת היא מוצדקת והיא חייבת להתעצם נמשיך… idanroll אנטנות G5 נפרסות ברחבי המדינה כולל בתוך מבנים אבל אף אחד לא בדק לפני את ההשלכות על בריאות הציבור צפו  yairlapid 850 אלף מבקשי עבודה ו36 שרים שאין להם שום עניין בזה אחוז אחד בלבד נוצל מהתקציב לעידוד התעסוקה מודל החל״ת הוא אסון תעסוקתי… yairlapid ממשלת הניתוק מציגה עוד שיא  yairlapid מדובר באסון הממשלה הזו מרסקת את העסקים הקטנים והבינוניים ברשלנותה בחוסר המקצועיות שלה בזה שלא באמת אכפת למנותקים נמאסתם… ותודה לממשלת ישראל שהביאוני עד הלום ומכאן זרקו לכלבים  KElharrar חבל שעוד אין תקנות בתוקף לחוק הפיקוח שלי ושל sbyifat אפשר היה למנוע את המקרה הזה וגם את המקרה הבא שלצערי עוד יהיה כי החוק… idanroll הממשלה יצאה בכותרות מפוצצות עם מספרים עצומים ומרשימים אבל דואגת להקשות כדי שהעסקים לא יראו את הכסף  ממשלה של אחיזת עיניים… bogieyaalon נתניהו פוחד מהמחאה ומנסה לשבור אותה בכל הכח מעצרי שווא לא חוקיים פינוי המאהל אלימות נגד המפגינים דרישה מגמזו לאסור הפ… חופשה מהנה ממשלה מנותקת  בושה  idanroll כבר בשבוע שעבר הגשתי שאילתה בנושא מינוי הוועדה והצעת חוק להוספת 250 מיליון שקלים לסל התרופות למקרה שהממשלה תמשיך להיות משותקת… YoraiLahav תרגום לעברית לא נמצאו בקואליציה 61 חברי כנסת שמספיק אכפת להם ששנת הלימודים תפתח כמו שצריך yairlapid זה פשוט לא ייאמן הממשלה הזאת פשוט לא רואה את האזרחים בכלל כל מה שמעניין אותם זה פוליטיקה זה פשוט ביזיון  KElharrar האנרכיה היחידה שנראית לעין בשנים האחרונות היא זו המנוהלת באמצעות דף המסרים של הליכוד הגיע הזמן שיפנימו שמימוש זכויות האזרחי… OrnaBarb מי אמר שהגודל קובע קואליציה ענקית שלא מצליחה להביא 61 ח״כים לאשור תקציב שנת הלימודים שוב נכשלה bogieyaalon משתתף בצערם הכבד של בני משפחת הרב שי אוחיון הי״ד מכריו ומוקיריו הטרור גבה היום שוב מחיר דמים נורא אני סומך על כוחות הבי… yairlapid ליבי עם משפחתו ויקיריו של הרב שי אוחיון זל שנרצח בדם קר המאבק בטרור נמשך אני מבקש לשלוח את הערכתי הרבה לאזרחים ולכוחות הב… mkorlyfroman הפקרת פעוטות הגיל הרך ממשיכה וממשלת ישראל לא עושה דבר  במקום לכתוב את התקנות של חוק הפיקוח על מעונות היום ולהביאן לאישור… YoraiLahav נפגשתי הבוקר בכנסת ישראל עם נועם קניאל נועם הוא טרנס שלפני ארבעה חודשים התגייס בגאווה לצה״ל דיברנו על חלומות על קורס קצי… yairlapid אתם לא תגידו לנו מה זה יהודים אתם לא תגידו לנו מה זה יהדות ואתם בטח לא תגידו לנו מי ישראלי ומי לא ישראלי  yairlapid אני לא יודע מה נורא יותר הצעת החוק החשוכה והגזענית של סמוטריץ׳ או הודעת הליכוד שהם ידונו בנושא בהמשך במקום להודיע שהם עומ… idanroll המתקפות נגד פרופ׳ גמזו מצד פוליטיקאים לגבי החלטות מקצועיות שקיבל מעלות תהיות רבות על אופן קבלת ההחלטות בממשלה והשיקולים המעור… bogieyaalon לפי יו״ר הקואליציה גם פרופ׳ גמזו לא מספק את הסחורה הוא לא מורה על פיזור המחאה בבלפור הכל למען הישרדותו של נאשם בפליל… idanroll יש כור היתוך חדש במדינה  ענף ההייטק במשך שנים גייסתי והכשרתי חרדים לתפקידים טכנולוגיים בחיל המודיעין מה שהתחיל כפיילוט שנר… bogieyaalon פרופ׳ גמזו לקח אחריות והתייצב בחזית הלאומית אל מול אתגרי הקורונה העצומים כמה מהר הוא הפך למטרה וליעד לסיכול שמא יצליח… yairlapid מי שלא מתעדף בימים אלה תוצרת מקומית פוגע במדינת ישראל בשביל 25 אגורות לא הורסים מפעלים ישראלים ממשלה של מנותקים נמאסתם… yairlapid הגירעון בגרמניה בשיא של 15 שנה לפחות  32 בישראל אנחנו צועדים לקראת 14 הממשלה הזו לא יודעת מה היא עושה בגלל ניהול כושל של משבר הקורונה הצעירים לא יודעים מתי ייצאו לעבוד ובגלל הניתוק של הממשלה הם גם לא יודעים מתי ייצאו…  yairlapid כשיור הקואליציה רב עם פרופ גמזו הפרוייקטור של הממשלה זה לא תורם לאמון הציבור בממשלה מנותקים נמאסתם תפסיקו לריב ותתחילו… yairlapid בשנת 1996 הבטיח ראש הממשלה נתניהו ״מחשב לכל ילד״ עברו 24 שנה ב14 מתוכן הוא ראש הממשלה הילדים של כיתה א אז כבר סיימו תו… KElharrar אז מתברר שהשר פשוט שיקר לועדה אין נוסח תקנות נציגי משרד העבודה והרווחה נשלחו לדיון הועדה כבשר תותחים בעוד השר מסתתר ממתן ת… yairlapid 100 ימים של כישלון ניהולי מנותקים נמאסתם  MKMickeyLevy הצלחנו בתמורה להסרה של 160 הסתייגויות שהגשתי לחוק הגדלת הגירעון האוצר הסכים להעביר סוף סוף את 175 מיליון השקלים לחינוך… YRazvozov אני אומר בשם כל העלייה מבריה״מ לשעבר אנחנו לא צריכים להתנצל בפני אף אחד העולים מבריה״מ הם הפטריוטים הכי גדולים במדינת ישרא…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mosheifargan אם עכשיו וואטאבאוטיזם הופך לטיעון משפטי לגיטימי מתברר שזו לא רק אכיפה בררנית זו גם סנגוריה בררנית NadavEyal SaraHaetzniCohe RonnyLinder טוב שהפרופסור טרח להרגיע את הציבור ולצאת נגד אזהרות משרד הבריאות רק לפני…  מעניין אם היא או האחרים שדקל הפעיל קיבלו סיקור חיובי יותר יש כאן בהחלט בסיס לחקירה פלילית על יחסים שוחדיים כפי ש…  אם אתם רוצים הפסקה לרגע מהטרללת הכללית הנה נאום מעולה של שר המשפטים האמריקני ביל בר על פוליטיקה חקירות והגבלת כוח…  OrenNahari OmerGendler אני חושש שאתה לא בדיוק קורא נכון את הגרף הוא אומר בדיוק את מה שאמרתי וככל שתוסיף יותר מדינות הוא יגיד זאת יותר Syechimovich מעניין האם את מבינה שמדברי קלמן יוצא שאת לגמרי בצד גידולי הפרא של ערוגת העיתונות רק משמאל OrenNahari OmerGendler פשוט לא נכון הפריחה הכלכלית של ארגנטינה הייתה בתחילת המאה ה20 תבדוק את עצמך אורן אתה טועה ומטעה תרשו לי להיכנס לדיון דתי לרגע אני קורא אמירות בסגנון להתפלל מחוץ לבית כנסת זו גלות אני כופר בזה לחלוטין להתפלל…  YinonMagal מה שנקרא קונספציה DaphnaLiel הדאגה שלך לאמון הציבור נוגעת ללב במיוחד בציוץ שכל מטרתו לערערו rothmar mosheifargan שמחה לא ברור מה אתה טוען מה התחום מי ההוגים DaphnaLiel אם זה מה שיחליטו טעות חמורה עיתונאי השמאל הופכים לפתטיים מיום ליום הספין החדש המטרה של נתניהו היא לעצור את ההפגנות זה כל מה שמעניין אותו הא…  כחוללבן דבקה במשימת ההגנה על ההפגנות באופן מרשים מאוד לא זכור לי מפגן כזה של אווילות בו מפלגה שטוענת למרכזיות ומ…   אנחנו המונים מאות אלפים שיפילו את נתניהו  אבל קורונה אוסרים התקהלויות כולל תפילות   טוב מה אתה משווה תפ…  האם לא ברור לכולם שבממלכת המשפטנים ההפגנות הללו הן בעדם האם עדיין צריך להסביר למישהו שבתור התובעים הם נטולי אי…  mosheifargan בעולם מושלם הרינג היה מוצא מחוץ לחוק ronnyeps תודה רבה יש דיבור על זה אבל אני מניח שנצטרך לעבור את הסגר ואז יש לדורטל עוד אנשים בתור לפני זמן מה הופיע אצלי תמיר דורטל הניח על השולחן אוסף של מיקרופונים אזניות ומכשירי הקלטה ופרץ באוסף שאלות נוקבות…  יש לנו 3 שבועות לשמור על קפסולות כדי לעצור את הדבקה ההמונית 3 שבועות עם המשפחה זה הכל זה לא עונש זה נכס שדרוג…  faniaoz ILpolice I rest my case faniaoz ILpolice ואנחנו חשבנו שאת מוטרדת מהתפוררות האמנה החברתית פשוט לא ידענו שהאמנה החברתית היא כשהממשלה עוש…  מעולה הארד ריאליטי  GadiTaub1 שמע אני מרגיש שדופקים אותי לי יש 4 ילדים במערכת החינוך והנה מתברר לי שהנטל היה צריך ליפול על עוד 6 מבוגרים amirleshem מולטקה הזקן Blackhag אז היו הרבה יותר מ25 מיליון ילדים מישהו יכול להסביר לי את החשבון איך זה שגלנט אומר שיש במערכת החינוך 25 מיליון ילדים ו5 מיליון הורים ממתי לכל ילד…  Riklin10 שמעון שמעון להגיד את זה היום זה לא חוכמה שים לב מתי זה כבר נאמר   יושב בקפה בדיזנגוף  באה מלצרית  רק לא ביבי היא מתריסה  מפגינה של קריים מיניסטר  הליכוד מחריב את המדינה האסי…  MeirRubin זה גם זה אמונה טפלה עוד אין מספיק נתונים אבל החשש משמעותי YinonMagal שוב אתה מסית greenarik ErelSegal לא חמקתי זאת שאלה לא רלוונטית בא לאראל לדבר על בנט מה אכפת לי או לך איזה מין דיון זה בכלל greenarik ErelSegal בתור מי שעוקב סותר גם סותר ואראל צודק בעניין הסגר שגם שם לא ברור מה העמדה שלו להגיד אני…  greenarik ErelSegal מי אמר ביבי הפכת לאחד מאלה   אין פה טובים אין לאף אחד תכנית לא לביבי ולא לבנט שסותר את ע…  greenarik ErelSegal מתפקד ויעיל תכף תגיד לי גם פרקליטות לא מוטה וצהל מנצח אני מציע רעיון יותר טוב בוא נ…  avishavit mosheifargan אי אפשר להמשיך כרגיל אחד יצטרך להיות בבית או שתעשו תורות תלוי בעבודה ובאפשרויות אחרת כולם בסוף בסגר זה עדיף שלוש פעמים נכשלו במדיניות פתיחת הלימודים שהוכחו שוב כמדגרות קורונה ועדיין לא לומדים אין עם מה לעבוד mosheifargan ההורים יסתדרו ברובם סתם מיתוס לא מגובה mosheifargan אין שום סיבה לכיתות ד ומטה הכל אז היועמש אמר אין לו שום מעמד אתם הממשלה אתם מחוייבים להטיל מגבלות על הפגנות בדיוק כמו על כל דבר אחר ומי שרוצה…  amitsegal יש בדיקה כדי להגיד שהכל נבדק ולא נמצאה שום בעיה לא רק בהודעות דובר כלומר שר המשפטים אלא באופן רשמי ברור לכם שאילו השמאל היה בשלטון חופש ההפגנה היה מקבל התייחסות משפטית מידתית ומאוזן מול בריאות הציבור הפגנה המ…  GadiTaub1 ShimiOtsri זה המחקר  יותר בדיקת היתכנות מאשר מחקר רפואי מבחינת המספרים זה מאוד…  ShimiOtsri GadiTaub1 לא ראיתי שיש משהו ספציפי לגבי קורונה אבל ויטמין D מועיל באופן כללי אז אין מה להפסיד 2 מתוך 2  שני מאמרים שלי מתפרסמים היום  השני פה סיכום השבועות האחרונים בחזית המדע מול הקורונה מה אנו יודעים ואיפ…  1 מתוך 2  שני מאמרים שלי מתפרסמים היום  הראשון כאן כתב אישום זועם למדי במקור על השחיתות האמתית במערכות השלטון של…  כששי ניצן שואל בפאתוס היעלה על הדעת זה מזכיר לי את שמעון פרס שואל בוועידת העבודה אני שומע את חבריי אומרים פרס…  היש טרלול גדול מזה סרמטכל שנאם בתפקיד על תהליכים של גרמניה הנאצית בישראל ולא מבין עד היום למה זאת בעיה חושב…  מהפכה חוקתית gt הפיכה משפטית gt דמוקרטיה מהותית yoavr רק אומר יום אחד תאלץ להתנצל על הפוסט הזה סאביח מאטרס yoavr במקרה נפלת על ארגטינאי לאדינו ואני קרובי משפחה כולל חיבה לחריף yoavr מעולם לא טעית יותר סביח הוא הרבה יותר מסביח כנראה שעשו לך מנה לאשכנזים זוכרים את התיאוריה שהקורונה תיעלם בקיץ מפות יפות של כדהא עם חום וקור מוקדי התפרצויות שישבו בטווח טמפרטורה מסוים…  צריך לדבר גם קצת על נתניהו וההסכם עם האמירויות לא בכל זאת קרה השבוע אירוע היסטורי אז התנדבתי תהנו gtgt  בכל הכבוד מי שאומר שמאז המהפכה החוקתית נהרסה בישראל הפרדת הרשויות מתעלם מכך שיש בישראל שלוש רשויות שלטוניות מוסמכו…  הסיפור הזה נשמע כל כך הזוי אבל הוא לא ראשון ולא אחרון הבעיה שבדרך כלל הימין סובל ממנו אני פונה לשמאל איך אתם לא…  yCe0GV6LXJP3UXO אולי זה שהגבת לו קפה לא מספיק צריך ללוות אותו בשיעורי קריאה accurateWell חח אתה חושב שאם אתה כותב נקמה סערה להכות מישהו משתכנע אתה חושב שאתה מייצר מציאות בציוצים טפילי…  MOSHEG101 זה לא הוא yCe0GV6LXJP3UXO מעניין כי הוא בשמאל ואומר שאני עושה את זה אתה בלופ של סתירות טרולי שתה קפה ותרגע accurateWell טרול יקר שפן חביב השטויות המופרכות ובעליל המגמתיות שאתה כותב מקרבות אותך לחסימה ראה הוזהרת yoavbartov חחח youwillbesaved7 תודה תודה אבל בהחלט יש עוד רבים הרבה פעמים הייחוס של מתלהם לחבריי לא משקף כי כשזה בא משמאל אומרי…  טוב אז דהמרקר בחרו אותי לרשימת 100 המשפיעים ולא רק שבחרו נדן פלדמן גם כתב עליי בצורה הגונה וראויה ככה שלא נותר…  netaelbandel 1 ביקשו להתערב באופן שבו בית המשפט מופיע במנוע החיפוש הפופולרי ביותר זו השפעה דומה מאוד  2 אין רא…  accurateWell gershuni MidaWebsite מי שאומר שמידה אתר כחלוניסטי לא דוק ולא היטב זה האתר שהיה הביקורתי ביותר כל…  YinonMagal חמוצים זה בקלאוות לידם GA1789 yehuday30 זה יותר מפסק דין אלה הדיברות שירדו מסיני הציטוט הוא של גורו הגורואים אהרן ברק שופט בחברה דמוקרטית yehuday30 יש הבדל מהותי בין זה לבין אם בעולמה של היהדות מצוי זרם פרטיקולריסטי וזרם אוניברסלי מן הראוי הוא לשופט…  מצחיק שמרידור מדבר על עבודת מטה הרי הוא זה שנכשל כאן מקצועית ההנחיות שלא מתקיימות החלטות הממשלה שלא מתבצעות …  HaniZubida AlonaMiryam barak1cohen האני אני ממליץ לך להקפיד יותר על ההתבטאויות שלך כבר לא מספיק רק שפלות והוצאת…  מסתמן מספר הימנים שהלכו לבלפור לבדוק אם מספרי המפגינים המדווחים בתקשורת אמתיים גדול ממספר השמאלנים שבאו למחאה mosheifargan שים לו עניבה ומשקפיים והוא דומה לך 2 טיפות מים EithanOrkibi akibigman מילא קריאות ביבי אבל מתוך הרכבים שמעתם פעם דבר כזה שבוע טוב לשכת רהמ ומערך ההסברה  אסור שיקרה דבר כזה כשל שיש מספיק זמן לתקן  alonabaron קראתי אהבתי אין ספק שפויר במיטבו אבל בסוף כן היה לי חסר מאוד גם הצד של הקיבוצניקים בניר דוד בעיקר ש…  GlaznerYoav קרלסן הוא הפייבוריט אין ספק לאף אחד שהוא השחקן הטוב יותר אבל הוא מותש מסיבוב מאוד ארוך לכן לא הגיע…  markobalkoski21 הייתי צריך לכתוב שהמנצח מקבל כניסה חופשית להאסי והיית רואה מה זה טראפיק עדכון שח נוסף למתעניינים אחרי מסע ארוך מאוד בטורניר של chess24 הגיעו לגמר היקרו נקמורה האמריקני ומגנוס קרלסן הגמ…  giladzw למה צביעות הוא רוצה את החופש לחנך את הילדים שלו וגם את הילדים של אחרים YinonMagal שכחת את רהיטי הגן רעידת אדמה שלטונית akibigman מבכירות אי אפשר להחלים מה קרה לך אני מציע גם שכל מי שאינו חולה בקורונה ובמהלך הזמן יהפוך לחולה לקורונה יחשב כמי שאינו חולה בקורונה איני יכול עוד  האמת שקשה לי להאמין שהוא אמר את זה אבל מי יודע מנסיוני למדתי שבדרג המקצועי בישראל הכל אפשרי  ErelSegal globesnews לוחם צדק אתה אראל mosheifargan הייתי אומר בין מי שנדרש לחשבן ומי שיכול להגיש חשבון פגשתי את גביזון פעם אחת לפני כשנה ומשהו במקרה לגמרי יצא שישבנו זה לצד זה בארוחת ערב כלשהי ושוחחנו לא מעט היא הרש…  חם מאוד בחוץ חשוב לזכור לשים מים לחתולה וחמשת הגורים המופרעים שהשתלטו לך על החיים  33 ועדיין השמאל היה מחליף את טראמפ באובמה בלי שום היסוס פוליטיקת הזהויות מחריבה את שיקול הדעת 23  נשיא אחר זוכה לשנאת המוסדות הבינלאומיים הטיל על איראן סנקציות ביקר את האום על הטייתו וקיצץ בתקציבו מכבד את…  13 נשיא אחד קיבל פרס נובל לשלום על זה שנבחר קרא לאיראן מעצמה אזורית חיובית ועשה איתה הסכם גרעין הפגין זלזול וס…  יפה מאוד הקרן החדשה ניסתה להשתיק כדי להתחפש ללא רדיקלית שוב התבררה האמת  אני חש שיש כאן כמה שקצת חשים אכזבה מזה שנתניהו השיג הסכם שלום גלוי עם מדינה ערבית במפרץ אז למען הסר ספק הישג נדיר…  יהיה קשה לסלוח לפרקליטות וליועמשים ששיגעו מדינה שלמה במשך שנים עם דברים כמו חמגשיות סיגרים שמפניה ופיצול נכס לצורך השכרה YonatanJaku אפילו בפנטזיות הכי פרועות שלי לשם עוד לא הגעתי הדבר הכי טוב שיכול לצאת מהבלגאן הזה הוא שיסירו 90 מהתקנות המופרכות על הבניה בשטח שלך ושיגדירו סיקור אוהד ועוין…  הבעיה היא שלכולם ברור שהרכב אחר היה יכול לפסוק אחרת הפסיקות הסובייקטיביות האלה הן הדבר שפוגע יותר מכל דבר אחר במעמ…  yakovahimeir לא ביקורת ראויה ולא הסתה סתם דעה שגויה ראיתי שמתי כספי יצא על נתניהו ויאיר בצורה קצת קיצונית וזה לא היה נעים לראות אז אני רוצה להבהיר שאין דבר שמתי כספ…  לא ראיתי אף אחד מהפוליטיקאים בשמאל כולל לפיד ובוגי ואפילו גנץ ואשכנזי שמגנה את האלימות בהפגנות ואת הבוטות הדוחה…  EithanOrkibi GadiTaub1 כל הדיון הזה כל כך אנטי ליברלי עצם קיומו הוא סוג של יקום שקורס לתוך עצמו האמת שכבר מזמן הגעתי למסקנה שאין טעם להגיע לאולפנים אם 1 הזמינו אורחים שידוע שלא מעוניינים לדון כי קל מאוד לפוצץ…  טעות קשה ופגם מוסרי  הפגנה מול אנשי ציבור צריכה להיתחם בעיקר למקום עבודתם כי בני משפחותיהם שכניהם ותושבי שכונותי…  TheTowers5 GadiTaub1 חלילה חתולה יפיפיה שלוקחת מנוחה רגעית מטיפול בחמישה גורי קיץ Iaskquestions30 GadiTaub1 חתולים מתייחסים למשימות האלה אחרת מאיתנו python35 אפשר גם לשתות GadiTaub1 שים לב אגב לחתולה המנמנמת מתחת לעץ ששומרת על הגידולים naftalibennett רק בריאות chickos99 תזה כל כך מופרכת שקשה להחליט איפה להתחיל בזה שסוציאליזם הוא ההפך מחמלה משטר של דיכוי ואלימות שמבוסס ע…  Cannabisrael חח תודה לרשויות על ההיתרים ולבורא עולם על הצומח בואו נגיד שהרבה מעתידי הבריאותי תלוי ועומד על השאלה האם צריכה בלתי מוגבלת של בזיליקום היא בריאה כשם שהיא טעימה  mosheifargan לפעמים גם האמת היא אופציה 15 שנה להתנתקות זמן טוב להיזכר שלעיתונאים אצלנו אין שום מושג של אמת ושום מחויבות לעובדות לא בזמן אמת ולא בדיעבד…  3 המלצות  1 פודקאסט איתן אורקיבי ועקיבא ביגמן אידיוטים שימושיים  2 וידאו גדי טאוב ש…  eladshpier רק תיזהר לא להגזים בהפגנת מוסר ויושר תשמור משהו לעתיד ראיתי שהשמאל חוגג ואפילו עותר בעניין הייעוץ של לימור סמימיאן דרש אז הלכתי לגוגל scholar וכתבתי את השם שלה ואני שם…  mendieilat להפך זה רגע של כבוד לאומי עוד עדכון בוריס גלפנד מטורניר האגדות של Chess24 אחרי פתיחה טובה בוריס קצת התקשה אבל ביומיים האחרונים הוא ניצח פעמ…  איתמר פליישמן הוא אדם מסוכן שמטעה את הציבור  1 הוא רומז איזו מין חיה הוא מיץ פטל זהו ספויילר חמור  2 מיץ פטל ל…  navedromi תודה על ההמלצה matangeva טעיתי אתה צריך גם בחשבון וגם בפוליטיקה oferdann עמוק עמוק עמוק matangeva אני מבין מדבריך שאתה צריך שיעור בחשבון או בפוליטיקה אין יותר מדי מה להתרגש הפופוליזם האלים של השמאל ושופרותיו ההסתה והנאצות בטורבו על רקע מופעי החשפנות וביזוי הסמלים…  המאמר השבועי שלי במקור ראשון הוא בעצם נגד נחשול הסוציאלפופוליזם ששוטף אותנו בזמן האחרון  בשמאל ומדאיג יותר גם…  alonabaron נראה שזה דווקא כן די מה שנשאר מהשמאל זה מה שטוען שי גולדן הזרמים המרכזיים לא נפקדים מהשיח הם נפקדים היום מהשמאל idoarad אשריך idoarad אין ספק שאם בנט היה שר הביטחון היית מייחס את הפוסט הזה לכהונתו ככה זה בנטיסטים one track mind אני טוען מזה זמן שתקציב הביטחון אכן בחסר  אבל כדי להוסיף לו יש לבצע רפורמות מקדמיות גדולות מאוד במשרד הביטחון וצה…  מעדכן גלפנד ניצח עוד משחק וניצח בסיבוב הזה את אחד השחמטאים המובילים בעולם כל הכבוד מעדכן שבוריס גלפנד ניצח עכשיו את דינג לירן אחד החזקים בעולם בטורניר שח של Chess24 ומוביל בתוצאה 1505 קדימה גלפנד arielSugar1 תענוג לשמוע תודה רבה mikeymi90652048 אל דאגה כנף מעילו של החייל הימני ביותר יטבול במימי התעלה מבטיח yoavr אני לא עוקב באדיקות אבל אם אינני טועה הם מדברים על כיתות באוניברסיטה וקהל שבוי לא על המרחב הציבורי ועד כמ…  DiscussingEcon1 NirGodin לא זה לא שתי הטענות שלך פה שקריות mikeymi90652048 77 לא 72 באמת קצת נמוך אבל הממוצע לבד לא אומר יותר מדי mikeymi90652048 אבל אבל בחשבון ההיסטורי תוקידידס יותר חשוב מהציונים מאמר מקור ראשון שלי על האלימות המהפכנית קונדורסה ומכתב הארפר  שמתחברים למהומות בבלפור   חוץ מזה מעניין כמה ס…  KIDO24408004 TalYaacov51 ואני מוחה על הערת השעמום והתקופות הרדומות הדיונים האלה מעניינים וחשובים תמיד KIDO24408004 TalYaacov51 השרלטנות עולה כסף ונזק אני חושב שזה די ברור binyaminschein OriKatz3 איך כולם אני מכיר רבים וחשובים שלא יש מחקרים על בעיית המומחה בכלכלה וכלכלנים לא יוצאים…  OriKatz3 מכיר אתה טוען שכלכלה איננה מדע ולא קרובה לכך עם נסיון כן להיראות קצת קרוב מפני שהכלים המרכזיים ביותר…  TsurDanino זאת לחלוטין לא שרלטנות אם מישהו ישר לגבי מידת ידיעותיו ויכולתו לחזות תוצאות של מדיניות יש גם כאלה TalYaacov51 לא יש בהם שימוש הם מספקים נתונים חשובים לקבלת החלטות גם בצבא יש שימוש ומלחמה איננה מדע גם בארכיון…  TalHeller23 TBBReCyUG7O6ZYh לדון במה לא ראיתי שאלה או הזמנה לדיון ראיתי גילוי בורות אגרסיבית בדרכ שגורה בשמאל…  TrutaChipanta לא יצאה לך הבדיחה גם אני חושב ששמחון טועה אבל זה לא קשור ליומרות מדעיות avf204 אני חושש שאינך זוכר את הקורס כראוי או שאינך זוכר את ההבדל בין הטקטי לאסטרטגי כפי שהוגדר בקורס אתה ודאי זו…  TBBReCyUG7O6ZYh אם לא היית לא היית שואל haimorti כן אעלה אותו מחר תודה על התזכורת ronnyeps OriKatz3 איפה ראית שהגנתי עליו ואיפה טענתי שכלכלה היא לא דבר רציני ואיזה שצף קצף אני חושב שאתה צריך ל…  binyaminschein OriKatz3 לא טענתי לכשל לוגי וכל משפט הוא טענה אתה מתכוון כנראה למשהו אחר שלא הבנתי NirGodin ולעצם שאלתך ההגדרה שלי יותר אופרציונלית וכוללת לפחות ניסוי מבוקר כתנאי בלעדי לשליטה במשתנים ותיאוריה …  NirGodin הפוך אלו שטוענים שכלכלה היא מדע חולקים עליו לכן כלכלנים רבים מאלו שמתעניינים בסוגיה דוחים את עקרון הה…  OriKatz3 ואגב מה שציינת כשרלטנות לא קשור למה שהמילה אומרת סתם כדי לשפר גם את ידיעותיך לא רק במדע אלא גם בעברית ל…  OriKatz3 אני מבין שעברת לאד הומינם והכפשה מפני שאתה טוען ככלכלן כמה מפתיע שכלכלה היא מדע מה לעשות ויש קריטריונ…  noamtomer2 eli19 benjilachkar לא זה מאמר ארוך כשיתקרב מועד הפרסום אעדכן Gilad02736300 אם אתה יכול לראות איך זה עובד אשריך עכשיו נסה פרנולוגיה אולי תשתכנע גם מזה sz2744 חח מי איבד את זה מרגברת טרול אני מהמתנגדים noamtomer2 eli19 benjilachkar זה מאוד תמציתי כמובן בנוסח טד האמת שיש לי מאמר בקנה בנושא המומחיות במד…  TsurDanino קיצוני הוא מי שקורא לכלכלה מדע אם הוא מתכוון למשהו שדומה למדעי הטבע וברור שלכך הרוב מתכוונים כך נהו…  TBBReCyUG7O6ZYh בוא נתחיל בתיקוני עברית אחרי זה נפסיק לפחד להסתתר מאחורי דמויות פיקטיביות ואז נוכל לדון במידת השכלתך בתחום avf204 אסטרטגיה צבאית וזה שמשהו אינו מדע לא אומר שאין עוד הבדלים בין תחומים שונים ומידת שימושם אבל היומרה מסוכנת…  Gilad02736300 גם גרפולוגיה ואסטרולוגיה eli19 benjilachkar אם אתה רואה בהיסטוריה מדע אז סבבה הכלכלנים בעצמם יחלקו עליך benjilachkar אפילו את זה אי אפשר לדעת אפשר להעריך בסבירות שגם אותה אנחנו מנחשים אני חוזר אין מומחים ואין מדענים במדעי החברה במובן שבו אנו מדברים על מומחיות ומדע בתחומים שבהם המושגים האלה רלו…  Morpheus1099 selorange שחרר עוד תפרוק זה טוב לנפש Morpheus1099 selorange לפחות אינני בור תהא זו נחמתי Morpheus1099 selorange אין במדע המדינה במערב הגדרה מקובלת לדמוקרטיה מהותית זה מושג כמעט לא קיים מי היו קרובים…  berman917 amsterdamski2 אני בטוח שיש לך מלא דוגמאות שבהן יצאתי לדעתך טוב אז לא נורא פעם אחת שלא וקיבלת תשובה מנ…  amsterdamski2 תמיד שמח לעזור amsterdamski2 הבעיה פה היא בתורת המשטר לא בתפיסה הכלכלית זו אוליגרכיה טיפוסית תחת אמתלות מעודכנות של העידן הבירו…  אנטידמוקרטיה במיטבה הפקידים גם לא נבחרים וגם לא עובדים אצל מי שנבחר הם עובדים אצל הציבור רק כנראה לא הציבור ש…  haggaisegal לא יאומן שהיא מרשה לעצמה להתבטא כך כלפי מבקרי מערכת המשפט בכלל וחברי כנסת בפרט וירוס של שבת rothmar gershuni אז עכשיו לחלק כסף למי שלא מגיע לו זה חכם אני אומר כבר הרבה זמן לא אוהב את המהלכים הכלכליים של הממשלה גם המענקים הם טעות יש לזה מקום אבל על בסיס צרכי סעד…  Blackhag מאוד מצחיק חשבת על זה לבד תראו את חישובי המוות העודף בעולם אנחנו בחברה בינלאומית כל כך מוצלחת עכשיו לדאבון הלב אני חושש שאנחנו בדרך להצטרף…  itayr2 אני חושב שלא הבנת את הזאנר כמה מפתיע אתכם לגלות שכותב הפשקוויל חסר המודעות המנופח וההיסטרי הזה הוא פרופסור להיסטוריה ותקשורת  ב14 ביולי 1789 הסתערו על הבסטיליה ב1792 נרצחו כ1500 אסירים בטבח ספטמבר בספטמבר 1793 הוכרז צו הטרור הוקמו…  RafaelHamorasti Aufhebung ומה עם להטיל ספק בפוליטיקאים שלא מטילים ספק בפקידות לולאת האוזר  alonabaron תעבירי את התרומה למידה ותראי ישועות ליברליות קלאסיות לאלוף יצחק בריק מגיע פרס ישראל על המאבק שלו להחזיר את צהל לכשירות מלחמה שאותו הוא מנהל מול מערכת הביטחון הגוף הח…  GlaznerTzaci לא אני אמנם מעדיף שהמחנה הלאומי יצביע למפלגת השלטון אבל כל עוד מצביעים להם זה מה יש AvielDabush מאחל לו שימצא במלוא הרצינות Daniel4Micky mea culpa hanangershuni נו האמת שזה יותר מקורי ומשעשע מנוביק idokius תרוויח itayr2 איתי רום עקיבא נוביק הוא הרול מודל שלי אהיה לו חומה בצורה והוא יהיה לי השראה idokius מה אתה לא חסום אצלי GalCohe97291103 מותר להיות ימני נגד ביבי לצאת נגד תומכי ביבי זה משהו אחר GalCohe97291103 לא המאמר בהארץ שבו הוא תוקף ביביסט כמובן תוך סילוף גמור אבל מבוגר ערוץ 13 לא ציפיתי למשהו אחר עקיבא נוביק בזאנר ההומוריסטי החדש של המגזר פעמיים השבוע בטוויטר פלוס אזכור שלי במאמר בהארץ נדמה לי שפעם קראתי…  רק שתדעו כי אני צריך להוריד את זה מהלב אני חולק עליו בהרבה דברים ובהחלט חושב שמדי פעם הוא מתנהל באופן בעייתי אב…  התגובות לציוצים שלי על האתגר הכלכלי החל ב16 במרץ מראות עד כמה המודעות לבעיה עלתה אבל אני שוב חוזר על המסר ההכרח…  פנו אליי להתראיין עניתי שאני לא מתראיין לתכניות ערוכות שאלו אם אני יכול להציע מישהו עניתי מאותה סיבה שקשה לי ל…  ממליץ לכל הורה לשרוד את הפתיחה הארוכה מדי ולראות את ההרצאה הזו של גונתן הייט </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כמה קל להרוס כמה קשה לתקן כנסת ישראל – אל תשלחי ידך אל הנער אסור לוותר על כללי המשחק הדמוקרטי במיוחד בעת משבר  מתנגד נחרצות להגבלת הפגנות זו פעולה אנטידמוקרטית עם זאת אני מציע למפגינים לקבל החלטה אמיצה ולהפסיק את ההפגנות לש…  רות ביידר גינסבורג הייתה יותר משופטת היא הייתה ותהיה אחת מהנשים המשפיעות בעולם פסיקותיה האמיצות התוו את הדרך לעול…  ZEATU assafrl MeitalLehavi EytanSchwartz אתה צודק שביל זמני שבוצע ילידי הים בכיכר יתוקן בעתיד אנו מאירים את בניין העירייה במילה ״שלום״  מקווה שההסכם הנחתם היום יביא גם לשלום בתוכנו  כדאי להזכיר ליור הקואליציה שהאחריות לכך שהגענו ל3000 נדבקים ביום היא של ממשלת הקורונה לא המפגינים ולא גמזו הממש…  גם היום לא תתקיים ישיבת הממשלה השבועית בפעם הרביעית ברציפות  אלו חדשות מצוינות כי כנראה שהממשלה הגדולה בתולדותינו…  נאפשר בחגי תשרי תפילות במרחב הציבורי וגם נספק כסאות וחיבור לחשמל הזכות לתפילה היא בסיסית ונעשה הכל כדי לאפשר לעשר…  נענינו ומחקנו הבוקר את ציור הקיר המתאר נערים המציצים למלתחות הנשים חופש הביטוי והאמנות הם ערכים חשובים בעירנו ולמ…  ביום ראשון תתקיים בכיכר רבין עצרת חשובה מאין כמותה  מחאה נגד מגיפת האלימות המינית האונס באילת הוא לא רק פגיעה קשה…  רות גביזון היתה משפטנית חדה מדויקת ונטולת פשרות היא לא פסקה  מלהביע את דעותיה גם כשהיתה במיעוט מוחלט והצליחה להע…  אני מברך את ראש הממשלה על ההישג הכפול של שלום עם איחוד האמירויות ובפועל ביטול תכנית הסיפוח שתי פעולות חשובות לבטחו…  די מספיק להפלות את מוסדות התרבות מאות מתכנסים במלונות ובמסעדות  מדוע התרבות עודנה מושבתת דווקא באולמות יישמרו כללי התו הסגול הערב נאיר את בניין העירייה בדגל לבנון האנושיות קודמת לכל סכסוך וליבנו עם העם הלבנוני בעקבות האסון הנורא שפקד אותו ערב תשעה באב והתעוררנו לתמונות של מפגינים נדקרים ומוכים הבטן מתהפכת  להסתה יש מחיר ואנחנו מתחילים להרגיש אותו ח…  עם או בלי קורונה האליפות נשארה בתל אביב ברכות למכבי  ייצוג נשי מרשים  ראש הממשלה ושר האוצר תתעוררו  אי אפשר להמשיך להתעלם מהדרישות הצודקות לחלוטין של העובדות והעובדים הסוציאליים שבו…  נאפשר להוציא שולחנות וכסאות למרחב הציבורי מעבר לכל מה שהיה מקובל עד כה בעת הזו יש לעשות הכל כדי לסייע לעסקים אלפי דגלים הורמו אתמול בתל אביב ובירושלים נגד השחיתות נגד הניתוק ונגד קבלת החלטות מזעזעת אבל רק דגל אחד ראו עינ…  כבוד שר האוצר תפקידה של מנכלית המשרד הוא לתת גיבוי לכפופים לה חשוב שתעשה את זה גם אתה אחרי שנים רבות כל כך בממש…  שלפחות את החינוך המיוחד לא יסגרו זוהי מכה קשה לילדים ולהורים אל תפגעו בהם הכישלון הקולוסלי המהדהד הוא שעד היום אין מערך ומשל״ט יעיל ומתפקד כדי לבצע בדיקות מדויקות בזמן קצר איתור חולים ונדר…  ביבי – עם ישראל לא יסלח על שטרם הקמת גוף יעיל עם סמכויות אמיתיות לטיפול במגיפה  ביצוע בדיקות מהירות מדויקות ומהר…  היום חלפו 116 שנים מאז מותו של חוזה המדינה הרצל וחברת המופת שהתווה לנו בספרו אלטנוילנד שעירנו הנפלאה נקראה על שמו…  שוב אנחנו רואים שרק לחץ משפיע על ראש הממשלה לא ערכים של סולידריות ואכפתיות  אתמול ראש הממשלה האשים את הפקידים היום מקורבו מאשים את הציבור להנהיג זה לנהל ולקחת אחריות תתביישו  מחאת העובדות והעובדים הסוציאליים מוצדקת ביותר המשבר החברתי שהביאה הקורונה העמיד אותם בחזית אבל המדינה שלחה אותם ל…  השנה – מצעד גאווה אין עצרת גאווה מחאתית – יש המאבק של הקהילה הגאה הוא לא רק מאבק להשוואת זכויותיה של קהילה ספציפי…  האליפות נשארה בתל אביביפו ברכות לשחקנים למיץ גולדהאר להנהלה וכמובן לאוהדים שאפו על עונה מאתגרת ונפלאה macbitalaviv רק במדינה שאיבדה את דרכה עוצרים את מי ששרת אותה כל חייו שהפגין נגד אובדן הדרך תא״ל במיל אמיר השכל הוא איש אמיץ תמים וישר בשבוע שעבר קרא הליכוד להכניס לכלא עיתונאי שביקר את ראש הממשלה אתמול הותקף עיתונאי עי מפגינים זועמים וחולץ עי שוט…  מאבק העובדות והעובדים הסוציאליים הוא לא מאבק של סקטור ספציפי לשיפור תנאיו הוא מאבק על דמותה של החברה הישראלית כולה…  RonHuldai השנה 2020 ובישראל עדיין אסור לחברי הקהילה הגאה לממש את הזכות הבסיסית להתחתן לכבוד שבוע הגאווה החלטנו לאתגר את הממשלה ולאפש… השנה 2020 ובישראל עדיין אסור לחברי הקהילה הגאה לממש את הזכות הבסיסית להתחתן לכבוד שבוע הגאווה החלטנו לאתגר את הממש…  לאור העלייה המדאיגה בנתוני התחלואה בקרב הקהילה הזרה פתחנו הבוקר משלט בשיתוף פיקוד העורף המל״ל ומשרדי הבריאות והפנ…  יישר כח לשר החינוך גלנט שאמר בקול רם וברור שהוא סומך על מנהלי בתי הספר והרשויות המקומיות לגבי משבר הקורונה ובכלל ה…  במדינת הגמדים רעש מהומה השרים חובשים ״מדים״  ונשמרת הדממה  טה לה לה לה לה לה  איזו בושה  מזל טוב לאחותנו הגדולה וההררית  יום ירושלים שמח  MosheLion  נפגשתי היום עם נציגי מחאת הדרוזים והצ׳רקסים אני תומך במאבקם בכל ליבי ממשלת ישראל הבטיחה להעביר תקציבים אבל כרגיל…  למעלה מ500 ימים חיכינו לממשלה חדשה השלטון המקומי נשא את העול בדממה וחיכה לבשורה ומהו החוק הראשון על שולחנה דמי…  השנה בל״ג בעומר לא תהיה אש אבל כנראה יהיה אור גדול  כל הכבוד לגננותלהסתדרות ולעומדת בראשה יפה בן דוד על רוח ההתנד…  ראש הממשלה וממשלת ישראל – אל תתנו לענף המסעדנות לקרוס העירייה ואיגוד המסעדות עמלו על מתווה הגיוני ובריאותי המציע פ…  לא היינו צריכים הוכחה שהצוותים הרפואיים שלנו מהטובים בעולם אבל אם יש אחת כזו  אז למה לא  כבוד עצום לבית החולים א…  לא נפתח את הלימודים ביום ראשון המתווה המוצע אינו מבטיח את בריאותם של הילדים והצוותים החינוכיים לא נשחק לפי כללים…  גם בלי מופע זיקוקים מפואר  חוגגים מכל הלב למדינת ישראל הריבונית והחופשית  הקפידו על ההנחיות היום ומחר אל תצאו מה…  בכל שנה ביום הזה אנחנו חווים מחדש את עצמת הכאב הגעגוע והזיכרונות הזיכרון שנטוע בנו עמוק ואינו מרפה הוא כמו צוואה…  חברי מפלגת העבודה יתכן כי הגיעה השעה לומר די אין צורך פוליטי במפלגה שהיתה ביתי הפוליטי כל חיי שעבור ערכיה הצבעתי…  ושוב בג״צ מטפל בתפוחי האדמה הלוהטים שהממשלה נכשלת לטפל בהם פעם אחר פעם מסיבות של פוליטיקה קטנה פסיקה שהגיעה בעיתוי…  רהמ הכריז לאחרונה הודעה חשובה מאין כמותה פתיחת מסגרות החינוך לילדי החינוך המיוחד המוסדות העירוניים נפתחו ונערכו…  נפרדים מהרב בקשי דורון זצל אני נזכר באומץ ליבו הציבורי ומייחל לפגוש בהמשך יותר מנהיגים מסוגו   כאלו שאחדותנו עומ…  ניצול משבר הקורונה למערכת שיסוי נגד הציבור החרדי אינה ראויה חג הפסח הוא עת לערבות הדדית וסולידריות הערב נאיר את ב…  תקדים היסטורי ישיבת מועצת העיר תל אביביפו התקיימה באמצעות וידאו קונפרנס לפי כל הנוהלים ובהצלחה  בתום משמרת ארוכה רופאים רופאות וצוותי רפואה הנלחמים בנגיף הקורונה צריכים להגיע הביתה ולחדש כוחות נעתרנו לבקשות…  RonHuldai הממשלה החליטה להפסיק את עבודת המורות והמורים בלמידה מרחוק לא ייחסך כסף רק יתווסף עלבון לציבור שהוכיח את מסירותו הפעם בחז… הממשלה החליטה להפסיק את עבודת המורות והמורים בלמידה מרחוק לא ייחסך כסף רק יתווסף עלבון לציבור שהוכיח את מסירותו…  אנחנו מנסים לשכנע אתכם בכל דרך אפשרית – הישארו בבית לטובת כולנו  תושבים ותושבות יקרים אישרנו היום חבילת הקלות לעסקים בעיר  צפו בסרטון ונסו להישאר כמה שיותר בבית לטובת כולנו  חשוב לי לעדכן אתכם לגבי המצב החדש דעו  אנחנו כאן בשבילכם ללא הפסקה  את כל ההנחיות והעדכונים בנוגע לשירותים שהעי…  יש לי כמה עדכונים חשובים בנוגע להתפשטות נגיף הקורונה  בימים האחרונים עלה שלט של עמותת אפרת על בניין העירייה הקורא למנוע הפלות את השלט אנחנו לא יכולים להסיר אבל למי שתה…  RonHuldai לכל מי שפנה עדכון עיריית תל אביביפו פועלת בהתאם להנחיות משרד הבריאות ולא תקיים אירועים עירוניים בהם משתתפים מעל 5000 איש… לכל מי שפנה עדכון עיריית תל אביביפו פועלת בהתאם להנחיות משרד הבריאות ולא תקיים אירועים עירוניים בהם משתתפים מעל…  תל אביבים יקרים  צאו להצביע גאווה גדולה חבר מועצת העיר איתי פנקסארד ובן זוגו יואב עשו היום היסטוריה עתירתם להסדרת פונדקאות לזוגות חד מיניים…  מה לעשות שבפעם הראשונה הסרתי תמונה לא מחמיאה של יצחק שמיר ובפעם השנייה מיצג של גיליוטינה בשדרה נגד ביבי גם זה היה…  מברך על החלטת בית המשפט נמשיך להגן בקנאות על חופש הביטוי אך לא נאפשר במרחב הציבורי מסרים המעודדים אלימות  zeevelkin DoriaLampel בשמחה רבה ידידי נפגש אולי במקום  שפה גסה תודיעי ל106 איפה זה אז נשתדל לטפל מהר ככל האפשר  zeevelkin DoriaLampel אלקין  מה זאת אומרת שאתה תעזור לנו לדחוף אתה חבר בממשלה אתה יודע שזה פייק ניוז והאחריות…  הוי מירי מירי למה שוב לשקר את כל כך נואשת שוב שרה בישראל משקרת במצח נחושה והיא יודעת שהיא משקרת פסה בושה וכלימה…  zeevelkin DoriaLampel אדוני השר  בחירות אתה יודע היטב שמשרדך הבטיח ולא הצליח לפתור את הבעיה מול משרד התחבורה …  בימים האחרונים נפוץ ברשת שיח שקרי כאילו העירייה אסרה הנחת תפילין במרחב הציבורי האמת הפוכה ברחבי העיר פזורים לא מע…  הוריתי להסיר שלט בו נראים אבומאזן והנייה על ברכיהם עינהם מכוסות וידיהם מונפות בכניעה התמונה מסיתה לאלימות המזכיר…  בתל אביביפו ברור לכל שאין סתירה בין אהבת ישראל לשאיפה לחיי תרבות ושאין מניעה ללכת לבית כנסת בבוקר ולפילהרמונית בע…  ממשיכים לפנות את הדרכים לטובת תחבורה ציבורית בכל העיר  בנתצ החדש ברחוב קפלן כבר הצלחנו לצמצם את זמני הנסיעה באוטו…  הבטחתי כי גשר יהודית קום יקום כך אמרתי לפני שנה ורבע כששר התחבורה עצר את העבודות הרבה נחישות והתמדה נדרשו כדי להו…  אני מבקש להביע את תנחומיי למשפחות שני התושבים שנהרגו היום אני מודה למאות עובדי העירייה שעבדו לאורך כל סוף השבוע ומ…  הבוקר היינו עדים לכמות ממטרים חריגה במיוחד בעיר  74 מ״מ יותר מ15 אחוז מהכמות השנתית יחידות העיריה הוקפצו לטיפול…  Welcome желанный Bienvenido Bienvenue תל אביביפו היא העיר שקלטה הכי הרבה עולים חדשים בשנת 2019  השנה עלו לעיר…  הקמת מסילת הרכבת הרביעית בעיר היא חיונית אך לא נאפשר את הקמתה בצורה שתסכן רכוש וחיי אדם הפתרון היחידי הוא הקמת מו…  ביבי מזמין אותך לאחד מהתיכונים המצוינים בעיר לשיעור אזרחות ממליץ להתחיל מהבסיס  חוגגים את חג המולד בכנסייה הלטינית חג שמח לקהילה הנוצרית בעירנו  ערב חג החנוכה שר החינוך משלב ידיים עם ממשיכיו של כהנא השנה נצטרך לשיר את באנו חושך לגרש מעט חזק יותר הקמנו את הסיירת לביטחון עירוני סלע על מנת לטפל ולהתמודד עם בעיות ביטחון בכל העיר בדגש על דרומה המנדט להמשך קיו…  צעד אחר צעד נגיע למצב שנוח יעיל וזול יותר להיכנס ולצאת מהעיר בתחבורה ציבורית  אני רוצה להרגיע את שני הצדדים – לא ביקשנו להעלות את הארנונה ב1 מעבר לעדכון המחויב בחוק ואנחנו בהחלט לא מתכוונים ל…  המרחב הציבורי בעיר הוא שלכם ובהתאם נפעל להסרת גדרות וחומות שבדרך אני שמח ומברך על המהלך המשותף עם ההסתדרות בקרוב…  מסתבר שתאוריות ה״חלחול מלמעלה״ נכונה רק לא בכלכלה הגזענות והשנאה שמתחילות מהראש מרעילות את החברה שלנו אסור לנו ל…  אביו כיהן כסגן ראש העירייה והוא עצמו לא עזב את העיר עבור אף אחד חייו בתל אביב היו הסדרים רומנטיים והתבוננות פנימית…  נעים בסופש אפילו נעים מאוד בסופש  שירות מדהים ותענוג גדול לפגוש תושבים מרוצים בשבת  אכן פריצת דרך  יום עצוב נתניהו אולי נאשם רק בשוחד והפרת אמונים אבל הוא בלי ספק אשם בהכרזת מלחמה בשלטון החוק מקומם  ביום כזה א…  לפרטים   האפשרות לנוע ממקום למקום היא זכות יסוד של כל אחד ואחת בכל ימי השבוע אני שמח להתחיל בשותפות עם ערינו השכנות את פרו…  דמוקרטיה לא עוברת בתורשה יש ללמד מהי ואת חשיבותה מערכת החינוך חייבת להעניק לדור העתיד את העוגן החברתי והערכי הזה…  מחרתיים נחלק את פרס סוקולוב מעניין מה הוא היה חושב על ההקלטות שאליהן נחשפנו אמש יום שישי בצהריים אופרה בשדרות רוטשילד מרגש הידד ליוזם שאבי מזרחי מנהל מחלקת מופעים בעיריית תל אביביפו שבת שלום  הקרב על הקווים מתחמם כחוללבן לטיפולכם  הבוקר פורסם בהארץ כי אחד התנאים שמציב בני גנץ לממשלה בראשותו הוא תחבורה ציבורית בשבת מהלך מתבקש והכרחי אנחנו ה…  נפרדים מאחד מעמודי התווך של המשפט הישראלי אדם שאהבת הארץ שבו נמדדה גם במעשיו כלוחם באצל וגם כלוחם למען החוק והצדק…  שמעון מזרחי   יקיר העיר תל אביב יפו מזל טוב בהגיעך לגבורות שתשאר תמיד צעיר לנצח  צילום באדיבות צלמונלה  שלום ע…  שמחתי להשתתף ולתרום מנסיוני בוועידת האקלים של רשת ערי C40 תודה לבני דגן שגריר ישראל בקופנהגן ואנשי השגרירות על אי…  מסתבר שגם יום הכיפורים יכול להיות יום קטלני בדרכים נצטרך להפיק לקחים ובינתיים נטפל במשפחות הנפגעים  תנחומי למשפחות היום ה6 באוקטובר נכנסנו למלחמה שתפסה אותנו בהפתעה כשחשבנו שאנחנו מוכנים לכל  ואני לתומי חשבתי שהלקח לגבי הפגנת…  תופעה חשובה וחיובית התעוררות של הציבור הערבי בנוגע לאלימות והפשע בחברה הערבית נקווה שהמשטרה תרים את הכפפה רק שות…  בכמה מאירועי השנה החולפת אפשר להספיק להזכר בזמן שאני חותך תפוח בדבש שנה טובה לתושבים ולתושבות של העיר הנפלאה שלנו…  תודה לשר התחבורה ואנשי משרדו על הפעלת נתיבי התחבורה הציבורית הייעודיים עד נתניה וחזרה החלטה אמיצה וחשובה להטמעת שי…  מצדיעים לסגן אלוף ג יישר כוח  משרד התחבורה מפרסם בגאווה את פרויקט מסילת הרכבת הרביעית באיילון הוא אף מציג כאילו מוסדר פתרון לניקוז מי הגשמים אך…  כך פתח גנץ את דבריו בפגישתו עם נתניהו בזמן שמשרדי הממשלה לא תפקדו כמעט שנה הרשויות המקומיות החזיקו את המדינה על…  מסביב יהום הסער בחירות משרדי הממשלה בהקפאה וראו זה פלא הרחובות נקיים הילדים בביהס מרכזים קהילתיים מתפקדים ו…  הודעה דרמטית  חגיגות אמן העיר  שנת אלתרמן בפתח מאות משוררים סופרים מוזיקאים שחקנים אמנים עיתונאים ואנשי ציבור ישתתפו בחגיג…  תל אביב מצביעהתל אביב משפיעה אי אפשר שלא להתרגש יחד עם התלמידים כשרואים את הברק בעיניים ואת החיוכים המתוחים על פניהם את השנה הנוכחית נפתח בסימן…  שגיא מוקי אלוף העולם בגודו ברכות על ההישג ההיסטורי בתמונה שגיא רגע אחרי שהוכתר כאלוף אירופה באליפות כאן בתל א…  זה קורה חוזרים הביתה בראשון יערך המשחק הראשון בבלומפילד המשופץ ויש מילה אחת שמתארת את זה הכי טוב מרגש…  עיד אל אדחא שמח לכל אחינו המוסלמים והדרוזים החג הוא הזדמנות להביט על הדומה ולא על השונה לחפש את המחבר ולא את המפר…  בשבוע הבא כבר אפשר יהיה להריח את הדשא בלומפילד2019  אדיסו גואדה בן 165 מיפו משישי האחרון  אלוף אולימפי אדיסו זכה במדליית הזהב בריצת 3000 מטר במשחקים האולימפיים לנ…  ברכות לבוריס גונסון על בחירתו לראשות ממשלת בריטניה בפגישתנו האחרונה בתל אביב שמחתי להיווכח שגונסון הוא ידיד אמת…  כדאי לשר החינוך שילמד משהו לפני שיחנך את ילדינו אוי לו לראש הממשלה שאלו מינוייו עד כאן ראש הממשלה שמע ממני את התנגדותי הנחרצת לסגירת שדה דב לפני חמש שנים במשרדי מעולם לא תמכתי באיוולת של חיסול…  על חינוך ודמוקרטיה  שלחתי הבוקר מכתב לראש הממשלה עם הבהרה ברורה הקמת הקו הירוק של הרכבת הקלה אינה מהווה מכשול להמשך הפעלת שדה דב  עדי…  ושוב מכבי עשתה את זה מכבי תל אביב אלופה  כבוד MaccabiTLVFC  משימה אדירה מרתקת ומרגשת עומדת בפני העיר שתזכה לארח את האירוויזיון הבא תודה לך תל אביביפו בהצלחה הולנד  קובי המון בהצלחה את הדוז פואה שלנו כבר קיבלת  העיר הלבנה כתומה הלילה תודה לכם בני יהודה תל אביב  כל חיי טסתי ולחמתי כתף אל כתף לצד אנשים שהחזיקו בדעות מנוגדות לשלי על הקרקע שוחחנו והתווכחנו  – אבל בקרב כמו בע…  היום אנחנו זוכרים יחד  מקיימים אחוות לבבות של זיכרון אבל וכאב אבל האם נוכל להמשיך לקיים אותה מבלי שאנו יכולים לד…  מתחת לבניין העירייה כבר מתכוננים לאירועי ערב יום הזכרון  הבמה הגדולה תישאר גם לערב שאחריו על מנת לשמח את תושבי העי…  גאווה עולמית היישר מתל אביביפו ברכות לתיכון חדש שזכו לפני זמן קצר באליפות העולם לתיכונים בכדורסל כל הכבוד לשחקני…  חג חירות שמח לתושבי עירי ולכולם שנופתע לטובה לחיים  הלילה תל אביב צהובה ברכות ל MaccabiTLVFC על הזכייה באליפות  למיץ גולדהאר להנהלה לשחקנים ולאוהדים שאפו העיר העברית הראשונה מברכת את מי שתרמה תרומה אדירה לתרבות העברית במדינת ישראל נעמי פולני  כלת פרס ישראל   איזה חורבן ערכי ישאיר אחריו ראש ממשלתנו באמירותיו הגזעניות המציאות עולה על כל דמיון בנימין נתניהו מנהיגנו מכניס את הכהניזם המוקצה לכנסת בדלת הראשית ובכבוד מלכים הרועה התעוו…  NitzanHorowitz כיף לפגוש חברים באוטובוס NitzanHorowitz מקווה שאתה לא כועס שלא פיניתי לך את הכסא והדרת פני זקן  GLZRadio Israelkatz bardugojacob חישמול הרכבת לא סוגר את  איילון לכן גם לא בוצעה עבודה שכזו בשבת האחרונההעבוד…  גשר יהודית קום יקום בשעה טובה  אני מודה לשר התחבורה Israelkatz על כך שהואיל לרדת מהעץ ולאפשר את עבודות הקמת גשר יהודית כפי שתוכנן מלכתחילה בסופי…  chiwtamp צודק היו בעיות יסתיים עד סוף מרץ gtgt זכיתי שהייתה לי היכולת האינטימית להתייעץ להחכים להקשיב ולהיות מבין אלו שחסו בצילו של העץ החסון עמוס עוז הסופ…  זכיתי זכיתי לראות שתיל חלש וצמא שנעקר מקרקע גידולו מגיע לקיבוץ חולדה בו גדלתי ומאומץ על ידי הוריי זכיתי לראות א…  היום בשעה 1800 שעון ניו יורק ננעלה הנאסדק לרגל חגיגות ה25 לצק פוינט בנוכחותו של גיל שוויד המנכל שמחתי להצטרף…  העמסה של מיסים מיותרים על גבם של המסעדנים היא שערורייה היטל העובדים הזרים הוא חוסר אחריות  זו לא רק פגיעה אנושה ב…  BukrisYossef לתל אביב ישן חדש BukrisYossef אנקראה כי אלט נוי לנד של הרצל תורגם לתל שלשום חנכנו את פסל דרייפוס בתל אביב יפו היום כ״ט בנובמבר איזו סמליות אכן ברי מזל אנחנו בעיר העברית הראשונה ששמה לקוח משם ספרו של הרצל היום חנכנו את פסלו של אלפרד דרייפוס באחד העם 14 בנוכחות אן הידלגו ראשת עיריית פריז אן הידלגו היא ידידה ותיקה של ע…  akivanovick ת אבוי לנו שממשלתנו מצדיקה את חוסר יכולתה לספק ביטחון לכלל אזרחי ישראל באמירה אומללה ושוב מפלגת על רקע המצב בדרום הארץ ועוטף עזה דנו הבוקר בשאלה האם לקיים את מרוץ הלילה הערב קיימתי סבב שיחות עם ראשי רשויות מ…  לכל אלה שמלמדים אותי היסטוריה אחרי בתי הכנסת וספרי הקודש הגיע תורן של האומנות והתרבות אשרת את כל תושבי תל אביב יפו בנאמנות תודה על האמון לאלה שנתנו לי את הרוב הדרוש כדי לעשות זאת צלצלו ל106 תסבירו  איזה רחוב  Arielchaos שילחו פרטים במייל או ל106 איזה רחוב ומה קרה טוהר הבחירות הוא הבסיס להליך הדמוקרטי וכל ניסיון לפגוע בו הוא חמור מאוד ואין להשלים עימו אני קורא למשטרת ישראל וכל…  בוקר טוב תל אביביפו גם הבוקר בחרתי במה שנכון עבור עתידה של עירנו פתק אחד צהוב לי ופתק אחד לבן עם האותיות תא לסיע…  avichai920 asafzamir שלום המציאות רחוקה מאוד מכך לא פחות מ100 שלטים פזורים ברחבי דרום העיר לצד מטה שכונות פעי…  טופל  בגץ חשף היום את הבלוף שר התחבורה החליט לעצור את בניית גשר יהודית בניגוד לדרג המקצועי מסיבות פוליטיות גשר יהודית קום יקום מגנה את הונדליזם באנדרטה לזכר חברי הקהילה הגאה שנספו בשואה הנחיתי למחוק מיידית את הגרפיטי נמשיך לפעול ולהגן על חב…  idokius ShirCohen1990 iTelAvivYafo בוודאי שמעניין ברז הכיבוי יטופל על ידי תאגיד המים שכבר בדרכו למקום אחד משלושת מגרשי הכדורגל החדשים בספורטק דרום בשעה טובה  gtgtכך צריך לנהוג כל אדם שעובד עבור הציבור ואמור להגן עליו כך או כך תל אביביפו תמשיך להיות לב פועם של תרבות ואמנות…  תרבות זה התחום האחרון בו הממשלה צריכה להתערב לא בחקיקה ולא באיומים על קיצוצים בתקציב למי שלא מיישר קו עם הממשלה…  אני מגנה בחומרה את הפגיעה במטה הבחירות של אסף זמיר אסור להשלים עם תופעות אלימות מסוג זה זו פגיעה חמורה בטוהר הבחי…  מברך על כך שסיעת הליכוד נענתה לפנייתי והוחלף הקמפיין שאין לו מקום בעירנו בתל אביביפו אין אנחנו או הם אני מברך את MaccabiTLVFC על חתימת הסכם העקרונות ועל חזרתן של הקבוצות התל אביביות לשחק בביתן באצטדיון בלומפילד שיע…  שמחים לארח את אירוויזיון 2019 בתל אביביפו אני מבטיח לכם שנעשה הכל כדי שהאירוויזיון יהיה שמח חי בועט וללא הפסקה…  לשנה טובה  ולעוד 5 שנים ממשיך לקדנציה נוספת השיאים עוד לפנינו  livnitzan כן כשהשר כץ מתקשה לענות עניינית מדוע נכנע לחרדים הוא מוצא בי את האשם מציע שיעסוק בטיפול בבעיות הקשות של התחבורה בגו…  ושוב חסר המבוגר האחראי כמו שהבריחו את מסי מישראל כך מבריחים את האירוויזיון האירוע שמשודר למיליארדים יעניק חשיפה ל…  HassonYoel יואל שלום ליצחק שמיר זל זכויות רבות בהיסטוריה של מדינת ישראל והוא ראוי להנצחה מכובדת וראויה בתאיפו…  70 שנה עמלנו לחבר את הקצוות של הישראליות לחפש ולמצוא את המשותף – וזאת מבלי לוותר על מדינת הלאום  החוק בנוסחו הנוכ…  מאחורי חוק הלאום בנוסח הנוכחי מסתתרת כוונה להפוך את ישראל למדינת לאום שלא כל תושביה שווים בכך היא מפסיקה להיות דמו…  HaimJelin הגענו היום לעיריית תל אביב לצפות בתערוכת העוטף באש  שיזמתי יחד עם עיריית תל אביב ובראשה RonHuldai שמציגה את אזורי השרי… GLZRadio ראש עיריית תאיפו RonHuldai יש משפט שאומר אלף חכמים לא יצליחו להוציא אבן שטיפש אחד זרק קל וחומר כשהרבה טיפשים זרקו… רגע מכונן  בעקבות הערב הזה ישונה החוק וסוף סוף יהיה שיוויון בקהילת הלהט״ב בעניין חוק הפונדקאות ועדיין יש על מה לה…  זהו חברים צרפת אלופה בניין העירייה יואר בצבעי דיגלה היה תענוג לצפות בכדורגל נפלא  צופה בגמר המונדיאל עם חברים ביד אליהו בינתיים עומד בציפיות איזה דגל יואר על בניין העירייה הערב  אנחנו עדיין חברה בהתהוות המעצבת את ערכיה וצביונה  אני מאמין בדמוקרטיה שוויון וסובלנות   ובזכויות משפחות להטביות…  רון אתה רץ כן למקומות היכון צא ממשיך לקדנציה נוספת חולדאי2018  Welcome His Royal Highness Prince William נסיך אנגלי בהרברט סמואל מול גן לונדון תקרית דיפלומטית נרשמה אחרי שהנסי…  DrorTzaban אחרון ודי בדיזינגוף אכן בעיה עם קבלן שפשט רגל ואנחנו מתמודדים עם בעיה קשה קורה בבלומפילד עד רגע זה ה…  DrorTzaban יעמוד בזמנים גג יקר בשביל שני ימי גשם בשנהבעתיד כשיהיה יותר אפשר להוסיף לגבי ספורט בונים כעת וולודרו…  DrorTzaban 400 מיליון שקל באצטדיון חדש זאת לא השקעה הבנתי תודה על ההערכה נמשיך להשקיע בספורט למרות ההתפרעויות האלימות באזור נווה שאנן אינן דבר שניתן להשלים איתו שוחחתי עם ניצב דוד ביתן מפקד מחוז תל אביב שהבטיח ל…  subtext100 נו באמת שילחי לי ב MayorTelavivgovil danaspec היי דנה האמת שאני פשוט גאה לשמוע את זה תודה שפרסמת אעביר לצוות chellig iTelAvivYafo המתקנים לא מתמעטים העירייה פועלת להעבירם למקומות שלא יפריעו למרחב הציבורי הפחים במדרכות הפ…  הלב נשבר נוכח מותם של תשעת הנערים תלמידי המכינה אני שולח חיבוק חם למשפחות הנספים ולחבריהם שלא תדעו עוד צער הנה חוזר המחזה המביש  שוב הבטחות הממשלה להוציא את הזרים משכונות דרום העיר נותרו ללא כיסוי  ומה יגידו עכשיו שוב י…  הפרדה מגדרית היא שערורייה על אחת כמה וכמה בחינוך הממלכתי אני מגבה את המנהלים והמורים על החלטתם הערכית הנכונה…  arielplaksin1 מעולם לא השוויתי בין העליה מרוסיה למהגרים הבלתי חוקיים ואין מקום להשוואה אם מישהו נפגע מכך אני מתנצ…  robertilatov מעולם לא השוויתי בין העליה מרוסיה למהגרים הבלתי חוקיים ואין מקום להשוואה אם מישהו נפגע מכך אני מתנצל… </t>
-  </si>
-  <si>
-    <t xml:space="preserve">liorrotbart יושבים לארוחת ערב הילדים שואלים יש סיכוי שבסגר תהיה במילואים אני יש סיכוי סביר ילדים יששש איזה כייף שלא תהיה פה לא… YShalgi תודה גרמת לי להסמיק וזה לא קל Ayeletnnv יומולדתשמח לסמפקד חוליה מצומצמתהמכדרר המהיר בצד הזה של המזרחאין לו בת קטנה בשם רחל אבל לכל האחרים כנראה ישתכלס עבר מסיר… zviashkenazi איתן כבל כיהן כחבר כנסת מטעם HavodaPartyבעל פינה בתוכנית הבוקר בradio103fmנולד בראש העיןלמד במדרשיית נועם ולאחר מכן… filbers אפשר לשתות ויסקי ביחד הרבה לפני filbers בזה אני מסכים filbers מה שיפה מומו שגם אני יכול לספר שביכולתי למלא את הפיד בשרשור אין סופי של ציטוטים שבטוח שלא תאהב בכל מקרה…  filbers ככה באופן עצמוני ללא שום סיוע החלטת מומו פילבר לעוף על עצמך הסיבה שאין תשתיות תקשורת ראויות בישראל איננה…  CrypTomerpers ShirPeled לא אמרתי כמראיין שום דבר יוצא דופןכי קודם קבעתי שבעיניי היא צודקת ולי אין בעייה עם זה…  CrypTomerpers ShirPeled עושה מה ShirPeled CrypTomerpers נכון CrypTomerpers ShirPeled בכל מקרה לא אני הוא זה שאמר זאת אבל שיהיהאם יוצא לך טוב BarShemUr חשוב מאוד להבהיר שהסכמתי לבסוף לוותר על חקיקה אך במקום זאת נקבעו יחד עם רשות החשמל כללים מאוד מאוד ברור…  BenCaspit ראש המודיעין התימני מאיים הערב בעברית על ישראל בזמן ש YehoshuaYosi מתקשקש עם אטילה jSoFKY2Cnopndtw ברק סרי עושה פאנלים ו… liorrotbart אין שום דבר שאנחנו אוהבים יותר cabeleitan ואני אצל מראיינים נהדרים אבל אוהדים קצת ממורמרים AviMeshulam ו roykatz… liorrotbart הטירוף נמשך והחגיגות הספונטניות בעיצומן לכל אוהד מכבי ת״א יש אליפות  liorrotbart יש אליפות הקומץ מתעלה אפילו על איביץ׳ ופורץ בחגיגות מטורפות cabeleitan yoramavrahami  BenCaspit לאחרונה השתלט על משבצת שידור יוקרתית ברדיו radio103fm יחד עם שותפו לקנוניה ולעדה איתן כבל liorrotbart הפתעתי אותי אני נגד בזבוז כספי ציבור אבל בעד החוק הנורבגי התראיינתי יחד עם cabeleitan ל AviMeshulam בעניין והאם אנחנ… GalonItay BenCaspit הבנתי אותךאזמין אותך אחרי שנפרק אתכם בדרבי BenCaspit אכלתי שם ביום חמישי 46 akivanovick israelHatan cabeleitan מקווה שצחצחת את הארמית שלך hsh411 אתה כותב סאטירה מופרכת על דביל מושלם  מצהיר בתחילת כל פרק שמדובר באירועים דמיוניים נטולי אחיזה במציאות  ועשר שנים אחרי ביבי מ… bruria1947 baruchikra צודקת ועכשיו כשהדם של כולם עלה לי לראש זה מאוד מתאים לי samanio למה איתן כבל הוא מלך ירדן  samanio cabeleitan תרטווט אני רוצה לייקים baruchikra מי זה האוליגרך cabeleitan שהוזמן לאולפננו  Ayeletnnv יחד עם cabeleitan סייענו להישרדות של ערוץ 20 ודחפנו למיזוג בין 10 ורשת כדי שלא יפלונדהמת מעיתונאים ששמחים לאידו של הערוץ… GilLitman אלוף  nadavabeksis YehoshuaYosi הקינאה אוכלת אותך נדב🤣 nadavabeksis roykatz TLV102FM amirperetz HavodaParty המאבחן roykatz StavShaffir barakehud GabbayAvi ביום שני הקרוב אצביע אמת בקלפי urizaki מזל טוב מעומק הלב תמר tamarzandberg ואורי urizaki יקיריי מהמומחה שמגדל יחד עם נועה רעייתי ארבע בנות🥰🥰 EsawiFr לוינסון יא סחבי הולך על זה אבל כדי לשדר לעם הפלסטיני תחושת ביטחון אבקש מטראמפ שעל הדרך יוסיף לחילופי האוכלוסין גם את שכניי… liorrotbart ההסכת ״הפרוצדורה״ עם cabeleitan ואיתי אירח את הפרשן הצבאי עמוס הראל לשיחה מרתקת על צה״ל החזיתות גיוס חרדים וגם סיפור א… היום כשחברי הכנסת החדשים ישנים הושבעו לכהונה שגם הם לא יודעים את אורכה השתתפתי בפרוייקט ציור למען ארגונים חברתיים…  yanircozin יניר לא שומעים טוב שלח את הקטע🤣 yakovf35 תודה למילים החמות עוד אשוב חבל על דאבדין ולא משתכחיןישראל קיסר ז״ל ממנהיגי תנועת העבודה היה עבורי מורה דרך ומנהיג עובדים במובן הכי נעלה של המ…  motiohana1 פולניה תוניסאית מאיה עזריה היועצת המיתולוגית שלי מתחתנת היום בחופי קיסריה עם אהוב ליבה רביב  מאחל להם להקים בית נאמן מלא בשמחה…  YairNetanyahu sefiova newsisrael13  3461837347733 תודה יקירי לדברים שהצגת בפתיח של הציוץ ואין לך מושג כמה אתה טועה  אל תטעה תמיד אני בצד הנכון ofershir מסתובב ועוד איך ואפילו לא מורח קרם שיזוף איך shtern14 sefiova newsisrael13 מאוד מעריך את המחמאות לך בכוחך זה איש יקר ofershir sefiova newsisrael13 אין לך מושג כמה לא ארגיע איך החשיפה של sefiova בnewsisrael13 מוכיחה לי שגם כשעצרתי ובלי הגזמה לעיתים בגופי  את הרצונות המוטרפים של ביבי לרסק…  Ayeletnnv chaimlevinson אל תדאגי איילת העלתי גם בפייסבוק וגם באינסטגרם chaimlevinson אני מתנצל בפניך חיים על שמעת לעת אני לוקח ממך מעט ואולי קמצוץ מתשומת הלב המופנית אליך בטוויטר מבט…  בוקר ושנה נפלאה לשתי בנותיי הקטנות לשחר שעולה לכיתה ו׳ ולשירה שעולה לכיתה ב׳בהצלחה אהובות שלנוובהצלחה ושנה נפלאה…  booj1981 MatanAlcalay אין לך מושג אפילו הלך עם פק״ל 500 מסע כומתה 95 קילומטר ורק כשסיים ידע שזה היה על הגב שלו MatanAlcalay זה הכי פשוט שייש כששם המשפחה הוא מוקי ואז שמו של האבא רחמים מוקי והבן מוקי שגיא כבוד לאלוף העולם מוקי שגיא הבן של חברינו למחלקה 3 מוקי רחמים ממחזור נוב׳77 גדוד 202 של הצנחנים גאים בך ומתרגשים בשבילכם zviashkenazi HavodaParty תודה צבי ברכתך ברכתנו בוקר טוב ישראל חיברתי את עצמי לבלון ההליום שבכניסה לביתי ועכשיו אני יכול לעוף על עצמי ולומר בשער בת רבים שאומנם אני…  GavishYoram מבין ללבך האמת שזו משימה שהנחתי לפתחיאבל כבר לא בכנסת הקרובה RimonRan כל הכבוד RimonRan שנה וחצי ללא עישון כל מה שאני יכול לעשות זה לכתוב את זה לעיני כולם כדי שאם אתפתה  יהיה מספיק קהל לצפות בבושה  למה עישנתי 2… benirabin YehoshuaYosi עכשיו כבר אינני יכול להתאפק שוב YehoshuaYosi מטעה אותך במראה שלו ובכמה מילים ששינן בתימנית benirabin YehoshuaYosi אמן ואמן Shemtov8 dovhanin tamarzandberg טוב שם משמן טוב yudazdk dovhanin tamarzandberg עכשיו אתה לוקח אותי לפרוצדורה הכל נדון וסוכם במהלך החקיקה מהיום נכנסת לתוקף מהפכה למען הציבור שהובלתי עם dovhanin tamarzandberg ויעקב אשרהצלחתי לכפות על הממשלה לשנות גישת…  motiohana1 bezalelsm תודה מוטי אתה אלוף Shiritc מבלי להתעמק ומקריאת הכותרות התוכנית נשמעת לי מאוד מאוד מוכרת ואני זוכר ויודע שמר״צ התנגדה מאוד מאוד לתוכנית בחירות סמוטריץ ליברמן ביבי שקד גנץ לפיד העבודה עמיר ברק וכל שאר הירקותמי ינצח מי יהיה רוה״מהכל חשוב אבל עכשיו ה…  eMgg2vDX1UlDhMQ LifeRivlin קרן יקירה כמה דיונים בנושא קיימתי בועדת הכלכלהזה לא המעשה המנוול הראשון וכמעט מדי יום…  TomerAvital1 תומר אתה מדאיג אותי BenCaspit מה לא עושים בשביל לקבל קצת יחס יח״צ BenjaminTovias YuvalKarni הבנתי זאת כבר מאתמול קראתי הסכמתי עם המעט ועדיין עומד מאחורי דבריי וזאת גם כשרעייתי…  shalevai חד כתער לא מצליח להתאושש מהסרט החדש של פדרו אלמודובר כאב ותהילה איזו גאונות  שעולה על גדותיה מרגשת ומפתיעה אנטוניו בנדרס…  YehoshuaYosi אני נטרף מהודעת הבכיר מאוגדת עזה שחיילינו לחמו בגבורהואני מאמין שכך היה אך כשזו ההודעה היא באה ל…  YoazHendel1 YHepstein LVertzhaizer Ayeletnnv Meravbenari HassonYoel cabeleitan חייב לכם פשוט ערב מלא סחים מזל שהייתי כדי להרי… DayanNetanel התמזל מזלי והייתי בנסיעה בשעה האחרונה ושמעתי את התכנית המיוחדת ב GLZRadio עם דקלון בהגשתם של cabeleitan ו YehoshuaYos… YehoshuaYosi בדרך לבון ג׳ובי בשעה 2000 פותחים GLZRadio  cabeleitan ואני מארחים את דקלון לרגל זכייתו בפרס אקום אף מילה על פירוקים… SeXK1TJMNiriNYy אתה צודק בטענה שלך אבל התבלבלת כי אינני ממשלה בהצעת החוק המקורית שלי נכללו משרדי הממשלה אך הממשלה…  היום ייכנס לתוקף החוק הצרכני המהפכני שהעברתי בכנסת הקודמת מענה אנושי מקצועי עד 6 דקות במוקדי שירות לקוחות שישים סוף…  Ayeletnnv מחשבות על איחוד איפה היה כל ״האומץ״ הזה כשרק שני פוליטיקאים התריעו שזאת דהירה מהירה אל הקירלמשל לפרק את המחנה הציוניאולי… talshalev1 ריכלתי עם cabeleitan ו liorrotbart על פרץ ואורלי לוי ועוד חיבורים ואיחודים היה כיף חיים     htt… liorrotbart “הפרוצדורה הפודקאסט של איתן כבל וליאור רוטברט” אירח את טל שלו על האפשרות לאיחודים בימין ובשמאל האזינו כדאי לכם יצא מע… עוד קצת מאמץ והכבל בפנים ברוכים הבאים לגהינום הכניסה לירושלים תסגר לרכבים פרטיים לשלוש שנים תאמינו לי ומניסיון שרק עקב זאת ממש לא כדאי להבחר לכנסת YehoshuaYosi benirabin וחוצמזה לשאול את יוסי יהושוע על גת זה כמו לשאול תימני איך מכינים רגל קרושה חכמינו כבר אמ…  YehoshuaYosi benirabin אין מחלוקת בעניין כי ברור לעוסקים במלכת הלעיסה שגת אדום נותן את התוצאה המירבית hshilorunning israelifalcon EstyS יפה שהדגש הוא על דעתך בדקת גיגלת ביררת אבל מה זה חשוב העיקר להגיד  ברוך הבא בפעם השלישית לאהוד ברק מחייה השבתאות והנכס האסטרטגי החדשישן של נתניהו Nefolet kannnews YaronDeckel ReshetBet מקנא שייל לך זיכרון קצר ולי אין פעמיים תמכתי בברק ובפעם השנייה עשיתי ז…  MFaibis בזכות תמיכתי גבאי ניצח סתם עניין שולי PerlGoor תודה ומעריך את כנותך המתפרצת אצביע עמיר פרץ כי בתנאים הנוכחיים הוא הסיכוי היחיד שנצליח לשרוד בתאריך 11119 עמדתי מעל במת ועידת מפלגת העבודה ו…  tinman אני מדבר אתך על מהות ואתה מדבר אתי על הפרוצדורה veredop שמעת על המושג במרכאות ברור שאף אחד לא עוצר נשימתו KfHyiCg6x5eWxSa אומנם יש לך רק שלושה עוקבים אבל למה כבר לעשות לי יורצייט AlonPinkas BenCaspit ענקקק AlonPinkas BenCaspit זה האפטר שייב היחיד שאני לא אלרגי אליו Ayeletnnv RimonRan zviashkenazi המשלוח יגיע RimonRan zviashkenazi נכון לרגע זה נאכל פירות ובעיקר אבטיח leibo871 היטבת לתאר zviashkenazi זה מה שגם נעשה faketibi חולה על זה faketibi תמיד זה היה כך רק שעשיו צייצתי על זה פייק giligiliz אוהב הכי טרי שאפשר archwayh זהו בערך שבועיים והבערך טרם חלף CHAGAID אף פעם לא מלכלך zviashkenazi יש הזמנות של בנות הבית דגי דניס בתנור חזה עוף בערמונים כנפיים ברוטב צ׳ילי מתוק והתוספות תיכף נחליט העולם כמרקחה  ארה״ב מול אירן ואולי מלחמה ובישראל כולם ״עוצרים נשימתם״ לקראת הפריימריס בעבודה אבל אצלי יושב עתה רגל…  TLV102FM חילונים חרדים יהודים ישראלים ומה עשה יוסי שריד המנוח כאשר איתן כבל השתתף בקמפיין למען מזוזות הכל הכל בפרק החדש של ״הפרוצד… TomerVaron נראה לי שאתה לא התעוררת תם הטקס בסדרה ענקית טורונטו רפטורס אלופה גולדן סטייט האלופה היוצאת זוכה רשמית בתואר איוב של הפציעות Omu6UgTgqcPYcNs Avichais GabbayAvi אני עסוק בלכאוב את כאבה של מפלגתי PerlGoor יפה כתבת אלוף אתה shashaasaf תודה מתוק guyelster זו הבעייה שלך הנהי שלי או הבעייה שגבאי עמד בהתחייבותו להפיל את הבית עלינו moraep1 זוכר היטב ובמקרה הנוכחי הבעייה איננה עם הנופל אלא עם הנופלים ההודעה על לכתו הייתה מאוחרת מדיפתטי אני לא נושם אני לא נושם תמיד אספר שראיתי את המשחק החמישי בין טורונטו לגולדן סטייט yiftachm השעה גרמה לי כנראה למחוק את גולדן סטייט מקווה שזו לא קריאה בקטנה של העתיד כי חייבים משחק שביעי לפני דקות התחיל המשחק האחרון בין טורונטו רפטורס או רק המשחק החמישי  הלוואי והסדרה תסתיים בשבעה משחקים oferdann מה אתה חותר לי בראש בשבת בבוקר ועוד באיזה נושא טוענים שאני ספוילריסטאז רק אומר על המשחק הרביעי שיתכן שאחת הקבוצות במשחק בין גולדן סטייט לבין טורונטו רפטורס מתח…  MLayosh חיבוק ענק חבר zviashkenazi azariarachel realrafiperets DayanNetanel בהצלחה לך אלוף לא להם🥇 GideonMeir תודה גדעון למילים החמות והחכמות שלךובעיקר לכבוד שזיכית אותי בהובלת העבודה לאבדוןאתה צודק נבחרתי להובי…  NehemiaGA גדול אתה על זה נאמר ציוץ ממוסמך sDavidovitch וניו יורק תהיה האלופה איגוואדלה מוציא את גולדן סטייט מהקבר והתוצאה מול הרפטורס 11 משחק מותח ומלא בפציעות ודריימונד גרין אחד בוקר טוב לחבריי במנזר השתקנים פתאום הבנתם שגבאי צריך להתפטראיפה הייתם כשניתן היה להציל את הבית ולא את עצמכםאני נ…  orenfarber עם מצביע כמוך ראוי לשקול זאת Noam20fer תמיד ליברפול איזו פתיחה מ ט ו ר פ ת ליברפול 1 טוטנהם 0 orenfarber ornashtoffer daniellebe86 ronithedin ברור אורן כל הקמפיין היה מונח על כתפיי השחות מתנצל שלא עמדת…  ayeletmm איילת אני מניח שכתבת את הציוץ שלך בלי משקפיים בגלל זה לא ראית את מה שכתבת hdi9xXvEOL1NeZl daniellebe86 תודה אליעזר ממש מגניב לקרוא את דברי ההבל שלך JoshBreiner תיכף קם לבשל קציצות עוף ברוטב עגבניות ועוף בגריל והבנות יחליטו על התוספת ornashtoffer daniellebe86 ronithedin אורנה את באמת מאמינה שאם נמות מחובקים הציבור ינהר אחרינו זוכרת את ימי רבי…  jk6GN825EP7YejI תודה יקירה ומאוד מעריך את כנותך ואת ההתנסחות שלך על הסגנון הישיר שלי ornashtoffer daniellebe86 ronithedin אורנה לא יפה לצערי אינך עוקבת אחר עשייתי וזה מאכזב ornashtoffer daniellebe86 ronithedin נו גבירתי אז למה להתגולל על כולם במקום על אברהם archwayh ברור רק בגלל זה לא מצביעים כמה שטוח ורדוד עוד אפשר להיות YuvalRivlin הייתי עונה לך אבל לא שווה לי להתאמץ כשייש לך רק שישה עוקבים  miki1650 ברור מיקי שאני אשם ברור שכל הבעייה זה רק איתן כבל שהתרעתי והזהרתי אבל כך נוח להאשים את השליח תתעורר מ…  אחרי שהרג את מפלגת העבודה נכמרו רחמיו של הקברן עלינו וברוב טובו וחסדיו הוא מטפל עכשיו בסידורי הקבורה  הבעייה כבר מ…  notpolicorrect MaarivOnline GabbayAvi במתותא ממך אני מקווה שאינך מטיף לי על אי עשייה פרלמנטרית MordechaiSasson ברור קניות נקיונות בישולים הקסם של שישי טורונטו מנצחת את גולדן סטייט לפני הכל דרך ההגנה יש מצב לסדרה אש Meravbenari KahlonMoshe KahlonKulanu את אלופה ובהצלחה relbytes אני מבין ותודה אתה מפרשן אותי באופן מוטעה ונפרד כל אחד לדרכו relbytes לרעיון לא לציטוט אבל אם זה מניח את דעתך אז תהנה ללט הבשורה הגדולה שעולה מדבריו של נתניהו שסוף סוף גוש השמאל גדל relbytes לא אקרא לך בשמות ורק אגיד לך שממש לא אמרתי זאת ולא התייחסתי לעניין הסזון אבל לא נורא אמרת היה ליכודניק ונשאר ליכודניק סיים להפיל את הבית עלינו ועכשיו בורח חזרה הביתה כדי להציל את עצמו בתוך כל ההמולה יש חדשות טובות בנק חדש  ב4 שנותיי כיו״ר והכלכלה עמלתי שבנק הדואר יהפך לבנק מסחרי שמשרת בעיקר את…  NitayAnavi IMFNews אני דווקא קראתי את החלק הלא מרומז שנוגע לצורך של בנק ישראל לשפר את השקיפות שלו מול הציבור ומול…  TheProletariat ״עבודה זה איתן כבל״ תכלס  TheProletariat גדול ברכות מכל הלב לRonnyLinder על הזכייה בפרס סוקולוב  אחת העיתונאיות המקצועיות והאמיצות ביותר שסיקרה ללא מורא את חוק…  איזה סוויפ מפואר של החונקים מגולדן סטייט מול הנחנקים מפורטלנד לפני כעשרה ימים הגיע הצפע והיום בא לביקור השועל ובשבוע הבא אני מניח ישובו שפני הסלעמעניין מי שולח אותם  DanaYarkechy gilshil KahlonMoshe ohaddanus עוד אין מהות ואת כבר לוקחת אותי לפרוצדורה BiniAshcknasy עם רינה או בלי הלילה הולך להיות לילה לבן ולא בגלל האירוויזיון  בחצות אתארח בגל״צ בתכנית ״ציפורי לילה״ עם רוני קובן ועמרי אסנהיי…  וואוו וואוו גולדן סטייט בלי דוראנט  מגדירים מחדש מול יוסטון רוקטס את המושג משחק כדורסל הירואי Yaakov82547150 ולידיעתך הצפע נכלל ברשימת החיות המוגנות ולוכד הנחשים משחרר אותו בחזרה לטבע במקום מרוחק Yaakov82547150 יקירי לא נמאס להטיף לי על מה שכבר הבהרתי חזור והבהר שזה בחלק של העירייה הצמוד לגינה שלי ובשבוע הבא…  DrEligula תודה ומעריך את הכנות rachel80720 זו צמוד לחצר שלי DrEligula באמת אתה דוקטור או פייק lirondavidzada נראה לי שהצפע הזה מאוד מאוד זעמןכך לפחות לפי דברי אדי הלוכד sharonidan החתולה שלנו בוטן שרק לפני כחודש ימים המליטה ארבעה גורים מנהלת משא ומתן עם הצפע ואני מת מפחד שלא תפגע  y1shaul זה שטח של העירייה חבר אבל מטפל היה בטוח וואחד נחש  אצלנו בחצר הבית  איך אמר אדי לוכד הנחשים המהולל זה לא נחש צפע זו מפלצת ענק הצפע הזה לא ויתר עד הרגע האחרון  על עופר באתר יזכור  יום הזכרון מגיע ודמותו של חברי סגן עופר שטרנברג ז״ל שנפל במלחמת לבנון הראשונה בכפר סיל צפה ועולה בראשי יחד עם תחוש…  ביבי רוצים הסדרה אבל ההסדרה שלך הורגת אותנו Ayeletnnv את צודקת שאני לא זקוק להתנפח בהליום כדי לעוף על עצמי Ayeletnnv תודה חברה אהובה ומוערכת bbsch9721 אם נשמעתי לך מתמרמר אז אתה טועה קשה להאמין אבל אני ממש לא ממורמר אבל למה לקלקל לך את הציוץ אחרי 22 שנה שבת ראשונה בלי התואר חבר כנסת ותאמינו או לא גם אלו שמתרווחים בכיסאותיהם ומרוצים מעצמם על שעשו לי קפד…  EytanAvriel לפני שבוע סיימה ועדת חקירה פרלמנטרית שהוקמה בשל קריסת פישמן את עבודתה עכשיו מתברר שעם האשראי שקיבל בבנקים ובאמצעות הבעל… kaplaneran tuvipollack במטוטא תזרום מודה שהייתי פסימי הערב לגבי הבוסטון שהיא הקבוצה שתמיד בליבי שנתנה הערב הצגה מול מילווקי מחזיק את כל האצבעות ויודע…  EytanAvriel ועדה של מחוקקים ורוצה להעניק לפיקוח על הבנקים יותר סמכויות יותר כלים יותר זכויות לחקור להעניש ולהרתיע — ובמקום לחבק את… פשוט לא מבין מה קרה לכל החולצות שלי כולן התכווצו אחרי חג הפסח האחרון  כבר מתרגש לקראת המשחק בין גולדן סטייט ליוסטון והאמת שאני בכלל אוהד של הבוסטון Israel74537410 אסקופה נדרסת עשית ממני אבל אתה צודק הGSW נתנו ליוסטון ולאיש עם הזקן אחלה מנוחה איזה משחק ענקקק לLAC שלא ברור להם שאנחנו חייבים את הסדרה של הגולדן…  ברמת הגולן מחכים במתח איזה יישוב ייקרא על שמו של טראמפ לאחר הודעת נתניהו שיקרא יישוב על שמו של נשיא ארה״ב בינתיים…  מועדים לשמחה  בשעה 1100 יהודה ידידי ואנוכי נשדר את המילה האחרונה בגל״צ  אז למי שבדרכים מי שבטיול או בעבודה הצט…  FakeEddiKopel אדי למה אתה פסימי ככה בערב החג אני פה תמיד zviashkenazi חג שמח גם לך ולכל עוקביךאיתן sharonidan תודה על העצה שרון חג שמח שיהיה BarShemUr תודה רבה יקירי חג שמח גם לך תמיד שאלתם את עצמכם איך עושים את החרוסת הכי טעימה שיש אז קבלו חרוסת מבית כבל עם המתכון המלא וסרטון הדרכה קצר יחד…  tzikibrandwine צודק חג שמח כשאתי בנדלר המשנה ליועמ״ש הכנסת ואחת הותיקות במשכן מפרגנת ככה הייתי חייב לשתף אתכם  RoyFolkman תודה רועי אח יקר  היית שותף מלא ונמרץ בפעילות בועדה הרוח גבית שנתן שר האוצר כחלון לעבודת הועדה הייתה…  ltltהענקת סל כלי אכיפה וחקירה פלילית לפיקוח על הבנקים ורשות שוק ההון הקמת שולחן רגולטורים הארכת תקופת הצינון ומניעת…  ltltמחובות הטייקונים הרגולטורים לא פיקחו לא בדקו לא חקרו לא עשו שימוש בסמכויותיהם כדי להטיל עיצומים ולא דיווחו ל… </t>
-  </si>
-  <si>
-    <t>בוקר של כיף עם עמרי בשופרסל דיל מרוב התרגשות מהאירוע החגיגי כמעט לבשתי את החולצה המכופתרת האהובה עליי ששוכבת בארון…  EliBCook אז מה אם עשירים באמריקה פעם שילמו יותר מס אז מה אם עשירים בעולם משלמים יותר מס בסמינר של קרן תקווהבס…  yonatanlevi יש לציפי לבני הסבר יפה להבדל בין המרכז שלה לזה של לפיד וכנראה שגם זה של רבים בכחול לבן היא אומרת ש…  חבל להתייחס לזה אבל עודה דייק ראיון עמוס בדברי הבל שאין בהם דבר מלבד זרגון אמירות ריקות שהן לא רק משוללות כל יסו…  OdehBisharat מושלם erancherpak אמן בלי נדר KseniaSvetlova קסניה יקרה מאוד חיבוק גדול erancherpak אני ממש בספק השינויים החשובים והיפים שמתרחשים בחברה החרדית בשנים האחרונות לא באים לידי ביטוי ולו במי…  erancherpak הוא צריך להוסיף בביו מדברר פוליטיאים ועסקנים ששולחים אנשים למותם זה עד כדי כך חמור הזוועות שהוא מפיץ פה תפילת נעילה עוצמתית ומיוחדת במינה בשדרות ההשכלה בשכונת ביצרון תל אביב מבוגרים מתפללים ליד ילדים מתנדנדים טליתות…  גמר חתימה טובה לכולם כמה שסבתא חוה זל צדקה כשהיא אמרה העיקר שנהיה בריאים AnshelPfeffer אנשיל לגיטימי לגמרי שהיא תבחר לא לעסוק בסוגיה הזאת וגם לא לקבל את הזמנת שלום עכשיו אבל לאשר ואז לב…  YosephHaddad מי היה מאמין שזה יקרה בהתנחלות מעוז השוויון והדמוקרטיה כנראה יש שם בעיית הסברה BarakHer ברק יש חיץ מובהק וברור בין תנועת החרם לבין השמאל הציוני בישראל הם לא מעוניינים בשום קשר איתנו ולהפך חי…  gutweind רק צריך לומר שהביקורת של תנועת החרם ושל הפוליטיקה הפלסטינית בארהב כמו גם של מעגלים אקדמיים רחבים שאתה מכ…  gutweind בהחלט מעניין אם גדול הציניקנים בפוליטיקה הישראלית יעשה חשבון נפש ביום כיפור על ההתעקשות שלו שבתי הכנסת יישארו פתוחים ברא…  amitd441 או זה אכן סלע המחלוקת בינינו amitd441 ולגבי גביזון קראתי ואני מכיר היטב אני חותם על הגדרתה של מדינה יהודית ודמוקרטית amitd441 לא כתבתי שעודה ישיר את התקווה או יצדיע לצהל כתבתי שהנכונות שלו להיות חלק מהפוליטיקה הישראלית הממסדית וש…  amitd441 אני מסכים עם זה לגמרי פשוט בגלל שהימין שולט בישראל באופן די מוחלט לא מעט שנים ובגלל שמהלכי החקיקה חוק…  amitd441 ועוד משהו אנחנו מנהלים ויכוח טקטי אבל אני מנחש שיש בינינו מחלוקת על מהי יהודית ודמוקרטית וממנה נובעת המ…  amitd441 רואה בעצמו חלק ממחנה המרכזשמאל ולפיכך מוכן לפשרות עם האידיאולוגיה הטהורה שלו כפי שכולנו עושים בוודאי ה…  amitd441 ישראל כפי שהיטיבה לתאר רות גביזון היא בו בזמן מדינה יהודית ומדינת כל אזרחיה אין מדינה שאינה מדינת כל א…  amitd441 מלבד בתפיסת העולם של מהי מדינה יהודית ודמוקרטית היא ההבחנה בין חוסר הסכמה לבין חוסר לגיטימיות אני לא מס…  amitd441 לא הקרן החדשה תומכת גם בארגוני חברה אזרחית ערבים שאינם ציונים וטוב שכך לגבי ארגוני זכויות אדם ממה שאנ…  amitd441 וכיוון שהאזרחים הערבים ונציגיהם לא היו ציונים ולא יהיו ציונים ולא יתרגשו מהסמלים והטקסטים שאתה ואני מתרגש…  amitd441 מהותית אתה צודק הניתוח שלהם את הציונות לא מאוד שונה זה מזה והוא בוודאי מאוד שונה משלנו כציונים השאלה ה…  yonyyony תודה רבה ShMMor כל מילה בסלע amitd441 הויכוח בין שמאל ציוני ללא ציוני הוא ויכוח שולי מאוד בפוליטיקה הישראלית אני מוצא את עצמי מנהל אותו כשאני…  amitd441 מה שכן יש זה את הפוליטיקה הערבית בישראל שהיא אכן  באופן לא מפתיע לא ציונית שם ההבדלים הם בין כאלו שמוכנ…  amitd441 זה לא המעגל שלי ואני לא מכיר כאלו בשלוף בלד הם כאלו וכל מי שתומך בחרם על ישראל כולה מי שחושב שכל צור…  amitd441 חביבי אין פה שום התפכחות את ההבדלים בין שמאל ציוני שרוצה מדינת יהודית ודמוקרטית ללא אפליה וללא כיבוש לב…  YaelBerda Mickeygitzin lihiy ygurvitz OrenNahari talschneider AOC JacobMagid TimesofIsrael אני אכן מתנגד ל…  YaelBerda Mickeygitzin lihiy ygurvitz OrenNahari talschneider AOC JacobMagid TimesofIsrael אני מניח שההבחנ…  YaelBerda Mickeygitzin lihiy ygurvitz OrenNahari talschneider AOC JacobMagid TimesofIsrael אנשים שלא מקבלי…  8 למה זה מבאס כי קורטז לא שואפת להיות מלכה הביצה של הבייס הרדיקלי אלא פוליטיקאית משפיעה ברמה הארצית כלומר שואפת…  7 וכמובן שמעל הכול הביטול של קורטז הוא שגוי פוליטית היא זוכה למחיאות כפיים בבייס הרדיקלי אבל ל95 אחוז מהדמוקרט…  6 הכי חשוב זה איפה אתה מדבר ומה מסמלת הבמה הזאת ומי עוד דובר בפאנל והאם הוא טהור מוסרית כפי שמצופה ממך להיות הכי…  5 אותם אנשים שהביאו לביטול השתתפותה של קורטז עשו את המוות לאיימן עודה על השתתפותו בכנס גייסטריט אז מה אם מדובר ב…  4 כמובן שהסכמי שלום ברחבי העולם ובמזרח התיכון נחתמו כמעט רק עלידי מנהיגים עם דם על הידיים שבאו מהשדרה המרכזית…  3 לפי הגישה הזאת שמצפה מפוליטיקאים בשמאל להיות דוברים נאמנים של אתיקה טהורה ולא אנשים שנמצאים בעמדות כוח כדי לקדם…  2 הסופר המחונן וידידי החכם MattiFriedman טוען כבר שנים שהאגפים הרדיקליים בשמאל העולמי מאמצים נקודת מבט על ישראלפ…  1 אז אלכסנדריה אוקסיוקורטז ביטלה הגעה לאירוע זיכרון לזכר רבין שמארגנת שלום עכשיו ארהב לאחר שהבייס הרדיקלי ותומכ…  eyal6699 thedrow אני ישראלי זה חשוב לי עמדתה לגבי ישראל חשובה לי יש שמאלנים קוסמופוליטיים עילאיים מבחינה מוסר…  doronziv Mickeygitzin grapesofwhat thedrow וכל זה לא היה חושב לו היה מדובר במישהי אחרת אבל כיוון שהיא רואה ב…  doronziv Mickeygitzin grapesofwhat thedrow שנית זו עמדה רעה מבחינה פוליטית היא זוכה למחיאות כפיים בבייס הרד…  doronziv Mickeygitzin grapesofwhat thedrow שום פאניקה מוסרית פשוט מחלוקת הקו שלה נוראי ראשית מהותית כי א…  Mickeygitzin grapesofwhat RamiHod thedrow אני לא מזלזל באף אחד ולא כל אחד יש תפקיד בזירה אבל במקביל הניסיון למצוא אנשים טהורים… maoritzk yonatanlevi מאה אחוז maoritzk yonatanlevi היי מאור אני איש שמאל ציוני וסוציאל דמוקרט על כל המשתמע מזה אלו עמדותיי giladlevi73 revitalamiran yonatanlevi צודק זה פשוט בייס שנעים להקשיב לו במירוץ למי יותר רדיקלי בתוך השמאל אבל…  thedrow רק עופר כסיף או חגי אלעד יעשו שלום כפי שבני דמותם  נציגי השוליים של השוליים של השמאל  הם אלו שעשו שלום…  RoyIddan yonatanlevi זה לא מפתיע אותנו רועי יודעים היטב שעבור החברה האלה גם אנחנו בשמאל הציוני נחשבים לימין קיצוני MairavZ arnondeg לא לתמוך בפתרון פוליטי קונקרטי אלא בצדק זה נחמד לסוציולוג בברקלי לא לפוליטיקאית להקשיב לאגפי…  MairavZ arnondeg מה שכמובן מדהים זה שבכירים פלסטינים בפלסטין ובישראל משתתפים ומדברים באירועים לזכר רבין אבל זה ל…  MairavZ arnondeg ביטולה המוחלט של המדינה היהודית יהיו גבולותיה ותצורתה אשר יהיו דה קולוניזיציה של המרחב או קש…  NadavEyal הטירוף הרדיקלי בהתגלמותו arnondeg כן ברור כי מה שמעניין אותם הוא סיום הכיבוש בוודאי abuofir yonatanlevi אופיר מתערבים על ארוחה metukidror yonatanlevi לגבי החברה האלה באמריקה אין עתיד אנחנו ימין קיצוני מבחינתם natansachs alexbkane Unbelievable הטירוף בהתגלמותו קורטז ביטלה השתתפות באירוע לזכר רבין כי הצעקנים והטהרנים הרדיקלים הסבירו לה שמי שפיקד על מלחמות ל…  UriKeidar shaiagmon yonatanlevi ביטלה איזה טירוף יא אללה UriKeidar yonatanlevi orikol השאלה איזה מירוץ במירוץ הפופולריות במחלקה ללימודים פוסטקולוניאליים בברקלי ובקרב קוראי 972 היא מנצחת בגדול thedrow orikol yonatanlevi טוב אם פלסטינים אומרים אין מצב שזו גם עמדה שגויה thedrow yonatanlevi ברור עופר כסיף יהיה זה שיחתום יום אחד על הסכמי שלום לא בן דמותו של רבין yonatanlevi איזה טרלול היא בטוח תרד מזה עכשיו YaaraZered את אחת מגידולי הפרא אפס רקורד אפס הישגים אפס אתיקה אפס מחויבות לעיתונות לעובדות למשהו חוץ מלאדון ishmuli ההגבלות מטרתן לעצור את התחלואה ולא להשתיק את המחאה בוודאי שלא אסכים לסיכולה הממוקד בתקנות שעת חירום בשל עיסוק אובססיבי בלתי פ… yaronkel נכון Mickeygitzin נכון ועדיין הוא צודק ובמחנה שלנו לא קרובים אפילו להבין את זה עם הפחד העמוק והמשתק מכוח שנים שגידולי הפרא התקשורתיים בימין בלשונו של KalmanLiebskind חוברים לגופים כמו אם תרצו ומנהלים קמפיין הסתה ודה…  arielikobi itzikelrov לא עדיף לעזור במקום להפגין אתה רציני יש לך תודעה דמוקרטיה של נתין נטול זכויות באימפריה העותמאנית UriKeidar אתה UriKeidar למה את מצייץ בזמן זום זה לא לעניין nivshai פח זה לא מילה itzikelrov אפשר להעיף את נתניהו לתהומות הנשייה גם בלי בחירות כל מה שצריך זה פוליטיקאים עם עמוד שדרה מהקואליציה והאופוזיציה שיתאחדו ב… הישרדות אישית ומילוט ממשפט מעל הכול בריאות הציבור מתחת להכול בכחול לבןהעבודה יודעים את זה בימינה יודעים את זה…  AlonLeeGreen הפעם אתה טועה חבר הקו שמייחס הכול לבלפור אכן מזעזע על גבול המכחיש קורונה ובעיקר הרסני פוליטית אבל…  AlonLeeGreen  GaliGnt מנעד רגשי ושפתי של בתי בת ה4 GONENB1 LVertzhaizer  LVertzhaizer נחשי אם אכן הולכים לסגר מלא וההחלטה תתקבל בניגוד לעמדת גמזו ומשרד הבריאות ורק במטרה לחסל כל סוג של מחאה נגד נתניהו כל ה…  TehilaFriedman 1 מערכת החינוך צריכה להיות סגורה אין ברירה אבל אי אפשר לצפות שהורים ימשיכו לעבוד לא נאשר סגירה של הגנים בלי פתרון ל… EilonTohar נכון מאוד וזה לא רק עניין אלקטורלי זה פשוט חרא בול  YHepstein ולמה שאני לא אוהב את זה יש לי מחלוקות אידיאולוגיות קשות גם עם המשותפת ואני מפרגן להם אכן החכים של הימי…  YHepstein צודק במאה אחוז ChenSror הבחירה לסמן יהודים בצד אחד וישראלים בצד השני היא מודעת וכל עניינה לייצר גרסא חדשה של שתי הממלכות הנפרדות יהודה וישראל שתיה… לא שזה מפתיע למי שמכיר את AyOdeh  AidaTuma  DrJabareen וחברי כנסת נוספים מהרשימה שליחי ציבור ולא רק הציבור ש…  לא מדברים מספיק על ההתנהלות המנהיגותית והמרשימה של חברי הכנסת מהרשימה המשותפת במשבר הזה גיבוי מלא להחלטות שמטרתן ש…  NitzanHorowitz הבעיה הכי קשה בסגר הזה עוד פיטורים והוצאה המונית לחל״ת עכשיו מצטרפים כ100 אלף איש לדורשי דמי האבטלה זה הרסני למובטל… tomereznik kerenberlk amirperetz לדעתי זה זה והחשדנות העמוקה של בכירי האוצר 100000 ישראלים הוצאו לחלת מאז ראש השנה שיעור האבטלה בישראל הוא הגבוה במערב כבר באפריל היו גופי מדיניות ואנחנו…  שרשור מצוין  בסד  Itaigutler נביא בעירו לא תהיה יציאה מהמשבר בלי שינוי במדיניות הכלכלית זה מה שצריך לעשות 1 סבסוד שכר במקום חלת 2 מענקים פשוטים ומהיר…  eyaldatz kann בהצלחה אחת הסיבות לכך שאף אחד במרכזשמאל לא מאיים כרגע על נתניהו והימין היא העיסוק המוגזם המאוס והמטוטמם מבחינה פוליטית ש…  Yesodotorg חשבון נפש כלכלי בגל התחלואה הראשון ישראל בלטה לרעה בכל הנוגע לניהול הכלכלי של המשבר כעת בצל הגל השני על הממשלה לגבש תקצ… נפתלי בנט המאמי הלאומי החדש מסתיר את העמדות החברתיותכלכליות שלו כמו שהוא מסתיר את סמוטריץ ואת שאר הגזענים שברשי…  Malileonard2 המדינה לא תומכת בו זה גוף פרטי שעושה פעילות לגיטימית אין צורך לרדת לרמת אם תרצו בנייר מדיניות חדש מציעים בפורום קהלת את הצעדים הבאים הפחתה זמנית של שכר המינימום העברת תשלום מעסיקים לביטוח הלאומ…  חצי שנה מפרוץ המגיפה והאפשרויות שמעמידה הממשלה בפני הגנים והכיתות הנמוכות הן עדיין בינאריות פתוח או סגור פעילות מ…  חחחחחחח  YaronHD באתר ynet פורסמה הבוקר כתבה מתורגמת מאת סוכנויות הידיעות שהיתה צריכה להרעיד את אמות הסיפים אבל כנראה שכאן תתפוגג לריק על רקע… Sykocan LevineHagai מדויק ShaniAshkenazi שני עכשיו את האישה הנמוכה החשובה בעולם AybeeBinyamin אתה שילוב ייחודי של בור ודביל בדרך כלל זה סתם פאתטי עכשיו זה כבר ממש מסוכן Mickeygitzin NitzanWaisberg מה שמיקי כתב NitzanWaisberg וכל מה שכתבת על מערכת החינוך ומדיניות הממשלה מדויק וגם המחאה חשובה מאוד ומרגשת מה שלא לעניין זה ה…  NitzanWaisberg את מוזמנת להיכנס לדיגיטל של קרן ברל כצנלסון לקרוא ניירות שלנו שמוצגים מדי שבוע בכנסת פעמים רבות ע…  NitzanWaisberg את ממש חושבת שמה שאת עושה הוא מרכז העולם אה אם לא סעדתי בבלפור אז לא עשיתי כלום את מודעת לזה שיש…  NitzanWaisberg וגם התשובה הטפשית הזאת היא וואטאבאוטיזם נחות מדיניות הממשלה היא חרפה נתניהו מושחת ומסוכן אין שום…  בתוך יומיים מתו בישראל 57 אנשים מקורונה מי שלא שומר על כללי הריחוק החברתי הוא עבריין לא משנה אם הוא מתפלל בבית כנ…  NitzanWaisberg איפה הייתי את אמיתית את בסרט שאת רזיסטנסנס במלחמת העולם השנייה ושמי שלא חי בסרט שהוא כזה הוא צייצ…  NitzanWaisberg וואטאבאוטיזם ילדותי מזיק ומסוכן Mickeygitzin מי שמכחיש קורונה פועל באופן מכוון נגד הנהלים מסכן את הציבור גם במצב בו קשה להאמין לאינטרסים של הממשלה חברה לא יכולה לא… OriRamati  Tsur נכון אז מה אתם מתכננים להראות לילדים בטלוויזיה בתקופת הסגר המלצות לסדרות וסרטים איכותיים לגילאי 45 yaelshevach שנה טובה יעל למה אתה מצביע ימין ומקבל קורונה  filbers התכוונתי לבקש הוכחות לטענות המגוכחות שלך אבל נזכרתי שהאמת היא תמיד נר לרגליך אז אני מאמין אוטמטית אדם ישר דרך שכמוך   הנה מה שצריך לעשות התכנית לשינוי יחסי משפחהשוק עבודהמערכת החינוך של יערה מן ראש תחום ח…  המגזר הפרטי ימשיך לעבוד כרגיל מערכת החינוך תיסגר הנה על רגל אחת עיוורון המדיניות הציבורית בישראל כלפי משפחות צע…  שכונה  horowitzb עכשיו שסגרו את מערכת החינוך כולל גנים אני בטוח שיוציאו לפועל את תכנית המגירה שמשרד החינוך עובד עליה בחודשיים האחרונים בדיו… revitalamiran בהצלחה רויטל יקרה דעו מה להשיב לאלו שבניגוד לכל היגיון כלכלי וחברתי רוצים לפגוע דווקא בתקופה הזאת במגזר הציבורי YaaraMann ראש תחו…  זה פשוט לא ייאמן שהם בלי מסיכות ובלי ריחוק חברתי ובלי כלום אצל טראמפ זו אידיאולוגיה אנטי מדע אנטי מומחים אנטי מ…  פליז פליז פליז שבהסכם שנחתם היום מסתתר תת סעיף שמחזיר אותנו לבית האסייתי במוקדמות המונדיאל אוהב אותך ביבי לעד AlonLeeGreen אתה רומז שהקורונה היא לא קונספירציה של ביבי תמיד כדאי לקרוא את RonnyLinder  הפעם זו ממש חובה טקסט מעולה   ShMMor לפני שחנויות הספרים נסגרות לשלושה שבועות צאו לקנות את הגיליון המקסים של תֶּלֶם  כתב עת לשמאל הישראלי שמוציאה קרן ברל כצנלסו… itzikelrov אנחנו עוד מעט חוגגים שנה לקורונה וחלק מכם לא טרח לעשות שעורי בית בסיסיים סביב האירוע  בניגוד לעבר זה כבר לא השערות יודע… amitbentzur סטנלי פישר בראיון סוציאלדמוקרטי  הבנק המרכזי יכול להמשיך להזרים כסף זול  צריך להשתמש במדיניות התקציבית לצמצום איהשווי… kerenberlk העונה הבאה של הישרדות כבר כאן כשישראל נכנסת לסגר ומאות אלפים נוספים בדרך לאבד את פרנסתם – המדינה עומדת לקצץ 10 מדמי הא… kerenberlk ההסכמים עם מדינות המפרץ חשובים ומרגשים את כולנו – אך האם משמעותם היא שייתכן שלום בלי מדינה פלסטינית  לדר אסף דוד יש תשוב… erancherpak בסגר הראשון עם רמת תחלואה נמוכה בסדרי גודל מהנוכחית ועומס פחות פי כמה על מערכת הבריאות נסגרו כל בתי הכנסת כולל לאורך כל ח… ובכן מסתבר שאפשר  המגזר פרטי עובד כרגיל ומערכת החינוך סגורה לחלוטין עבורנו משפחות צעירות בישראל זוהי הנחיה עם סתירה פנימית עמוקה ש…  איך בדיוק הפעילות במשק אמורה לרדת ל50 בלבד בעוד כל גני הילדים ובתי הספר יהיו סגורים באיזה מוחות מעוותים ומנותקים…  ishmuli סגר מוחלט אינו יעיל לט״א וספק אם יעמוד במבחן הציבור למיקוד מאמץ דיפרנציאלי ולנקיטת צעדים אגרסיביים במוקדי התחלואה לא ניתן עד… tamarzandberg במקום להילחם כל אחד על המגזר שלו על שרי הממשלה להתאחד ולהחליט על רשת בטחון נדיבה ופיצוי הולם לעובדים לעסקים ולענפים שנ… YaelBerda מהדהדת את RamiHod לשרים ולחברי הכנסת של המרכזשמאל יש כרגע משימה אחת בלבד  להילחם שלא יהיה סגר בלי רשת ביטחון כלכלית אמית… מצוין  לשרים ולחברי הכנסת של המרכזשמאל יש כרגע משימה אחת בלבד  להילחם שלא יהיה סגר בלי רשת ביטחון כלכלית אמיתית אין סגר…  gutweind חשיפת פרטי הדיונים על הסגר מלמדת שמניעיו הם פוליטיים ולא בריאותיים לא נעשו צעדים לחיזוק מערכת הבריאות שהם תנאי למאבק בקורונ… נכון מאוד  בדיוק כך  erancherpak המשרוקית עושים עבודה מדהימה הגענו למצב הנוראי הזה כי פתחנו הכול ומהר למה כי העצמאים בעלי העסקים והעובדים שיצאו לחלת פשוט קרסו למה כי רשת…  AvishayBSG הכי מצחיק זה שהעורך של רסלינג הוצאה שבמשך שנים העלתה על נס את כל הזוועה הזאת ממש לא מבין מאיפה בן חיי…  AvishayBSG מי היה מאמין שכל הממבו גמבו של תיאוריות פוסט קולוניאליות יביא לכאלה תוצאות dinadayan תודה לך על המודיעין אמין ואיכותי כרגיל metukidror חבל שאתה מפריע לאנשים להיגרר לספין ולהמשיך לא לעסוק במצב הכלכלי אוקיי אז הולכים לסגר דמי אבטלה לעצמאים כבר יש אין שינוי מודל החלת ההרסני כבר יש אין פיצוי ברור לעסקים שנסגרי…  חברי כנסת שלא מושקעים עכשיו כל כולם במשבר הבריאות והכלכלי החמור בתולדות המדינה לא ראויים לתואר נבחרי ציבור כן גם…  אי אפשר להטיל סגר נוסף מבלי להכריז באותו רגע על חבילת סיוע מקיפה לעסקים דמי אבטלה לעצמאים ומעבר מהחלת ההרסני לסבס…  זה פשוט לא ייאמן במה מתעסק ראש ממשלת ישראל בזמן המשבר הבריאותי והכלכלי החמור בתולדות המדינה מעל 3500 חולים מאומתים…  EmilieMoatti בני לאו הוא לא איש תקשורת ולא פריימריסט ולא ראש ארגון שמאל הטון שלו לא צריך להיות הטון שלך או שלי ה…  זה מה שצריך לעשות   אם כל סגירה של עסק הייתה מגיעה עם פיצוי הולם לא היה לחץ לפתוח הכול ומהר אם במקום ההוצאה לחלת היה כאן סבסוד שכר…  tamarzandberg קשרית שמאל מספר 7 קלאסית ILParliament נכון אוהבים לדבר על כך שמעטים מדי מציגים אלטרנטיבה כלכלית לצעדי הממשלה אני מאוד שמח לקרוא ל kerenberlk לקוח שלי וגאה ל… Israelcohen911 אדוני יודע מה זה נתונים אתה מבין שיש יותר קורונה בביתר עלית מאשר בכפר סבא אתה מכיר בקיומה של מציא…  האם זה לגיטימי להודות שעל אף שהסוף של הקמפיין ידוע מראש וכך גם סופה של הטלויזיה שהשלט ייזרק לעברה בפעם המי יודע כמה…  ItaiVered אם ראשי הרשויות הערביות ולא החרדיות היו מובילים מרד זה היה נגמר במשטר צבאי ראש ממשלה אחר שלא היה צריך את ליצמן ודרעי כדי ללכת לבחירות נוספות ולהשיג חוקי חסינותהתגברות שיחלצו אותו מהכלא הי…  jotambrom בזכות קרן ברל כצנלסון הייתה לי הזכות לכתוב בשנה החולפת נייר מדיניות כיצד אנחנו יכולים להפוך את לימודי היהדות במערכת החינוך מ… itzikelrov בתור אדם חרדי אני עוקב בהשתאות אחרי הראיונות של ההנהגה הערבית בישראל סביב משבר הקורונה במגזר לקיחת אחריות מלאה גיבוי אנשי… אם שר האוצר רוצה לייצר מקורות מימון למשבר שישקפו חלוקת הוגנת של הנטל בין עובדים שנפגעו ממנו לכאלו שלא נפגעו אפשר ל…  MGozlan1974 arielikobi זה כבר שיח לא סבבה המגזר שקובי משתייך אליו לא אשם בדבר ישראלים טובים שרובם המכריע נוהג ל…  arielikobi ערב טוב לבדרן הבית של בלפור אין נתונים שמעידים על הדבקה בהפגנות אתה מפיץ בורות ושקרים אתה הרי יודע א…  מדויק מה שבטוח שבניגוד לגל הראשון הפעם אף אחד מחוץ לערים אדומות ושכונות אדומות לא ימלא אחר הנחיות הסגר  טור פצצה  EilonTohar מבין revitalamiran EilonTohar אני מודע היטב כפי שאני מודע היטב לכך שבמאבקי צדק חברתי ושוויון אחרים חלק גדול ממי שמצביע…  EilonTohar לא קשור ללשנות מבפנים קשור ללדעת להבדיל בין שותפים שאתה חולק עליהם בכמה סוגיות לבין יריבים פוליטיים שא…  EilonTohar זה באמת נורא מבאס בלי ציניות אבל איכשהו אצלנו כל פוסט משקף את השמאל ומוביל למשברים ודילמות קיומיות…  UriKeidar YaelPatir חחחחח השלב הבא לשכנע את בועז רקוץ הגאון לעשות טוויטר עלייך YaelPatir ה thewhistleIL עשו עבודת קודש ופירקו בזה אחר זה את טיעוני האוצר נגד החלת מודל לסבסוד שכר כחלופה לחלת ובכלל מתחי…  metukidror אביר קארה לוחם למען זכויות העצמאים וכנראה זכויותיו שלו בליכוד מארגן הפגנה נגד ההסתדרות על סכסוך עבודה במגזר הציבורי  יעני… חדש בהוצאת סלע מאיר כיצד הפך נתניהו את ישראל לאימפריית קורונה יש לי משפחה קרובה בביתר עילית ומודיעין עילית יש לי חברים באלעד ובבני ברק ההתנהלות של ליצמן דרעי הרב קנייבסקי וח…  yaronavraham זה מאוד פשוט או שיטילו סגר על ערים חרדיות וערביות שבהן יש תחלואה רחבה  או שיטילו סגר כללי כי שיקולי פוליטיקה ופוליטיקלי… כל מילה  אם במקרה אתם עדיין לא מספיק בדיכאון חשוב לזכור שיש משחק של הנבחרת מחר erancherpak בשונה מפוליטיקאים וירוס הקורונה לא מתרגש מבריוני רשתות חברתיות ושופרות שלטון הניסיון להאשים את המפגינים בתחלואה שמשתוללת… amitbentzur השאלה היא מי כאן הון ייצור ומי הון סיבוב leeyaron נשארנו עם נונה אז Itaigutler leeyaron לא יושבים עם לפ טופ בלילה במנזר תחזור לירושלים מהגר מידת הדמוקרטיה הפנימית במפלגה מעניינת את ציבור מצביעי המרכזשמאל בערך כמו שפרשת הרפז מעניינת את דודה שלי לפיד ושלח…  ILParliament יש אגרול פצצה בקפיטריה בבית ברל</t>
-  </si>
-  <si>
-    <t xml:space="preserve">המטרה של הימין מאז ועד היום הייתה לחסל כל אפשרות של שלום והקמת מדינה פלסטינית אבל המאבק לשחרור לא יסתיים עד שלא יה…  היום לפני עשרים שנה פרץ אריאל שרון בחסות אלפי שוטרים למסגד אלאקצה בצעד מתסיס שהצית את האזור  האינתיפאדה השנייה שפר…  כל הכבוד לחבריי עופר כסיף ואוסמה סעדי שבלילה אינסופי בוועדת החוקה הצליחו לדחות ואף למנוע את חוק איסור ההפגנות של נת…  עכשיו בוועדת הכספים נאבקים שוב על דמי אבטלה לבני 1820  נתניהו  אתה אחראי וגם אשם  אתה אשם במוות של האזרחים שהפקרת למרות כל האזהרות  אתה אשם בריסוק מערכת הבריאות שייבשת…  בזמן שכולם עוסקים בסגר הממשלה החליטה בהתרעה של שעה להביא לוועדת הכספים עוד הערב שלושה חוקים כלכליים הקשורים לסגר…  לשאלתי ענה מ״מ הממונה על התקציבים שהניתוח של האוצר לגבי היציאה ממשבר הקורונה מניח כי המשבר יסתיים ויוסרו כל המגבלות…  אנחנו בשיאו אחד הכישלונות הגדולים ביותר של ממשלות ישראל לדורותיהן בהתמודדות עם משבר הקורונה הכישלון הזה אינו רק רפ…  המסקנה הברורה מההתנהלות הזו היא שממשלת ישראל לא מעוניינת להעביר תקציב מסודר ושקוף אלא להמשיך לעבוד עם תוספות זמניו…  כשאנחנו חוזרים על הדרישות שלנו לתקציבים לרשויות המקומיות להתמודדות עם הקורונה להעברת עודפים של תוכנית 922 או לדמי…  מה שאנחנו כן יודעים זה שמתוך 11 המיליארד – כמיליארד ש״ח מיועדים לכספים קואליציונים שעיקרם תמיכה בהתנחלויות וב״זהות…  האוצר היה אמור להציג בפני ו׳ הכספים תוכנית לשימוש ב11 מיליארד תוספת שהכנסת אישרה להם לשם התמודדות עם מצב החירום של…  שמחון יועצו האולטרה קפיטליסט של נתניהו צריך לשמוע על המנקה שהוצאה לחל״ת ומקבלת עכשיו 3000 ש״ח בחודש על איש הסאונ…  אני מברכת את חברי סעיד אלחרומי שנבחר עכשיו ליור וועדת המשנה בוועדת הפנים לטיפול באוכלוסיה הערבית הבדואית בנגב  הג…  המגיפה לא בשליטה מערכת הבריאות מתקרבת לסף הספיקה הממשלה כשלה בטיפול במשבר ולכן אין לנו על מי לסמוך חוץ מעל עצמנו…  מופעי הגזענות האלימה הזו הם דרך של הכיבוש להשאיר את הפלסטינים מפוחדים נוער הגבעות הוא הכיבוש והכיבוש הוא טרור קשה להאמין שההודעות האלה אמיתיות אבל נוער הגבעות יודעים שגם אם יפיצו את רשימת התקיפות השנתית שלהם בתפוצה רחבה  דב…  ההכרזה של ארהב שתחזיר את הסנקציות על איראן מתלכדת עם ההסכמים שיזמה בין ישראל למדינות המפרץ  המטרה היא להסלים את ה…  שוחחנו על המשמעות של הסכמי ישראל ומדינות המפרץ לעתיד האזור והעמים החיים בו ועל איך שנתניהו בורח מהבעיות בבית להצלח…  נפגשתי עכשיו יחד עם דר עקל טקז ממפלגת העם הפלסטינית עם נציגים של מפלגות קומוניסטיות מכל העולם  מבריטניה איראן ע…  שנה טובה למי שחוגג  שתהיה שנה של מאבקים מוצלחים בריאות שוויון ושלום  שנזכה להפיל את הממשלה הרעה הזו בשנה הקרוב…  התנהלות הממשלה היא כישלון חסר תקדים  ההנחיות נראות גם דרקוניות וגם לא אפקטיביות רופאים רבים חושבים שניתן לשנות ול…  נפגשתי עם שגריר הולנד בישראל האנס דוכטר בנצרת אליה הוא הגיע כדי להביע סולידריות עם הציבור הערבי שנאבק במגיפת הקורו…  לא היו פלסטינים במדשאות הבית הלבן הערב  ככה לא נראה שלום  תסתכלו על שני המנהיגים הרעים האלה חוגגים עסקת נשק פיננסית עם רודנויות בזמן שהעמים שלהם נמקים תחת המגיפה  סדרי העד…  סוף סוף היה משהו בידי אשכנזי רגע של תהילה  והוא קיבל החלטה להסמיך את נתניהו  כל הכבוד לפעילים שעשו את הדבר הנכון הסכם השלום שצריך לקדם הוא מול הפלסטינים  אבל התנאי לשלום הוא סיום הכיבוש והקמ…  היו״ר פינדרוס מסכם כי המהלך של משרד הכלכלה מחייב מנגנוני פיקוח יעילים בשווקים ודורשת דיווח עד 1 בנובמבר על מנגנוני…  יעקב וכטל הממונה על התקינה  לפי ההערכה שלנו הרפורמה תביא לחיסכון של כ400 מיליון ש״ח ההנחה שלנו היא שהעלות תרד מה…  גרישה דייטש יועץ להתאחדות התעשיינים לתקינה  מדובר פה באימוץ של אלמנט אחד מהגישה האירופאית  של הצהרות ברגע שמאמצ…  אופיר גמליאל מנכ״ל מעבדות אייטיאל  במצב הנוכחי אנחנו לא בודקים כל מוצר אנחנו מכירים בבדיקות של קולגות מחו״ל אנ…  אילן בר מנכ״ל מעבדות חרמון  אם הרפורמה תעבור כפי שהיא אנחנו 3 מעבדות נהיה בחוץ הרפורמה הזו פותחת בצורה מאז׳ורית ד…  גלעד גולומב מנכ״ל מכון התקנים  הרפורמה שמוצעת כאן עוברת מאכיפה בנמלים לאכיפה בשווקים זה מחייב קודם בניה של מנגנונ…  יעקב וכטל הממונה על התקינה במשרד הכלכלה  היעוד של תקן רשמי הוא שמירה על הבטיחות אבל הרפורמה לא תפגע בבטיחות ידרש…  ח״כ מטאנס שחאדה מדינה לא אמורה לוותר על הבדיקות של מוצרים שמגיעים בשעריה זה לא הגורם ליוקר המחיה צריכים לנסות ליצור את האיזון העדין בין הורדת יוקר המחיה לבין הבטיחות של הצרכנים  היום אני רוצה לברר מה עמדתו של מש…  אני חוששת שהרפורמה הזו שתוריד את התקנים תסכן אנשים שמשתמשים במוצרים אנחנו גם לא נדע לבדוק בדיעבד אחרי תאונות  מדו…  זה דיון על איזון נכון בין צרכנות בטוחה שבה המוצרים אינם מסכנים את חיי ובריאות הצרכנים לבין שיקול של ״הורדת יוקר המח…  מתחילה דיון ביוזמתי בוועדת כלכלה בנושא ביטול בדיקות מעבדה למוצרי צריכה מיובאים  יש רפורמה מוצעת של משרד הכלכלה שפו…   צמצום הצעדים הבירוקרטים הכרוכים בקבלת תמיכה  עיבוי וחיזוק דרסטי של השירותים החברתיים לתמיכה בקהילות שנפגעו  הסגר…   פיצוי העסקים שייסגרו את דלתותיהם  פיצוי שכבת הצעירים בגילאים 1820  עידוד החזרה לשוק העבודה באמצעות תמיכת המדינ…  סגר ללא תכנית כלכליתחברתית הוא אסון השלכות הסגר הראשון עדיין לא עברו ומוכיחות לנו שתכנית הסגר לבדה אינה מספיקה י…  אני זוכרת את המראות הקשים של בית משפחת דוואבשה אחרי הרצח בית שהיו בו חיים והפך לגיהנום שרוף  לסעד ריהאם ועלי התי…  פניתי לשר הרווחה איציק שמולי בבקשה לפעול כדי לגבש תוכנית מלווה למאבק באלימות כלפי נשים בזמן הסגר ניתן להציל את הנש…  הגשתי עכשיו הצעה לדיון מהיר בוועדת הכספים על הצורך בהכנת תוכנית כלכליתחברתית משלימה לסגר  אי אפשר להפיל על הציבור…  לא יעזור הכיבוש עוד יסתיים ומדינה פלסטינית עצמאית בגבולות 67 ובירתה ירושלים המזרחית עוד תקום אל תתנו לו לעבוד עלי…  נתניהו עושה שרירים ומנרמל״ יחסים דווקא עם מי שהיחסים איתם היו מאז ומתמיד יחסי בני ברית שום שלום היסטורי זהו חבל…  עכשיו יצאתי מפגישת חירום עם ח״כיות ופעילות ערביות ויהודיות מכל הארץ בעקבות הרצח בנגב אתמול  הדיבור על סגר מתקרב מד…  משטרת ישראל אונס והטרדה מינית הם לא עבר מיני שחשיפתם פוגעת בפרטיות הם עבר פלילי שחשיפתו היא חובה מוסרית מהמעלה הר…  תודה אבי נכון  הסיוט עוד רצח  אשה בת 30 ברהט  עוד חיים הסתיימו  והרבה רצונות וחלומות יגנזו  אנחנו כבר לא בשלב שאיכפת מי רצח ולמה  רק שה…  לא רק כישלון בטיפול בקורונה המשתוללת אלא מערכת הבריאות קורסת בשל ייבושה המתמשך תוצאות הנאוליברליזם והפונדמנטליזם…  הדיון הסתיים בלי הרבה תשובות ברורות ממשרד החינוך  יור הוועדה ramshefa סיכם שנכין יחד רשימה של כל השאלות שעלו בדי…  במקום שיפקחו טוב מדי על המכללות משרד החינוך החליט שהוא הולך לדרוש מהמורים עוד בחינות הכשרה שמשפיעות על הניקוד שלו…  סוניה פרץ ממשרד החינוך הנוהל ברור ואני רוצה להסביר את ההיגיון מאחוריו ואת עודף המורים בחברה הערבית   עאידה אנחנו…  שיטת הניקוד קיימת רק בחברה הערבית ועל פיה המורים ממונים לבתי ספר  יש אינספור בעיות בשיטה  אין סמכות למנהלים בכלל…  מתחילים דיון ביוזמתי בנושא שיבוץ מורים ומורות בחברה הערבית  יש וועדה שאחראית לשיבוץ המורים אבל אנחנו לא יודעים מי…  איימן סייף התמסר בחודשים האחרונים למאבק בקורונה בחברה הערבית אחרי אינספור ימי עבודה בישובים בהם התחלואה גבוהה  הי…  נתניהו ושותפיו הפכו את אבואלקיען למחבל  הם וההסתה הגזענית שלהם נגד הערבים  ההתנצלות שלו עכשיו לא שווה דבר והי…  צילום שמוליק גרוסמן דוברות הכנסת רחל הבת המתוקה של tamarzandberg עושה רושם של פמיניסטית מבטיחה כאן בוועדה לקידום מעמד האישה  הילד התמים מנצרת ניצל בנס ובעזרת הרופאים אבל הניסים לא הצילו שתי ילדות חנאן ורפיף בנות ארבע בירושלים המזרחית לאח…  איור של ShimonBurshtein הקורונה פוגעת יותר בעניים  בין אם הם ערבים חרדים או יהודים חילוניים  ראו את המתאם המובהק בין התפשטות הקורונה למ…  להצתה השניה של ביהס שמלמד ערבים ויהודים יש את כל המאפיינים של פשע שנאה נגד הערכים הכי צודקים וראויים שיש  של שותפ…  תמיד חשוב לעזור לאנשים החיים בעוני אבל נתניהו וממשלתו לא מבינים שהעוני מתרחב וחלק ממנו לא ידוע לרשויות במקום לתת…  אבל כדי להגיע למצב בו אנחנו מגינים על עצמנו מחויבת התארגנות והקדשת משאבים מצד המדינה מוכרחים להנגיש יותר שירותים…  המדינה כשלה בהתמודדות עם המגיפה אבל זה לא העיקר ברגע זה עכשיו הגענו למצב בו אנחנו מוכרחים להגן על עצמנו על החברה…  בימים האחרונים יצאנו בקמפיין להעלאת החששות של הציבור מהמגיפה כמעט כל אנשי הציבור התגייסו למאמץ ההסברה הזו יותר וי…  המדינה כשלה בהתמודדות עם המגיפה אך זה לא העיקר ברגע זה עכשיו הגענו למצב בו אנחנו מוכרחים להגן על עצמנו על החברה…  על הגיפה בחברה הערבית  הגיע הזמן להפסיק לצפצף על מגבלות הקורונה אי אפשר להמשיך בהלך הרוח ששלט בתקופה האחרונה – שא…  הבית השכונה העיר  באחריותך זה המסר שהוצאנו עכשיו בחדש המצב חמור הממשלה נחשלה כישלון חרוץ בהתמודדות עם המגיפה…  אם לשלושה שריפה אבו מועמר מורה ואם לשני ילדים קטנים מרמלה הכינה אתמול הפתעות ובלונים לתלמידיה לקראת שנת הלימודים החדשה כדו…  הם לא ידעו שהלימודים מתחילים ב1 בספטמבר  מחר תתחיל שנת הלימודים המאתגרת ביותר שידעה המערכת והגנרל היהיר שעומד בר…  סמוטריץ מסית לרצח הוא רוצה לראות את החיילים רוצחים פלסטינים ומדכאים כל נסיון התקוממות נגד הכיבוש מה שהוא לא מבין…  לא רק שאלשיך לא התנצל על שכינה את יעקוב אבו אלקיעאן ז״ל כמחבל אלא שעכשיו 3 שנים אחרי הוא חוזר על אותו שקר גס  זו…  כל הפלפולים המשפטיים לא משנים את העובדות הפשוטות שעולות מהעדויות ב30 במאי איאד אל חלאק פלסטיני אוטיסט בן 32 הוצ…  לא מפתיע שפעילות זו מופנית כלפי כפר קדום – שהוא מעוז של התנגדות עממית ועיקשת לכיבוש הצבא לא מצליח לדכא את ההפגנות…  כבר קשה להבחין בין צבא הכיבוש לבין הטרוריסטים של תג מחיר הנחת מטענים מוסתרים למטרות ״הרתעה״ היא הפעלה ברורה של טרו…  אני מקווה שהגדלת התקציב הזו מצביעה על שינוי מגמה במשרד העבודה הרווחה ושירותים חברתיים שישתקף בהקצאת תקציבים אני…  אני מברכת על ההחלטה להגדלה משמעותית של תקציב מרכזי הסיוע לנפגעי ונפגוץעות תקיפה מינית ובמיוחד את השר איציק שמולי ש…   נציגי השבס ורשויות החוק והאכיפה ישבו מולנו בוועדות הסתכלו לנו בעינים והבטיחו שבשחרורים המינהליים בשל העומס בבתי ס…  חיברו את החולה למכונת הנשמה אבל ריח הבחירות עדיין נודף ממנו הקואליציה תמשיך לטרלל את הציבור ואת עצמה זה לא פתרון…  מה שראינו אתמול בוועדת הכספים והיום במליאה הוא הליך רפואי מורכב  החייאה של חולה במוות קליני  נפגשתי עם השרה לשוויון חברתי cohenmeirav ובתחילה בירכתי אותה על ביקורה בסוכת האבלים של נורה כעביה שנרצחה על ידי ב…  השעה 118 ועדיין מתווכחים על הניסוח של חוק האוזר וכל זה לאחר שנכנסנו לוועדת הכספים לאחר שכאילו יש הסכמה  טירלול שעוד לא ראיתם ברוטאליות וכוחניות זה מדרון חלקלק  זה עוד יגיע לפתחם של כל המעזים להגיד ״לא די״ לכן ההתנגדות להם צריכה להיות עקר…  האלימות חסרת המעצורים של קצין ניסו גואטה תועדה בידי מפגינים וטוב שכך  באותה העיר קילומטרים בודדים הרחק מבלפור נ…  רצח שהיה אפשר למנוע  גבר עם היסטוריה של אלימות שהורחק מביתו רצח את אישתו  נורה בת ה50 היא עוד קורבן של אלימות…  אני עכשיו פועלת מול שר הכלכלה עמיר פרץ כדי לטפל בנושא הזה לא מתקבל על הדעת שאנשים לא יוכלו למלא את הטפסים בגלל מגב…  טוב שנמצא פתרון לתוכניות החינוך המשלימות נקווה שאף אחת לא תיפול בין הכיסאות היעדר התקציב וההתכתשות הפוליטית פוגעת…  לרשות הנערה הייתה צריכה לעמוד מעטפת תומכת שתטפל בה תגבה את העדות שלה ברגישות הנדרשת ותאסוף מיד את הראיות הפורנזיות…  הידיעות על האונס הקבוצתי באילת מצמררות עוד אונס קבוצתי 30 גברים אלימים הרוע בלתי נתפס המחשבה שנערה בת 16 הייתה…  עוד התפרצות גזענית אלימה הפעם בכינרת  כאשר ראש הממשלה מסית בלי הפסקה נגד הציבור הערבי ונציגיו כאשר שוטרים שהורגי…  עבור הכיבוש  חיים של פלסטיני לא שווים כלום עונש ראוי לחציה ברמזור אדום על נטילת חייו של אדם שנרצח בזמן שעזר לאדם…  נתונים שאסף ארגון GishaAccess  מהשנה האחרונה על הגבלות על שטח הדיג ועל סגירת העברת הסחורות לעזה  ישראל אסרה השבוע על כל פעילות דייג בים של עזה והפסיקה את הכנסת הדלקים לרצועה – כך שהחשמל בעזה יפעל רק שעות ספורות…  אום חליל וכל שאר האימהות שצעדו מחיפה לירושלים התחילו במהלך לשינוי מהותי בתדמיתו ואופיו של המאבק נגד פשיעה ואלימות…  9 מדינת ישראל תהיה חוד החזית של האימפריליזם האמריקאי באזור  10 כפי שאמר בעל הדוקטרינה לנצח נחיה על חרבנו 6 כריתת בריתות עם הכוחות השמרנים ההרסניים והעשירים ביותר באזור  משטרי מדינות המפרץ  7 הסכמי שלום – רק עם מי שלי…  2 העמקת הפירוד בין חלקים שונים של העם הפלסטיני – בעזה בגדה בירושלים המזרחית בפליטות ובתוך ישראל  3 עקרון יסוד…  נתניהו אמר שההסכם עם איחוד האמירויות הוא תוצאה של ״דוקטרינת נתניהו״   להלן 10 הנקודות של דוקטרינת נתניהו האמיתית…  הירי על אדם עם מוגבלות חושף שוב ההתנהלות הפושעת של כוחות הכיבוש נגד הפלסטינים היד קלה על ההדק וחיי בני אדם לא נחשב…  המדינה מתחמקת מאחריות במקום להשקיע יותר תקציבים בחיזוק תשתיות חינוך ולאפשר להורים לחזור לעבודה הממשלה מייבשת וסוג…  טוב עשה גמזו שהתנצל כפי שדרשתי בראיון המצורף  אבל זה לא מספיק עכשיו זה הזמן לבנות תוכנית בשיתוף פעולה קרוב עם מנ…  אולי הוא יכול להתעלם מהזעקה שלנו בעראבה אז באנו לבלפור כדי שישמע אותנו  ביבי הביתה  הצעירים שקוראים פה צדק לסולומון וצדק לאיאד יודעים שמאבק בכיבוש הוא מרכזי למאבק בנתניהו דרכו וממשלתו בבלפור עם אלפים שאומרים מספיק נתניהו הוא ראש ממשלה גזען מושחת וחסר רסן המאבק נגדו הוא המאבק של כל מי שמאמין בשוו…  This deal will not advance peace but legitimize the occupation  The only solution is one aimed at ending the Israe…  This deal underpins a dangerous alliance between 3 forces who want to eliminate the chances for real peace in the r…  מפת הדרכים הלגיטימית היחידה היא זו שמובילה לשחרור של העם הפלסטיני מפשע הכיבוש והקמת מדינה העצמאית בגבולות 67  ההסכ…  עכשיו בטמרה עם המנהלים והמורים של תכנית הילה במחוז הצפון שוקלים את הצעדים הבאים הנדרשים על מנת להפעיל לחץ גדול יו…  הצטרפתי לצעדה של האימהות השכולות שאיבדו את בניהם לפשיעה המשתוללת בחברה שלנו   האמהות לקחו את השכול האישי שלהן ויצא…  Congratultion to my friend IlhanMN for winning her primary in Minnesota  Ilhan is a true ally of all who fight fo…  עכשיו עם מורי הורי ותלמידי הילה  היום התבקשנו להעביר סכומים גדולים לחינוך אבל את תוכנית הילה מתכוונים לסגור א…  מערכת החינוך צריכה עוד 13 אלף מורים ומורות לשנה הקרובה במקביל יושבים 13 אלף מורים ומורות ערבים עם תעודות הוראה בלי…  מדברים הרבה על התקציב אולי שפשוט יתנו לנו לנהל אותו  הרופאים נמצאים בחזית המאבק במשבר הזה ועל המדינה לעשות כל שניתן כדי לחזק אותם  בבתי החולים ובקהילה  עכשיו זו גם הה…  הרגע שוחחתי עם פרופ זאב פלדמן יור ארגון הרופאים עובדי המדינה שהתקשר לספר לי שהושלם ההסכם מול האוצר שיבטיח תשלום…  ShovrimShtika חלק מאיתנו התאמנו בשטח אש 918 לא תמיד סיפרו לנו על תושביו הפלסטינים שהמדינה הכריזה על ביתם כשטח אימונים כדי לפנותם זה… עוד מופע של גזענות מזעזעת בירושלים מה עובר בראש של הכותב ממה בעצם הם מזהירים ולמה מקום ציבורי מאפשר את זה הגזענ…  חיימוביץ׳ הוועדה רואה בחומרה את שלילת הזכויות והאזרחות של אזרחים שחיים פה נבקש ממשרד הפנים להעביר לנו תוך שבועיים…  עמרי בן צבי ממשרד המשפטים בהקשר שלנו אין החלטה מנהלית שהופכת אותם לאזרחים  חיימוביץ׳ למה לא פשוט לאזרח את כולם הם חיים פה כל חייהם יועצת משפטית של לשכת האוכלוסין קיבלנו אישור ב2017 ממשרד המשפטים שזה לא שלילת אזרחות כי האנשים לא רכשו אזרחות בתי…  עאידה אלה בני אדם שאתם שוללים את האזרחות שלהם מונעים מהם חופש תנועה וזכויות אתם עוברים על החוק וזה מה שצריך להגיד אחת ולתמיד סלים מביר אל הדאג׳ אני ואבא שלי עשינו צבא ואני כבר שלושים שנה לא מקבל אזרחות למה אתם מענים אותנו ככה רונן ירושל…  חיימוביץ׳ בדקתם גם אנשים שאינם בדואים ירושלמי לא  ח״כ אלחרומי אבא של סלים ג׳ומעאה דנפירי נרשם ב51 ושירת בצבא…  ח״כ ג׳אבר עסאקלה לכמה אזרחים בדקת אם האזרחות שלהם מזויפת  נציג משרד הפנים ירושלמי הפקיד צריך לבדוק כשיש חשש  ח״…  עאידה לנציג משרד הפנים ירושלימי אתה משחק במושגים כאילו זה תיקון טעות ולא שלילת אזרחות אתה יכול לקרוא לזה איך שאתה…  יו״ר הוועדה ח״כ מיקי חיימוביץ׳ אתה גוזר גורלות על פי טעות שנעשתה לפני ארבעים שלה אין למדינה קייס לערער על האזרחות של בני אדם נציג משרד הפנים אנחנו עומדים על זה שזה לא שלילת אזרחות אלא תיקון אחרי הדיון ב15 חיפשנו רשימה של אנשים כאלה מצאנ…  עאידה אנשים מפחדים להגיש בקשות כי הם מפחדים לבוא במגע עם הרשויות כל מגע עם הרשויות מסתיים בהריסת בית או בשלילת אזרחות או במעצר עודד פלר אני רוצה להציע את סעיף 9 בחוק האזרחות זה מאפשר לשר הפנים להעניק אזרחות אם הענקת האזרחות היא מעניינה המיו…  עודד פלר כרגע משרד הפנים שולח את האנשים לעשות בקשת התאזרחות לשלם אגרה ולהוכיח ידיעת שפה עברית ובדיקה עם המשטרה ו…  עודד פלר מהאגודה לזכויות האדם הבעיה של משרד הפנים זה שהוא לא עושה בדיקה יזומה אדם בן 50 שכבר הצביע בבחירות ונסע ל…  סלים מביר אל הדאג׳ אני בן מעל 50 ואני לא יכול לצאת מהארץ ביקשו ממני תעודות מהשייח ומבית הספר ומהצבא ואני עדיין ל…  סלים מביר אל הדאג׳ אני בן מעל 50 ואני לא יכול לצאת מהארץ ביקשו ממני תעודות מהשייח ומבית הספר ומהצבא ואני עדיין ל…  עו״ד סאוסן זאהר מעדאלה הזכות לאזרחות היא הבסיס להיותו של אדם חלק מהחברה ובעל הגנה חוקתית אי אפשר לבטל את זה חוק…  היועץ המשפטי של הוועדה עו״ד גלעד קרן אם מישהו משקר במסמכים שלו לגבי האזרחות  אחרי שלוש שנים פקיד כבר לא יכול לשלו…  ח״כ רם בן ברק המדינה צריכה להתבייש באופן בו היא מטפלת באוכלוסיה הבדואית אזרחים במדינת ישראל צריכים לקבל טיפול ממד…  ח״כ ג׳אבר עסאקלה המקור של הפעילות הזו של משרד הפנים נובע מהחשש המשוגע מהאיום הדמוגרפי ח״כ סעיד אלחרומי הבעיה הזו היא בעיקר בשבט אל עזאזמה עשרות מבני השבט נרשמו אחרי הגל הראשון של ההרשמה למפקד האוכלוס…  עאידה בפתיחה אנשים נכנסים למשרד הפנים בבאר שבע כאזרחים כדי להוציא מסמך ויוצאים כתושבים מכבסת המילים לפיה מדובר…  עכשיו בוועדת הפנים דיון ביוזמתי על שלילת אזרחות לאזרחים בדואים בנגב תופעה שאני מלווה מאז שאני בכנסת   לשידור הדיו…  כל אנשי הימין מזדעקים כי בג״ץ הפעם עצר הריסה של בית בו חיה אישה פלסטינית עם שמונת ילדיה  מדיניות הריסת הבתים הנפ…  מגיעה לכל הפלסטינים גישה קבועה לים נקודה  מחמוד נואג׳עה מתאם תנועת BDS בשטחים נעצר באמצע הלילה לפני כשבוע בביתו ברמאללה הוא נעצר מול אשתו ושלושת בנותיו הקט…  עכשיו בהפגנת האמנים אנשי התרבות והצוותים הטכניים בחיפה הממשלה הזו לא נותנת פתרונות אמיתיים למי שכל פרנסתם נלקחה…  העובדה שהתקשורת ממשיכה לתת לאברי גלעד ולדומיו במה להסית ולהתגזען  ועוד להתרברב בזה  היא אינדיקציה לעומק של התפיסו…  עכשיו במליאה איך שזה נראה נתניהו ביקש מהמשמר לשמור עליו מפני איימן עודה הבן אדם מנסה להציג את עצמו כקורבן גדול…  אסון כזה יכול לקרות גם כאן הוא ישפיע על כל תושבי מטרופולין של מפרץ חיפה  מעכו ועד עתלית  ישראל חייבת לפעול מהר ב…  במדינה מתוקנת אקט הסולידריות הזה עם השכנה שלנו מצפון היה מובן מאליו אבל אנחנו לא במדינה מתוקנת  אלא במדינה שמלאה…  הלב עם ביירות  פניתי ליו״ר ההסתדרות ארנון ברדוד בדרישה לכלול ייצוג לציבור הנשים ולציבור הערבי בפורום העצמאים שהוקם הפורום מבורך…  מה שכל העולם למד שצריך לעשות ושהממשלה הקפיטליסטית הקיצונית פה מסרבת לקבל זה שעכשיו צריך הרחבה תקציבית הדפסת כסף…  במאבק על תקציב חד שנתי או דו שנתי העלו היום כץ ונתניהו טיעון חדש  תקציב דו שנתי יהיה תקציב קיצוצים וגזרות  להלן ה…  לא צריכים קיצוצים  לא בתקציב חד שנתי ולא בתקציב דו שנתי  בזמן משבר כזה  כל קיצוץ הוא אסון  מה שנדרש הוא הרחבה תקציבית והשקעה חברתית בדיון בוועדה לביקורת המדינה אמרתי שביהח בנצרת במצוקה תקציבית ותפעולית קשה הקורונה פגעה ביכולתם לעמוד על הרגליים…  ב קלמןליברמן שר האוצר אמר את האמת בין השורות הסיבה שהוא מתעקש על תקציב חד שנתי היא שהממשלה מתכננת קיצוצים וגזרות…  ועוד מילה לנתניהו  יש לך הרבה מה ללמוד מחברי AyOdeh  יור הרשימה המשותפת  שמהווה דוגמה הפוכה ממך לנקיון כפיים א…  נתניהו משקשק מהמחאה אז הוא בורח לאזור הנוחות שלו  הסתה גזענית כלפי הנציגים של הציבור הערבי שהיא הסתה כלפי הציבור…  לא נתפשר על תיקונים את חוק הלאום צריך לבטל  אני מקווה שהפגישה שקיימנו אתמול תהיה התחלה של שיתוף פעולה פורה עם השרה בשורה של נושאים וכבר בתקופה הקרובה מתוכננים…  כאן רואים איך לפשיזם יש זרועות מאורגנות  בריונים פשיסטים תקפו ודקרו אתמול מפגיני שמאל בתל אביב זה לא קטטה ולא הפרת סדר  זה ניסיונות רצח  ומה שצריך לזכור…  אחרי יום ארוך מאוד של דיונים בוועדת הכספים  הצלחנו חברי המשותפת בוועדה להביא הישג  הממשלה הבטיחה להעביר תמיכה של…  EliBitan לא רק המענק שהעביר דרעי גם ההישג של גפני היה בשתפ הדוק עם חברי ועדת הכספים החכים עאידה תומא סולימאן ואחמד טיבי שהתעקשו על… במשבר החברתי הזה יש שתי אפשרויות שעומדות מולנו  או מדיניות ניאוליברלית של צנע או מדיניות של הרחבה תקציבית והשקע…  קודם העלו את רעיון הפחתת שכר המינימום עכשיו רוצים לבטל את ההפרשות לפנסיה  המדינה צריכה להפסיק מיד עם הרעיונות האל…  מנהיגות מכל העולם מתקשרות אליי ואומרות ביבי  מה סוד ההצלחה שלך  לבקשתי עכשיו בוועדת כספים האוצר הסכים לבחון תשלום מענק לעצמאים בני 18 עד 20 שכיום לא זכאים השאיפה האוטומטית של האוצר לקצץ בשירותים החברתיים כדי לתמוך בשירותים החברתיים היא פארסה  בכל העולם מגדילים את ההוצא…  bethavemiller So looking forward to joining MK AidaTuma and Faisal Saleh of PalMuseumUS on behalf of jvplive to hear from MK Touma… הניצחון של העו״סיות הוא הישג לכל ציבור העובדים בישראל ולכל השכבות המוחלשות אני רוצה לברך את מנהיגת המאבק חברתי י…  אני מברכת את העוסיות על הניצחון החשוב שלהן ההסכם שהושג ממלא את רוב הדרישות שלהן וישפר את השירותים החברתיים בארץ…  ממשלה קפיטליסטית פונדמנטליסטית שמסמנת את העובדים כאויב הרעיונות האלה לא יעברו לא ניתן להם לעבור  ממשלת ימין עמוק בבריטניה מעלה את השכר במגזר הציבורי עקב המשבר  בישראל לא מוכנים לפתוח הסכמים עם עובדי השירותים החב…  בסיס השכר של העוסיות נמוך ביותר לבקש מהן לעבוד שעות נוספות כדי להעלות השכר נשמע נצלני וקבלה של המובן מאליו תוכנ…  בדיון על תחבורה ציבורית בוועדה לביקורת המדינה  שאלתי איך מצפים לחבר את הציבור הערבי לתשתיות תחבורה כאשר הפערים בנג…  עכשיו גם שר האוצר סכנה להמשך כהונת ממשלת נתניהו  כך לפי מיקי זוהר בישיבת וועדת הכספים  כמה ראשים עוד יעיפו כדי שז…  ההצעה מגדילה את דמי האבטלה באופן פרוגרסיבי שייטיב עם המובטלים העניים ביותר עבור מובטל שהרוויח 4000 ש״ח דמי האבטלה…  על כן – מוצע כי בנוסף להארכת תקופת הזכאות לדמי אבטלה – יוגדלו גם שיעורי דמי האבטלה עד סיום המשבר או עד אשר שוק העבו…  על פניו הסיבה ששיעור דמי האבטלה נמוך משמעותית מהמשכורת של המובטל היא כדי לייצר תמריץ לחיפוש עבודה אבל בעת משבר הקו…  מציעה עכשיו בוועדת הכספים  להגדיל מיידית את דמי האבטלה החודשיים ב750 ש״ח לכל המובטלים עד לסיום המשבר או עד ששיעור…  הבוקר העובדות הכי חיוניות בימים אלה  האחיות  יוצאות לשביתה ומצטרפות לעוסיות הדרישות שלהן הן דרישות של כולנו ה…  בכל הארץ אזרחים מתקוממים נגד הממשלה הזו והכישלון הנורא שלה בהתמודדות עם המגפה והמשבר הכלכלי המפגינים מגוונים אבל…  נתניהו מעדיף לתת כסף למי שלא צריך ויכול לממן כמה משרדי ממשלה ביחד במקום לתת למי שמטפל בכל האוכלוסיות המוחלשות במדי…  מאיר כהן יעקב אשר סעיד אלחרומי משה ארבל אימאן ח׳טיביאסין וליד טהא תהלה פרידמן עינב קאבלה יצחק פינדרוס מיכל שיר סגמן הח״כים החתומים ינון אזולאי ShahadehAbou KElharrar DrJabareen YairGolan1 tamarzandberg mikihaimovich1…  הוצאנו עכשיו מכתב חתום על ידי 32 חברי כנסת בדרישה משר האוצר לקבל את הדרישות הצודקות של העו״סיות השובתות  תקצוב תוכ…  עם העו״סיות השובתות בנצרת המאבק הזה הוא מאבק של עובדות אמיצות מכל קבוצות החברה למען הציבורים המוחלשים ביותר בארץ…  תוכנית המענקים של נתניהו היא תוצר של פאניקה פוליטית לא של דאגה לאזרחים  כשנותנים אקמול למחלה קשה מרגישים טוב לזמן…  ביבי איבד את זה איזה הצלחה  תוציא את הראש מחלון הבונקר בבלפור ותראה את הציון שנותנים לך  כישלון מוחץ  ניסינו עכשיו להכניס דמי אבטלה לבני 1820 בתוך החוק על תוכנית הסיוע הכלכלית ההצעה לא התקבלה אבל ביקשנו רוויזיה על כ…  בדיון בוועדת הכספים על תוכנית הדיור של השר ליצמן להתמקד בפריפריה זה טוב אבל לא כל פריפריה היא אותה פריפריה החברה…  לטעון שבעיר העתיקה בים המזרחית שהפכתם לבסיס צבאי המרושתת במצלמות כשחיילים ורובים אורבים לתושבים בכל פינה זה הר…  עם חברי asaqla ו ofercass בתמיכה בעוסיות השובתות  האוצר צריך להתעשת ומהר כי בלי שירותים חברתיים מתוקצבים היטב…  מעדיפים את הקורונה  </t>
+    <t xml:space="preserve">שנוכל לעבור את התקופה הזו יחד ולצאת ממנה חזקים יותר בגוף ובנפש   אבינו מלכנו בטל מעלינו כל גזרות קשות אבינו מלכ…  זכינו ויש לנו יום לעשות חשבון נפש פנימי עמוק לעצמנו וחשבון נפש לאומי על המקום אליו הגענו יום בו אפשר לעצור הכל ול…  עם מיליון ישראלים מובטלים וקורונה שמשתוללת לצערי ישנם חברי כנסת שמצאו זמן להתעסק בחוק פרסונלי ועסקני שימנע מכוחות…  משתתף בצערו של חברי היקר מהדי נסראלדין ובצער העדה הדרוזית כולה במותו של השייח אבו מהדי סלמאן נסראלדין  אבו מהדי ה…  נבו היקר אני משתתף בצערך ובצער המשפחה אביך היה איש חינוך מרשים וענו שנגע ביסודותיה של המערכת החינוכית וחולל בה שי…  שולח תנחומים לחברתי חכ TaliPloskov במות אמה חיה  טלי ראיתי את דאגתך לאמך ואת כוחות הנפש העצומים שנדרשת להם בהת…  חג שמח ושנה טובה   מזל טוב ליואב הדובר שלי ולבחירת ליבו גשם שממש ברגעים אלו מתחתנים  גשם ויואב היקרים  הבחירה שלכם אחד בשני היא החש…  תחל שנה וברכותיה שנה טובה לכל עם ישראל   קרדיט צילום ארנון בוסאני עוֹשֶׂה שָׁלוֹם בִּמְרוֹמָיו הוּא יַעֲשֶׂה שָׁלוֹם עָלֵינוּ וְעַל כָּל יִשְׂרָאֵל   Thank you Jared for your outstanding contribution in assisting President Trump and Prime Minister Netanyahu in mast…  One exciting proud Jewish moment that caught my eye was the moment when my friend Jared Kushner President Trumps…  בין כל הרגעים המדיניים הגדולים יש גם רגע יהודי אחד מרגש בו חברי ג׳ארד קושנר יועצו הבכיר של הנשיא טראמפ שסייע רבו…  חייבים לדאוג למיליון אזרחים שחלקם עלולים להיות מפוטרים או לצאת לחלת אני קורא לחברי בממשלה לא לזנוח את המשק ולקבל…  הישג היסטורי נוסף לרהמ נתניהו לנשיא טראמפ ביחד עם מלך בחריין חמד בן עיסא אאל ח׳אליפה ההסכם עם בחריין שמצטרף להסכ…  בבוקר ה1192001 נחתתי לשבוע עבודה בניו יורק בעיצומה של ישיבת עבודה שגרתית אנו מתחילים לקבל הודעות מדאיגות הדורש…  חבריי היקרים בני העדה הדרוזית מאחל לכם חג הנביא סבלאן שמח  זיארה מקבולה  اصدقائي ابناء الطائفيه المعروفيه الدرزي…  עכשיו בסיור בטחוני בגבול רצועת עזה ועוטף ישראל עם חברי avidichter  האתגרים הניצבים בפני מדינת ישראל בגבולותיה מור…  אחרי 40 שנה אברי גלעד הזמין אותי יחד עם פרופ איתן פרידמן לשחזר את הקרב בלבנון בו מפקדי האהוב והנערץ מוקי קנישבך ז…  הבוקר בפתיחת שנת הלימודים יחד עם חברי היקר ראש מועצת מבשרת ציון יורם שמעון בבית הספר היסודי מולדת  תלמידים יקרים אלו שמתחילים כיתה א חטיבה או תיכון אני מאחל שתהנו מהדרך ומהשותפים שלכם ללימוד ולעשייה ושתהיו מלא…  היינו כחולמים     עושים היסטוריה   ברכת הצלחה גדולה לראש הממשלה בנימין נתניהו ולמשלחת שלנו שיוצאת לדובאי היום הפוטנציאל הכלכלי…  מסיים בוקר חשוב בקריות יחד עם ראשי הערים יעקב פרץ בקריית אתא חיים צורי בקריית מוצקין ודדה אבן צור בקריית ים לצער…  אין אחד במדינה שלא יודע שהאוצר נכשל בטיפול במשבר הכלכלי כל יום שעובר וישראל כץ ממשיך בתפקידו כשר אוצר הוא סכנה לכ…  סוגרים שבוע ביקב פלטר בעין זיוון שברמת הגולן שבת שלום   habithonistim נפגשנו השבוע עם ראש העיר ירושלים לשעבר חבר ועדת חוץ ובטחון חבר הכנסת ניר ברקת בפגישה דנו עמו על שיתופי פעולה עתידיים… לא יכול להיות שבמזרח ירושלים בג״ץ מונע הריסת בניה בלתי חוקית של ערבים אבל במזרח בנימין הוא פוסק להרוס בתים וישובים…  אני משתתף בצערה של משפחת אוחיון על הירצחו של הרב שי בפיגוע היום קיבלנו תזכורת לכך שגם אחרי שנה בלי נרצחים בפיגועים…  בבוקר הזה אני מחזק את תושבי הצפון והדרום בטיפול במשבר הכלכלי ובשיח בינינו חייבים לשנות כיוון עלינו להתמודד עם האת…  המשבר הכלכלי בעיצומו וישראלים רבים חוששים לעתידם חייבים שינוי כיוון עכשיו אני קורא לראש הממשלה ולשר האוצר לאמץ את…  תודה איתן ריגשת אותי מאוד  תושבי הדרום היקרים לא ניתן לטרור לנצח ונעשה הכל כדי לשמור על השקט באזור אני שולח חיזוקים לכם ולכוחות הביטחון ומאח…  מחזקים את הדרום ואת העסקים הקטנים היום בשדרות פגשתי את ראש העיר אלון דוידי ושוחחנו על המצב הבטחוני ועל ההתמודדות ע…  האונס הקשה באילת הוא אירוע מזעזע שמעיד על כשל מוסרי וערכי קשה ביותר חייבים לפעול במלוא החומרה כנגד כל המעורבים אך…  היום לפני 40 שנים נפצעתי בלבנון ואיבדתי את מפקדי הנערץ והאהוב מוקי קנישבך ז״ל אני מזמין אתכם לקרוא את סיפור נפילת…  ביקרתי כעת את סמ״ש מ לוחם מגב שנדקר הלילה על ידי מחבל בעיר העתיקה גילה תושייה והצליח לנטרל אותו ולסכל פיגוע מ…  זאביק היקר בהגיעך לגבורות אני מבקש לאחל לך המון נחת בריאות ואושר הסרטים בהם השתתפת הפכו מזמן לנכסי צאן ברזל תרו…  צילום פלאש 90 פרופ רות גביזון הייתה דמות מופת בעולם המשפט הישראלי וכלת פרס ישראל רות הייתה אשת שיח מופלאה היא פעלה לחיבור ולאח…  תוכנית הסבת עובדים טורבו  כדי לעבור את המשבר וגם לצמוח ממנו אנחנו חייבים להיות יצירתיים ולחשוב מחוץ לקופסא  קברניט אל על איתי תלמי הראה לכו…  אני מברך את רה״מ נתניהו על ההישג ההיסטורי שמוכיח שמדיניות של נחישות מדינית והתנגדות לויתורים ונסיגות רק מקרבת את ה…  פקידי האוצר שומעים היום בנק ישראל מאשר את מה שאני טוען מתחילת המשבר נכשלתם קחו אחריות ותתפטרו  פסיקת בגצ שלא להרוס את בית המחבל שרצח את החייל עמית בן יגאל ז״ל מהווה התערבות בוטה ומיותרת של בג״צ בעניינים בטחוני…  משפחות פרץ וסביאטקובסקי היקרות אני יודע שאין נחמה על בן שנלקח ושכאב האובדן על אלירז ואילן ז״ל אינו נעלם גם כשהשנים…  עקב פגישה שהתקיימה ביום שלישי שעבר עם חולה קורונה מאומת ולפי הנחיות משרד הבריאות אני נכנס כעת לבידוד  לשמחתי אני…  נפגשתי היום עם ראש עיריית צפת שוקי אוחנה יחד סיירנו בעיר ושוחחנו עם בעלי העסקים על התמודדותם עם קשיי הקורונה איך…  כואב יחד עם כל עם ישראל ושולח תנחומים למשפחתו של הרב עדין אבן ישראל שטיינזלץ זל הרב היה חתן פרס ישראל ואחד מגדולי…  מתפלל יחד עם כל עם ישראל לרפואתו של חתן פרס ישראל אחד מגדולי הפרשנים שבדורנו ויקיר ירושלים הרב עדין בן רבקה לאה ש…  אני מברך את חברתי ציפי חוטובלי לרגל מינויה לשגרירת ישראל בלונדון ציפי עשית חיל בכלל תפקידייך בממשלה ובכנסת ואני…  ביקרתי היום במסגרת החופשה באילת עם בבי רעייתי האהובה במרכז הלאומי לחקלאות ימית בתוך עשור המרכז יכול להביא את אילת…  اخوتي المسلمين وابناء الطائفة الدرزية  ارسل لكم احر التهاني بمناسبة حلول عيد الاضحى المبارك  اتمنى لكم عيد سعيد وسن…  לאחינו המוסלמים ובני העדה הדרוזית מאחל לכם שזו תהיה שנת שלום אחווה ושמחה כל עאם ואנתם בחיר חג הקורבן שמח  יום ט באב בו חרבו בתי המקדש הראשון והשני הוא יום קשה המסמל את התפרקות הערכים עליהם מושתת עם ישראל אחדות אהבה ו…  ערב תשעה באב זה הזמן לאחדות וליכוד השורות בבית פנימה ובעם ישראל כולו אמשיך להגיד את זה מעל כל במה ברחבי העולם שטחי יהודה ושומרון הם שלנו ולא נוותר על אף חלק מהם  צפו בדברים שאמרתי לע…  מחזק את ידי צה״ל וכוחות הבטחון שפועלים היום ובכל עת למען בטחון המדינה ואזרחיה  סיירתי היום במעבדת הקורונה של myheritage מעבדה עם יכולות של 10000 בדיקות קורונה ביום את גלעד יפת המנכ״ל והמייסד…  חייבים לעצור לפני שיהיה מאוחר מידי מותר לכל צד להפגין להתווכח ולהשמיע ביקורת אבל אסור לנו להידרדר לאלימות פיזית…  בברלי שמעה על כך ובאה לבקר אותי בבית החולים היא נכנסה לחדר וחדרה לליבי ומאז לא יצאה משם בברלי כבר 34 שנים שבכל יום אני אוהב אותך יותר יום נישואין שמח מזל טוב לנו אהובה לפני 44 שנים פגשתי אותה בפעם הר…  יגעת ומצאת תאמין אנו רואים היום שההשקעות בחינוך לחדשנות ויזמות שהחלו בתקופתי כראש העיר משתלמות ואני גאה בכך שירוש…  עלינו לשים את האגו בצד ולהציל נפשות  תוכנית הסבת עובדים טורבו שהצגתי אמש בכנסת תחזיר למעגל התעסוקה 100000 עובדי…  יש בישראל כ850 אלף מובטלים כל אדם הוא עולם ומלואו זה מה שצריך לעמוד לנו לנגד העיניים אנחנו צריכים לתת הזדמנות ל…  אין בכוחו של אדם לעקור מתוך ליבו את התקווה לעתיד טוב יותר״ 80 שנה לפטירתו של זאב ז׳בוטינסקי אני בוחר במילותיו ומא…  לתוכנית שלי הסבת עובדים טורבו gtgt  הצגתי בוועדת העבודה והרווחה את התוכנית שתחזיר 100000 מובטלים לעבודה חייבים לחשוב מחוץ לקופסא ולהעביר את ההכשרה מה…  מחר בבוקר אציג בוועדת העבודה והרווחה בכנסת את התוכנית שלי להכשרה מקצועית טורבו כדי להחזיר כמה שיותר עובדים למעגל ה…  לצד ההתמודדות עם משבר הקורונה ברמה הבריאותית והכלכלית עלינו להמשיך ולתכנן את העתיד שלנו כאן בארץ אבותינו התרגשתי…  שמרו על עצמכם ועל המשפחה שבת שלום  היום בעפולה נפגשתי עם ראש העיר אבי אלקבץ וסגן ראש העיר שלמה מליחי והצגתי בפניהם את התוכניות שלי להתמודדות עם המשבר…  עקב פגישה בכנסת עם חולת קורונה מאומתת ולפי הנחיות משרד הבריאות נכנסתי הבוקר לבידוד  לשמחתי אני מרגיש טוב ומאחל לכ…  אני מברך את רהמ בנימין נתניהו ושר האוצר ישראל כץ על תכנית החירום שנותנת סיוע דחוף ועזרה ראשונה למי שפרנסתם נפגעה…  אנחנו במצב חירום כלכלי חייבים לשנות כיוון עכשיו שתפו את התוכנית להצלת חצי מיליון מקומות עבודה ועסקים בסכנת קריסה…  אם נשנה גישה ונעבוד נכון נוכל להציל חצי מיליון מקומות עבודה ו60 אלף עסקים בסכנת קריסה צפו בדבריי מהבוקר בערוץ 13  IsraelHayomHeb  חייבים לשנות כיוון ולהחליף דיסקט בטיפול במשבר הכלכלי של הקורונה היום בשעה 1300 אציג בדף הפייסבוק שלי את התכנית ה…  צר לי שועדת השרים דחתה את ההצעה שלי לאפשר לחכים שירצו בכך להפחית אפילו חלק סמלי ממשכורתם אמון הציבור בנבחריו מתחי…  גיבורים יש לא רק תחת אש ובשדה הקרב מיכאל בן זיקרי ז״ל מאשדוד קפץ למים והקריב את חייו כדי להציל משפחה שלמה שלא הכיר…  ביום א׳ צפויה לעלות בוועדת שרים לחקיקה הצעת חוק שלי ושל חבריי שתאפשר לחכים לוותר על חלק או כל שכרם כראש עיריית י…  עכשיו יותר מתמיד עלינו להנשים את העסקים ולוודא שלעובדים יהיה לאן לחזור  צפו בדברים שאמרתי לאדוה דדון בתוכנית סוגרי…  הצטרפו אליי ולErezZadok1 בתכנית הכלכלית של arutz20   לא יכול להיות שחבר בכנסת ישראל ישתתף באירוע של ארגוני טרור הבעת תמיכה במאבק מזוין נגד מדינת ישראל היא עילה להדחה…  כששאלו אותי בקונגרס האמריקאי האם אני צופה אלימות עקב העברת השגרירות לים השבתי שאני לא חושש מכך ובכל מקרה איומים ב…  YakiAdamker גם אם מדובר בצעד סמלי שבסוף יחסוך לקופת המדינה כמה אלפי שקלים בודדים בשנה טוב תעשה הממשלה אם תאשר ביום ראשון את ההצעה הזו… הגעתי היום לחזק את אנשי התיירות שעוברים תקופה קשה ביותר עם תחילת משבר הקורונה נפגשתי עם נציגי העצמאים ובעלי העסקים…  קרדיט תמונה פלאש 90 היום לפני 44 שנים בעיצומו של מבצע אנטבה נהרג מפקד סיירת מטכל סאל יוני נתניהו זל גבורתו של יוני באותו מבצע מהוו…  מזל טוב לרועי העוזר המסור שלי ולבחירת ליבו מיטל שהתחתנו היום מול חומותיה של העיר היפה בעולם ירושלים שבת שלום  מדינת ישראל לא צריכה לבקש ״טובות״ מבעלי הון היא צריכה להקצות מראש את הכסף שלה לטובת מי שבאמת זקוק לו צריך להציל ע…  גיסתי הנפלאה חוגגת יום הולדת מאחל לך הרבה אושר ובריאות תמשיכי להנות ממשפחתך ולעשות טוב למדינה מזל טוב  ביקרתי היום במטה mdaisrael יחד עם ידידי מנכל מדא אלי בין ואנשי המטה שמעתי על פעילות הארגון בשגרה ובחירום ובעי…  האדם החכם ביותר שאני מכיר והאיש שאני חייב לו את הצלחתי תודה על הכל אבא זלמן יום האב שמח  שבת שלום לכולכם מהטיילת המקסימה של נהריה   אני מברך את שר האוצר ישראל כץ על החלטתו הנכונה הליכוד יפעל כאיש אחד בשמירה על כלכלה חופשית וליברלית למען אזרחי ישר…  אני קורא לשר האוצר ישראל כץ שלא לאשר את החלטת שר הכלכלה להעלאת המס על המלט המיובא במערכת הבחירות התחייבנו להורדת מ…  היום לפני עשר שנים עם ישראל נפרד מהרב הראשי והראשון לציון הרב מרדכי אליהו זצל באותו ערב אני נפרדתי ממורה דרך ומהא…  האשראי לא באמת מהווה תמיכה אמיתית לעסקים אלא אולי מאפשר להם להתמודד יותר טוב מאשר ללא ערבות המדינה בכלל אבל זה עד…  הבוקר בוועדת הכספים ביקשתי שוב לקבל נתונים לגבי התוכנית לעידוד תעסוקה של האוצר נתונים אלו קריטיים כאשר אנו דנים בה…  הורדנו כרגע מסדר היום של ועדת הכספים הצבעה על תקנה שמעניקה הנחה של למעלה מחצי מיליארד שקל בשנה לארגונים שפועלים נגד…  היום ביקרתי באשדוד ונפגשתי עם חברי ראש העיר yechiellasry שוחחנו על התמודדות העירייה עם הקורונה על מצבם של העסקים…  לפני 38 שנים ב12 ביוני שבוע לאחר תחילתה של מלחמת לבנון הראשונה ניהלנו את אחד מהקרבות המורכבים ביותר שחוותה הפלו…  מצער שבגץ מפר שוב את הפרדת הרשויות ומחליט בניגוד לעמדת הציבור ונבחריו לפסול את חוק ההסדרה שהתקבל בכנסת חוק ההסדר…  אני מתחייב להמשיך להילחם למען השולמנים בעלי העסקים הקטנים העצמאים והעובדים עד שכולם יחזרו לעבודה צפו בדבריי מאמ…  אני מברך את כוחות הביטחון שתפסו את המחבל השפל שגדע את חייו של לוחם גולני עמית בן יגאל זל יידע כל טרוריסט שכוחותינ…  צילום שרון רביבו גם אני הייתי שולמן עסק קטן לבד מול מערכות גדולות ולא מעט אטימות השולמנים ואני עובדים יחד כבר תקופה ארוכה במהלכה…  אחרי יום של פגישות וסיורים נשארים לסופ״ש רגוע בצפון המדהים שלנו שבת שלום לכל עם ישראל   במקום לפצות את העסקים שנפגעו בקורונה ולעבוד על הביקושים והצרכים האמיתיים האוצר ממשיך ללכת על ההיצע ולבזבז כספי ציב…  חג שמח לכולכם  התכנית של פקידי האוצר מעוותת ומבזבזת כספי ציבור במקום זאת חייבים לפצות ישירות את העסקים שנפגעו ואת ששת המיליארדים…  מזל טוב לצה״ל ליום הולדתו ה72 מצדיע לכל החיילים והחיילות המפקדים והמפקדות שדואגים יומם וליל שנוכל לחיות כאן בשלו…  YakiAdamker משתתף בצערכם יקי ותמר היקרים תנוחמו מן השמיים אני מברך את חברי zoharm7 על היבחרו ליו״ר סיעת הליכוד ויו״ר הקואליציה בטוח שתוביל את הקואליציה להישגים רבים ומרשימ…  הגיע הזמן לתיקון גדול של מערכות המשפט ואכיפת החוק אני מתפלל ומייחל לכך שבית המשפט יוציא את הצדק לאור ושראש הממשלה ייצא זכאי וללא רבב אני מאחל הצלחה מכל הלב לראש הממשלה netanyahu בהוכחת חפותו המוחלטת בבית המשפט לאורך כל הדרך נגרם עוול גדול לראש המ…  אני מזמין אתכם לקרוא ראיון שלי ב״ישראל היום״ על השבוע שעברנו והעתיד שלפנינו שבת שלום ויום ירושלים שמח  לכתבה המלא…  חג ירושלים שמח 🦁  הגשתי היום הצעת חוק שתגן על עסקים שנפגעים ממגיפה כמו הקורונה דבר שעד כה לא עוגן בחקיקה משם המשכתי למאהל שביתת הרע…  אני מברך על הקמת הממשלה החדשה ושמח שתרמתי את חלקי למען המטרה גם אם לא אכהן כשר אני רץ למרחקים ארוכים ואמשיך לפעול…  TeamTrump realDonaldTrump Thank you   Ill remember this moment forever   Nir Barkat Former Mayor of Jerusalem  לאחר מאמצים רבים שהובלתי בחודשיים האחרונים יחד עם חברי אילן חתואל נחתו הבוקר ממרוקו 26 ישראלים שלא יכלו לחזור הבית…  בבוקר קשה וכואב זה אני משתתף בצערה של משפחת בן יגאל על מותו של סמלראשון עמית ז״ל שנפל הלילה בפעילות מבצעית אני ס…  בשנה שעברה ערב הילולת רבי שמעון בר יוחאי הדלקתי נר במירון השנה מירושלים מתפלל יחד אתכם לבריאות טובה פרנסה לכול…  הגיע הזמן להרכיב ממשלה חזקה ויציבה לטובת כל אזרחי ישראל  אני קורא לyairlapid לגנות את ההסתה המזעזעת כנגד בנו של ראש הממשלה ולקרוא ליועץ המשפטי ולפרקליטות להורות על חקירה…  אני מברך את ראש הממשלה netanyahu על החלטתו לשנות את גישת משרד האוצר ולתת מענקים ישירות לחשבון הבנק של העסקים והעצ…  זו זכות גדולה עבורי לשרת את הציבור ללא קבלת דבר בתמורה במשך עשור כראש העיר ירושלים קיבלתי משכורת של שקל בשנה וכך…  חג שמח מירושלים בירת הנצח של העם היהודי  בואו נעשה לנו חג יום עצמאות שמח  ishaycoen חבר הכנסת ניר ברקת משתתף בפרויקט כיכר השבת לקריאת אלפי ספרי תהילים לזכר 23816 הלוחמים שנפלו במערכות ישראל NirBarkat h… מדליק נר דיגיטלי לזכר 23816 חללי מערכות ישראל ובתוכם חבריי יזכור  קרדיט יניב נדבדוברות הכנסת  קחו גם אתם חלק  מתרגש לקחת חלק ביוזמה של אמירת 24000 ספרי תהילים לזכר הנופלים מתפללים זוכרים ואוהבים  לזכר מפקדי מוקי קנישבך ז״ל ופקודי עודד יזרעאלי ז״ל שנפלו בלבנון  اخواني ابناء الطائفه النعروفيه الدرزيه المحتفلين بعيد النبي شعيب عليه السلام المصير المشترك على مدار سنين طويله وال…  לאחינו בני העדה הדרוזית החוגגים את חג נבי שועייב חג שמח שותפות הגורל ארוכת השנים והקשר החם בינינו לא ייפסקו לעולם…  לכל חבריי המציינים את חודש הרמדאן מאחל לכם רמדאן כרים  إلى كل أصدقائي الذين يحتفلون بشهر رمضان المبارك، اتمنى لكم…  mdaisrael חכ ניר ברקת NirBarkat הגיע היום בצהרים לתחנת מגן דוד אדום בירושלים לתרום דם 🩸 לטובת חולים שלא יחסר בתקופה זו   תרומת דם מצילה חיים כל השנה אבל בימים אלו זה חשוב עוד יותר לכו לתרום דם בהזדמנות זו אני רוצה להודות שוב לאנשי מ…  אני כואב את פטירתו של הרב ישעיהו הבר זל שהלך לעולמו מנגיף הקורונה עם הקמת ארגון מתנת חיים הרב הבר היווה בחייו…  כחלק מסדרת הדיונים שאנחנו מקיימים בוועדת הכספים בכנסת קיימנו הבוקר דיון על תעשיית התרבות הפתרון לכל התעשיות במדינ…  בתמונה עם ראש העיר מאיר יצחק הלוי מביקור שערכתי בעיר לפני מספר חודשים ולמנוע פשיטות רגל בכדי שלתושבים תהיה עבודה לחזור אליה ושערי התיירות במדינה יוכלו להחזיק מעמד כמו כן יש לקדם את…  כלכלת הערים טבריה ואילת נסמכת כמעט במלואה על ענף התיירות אשר בימים כתיקונם מפרנס את תושבי העיר והסביבה אולם בימים…  חברי היקר אלי ביר שמח שיצאת מזה ברוך שובך לארץ חיכינו לך  צילום שירה הרשקופ  בטקס לכל איש יש שם בכנסת אמי ואני מדליקים מרחוק נר לזכר בני ובנות המשפחה שנספו בשואה  השנה אנו מציינים את זה קצ…  זה הסיפור של המשפחה שלי יהי זכרם וזכר כל הנספים ברוך  שר האוצר תתעורר לפני שיהיה מאוחר מדי הזעקה של יובל הבעלים של פלאפל כרמי באשדוד שוברת את הלב בידיים האלו נתתי א…  יש אמון גדול בראש הממשלה בנימין נתניהו ומשרד הבריאות בכך שישראל נחשבת לאחד המקומות הבטוחים בריאותית בעולם אבל בני…  המימונה היא החג שמאחד את כולנו לאחר הפסח וכשעם ישראל מאוחד אי אפשר לגבור עליו גם השנה נחגוג כולנו יחד בלב אחד אב…  אני שולח תנחומים למשפחת בקשי דורון וכואב עם כל עם ישראל על פטירתו של הרב הראשי לשעבר הרב אליהו בקשי דורון זצ״ל מנ…  חברי וידיד ישראל בוריס ג׳ונסון שמח לשמוע על שחרורך מבית החולים שאתה מחלים ומרגיש טוב יותר מאחל לך רק בריאות הצל…  My dear friend and Israels friend BorisJohnson I was relieved to hear about your discharge from the hospital I…  חג פסחא שמח  Happy Easter  חג פסח שמח לכם ולבני משפחותיכם ושנצא בהקדם האפשרי מבידוד לחירות    מאחל לחברי היקר וידיד האמת של ישראל ראש ממשלת בריטניה בוריס ג׳ונסון החלמה מהירה ורפואה שלמה  Wishing my dear fri…  לצערי יש נתק באוצר בין המלחמה על החיים לבין המלחמה על הפרנסה עלינו לסייע לעסקים בדיוק כפי שאנו נלחמים על כל חולה ו…  בדיון היום בועדת הכספים בכנסת סיפרתי לנוכחים שאמש אמר האוצר למנכל אל על לך תפשוט רגל זו אמירה אומללה ומדאיגה מ…  בתמונה תושבי בני ברק נותנים עוגות לכוחות הביטחון בעיר מתוך צילום של חדשות 13 אני רואה את ההסתה והשנאה כלפי המגזר החרדי ומזדעזע עלינו להימנע מהכללות והכפשות אסור לנו להעמיד את אחינו בקו האש…  ראש הממשלה בנימין נתניהו מוביל פעולות נכונות במלחמה בקורונה כעת יש צורך בסיוע ישיר ומיידי לכלל המגזר העסקי לעסקים…  עובדים מהבית   אלי  תבריא מהר אנחנו מחכים לך שתחזור להציל חיים יחד עם שאר הצוותים הרפואיים שעושים לילות כימים בתקופה זו ובמהלך…  המדינה ואזרחיה לפני הכל מברך מעומק הלב את ראש הממשלה בנימין נתניהו ובני גנץ על שילוב הכוחות להקמת ממשלת חירום עכש…  מוזמנים להצטרף עכשיו ללייב צ׳אט בדף הפייסבוק שלי  ברוך הבא לטוויטר יחיאל בטוח שגם דרך הטוויטר תמשיך לדאוג לבריאות ואיכות החיים של תושבי אשדוד כפי שעשית עד היום בצור…  אנחנו בעיצומו של משבר שלא ידענו כמותו עם אזרחים שחוששים לבריאות שלהם ושל יקירהם ומאות אלפים שאיבדו את מקום העבודה…  בימים אלו אנו רואים את הרוח הישראלית במלוא עצמתה ההוקרה לצוותי הרפואה הדאגה לחינוך ילדינו ולשגרה שלהם הערבות ההד…  רק בריאות ריקלין  לצד הטיפול הבריאותי אנחנו צריכים לדאוג לכל מי שלצערנו יוצא לחל״ת או מפוטר ולוודא שיהיה לו לאן לחזור אחרי שנעבור א…  צפו בדברים שאמרתי באולפן ynet על האתגר הכלכלי שמשבר הקורונה טומן בחובו ובמסר שנוגע לכולנו  בכל פעם שהיו משברים והיינו מאוחדים ניצחנו צפו בדברים שאמרתי לחדשות 12 רגע לפני השבעת הכנסת  זכיתי להצהיר היום אמונים לכנסת ה23 אמנם זו פעם שלישית השנה וזה קורה על רקע הקורונה והפלונטר הפוליטי אך זה עדיין…  זוהי עת חירום עלינו לשמור על עצמנו ועל סביבתנו ולהישמע להנחיות גם היום בכנסת לא לוקחים סיכונים ונשמעים להוראות…  כדי שנעבור יחד את משבר הקורונה ונצא ממנו מחוזקים יותר זה הזמן לשבת סביב שולחן האחדות  שמרו בקפדנות על עצמכם ועל הנחיות משרד הבריאות והצוותים הרפואיים שעובדים קשה מאוד כדי לשמור על הבריאות של כולנו  שבת שלום המלחמה בחזית הכלכלית על רקע משבר הקורונה היא קריטית עלינו להעז ליזום כל הזמן לפעול בנחישות ולא להיגרר ולהגיב  י…  נפגשתי השבוע עם ראש הממשלה והמלצתי לו לאשר באופן מיידי תקציב מדינה חדש שיתמודד עם שלושה אתגרים הקורונה והטיפול במ…  במשך אלפי שנים עם ישראל התמודד עם המשברים הגדולים ביותר סוד הקיום שלנו מאז ומתמיד היה שבשעת משבר ידענו להתאחד כאיש…  בברלי אשתי היקרה אני אוהב אותך ומודה כל יום על הזכות לעשות את הדרך הזו לצידך  יום האישה שמח  ומכניסים חרדה ובלבול בשוק העסקי ובציבור ולסייע למגזר העסקי כמכלול לעבור את המשבר  סיוע ישיר ורשת בטחון למשק תמתן את היקף פשיטות הרגל הפיטורים והמובטלים…  באבד ופקידים באוצר לוקים בעיוורון   הם אינם מבינים את האתגר של בניית עסק שמפרנס עובדים ומשפחות   אני קורא להם לה…  ועומד מאחוריו במאמצים להקים ממשלה שתשמור על הבטחון ותחזק את כלכלת ישראל סוף האמת לנצח  שבת שלום אוהב אתכם ניר ברקת תודה מעומק הלב לכל אחת ואחד מכם הליכודניקים שיצאתם להצביע פעלתם ונלחמתם והבאתם להישג חסר תקדים בזכותכם הליכוד חז…  אני מחזק את ידי ראש הממשלה שר הבריאות ומשרדי הממשלה בטיפול במשבר הקורונה כלכלת ישראל חזקה ויציבה ובניהול נכון של…  בדרך לצפון לדיון על התכנית הכלכלית שלנו גם אחרי הבחירות כמו בכל יום ממשיכים לעבוד בשבילכם  ירושלים בחרה בליכוד בגדול  אחרי שבבחירות הקודמות הצביעו 59798 מתושבי העיר לליכוד הפעם קיבלנו 70734 קולות תודה…  העם אמר את דברו תודה לכם  ליכודניקים צאו להצביע עכשיו יש לנו קצת יותר משעה אנחנו יכולים לעשות את זה בכל שפה ובכל מקום אנחנו מסבירים על ההבדל התהומי בין נתניהו והליכוד לבין כחול לבן גם בCNN נצלו את השעות האחרונות…  יש עוד מאות טלפונים של מתלבטים ששלחתם אלי ולא הספקתי לדבר עימם  זה הזמן גם שלכם  שכנעו את כל המתלבטים ומי שעדיין…  יחד עם ראש העיר המדהים של אשדוד דר יחיאל לסרי והפעילים הנפלאים שעושים לילות כימים אנחנו קוראים לכם  צאו והצביעו…  גם עמיחי הקטן רוצה שהליכוד ינצח היום אנחנו יכולים לעשות את זה  מכירים אנשים שעדיין מתלבטים אם להצביע ליכוד תשאירו מספר טלפון ואולי נפתיע אותם בשיחה  בברלי ואני כבר הצבענו מחל עכשיו תורכם  שַׁאֲלוּ שְׁלוֹם יְרוּשָׁלִָם יִשְׁלָיוּ אֹהֲבָיִךְ הבוקר בכותל מתפלל להצלחת עם ישראל ולבחירות טובות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חזל מספרים על אדם שקיבל מהמלך הזדמנות חלומית הוא יכול לבקש כל משאלה שיחפוץ אך למלך היה לה תנאי אחד יריבו יקבל פ…  Nadav007 בהחלט כדאי לציין שהפצת מס הטלפון של אבי ניסנקורן כדי שיטרידו אותו בהודעות וואטסאפ ושיחות טלפון היא עבירה פלילית אשר דינה…  שבת שלום וגמר חתימה טובה לכולם   וְכָל צָרוֹת וְרָעוֹת הֲפָךְ נָא לָנוּ וּלְכָל יִשְׂרָאֵל לְשָׂשֹוֹן וּלְשִׂמְחָ…  ועוד אחד  הכל אותו קשקוש למה לא נתתי גילוי נאות שאני חבר של קלמן הוא מבוגר ממני בכ20 שנה כן ושאני חולם להיות…  והנה עוד אחד   ועוד אחד   ועוד אחד   הוא מוכן להניח לי כבר   אם יש לו ביקורת עניינית שיבקר   המשיכה הזו בצמות כדי לעצבן לא הולמת אדם שעסק בעיתונות כ…  orcarmi arielschnabel orduek KalmanLiebskind amitsegal netaelbandel akivanovick shilobesheva אבקש לצרף לרשימה גם את YairJacobi You arent helping   בלי קשר לוויכוח הנוכחי שהסלים מהר מאוד אני חושב שויכוחים אידאולוגיים בתוך הימין הם הדבר הכי טוב ורצוי והוא חסר מא…  YinonMagal ינון קלמן כתב אלף פעמים טורי ביקורת תקשורת על כל הנל ואתה כמובן יודע את זה YaaraZered הוא היה אז בן 22 רגע אחרי השחרור מצהל   יערה גם בקרבות בוץ צריך לשמור על איזשהי קלאסה בסיסית YaaraZered שנת 92  adibenhur2 giladzw חבל על הניסיון לסכסך לא ייחסתי את השקרים וכו לגלעד אלא להתמודד עם הטענה שלו שמותר לבקר עיתונאים chenmaanit7 ברוכים הנמצאים אני רואה שעליי להבהיר אין שום בעיה לבקר עיתונאים זה לחלוטין חלק מהפלורליזם  הבעיה היא כשהביקורת מלווה בשקרים קו…  chaimlevinson דרשוביץ עדיין לא מושך את התביעה עכשיו עורכי הדין ינהלו משא ומתן על הפיצוי   על כל פנים  ככל הזכו…  haskioren amitsegal לדאבון ליבי מובילי דעת הקהל הם אלה שהובילו את קמפיין ההשחרה השקרי haskioren amitsegal אין שום בעיה לא להסכים איתו אני אישית לא מסכים עם המסקנה שלו בטור האחרון הטורים שלו הם לא…  elyasaf טעות עריכה שתוקנה תוך דקה חוץ מזה אנחנו בודקים עירנות של הקוראים  amitsegal כל מילה אין גבול לרשעות ואין איש שיחמוק מהחרב המתהפכת של משטרת המחשבות הפעם למרבה הצער מימין השבוע הפך קלמן ליבסקינד שתחקיריו על מערכת אכיפת החוק נישאו על גלי האהדה של הליכוד לשופרו של מנדלבליט והוא לא היחי…  yarivop ועכשיו לנשום עמוק ולשמוע את קולות הציפורים NadavPerry כמבוקש  הנל ודומיו אכלו לי את הראש על שכתבתי את העובדה שלא מדובר בבן של ליאת בן ארי   טוב שהוא מתנצל על השיימינג המטורף ש…  NadavPerry עוד כמה אלפי מתים והוא מתנצל גם בפניהם אם נגרמה להם עוגמת נפש פרופ יורם לס התנצל והתקפל   chaimlevinson מחפש דירה להשקעה עם נוף המשקיף לבני גנץ ומירי רגב ועדת התכנון והבניה של ראש העין הכשירה אתמול את פיצול הדירה של משפחת בן ארישוויקי  הליך האכיפה נגד הפיצול שנעשה עו…  moriahasraf אני חייב כבר לישון את יכולה להביא כבר את הקטע שצחי ברוורמן מתלונן על ההדלפות ושצריך הפעם באמת באמת לשים לזה סוף עוזרי המשפטי החליפי מעלה טענה נכונה  בבקשת סנגורי נתניהו להצטרף לעתירה בבגץ בעניין ההדלפות הם מפנים בפירוש את האצ…  asaflib להרים ידיים נאלץ להתייחס לקשקוש שהועלה  בעבר כתבתי כתבה על הדיין פשיטיצקי לאחר שכבר עברתי לגלובס הדיין לשעבר הנל איים בתביע…  YHepstein היא טרחה להדגיש שהיא לא מתנצלת   כנרת מצטטת כך בפגישה הזו מנדלבליט בכלל לא דיבר איתי על עסקת הטיעון  אלא מה המילה איתי בכלל לא נאמרה כל מ…  תעשיית הכזבים   חגי סגל לא ביקש לטעון שלא הייתה פגישה עם מנדלבליט הוא אומר בפירוש וזה גם כתוב בפירוש בכתבה של יה…  gershuni netaelbandel אותו העד yoelituv עדיף בשמש הקופחת על אופציית מתחת למצבה chaimlevinson והאמת והשלום אהבו תגובת מר אילן ישועה הי אבישי תודה על הפניה לצערי אני מנוע מלהגיב chaimlevinson ברור שלא   אבל גם שופטי בגץ סבורים שצריך לפתוח בבדיקה פלילית על ההדלפה ב2020 chaimlevinson 1 בחוק וגם בפסיקה רואים שיש הבדל בין תמליל לבין תיעוד חזותי או שמע אני מניח שזו הטענה   2 היא לא…  chaimlevinson יא אח זה לא יכול להיות עמית חדד אתה לא בלופ   קבצי השמע שהועברו לסנגורים היו תקולים לכן גם מנדלב…  מן הצד השני גורמים אחרים טוענים שמדובר בקשקוש ושמועה בעלמא וישועה לא העביר שום מסמך ב2018 לברוכי קרא ותכנית המקור…  שטוענים שמנדלבליט היה חייב להודיע את זה לבגץ סנגורי נתניהו טוענים למעשה כך גם ככה אילן ישועה הוא החשוד המרכזי להדלפת הקלטת השיחות שפורסמו על ידי רביב דרוקר ב2…  הסיפור המרכזי איננו דיין או קרא כמובן אלא מידע מודיעיני שהעביר ניר חפץ על כך שאילן ישועה מעביר חומרי חקירה   לאחר…  chaimlevinson מעניין למדי chaimlevinson ברנגה talschneider אבל ניר חפץ לא היה המקור של אילנה דיין היא ניסתה לשדל אותו לשתף פעולה והוא החליט להודיע על זה למשטרה chaimlevinson אני לא חושב שנעשה פה צעד קיצוני מצד אילנה דיין בדמות חשיפה פומבית של מקור של עיתונאי מתחרה וברור לי…  למחרת המידע המודיעיני שהעביר ניר חפץ על אילן ישועה  זומן ישועה ללהב 433  לא נחקר אלא נשאל אם יצרו איתו קשר הוא ה…  talschneider על איזה חלק את מדברת eligal6 אוקטובר 2018 על פי המסמך הזה ניר חפץ הסגיר את אילנה דיין שהסגירה בתורה את ברוכי קרא ואת המקור שלו גילוי נאות קיבלתי ספר מתנה כהכנה לקראת הראיון ועקב טעות הוא נשלח פעמיים   אז למכירה ספר מלחמות הבגץ במצב מצויי…  ערכתי ראיון מעניין עם פרופ עמיחי כהן שכתב ספר על מלחמות הבגץ   ממליץ לקרוא את הראיון אבל עוד יותר מכך לקרוא את…  Israelkatz ישראל חדל Shmuelbenzvi אני מעריץ את קלמן וחולם להיות כמוהו אנשים שלא עשו רבע תחקיר מימיהם  מרשים לעצמם לפרסם כזבים על קלמן ליבסקינד שקילומטרז התחקירים שלו כבר התאפס פעמיים…  yairlapid ואתה עושה הכל כדי לעזור לו להסיט את הדיון אדם חכם כתב לי ממשלה הגיונית היתה מודיעה לפי טבלת שכר חברים כל עובד מדינה ששכרו מעל x שכרו יקוצץ בY אחוזים בל…  amitsegal שלא תהיה ברכה לבטלה TheTWMinister ניצחון ודאי מהתראה לפני תביעה שקיבלתי   שמח בנמל  האזינו עו״ד rothmar מהתנועה למשילות  ודמוקרטיה לא עוצר לנשום במשך 220 דקות   לקטע המלא   aviadglickman AmirOhana את מה שכתבת aviadglickman AmirOhana לא הבנתי מה שכתבת aviadglickman AmirOhana אם יש לך חבר תותח שהוא אלוף משנה במילואים והחבר התותח הזה יצליח לשכנע את שר הביטחון שהרמט…  aviadglickman AmirOhana דר בקשי הוא מומחה רציני למשפט חוקתי ולא פחות רציני מקרמניצר ושות   לגבי חבר הילדות ע…  aviadglickman AmirOhana בישיבת קבינט או ממשלה אכן מעמתים את עמדת הרמטכל עם עמדות ראש המוסד או ראש השבכ והמלל…  aviadglickman AmirOhana זה ממש בול אותו הדבר1 natitucker ptrdvd האם דילגת על המילים לחיזוק הדמוקרטיה הייצוגית YRazvozov לא בלתי מוזר aviadglickman AmirOhana מה הבעיה למען השם שתוצג בישיבת ממשלה עמדה משפטית נוספת מלבד העמדה של היועץ המשפטי לממשלה חוות הדעת היפה מאוד של דר אביעד בקשי ועוד דוד פטר גילוי נאות בן כיתתי בעניין סמכות הממשלה להגביל את ההפגנות…  YinonMagal אגב גם בעניין ההתנגדות שלו להכנסת דר אביעד בקשי לדיון בעניין ההפגנות  הוא התנגד לכך נחרצות אבל אפיל…  YinonMagal לא לא בגללו   היועץ המשפטי לממשלה כשמו כן הוא יועץ הוא לא מקבל ההחלטות מי שיש לה את הסמכות לקבל את…  yaarashapira דנית חשודה בשיבוש מהלכי חקירה של Law and Order Special Victims Unit בראשות סגן השר פטין מולא הודעה שהגיש כעת פרקליטו של ראש הממשלה לבגץ  haskioren Shiritc תמתין חביבי תמתין דוברות ראש הממשלה נתניהו מסרה בתגובה לShiritc לא מכירים מסמך כזה שהוכן וכל שכן לא נטייה של נתניהו לחתום עליו רהמ נתניהו הודיע למשנה ליועמש דינה זילבר שהוא מקבל באופן וולנטרי את הסדר ניגוד העניינים המקיף שלה ככתבו וכלשונו…  ברייקינג  נתניהו בשלבי כניעה ויסכים לחתום על הסדר ניגוד עניינים מקיף שהכינה המשנה ליועמש דינה זילבר  לאור זאת ה…  לאור כניסת הנשיאה חיות לבידוד היא תצטרך למצוא מחליף במקומה לדיון בעתירה של התנועה לאיכות השלטון בעניין מינוי בכירי…  עוד אנו מפרסמים כי הפרקליטות ביקשה לא פחות מ13 בקשות לעיכוב הליכים בשלל תיקים אזרחיים עד סיום הליך ההוכחות במשפט…  הותר לפרסום לבקשת globesnews המדינה מבקשת לעכב תביעה נגדה בפרשת המקורבת לניר חפץ עד סיום הליך ההוכחות בתיק 4000  החלק הכי אהוב עלי בהדלפות מתוך ישיבות הממשלה  orcarmi תרשה לי להעריך לא בזהירות ששקד מסכימה עם פסק הדין של שטיין ורק בשל אילוצים פוליטיים היא התנהלה אחרת ובקצרה המנהל מלכתחילה בכלל לא הואשם בהפצת התמונות זה פשוט פייק ניוז לתפארת  את הפרסום המצב היה יכול לעשות רק מי…  YinonMagal אם היו לו שני עוקבים וחצי לא הייתי טורח להגיב בפועל כל ציוץ וכל פוסט שלו מופץ ומהודהד ואני לא חושב ש…  asaflib לא רציתי לעורר קנאה ותחרות עם המגיש השני ועכשיו שימו לב לקטע הזה מתוך פסק הדין  הסרטונים האמורים סרי טעם וכאמור – לא היה ראוי שיישלחו אך אין בהם כדי לבסס…  אמנם גם יצירת אווירה מינית עלולה לשמש בסיס לעבירה של הטרדה מינית – אך במקרה דנן אין בית המשפט מוצא כי זו היתה ה…  בית המשפט מקבל טענת הנאשם כי ההקשר הכללי של העברת הסרטונים והתמונות היה היתולי ואין מתלווה אליהם כל פניה המתמקדת במיניותה של המתלוננת עלה מהראיות שנשמעו כי האווירה ששררה במפעל בין כלל העובדים לרבות בין הנאשם למתלוננת היתה אווירה בלתי פורמלית מ…  ברם – לאחר שמיעת הראיות עולה כי טענותיה של המתלוננת שחשה מוטרדת מתכנים אלה – הן טענות שנולדו בראיה רטרוספקטיבית בדיעבד אכן הסרטונים והתמונות שנשלחו למתלוננת ואשר חלקם לא היו ידועים לה בעת הגשת התלונה שכן מכשיר הטלפון שלה התקלקל ו…  לטענתו גם המתלוננת העבירה אליו סרטון של קרובת משפחה של אחת העובדות מבצעת אקט מיני והוא מחק אותו מיד היות שהכיר את מי שהופיעה בסרטון העדה אישרה כי הסרטון של אשה עירומה המסתובבת בכותל אמנם הוצג בתוכניות טלוויזיה אך לטענתה  אף בחורה לא תרצה שהממו…  העדה אישרה כי הסרטון של הגברת שיורדת בהמדרגות לא נשלח אליה אלא בקבוצת העבודה אך טענה כי הדבר אינו תקין היות ש…  כשנשאלה לגבי סרטון ובו תצלומים אינטימיים אותו שלחה לעובדת נוספת השיבה כי מדובר היה בתמונות של אותה בחורה עושה י…  כשנטען כלפיה כי בנוגע לאחד מהסרטונים המיניים שהועברו אליה מהנאשם היא ביקשה שיועבר אליה השיבה שאותו עובד שהעיד…  הסיפור המרכזי הוא בכלל לא הסרטונים אלא המעשה המגונה  אבל אם היא נכנסה לסרטונים אז הנה ציטוטים מתוך פסק הדין ותגי…  קביעה הפוכה מזאת תפגע ללא בסיס משפטי בחופש הביטוי של הרב כרב בישראל תיצוק אל תוך עבירות המשמעת שבחוק שירותי הדת…  שטיין מותר לו לרב בישראל במסגרת חופש הביטוי הרבני שלו וכחלק מתפקידו לדבר מהפרספקטיבה הדתיתלאומית שלו עצמו לו…  לצד זאת שטיין דוחה טענות בעניין אמירות הלכתיות ותורניות של הרב אליהו לדידי אמירות אשר נאמרות על ידי רב עיר בישראל…  בין התבטאויותיו השונות של הרב אליהו אשר הוצגו לפנינו קיים מספר רב של התבטאויות פוליטיות שמביעות תמיכה במפלגות ובמ…  מתוך פסק הדין בין התבטאויותיו של הרב אליהו ישנן אמירות שמותחות ביקורת בוטה על נושאי תפקידים בכירים ברשויות הציבור…  זוכרים את הפרסום שלי על תלונת השווא של עובדת נגד המעסיק שלה   אז תראו את הפרסום הזה של הדס שטייף מהיום לא ייאמן ה…  בגץ הורה להעמיד לדין משמעתי את הרב שמואל אליהו  את חוות הדעת העיקרית כתב לא אחר מאשר השופט אלכס שטיין הצעתי לנהל דיון ענייני על הטור של קלמן ואף הסברתי בציוץ העוקב מדוע אני מתנגד למסקנה של קלמן  ציפורי בתגובה  הפגנה בצורה של ארוחה 🤦  וכמובן שאין צורך להרחיב אודות מעללי השר יעקב ליצמן בפרשה הזו תזכורת לפרסום של אלי סניור מלפני שנתיים על מעלליו של יועץ התקשורת רונן צור בשירות מלכה לייפר  לגופו של עניין אני חולק על המסקנה של קלמן המשפט של נתניהו צריך להסתיים בזיכוי מהדהד או בהרשעה חלוטה  הנה דברים ש…  שבוע טוב ושנה טובה  ממליץ לדון על התוכן בטור של קלמן וקצת פחות בחיפוש של מניעים זרים מופרכים שיוכים סוציולוגיים…  נב זילבר אחראית על הסדרי ניגוד העניינים בין היתר היא ניסחה את ההסדר הנרחב והשנוי במחלוקת של ראש הממשלה נתניהו לבקשת שר המשפטים והיועץ המשפטי לממשלה תוארך כהונתה של דינה זילבר המשנה ליועץ המשפטי לממשלה ציבורימנהלי בשלושה חודשים erancherpak 1 אם לא שמת לב קלמן כתב על זה כבר לפני כמה חודשים טובים  2 סנגורי ראש הממשלה בחודש וחצי האחרונים ע…  erancherpak מדהים איך אתה מתאים כל פעם מחדש את המציאות על פי האגנדה שלך MitMaHa Sad RonelAdani אכן התחלתי לחסום לאחרונה את הזאנר הזה כולל את שני הפייקים הנל תכלה שנה ומגעיליה  moishevachetzi ברור שכולם חייבים בבידוד  השאלה היא אם בבידוד משפחתי כי כולם נדבקו או בבידוד קפסולות כדי שהבריאים לא יידבקו מהחולים השכנים שלי משפחה ברוכת ילדים עשו בדיקת קורונה ביום שני בצהריים על ידי מדא 2 מהבנות שלהן יצאו חיוביות לאחר שק…  ivgiz לא הבינו את הקונספט של מנהג התשליך LVolf ErezZadok1 YanivTurgi אני שואל בתמימות ולא בהיתממות היה משהו בהסכם עם כחלון שחייב את הליכוד לתת לשאשא בי…  YanivTurgi ErezZadok1 דיון די מוזר לאור העובדה שהליכוד שריין לה מקום אבל מילא  פשוט הצחיק אותי שאתה מאשים את הת…  ErezZadok1 YanivTurgi שהתמזגה בתוך רשימת הליכוד YanivTurgi להזכיר לך שחכ שאשא ביטון היא לא מגישה בטלוויזיה אלא יור ועדת הקורונה מטעם הליכוד akivanovick ביקורת אמיצה על ערן זהבי במקום נאומים סמי פוליטיים עם נגיעות ברוח התקופה קריאות לגנץ להצטרף לממשלה אום אל חיראן אבו דאבי וכיוב אפשר פ…  אף אחד עוד לא התחרט על הצהרה שהוא לא צפה בה ליבי ניבא וידע מה ניבא   ממשלת גלגל המזל  ik300 ההבדל הקטנטן בין אדם שפגע קשות מתוך תאוות בצע באינטרסים הביטחוניים של ישראל במשך שנים רבות ואף מימן חטיפה ש…  אורן פרסיקו בטור של חוסר טקט וחוסר רגישות משוועים   למה ביקורת תקשורת צריכה לרדת למקומות כאלה עצוב  התקיים דיון בעתירת עוד בומבך המדינה היתה צריכה להגיב עד אתמול ב2000 היא השיבה שזו עתירה מוקדמת כי בהמשך הלילה…  SuperCatalw אכן   התחושה פה היא שכל החלטה אפשר לכופף עם מספיק לחץ ולובי פוליטי גם כששר הבריאות מודיע נחרצות שהמ…  ishaycoen לא שחררתי אותם מאחריות הם האשמים הראשיים במצב אליהם נקלעו   בדבר אחד כן ליבי עם הברסלברים אמרו להם שמקימים ועדת שרים נטעו בליבם תקווה שההחלטה תשתנה בפועל עד אתמול עדיין נת…  YairGolan1 מה עתידות ההליך יסתיים בפיצוי והתנצלות ללא פסק דין matanamirr וגם את נטפליקס  ידיעות אחרונות התקפלו לאחר מכתב התראה אלן דרשוביץ תובע את פרופ יורס לס ו103fm על סך 4 מיליון שקלים לאחר שלס טען שוב ושוב בשידור בתכניתו ברדיו שאלן הוד…  orcarmi ברון עוד מדברי עו״ד בראשי העובדה כי השיחה חוסה תחת צאפ לא הייתה ידועה לנו שכן הכל נמצא בכספות של מנדלבליט נמשיך לפעול…  תגובת עוד BarashiKinneret היה צפוילא הייתה טענה כוללנית הייתה טענה ספציפית שהציגה את מנדלבליט כשותף לעבירה מסו…  לשופט מינץ הצטרפו השופטים הנדל וברקארז   לא נפסקו הוצאות מינץ על כל אלה יש גם ממש בטענת המשיב כי העתירה לוקה באי מיצוי הליכים  שכן העותרת לא פנתה לאיש בטרונייתה עובר לפ…  השופט מינץ נוסף על האמור על פני הדברים ככל שאכן מדובר בתמלילים החוסים תחת צאפ יש בסיס לטענת המשיב כי קיים פסול…  בגץ דחה על הסף את עתירת עו״ד כנרת בראשי בעניין תמלילי מנדלבליטאשכנזי  השופט מינץ דין העתירה להידחות על הסף בשל…  תגובת עוד בומבך זה מגוחך טענה הזויה לחלוטין  היו חודשים לדון על מתווה ההפגנות ועל ההשוואה לתפילות   אבל הכל חייב להיות עקום וההחלטות חייבות להתקבל ברגע האחרון…  לא ייאמן   הממשלה הגיבה הערב לעתירת עוד אילן בומבך שדרש להשוות את דין התפילות לדין ההפגנות בתקופת הסגר  הנדל דרש…  הממשלה נדרשת להגיב עד היום בשעה 2000  iairLevy 1 לא יודע מי אלה אתם קוראים לי אבישי נעים בערך להכיר  2 אני לא גר ביוש חוץ מזה אתה כותב שטויו…  נב בשני המקרים אם המעסיק היה שומר על ריחוק ראוי בינו לבין עובדת שלו ולא מטשטש את הגבולות  כתבי האישום לא היו באים לעולם עכשיו אני נזכר שלפני שנה בדיוק פרסמתי פסק דין נוסף של אותו שופט רון סולקין שלום בש שזיכה נאשם בהטרדה מינית של ע…  תמוה מאוד איך הפרקליטות הביאה תיק כל כך מחורר לבית המשפט וגם לא הבינה שאין לה שום קייס באמצע ההליך שהסתיים בזיכוי…  nadavabeksis אני על זה Israelcohen911 ידידי אתה לא רק מדווח אם תרצה שאכתוב שרשור שלם על הקו הפרואנרכיסטי שלך בנוגע להתמודדות עם הנגיף אל תתבייש לבקש יופי הראית מה זה לסמולנים עורך הדין הגאון יחד עם וועדי הקהילות בבני ברק מבינים שאנשים ישלמו בחייהם על ההטרלה הכה…  YakovSela ריגשת   עד 120 בבריאות arik3000  matanamirr נראה לי פוטושופ liyaomer שלום תמורת גברת תניחי לי זו כבר הטרדה אני לא מעוניין KalmanLiebskind arielplaksin1 רוצה להתקזז עם ג natitucker רמז לפיתרון המילה כעת YakiAdamker 1 לא הפכתי אותה מעולם לשרה גיבורת נילי  2 לא זוכר שכתבתי עליה משהו מיוחד  3 היא קיבלה עונש חריג…  YakiAdamker הם אשמים הלכו למרות שאמרו שהגבול סגור בישלו לעצמם את הדייסה YotYotam החלטת ללכת על רפרנס מורכב במיוחד כבוד לרענן שקד שלא נותן לינון מגל לזהם את השיח ולהסית לרצח  yairlapid חוץ מסיסמה מה הפתרונות הבריאותיים הטובים בהרבה שכבודו מציע ואם מחפשים משהו שלא חלה עליו התיישנות  אז הנה  רענן שקד הודיע שהוא מחרים את 103fm בעקבות דברי ינון מגל שהסית לרצח  המממ פה זה סאטירה או מה בדיוק  TheTWMinister עבודה פרובונו שלי avigrin10 הילדים היהודים חסרי האונים הוצאו על ידי הוריהם בידיעה שהגבול של אוקראינה סגור הם לא פליטים שברחו ממלת…  תגובת הפרקליטות   כל שֶׁנֹּאמַר בשלב זה הוא שלא הוסתר דבר מביהמש מכלול טענותיו של מר נוה יישמעו ויוכרעו בשימוע…  avigrin10 אם 30 אלף נוצרים אדוקים ממדינה אדומה כלשהי יבקשו להיכנס לאוקראינה לצורך אירוע דתי  האם יתנו להם לא  ו…  avigrin10 מה Ahmadtibi אבל אתה בעד תשלום משכורות למשפחות רוצחי יהודים aviadglickman שכחו מה זה להיות חסרי אחריות הנשיאה חיות נתנה החלטה ״ניתן לצפות שההתייעצויות הנדרשות יתקבלו בפרק זמן קצר יותר מבקשים תשובה עד יום שני הקרוב ה21 לספטמבר״ ברייקינג נציגי היועמש מבקשים ארכה עד אחרי החגים כדי לתת תשובה אם הם מקבלים את הצעת השופטים JoshBreiner אתה בעצם טוען שנשיאת בית המשפט העליון מקריבה את האינטרס הציבורי ואת חופש העיתונות כדי להנמיך את הלהבות נגדה אישית מפיד ימין ההסבר התמוה של מנדלבליט למה לא פתח בחקירה  מתוך כתבה שלי לפני חודש וחצי  מיכל רוזן וזק חן סנגורי אלוביץ בחרו בכוונה בפינצטה מתוך מבול ההדלפות את ההדלפה הכי זועקת עם הוכחה פורנזית שהיא ל…  הנשיאה חיות ההצעה שלנו היא שתשקלו לקיים בדיקה מקדמית להדלפת קלטות השמע״ חיות ״יש לנו קושי עם העובדה שההחלטה של היועץ המשפטי לממשלה היא לא לעשות כלום לו הייתם או אומרים שעשיתם משהו שצמצ…  מפתיע בהחלט שופטי בגץ דחקו בנציג היועמש להסכים לפתוח בבדיקה פלילית מקדמית בעניין ההדלפות בתיק 4000   נציגי היוע…  עורכי דינו של אפי נוה המשטרה הסתירה מבית המשפט כי הטלפונים נגנבו ונפרצו בניגוד לחוק  הופעת אורח בתמונה…  AmitaiBenMeir אולי כי המשטרה והפרקליטות לא אמורות להסתיר מידע מהותי מבית המשפט ובכך להטעות אותו כשהוא נותן צו dadoundaniel גלי צהל היא תחנה צבאית הדס שטייף היא כתבת בגלי צהל עכשיו למה זה כל כך שערורייתי   כי המשנה ליועמשנזרי שבוע לפני הגשת הבקשה לבית המשפט כבר קבע בדיון עם הפרקליטות ה…  קטע מתוך התלונה של עורכי דינו של אפי נוה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gktkan 16 מיליון הידועים כ16 מתקציב התרבות uricirlin1  yakirasaf כן הא אני חובב אלימות ושונא עניים זה מה שמוביל אותי ובזה אני מאמין   אם זה מה שעוזר לך לעשות דמוניזצ…  EliBCook  EliBCook לא ממש היא התחילו בשנות השבעים המאוחרות כשנטשו את סטנדרט הזהב כדי לממן אינפלציונית את מלחמת וייטנאם…  zeevikim EliBCook אגב גה מס של 50 על ההכנסה לא הנכסים של ה01 זה די מעט כסף zeevikim EliBCook אשמח למקור של הגרף הזה ולצורת החישוב שלו מעולה כל הכבוד לו  snirklein92 כי אנשים לא מגיבים למחירים EliBCook 1 לדעתי זה הרבה יותר קשור להרחבה מוניטרית   2 בישראל אי השוויון דווקא הצטמצם למרות הירידה העקבית במס חברות איך הצליחו yakirasaf כן הא what can possible go wrong shmuelp30 איך זה יכול להיות החזרי נסיעות הם למיטב ידיעתי חובה חוקית של המעסיק noavic78 כן אבל עכשיו המדיניות של הממשלה היא למנוע שימוש בתחצ snirklein92 בדיוק הם בסדר אני רוצה למנוע נסיעות מזדמנות shmuelp30 למה לשלם יותר זה על חשבון המעסיק שר החקלאות alonschustermk צמצם את מכסות החלב ובכך יוצר סכנה למחסור  תוך שהוא מרוויח מזה אישית…  במקום לצמצם את התחצ  OriKatz3 הם הגיעו למסקנה שמצ תפחיד אותה uricirlin1 אולי זה מה שקורה כשאיראן יושבת לך על הדלת shokito87 לגמרי הם חירבו בעיקר את הריסות נמרוד שזה די מחריד אבל באמת שיש בעיראק אוצרות ארכיאולוגיים כל כך גדולי…  uricirlin1 אגב ידעת שרוב העוקבים של דובר צהל בערבית הם מעיראק לא הבנתי כדי למנוע הידבקות מצמצמים את התחצ מה ההיגיון NevoSheffi אסור לי להיכנס עם דרכון ישראלי gershuni לא אמיתית אבל כן לצורכי הסכמי שלום וטיסות חוץ ביום שיש שלום עם עיראק אני  1 עושה מסיבה בסגנון מסופוטמי  2 קונה כרטיס טיסה בבהול uricirlin1 את שיעורי המס אפשר להעלות גם למעל 100 עם מספיק רצון פוליטי את תקבולי המס זו כבר שאלה אחרת לגמרי YiftachDayan KhenElazar Yovelinho שוב אני לא מדבר על טראמפ בעיני טראמפ הוא פשוט דוגמה שבמקרה נכנסה לתקשורת כי…  uricirlin1 לא עניין של נורא קשה זה עניין של אי אפשר להבטיח על בסיס זה הרים וגבעות סוציאליסטיות וזה בעיקר יוצר עיוותים בהשקעות הון YiftachDayan KhenElazar Yovelinho בסוף אמריקאים יבחרו את הנשיא שלהם לא אני אני רוצה ללמוד מהניסיון שלהם מה אפש…  YiftachDayan KhenElazar Yovelinho כמובן אבל לא על זה אני כותב כאן EliBCook מה היה אחוז המס ששולם בפועל לא שיעור המס הגבוה פלוס מלא יוצאי דופן שנתפרו עבור המקורבים לשלטון simchat239 בעלמא זו פשוט מילה בארמית לא CureTeh מוזמן בכל זאת טראמפ הוא לא הנושא כאן אגב KhenElazar Yovelinho YiftachDayan טראמפ הוא לא הנושא כאן אלא חוסר היעילות של מיסים על העשירים בדיוק מהסיבות שאתה מתאר Yovelinho טראמפ הוא לא הנושא כאן Ohadmx2 כמובן טראמפ הוא לא הפואנטה כאן או האחרון זה שכתוב בו מה שאתם מגיבים עליו לאיזה ציוץ בשרשור אתם מגיבים הראשון Yovelinho SamiBuzaglo מה ההגדרה של זה BiniAshcknasy מוזמן לפרט אני מפנה אותך לניסיון הכושל מלפני כמה שנים בצרפת להטיל מס מיליונרים אתה יודע איך זה נגמר שיר לא רע בכלל מאזרבייגן שמציג לראווה את המודרניזציה של הצבא שלהם בין השאר בעזרת נשק ישראלי   SamiBuzaglo תכנוני מס אגרסיביים זה בסך הכל אומר לשלם מיסים כחוק פשוט חכם בשביל שזה לא יקרה צריך לפשט את מערכת המס BiniAshcknasy אנשים עשירים בניגוד לאנשים ממעמד הביניים או השכבות החלשות יכולים לשכור את שירותיהם של עודים ורוח…  BiniAshcknasy כמובן אני פשוט מראה את זה כדוגמה למשהו אחר BiniAshcknasy נכון מאוד והדרך לשנות את זה היא לחוקק מיסים פשוטים ונמוכים שיניבו רווח נאות בלי לתת יתרון בלתי הוג…  TerribleMaps Europe but if Europe colonised it  Europe Colonised Map Borders  תזכורת לאור הסכסוך שנדלק בשבועות האחרונים  תמחקו את ככל הנראה   יש לציין גם שישראל ככל הנראה מחמשת את אזרבייגן Pitzynivly אותו חרא Yovelinho 1 למי אכפת  2 לא עד כמה שידוע לי simchat239 למה לא נכון SimonaHolstein כן לאזרים לדעתי אמלק הסכסוך בין אזרבייגן לארמניה הסובייטים בנו גבולות גרועים בכוונה כדי לתדלק סכסוכים מקומיים ולמנוע מרידות אתני…  מה אנשים עשירים משתמשים בעורכי דין לענייני מיסים כדי למזער את תשלומי המיסים שלהם בכל דרך חוקית וואו איזה סקנדל…  DaughterOfThAir נאום המלך זה ליטרלי האידיאולוגיה שלי DaughterOfThAir אני קלאסי שמואל adirzz זה בעקבות זה TrinityZ20Z איך אני שמח שהציוץ הזה נהיה ויראלי שיאללה Arspoeti וואו מדהים שדברים כאלה קורים בימינו Yovelinho dvirnimrod מה זה משנה אלו בסיסי מודיעין dvirnimrod Yovelinho זהו אזרבייגן נותנים לנו בסיסים מצפון לאיראן שזה מגניב בקיצור ברמה המדינית צריך לסתום את הפה amif2000 למה שני המנהגים מתקיימים במקביל במאבק בקווקז אני בעד יהיה לי עצוב מאוד אם בעקבות הסגר והצורך הבלתינלאה להפרו ייחלש המנהג שלא נוסעים ביום כיפור ומפנים את הכבישים לאופ…  spez בכיף למה לא DavidsArrow אע כל אירופה מייבאת עגבניות מטורקיה popepants ורק מכון ון ליר ממשיך לפרסם פסאודומחקרים מה יהיה ספין הבחירות הבא בארהב למה החדרים של האקרים כל כך חשוכים פתחו את האור זה לא עושה לכם טוב לעיניים Danabf7 DiscussingEcon1 AmirGol Manwithoutime כמו שאתה רואה זה לא טיעון לכאן או לכאן אם אתה רוצה לקחת כסף מ…  Wlrving popepants מנסודיום גלוטמט זה לא כזה נורא כמו שחשבו פעם gamken1 Always have been efrattolk הן טעימות ולא בא לי לשלם עליהן הון בנוסף זה מקרה קלאסי שחסם ממשלתי פוגע ספציפית בעניים Danabf7 DiscussingEcon1 AmirGol Manwithoutime גם רוב מדינות העולם המערבי אוסרות על קנאביס זה לא אומר שזה רעיון טוב או הגיוני yallanu ספרי לי מה הולך שם כרגע uralevltch וגם יא חביבי בכל מקרה תסתכל על הניקוד הכל נועד לקשר את ארדואן ויזואלית לערבים כדי לשדר אויבות עגבניות בטורקיה הן מסובסדות כל פעם שאתם קונים עגבניה טורקית אתם לוקחים כסף מארדואן ומכניסים אותו לכיס שלכם עם…  arbelaue מעניין אבדוק את העניין arbelaue מה הבעיה TrinityZ20Z כשיש תחרות  המחיר יורד זוכרים שמירב מיכאלי הביאה מומחים כדי שימליצו לפקח על המחיר של מסכה ורצתה לקבוע מחיר של 35 שח… nimshkedy FriedmanIddo הוא בשלטון 11 שנה והמדינה לא מתחרבת נשמע שאם הוא רוצה להחריב את המדינה הוא לא כל כך טוב בזה Syechimovich YaronDeckel את אומרת להציל את התחנה כאילו תחנת רדיו בשליטת הצבא שמשתמשת בעובדי כפייה זה מצב נורמלי ותקין MickeyDiamant Morgen3030 DiscussingEcon1 chinavictor מה קרה במקביל בOECD במיטות האשפוז התוצאה תפתיע אותך Anon1450012136 barak56976102 LiberStam מצביעי ליברמן היו מוכנים לשבת עם ביבי בממשלת אחדות בלי חרדים לא הייתה מ…  Gdavid7S ממש ככה herutcohen יש בעיות של שקיפות גם בבית דין של מעלה ממליץ לכל מי שמתעניין לשמוע את פרק יום כיפור של עושים תנך על הטקס המטורף עם שתי עיזים אחת לאל עליון הכנעני והשנ…  noamrivlin FriedmanIddo מה בטח שעלה משבר הפליטים העולמי הוא פשוט instance מודרני של נדידת עמים תופעה שאנחנו נתקלים בה שוב ושוב ברמה ההיסטורית arbelaue הצלחנו להשיג נשק גרעיני נראה לי שאורניוםתוריום לאנרגיה חשמלית זה פתיר arbelaue  CureTeh אל תאחל לי דברים כאלה   טוב אולי מתישהו ולא במערכת הציבורית SababaYomtov תודה רבה alon613 I see what you did there michaelmr101 אתה כן בוא ספר אני יודע בדיוק מי קראו את המאמר שלי על אנרגיה גרעינית ומי הגיבו רק על סמך הכותרת לפי השאלות שהם שואלים michaelmr101 Yovelinho David3674 אני די בטוח שהקירור יהיה פרויקט זול בהרבה מפער המחירים והזיהום המטורף שיש בין…  Yovelinho michaelmr101 David3674 Idaneretz רוב הכורים בצרפת שהיא המדינה עם הכי הרבה הסתמכות על אנרגיה גרעינית לא ממוקמים על קו הח… omeraricha התייחסתי ישירות לאיומים בטחוניים קרא את המאמר AceWcp נכון לכן ההשוואה לOECD יפה ומאז 2009 התקציב אכן עלה הרבה יותר מהם David3674  David3674 מה לא בפוקושימה רדיוס הקרינה המסוכנת המקסימלי אחרי האסון עמד על 30 קמ מספיק שזה בחור בנגב ואף אחד לא…  SorosStan אני מתייחס לזה ישירות קרא את המאמר החלטתי להקשיב לעצה של עצמי  או במילים אחרות החלטתי להקשיב לעצה של עצמי להפסיק לדבר על ביבי להתחיל לדבר על אנרגיה גרעינית  למרות המיתוסים סביב אנרגיה גרעינית זו האנרגיה הבטוחה הזולה והנקייה ביותר הידועה לאנושות יותר מגז אנרגיה סולרית…  glumushi תודה רבה תיקנתי את החישוב מצאתי טעות משמעותית בחישוב שלי תודה לעוזרים מצאתי את הטעות ייצור אנרגיה סולרית הכי יעיל דורש 12000 מר לגיגהוואט שעה בשנה כלומר כל ייצור החשמל של מדינת י…  ailanda3 שנה glumushi ברור זו צריכה שנתית צריכת החשמל בישראל היא 55 מיליארד קילוואטשעה מקור   צריך 92 מר כדי להפיק קילוואטשעה של…  חישבתי ויצא לי שניסיון לייצר את כל צריכת החשמל של מדינת ישראל ידרוש בערך 500000 קמר פי כמה וכמה משטח מדינת ישראל…  תקציב הבריאות עולה בכל מדד שאפשר לבדוק  orenhaz איך הוא יידע מתוך מצגת פומבית לחלוטין שחברת החשמל שמו באינטרנט  זו תזכורת למען שיפור הדיונים באינטרנט תקציב הבריאות עלה דרסטית בעשור האחרון כן גם אחרי התחשבות בגידול האוכלוסי…  amitbentzur מערכת הבריאות מעולם לא הורעבה התקציב שלה גם פר אוכלוסיה בהתחשב באינפלציה ואפילו בשינוי טווח הגילא…  oshrira Bondaki1 שיפרתי ושיפצתי אותה 🤷 ailanda3 לא היה שם את מה שאני מחפש אבל מצאתי במקום אחר  royroseman קודם כל אני פשוט חושב שהשאלה ביבילא ביבי היא לא המרכזית והחשובה ביותר אני יודע כופר אבל זו עמדתי…  maoritzk בדיוק הם בסך הכל מוציאים תסכול ולא פועלים בשום צורה אפקטיבית למען הפלת שלטון נתניהו בבורותם הם משמרים…  מחפש מה צריכת החשמל הכוללת במדינת ישראל   מגיע לאתר של חברת החשמל בטוח ששם יש מידע עדכני ומסודר   הנתונים רק עד…  Bondaki1 היי תיקנתי את המצגת לפי ההערות של קולגה ושיפצרתי אותה באופן כללי מוזמנים להעיר גמר חתימה טובה  אימייל ששלחתי הרגע לשפצר זו אחלה של מילה אחד מהסלנגים הצהליים היותר שימושיים DrNirDagan ברור כאמור אינטרס פוליטיgtאינטרס ציבורי פראייר  מי שלא רוצה להידבק במגפה ולמות עוד לא שמעתי את ההגדרה הזאת  המצחיק הוא שזה שביבי מעצים את ההפגנות בבלפור ושם אותן במרכז השיח מדגים בדיוק את טענות המוחים  התועלת הפוליטית האיש…  royroseman בוא תסביר לי איך אני טועה maoritzk בוא תסביר לי איך אני טועה YaelFishman כן זה נורא זה מחרפן אותי במיוחד כשזה אנשים שאני מסכים עם חלק ממה שהם אומרים SorosStan TommerVinner נדמה לי שלמחאה החברתית ב2011 היה ייעוץ תקשורתי בכל זאת TommerVinner יש להם בכלל יועץ תקשורת Fnnobou נאבק נגדם תקשורתית זה נותן להם תחושה שהם חשובים והם ממשיכים ללכת להפגנות לא משנה כמה זה נראה רע עושה רושם שעצם המאבק נגד ביבי יותר חשוב למפגיני בלפור מאשר וול להפיל את ביבי Ofernicus נראה שאלו שהולכים להפגנות לא ממש מבינים את זה אני לא חובב קונספירציות גדול אבל באמת שבשלב הזה זה נראה כאילו ביבי דוחף אנשים בכוונה להפגנות בבלפור כי האימגים מ…  אילון מאסק הוא popepants היום  2samadams3 בשם הארכיאולוג האינטרנטי של עוד 2000 שנה אני מבקש ממך להשאיר את זה Ben4293 כן יש לזה לא מעט פתרונות  ronnyeps תעמולה אנטיאשורית האשורים הם נאצים תעמולה אשורית כן אנחנו די נאצים מלך היקום נשמע כמו כינוי שילד בכיתה ד ינסה להדביק לעצמו אבל זה גם היה התואר האמיתי של מלכי אשור Yosefros popepants 1 popepants אשורבניפלמן Asimmatrix כן 2TTgtWQVE1zj6MO מה זה משנה מה הם אומרים shemmishtamesh כל אות במקומה OmerPerchik וואי זה מוצלח ממש אני עדיין מזועזע מעצמי מהתפלצת משלממשלות יותר משלממשלות קשה להועיל קל להן להזיק Itamar23032605 SaeedQalbAsad ירדן RamiVeiberman ראיתי טוב די נמאס לי לדבר על ביבי בואו נעבור לנושא הבא אנרגיה גרעינית amitgonen ברור שלא אין כאן מסר כלשהו roeishapira למה אתה חושב שאני מנסה להגיד משהו פוליטי סתם מספר על מה קורה איתי טו טו טו טו טו טו טו AKislev הפסדתי בה אין לביבי אינטרס להפסיק את ההפגנות הוא רוצה לדבר על זה כמה שיותר כדי להיות חזק מול השמאל ואז הוא יעזוב את זה כשאני אומר במוצש אני מתכוון ברגע זה ממש אם לשפוט מהצפצופים החזקים שאני שומע במוצש מהמרפסת שלי בגבעתיים עושה רושם שלא אוהבים את ביבי popepants ממים על ממים popepants וואו מאיפה זה SaeedQalbAsad DorelMasasa לנסות לחקור לתוך נפשו זה כבר היפר סובייקטיבי Iaskquestions30 לא אומר למי אני מצביע כמדיניות Iaskquestions30 לרבין זה יהיה קצת קשה תגידו מה שתגידו אצלנו המשיגנערים לא עד כדי כך מפגרים  SaeedQalbAsad לתת לפלסטינים פחות ממדינה בזמן שחותרים לשלוםתמורתשלום עם כמה שיותר ממדינות האזור Gdavid7S שניהם ייצגו את המיינסטרים הישראלי רבין בזמנו וביבי היום מחזיקים בערך באותה אידיאולוגיה מדינית כאשר ביבי קצת יותר זהיר מרבין בשימוש בכוח צבאי שנו את דעתי benbugi לא אם אתה מאמין שאתה בסדר ומי שאשם זה ההם benbugi כמובן אבל בשביל להתאמץ ולהילחם צריך מוטיבציה מאוד חזקה וכזו אי תמיד בנמצא shai11359607 SaeedQalbAsad alon613 אין לממסד בייס מצביעים ובנוסף רוב מצביעי הממסד הם בעיקר מבוגרים מעל גיל 65 סתרת את עצמך adgreenberg בוודאי שיש לו  להיבחר כמו כל פוליטיקאי AvitalAvitan shai11359607 AssafMantzur לא מדברים כאן ככה נא למחוק או לעוף מכאן uricirlin1 תראה כמה בנט חורש את הארץ ואשכרה מציע פתרונות יעילים למה כי זו הדרך שלו לטפס בסולם uricirlin1 חייבת אבל עצם התחושה הפנימית לא מספיקה צריך תמריץ חיצוני כלשהו כמו רווח כספי או לכל הפחות התקדמות בפוליטיקה ArikFyodorov לא יודע על סמך מה אתה מניח את זה danielbarkan איפה הימים של JFK Oleger19 לא אני לא טוען את זה אני טוען שאין לו אינטרס להתאמץ להילחם במגפה מעבר למה שעושים מתחתיו uricirlin1 זה מה שאמור להוביל את הממשלה לפעול לטובת האינטרס הציבורי לא נשמע אמין במיוחד בכל תנאי לאאופטימלי  ArikFyodorov איך זה יעשה אותו פחות ראש ממשלה מה בעצם התמריץ של ביבי לטפל בקורונה מה אם הוא לא יטפל בה כמו שצריך מישהו יעבור להצביע לשמאל אם הוא כן יטפל בה כ…  SaeedQalbAsad אני לא חושב אין להם סיכוי לנהל משהו תמיד יהיה מישהו עוד יותר בתחתית שצריך להעדיף את האינטרסים שלו שמעתי שAOC השלימה סיבוב והחרימה את טקס רבין שארגן סניף אמריקאי של שלום עכשיו סופו של הפרוגרסיביזם האמריקאי הוא לimplosion בלתי נמנע ruthelbaz לא שאני רוצה להתערב יותר מידי אבל עד עכשיו אף אחד מגידולי הפרא שקלמן הגדיר לא הגיב לטור שלו באופן ענייני כל מה שראיתי עד… בשלב הזה זה מרגיש שאנשים רבים על פארש avichaifa התפרק סופית רק במאה ה14 Asimmatrix כולל אזרחות עם זכות הצבעה לאותם 2 מיליון לא נראה לי שהממשלה שתקום תהיה לרוחך Asimmatrix כי הגבולות הספציפיים פחות משנים אלא השלטון הצבאי על מיליוני אנשים אשכרה דו שיח בין חירשים uricovagerev אני זועק את זה שנים אין לנו כוח אדם ותקנים מערכת דיווחי המתים הציבורית יובשה תנו לי לנהל את המערך הזה ותראו מה זה מתים… C00LF0X ביבי שיותר מתון ממנו מדינית אוי לא הגיע הזמן בשנה שפוליטיקאים מתנצלים שאין להם עוד כוח פוליטי אני עושה לאחרונה בינג רציני של עושים תנך פודקאסט מרשים ומרתק עם זאת הם מביאים בעיקר חוקרים מהאסכולה התל אבי…  dviryamin 7Eqg59Wj808TmRF כן אבל בנט לא תומך בזה 7Eqg59Wj808TmRF איזה מתווה אשמח לקרוא Iaskquestions30 7Eqg59Wj808TmRF זה אינדיקטור חשוב iepel 7Eqg59Wj808TmRF על סמך מה אתה אומר את זה TrinityZ20Z כמובן אבל הוא תומך סטטוס קוו הוא לא רוצה להחמיר את המצב כמו גורמים רדיקליים במפלגה שלו אבל גם לא לה… </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> עוד התבטאות חסרת רגישות מחברי כחול לבן הפעם זה שר המשפטים אבי ניסנקורן שנלחם למען קיום ההפגנות על אף העיקרון הפשוט…  אזרחים יקרים ממחר יחל סגר הרמטי מהודק לאור מספר החולים העולה ושובר השיאים הממשלה החזקה שלנו בראשות בנימין נתניהו…  אמש חגגו בסעודיה את היום הלאומי ה90 בממלכה אני מאחל להם ולנו שלום וביטחון במיוחד כשהסכם השלום עם ישראל קרוב מתמיד…  סגר הרמטי זה מה שמדינתנו האהובה זקוקה לו כעת בשעה קשה שמספר החולים מזנק ושובר שיאים עברנו את ה 7000 חולים וזה חמ…  לאור מקרי הרצח ביממה האחרונה במגזר הערבי פניתי לשר לביטחון פנים ח״כ אמיר אוחנה לזרז יישום תכניות מיגור האלימות וה…  GLZRadio הרצח בירכא  סגן השר FateenMulla אומר לamirivgi מדובר באדם נכה בן כיתה שלי שנסע בקלנועית ברחוב ומצא את מותו אין תחושת… נפל דבר בישראל שאט אט האמת שדיבר עליה ראש הממשלה בנימין נתניהו כל הזמן שמתרחש משהו לא תקין בין כותלי מערכת אכיפת הח…  לחקור את החוקרים הפרשה שחשף אמש עמית סגל היא בגדר רעידת אדמה לכל מערכת המשפט אני בעד הקמת ועדת חקירה פרלמנטרית שת…  כיתה א׳ בבית ספר יובלי הנגב בדרום מדהים חוויה אחת גדולה   ביקור בית ספר יובלי הנגב  ראש מועצת בני שמעון מר׳ ניר סמיר מנהלת בית הספר גב׳ מרים אלי גרברי  וכל תלמידי בית הספר ה…  אני שולח תנחומים למשפחת אוחיון על רצח אב המשפחה הרב שי בפיגוע דקירה היום בפתח תקווה עצוב מאד לשמוע על נסיבות הפיגו…  לשכת שר הבריאות שר הבריאות יולי אדלשטיין מודה לסגן השר פטין מולא על העבודה החשובה שעשה בטיפול בקורונה בירכא עבוד…  אני מברך את ראש הממשלה שלנו שעושה עבודת קודש אין ספק שהמהלך של ההכרזה על הסכם שלום האמירויות הערביות הוא מהלך היסט…  התראיינתי אתמול בכתבה ששודרה בחדשות 12 על התחלואה בנגיף הקורונה בישוב ירכא ועל הפגיעה הקשה בעסקים בעקבות התפשטות הנ…  ההסטוריה מתהווה לנגד עינינו הנה הגיע היום שבו מדינת ישראל תחתום הסכם שלום עם איחוד האמירויות הערביות זה הוא הסכ…  ישיבת עבודה מקצועית בה הציג ראש הוועדה הקרואה אלי רגב את אתגרי הרשות המקומית ואתגרי מערכת החינוך השר בירך את יור…  כסגן שר במשרד רהמ האחראי על המיעוטים אני מייחס חשיבות רבה לנושא קידום החינוך השבוע הזמנתי את שר החינוך חכ יואב ג…  לאור התפתחויות הביטחוניות האחרונות בגבול הצפוני אני שולח הרבה חיזוקים לחיילי צהל ולתושבי הצפון אני סמוך ובטוח שמ…   בפגישת עבודה שקיימתי היום עם שר התקשורת ח״כ יועז הנדל אשר התחיל לבצע את מתווה פריסת הסיבים האופטיים בכל הארץ קיבלת…  היום ביקרתי בישוב בית גאן כידוע ביום שני האחרון חולקו צווי הריסה למבנים אירעיים שמשמשים את התושבים כסוכות חקלאיים…  נסגר בפני הציבור בכלל  חלקם נמכר לציבור בתשלום אני בעד השמירה על כל השטחים הירוקים בארץ אך אני בעד גם החיבור בין…  הבוקר נסעתי לגן לאומי אכזיב על מנת לתמוך במחאת העמותה לקידום הדייג הספורטיבי ושמירת הסביבה הימית שמטרתה למחות על מד…  כמו כן אני שולח את ברכותיי לחבריי חברי הכנסת חכ אסנת הילה מארק מהליכוד וחכ צבי האוזר מדרך ארץ על בחירתם לוועדה…  בחירת חברים לוועדות שופטים  תחילה אני שמח לבשר לכם שהממשלה אישרה את בחירתי כסגן שר לחבר בוועדה למינוי קאדים מדהב…  במגזר הדרוזי קראתי לשר לחדול מכל צווי ההריסה בעת הזו במיוחד שבקרוב תוקם ועדה לבחינת חוק התכנון והבנייה קמיניץ ואנ…  השני של התפרצות נגיף הקורונה הדבר החמור בעיניי הוא שהוועדה לתכנון ובניה ואו כל גורם אחר המוציא צווי הריסה הינם חסר…  הוצאתי ב1372020 מכתב חריף לשר הפנים חכ אריה דרעי ובו התייחסתי לחלוקת צווי הריסה לרפתות ובתים פרטיים בישובים הדר…  אני מגנה בתוקף את הסרטון שבו אב ומשפחתו מאכילים ילדים בדואים זה מעליב ומקומם להתייחס לבני אנוש בצורה מבזה כזו ומח…  אני מברך את ראש הממשלה בנימין נתניהו ושר האוצר ישראל כץ על הצגת התכנית הכלכלית החדשה בצל הקורונה מדובר ברשת ביטחון…  אני מברך על מינויו של אלמ עמית אדרי לתפקיד מנכל משרד החינוך אני מכיר את אדרי באופן אישי ואני סבור ובטוח שימלא…  אני רואה לאחרונה ששר הביטחון לשעבר נפתלי בנט לא חוסך בראיונות ותוקף בחריפות את רהמ ומדיניותו ואני שואל איפה היית ע…  שר הכלכלה עמיר פרץ רוצה לשמר מונופול לחברת המלט נשר שלחתי היום מכתב לשר האוצר שבו התנגדתי למהלך של פרץ וביקשתי לא…  מחאת הרשויות הדרוזיות והצרקסיות הגיעה לסיומה  אתמול נחתם הסכם הבנות המסדיר את עניין תוכנית החומש לשנים 2020  20…  ברגעים אלה ממש מתגבש הסכם לסיום מחאת הרשויות הדרוזיות והצרקסיות במשרד רהמ ביוזמתי  פגשתי היום את שר האנרגיה יובל שטייניץ לפגישת עבודה חשובה הצגתי בפניו את כל הבעיות והמצוקות הזועקות הקשורות במשרד…  היום קיימתי פגישה עם השרה לאיכות הסביבה גילה גמליאל בנושא משבר הרשויות הדרוזיות והצרקסיות בנוכחות ראשי רשויות הש…  הגעתי היום לבקר במאהל עובדי תעשיית התרבות והאירועים מול משרד האוצר בירושלים הקוראים לממשלה לסייע לענף מפני קריסה נ…  את השבוע הזה פתחתי בביקור מבורך של השיח מוופאק טריף המנהיג הרוחני של העדה הדרוזית בישראל אין זה סוד שהשיח  טריף…  אני מאחל בריאות שלמה לחברי מהרשימה המשותפת חכ סמי אבו שחאדה מדובר בפיגוע פוליטי מאחר ובית הנבחרים השתתק כמעט מפ…  roiberenshtein rtelem FatenMolla זה יו״ר פורום ראשי ראשיות yanircozin קבלו את המינויים החדשים והישנים בפגישה מקרית בכנסת יברקן  סגן שר לביטחון פנים פטין מולא  סגן שר במשרד רהמ ענייני צר… shitritketi אני רוצה לברך את חבריי ח״כ zoharm7 שאושר היום מינויו ליו״ר סיעת הליכוד ואת חברי הכנסת GYevarkan FatenMolla ו Yoav… המשפט של ראש הממשלה נתניהו הוא המשפט שלי ושלך ושלה ושלנו ושל מדינתינו היקרה לנו מפז משפט נתניהו הוא משפט השמאל וש…  גם אני מצטרף לחבריי השרים סגני השרים וחברי הכנסת מהממשלה ביום ראשון הקרוב במפגן נוכחות שתומך ומחזק את ראש הממשלה…  عيد فطر سعيد لجميع المحتفلين كل عام وانتم بالف خير  עיד פיטר סעיד חג שמח  AobVlbOKRDzKsyM תודה רבה חברי היקר מאוד מעריך  cohenmeirav מזל טוב מירב יקרה  AmnonHarari BarakRavid BismuthBoaz  AmirOhana ידידי שר המשפטים היוצא ברכות רבות למינוי החדש השר לביטחון פנים אתה איש עשייה ומאמין שתעה רבות במשרד החשוב זה לעם ישראל netanyahu zoharm7 בהצלחה רבה לידידי מיקי ראוי בהחלט ברכות לח״כ יריב לוין על בחירותו בסיעת הליכוד ליו״ר הכנסת  ה  23 מאחל לו הצלחה רבה ח״כ פטין מולא מהליכוד להמיטב אני מבקש שתיק המיעוטים יופקד בידי אין בקיא ממני בבעיותיהם של בני המיעוטים במדינה…  אסור שבג״צ יתערב ברצון הבוחר שבחר ברוב מוחלט בראש הממשלה בנימין נתניהו כמו כן אני אשעה את כל פעילותי בכנסת ולא אשתתף בדיוני הוועדות עד שהתקציבים יועברו לרשויות אני מצטרף ביום ראשון למחאת ראשי הרשויות הדרוזית והצרקסיות מול בית ראש הממשלה במחאתם הצודקת נגד מדיניות האוצר  שעד…  SamerBarhamS שבת שלום סאמר היקר אחרי הזיכרון והשכול מגיע יום העצמאות שבזכות חללינו הקמנו מדינה חזקה ומובילה  חג עצמאות שמח  אני מאחל לכל אזרחי…  אחרי הזיכרון והשכול מגיע יום העצמאות שבזכות חללינו הקמנו מדינה חזקה ומובילה  חג עצמאות שמח  אני מאחל לכל אזרחי…  יום הזיכרון לחללי מערכות ישראל ופעולות האיבה נזכור ולא נשכח  liyaomer הוא כנראה לא יודיע איך עובדת הכנסת שלח את חברי הסיעה המובטלים להתנגד אבל לא יעזור לו החוק יעבור הלילה בוועדה ובסוף השבוע במליאה MKMickeyLevy אתם תמשיכו לעשות הצגות לתקשורת ואנחנו נמשיך לפעול למען אזרחי ישראל gtgt תושבי המקום ותושבי הגליל בכלל עם התפשטות הנגיף באזור  כולי תקווה שבקשותיי ייענו בהקדם האפשרי למען בריאות הציבור שתי בקשות שוגרו היום  מלשכתי לשר הבריאות הרב יעקב ליצמן  האחת לפתוח באופן מיידי מוקדי בדיקה לנגיף הקורונה בכפרים ה…  gtgt משמשים אותם לתשלומים חיוניים לכן אני מתנגד לקצץ בשכרם או לשנות את תנאי תעסוקתם של עובדי ציבור זוטרים  לפיכך א…  לאחר פניות רבות שהגיעו ללשכתי של עובדים מהמגזר הציבורי המוחים על ההצעה שהוגשה על ידי השר בצלאל סמוטירץ המבטלת א…  بمناسبة حلول شهر رمضان الكريم اتقدم باجمل التهاني للامة الاسلامية وكل عام وانتم جميعًا بالف خير سائلًا المولى ان يج…  بمناسبة زيارة مقام نبينا شعيبعليه السلام في حطين أتقدم لطائفتي المعروفية في كل مكان بخالص التهاني وأسمى التبريك…  לרגל חג הנביא שועייב עליו השלום אני מברך את עדתי הדרוזית בשפע ברכות מאחל לכולם בריאות וחג שמח למרות שהשנה לא יערכו…  היום ביקרתי בתחנת היבדק וסע לבדיקות קורונה ביאנוח גת אני שמח שיש היענות מצד התושבים של יאנוח גת שלוקחים אחריות…  האתגר התקבל לכל לובשי המדים בעבר ובהווה הצטרפו לאתגר ופרסמו תמונה שלכם במדים לחזק את כלל כוחות הבטחון בימים ק…  יום השואה והגבורה תשפ 75 שנה לסיום מלחמת העולם השנייה   יום שבו זוכרים את ששת מיליוני היהודים שנרצחו במהלך השואה…  KahanaMatan DayanUzi אני מצטרף לחבריי חברי הכנסת מתן כהנא ועוזי דיין שמקדמים הצעת חוק לקיצוץ מיידי בשכרם של הבכירים במגזר הציבורי ומקבלי…  عيد فصح مجيد  אל״מ הישאם אברהים מפקד חטיבה 460 בביהס לשריון ברכות לבביות חמות על בחירתך ובצדק להשיא את משואת צה״ל לכבוד יום ה…  חג פסח שמח וכשר לכל עם ישראל  YosephHaddad ח״כ פטין מועמד לשר מיעוטים בממשלה GizelleZ   samiaah10 יותר מ3000 דגימות לבדיקת נגיף הקורונה צפויות להילקח היום במתחמי היבדק וסע ברחבי הארץ ועוד אלפי דגימות יילקחו בבתיםהחל… gantzbe כל הכבוד לך בני גנץ רק כך מתנהג מנהיג שרוצה לשרת את אזרחי ישראל ישר כוח בהמשך לשיחתי עם שר הבריאות ליצמן על נקודות בידוק לקורונה במגזר הערבי והדרוזי  בקשתי התקבלה בחיובי בכך אושרו שתי נק…  התארחתי באולפני הכנסת בתוכנית כיכר הכנסת בתוכנית נשאלתי על המצב הבריאותי במדינת תחת מגיפה נגיף הקורונה כמה הממש…  RamBenBarak Kachollavan19 gantzbe netanyahu רם בן ברק זה חוקים לא דמוקרטים ופרסונלים נגד ראש ממשלת ישראל ונגד…  כמו שאמר מנחם בגין ז״ל  ת ת ר ג ל ו  hebayazbak היבא אתם לא מייצגים את המגזר הערבי אם אתם רוצים באמת לייצג את המגזר הערבי והדרוזי תפסיקו לתמוך בטרור ות…  כל הכבוד gantzbe לא יעלה על הדעת כי בגץ יהפוך למנהלה בפועל של הכנסת העם הוא שבחר את נבחריו  אני תקווה כי הדרך החכמה בה נקט אדלשטי…  אדלשטיין אשר שמירת החוק  וטובת אזרחי ישראל לנגד עיניו נאלץ לנקוט בדרך ביניים זו כדי לכבד את בגץ ולהוות דוגמא איש…  barakehud אהוד ברק אנחנו נתלה דגל אחד וזה דגל מדינת ישראל איך בעיצומו של משבר עולמי  כחול לבן עדיין עסוקים בפוליטיקה קטנה  Kachollavan19 יחד נעבור את המשבר ונצא ממנו מחוזקים ומאוחדים  שלכם חבר הכנסת פטין מולא אני נציגכם בכנסת מבקש מכל אחד ואחת מכם להתגייס בימים טרופים אלו ולהקפיד למלא אחר הנחיות ראש הממשלה ומשרד הבריאות…  ראש הממשלה מר בנימין נתניהו השר ליצמן משרד הבריאות והצוותים הרפואיים עמלים יומם וליל לספק פתרונות לבעיה ולאפשר הת…  חברים יקרים  כידוע אנו עומדים בפני אחד המשברים המאתגרים של העת הזונגיף הקורונה ההולך ומתפשט ברחבי העולם  זהו אינ…  נוכח ההתמודדות הנדרשת עם מצב שהעולם כולו ובכלל זה מדינת ישראל טרם הורגלו בו חובתנו לפעול יחדיו כדי שנעבור בהצלחה…  ראשי רשויות יקרים אני כאן לעמוד לרשותכם בכל בקשה או פנייה או סיוע שיידרשו מול גורמי הממשלה בעת הזו   כולנו רתומים…  זוהי אינה תקופה פשוטה עבורו של התמודדות עם ביקורת מחוץ  אני משוכנע כי יושב ראש הכנסת אדלשטיין ימשיך לפעול במסירות…  אני מוצא לנכון  לחזק בימים אלו את ידיו של יושב ראש הכנסת יולי אדלשטיין אשר מתמודד כמו כולנו בסיטואציה מורכבת של ניה…  SagiOrli אחינו הדרוזים חוגגים את הנצחון בראשות בנימין נתניהו   netanyahu עוד שני מנדטים ואנחנו מנצחים ומוציאים את ישראל מהפלונטר  SamerBarhamS إصحوا يا عرب إسرائيل ערביי ישראל התעוררו  ב23 נוצריםמוסלמיםדרוזים וצרקסים מצביעים מחל   רק ליכוד גדול ידאג למגזר… עשור של עשייה    בכלל התחומים והשפעה ישירה על הכיס שלכם  קבלו סיכום קצר שלי לחלק ממה היה כאן בעשר שנים האחרונות …  doko2015 תודה רבה ממשיכים בעשיה למען הצלחת הליכוד ולמען ראש הממשלה היום בגני הגליל ראש הממשלה מגיע מחכים לכם  ב23 מצביעים מחל דרוזי…  netanyahu שמעתי שגבי אשכנזי אמר בהקלטות שלו אמירות מזעזעות על אחינו הדרוזים שקשרו את גורלם לחיילינו אני חיייב את חיי להם לא אשכח זאת… rabeabader netanyahu   GabiashkenaziMK   סוגיית גבי אשכנזי והעדה הדרוזית מעלה הרבה תהיות והשאלה שנשאלת כאן    אם אין בשר בדברים למה עד עכשיו לא יצא גבי א…  היום מכנס נשים מהמגזר הדרוזי שהתקיים בו השתתפו מעל 100 נשים שרת הבינוי השיכון דר sbyifat  חכל OsnathilaMark…  فطين ملا، الممثل الحقيقي لكل قضايا الطائفة الدرزية والوسط العربي   نشارك ونصوت وننتخب ليكود محل   פאטין מולה ה…  ביקרתי בעיר הבדואית הגדולה ביותר בדרום בבית חבר מרכז הליכוד ידידי עאטף אלגרנאוי בפגש השתתפו נכבדים רבים מהעיר בפג…  SamerBarhamS תודה סאמר היקר פתחתי את השבת בסיור בנגב  לעמוד מקרוב על הבעיות והנושאים המציקים לאוכלוסיה לבדואיים בדרום תודה רבה לכל מי שנכח וה…  ביום שני בשעה 1900 נפגש במסעדת ג׳יראף  בהשתתפות חכ״ל OsnathilaMark ושרת השיכון והבינוי sbyifat מחכים לכם  Yossi31026569 netanyahu 30 מליון שח הושקעו בישובים דאלית אלכרמל להקמת אודיטוריום   202 מליון שח תוכנית חומש לישוב…  Yossi31026569 netanyahu שר המדע והטכנולוגיה ושר העבודה והרווחה אופיר אקוניס חנך כיתות מדעיות בכפרים הערבים  מימון…  Yossi31026569 netanyahu שר האוצר משה כחלון חתם על צו חיבורי חשמל לבתים שנבנו לא חוקי מחוץ לתוכנית המתאר לסעיף 157…  Yossi31026569 netanyahu זה רק בשנה האחרונה מה שממשלת הליכוד בראשות בנימין נתניהו   10000 מליון ש״ח לקידום תוכנית…  SamerBarhamS מזל טוב סאמר היקר חבריי תומכיי ועוקבים אחר הפעילות שליאני שמח לפרסם כאן סרטון  תקציר של ביקור ראש הממשלה במגזר הלא יהודי והחיבו…  ביקרתי יחד עם ראש הממשלה ושרת התרבות והספורט  regevmiri ושר החוץ Israelkatz  ושר הכלכלה elicoh1 אצל השיח אבו ח…  כנס המגזר הערבי הגדול ביותר במעמד ראש הממשלה netanyahu   ב23 הדרוזיםנוצריםמוסלמים ו צרקסים מצביעים מחל  netanyahu שידור חי מגוליס רק ליכוד גדול יקים ממשלה וימנע בחירות רביעיות וממשלה של אחמד טיבי עם גנץgtgt  מחכים לכם מחר   כנס המגזר הגדול במעמד ראש הממשלה netanyahu  W7NhCPUdxmOvtIh תודה רבה הכנס הגדול במגזר  והפעם בנוכחות ראש ממשלת ישראל מר בנימין נתניהו זמן  יום רביעי  תאריך  190220 שעה  1800   מ…  SamerBarhamS רק ליכוד ישמור על המגזר הערבי   במפגש מרתק במסגרת הערכות לבחירות ב 2320 עם השר yoavgallant בהשתתפות קצינים בכירים במיל מבני העדה הדרוזית   השר…  עקב צווי הריסה שמרחפים מעל ביתם של תושבי הכרמל במיוחד בעוספיא ולאור פניות רבות של התושבים אלי בנושא זה  יזמתי ישיב…  השתתפתי היום בחוג בית בישוב ביר אלמקסור אצל חבירנו חסין עדיר בראשותו של שר הכלכלה חכ elicoh1  חברי מרכז ומכובד…  matanco999 תודה רבה 2346479Orna תודה רבה אורנה SamerBarhamS netanyahu כל הכבוד סאמר העבודה הקשה והמאמצים הכבירים שאני עושה למען העידה בפרט והמגזר בכלל מניבים פירות היום הממשלה אישרה את הצעת השר לשת…  EliVaknin12 תודה רבה לך אליהו אני עובד למען כל המגזר הערבי דרוזינוצרימוסלמיצ’רקסי gantzbe ואני רוצה לשאול אותך ח״כ בני גנץ איך אתה תטפל בעוטף עזה שאתה תלוי ברשימה המשותפת shahar300 netanyahu המון תודה רבה ב23 מצביעים מחל התארחתי במפגש פוליטי בביתו של חברי אבו מוחמד אחמד גאנם מישוב שעב בהשתתפות ראש מועצת זרזיר אמיר מזאריב ראש מועצת ב…  עוד מפגש מוצלח לפתיחת הקמפיין ולאיחוד כוחות ליום הבחירות בישוב מגאר בביתו של חברי אבו כרם פאיק סרחאן בהשתתפות חברי…  הנאום שלי היום בכנס בחירות עם ראש הממשלה netanyahu בנהריה  יוצאים לדרך בכל הכוח    ראש המטה במגזר הלא יהודי חכ לשעבר פטין מולא יחד יור מטה ראשי השר ישראל כץ יור מטה קל…  כנס ראשי המטות של הליכוד במגזר הדרוזי המוסלמי הבדוי הנוצרי והצרקסי  אווירה חיובית נוכחות מסיבית ורוח ניצחון ריח… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IdanDorfman תקרא שוב מנהל בית חולים במרכז הארץ נדבק בקורונה כעת יצטרכו לבדוק בבית החולים מי ממנהלי המחלקות בכירים אחרים באו איתו במגע…  JoshBreiner אפשר להיות פוליטקלי קורקט ואפשר להתייפיף אבל האמת המרה כפי שכותב AnshelPfeffer  שרוב המגזר החרדי מוביל אותנו להדרדרות מט… AnshelPfeffer כתבתי הבוקר בהארץ על טיול רגלי בבוקר כיפור בשכונות החרדיות של ירושלים  המסקנה המרכזית ההנהגה החרדית ברובה החליטה במ…   חידה netanyahu מבקש לאסור הפגנות באויר הפתוח מתוך חשש לבריאות הציבור אך אישר לחרדים ודתיים להתפלל בתוך בתי הכנס…  Shiloov מה אתה לא סקרן לגבי העסקה הנל  לייב עם רהמ כעת בואו לשאול שאלות  GalYoffe  talialin  talialin נעמי שמר gontarzn יום כיפור  הסקר הגדול אלוהים  ⁴מחר אוהב אותך וכבר מתגעגע שלך גון ³משובשת אבל הצלחתי להבין מהן שבמהלך הסגר בעברית אם הבנתי אותן נכון זה נקרא יון כיפור לא ניתן למצוא כריך במרחב ה…  ²מביתם אפילו המוניות מושבתות נאלצתי ללכת 15 מייל ברגל מנמל התעופה למלון הנחמד שהזמנת עבורי בתל אביב חצי מייל לפנ…  ¹קייט היקרה נחתתי לפני שעה בישראל האמיני לי אהובתי שאם בניויורק היינו מקפידים על הסגר כמו שהישראלים מקפידים הי…  נראה את השבכ מאתר מפגשים ביום כיפור בבתי הכנסת Sykocan  misscorina2 orlybarlev צילמתי אותך ארוכות רוקדת ליד הבריקדות של בלפור לא ידעתי שזו את netanyahu הנה נוסח התפילה הנכונה עבורך netanyahu  אָשַׁמְתי גָּזַלְתי דִּבַּרְתי דֹּפִי הֶעֱוִיתי זַדְנתי…  netanyahu  Soloph0ne naftalibennett לזה התשובה ידוע הוא שנצ וידוע ששנת צהרים אצל כל האלוהים נמשכת לפחות 6 שנים זה מטכלי naftalibennett ראיתי שאתה מבטיח שבעזרת יהוה ננצח יפה אבל שכחת לציין מדוע הוא טרם התגייס לניצחון הזה לא ציינת…  שלום netanyahu אנא בבקשה ממך פעם אחת תהווה דוגמאאישית לציבור אשר אישרת לו להתפלל בבתי כנסת וצא עם משפחתך להתפ…  AviRabina תגידו ariyederi YuliEdelstein IsraelMOH ככה אתם דואגים לציבור ומקפסלים אותו כצאן לטבח תוך שאתם ממצי…  isral1957 אליך הוא מדבר אמנם אין אלוהים ואני לא מברך בגמר חתימה טובה אף אחד אבל השנה החלטתי לברך אנשים רעים שיש להם אלוהים בגמר חתימה ראויה מסכים שתאמצו gontarzn shitritketi שלום רב ראשית  זו לא תמונה אחת אלו שתי תמונות שנית מדובר בשיסוי שבט ישראלי אחד בשבט ישראלי שני ואת שותפה… shitritketi שלום רב ראשית  זו לא תמונה אחת אלו שתי תמונות שנית מדובר בשיסוי שבט ישראלי אחד בשבט ישראלי שני…  יום כיפור  הסקר הגדול אלוהים ela1949 גורם צבאי  “עליה של 15 אחוז במס החולים מערב ראש השנה מה שמלמד על הפרה בוטה  של ההוראות אחרי ההפגנות הגדולות בתא לא נירשמה על… ממ המפכל וממז ירושלים  ממ המפכל הגיע התפרצויות אלימות מדי פעם בתוך הקהל   גם פרובקטורים שלא שמעו שהמפגינים מפיצים מחלות הגיעו       שירותי כביסה  ניצול ריאליטי מהצד הימניביביסטי מחפש אקשן בהפגנות  כמה מילים על מה שקורה כאן מאת zehavagalon  כיכר פריז  elikmargalit RMatsliah הוא באמת אמר את זה כיכר פריז  בעליה  שיירה מ ט ו ר פ ת ומ ו ט ר פ ת  בעלייה לירושלים NBecher הי YaronDeckel מה הולך תגיד זה נכון מה שnetanyahu אמר בחקירתו  הרי אם רהמ משקר  יש אינטרס עיתונאי עליון בחשיפת השקר לא ההגיון של zoharm7 וnetanyahu רוב הנדבקים מהמגזר החרדי  אשמת המפגינים  פתיחת בתי הכנסת ביום כיפור שלוש שנים עברו וכלום לא השתנה   a51LetvgkZzmWCw ozsegen Haaretz ימים יגידו ozsegen Haaretz צר לי שהצייצן עוז עדיין לא הבין את ההבדל בין ראש ממשלה נאשם בפלילים לבין כל אחד מאתנו ozsegen Haaretz זאת ועוד העובדה שנתניהו החליט למכור את בנו ואת אשתו לצורך בניית קו הגנהמשפטית שממילא לא יחזיק…  ozsegen Haaretz זו לא הדלפה של פרטים על חיי המשפחה של אדם פרטי כי אם תמלולי חקירתו באזהרה של ראש הממשלה הנאשם בפ…  תמלולי חקירתו של בנימין נתניהו אשר הביא גידי וייץ במוסףHaaretz הם בבחינת מופע זיקוקים מעל שמי ישראל ובבחינת השל…  מועדים לשמחה  orlymaman omeryankelevitc שמעת ינקלביץ roznaiy אפילו קלוד מתעניין בראיון של ניר גונטז׳ gontarzn עם השרה מירב כהן ב״מוסף הארץ Haaretz  שרת התפוצות omeryankelevitc חסמה אותי זה בגלל שאני ישראלי  omeryankelevitc המסר שלי הממשלה מקבלת החלטות הזויות ונכשלת בכל דבר כמעט שהיא נוגעת בו רהמ נאשם בפלילים ובתוך…  ⁴  ³  ²  חשוב וחשוב לדעת חהכ יועז טופורובסקי הגיש הסתייגות לחוק הסגר ודרש שדוכני הציינגים להמרת כספים ישארו פתוחים אתם סולחים לomeryankelevitc  dudiamsalem צחקתי בקול תודה על זה  לחלק גדול מהמשבר הנוכחי המדע יודע לתת תשובות כל מה שהיה על רהמ השרים וחהכ לעשות זה להאזין למדענים ולקבל החלטות ב…  AyeletShaked לפי הציוץ הזה שלך ניתן להתבלבל ולחשוב שמעשים יפים כאלה קורים רק בעם ישראל gontarzn HauserTov לא נגזרת של זה זה שהמפגינים יתפרסו על שטח גיאוגרפי רחב בהרבה ושצמתים נוספים ורחובות נוספים ייחסמו Irisleal15 ספקות היו לה גם אז HauserTov לא נגזרת של זה זה שהמפגינים יתפרסו על שטח גיאוגרפי רחב בהרבה ושצמתים נוספים ורחובות נוספים ייחסמו  נתניהו איבד את דרכו קורה שיחיד מאבד את הדרך הבעיה כעת כבר אינה בו אלא באופוזיציה הטבעית שהפכה לשותפתו לדרך ובסב…  almogbenzikri FN הידעתם רשות המסים מעבירה מידע אודותינו אזרחי המדינה לראש השבכ ראש המוסד ראש המלל וכעת גם לצבא    אם זה נכון  זו החלטה מטומטמת בעליל  nadavabeksis תן לו גם את זה  nadavabeksis טוב עזוב ויכוח סרק מי יתן והשבכ או משרד הבריאות יידעו לתת פתרון nadavabeksis אני לא יודע האם יש חולים או לא אני כן יודע שהוא היה בהפגנות גג 12 שעות בשבועיים האחרונים שהן מעט מ…  arielplaksin1 nadavabeksis לא מה פתאום אני פשוט חושב שהאויר הפתוח בטוח בהרבה מכל חלל סגור nadavabeksis תמסור לו דש והחלמה מהירה ממני nadavabeksis בשבועיים האחרונים הוא נע רק בין ההפגנות לבין בידוד בית מדוע אתה ואחרים קושרים את מחלתו שיבריא מה…  JoshBreiner Yossieli 2 שוטרים הוא בא במגע עם עשרות קצינים ושוטרים לא SylvieKeshet IsaacHerzog אני חושב שכן gontarzn IsaacHerzog ארתור רופין מתהפך בקברו  עדיף היה שתצייץ כיור הסוכנות מזה שנתיים הגעתי למסקנה שאין עוד צורך בגוף הזה שהפך… IsaacHerzog ארתור רופין מתהפך בקברו  עדיף היה שתצייץ כיור הסוכנות מזה שנתיים הגעתי למסקנה שאין עוד צורך בגוף…  לימודים בזום לכיתות או hamakom  צלם מבריק ועיתונאי בכל איבריו tomerappelbaum   talialin חידוש יפה UriahCanaff עלישלכת השבוע שיחה עם cohenmeirav על סוגיה שמעניינת אותי מאז ומתמיד איך זה להיות אדם טוב חרוץ וערכי בתוך מערכת דפוקה   shlomokarhi  pninatamanosh צלצלי לטלפון מס 036109898 תבקשי את מר נתאי ותבקשי ממנו להפסיק להפריד ובהזדמנות גם להפסיק למשול   שנה טובה tomerappelbaum גאה לבשר שתמונת דגל שחור זכתה במקום הראשון בקטגוריה של life under covid19 בתחרות בינלאומית בסיינה איטליה  YHepstein להשוות ItayBlumental ynetalerts  לא ישרת קו עם המנהיג העליון לא הפרת אמונים כלפי הציבור הרחב כחברת כנסת והפכת ליסמנית של הממשלה צאי בחוץ  אכן אין מקום עוד להתיר הפגנות המוניות בדירות קטנות וסגורות ואפילו לא באולמות גדולים אך סגורים קבוצה שרוצה להפגין…  סיכום  מה הרוויח טרמפ הגדלת כוחו האלקטורלי וכמה מיליארדים מה הרוויח האמריקאי כמה מיליארדים  מה הרוויח השלטון…  ³יוצא שנתניהו או שהוא מבין את זה או שהוא מנוצל ואנחנו איתו כשוטה תמורת מתנות שהנן פרקטיקלי חסרות משמעות של…  ²מיליארדים לקופת האוצר האמריקאית לפני כן כשהחליט להעביר את שגרירותו השתמש בנתניהו ובישראל תוך נקיטת צעד חסר משמ…  ¹בואו נצא לרגע  קשה ככל שזה מנקודת הנחה שנתניהו אומר אמת כשהוא טוען שהתנגד נחרצות לעסקת הF35 לאיחוד האמירויות…  yaarashapira תירוצים שלא מתקבלים בגיוסיי הליכוד לאי אמון במליאה  davidyerman idokius 1 AsafRonel גם צילום המסך אם אתם לא לוקחים לכם 14 וחצי דקות כדי לצפות ברצץ בלי לדלג בשני המרואיינים הראשונים כאן אל תדברו איתי יותר   ⁵לא כי הוא נחמד או אולטרה ליברל אלא משום שהאופן השלומיאלי של ניסוח האיסורים וההחרגות מאפשר פרשנות כזו   אין באמו…  ⁴לא גוברת על האיסור לפתוח עסק לאות מחאה  איני משפטן אך למיטב קריאתי את האיסורים וההחרגות  לא ניתן לפסול על הס…  ³התקנות שלה עצמה כגון האיסורים המפורשים על התקהלות על יציאה למרחק של מעל קמ וכו ברם הממשלה לא קבעה שצורת המח…  ²שלט הפגנה או ביבי הביתה שכן הטריק שקוף ולא יעבור מבחן שיפוטי אולם אם השלט שאמור לקלוע לעמדת התולה יהיה…  ¹ידידי barpeleg פרסם על בעל דוכן מרמלה שפתח את העסק תלה שלט הפגנה ובכז חטף קנס של 5000  להלן המדריך לבעל עס…  MeravMichaeli  Yahob4 gantzbe אני עומד על דעתי הגם שהיא אולי מתנשאת gontarzn gantzbe אני לא בטוח ואין לי דרך לדעת אבל יש לי תחושה ששמעת את שמה לראשונה רק השבוע gantzbe אני לא בטוח ואין לי דרך לדעת אבל יש לי תחושה ששמעת את שמה לראשונה רק השבוע levonaut חולה פוסט קורונה שטיפלנו בו נלחמנו עליו נפטר כמה נלחמנו שלא תגידו שלא ידעתם cogatonline COGATHeb  MoDIsrael IsraelMOH gantzbe YuliEdelstein netanyahu…  Teodor1 אח של חמותי בן 68 בריא בלי מחלות רקע נפטר בחמישי בבוקר מקורונה אחרי 3 שבועות של קרב בנגיף המחורבן  פשוט תשמרו על עצמכם… ³ קצר לציפורי הנפש כגון ההפגנות והתפילות וכל הכרוך בהתגודדויות ולהסתפק בכך שאלו לא נאסרו דווקא אם היו נאסרות  היה מקום למחאה חריפה יותר ²בכל מי שבקבוצות הסיכון אין בסביבה של אף אחד מאתנו לפחות כמה שנמצאים בסכנה המספרים מהימים האחרונים מזעזעים אנחנו…  ¹כבר לא יודע האם זו דיעה פופולרית או לא אבל הנה היא מרבית מנהיגי המדינה אמנם מהווים דוגמא רעה מאוד לחיקוי ולגמרי…  ygurvitz ידיד בן פחות מ40 במיון קורונה כתב שחש את מלאך המוות לוחץ על הגרון שלו כושילרבאק על העולם הזה ruthelbaz אתמול יצאתי לזרוק זבל ונעלתי את עצמי מבחוץ התקשרתי למנעולן שהמליצו לי עליו תול 20 דק הוא הגיע לקחתי אותו לדלת והוא אומר… 999Nayel999 ABZayed أوافق على أن هناك حق  السؤال هو ما إذا كان رئيس الوزراء الإسرائيلي يكذب ABZayed عام جديد سعيد ، وزير الخارجية ، نحن الإسرائيليون ، لم نقرر بعد من نصدق بنيامين نتنياهو الذي يقول إنه لا ي…  the7i    DaRealHaystack טעות אולי בכל זאת יש עתיד לפרינט  הברכה שעשתה לי את היום   guylerer   AyOdeh החג הזה יהיה קשה לרבים אבל חשוב לזכור שכל ציון של שנה חדשה גם מסמלת מחזוריות שנה באה ושנה הולכת המוחלשים עוד יהיו חזקים ואלה… gontarzn amitaiz קח גם את זה אני מתוקף היותי מִשְׂרַת אֵמוּן צריך לקיים את מדיניות ראש הממשלה אני לא בא מהירח ואני לא ממציא מדיניו… amitaiz קח גם את זה אני מתוקף היותי מִשְׂרַת אֵמוּן צריך לקיים את מדיניות ראש הממשלה אני לא בא מהירח ואני לא ממ…  ranboker רשת רושמת את אחד הימים הטובים שלה בשנים האחרונות אם בכלל ניצחון גדול בפריים טיים הפרש קטן מאוד בחדשות באחוזים ואפילו מנצחת… dovalfon libe ברכות חמות SefyHendler דב אלפון עורך ליברסיון ⁦libe⁩ החדש נבחר זכה לרוב קולות מוחץ בהצבעה שהתקיימה בקרב עובדי העיתון היום יהיה הראשון ששימש גם… SylvieKeshet את האם המייסדת של זרם בעיתונות הישראלית כבר אמרתי לך את זה מזל טוב  שלום IsraelMOH  לאור המידע המדאיג הזה  מה הן ההנחיות המעודכנות שלכם לחברי המשלחת שחזרה מהבית הלבן  Soloph0ne אני אמשיך להגיד את זה  ניר גונטז׳ הוא אחד העיתונאים הכי טובים בישראל kannnews roysharon11 galberger סדרה מצוינת Soloph0ne תודה גיל והשבוע על פניו נראה שלתת לסגן שר החינוך מאגודת ישראל מאיר פרוש או לפקידי המשרד הבכירים להשגיח שמוסדות החינוך הח…  arianamelamed SylvieKeshet 1 kannnews roysharon11 galberger איפה פרק 2 המלא TheMaya כשההצגה התחילה ואת לא מוצאת את המושב שלך  assafazaria gantzbe מדוע אתה מדבר אלי בלשון רבים FarkashOrit תודה ששיתפת מהבוקר אני מסתובב חסר שקט שואל את עצמי מה דעתה של אורית פרקש הכהן על ההסכמים תודה ששיתפת gantzbe הפכת למחולל קלישאות מביך מביך lvKGbdj5MuxCQZM shlomokarhi כדי שאתייחס ברצינות לטענותיך שגם אם הן נכונות הן עדיין לא הופכות את הטענה שלא היה…  gontarzn shlomokarhi מאחר שבין האמיריות ובחריין לבין ישראל אין מחלוקת טריטוריאלית וממילא אין גבול משותף  נושא שטחי המולדת כלל ל… shlomokarhi מאחר שבין האמיריות ובחריין לבין ישראל אין מחלוקת טריטוריאלית וממילא אין גבול משותף  נושא שטחי המול…  אחרי ההצעות להסתובב חופשי עם שופרות בסגר ולפתוח דוכן 4 המינים במסעדות  אני משווה ומעלה תליית שלט בית הכנסת פשוש בכניסה לפעוטונים כולכם מדברים על דנה ויס אבל אף אחד לא מביא וידאו כדי שמי שלא יודע על מה מדובר  יבין בושה מספר השרים בטקס החתימה 0 מספר בני משפחת המלוכה     3  רפובליקת בננות רקובות בהסגר NaimNaor בדיוק מה שהיית נותנת ליהודי אדוק להוציא אלכוהול  אני אפילו לא קרוב ללהבין את הציוץ הזה ואת המוטיבציה להעלותו OranAdler מחמם את הלב  talschneider ראש הממשלה נמצא בוושינגטון לחתימה על הסכמי שלום עם מדינות ערביות היסטוריה באמת  הבן שלו שיצא איתנו בטיסה מקדם בטוויט… avisaban3 לא ראוי לכנות כך את ראש הממשלה liranlevi רוצים רמז תשאלו את gontarzn    noalandau התקבל בוואטסאפ  hezizur hkim14050017 אם ירדתי מהעיניים שלך איך ראית את שכתבתי ואף הגבת לזה יש בזה סתירה לא the7i תביעת רבע מיליון שקל נגד העין השביעית נדחתה לאחר דיון של רבע שעה   אני לא מצליח אפילו לדמיין מפקד תחנה קצין משמרת שיכנס ביום כיפור לבית כנסת ויפזר את המתפללים נתבג  המשטרה החלה לרשום קנסות  נתבג  נתבג    הדרך משער הכניסה לנתבג לטרמינל 3 חסומה  חסימת כבישים בתוך נתבג  נתבג כעת עמוס מאוד  הכניסה לנתבג מכביש 1 חסומה עמוסה במיוחד עדיף ראש ממשלה ישר דרך בלי שלום עם האמירויות ובחריין מאשר ראש ממשלה מסית מפלג ומושחת  שלום עם בחריין והאמירויות gontarzn elirazsade תרשה לי לדייק אותך בקטנה לא בקרב המפגינים אלא בקרב האיש שנגדו מפגינים טעות קלה בשמיעה שלך שמשנה את כל המ… מה שמדהים הוא שכבר ב1918 הבינו האפידימיולוגים שמגיפה מגיעה בגלים ושאחרי הגל הראשון מגיע הגל השני ולמרות זאת כשהג…  barpeleg כאילו שאין מסוקים elirazsade תרשה לי לדייק אותך בקטנה לא בקרב המפגינים אלא בקרב האיש שנגדו מפגינים טעות קלה בשמיעה שלך שמשנ…  מאז 1973 מדינת ישראל בהובלת גנרליה לא ניצחה בשום מלחמה ועדיין הגנרלים נחשבים בתקשורת הישראלית לגאונים יודעיכל…  shitritketi אחווה MillerRon80 BreslauerEdith AGvaryahu נשאר חלוקים MillerRon80 AGvaryahu הרבה צבאות משטרות ברגים קטנים ופקידים רק הוציאו לפועל את מדיניות ממשלתם לאורך ההיסטוריה noalandau ומה עם הבריאות של יתר הנוסעים gontarzn LikudParty אז בעצם LikudParty החלטתו של נתניהו לחזור לסידור הראשון ולצאת במטוס אחד תעלה למשלם המסים פי שניים ונתניהו… LikudParty אז בעצם LikudParty החלטתו של נתניהו לחזור לסידור הראשון ולצאת במטוס אחד תעלה למשלם המסים פי שניים…  guylerer הגיע החלק המבאס נאלצנו להוציא אלפיים הודעות סירוב ביקשנו לעשות את זה מהר עוד לפני שהסתיימו כלל החישובים על מנת למנוע עינו… AGvaryahu מהמוצלחים של gontarznבעצם שתי הבעיות העיקריות שמנעו מהאמא והילד החולה לצאת לטיפול הדחוף בארהב הן תוצאה של השליטה של צהל… והשבוע שיחה עם קמטית הבריאות של COGATHeb דליה בסה על האופן המחפיר שמתאם פעולות פעולות הממשלה בשטחים הכבושים…  HauserTov מסתבר שדובר משטרת חיפה פחות התחבר לסרטון של המסיבה הלילית בעירו התקשרתי אליו לשאול אם המשטרה עשתה משהו בנושא ולאחר שנמנע מ… talialin חברת הסעות והשבוע לפני 3 שנים שיחה על הדבש הכל כך ישראלי של קיבוץ יד מרדכי החביב שהסתבר שזה בכלל דבש שטראוס ושהוא בכלל לא…  almogbenzikri  dahanmicha בחרתי להגיב לתגובה של רהמ ולהקתו dahanmicha לא אמרתי שאין לזה משמעות אני אומר שמבחינת נתניהו  המשמעות היא הפוכה מזו שהוא מנסה לצייר  כאילו תפרו לו תיק החשש מניגוד העניינים בעניין הקצין והאחות של אחד החשודים היה שהוא ימסמס את החשדות לא שהוא יגבש אותן לכדי תשתית להגש…  סרטים מהסוג הזה של מתאם פעולות הכיבוש גורמים לי להתבייש בצבא ניצול מכפיר של ילד ערבי חולה מאוד ובני משפחתו לצ…  </t>
+  </si>
+  <si>
+    <t>אל״מ במיל׳ אבי כהן שניהל את משבר הקורונה בבני ברק אמר לאולפן שישי   ״אם יש מגע או חולה מאומת במוסד חינוכי זה…  כך נראה עולם הפוך בשעה ש25 מיליון תלמידים בישראל נאלצים להסתגר בבתיהם בשל הנגיף  מאשר היועמ״ש לממשלה בלחץ כחול…  החברה בישראל חייבת להתנהל לפי סטנדרטים מוסריים ראויים הדאגה לנזקקים היא אחד מהם זו סיבה מרכזית לקביעתי כי הפעילות…  ״תהיו אמיצים תגשימו את החלומות שלכם כל עוד אתם בריאים וחזקים״  כתבה מירית הררי שנפטרה הבוקר לאחר מאבק אמיץ ומעורר…  שנה טובה מי יתן ותהיה זו שנה של הצלחות לעם ישראל  ביטחון בריאות חינוך כלכלה ורווחה חג שמח לכם ולמשפחותיכם   מערכת החינוך אינה מקור הדבקה כי אם עוגן של יציבות למיליוני תלמידים והורים זהו הגוף הגדול ביותר המסודר והמפוקח ביו…  ברכות חמות על הישג מדיני היסטורי למדינת ישראל תחת הנהגתו של ראש הממשלה netanyahu  שלום עם שתי מדינות ערביות איחו…  מודה לראש הממשלה ולחבריי השרים על אישור הצעתי להמשיך בלימודים עד יום ו׳ ערב ראש השנה  ילדי ישראל הם העתיד שלנו …  מערכת החינוך ותלמידי ישראל הם העתיד והיתרון שלנו הם לא גורם התחלואה הבעיות נמצאות במקומות אחרים והגיעה השעה לטפל…  מזרח תיכון חדש  ברכות למדינת ישראל ולראש הממשלה netanyahu במהלך השבת התבשרנו על מדינה ערבית נוספת שבחרה בשלום עם…  מערכת חינוך פעילה חיונית לכל ילד ולכל משפחה ומהווה תנאי בסיסי להפעלת המשק בישראל אסור לגרום לפגיעה בחינוכם של ילדי…  התלמידים בבתי הספר בישראל  24 מליון  מהווים 26 מהאוכלוסיה בישראל התלמידים המאומתים כחולים  1817  מהווים 65…  הזדעזעתי לשמוע על השלטים בביהס בכפר סבא אני מגנה בכל תוקף את הפגיעה בתלמידות ואת המסר האלים המבוטא בשלטים זהו מע…  במערכת החינוך הנהדרת שלנו יש הכל מהכל  הבוקר צללתי עם תלמידי מגמת חקלאות ימית בבית הספר רמות ים במכמורת   היה מרת…  הראיון שלא היה והשקרים שלא נבדקו  ברביעי האחרון הלכתי לנחם עם ראש עיריית רמלה את משפחת המורה שריפה אבו מועמר שנהר…  הערב נשמעות טענות שקריות כנגד מערכת החינוך מניתוח הנתונים שהוצגו על ידי משרד הבריאות עולה כי העלייה בתחלואה החלה…  33 תודה והערכה רבה למנכ״ל המצטיין של משרד החינוך עמית אדרי למטה המשרד למנהלים במחוזות ובבתי הספר ובעיקר לגננות…  23 שנת הלימודים נפתחה היום ללא תקלות לאחר עבודה משותפת יחד עם ארגון המורים הסתדרות המורים ארגוני ההורים השילטון…  13 לאחר עבודה מאומצת ובהתרגשות רבה נפתחה היום שנת הלימודים התשפ״א תודתי לראש הממשלה בנימין נתניהו ולחברי הממשלה ע…  הבטחתי וקיימתי   כבר לפני חודשיים התחייבתי לפתוח את שנת הלימודים באחד בספטמבר  היום נפתחו למעלה מ95 ממוסדות החי…  כאבתי לשמוע על מותה של המורה שריפה אבו מועמר שנרצחה אתמול בלילה ברמלה   מערכת החינוך תפעל לחנך טוב יותר את דור הע…  מודה לראש הממשלה ולחבריי השרים על אימוץ עמדתי וההחלטה בקבינט הקורונה לפתוח את מערכת החינוך במלואה ביום ג׳ 1920…  הרב שי אוחיון ז״ל יצא הבוקר מביתו ונרצח בשל היותו יהודי מדינת ישראל כואבת את מותו הטרור לא יכריע אותנו נרדוף ונש…  LikudParty גבי אשכנזי ממשיך להיות חתרן בלתי נלאה עד הרגע האחרון אשכנזי ממשיך לעשות כל מאמץ לגרור את ישראל לבחירות כדי להדיח את גנץ… שמחתי לשוחח אתמול עם שר החינוך הארגנטינאי ניקולאס טרוטה trottanico הוא שותף וחבר אתמול החלפנו מידע ושיתפנו את אר…  האונס המזעזע באילת הוא מעשה חמור ביותר המחייב טיפול והתייחסות חינוכית  כשר החינוך אני מחוייב לשלום התלמידות ולחינו…  הצהרונים ותכנית החינוך המשלים יימשכו הם חיוניים לחינוך תכניות כמו קרב הילה מילת ימשיכו להיות עוגן חינוכי עבור…  התארחתי היום אצל ידידי ראש עיריית ב״ש רוביק דנילוביץ׳ יחד עם ראשי רשויות מהדרום לדיון לקראת פתיחת שנת הלימודים תשפ״…  בשבועות האחרונים עשינו במשרד החינוך לילות כימים יחד עם כל גורמי החינוך הרלוונטיים בכדי לגבש מתווה פדגוגי לשנת הלי…  הסכם השלום ההיסטורי שהביא netanyahu עם איחוד האמירויות מחדד ומדגיש את הבידוד של איראן ושלוחותיה הרצחניות מול מדינו…  כלת פרס ישראל פרופ׳ רות גביזון ז״ל הלכה היום לעולמה פרופ׳ גביזון מהבכירות במשפטני ישראל הקדישה את חייה למען מדי…  הסגירה האפשרית של החינוך המשלים מדאיגה אותי מאז התברר כי לא מועבר התקציב להפעלת התוכניות   בשבוע האחרון אני ואנשי…  זהו יום היסטורי  ברכות והערכה רבה לראש הממשלה netanyahu על הישג יוצא דופן   כינון יחסים רשמיים עם איחוד האמירויות יתרונה של מדינת ישראל על אויביה נשען על ההון האנושי שלה ההתחלה היא לעולם בבית ובמערכת החינוך ההמשך בצה״ל ובאקדמיה…  33 אני קורא ליו״ר כחול לבן בני גנץ הצטרף אלינו לאישור מיידי של הצעת התקציב  כדי שנוכל למנוע את ביטול התכניות הח…  23 15 מיליארד שקלים מוכנים באוצר לטובת החינוך המשלים במערכת החינוך ובכלל זה תוכניות קרב היל״ה המתנ״סים ועוד רב…  13 גנץ תגלה אחריות שים את הפוליטיקה בצד ואל תפגע בפתיחת שנת הלימודים ב19 אנחנו חייבים לאשר תקציב מיידי כדי לפת…  יום שישי 26032010 היה יום שחור וקשה  רסן אלירז פרץ ז״ל וסמר אילן סביאטקובסקי ז״ל מטובי הלוחמים בגולני היו הא…  כינסתי הבוקר את בכירי משרד החינוך לדיון מרכזי בנושא היערכות לפתיחת שנת הלימודים תשפ״א במסגרת תוכנית ״לומדים בביטחון…  אני מודה לראש הממשלה netanyahu ולחברי הממשלה על אישור התכנית ״לומדים בביטחון״ אותה הצגתי לממשלה יחד עם…  עצרתי הערב את ביטול סל התרבות במערכת החינוך והנחתי להקצות שמונה מיליון שקלים לפתרון זמני עד סוף שנת העבודה 2020  ה…  MeravMichaeli ואני מחזיקים בדעות שונות בנושאים שונים ובכל זאת יש לנו מן המשותף לכן בחרתי בה לפרויקט מחובריםבערך…  שנת הלימודים תשפ״א תיפתח באחד בספטמבר הצגנו היום את תכנית ״לומדים בביטחון״ שתחזיר את ילדי הגנים ותלמידי בתי הספר…  מודה לידידי שר האוצר Israelkatz על שותפות למען החינוך ולטובת הציבור בישראל   מערכת החינוך היא עוגן של יציבות עב…  הממשלה אישרה הבוקר את מינויו של עמית אדרי למנכל משרד החינוך  נכונו לעמית אתגרים גדולים בתפקידו  ובראשם פתיחת שנת…  השבוע הבהרתי במליאת הכנסת באופן חד וברור מדוע אין הצדקה לסגירת בתי הספר של החופש הגדול   במהלך החודשיים האחרונים נ…  מערכת החינוך היא עוגן של יציבות למליוני תלמידים מורים גננות והורים בזכותה מתאפשרת רווחת המשפחות   תודתי לראש המ…  האתגרים הנוכחיים מורכבים אך נתגבר עליהם בכוחות משותפים אנו פועלים בתיאום ובהדדיות ויחד נעמוד במשימה  שנת הלימודים…  נפגשתי היום עם חבריי לנשק מקימי תנועת ״הביטחוניסטים״ העלינו זכרונות מלחימה ומשירות משותף ושוחחנו על האתגרים הביטח…  למען הסר ספק  בתי הספר של החופש הגדול לילדי הגנים ותלמידי כיתות א׳ עד ד׳ ממשיכים לפעול כסדרם במתכונת שהייתה ובקבו…  מיכאל בן זיקרי ז״ל הציל אישה ושלושה ילדים במעשה גבורה הוא שילם בחייו על גילוי אזרחות למופת תוך הפגנת אומץ לב חריג…  במקום להעביר ביקורת מוטב ששר המשפטים יפעל לחשיפת הקלטות מנדלבליטאשכנזי והתנהלותם בפרשת הרפז  שמחתי לראות היום את ההתפתחות המרשימה של מערכת החינוך במועצת שדות נגב לפני 5 שנים היו במקום מעט מאד מסיימי בגרות ה…  העיר שדרות היא סמל לאומי שנים ארוכות אני מלווה את שדרות ותושביה בצבא לחמתי למען ביטחונם כשר הבינוי והשיכון פעלת…  22 לוח הזמנים הקצר לקראת פתיחת שנת הלימודים הקרובה מחייב לפעול במרץ על מנת להתאים את מערכת החינוך לאתגרים שנכפו…  12 שמואל אבואב מנכ״ל משרד החינוך הודיע לי היום על רצונו לסיים את תפקידו לאחר שנים ארוכות של עשיה מבורכת ומאומצת…  המורות והמורים במערכת החינוך הם אנשים מצויינים חדורי תחושת שליחות ומוטיבציה אני גאה להנהיג את המערכת החשובה הזו…  בהצלחה לתלמידים הניגשים היום לבחינת הבגרות במדעי המחשב אתם דור העתיד של ישראל ואלו שיובילו בגאון את המדינה לחדשנו…  אני מודה לנשיא המדינה מר ראובן רובי ריבלין ולמוסד הנשיאות על שיתוף הפעולה  עם משרד החינוך למען ילדי ישראל נמשי…  חופש הביטוי אינו חופש ההסתה  רינה מצליח הוכיחה הערב שוב שנאת הליכוד ושנאת נתניהו העבירה אותה על דעתה  כמיליון וח…  33 ״בית הספר של החופש הגדול״ יאפשר לתלמידים להשלים פערים שנוצרו בשנה האחרונה עקב התפרצות הקורונה החזרה למסגרת חינ…  23 לעובדי ההוראה יתאפשר לעבוד ב״בית הספר של החופש הגדול״ בתמורה לתשלום שכר נוסף gtgt 13 הודעתי כעת כי הלימודים בגני הילדים ובכיתות א׳ עד ד׳ ימשכו ברצף עד 6820   בעקבות החלטת בית הדין הארצי לעבודה…  מדינת ישראל ומערכת החינוך בכלל זאת נמצאת בימים לא רגילים וכולנו נדרשים להכנס מתחת לאלונקה ולתרום את חלקנו במסגרת צו…  תמר בורנשטייןלזר אחת מסופרות הילדים האהובות ביותר הלכה היום לעולמה אך יצירותיה ומורשתה יישארו עימנו לעד בסגנונ…  22 אנו עושים זאת בזכות מסירותם ונחישותם של המורות והמורים הגננות והמנהלים הפועלים מתוך תחושת שליחות ואהבה לתלמידים 12 מערכת החינוך ממשיכה לפעול כסדרה בהתאם להנחיותי ראש הממשלה ושרי הקבינט אימצו את עמדתי הקובעת כי מערכת החינוך מ…  33 התרשמתי שאשדוד מנצלת בתבונה וביעילות את המשאבים שעומדים לראשותה מתוך הבנה כי החינוך של הילדים ובני הנוער הוא הנ…  23 העיר אשדוד מיוחדת בזכות התושבים שלה פסיפס אנושי שמסמל את קיבוץ הגלויות שמייחד אותנו כעם וכמדינה הגעתי לשטח כד…  13 התארחתי היום אצל ידידי ראש עיריית אשדוד  yechiellasry פגשתי צוות חינוך והוראה יוצא דופן שמוביל את תלמידי ותל…  ברכות ללוחמי צה״ל אנשי שירות הביטחון הכללי ומשטרת ישראל על עוד מבצע מוצלח שבסופו נעצר המחבל שרצח את לוחם צהל סמל…  22 מקרי הידבקות נוספים בכל מקום שבו מזוהה חולה מאומת המוסד החינוכי נסגר 12 נתוני התחלואה שמשרד הבריאות מציג לא השתנו דרמתית ואין שום הצדקה להביא לסגירה של החטיבות והתיכונים זו תהיה פגיע…  ביקרתי הבוקר בבתי ספר בעיר נוף הגליל העיר הזו מייצגת את כל החברה הישראלית  חיים בה בהרמוניה יהודים וערבים ותיקים…  הגעתי הבוקר ל״ביקור בהפתעה״ בבית הספר היובל בירושלים  מצאתי מנהלת נהדרת שרי אלבז וצוות מורות ומורים מקצועי ומסור…  קיימנו היום שורת התייעצויות כולל ״קבינט קורונה״ בראשות ראה״מ באשר להתפרצות הקורונה הכוללת כ 30 מוסדות חינוך ברחבי ה…  YakiAdamker רננה חיה זל  הייתה נשמה שבאה לעולם לתקופה קצרה שום הסבר או הגיון טבעי לא יוכל להיות תשובה לשאלה למה תינוקת שמעולם לא חטא… היום סיכמנו את המתווה המלא שיעניק מסגרות חינוכיות הקיץ לילדי הגן ולכיתות א׳ד׳ זה חלק ממחויבותנו לתת מענה לאתגרי ה…  ביקרתי הבוקר בקרית אתא סוציואקונומי ממוצע והגעה להצלחה מרשימה בחינוך הערכי והקניית הידע לתלמידים הזכאות לבגרות ג…  33 הסיפור הזה מרחף כעננה שחורה מזה עשור  הגיעה השעה שהציבור ידע את האמת  עדיין לא מאוחר לעצור ולבחון את בעיית הס…  23 שיחות אלו היו חלק ממהלך חמור ביותר כנגד הממשלה ושלטון החוק היכן אבירי הצדק ומדוע מנסים להסיר זאת מסדר היום …  13 באופן לא מפתיע הצביעות של התקשורת לקראת פתיחת משפטו של ראש הממשלה שוב חוגגת הרצון העז לראות את תמונת ראה״מ על…  הבוקר ביום ירושלים ועם תחילת תפקידי כשר החינוך נשאתי תפילה להצלחת מדינת ישראל ולהצלחתם של ילדי ישראל לרכוש דעת ער…  הארוע בו נדרשה תלמידה להסיר את שמלתה הינו חמור ומקומם הוריתי הבוקר על קיום בדיקה ותחקיר והצגת מסקנותיו בפני מנכל…  היום החלטתי כי כל גני הילדים ובתי הספר ייפתחו החל ממחר בשעה  0730 בסיור שערכתי הבוקר מצאתי כי צוואר הבקבוק הנוצר…  אני מודה לראש הממשלה על האמון ועל ההזדמנות ומקבל על עצמי את תפקיד שר החינוך של מדינת ישראל מתוך הבנת האחריות והחשיב…  ברכות לידידי השר יריב לוין לרגל מינויו הצפוי לתפקיד יו״ר הכנסת יריב ביצע בהצטיינות ובתבונה את כל תפקידיו בממשלה וב…  כוחות צה״ל פועלים יומם וליל היום שילמנו מחיר כבד לוחם גולני סמ״ר עמית בן יגאל נפל בלחימה בכפר יעבד כפר עויין המ…  ברכות לידידי השר giladerdan1 לרגל מינויו לתפקיד שגריר ישראל באו״ם גלעד הוא שר מצויין משוכנע כי ייטיב לייצג ולקדם…  פרחים ואיחולי הצלחה לממשלת ישראל העתידה לקום בשבוע הבא שבת שלום לחיילי צה״ל לאנשי כוחות הבטחון לצוותים הרפואיים…  חקיקה בימי קורונה עושים הכל כדי להקים ממשלה יציבה בישראל  אלירז פרץ ז״ל נפל בגבול רצועת עזה במשמרתי כאלוף פיקוד דרום אחיו אוריאל נפל שנים אחדות קודם לכן בלבנון…  נבי שועייב  הנביא יתרו השנה חל החג הדרוזי באופן סימלי בסמוך ליום הזיכרון ויום העצמאות ראוי כי נזכור את המחיר הכב…  אלי ביר  שמחים על החלמתך מהקורונה ועל חזרתך לישראל הארגון אותו הקמת ובראשו אתה עומד  ״איחוד הצלה״ מציל חיים כל י…  ״ברוך רופא חולים״  ברכות לחברי השר litzmanyaakov ולרעייתו חוה לאחר החלמתם ממחלת הקורונה  בריאות טובה והמשך הצלחה  מתוך זעקתם של מליוני הניספים עלה הציווי ״לעולם לא עוד״ לעולם לא יחפש ילד יהודי מגן מפני מבקשי נפשו ואין מושיע מכח…  יונתן בן ארצי אתה צריך להבין טוב מאחרים מה אסור להגיד על ראש ממשלה מגנה את הדברים המקוממים והמכוערים ראש הממשלה…  שומרים על הקשישים במקבצי הדיור של משרד העליה והקליטה תמונת יום מאחד מקבצי הדיור לעולים קשישים לאחר שהחלטנו לפרוש…  ראש המל״ל מאיר בן שבת מופקד מטעם ראש הממשלה על תיכלול הארוע הזה מכיר את מאיר מאז שנת 1997  הוא רע״ן בשב״כ דרום ו…  ביקרתי הבוקר בחזית הלחימה בקורונה  המחלקה המיוחדת שהוקמה בבית החולים שיבא המדיניות הנכונה של ממשלת ישראל הקנתה זמ…  ישראל היא ביתו של כל יהודי החודש עלו לישראל 961 עולים הלילה נחתו בישראל 72 עולים מאתיופיה בהמשך להחלטה להעלות את…  שבוע טוב הדמוקרטיה הישראלית לא נמצאת בסכנה הסיכון האמיתי לאזרחי ישראל בימים אלו הוא מגפת הקורונה והשפעותיה הבריא…  בשעה קשה זו גנץ תחליט אחדות בעם או אחדות בכחול לבן  משבר הקורונה הוא מגפה עולמית ואתגר של ביטחון לאומי לישראל בממשלה צריך אחדות לא בידוד לפיד ובוגי מסרבים להצטרף  ג…  אנו נמצאים במשבר המחייב קבלת החלטות משמעותיות בפרק זמן קצוב הממשלה פועלת לפי חוק בסמכות וברשות כדי להגן על אזרחי…  כיהנתי 4 שנים כשר וכחבר בכנסת ה  20 מקווה כי הכנסת ה  23 אשר הושבעה היום תאריך ימים בניגוד לשתיים שקדמו לה ותכונ…  אנו בתקופה רגישה זו לא העת למהלכים פזיזים ובהולים כחול לבן מנסים להפוך את הכנסת לקרקס פוליטי בעת משבר בינלאומי ת…  בעת האחרונה נפל דבר העולם בסערת הקורונה ישראל נמצאת במאבק מורכב ובינתיים מוצלח כדי לבלום את התפשטות המגפה ומ…  פנה אלי סמיר מחאמיד ראש העיר א״א פאחם יש 3000 סטודנטים ערביים ישראלים בירדן הם סגרו אוניברסיטאות אך גם הגבול סגו…  קראתם לעצמכם ״כחול לבן״ אמרתם ״ישראל לפני הכל״  אלו השותפים ליישום המשנה הפוליטית שלכם   מדאיג מבייש מעציב  עדיין לא  פורים שמח 🤡  בוקר טוב לבני גנץ שנינו מכירים לאורך שנים את גבי אשכנזי ואת פעולותיו האפלות  הוא משקר לך כי רק ככה הוא יודע לך ה…  מסירים מסיכות בחג פורים  המפלגות המאוגדות במשותפת רואות עצמן במוצהר כשלוחה של התנועה הלאומית הפלשתינית עכשו ברו…  ״אָנוּ מַכְרִיזִים בָּזֹאת עַל הֲקָמַת מְדִינָה י ה ו ד י ת בְּאֶרֶץ יִשְׂרָאֵל הִיא מְדִינַת יִשְׂרָאֵל״  מתו…  יוזמת החקיקה הנואשת של כחול לבן מעוותת את רצון הבוחר ומכרסמת ביסודות הדמוקרטיה זוהי חקיקה אישית זוהי חקיקה בדיעבד…  העם אמר את דברו באופן ברור תמיכה אדירה לליכוד בראשות נתניהו ולמחנה הלאומי ערב של תקווה שמחה וגאווה  מצביעי הליכוד צאו להצביע והביאו את כולללם לקלפיות  הניצחון בהישג יד לא לוותר לאף חבר או מכר כל קול קובע מצביעים מחל ומקימים ממשלת ימין  צאו להצביע   זה היה רמטכ״ל    חלק מהדו״ח של הפצ״ר עפרוני על פרשת אשכנזי שהוגש לגנץ כשהיה רמטכ״ל  לקרוא ולא להאמין העלמת עדוי…  כבוד לקרן אימפקט ולמרתון ת״א רצנו הבוקר אור ואני עם 150 בוגרי קרן אימפקט במרתון ת״א את הקבוצה הוביל פנטה גזצ׳ו…  תשאלו את בני גנץ מה הוא יודע על טוהר המידות של אשכנזי  הלך לעולמו אלי מויאל ראש העיר שדרות לשעבר אלי הנהיג את שדרות לאורך עשור של שגשוג בתקופה של התקפות טרור קשות כמפק…  גנץ  בתקופתך כרמטכ״ל נכתב דו״ח מצ״ח מטלטל על פרשת אשכנזי הדו״ח הוסתר בין הממצאים אשכנזי עקב אחרי אלופים בצה״ל…  מרגש וייחודי שתי מילים שמסכמות את המסע שלי לאדיס אבבה להעלאת הקבוצה הראשונה של בני הפלשמורה לשנת 2020 כלוחמים ב…  אני יודע היטב מה היה לפני עשור במה שמכונה בטעות פרשת הרפז אך צריך להיקרא פרשת אשכנזי לאחר שיוסר צו איסור הפרסום תה…  השב״כ מופקד על סיכול טרור למען בטחון מדינת ישראל ואזרחיה ״השירות״ פועל לפי חוק ומשרתיו הם טובי בנותינו ובנינו השי…  אסור בשום אופן שהדמוקרטיה הישראלית תשמש כלי בידי אלו הרוצים להחריבה דברי הנשיאה חיות על יזבק מדברים בעד עצמם פר…  לפני כמעט 40 שנה פעלתי בלילות חשוכים יחד עם חבריי לחיים ולנשק לוחמי שייטת 13 להבאתם של ראשוני העולים מאתיופיה מחו…  חמאס משגר בשבועיים האחרונים עשרות מטעני נפץ באמצעות בלונים לעבר ישראל  זהו מעשה טרור והסלמה מסוכנת מתברר כי מי שפ…  אכן צונאמי מדיני מדינה ועוד מדינה בזו אחר זו מבקשות להתקרב לישראל ולהדק את הקשרים  העוצמה הישראלית היא המפתח…  ארה״ב כבר הכירה בירושלים כבירת ישראל היום הצטרפה גם אוגנדה מדינות רבות נוספות יצטרפו בהמשך לאור צדקת דרכנו ובזכו…  הסרבן מפסיד מסרבנותו תכנית המאה קבעה עיקרון חדש הסרבנות אינה משתלמת גם הליגה הערבית מבינה זאת היטב כל הצהרות הל…  החלטות מדיניות לא מקבלים בניחותא ולא בקונצנזוס בינלאומי יש רגעי הזדמנות בלתי חוזרים בחיי אומה בהם נדרשים מנהיגות ו…  INSS2020  אז מה היה לנו השבוע •50 מנהיגי עולם מגיעים לישראל ומתחייבים להילחם באנטישמיות  •עסקת המאה של נשיא ארה״ב  •החז…  איראן מנסה לשטוף את המזה״ת בסופה שיעית  לבנון  עיראק ונסיונות להשתלט על סוריה גם ירדן אינה חסינה אם יוכלו ינסו…  קרדיט תמונה חדשות 12 היסטוריה ארה״ב אימצה באופן מלא את הנימוקים הישראליים בהיבטי אסטרטגיה וביטחון כבסיס להסדרת הסכסוך הישראלי פלסטיני…  היום יום השואה הבינלאומי  לזכור ולא לשכוח בזכות כוחנו ולאור צדקתנו נבטיח לדורות הבאים  לעולם לא עוד  בתמונה כא…  ביום הזה אני מתרגש וגאה להיות יהודי ישראלי לוחם מיל בצהל שר בממשלת ישראל ובעיקר בנם של מיכאל ז״ל ופרומה תיבד…  החלת הריבונות הישראלית על בקעת הירדן וקביעת גבולה המזרחי של ישראל על נהר הירדן הינם צעדים חיוניים לביטחון ישראל של…  הצהרת גנץ על בקעת הירדן היא או היתממות או התחסדות הוא אומר כן אבל ויודע שהאבל ימנע את העניין הגבול המזרחי של…  שמחתי לארח את מושלת מחוז אנטוורפן שבבלגיה ואת נציגי הקונגרס היהודי הישראלי באירופה ולהסביר את החשיבות שאנו רואים בנ…  נפטר ינון אשכנזי אביו של לוחם השייטת ארז אשכנזי אשר נפל בקרב נגד מחבלים בעזה ב 2003 ינון הנציח את זכרו של בנו ארז…  בסוף שבוע רווי יצרים פוליטיים איני שוכח את שליחותי ואת משימתי  בטחון ישראל האתגרים רבים ובראשם חתירת איראן לנשק ג…  היום ארה״ב ניצבת לצידנו במערכה וגם אירופה שוקלת להסיר את מסכת הצביעות שלה חשוב כי יד איתנה ומנוסה תאחוז בהגה הלאומ…  הערכת אמ״ן מבהירה עד כמה גדול האתגר של ישראל אל מול מאמציה הבלתי פוסקים של איראן להשיג נשק גרעיני לצד נסיונותיה להש…  האם אירופה היא האחרונה לגלות הגיע הזמן להסיר את מסכת הצביעות המביישת מעל פניה של אירופה נקווה שהאחריות לביטחון הע…  לא ינום ולא יישן שומר ישראל החיבור בין היכולת הטכנולוגית והמחקרית של מדינת ישראל לבין האנשים המעולים במערכת הבטחון…  מדינת ישראל קולטת עליה בהתאם ובכפוף לחוק השבות  כל אדם בישראל הוא עולה חדש או צאצא של עולה חדש  אלו האנשים שבנו א…  התמודדות עם איתני הטבע ממחישה את מגבלות האדם מכיר מקרוב את עוצמתם של המים  אנו מחוייבים להפיק לקחים ולהיערך למצבי…  היום מלאו 70 שנים להקמתה הרשמית של שייטת 13   לרגל הארוע התכנס פורום מאד מיוחד בבסיס השייטת בעתלית  כל מפקדי שייט…  איראן היא מחוללת הטרור הגדולה בעולם וסכנה חמורה לשלום המזה״ת חיוני ואפשרי למגר את הטרור וההתפשטות האיראנית  נמשיך…  ״הצגת תכלית״ קטנה של ארה״ב כדי לאותת לאלו הפוגעים בה ובבנות בריתה ישראל שוכנת בסביבה עויינת למזלנו המעצמה החזקה ב…  הדמוקרטיה חגגה  הליכוד ניצח כעת כולנו מאחדים כוחות לקראת נצחון הליכוד בבחירות כאז כן עתה חג החנוכה מנציח את גבורת המכבים בהגנת העם והארץ כנגד היוונים הבאים להשמיד את הגוף ואת הרוח היהודית ש…  ביטחון ישראל עומד מעל הכל ירי רקטה אפילו אחת הוא מעשה טרור וקריאת תיגר על נוכחותנו בארץ הזו  לא נסכים לכך לא נ…  טרור חיזבאללה בהכוונת איראן הוא סכנה לעולם כולו ישראל ניצבת בחזית המלחמה כנגדו  מברך על החלטת הפרלמנט הגרמני לאסו…  אנו מרכינים ראשנו עם לכתה לעולמה של גאולה כהן לוחמת חירות ישראל חברת כנסת וכלת פרס ישראל תנחומי לחברי צחי הנגבי ולבני המשפחה ברכות לשירות הבטחון הכללי ולעומד בראשו  נדב ארגמן על עוד מבצע מוצלח להגנתם של אזרחי ישראל כנגד הטרור הפלשתיני  יום ההוקרה לפצועי ונכי צה״ל  הם אלו אשר בהקרבתם ובעוז רוחם הקנו חיים למדינת ישראל הם הנושאים עדות זו עמם יום יום…  ברכות לאנגליה  נצחונו המובהק של ג’ונסון על קורבין הוא גם נצחונן של ישראל ושל היהדות כנגד האנטישמיות וכנגד ה BDS ומעודדי הטרור האנטי ישראלי מדינת ישראל הדמוקרטית היא מדינת חוק את הכרעת הדין קובעים בבית המשפט חזקת החפות שמורה לכל אדם כך גם לראש ממשלה עתיר זכויות כבנימין נתניהו מדינת ישראל לא תאפשר הקמתו של צבא איראני בסוריה ויצירת חזית ״חיזבאללה 2״ ברמת הגולן  נקודה  ארה״ב הבהירה היום באומץ את המובן מאליו  ההתיישבות אינה מפרה את החוק הבינלאומי על הרי יהודה ושומרון קמה ממלכת בית…  אסור לאפשר הקמת ממשלה הנשענת על קולות חברי הרשימה הערבית המשותפת המתנגדת לקיום מדינת ישראל כמדינה יהודית וציונית…  ביטחון ישראל מעל הכל  ברכות לצה״ל ולשב״כ על ההצלחה המודיעינית והצבאית אנו מאוחדים בלחימה כנגד הטרור מי יתן ונדע…  נסראללה מודה במה שישראל טוענת שנים חיזבאללה הוא זרוע של תמנון הרשע האיראני ארגון טרור המקבל את תקציבו ותמיכתו מאי…  די לנשף המסיכות  נשק גרעיני בידי איראן יהפוך את העולם למקום לא יציב יגביר את התוקפנות האיראנית ויציב את ישראל בס…  ראש הממשלה יצחק רבין ז״ל הרמטכ״ל עטור התהילה של מלחמת ששת הימים נרצח ע״י יגאל עמיר מגנה בכל תוקף את הנסיונות להכ…  מברך את ארה״ב על הצלחתה בחיסולו של מנהיג דאע״ש אבו באכר אלבגדאדי אני מכיר מקרוב את לוחמי הכוחות המיוחדים של ארה״…  בביקור בבאבי יאר קייב אוקראינה מקום בו נרצחו עשרות אלפי יהודים ע״י הנאצים חלפו לבלי שוב הימים בהם דם יהודי הוא…  פגיעה בחיילי צה״ל ע״י כל אזרח ישראלי בודאי מקרב הציבור היהודי היא חציית קו אדום מחזק את ידיהם של לוחמי ומפקדי צה…  משתתף באבלה של משפחת שמגר והעם בישראל על לכתו של נשיא בית המשפט העליון לשעבר מאיר שמגר כמח״ט בצה״ל זכיתי להציג בפ…  השתתפנו היום בארוע מרגש  חברינו הטובים משפחת שוורצברג ממושב עמיקם אירחו בסוכתם את מרים פרץ ומשפחתה הנפלאה כבר שנ…  ארוע הטרור בגרמניה הוא עדות נוספת לכך שהאנטישמיות זוקפת את ראשה באירופה כשר העליה והקליטה אני קורא לכל יהודי אירופ…  גמר חתימה טובה לכל בית ישראל  אחרי שבוע פוליטי עמוס מצאתי זמן לחתירת בוקר ממושכת  הים נהדר בתקופה הזו שבת שלום ‍  שנה טובה לכל בית ישראל  תודה לכל מי שדרש בשלומי  כבר אחרי ריצה הבוקר ‍ שנה טובה ומבורכת   שבת שלום אתמול בערב חוויתי אובדן הכרה קצר בשל התייבשות לאחר בדיקות מקיפות השתחררתי כעת מבית החולים ואני מרגיש מצו…  400 שנים שלטה טורקיה בארץ ישראל  תקופה של נחשלות עוני דיכוי ובערות ישראל מביאה לעמה ולסביבתה קידמה שגשוג שפע…  קשה להאמין  מפלגה ציונית כחול לבן נשענת על תמיכת הרשימה הערבית המשותפת השוללת את קיום ישראל כמדינה יהודית וציונ…  3 שעות אחרונות נותרו להצבעה הבחירות הללו צמודות מאי פעם ואנחנו חייבים לסגור את הפער ביננו לבין השמאל כדי לא להתעור…  מצביעי הליכוד נותרו פחות מ8 שעות להצבעה חייבים ללכת ולהצביע מחל אחוזי ההצבעה בקלפיות במעוזי השמאל גבוהים חיי…  יום גורלי לעתיד מדינת ישראל  כל קול קובע מצביעי הליכוד צאו להצביע ותנו לליכוד את הכוח להמשיך ולהצעיד את מדינת ישר…  מחר יום קריטי עבור מדינת ישראל צאו והצביעו לליכוד הצביעו מחל  רגע לפני הבחירות מוזמנים לראות את העשייה גם מזווית אחרת  מעכשיו הצטרפו אליי גם באינסטגרם  מחכה לכם…  החלת הריבונות הישראלית בבקעת הירדן היא בראש ובראשונה מענה לצורך ביטחוני חיוני של מדינת ישראל  רק הצבעה לליכוד תאפש…  איראן נחלשת אך היא רחוקה מנקודת השבירה ומויתור על תכנית הגרעין החשיפות של ראש הממשלה נתניהו מסייעות להמשך הלחץ הבי…  בידוד מדיני כבר אמרנו ברכות לראש ממשלת אתיופיה ד״ר אביי אחמד עלי שממשיך את צונמי המנהיגים המבקרים בארץ בשבוע…  חשפנו את ארכיון הגרעין החרבנו את מנהרות חזבאללה אנו פועלים כנגד הניסיונות להוציא לפועל את פרויקטי דיוק הטילים לא…  ברק איבדת את הבלמים ובודאי את האיזונים לשמוע את דבריך ולא להאמין שרי הקבינט מטומטמים ואילו אחמד טיבי ראוי לכהן ב…  המשוואה פשוטה אנחנו פועלים ונמשיך לפעול בכל מקום בכל דרך ונגד כל מי שמנסה לפגוע בביטחוננו  לאף אחד אין ולא תהייה חסינות בעת הזו כולנו מאוחדים סביב שתי משימות דחופות • לטפל בפצועים ובמשפחתם  • להגיע אל המחבלים ולמצות עימם את הדין ברכות לנמרוד גז על מינויו לתפקיד ראש מטה שר הביטחון מכיר את נמרוד לאורך שנים ארוכות משירותו הטוב והמשמעותי בשירו…  מתקדמים ברכות לפרגוואי על החלטתה להכיר בחיזבאללה ובחמאס כארגוני טרור לפני חודש החליטה המדינה הלטינית הראשונה א…  רק השבוע נכנסו בשערי המדינה מאות עולים חדשים ורבבות תיירים שבאו להינות מקיץ ישראלי כולם ברוכים במדינתנו רשידה טלי…  מקבל את פניהם של 241 עולים חדשים מארצות הברית וקנדה חלקם הגיעו במיוחד כדי להתגייס לצה״ל  זאת תוספת עוצמה אדירה למ…  ״ארדוף אויבי ואשיגם ולא אשוב עד כלותם״  תהילים י״ח ל״ח  המעגל נסגר  נלכדו רוצחיו של דביר שורק ז״ל</t>
+  </si>
+  <si>
+    <t>KseniaSvetlova ניחומים רבים וחיזוק ידיים קסניה יקרה לא משנה מה תעשו בחג הזה  אם תאכלו או אם תצומו אם תלכו להתפלל או תחכו ללכת להפגין  רק דבר אחד אל תעשו אל תתנו למ…  avidareli  YSegalovitz  ofercass  osamasaadi63  KElharrar  OrnaBarb  tamarzandberg  idanroll  odedforer…  ועדת חוקה עדיין יושבת אבל השגנו הלילה הישג גדול בסוף השבוע הזה אין הגבלה על הזכות הבסיסית להפגין ממשלת נתניהוגנץ…  ב20 שעות דיונים בכנסת על חוק הגבלות הסגר יכולנו לדון במתווה יציאה סיוע כלכלי עזרה לנפגעות ונפגעי קורונה מכל הסוגי…  ועוד לא ספרת את האלימות המתגברת בתוך הבתים ואת הפגיעה המחמירה והולכת בכל החולות והחולים במה שאינו קורונה  תזכירו לי מי אמר את זה  moranynet עוד לפני ההצבעה ח״כ מרב מיכאלי פורמת במשך שלוש דקות שהוקצו לה לנאום רק משפט אחד שוב  ושוב ״ראש ממשלה ששקוע עד צוואר בחקיר… לא משנה מה יגיד נתניהו היום בהצהרתו הרשמית זה פשוט לא משנה אפילו התומכות והתומכים שלו כבר לא מאמינים לו כשלון…  עד שנגיע לעולם בלי אלימות ופגיעה מינית בואו נדבר על זה  הצטרפו אלינו gtgt  acrionline datumedina tagmeir coalitionagist הרב אליהו היה צריך כבר מזמן לאבד את משרתו בשל ההסתה החוזרת שלו נגד ערבים נשים והקהילה נגד החוק ונגד בכירים במערכת…  דנה נושי 2004  2020 שלום אהובה  מירית הררי נתנה דוגמה חיה לאפשרות הבחירה בחיים היכולת לבחור להסתכל למוות בעיניים אבל לא פחות מזה  לחיים  אשה שה…  רות ביידר גינצבורג הביאה לעולם ולנשים הישגים אדירים וקידמה את כולנו לעולם נכון וצודק יותר היתה לי זכות להכיר אשה מ…  שנה טובה חברות וחברים  אנחנו נעבור את הסגר נעבור את המחלה נעבור את הממשלה הזאת נצא בצד השני ונבנה מחדש שנה טובה   בגצ אליס מילר התקבל לפני 26 שנה לפני 20 שנה חוקק חוק שחייב את צהל לשוויון הזדמנויות הוא לא מציית לו לפני 5 שני…  ערב מרגש וחשוב חתימת הסכם השלום עם האמירויות ובחריין בוושינגטון אין ספק אבל הטילים שנורו עלינו בזמן החתימה מעזה…  מה שצריך זה פחות תקנים של שרים ויותר תקנים למערכת הבריאות  EmilieMoatti אוי ואבוי חיבוק גדול וחיזוק ידיים לך ולבנות אמילי יקרה אומרים הליגות ימשכו אבל מתכוונים שליגות הגברים ימשכו את ליגת הנשים סגרו גם כשלא היה סגר ואפילו לא מרגישים שיש ב…  שוב תוצאה שערורייתית במבחני לשכת עורכי הדין שוב עוול נורא לאלפים שלמדו התמחו והשקיעו עשרות אלפי שקלים צמצום מספר…  כוכבי הבטיח צבא חדשני ויעיל פחחחח  nivshai איך נראים פרפורי גסיסה של דמוקרטיה שר החוץ נשאר בבית ראש שירותי הביון עולה על המטוס חבילת פיצוי לעצמאיות ועצמאים למפוטרות ומפוטרים לעסקים שיקרסו סופית כתוצאה מהכשלון המהדהד של נתניהוגנץ ושות גם…  אם אין לחם תאכלו את הדונאטס שאני אביא לכם מוושינגטון כי לי מותר לטוס ולעשות מה שבא לי בזמן שאתם תהיו תקועים בארץ בס…  חברי חברי הכנסת החרדים מתי הפכתם את ונשמרתם לנפשותיכם לונשמרתם לכסאותיכם  מדינה שלמה כוססת ציפורניים מסביב לשולחן הרולטה יהיה סגר או לא יהיה סגר תידבק או לא תידבקי תפוטרי או לא תפוטר הע…  גם נתניהו ידע בזמן אמת שאלקיעאן ממש לא מחבל אבל לא אמר מילה עכשיו כשנראה לו שזה משרת אותו הוא נזכר צפו ותראו כמה זה שפל כולןם מאיימים לא לציית להוראות הממשלה כי פשוט לא מאמינות ולא מאמינים לנתניהו ובצדק  נתניהו שוב שיקר השבוע כשהתנ…  acrionline הסיפור שגיל מספר הוא לא מדע בדיוני זו המציאות והיא רק הולכת ומחמירה אנחנו כאן בשביל לעמוד על המשמר ולהיאבק גם בגופי ביטח… הצגתי היום במליאת הכנסת את הצעת החוק שלי שנאשם בפלילים לא יכול להיות נשיא המדינה תפנימו ביבי הוא בלתי  acrionline הנה סיפור קטןגדול שממחיש את מה שאנחנו יכולים לעשות עם התרומה שלכם צפו בגרי שחר מתנדב בקו פניות הציבור של האגודה מספר ע… ומזה ישראל כץ עוד רצה לקצץ  אבל בשביל זה צריך לרצות לשנות אותה עוד לא היתה לנו ממשלה שרצתה לשנות אותה בואו נתחיל לעבוד על ממשלה כזאת  קרדיט…  אבל מה לעשות שעם כוונות לא הולכים למכולת בטח כשהכוונות האלה באות בלי תקציב בלי שעות בלי תקנים אחר כך שוב יזדעזע…  כבר 25 שנה שאני אישית נאבקת להכניס למערכת החינוך מגיל גן תכנית לשוויון בין המינים אחרי האונס באילת ניהלתי ישיבה של…  אין ספק שהןם רוצות ורוצים לחנך את הילדים בצורה טובה יותר אבל המערכת לא נותנת להןם כלים ושעות ותקציבים והכשרה כדי לעשות את זה גם המורות והמורים שלהןם לא לומדות ולומדים לעומק שוויון מגדרי הןם גם לא מקבלות כלים לדבר על מין ומיניות עם התלמידות…  לא הם וגם לא הבנות את כל הדברים האלה מערכת החינוך לא עושה מה היא כן עושה היא בעצמה מחפצנת תלמידות לפי אורך המכנס…  תרבות שבה נשים הן אובייקט מיני ושימוש בהן הופך אותך לגבר והם לא קיבלו נוגדנים לתרבות הזאת ודאי לא במערכת החינוך…  אז השעו את הבנים שכתבו את השלטים המחרידים האלה אבל זה לא מה שיפתור את הבעיה  אל תטעו הבנים האלה קיבלו את הרעיונו…  50 ירידה בסכסוכים משפטיים בגירושים ובסכסוכי משפחה 50 מלחמות פחות זה ההישג של החוק שלי ליישוב סכסוכים משפחתיים ב…  🤭  acrionline עד סוף השבוע כל שקל שתתרמו לאגודה יוכפל  החברה שלנו מחולקת בין אנשים שלעולם לא יפנה אליהם שוטר סתם ב… acrionline מזכירים לכן שהיום ובימים הקרובים כל שקל שתתרמו לאגודה יוכפל   מה שקורה עכשיו בבלפור ממחיש את חשיבות… acrionline דמיינו שממש עכשיו אין לכם מזגן הקדישו דקה ו26 שניות מזמנכם לדבר הכי חשוב שתראו בסופש הזה זה הזמן לתרום לאגודה – היום וב… שמחה מאד שהמשטרה החליטה להשקיע כזאת חריצות ונחישות במאבק בהטרדה ובפגיעה מינית עכשיו רק בואו נראו אותה עוצרת את אלה…  GMMivs אגף בריאות האישה יום ראשון בחטיבת הביניים של שני אפשר לזקוף לזכותך סחתיין ככה כתב לי בנדוד ששלח לי את התמונה המשמחת הזאת  ברוכ…  davidhaham בוא נאמר ככה הערים החרדיות אדומות לא בגלל רוני גמזו חלאס עם לחפש שעיר לעזאזל כל פעם מחדש במקום זאת עדיף לטפל ולעשות הכ… YakiAdamker זמן טוב להזכיר היום שבנט ושקד יצאו להרפתקת הימין החדש שכל כך רצו בה בזכות שולי מועלם שבאה איתם אחר כך הם זרקו אותה החוצ… SefyHendler הקבוצה הישראלית נותנת בראש ובישראל אין שידור של הטור אחד מאירועי הספורט הנצפים בעולם הגיוני בסך הכל  אבא של קיפי נפטר המעצב הפורה אבנר כץ שעיצב בתרבות הישראלית אייקונים מרכזיים שאתןם אפילו לא יודעות שזה הוא שעיצב ו…  החלמה מהירה לחייל והשוטר שנפצעו בפיגוע הדריסה בצומת תפוח תזכורת למה שצריך לעשות כאן ועכשיו שלום עם מדינה רחוקה שכ…  תמונה מושלמת  בהצלחה חברות וחברים תשמרו על עצמכןם   שובר לב ומחרפן מזעם כמה עוד צריכות למות עד שתהיה לנו ממשלה שתטפל ברצינות בנשק בחברה הערבית כמה עוד ישלמו בחייהןם  צריך רק לצפות בהתנהלות של כץ בוועדת הכספים כדי להבין עד כמה מה שאומר שאול מרידור הוא נכון התנהלות שערורייתית וחסרת…  אחד הנזקים העצומים של נתניהו לאורך השנים הוא ריסוק שומרי הסף והשירות הציבורי עכשיו כץ מצטרף אליו בענק קראו את התי…  אוי ואבוי לממשלה שהפקידות המקצועית שלה התייאשה מלעבוד איתה אוי ואבוי לנו שזאת הממשלה שלנו ישראל ניצבת בפני משבר ש…  צודקת צודקת צודקת אני קוראת לרמטכל כוכבי להפסיק לחסום את כל הכשרון והמוטיבציה האלה ולהעביר את צהל למיון כח האד…  אני קוראת גם ליו״ר הוועדה השופט בדימוס משה גל לפרסם לציבור את כל הפרוטוקולים של הוועדה ולחשוף את כל הפגישות שקיימ…  אני קוראת לפרופ׳ סטנלי פישר להשעות את מועמדותו לדירקטור בבנק הפועלים עד לחשיפת הפרוטוקולים של דיוני הוועדה לבחירת ד…  שוב אתם עוקצים אותנו  תלמידות ותלמידים זהו בתמונה הבאה את שני שרי החינוך המוטים והמפלים ופרטו מדוע ישנם מי שממשיכים להצביע עבור מי שלא א…  אירוע דקירה נורא בפתח תקווה תנחומים גדולים למשפחת הנרצח יהי זכרו ברוך עוד קואליציה של נתניהו הפילה עכשיו את הצעת החוק הזאת של YuliaMalinovsky שמבקשת להפסיק את החרפה והסכנה בהשחתת שלטים…  moranynet אני עוד לא פיצחתי את זה ולא יודעת למה זה קשור עכשיו אבל מרב מיכאלי ח״כית באופוזיציה ממפלגה לא קיימת מביאה עשרות ומאות אלפ… הראל אל תגיד לי שאני עשיר ויזל  באמת נראה לכם שמנעתם בחירות  כשהמשטרה נדרשת לעבוד אצל נתניהו במקום בשביל הציבור השיבוש הזה מגיע רחוק מאד תפקיד המשטרה הוא לשמור על הציבור ועל…  כל כחול לבן כולל עמיר פרץ ואיציק שמולי וכולם בשירות ביבי נתניהו עמיר איציק אתם כבר לא מפלגת העבודה אם אתם ב…  תל אביב עכשיו אומרות לא  מה אתם מְגַנִּים  חכ נעצר ראש שבכ בדימוס נפצע קצינים בכירים במילואים מוכים  הכל כדי לסלק מחאה לגיטימית לגמרי נגד ראש ממשלה ולעשו…  shaharilan נמצא תקציב לתוכנית החברתיות של משרד החינוך עכשיו עולה השאלה למה הוא לא יכל להמציא לפני חודשיים למה התעללו כל כך הרבה זמן… noalandau כי ״אף35 תמורת שלום״ היה ארוך מדי  טוב שהמשטרה הקימה צוות חקירה מיוחד לבדיקת אירוע שמסתמן כלא פחות ממחריד ומזעזע עוד הוכחה כמה דחוף ליישם את המלצות ה…  על מי אתם חושבים שאתם מאיימים  והנה זה בא יור הקואליציה אומר בצורה מפורשת התנאי להעביר את דחיית התקציב הוא תקציב לישיבות אה וגם לציונות הדתית…  בואו להיות חברות במפלגה דמוקרטית שמאמינה בשוויון לנשים ונותנת לכן עוד זכות הצבעה לבחור את הנציגות שלכן חג 100 שנה…  לכן חברות ואחיות אנחנו עדיין לא יכולות לקחת שום דבר כמובן מאליו אנחנו חייבות להתמודד ולהצביע לא לוותר על זכות ה…  אבל רק מאז שיש לנשים זכות בחירה השגנו וחוקקנו לעצמנו את כל הזכויות האלה ואחרות ועוד יש לנו הרבה מאד זכויות להאבק…  ככה הם אסרו על הפלות ככה לא היו לאמהות זכויות על הילדות והילדים שלהן ככה אסור היה לנשים ללמוד באוניברסיטה או לעסו…  ממש עכשיו מולאות 100 שנה לתיקון ה 19 לחוקה האמריקאית שנתן סוף סוף את זכות הבחירה לנשים  היום קשה לנו לתפוס את זה…  המשבר הזה יכול להיות הזדמנות פז להכשיר עובדות ועובדים ישראלים לענף הבניה ועל הדרך לשדרג ולהשביח את הענף עצמו שהופ…  אין לכןם עבודה חפשו את החברים שלכןם לליצמן כץ ושמולי יותר דחוף להביא עשרות אלפי עובדים זרים מאשר לתת לכןם הכשרה…  ממשלת ביביגנץ על מי אתם חושבים שאתם עובדים  אני גיניתי ומגנה את ההטרדה המינית נגד שרה נתניהו אבל הדיון בוועדה לקידום מעמד האשה הוא לא אחרת מהטרלה של חכיות מה…  רות גביזון היתה יחידה ומיוחדת עולם של ידע וחוכמה של מתינות ושיקול דעת מחויבת למדינת ישראל בכל עצם מעצמותיה ודוא…  zionnenko הנוסחה ״שלום תמורת שלום״ היא לא איזו המצאה חדשה חסרת תקדים של נתניהו זאת היתה הנוסחה להסכם השלום שחתם יצחק רבין עם ירדן ברכות לנו על ההסכם ההסטורי עם איחוד האמירויות הסכמים עם מדינות ערב הם מה שמחזק את ישראל ואת בטחונה לא סיפוח ושליט…  באיחור אפנתי של שני עשורים צהל מואיל לבחון פתיחת תפקידים ומקצועות לנשים צריך לקוות שזה לא ימנע מבית המשפט לפסוק…  הסרטונים הנוראיים מההתעללויות בגן מוכיחים דבר אחד מצלמות הן ממש לא הפתרון מה שנדרש הוא למנוע זוועות כאלה לא לצלם…  עוד לוחמת מגב שנפצעה מאבן שזרקו עליה מתנחלים מתפרעים הקודמת שוחררה משירות בעקבות נזקי הפציעה מיידה אבנים הוא מח…  In these days when the world realizes the power of women leaders we have a real chance for another one Congrats…  בימים בהם מתברר כוחן של נשים מנהיגות קיבלנו סיכוי לעוד אחת כזאת ברכות ובהצלחה ענקית לקאמלה האריס הלוואי והיא תהי…  תמיד מדהים אותי כמה מחליאות יכולות להיות מלים בשירות פגיעה והטרדה מינית לא מקנאה ביצורים האומללים שכתבו אותן אבל…  עוד נצחון לנו במאבק נגד פגיעה מינית  אדם שהורשע בהחזקת והפצת חמרים פדופיליים לא יהיה המפקח על בריאות ילדות וילדים…  הנהגה לא ריאלית שהפכה מפלגה ללא ריאלית מחפשת מקום לא ריאלי כדי לנסות להציל את ביבי שוב הגיוני  היום היה אמור להיות מקודם בוועדת שרים לחקיקה צעד למען מי שנפגעו מסגירת אולמות האירועים רובןם זוגות צעירים שהשקיעו…  כל העולם כולו גשר צר מאוד והעיקר והעיקר לא לפחד לא לפחד כלל  קוראים לזה חוק ההסדרים דרך לא ראויה להעביר במחטף ובלחץ לא ראוי  עם התקציב  דברים שדורשים הליך מחשבה וחקיקה כמו ש…   יש כל כך הרבה אנשים שבשבילןם תלמוד זה שטיינזלץ עדין שטיינזלץ תרומה עצומה לתרבות היהודית והישראלית יהי זכרו ברוך  מפלגת העבודה נחטפה הגיע הזמן לשחרר אותה  אל תחמיצו את הסוף  yanircozin טוווווווווווב מתחילים עכשיו שירשורפלצת היישר מהסטורי של MeravMichaeli שהחליטה לעשות מעשה ולגרום לחכינו לזייף בקול גדול… moranynet הסטורי של MeravMichaeli עכשיו הח״כים בוחרים שירי אהבה וגם שרים אותם צפיתי כבר שלוש פעמים יכולה להמשיך לצפות בזה עוד ועו… talshalev1 תעזבו הכל ורוצו לסטורי של MeravMichaeli  עם רפרטואר שירי האהבה של החכים בביצועים בלעדיים טו באב שמח   זה עדיין לא הסוף ויש עוד מה לתקן אבל זה ללא ספק ניצחון כי ככה זה כשמתייחסים לבנות ובני אדם ככאלה טו באב שמח לכולןם אתמול הצלחנו להביא לשינוי קריטריוני הכניסה לארץ למי שאין להןם אזרחות ישראלית בנות ובני זוג ילדות וילדים אוהבות ו…  זה היה הקש ששבר את גב הגמל זאת אפליה שלא הייתי מוכנה לקבל אז נאבקתי ודרשתי והצקתי וכשלא קיבלתי מענה המשכתי עוד ועוד עד שניצחנו שיש לא ישראלים שלהם פותחים את השער לרווחה   מדינת ישראל ומשרד הפנים אותו גוף שעד עכשיו מנע ממאות רבות להכנס לארץ…  כמויות הפניות שקיבלתי הן אדירות אנשים שממש התחננו שנעזור להןם אחרי שהמדינה ומשרד הפנים רק הערימו עליהןם עוד ועוד ק…  אלפי ישראליות וישראלים מנותקים מבני ובנות זוג ואפילו מילדות וילדים רק בגלל שלא התחתנו כמו שדרעי רוצה זה היה בלתי…  לפני שלושה חודשים פנתה אליי הילה היא סיפרה לי שהמדינה לא נותנת לילד שלה ולבעלה להכנס לארץ כי הם לא יהודים והשמיים…  זה מנשה מנשה לא ראה את תמרה בת זוגתו שחיה בחול כבר חצי שנה כי משרד הפנים לא אפשר לה להכנס לארץ אבל בזכות המאבק ש…  סיעת העבודה היא הסיעה היחידה שלא מיוצגת בכנסת בדיון 40 חתימות בנושא קריסת השירותים החברתיים מול רהמ נתניהו פרץ וש…  הציבור מרגיש שהממשלה מרמה אותו בלי הפסקה במקום לסבסד משכנתאות למי שלא יוכלו לשלם היא נותנת הנחה על דירה שניה ומעל…  זה מה שאמרנו בוועדת הקורונה מהרגע הראשון  צהל שוב תוקף בסוריה והגזרה הצפונית הולכת ומתחממת בלי שום דיון של הדרג המדיני בעניין הקבינט הגדול והנפוח בתולדות ה…  אילו זה היה כל כך אכפת לך היית דואג להכניס את הפעוטונים לאחריות המדינה לפקח עליהם להכשיר את המטפלות לשלם להן כר…  המפגינותים כמובן לא מקבלים משכורת אבל מיקי זוהר דווקא כן רק אומרת  כל מדינת ישראל פתוחה ופועלת במגבלות חוץ מעולם התרבות והאמנות ממשלת נתניהו ממשיכה למנוע מהציבור תרבות ואמנות לא ב…  שאילתה דחופה לשר הפנים אפליה חמורה בהיתר כניסה לישראל היום נודע שהוחלט לאשר כניסת 17000 תלמידי ישיבות וסטודנטים שא…  מיטש גולדהאר ומכבי תא מעבירים לשחקנים מסר חשוב מאין כמותו ניצול מיני וניצול לרעה של כח על קטינות  לא בבית ספרנו…  האקשן כשיש לך בחורות ודברים כאלה זה גם סיבה טובה לבוא אביב בושינסקי לשעבר היועץ של ביבי מגמד במשפט אחד שוביניסט…  בדרך לבלפור אתמול עצרתי באולפן של המטה המרכזי בערוץ 13 כדי להגיד שמפלגת העבודה לא מתה נכון היא במצב קשה אבל אנחנו…  בלפור 2020 נשים גברים ילדות וילדים כולןם באו להגיד לממשלה ולנתניהו  די די לאטימות די לשחיתות די להפקרות די…  מהיוצרים שהביאו לכם במחטף הנחה במס רכישה על דירות נוספות בחוק המענקים קבלו את המחטף הבא שעה לפני כניסת שבת פרסם ה…  בינתיים אני דורשת ממשטרת ישראל למצוא לאלתר את האיש ולהעמיד אותו לדין אף אחת לא צריכה להיות לעולם חשופה לאיום כזה ILpolice לא רק אריאנה לא חוששת כולנו סיימנו לחשוש הנשים בישראל לא שותקות ולא מפחדות אנחנו נלחמות על הגוף שלנו על החיים…  שבת שלום נפגש בבלפור  מהרגע הראשון הסגר על סוף השבוע הריח כמו הזדמנות למתקפה על אורח החיים החילוני עכשיו מסתבר שדרעי  שוב  לוקח את רוב…  michaelit יהההההההההההההה תשעה באב הוא יום לחשוב על מה שחרב ועל מה שאני ממש לא רוצה שיחרב  חשבתןם שחוק המענקים נועד לעזור לכןם תחשבו שוב  ממשלה שבמקום לעצור את העשבים השוטים שמנסים לרצוח שוב משקה ומתחזקת אותם זה מה שמצפים ממכם מצביעי ומצביעות העבודה…  עמיר ושמולי די מה עוד צריך לקרות כדי שתבינו שההשפעה היחידה שלכם מבפנים היא מתן לגיטימציה לאדם מסוכן מאד חברים וח…  זה המכתב ששלחתי היום לחברות וחברי מפלגת העבודה שלי  חברת מפלגה יקרה  עד מתי תמשיך מפלגת העבודה לשבת בממשלה שנותנ…  שמחה שזכיתי לייצג את מפלגת העבודה האמיתית ולהצביע עכשיו בעד הצעתה של חכ רדיר מריח GadeerMreeh להוספת סעיף השוויו…  ובתוך כל המהומה והקושי רגע של התרגשות אדירה שירה האס מהמתת שחקנית אדירה הישראלית הראשונה המעמדת לפרס אמי יההה…  GMMivs בלינשיםבכלל  באיזה עולם אתם מדברים על ״המדינה״ עוד חמישה מפגינים פצועים במחאות ובמקום לעצור את הדוקר וחבריו האלימים המשטרה קוראת לזה קטטה אחד הדברים המפחידים שקו…  ההסתה מבלפור פינת אוחנה נגד המחאות תגמר בדם האלימות נגד המפגינים אמש היא חלק מדפוס הפעולה הנוראי של נתניהו קודם מ…  המאפיה של נתניהו ממשיכה במסע האלימות הפוליטית הפעם מי ששילמה את המחיר היא חכ יפעת שאשא ביטון שכל חטאה היה שעשתה א…  KnessetT חכ MeravMichaeli מגיעה לעניין אישי עם moranynet ומספרת על המחלוקת סביב רצח סבה ישראל קסטנר ואיזו השראה היא שאבה מהסיפור… KnessetT מקסימום יחסים ומינימום בירוקרטיה חכ MeravMichaeli מספרת בריאיון אישי לmoranynet על מודל הזוגיות שלה עם איש הטלוויזיה … OrHeller כל הכבוד לך טוראית ס׳ התצפיתנית מגדוד האיסוף שחף של אוגדה 91 שזיהית אתמול את חוליית החיזבאללה בדרך לפיגוע בהר דב זה תפקיד קש… ״גם אני תוהה לפעמים למה הרמזור אדום״ זה מה שענה אתמול רה״מ כשנשאל למה יש בקבינט הקורונה שלו עשרה גברים ואף לא אי…  אבל זה לא מספיק אני דורשת תכנית ותקציב להצלת התרבות והאמנות מליארד שקל כדי שכולנו נוכל לא רק לשרוד אלא להתבטא ולפרוח זה המקום שבו אנחנו שומעות רעיונות שונים משלנו שומעות את השירים והמוסיקה והמחול שלנו דרשנו היום בוועדת הקורונה מהמ…  להיות או לא להיות עד כדי כך אם לא נאפשר לעולם התרבות והאמנות לחזור לפעול הוא פשוט לא יהיה ואם לא תהיה לנו תרבות…  בוועדת הכלכלה מנסות לברר למה לכל הרוחות מדינת ישראל לא מצליחה לקבל מכיל את התמלוגים שמגיעים לציבור הישראלי מהשי…  הצעה מסוכנת שאסור שתקרה כבר היום השכר המחושב לפנסיה הוא רק חלק מהשכר והפנסיות הצפויות קטנות ולא מספקות פגיעה בהן…  המשטרה בעצמה מודה שלא ידוע בכלל איפה השוטרים נדבקו איזכור ההפגנות בהודעה הוא המשך ישיר של הקו שמקדמים נתניהו ושליח…  akivanovick  אחרי בר סימנטוב וסדצקי עוד משרת ציבור בכיר שם את המפתחות בעקבות פארסת הכשל הניהולי המחפיר של המשבר ממשלת קורונה ע…  נתניהו סמל לגרירת רגליים מיסמוס החלטות וניהול כושל רוצה פורום נקי מנשים בשביל שההחלטות יתקבלו כמה שיותר מהר שמי…  אז זה מה שמדיר שינה מעיני הקיסר הפילוסוף למה הרמזור אדום ובגלל שהוא לא ידע הוא לא עצר בשום אור אדום ולפני אף קו א…  ariyederi בשבוע שעבר שלחתי למשרד הפנים רשימה מפורטת של בני משפחה של ישראליותים שמייחלים לאישור כניסה לארץ ומסורבים שוב ושוב…  michaelit אני רואה פוסטים רבים כותבים כמה זה מקסים שהמורה הביא את התלמידים לתמונה בחלונו של הילד המבודד אבל אני רואה פה כיתה של רק ב… עד עכשיו התמודדנו עם אלימות משטרתית שהיא איומה בפני עצמה עכשיו המסרים של ההסתה והאלימות הביאו אזרחים לדקור מפגין…  עוד דרך של נתניהו להשתמש בגופי הביטחון של המדינה כדי למנוע מהציבור את הזכות להפגין נגדו ולדרוש את הדרישה המוצדקת וה…  ממשלה שמתנהלת כמו מאפיה רק פחות מסודרת זאת ההזדמנות להציל את מפלגת העבודה ממנה  talshalev1 מרב מיכאלי שלכאורה אמורה להיות החכית הכי לא רלוונטית בכנסת הצליחה בשבוע שעבר להיבחר לוועדה למינוי דיינים והיום להעביר הצע… גני החיות המוזיאונים והאטרקציות יהיו פתוחים בסופי השבוע חדרי הכושר והסטודיו יפתחו מראשון בבוקר כולם לפי ההנחיות…  NadavEyalDesk מעניין אותי מה חושבים אלה שאמרו שהממשלה הזו היא הרע במיעוטו שהדמוקרטיה ניצלה שלגנץ אין ברירה שהוא יהיה רהמ ועוד פאטה… חוק הקו לות שנתתם לגנץ ואשכנזי ופרץ ושמולי והלכו לטובת חיזוק נתניהו ורמיסת הדמוקרטיה רונה הגדול נעה לנדאו מדייקת תתרכזו  nivshai מעולם לא הייתה רלוונטית יותר MeravMichaeli ruthelbaz הבנתי שמישהו ביזה את סמלי המדינה ואני לתומי חשבתי שזה נתניהו ruthelbaz כמה טוב שיש מרב מיכאלי בעולם  pelegmichaeli בעלי ההון חשו בהצטמצמות קלה בארנק הרימו טלפון במחלקת השיווק נתנו לזה צבע חיובי קלוש ויאללה לחדשות NitzanHorowitz יש almishmar הצעת החוק לאיסור טיפולי המרה של חברת הכנסת MeravMichaeli  עברה גם היא בקריאה טרומית ברוב 43 תומכים אל מול  35 מתנגדים הצע… Mickeygitzin כבוד גדול ל NitzanHorowitz  וMeravMichaeli על המאבק על אחד החוקים הכי צודקים שיכנס בעה לספר החוקים בישראל טיפולי… Rutshapira השנה היא 2020 ואנחנו צוהלים בגלל שאנחנו בדרך לאסור טיפולי המרה משהו שלא אמור בכלל לעלות על הדעת של אדם בר דעת כל הכבוד N… KnessetT העימות החדש בין הליכוד לכחול לבן בניגוד לעמדת הממשלה כחול לבן תמכה בחוק איסור טיפולי המרה של החכים הורוביץ ומיכאלי בהצבעה… עבר בקריאה טרומית הצעת החוק שלי לאיסור טיפולי המרה הצעת חוק של הצלת נפשות חוק של התקדמות לעבר שפיות חוק שנו…  אני אצביע היום נגד חוק ההסמכה חוק הקורונה הגדול הם קוראים לו הדבר היחיד הגדול בו הוא החרפה יותר מדי סמכויות לממש…  וועדת הקורונה הבטיחה לדון היום בחדרי הכושר והסטודיו המוזיאונים גני החיות ועוד שמחכים לקבל אישור לפעילות אבל הוו…  כל אחת ואחד צריכים להיות חפשיים לאהוב את מי שהןם נמשכות ונמשכים אליו או אליה ואסור לאף אחד לנסות לשנות את זה   בת…  ובכלל באיזו זכות מותר לאדם אחד להגיד לאדם אחר שהוא צריך להשתנות מהיסוד ובכח לבנות ובני אדם צריך להיות חופש להיות…  היום אני מעלה להצבעה את הצעת החוק שלי לאיסור טיפולי המרה טיפולים מסוכנים ומזיקים שגורמים לדכאון ואפילו לאבדנות ט…  אהבה היא אהבה היא אהבה ואהבה או משיכה להטבקית היא דבר נורמלי לגמרי פשוט נורמלי כבר עשרות שנים שהתרבות המערבית מ…  ישראל ממש מוכנה לשוויון מגדרי מי שמונע ממנה הם חקיקה ארכאית וממשלות שוביניסטיות צריך להעביר דחוף חופשת לידה שוויו…  הצבעתי עכשיו בכנסת בעד פתיחת המסעדות וועדת הקורונה עושה עבודה מקצועית ורצינית ופועלת לטובת הציבור בצורה הרבה יותר…  הדילוג על מירב קירשנר המצוינת מקומם פעמיים גם הדילוג על קצינה מעולה וראויה וגם שוב מינוי עוד אלוף במקום אלופה 72…  העוסיותים שובתות כבר שבועות ללא פתרון ומענה האחיות שבתו יום וכבר נמצא פתרון כל ההבדל בין שר חזק מהמפלגה שהיא בעל…  עומק ההזנחה עומק ההפקרה של כל המערכות במדינת ישראל וחוסר היכולת לנהל את המשבר נובע מהעובדה שמאז 2009 יש ראש ממשלה…  נתניהו בשום שלב בכהונתו כראש ממשלה לא דאג למדינת ישראל ולא ניהל את מדינת ישראל את התוצאות של הכהונה הארוכה מדי הזא…  ככל שנתניהו נמצא יותר זמן בכסא ראש ממשלה ומתרגל להיות בעל הכוח הוא הופך את מערכות המדינה שלנו לשרת רק אותו ואת הצר…  בזמן שהממשלה ממשיכה לשחק במי אשם אנחנו מוצאות ומוצאים פתרונות  אל תסכימו יותר אנחנו צריכות אתכן  ואתכם האחים והעובדים הסוציאליים  כי אתןם אלה שמטפלות ומטפלים בחברה הישראלית ואנחנו איתכן ואיתכם</t>
+  </si>
+  <si>
+    <t>sagic AronRabino1 תהיה מקורי לפחות AzoulayHana זה לא האמיתי זה בגלל שליחות של תן ביס ShefDoron manuelbaz לא כי וייל סמית AronRabino1 מניח שנתניהו יודיע היום על חקיקה מזורזת כדי למנוע מקרים כאלה  אה לא ChasmanShachar כבר חתומה לשלוש עונות אני אחרי ששליח של וולט מנסה לפצות אותי על איחור עם הפיצה  gershuni filbers דהיינו מתקפל manuelbaz זכות ובקיצור מזל טוב GuyLouzon filbers עיתון manuelbaz את קולטת איזו זכות זו שנולדת באותו חודש בו נולדו ירדנה ארזי ו׳יל סמית ונדב אבוקסיס filbers אבא שלי בשבתו כמזכיר המפד״ל בחצור יותר מ30 שנה קיבל כל בוקר הביתה עיתון הצופה כשהוא מגולגל בצורת בגט gershuni filbers רוצים לעשות עליי שידברו איתי בדולרים filbers תסגור את עיתון הארץ ולימניים לא יהיה מה לקרוא gershuni filbers נכון אבל גם נגד לעשות עליי פיילוט filbers הלו שלמה אני קורא הארץ למה ככה DoriaLampel נגנב ממוזיאון הלובר RonelAdani נבלים ברשות התורה RonelAdani IritLf למה להדליק סתם אני כבר חצי שנה לא מתפרנס מכלום RonelAdani IritLf היא בטוחה שהיא באינסטגרם RonelAdani בדוק זה בבלפור matanamirr כל הארץ ככה וזה מרגש עד כדי שהלוואי שכל שנה תפילות כיפור יהיו בחוץ mohammadkabiya MohamedBinZayed עזוב זה מנהיג זה לא עוקב אחרי אף אחד זה עוד יגרום לסכסוך עולמי  shimonliberty הוא ככה תמיד לפני הצום בסוף הוא מתרכך סתם עצבני עד סוף הצום הוא מתרכך עליי  deanarielmd הכי אהבתי שלא שכחת את ההאסי  omrifeinstein אתה לא שוכח אותי בדיוטי של דובאי לא הבדיחה של נתב״ג כן omrifeinstein יש מצב שזה נסיך מדובאי לך על זה nnnnaa deanarielmd עכשיו שם את השיר באפל מיוזיק nnnnaa deanarielmd איזה deanarielmd מקסים ויפהפה  כל צילומי הרחפן עושים חשק לגור בשמיים  הכי כואב על המשפחות של השוטרים שלא יחגגו את הסגר יחד השנה MottyFarangy אאוץ׳ amirayelet ששש אל תפריע להם DavidSaranga vladutv Digi24HD AdiHadean Peschetta שמע סחתיין על הרומנית לא יודע אם attilus אפילו מדבר ככה…  KalmanLiebskind אתה המצפן שלי DavidSaranga vladutv Digi24HD AdiHadean Peschetta נראה כמו ארטישוק ירושלמי אבל אצפה ב2100 זה בטח עדיף על חדשות vladutv DavidSaranga Digi24HD AdiHadean Peschetta איפה האוכל kaisos1987 zviashkenazi תודה יא חביבי DanaYarkechy zviashkenazi  lilacsigan kbeladev zviashkenazi תודה לילך alisaripel zviashkenazi לא לא איזה פוליטיקה איזה HaimJelin zviashkenazi אתה איש יקר תודה חיים איפה ימים שלא היתה קורונה והתעסקנו רק בקסאמים ואש בעוטף  talialin zviashkenazi תודה טליה Reut21918544 zviashkenazi העיקר שאתם אוהבים  EfratFinkel zviashkenazi תודה רבה kbeladev zviashkenazi תודה יא קובי זוכר אותך מההופעה אצל תומר  עוד נשוב  roeep86 תודה רבה אחי idanviezman תודה אח שלי מביאה אחלה חומרים רק מול מי נעשה אותם  NirKipnis zviashkenazi בדיוק AfekAlon zviashkenazi תודה אחי זה לא אני זה השנתון שלנו שאחראי לזה Meravbenari zviashkenazi  yosefyisrael25 zviashkenazi ממש לא אבל תודה אחי mohammadkabiya Hakufsah תודה יא עאמי moriamalka12 SharonaMazalian Hakufsah  issacharoff shnaiderman אתה אומר מברוכ ואני מחפש אנשי שב״כ סביבי תודה יא אחי moran56049995 zviashkenazi תודה תודה אחי SharonaMazalian Hakufsah אינשאללה תודה בשנה הבאה עונה חדשה של טהרן חוגגים בטהרן יחד perezesty Hakufsah תודה רבה חברה  RimonRan עד שהגיע גנץ ונהיה רמטכל במקומי shnaiderman וכן גם ברשת הקשה הזו יוצאים לא מעט סיפורי חברות shnaiderman תודה חיימייייי Hakufsah תודה לעמוד האהוב עליי ifatyakobsonpr Ayeletnnv zviashkenazi אחפש אותה היום mottyn תודה יא צ׳ארמר ifatyakobsonpr Ayeletnnv zviashkenazi חחח ifatyakobsonpr Ayeletnnv zviashkenazi תודה תודה לזו שעשתה עליי כתבה בפנאי פלוס לפני כמעט 20 שנה כשהיו לי בטוויטר בקושי 10 עוקבים Ariav השאלה מה ישאר Abutir omerbabai שתוק zviashkenazi תודה תודה ברכתך ברכתנו אבל למה לעזאזל התמונה הנוראית הזו למה antoineeliaroni יש אפילו גייז Abutir omerbabai איך אתה אוהב לקדם את הטור שלך אצל אנשים עם השפעה omerbabai בדיחות מתרומם זה התחום של Abutir GitelmanDima יש פה פתח תקוואים שפותחים עין לא לעניין avrimusic פיקוח נפש avmeridor asaflib אני מאוד לא אוהב את ההסתה שלך נגד אנשים שעושים את עבודתם בתקשורת htyaniv דקה לפני שאני בן 49 נתקפתי חמלה אנשים טובים חיפאי לפני סגר עם 25 עוקבים  תעשו מצווה ותנו לו עוקב תראו לחיפאים שאכפת לנו  YairNetanyahu ivgiz יופי לכם בסוף אתם תשכבו ואני אשב לבד בסגר noamfathi אם היה מתפטר לפני שבוע היה מספיק להיכנס למצעד השנתי avmeridor asaflib אתה לא רווק asaflib כמו איזה שני משוגעים michaelzil odaskal אבל להם אין שלום עם אבו דאבי amitsegal גנץ ביקש קצת זמן כדי להשתין ואז להיפגש EliPahima ivgiz YairNetanyahu כל עוד זה לא בבלפור זה מותר ivgiz YairNetanyahu איתך נראה לך יש לי כוח לעבור את כל מעגל האבטחה בבלפור ivgiz YairNetanyahu אבל הבטחת לי ivgiz לא זה פיפי GLZRadio gantzbe moriahasraf והתמונה של גנץ מה נסגר איתה מסוג התמונות שאתה אומר לצלם ״תיזהר להעלות״ shnaiderman זה יעלה לכולנו dasides וכמה אתה חושב שאני מקבל עבוד ציוצים לא פחות מ1000 לציוץ שמגיע ל1K shnaiderman כמו בלוטו בארצות הברית חילקו לי את הסכום ל20 שנה עם כל הביקורת על התנהלות הממשלה תודה לאל שנכנסים לסגר הזה אחרי שקיבלנו את ה750 שקלים Rereshef Abutir ישר כשעלה הדב לשיר אני ידעתי שזה עודד בן עמי Nehoray81365797 YuvalKarni sbyifat עוד חבר כנסת או שניים מחוץ לקבוצה ואנחנו ממגרים את הקורונה YuvalKarni sbyifat זה נראה שבליכוד עסוקים בעיקר בלפתוח קבוצות וואטספ talialin מה זה פה גבעת התחמושת chaimlevinson בבחירות הבאות אני מצביע לך sefiova Israelkatz תהיה חזק תתכונן לזה שהחל מהערב  אתה נציג השמאל הקרן החדשה בעצם עזוב chaimlevinson עושה את זה יותר טוב ivgiz אז זה אורי תירוש  ivgiz בושה ילד קצת הפריע לשיעור בגלל זה לשלוח לו חמוש שינתק אותו מהזום doronaviram YehoshuaYosi 12 זונות kenegozi yakhinzik YehoshuaYosi 1989 לא הצלחתי לקלוט מה המפקד אומר אתה מדבר איתי על קליטה של סלולר yakhinzik YehoshuaYosi והרבנים שחטפנו בקבטייה הם חטפו סוכריות טופי amihai72 YehoshuaYosi בושה YehoshuaYosi פעם קראו להם כוסיות ובצדק BenCaspit YehoshuaYosi haimslutzky זה רק כי נכשל בגיבוש YehoshuaYosi לא הבנתי למה גדוד 13 לא עובר לחיל נשים akivanovick דעה למי אכפת איפה ואיך שרה נתניהו עושה כביסה שתשלח מאה מזוודות מדי חודש לאיזו מכבסה שתבחר ברחבי הגלובוס הרבה יותר חשוב… צרפת או שוודיה בדוק  OfirRichman NoaShpigel בוא נאמר ככה אם המצב יצריך הפגנות גם כשיהיה אסור צריך להפגין כרגע במצב התחלואה כשחיילי…  OfirRichman NoaShpigel קטונתי אבל לא עכשיו אפילו כמה מנהיגים מהשמאל ביניהם עופר שלח הודיעו שבשלב הזה עם כל ה…  dasides אתה יודע שיש מסיבות אנדרגראונד בתל אביב כבר כמה חודשים שלשום שמעתי והייתי בהלם ושם לא נדבקים  לגבי רשי…  Orengerman לכולם שנה טובה OfirRichman NoaShpigel אז אולי זה הזמן של המפגינים להחליט על דעת עצמם לא להפגין ובכך לא לתת לו את התענוג לחוקק את זה dasides מעולם לא טענתי שהם הבעיה המרכזית אני אומר שיש הדבקה בבלפור נקודה אין מצב של התכנסות של אלפים של אלפים…  ShuliMR שולי תתפללי חזק תתפללי הרבה כי ממני לא תבוא הישועה  Orengerman לא נתתי שום תחמושת לראש הממשלה הוא לא צריך אותי בשביל פרופגנדה יש לו מספיק אנשים שעושים את זה מצוין…  dasides ראיתי נורא זה למה ניסו את תכנית הרמזור וזה לא עבד כי ישראלי לא יכול לראות ישראלי אחר חוגג כשהוא מטר ו…  NoaShpigel ואנשים יוצאים מהבית לים כי הם רוצים להתאוורר ולמשפחה כי הם רוצים לראות את ההורים ולבית הכנסת כי הם רוצ…  Orengerman במצב התחלואה הנוכחי אין מנוס מסגר אומר לך את זה אחד שנפגע מזה קשות שלא קיבל שקל מהמדינה שכועס על ההת…  Orengerman לו היתה הפגנה של חסידי גור ערב ערב ושוטרים היו אמונים על הסדר מניח שגם שם היתה הדבקה וגם אז הייתי מביא את אותה דוגמא koderius ובלי ריחוק koderius רק לא בנטפליקס תן לסיים כמה סדרות ואחכ לא אכפת לי שיגעו גם בסדרות ההודיות JoshBreiner אתה חייב קצת אינסטגרם מדהימה ההתעקשות הזו של מפגיני בלפור לטעון שאין שם הדבקות יש מקום בלי הדבקות יש הדבקות בים בבתי ספר בתי כנסת יש…  ebatman1 איך אני אוהב לחסום אנשים שקוראים לי אפס BokerIris הולך לפינה בתקווה להשתפר gontarzn שמע אני שומע יותר ויותר על אנשים שנחשפו לחולי קורונה ולא קיבלו שום הודעה פשוט החליטו על דעת עצמם להיכנס…  gontarzn הרבה יותר מזה שלא לדבר על זה שכשאתה מפקד אתה נפגש עם יום יום שעה שעה עם שוטרים שהיו בשטח גם הם נדבקו oferjos נמוך זה עדיין מדבק אם סגר אז לכולם דיו אחד לכולם למתפללים למפגינים ולבליינים אם לא בהצלחה לכולנו gontarzn arielplaksin1 בטוח בהרבה אין ספק כשאתה בהופעה ויש פקחים שעוברים בין קהל ומוודאים שאנשים עם מסיכות אז…  debkob1 הפתעתי מה יש פה להפתיע למישהו בכלל יש ספק שנדבקים בבלפור כמו גם בחופי הים בבתי כנסת כמו בכל מקום…  BokerIris לדעתי הוא נדבק מהתקופה ששירתנו יחד בצבא רק היום התחיל לפתח תסמינים HagayN מהטוויטר YasmineGil אמרתי לו לא קיבלת את החיסון של מפגיני בלפור  אמר לי אין לי קשרים תבדוק לי BokerIris לדעתי הוא נדבק מההפגנה של הילדים לפתוח את גני החובה debkob1 כזה אני BokerIris הוא נדבק מביבי בדקתי עכשיו gontarzn יגיע yarivop יריב תביא לנו כבר את החיסון שלכם gontarzn מה אתה טוען פה בעצם שבין המפגינים אין חולים  שבין המפגינים לא חלה הדבקה  הבנאדם עובד 247 בבלפור כמעט…  Ariav אתה יכול לתת לי את החיסון הזה שיש לכם נגד קורונה חייב אותו רק לחגים ומחזיר לך הרגע דיברתי עם קובי יעקובי מפקד תחנת מוריה חבר מהצבא אח נדבק בקורונה סליחה לא נדבק חולה חום חולשה כאבים…  davidhalevi Yossieli לא 8200 ruthelbaz כי לא מצאת חצאית מקסי Yossieli כפרה על קובי חבר שלי מגולני אין כמוהו ruthelbaz בטח בגלל חצאית קצרה מידי AvrahamBoimel ivgiz אפשר גם להרוג אותי בעונה שניה ולהחזיר אותי בפרק האיחוד זה כבר פרק איחוד מושלם AvrahamBoimel ivgiz למה לחכות עד לפרק האיחוד כדי להדיח אותי ivgiz לא אכפת לי גם 10 עונות רק בבקשה בלי פרק איחוד shnaiderman GuyGold3 רק הוא נשאר לנו כרגע GuyGold3 shnaiderman כמו שזה נראה כרגע אפשר בשקט להוסיף ומהשנה הקרובה קלל במשטרה מודים אם המצב יחמיר נאלץ להורות לשוטרים במחסומים גם לעצור מכוניות ולשאול נהגים לאן הם נוסעים ראש הממשלה צלצל לנדבק ה200000 והעניק לו מכשיר הנשמה במתנה KnessetT חכ AyeletShaked תזמנה שעה וחצי מתל אביב לירושלים בתגובה לטענותיה של חכ מyeminaparty על מחסומים מיותרים בכבישים אמר יו… origra92 N12News inbartvizer רק שלא יגייסו אותי ZiatMoshe azironen N12News inbartvizer הלוואי Ariav N12News inbartvizer ברור ZiatMoshe N12News inbartvizer רוב המתים היו חולים קשה רגע לפני מן הסתם N12News inbartvizer נראה לי די הגיוני שחלק מהמתים היו חולים קשה מה שמוריד את מספר החולים ומעלה את מספר המתים RonelAdani moransamun TzurMaor שנה כיוןן TzurMaor מצפה שזה יפתח מהדורה RonelAdani moransamun TzurMaor אז סתם אמא שלה נכנסה לכלא TzurMaor בהמשך נטלי דדון מגלה שהחומצה ההילוארונית שדחפה לשפתיים זו חומצה שבכלל מיועדת לשטיפת רצפות דמוי פורצלן לא שיש ChenSror ורק לי מפריע שהיא כתבה ״יהיה זו אות קלון״ orenankava ברור ItayBlumental shushanavi מטופל קל עד 15 דקות לא ישלם על חנייה ItayBlumental shushanavi משפחות לא היו מוצאות את המאושפזים החולים yesnomabyyes judash0 שלא תדע קבוצות judash0 בקבוצה של הילדים יש את ברבש הבת eladrosenfeld judash0 בכינים judash0 עשו לי את זה קבוצת הגן של הילד עצוב HillelSommer אני הגעתי לשלב שאני מביא להם סירים yossidavidov10 מה לגבי דוחות חנייה ומי ששכח להפעיל פנגו dovikco בושה kaisos1987 המדינה הזאת מאוהבת בפיצוצים ועשן CynicalDe איפה חשבונית אני עם ההורים עובד שנים רק בשחור Jeremlib ראיתי שוטרת משחק ״טום החתול״ Pitzynivly אוסטרו הונגרים PinkPantherIL המחסום הזה ספציפית זה התרעה על חשוד בנסיעה לחוף בית ינאי בלי סירים לראות את השוטרים פרוסים בכל המחסומים דוקרנים על הכביש כאילו עוד רגע יקבלו התרעה על מכונית חשודה של אנשים עם סירים על הברכיים בדרך להורים PBeinish roysharon11 זאת אומרת PBeinish roysharon11 זרת אומרת סאממק PBeinish roysharon11 סאמר התיקון האוטומטי roysharon11 מעניין שההודעה שלך יוצאת בדיוק יומיים אחרי קלמן שלושה אחרי עקיבא ויום לפני יאיר הבן אם תיקח את כל הי…  BarashiKinneret שלא כמו ביבי טועה ותמיד מתנצל אה בעצם maormaz netalishemtov הפוך גוטה אם יש מישהו שדאג ועדיין אכפת לו ממי שנפגע בכל הכאוס הזה זו היא netalishemtov ככה תמיד רציתי שיתחילו איתי ראיון hunyuc netalishemtov לא לא מעבר לתחזיות בהתאם להגבלות לרגעים הוא היה נשמע לי כמו מרים בנימיני shaharamano Thioret תוסיף את הדוגמא האישית שלא קיימת בסביבתו דבר שגרם וגורם לציבור לא להקשיב לו netalishemtov אז תביאו אותי netalishemtov שאשא עושה את עבודתה נאמנה ומייצגת אותך ואותי וכל אחד אחר שואלת שאלות ולרוב לא מקבלת תשובות כי הכל…  Thioret shaharamano לשים את פרופסור לס יחד עם יפעת שאשא ביטון ובנט זה שקר הוא טוען משהו אחר לחלוטין ואני אגב מ…  duduassor אני לא מתלהב מחיבוק של התקשורת זה הוכח כמעט תמיד כרע לחברי הכנסת אבל היא עושה את עבודתה ברבש גם נתן ת…  duduassor קוראים לזה לעשות את העבודה יור ועדת הקורונה שואלת בודקת מקשיבה  ברוסיה היא אמורה לשתוק hebmeme מסכים אם כי זה התבקש הפעם דבר אחד טוב בגל הזה לעומת הגל הקודם אין מחסור בביצים  GLZRadio glicksh למי זה לא קרה HauserTov בתקופה האחרונה עברתי כמו לא מעט להופיע לכל מיני חברות בזום כשהגיעה הצעה להופיע מול אינטל הבנתי שזה לא…  koderius moshenayes zoharm7 או באומן זזה הכי קרוב לאומן</t>
+  </si>
+  <si>
+    <t>attilus אטילה ידידי הטוב החיים לא פשוטים אני קורא אותך למרות שלמול שלך ב ynet קוראים נוני מוזס אני מקשיב מדי פ…  לא היה שום תיק נוסף ערב מינויו של AviNissenkorn היועמש ביקש מהמשטרה לוודא שמאז הסגירה בינואר 2019 לא התווספו חומ…  תיק AviNissenkorn נסגר בינואר 2019 הודעת הסגירה אכן נשלחה אז למתלוננת Syechimovich על ידי המשטרהאבל שלי טעתה מ…  2 אתם יודעים מהזורם איתכם סתם חוסר רגישות של מנהיג ציבור אבל איש מהמגיבים לא התייחס לטו באב שמח לכולכם וכמה…  לכל המקללים מימין בא אדם לעיר ההריגה ובמקום להגיד  באתי לגנות את הנבלה שנעשתה כאן פותח ואומר פורים שמחבפורים יה…  זוכרים את הפורים שמח של חנן פורת אחרי הטבח של גולדשטיין במערת המכפלה פורת התנצל אחכ ואמר שמדובר ברצח נתעב איזו…  נכון לגמרימהלך הזוי  אמנון Amnonanewsdesk ידידי אני יודע כמה כוחות נפש צריך מול החלאות האלה תהיה חזק ותשמור על עצמך חברים בשמאלתרגיעו אברי גלעד avrigilad צודק לא חייבים להסכים איתו בכל אמירה בסכסוך הישראלי פלסטיני אנחנו שם קמ…  LiadMudrik ‍הכי הכי עמית amitsegal ידידי כשאתה מצייץ שזה נגמר בבגצ 81 כי ישבו שם 8 שמאלנים לך עם זה עד הסוף כלומר לפני חמישה שב…  אני מה קורה נכדי בן העשר הכל סבבה סבא חוזרים לשיגרונה אניבלב אלהים שמור לי על האלתרמן הקטן הזה מאמר חורך לב של רוגל אלפר הבוקר בהארץ  BenCaspit אכן תחקיר מדהים avishaigrinzaig amitsegal MakorRishon GLZRadio כן גרינצייג וזה נדחה על הסף על ידי כולנו ובראש וראשונה עי מפקד גלצ כבר לא חיילקוראים amitsegal  הכל נעשה בשקטבלי הדלפות מתוך הבנה לכאב שלו נזכרתי בזה אחרי שקראתי את הכאילו תחק…  השנה היא 2005 התנתקות גלצ כמובן בשטחכתב צעירכבר אז מוכשר כשד חוזר מגוש קטיף על סף בכי ומבקש לשחרר אותו מכיס…  תחרות האגו הזו נחתה עליכם טוב gantzbe netanyahu  לכו על ממשלה רזה 20 שרים תיפטרו מכל הטרמפיסטים מוסף סופש של מעריב הוא העיתונות הכי טובה של סופי שבוע אף אחד שם לא חבר שלי לא BenCaspit לא ehudolm  ובטח לא…  הסכם מסריח barakehud  היום בהארץ בין השאר הוא מקונן על האימפוטנציה של בגץ  מי שלא עמד להם כוחם איך יעמוד…  איטליה21 שריםגרמניה16צרפת18 ארהב16 קבועים פלוס 4 מזדמנים למשל השגרירה באוםדנמרק25 ספרד22ניוזילנד20…  לחברי וחברותי בערוץ 13איתכם לגמרי RavivDrucker  NadavEyalDesk  aviadglickman  tamarishshalom baruchikra…  לפני החתימהתעצרו את זהיש לכם רוב עצום בכנסת ובציבור לממשלה רזהגג 20 שרים חשבון פשוט 30 שרים ומעלה זה אומר למעל…  מתחיל להיות שם צפוף מתחת לאלונקה ממשלת חירום למעלה מ 30 שרים חוק נורווגי נפלתם על הראש מאז אמש אני מפזם לעצמי את מה שדקלמנו בילדותנו     אב ר הם  אל תלך לשם כי הזאב יאכל אותך הם אלי ישראלי יקירי דש למעלה אין ברירהממשלת חירום לזמן קצוב גנץ רוהמביבי ממ העברת חוק שגם ממ כמו רוהמ אסור לפטר גג 18 שריםהורדה דרסטית…  תודה רבה  מי  הטוקבקיסט שמנסח את ההודעות של יד ושם פוליטיתהרב פרץ קבר את עצמו בסוף השבוע ב 2023 מתפנה משרת הרב הראשי הספרדי לך על זה ככה להדיח את ברדוגו לא חראם  שאלתי פעם את TzachiHanegbi   אם אמא שלו כמוהו שינתה את דעתה על חוזה השלום עם מצרים הוא אמר לי השתגעת בעיניה…  לא מתווכח עם ברדוגואין לי עניין רק הערה קטנה אחתלמה בוער יש יותר מאזינים מאשר לתכנית שלו זה על פי כל הסקרים כ…  Oh Mighty Caesar Dost You Lie So Low תרגיעוamitsegal סגר מדפים גם כשקיבל כסף ציבוריגלצ וזה היה בסדר אז וגם היום אם ליאת בן ארי היתה מבטלת את החופ…  עמית amitsegal יקירי אני מבין שכשאתה יוצא לחופשה מדי סופשבוע גם כשהמדינה מתהפכת זה ממש בסדר כי זה במצוות שמיא כ…  זו מכה לא קלה בכנףסוף ציטוטעכשיו תתווכחובלי התיווך של הגורה של Riklin10  הבוקר אמרתי השמאל חטף ביממה האחרונה שתי מכות בכנף הפרישה של Syechimovich היא עוד מכה לרעיון השמאל הציוני והמכה…  ליעל YaelDan1 ולרינו RinoZror   חיבוק גדול עמית amitsegal ידידי רשימה חלקיתרק אלה שהצליחו לרצוח ולא אלה שמוכרים לך שרק ניסו ישראל לדרמןאלן גודמןדוד בן…  קראתי במעריב סופש ראיון של BenCaspit עם נשיא מכון וייצמן דניאל זייפמןיש תקווה קובי מידן סוכן תרבות kann עשה לי צילום רנטגן בסוף השבוע מדקה 3800 מוזמנים   בתגובה לחדשות 12 גבי אשכנזי אומר לי הכל שטויות אוסף של רכילויות כדי שהתמונה תהיה שלמהבגין תקף גם את אהוד ברק barakehud על השתלחותו במנדלבליט בני בגין בהתבטאות חריפה נגד netanyahu  רוהמ מבצע התנקשות בשלטון החוקהוא הופך את היועמש לאיש רופסצעצוע של השמאל הבוקר בגלצ הוא amitsegal מנסה להלבין את הכהאניסטיםכתםאבל אם להשתמש בלשונו הציורית של מישה חשיןתגדע היד של מי שכינה אותו היטלר YoavNews1 BarakRavid תגיד יואב יכול להיות שזה ש AyeletShaked מנועה מלטוס במטוס רהמ זה בגלל שהיא לא עברה תחקיר ביטחוני בעוד כמה דקות ב מהבוער איפה אביחי מנדלבליט ואיך אנשי netanyahu מצליחים לטרטר אותו  JusticeGov סיימתי לקרוא את GabbayAvi  ענייניחף מפומפוזיות בלי אכלו לי שתו לי הוא לא יהיה ראש ממשלה משהו שם התפספס אבל הוא איש על הכייפאק הדס שטייף hadasshtaif לא לבד בסיפור הזההכל נעשה בליווי צמוד של המשטרה והפרקליטותכל גלצ מאחוריה חוץ מכמה מגלגלי…  הרמטכל הפורש על נסראללה על המנהרות על גדי גדי תיזהר ומתי הוא בכה לאחרונה הבוקר ב900 מהבוער  שום מפלגה חדשה ושום נעליים כמה עוד ניפול עד אפריל לקשקושים האלה נמאס לו לחכות עד אפריל נוח בשלום איש יקר יונתן אוריך יועצו הפוליטי של ראש הממשלה בתגובה לשיחתנו בתכנית על בן כספית  יום טוב לתקשורת החוקרת RavivDrucker ימשיך להלום בערוץ הממוזג יוסי שריד היה מתקשר אלי באישון לילה  שיפר שוב הלםהייתי אומר לו יש לו משהו שאין לך וליהוא מדבר עם לילי שרון בהונגרית שש שאפו עוד חוזר הניגוס כשהיתה בכנסת יוליה שמאלוב ניסתה לסגור את גלצמי שניהלה אז את הקמפיין גלצ סכין בגב החיילים היתה…  עשיתי כמה בירוריםגם אצל אנשי לוינסקיLeviYonit לא חרגה משום סיכום והשאלה שלה הייתה לגמרי לגיטימיתיחד עם זה ההזמנ…  אנחנו הנערים של שנת חורף 73 פרק מבכיאחוזר בי מההערכה שזה יהיה ארסי כלפי גולדה RavivDrucker נהיה סנטימנטליזה מוסיף לו לווית חן חושד ב RavivDrucker  שהוא למד לחבב את לוי אשכוללא לדאוג בשבוע הבא בפרק על גולדה הוא יחזור להיות ארסי אתמול בשעה הזו צייצתילעת עדנתו הייתה לו עדנה חוזר בי לעת עדנתו היתה לו בלות לעת עדנתו הייתה לו עדנהגם הודה שרואנדה זה בלוף וגם סידר לעצמו עוד 18000 ליכודניקים בבוא היום סחטיין דבר ראשון בבוקר המאמר של baruchikra בהארץחובה האם הוא מצפה שיזמינו אותו לטקס העברת השגרירות לירושלים ואם כן האם יבוא DanielBShapiro ב מהבוער מיד לדוד גרוסמן אין יפה מחגך הצנוע יונתן גפן חברי כאח לי  פישל אל תיגעו באנה פרנק ואחרי זה הכבש השישה עשר ישאר הרבה אחרי איווט שר הביטחון יהיה…  AssenOmri uribreitman razibarcay על מה מדובר רזי איזה עמרי עמריישבתי עם רינה כשראיינו את עופר שלח ואמנון אברמוביץ ואילנה דיין הייתה שם ביקורת ענייניתההשתלחות שלך ברינה היא במילה אחת פויה בכנס סבן נזכרתי מה שקיסינגר  אמר עלינושאין לישראל מדיניות חוץ רק פוליטיקת פנים למה נזכרתי כי זה מה שקורה עכשיו לאמריקנים הם נהיו כמונו האוזניים והמיקרופון של האיש הצנוע הזה היה שלום מיקי גורדוס יקר netanyahu אותה שיטה אותם שקרים אותו עיתון ואותה עורכת דין אף אחד לא קונה את התרגיל המשומש הזה הנה התגובה שידיעות צנזרו  AlfiGuri ייפרד הבוקר מכם ממהבוער וממני יחסינו מוצו רמז זה לא קשור לפוליטיקה זה קשור לשחמט הבוקר במהבוער הצוללות והר הבית המפכל לשעבר קראדיניצב ממזרחי פרקליטו של צייניאלקיןגבאי דרוקר ומה כתוב באתר משהחוץ על זכויות גייז רינה מצליח ואני הבוקר עם איילת גבאיאשתו שלעם יור הקואליצי  דוד ביטן ועם הצוללן רביב דרוקר AlfiGuri  ואני בודקים הבוקר מי יהיה  המודח הבא במפלגת העבודה menachemho ואני הבוקר עם שני שרי משפטים שקד המכהנת ופרידמן הקודם תשע בבוקר מהבוער BismuthBoaz ואני הבוקר במה בוער על חוק הגיור מתווה הכותל וכמובן שלדון וביבי בדרך לאבו חסן LiorSchleien קפץ לאולפן מה בוער מתחילים בתשע מהבוער מישהו משתמש בשמי כדי ללכלך על Danmargalit מתחת ידי לא יצאה שום אמירה ובוודאי שלא מכפישה על אודות פיטוריו היום אני עם RMatsliah  במהבוער ואשאל אותה מה גיבריל רגוב אמר לה בעברית ואז גם מה אמר בערבית הבוקר במהבועראיילת שקד זהבה גלאון זאב אלקיןלמה השגרירות עדיין בתא 40 שנה לאסון הנד מראיינת אורחת יפעת ארליך אצל AlfiGuri  ואצלי ב מהבוער  הבוקר naftalibennett   TzipiLivni  ואב שכול שחטף יריקות מכנופיית הצל ביום הזיכרון אני וברוך קרא baruchikra הבוקר עם אהוד ברק על התאגיד ועמונה וכל השאר תשע בבוקר גלצ GLZRadio פסטיבל כאן  כאן  הקוקיה שמות חדשים לתאגיד שחוסל אין להם בושה אני ו RMatsliah  הבוקר ב מהבוער עם ישראלים שמצפצפים על אזהרות מסע ועל אלימות בבתי חולים ובתי הספר עוד מעט בראיון שערכנו עם regevmiri  במהבוער השרה אומרת לא מוכנה שהתאגיד יהיה גלגלצ 2 GLZRadio בתשע KerenMarc ואני עוזרים היום לנתניהו לחפש שם חלופי לתאגיד תנו לנו רעיונות מהבוער אריה דרעיאורי אריאלכתבים מבייגין הכל על כאן הקוקיההבוקר במה בוער גורי אלפי AlfiGuri ואני הבוקר על ציוצי רוהמ נגד התאגידעל יגאל סרנה ושיחה עם שר הבריאות על האלימות ליאור שליין LiorSchleien  הבוקר מראיין אורח במה בוער סכין בגב האומהיהיה אחלה תודה על האיחולים גורי ואני AlfiGuri  נדבר היום על חקירות רוהמ ועל העומס של שופטי העליוןוכמובן תשובה לקשקושי הרב על שירות חיילות בכל זאת הגעתי למרות הכל מהבוער</t>
+  </si>
+  <si>
+    <t>ik300 לא הוא תבע את פייסבוק וכמה אנשים שלטענתו הוציאו עליו שם רע מבחינה מקצועית AvishagZofi התביעה הייתה על זה שהוא טען כי הם שיקרו שהוא סיפק להם שירות גרוע ודירגו לשווא את הדף שלו בכוכב אחד וש…  כשאנשים אומרים שירושלים כבר בנויה הם שוכחים שכל עוד מקום המקדש עומד בשממונו  ירושלים עומדת בחורבנה כאדם שהכיר את הלל אריאל היד לא אשכח את המילים האלה לא אשכח ולא אסלח  428151216  מעציב מיליוני בני אדם צפויים לחיות  JoeBiden MaheshC15143297 Are you a communist droriboaz מספר הטלפון שלי מופיע פה בבירור droriboaz משמח שיש לך צילום מסך עכשיו תחסם droriboaz אנשים כמוך אני לא מתכוון להכיל תתבייש לך תוך כדי התעופפות מהפיד שלי droriboaz מה אתה אומר חמוד אתה מאיים עלי לך למקומות אחרים ושחרר אותי מנוכחותך המטרידה כאחד שהכיר טוב את הלל אר…  droriboaz מה התירוץ שלך לעובדה שאתה אפס מאופס אדיוט שנמצא בחוסר מסוגלות לגנות רצח של ילדה בת 13 שנשחטה במיטתה  א…  freyisrael1  BiniAshcknasy אם זה פראייר איך תתייחס לזה שאני מחזיק באזרחות שוויצרית BiniAshcknasy לא עוזב את הארץ תמורת שלום בהולנד מתכנסים לקראת סגר שני ומטילים הגבלות לאור העלייה בתחלואה במדינה הכל בגלל נתניהו נכשל בניהול הקורונה  MosheYonatan1 רומז על הפרק של המירוץ למיליון מהערב נהג מונית באמסטרדם שלא יודע איפה זה מוזאומפליין זה כמו נהג מונית בתל אביב שלא יודע איפה זה כיכר רבין התמונות המזעזעות של הפרות הנחיות הקורונה ההמוניות מבני ברק הן תוצאה ישירה שההפגנות לא מוגבלות  יש דתיים וחרדים שי…  Sagidolinski א כתבת חצי עם  ב יהיו בכל מקרה עשרות אלפי נדבקים Sagidolinski מי ששמר על הכללים לא אמור לחלות והרוב שמרו Ydzj9iSSCgqP41p 4 שעות ערבית ותפילה מ6 עד 19קצת אחרי רק אזכיר לנשיאה חיות שהשורות המצורפות הן מתוך תפילה ליום כיפורים שהיא חיברה כי ברכת השיבה שופטינו כבראשונה מתיי…  Ydzj9iSSCgqP41p אתה לא razayal ככה הם קוראים לזה בתנועת ׳הדגלים השחורים׳ מקיימים הערב משמרות מחאה מול בתיהם של חברי כחול לבן ומול ביתו של שר הבריאות  בתנועה מפרסמי…  aviadglickman השקל וחצי שלי ליום כיפור 1 שלושה קטעי תפילות שריגשו אותי בתור נער וגם היום שאני מתפלל בבית הנני העני שחנניה החזן… משטרת ישראל חילקה דוחות למפרי תקנות קורונה בבתי כנסת במהלך יום כיפור כמו שצריך  אבל ממש רגע לפני כניסת יום כיפור…  GalTheOne1 כל כך הרבה טוב איזה עוד עם יעטה מסיכה 17 שעות מתוך 25 שעות של צום  רק בשביל להתפלל במניין icelevi2 פתקא טבא אם ירושלים תהיה בנויה היא תהיה גם בריאה  פתקא טבא EladHumi ציון בנויה ירושלים היא חיבור של שלמות כשיש מקדש ירושלים בית מקדשך לשנה הבאה בירושלים הבנויה גמר חתימה טובה להחלטה  פורעים ערבים הגיעו במהלך השבת לאזור היישוב אש קודש שבגוש שילה והציתו כרמים ומספר מוקדים מסביב לישוב   בנוסף נעקר…  בית המשפט המחוזי בבאר שבע הורה לשבס לאפשר לעמירם בן אוליאל לקיים תפילות כהלכתן אך ללא מניין  השופט קבע כי השבס…  הציוץ המצורף הוא תוצאה של הסתה מתמשכת נגד ראש הממשלה נתניהו והתומכים בו  אז תחסכו ממני את ההתפלפלויות על הסתה מימי…  מַה נֹּאמַר לְפָנֶיךָ יוֹשֵׁב מָרוֹם וּמַה נְּסַפֵּר לְפָנֶיךָ שׁוֹכֵן שְׁחָקִים  הֲלֹא הַנִּסְתָּרוֹת וְהַנִּגְל…  benzionhoch והיום גם המשטרה הודתה בזה HShezaf גמר חתימה טובה HShezaf יש לך באיזה מקום ספק שלוחם צהל שיורה במקרה כזה לא עושה את זה כמוצא אחרון להצלת חיים חיים ששווים הצלה גם אם הנהג שיכור HShezaf כשתהיי בצד הדריסה פעם אחת תוכלי לדבר על האמצעי תנסי לדמיין רכב דוהר לכיוון שלך ולא עוצר ואם קיימת אופצ…  HShezaf עדיף קודם כל לעצור את מי שאם לא יעצר יהרוג אנשים הניסיונות של ארגוני המחאה נגד נתניהו לפמפם את סיפור פיגוע הדריסה נגד המפגינים ולצבוע את תומכי ראש הממשלה בצבעים ק…  HShezaf להבדיל מקרה בו אדם בולם ושומעים חריקת בלימה בו הקביעה שמדובר בניסיון דריסה היא פופוליסטית לצרכי ההפגנה ב…  בעוד מחבלים ערבים שרצחו יהודים מקבלים את האפשרות לתפילות קבוצתיות שבס מונע מעמירם בן אוליאל תפילה במניין ביום כיפור כי זה לא אותו דבר UriCadurii בכלל לא היה צפוף בבלפור מרווח 2 קמ בין מפגין למפגין UriCadurii מיצית מיציתי שנה טובה savigdor יאללה בוא נוציא אנשים בשם שרון מחוץ לחוק בכיפ שלנו השופטת השמרנית החדשה בבית המשפט העליון של ארהב איימי קוני בארט במסר חשוב  שופט חייב ליישם את החוק כפי שהוא כתוב…  UriCadurii אההה אז צריך לפתוח גם את הכותל באופן מלא שעשרות אלפים יגיעו לסליחות כבכל שנה צפופים כמו בבלפור UriCadurii מה אתה אומר מי שמורד במדינה הוא ללא ספק לפחות מי שמודיע על מרד במדינה אני לא שולח אף אחד אני מזמין א…  עם מינוייה של איימי קוני בארט כשופטת בבית המשפט העליון של ארהב בביהמש יהיה רוב של 6 שמרנים מול 3 ליברלים  בקרוב…  UriCadurii אז אל תבלבל על ההשוואה היא מדוייקת UriCadurii אנשים שלא מסכימים איתי ממש לא אנשים שמורדים במדינה הזאת אין לי שום בעיה עם אנשים שלא מסכימים איתי UriCadurii הכותל הוא אזור פתוח בדיוק כמו בלפור אם לא יותר razayal לא יודע אם להם מגיעה מילה טובה אבל בהחלט מגיעה ביקורת למשטרה שמבצעת מעצרי שווא שידוע מראש שהם נעשים לשווא במקום בבית כנסת מצטרפים לתפילה בשידור חי  mosheifargan יש אגדה שהצלפים כבר היו מוכנים razayal מתיעודים בשטח נראה שבקושי UriCadurii רק חרדים הולכים לכותל UriCadurii מה אתה אומר זה שהמערך הקים פה את המדינה תוך דיכוי כל מי שלא הלך בתלם שלו זה עוול  לא משהו להתגאות בו UriCadurii מה אתה אומר לך תבדוק מי האנשים בבלדה על משה יואל סלומון ושיהיה ברור האמירה מכוונת לאנשי המרד אני לא מאמין שיש יותר מפורמיל בין המפגינים שמורדים במדינת ישראל במהלך ההפגנה הערב בבלפור המשטרה עצרה ועיכבה 5 מפגינים בגין הפרת הסדר הציבורי וחלקם בגין תקיפת שוטרים AmirPeleg2 חצי מדינה הצחקת חצי מדינה מורדת לתפיסתי יש בודדים שנמצאים בדעה של בניהו חבל שאתה חושב אחרת AmirPeleg2 בצבא גולני אתה yonashaked דיקטטורה אז ככה קוראים לזה שהציבור מחליט מי יהיה בשלטון  אגב הבלוק מאוד בוגר בגיל 6 כבר הפסיקו…  מלחמת שחרור מהדמוקרטיה או מהשכל הישר  לכו לאוגנדה ושחררו אותנו בחייאת  YinonMagal רפואה שלמה מצא את ההבדלים  חכ עמית הלוי אומר לי הערב   פניתי לראש הממשלה נתניהו ואמרתי לו בני גנץ מונע את תקינות הממשלה מכוח הווטו שניתן ל…  ניסנקורן ההפגנות הן לא הסיבה לקורונה זה אירוע שהתחיל באוכלוסייה החרדית והערבית ilanacuriel קיצור עברייניות ועבריינים חכ מיקי זוהר בגל הראשון כשנתניהו עבד בלי ההפרעות שלהם צלחנו אותו בגדול הממשלה ה״פרטצ׳יטטית״ הזו חייבת להתפרק בהקדם אז עכשיו מתלוננים למה נתניהו לא הכניס את המדינה לסגר כללי מוקדם יותר 🤦‍🤦‍🤦‍ גם הערב וירוס קורונה הודיע שהוא מקיים שביתה בבלפור והסביבה בכדי לאפשר את המשך ההפגנות נגד נתניהו ללא הפרעה המשטרה בהודעת הבהרה השוטרים במחסומים הונחו לאפשר לכל אדם הגעה למחאות 🤦‍ אם תפגינו נגד ראש הממשלה  כל הדרכים החסומות במדינה יפתחו לפניכם  אם לא  אנחנו בסגר קורונה כללי תישארו בבית המפגינים מדווחים על חסימת דרכי גישה להפגנה וכי עשרות שוטרים עוברים בבלפור ומאיימים על המפגינים כי אם לא יזוזו 2 מט…  שבוע טוב בניגוד לדיווחים בכלי תקשורת שונים וכפי שכתבתי לכם ביום שישי ההפגנה בבלפור מתקיימת הערב כסדרה  טרללת הר…  בתגובה רשמית משטרת ישראל ממשיכה להגדיר הפגנה למען חופש זכויות ליהודים בהר הבית כמפוברקת  המטרה לשמה הגיעו למקום…  GilCohe23283441 אז גם שום אדם לא יכול לעצור הפגנה הכוונה ברורה ביותר נו קראתם בכל מיני אתרי חדשות שלא תתקיים הפגנה בבלפור במוצש  תנועת קריים מיניסטר מבהירה שיירות הרכבים מכל רחבי…  בתנועות המחאה נגד נתניהו מתכננים במוצש הפגנות במרחק של עד קמ מהבית אבל לא מוותרים על שיירת מכוניות שתצא לכיוון בלפור  למרות הסגר בתנועה לאיכות השלטון מאיימים על נתניהו שאם לא יתנצל על כינוי ההפגנות נגדו מדגרות קורונה הם ינקטו נגדו בצעדים משפ…  השר אדלשטיןן החליט להביא לאישור הממשלה תקנות לשעת חירום שיגבילו התקהלות כולל הפגנות עד לחקיקת החוק בכנסת שבוע הבא איזה כיף זה שיש ירי בנגמש בין מעט עיתונאי הימין שקיימים ממש מלחמות היהודים🤕 לא תשמעו קצין משטרה שאומר למפגין בבלפור מבחינתנו זוהי הפגנה מפוברקת כרגע אתה ואשתך מקבלים דוח על יציאה ללא צורך…  אז מסתבר שלמרות הכנסת המדינה כולה למצב קיפאון עמוק גנץ מסרב לעצור את ההפגנות ההמוניות בבלפור  מישהו עדיין חושב שא…  nosseihdegel1 YehudahGlick התייחסתי לזה כל כך הרבה פעמים שכבר הבנתי שאין פואנטה nosseihdegel1 YehudahGlick ממש לא מאוד קשה לנצח ילד בן 4 שיש לו הגיון של שחור לבן וזה דורש המון אנרגיה ביחס לכך…  nosseihdegel1 YehudahGlick הוויכוח איתכם על העניין מזכיר לי וויכוח עם ילד בן 4 razayal YehudahGlick אה כזאת שמאפשרת הפגנות נגדו ואוסרת הפגנות של חברי מפלגתו הגיוני מת לראות איזו סערה תתעורר אם שוטר יגיע להפגנה של הדגלים השחורים ויכריז עליה כמפוברקת  הבוקר זה קרה אבל בהפגנה של…  הפגנות אלפים בבלפור  כן הפגנות בודדים ליד הר הבית  לא  יהודה גליק הגיע היום עם אשתו להפגין ליד שער הרחמים בדרי…  פיקוד מרכז הודיע למשפחתו של הרב אחיעד אטינגר כי הריסת הבית החדש של משפחת המחבל שרצח אותו אינה עומדת בקריטריונים של בגץ רן כרמי בוזגלו נחקר כחשוד במסגרת אירוע התקיפה שעבר הערב  מעניין מה היה קורה לו אם אירוע התקיפה לא היה מצולם והפרצוף שלו לא היה משפריץ דם hoPmQKcikRNWx02 העיקר יש כיס מרופד hoPmQKcikRNWx02 מדבר כפיזיקאי מפגין הדגלים השחורים שתקף הערב את רן כרמי בוזגלו הוא דר לפיסיקה המפגין שנוטל אחריות על מעשהו מתחרט מעומק הלב…  barazulay אולי רק אולי יש קשר להבדלים בין הממשלות איזה קטע ששר המשפטים מסית נגד ראש ממשלת ישראל נתניהו לכותל המערבי מקום לא פחות קדוש מבלפור אפשר להגיע ממרחק של קמ אחד אז לבלפור יהיה אפשר להגיע מכל מקום זה לא הגיוני נתניהו על מתווה ההפגנות של היועמש אגרויסע פשרה הפשרה הזאת פורצת את כל היכולת לעשות משמעת נתניהו אזרחי ישראל לא בחרו בפקידים אלא בנו אנחנו אלה שצריכים להנהיג נתניהו המחיר לסגר לא יהיה 35 מיליארד שקל ראש הממשלה נתניהו ההפגנות בבלפור  מדגרת אנרכיה ראש הממשלה נתניהו אומרים שאני רוצה סגר כדי למנוע הפגנות זה מגוחך צריך אותו כדי לשטח את העקומה  מבחינה פוליטית ה…  ראש הממשלה נתניהו אני עובד על קידום חיסון למדינת ישראל יש אור בקצה המנהרה יהיה חיסון ראש הממשלה נתניהו כ20 ממחלימי הקורונה יסבלו לשנים ארוכות מתסמינים דור שלם מאות אלפים שיסבלו כל החיים  מול זה…  ראש הממשלה נתניהו מי שהובילו את הפרת ההנחיות היו שורה של פוליטיקאים פופוליסטים שאמרו שזאת מזימה שלי יש גבול לכל תעלול מדובר בחיי אדם NoaLavi6 אבל אין כסף לאנשים במדינה לא השופט עודד שחם שיושב בהרכב משפט נתניהו הוא זה שידון בעתירה לפנות את המאהלים הבלתי חוקיים מבלפור יכול להיות שהממשלה החליטה לסגור את כל המדינה ולא רק להדק את הסגר כפי שפרופ גמזו המליץ בגלל שמנדלבליט החליט שאפשר…  רן כרמי בוזגלו הותקף במהלך הפגנה נגד ראש הממשלה נתניהו בנס ציונה התוקף נעצר  היועמש מתייצב לימין סאל במיל ניסים מגנאגי ומגיש לבית המשפט עמדה לפיה  למוחמד בכרי שביים את הסרט גנין גנין…  YinonMagal אין אחריות לשר LiorZatlavi אמיתי בפרקליטות אומרים לMeshilut כי משרד המשפטים היה גורם מקשר בלבד בין ליאת בן ארי ועיתונאים אבל מהפרוטוקולים בבקשה נג…  הפרקליטות חושפת בתגובה לעתירת התנועה למשילות ודמוקרטיה  מי שכתב את הודעות הדוברות לפיהן התובעת במשפט נתניהו ליאת…  BarashiKinneret גועל נפש dasdasit בהחלט אבל להעדיף הפגנות ל תפילות ולהעניק להן עמדה מעל לתפילות שגם להן יש זכות דמוקרטית חופש הפולחן זה ממש לא יהודי שתבינו כדי להגביל הפגנות צריך חקיקה אבל כדי להגביל תפילות מספיק לעשות אפצי  העמדה הזאת היא עוד צעד לישראל פחות יהודית grVFUDAKpQrKy5h זה לא משפיע בכהוא זה על משפט נתניהו הפרקליטות הגישה כתב אישום נגד בחור ששימש כמשקיף מטעם מפלגת יהדות התורה בקלפי בלוד שבמהלך ספירת הקולות בבחירות האחר…  פרופ יורם לס התנצל על דבריו שנאמרו בעת שיחה עם מאזינה כי דרשוביץ אנס ילדות ביחד עם אפשטיין כי הוא הודה הוא הו…  MotTal קח  חכ שלמה קרעי מנדלבליט וניסנקורן מטרללים את הממשלה ואת עם ישראל אחרי שעה וחצי של שיחות וניסיונות להבין את הסתירה הזאת אני מרים ידיים ומציף את הסתירה הזאת בפניכם  יום מבולבל ומלא…  לפני כשעה וחצי מנדלבליט הוציא הודעה בה נכתב כי הוא לא הציב את סגירת המשק כתנאי להגבלת ההפגנות   משפט לאחר מכן נכתב…  אגב מיקי זוהר מכנה את הדגלים השחורים כמספר אנרכיסטים המונעים משנאה ורוע מיקי זוהר אם כחול לבן יכנעו לדרישת הדגלים השחורים ויאפשרו להם להמשיך להפגין למרות המצב המטורף אליו נקלעה המדינה יש לפרק את הממשלה מיד zeev2020 BarashiKinneret חשבת לא נכון פגרת סוכות במערכת המשפט תתחיל שלושה ימים מוקדם יותר בהתאם להגבלות הסגר הצפוי הדגלים השחורים מאיימים על כחול לבן בעקבות העברתו הצפויה של החוק שיגביל הפגנות אין כזה דבר הפגנה במרחק קילומטר מהב…  מנדלבליט על ההפגנות  המצב הנוכחי מאפשר לקבוע את אופן קיום ההפגנות לא למנוע אותן כרגע יוכלו להפגין בבלפור תוך שמי…  מנדלבליט לא קבעתי בשום שלב שסגירת המשק היא תנאי לכך שניתן יהיה מבחינה משפטית להגביל את ההפגנות הפרקליטות מסכימה לדרישת הפרקליטים במשפט נתניהו לקיים דיון בעניין גילוי והעברת חומרי חקירה danieldolev מיד מתייג את פילו EzraBoaron 17 אלף איש שנכנסו לבידוד על חשבונם מיד לאחר שנכנסו לארץ כן אני זוכר לקראת סגר מלא המסמך הרשמי עם ההגבלות על תפילות והפגנות  והקנסות  ניסנקורן מתגאה שבכחול לבן הצליחו לטרפד את הכוונה של נתניהו להגביל את ההפגנות גם אחרי שהסגר יוקל  אתם מבינים את ה…  atikt73 romic48 SrugimNews ירדו לי הלילה כמה מאות עוקבים והפסקתי משום מה לעקוב אחרי כמה נוספים 🤷‍  טוויטר הו…  atikt73 romic48 SrugimNews אני מבין שלא שמעתם על הבעיה שהייתה הלילה בטוויטר לחצי מהמשתמשים אה yb66957 nbjovsr88 כנל טוויטר עובדים על זה Shmuelbenzvi על ידי דחלאן גם כן אגב אני בעד חנינה תמורת פרישה כמו שאני בעד שטחים תמורת שלום BarashiKinneret כל עוד ראש הממשלה הוא נתניהו הוא נכשל במה בדיוק אל תדאגי ימציאו משהו shirant3 סגר שהיציאה ממנו תהיה כל כך איטית וישארו מגבלות על התקבלות שלא נצטרך עוד סגר בסוף הממשלה היא זאת שהחליטה להגביל את ההפגנות נגדה דבר שכזכור מנדלבליט טען שאסור לה לעשות  התנועה לאיכות השלטון ת…  אבל הם צעקו להשאיר את הגז באדמה🤦‍  בתנועה לאיכות השלטון יעתרו לבגץ נגד הגבלות הסגר שמגבילות הפגנות עליהן החליטה הערב הממשלה בואו נדבר על זה רגע המדינה בברוך אדיר נזק של 35 מיליארד שח בתוך חודש יגרום לריסוק ברכיים כלכליות של המון עסקים…  ההפגנות בסגר המלא עד 20 איש בטווח של קמ אחד ממקום המגורים sabi0204 הפגנות קמ מהבית סוף סוף סגר מלא והרמטי בממשלה החליטו להפסיק לשחק בנדמה לי ולהתחיל לבלום את המגפה הארורה הזאת politikai10 Onetruth011 בעה גם לא אזכה yb66957 Onetruth011 תכלס ElkyBergstein גם לי Onetruth011 גם לי קרה גם לי מופיעה הודעת הגבלה בצלאל סמוטריץ תוקף את מנדלבליט ההחלטה שלו יצרה תגובת שרשרת הרסנית שהביאה וממשיכה להביא אותנו לכאוס מסוכן ידיו שופכות את הדם הזה notkin1985 יש מטורללים בכל מפלגה arrhton כבר לא בין השנים 19012019 היה מנהיגים מכל העולם מתקשרים למפגינים נגד נתניהו איך הצלחתם ליצור אזור בו נגיף קורונה לא מדביק  נשקל להעניק למפגינים פרס נובל לרפואה יש איזה קסם כזה בבלפור מפקד תחנת מוריה שאחראי על האכיפה בהפגנות ונכח בכולן נדבק בקורונה  אבל זה חלילה לא קרה בהפג…  דובר צהל שולח לי תגובה שראשיתה פוליטית ביותר מגמת הגידול בהיקף הבנות הדתיות המשרתות בצהל נמשכת ואנו מברכים על כך מאוד ayeletgiladi 21 מנדטים לא נראה לי אבל לכי תדעי אולי אתבדה אשכרה מפלגה בראשות יפעת שאשא ביטון שווה 8 מנדטים בסקר של ערוץ 12 זה אמין בערך באותה מידה שבנט יקבל 21 מנדטים פרסום ראשון  בחורה דתייה קיבלה פטור מצו גיוס רק לאחר שעתרה לבגץ ימים ספורים לפני שגויסה מבלי שצהל הכריע בבקשת ה…  השופט נועם סולברג מקבל את בקשת הפרקליטות  התשובה לבגץ האם הפרקליטות תפתח בבדיקת ההדלפות בתיק 4000 תידחה בשבוע הפ…  הראיון המלא של פרקליט המדינה לשעבר שי ניצן  שי ניצן על עתידו האישי רומז שהוא לא רוצה להיות שופט  עסקתי 35 שנה בעולם המשפט ודי מיציתי הרבה יותר מעניין אותי…  פרקליט המדינה לשעבר שי ניצן באמירה מוזרה על הדלפות לתקשורת  שמעתי מכתבי משפט ומשטרה שכמעט כל ההדלפות מגיעות מ…  שי ניצן אני מאוד הייתי מוטרד אם הפוליטיקאים בלבד היו ממנים את השופטים שי ניצן מתייחס לטענות למשפט חוזר בעניין רומן זדורוב  תמיד תמיד טעויות יכולות לקרות אם בית המשפט העליון יחליט שמג…  שי ניצן תוקף בשנים האחרונות זה פשוט מדהים – גופים חזקים פוליטיקאים שיש להם כל במה תקשורתית אפשרית ולא רק פוליטי…  שי ניצן טוען כי פרקליט המדינה הבא צריך להתמנות מתוך שורות הפרקליטות  זו תהיה טעות גסה להביא מישהו שלא היה בפרקליט…  הפרקליטות ביקשה דחייה במתן התגובה שלה לבית המשפט לגבי החלטת היועמש אם לפתוח בבדיקת ההדלפות מתיק 4000 כפי שבגץ המ…  הקורונה הוכיחה שלפחות בטיפול בה ממשלת אחדות היא ממשלת שיתוק רשמית ראש הממשלה נתניהו מבקש מבגץ להורות למנדלבליט לחקור את ההדלפות מתיק 4000  netanelgla YairNetanyahu כדאי לציין שהוא זה שהציג לאלוביץ את מערכת וואלה כלעומתית נגד נתניהו razayal לא יודע על אילו שופרות אתה מדבר לפי מה שאני מכיר זה היה ברור שזה או הפרקליטות או עד התביעה בנוסף יש כל…  המדליף לכאורה אל תוכנית המקור נחשף במזכר סודי  עד המדינה ניר חפץ מספר לחוקריו כי אילנה דיין אמרה לו שעד התביעה בת…  פרקליטיו של ראש הממשלה מבקשים להצטרף לעתירה של הזוג אלוביץ בעניין הדלפות חומרי החקירה מתיק 4000  מהמזכר המצורף עול…  עוד חור אוריאל ניזרי השופטת בחרה להחליט שלא לפנות את המאהלים הבלתי חוקיים על אף שאין מחלוקת כי הינם בניגוד מוחלט…  השופטת חיה זנדברג דוחה את בקשת תושבי רחביה להוציא צו ביניים נגד עיריית ירושלים ומשטרת ישראל בעתירה הדורשת לפנות את מאהל המחאה בבלפור barpeleg אני לא מנסה לייצר שום דבר זה ברור שבגץ הבדיל בין המקרים אפשר לא להסכים עם החלטת בגץ למרות שמקבלים אותה לא כך barpeleg נכון ולכן צירפתי ציוץ נוסף לשרשור מאתמול אני לא אומר שהמשטרה לא בסדר בהוראות שהיא הוציאה ובכן  אלה תנאי ההפגנות מול ביתו של מנדלבליט  עכשיו תדמיינו הוראה לקיים מחאה שקטה של עד חמישה אנשים בבלפור מול ביתו של…  סתם קטע בגירוש מגוש קטיף הגבילו הפגנות הרבה יותר גדולות מההפגנות בבלפור שהיו נגד הממשלה והחלטותיה בלי סכנת חיים ממגפה כלל עולמית מי אתם רבנים ואדמורים גדולי עולם שמפרים את הנחיות הקורונה ברגל גסה איך תגידו ידינו לא שפכו את הדם הזה ועיננו לא ראו לא יקרה שום דבר אם כל אחד מכמות האזרחים הזעומה יחסית שמסתכמת בכ15000 המפגינים בבלפור יפגין נגד נתניהו בביתו ביחידות SababaYomtov נכון ואם אפשר להתפלל לבד אפשר להפגין לבד elizipori יש נקודה הרבה יותר בעייתית שלחתי בווטסאפ Yodan57509590 YairNetanyahu בדיוק וכאשר יש חוק יסוד שקובע במפורש שיש סמכות לממשלה מה אז לכל האדיוטים שטוענים שתפילה זה דבר שאפשר לעשות ביחידות ולכן אין בעיה להגביל תפילות גם הפגנה זה דבר שאפשר לעשות ב…  Yodan57509590 YairNetanyahu תן לי חוק שמסמיך לכך את היועמש</t>
+  </si>
+  <si>
+    <t>manuelbaz HadasRibak אוקיי הרמז התקבל במקרה התחלתי להתאמן כבר אתמול לקראת הקאמבק itayr2 הדבר היחיד שיותר גרוע מאנשים שעסוקים כל השנה בלפגוע באחרים כאלה שעסוקים בזה כל השנה אבל ביום כיפור מבקשים סליחה itzikelrov למה נתניהו עושה השוואה בין החרדים למפגינים אני מבין לגמרי  מייצר ספין  למה אנחנו החרדים נופלים למלכודת הזו כשברור לכל י… weezwrites Ruth Bader Ginsburg is going to be replaced by a woman who walked through every door that Ginsburg opened for her so she ca… ShaiCohen13 ״מוטרפי נתניהו״ זה ״קיצוניים משני הצדדים ״החדש ShaiCohen13 וחלק ניכר מהמפגינים אגב הם סבים וסבתות שמעדיפים לצאת ולמחות תוך שמירה על ריחוק מאשר להיכנע לניסיונות ההשתקה במסווה של סולידריות ShaiCohen13 בהנחה שיהיה אחכ נתניהו מבין דבר או שניים במו״מ אם באמת היה רוצה לדלל את ההפגנות מתוך דאגה כנה לבריאות הציבור היה נוקט בגישה קצת יו…  AlonMizrahi למה הכותל ריק וכיכר צרפת מלאה  הכותל ריק כי נתניהו נכשל כישלון מחריד ועולמי בניהול הטיפול בקורונה והתעסק רק בצרכיו הפולי… AnshelPfeffer עכשיו סופגים את העלייה במבדקים מהתקהלויות הסליחות בימים הקרובים יהיה את הגל של תפילות ראש השנה בשבוע הבא נקבל תפילות י… RavivDrucker ההקלטות של המשפט שהדיח ראש ממשלה עדת מפתח אחת מתפרקת על הדוכן עד מפתח שני  אורי מסר   מספר על החקירות שאיימו להחריב א… בלון שמחלקים עכשיו ביציאה מהכנסת  RavivDrucker אנחנו גאים לשדר החל בשבוע הבא 2 פרקים על ההליך המשפטי שהדיח את ראש הממשלה אולמרט עדי המפתח יתראיינו נשמיע לראשונה את הק… freyisrael1 לא הבנתי תפילות והפגנות במרחב הפתוח זה לא שוויון  adamshinar פוסט חדש של roznaiy ושלי על המתקפה הפופוליסטית על מומחיות וכיצד זו קשורה לנסיגה דמוקרטית KalinaNoam הציוץ הוא על ההבדל בין קיום מצוות תשליך לבילוי בים ובין בריכה למקווה ברור שצריך להגביל את התפילות בקבו…  KalinaNoam הטענה שלי היא שזה לא עניין סובייקטיבי הגנות על חופש הביטוי וחופש הדת יותר חשובות לשימור צביונה הדמוקרט…  בואו נעשה את זה עוד יותר מופרך ההפגנות בבלפור החלו כתגובה לחקירות נתניהו בהן מעורבים 4 נאשמים ועוד 3 עדי מדינה כ…  zionnenko איזו חוצפה לדבר על ההפגנות כשאתה עד המדינה בתיק שוחד שהוא אחת הסיבות להפגנות לפי כתב האישום פילבר הסתיר מגורמי המקצוע במשר… Slonim91 כשאתה שוכח לעשות קרופ וחושף מי מאכיל אותך  Rutshapira גם חרדים לא יכולים לפתוח חנויות או לנסוע לפני החג למשפחה מחוץ לטווח ולחזור אחרי החג השאלה היא לא רק כמ…  DavidNevo3 talilib חשבה כמוך וקיבלה קנס בסגר הקודם בים DavidNevo3 אבל אין מספיק תווים tamarishshalom מה רק אתמול אכלתי קרמבו ראשון galsion לא רמזתי שיש לך בעיה בהבנת הנקרא טענתי שיש לך בעיה בהבנת הנקרא וזו לא עקיצה אלא פשוט טענה galsion מי ניסה לעקוץ על מה אתה מדבר galsion יש צורך לקרוא שוב כי אז תבין שלא אמרתי שההפגנה חשובה יותר מהתפילה עצמה אלא מהתפילה בקבוצות גדולות של יות…  MyEvilOtherSelf מכל התגובות לטקס בבית הלבן אתמול מה שצורם לי לראות זה הלעג לתמונה של שרה ליד מלאניה  ראשית ללעוג לחיצוניות של שרה ז… galsion קרא שוב asafb2k תקרא שוב לא יותר קריטי מלהתפלל אלא להתפלל בקבוצות גדולות שכחתי להוסיף דעה ממש לא פופולרית בגלל שיש צורך אמיתי בהגבלות ההשוואה בין מקווה לבריכה או בין תשליך לשכשוך בים לא יכולה להיות רק ברמת הפרקטיקה אלא ג…  amitcarp הכתובת הייתה על השיר סליחה ilangoldstein2 מתקתק LevineHagai רוצים תכנית ברורה אז בבקשה ללכת בהקדם האפשרי לשלב השני  ריסון מהודק ולדלג על שלב הסגר שיגרום יותר נזק מתועלת זאת ההמל… ומה עם חיי האנשים שמתו עכשיו מצחוק  סחטיין על ההסכם עם בחריין אבל אני יותר עוסקת בחריין של אמא שלי שלא אזכה לאכול בראש השנה בגלל הסגר נישתי haimhz tamarishshalom מי בכלל מדבר על דדו החופים היפים של חיפה הם החופים הדרומיים שלה אז אתה חצי צודק zionnenko הסכמי השלום עם האמירויות ובחריין חשובים מאד אבל חגיגות ״הפלסטינים כבר לא מעניינים אף אחד בעולם״ הן פשוט טמטום הסכסוך הישראל… LVertzhaizer נו איך עושים את זה לי דווקא לא מפריע שראש הממשלה נוסע לוושינגטון בשיאו של משבר הקורונה מי ישמע הוא מנהל אותו כשהוא כן בארץ oronuri בינתיים שים לב היחיד שמכליל זה אתה oronuri אתה מדבר איתי אמרו לי שראו אתכם באיזו מסיבה בחיפה  yairkraus בואו נפריך רגע פייק ניוז בכל מדינת ישראל חולים כעת 148 שוטרים ושוטרות שנדבקו בתוך ומחוץ לעבודה לא רק שלא נדבקו בבלפור 15… TalShorrer פרסמתי לראשונה ב2015  gititfisher אדקס 400 zionnenko adamshinar 🤨 LazyishaiV2 וואי זוכרים שפעם כולכם עקבתם אחרי מישהי כי יש לה קורונה idanlandau כולם פה עפים על שולי מועלם החברתית אז אני בחמיצותי אזכיר שיש גבולות ברורים לחברתיות הזאת  גבולות הגזע   נתחיל   מועלם… PeaceNowIL כשמדברים על מצפה כרמים sfardm הוא האדם שיכול להסביר את המשמעויות של הפסיקה בצורה הטובה ביותר BenCaspit השתכנע YinonMa… arielschnabel רגע רגע אריאל זה לא עובד ככה אתה עיתונאי קודם בודקים אחרי זה מצייצים arielschnabel סתם מחזור הקלישאות הקבועות על הח״כים הערביםיש 15 בדקת באמת שהם משקיעים הרבה יותר זמן בציבור הפלסט…  KeDmE מבאס ממש KeDmE לא יצא לי לראות את ההתגוללות העלק פמיניסטית רק את העקיצות של ריקלין ועמית סגל hezy1a YaneevM Irisleal15 שוב דילמה שרק נשים צריכות להתמודד איתה ShaiCohen13 הכל מותר במקרה הזה מותר ומטומטם א מישהו ראה את נעה לנדאו בביקיני בכותל ב יש הבדל בין רצון לשנות א…  Irisleal15 ולא תהית למה עמית טרח לציין שחלקן בתא העיתונאיות לרגע חשבת שהפרגון שלו אמיתי BenjaminTovias והבנתי שה״כבוד״ היה סרקסטי לא צריך להיות גאון בשביל להבין את הסרקזם שלו  אני עדיין חושבת שהוא באמ…  BenjaminTovias כאישה בנימין יש לי קצת ניסיון בסיטואציה שבה אני מתבקשת להתכסות בכניסה למקום קדוש ולכן כתבת ״לטעמי חוויה משפילה״ BenjaminTovias Duduoppe אתה רואה למה הגבתי לתמונה של גברים שגם הם לא במסגד Duduoppe כן ראיתי  לכסות את הגוף שלך מטעמי צניעות ועוד בחום של אבו דאבי זה סיוט פיזי ולטעמי גם חוויה משפילה אבל לפעמים אישה צריכה לעש…  GMMivs הבנתי שהרשת מסתלבטת על noalandau שהתלבשה והתכסתה באיחוד האמירויות ונראה לי שהבנתם את זה בדיוק הפוך העובדה שצריך להתכסות שם… MayaZivWolf Sachback כן talberman רק לומר שavico21 הוא עורך אדיר שלא רואה בעיניים וכל מה שמעניין אותו זה שהתוכנית תהיה טובה מי שחושב שהוא משרת איזשהו אינט… AvishayBSG ב280 תווים גם לסכם וגם להגיב עשיתי צילום מסך במקום ריטוויט זו גם התקדמות  AvishayBSG יש מקומות שבהם להתעלם זה הפתרון אבל בן של ראש ממשלה שמשפיע על מדיניות ראה״מ זה לא אחד מהם YHepstein במקרה הזה הוא דווקא מדייק פופוליזם 101 קודם הופכים את הפקידים האלה לדמויות מוכרות כשמסיטים את האש אליהם ומדברים כל הזמן על ״שלטון הפקידים״ ו…  Irisleal15 האם כשמלמדים אותנו לפחד מערבים זו לא תגובה הגיונית האם הנוסעת במונית ומעיין אדם לא חיות באווירה שעמלים לטפח כבר שנים פחד… aviadglickman  Irisleal15 אני כל כך לא סובלת את מה שעושים פה עם התמונה של שרה נתניהו עם כובע מצחיה את העיסוק החולני במראה של נשים תשאירו לביביסטים ו… OrHeller המלצת קריאה לשבת היום בשער מעריב ראיון מצויין עם עיתונאי מצויין ואדם מצוייןaviadglickman  NeriaKraus נערה אמיצה החליטה להתייצב לראשונה מול המצלמה כדי למחות בעצמה על העונש הקל שקיבל רונן ביטי היא העריצה את הבת שלו עדי ביטי… שאלה מעניינת הפתרונות לתרגילים מחשבתיים מהסוג הזה נעוצים בד״כ בהיותם רק תרגילים תיאורטיים יחסי הכוחות בין נשים ל…  manuelbaz זה עדיין חוקי להיות גזען במדינה ישראל עובדה שהזכיר באחרונה RoyIddan  ב מהצדהשני להלן השלכה ישירה גזענות בלי השלכה למי שלא זוכר למה 2016 הייתה זוועה  עד עכשיו עוד התלבטתי אם 2020 גרועה יותר מ 2016 אבל הסיפור הזה מכריע סופית  radio103fm השרה אורלי לויאבקסיס טענה שחברי קיבוץ מסילות לא אפשרו לבן של רופא ערבי להיכנס למערכת החינוך שלהם  מרדכי בראון חבר קיבוץ… ShusterNoam ספרו לי עוד על שלום באיזורינו בזמן שאתם בוהים בתמונה של אבא מחברון שאין לא אישור כניסה ללוות את בתו הקטנה לניתוח לב בבית ח… adamshinar בשבועות האחרונים בג״ץ החל לדחות עתירות חוקתיות בנימוק כי העותרים לא מיצו הליכים מול גורמים במשרד המשפטים בד״כ היועמ״ש במ… itayr2 לרגל פסטיבל כשהמשטרה הרביצה לחרדים לא אמרו כלום להלן שרשור שיבחן כמה אמת יש בדברים נתחיל מערוץ אלגזירה 13 שדיווח בנובמבר… Syechimovich בקשר לAviNissenkorn חיפשתי כל השבת ומצאתי בבית את הראיה הכי נוקבת לכך שהבדיות שהומצאו עליו ועל מנדלבליט בבלפוריה ובזרו… harnevo היממה האחרונה הייתה שיעור מאלף בבניית תיאוריית קונספירציה דרך סושיאל מדיה עקבתי אחרי המערכת הסופר מקצועית הזאת לקחתי צילומי… fastish ״יאיר נתניהו תלך למסיבות תלך למועדונים תדפוק רק את השמאל גם את הקטינות אני פה איתך אל תפחד מאף אחד״ chaimlevinson אראל סגל ידידי פרסם הצהריים בטוויטר סיפור נאה שבעבר הייתה בדיקה נגד ניסנקורן שנסגרה בלי לעבור לחקירה פרסם ב1454  שמעו… אני כותבת את זה כמי שנכשלת שוב ושוב בהתעלמות מטרולים ומבקשת מכם ומעצמי בואו נעשה ניסוי ונתעלם מהניסיון הנלוז של ר…  almogbenzikri טוב אולי לא הובנתי נכון הבעיה בלחזור על המספר 30 30 30 30 הן אלו 1 נותנים לחשוד שמנסה להרחיק את עצמו מהאירוע ל… HALOBYSSVAG הפרשה המזעזעת של אונס קטינה באילת עי עשרות צעירים בבית מלון בעיר חושפת את המחדל המתמשך של המדינה בטיפול בפגיעה מינית באי… EmilieMoatti יש שיתמהו מדוע להטפל לאישה מסבירת פנים כפרידמןשניכר שכוונותיה טובות הסיבה היאשיותר ויותר אנשים במחנה הנרדף והפגוע כמהי… amitcarp racheli82 KerenCK arianamelamed רחלי אם הייתי אומרת משהו ממש מטומטם איזו טעות ברורה שאין עליה ויכו…  ErelSegal אם צריך להסביר בדיחה כנראה שהיא לא ממש מצחיקה ואני גם לא קונה את ההסבר יש פה בחורה בלונדינית שרודפת אח…  רמה גבוהה ErelSegal  liranlevi זוכרים שהשרה אורלי לוי הגישה תלונה במשטרה על כך שצמיגי רכבה נוקבו  חקירה מעמיקה העלתה שרכבה של לוי עלה ככל הנראה על מדרכה… iairLevy אתה מפספס קצת את הרפרנס מצד אחד דרוקר ברוכי וגליקמן מצד שני עמית סגל לי דווקא לא קשה להכריע RanMelamed1 ברור שזה מה שנדמה לך RanMelamed1 אתה לא ממש בכיוון ההסכם עם האמירויות אכן מלמד על שינוי הפרדיגמה מעכשיו ערבי טוב הוא ערבי עשיר RavivDrucker ברמי מבהירים שליאת בןארי יכולה להשכיר את הווילה בראש העין לתשומת לב בן דרור ימיני אראל סגל ושאר השרלטנים שפתאום מתעני… NoaShpigel אז יאיר נתניהו תומך במאבק על האסי שנתמך על ידי הקשת המזרחית שנתמכת כבר שנים על ידי הקרן החדשה לישראל  שמישהו יספר את זה לו… TalShorrer שקר הטיקטוק הערב במהדורה  ילד פלא ישראלי בן 13 מראה לכם איך באמצעות קוד פשוט הוא הופך את הסרטון הסתמי הזה שלי לויראלי לס… ברקו טועה חומוס סוהילה יותר טוב מסעיד  MichaelADAM101 וואו או שאתה סרקסטי או שאתה ממש לא יודע לזהות סרקזם ציוץ סופר מדויק אם ההסכם היה עם הפלסטינים מישהו יכול לעדכן אותה שהאמירויות זו מדינה שמעולם לא היה לנו סכסוך שטחי…  ashavit23 אוי לא אני רגע לפני שידור ועולה לי הבכי ראש הממשלה הח׳ליפה הסכם השלום עם איחוד האמירויות הוא רק ספין שנועד לדחוק הצידה את הגיטרה של אור  Riklin10 שלום לראש הממשלה ביאסת אתה יודע ואנחנו יודעים שיש כבר שיתוף פעולה מלא עם איחוד האמירויות לכן הכותרת של נירמול היחסים איתם… כן כן בטוחה שבועז ממש התחנן  adamshinar רבים טענו כי בגץ פסק בניגוד לחוק כשביטל את הריסת הבית שלשום וקראו לקיים דיון נוסף נכון בגץ אכן פסק בניגוד לחוק במקום… AyOdeh דיברנו ועשינו כל כך הרבה למען שותפות בשנה האחרונה עכשיו החברה הערבית צריכה אתכם לצידה   אני מבקש שתפנו דקה לראות את הסרטון ל… די כבר לריב שני שובבים שכמותכם אז מה אם רק אחד מכם הפר בבוטות הסכם הטריל את המערכת עד שהושגה הצעת פשרה שתעזור לו…  chaimlevinson לא החלטתי אם לפרוש מרסקין אבל בינתיים מהנעשה בתוכנית מה שהרס לי את היום  YHepstein עשה לי טריגר לתחקיר על השרימפסים בגלצ מלפני עשור MtanesShihadeh רוצים לדעת למה הויכוח על התקציב לא יוביל בהכרח לבחירות עקבו אחרי הכסף GadiTaub1 רוצה להיות קצת יותר ספציפי כי היו גם לא מעט זיכויים של פוליטיקאים techwhitepapers GadiTaub1 מה הקשר יקירי חדשות מאוד משמחות בהצלחה ברק שיחוק של וואלה  zviashkenazi תכירו בבקשה את חגי שורתל אביבימראשון לציון במקורהבעלים של המרכז הלוגיסטי לשיזוףחגי כנראה חושב שלכתוב בעילום שם מאפשר… shireuven עקב כך אם שורת חשיפות ניגודי העניינים של השופטים ובראשם חיות ע״י קלמן ליבסקינד מעניינות אתכם  מומלץ מאוד לקרוא   אתם רואים מצוקה כלכלית הלר רואה הזדמנות לשלוף את הגיטרה  talyapeledk די חדשה בטוויטר וכבר אמרתי שזו שכונה קשוחה אבל עכשיו גיליתי שאני חסומה אצל עמית סגל שזה בכלל הלם אגב לא מתעסקת עם אבא… תודה לכל המברכים והמברכות   תודה צבי  לא הייתי שנתיים בלוציפר   HadasRibak בכית HadasRibak אמיל freyisrael1 עמית סגל לכחול לבן בגלל ההתנגדות שלכם לתקציב חד שנתי ישראל כולה תלך לבחירות  קלטתם ביבי מחליט להפר הסכם חתום ולפרק… העובדה שmanuelbaz נפלאה לא אומרת שכל הנשים נפלאות  kannnews נקבע מותה של ילדה בת 4 מעיסאוויה שבירושלים לאחר שנפצעה בראשה מירי תועה ופונתה לבית החולים שערי צדק בעיר SuleimanMas1 Vere… RobertDeNiroUS TIME’s new cover  mosheprimo אני משתף אתכם עקב ההודעות הרבות שאני מקבל  שעומר אצילי בדרך למכבי חיפה אני לא יודע על כך בכל מקרה אני מחזיר אתכם לאחד ה… MintusYair adamshinar אתה באמצע עבודה אז כתבת לי לתקן משהו בלי לבדוק בעצמך קודם אם אתה כל כך בטוח בעצמך למה שה…  אין איסור על הנפת דגל של מדינת אויב היו הצעות חוק כאלה ב2017 וב2018 אבל הן לא עברו לו רק הייתה לו גישה לראש ממש…  itayalmogbar adindan AvishayBenHaim בחייאת איתי יש שם לא רק מפגינים נגד שחיתות והבירור שנעשה הוא מול אבישי…  itayalmogbar adindan AvishayBenHaim נו באמת איתי לא כולם במחאה הענקית וההטרוגנית הזאת מושלמים ואחרי בירור ה…  דנה רון ג׳ייקובס  YarivBenYehuda adindan AvishayBenHaim לגיטימי להעלות ספקות אני חושבת שההסבר של אבישי מספק תשובות ואני גם כותבת…  adindan AvishayBenHaim אפשר להתווכח על הסיבות שהובילו לספקות לגבי הסרטון את חלקן אני גם מבינה אבל היו פה אנשים…  BokerIris EmilieMoatti AvishayBenHaim הכוונה איריס היא שהם צעקו על אבישי לא על מפגין אחר והקריאות פשוט נקלטו ב…  כל כך לא נעים maayanef AvishayBenHaim שוב לא אמרתי שהם שמאלנים יש בהפגנות האלה מבחר דיעות אבל הם בבירור נגד אבישי EmilieMoatti AvishayBenHaim כי האנשים שם צועקים בפירוש בן חיים וזו הפגנה שחברי לה פמיליה לא הגיעו אליה צד א…  מי שהרגיש כל כך נעים למשמע אנשים מהצד שלו שמאיימים על AvishayBenHaim  עד כדי כך שהוא מיהר לקבוע שהסרטון הוא פייק…  AvishayBenHaim פותח שות שאלות ותשובות בעניין סרטון הקללות והאיומים שפורסם אתמול ואל מול הניסיון הנואל במקום לגנות קללות ואיומים ברצ… Yossieli הנה ההוכחה למי שהיה זקוק לה  אבישי שלח לי את הסרטון למחרת התקיפה בצהריים אפשר לעבור הלאה  aviadglickman המשטרה חייבת לפתוח בחקירה ולמצוא את המנוולים ותתי האדם שקראו את הקריאות האלו לכיוון AvishayBenHaim YonatanKit  MeytalinkaVan איזה קטעים פה ואוו ואוו ⁦🤦‍⁩  tamarishshalom ״קורונה מטווח אפס״ תיעוד מיוחד מתוך מחלקת טיפול נמרץ קורונה בביה״ח סורוקה שלישי ב2000 בnewsisrael13  saragusti על arianamelamed איימו באונס קבוצתי ל Liberwomen ייעצו לדחוף  לפה ואלה רק מקצת מהתופינים שנשים נאלצות לספוג ברשתות ר… moran56049995 הטילטיל של הקורונה IdoTamari למה לא דווח BarShemUr כמובן שהמשותפת צריכה להגיב כמו שגם ח״כים אחרים צריכים להגיב אולי אם התקשורת הייתה מתעניינת קצת יותר משהו מכל זה היה מתקדם 111dardar BarShemUr ברור יש לי כל כך הרבה ערוצים בבעלותי שאני כבר לא זוכרת איפה BarShemUr מסכימה עם המילה חרפהאבל הסיבה היא לא פוזיציה פרוערביתלהיפךהסיפור זה לא מסוקר מאותה סיבה שרצח נשים ב…  השותפים הטבעיים של יאיר נתניהו  limormoyal שיח ההסתה הבזוי שקושר את אהוד ברק לפדופיליה עולה על גדות ביוב הבלפורייה ומזהם לנו את הרשתות החברתיות זה מתחיל מהגוניור… בין אם המכות הן באמת על רקע הומופובי או לא רוב האנשים שרואים את הסרטון הזה מתמלאים צער יאיר נתניהו לעומת זאת רק…  talyapeledk  batelkol תיעוד מלבב מהפגנת הימין מול בלפור  RamiHod אין שום דבר חדש במתקפה של דוברי הימין נגד המחאה זה בדיוק מה שקורה כל פעם שהציבור הישראלי יוצא לרחוב לדרוש שינוי בחלוקת המשאב… youhadonejob1  irmyshikblum הערב בהפגנה בירושלים ראיתי יהודים ערבים חילונים דתיים חרדים אתיאיסטיים  מבוגרים צעירים ימנים שמאלנים בזמן שקבינ… shaulmert hkatan נכנעתי למלח כמהין קלמן ליבסקינד טוען שהתקשורת מגויסת למען המחאה ״כבר מהרגע הראשון״ אבל הוא כל כך מגויס לפוזיציה שלו שהוא שוכח שהמחאה…  Yossieli קלמן רק ״בשבע״ ראיינו את השוטר שהוכה האמנם הנה צילום מסך מראיון שעשיתי איתו בשישי בחדשות 13 שבו סיפר בהרחבה על התקיפה ואף… arianamelamed רק עכשיו ראיתי את זה  לידיעת החלאה שצייץ לא תפחיד אותי ולא תשתיק אותי באיומים של פורנוגרף עלוב   הייתי קורבן אונס בג… arianamelamed אבנר ציפורי קח  הנה התלונה שהגשתי נגדך במשטרת רחובות על איומים הטרדה ופגיעה בפרטיות  כל פרטיך בידי המשטרה  מניחה ש… LVertzhaizer  hkatan או וואו תודה ״לאחרונה ראיתי דבר נורא מדהים שקוראים לו פייק ניוז״  NetanyahuNoa הנה תיקנתי  בזמן שנתניהו מפחד מפרופיל מזויף אנשים בשר ודם יוצאים להרביץ למפגינים ולעיתונאים ומהדהדים בסרטון הזה את המסרים שהו…  Yossieli עוד פעם תקיפה עוד פעם קובי כהן שלנו סרגיו המפיק הותקפנו הפעם לה פמיליה המבט מאוד מאיים הלה פמיליה אשכרה חיפשו ערבים לתקו… tamarlask יש שיגידו adamshinar שעדיף לאכול מרק יום אחרי שבושל כי הטעמים מתחזקים danieldolev המאיים הוא דר רחוב עם עבר פסיכיאטרי שהגיע להסתובב במאהל המחאה נגד נתניהו מחוץ לבלפור ואיים שיפגע בערבים רופאים רוסים נ… YossiDorfman נתניהו התלונן על הסתה בדיוק באותו הזמן שהכותרות עסקו באלימות מצד תומכיו מאחר שאני לא סומך על ביבי הלכתי לבדוק מי זו א… KerenCK יושבת עם בעלי האהוב והלא יהודי לצפות בספיישל ט באב של חדשות 12 עמית סגל ואברמוביץ מראיינים את הרב בלוי שמכריז בהתלהבות … miabngl המקום עושים עבודה מדהימה במחאה הזו שאפו גדול ⁦TomerMichelzon⁩ ⁦einatfishbain⁩   AviNissenkorn אלו שתקפו את המפגינים אתמול  הם האנרכיסטים האמיתיים LVertzhaizer אלא אם כן זה אייטיז antwaneliaroni איימן עודה העלה לפייסבוק סרטון מההפגנה בירושלים וקרא גם לערבים להצטרף למחאות ולהפגנות ולא לשבת בבית ולהסתכל והתגובות כו… omereshef עמית סגל כנראה ככ מודאג מהשנאה והפילוג בעם שאיכשהו הוא לא צייץ כלום מאז אתמול בערב על תקיפת המפגינים על ידי פלנגות הימין או… bokeralmog חשד לדקירה על רקע ההפגנה נגד ראש הממשלה גבר כבן 40 שהשתתף בהפגנה בעוטף עזה פונה לטיפול רפואי לאחר שנחתך בצווארו מצבו קל… DavidLifshitz זה בעבר הרחוק אבל בעולם שנראה עתידני ביחס לעולמנו ולכן מלחמת הכוכבים הוא סרט פנטזיה ולא מדע בדיוני 🤓 EladWolf itayr2 tamarzandberg אני לא חושבת שאיתי אומר לרגע שלנשים אסור לעשות מה שהן רוצות עם הגוף שלהן במאבק שלה…  itayr2 EladWolf tamarzandberg אלעד אני מאוד אוהבת ומעריכה את איתי וגם אותך לגבי זה שאסור להאמין לנשים שמתלוננו…  omereshef hagaykr היו מזמינים אותו שוב  כולנו קמות ויוצאות זה ויראלי והיו רוצים שהוא יגרום לזה לקרות שוב חוץ מ…  hagaykr אני מבינה את הגישה ואולי גם נקטתי בה בעבר אבל אם אף אחת לא תבוא לא יוותרו על ינון הוא פשוט יישב שם לבד ו…  hagaykr תסביר אני הקרנפית כי התווכחתי איתו dasides פרופ אהוד גרוסמן דקאן הפקולטה לרפואה באוניברסיטת תל אביב בשיחה לגומרים הולכים  גומריםהולכים SHEBA  TelAvivUni  TLV1… ציצים זה רצח  ס׳ כי היא ספקטקולרית וואלה לא מצאתי סופרלטיב שווה אחר שמתחיל באות ס׳ ואל תגידו לי ססגונית   EliBitan טיפולי המרה חוץ מזה שהם התעללות חמורה בנערים כוללים לרוב איסורי תורה חמורים פורנוגרפיה אוננות ולעיתים רבות גם צריכת זנות… דיון ב״לפני החדשות״ עם sivanhakolkalul וMeravlap על המחאה המתפשטת לצערי יותר מדי זמן מהויכוח בוזבז על ההתעקשות ש…  konkolit1 מסתבר שגם זו הטרלה יעלי האמיתית לא הסכימה אבל הן מאושרות אחת עם השניה גם בלי ברית זוגיות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ראיתי הרבה תמונות מרגשות של כיכר דיזינגוף מהערב אז קחו תמונה מרגשת של הכיכר מ1952 שצילם סבא שלי דני שיק ולא מאמי…  מִן הַפּוֹסִיקֵט שָׁבוּ בֶּן הַנֶּאֱשָׁם בַּפְּלִילִים וּבְנֵי טייקונים זַנָּאִים הָיוּ מְבַלִּים  צָמְחוּ מִתְפַּ…  yanivbiton99 מושלם לכבוד הגמר של החתימה והשנה החדשה הגיע הזמן להחליף את הביטוי להחליף דיסקט ומהר  עלאק סטארט אפ ניישן לא פלא שהכל פה…  shireuven גם שלייייייי יששששש האיש הכי מצחיק בעולם  בחיים האמיתיים  הכותב של התכניות שאתם הכי אוהבים  המלך של חיפה ויד אליהו הגיע לטווי…  כדי להתעודד מסגר שני צופה בסרט של eyaldatz על האינתיפאדה השנייה  galithoogi את החצי בחריינית היחידה שאני מכיר בכל אופן galithoogi עשינו שלום עם בחריין galithoogi הלילה יענקלה לאן נעלה לצזאר אחכ נבקר את גולדמן galithoogi הלילה יענקלה לאן סוף דבר galithoogi יש דיבור הוא ומיכל זוארץ שתו את כל התקציב של רשות השידור על פיציפקס galithoogi דווקא יעקב מנדל הלילה יענקלה לאן לשום מקום יענקלה לשום מקום המצב כל כך חרא שצריך להחזיר לטלוויזיה את התכנית הלילה יענקלה לאן neta53525557 קץ הבידור  תודה רבה ריגשת 🥀  SupC ayakorem כן  רואים את זה במבט שלי כורם אוהב את ayakorem   liorynaalhaolam ילדים זה מצחיק כי לפעמים אין להם שיניים והם נראים כמו נרקומנים קטנים נתניהו החשיפה על השחיתות במחש ובפרקליטות מדירה שינה מעיניי לכן החלטתי למנות את שלום אסייג כמפכל המשטרה אוקי אני מוכרח להעיף את זה מהמוח שלי מה אומר ערבי כשהוא דורך על ירושלים אח דרכתי אל קוץ האם השיער של שטייניץ בצבע אפור אגוז שמזכיר את הצבע של נתניהו גרסת 2017 כן האם נתניהו משתמש בשיער של שטייניץ כמכונת…  barakyitzhaki מי נותן לו במה כל הערוצים או הטוויטר הצנוע שלי כולם שומעים את הצפצוף האידיוטי הזה ברקע של הנאום של ביבי מעין דינג דונג של דלתות מעלית שנפתחות בוזי הרצוג חולה על לעשות שיחות עבודה בזום אההההההה עכשיו הבנתי למה לתכנית של גמזו קוראים רמזור כי איצקו חטף קורונה היה כבר או איה כבר די ירמי כמה אפשר להיות מצחיק אני מת מה הסרט הכי טוב לתקופת הקורונה המסכה חההההההההההההה בואנה שמעתי איצה חוזר אולי לפני שששים להחיל ריבונות ביוש  כדאי לנסות להחיל אותה בישראל נגיד על הערים האדומות  לכבוד 1000  עוקבים ביממה לחשבון אינסטגרם שפתחתי לדני שיק סבא שלי  מעלה פה עוד תמונה והפעם הדוור תל אביב 19…  israzohar לכתב חדשות 13 עמרי מניב שתיאר את חלק מהמפגינים כשיכורים אתרשם ממך יותר כשלא תגיד שלוש ליטר YinonMagal אפשר ממש לחוש בהנאתך עת הקלדת  את המשפט זרגי ענק עוד תמונה לפנתאון מתוך ארכיון דני שיק תל אביביים נוהרים לאלטלנה המפוחמת לדלות שאריות נשק כמזכרת 1950   1954 עוצמה נשית והשלד של אוניית האלטלנה תמונה אחת מבין אלפי תמונות מדהימות שדני שיק סבא שלי צילם ולכבוד יום הול…  LeahLev אני רוצה להיות ראש עיריית ערד דעה מאיפה לי אם היא לא פופולרית יש מצב היא שחוקה לאללה עד שהשמאל לא יתנחל בלבבות הנאשם לא יעוף לשום מקום…  yoavr ואת שי 360 כשי  ומכיוון שבמעון בבלפור נמצאים אנשים שתקנים הכל בסדר ואין סכנה לשלום הציבור  שבת שלום נתראה בבלפור…  השגתי סלפי עם ניב מגר הגדול  להבדיל מהמזרחים הרוסים האתיופים ובני המנשה דווקא הקורונה נקלטה ממש טוב בארץ מה ערוץ הילדים הכי מצליח בשיקגו שיקגו הופ חחחחחחחח איזה מלך אני כל טוב ספרד  וואו גם את העמוד קקי של מפורסמים  אה גם את העמוד קקי מעל קקי  אה גם את העמוד קקי על יד קקי  לדעתכם אני המנהל של העמוד קקי בתוך קקי  אם עופר שלח מתחיל להסתובב עם רטייה תוך שנה הוא ראש הממשלה הבא של ישראל חולה אהבה בשיכון ג יותר כמו חולה קורונה בשיכון ג בשכונה שעשו עליה סגר חחחחח כי זו עיר אדומה כי כולם שם אוהדי הפועל חחחחחח  הפרק המלא לפני חודש התארחתי בפודקאסט של yoavr ודנו בסוגיה הבוערת למה נערי האוצר נשמע כמו מונח הומו אירוטי מיוון העתיקה  למה המציאו את הפורמט של מחיקת הודעה אם אחרי שמחקת אותה זה שולח לנמען שמחקת הודעה זה מטריף כמעט כמו להתחיל לספר מש…  Obar06485129 אני מגיע לשדרות בחמישי מעיין בלום יעשה חיקוי מושלם של שאול מרידור BoogieM09904086 זה כואב כמה שאתה צודק BoogieM09904086 בגלל זה הם בועטים בכת עם הרגל  מה הספורט האהוב על יוצאי כתות כת רגל חחחחחחחחחחח  אני אוהב סוגריים כי זה מרגיש כאילו כתבת טקסט שאף אחד לא רואה תכלס זה כמו דני דין הרואה שחושב שהוא לא נראה אבל…  חלמתי שכל הזמרים והזמרות בעולם מואשמים באונס והטרדות חוץ מדין דין אביב לכן משמיעים ברדיו 247 רק את השיר את מוכר…  adamrotbard shiramakin yoavr עוד יום במעצמה ישראל 2020 הכלכלה מהחזקות בעולם מתנהלת בלי תקציב מ 2018 עם הספר  לא מסוגל לפתוח שנת לימודים והצבא…  LeahLev נב ליאור פרחי האמיתי נתן לי היום עוקב באינסטגרם  LeahLev יוסי גיספן לא הפזמונאי נשמע כמו דמות שלי ממה נסגר ב2017  ראיתי אותך אתמול רוקדת בבלפור ובאתי להגיד היי…  אתמול ביציאה מההפגנה שרתי לשוטרים שבוע טוב למשטרה לפי הלחן של מי שלא קופץ  והם היו מבולבלים וחיכו לפאנץ…  וידוי ב2011 כל הזמן שרתי בטעות במקום לעשירים נותנים לעניים איזו מדינה של מושחתים הכינוי החדש שלי  אוקי וואו הסרטון של שרה עלה אצלה באינסטה ואשכרה גרם לזה שעושים על הנערה הזו שיימינג בתגובות  amitos לנערה הנוספת שהייתה הופכת את הסרטון לנערות אבל הבריזה כי פחדה שסרטון עם שרה רק יגרום לזה שיעשו עליה יותר שיימינג arrhton כן תכלס זה זירו בכוס יין וזה לא קצת סותר אנונימיות והשתתפות בסרטון של אשת ראש הממשלה וערדלייםםםםםםםםםםם RaulPanim שיט כתבתי את זה ונמחק לי ואי אפשר לערוך בטוויטר  אז טוב שהוספת  מה נסגר עם הכפפות  הנערה היא ניצבת  אפילו לא מציינים איך קוראים לה רק שרה מקבלת קלוז אפ הקלוז אפ על הנערה זה זום אין דיגיטלי ומפוקס…  עלה סרטון בשם שרה נתניהו במפגש אישי עם נערות שחוו שיימינג אבל אם תצפו בו תבינו שהוא צריך להיקרא נערה שעברה שיימ…  אוי ואבוי לכולנו  היי חברים אני מתחיל חוג דיג ברשת און ליין בתכנת הZOOM חמישה מפגשים  שבע שעות כל מפגש מפגש ראשון חינם  כי איך אומר…  מושלם  BenKusput ולינק יש לך אחלה אפשר קישור לראיון של אביחי גרין המפגין שהותקף עי ניסו גואטה arrhton Galgi5 לא בתורה עצמה זה הכל בפרשנויות Galgi5 אני גם חושב שהייתה להם בת שנגנזה מהעלילה LiorBergman איפה זה מוזכר אם בני האדם היחידים שאלוהים ברא היו אדם וחווה והילדים היחידים שנולדו להם זה קין והבל וקין רצח את הבל זה אומר שבש…  למנות מפכלית CohenBeats  ברוך הבא לשעשועון מי רוצה להיות נסראללה הצעיר RTsipris LazyishaiV2 אבל למה לבחור תמונה שלי מ2013 שהייתי שמןןןןןןןן קח תמונה שלי מ2003 שהייתי schoolshuter  קיבלתי הודעה מRTsipris שטען שנסראללה הצעיר דומה לי בגדול אין לי בעיה עם זה רק עם התפיסה הגזענית של כל המשקפופרים…  Spinach333 ובזווית ובאיכות טובים יותר רמת שגיאות כתיב בא לקלל ונמצא מברך  תמהוני צורח עכשיו בשנקין שמישהו ידחוף לי סביח לפרצוף זה 12 וחצי שקל כולם אוהבים אותי בתל אביב  אם מחפשים דברים איזוטריים ביוטיוב מגיעים למקומות נפלאים  אוקי  הרמת כוסית במסעדה שהצרות שלך יהיו קטנות כמו המנות פה איזה יום שמח יום של הדחקות העולם מלא ניסים ונפלאות yosefack יענו הארת הון וכסף מוצל  מוחשך לא הגיע הזמן לשנות גם את המושגים כסף שחור והלבנת הון וְיֵעָלֵב הַסְּתָם סוֹפֵר שֶׁכּוֹתֵב אֶת הַטּוּר כִּי אִישׁ לֹא אִיִּים לְהָורְגוֹ עַל אַף שֶׁגַּם הוּא לוֹעֵג לְפ…  שוב שכחתי לסגור גרשיים למה יצחק שום אחראי על טוויטר שלי למה תודה לערוץ 20 על התקציב הפקה לסדרה שכתבתי ברווח של אראל סגל פיוזן זאנרי בין ריק ומורטי ואיצה שזה בעצם סיטקום שמתרחש בין שיניים סי היימן היי אתה גיבור גדול בוא והראה לי שאתה יכול אני בחייאת סי  36 שעות אני ער על פארש יש לי נפש רעועה שצרי…  עומר רוצה לדבר על שרה נתניהו מיכל האמת שלא עומר אני ממש רוצה לדבר על שרה נתניהו כי אני אוהב אותה ופאקינג שונא א…  כל פעם שאני קצת עצוב אני צופה בסרטון הזה  Chmeika כי זה מעליב ממש וזה המחיר של להיות אדם פתוח ומכיל ולא ציני כמו שאת ואולי ינחם אותך כמה המניפולציה שלה חשו…  היי אני יון וולך הבת  באהבה וייסורים יון וולך הבת מה קרה לנו כחברה סף הריגוש שלנו עד כדי כך הסלים פעם כל מה שהיינו צריכים זה איזה אסון וראסי קטן לא יאומן שבפעם…  nadavneuman הללויה התחיל להיות נעים בחוץ בערב עכשיו רק עוד חודשיים של סיוט במשך היום ואז רק עוד 70 שנה של התחממות בלתי נגמרת ואז מוות… ספר מופת  די נו נתניהו סגר עסקת נשק ענקית בלי לשתף גנץ ואשכנזי נתניהו שלנו שהסתיר את עסקת הצוללות למצרים מכל מערכת הביטחו…  קליפ חדש לשיר החדש שכתבתי נשיקות ממוגנות השיר מבוצע עי idokatzir היוצר של הלהיט תעשו את הסימן  לפרטים נוספים לחצו הסר  שמעתם שהכינוי החדש של עמית סגל זה אבו דיבה הבנתם כי הוא כל הזמן מאיים לתבוע דיבה  אבו דאבי  יש לו אבא גדול לא  תבעאותיעמית רואיםשזהמיסמס ראיתי היום הומלס עם חולצה של מיסמס 33 אם זה המצב אפשר שבזמן שמקדמים ספינים שמתחפשים לשתפים אזוריים פשוט יפתחו את מעבר טאבה ויתנו לנו להתחרדן בסיני…  23 בזמן ש 9 מיליון ישראלים כלואים בארץ באמצע אוגוסטלא פלא שהמאבק על נחל ההאסי עולה לכותרות ולא פלא שהמאבק הצודק…  13 במקום לקדם רפורמת תיירות פנים ככה ששבוע חופשה באילת לא תעלה 5000 שח למשפחה שכר המינימום בישראל  5300 שח נ…  היי חברים מתחיל לעבוד כשמרטף סקולנטים ‍   מקום 34 בקטגוריית צומח בארץ עיר דובר סקולנטית שפת אם  עבדתי עם יש…  DanyCushmaro כמעט עבדת עלינו 830 חוף הדולפינריום בתום נסיעת בוקר באופנוע ים  דני קושמרו מצוטט לשיחה של tomerfish  ושלי כשהוא נעזר בתחקירני…  galasi RoyIddan מסכים בימוי מצוין מאנייכ של RoyIddan סדרה פשוט מצוינת סדרה שלא מתחמקת מהאסתטיקה הישראלית הכל אמין מקומי מדוייק כל ליהוק וכל די…  פיטנות ייחרתי ורוממתי  NubiSawasawa מרגששש דורש כתבת המשך yairbrill מזתומרת NubiSawasawa ישששששששש איך אבל האסי שובי הביתה כמה אפשר עם הפי סי בואו תגידו את האמת חוקרים תיעדו אורגיות המוניות של צפרדעים ברזילאיות   ליל הדד ליין הפך ללילה לבן של נבירה בתנך ובעצמי עד שהזריחה מרסקת בי מגננות והשבוע יצא משהו אחר על אדם שהפך במגפה…  ייעצו לי להרכין ראש לנטוש את העקרונות שלי להתאתרגההליך הזה נגוע בשיקולים זרים נועד להפיל ראש ממשלה של הימין…  אני בואנה ביבי עושה שלום עם כל העולם הא הנהג מונית רק ביננו הוא לא עושה שלום yoavr דורון כבר לא כל כך שפע הא מצב אנכי זה הכי אחי מה משותף לבולונז ולי שנינו רוצים שיתנו לנו לשבת בשקט עם עצמנו כמה שעות כדי שנהיה יותר טובים יקבי ברקן מונעים מאתיופים לעבוד ביצור יין מטעמי כשרות גדי יברקן קיים שתפו שכולם יראו את ההקשר הלוגי הכושל שעשיתי פה שיט יש לי את כל החיים להיות אני Lucy67051504 הון שלטון גב תחתון של גבר מבוגר באוכלוסיית סיכון להסניף ממנו חיסון קורונה YotYotam asaflib KalmanLiebskind YinonMagal BenCaspit noamfathi אל תמות פה עוד יאשימו אותי ברצח פוליטי ולסיכום לא ישנתי 36 שעות ואכלתי אמפנדס בשר ב8 בבוקר ועל הבוקר נאלצתי לנהל מומ מתיש  עם שחר הווטסאפ שלי רתח  asaflib KalmanLiebskind YinonMagal BenCaspit YotYotam noamfathi  שרשור שקרים שמתחיל בידיעה שפרסמנו כאן אתמול בחדשות האיזוטריה  יעדי הטרור שצהל תקף הלילה ברצועה   אוקי אם כבר אתם לא מתכוונים להוריד את השלט לפחות תשדרגו אותו  כמה ספאם יש לי בתת מודע אוי לא אפי איתם הרגע אמר לי דן תיכון למד איתי ביסודי ואז הוריד לי כאפה הרים את הכריות ספה שלף משם את גיל אלון ש…  באיזה קטע חבר הכנסת לשעבר אפי איתם דופק אצלי בדלת באחת בלילה וטוען שיש לו אישור לעשות חיפוש לפצלי שמן כדי להפיק מהם נפט galdukhcr דברים שלא תקראו אצל אחרים הממשלה החליטה על מוצרי יסוד ובינהם לחם לבן אחיד שמחירו 5 שהמאפיות הגדולות הקימו מחאה על מחירו ה… HanyVayzer גב תחתון של גבר מבוגר אתם צריכים הוכחה הנה זה כתוב באינטרנט אוקי  HanyVayzer אבל זה יהיה פייק ניוז להגיד דבר כזה מסניפיםחיסוןקורונהמגבתחתוןשלגברמבוגר tomerfish ואני צריכים את העזרה שלכם  Obar06485129 חחחח נפל לך על הראש בולבול של בדואי לקראת הבחירות הבאות חייבים לעצור את התפשטות התופעה הביזארית והאזוטרית הזו שהיא ההומור הגרוע שלי…  הסלמה ברצועת עזה  נתניהו בתגובה מחזיר עטרה ליושנה ואת וואלה לימי 2015  הסתה מכוערת דורשת עיצוב מכוער  למנות את אולמרט כראש הממשלה החליפי חליפי בזמן שגנץ עובר ניתוח  סוג של פולסא דנורא כמו כן מי ימונה בזמן הניתוח כראש ממשלה חליפי חליפי הכתבה של הגר וגקי  בהמשך לכתבה של HShezaf  ו KhJacki ב Haaretz דודה ושני אחיינים הגיעו משכם לחוות ים פעם ראשונה בחיים הראתי לה את…  והפרשה המלאה והלא מנוקדת כאן  שגיאות הניקוד שלא היה לי כוח לתקן בחסות אתר נקדן  נב אני ממש בעד לבכות הרבה ולבכות זה לא להתבכיין Crime minister יותר כמו cry Minister הבנתם כי ביבי בכיין  תודה ⁦⁩  PlotkinYuval הספרייה הלאומית מקפיאה פעילות ומחלתת 300 עובדים כי המדינה מקצצת בתקציב שלה בכל פעם שאנחנו מתעלמים מדבר כזה נשחקת הפרי… בואנההההה מהעם הנבחר הפכנו לעם הבוחר הא איך הבילוי פינתי זוכת הגידופים ממה נסגר בתור קובי אושרת לא התמלילן ועם יד בתור מיקרופון  קפץ לי ממורי מהתקופה שהקריירה שלי נסקה  הדברים האלה צריכים להיות בטלוויזיה המקום היחיד שאני יכול לחשוב עליו זה מהצדהשני  guyzo  yoavr  AvnerCoh רק אם היא אכלה שעועית לפני מותה צילייה זה גם בקטע צילייה אחלה  DavidLifshitz בנימין נתניהו שלום רב השטרונגולים הגדולים בהפגנה אכן דוחים וסרי טעם מצד שני כל עוד נתן אשל עובד אצלך שהמילה ארגוני נשי… הדבר הכי משמח שראיתי היום חוץ מהטעמי שאסיה קנתה  yoavr אוף זה מושלם אמרתי שלוש פעמים ונבלע לי הכרטיס  לבנון לא ביזיון אתה למשל גם ביזיון וגם מוקיון וגם חלאת אדם  hanggili ברור hanggili זה תסביך חמור פי אלף מלקרוא להורים שלך בשמות הפרטיים שלהם hanggili אני קצת מרחם עליו אולי כי אני משליך ומזהה בינו ובין שרה יחסים סימביוטיים וחולים ותלותיים כמו בין אמא של…  galasi הערב בחדשות 13 עימות ראש בראש בין המפגינים למתנגדיהם מצד אחד פרופסור ימין ימנוביץ ומהצד השני ילד בן 17 לבוש פרחים עם מסננת ע… yallanu זה כי שדיים הפכו פוליטיים Cusamano מוכן להסביר למה אין שום סיכוי זה מאוד ינחם אותי לכל צייצני העל מה אתם עצובים זה מחסן נשק של חיזבאללה ומצטטי ה״כל המרחם על האכזרים סופו להתאכזר על הרחמנים״ יעשה…  WalterOrWhite ועדיין אפשר להיות עצוב על זה או שאסור להרגיש רגשות מורכבים ולא דיכוטומיים idanliav מה זה מאיפה זה WalterOrWhite כן פליז שלא אנחנו עשינו את זה פליז שלא אנחנו עשינו את זה פליז שלא אנחנו עשינו את זה פליז שלא אנחנו עשינו את זה פליז של…  שיט איבדתי את זה פְּתַ֥ח לְבָנֹ֖ון דְּלָתֶ֑יךָ וְתֹאכַ֥ל אֵ֖שׁ בַּאֲרָזֶֽיךָ זכריה פרק יא פסוק א tomfreedomlady יפה אוף הפיצוץ בלבנון כל כך מעציב אותי הרס הלבנון שום דבר עוד לא ידוע ואולי מחר יתברר אחרת אבל הפיצוץ בלבנון ישר גרם לי לחשוב על חיפה ועל אסדת הגז מול חוף דור ועל א…  אני לא מאמין שעשית לעצמך לייק regevmiri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">צילום מרחבי הרשת לא הצלחתי למצוא קרדיט צילום במדינה הקטנה שלנו לא חסרות דעות או מחלוקות ועדיין תמיד נשמר הביחד הזה אותו רכיב סודי שעושה אותנו ישראלים אסור ל…  מנהיגות שמתעסקת בכל דבר שהוא לא בריאות וכלכלה היא מנהיגות שצריכה ללכת הביתה צפו בקטע המלא  ״יש יועץ משפטי והוא קובע״ שקרעי עכשיו בועדת חוקה הלכתי להדפיס על חולצה shlomokarhi עכשיו בועדת חוקה הייעוץ המשפטי מסביר שחובה לחוקק את התיקון לחוק הקורונה לפני שמתקנים תקנות ככה עובדת מערכת החוק ב…  מה הטעם בסגר כשאין מערך יעיל לקטיעת שרשראות הדבקה שניתן להפעיל לכשיסתיים כבר חודשים שמקבל תירוצים מהממשלה בנושא ל…  LVertzhaizer אסטרואיד ואסטרואיד חלופי BarakRavid שוקינג YoavYoavkrak אני נחוש למקד את הדיון בהרחבת פעילות המשק בזמן הסגר  הממשלה עושה צחוק מהכנסת בזמן שאנחנו בועדת חוקה דנים בחוק הקורונה לסגר ועוד ממתינים לתקנות משרד הבריאות כבר החליט…  גיליתי הערב שמאז הסגר האחרון מוניתי לראש ממשלת ישראל ולא גילו לי הסתבר לי שכשלתי בהקמת מערך לקטיעת שרשראות הדבקה…  hadarw chaimlevinson מחמיא לי DaphnaLiel אם ימינה היו מגיעים להצביע אולי זה היה מתאפשר כנראה נעדרו בגלל ישיבת סיעה חשובה בה הם החליטו שוב להמליץ על נתניהו KnessetT dudiamsalem שום הסתבכות אם רק היה יודע שבית הפנקייק המקום האהוב עלי לתגובה המלאה והרצינית   הליכוד 2020 היא תנועה מנותקת שמתעסקת בעצמה בזמן של משבר היסטורי שמטלטל משפחות תתעוררו יש פה מדינה לנהל  talshalev1 באמת שהממשלה הזו שוברת שיאים של 🤦‍🤦‍🤦‍ מליאת הכנסת נפתחה כדי להתחיל לקדם את תיקוני חוק הקורונה רק כדי לסגור אותה אחר… פניתי היום כיור שדולת ההייטק לוועדת  החוקה בבקשה להחריג מהסגר מפעלי ייצור מענפי ההיי טק השונים חברות מחקר ופיתו…  על סמך אילו נתונים החליט נתניהו על סגר מלא ולא על צמצום המשק כפי שהמליץ גמזו אולי הוא שוב מסתמך על ״השכל הישר״ בזמ…  העיקר שאת הסיבוב התקשורתי פלוס גזירת קופון הם הספיקו לעשות כרגיל זה רק העניין השולי של יישום התוכנית שהם איכשהו ת…  YairGolan1 AyeletShaked MichalShir MeravMichaeli evgenysova פניתי הבוקר יחד עם קבוצת ח״כים מסיעות הבית השונות לפרויקטור גמזו בבקשה שיאפשר TA ממסעדות מדובר במקור הכנסה קריטי…  אחוז האמון בנתניהו יורד בקצב שאחוז העסקים הנסגרים עולה  מזל שאתה שובר שתיקה סוף סוף נדע אם אתה בעד או נגד netanyahu  talshalev1 שני הלוגואים לא משהו אבל ברמת הלוגו אני לגמרי טים חגואל נתניהו רגע לפני יום כיפור אולי תבחר לפייס במקום לפלג  netanyahu idoklein1 ZRTZR שאטלים זו דוגמא אפשר גם אוטובוסים בשני הפתרונות יש יכולת להגביל תפוסה מה שלטענת הרכבת הקלה לא…  ZRTZR idoklein1 תחבורה ZRTZR idoklein1 תחזוקה ציבורית חייבת להיות אבל היא חייבת להיות בהלימה לפוטנציאל התחלואה לא ייתכן שהרכבת הקלה בע…  ZRTZR ואין ניסיון שאחד יהיה תלוי בשני העלאת סוגיית הפעוטונים נועדה להראות שוב שהחלטות על מגבלות צריכות להתקבל ע…  ZRTZR במידה עוקבת אחר הדיון אתמול אתה בוודאי יודע שקידמתי מתווה לויסות קהל ברכבת הקלה כדי שתוכל לפעול בצורה בטוחה…  אנחנו בעיצומו של משבר כלכלי ובריאותי המנוהל על ידי אנשים שלא היו שורדים דקה כמנהלים במגזר הפרטי החלטות מתקבלות בהי…  אין דרך לבחון את יעילות הסגר והשפעתו לאחר ימים ספורים בלבד ממשלה היסטרית שנחושה לאבד את שארית אמון הציבור קבלו הח…  htyaniv אני לא יודע עד כמה אתה שולט בכלים הפרלמנטריים השונים אבל במסגרת אלה העומדים לרשותי כחבר כנסת מהאופוזיציה…  htyaniv יזמתי דיונים בנושא בועדות הכנסת השונות והצפתי את הבעיה לכל אורך המשבר מול הגורמים האמונים על הנושא בנוסף…  לפני מספר חודשים קבע משרד הבריאות יעד של 3000 חוקרים קבע ולא יישם נכון לעכשיו יש כ1200 התוספת המדווחת מביאה א…  ואומרים שאין אנרכיסטים בבלפור  zviashkenazi LVertzhaizer אומג zviashkenazi LVertzhaizer איזה זום משותף אגב אני ממש אוהב את התכנית החדשה שלה באפל עונה שניה בקרוב LVertzhaizer zviashkenazi לא לא כמובן שראיתי את הנגיעה המשמעותית של בראד בג׳ניפר בטקס שנה שעברה פשוט תהיתי אם יש עוד התפתחויות LVertzhaizer חושבת שיש מצב רות ביידר גינסבורג הייתה פורצת דרך ליברלית בתחומים רבים שזכתה למעמד של כבוד בקרב שמרנים וליברלים כאחד  בספטמבר 20…  הגעתי היום לדבר עם BenMittelman בחדשות מוצש על הסגר שהחל אתמול לצד דרישה בלתי פוסקת מהממשלה לנתונים המגבים את הח…  amitaiz אתמול שוחחתי עם חברה שבעלה הוא הבעלים של שווארמיה מוכרת בעיר   ניר עובד בסגר  לא לא ריווחי לו עם טייקאווי הוא כן היה פות… אם אין לחם יאכלו סיסמאות ריקות מתוכן  ב נתניהו Shmuelbenzvi אה סליחה אני לא רגיל שיש הומור בטוויטר Shmuelbenzvi לא פשוט איכפת לי מענף המסעדנות ומכל אותם בעלי עסקים שנלחמים על הפרנסה שלהם מצער מאוד שהקואליציה התעקשה להצביע נגד טייק אווי למרות שפרופ׳ גרוטו הודה שאין בזה שום סכנה מבחינת תחלואה הם מעדיפ…  אם לסכם את הפארסה של תקנות הסגר במשפט מטרת העל היתה למנוע התקהלות כדי להוריד תחלואה התקנות עושות ההיפך מגבילות ת…  אף אחד לא מבין את תקנות הסגר נדרשת עבודה סמינריונית בנושא כדי לדעת כיצד לפעול זה יוביל לעומס על המשטרה אשר תתעסק…  Meravbenari sbyifat magazineLiberal יפעת נבחרת ציבור ישרה ומרשימה באיסור טייק אווי סיכון התחלואה הוא זניח אם בכלל לעומת זאת הנזק הכלכלי אדיר קריסת ענף ושליחת עשרות אלפי אזרחים למעגל האבטלה איפה ההיגיון שליח נכנס למספר מסעדות ומגיע למספר בתים פוטנציאל ההדבקה שלו גדול משמעותית מאדם פרטי שעומד בחוץ באויר הפתוח ומקבל ש…  אף אחד לא מזמין משלוח של פלאפל או שייק משרד הבריאות אומר שאין סכנת תחלואה בטייק אווי זה הרס של ענף שלם ללא סיבה עכשיו בוחוקה פרופ׳ גרוטו הסביר שהאיסור על טייק אווי נובע מחשש להתקהלות זו סוגיה של אכיפה שלא מצדיקה פגישה בפרנסה…  סגר הוא לא הפיתרון מה כן  כלל אחיד ונוקשה של איסור התקהלות  עוצר בחגים   אכיפה מוגברת  הפעלת המשק על פי התו ה…  תקנות הסגר בהן אנו דנים בשעה זו בועדת חוקה הן מלאות חורים שנוצרו כתוצאה מפוליטיקה קטנה בסוף הממשלה מפילה את האחריו…  קורא עשרות עמודים של תקנות הסגר לקראת הדיון בחוקה ב11 המון תקנות אבל אפילו יותר סימני שאלה איך החלטתם לסגור את החינוך לגיל הרך בגלל 0035 הדבקה מדובר בילדים קטנים שעברו הסתגלות מורכבת ושנמצאים ממילא בקפס…  הממ לי זה נשמע כמו טייק אוויי  הממשלה ממשיכה לרסק את אמון הציבור עם הנחיות מופרכות וחוסר דוגמא אישית  אני קורא לממשלה לחשוף את הפרוטוקולים של ישיבות הממשלה העוסקות בקורונה ואת הנתונים שהוצגו בפניה לצורך קבלת ההחלטות…  סמוטריץ בנאום תוכחה על כישלון הממשלה בקורונה אני ממתין למשפט הסיום המתבקש ״ולכן נמליץ על נתניהו״ bezalelsm  מצד אחד הפרויקטור גמזו שדורש לסגור את מערכת החינוך בגלל התחלואה הגבוהה מצד שני שר החינוך הטוען ש66 מהתלמידים נדב…  ״ולכן נמליץ על נתניהו״  מאחל רפואה שלמה לפצועים ולילה שקט לתושבי הדרום יולי אני מבקש ממך להפעיל את סמכותך כשר הבריאות ולאפשר איסוף עצמי של מזון ממסעדות זה נותן להם חמצן לעסק ומונע פיטו…  NadavPerez הם לא צריכים לבוא אחד על חשבון האחר אפשר וצריך לאפשר טייק אוויי ממסעדות באופן שלא יוצר התקהלות ואפשר…  TamiLeeKerzner yaronavraham מסכים לגמרי ShiloRubin DorDugy fakesagi לשתות יין אני אוהב לבשל פחות אם בצלאל מוכן לקחת על עצמו את החלק של הבישול אז אולי יש על מה לדבר מתחייב לעשות כל שביכולתי כדי שהמסעדה שלך תצלח בכבוד את התקופה המאתגרת הזו  nilimord Inbal12345 מקורה וצפוף  מראש מבקש מכולם להימנע מפופוליזם ולא להפוך את הסגר למלחמה בין חילונים לדתיים אני בעד לאפשר מקסימום מתפללים בדיוק כ…  לצאת לקנות אתרוג מותר לצאת לקנות טייקאווי אסור מקווה מותר בריכה אסור שחיה בים מותר אבל רק למי שגר במרחק 500…  omerpo1 RPRoee chaimlevinson תודה עומר כל ח״כ שאמון הציבור יקר לו צריך להצביע מחר בעד הצעת החוק שלי לחשיפת הפרוטוקולים של הקורונה למה חנויות מזון כן וטיי…  שימו לב לסעיף 4 מה ההיגיון מה הרציונל לאסור טייק אווי אם זה חשש מתורים אז החשש קיים גם אצל הקצב ובמאפיה ובכל מ…  RPRoee chaimlevinson יש המון הפתעות בחיים moshkog hadarse אני באופוזיציה הטייק אוואי הוא גלגל ההצלה של מסעדות רבות בסגר אבל הממשלה ביטלה אותו בלי הסבר כל החלטה של הממשלה שפוגעת בפרנסה של…  טוב שיש את מי להאשים רק לא את מי שנושא באחריות הממשלה נכשלה בהקמת מערך יעיל לקטיעת שרשראות הדבקה הממשלה נכשלה בא…  chaimlevinson עמר ינקלביץ שרה בממשלה בתגובה לעידן רול מסתבר שלא יודעת ההבדל בין משלוחים לטייק אווי והאנשים האלה מקבלים עלינו החלטות… בסגר הראשון הטייק אוואי סייע למסעדות לשרוד החלטת הממשלה לאסור טייק אוואי בסגר הקרוב תביא לגל פיטורים נוסף בענף אשר…  יש דרך לפזר את הערפל מעל החלטות הממשלה ולשקם את אמון הציבור חשיפת הפרוטוקולים של דיוני הממשלה בנושא הקורונה לציבור…  ועדת הכנסת דחתה את ההסתייגות שלי להפוך את המלצת ועדת קביעת שכר חברי הכנסת למחייבת ולא להמלצה שניתן להתעלם ממנה אם…  ברביעי אעלה להצבעה הצעת חוק לפרסום הפרוטוקולים והנתונים של הקורונה קורא לכל חבריי וחברותיי למשכן שמאסו בתירוצים ור…  הממשלה הכושלת הזו יכלה ללמוד מטעויות עבר ולנסות להשתפר לטובת המשק והציבור אבל הפרוטוקולים של דיוני הממשלה בקורונה…  בלתי נתפס לראות איך shlomokarhi שעשה כותרות בעיתונים על היוזמה שלו להגבלת שכר ח״כים מעדיף להגיש הסתייגויות על הה…  עכשיו בועדת הכנסתshlomokarhi נאבק בהפגנות בשליחות בלפור במקום להאבק על קיצוץ שכר החכים בתקופת משבר כלכלי כרגיל…  עוד החלטה לא מנומקת של הממשלה אני קורא לכל סיעות הבית לתמוך בהצעת החוק שלי לחשיפת הפרוטוקולים של הקורונה ממשלה שב…  בני אתה שותף מלא להרס המשק בסגר נוסף בגלל הכישלון שלכם בטיפול במשבר חודשים לא עשית כלום למנוע סגר נוסף על מה יש…  איך נתניהו אומר שהמגזר הפרטי יעבוד כרגיל פרט לקבלת קהל אם מערכת החינוך סגורה הוא יודע שמישהו צריך להישאר בבית עם הילדים במקום להחיל סגר על המסעדות ולחרוץ את גורלן הממשלה צריכה לאמץ תו סגול למסעדות שיאפשר פעולה מבוקרת גם תחת תחלואה גבו…  הממשלה לא מצליחה להגיע להבנות עם עצמה על מתווה הסגר לקורונה אבל אם תרצו לדעת על בסיס מה התקבלו בסוף ההחלטות תאלצו…  NitayAnavi הכלכלנית הראשית באוצר אחרי החלטת קבינט הקורונה הפגיעה הכלכלית בתוצר משבועיים סגר ושבועיים נוספים של ריסון מהודק מוערכת ב… zviashkenazi צודק מניח שכל האופציות על השולחן מבחינתם ״ולכן נמליץ על נתניהו״  הביקורת הציבורית עבדה ונתניהו הבין שלא הגיוני לטוס עם המשפחה במטוס פרטי בזמן שאזרחי ישראל תחת סגר וקורסים כלכלית מ…  ״ולכן נמליץ על נתניהו לנשיא לאחר הבחירות הבאות״  talshalev1 ראיתי שבכחול לבן מצייצים שהאינטרס  הלאומי ניצח כי הממשלה אישרה אתמול את התוספת לתקציב ההמשכי רק אומרת הממשלה לא העביר… הצעה לסדר 2 כל שר או נבחר ציבור שמאיים בסגר ומרגיש גיבור יציע לעצמאים הקורסים לפחות מתווה אחד לשיקום העסק שלו זא…  הצעה לסדר כל שר או נבחר ציבור שדורש סגר יפרט מה הפתרונות אותם הוא מציע בתום הסגר על מנת להבטיח שלא נדרדר שוב לתחל…  בתקופת הקורונה גדלה הדרישה לסלי מזון בכ1500  משפחות רבות מכל הארץ התווספו למעגל מבקשי הסיוע בנוסף חלה ירידה בג…  הבוקר ערכו נציגי פייסבוק הרצאה למשתתפי פרויקט מתחילים בהייטק שם סיפרו על הליך הקבלה למשרות בחברה מה הם מחפשים ב…  קבינט הקורונה אוהבים לדבר על מגבלות אבל פחות על פתרונות שימנעו את הסגר הבא תקנים לפקחי קורונה לא אוישו חוקרים אפ…  התמונה ברורה בנט  סמוטריץ׳  המשך שלטון נתניהו בצלאל השאלה פשוטה ואמורה להיות לה תשובה פשוטה האם תמליצו על נתניהו לאחר הבחירות הבאות ההתפתלות מורגשת גם דרך הרד…  בני די נתניהו חצה כל קו אדום ואתה אפשרת לו כולנו מקווים שזה לא ייגמר בשפיכות דמים לכן עליך לעשות את הדבר הנכון…  BToporovsky בהצלחה בועז נפגשתי היום עם חכ יפעת שאשא ביטון sbyifat יו״ר ועדת הקורונה   דיברנו על מודלים לעידוד חזרתם של מובטלים לשוק העבו…  רק התבססות על נתונים תשקם את אמון הציבור בממשלה ובהחלטות שלה חבריי השרים רוצים שיסמכו עליכם תתחילו להיצמד לעובדו…  מחר פייסבוק מגיעים לפרויקט מתחילים בהייטק שלי בואו לשמוע מה אחת החברות המבוקשות בעולם מחפשת בעובדים שהיא מגייסת ה…  היום תעלה הצעת החוק שלי ושל yairlapid לביטול קיזוז 30 מדמי האבטלה בזמן הכשרות מקצועיות הנתונים של DemocracyIL מ…  מודל החלת הכושל השקעה קטנה מדי בתמריץ למעסיקים והיעדר הכשרות מקצועיות כל אלה משאירים את שוק העבודה בבוץ היום אעל…  ענף המסעדנות מוביל בשיעור האבטלה בחורף עם ביטול ההושבה בחוץ 70 מהמסעדות עלולות להיסגר ולשלוח כמאה אלף מפוטרים נ…  ILParliament לפני החשש מהסללה קודם שיעשו הכשרות מקצועיות ILParliament אני פועל למען צמצום האבטלה זה כולל התייחסות הן למעסיק והן לעובד הכשרות מקצועיות צריכות להיות תואמות…  ILParliament ועדין 20 בוחרים לא לחוק מהחל״ת האשמה היא לא בעובדים ושינוי מודל החל״ת הוא לא פיתרון כולל נדרשת הש…  ILParliament יש בסיס מסוים לטיעונים שלך אבל אני פוגש מציאות שונה בשטח והאשמה היא כמובן לא על העובדים אלא על מודל…  מה מסכן את ענף המסעדנות 1 מודל החלת שמעודד אבטלה או עבודה ״בשחור״  2 מענקים לעסקים שנפגעו ב40 ומעלה כאשר עבור…  בוהכלכלה אנחנו דנים על עזרה לעסקים הקטנים והנתונים מדאיגים מאוד הקרן להלוואות בערבות המדינה לעסקים קטנים בסיכון…  KnessetT יש יותר ויותר ניסיונות לעבוד בשחור חכ idanroll מYeshAtidParty בוועדת הכלכלה מסעדנים אומרים שעובדים לא רוצים לבוא לעבו… 3 מחר אעלה להצבעה את הצעת החוק שלי לביטול הקיצוץ בדמי האבטלה לעוברים הכשרה מקצועית מדובר בתמריץ שלילי נוסף למחפשי העבודה להישאר בבית 2 מובטליםיש מעסיקיםיש מרכזי הכשרהיש תקציביש אז למה כלום לא זז בגלל שהאוצר והרווחה רבים מי יקח קרדיט על ההכשרות המקצועיות gtgt 1 מדיניות האוצר לא מעודדת שיקום של ענף התעסוקה מודל החל״ת מתמרץ ללכת לים או לעבוד בשחור קצב חלוקת מענקי התעסוקה…  ומה בישראל מאות מיליונים הוקצו לנושא אבל שרי האוצר והרווחה עסוקים במלחמות אגו והקפיאו את הכספים  מובטלים יש מעסי…  מדינת ישראל מתמודדת עם אבטלה מטורפת בעקבות כישלון הממשלה בטיפול בקורונה חצי שנה שאנחנו בבוץ של הקורונה ועדין לא קו…  מתקן הובא לידיעתי ששר החינוך התייחס למעשה הנערים בתיכון הבוקר בכפר סבא אני מברך אותו על כך מערכת החינוך חייבת לנ…  אם אני הייתי שר החינוך מחר כל כיתה במערכת החינוך בישראל הייתה פותחת את היום בשיעור על סובלנות כבוד האישה וחינוך מ…  קודם הפילה ממשלת המנותקים את הצעת החוק שלי לקביעת שכר הח״כים על ידי ועדה חיצונית עכשיו היא מתעסקת בהקלות לעצמה כדי…  כשאין מדיניות כלכלית ואין תוכנית סיוע למשק אלא רק פיזור של מזומן מהשמים בחגים בשביל שקט פוליטי זו התוצאה וכל זה מ…  שוב החלטות מתקבלות על בסיס פוליטיקה קטנה ולא על בסיס נתונים שוב ההחלטה הזו תשלח לארכיון סודי ל30 שנה חייבים לחשו…  מסקנות אנחנו הגברים חייבים להוביל את המאבק יחד עם הנשים החמרת ענישה חייבת להיעשות מיד אבל מעל הכל צריך לחנך את…  לפני שבועיים אחרי האונס המזעזע באילת הבטחתי לעצמי לקחת חלק מרכזי במאבק נגד אלימות מינית היום הגעתי למשדר המיוחד…  70 מהמסעדות בארץ עלולות להיסגר בחורף כך עולה ממחקר שיזמתי  מה צריך לעשות 1 לאמץ את התו הסגול למסעדות אותו ניסח…  נתניהו חיפשת מורשת קיבלת ישראל היא שיאנית התחלואה של העולם אבל אפילו זה לא יגרום לממשלה המסוכסכת הזו להתכנס ליש…  כל הכבוד לכוחות הביטחון על הטיפול המהיר החלמה מהירה ומלאה לפצועים  בחורף הקרוב עלולות להיסגר כ70 מהמסעדות בישראל משמעות הדבר שמעל 100 אלף עובדים יפוטרו אימוץ התו הסגול למסעדות או…  שוב מאבקי אגו בממשלה על חשבון המובטלים והמשק כולו נדרשת תוכנית הכשרות מקצועיות עדכנית התואמת את שוק העבודה הנוכחי…  בהצלחה ילד שלנו אבא ואבא מטורפים עליך פעםראשונהבגן  משבר לא מנוהל מדינה לא מנוהלת  והאזרחים משלמים את המחיר  AmalyaDuek רפואה שלמה הממשלה חייבת לחשוף לציבור את נתוני התחלואה בערים האדומות בשילוב עם ממוצע ההדבקה בבתי הספר רק ככה ניתן לקבל החלטה א…  lielbendavid תודה ליאל זה כבר לא רק העם שאומר לממשלה הזו שהיא נכשלה זה גם הדרג המקצועי בה מנותקים  נכשלתם  בהצלחה לינור  בחזרה ממחאת בלפור עצרתי באולפן חדשות 13 אלו הדברים שאמרתי   הישראלים הפטריוטים שמגיעים להפגין בבלפור זועקים ״עזרו…  עכשיו בבלפור  בדרך לבלפור  מיקי נראה לי התבלבלת הורדת מספר המובטלים והנדבקים צריכה להיות תנאי להמשך קיום הממשלה  הערב באולפן שישי אני פותח בפניכם את ביתי מדבר על העשייה הפוליטית והקשר בינם שבת שלום  השר Israelkatz מתגאה במהדורה N12News בתוכנית החל״ת  תוכנית שגורמת נזק אדיר לשוק התעסוקה ומבזבזת כסף על אבטלה שי…  haakshan צריך להתייחס לעובדה שפריסת דור 5 מחייבת אנטנות בתוך מבנים ולהבין מה המשמעות של זה מבחינת מיקום במרכזי ערי…  haakshan אני לא מתנגד לדור 5 למעשה אני חושב שאימוץ הטכנולוגיה הוא בלתי נמנע וחשוב להתפתחות מנועי צמיחה טכנולוגיים…  N12News חבר הכנסת עידן רול ובן זוגו הזמר הראל סקעת בראיון זוגי לIdoSolomon מספרים על ההתמודדות שלהם עם ימי הקורונה על הקריאה של ר… אנטנות G5 נפרסות ברחבי המדינה כולל בתוך מבנים אבל אף אחד לא בדק לפני את ההשלכות על בריאות הציבור צפו  במאי שלחתי מכתב ליור הכנסת בבקשה לבטל את הפגרה בעקבות המצב לצערי מאז המצב רק התדרדר  גל הקורונה השני תקף את המדי…  וואו זה טלטל אותי לא משנה כמה חשבתי שאני מודע עדיין בחיים לא עבר בי פחד כזה או מחשבה כזו שאדם זר יכול לפגוע ב…  ביום שבת בהפגנה בכיכר רבין נגד האונס המזעזע של הילדה באילת פגשתי חברה היא סיפרה לי שהפחד מאלימות מינית נמצא שם…  תהיה גבר  הממשלה יצאה בכותרות מפוצצות עם מספרים עצומים ומרשימים אבל דואגת להקשות כדי שהעסקים לא יראו את הכסף  ממשלה של אחיז…  כבר בשבוע שעבר הגשתי שאילתה בנושא מינוי הוועדה והצעת חוק להוספת 250 מיליון שקלים לסל התרופות למקרה שהממשלה תמשיך לה…  ההחלטה להחריג את מוצרי הCBD מפקודת הסמים היא חשובה ותקל את סבלם של רבים יש להמשיך ולפעול לתיקון המצב בו מטופלים  ע…  הלב יוצא אל משפחתו של הרב שי אוחיון זל  כאב בלתי נתפס על ארבעה ילדים שהפכו היום ליתומים הלוואי והייתה דרך להקל א…  Shiritc בהצלחה שירית המתקפות נגד פרופ׳ גמזו מצד פוליטיקאים לגבי החלטות מקצועיות שקיבל מעלות תהיות רבות על אופן קבלת ההחלטות בממשלה והשיק…  פיד לעזרת חבר מחפש גבר לצילומי סרטון חברתי חשוב פנוי מחר בשעה 1300 בצפון ת״א כתוב לי בפרטי בואו לשמוע את סיפור חייה המרתק של לינור מייסדת טרנסיות לישראל על החיים כאישה טרנסית בישראל בלי פילטרים  שמח לאר…  הפייק פשרה של האוזר היא למעשה 120 יום נוספים של ניתוק ושיתוק אין תקציב אין מנועי צמיחה למשק ואין הסכמה על חקיקה ה…  יש כור היתוך חדש במדינה  ענף ההייטק במשך שנים גייסתי והכשרתי חרדים לתפקידים טכנולוגיים בחיל המודיעין מה שהתחיל כ…  talshalev1 מחכה שיחדשו את Veep הממשלה הציבה יעד לאיוש 3000 תקנים של חוקרים אפידמיולוגים אנו בתוך המשבר כבר חצי שנה וטרם אוישו אפילו אלף על אף ש…  בדיון על סמכויות החוקרים האפדימיולוגים בוועדת בריאות אומצה הסתייגות שלי לאפשר לוועדה לדון בהחלטת הממשלה בנושא תוך 7…  הבחירות נדחו אבל שלא תתבלבלו הן לא נדחו מתוך מחשבה עליכם האזרחים הציבור הישראלי ימשיך לשמש כלי משחק בידיה של ממשלה צינית מסואבת ומנותקת מקבל פניות ממסעדנים שהבקשות שלהם להלוואה מהקרן לעסקים בסיכון נדחות כי הם עסקים בסיכון  להם ולעובדים שהם מעסיקים א…  דוח שיזמתי מצא שמתוך 300 תקנים שמשרד הבריאות התחייב להוסיף לבתי החולים כדי להילחם בקורונה עוד באפריל אוישו רק 156…  4 גברים אל תעמדו מהצד בואו להילחם לצידן ולמענן אונס הוא רצח אנחנו לא פה כדי להפחית את התופעה אנחנו פה כדי למג…  3 אסור לנו להשאיר את הנשים להתמודד לבד במערכה הזו זו מלחמה על הכבוד שלהן על הביטחון שלהן על החופש שלהן ולמעשה…  2 האונס של הילדה באילת הפך לי את הבטן אז הגעתי למחאה בכיכר רבין ובחיי שאני מצליח לחשוב רק על שאלה אחת איפה הגבר…  1 זוכר כל מילה מהשיר הזה גדלתי על מוניקה סקס ולא אשכח מה הרגשתי כשגיליתי שהשיר נכתב על האונס המחריד בקיבוץ שמרת…  את נושא אומן רגיש ככל שיהיה יש לבחון על פי נתונים מקצועיים בלבד תחלואה וסיכונים הצעת החוק שלי לחשיפת הפרוטוקולי…  כתוצאה מהמדיניות הכושלת של הממשלה לשוק העבודה ייקח שנים ארוכות להתאושש אנחנו וילדנו נשלם על מאבקי האגו והמדיניות…  ההייטק הישראלי הוא קטר צמיחה חשוב של המשק במיוחד בצל משבר הקורונה אנו מחויבים למנף את כוחו למען תושבי הפריפריה ול…  בעקבות פנייתי בועדה משרד הבריאות מעדכן שהבוקר יצא קול קורא למעבדות פרטיות לבצע בדיקות קורונה לטסים לחו״ל במקום בתי…  עכשיו בדיון בועדת כלכלה על תקנות התעופה דרשתי שוב מענה לבדיקות קורונה בנתבג גם בדיקות רגילות לפחות עד שיאומצו בדי…  מאה יום ואין שום תוכנית יציאה מהבוץ הכלכלי אני מבין שגנץ לא רוצה לקום לבית ספר ונתניהו עסוק בתיקים הפליליים שלו א…  2 לינור היא בחורה מעוררת השראה שהחליטה לרתום את נסיבות החיים שלה לטובת הקהילה כולה והקימה את עמותת טרנסיות לישראל…  1 נשים טרנסיות היו אלה שפרצו את הדרך לקהילה הגאה החל מגילה גולדשטיין דרך הניצחון של דנה אינטרנשיונל בארויזיון  ל…  הגשתי הצעת חוק להוספת 250 מיליון ₪ לסל התרופות בשנה הבאה ולהעלותו ל750 מיליון ₪ בעקבות הקורונה והשפעותיה הרבות על…  הגשתי אתמול לקבינט הקורונה ולפרופ׳ גמזו מתווה תו סגול ייעודי למסעדות עליו עבדתי עם בכירי ענף המסעדנות ואפידימולוג…  רוצים לעבוד בסייבר שבוע הבא מתחיליםבהייטק בסימן סייבר סדנה ומשרות להרשמה   הגשתי יחד עם יור ועדת כלכלה חכ מרגי הצעת חוק למתן דחיה אוטומטית של שלושה חודשים בתשלום מקדמות לעסקים חדשים תקופת…  חייבים לעצור הכל ולדבר על האונס המחריד באילת עשרות גברים חיללו את גופה ונפשה של ילדה בת 16 על כולנו הגברים לצאת ל…  ממשלת ישראל נכשלה בטיפול במשבר האבטלה החמור למעשה הם אפילו לא יודעים כמה מובטלים יש בישראל שלושה פתרונות שהצעתי…  אין דבר כזה יחסי מין בהסכמה של בת 16 עם עשרות גברים בגירים זה נקרא אונס בכנס calcalist התייחס מנכל משרד הבריאות פרופ חזי לוי לוועדת סל התרופות שטרם הורכבה על אף שאנחנו כבר בסוף אוגוסט…  הממשלה מיהרה להכריז על פתיחת השמים כדי לגזור קופון אבל גררה רגלים בהקמת מעבדת בדיקות קורונה בנתבג יעד משוער אמצע…  2 עוד ביקשתי שהתקנות יובנו בצורה דיפרנציאלית כלומר שחובת ההיערכות של שדות התעופה והיקפה תיגזר ממספר הנוסעים אין…  1 היום דנו בועדת כלכלה בתקנות הקורונה החדשות לשדות תעופה וכלי טיס תקנות נרחבות שהונחו על שולחן הועדה רק אתמול דר…  יושב ברצף דיונים בועדות הכנסת שמטרתם לנסות ולסייע לציבור שקורס כלכלית באותו זמן קרבות אגו של כחול לבן והליכוד מונ…  שוק העבודה משתנה ויש צורך לייצר משוואות חדשות בין המעסיקים לעובדים וביניהם למדינה לעבודה מהבית יש מחיר יומיומי המג… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הצטערתי לשמוע הבוקר על פטירתה של הרבנית מרים לוינגר זל הרבנית הייתה אישה מיוחדת במינה אמיצה ומסורה שהקדישה את ח…   רוצים לראות ראשונים את כל הסרטונים של שר הדיגיטל דודי אמסלם    לקבל את כל הפוסטים והציוצים   ⏪ אתם מוזמנים להצ…  פְּתַח לָנוּ שַׁעַר בְּעֵת נְעִילַת שַׁעַר כִּי פָנָה יוֹם  מאחל לכל עם ישראל גמר חתימה טובה צום קל ומועיל ורק…  מר מנדלבליט האם תאפשר לנו להתפלל מחר כל נדרי בבתי הכנסת בדיוק כמו האנרכיסטים המופקרים הערב בבלפור גמר חתימה טוב…  שבת פרשת האזינו  שבת תשובה רגע לפני יום הכיפורים יש עוד זמן לבקש סליחה מחילה וכפרה מהקדוש ברוך הוא מהמשפחה וה…  bezalelsm תודה לך בצלאל חתימה טובה ורק בריאות  אני צריך ללמד אותך מה ההבדל בין תפילה להפגנה מר מנדלבליט אתה לא מתבייש להשוות בכלל  צילום אורן זיו תראו איך מתנהגים אדוני הארץ שבזים להנחיות ועושים הכל רק כדי להפיל את רהמ ולעזאזל הבריאות שלנו התנהגות עבריינית…  איך נולד חטא החרגת ההפגנות מחוק הקורונה מנדלבליט ובגץ החליטו שההפגנות זה הדבר הכי חשוב בישראל  מסתבר שבשמאל יש הרבה מומחים לקורונה ואפידמיולוגים הם גם שואלים את הוירוס אם הוא מדביק במרחב הפתוח ובטוחים שלא…  עם ישראל ישב סביב שולחן החג עם המשפחה הגרעינית בלבד בלי ההוריםסביםסבתות אבל רק אדוני הארץ חבורת שמאל אנרכיסט…  תִּכְלֶה שָׁנָה וְקִלְלוֹתֶיהָ תָּחֵל שָׁנָה וּבִרְכָתָהּ  מאחל לכל עם ישראל שתהיה זו   שנה של בריאות איתנה צמיחה…  בחרתי לעלות לנאום במליאה כמה ימים לפני ראש השנה הבא עלינו לטובה ולברכה ולנצל את ההזדמנות כדי לומר כמה דברי תורה…  הרמנו הבוקר כוסית לחג עם כל עובדי משרד הדיגיטל הלאומי והשנה באמצעות הזום כפי שההנחיות מחייבות אין ספק שזה קשה לא…  עוֹשֶׂה שָׁלוֹם בִּמְרוֹמָיו  הוּא יַעֲשֶׂה שָׁלוֹם עָלֵינוּ  וְעַל כָּל יִשְׂרָאֵל  וְאִמְרוּ אָמֵן  היסטוריה 🤝…  ערכתי היום סיור בתעשייה האווירית ראיתי חברה ישראלית מפוארת ומתקדמת עם ידע עסקי ומדעי גדול חשוב ופורץ דרך לתעשייה…  השמאל פשוט לא יכול לראות את נתניהו עושה שלום תמורת שלום שלום הסטורי ותקדימי שמפרק את תזת השמאל שרק עי מסירת חלקי…  וזה חברים כל ההבדל על רגל אחת   שבת שלום ורק בריאות לכל עם ישראל   ערכתי היום סיור ביחידה להגנת הסייבר הממשלתי יה״ב    יש חשיבות גדולה בכניסתם של השלטון המקומי הרשויות המקומיות ה…  ערכתי היום סיור מקצועי במענה ממשלתי מרכזי 1299  אני רואה חשיבות גדולה בהצטרפות כל המשרדים הממשלתיים לפלטפורמה האחו…  שר ההגנה על משרד המשפטים מר ניסנקורן אתה שפוט של מנדלבליט אתה נושא כליו של מנדלבליט  זה התפקיד היחידי שלך את…  מנדלבליט וחיות החליטו שגם אם כל המדינה בסגר ההפגנות אף פעם לא יפסקו הפקרות אמון הציבור נפגע כי הוא רואה אלפים מ…  ערכתי היום סיור בחברה הממשלתית רפאל וקיבלתי סקירה מקיפה על פעילותה אין ספק שרפאל משדרת חדשנות שהיא פאר היצירה היש…  מדהים באיזו מהירות שחררו עונה שניה לסדרה מָנָאיֶיכּ   רם בן ברק המיועד לראשות יש עתיד בעיני עצמו אתה פשוט איש חצוף רדוד ועז מצח מי אתה בכלל שתקרא לרהמ נוכל אתה…  היום חגגנו את השיחה המיליון למוקד המענה הממשלתי המרכזי מוקד מקצועי יעיל ומסביר פנים שנועד לתת מענה לכל אותן אוכלו…  בעזרת השם  ביחד נתגבר על הכל  שבת שלום ומבורך   התרגשתי לבקר היום בהילמה פרויקט ערכי וחברתי המחבר בין נוער שסיים תיכון ועוסק בטרנספורמציה דיגיטלית לאוכלוסיות שאינ…  אני מבין שחהכ רם בן ברק לא מצליח להשתלט על היצרים שלו  קודם הוא קרא לליכודניקים שחורים ועכשיו לכנות את ראש הממ…  פתחתי היום את שנת הלימודים בסיור מקיף בקריית אתא  קריית אתא מתקדמת בצעדי ענק בתחום הלמידה ההיברידית והיכולות היו…  מבקש לאחל לכל תלמידות ותלמידי ישראל שנת לימודים מוצלחת מהנה ופוריה יישר כוח למנהלים למורים ולגננות לשר החינוך ו…  سلام Peace שלום 🤝  ישראל חברי היקר  למרות רעשי הרקע מבית  ומבחוץ  כבר אמר מי שאמר הכלבים נובחים והשיירה עוברת לֵךְ בְּכֹחֲךָ זֶ…  הביריונות והאנרכיה של השמאל לא יכולים לעבור כך בשתיקה  זו הפקרות לית דין ולית דיין  אדוני הארץ ממשיכים בעבריינ…  אחרי כל כך הרבה דגים חריפים צריך לדאוג גם לקינוח מתוק לשבת קודש   שבת שלום ומבורך לכל עם ישראל   במקום רפורמה עובדים עלינו בעיניים מחש צריכה לצאת ממשרד המשפטים ולחקור גם את הפרקליטות ולא רק את השוטרים אבל ני…  משתתף בצערה הכבד של משפחת אוחיון מפת אישה שאיבדה בעל 4 ילדים שאיבדו אבא הלב כואב הרב שי אוחיון איש חסד ואמת…  באמת שאנחנו מודים לגברת שקד רק חבל שלא המלצתם על נתניהו לנשיא בפעם הקודמת אז לסמוך עליכם קצת קשה כרגע נקוה בכל…  ערב תרבותי של שירה בציבור עם מקהלת השמאל הישראלי הנאור בניצוח התקשורת ובחסות הבגצ  יצאנו השבוע לראות את ישראל היפה והקסומה  יש לנו עם מופלא שבעזרת אופטימיות נחישות ותקוה בת שנות אלפיים חזר למולדתו…  limorh6 תודה לימור גם אם נתניהו יביא הסכמי שלום עם כל העולם והסכמי סחר בלתי נתפסים שישרתו בעיקר את העשירים בשמאל עדיין הם לא יפרגנו…  כשר האחראי על רשות החברות ערכתי היום סיור מקצועי בנמל חיפה נמל חיפה הוא אחד הנמלים המשמעותיים בישראל  מודרני יעי…  בשמאל יודעים את האמת אבל רק בשקרים הם חושבים שינצחו את נתניהו  אותו בגץ אותם שופטים אפילו רחובות ירושלים לא השתנו רק שהזכויות המקוצצות למפגיני הימין מול רבין לעולם לא יהיו כ…  אני כבר לא יכול עם כל הבידוד המדיני הזה  שלום עושים תמורת שלום או שלא עושים בכלל  הריבונות שמי ששם אותה על השולחן זה רהמ בנימין נתניהו נשארה ועודנה על השולחן אין שום סיבה בעולם שלחברי הכנסת אבו…  מר לפיד אתה אומר שבענייני ביטחון תתיעץ עם בוגי בנושאים מוניציפליים עם מאיר כהן בנושאי איראן עם רהמ נתניהו ובכל…  מזל טוב ויומולדת שמח לזאב רווח חברי היקר שהגיע לגבורות אחד האמנים האהובים עלי מוכשר ומגוון מייצג נאמנה את ישראל…  כואב את לכתה של פרופסור רות גביזון זל כלת פרס ישראל ואחת הנשים המרשימות המוסריות והמבריקות שהיו למדינת ישראל בעו…  קיבלתי סינר חדש ליום ההולדת  סיבה טובה לחזור ולהכין דגים מרוקאים לשבת   שבת שלום ומבורך לכולם   אני מברך את רהמ בנימין נתניהו על הסכם השלום המכונן וההסטורי עם איחוד האמירויות  אני שמח שרהמ הדגיש שהתוכנית להחי…  לא יתכן שנבחרת הדירקטורים של מדינת ישראל שהביאו לפיד ויוגב תהיה ברובה רק מאזור חיוג רעננהכפס בני 60ואשכנזים…  אתם יודעים את האמת כל אזרחי ישראל יודעים את האמת אתם לא מצליחים לנצח את נתניהו בקלפי אז אתם בשמאל מעלים חוקים אנ…  צוות הלשכה לוקח היום פיקוד על הציוצים  רק כדי לברך את דודי ביומולדת שמח  🥳 האיש עם לב הזהב שכולו נתינה ואכפתיות…  אם אלה הפגנות ספונטניות אז אני מכין כל יום שישי גפילטעפיש 🤣  איך אומר נחמיה שטרסלר  שלא יעבדו עליכם  בושה  מסתבר שיש אנשים שגם בתקופה זו עושים פוליטיקה קטנה על הגב של הציבור ומנסים לעשות עלינו סיבוב לא בבית ספרנו  gtgt כנ…  המסר העדכני של הפגנת השמאל ״לובשי המדים  אל תאמרו אנו ממלאים רק פקודות אמרו לא לדיקטטורה״ ובאופן לא מפתיע מנדלב…  כואב את לכתו של אחד מגדולי הדור הרב עדין אבן ישראל שטיינזלץ זל פרויקט חייו הרב שהיה חתן פרס ישראל היה ביאור נר…  שבת של תקווה  לעם ישראל ולאנושות כולה   שבת שלום ורק בריאות   סיירתי הבוקר במרכז החדשנות הדיגיטלי של מרכז השלטון המקומי יחד עם חברי חיים ביבס רהע מודיעיןמכביםרעות ויור  מרכ…  ניסיתם תיק 1000 2000 ו4000 אבל זה לא מחזיק מים הציבור מבין שהכל תפור אז עכשיו מבוקר עד לילה צוללות צוללות אבל…  haskioren ofirsofer bezalelsm  bezalelsm ofirsofer בצלאל תבדוק שאין לדגים ניגודי ענינים 🤣 בתיאבון יישר כוח ענק לכל מנהלי ועובדי משרד הדיגיטל הלאומי על תוכנית מקצועית ויעילה בטוחה ונחוצה ביותר יוצאים לדרך מתקדמי…  barzik gtgt אז אני במקרה הזה רגוע ואתן את הפרטים שלי אם אתם מאוד מודאגים  תצהירו שאין לכם מיילטלפון ותבקשו שישלחו לכם את הדיוור במיי… מי שעל ראשו מרוחה חמאה שלא ייצא לשמש במקום לדרוש ועדת חקירה בנושא הצוללות מוטב לחקור מחדש את פרשת מנדלבליטאשכנ…  אתם הפסקתם לסקר את הההפגנות אתם מפיקים אותם זה מטורף נוסבאום עומד ומביים את האירוע שעה וחצי מהדורה מתוכה שעה…  AvrahamAltman TzipiHotovely חוטובלי ברכות ואיחולי הצלחה מרובה לחברתי לסיעה ולממשלה ציפי חטובולי עם מינויה לשגרירת ישראל בבריטניה אין לי ספק שמדינת י…  אנחנו התחנכנו כביתרים ישרים והגונים  אבל השמאל האליטיסטי הקלאסי עדיין חושב שאנחנו אוכלי עשב ולא יודעים קרוא ו…  ערב ט באב ואתם ממשיכים בהסתה ובשיסוי כנגד רהמ כבר 4 שנים של שנאת חינם  בדיוק הסיבה שבגינה חרב הבית העם יודע את…  את זה לעולם לא תראו בערוצי התעמולה הישראליים השמאל הישראלי   עאלק מתורבתים  התכנית להאצת השירותים הדיגיטליים לציבור היא מעבר לעידן חדש ללא תורים וטרטורים בירוקרטיה וכאבי ראש מהפכה של ממש…  בעקבות הפרת הסיכום בנוגע לחוק ההמרה הודעתי לשר ניסנקורן כי אין בכוונתי להעביר השבוע חוקים בועדת השרים למעט חוק…  chaimlevinson בשמחה הצלחתך  הצלחתנו  ואני בטוח שתעשה ותצליח בעזרת השם שבת שלום ומבורך ורק בריאות לכל עם ישראל   ההכנות בעיצומן לקראת שנת הלימודים הבאה  משרד הדיגיטל הלאומי ומשרד החינוך משתפים פעולה בצורה מואצת על מנת לפתח תוכנ…  בעיצומו של משבר הקורונה כחול לבן גוררים את מדינת ישראל לבחירות ביזיון אחד גדול  הבטחתי  וקיימתי   שמח שהצלחתי לדאוג לכלל האזרחים ולאוכלוסיות החלשות בפרט  לקבל 25 מיליון שח חזרה מחברות התקשור…  היום כט בתמוז אנו מציינים 80 שנה לפטירתו של מורנו ורבנו ראש ביתר מנהיג האצל ומכונן הציונות הרוויזיוניסטית ז…  היום ערכתי ביקור ברשות התקשוב הממשלתי  ראש הרשות סקר את הפעילות הענפה בה עוסקת הרשות לטובת שיפור השרות לאזרח כגון…  מר גבי אשכנזי אני מקווה שלא תמליץ עליו גם להדליק משואה   לשמאל אדוני הארץ  מותר הכל  ההפגנות האלימות של השמאל האנרכיסטי   שמנסה לרכב על מצוקה אמיתית לא יסיטו את  המיק…  העבריינות האלימות והאנרכיה שהשמאל מוביל כעת בישראל הם פשיטת רגל מוסרית של כל מי שקוראים לעצמם שומרי הסף של שלטון…  הפרטת דואר ישראל כפי שהצגנו בטקס הבוקר היא אחד המהלכים המשמעותיים ביותר בסדרה של הפרטות שאנו מובילים בקרב החברות…  כולי תקווה כי התוכנית הכלכלית החדשה שהציגו ראש הממשלה ושר האוצר תיתן בעזרת ה רשת ביטחון ותסייע לשכירים לעצמאיים…  מברך ומצדיע למינוי הראוי והאיכותי של עמית אדרי למנכל משרד החינוך עמית הוא אדם מבריק איש של אנשים שיודע גם לנהל…  המשטרה לא תחקור את ההקלטות של מנדלבליט ואת שיבושי החקירה היא לא תחקור את ההדלפות מהפרקליטות ומן הסתם מהמשטרה עצמה…  קורונה או לא קורונה זה לא משנה  החכ המעופף יאיר לפיד תמיד יבוא בטענות ויאשים את רהמ במצב זה הזכיר לי את הבדיחה…  חברים שלא יערבבו אתכם אין מחלוקת של שיוויון זכויות בישראל לכל אזרח במדינה יש זכויות וחובות וכיוצב התנגדות המ…  guyro13 בהחלט הימים האחרונים מדאיגים קצת את כולנו ומחובתנו כעת לשמור על הכללים ועל ההנחיות ולדאוג לבריאותינו מאחל לכם ליקירכם…  היום ערכתי סיור עם שר החינוך יואב גלנט במטה ישראל דיגיטלית לבחינת והתנעת פרויקט הלמידה מרחוק דווקא התקופה הבלתי א…  NaorIhia עד כאן באמת עד כאן  כמה נמוך ושפל עוד תרדו בושה וחרפה שלצערנו הציבור מממן במאות מיליונים התפרת וגם השפלת  מצד אחד היועמש תופר את התיקים ומצד שני מונע מרהמ הגנה משפטית בסיוע פרטי מופת של צביעות הפ…  הגעתי הבוקר מלווה במנכל משרדי אשר ביטון וצוות לשכתי לסיור היכרות במשרדי רשות החברות כשר הממונה על הרשות העבודה…  nurro1 גברתי זה נמרוד אלירן סבח יועץ התקשורת של השר מאחר שחסמת אותי בפחדנות ואני לא יכול להגיב לך בשמי אז אני…  עופר יותר שפל רדוד וחמור מזה לא יהיה  מרצ והרשימה המשותפת החליטו לעשות כמו הטבחים בצבא שבוע שבוע על אותן הצעות איאמון–  רק קחו בחשבון שאני כאן כדי לענ…  שבת שלום ומבורך לכולם   ביחד עם הצבא התקשורתי המגויס אתם ממשיכים לנסות להדביק לנתניהו את סיפור הצוללות   עלילת הדם האהובה עליכם גם אתם כ…  ארץ ישראל הקטנה שייכת לעם היהודי זוהי נחלת אבותינו הבטחה אלוקית שקיבלנו כאן נקבץ גלויות ויהודים מכל הגלובוס שיח…  שיאי האבסורד פשוט נשברים  בסיכומו של עניין האופוזיציה עוד תדרוש מנתניהו לשלם כסף למדינה על מילוי תפקידו כראש הממש…  attilus עיתונות חופשית  נו באמת כאן איבדת אותי  נמסר לי עי ערוץ הכנסת שהראיון הזה נעשה עשרה ימים אחרי שהממשלה הושבעה בכל מקרה מפריע לי שהמקרה הוסתר והושתק וש…  לעופר שלח מותר לאיים ולקלל להתנהג כבריון לפוצץ ראיון לקרוא לכתב אפס וכלומניק ועולם כמנהגו נוהג אם זה היה דודי…  AviRabina השר דודי אמסלם על ההשתלחות של עופר שלח במשה גלסנר ואבי בלום בערוץ הכנסת הוא ראה שני מנחים חרדים חשבת לצפח  אותם ולא י… שיאי הבושה והחרפה נשברים ערב אחר ערב ואחכ מתפלאים למה תוקפים בימין את התקשורת המוטה      אצלי אין אחד בפה ואחד בלב  אני אומר את מה שאני חושב וחושב את מה שאני אומר תמיד את האמת תמיד מהלב  בלי פחד ובלי…  סיור ראשון וישיבת עבודה במיזם ישראל דיגיטלית נעשים כאן דברים גדולים ונהדרים והיד עוד נטויה בעזרת השם  נעשה ונצל…  מה לעשות זו האמת ליברמן אתה חברת ליזבק מהללת השהידים אתה מעז להגיד שהדרדרתי לזנות בעוד אתה מתמסר לשותפים החדשי…  תמיד שואלים אותי מה יש לי נגד התאגיד ומדוע לדעתי צריך לסגור אותו לאלתר ההחלטה האומללה של קובלנץ להוריד מהמסך את הת…  אני כבר לא יכול לחכות למהדורה המרכזית של חדשות 13 הערב ולחשיפות המרעישות של דובר הפרקליטות  האם הפעם זה על יאיר שה…  chaimlevinson זו המשמרת של אופיר  ofirsofer אני מבקש תמלוגים  נראה טוב שבת שלום ומבורך אופיר יקר ברוכה הבאה שבת המלכה שבת שלום ומבורך לכולם   הערב נציין 72 שנה לקרב על האלטלנה שבו נפלו 16 לוחמי אצל קרב מיותר עקוב מדם שאחרי טראומת הסזון כמעט והביא למל…  לא תוכלו לברוח לעולם לא יהיה לכם איפה להסתתר אני מצדיע לכוחות הביטחון לצהל ולשבכ על לכידתו של המחבל הנתעב שרצ…  EliranNimrod כמה גועל באישה אחת  איזה פוסט דוחה מתנשא וגזעני אלה בדיוק הפוסטים שגורמים לך להקיא ולהבין איזו שנאה פתלוגית ולא אנוש… התשובה הציונית היחידה שלנו לאנשים שמניפים דגלים אדומים ודגלי אשף במרכז תא  החלת הריבונות הישראלית על חבלי מולדת…  אחרי שבוע כזה חריף אין כמו דג מרוקאי חריף במיוחד לשבת שבת שלום ומבורך   לא עדכנו אותי שמונה שר לחלוקת ציונים לשרים אחרים אני מבקש משרים שרק אתמול קיבלו נייר מכתבים חדש שלא יטיפו לי מו…  מי אתה מר סגלוביץ שתתקוף את ראש ממשלת ישראל ותקרא לו מושחת טול קורה מבין עיניך אם אתה רוצה לדבר על שחיתות תסתכל…  שיהיה לכולנו ללא יוצא מן הכלל חג של אושר ותקוה פריחה וצמיחה אחדות ואהבה חג שבועות שמח לכל עם ישראל    צריך קצת לאזן   באתי להתפלל על כל האנשים החשוכים הממורמרים והחמוצים  שיראו קצת את האור את האושר החיוך והשמחה הכרת הטוב שיש בעם…  YakiAdamker משתתף בצערכם כואב עצוב ובלתי נתפס יהי זכרה ברוך הם יודעים את האמת הם מבינים שהכל תפור שההליך זוהם שעדי התביעה נסחטו הפרשן של קשת יודע שגם נגדי העלילו אבל לא…  EliranNimrod בסופו של דבר הביאו ראש ממשלה מכהן לבית משפט בישראל בגלל כתבה אוהדת אם זה לא ביזיון אז מה זה  אנחנו כאן לצד רהמ בגלל משפט השדה המכוער שעושים לו בתקשורת בגלל ההליך המזוהם ההדלפות המגמתיות והלחץ הפסול על העדי…  ירושלים   העיר הכי יפה מרגשת וקסומה בעולם בירתו הנצחית של עם ישראל האהובה עלי יותר מכל שחוגגת בהדר ובגאון 53 שנ…  האמת שלא הספקתי לצפות בתחקיר אבל המתח הורג אותי  רהמ יצא אשם או זכאי  🤷‍  החלטתי להביא למינוי את אשר ביטון למנכל משרדי החדש אשר ביטון שימש כמנהל אגף תכנון והנדסת ספקטרום במשרד התקשורת וב…  yanircozin אהבתי NevoTrabelsy השר דודי אמסלם שר הדיגיטל והסייבר הלאומי מביא למינוי את אשר ביטון כמנכל משרדו החדש GLZRadio  gedery4 תודה רבה ממשלת אחדות לאומית היא צו השעה מה שהעם צריך ורוצה אחרי שנה וחצי של כאוס פוליטי ומגפת הקורונה העם משווע ליציבות ש…  BGintzburg בהחלט היום נעשה רוטציה  דוד אמסלם החלופי יהיה אחראי על הבישולים לשבת  שבת שלום ומבורך לכולם  yairlapid יאיר אולי בגלל הקורונה תאלץ לבלות יותר בארץ הקודש ופחות בחול  אז יש סיכוי שנתראה בכנסת שבת שלום  אני מודה לרהמ על האמון שנתן בי וגאה להיות השר המקשר בין הממשלה לכנסת והאחראי על מיזם ישראל דיגיטלית רשות התקשוב…  אני מודה לרהמ על האמון שנתן בי וגאה להיות שר בממשלת ישראל אני נכנס לתפקידי החדש בחרדת קודש ומבטיח למלא אותו בנאמ…  האזנתי הרגע לראיון קורע הלב עם אביו של סמר עמית בן יגאל זל ברשת ב איזו טרגדיה כמה עצב וצער בן יחיד שמותיר א…  רות היקרה השבוע רק התחיל  barzik dudiamsalem ועכשיו עם האייטם ב Haaretz  מן הסתם אני לא הולך להיות הכי פופולרי בקרב הטוקבקיסטים היום  אבל כאמור אם הייתי רו… danatenenbaum לא טעית גם לעסקים קטנים יש טלפונים נייחים Meravbenari  חבל שכל מיני ציניקנים מזלזלים בטלפון הנייח בישראל יש כ2 מיליון קווים כאלה רובם במגזר החרדי החלש כלכלית בתקופת ה…  OrakelMoor joel88783887  החלטתי להוזיל באופן משמעותי את חשבונות הטלפון הנייח שלנו ההחלטה המתבקשת והמתחשבת נועדה במטרה למנוע חיוב עודף ולא ה…  אנחנו מתקרבים לימות המשיח  מי היה מאמין שגיא פלג ואנוכי נסכים על סוגיית התנהלות הבגץ שבת שלום ומבורך לכולם   שמח להודיע כי הארכתי  בחודש נוסף את הפחתת התשלום עבור דקות חורגות בנייד נושא המשפיע באופן משמעותי על כלל הציבור וב…  פשוט ביזיון  איך מרשה לעצמה רשת 13 לשדר פרומו לתוכנית הישרדות ובו הצעה לשריפת ספר תהילים    דרשתי מיור הרש…  לא נאפשר לשום ערוץ מיסיונרי לפעול במדינת ישראל בשום זמן ובשום מצב  היועץ המשפטי לממשלה אני אעמוד בראש הפרקליטות מנדלבליט  אולי תהיה גם שר המשפטים ונסגור לגמרי את העסק 🤦‍  החתולים ממשיכים לשמור על השמנת של מנדלבליט  ואחרי זה מתפלאים שאנחנו רוצים לחוקק את פסקת ההתגברות שאין מוצדקת ממנה חג עצמאות שמח ישראל  אֶרֶץ אַל תְּכַסִּי דָּמָם    יום הזיכרון לחללי מערכות ישראל הוא יום קשה כואב ומורכב  אנו מתייחדים עם זכרם של הנו…  gtgt של תאגיד השידור מעבר לצק של של כ750 מיליון שח בשנה אין לשר התקשורת ולמדינת ישראל שום אמירה ויכולת לעצור את…  אנחנו עדים כאן לליקוי מאורות חמור טקס אלטרנטיבי ושנוי במחלוקת בלשון המעטה ליום הזיכרון לחללי מערכות ישראל מקבל…  חודש של אביב ופריחה חודש של עצמאות ושמחה  חודש בו נחגוג את לג בעומר ואת יום שחרור ירושלים חודש בו בעזרת השם גם…  איזו טרגדיה נוראית  הרב אברהם ישעיה הבר יור מתנת חיים הלך הערב לעולמו  איש צדיק ונדיר שחתום על הצלתם של מאות ב…  כָּל יִשְׂרָאֵל עֲרֵבִים זֶה בָּזֶה  יוזמה מרגשת ומדהימה  דואר נע ושיטור עירוני נוף הגליל בשיתוף רהע רונן פלוט…  התרגשתי מאוד לשמוע שנשיא ומייסד איחוד הצלה אלי ביר הבריא מקורונה והמריא לפנות בוקר ממיאמי וברגעים אלה ממש עושה ד…  Theengineer161 צודק chaimlevinson תתאפק חיים EmkGITxkH13gDrZ ruthelbaz בשמחה רבה שי יקר שבת שלום ומבורך ruthelbaz לפעמים חלומות מתגשמים danny26606446 bezalelsm בצלאל זה אח etschub יכין פיצות  bezalelsm באהבה אחי היקר שבת שלום ומבורך  kobiafl תודה בורקס בשר יותר טוב מפיצה  שבת שלום ומבורך לכולם   השנה במקום לחגוג מימונות מפוארות שמחות ומרובות משתתפים  נאלץ לחגוג רק בחוג המשפחה המצומצם החג המיוחד הזה שממשי…  כמה כואב ואיך נשבר לי הלב לשמוע על לכתו של חבר יקר וזמר גדול ומיוחד נתנאל נגר זל  את נתנאל אני מכיר שנים רבות ב…  etschub תשקיע ותברר לא תתאכזב מבטיח הצטערתי לשמוע על פטירתו של הרב הראשי לשעבר הראשון לציון הרב אליהו בקשי דורון זצל והוא בן 79 שנים בלבד תמיד הער…  אני רואה בחומרה רבה את העובדה שמספרים המוקצים לצורך הודעות רשמיות מטעם משרד הבריאות אינם  פתוחים לכלל המגזרים הניס…  offircohen לא יהיה אתה יכול להיות רגוע חג שמח וכשר שמרו על עצמכם  בצל משבר מגפת הקורונה והעלייה בהיקף הצריכה של דקות שיחה ובעקבות החשש מחריגה משמעותית בעלויות    אישרתי הפחתת עלוי…  מאחל לכם ולבני ביתכם חג אביב כשר ושמח  חג של שמחה פריחה ותקווה חג שבו יתגשמו כל משאלות ליבנו לטובה ולברכה  וברו…  לפחות בתחום התקשורת אפשר כבר לחזור כמעט לתפקוד מלא בתקווה שהקורונה תיעלם מהעולם ומחיינו שכל המשק יעמוד שוב על…  כמו רוב חלקי הציבור גם אני קיבלתי בשאט נפש את דבריה החמורים של רינה מצליח נגד הציבור החרדי זוהי שעת רצון שעה של…  שַׁבַּת הַגָּדוֹל  רגע לפני פסח יצר החירות טבוע בעם ישראל עמוק בתוך הלב ואותו היצר הוא שיעזור לנו לצאת מהמשבר…  ככה זה כשיש עודף אגנדה וקונספירציות הזויות רק בריאות  וקודם כל דוגמא אישית   Mikikapl הנושא בטיפול מתקדם יטופל בימים הקרובים GidonDokow תוהה אם יש קשר בין זה לזה  YairNetanyahu הוא רק מחדד לי יותר ויותר למה אנחנו צריכים תקשורת הגונה ומאוזנת מר דרוקר אני מקווה שלא שללתם לי את אישור הכניסה לתל אביב  לֹא־אִ֮ירָ֤א רָ֗ע כִּי־אַתָּ֥ה עִמָּדִי  יש הרבה כבוד למכון ויצמן אבל זה לעולם לא בא במקום האמונה והתפילה לבורא עו…  על הבוקר אני וצוות ההנהלה הבכיר של משרד התקשורת בפגישת וידאו בzoom ממשיכים בהערכות המצב על מנת לשמור על יציבות מע…  GLZRadio השר dudiamsalem לamirivgi החלטת בגץ טיפשית צילום יונתן זינדל פלאש90  הנוסע המתמיד זה שלא מגיע כמעט למליאה או לוועדות שבאופן אירוני חרד ככ לתפקוד הכנסת ולדמוקרטיה  מוכיח שוב כמה ט… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מרכינה ראש יחד עם כל בית ישראל על פטירתה של הרבנית מרים לוינגר עליה השלום שהייתה לאם התיישבות היהודית בחברון ואשר…  מחכה לכם אצלי בסוכה יהיה שמחgtgtgt  גמר חתימה טובה  אשוחח מיד עם גדעון אוקו במשדר N12News אשוחח מיד עם עודד בן עמי ב N12News מוזמנים לצפות הגיע הזמן שגורמי אכיפת החוק 